--- a/test design technic daongochuy.xlsx
+++ b/test design technic daongochuy.xlsx
@@ -163,7 +163,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F58" authorId="1" shapeId="0">
+    <comment ref="F63" authorId="1" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -187,7 +187,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G58" authorId="1" shapeId="0">
+    <comment ref="G63" authorId="1" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -211,103 +211,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F59" authorId="1" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>Nguyen Dao Thi Binh:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-Bug ID: 13059</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="G59" authorId="1" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>Nguyen Dao Thi Binh:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-Bug ID: 13059</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="F64" authorId="1" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>Nguyen Dao Thi Binh:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-Bug ID: 13059</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="G64" authorId="1" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>Nguyen Dao Thi Binh:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-Bug ID: 13059</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="F67" authorId="1" shapeId="0">
+    <comment ref="F72" authorId="1" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -328,54 +232,6 @@
           </rPr>
           <t xml:space="preserve">
 Bug ID: 13051</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="F82" authorId="1" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>Nguyen Dao Thi Binh:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-Bug ID: 13159</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="F84" authorId="1" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>Nguyen Dao Thi Binh:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-Bug ID: 13159</t>
         </r>
       </text>
     </comment>
@@ -1138,7 +994,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1167" uniqueCount="440">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1261" uniqueCount="498">
   <si>
     <r>
       <t xml:space="preserve">Security Classification: </t>
@@ -2837,64 +2693,258 @@
     <t>A18:I19A18:G19A18:I19A18:I18A17:J18A18:N18B19A17:I18A18:M18A18:L18A18:K18A18:J18A18:I18</t>
   </si>
   <si>
-    <t>When the original price less than 1,000,000 and more than 1000</t>
-  </si>
-  <si>
-    <t>When the original price less than 1,000,000,000 and more than 1,000,000</t>
-  </si>
-  <si>
-    <t>When the max price is 999,999,999</t>
-  </si>
-  <si>
     <t xml:space="preserve">2, Display Discounted Price </t>
   </si>
   <si>
     <t>1. Display Original Price</t>
   </si>
   <si>
-    <t>When the discounted price less than 1,000,000 and more than 1000</t>
-  </si>
-  <si>
-    <t>When the discounted price less than 1,000,000,000 and more than 1,000,000</t>
-  </si>
-  <si>
-    <t>When the original price less than 1000 and more than 1</t>
-  </si>
-  <si>
-    <t>When the discounted price less than 1000 and more than 1</t>
-  </si>
-  <si>
-    <t>The decimal part in discounted price is 0.5</t>
-  </si>
-  <si>
-    <t>The decimal part in discounted price between 0.51 and 0.99</t>
-  </si>
-  <si>
-    <t>The decimal part in discounted price between 0.1 and 0.49</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3, Display Picture </t>
-  </si>
-  <si>
-    <t xml:space="preserve">No image uploaded </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Each photo displayed on big frame </t>
-  </si>
-  <si>
-    <t>transition between each photo</t>
-  </si>
-  <si>
-    <t xml:space="preserve">"&lt;" button in the first picture </t>
-  </si>
-  <si>
-    <t xml:space="preserve">"&gt;" button in the last picture </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Initial sign when loading page </t>
-  </si>
-  <si>
-    <t xml:space="preserve">maximum picture displayed is 5 </t>
+    <t xml:space="preserve">Currency Check </t>
+  </si>
+  <si>
+    <t>Original Price is 1,000,000</t>
+  </si>
+  <si>
+    <t>Original Price is 999</t>
+  </si>
+  <si>
+    <t>đ5000</t>
+  </si>
+  <si>
+    <t>1, Select any product then check displaying of currency in ViewProduct screen</t>
+  </si>
+  <si>
+    <t>Original Price from 1 to 999</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Verify that number with no comma </t>
+  </si>
+  <si>
+    <t>d500</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Select a product then check displaying the price in the range of 1 to 999 in ViewProduct screen </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Select a product then check displaying the price of 999 in ViewProduct screen </t>
+  </si>
+  <si>
+    <t>d999</t>
+  </si>
+  <si>
+    <t>Verify that currency is d</t>
+  </si>
+  <si>
+    <t>Original Price from 1,001 to 999,999</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Verify that number with 1 comma </t>
+  </si>
+  <si>
+    <t>d1,000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Select a producr then check displaying price in the range of 1,001 to 999,999 in ViewProduct screen </t>
+  </si>
+  <si>
+    <t xml:space="preserve">No comma </t>
+  </si>
+  <si>
+    <t xml:space="preserve">1 Comma </t>
+  </si>
+  <si>
+    <t>Original Price is 999,999</t>
+  </si>
+  <si>
+    <t>d999,999</t>
+  </si>
+  <si>
+    <t>Original Price is 1,000</t>
+  </si>
+  <si>
+    <t>d5,000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2 comma </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Select a a product with a price of 1,000,000 then check displaying in ViewProduct screen </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Verify that number with 2 comma </t>
+  </si>
+  <si>
+    <t>d1,000,000</t>
+  </si>
+  <si>
+    <t>Original Price ifrom 1,000,001 to 999,999,999</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Select a product with price in the range of 1,000,001 to 999,999,999 then check display in ViewProduct screen </t>
+  </si>
+  <si>
+    <t>d5,000,000</t>
+  </si>
+  <si>
+    <t>Original Price is 999,999,999</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Select a product with price of 999,999,999 then check display in ViewProduct screen </t>
+  </si>
+  <si>
+    <t>d999,999,999</t>
+  </si>
+  <si>
+    <t>Select any product then check displaying of currency in ViewProduct screen</t>
+  </si>
+  <si>
+    <t>Discounted Price from 1 to 999</t>
+  </si>
+  <si>
+    <t>Discounted Price is 999</t>
+  </si>
+  <si>
+    <t>Discounted Price is 1,000</t>
+  </si>
+  <si>
+    <t>Discounted Price is 999,999</t>
+  </si>
+  <si>
+    <t>Discounted Price from 1,001 to 999,999</t>
+  </si>
+  <si>
+    <t>Discounted Price is 1,000,000</t>
+  </si>
+  <si>
+    <t>Discounted Price ifrom 1,000,001 to 999,999,999</t>
+  </si>
+  <si>
+    <t>Discounted Price is 999,999,999</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rounded number </t>
+  </si>
+  <si>
+    <t>Check rounding function - if discount price is a float with format x.y when y&gt;5</t>
+  </si>
+  <si>
+    <t>Check rounding function - if discount price is a float with format x.y when y=5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Check rounding function - if discount price is a float with format x.y when y&lt;5
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Check rounding function - if discount price is a float with format x.y when y=0
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Select a product then check displaying the Original Price of 999 in ViewProduct screen </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Verify that number stay unchanged </t>
+  </si>
+  <si>
+    <t>Verify that number is rounded up to x + 1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Verify that number is rounded down to x-1 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Verify that number is rounded up to x + 1  </t>
+  </si>
+  <si>
+    <t>d500.7</t>
+  </si>
+  <si>
+    <t>d500.5</t>
+  </si>
+  <si>
+    <t>d500.4</t>
+  </si>
+  <si>
+    <t>d500.0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Select a product price is a float with format x.y when y&gt;5 then check display on ViewProduct screen </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Select a product price is a float with format x.y when y=5 then check display on ViewProduct screen </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Select a product price is a float with format x.y when y&lt;5 then check display on ViewProduct screen </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Select a product price is a float with format x.y when y=0 then check display on ViewProduct screen </t>
+  </si>
+  <si>
+    <t xml:space="preserve">3, Display photo </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Check photolist </t>
+  </si>
+  <si>
+    <t>When the product has no photo</t>
+  </si>
+  <si>
+    <t>When the product has 1 photo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">When the product has more than 5 photos </t>
+  </si>
+  <si>
+    <t>When the product has 5 photos</t>
+  </si>
+  <si>
+    <t>When the number of product photo between 1 and 5 photos</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="0"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Check navigating button</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">  </t>
+    </r>
+  </si>
+  <si>
+    <t>"Back" button available when first photo focused</t>
+  </si>
+  <si>
+    <t xml:space="preserve">"Back" button unavailable when second photo focused onward </t>
+  </si>
+  <si>
+    <t>"Next" button available when last photo focused</t>
+  </si>
+  <si>
+    <t>"Next" button available when close-to-last photo focused</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Big Photo Frame </t>
+  </si>
+  <si>
+    <t>Intial Status</t>
+  </si>
+  <si>
+    <t>When user clicks on each photo on the photo list</t>
+  </si>
+  <si>
+    <t>User clicks on "Next" button</t>
+  </si>
+  <si>
+    <t>User clicks on "Back" button</t>
   </si>
 </sst>
 </file>
@@ -3363,7 +3413,7 @@
       <scheme val="major"/>
     </font>
   </fonts>
-  <fills count="24">
+  <fills count="31">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -3500,6 +3550,48 @@
       <patternFill patternType="solid">
         <fgColor theme="0" tint="-4.9989318521683403E-2"/>
         <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.39997558519241921"/>
+        <bgColor indexed="26"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.39997558519241921"/>
+        <bgColor indexed="26"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="41"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.39997558519241921"/>
+        <bgColor indexed="41"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.39997558519241921"/>
+        <bgColor indexed="41"/>
       </patternFill>
     </fill>
   </fills>
@@ -3890,7 +3982,7 @@
     <xf numFmtId="166" fontId="56" fillId="0" borderId="0"/>
     <xf numFmtId="166" fontId="57" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="231">
+  <cellXfs count="267">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
@@ -4346,6 +4438,50 @@
     <xf numFmtId="166" fontId="1" fillId="0" borderId="18" xfId="8" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="15" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="26" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="15" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="6" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="9" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="9" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="37" fillId="9" borderId="6" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="15" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="16" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="11" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="29" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="2" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="27" borderId="2" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="21" borderId="22" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -4424,38 +4560,98 @@
     <xf numFmtId="0" fontId="64" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="15" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="16" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="11" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="64" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="5" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="6" xfId="5" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="15" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="16" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="11" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="19" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="15" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="16" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="11" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="25" borderId="15" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="25" borderId="16" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="25" borderId="11" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="24" borderId="15" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="24" borderId="16" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="24" borderId="11" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="15" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="16" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="11" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="5" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="64" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="26" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="26" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="26" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="12" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="1" fillId="0" borderId="6" xfId="5" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="13" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="10" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="17" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="52" fillId="24" borderId="15" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
@@ -4469,15 +4665,54 @@
     <xf numFmtId="0" fontId="3" fillId="19" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="48" fillId="0" borderId="15" xfId="7" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="48" fillId="0" borderId="11" xfId="7" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="43" fillId="12" borderId="0" xfId="7" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="166" fontId="44" fillId="0" borderId="0" xfId="7" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="166" fontId="44" fillId="0" borderId="0" xfId="7" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="166" fontId="30" fillId="3" borderId="0" xfId="7" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="3" fillId="2" borderId="8" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="3" fillId="2" borderId="0" xfId="7" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="3" fillId="2" borderId="15" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="3" fillId="2" borderId="11" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="3" fillId="2" borderId="6" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="61" fillId="0" borderId="15" xfId="7" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="61" fillId="0" borderId="11" xfId="7" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="46" fillId="0" borderId="6" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="12" xfId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="10" xfId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="166" fontId="30" fillId="3" borderId="0" xfId="7" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="14" xfId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -4490,52 +4725,13 @@
     <xf numFmtId="166" fontId="3" fillId="2" borderId="20" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="166" fontId="3" fillId="2" borderId="15" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="166" fontId="3" fillId="2" borderId="16" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="166" fontId="3" fillId="2" borderId="11" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="18" xfId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="7" xfId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="166" fontId="46" fillId="0" borderId="6" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="48" fillId="0" borderId="15" xfId="7" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="48" fillId="0" borderId="11" xfId="7" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="166" fontId="3" fillId="2" borderId="6" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="61" fillId="0" borderId="15" xfId="7" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="61" fillId="0" borderId="11" xfId="7" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="166" fontId="43" fillId="12" borderId="0" xfId="7" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="166" fontId="44" fillId="0" borderId="0" xfId="7" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="166" fontId="44" fillId="0" borderId="0" xfId="7" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="166" fontId="3" fillId="2" borderId="8" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="166" fontId="3" fillId="2" borderId="0" xfId="7" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -5298,37 +5494,37 @@
       <c r="F3" s="18"/>
     </row>
     <row r="4" spans="1:6" ht="15" customHeight="1">
-      <c r="A4" s="170" t="s">
+      <c r="A4" s="186" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="171"/>
-      <c r="C4" s="171"/>
-      <c r="D4" s="171"/>
-      <c r="E4" s="172"/>
+      <c r="B4" s="187"/>
+      <c r="C4" s="187"/>
+      <c r="D4" s="187"/>
+      <c r="E4" s="188"/>
       <c r="F4" s="18"/>
     </row>
     <row r="5" spans="1:6">
-      <c r="A5" s="173" t="s">
+      <c r="A5" s="189" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="173"/>
-      <c r="C5" s="174" t="s">
+      <c r="B5" s="189"/>
+      <c r="C5" s="190" t="s">
         <v>4</v>
       </c>
-      <c r="D5" s="174"/>
-      <c r="E5" s="174"/>
+      <c r="D5" s="190"/>
+      <c r="E5" s="190"/>
       <c r="F5" s="18"/>
     </row>
     <row r="6" spans="1:6" ht="29.25" customHeight="1">
-      <c r="A6" s="175" t="s">
+      <c r="A6" s="191" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="176"/>
-      <c r="C6" s="169" t="s">
+      <c r="B6" s="192"/>
+      <c r="C6" s="185" t="s">
         <v>6</v>
       </c>
-      <c r="D6" s="169"/>
-      <c r="E6" s="169"/>
+      <c r="D6" s="185"/>
+      <c r="E6" s="185"/>
       <c r="F6" s="18"/>
     </row>
     <row r="7" spans="1:6" ht="29.25" customHeight="1">
@@ -5340,14 +5536,14 @@
       <c r="F7" s="18"/>
     </row>
     <row r="8" spans="1:6" s="147" customFormat="1" ht="29.25" customHeight="1">
-      <c r="A8" s="167" t="s">
+      <c r="A8" s="183" t="s">
         <v>7</v>
       </c>
-      <c r="B8" s="168"/>
-      <c r="C8" s="168"/>
-      <c r="D8" s="168"/>
-      <c r="E8" s="168"/>
-      <c r="F8" s="168"/>
+      <c r="B8" s="184"/>
+      <c r="C8" s="184"/>
+      <c r="D8" s="184"/>
+      <c r="E8" s="184"/>
+      <c r="F8" s="184"/>
     </row>
     <row r="9" spans="1:6" s="147" customFormat="1" ht="15" customHeight="1">
       <c r="A9" s="148" t="s">
@@ -5430,14 +5626,14 @@
       </c>
     </row>
     <row r="13" spans="1:6" s="147" customFormat="1" ht="30" customHeight="1">
-      <c r="A13" s="169" t="s">
+      <c r="A13" s="185" t="s">
         <v>23</v>
       </c>
-      <c r="B13" s="169"/>
-      <c r="C13" s="169"/>
-      <c r="D13" s="169"/>
-      <c r="E13" s="169"/>
-      <c r="F13" s="169"/>
+      <c r="B13" s="185"/>
+      <c r="C13" s="185"/>
+      <c r="D13" s="185"/>
+      <c r="E13" s="185"/>
+      <c r="F13" s="185"/>
     </row>
     <row r="14" spans="1:6">
       <c r="A14" s="18"/>
@@ -5560,36 +5756,36 @@
       <c r="K1" s="34"/>
     </row>
     <row r="2" spans="1:11" ht="25.5" customHeight="1">
-      <c r="B2" s="182" t="s">
+      <c r="B2" s="198" t="s">
         <v>25</v>
       </c>
-      <c r="C2" s="182"/>
-      <c r="D2" s="182"/>
-      <c r="E2" s="182"/>
-      <c r="F2" s="182"/>
-      <c r="G2" s="182"/>
-      <c r="H2" s="182"/>
-      <c r="I2" s="182"/>
-      <c r="J2" s="180" t="s">
+      <c r="C2" s="198"/>
+      <c r="D2" s="198"/>
+      <c r="E2" s="198"/>
+      <c r="F2" s="198"/>
+      <c r="G2" s="198"/>
+      <c r="H2" s="198"/>
+      <c r="I2" s="198"/>
+      <c r="J2" s="196" t="s">
         <v>26</v>
       </c>
-      <c r="K2" s="180"/>
+      <c r="K2" s="196"/>
     </row>
     <row r="3" spans="1:11" ht="28.5" customHeight="1">
-      <c r="B3" s="183" t="s">
+      <c r="B3" s="199" t="s">
         <v>27</v>
       </c>
-      <c r="C3" s="183"/>
-      <c r="D3" s="183"/>
-      <c r="E3" s="183"/>
-      <c r="F3" s="181" t="s">
+      <c r="C3" s="199"/>
+      <c r="D3" s="199"/>
+      <c r="E3" s="199"/>
+      <c r="F3" s="197" t="s">
         <v>28</v>
       </c>
-      <c r="G3" s="181"/>
-      <c r="H3" s="181"/>
-      <c r="I3" s="181"/>
-      <c r="J3" s="180"/>
-      <c r="K3" s="180"/>
+      <c r="G3" s="197"/>
+      <c r="H3" s="197"/>
+      <c r="I3" s="197"/>
+      <c r="J3" s="196"/>
+      <c r="K3" s="196"/>
     </row>
     <row r="4" spans="1:11" ht="18" customHeight="1">
       <c r="B4" s="153"/>
@@ -5609,65 +5805,65 @@
       </c>
     </row>
     <row r="7" spans="1:11">
-      <c r="A7" s="187" t="s">
+      <c r="A7" s="203" t="s">
         <v>30</v>
       </c>
-      <c r="B7" s="187"/>
-      <c r="C7" s="187"/>
-      <c r="D7" s="187"/>
-      <c r="E7" s="187"/>
-      <c r="F7" s="187"/>
-      <c r="G7" s="187"/>
-      <c r="H7" s="187"/>
-      <c r="I7" s="187"/>
+      <c r="B7" s="203"/>
+      <c r="C7" s="203"/>
+      <c r="D7" s="203"/>
+      <c r="E7" s="203"/>
+      <c r="F7" s="203"/>
+      <c r="G7" s="203"/>
+      <c r="H7" s="203"/>
+      <c r="I7" s="203"/>
     </row>
     <row r="8" spans="1:11" ht="20.25" customHeight="1">
-      <c r="A8" s="187"/>
-      <c r="B8" s="187"/>
-      <c r="C8" s="187"/>
-      <c r="D8" s="187"/>
-      <c r="E8" s="187"/>
-      <c r="F8" s="187"/>
-      <c r="G8" s="187"/>
-      <c r="H8" s="187"/>
-      <c r="I8" s="187"/>
+      <c r="A8" s="203"/>
+      <c r="B8" s="203"/>
+      <c r="C8" s="203"/>
+      <c r="D8" s="203"/>
+      <c r="E8" s="203"/>
+      <c r="F8" s="203"/>
+      <c r="G8" s="203"/>
+      <c r="H8" s="203"/>
+      <c r="I8" s="203"/>
     </row>
     <row r="9" spans="1:11">
-      <c r="A9" s="187" t="s">
+      <c r="A9" s="203" t="s">
         <v>31</v>
       </c>
-      <c r="B9" s="187"/>
-      <c r="C9" s="187"/>
-      <c r="D9" s="187"/>
-      <c r="E9" s="187"/>
-      <c r="F9" s="187"/>
-      <c r="G9" s="187"/>
-      <c r="H9" s="187"/>
-      <c r="I9" s="187"/>
+      <c r="B9" s="203"/>
+      <c r="C9" s="203"/>
+      <c r="D9" s="203"/>
+      <c r="E9" s="203"/>
+      <c r="F9" s="203"/>
+      <c r="G9" s="203"/>
+      <c r="H9" s="203"/>
+      <c r="I9" s="203"/>
     </row>
     <row r="10" spans="1:11" ht="21" customHeight="1">
-      <c r="A10" s="187"/>
-      <c r="B10" s="187"/>
-      <c r="C10" s="187"/>
-      <c r="D10" s="187"/>
-      <c r="E10" s="187"/>
-      <c r="F10" s="187"/>
-      <c r="G10" s="187"/>
-      <c r="H10" s="187"/>
-      <c r="I10" s="187"/>
+      <c r="A10" s="203"/>
+      <c r="B10" s="203"/>
+      <c r="C10" s="203"/>
+      <c r="D10" s="203"/>
+      <c r="E10" s="203"/>
+      <c r="F10" s="203"/>
+      <c r="G10" s="203"/>
+      <c r="H10" s="203"/>
+      <c r="I10" s="203"/>
     </row>
     <row r="11" spans="1:11" ht="13.8">
-      <c r="A11" s="188" t="s">
+      <c r="A11" s="204" t="s">
         <v>32</v>
       </c>
-      <c r="B11" s="188"/>
-      <c r="C11" s="188"/>
-      <c r="D11" s="188"/>
-      <c r="E11" s="188"/>
-      <c r="F11" s="188"/>
-      <c r="G11" s="188"/>
-      <c r="H11" s="188"/>
-      <c r="I11" s="188"/>
+      <c r="B11" s="204"/>
+      <c r="C11" s="204"/>
+      <c r="D11" s="204"/>
+      <c r="E11" s="204"/>
+      <c r="F11" s="204"/>
+      <c r="G11" s="204"/>
+      <c r="H11" s="204"/>
+      <c r="I11" s="204"/>
     </row>
     <row r="12" spans="1:11">
       <c r="A12" s="3"/>
@@ -5689,65 +5885,65 @@
       <c r="A14" s="134" t="s">
         <v>34</v>
       </c>
-      <c r="B14" s="184" t="s">
+      <c r="B14" s="200" t="s">
         <v>35</v>
       </c>
-      <c r="C14" s="185"/>
-      <c r="D14" s="185"/>
-      <c r="E14" s="185"/>
-      <c r="F14" s="185"/>
-      <c r="G14" s="185"/>
-      <c r="H14" s="185"/>
-      <c r="I14" s="185"/>
-      <c r="J14" s="185"/>
-      <c r="K14" s="186"/>
+      <c r="C14" s="201"/>
+      <c r="D14" s="201"/>
+      <c r="E14" s="201"/>
+      <c r="F14" s="201"/>
+      <c r="G14" s="201"/>
+      <c r="H14" s="201"/>
+      <c r="I14" s="201"/>
+      <c r="J14" s="201"/>
+      <c r="K14" s="202"/>
     </row>
     <row r="15" spans="1:11" ht="14.25" customHeight="1">
       <c r="A15" s="134" t="s">
         <v>36</v>
       </c>
-      <c r="B15" s="184" t="s">
+      <c r="B15" s="200" t="s">
         <v>37</v>
       </c>
-      <c r="C15" s="185"/>
-      <c r="D15" s="185"/>
-      <c r="E15" s="185"/>
-      <c r="F15" s="185"/>
-      <c r="G15" s="185"/>
-      <c r="H15" s="185"/>
-      <c r="I15" s="185"/>
-      <c r="J15" s="185"/>
-      <c r="K15" s="186"/>
+      <c r="C15" s="201"/>
+      <c r="D15" s="201"/>
+      <c r="E15" s="201"/>
+      <c r="F15" s="201"/>
+      <c r="G15" s="201"/>
+      <c r="H15" s="201"/>
+      <c r="I15" s="201"/>
+      <c r="J15" s="201"/>
+      <c r="K15" s="202"/>
     </row>
     <row r="16" spans="1:11" ht="14.25" customHeight="1">
       <c r="A16" s="134"/>
-      <c r="B16" s="184" t="s">
+      <c r="B16" s="200" t="s">
         <v>38</v>
       </c>
-      <c r="C16" s="185"/>
-      <c r="D16" s="185"/>
-      <c r="E16" s="185"/>
-      <c r="F16" s="185"/>
-      <c r="G16" s="185"/>
-      <c r="H16" s="185"/>
-      <c r="I16" s="185"/>
-      <c r="J16" s="185"/>
-      <c r="K16" s="186"/>
+      <c r="C16" s="201"/>
+      <c r="D16" s="201"/>
+      <c r="E16" s="201"/>
+      <c r="F16" s="201"/>
+      <c r="G16" s="201"/>
+      <c r="H16" s="201"/>
+      <c r="I16" s="201"/>
+      <c r="J16" s="201"/>
+      <c r="K16" s="202"/>
     </row>
     <row r="17" spans="1:14" ht="14.25" customHeight="1">
       <c r="A17" s="134"/>
-      <c r="B17" s="184" t="s">
+      <c r="B17" s="200" t="s">
         <v>39</v>
       </c>
-      <c r="C17" s="185"/>
-      <c r="D17" s="185"/>
-      <c r="E17" s="185"/>
-      <c r="F17" s="185"/>
-      <c r="G17" s="185"/>
-      <c r="H17" s="185"/>
-      <c r="I17" s="185"/>
-      <c r="J17" s="185"/>
-      <c r="K17" s="186"/>
+      <c r="C17" s="201"/>
+      <c r="D17" s="201"/>
+      <c r="E17" s="201"/>
+      <c r="F17" s="201"/>
+      <c r="G17" s="201"/>
+      <c r="H17" s="201"/>
+      <c r="I17" s="201"/>
+      <c r="J17" s="201"/>
+      <c r="K17" s="202"/>
     </row>
     <row r="19" spans="1:14" ht="22.5">
       <c r="A19" s="4" t="s">
@@ -5758,40 +5954,40 @@
       <c r="A20" s="134" t="s">
         <v>41</v>
       </c>
-      <c r="B20" s="184" t="s">
+      <c r="B20" s="200" t="s">
         <v>42</v>
       </c>
-      <c r="C20" s="185"/>
-      <c r="D20" s="185"/>
-      <c r="E20" s="185"/>
-      <c r="F20" s="185"/>
-      <c r="G20" s="186"/>
+      <c r="C20" s="201"/>
+      <c r="D20" s="201"/>
+      <c r="E20" s="201"/>
+      <c r="F20" s="201"/>
+      <c r="G20" s="202"/>
     </row>
     <row r="21" spans="1:14" ht="12.75" customHeight="1">
       <c r="A21" s="134" t="s">
         <v>43</v>
       </c>
-      <c r="B21" s="184" t="s">
+      <c r="B21" s="200" t="s">
         <v>44</v>
       </c>
-      <c r="C21" s="185"/>
-      <c r="D21" s="185"/>
-      <c r="E21" s="185"/>
-      <c r="F21" s="185"/>
-      <c r="G21" s="186"/>
+      <c r="C21" s="201"/>
+      <c r="D21" s="201"/>
+      <c r="E21" s="201"/>
+      <c r="F21" s="201"/>
+      <c r="G21" s="202"/>
     </row>
     <row r="22" spans="1:14" ht="12.75" customHeight="1">
       <c r="A22" s="134" t="s">
         <v>45</v>
       </c>
-      <c r="B22" s="184" t="s">
+      <c r="B22" s="200" t="s">
         <v>46</v>
       </c>
-      <c r="C22" s="185"/>
-      <c r="D22" s="185"/>
-      <c r="E22" s="185"/>
-      <c r="F22" s="185"/>
-      <c r="G22" s="186"/>
+      <c r="C22" s="201"/>
+      <c r="D22" s="201"/>
+      <c r="E22" s="201"/>
+      <c r="F22" s="201"/>
+      <c r="G22" s="202"/>
     </row>
     <row r="24" spans="1:14" ht="22.5">
       <c r="A24" s="4" t="s">
@@ -5850,11 +6046,11 @@
       <c r="N27" s="70"/>
     </row>
     <row r="29" spans="1:14" ht="21.75" customHeight="1">
-      <c r="B29" s="177" t="s">
+      <c r="B29" s="193" t="s">
         <v>51</v>
       </c>
-      <c r="C29" s="178"/>
-      <c r="D29" s="179"/>
+      <c r="C29" s="194"/>
+      <c r="D29" s="195"/>
     </row>
     <row r="30" spans="1:14" ht="90" customHeight="1">
       <c r="B30" s="5"/>
@@ -5931,14 +6127,14 @@
       <c r="J1" s="7"/>
     </row>
     <row r="2" spans="1:10" s="9" customFormat="1" ht="24.9">
-      <c r="A2" s="189" t="s">
+      <c r="A2" s="205" t="s">
         <v>56</v>
       </c>
-      <c r="B2" s="189"/>
-      <c r="C2" s="189"/>
-      <c r="D2" s="189"/>
-      <c r="E2" s="189"/>
-      <c r="F2" s="189"/>
+      <c r="B2" s="205"/>
+      <c r="C2" s="205"/>
+      <c r="D2" s="205"/>
+      <c r="E2" s="205"/>
+      <c r="F2" s="205"/>
     </row>
     <row r="3" spans="1:10">
       <c r="A3" s="10"/>
@@ -6124,12 +6320,12 @@
       <c r="K1" s="34"/>
     </row>
     <row r="2" spans="1:11" s="1" customFormat="1" ht="25.2">
-      <c r="A2" s="192" t="s">
+      <c r="A2" s="208" t="s">
         <v>70</v>
       </c>
-      <c r="B2" s="192"/>
-      <c r="C2" s="192"/>
-      <c r="D2" s="192"/>
+      <c r="B2" s="208"/>
+      <c r="C2" s="208"/>
+      <c r="D2" s="208"/>
       <c r="E2" s="156"/>
       <c r="F2" s="23"/>
       <c r="G2" s="23"/>
@@ -6290,18 +6486,18 @@
       <c r="F14" s="29"/>
     </row>
     <row r="16" spans="1:11" ht="14.1">
-      <c r="A16" s="190" t="s">
+      <c r="A16" s="206" t="s">
         <v>91</v>
       </c>
-      <c r="B16" s="190"/>
+      <c r="B16" s="206"/>
       <c r="C16" s="30"/>
       <c r="D16" s="31"/>
     </row>
     <row r="17" spans="1:4" ht="13.8">
-      <c r="A17" s="191" t="s">
+      <c r="A17" s="207" t="s">
         <v>92</v>
       </c>
-      <c r="B17" s="191"/>
+      <c r="B17" s="207"/>
     </row>
     <row r="20" spans="1:4">
       <c r="A20" s="33"/>
@@ -6328,16 +6524,18 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:X84"/>
+  <dimension ref="A1:X97"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A25" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="A37" sqref="A37:A38"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A54" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="B68" sqref="B68"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.15625" defaultRowHeight="12.3"/>
   <cols>
     <col min="1" max="1" width="11.26171875" style="78" customWidth="1"/>
-    <col min="2" max="4" width="35.15625" style="46" customWidth="1"/>
+    <col min="2" max="2" width="52.734375" style="46" customWidth="1"/>
+    <col min="3" max="3" width="87" style="46" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="35.15625" style="46" customWidth="1"/>
     <col min="5" max="5" width="32.15625" style="46" customWidth="1"/>
     <col min="6" max="8" width="9.68359375" style="46" customWidth="1"/>
     <col min="9" max="9" width="17.68359375" style="46" customWidth="1"/>
@@ -6345,10 +6543,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:24" s="1" customFormat="1" ht="13.8">
-      <c r="A1" s="201"/>
-      <c r="B1" s="201"/>
-      <c r="C1" s="201"/>
-      <c r="D1" s="201"/>
+      <c r="A1" s="212"/>
+      <c r="B1" s="212"/>
+      <c r="C1" s="212"/>
+      <c r="D1" s="212"/>
       <c r="E1" s="34"/>
       <c r="F1" s="34"/>
       <c r="G1" s="34"/>
@@ -6357,13 +6555,13 @@
       <c r="J1" s="34"/>
     </row>
     <row r="2" spans="1:24" s="1" customFormat="1" ht="31.5" customHeight="1">
-      <c r="A2" s="202" t="s">
+      <c r="A2" s="213" t="s">
         <v>70</v>
       </c>
-      <c r="B2" s="202"/>
-      <c r="C2" s="202"/>
-      <c r="D2" s="202"/>
-      <c r="E2" s="197"/>
+      <c r="B2" s="213"/>
+      <c r="C2" s="213"/>
+      <c r="D2" s="213"/>
+      <c r="E2" s="221"/>
       <c r="F2" s="23"/>
       <c r="G2" s="23"/>
       <c r="H2" s="23"/>
@@ -6372,9 +6570,9 @@
     </row>
     <row r="3" spans="1:24" s="1" customFormat="1" ht="31.5" customHeight="1">
       <c r="A3" s="47"/>
-      <c r="C3" s="198"/>
-      <c r="D3" s="198"/>
-      <c r="E3" s="197"/>
+      <c r="C3" s="231"/>
+      <c r="D3" s="231"/>
+      <c r="E3" s="221"/>
       <c r="F3" s="23"/>
       <c r="G3" s="23"/>
       <c r="H3" s="23"/>
@@ -6385,11 +6583,11 @@
       <c r="A4" s="139" t="s">
         <v>66</v>
       </c>
-      <c r="B4" s="199" t="s">
+      <c r="B4" s="215" t="s">
         <v>93</v>
       </c>
-      <c r="C4" s="199"/>
-      <c r="D4" s="199"/>
+      <c r="C4" s="215"/>
+      <c r="D4" s="215"/>
       <c r="E4" s="39"/>
       <c r="F4" s="39"/>
       <c r="G4" s="39"/>
@@ -6403,11 +6601,11 @@
       <c r="A5" s="139" t="s">
         <v>62</v>
       </c>
-      <c r="B5" s="200" t="s">
+      <c r="B5" s="214" t="s">
         <v>95</v>
       </c>
-      <c r="C5" s="199"/>
-      <c r="D5" s="199"/>
+      <c r="C5" s="215"/>
+      <c r="D5" s="215"/>
       <c r="E5" s="39"/>
       <c r="F5" s="39"/>
       <c r="G5" s="39"/>
@@ -6421,11 +6619,11 @@
       <c r="A6" s="139" t="s">
         <v>97</v>
       </c>
-      <c r="B6" s="200" t="s">
+      <c r="B6" s="214" t="s">
         <v>98</v>
       </c>
-      <c r="C6" s="199"/>
-      <c r="D6" s="199"/>
+      <c r="C6" s="215"/>
+      <c r="D6" s="215"/>
       <c r="E6" s="39"/>
       <c r="F6" s="39"/>
       <c r="G6" s="39"/>
@@ -6436,11 +6634,11 @@
       <c r="A7" s="139" t="s">
         <v>99</v>
       </c>
-      <c r="B7" s="199" t="s">
+      <c r="B7" s="215" t="s">
         <v>100</v>
       </c>
-      <c r="C7" s="199"/>
-      <c r="D7" s="199"/>
+      <c r="C7" s="215"/>
+      <c r="D7" s="215"/>
       <c r="E7" s="39"/>
       <c r="F7" s="39"/>
       <c r="G7" s="39"/>
@@ -6452,11 +6650,11 @@
       <c r="A8" s="139" t="s">
         <v>101</v>
       </c>
-      <c r="B8" s="203">
+      <c r="B8" s="216">
         <v>40850</v>
       </c>
-      <c r="C8" s="203"/>
-      <c r="D8" s="203"/>
+      <c r="C8" s="216"/>
+      <c r="D8" s="216"/>
       <c r="E8" s="39"/>
     </row>
     <row r="9" spans="1:24" s="43" customFormat="1">
@@ -6498,15 +6696,15 @@
         <v>41</v>
       </c>
       <c r="B11" s="75">
-        <f>COUNTIF($F$18:$F$49636,"*Passed")</f>
+        <f>COUNTIF($F$18:$F$49641,"*Passed")</f>
         <v>0</v>
       </c>
       <c r="C11" s="75">
-        <f>COUNTIF($G$18:$G$49636,"*Passed")</f>
+        <f>COUNTIF($G$18:$G$49641,"*Passed")</f>
         <v>0</v>
       </c>
       <c r="D11" s="75">
-        <f>COUNTIF($H$18:$H$49636,"*Passed")</f>
+        <f>COUNTIF($H$18:$H$49641,"*Passed")</f>
         <v>0</v>
       </c>
     </row>
@@ -6515,15 +6713,15 @@
         <v>43</v>
       </c>
       <c r="B12" s="75">
-        <f>COUNTIF($F$18:$F$49356,"*Failed*")</f>
+        <f>COUNTIF($F$18:$F$49361,"*Failed*")</f>
         <v>0</v>
       </c>
       <c r="C12" s="75">
-        <f>COUNTIF($G$18:$G$49356,"*Failed*")</f>
+        <f>COUNTIF($G$18:$G$49361,"*Failed*")</f>
         <v>0</v>
       </c>
       <c r="D12" s="75">
-        <f>COUNTIF($H$18:$H$49356,"*Failed*")</f>
+        <f>COUNTIF($H$18:$H$49361,"*Failed*")</f>
         <v>0</v>
       </c>
     </row>
@@ -6532,15 +6730,15 @@
         <v>45</v>
       </c>
       <c r="B13" s="75">
-        <f>COUNTIF($F$18:$F$49356,"*Not Run*")</f>
+        <f>COUNTIF($F$18:$F$49361,"*Not Run*")</f>
         <v>0</v>
       </c>
       <c r="C13" s="75">
-        <f>COUNTIF($G$18:$G$49356,"*Not Run*")</f>
+        <f>COUNTIF($G$18:$G$49361,"*Not Run*")</f>
         <v>0</v>
       </c>
       <c r="D13" s="75">
-        <f>COUNTIF($H$18:$H$49356,"*Not Run*")</f>
+        <f>COUNTIF($H$18:$H$49361,"*Not Run*")</f>
         <v>0</v>
       </c>
       <c r="E13" s="1"/>
@@ -6554,15 +6752,15 @@
         <v>104</v>
       </c>
       <c r="B14" s="75">
-        <f>COUNTIF($F$18:$F$49356,"*NA*")</f>
+        <f>COUNTIF($F$18:$F$49361,"*NA*")</f>
         <v>0</v>
       </c>
       <c r="C14" s="75">
-        <f>COUNTIF($G$18:$G$49356,"*NA*")</f>
+        <f>COUNTIF($G$18:$G$49361,"*NA*")</f>
         <v>0</v>
       </c>
       <c r="D14" s="75">
-        <f>COUNTIF($H$18:$H$49356,"*NA*")</f>
+        <f>COUNTIF($H$18:$H$49361,"*NA*")</f>
         <v>0</v>
       </c>
       <c r="E14" s="1"/>
@@ -6576,15 +6774,15 @@
         <v>105</v>
       </c>
       <c r="B15" s="75">
-        <f>COUNTIF($F$18:$F$49356,"*Passed in previous build*")</f>
+        <f>COUNTIF($F$18:$F$49361,"*Passed in previous build*")</f>
         <v>0</v>
       </c>
       <c r="C15" s="75">
-        <f>COUNTIF($G$18:$G$49356,"*Passed in previous build*")</f>
+        <f>COUNTIF($G$18:$G$49361,"*Passed in previous build*")</f>
         <v>0</v>
       </c>
       <c r="D15" s="75">
-        <f>COUNTIF($H$18:$H$49356,"*Passed in previous build*")</f>
+        <f>COUNTIF($H$18:$H$49361,"*Passed in previous build*")</f>
         <v>0</v>
       </c>
       <c r="E15" s="1"/>
@@ -6599,11 +6797,11 @@
       <c r="C16" s="50"/>
       <c r="D16" s="51"/>
       <c r="E16" s="56"/>
-      <c r="F16" s="193" t="s">
+      <c r="F16" s="220" t="s">
         <v>102</v>
       </c>
-      <c r="G16" s="193"/>
-      <c r="H16" s="193"/>
+      <c r="G16" s="220"/>
+      <c r="H16" s="220"/>
       <c r="I16" s="57"/>
     </row>
     <row r="17" spans="1:9" s="44" customFormat="1" ht="36.9">
@@ -6639,588 +6837,813 @@
       <c r="A18" s="67" t="s">
         <v>419</v>
       </c>
-      <c r="B18" s="194" t="s">
-        <v>424</v>
-      </c>
-      <c r="C18" s="195"/>
-      <c r="D18" s="195"/>
-      <c r="E18" s="195"/>
-      <c r="F18" s="195"/>
-      <c r="G18" s="195"/>
-      <c r="H18" s="195"/>
-      <c r="I18" s="196"/>
-    </row>
-    <row r="19" spans="1:9" s="45" customFormat="1" ht="24.6">
+      <c r="B18" s="217" t="s">
+        <v>421</v>
+      </c>
+      <c r="C18" s="218"/>
+      <c r="D18" s="218"/>
+      <c r="E18" s="218"/>
+      <c r="F18" s="218"/>
+      <c r="G18" s="218"/>
+      <c r="H18" s="218"/>
+      <c r="I18" s="219"/>
+    </row>
+    <row r="19" spans="1:9" s="45" customFormat="1" ht="27.6" customHeight="1">
       <c r="A19" s="52">
         <v>1</v>
       </c>
       <c r="B19" s="52" t="s">
-        <v>427</v>
-      </c>
-      <c r="C19" s="52"/>
-      <c r="D19" s="53"/>
-      <c r="E19" s="54"/>
+        <v>422</v>
+      </c>
+      <c r="C19" s="52" t="s">
+        <v>426</v>
+      </c>
+      <c r="D19" s="53" t="s">
+        <v>433</v>
+      </c>
+      <c r="E19" s="54" t="s">
+        <v>425</v>
+      </c>
       <c r="F19" s="52"/>
       <c r="G19" s="52"/>
       <c r="H19" s="52"/>
       <c r="I19" s="55"/>
     </row>
-    <row r="20" spans="1:9" s="45" customFormat="1" ht="24.6">
-      <c r="A20" s="58">
-        <f ca="1">IF(OFFSET(A20,-1,0) ="",OFFSET(A20,-2,0)+1,OFFSET(A20,-1,0)+1 )</f>
-        <v>2</v>
-      </c>
-      <c r="B20" s="52" t="s">
-        <v>420</v>
-      </c>
-      <c r="C20" s="52"/>
-      <c r="D20" s="59"/>
-      <c r="E20" s="54"/>
-      <c r="F20" s="52"/>
-      <c r="G20" s="52"/>
-      <c r="H20" s="52"/>
-      <c r="I20" s="55"/>
-    </row>
-    <row r="21" spans="1:9" s="45" customFormat="1" ht="24.6">
+    <row r="20" spans="1:9" s="45" customFormat="1">
+      <c r="A20" s="168"/>
+      <c r="B20" s="225" t="s">
+        <v>438</v>
+      </c>
+      <c r="C20" s="226"/>
+      <c r="D20" s="226"/>
+      <c r="E20" s="226"/>
+      <c r="F20" s="226"/>
+      <c r="G20" s="226"/>
+      <c r="H20" s="226"/>
+      <c r="I20" s="227"/>
+    </row>
+    <row r="21" spans="1:9" s="45" customFormat="1" ht="20.7" customHeight="1">
       <c r="A21" s="58">
         <f ca="1">IF(OFFSET(A21,-1,0) ="",OFFSET(A21,-2,0)+1,OFFSET(A21,-1,0)+1 )</f>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B21" s="52" t="s">
-        <v>421</v>
-      </c>
-      <c r="C21" s="52"/>
-      <c r="D21" s="60"/>
-      <c r="E21" s="54"/>
+        <v>427</v>
+      </c>
+      <c r="C21" s="52" t="s">
+        <v>430</v>
+      </c>
+      <c r="D21" s="60" t="s">
+        <v>428</v>
+      </c>
+      <c r="E21" s="54" t="s">
+        <v>429</v>
+      </c>
       <c r="F21" s="52"/>
       <c r="G21" s="52"/>
       <c r="H21" s="52"/>
       <c r="I21" s="55"/>
     </row>
-    <row r="22" spans="1:9" s="48" customFormat="1" ht="13.8">
+    <row r="22" spans="1:9" s="48" customFormat="1" ht="19.8" customHeight="1">
       <c r="A22" s="58">
-        <f ca="1">IF(OFFSET(A22,-1,0) ="",OFFSET(A22,-2,0)+1,OFFSET(A22,-1,0)+1 )</f>
-        <v>4</v>
+        <f t="shared" ref="A22:A38" ca="1" si="0">IF(OFFSET(A22,-1,0) ="",OFFSET(A22,-2,0)+1,OFFSET(A22,-1,0)+1 )</f>
+        <v>3</v>
       </c>
       <c r="B22" s="52" t="s">
-        <v>422</v>
-      </c>
-      <c r="C22" s="52"/>
-      <c r="D22" s="54"/>
-      <c r="E22" s="54"/>
+        <v>424</v>
+      </c>
+      <c r="C22" s="52" t="s">
+        <v>431</v>
+      </c>
+      <c r="D22" s="60" t="s">
+        <v>428</v>
+      </c>
+      <c r="E22" s="54" t="s">
+        <v>432</v>
+      </c>
       <c r="F22" s="52"/>
       <c r="G22" s="52"/>
       <c r="H22" s="52"/>
       <c r="I22" s="61"/>
     </row>
-    <row r="23" spans="1:9" s="48" customFormat="1" ht="19.8" customHeight="1">
-      <c r="A23" s="77"/>
-      <c r="B23" s="194" t="s">
-        <v>423</v>
-      </c>
-      <c r="C23" s="195"/>
-      <c r="D23" s="195"/>
-      <c r="E23" s="195"/>
-      <c r="F23" s="195"/>
-      <c r="G23" s="195"/>
-      <c r="H23" s="195"/>
-      <c r="I23" s="196"/>
-    </row>
-    <row r="24" spans="1:9" s="48" customFormat="1" ht="22.5" customHeight="1">
+    <row r="23" spans="1:9" s="45" customFormat="1">
+      <c r="A23" s="168"/>
+      <c r="B23" s="225" t="s">
+        <v>439</v>
+      </c>
+      <c r="C23" s="226"/>
+      <c r="D23" s="226"/>
+      <c r="E23" s="226"/>
+      <c r="F23" s="226"/>
+      <c r="G23" s="226"/>
+      <c r="H23" s="226"/>
+      <c r="I23" s="227"/>
+    </row>
+    <row r="24" spans="1:9" s="48" customFormat="1" ht="13.8">
       <c r="A24" s="58">
         <f ca="1">IF(OFFSET(A24,-1,0) ="",OFFSET(A24,-2,0)+1,OFFSET(A24,-1,0)+1 )</f>
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B24" s="52" t="s">
-        <v>428</v>
-      </c>
-      <c r="C24" s="52"/>
-      <c r="D24" s="60"/>
-      <c r="E24" s="54"/>
+        <v>442</v>
+      </c>
+      <c r="C24" s="52" t="s">
+        <v>468</v>
+      </c>
+      <c r="D24" s="54" t="s">
+        <v>435</v>
+      </c>
+      <c r="E24" s="54" t="s">
+        <v>436</v>
+      </c>
       <c r="F24" s="52"/>
       <c r="G24" s="52"/>
       <c r="H24" s="52"/>
       <c r="I24" s="61"/>
     </row>
-    <row r="25" spans="1:9" s="48" customFormat="1" ht="24.6">
+    <row r="25" spans="1:9" s="48" customFormat="1" ht="19.8" customHeight="1">
       <c r="A25" s="58">
-        <f t="shared" ref="A25:A38" ca="1" si="0">IF(OFFSET(A25,-1,0) ="",OFFSET(A25,-2,0)+1,OFFSET(A25,-1,0)+1 )</f>
-        <v>6</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>5</v>
       </c>
       <c r="B25" s="52" t="s">
-        <v>425</v>
-      </c>
-      <c r="C25" s="52"/>
-      <c r="D25" s="54"/>
-      <c r="E25" s="54"/>
+        <v>440</v>
+      </c>
+      <c r="C25" s="52" t="s">
+        <v>468</v>
+      </c>
+      <c r="D25" s="60" t="s">
+        <v>435</v>
+      </c>
+      <c r="E25" s="54" t="s">
+        <v>441</v>
+      </c>
       <c r="F25" s="52"/>
       <c r="G25" s="52"/>
       <c r="H25" s="52"/>
       <c r="I25" s="61"/>
     </row>
-    <row r="26" spans="1:9" s="48" customFormat="1" ht="24.6">
+    <row r="26" spans="1:9" s="48" customFormat="1" ht="22.5" customHeight="1">
       <c r="A26" s="58">
         <f t="shared" ca="1" si="0"/>
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B26" s="52" t="s">
-        <v>426</v>
-      </c>
-      <c r="C26" s="52"/>
-      <c r="D26" s="54"/>
-      <c r="E26" s="54"/>
+        <v>434</v>
+      </c>
+      <c r="C26" s="52" t="s">
+        <v>437</v>
+      </c>
+      <c r="D26" s="60" t="s">
+        <v>435</v>
+      </c>
+      <c r="E26" s="54" t="s">
+        <v>443</v>
+      </c>
       <c r="F26" s="52"/>
       <c r="G26" s="52"/>
       <c r="H26" s="52"/>
       <c r="I26" s="61"/>
     </row>
     <row r="27" spans="1:9" s="48" customFormat="1" ht="13.8">
-      <c r="A27" s="58">
-        <f t="shared" ca="1" si="0"/>
-        <v>8</v>
-      </c>
-      <c r="B27" s="52" t="s">
-        <v>422</v>
-      </c>
-      <c r="C27" s="52"/>
-      <c r="D27" s="54"/>
-      <c r="E27" s="54"/>
-      <c r="F27" s="52"/>
-      <c r="G27" s="52"/>
-      <c r="H27" s="52"/>
-      <c r="I27" s="61"/>
-    </row>
-    <row r="28" spans="1:9" s="48" customFormat="1" ht="24.6">
+      <c r="A27" s="168"/>
+      <c r="B27" s="222" t="s">
+        <v>444</v>
+      </c>
+      <c r="C27" s="223"/>
+      <c r="D27" s="223"/>
+      <c r="E27" s="223"/>
+      <c r="F27" s="223"/>
+      <c r="G27" s="223"/>
+      <c r="H27" s="223"/>
+      <c r="I27" s="224"/>
+    </row>
+    <row r="28" spans="1:9" s="48" customFormat="1" ht="13.8">
       <c r="A28" s="58">
         <f t="shared" ca="1" si="0"/>
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B28" s="52" t="s">
-        <v>431</v>
-      </c>
-      <c r="C28" s="52"/>
-      <c r="D28" s="54"/>
-      <c r="E28" s="54"/>
+        <v>423</v>
+      </c>
+      <c r="C28" s="52" t="s">
+        <v>445</v>
+      </c>
+      <c r="D28" s="60" t="s">
+        <v>446</v>
+      </c>
+      <c r="E28" s="54" t="s">
+        <v>447</v>
+      </c>
       <c r="F28" s="52"/>
       <c r="G28" s="52"/>
       <c r="H28" s="52"/>
       <c r="I28" s="61"/>
     </row>
-    <row r="29" spans="1:9" s="48" customFormat="1" ht="24.6">
+    <row r="29" spans="1:9" s="48" customFormat="1" ht="27.6" customHeight="1">
       <c r="A29" s="58">
         <f t="shared" ca="1" si="0"/>
-        <v>10</v>
-      </c>
-      <c r="B29" s="52" t="s">
-        <v>430</v>
-      </c>
-      <c r="C29" s="52"/>
-      <c r="D29" s="53"/>
-      <c r="E29" s="54"/>
-      <c r="F29" s="52"/>
-      <c r="G29" s="52"/>
-      <c r="H29" s="52"/>
+        <v>8</v>
+      </c>
+      <c r="B29" s="62" t="s">
+        <v>448</v>
+      </c>
+      <c r="C29" s="62" t="s">
+        <v>449</v>
+      </c>
+      <c r="D29" s="62" t="s">
+        <v>446</v>
+      </c>
+      <c r="E29" s="62" t="s">
+        <v>450</v>
+      </c>
+      <c r="F29" s="62"/>
+      <c r="G29" s="62"/>
+      <c r="H29" s="62"/>
       <c r="I29" s="62"/>
     </row>
     <row r="30" spans="1:9" s="48" customFormat="1" ht="13.8">
       <c r="A30" s="58">
         <f t="shared" ca="1" si="0"/>
-        <v>11</v>
-      </c>
-      <c r="B30" s="52" t="s">
-        <v>429</v>
-      </c>
-      <c r="C30" s="52"/>
-      <c r="D30" s="53"/>
-      <c r="E30" s="54"/>
-      <c r="F30" s="52"/>
-      <c r="G30" s="52"/>
-      <c r="H30" s="52"/>
+        <v>9</v>
+      </c>
+      <c r="B30" s="62" t="s">
+        <v>451</v>
+      </c>
+      <c r="C30" s="62" t="s">
+        <v>452</v>
+      </c>
+      <c r="D30" s="62" t="s">
+        <v>446</v>
+      </c>
+      <c r="E30" s="62" t="s">
+        <v>453</v>
+      </c>
+      <c r="F30" s="62"/>
+      <c r="G30" s="62"/>
+      <c r="H30" s="62"/>
       <c r="I30" s="62"/>
     </row>
-    <row r="31" spans="1:9" s="48" customFormat="1" ht="17.7" customHeight="1">
-      <c r="A31" s="77"/>
-      <c r="B31" s="194" t="s">
-        <v>432</v>
-      </c>
-      <c r="C31" s="195"/>
-      <c r="D31" s="195"/>
-      <c r="E31" s="195"/>
-      <c r="F31" s="195"/>
-      <c r="G31" s="195"/>
-      <c r="H31" s="195"/>
-      <c r="I31" s="196"/>
+    <row r="31" spans="1:9" s="48" customFormat="1" ht="13.8">
+      <c r="A31" s="169"/>
+      <c r="B31" s="218" t="s">
+        <v>420</v>
+      </c>
+      <c r="C31" s="218"/>
+      <c r="D31" s="218"/>
+      <c r="E31" s="218"/>
+      <c r="F31" s="218"/>
+      <c r="G31" s="218"/>
+      <c r="H31" s="218"/>
+      <c r="I31" s="219"/>
     </row>
     <row r="32" spans="1:9" s="48" customFormat="1" ht="13.8">
       <c r="A32" s="58">
         <f t="shared" ca="1" si="0"/>
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B32" s="52" t="s">
-        <v>434</v>
-      </c>
-      <c r="C32" s="52"/>
-      <c r="D32" s="53"/>
-      <c r="E32" s="54"/>
+        <v>422</v>
+      </c>
+      <c r="C32" s="52" t="s">
+        <v>454</v>
+      </c>
+      <c r="D32" s="53" t="s">
+        <v>433</v>
+      </c>
+      <c r="E32" s="54" t="s">
+        <v>425</v>
+      </c>
       <c r="F32" s="52"/>
       <c r="G32" s="52"/>
       <c r="H32" s="52"/>
-      <c r="I32" s="62"/>
+      <c r="I32" s="55"/>
     </row>
     <row r="33" spans="1:9" s="48" customFormat="1" ht="13.8">
-      <c r="A33" s="58">
-        <f t="shared" ca="1" si="0"/>
-        <v>13</v>
-      </c>
-      <c r="B33" s="52" t="s">
-        <v>433</v>
-      </c>
-      <c r="C33" s="52"/>
-      <c r="D33" s="60"/>
-      <c r="E33" s="54"/>
-      <c r="F33" s="52"/>
-      <c r="G33" s="52"/>
-      <c r="H33" s="52"/>
-      <c r="I33" s="62"/>
-    </row>
-    <row r="34" spans="1:9" s="48" customFormat="1" ht="13.8">
+      <c r="A33" s="168"/>
+      <c r="B33" s="225" t="s">
+        <v>438</v>
+      </c>
+      <c r="C33" s="226"/>
+      <c r="D33" s="226"/>
+      <c r="E33" s="226"/>
+      <c r="F33" s="226"/>
+      <c r="G33" s="226"/>
+      <c r="H33" s="226"/>
+      <c r="I33" s="227"/>
+    </row>
+    <row r="34" spans="1:9" s="48" customFormat="1" ht="17.7" customHeight="1">
       <c r="A34" s="58">
         <f t="shared" ca="1" si="0"/>
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="B34" s="52" t="s">
-        <v>435</v>
-      </c>
-      <c r="C34" s="52"/>
-      <c r="D34" s="54"/>
-      <c r="E34" s="54"/>
+        <v>455</v>
+      </c>
+      <c r="C34" s="52" t="s">
+        <v>430</v>
+      </c>
+      <c r="D34" s="60" t="s">
+        <v>428</v>
+      </c>
+      <c r="E34" s="54" t="s">
+        <v>429</v>
+      </c>
       <c r="F34" s="52"/>
       <c r="G34" s="52"/>
       <c r="H34" s="52"/>
-      <c r="I34" s="62"/>
+      <c r="I34" s="55"/>
     </row>
     <row r="35" spans="1:9" s="48" customFormat="1" ht="13.8">
       <c r="A35" s="58">
         <f t="shared" ca="1" si="0"/>
-        <v>15</v>
-      </c>
-      <c r="B35" s="62" t="s">
-        <v>436</v>
-      </c>
-      <c r="C35" s="62"/>
-      <c r="D35" s="62"/>
-      <c r="E35" s="62"/>
-      <c r="F35" s="62"/>
-      <c r="G35" s="62"/>
-      <c r="H35" s="62"/>
-      <c r="I35" s="62"/>
+        <v>12</v>
+      </c>
+      <c r="B35" s="52" t="s">
+        <v>456</v>
+      </c>
+      <c r="C35" s="52" t="s">
+        <v>431</v>
+      </c>
+      <c r="D35" s="60" t="s">
+        <v>428</v>
+      </c>
+      <c r="E35" s="54" t="s">
+        <v>432</v>
+      </c>
+      <c r="F35" s="52"/>
+      <c r="G35" s="52"/>
+      <c r="H35" s="52"/>
+      <c r="I35" s="61"/>
     </row>
     <row r="36" spans="1:9" s="48" customFormat="1" ht="13.8">
-      <c r="A36" s="58">
-        <f t="shared" ca="1" si="0"/>
-        <v>16</v>
-      </c>
-      <c r="B36" s="62" t="s">
-        <v>437</v>
-      </c>
-      <c r="C36" s="62"/>
-      <c r="D36" s="62"/>
-      <c r="E36" s="62"/>
-      <c r="F36" s="62"/>
-      <c r="G36" s="62"/>
-      <c r="H36" s="62"/>
-      <c r="I36" s="62"/>
+      <c r="A36" s="168"/>
+      <c r="B36" s="225" t="s">
+        <v>439</v>
+      </c>
+      <c r="C36" s="226"/>
+      <c r="D36" s="226"/>
+      <c r="E36" s="226"/>
+      <c r="F36" s="226"/>
+      <c r="G36" s="226"/>
+      <c r="H36" s="226"/>
+      <c r="I36" s="227"/>
     </row>
     <row r="37" spans="1:9" s="48" customFormat="1" ht="13.8">
       <c r="A37" s="58">
         <f t="shared" ca="1" si="0"/>
-        <v>17</v>
-      </c>
-      <c r="B37" s="62" t="s">
-        <v>438</v>
-      </c>
-      <c r="C37" s="62"/>
-      <c r="D37" s="62"/>
-      <c r="E37" s="62"/>
-      <c r="F37" s="62"/>
-      <c r="G37" s="62"/>
-      <c r="H37" s="62"/>
-      <c r="I37" s="62"/>
-    </row>
-    <row r="38" spans="1:9" s="49" customFormat="1" ht="13.8">
+        <v>13</v>
+      </c>
+      <c r="B37" s="52" t="s">
+        <v>457</v>
+      </c>
+      <c r="C37" s="52" t="s">
+        <v>431</v>
+      </c>
+      <c r="D37" s="54" t="s">
+        <v>435</v>
+      </c>
+      <c r="E37" s="54" t="s">
+        <v>436</v>
+      </c>
+      <c r="F37" s="52"/>
+      <c r="G37" s="52"/>
+      <c r="H37" s="52"/>
+      <c r="I37" s="61"/>
+    </row>
+    <row r="38" spans="1:9" s="48" customFormat="1" ht="13.8">
       <c r="A38" s="58">
         <f t="shared" ca="1" si="0"/>
-        <v>18</v>
-      </c>
-      <c r="B38" s="62" t="s">
-        <v>439</v>
-      </c>
-      <c r="C38" s="62"/>
-      <c r="D38" s="62"/>
-      <c r="E38" s="62"/>
-      <c r="F38" s="62"/>
-      <c r="G38" s="62"/>
-      <c r="H38" s="62"/>
-      <c r="I38" s="62"/>
+        <v>14</v>
+      </c>
+      <c r="B38" s="52" t="s">
+        <v>458</v>
+      </c>
+      <c r="C38" s="52" t="s">
+        <v>431</v>
+      </c>
+      <c r="D38" s="60" t="s">
+        <v>435</v>
+      </c>
+      <c r="E38" s="54" t="s">
+        <v>441</v>
+      </c>
+      <c r="F38" s="52"/>
+      <c r="G38" s="52"/>
+      <c r="H38" s="52"/>
+      <c r="I38" s="61"/>
     </row>
     <row r="39" spans="1:9" s="48" customFormat="1" ht="13.8">
-      <c r="A39" s="62"/>
-      <c r="B39" s="62"/>
-      <c r="C39" s="62"/>
-      <c r="D39" s="62"/>
-      <c r="E39" s="62"/>
-      <c r="F39" s="62"/>
-      <c r="G39" s="62"/>
-      <c r="H39" s="62"/>
-      <c r="I39" s="62"/>
+      <c r="A39" s="58">
+        <f t="shared" ref="A39:A59" ca="1" si="1">IF(OFFSET(A39,-1,0) ="",OFFSET(A39,-2,0)+1,OFFSET(A39,-1,0)+1 )</f>
+        <v>15</v>
+      </c>
+      <c r="B39" s="52" t="s">
+        <v>459</v>
+      </c>
+      <c r="C39" s="52" t="s">
+        <v>437</v>
+      </c>
+      <c r="D39" s="60" t="s">
+        <v>435</v>
+      </c>
+      <c r="E39" s="54" t="s">
+        <v>443</v>
+      </c>
+      <c r="F39" s="52"/>
+      <c r="G39" s="52"/>
+      <c r="H39" s="52"/>
+      <c r="I39" s="61"/>
     </row>
     <row r="40" spans="1:9" s="48" customFormat="1" ht="13.8">
-      <c r="A40" s="62"/>
-      <c r="B40" s="62"/>
-      <c r="C40" s="62"/>
-      <c r="D40" s="62"/>
-      <c r="E40" s="62"/>
-      <c r="F40" s="62"/>
-      <c r="G40" s="62"/>
-      <c r="H40" s="62"/>
-      <c r="I40" s="62"/>
-    </row>
-    <row r="41" spans="1:9" s="48" customFormat="1" ht="13.8">
-      <c r="A41" s="62"/>
-      <c r="B41" s="62"/>
-      <c r="C41" s="62"/>
-      <c r="D41" s="62"/>
-      <c r="E41" s="62"/>
-      <c r="F41" s="62"/>
-      <c r="G41" s="62"/>
-      <c r="H41" s="62"/>
-      <c r="I41" s="62"/>
+      <c r="A40" s="168"/>
+      <c r="B40" s="222" t="s">
+        <v>444</v>
+      </c>
+      <c r="C40" s="223"/>
+      <c r="D40" s="223"/>
+      <c r="E40" s="223"/>
+      <c r="F40" s="223"/>
+      <c r="G40" s="223"/>
+      <c r="H40" s="223"/>
+      <c r="I40" s="224"/>
+    </row>
+    <row r="41" spans="1:9" s="49" customFormat="1" ht="13.8">
+      <c r="A41" s="58">
+        <f t="shared" ca="1" si="1"/>
+        <v>16</v>
+      </c>
+      <c r="B41" s="52" t="s">
+        <v>460</v>
+      </c>
+      <c r="C41" s="52" t="s">
+        <v>445</v>
+      </c>
+      <c r="D41" s="60" t="s">
+        <v>446</v>
+      </c>
+      <c r="E41" s="54" t="s">
+        <v>447</v>
+      </c>
+      <c r="F41" s="52"/>
+      <c r="G41" s="52"/>
+      <c r="H41" s="52"/>
+      <c r="I41" s="61"/>
     </row>
     <row r="42" spans="1:9" s="48" customFormat="1" ht="13.8">
-      <c r="A42" s="62"/>
-      <c r="B42" s="62"/>
-      <c r="C42" s="62"/>
-      <c r="D42" s="62"/>
-      <c r="E42" s="62"/>
+      <c r="A42" s="58">
+        <f t="shared" ca="1" si="1"/>
+        <v>17</v>
+      </c>
+      <c r="B42" s="62" t="s">
+        <v>461</v>
+      </c>
+      <c r="C42" s="62" t="s">
+        <v>449</v>
+      </c>
+      <c r="D42" s="62" t="s">
+        <v>446</v>
+      </c>
+      <c r="E42" s="62" t="s">
+        <v>450</v>
+      </c>
       <c r="F42" s="62"/>
       <c r="G42" s="62"/>
       <c r="H42" s="62"/>
       <c r="I42" s="62"/>
     </row>
     <row r="43" spans="1:9" s="48" customFormat="1" ht="13.8">
-      <c r="A43" s="62"/>
-      <c r="B43" s="62"/>
-      <c r="C43" s="62"/>
-      <c r="D43" s="62"/>
-      <c r="E43" s="62"/>
+      <c r="A43" s="58">
+        <f t="shared" ca="1" si="1"/>
+        <v>18</v>
+      </c>
+      <c r="B43" s="62" t="s">
+        <v>462</v>
+      </c>
+      <c r="C43" s="62" t="s">
+        <v>452</v>
+      </c>
+      <c r="D43" s="62" t="s">
+        <v>446</v>
+      </c>
+      <c r="E43" s="62" t="s">
+        <v>453</v>
+      </c>
       <c r="F43" s="62"/>
       <c r="G43" s="62"/>
       <c r="H43" s="62"/>
       <c r="I43" s="62"/>
     </row>
     <row r="44" spans="1:9" s="48" customFormat="1" ht="13.8">
-      <c r="A44" s="62"/>
-      <c r="B44" s="62"/>
-      <c r="C44" s="62"/>
-      <c r="D44" s="62"/>
-      <c r="E44" s="62"/>
-      <c r="F44" s="62"/>
-      <c r="G44" s="62"/>
-      <c r="H44" s="62"/>
-      <c r="I44" s="62"/>
+      <c r="A44" s="168"/>
+      <c r="B44" s="232" t="s">
+        <v>463</v>
+      </c>
+      <c r="C44" s="233"/>
+      <c r="D44" s="233"/>
+      <c r="E44" s="233"/>
+      <c r="F44" s="233"/>
+      <c r="G44" s="233"/>
+      <c r="H44" s="233"/>
+      <c r="I44" s="234"/>
     </row>
     <row r="45" spans="1:9" s="48" customFormat="1" ht="13.8">
-      <c r="A45" s="62"/>
-      <c r="B45" s="62"/>
-      <c r="C45" s="62"/>
-      <c r="D45" s="62"/>
-      <c r="E45" s="62"/>
+      <c r="A45" s="58">
+        <f t="shared" ca="1" si="1"/>
+        <v>19</v>
+      </c>
+      <c r="B45" s="62" t="s">
+        <v>464</v>
+      </c>
+      <c r="C45" s="62" t="s">
+        <v>477</v>
+      </c>
+      <c r="D45" s="62" t="s">
+        <v>470</v>
+      </c>
+      <c r="E45" s="62" t="s">
+        <v>473</v>
+      </c>
       <c r="F45" s="62"/>
       <c r="G45" s="62"/>
       <c r="H45" s="62"/>
       <c r="I45" s="62"/>
     </row>
-    <row r="46" spans="1:9" s="48" customFormat="1" ht="13.8">
-      <c r="A46" s="62"/>
-      <c r="B46" s="62"/>
-      <c r="C46" s="62"/>
-      <c r="D46" s="62"/>
-      <c r="E46" s="62"/>
-      <c r="F46" s="62"/>
-      <c r="G46" s="62"/>
-      <c r="H46" s="62"/>
-      <c r="I46" s="62"/>
-    </row>
-    <row r="47" spans="1:9" s="48" customFormat="1" ht="13.8">
-      <c r="A47" s="62"/>
-      <c r="B47" s="62"/>
-      <c r="C47" s="62"/>
-      <c r="D47" s="62"/>
-      <c r="E47" s="62"/>
-      <c r="F47" s="62"/>
-      <c r="G47" s="62"/>
-      <c r="H47" s="62"/>
-      <c r="I47" s="62"/>
-    </row>
-    <row r="48" spans="1:9" s="48" customFormat="1" ht="13.8">
-      <c r="A48" s="62"/>
-      <c r="B48" s="62"/>
-      <c r="C48" s="62"/>
-      <c r="D48" s="62"/>
-      <c r="E48" s="62"/>
-      <c r="F48" s="62"/>
-      <c r="G48" s="62"/>
-      <c r="H48" s="62"/>
-      <c r="I48" s="62"/>
+    <row r="46" spans="1:9" s="48" customFormat="1" ht="24.6">
+      <c r="A46" s="58">
+        <f t="shared" ca="1" si="1"/>
+        <v>20</v>
+      </c>
+      <c r="B46" s="52" t="s">
+        <v>465</v>
+      </c>
+      <c r="C46" s="62" t="s">
+        <v>478</v>
+      </c>
+      <c r="D46" s="60" t="s">
+        <v>472</v>
+      </c>
+      <c r="E46" s="54" t="s">
+        <v>474</v>
+      </c>
+      <c r="F46" s="52"/>
+      <c r="G46" s="52"/>
+      <c r="H46" s="52"/>
+      <c r="I46" s="61"/>
+    </row>
+    <row r="47" spans="1:9" s="48" customFormat="1" ht="43.2" customHeight="1">
+      <c r="A47" s="58">
+        <f t="shared" ca="1" si="1"/>
+        <v>21</v>
+      </c>
+      <c r="B47" s="52" t="s">
+        <v>466</v>
+      </c>
+      <c r="C47" s="62" t="s">
+        <v>479</v>
+      </c>
+      <c r="D47" s="60" t="s">
+        <v>471</v>
+      </c>
+      <c r="E47" s="54" t="s">
+        <v>475</v>
+      </c>
+      <c r="F47" s="52"/>
+      <c r="G47" s="52"/>
+      <c r="H47" s="52"/>
+      <c r="I47" s="61"/>
+    </row>
+    <row r="48" spans="1:9" s="48" customFormat="1" ht="38.700000000000003" customHeight="1">
+      <c r="A48" s="58">
+        <f t="shared" ca="1" si="1"/>
+        <v>22</v>
+      </c>
+      <c r="B48" s="52" t="s">
+        <v>467</v>
+      </c>
+      <c r="C48" s="62" t="s">
+        <v>480</v>
+      </c>
+      <c r="D48" s="60" t="s">
+        <v>469</v>
+      </c>
+      <c r="E48" s="54" t="s">
+        <v>476</v>
+      </c>
+      <c r="F48" s="52"/>
+      <c r="G48" s="52"/>
+      <c r="H48" s="52"/>
+      <c r="I48" s="61"/>
     </row>
     <row r="49" spans="1:9" s="48" customFormat="1" ht="13.8">
-      <c r="A49" s="62"/>
-      <c r="B49" s="62"/>
-      <c r="C49" s="62"/>
-      <c r="D49" s="62"/>
-      <c r="E49" s="62"/>
-      <c r="F49" s="62"/>
-      <c r="G49" s="62"/>
-      <c r="H49" s="62"/>
-      <c r="I49" s="62"/>
+      <c r="A49" s="167"/>
+      <c r="B49" s="235" t="s">
+        <v>481</v>
+      </c>
+      <c r="C49" s="236"/>
+      <c r="D49" s="236"/>
+      <c r="E49" s="236"/>
+      <c r="F49" s="236"/>
+      <c r="G49" s="236"/>
+      <c r="H49" s="236"/>
+      <c r="I49" s="236"/>
     </row>
     <row r="50" spans="1:9" s="48" customFormat="1" ht="13.8">
-      <c r="A50" s="62"/>
-      <c r="B50" s="62"/>
-      <c r="C50" s="62"/>
-      <c r="D50" s="62"/>
-      <c r="E50" s="62"/>
-      <c r="F50" s="62"/>
-      <c r="G50" s="62"/>
-      <c r="H50" s="62"/>
-      <c r="I50" s="62"/>
+      <c r="A50" s="179">
+        <f t="shared" ca="1" si="1"/>
+        <v>23</v>
+      </c>
+      <c r="B50" s="182" t="s">
+        <v>494</v>
+      </c>
+      <c r="C50" s="181"/>
+      <c r="D50" s="181"/>
+      <c r="E50" s="181"/>
+      <c r="F50" s="181"/>
+      <c r="G50" s="181"/>
+      <c r="H50" s="181"/>
+      <c r="I50" s="181"/>
     </row>
     <row r="51" spans="1:9" s="48" customFormat="1" ht="13.8">
-      <c r="A51" s="62"/>
-      <c r="B51" s="52"/>
-      <c r="C51" s="52"/>
-      <c r="D51" s="54"/>
-      <c r="E51" s="54"/>
-      <c r="F51" s="52"/>
-      <c r="G51" s="52"/>
-      <c r="H51" s="52"/>
-      <c r="I51" s="62"/>
+      <c r="A51" s="180"/>
+      <c r="B51" s="237" t="s">
+        <v>482</v>
+      </c>
+      <c r="C51" s="238"/>
+      <c r="D51" s="238"/>
+      <c r="E51" s="238"/>
+      <c r="F51" s="238"/>
+      <c r="G51" s="238"/>
+      <c r="H51" s="238"/>
+      <c r="I51" s="238"/>
     </row>
     <row r="52" spans="1:9" s="48" customFormat="1" ht="13.8">
-      <c r="A52" s="77"/>
-      <c r="B52" s="194"/>
-      <c r="C52" s="195"/>
-      <c r="D52" s="196"/>
-      <c r="E52" s="69"/>
-      <c r="F52" s="66"/>
-      <c r="G52" s="66"/>
-      <c r="H52" s="66"/>
-      <c r="I52" s="69"/>
+      <c r="A52" s="58">
+        <f t="shared" ca="1" si="1"/>
+        <v>24</v>
+      </c>
+      <c r="B52" s="52" t="s">
+        <v>483</v>
+      </c>
+      <c r="C52" s="52"/>
+      <c r="D52" s="60"/>
+      <c r="E52" s="54"/>
+      <c r="F52" s="52"/>
+      <c r="G52" s="52"/>
+      <c r="H52" s="52"/>
+      <c r="I52" s="61"/>
     </row>
     <row r="53" spans="1:9" s="48" customFormat="1" ht="13.8">
-      <c r="A53" s="62"/>
-      <c r="B53" s="52"/>
+      <c r="A53" s="58">
+        <f t="shared" ca="1" si="1"/>
+        <v>25</v>
+      </c>
+      <c r="B53" s="52" t="s">
+        <v>484</v>
+      </c>
       <c r="C53" s="52"/>
-      <c r="D53" s="53"/>
+      <c r="D53" s="60"/>
       <c r="E53" s="54"/>
       <c r="F53" s="52"/>
       <c r="G53" s="52"/>
       <c r="H53" s="52"/>
-      <c r="I53" s="62"/>
+      <c r="I53" s="61"/>
     </row>
     <row r="54" spans="1:9" s="48" customFormat="1" ht="13.8">
-      <c r="A54" s="62"/>
-      <c r="B54" s="52"/>
+      <c r="A54" s="58">
+        <f t="shared" ca="1" si="1"/>
+        <v>26</v>
+      </c>
+      <c r="B54" s="52" t="s">
+        <v>487</v>
+      </c>
       <c r="C54" s="52"/>
-      <c r="D54" s="54"/>
-      <c r="E54" s="60"/>
+      <c r="D54" s="60"/>
+      <c r="E54" s="54"/>
       <c r="F54" s="52"/>
       <c r="G54" s="52"/>
       <c r="H54" s="52"/>
-      <c r="I54" s="62"/>
+      <c r="I54" s="61"/>
     </row>
     <row r="55" spans="1:9" s="48" customFormat="1" ht="13.8">
-      <c r="A55" s="62"/>
-      <c r="B55" s="52"/>
+      <c r="A55" s="58">
+        <f t="shared" ca="1" si="1"/>
+        <v>27</v>
+      </c>
+      <c r="B55" s="52" t="s">
+        <v>486</v>
+      </c>
       <c r="C55" s="52"/>
       <c r="D55" s="60"/>
       <c r="E55" s="54"/>
       <c r="F55" s="52"/>
       <c r="G55" s="52"/>
       <c r="H55" s="52"/>
-      <c r="I55" s="62"/>
+      <c r="I55" s="61"/>
     </row>
     <row r="56" spans="1:9" s="48" customFormat="1" ht="13.8">
-      <c r="A56" s="77"/>
-      <c r="B56" s="194"/>
-      <c r="C56" s="195"/>
-      <c r="D56" s="196"/>
-      <c r="E56" s="69"/>
-      <c r="F56" s="66"/>
-      <c r="G56" s="66"/>
-      <c r="H56" s="66"/>
-      <c r="I56" s="69"/>
+      <c r="A56" s="58">
+        <f t="shared" ca="1" si="1"/>
+        <v>28</v>
+      </c>
+      <c r="B56" s="52" t="s">
+        <v>485</v>
+      </c>
+      <c r="C56" s="52"/>
+      <c r="D56" s="60"/>
+      <c r="E56" s="54"/>
+      <c r="F56" s="52"/>
+      <c r="G56" s="52"/>
+      <c r="H56" s="52"/>
+      <c r="I56" s="61"/>
     </row>
     <row r="57" spans="1:9" s="48" customFormat="1" ht="13.8">
-      <c r="A57" s="62"/>
-      <c r="B57" s="52"/>
-      <c r="C57" s="52"/>
-      <c r="D57" s="53"/>
-      <c r="E57" s="54"/>
-      <c r="F57" s="52"/>
-      <c r="G57" s="52"/>
-      <c r="H57" s="52"/>
-      <c r="I57" s="62"/>
+      <c r="A57" s="180"/>
+      <c r="B57" s="239" t="s">
+        <v>488</v>
+      </c>
+      <c r="C57" s="226"/>
+      <c r="D57" s="226"/>
+      <c r="E57" s="226"/>
+      <c r="F57" s="226"/>
+      <c r="G57" s="226"/>
+      <c r="H57" s="226"/>
+      <c r="I57" s="227"/>
     </row>
     <row r="58" spans="1:9" s="48" customFormat="1" ht="13.8">
-      <c r="A58" s="62"/>
-      <c r="B58" s="52"/>
+      <c r="A58" s="58">
+        <f t="shared" ca="1" si="1"/>
+        <v>29</v>
+      </c>
+      <c r="B58" s="52" t="s">
+        <v>489</v>
+      </c>
       <c r="C58" s="52"/>
-      <c r="D58" s="54"/>
-      <c r="E58" s="60"/>
+      <c r="D58" s="60"/>
+      <c r="E58" s="54"/>
       <c r="F58" s="52"/>
       <c r="G58" s="52"/>
       <c r="H58" s="52"/>
-      <c r="I58" s="62"/>
+      <c r="I58" s="61"/>
     </row>
     <row r="59" spans="1:9" s="48" customFormat="1" ht="13.8">
-      <c r="A59" s="62"/>
-      <c r="B59" s="52"/>
+      <c r="A59" s="58">
+        <f t="shared" ca="1" si="1"/>
+        <v>30</v>
+      </c>
+      <c r="B59" s="52" t="s">
+        <v>490</v>
+      </c>
       <c r="C59" s="52"/>
-      <c r="D59" s="54"/>
-      <c r="E59" s="60"/>
+      <c r="D59" s="60"/>
+      <c r="E59" s="54"/>
       <c r="F59" s="52"/>
       <c r="G59" s="52"/>
       <c r="H59" s="52"/>
-      <c r="I59" s="62"/>
+      <c r="I59" s="61"/>
     </row>
     <row r="60" spans="1:9" s="48" customFormat="1" ht="13.8">
-      <c r="A60" s="62"/>
-      <c r="B60" s="52"/>
+      <c r="A60" s="58">
+        <f ca="1">IF(OFFSET(A60,-1,0) ="",OFFSET(A60,-2,0)+1,OFFSET(A60,-1,0)+1 )</f>
+        <v>31</v>
+      </c>
+      <c r="B60" s="52" t="s">
+        <v>491</v>
+      </c>
       <c r="C60" s="52"/>
-      <c r="D60" s="54"/>
-      <c r="E60" s="60"/>
+      <c r="D60" s="60"/>
+      <c r="E60" s="54"/>
       <c r="F60" s="52"/>
       <c r="G60" s="52"/>
       <c r="H60" s="52"/>
-      <c r="I60" s="62"/>
+      <c r="I60" s="61"/>
     </row>
     <row r="61" spans="1:9" s="48" customFormat="1" ht="13.8">
-      <c r="A61" s="62"/>
-      <c r="B61" s="52"/>
+      <c r="A61" s="58">
+        <f ca="1">IF(OFFSET(A61,-1,0) ="",OFFSET(A61,-2,0)+1,OFFSET(A61,-1,0)+1 )</f>
+        <v>32</v>
+      </c>
+      <c r="B61" s="52" t="s">
+        <v>492</v>
+      </c>
       <c r="C61" s="52"/>
-      <c r="D61" s="54"/>
+      <c r="D61" s="60"/>
       <c r="E61" s="54"/>
       <c r="F61" s="52"/>
       <c r="G61" s="52"/>
       <c r="H61" s="52"/>
-      <c r="I61" s="62"/>
+      <c r="I61" s="61"/>
     </row>
     <row r="62" spans="1:9" s="48" customFormat="1" ht="13.8">
-      <c r="A62" s="62"/>
-      <c r="B62" s="52"/>
+      <c r="A62" s="58">
+        <f t="shared" ref="A62:A66" ca="1" si="2">IF(OFFSET(A62,-1,0) ="",OFFSET(A62,-2,0)+1,OFFSET(A62,-1,0)+1 )</f>
+        <v>33</v>
+      </c>
+      <c r="B62" s="52" t="s">
+        <v>496</v>
+      </c>
       <c r="C62" s="52"/>
-      <c r="D62" s="54"/>
+      <c r="D62" s="53"/>
       <c r="E62" s="54"/>
       <c r="F62" s="52"/>
       <c r="G62" s="52"/>
@@ -7228,276 +7651,443 @@
       <c r="I62" s="62"/>
     </row>
     <row r="63" spans="1:9" s="48" customFormat="1" ht="13.8">
-      <c r="A63" s="62"/>
-      <c r="B63" s="52"/>
+      <c r="A63" s="58">
+        <f t="shared" ca="1" si="2"/>
+        <v>34</v>
+      </c>
+      <c r="B63" s="52" t="s">
+        <v>497</v>
+      </c>
       <c r="C63" s="52"/>
-      <c r="D63" s="60"/>
-      <c r="E63" s="54"/>
+      <c r="D63" s="54"/>
+      <c r="E63" s="60"/>
       <c r="F63" s="52"/>
       <c r="G63" s="52"/>
       <c r="H63" s="52"/>
       <c r="I63" s="62"/>
     </row>
     <row r="64" spans="1:9" s="48" customFormat="1" ht="13.8">
-      <c r="A64" s="62"/>
-      <c r="B64" s="52"/>
-      <c r="C64" s="52"/>
-      <c r="D64" s="60"/>
-      <c r="E64" s="54"/>
-      <c r="F64" s="52"/>
-      <c r="G64" s="52"/>
-      <c r="H64" s="52"/>
-      <c r="I64" s="62"/>
+      <c r="A64" s="168"/>
+      <c r="B64" s="228" t="s">
+        <v>493</v>
+      </c>
+      <c r="C64" s="229"/>
+      <c r="D64" s="229"/>
+      <c r="E64" s="229"/>
+      <c r="F64" s="229"/>
+      <c r="G64" s="229"/>
+      <c r="H64" s="229"/>
+      <c r="I64" s="230"/>
     </row>
     <row r="65" spans="1:9" s="48" customFormat="1" ht="13.8">
-      <c r="A65" s="62"/>
-      <c r="B65" s="52"/>
-      <c r="C65" s="52"/>
-      <c r="D65" s="60"/>
-      <c r="E65" s="54"/>
-      <c r="F65" s="52"/>
-      <c r="G65" s="52"/>
-      <c r="H65" s="52"/>
-      <c r="I65" s="62"/>
+      <c r="A65" s="58">
+        <f t="shared" ca="1" si="2"/>
+        <v>35</v>
+      </c>
+      <c r="B65" s="170" t="s">
+        <v>483</v>
+      </c>
+      <c r="C65" s="170"/>
+      <c r="D65" s="53"/>
+      <c r="E65" s="53"/>
+      <c r="F65" s="170"/>
+      <c r="G65" s="170"/>
+      <c r="H65" s="170"/>
+      <c r="I65" s="63"/>
     </row>
     <row r="66" spans="1:9" s="48" customFormat="1" ht="13.8">
-      <c r="A66" s="62"/>
-      <c r="B66" s="52"/>
-      <c r="C66" s="52"/>
-      <c r="D66" s="54"/>
-      <c r="E66" s="60"/>
-      <c r="F66" s="52"/>
-      <c r="G66" s="52"/>
-      <c r="H66" s="52"/>
-      <c r="I66" s="62"/>
+      <c r="A66" s="58">
+        <f t="shared" ca="1" si="2"/>
+        <v>36</v>
+      </c>
+      <c r="B66" s="170" t="s">
+        <v>495</v>
+      </c>
+      <c r="C66" s="170"/>
+      <c r="D66" s="59"/>
+      <c r="E66" s="53"/>
+      <c r="F66" s="170"/>
+      <c r="G66" s="170"/>
+      <c r="H66" s="170"/>
+      <c r="I66" s="63"/>
     </row>
     <row r="67" spans="1:9" s="48" customFormat="1" ht="13.8">
-      <c r="A67" s="62"/>
-      <c r="B67" s="52"/>
-      <c r="C67" s="52"/>
-      <c r="D67" s="54"/>
-      <c r="E67" s="60"/>
-      <c r="F67" s="52"/>
-      <c r="G67" s="52"/>
-      <c r="H67" s="52"/>
-      <c r="I67" s="62"/>
+      <c r="A67" s="58"/>
+      <c r="B67" s="170"/>
+      <c r="C67" s="170"/>
+      <c r="D67" s="53"/>
+      <c r="E67" s="53"/>
+      <c r="F67" s="170"/>
+      <c r="G67" s="170"/>
+      <c r="H67" s="170"/>
+      <c r="I67" s="63"/>
     </row>
     <row r="68" spans="1:9" s="48" customFormat="1" ht="13.8">
-      <c r="A68" s="77"/>
-      <c r="B68" s="194"/>
-      <c r="C68" s="195"/>
-      <c r="D68" s="196"/>
-      <c r="E68" s="69"/>
-      <c r="F68" s="66"/>
-      <c r="G68" s="66"/>
-      <c r="H68" s="66"/>
-      <c r="I68" s="69"/>
+      <c r="A68" s="58"/>
+      <c r="B68" s="63"/>
+      <c r="C68" s="63"/>
+      <c r="D68" s="63"/>
+      <c r="E68" s="63"/>
+      <c r="F68" s="63"/>
+      <c r="G68" s="63"/>
+      <c r="H68" s="63"/>
+      <c r="I68" s="63"/>
     </row>
     <row r="69" spans="1:9" s="48" customFormat="1" ht="13.8">
-      <c r="A69" s="62"/>
-      <c r="B69" s="52"/>
-      <c r="C69" s="52"/>
-      <c r="D69" s="53"/>
-      <c r="E69" s="54"/>
-      <c r="F69" s="52"/>
-      <c r="G69" s="52"/>
-      <c r="H69" s="52"/>
-      <c r="I69" s="62"/>
+      <c r="A69" s="58"/>
+      <c r="B69" s="63"/>
+      <c r="C69" s="63"/>
+      <c r="D69" s="63"/>
+      <c r="E69" s="63"/>
+      <c r="F69" s="63"/>
+      <c r="G69" s="63"/>
+      <c r="H69" s="63"/>
+      <c r="I69" s="63"/>
     </row>
     <row r="70" spans="1:9" s="48" customFormat="1" ht="13.8">
-      <c r="A70" s="62"/>
-      <c r="B70" s="52"/>
-      <c r="C70" s="52"/>
-      <c r="D70" s="60"/>
-      <c r="E70" s="60"/>
-      <c r="F70" s="52"/>
-      <c r="G70" s="52"/>
-      <c r="H70" s="52"/>
-      <c r="I70" s="62"/>
+      <c r="A70" s="58"/>
+      <c r="B70" s="63"/>
+      <c r="C70" s="63"/>
+      <c r="D70" s="63"/>
+      <c r="E70" s="63"/>
+      <c r="F70" s="63"/>
+      <c r="G70" s="63"/>
+      <c r="H70" s="63"/>
+      <c r="I70" s="63"/>
     </row>
     <row r="71" spans="1:9" s="48" customFormat="1" ht="13.8">
-      <c r="A71" s="62"/>
-      <c r="B71" s="52"/>
-      <c r="C71" s="52"/>
-      <c r="D71" s="60"/>
-      <c r="E71" s="60"/>
-      <c r="F71" s="52"/>
-      <c r="G71" s="52"/>
-      <c r="H71" s="52"/>
-      <c r="I71" s="62"/>
+      <c r="A71" s="63"/>
+      <c r="B71" s="63"/>
+      <c r="C71" s="63"/>
+      <c r="D71" s="63"/>
+      <c r="E71" s="63"/>
+      <c r="F71" s="63"/>
+      <c r="G71" s="63"/>
+      <c r="H71" s="63"/>
+      <c r="I71" s="63"/>
     </row>
     <row r="72" spans="1:9" s="48" customFormat="1" ht="13.8">
-      <c r="A72" s="77"/>
-      <c r="B72" s="194"/>
-      <c r="C72" s="195"/>
-      <c r="D72" s="196"/>
-      <c r="E72" s="69"/>
-      <c r="F72" s="66"/>
-      <c r="G72" s="66"/>
-      <c r="H72" s="66"/>
-      <c r="I72" s="69"/>
+      <c r="A72" s="63"/>
+      <c r="B72" s="170"/>
+      <c r="C72" s="170"/>
+      <c r="D72" s="53"/>
+      <c r="E72" s="59"/>
+      <c r="F72" s="170"/>
+      <c r="G72" s="170"/>
+      <c r="H72" s="170"/>
+      <c r="I72" s="63"/>
     </row>
     <row r="73" spans="1:9" s="48" customFormat="1" ht="13.8">
-      <c r="A73" s="62"/>
-      <c r="B73" s="52"/>
-      <c r="C73" s="52"/>
-      <c r="D73" s="54"/>
-      <c r="E73" s="54"/>
-      <c r="F73" s="52"/>
-      <c r="G73" s="52"/>
-      <c r="H73" s="52"/>
-      <c r="I73" s="62"/>
+      <c r="A73" s="171"/>
+      <c r="B73" s="209"/>
+      <c r="C73" s="210"/>
+      <c r="D73" s="211"/>
+      <c r="E73" s="172"/>
+      <c r="F73" s="173"/>
+      <c r="G73" s="173"/>
+      <c r="H73" s="173"/>
+      <c r="I73" s="172"/>
     </row>
     <row r="74" spans="1:9" s="48" customFormat="1" ht="13.8">
-      <c r="A74" s="62"/>
-      <c r="B74" s="52"/>
-      <c r="C74" s="52"/>
-      <c r="D74" s="54"/>
-      <c r="E74" s="54"/>
-      <c r="F74" s="52"/>
-      <c r="G74" s="52"/>
-      <c r="H74" s="52"/>
-      <c r="I74" s="62"/>
+      <c r="A74" s="63"/>
+      <c r="B74" s="170"/>
+      <c r="C74" s="170"/>
+      <c r="D74" s="53"/>
+      <c r="E74" s="53"/>
+      <c r="F74" s="170"/>
+      <c r="G74" s="170"/>
+      <c r="H74" s="170"/>
+      <c r="I74" s="63"/>
     </row>
     <row r="75" spans="1:9" s="48" customFormat="1" ht="13.8">
-      <c r="A75" s="62"/>
-      <c r="B75" s="52"/>
-      <c r="C75" s="52"/>
-      <c r="D75" s="54"/>
-      <c r="E75" s="54"/>
-      <c r="F75" s="52"/>
-      <c r="G75" s="52"/>
-      <c r="H75" s="52"/>
-      <c r="I75" s="62"/>
-    </row>
-    <row r="76" spans="1:9" s="48" customFormat="1" ht="14.25" customHeight="1">
-      <c r="A76" s="77"/>
-      <c r="B76" s="194"/>
-      <c r="C76" s="195"/>
-      <c r="D76" s="196"/>
-      <c r="E76" s="69"/>
-      <c r="F76" s="66"/>
-      <c r="G76" s="66"/>
-      <c r="H76" s="66"/>
-      <c r="I76" s="69"/>
+      <c r="A75" s="63"/>
+      <c r="B75" s="170"/>
+      <c r="C75" s="170"/>
+      <c r="D75" s="59"/>
+      <c r="E75" s="59"/>
+      <c r="F75" s="170"/>
+      <c r="G75" s="170"/>
+      <c r="H75" s="170"/>
+      <c r="I75" s="63"/>
+    </row>
+    <row r="76" spans="1:9" s="48" customFormat="1" ht="13.8">
+      <c r="A76" s="63"/>
+      <c r="B76" s="170"/>
+      <c r="C76" s="170"/>
+      <c r="D76" s="59"/>
+      <c r="E76" s="59"/>
+      <c r="F76" s="170"/>
+      <c r="G76" s="170"/>
+      <c r="H76" s="170"/>
+      <c r="I76" s="63"/>
     </row>
     <row r="77" spans="1:9" s="48" customFormat="1" ht="13.8">
-      <c r="A77" s="62"/>
-      <c r="B77" s="52"/>
-      <c r="C77" s="52"/>
-      <c r="D77" s="54"/>
-      <c r="E77" s="60"/>
-      <c r="F77" s="52"/>
-      <c r="G77" s="52"/>
-      <c r="H77" s="52"/>
-      <c r="I77" s="62"/>
+      <c r="A77" s="171"/>
+      <c r="B77" s="209"/>
+      <c r="C77" s="210"/>
+      <c r="D77" s="211"/>
+      <c r="E77" s="172"/>
+      <c r="F77" s="173"/>
+      <c r="G77" s="173"/>
+      <c r="H77" s="173"/>
+      <c r="I77" s="172"/>
     </row>
     <row r="78" spans="1:9" s="48" customFormat="1" ht="13.8">
-      <c r="A78" s="62"/>
-      <c r="B78" s="52"/>
-      <c r="C78" s="52"/>
-      <c r="D78" s="60"/>
-      <c r="E78" s="60"/>
-      <c r="F78" s="52"/>
-      <c r="G78" s="52"/>
-      <c r="H78" s="52"/>
-      <c r="I78" s="62"/>
-    </row>
-    <row r="79" spans="1:9" s="48" customFormat="1" ht="14.25" customHeight="1">
-      <c r="A79" s="77"/>
-      <c r="B79" s="194"/>
-      <c r="C79" s="195"/>
-      <c r="D79" s="196"/>
-      <c r="E79" s="69"/>
-      <c r="F79" s="66"/>
-      <c r="G79" s="66"/>
-      <c r="H79" s="66"/>
-      <c r="I79" s="69"/>
+      <c r="A78" s="63"/>
+      <c r="B78" s="170"/>
+      <c r="C78" s="170"/>
+      <c r="D78" s="53"/>
+      <c r="E78" s="53"/>
+      <c r="F78" s="170"/>
+      <c r="G78" s="170"/>
+      <c r="H78" s="170"/>
+      <c r="I78" s="63"/>
+    </row>
+    <row r="79" spans="1:9" s="48" customFormat="1" ht="13.8">
+      <c r="A79" s="63"/>
+      <c r="B79" s="170"/>
+      <c r="C79" s="170"/>
+      <c r="D79" s="53"/>
+      <c r="E79" s="53"/>
+      <c r="F79" s="170"/>
+      <c r="G79" s="170"/>
+      <c r="H79" s="170"/>
+      <c r="I79" s="63"/>
     </row>
     <row r="80" spans="1:9" s="48" customFormat="1" ht="13.8">
-      <c r="A80" s="62"/>
-      <c r="B80" s="52"/>
-      <c r="C80" s="52"/>
+      <c r="A80" s="63"/>
+      <c r="B80" s="170"/>
+      <c r="C80" s="170"/>
       <c r="D80" s="53"/>
-      <c r="E80" s="54"/>
-      <c r="F80" s="52"/>
-      <c r="G80" s="52"/>
-      <c r="H80" s="52"/>
-      <c r="I80" s="62"/>
-    </row>
-    <row r="81" spans="1:9" s="48" customFormat="1" ht="13.8">
-      <c r="A81" s="62"/>
-      <c r="B81" s="52"/>
-      <c r="C81" s="52"/>
-      <c r="D81" s="60"/>
-      <c r="E81" s="54"/>
-      <c r="F81" s="52"/>
-      <c r="G81" s="52"/>
-      <c r="H81" s="52"/>
-      <c r="I81" s="62"/>
+      <c r="E80" s="53"/>
+      <c r="F80" s="170"/>
+      <c r="G80" s="170"/>
+      <c r="H80" s="170"/>
+      <c r="I80" s="63"/>
+    </row>
+    <row r="81" spans="1:9" s="48" customFormat="1" ht="14.25" customHeight="1">
+      <c r="A81" s="171"/>
+      <c r="B81" s="209"/>
+      <c r="C81" s="210"/>
+      <c r="D81" s="211"/>
+      <c r="E81" s="172"/>
+      <c r="F81" s="173"/>
+      <c r="G81" s="173"/>
+      <c r="H81" s="173"/>
+      <c r="I81" s="172"/>
     </row>
     <row r="82" spans="1:9" s="48" customFormat="1" ht="13.8">
-      <c r="A82" s="62"/>
-      <c r="B82" s="52"/>
-      <c r="C82" s="52"/>
-      <c r="D82" s="60"/>
-      <c r="E82" s="54"/>
-      <c r="F82" s="52"/>
-      <c r="G82" s="52"/>
-      <c r="H82" s="52"/>
-      <c r="I82" s="62"/>
+      <c r="A82" s="63"/>
+      <c r="B82" s="170"/>
+      <c r="C82" s="170"/>
+      <c r="D82" s="53"/>
+      <c r="E82" s="59"/>
+      <c r="F82" s="170"/>
+      <c r="G82" s="170"/>
+      <c r="H82" s="170"/>
+      <c r="I82" s="63"/>
     </row>
     <row r="83" spans="1:9" s="48" customFormat="1" ht="13.8">
-      <c r="A83" s="62"/>
-      <c r="B83" s="52"/>
-      <c r="C83" s="52"/>
-      <c r="D83" s="60"/>
-      <c r="E83" s="54"/>
-      <c r="F83" s="52"/>
-      <c r="G83" s="52"/>
-      <c r="H83" s="52"/>
-      <c r="I83" s="62"/>
-    </row>
-    <row r="84" spans="1:9" s="48" customFormat="1" ht="13.8">
-      <c r="A84" s="62"/>
-      <c r="B84" s="52"/>
-      <c r="C84" s="52"/>
-      <c r="D84" s="60"/>
-      <c r="E84" s="54"/>
-      <c r="F84" s="52"/>
-      <c r="G84" s="52"/>
-      <c r="H84" s="52"/>
-      <c r="I84" s="62"/>
+      <c r="A83" s="63"/>
+      <c r="B83" s="170"/>
+      <c r="C83" s="170"/>
+      <c r="D83" s="59"/>
+      <c r="E83" s="59"/>
+      <c r="F83" s="170"/>
+      <c r="G83" s="170"/>
+      <c r="H83" s="170"/>
+      <c r="I83" s="63"/>
+    </row>
+    <row r="84" spans="1:9" s="48" customFormat="1" ht="14.25" customHeight="1">
+      <c r="A84" s="171"/>
+      <c r="B84" s="209"/>
+      <c r="C84" s="210"/>
+      <c r="D84" s="211"/>
+      <c r="E84" s="172"/>
+      <c r="F84" s="173"/>
+      <c r="G84" s="173"/>
+      <c r="H84" s="173"/>
+      <c r="I84" s="172"/>
+    </row>
+    <row r="85" spans="1:9" s="48" customFormat="1" ht="13.8">
+      <c r="A85" s="63"/>
+      <c r="B85" s="174"/>
+      <c r="C85" s="175"/>
+      <c r="D85" s="175"/>
+      <c r="E85" s="175"/>
+      <c r="F85" s="175"/>
+      <c r="G85" s="175"/>
+      <c r="H85" s="175"/>
+      <c r="I85" s="176"/>
+    </row>
+    <row r="86" spans="1:9" s="48" customFormat="1" ht="13.8">
+      <c r="A86" s="63"/>
+      <c r="B86" s="170"/>
+      <c r="C86" s="170"/>
+      <c r="D86" s="59"/>
+      <c r="E86" s="53"/>
+      <c r="F86" s="170"/>
+      <c r="G86" s="170"/>
+      <c r="H86" s="170"/>
+      <c r="I86" s="177"/>
+    </row>
+    <row r="87" spans="1:9" s="48" customFormat="1" ht="13.8">
+      <c r="A87" s="63"/>
+      <c r="B87" s="170"/>
+      <c r="C87" s="170"/>
+      <c r="D87" s="53"/>
+      <c r="E87" s="53"/>
+      <c r="F87" s="170"/>
+      <c r="G87" s="170"/>
+      <c r="H87" s="170"/>
+      <c r="I87" s="177"/>
+    </row>
+    <row r="88" spans="1:9" s="48" customFormat="1" ht="13.8">
+      <c r="A88" s="63"/>
+      <c r="B88" s="170"/>
+      <c r="C88" s="170"/>
+      <c r="D88" s="53"/>
+      <c r="E88" s="53"/>
+      <c r="F88" s="170"/>
+      <c r="G88" s="170"/>
+      <c r="H88" s="170"/>
+      <c r="I88" s="177"/>
+    </row>
+    <row r="89" spans="1:9" s="48" customFormat="1" ht="13.8">
+      <c r="A89" s="63"/>
+      <c r="B89" s="170"/>
+      <c r="C89" s="170"/>
+      <c r="D89" s="53"/>
+      <c r="E89" s="53"/>
+      <c r="F89" s="170"/>
+      <c r="G89" s="170"/>
+      <c r="H89" s="170"/>
+      <c r="I89" s="177"/>
+    </row>
+    <row r="90" spans="1:9">
+      <c r="A90" s="178"/>
+      <c r="B90" s="170"/>
+      <c r="C90" s="170"/>
+      <c r="D90" s="53"/>
+      <c r="E90" s="53"/>
+      <c r="F90" s="170"/>
+      <c r="G90" s="170"/>
+      <c r="H90" s="170"/>
+      <c r="I90" s="177"/>
+    </row>
+    <row r="91" spans="1:9">
+      <c r="A91" s="178"/>
+      <c r="B91" s="170"/>
+      <c r="C91" s="170"/>
+      <c r="D91" s="53"/>
+      <c r="E91" s="53"/>
+      <c r="F91" s="170"/>
+      <c r="G91" s="170"/>
+      <c r="H91" s="170"/>
+      <c r="I91" s="63"/>
+    </row>
+    <row r="92" spans="1:9">
+      <c r="A92" s="178"/>
+      <c r="B92" s="170"/>
+      <c r="C92" s="170"/>
+      <c r="D92" s="53"/>
+      <c r="E92" s="53"/>
+      <c r="F92" s="170"/>
+      <c r="G92" s="170"/>
+      <c r="H92" s="170"/>
+      <c r="I92" s="63"/>
+    </row>
+    <row r="93" spans="1:9">
+      <c r="A93" s="178"/>
+      <c r="B93" s="170"/>
+      <c r="C93" s="170"/>
+      <c r="D93" s="53"/>
+      <c r="E93" s="53"/>
+      <c r="F93" s="170"/>
+      <c r="G93" s="170"/>
+      <c r="H93" s="170"/>
+      <c r="I93" s="63"/>
+    </row>
+    <row r="94" spans="1:9">
+      <c r="A94" s="178"/>
+      <c r="B94" s="170"/>
+      <c r="C94" s="170"/>
+      <c r="D94" s="53"/>
+      <c r="E94" s="53"/>
+      <c r="F94" s="170"/>
+      <c r="G94" s="170"/>
+      <c r="H94" s="170"/>
+      <c r="I94" s="63"/>
+    </row>
+    <row r="95" spans="1:9">
+      <c r="A95" s="178"/>
+      <c r="B95" s="170"/>
+      <c r="C95" s="170"/>
+      <c r="D95" s="59"/>
+      <c r="E95" s="53"/>
+      <c r="F95" s="170"/>
+      <c r="G95" s="170"/>
+      <c r="H95" s="170"/>
+      <c r="I95" s="63"/>
+    </row>
+    <row r="96" spans="1:9">
+      <c r="A96" s="178"/>
+      <c r="B96" s="170"/>
+      <c r="C96" s="170"/>
+      <c r="D96" s="53"/>
+      <c r="E96" s="53"/>
+      <c r="F96" s="170"/>
+      <c r="G96" s="170"/>
+      <c r="H96" s="170"/>
+      <c r="I96" s="63"/>
+    </row>
+    <row r="97" spans="2:9">
+      <c r="B97" s="62"/>
+      <c r="C97" s="62"/>
+      <c r="D97" s="62"/>
+      <c r="E97" s="62"/>
+      <c r="F97" s="62"/>
+      <c r="G97" s="62"/>
+      <c r="H97" s="62"/>
+      <c r="I97" s="62"/>
     </row>
   </sheetData>
-  <mergeCells count="19">
-    <mergeCell ref="B31:I31"/>
-    <mergeCell ref="B72:D72"/>
-    <mergeCell ref="B76:D76"/>
-    <mergeCell ref="B79:D79"/>
+  <mergeCells count="27">
+    <mergeCell ref="B57:I57"/>
+    <mergeCell ref="B36:I36"/>
+    <mergeCell ref="B40:I40"/>
+    <mergeCell ref="B44:I44"/>
+    <mergeCell ref="B49:I49"/>
+    <mergeCell ref="B51:I51"/>
+    <mergeCell ref="B20:I20"/>
+    <mergeCell ref="B23:I23"/>
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="B4:D4"/>
+    <mergeCell ref="B5:D5"/>
+    <mergeCell ref="B77:D77"/>
+    <mergeCell ref="B81:D81"/>
+    <mergeCell ref="B84:D84"/>
     <mergeCell ref="A1:D1"/>
     <mergeCell ref="A2:D2"/>
-    <mergeCell ref="B52:D52"/>
-    <mergeCell ref="B56:D56"/>
-    <mergeCell ref="B68:D68"/>
+    <mergeCell ref="B73:D73"/>
     <mergeCell ref="B6:D6"/>
     <mergeCell ref="B7:D7"/>
     <mergeCell ref="B8:D8"/>
-    <mergeCell ref="B23:I23"/>
     <mergeCell ref="B18:I18"/>
     <mergeCell ref="F16:H16"/>
     <mergeCell ref="E2:E3"/>
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="B4:D4"/>
-    <mergeCell ref="B5:D5"/>
+    <mergeCell ref="B27:I27"/>
+    <mergeCell ref="B31:I31"/>
+    <mergeCell ref="B33:I33"/>
+    <mergeCell ref="B64:I64"/>
   </mergeCells>
   <dataValidations count="3">
     <dataValidation showDropDown="1" showErrorMessage="1" sqref="F16:H17"/>
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="F85:H142">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="F98:H147">
       <formula1>#REF!</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" sqref="F19:H22 F24:H30 F32:H34 F51:H84">
+    <dataValidation type="list" allowBlank="1" sqref="F86:H96 F37:H39 F65:H67 F72:H84 F28:H28 F19:H19 F21:H22 F24:H26 F41:H41 F32:H32 F34:H35 F46:H48 F52:H56 F58:H63">
       <formula1>$A$11:$A$15</formula1>
     </dataValidation>
   </dataValidations>
@@ -7526,10 +8116,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:24" s="1" customFormat="1" ht="13.8">
-      <c r="A1" s="201"/>
-      <c r="B1" s="201"/>
-      <c r="C1" s="201"/>
-      <c r="D1" s="201"/>
+      <c r="A1" s="212"/>
+      <c r="B1" s="212"/>
+      <c r="C1" s="212"/>
+      <c r="D1" s="212"/>
       <c r="E1" s="34"/>
       <c r="F1" s="34"/>
       <c r="G1" s="34"/>
@@ -7538,13 +8128,13 @@
       <c r="J1" s="34"/>
     </row>
     <row r="2" spans="1:24" s="1" customFormat="1" ht="31.5" customHeight="1">
-      <c r="A2" s="202" t="s">
+      <c r="A2" s="213" t="s">
         <v>70</v>
       </c>
-      <c r="B2" s="202"/>
-      <c r="C2" s="202"/>
-      <c r="D2" s="202"/>
-      <c r="E2" s="197"/>
+      <c r="B2" s="213"/>
+      <c r="C2" s="213"/>
+      <c r="D2" s="213"/>
+      <c r="E2" s="221"/>
       <c r="F2" s="23"/>
       <c r="G2" s="23"/>
       <c r="H2" s="23"/>
@@ -7553,9 +8143,9 @@
     </row>
     <row r="3" spans="1:24" s="1" customFormat="1" ht="31.5" customHeight="1">
       <c r="A3" s="47"/>
-      <c r="C3" s="204"/>
-      <c r="D3" s="204"/>
-      <c r="E3" s="197"/>
+      <c r="C3" s="240"/>
+      <c r="D3" s="240"/>
+      <c r="E3" s="221"/>
       <c r="F3" s="23"/>
       <c r="G3" s="23"/>
       <c r="H3" s="23"/>
@@ -7566,11 +8156,11 @@
       <c r="A4" s="139" t="s">
         <v>67</v>
       </c>
-      <c r="B4" s="199" t="s">
+      <c r="B4" s="215" t="s">
         <v>331</v>
       </c>
-      <c r="C4" s="199"/>
-      <c r="D4" s="199"/>
+      <c r="C4" s="215"/>
+      <c r="D4" s="215"/>
       <c r="E4" s="39"/>
       <c r="F4" s="39"/>
       <c r="G4" s="39"/>
@@ -7584,11 +8174,11 @@
       <c r="A5" s="139" t="s">
         <v>62</v>
       </c>
-      <c r="B5" s="200" t="s">
+      <c r="B5" s="214" t="s">
         <v>95</v>
       </c>
-      <c r="C5" s="199"/>
-      <c r="D5" s="199"/>
+      <c r="C5" s="215"/>
+      <c r="D5" s="215"/>
       <c r="E5" s="39"/>
       <c r="F5" s="39"/>
       <c r="G5" s="39"/>
@@ -7602,11 +8192,11 @@
       <c r="A6" s="139" t="s">
         <v>97</v>
       </c>
-      <c r="B6" s="200" t="s">
+      <c r="B6" s="214" t="s">
         <v>98</v>
       </c>
-      <c r="C6" s="199"/>
-      <c r="D6" s="199"/>
+      <c r="C6" s="215"/>
+      <c r="D6" s="215"/>
       <c r="E6" s="39"/>
       <c r="F6" s="39"/>
       <c r="G6" s="39"/>
@@ -7617,11 +8207,11 @@
       <c r="A7" s="139" t="s">
         <v>99</v>
       </c>
-      <c r="B7" s="199" t="s">
+      <c r="B7" s="215" t="s">
         <v>100</v>
       </c>
-      <c r="C7" s="199"/>
-      <c r="D7" s="199"/>
+      <c r="C7" s="215"/>
+      <c r="D7" s="215"/>
       <c r="E7" s="39"/>
       <c r="F7" s="39"/>
       <c r="G7" s="39"/>
@@ -7633,11 +8223,11 @@
       <c r="A8" s="139" t="s">
         <v>101</v>
       </c>
-      <c r="B8" s="203">
+      <c r="B8" s="216">
         <v>40850</v>
       </c>
-      <c r="C8" s="203"/>
-      <c r="D8" s="203"/>
+      <c r="C8" s="216"/>
+      <c r="D8" s="216"/>
       <c r="E8" s="39"/>
     </row>
     <row r="9" spans="1:24" s="43" customFormat="1">
@@ -7780,11 +8370,11 @@
       <c r="C16" s="50"/>
       <c r="D16" s="51"/>
       <c r="E16" s="65"/>
-      <c r="F16" s="205" t="s">
+      <c r="F16" s="241" t="s">
         <v>102</v>
       </c>
-      <c r="G16" s="206"/>
-      <c r="H16" s="207"/>
+      <c r="G16" s="242"/>
+      <c r="H16" s="243"/>
       <c r="I16" s="65"/>
     </row>
     <row r="17" spans="1:9" s="44" customFormat="1" ht="36.9">
@@ -7818,11 +8408,11 @@
     </row>
     <row r="18" spans="1:9" s="44" customFormat="1" ht="15.75" customHeight="1">
       <c r="A18" s="67"/>
-      <c r="B18" s="194" t="s">
+      <c r="B18" s="217" t="s">
         <v>115</v>
       </c>
-      <c r="C18" s="195"/>
-      <c r="D18" s="196"/>
+      <c r="C18" s="218"/>
+      <c r="D18" s="219"/>
       <c r="E18" s="67"/>
       <c r="F18" s="68"/>
       <c r="G18" s="68"/>
@@ -8101,11 +8691,11 @@
     </row>
     <row r="29" spans="1:9" s="48" customFormat="1" ht="13.8">
       <c r="A29" s="77"/>
-      <c r="B29" s="194" t="s">
+      <c r="B29" s="217" t="s">
         <v>155</v>
       </c>
-      <c r="C29" s="195"/>
-      <c r="D29" s="196"/>
+      <c r="C29" s="218"/>
+      <c r="D29" s="219"/>
       <c r="E29" s="69"/>
       <c r="F29" s="66"/>
       <c r="G29" s="66"/>
@@ -8114,7 +8704,7 @@
     </row>
     <row r="30" spans="1:9" s="48" customFormat="1" ht="147.6">
       <c r="A30" s="62">
-        <f t="shared" ref="A30:A34" ca="1" si="0">IF(OFFSET(A30,-1,0) ="",OFFSET(A30,-2,0)+1,OFFSET(A30,-1,0)+1 )</f>
+        <f ca="1">IF(OFFSET(A30,-1,0) ="",OFFSET(A30,-2,0)+1,OFFSET(A30,-1,0)+1 )</f>
         <v>11</v>
       </c>
       <c r="B30" s="52" t="s">
@@ -8142,7 +8732,7 @@
     </row>
     <row r="31" spans="1:9" s="48" customFormat="1" ht="94.5" customHeight="1">
       <c r="A31" s="62">
-        <f t="shared" ca="1" si="0"/>
+        <f ca="1">IF(OFFSET(A31,-1,0) ="",OFFSET(A31,-2,0)+1,OFFSET(A31,-1,0)+1 )</f>
         <v>12</v>
       </c>
       <c r="B31" s="52" t="s">
@@ -8170,7 +8760,7 @@
     </row>
     <row r="32" spans="1:9" s="48" customFormat="1" ht="61.5">
       <c r="A32" s="62">
-        <f t="shared" ca="1" si="0"/>
+        <f ca="1">IF(OFFSET(A32,-1,0) ="",OFFSET(A32,-2,0)+1,OFFSET(A32,-1,0)+1 )</f>
         <v>13</v>
       </c>
       <c r="B32" s="52" t="s">
@@ -8198,7 +8788,7 @@
     </row>
     <row r="33" spans="1:9" s="48" customFormat="1" ht="135.30000000000001">
       <c r="A33" s="62">
-        <f t="shared" ca="1" si="0"/>
+        <f ca="1">IF(OFFSET(A33,-1,0) ="",OFFSET(A33,-2,0)+1,OFFSET(A33,-1,0)+1 )</f>
         <v>14</v>
       </c>
       <c r="B33" s="52" t="s">
@@ -8226,7 +8816,7 @@
     </row>
     <row r="34" spans="1:9" s="48" customFormat="1" ht="159.9">
       <c r="A34" s="62">
-        <f t="shared" ca="1" si="0"/>
+        <f ca="1">IF(OFFSET(A34,-1,0) ="",OFFSET(A34,-2,0)+1,OFFSET(A34,-1,0)+1 )</f>
         <v>15</v>
       </c>
       <c r="B34" s="52" t="s">
@@ -8254,11 +8844,11 @@
     </row>
     <row r="35" spans="1:9" s="48" customFormat="1" ht="13.8">
       <c r="A35" s="77"/>
-      <c r="B35" s="194" t="s">
+      <c r="B35" s="217" t="s">
         <v>174</v>
       </c>
-      <c r="C35" s="195"/>
-      <c r="D35" s="196"/>
+      <c r="C35" s="218"/>
+      <c r="D35" s="219"/>
       <c r="E35" s="69"/>
       <c r="F35" s="66"/>
       <c r="G35" s="66"/>
@@ -8267,7 +8857,7 @@
     </row>
     <row r="36" spans="1:9" s="48" customFormat="1" ht="86.1">
       <c r="A36" s="62">
-        <f t="shared" ref="A36:A84" ca="1" si="1">IF(OFFSET(A36,-1,0) ="",OFFSET(A36,-2,0)+1,OFFSET(A36,-1,0)+1 )</f>
+        <f t="shared" ref="A36:A84" ca="1" si="0">IF(OFFSET(A36,-1,0) ="",OFFSET(A36,-2,0)+1,OFFSET(A36,-1,0)+1 )</f>
         <v>16</v>
       </c>
       <c r="B36" s="52" t="s">
@@ -8295,11 +8885,11 @@
     </row>
     <row r="37" spans="1:9" s="48" customFormat="1" ht="13.8">
       <c r="A37" s="77"/>
-      <c r="B37" s="194" t="s">
+      <c r="B37" s="217" t="s">
         <v>178</v>
       </c>
-      <c r="C37" s="195"/>
-      <c r="D37" s="196"/>
+      <c r="C37" s="218"/>
+      <c r="D37" s="219"/>
       <c r="E37" s="69"/>
       <c r="F37" s="66"/>
       <c r="G37" s="66"/>
@@ -8308,7 +8898,7 @@
     </row>
     <row r="38" spans="1:9" s="49" customFormat="1" ht="61.5">
       <c r="A38" s="63">
-        <f t="shared" ca="1" si="1"/>
+        <f t="shared" ca="1" si="0"/>
         <v>17</v>
       </c>
       <c r="B38" s="52" t="s">
@@ -8336,7 +8926,7 @@
     </row>
     <row r="39" spans="1:9" s="48" customFormat="1" ht="86.1">
       <c r="A39" s="62">
-        <f t="shared" ca="1" si="1"/>
+        <f t="shared" ca="1" si="0"/>
         <v>18</v>
       </c>
       <c r="B39" s="52" t="s">
@@ -8364,7 +8954,7 @@
     </row>
     <row r="40" spans="1:9" s="48" customFormat="1" ht="73.8">
       <c r="A40" s="62">
-        <f t="shared" ca="1" si="1"/>
+        <f t="shared" ca="1" si="0"/>
         <v>19</v>
       </c>
       <c r="B40" s="52" t="s">
@@ -8392,7 +8982,7 @@
     </row>
     <row r="41" spans="1:9" s="48" customFormat="1" ht="73.8">
       <c r="A41" s="62">
-        <f t="shared" ca="1" si="1"/>
+        <f t="shared" ca="1" si="0"/>
         <v>20</v>
       </c>
       <c r="B41" s="52" t="s">
@@ -8420,7 +9010,7 @@
     </row>
     <row r="42" spans="1:9" s="48" customFormat="1" ht="159.9">
       <c r="A42" s="62">
-        <f t="shared" ca="1" si="1"/>
+        <f t="shared" ca="1" si="0"/>
         <v>21</v>
       </c>
       <c r="B42" s="52" t="s">
@@ -8448,7 +9038,7 @@
     </row>
     <row r="43" spans="1:9" s="48" customFormat="1" ht="172.2">
       <c r="A43" s="62">
-        <f t="shared" ca="1" si="1"/>
+        <f t="shared" ca="1" si="0"/>
         <v>22</v>
       </c>
       <c r="B43" s="52" t="s">
@@ -8476,7 +9066,7 @@
     </row>
     <row r="44" spans="1:9" s="48" customFormat="1" ht="172.2">
       <c r="A44" s="62">
-        <f t="shared" ca="1" si="1"/>
+        <f t="shared" ca="1" si="0"/>
         <v>23</v>
       </c>
       <c r="B44" s="52" t="s">
@@ -8532,7 +9122,7 @@
     </row>
     <row r="46" spans="1:9" s="48" customFormat="1" ht="61.5">
       <c r="A46" s="62">
-        <f t="shared" ca="1" si="1"/>
+        <f t="shared" ca="1" si="0"/>
         <v>25</v>
       </c>
       <c r="B46" s="52" t="s">
@@ -8560,11 +9150,11 @@
     </row>
     <row r="47" spans="1:9" s="48" customFormat="1" ht="13.8">
       <c r="A47" s="77"/>
-      <c r="B47" s="194" t="s">
+      <c r="B47" s="217" t="s">
         <v>214</v>
       </c>
-      <c r="C47" s="195"/>
-      <c r="D47" s="196"/>
+      <c r="C47" s="218"/>
+      <c r="D47" s="219"/>
       <c r="E47" s="69"/>
       <c r="F47" s="66"/>
       <c r="G47" s="66"/>
@@ -8573,7 +9163,7 @@
     </row>
     <row r="48" spans="1:9" s="48" customFormat="1" ht="73.8">
       <c r="A48" s="62">
-        <f t="shared" ca="1" si="1"/>
+        <f t="shared" ca="1" si="0"/>
         <v>26</v>
       </c>
       <c r="B48" s="52" t="s">
@@ -8601,7 +9191,7 @@
     </row>
     <row r="49" spans="1:9" s="48" customFormat="1" ht="135.30000000000001">
       <c r="A49" s="62">
-        <f t="shared" ca="1" si="1"/>
+        <f t="shared" ca="1" si="0"/>
         <v>27</v>
       </c>
       <c r="B49" s="52" t="s">
@@ -8629,7 +9219,7 @@
     </row>
     <row r="50" spans="1:9" s="48" customFormat="1" ht="147.6">
       <c r="A50" s="62">
-        <f t="shared" ca="1" si="1"/>
+        <f t="shared" ca="1" si="0"/>
         <v>28</v>
       </c>
       <c r="B50" s="52" t="s">
@@ -8657,7 +9247,7 @@
     </row>
     <row r="51" spans="1:9" s="48" customFormat="1" ht="86.1">
       <c r="A51" s="62">
-        <f t="shared" ca="1" si="1"/>
+        <f t="shared" ca="1" si="0"/>
         <v>29</v>
       </c>
       <c r="B51" s="52" t="s">
@@ -8685,11 +9275,11 @@
     </row>
     <row r="52" spans="1:9" s="48" customFormat="1" ht="13.8">
       <c r="A52" s="77"/>
-      <c r="B52" s="194" t="s">
+      <c r="B52" s="217" t="s">
         <v>229</v>
       </c>
-      <c r="C52" s="195"/>
-      <c r="D52" s="196"/>
+      <c r="C52" s="218"/>
+      <c r="D52" s="219"/>
       <c r="E52" s="69"/>
       <c r="F52" s="66"/>
       <c r="G52" s="66"/>
@@ -8698,7 +9288,7 @@
     </row>
     <row r="53" spans="1:9" s="48" customFormat="1" ht="49.2">
       <c r="A53" s="62">
-        <f t="shared" ca="1" si="1"/>
+        <f t="shared" ca="1" si="0"/>
         <v>30</v>
       </c>
       <c r="B53" s="52" t="s">
@@ -8726,7 +9316,7 @@
     </row>
     <row r="54" spans="1:9" s="48" customFormat="1" ht="98.4">
       <c r="A54" s="62">
-        <f t="shared" ca="1" si="1"/>
+        <f t="shared" ca="1" si="0"/>
         <v>31</v>
       </c>
       <c r="B54" s="52" t="s">
@@ -8754,7 +9344,7 @@
     </row>
     <row r="55" spans="1:9" s="48" customFormat="1" ht="61.5">
       <c r="A55" s="62">
-        <f t="shared" ca="1" si="1"/>
+        <f t="shared" ca="1" si="0"/>
         <v>32</v>
       </c>
       <c r="B55" s="52" t="s">
@@ -8782,11 +9372,11 @@
     </row>
     <row r="56" spans="1:9" s="48" customFormat="1" ht="13.8">
       <c r="A56" s="77"/>
-      <c r="B56" s="194" t="s">
+      <c r="B56" s="217" t="s">
         <v>241</v>
       </c>
-      <c r="C56" s="195"/>
-      <c r="D56" s="196"/>
+      <c r="C56" s="218"/>
+      <c r="D56" s="219"/>
       <c r="E56" s="69"/>
       <c r="F56" s="66"/>
       <c r="G56" s="66"/>
@@ -8795,7 +9385,7 @@
     </row>
     <row r="57" spans="1:9" s="48" customFormat="1" ht="61.5">
       <c r="A57" s="62">
-        <f t="shared" ca="1" si="1"/>
+        <f t="shared" ca="1" si="0"/>
         <v>33</v>
       </c>
       <c r="B57" s="52" t="s">
@@ -8823,7 +9413,7 @@
     </row>
     <row r="58" spans="1:9" s="48" customFormat="1" ht="98.4">
       <c r="A58" s="62">
-        <f t="shared" ca="1" si="1"/>
+        <f t="shared" ca="1" si="0"/>
         <v>34</v>
       </c>
       <c r="B58" s="52" t="s">
@@ -8851,7 +9441,7 @@
     </row>
     <row r="59" spans="1:9" s="48" customFormat="1" ht="98.4">
       <c r="A59" s="62">
-        <f t="shared" ca="1" si="1"/>
+        <f t="shared" ca="1" si="0"/>
         <v>35</v>
       </c>
       <c r="B59" s="52" t="s">
@@ -8879,7 +9469,7 @@
     </row>
     <row r="60" spans="1:9" s="48" customFormat="1" ht="86.1">
       <c r="A60" s="62">
-        <f t="shared" ca="1" si="1"/>
+        <f t="shared" ca="1" si="0"/>
         <v>36</v>
       </c>
       <c r="B60" s="52" t="s">
@@ -8907,7 +9497,7 @@
     </row>
     <row r="61" spans="1:9" s="48" customFormat="1" ht="98.4">
       <c r="A61" s="62">
-        <f t="shared" ca="1" si="1"/>
+        <f t="shared" ca="1" si="0"/>
         <v>37</v>
       </c>
       <c r="B61" s="52" t="s">
@@ -8935,7 +9525,7 @@
     </row>
     <row r="62" spans="1:9" s="48" customFormat="1" ht="86.1">
       <c r="A62" s="62">
-        <f t="shared" ca="1" si="1"/>
+        <f t="shared" ca="1" si="0"/>
         <v>38</v>
       </c>
       <c r="B62" s="52" t="s">
@@ -8963,7 +9553,7 @@
     </row>
     <row r="63" spans="1:9" s="48" customFormat="1" ht="86.1">
       <c r="A63" s="62">
-        <f t="shared" ca="1" si="1"/>
+        <f t="shared" ca="1" si="0"/>
         <v>39</v>
       </c>
       <c r="B63" s="52" t="s">
@@ -8991,7 +9581,7 @@
     </row>
     <row r="64" spans="1:9" s="48" customFormat="1" ht="61.5">
       <c r="A64" s="62">
-        <f t="shared" ca="1" si="1"/>
+        <f t="shared" ca="1" si="0"/>
         <v>40</v>
       </c>
       <c r="B64" s="52" t="s">
@@ -9019,7 +9609,7 @@
     </row>
     <row r="65" spans="1:9" s="48" customFormat="1" ht="86.1">
       <c r="A65" s="62">
-        <f t="shared" ca="1" si="1"/>
+        <f t="shared" ca="1" si="0"/>
         <v>41</v>
       </c>
       <c r="B65" s="52" t="s">
@@ -9047,7 +9637,7 @@
     </row>
     <row r="66" spans="1:9" s="48" customFormat="1" ht="110.7">
       <c r="A66" s="62">
-        <f t="shared" ca="1" si="1"/>
+        <f t="shared" ca="1" si="0"/>
         <v>42</v>
       </c>
       <c r="B66" s="52" t="s">
@@ -9075,7 +9665,7 @@
     </row>
     <row r="67" spans="1:9" s="48" customFormat="1" ht="110.7">
       <c r="A67" s="62">
-        <f t="shared" ca="1" si="1"/>
+        <f t="shared" ca="1" si="0"/>
         <v>43</v>
       </c>
       <c r="B67" s="52" t="s">
@@ -9103,11 +9693,11 @@
     </row>
     <row r="68" spans="1:9" s="48" customFormat="1" ht="13.8">
       <c r="A68" s="77"/>
-      <c r="B68" s="194" t="s">
+      <c r="B68" s="217" t="s">
         <v>283</v>
       </c>
-      <c r="C68" s="195"/>
-      <c r="D68" s="196"/>
+      <c r="C68" s="218"/>
+      <c r="D68" s="219"/>
       <c r="E68" s="69"/>
       <c r="F68" s="66"/>
       <c r="G68" s="66"/>
@@ -9116,7 +9706,7 @@
     </row>
     <row r="69" spans="1:9" s="48" customFormat="1" ht="49.2">
       <c r="A69" s="62">
-        <f t="shared" ca="1" si="1"/>
+        <f t="shared" ca="1" si="0"/>
         <v>44</v>
       </c>
       <c r="B69" s="52" t="s">
@@ -9144,7 +9734,7 @@
     </row>
     <row r="70" spans="1:9" s="48" customFormat="1" ht="73.8">
       <c r="A70" s="62">
-        <f t="shared" ca="1" si="1"/>
+        <f t="shared" ca="1" si="0"/>
         <v>45</v>
       </c>
       <c r="B70" s="52" t="s">
@@ -9172,7 +9762,7 @@
     </row>
     <row r="71" spans="1:9" s="48" customFormat="1" ht="61.5">
       <c r="A71" s="62">
-        <f t="shared" ca="1" si="1"/>
+        <f t="shared" ca="1" si="0"/>
         <v>46</v>
       </c>
       <c r="B71" s="52" t="s">
@@ -9200,11 +9790,11 @@
     </row>
     <row r="72" spans="1:9" s="48" customFormat="1" ht="13.8">
       <c r="A72" s="77"/>
-      <c r="B72" s="194" t="s">
+      <c r="B72" s="217" t="s">
         <v>293</v>
       </c>
-      <c r="C72" s="195"/>
-      <c r="D72" s="196"/>
+      <c r="C72" s="218"/>
+      <c r="D72" s="219"/>
       <c r="E72" s="69"/>
       <c r="F72" s="66"/>
       <c r="G72" s="66"/>
@@ -9213,7 +9803,7 @@
     </row>
     <row r="73" spans="1:9" s="48" customFormat="1" ht="110.7">
       <c r="A73" s="62">
-        <f t="shared" ca="1" si="1"/>
+        <f t="shared" ca="1" si="0"/>
         <v>47</v>
       </c>
       <c r="B73" s="52" t="s">
@@ -9241,7 +9831,7 @@
     </row>
     <row r="74" spans="1:9" s="48" customFormat="1" ht="135.30000000000001">
       <c r="A74" s="62">
-        <f t="shared" ca="1" si="1"/>
+        <f t="shared" ca="1" si="0"/>
         <v>48</v>
       </c>
       <c r="B74" s="52" t="s">
@@ -9269,7 +9859,7 @@
     </row>
     <row r="75" spans="1:9" s="48" customFormat="1" ht="73.8">
       <c r="A75" s="62">
-        <f t="shared" ca="1" si="1"/>
+        <f t="shared" ca="1" si="0"/>
         <v>49</v>
       </c>
       <c r="B75" s="52" t="s">
@@ -9297,11 +9887,11 @@
     </row>
     <row r="76" spans="1:9" s="48" customFormat="1" ht="14.25" customHeight="1">
       <c r="A76" s="77"/>
-      <c r="B76" s="194" t="s">
+      <c r="B76" s="217" t="s">
         <v>304</v>
       </c>
-      <c r="C76" s="195"/>
-      <c r="D76" s="196"/>
+      <c r="C76" s="218"/>
+      <c r="D76" s="219"/>
       <c r="E76" s="69"/>
       <c r="F76" s="66"/>
       <c r="G76" s="66"/>
@@ -9310,7 +9900,7 @@
     </row>
     <row r="77" spans="1:9" s="48" customFormat="1" ht="184.5">
       <c r="A77" s="62">
-        <f t="shared" ca="1" si="1"/>
+        <f t="shared" ca="1" si="0"/>
         <v>50</v>
       </c>
       <c r="B77" s="52" t="s">
@@ -9338,7 +9928,7 @@
     </row>
     <row r="78" spans="1:9" s="48" customFormat="1" ht="73.8">
       <c r="A78" s="62">
-        <f t="shared" ca="1" si="1"/>
+        <f t="shared" ca="1" si="0"/>
         <v>51</v>
       </c>
       <c r="B78" s="52" t="s">
@@ -9366,11 +9956,11 @@
     </row>
     <row r="79" spans="1:9" s="48" customFormat="1" ht="14.25" customHeight="1">
       <c r="A79" s="77"/>
-      <c r="B79" s="194" t="s">
+      <c r="B79" s="217" t="s">
         <v>312</v>
       </c>
-      <c r="C79" s="195"/>
-      <c r="D79" s="196"/>
+      <c r="C79" s="218"/>
+      <c r="D79" s="219"/>
       <c r="E79" s="69"/>
       <c r="F79" s="66"/>
       <c r="G79" s="66"/>
@@ -9379,7 +9969,7 @@
     </row>
     <row r="80" spans="1:9" s="48" customFormat="1" ht="73.8">
       <c r="A80" s="62">
-        <f t="shared" ca="1" si="1"/>
+        <f t="shared" ca="1" si="0"/>
         <v>52</v>
       </c>
       <c r="B80" s="52" t="s">
@@ -9407,7 +9997,7 @@
     </row>
     <row r="81" spans="1:9" s="48" customFormat="1" ht="98.4">
       <c r="A81" s="62">
-        <f t="shared" ca="1" si="1"/>
+        <f t="shared" ca="1" si="0"/>
         <v>53</v>
       </c>
       <c r="B81" s="52" t="s">
@@ -9435,7 +10025,7 @@
     </row>
     <row r="82" spans="1:9" s="48" customFormat="1" ht="61.5">
       <c r="A82" s="62">
-        <f t="shared" ca="1" si="1"/>
+        <f t="shared" ca="1" si="0"/>
         <v>54</v>
       </c>
       <c r="B82" s="52" t="s">
@@ -9463,7 +10053,7 @@
     </row>
     <row r="83" spans="1:9" s="48" customFormat="1" ht="73.8">
       <c r="A83" s="62">
-        <f t="shared" ca="1" si="1"/>
+        <f t="shared" ca="1" si="0"/>
         <v>55</v>
       </c>
       <c r="B83" s="52" t="s">
@@ -9491,7 +10081,7 @@
     </row>
     <row r="84" spans="1:9" s="48" customFormat="1" ht="73.8">
       <c r="A84" s="62">
-        <f t="shared" ca="1" si="1"/>
+        <f t="shared" ca="1" si="0"/>
         <v>56</v>
       </c>
       <c r="B84" s="52" t="s">
@@ -9519,6 +10109,17 @@
     </row>
   </sheetData>
   <mergeCells count="21">
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="A2:D2"/>
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="B4:D4"/>
+    <mergeCell ref="F16:H16"/>
+    <mergeCell ref="E2:E3"/>
+    <mergeCell ref="B18:D18"/>
+    <mergeCell ref="B5:D5"/>
+    <mergeCell ref="B6:D6"/>
+    <mergeCell ref="B7:D7"/>
+    <mergeCell ref="B8:D8"/>
     <mergeCell ref="B29:D29"/>
     <mergeCell ref="B72:D72"/>
     <mergeCell ref="B76:D76"/>
@@ -9529,17 +10130,6 @@
     <mergeCell ref="B52:D52"/>
     <mergeCell ref="B56:D56"/>
     <mergeCell ref="B68:D68"/>
-    <mergeCell ref="B18:D18"/>
-    <mergeCell ref="B5:D5"/>
-    <mergeCell ref="B6:D6"/>
-    <mergeCell ref="B7:D7"/>
-    <mergeCell ref="B8:D8"/>
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="A2:D2"/>
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="B4:D4"/>
-    <mergeCell ref="F16:H16"/>
-    <mergeCell ref="E2:E3"/>
   </mergeCells>
   <dataValidations count="4">
     <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="F85:H142">
@@ -9577,10 +10167,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:24" s="1" customFormat="1" ht="13.8">
-      <c r="A1" s="201"/>
-      <c r="B1" s="201"/>
-      <c r="C1" s="201"/>
-      <c r="D1" s="201"/>
+      <c r="A1" s="212"/>
+      <c r="B1" s="212"/>
+      <c r="C1" s="212"/>
+      <c r="D1" s="212"/>
       <c r="E1" s="34"/>
       <c r="F1" s="34"/>
       <c r="G1" s="34"/>
@@ -9589,13 +10179,13 @@
       <c r="J1" s="34"/>
     </row>
     <row r="2" spans="1:24" s="1" customFormat="1" ht="31.5" customHeight="1">
-      <c r="A2" s="202" t="s">
+      <c r="A2" s="213" t="s">
         <v>70</v>
       </c>
-      <c r="B2" s="202"/>
-      <c r="C2" s="202"/>
-      <c r="D2" s="202"/>
-      <c r="E2" s="197"/>
+      <c r="B2" s="213"/>
+      <c r="C2" s="213"/>
+      <c r="D2" s="213"/>
+      <c r="E2" s="221"/>
       <c r="F2" s="23"/>
       <c r="G2" s="23"/>
       <c r="H2" s="23"/>
@@ -9604,9 +10194,9 @@
     </row>
     <row r="3" spans="1:24" s="1" customFormat="1" ht="31.5" customHeight="1">
       <c r="A3" s="47"/>
-      <c r="C3" s="204"/>
-      <c r="D3" s="204"/>
-      <c r="E3" s="197"/>
+      <c r="C3" s="240"/>
+      <c r="D3" s="240"/>
+      <c r="E3" s="221"/>
       <c r="F3" s="23"/>
       <c r="G3" s="23"/>
       <c r="H3" s="23"/>
@@ -9617,11 +10207,11 @@
       <c r="A4" s="139" t="s">
         <v>67</v>
       </c>
-      <c r="B4" s="199" t="s">
+      <c r="B4" s="215" t="s">
         <v>331</v>
       </c>
-      <c r="C4" s="199"/>
-      <c r="D4" s="199"/>
+      <c r="C4" s="215"/>
+      <c r="D4" s="215"/>
       <c r="E4" s="39"/>
       <c r="F4" s="39"/>
       <c r="G4" s="39"/>
@@ -9635,11 +10225,11 @@
       <c r="A5" s="139" t="s">
         <v>62</v>
       </c>
-      <c r="B5" s="200" t="s">
+      <c r="B5" s="214" t="s">
         <v>95</v>
       </c>
-      <c r="C5" s="199"/>
-      <c r="D5" s="199"/>
+      <c r="C5" s="215"/>
+      <c r="D5" s="215"/>
       <c r="E5" s="39"/>
       <c r="F5" s="39"/>
       <c r="G5" s="39"/>
@@ -9653,11 +10243,11 @@
       <c r="A6" s="139" t="s">
         <v>97</v>
       </c>
-      <c r="B6" s="200" t="s">
+      <c r="B6" s="214" t="s">
         <v>98</v>
       </c>
-      <c r="C6" s="199"/>
-      <c r="D6" s="199"/>
+      <c r="C6" s="215"/>
+      <c r="D6" s="215"/>
       <c r="E6" s="39"/>
       <c r="F6" s="39"/>
       <c r="G6" s="39"/>
@@ -9668,11 +10258,11 @@
       <c r="A7" s="139" t="s">
         <v>99</v>
       </c>
-      <c r="B7" s="199" t="s">
+      <c r="B7" s="215" t="s">
         <v>100</v>
       </c>
-      <c r="C7" s="199"/>
-      <c r="D7" s="199"/>
+      <c r="C7" s="215"/>
+      <c r="D7" s="215"/>
       <c r="E7" s="39"/>
       <c r="F7" s="39"/>
       <c r="G7" s="39"/>
@@ -9684,11 +10274,11 @@
       <c r="A8" s="139" t="s">
         <v>101</v>
       </c>
-      <c r="B8" s="203">
+      <c r="B8" s="216">
         <v>40850</v>
       </c>
-      <c r="C8" s="203"/>
-      <c r="D8" s="203"/>
+      <c r="C8" s="216"/>
+      <c r="D8" s="216"/>
       <c r="E8" s="39"/>
     </row>
     <row r="9" spans="1:24" s="43" customFormat="1">
@@ -9831,11 +10421,11 @@
       <c r="C16" s="50"/>
       <c r="D16" s="51"/>
       <c r="E16" s="65"/>
-      <c r="F16" s="205" t="s">
+      <c r="F16" s="241" t="s">
         <v>102</v>
       </c>
-      <c r="G16" s="206"/>
-      <c r="H16" s="207"/>
+      <c r="G16" s="242"/>
+      <c r="H16" s="243"/>
       <c r="I16" s="65"/>
     </row>
     <row r="17" spans="1:9" s="44" customFormat="1" ht="36.9">
@@ -9869,11 +10459,11 @@
     </row>
     <row r="18" spans="1:9" s="44" customFormat="1" ht="15.75" customHeight="1">
       <c r="A18" s="67"/>
-      <c r="B18" s="194" t="s">
+      <c r="B18" s="217" t="s">
         <v>115</v>
       </c>
-      <c r="C18" s="195"/>
-      <c r="D18" s="196"/>
+      <c r="C18" s="218"/>
+      <c r="D18" s="219"/>
       <c r="E18" s="67"/>
       <c r="F18" s="68"/>
       <c r="G18" s="68"/>
@@ -10154,11 +10744,11 @@
     </row>
     <row r="29" spans="1:9" s="48" customFormat="1" ht="13.8">
       <c r="A29" s="77"/>
-      <c r="B29" s="194" t="s">
+      <c r="B29" s="217" t="s">
         <v>155</v>
       </c>
-      <c r="C29" s="195"/>
-      <c r="D29" s="196"/>
+      <c r="C29" s="218"/>
+      <c r="D29" s="219"/>
       <c r="E29" s="69"/>
       <c r="F29" s="66"/>
       <c r="G29" s="66"/>
@@ -10167,7 +10757,7 @@
     </row>
     <row r="30" spans="1:9" s="48" customFormat="1" ht="147.6">
       <c r="A30" s="62">
-        <f t="shared" ref="A30:A34" ca="1" si="0">IF(OFFSET(A30,-1,0) ="",OFFSET(A30,-2,0)+1,OFFSET(A30,-1,0)+1 )</f>
+        <f ca="1">IF(OFFSET(A30,-1,0) ="",OFFSET(A30,-2,0)+1,OFFSET(A30,-1,0)+1 )</f>
         <v>11</v>
       </c>
       <c r="B30" s="52" t="s">
@@ -10195,7 +10785,7 @@
     </row>
     <row r="31" spans="1:9" s="48" customFormat="1" ht="94.5" customHeight="1">
       <c r="A31" s="62">
-        <f t="shared" ca="1" si="0"/>
+        <f ca="1">IF(OFFSET(A31,-1,0) ="",OFFSET(A31,-2,0)+1,OFFSET(A31,-1,0)+1 )</f>
         <v>12</v>
       </c>
       <c r="B31" s="52" t="s">
@@ -10223,7 +10813,7 @@
     </row>
     <row r="32" spans="1:9" s="48" customFormat="1" ht="61.5">
       <c r="A32" s="62">
-        <f t="shared" ca="1" si="0"/>
+        <f ca="1">IF(OFFSET(A32,-1,0) ="",OFFSET(A32,-2,0)+1,OFFSET(A32,-1,0)+1 )</f>
         <v>13</v>
       </c>
       <c r="B32" s="52" t="s">
@@ -10251,7 +10841,7 @@
     </row>
     <row r="33" spans="1:9" s="48" customFormat="1" ht="135.30000000000001">
       <c r="A33" s="62">
-        <f t="shared" ca="1" si="0"/>
+        <f ca="1">IF(OFFSET(A33,-1,0) ="",OFFSET(A33,-2,0)+1,OFFSET(A33,-1,0)+1 )</f>
         <v>14</v>
       </c>
       <c r="B33" s="52" t="s">
@@ -10279,7 +10869,7 @@
     </row>
     <row r="34" spans="1:9" s="48" customFormat="1" ht="159.9">
       <c r="A34" s="62">
-        <f t="shared" ca="1" si="0"/>
+        <f ca="1">IF(OFFSET(A34,-1,0) ="",OFFSET(A34,-2,0)+1,OFFSET(A34,-1,0)+1 )</f>
         <v>15</v>
       </c>
       <c r="B34" s="52" t="s">
@@ -10307,11 +10897,11 @@
     </row>
     <row r="35" spans="1:9" s="48" customFormat="1" ht="13.8">
       <c r="A35" s="77"/>
-      <c r="B35" s="194" t="s">
+      <c r="B35" s="217" t="s">
         <v>174</v>
       </c>
-      <c r="C35" s="195"/>
-      <c r="D35" s="196"/>
+      <c r="C35" s="218"/>
+      <c r="D35" s="219"/>
       <c r="E35" s="69"/>
       <c r="F35" s="66"/>
       <c r="G35" s="66"/>
@@ -10320,7 +10910,7 @@
     </row>
     <row r="36" spans="1:9" s="48" customFormat="1" ht="86.1">
       <c r="A36" s="62">
-        <f t="shared" ref="A36:A84" ca="1" si="1">IF(OFFSET(A36,-1,0) ="",OFFSET(A36,-2,0)+1,OFFSET(A36,-1,0)+1 )</f>
+        <f t="shared" ref="A36:A84" ca="1" si="0">IF(OFFSET(A36,-1,0) ="",OFFSET(A36,-2,0)+1,OFFSET(A36,-1,0)+1 )</f>
         <v>16</v>
       </c>
       <c r="B36" s="52" t="s">
@@ -10348,11 +10938,11 @@
     </row>
     <row r="37" spans="1:9" s="48" customFormat="1" ht="13.8">
       <c r="A37" s="77"/>
-      <c r="B37" s="194" t="s">
+      <c r="B37" s="217" t="s">
         <v>178</v>
       </c>
-      <c r="C37" s="195"/>
-      <c r="D37" s="196"/>
+      <c r="C37" s="218"/>
+      <c r="D37" s="219"/>
       <c r="E37" s="69"/>
       <c r="F37" s="66"/>
       <c r="G37" s="66"/>
@@ -10361,7 +10951,7 @@
     </row>
     <row r="38" spans="1:9" s="49" customFormat="1" ht="61.5">
       <c r="A38" s="63">
-        <f t="shared" ca="1" si="1"/>
+        <f t="shared" ca="1" si="0"/>
         <v>17</v>
       </c>
       <c r="B38" s="52" t="s">
@@ -10389,7 +10979,7 @@
     </row>
     <row r="39" spans="1:9" s="48" customFormat="1" ht="86.1">
       <c r="A39" s="62">
-        <f t="shared" ca="1" si="1"/>
+        <f t="shared" ca="1" si="0"/>
         <v>18</v>
       </c>
       <c r="B39" s="52" t="s">
@@ -10417,7 +11007,7 @@
     </row>
     <row r="40" spans="1:9" s="48" customFormat="1" ht="73.8">
       <c r="A40" s="62">
-        <f t="shared" ca="1" si="1"/>
+        <f t="shared" ca="1" si="0"/>
         <v>19</v>
       </c>
       <c r="B40" s="52" t="s">
@@ -10445,7 +11035,7 @@
     </row>
     <row r="41" spans="1:9" s="48" customFormat="1" ht="73.8">
       <c r="A41" s="62">
-        <f t="shared" ca="1" si="1"/>
+        <f t="shared" ca="1" si="0"/>
         <v>20</v>
       </c>
       <c r="B41" s="52" t="s">
@@ -10473,7 +11063,7 @@
     </row>
     <row r="42" spans="1:9" s="48" customFormat="1" ht="159.9">
       <c r="A42" s="62">
-        <f t="shared" ca="1" si="1"/>
+        <f t="shared" ca="1" si="0"/>
         <v>21</v>
       </c>
       <c r="B42" s="52" t="s">
@@ -10501,7 +11091,7 @@
     </row>
     <row r="43" spans="1:9" s="48" customFormat="1" ht="172.2">
       <c r="A43" s="62">
-        <f t="shared" ca="1" si="1"/>
+        <f t="shared" ca="1" si="0"/>
         <v>22</v>
       </c>
       <c r="B43" s="52" t="s">
@@ -10529,7 +11119,7 @@
     </row>
     <row r="44" spans="1:9" s="48" customFormat="1" ht="172.2">
       <c r="A44" s="62">
-        <f t="shared" ca="1" si="1"/>
+        <f t="shared" ca="1" si="0"/>
         <v>23</v>
       </c>
       <c r="B44" s="52" t="s">
@@ -10585,7 +11175,7 @@
     </row>
     <row r="46" spans="1:9" s="48" customFormat="1" ht="61.5">
       <c r="A46" s="62">
-        <f t="shared" ca="1" si="1"/>
+        <f t="shared" ca="1" si="0"/>
         <v>25</v>
       </c>
       <c r="B46" s="52" t="s">
@@ -10613,11 +11203,11 @@
     </row>
     <row r="47" spans="1:9" s="48" customFormat="1" ht="13.8">
       <c r="A47" s="77"/>
-      <c r="B47" s="194" t="s">
+      <c r="B47" s="217" t="s">
         <v>214</v>
       </c>
-      <c r="C47" s="195"/>
-      <c r="D47" s="196"/>
+      <c r="C47" s="218"/>
+      <c r="D47" s="219"/>
       <c r="E47" s="69"/>
       <c r="F47" s="66"/>
       <c r="G47" s="66"/>
@@ -10626,7 +11216,7 @@
     </row>
     <row r="48" spans="1:9" s="48" customFormat="1" ht="73.8">
       <c r="A48" s="62">
-        <f t="shared" ca="1" si="1"/>
+        <f t="shared" ca="1" si="0"/>
         <v>26</v>
       </c>
       <c r="B48" s="52" t="s">
@@ -10654,7 +11244,7 @@
     </row>
     <row r="49" spans="1:9" s="48" customFormat="1" ht="135.30000000000001">
       <c r="A49" s="62">
-        <f t="shared" ca="1" si="1"/>
+        <f t="shared" ca="1" si="0"/>
         <v>27</v>
       </c>
       <c r="B49" s="52" t="s">
@@ -10682,7 +11272,7 @@
     </row>
     <row r="50" spans="1:9" s="48" customFormat="1" ht="147.6">
       <c r="A50" s="62">
-        <f t="shared" ca="1" si="1"/>
+        <f t="shared" ca="1" si="0"/>
         <v>28</v>
       </c>
       <c r="B50" s="52" t="s">
@@ -10710,7 +11300,7 @@
     </row>
     <row r="51" spans="1:9" s="48" customFormat="1" ht="86.1">
       <c r="A51" s="62">
-        <f t="shared" ca="1" si="1"/>
+        <f t="shared" ca="1" si="0"/>
         <v>29</v>
       </c>
       <c r="B51" s="52" t="s">
@@ -10738,11 +11328,11 @@
     </row>
     <row r="52" spans="1:9" s="48" customFormat="1" ht="13.8">
       <c r="A52" s="77"/>
-      <c r="B52" s="194" t="s">
+      <c r="B52" s="217" t="s">
         <v>229</v>
       </c>
-      <c r="C52" s="195"/>
-      <c r="D52" s="196"/>
+      <c r="C52" s="218"/>
+      <c r="D52" s="219"/>
       <c r="E52" s="69"/>
       <c r="F52" s="66"/>
       <c r="G52" s="66"/>
@@ -10751,7 +11341,7 @@
     </row>
     <row r="53" spans="1:9" s="48" customFormat="1" ht="49.2">
       <c r="A53" s="62">
-        <f t="shared" ca="1" si="1"/>
+        <f t="shared" ca="1" si="0"/>
         <v>30</v>
       </c>
       <c r="B53" s="52" t="s">
@@ -10779,7 +11369,7 @@
     </row>
     <row r="54" spans="1:9" s="48" customFormat="1" ht="98.4">
       <c r="A54" s="62">
-        <f t="shared" ca="1" si="1"/>
+        <f t="shared" ca="1" si="0"/>
         <v>31</v>
       </c>
       <c r="B54" s="52" t="s">
@@ -10807,7 +11397,7 @@
     </row>
     <row r="55" spans="1:9" s="48" customFormat="1" ht="61.5">
       <c r="A55" s="62">
-        <f t="shared" ca="1" si="1"/>
+        <f t="shared" ca="1" si="0"/>
         <v>32</v>
       </c>
       <c r="B55" s="52" t="s">
@@ -10835,11 +11425,11 @@
     </row>
     <row r="56" spans="1:9" s="48" customFormat="1" ht="13.8">
       <c r="A56" s="77"/>
-      <c r="B56" s="194" t="s">
+      <c r="B56" s="217" t="s">
         <v>241</v>
       </c>
-      <c r="C56" s="195"/>
-      <c r="D56" s="196"/>
+      <c r="C56" s="218"/>
+      <c r="D56" s="219"/>
       <c r="E56" s="69"/>
       <c r="F56" s="66"/>
       <c r="G56" s="66"/>
@@ -10848,7 +11438,7 @@
     </row>
     <row r="57" spans="1:9" s="48" customFormat="1" ht="61.5">
       <c r="A57" s="62">
-        <f t="shared" ca="1" si="1"/>
+        <f t="shared" ca="1" si="0"/>
         <v>33</v>
       </c>
       <c r="B57" s="52" t="s">
@@ -10876,7 +11466,7 @@
     </row>
     <row r="58" spans="1:9" s="48" customFormat="1" ht="98.4">
       <c r="A58" s="62">
-        <f t="shared" ca="1" si="1"/>
+        <f t="shared" ca="1" si="0"/>
         <v>34</v>
       </c>
       <c r="B58" s="52" t="s">
@@ -10904,7 +11494,7 @@
     </row>
     <row r="59" spans="1:9" s="48" customFormat="1" ht="98.4">
       <c r="A59" s="62">
-        <f t="shared" ca="1" si="1"/>
+        <f t="shared" ca="1" si="0"/>
         <v>35</v>
       </c>
       <c r="B59" s="52" t="s">
@@ -10932,7 +11522,7 @@
     </row>
     <row r="60" spans="1:9" s="48" customFormat="1" ht="86.1">
       <c r="A60" s="62">
-        <f t="shared" ca="1" si="1"/>
+        <f t="shared" ca="1" si="0"/>
         <v>36</v>
       </c>
       <c r="B60" s="52" t="s">
@@ -10960,7 +11550,7 @@
     </row>
     <row r="61" spans="1:9" s="48" customFormat="1" ht="98.4">
       <c r="A61" s="62">
-        <f t="shared" ca="1" si="1"/>
+        <f t="shared" ca="1" si="0"/>
         <v>37</v>
       </c>
       <c r="B61" s="52" t="s">
@@ -10988,7 +11578,7 @@
     </row>
     <row r="62" spans="1:9" s="48" customFormat="1" ht="86.1">
       <c r="A62" s="62">
-        <f t="shared" ca="1" si="1"/>
+        <f t="shared" ca="1" si="0"/>
         <v>38</v>
       </c>
       <c r="B62" s="52" t="s">
@@ -11016,7 +11606,7 @@
     </row>
     <row r="63" spans="1:9" s="48" customFormat="1" ht="86.1">
       <c r="A63" s="62">
-        <f t="shared" ca="1" si="1"/>
+        <f t="shared" ca="1" si="0"/>
         <v>39</v>
       </c>
       <c r="B63" s="52" t="s">
@@ -11044,7 +11634,7 @@
     </row>
     <row r="64" spans="1:9" s="48" customFormat="1" ht="61.5">
       <c r="A64" s="62">
-        <f t="shared" ca="1" si="1"/>
+        <f t="shared" ca="1" si="0"/>
         <v>40</v>
       </c>
       <c r="B64" s="52" t="s">
@@ -11072,7 +11662,7 @@
     </row>
     <row r="65" spans="1:9" s="48" customFormat="1" ht="86.1">
       <c r="A65" s="62">
-        <f t="shared" ca="1" si="1"/>
+        <f t="shared" ca="1" si="0"/>
         <v>41</v>
       </c>
       <c r="B65" s="52" t="s">
@@ -11100,7 +11690,7 @@
     </row>
     <row r="66" spans="1:9" s="48" customFormat="1" ht="110.7">
       <c r="A66" s="62">
-        <f t="shared" ca="1" si="1"/>
+        <f t="shared" ca="1" si="0"/>
         <v>42</v>
       </c>
       <c r="B66" s="52" t="s">
@@ -11128,7 +11718,7 @@
     </row>
     <row r="67" spans="1:9" s="48" customFormat="1" ht="110.7">
       <c r="A67" s="62">
-        <f t="shared" ca="1" si="1"/>
+        <f t="shared" ca="1" si="0"/>
         <v>43</v>
       </c>
       <c r="B67" s="52" t="s">
@@ -11156,11 +11746,11 @@
     </row>
     <row r="68" spans="1:9" s="48" customFormat="1" ht="13.8">
       <c r="A68" s="77"/>
-      <c r="B68" s="194" t="s">
+      <c r="B68" s="217" t="s">
         <v>283</v>
       </c>
-      <c r="C68" s="195"/>
-      <c r="D68" s="196"/>
+      <c r="C68" s="218"/>
+      <c r="D68" s="219"/>
       <c r="E68" s="69"/>
       <c r="F68" s="66"/>
       <c r="G68" s="66"/>
@@ -11169,7 +11759,7 @@
     </row>
     <row r="69" spans="1:9" s="48" customFormat="1" ht="49.2">
       <c r="A69" s="62">
-        <f t="shared" ca="1" si="1"/>
+        <f t="shared" ca="1" si="0"/>
         <v>44</v>
       </c>
       <c r="B69" s="52" t="s">
@@ -11197,7 +11787,7 @@
     </row>
     <row r="70" spans="1:9" s="48" customFormat="1" ht="73.8">
       <c r="A70" s="62">
-        <f t="shared" ca="1" si="1"/>
+        <f t="shared" ca="1" si="0"/>
         <v>45</v>
       </c>
       <c r="B70" s="52" t="s">
@@ -11225,7 +11815,7 @@
     </row>
     <row r="71" spans="1:9" s="48" customFormat="1" ht="61.5">
       <c r="A71" s="62">
-        <f t="shared" ca="1" si="1"/>
+        <f t="shared" ca="1" si="0"/>
         <v>46</v>
       </c>
       <c r="B71" s="52" t="s">
@@ -11253,11 +11843,11 @@
     </row>
     <row r="72" spans="1:9" s="48" customFormat="1" ht="13.8">
       <c r="A72" s="77"/>
-      <c r="B72" s="194" t="s">
+      <c r="B72" s="217" t="s">
         <v>293</v>
       </c>
-      <c r="C72" s="195"/>
-      <c r="D72" s="196"/>
+      <c r="C72" s="218"/>
+      <c r="D72" s="219"/>
       <c r="E72" s="69"/>
       <c r="F72" s="66"/>
       <c r="G72" s="66"/>
@@ -11266,7 +11856,7 @@
     </row>
     <row r="73" spans="1:9" s="48" customFormat="1" ht="110.7">
       <c r="A73" s="62">
-        <f t="shared" ca="1" si="1"/>
+        <f t="shared" ca="1" si="0"/>
         <v>47</v>
       </c>
       <c r="B73" s="52" t="s">
@@ -11294,7 +11884,7 @@
     </row>
     <row r="74" spans="1:9" s="48" customFormat="1" ht="135.30000000000001">
       <c r="A74" s="62">
-        <f t="shared" ca="1" si="1"/>
+        <f t="shared" ca="1" si="0"/>
         <v>48</v>
       </c>
       <c r="B74" s="52" t="s">
@@ -11322,7 +11912,7 @@
     </row>
     <row r="75" spans="1:9" s="48" customFormat="1" ht="73.8">
       <c r="A75" s="62">
-        <f t="shared" ca="1" si="1"/>
+        <f t="shared" ca="1" si="0"/>
         <v>49</v>
       </c>
       <c r="B75" s="52" t="s">
@@ -11350,11 +11940,11 @@
     </row>
     <row r="76" spans="1:9" s="48" customFormat="1" ht="14.25" customHeight="1">
       <c r="A76" s="77"/>
-      <c r="B76" s="194" t="s">
+      <c r="B76" s="217" t="s">
         <v>304</v>
       </c>
-      <c r="C76" s="195"/>
-      <c r="D76" s="196"/>
+      <c r="C76" s="218"/>
+      <c r="D76" s="219"/>
       <c r="E76" s="69"/>
       <c r="F76" s="66"/>
       <c r="G76" s="66"/>
@@ -11363,7 +11953,7 @@
     </row>
     <row r="77" spans="1:9" s="48" customFormat="1" ht="184.5">
       <c r="A77" s="62">
-        <f t="shared" ca="1" si="1"/>
+        <f t="shared" ca="1" si="0"/>
         <v>50</v>
       </c>
       <c r="B77" s="52" t="s">
@@ -11391,7 +11981,7 @@
     </row>
     <row r="78" spans="1:9" s="48" customFormat="1" ht="73.8">
       <c r="A78" s="62">
-        <f t="shared" ca="1" si="1"/>
+        <f t="shared" ca="1" si="0"/>
         <v>51</v>
       </c>
       <c r="B78" s="52" t="s">
@@ -11419,11 +12009,11 @@
     </row>
     <row r="79" spans="1:9" s="48" customFormat="1" ht="14.25" customHeight="1">
       <c r="A79" s="77"/>
-      <c r="B79" s="194" t="s">
+      <c r="B79" s="217" t="s">
         <v>312</v>
       </c>
-      <c r="C79" s="195"/>
-      <c r="D79" s="196"/>
+      <c r="C79" s="218"/>
+      <c r="D79" s="219"/>
       <c r="E79" s="69"/>
       <c r="F79" s="66"/>
       <c r="G79" s="66"/>
@@ -11432,7 +12022,7 @@
     </row>
     <row r="80" spans="1:9" s="48" customFormat="1" ht="73.8">
       <c r="A80" s="62">
-        <f t="shared" ca="1" si="1"/>
+        <f t="shared" ca="1" si="0"/>
         <v>52</v>
       </c>
       <c r="B80" s="52" t="s">
@@ -11460,7 +12050,7 @@
     </row>
     <row r="81" spans="1:9" s="48" customFormat="1" ht="98.4">
       <c r="A81" s="62">
-        <f t="shared" ca="1" si="1"/>
+        <f t="shared" ca="1" si="0"/>
         <v>53</v>
       </c>
       <c r="B81" s="52" t="s">
@@ -11488,7 +12078,7 @@
     </row>
     <row r="82" spans="1:9" s="48" customFormat="1" ht="61.5">
       <c r="A82" s="62">
-        <f t="shared" ca="1" si="1"/>
+        <f t="shared" ca="1" si="0"/>
         <v>54</v>
       </c>
       <c r="B82" s="52" t="s">
@@ -11516,7 +12106,7 @@
     </row>
     <row r="83" spans="1:9" s="48" customFormat="1" ht="73.8">
       <c r="A83" s="62">
-        <f t="shared" ca="1" si="1"/>
+        <f t="shared" ca="1" si="0"/>
         <v>55</v>
       </c>
       <c r="B83" s="52" t="s">
@@ -11544,7 +12134,7 @@
     </row>
     <row r="84" spans="1:9" s="48" customFormat="1" ht="73.8">
       <c r="A84" s="62">
-        <f t="shared" ca="1" si="1"/>
+        <f t="shared" ca="1" si="0"/>
         <v>56</v>
       </c>
       <c r="B84" s="52" t="s">
@@ -11572,17 +12162,6 @@
     </row>
   </sheetData>
   <mergeCells count="21">
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="A2:D2"/>
-    <mergeCell ref="E2:E3"/>
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="B4:D4"/>
-    <mergeCell ref="F16:H16"/>
-    <mergeCell ref="B18:D18"/>
-    <mergeCell ref="B5:D5"/>
-    <mergeCell ref="B6:D6"/>
-    <mergeCell ref="B7:D7"/>
-    <mergeCell ref="B8:D8"/>
     <mergeCell ref="B29:D29"/>
     <mergeCell ref="B72:D72"/>
     <mergeCell ref="B76:D76"/>
@@ -11593,6 +12172,17 @@
     <mergeCell ref="B52:D52"/>
     <mergeCell ref="B56:D56"/>
     <mergeCell ref="B68:D68"/>
+    <mergeCell ref="F16:H16"/>
+    <mergeCell ref="B18:D18"/>
+    <mergeCell ref="B5:D5"/>
+    <mergeCell ref="B6:D6"/>
+    <mergeCell ref="B7:D7"/>
+    <mergeCell ref="B8:D8"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="A2:D2"/>
+    <mergeCell ref="E2:E3"/>
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="B4:D4"/>
   </mergeCells>
   <dataValidations count="4">
     <dataValidation type="list" allowBlank="1" sqref="F19:H84">
@@ -11649,13 +12239,13 @@
     </row>
     <row r="2" spans="1:12" s="84" customFormat="1" ht="25.2">
       <c r="A2" s="83"/>
-      <c r="C2" s="226" t="s">
+      <c r="C2" s="246" t="s">
         <v>334</v>
       </c>
-      <c r="D2" s="226"/>
-      <c r="E2" s="226"/>
-      <c r="F2" s="226"/>
-      <c r="G2" s="226"/>
+      <c r="D2" s="246"/>
+      <c r="E2" s="246"/>
+      <c r="F2" s="246"/>
+      <c r="G2" s="246"/>
       <c r="H2" s="85" t="s">
         <v>335</v>
       </c>
@@ -11666,15 +12256,15 @@
     </row>
     <row r="3" spans="1:12" s="84" customFormat="1" ht="22.5">
       <c r="A3" s="83"/>
-      <c r="C3" s="227" t="s">
+      <c r="C3" s="247" t="s">
         <v>336</v>
       </c>
-      <c r="D3" s="227"/>
+      <c r="D3" s="247"/>
       <c r="E3" s="157"/>
-      <c r="F3" s="228" t="s">
+      <c r="F3" s="248" t="s">
         <v>337</v>
       </c>
-      <c r="G3" s="228"/>
+      <c r="G3" s="248"/>
       <c r="H3" s="86"/>
       <c r="I3" s="86"/>
       <c r="J3" s="87"/>
@@ -11699,10 +12289,10 @@
       <c r="L5" s="92"/>
     </row>
     <row r="6" spans="1:12" ht="21.75" customHeight="1">
-      <c r="B6" s="210" t="s">
+      <c r="B6" s="249" t="s">
         <v>338</v>
       </c>
-      <c r="C6" s="210"/>
+      <c r="C6" s="249"/>
       <c r="D6" s="94"/>
       <c r="E6" s="94"/>
       <c r="F6" s="94"/>
@@ -11871,11 +12461,11 @@
       <c r="G13" s="98"/>
     </row>
     <row r="14" spans="1:12" ht="21.75" customHeight="1">
-      <c r="B14" s="210" t="s">
+      <c r="B14" s="249" t="s">
         <v>368</v>
       </c>
-      <c r="C14" s="210"/>
-      <c r="D14" s="210"/>
+      <c r="C14" s="249"/>
+      <c r="D14" s="249"/>
       <c r="E14" s="94"/>
       <c r="F14" s="94"/>
       <c r="G14" s="95"/>
@@ -12010,19 +12600,19 @@
         <v>55</v>
       </c>
       <c r="D20" s="104">
-        <f t="shared" ref="D20:G20" si="0">SUM(D18:D19)</f>
+        <f>SUM(D18:D19)</f>
         <v>1</v>
       </c>
       <c r="E20" s="104">
-        <f t="shared" si="0"/>
+        <f>SUM(E18:E19)</f>
         <v>0</v>
       </c>
       <c r="F20" s="104">
-        <f t="shared" si="0"/>
+        <f>SUM(F18:F19)</f>
         <v>0</v>
       </c>
       <c r="G20" s="104">
-        <f t="shared" si="0"/>
+        <f>SUM(G18:G19)</f>
         <v>0</v>
       </c>
       <c r="L20" s="80"/>
@@ -12051,11 +12641,11 @@
       <c r="G22" s="98"/>
     </row>
     <row r="23" spans="1:12" ht="21.75" customHeight="1">
-      <c r="B23" s="210" t="s">
+      <c r="B23" s="249" t="s">
         <v>378</v>
       </c>
-      <c r="C23" s="210"/>
-      <c r="D23" s="210"/>
+      <c r="C23" s="249"/>
+      <c r="D23" s="249"/>
       <c r="E23" s="94"/>
       <c r="F23" s="94"/>
       <c r="G23" s="95"/>
@@ -12101,10 +12691,10 @@
       <c r="F26" s="160" t="s">
         <v>385</v>
       </c>
-      <c r="G26" s="229" t="s">
+      <c r="G26" s="250" t="s">
         <v>114</v>
       </c>
-      <c r="H26" s="230"/>
+      <c r="H26" s="251"/>
     </row>
     <row r="27" spans="1:12">
       <c r="A27" s="100">
@@ -12129,8 +12719,8 @@
         <f>COUNTIFS(#REF!, "*Critical*",#REF!,"*Closed*") + COUNTIFS(#REF!, "*Critical*",#REF!,"*Ready for client test*")</f>
         <v>#REF!</v>
       </c>
-      <c r="G27" s="221"/>
-      <c r="H27" s="222"/>
+      <c r="G27" s="244"/>
+      <c r="H27" s="245"/>
     </row>
     <row r="28" spans="1:12" ht="20.25" customHeight="1">
       <c r="A28" s="100">
@@ -12155,8 +12745,8 @@
         <f>COUNTIFS(#REF!, "*Major*",#REF!,"*Closed*") + COUNTIFS(#REF!, "*Major*",#REF!,"*Ready for client test*")</f>
         <v>#REF!</v>
       </c>
-      <c r="G28" s="221"/>
-      <c r="H28" s="222"/>
+      <c r="G28" s="244"/>
+      <c r="H28" s="245"/>
     </row>
     <row r="29" spans="1:12" ht="20.25" customHeight="1">
       <c r="A29" s="100">
@@ -12181,8 +12771,8 @@
         <f>COUNTIFS(#REF!, "*Normal*",#REF!,"*Closed*") + COUNTIFS(#REF!, "*Normal*",#REF!,"*Ready for client test*")</f>
         <v>#REF!</v>
       </c>
-      <c r="G29" s="221"/>
-      <c r="H29" s="222"/>
+      <c r="G29" s="244"/>
+      <c r="H29" s="245"/>
     </row>
     <row r="30" spans="1:12" ht="20.25" customHeight="1">
       <c r="A30" s="100">
@@ -12207,8 +12797,8 @@
         <f>COUNTIFS(#REF!, "*Minor*",#REF!,"*Closed*") + COUNTIFS(#REF!, "*Minor*",#REF!,"*Ready for client test*")</f>
         <v>#REF!</v>
       </c>
-      <c r="G30" s="221"/>
-      <c r="H30" s="222"/>
+      <c r="G30" s="244"/>
+      <c r="H30" s="245"/>
     </row>
     <row r="31" spans="1:12" ht="20.25" customHeight="1">
       <c r="A31" s="100"/>
@@ -12229,8 +12819,8 @@
         <f>SUM(F27:F30)</f>
         <v>#REF!</v>
       </c>
-      <c r="G31" s="221"/>
-      <c r="H31" s="222"/>
+      <c r="G31" s="244"/>
+      <c r="H31" s="245"/>
     </row>
     <row r="32" spans="1:12" ht="20.25" customHeight="1">
       <c r="A32" s="106"/>
@@ -12268,10 +12858,10 @@
       <c r="E34" s="160" t="s">
         <v>344</v>
       </c>
-      <c r="F34" s="215" t="s">
+      <c r="F34" s="252" t="s">
         <v>347</v>
       </c>
-      <c r="G34" s="217"/>
+      <c r="G34" s="253"/>
     </row>
     <row r="35" spans="1:12" s="125" customFormat="1" ht="14.1">
       <c r="A35" s="121"/>
@@ -12287,8 +12877,8 @@
       <c r="E35" s="126" t="s">
         <v>352</v>
       </c>
-      <c r="F35" s="224"/>
-      <c r="G35" s="225"/>
+      <c r="F35" s="255"/>
+      <c r="G35" s="256"/>
       <c r="H35" s="124"/>
       <c r="I35" s="124"/>
       <c r="J35" s="124"/>
@@ -12311,8 +12901,8 @@
       <c r="E36" s="104" t="s">
         <v>358</v>
       </c>
-      <c r="F36" s="221"/>
-      <c r="G36" s="222"/>
+      <c r="F36" s="244"/>
+      <c r="G36" s="245"/>
     </row>
     <row r="37" spans="1:12" ht="20.25" customHeight="1">
       <c r="A37" s="100">
@@ -12330,8 +12920,8 @@
       <c r="E37" s="104" t="s">
         <v>358</v>
       </c>
-      <c r="F37" s="221"/>
-      <c r="G37" s="222"/>
+      <c r="F37" s="244"/>
+      <c r="G37" s="245"/>
     </row>
     <row r="38" spans="1:12" ht="20.25" customHeight="1">
       <c r="A38" s="106"/>
@@ -12344,10 +12934,10 @@
       <c r="H38" s="108"/>
     </row>
     <row r="39" spans="1:12" ht="21.75" customHeight="1">
-      <c r="B39" s="210" t="s">
+      <c r="B39" s="249" t="s">
         <v>399</v>
       </c>
-      <c r="C39" s="210"/>
+      <c r="C39" s="249"/>
       <c r="D39" s="94"/>
       <c r="E39" s="94"/>
       <c r="F39" s="94"/>
@@ -12371,15 +12961,15 @@
       <c r="B41" s="160" t="s">
         <v>62</v>
       </c>
-      <c r="C41" s="223" t="s">
+      <c r="C41" s="254" t="s">
         <v>401</v>
       </c>
-      <c r="D41" s="223"/>
-      <c r="E41" s="223" t="s">
+      <c r="D41" s="254"/>
+      <c r="E41" s="254" t="s">
         <v>402</v>
       </c>
-      <c r="F41" s="223"/>
-      <c r="G41" s="223"/>
+      <c r="F41" s="254"/>
+      <c r="G41" s="254"/>
       <c r="H41" s="99" t="s">
         <v>403</v>
       </c>
@@ -12391,15 +12981,15 @@
       <c r="B42" s="161" t="s">
         <v>404</v>
       </c>
-      <c r="C42" s="220" t="s">
+      <c r="C42" s="257" t="s">
         <v>405</v>
       </c>
-      <c r="D42" s="220"/>
-      <c r="E42" s="220" t="s">
+      <c r="D42" s="257"/>
+      <c r="E42" s="257" t="s">
         <v>406</v>
       </c>
-      <c r="F42" s="220"/>
-      <c r="G42" s="220"/>
+      <c r="F42" s="257"/>
+      <c r="G42" s="257"/>
       <c r="H42" s="109"/>
     </row>
     <row r="43" spans="1:12" ht="34.5" customHeight="1">
@@ -12409,15 +12999,15 @@
       <c r="B43" s="161" t="s">
         <v>404</v>
       </c>
-      <c r="C43" s="220" t="s">
+      <c r="C43" s="257" t="s">
         <v>405</v>
       </c>
-      <c r="D43" s="220"/>
-      <c r="E43" s="220" t="s">
+      <c r="D43" s="257"/>
+      <c r="E43" s="257" t="s">
         <v>406</v>
       </c>
-      <c r="F43" s="220"/>
-      <c r="G43" s="220"/>
+      <c r="F43" s="257"/>
+      <c r="G43" s="257"/>
       <c r="H43" s="109"/>
     </row>
     <row r="44" spans="1:12" ht="34.5" customHeight="1">
@@ -12427,15 +13017,15 @@
       <c r="B44" s="161" t="s">
         <v>404</v>
       </c>
-      <c r="C44" s="220" t="s">
+      <c r="C44" s="257" t="s">
         <v>405</v>
       </c>
-      <c r="D44" s="220"/>
-      <c r="E44" s="220" t="s">
+      <c r="D44" s="257"/>
+      <c r="E44" s="257" t="s">
         <v>406</v>
       </c>
-      <c r="F44" s="220"/>
-      <c r="G44" s="220"/>
+      <c r="F44" s="257"/>
+      <c r="G44" s="257"/>
       <c r="H44" s="109"/>
     </row>
     <row r="45" spans="1:12">
@@ -12447,10 +13037,10 @@
       <c r="G45" s="98"/>
     </row>
     <row r="46" spans="1:12" ht="21.75" customHeight="1">
-      <c r="B46" s="210" t="s">
+      <c r="B46" s="249" t="s">
         <v>407</v>
       </c>
-      <c r="C46" s="210"/>
+      <c r="C46" s="249"/>
       <c r="D46" s="94"/>
       <c r="E46" s="94"/>
       <c r="F46" s="94"/>
@@ -12468,25 +13058,25 @@
       <c r="G47" s="98"/>
     </row>
     <row r="48" spans="1:12" s="113" customFormat="1" ht="21" customHeight="1">
-      <c r="A48" s="211" t="s">
+      <c r="A48" s="260" t="s">
         <v>58</v>
       </c>
-      <c r="B48" s="213" t="s">
+      <c r="B48" s="262" t="s">
         <v>409</v>
       </c>
-      <c r="C48" s="215" t="s">
+      <c r="C48" s="252" t="s">
         <v>410</v>
       </c>
-      <c r="D48" s="216"/>
-      <c r="E48" s="216"/>
-      <c r="F48" s="217"/>
-      <c r="G48" s="218" t="s">
+      <c r="D48" s="264"/>
+      <c r="E48" s="264"/>
+      <c r="F48" s="253"/>
+      <c r="G48" s="265" t="s">
         <v>377</v>
       </c>
-      <c r="H48" s="218" t="s">
+      <c r="H48" s="265" t="s">
         <v>409</v>
       </c>
-      <c r="I48" s="208" t="s">
+      <c r="I48" s="258" t="s">
         <v>411</v>
       </c>
       <c r="J48" s="112"/>
@@ -12494,8 +13084,8 @@
       <c r="L48" s="112"/>
     </row>
     <row r="49" spans="1:9">
-      <c r="A49" s="212"/>
-      <c r="B49" s="214"/>
+      <c r="A49" s="261"/>
+      <c r="B49" s="263"/>
       <c r="C49" s="114" t="s">
         <v>386</v>
       </c>
@@ -12508,13 +13098,13 @@
       <c r="F49" s="115" t="s">
         <v>389</v>
       </c>
-      <c r="G49" s="219"/>
-      <c r="H49" s="219"/>
-      <c r="I49" s="209"/>
+      <c r="G49" s="266"/>
+      <c r="H49" s="266"/>
+      <c r="I49" s="259"/>
     </row>
     <row r="50" spans="1:9" ht="25.2">
-      <c r="A50" s="212"/>
-      <c r="B50" s="214"/>
+      <c r="A50" s="261"/>
+      <c r="B50" s="263"/>
       <c r="C50" s="128" t="s">
         <v>412</v>
       </c>
@@ -12626,6 +13216,26 @@
     </row>
   </sheetData>
   <mergeCells count="32">
+    <mergeCell ref="I48:I49"/>
+    <mergeCell ref="B46:C46"/>
+    <mergeCell ref="A48:A50"/>
+    <mergeCell ref="B48:B50"/>
+    <mergeCell ref="C48:F48"/>
+    <mergeCell ref="G48:G49"/>
+    <mergeCell ref="H48:H49"/>
+    <mergeCell ref="C42:D42"/>
+    <mergeCell ref="E42:G42"/>
+    <mergeCell ref="C43:D43"/>
+    <mergeCell ref="E43:G43"/>
+    <mergeCell ref="C44:D44"/>
+    <mergeCell ref="E44:G44"/>
+    <mergeCell ref="F34:G34"/>
+    <mergeCell ref="F36:G36"/>
+    <mergeCell ref="F37:G37"/>
+    <mergeCell ref="B39:C39"/>
+    <mergeCell ref="C41:D41"/>
+    <mergeCell ref="E41:G41"/>
+    <mergeCell ref="F35:G35"/>
     <mergeCell ref="G31:H31"/>
     <mergeCell ref="C2:G2"/>
     <mergeCell ref="C3:D3"/>
@@ -12638,26 +13248,6 @@
     <mergeCell ref="G28:H28"/>
     <mergeCell ref="G29:H29"/>
     <mergeCell ref="G30:H30"/>
-    <mergeCell ref="F34:G34"/>
-    <mergeCell ref="F36:G36"/>
-    <mergeCell ref="F37:G37"/>
-    <mergeCell ref="B39:C39"/>
-    <mergeCell ref="C41:D41"/>
-    <mergeCell ref="E41:G41"/>
-    <mergeCell ref="F35:G35"/>
-    <mergeCell ref="C42:D42"/>
-    <mergeCell ref="E42:G42"/>
-    <mergeCell ref="C43:D43"/>
-    <mergeCell ref="E43:G43"/>
-    <mergeCell ref="C44:D44"/>
-    <mergeCell ref="E44:G44"/>
-    <mergeCell ref="I48:I49"/>
-    <mergeCell ref="B46:C46"/>
-    <mergeCell ref="A48:A50"/>
-    <mergeCell ref="B48:B50"/>
-    <mergeCell ref="C48:F48"/>
-    <mergeCell ref="G48:G49"/>
-    <mergeCell ref="H48:H49"/>
   </mergeCells>
   <conditionalFormatting sqref="H51">
     <cfRule type="cellIs" dxfId="5" priority="5" operator="equal">
@@ -12704,6 +13294,12 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101008DD9373D9A24F64F89F14F461305A106" ma:contentTypeVersion="4" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="edefd2bea9a69e65a3918d4b9d850884">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="cabca498-5e2a-459c-ade0-601c6a98c846" xmlns:ns3="044e8ed5-b60c-40cd-b477-04c240ccf9c3" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="1cdcf90a8e7cb27405451b504492cec2" ns2:_="" ns3:_="">
     <xsd:import namespace="cabca498-5e2a-459c-ade0-601c6a98c846"/>
@@ -12868,12 +13464,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4F8C6C6D-E626-49D4-9BA8-E27B2B9C9191}">
   <ds:schemaRefs>
@@ -12883,6 +13473,23 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{06E3E4FA-795A-4742-A021-9CDC3210C50B}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="cabca498-5e2a-459c-ade0-601c6a98c846"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="044e8ed5-b60c-40cd-b477-04c240ccf9c3"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A7729ACD-7A20-4344-BFA5-B224A8419F45}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -12899,21 +13506,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{06E3E4FA-795A-4742-A021-9CDC3210C50B}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="cabca498-5e2a-459c-ade0-601c6a98c846"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="044e8ed5-b60c-40cd-b477-04c240ccf9c3"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/test design technic daongochuy.xlsx
+++ b/test design technic daongochuy.xlsx
@@ -994,7 +994,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1261" uniqueCount="498">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1281" uniqueCount="515">
   <si>
     <r>
       <t xml:space="preserve">Security Classification: </t>
@@ -2711,9 +2711,6 @@
     <t>đ5000</t>
   </si>
   <si>
-    <t>1, Select any product then check displaying of currency in ViewProduct screen</t>
-  </si>
-  <si>
     <t>Original Price from 1 to 999</t>
   </si>
   <si>
@@ -2945,6 +2942,60 @@
   </si>
   <si>
     <t>User clicks on "Back" button</t>
+  </si>
+  <si>
+    <t>Verify that first photo focused on in photolist</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Click "Back" button when focus on the first picture in ViewProduct screen </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Click "Back" button when focus on the second picture in ViewProduct screen </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Click "Next" button when focus on the last picture in ViewProduct screen </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Click "Next" button when focus on the close-to-last picture in ViewProduct screen </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Click "Next" button when focus on a picture in ViewProduct screen </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Verify that "Back" button disabled </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Verify that "Back" button available </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Verify that "Next" button disabled </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Verify that the next photo onward focused </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Verify that the photo backward focused </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Users click on each photo on the photo list in ViewProduct screen </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Verify that photo focused on the big photo frame </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Verify that the text "No Picture" display on the big frame  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Initial status </t>
+  </si>
+  <si>
+    <t xml:space="preserve">reload page to check if first photo on the big frame focused when loading page </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reload page to check if first photo on the list focused when loading page </t>
+  </si>
+  <si>
+    <t>Verify that first photo focused on big photo frame</t>
   </si>
 </sst>
 </file>
@@ -3982,7 +4033,7 @@
     <xf numFmtId="166" fontId="56" fillId="0" borderId="0"/>
     <xf numFmtId="166" fontId="57" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="267">
+  <cellXfs count="268">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
@@ -4629,6 +4680,9 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="52" fillId="24" borderId="15" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="26" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
@@ -4650,9 +4704,6 @@
     <xf numFmtId="0" fontId="3" fillId="28" borderId="17" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="52" fillId="24" borderId="15" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
@@ -4733,6 +4784,9 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="7" xfId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="27" borderId="2" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="27">
@@ -6526,8 +6580,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X97"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A54" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="B68" sqref="B68"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A52" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="C70" sqref="C70"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.15625" defaultRowHeight="12.3"/>
@@ -6856,10 +6910,10 @@
         <v>422</v>
       </c>
       <c r="C19" s="52" t="s">
-        <v>426</v>
+        <v>453</v>
       </c>
       <c r="D19" s="53" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="E19" s="54" t="s">
         <v>425</v>
@@ -6872,7 +6926,7 @@
     <row r="20" spans="1:9" s="45" customFormat="1">
       <c r="A20" s="168"/>
       <c r="B20" s="225" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="C20" s="226"/>
       <c r="D20" s="226"/>
@@ -6888,16 +6942,16 @@
         <v>2</v>
       </c>
       <c r="B21" s="52" t="s">
+        <v>426</v>
+      </c>
+      <c r="C21" s="52" t="s">
+        <v>429</v>
+      </c>
+      <c r="D21" s="60" t="s">
         <v>427</v>
       </c>
-      <c r="C21" s="52" t="s">
-        <v>430</v>
-      </c>
-      <c r="D21" s="60" t="s">
+      <c r="E21" s="54" t="s">
         <v>428</v>
-      </c>
-      <c r="E21" s="54" t="s">
-        <v>429</v>
       </c>
       <c r="F21" s="52"/>
       <c r="G21" s="52"/>
@@ -6913,13 +6967,13 @@
         <v>424</v>
       </c>
       <c r="C22" s="52" t="s">
+        <v>430</v>
+      </c>
+      <c r="D22" s="60" t="s">
+        <v>427</v>
+      </c>
+      <c r="E22" s="54" t="s">
         <v>431</v>
-      </c>
-      <c r="D22" s="60" t="s">
-        <v>428</v>
-      </c>
-      <c r="E22" s="54" t="s">
-        <v>432</v>
       </c>
       <c r="F22" s="52"/>
       <c r="G22" s="52"/>
@@ -6929,7 +6983,7 @@
     <row r="23" spans="1:9" s="45" customFormat="1">
       <c r="A23" s="168"/>
       <c r="B23" s="225" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="C23" s="226"/>
       <c r="D23" s="226"/>
@@ -6945,16 +6999,16 @@
         <v>4</v>
       </c>
       <c r="B24" s="52" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="C24" s="52" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="D24" s="54" t="s">
+        <v>434</v>
+      </c>
+      <c r="E24" s="54" t="s">
         <v>435</v>
-      </c>
-      <c r="E24" s="54" t="s">
-        <v>436</v>
       </c>
       <c r="F24" s="52"/>
       <c r="G24" s="52"/>
@@ -6967,16 +7021,16 @@
         <v>5</v>
       </c>
       <c r="B25" s="52" t="s">
+        <v>439</v>
+      </c>
+      <c r="C25" s="52" t="s">
+        <v>467</v>
+      </c>
+      <c r="D25" s="60" t="s">
+        <v>434</v>
+      </c>
+      <c r="E25" s="54" t="s">
         <v>440</v>
-      </c>
-      <c r="C25" s="52" t="s">
-        <v>468</v>
-      </c>
-      <c r="D25" s="60" t="s">
-        <v>435</v>
-      </c>
-      <c r="E25" s="54" t="s">
-        <v>441</v>
       </c>
       <c r="F25" s="52"/>
       <c r="G25" s="52"/>
@@ -6989,16 +7043,16 @@
         <v>6</v>
       </c>
       <c r="B26" s="52" t="s">
+        <v>433</v>
+      </c>
+      <c r="C26" s="52" t="s">
+        <v>436</v>
+      </c>
+      <c r="D26" s="60" t="s">
         <v>434</v>
       </c>
-      <c r="C26" s="52" t="s">
-        <v>437</v>
-      </c>
-      <c r="D26" s="60" t="s">
-        <v>435</v>
-      </c>
       <c r="E26" s="54" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="F26" s="52"/>
       <c r="G26" s="52"/>
@@ -7008,7 +7062,7 @@
     <row r="27" spans="1:9" s="48" customFormat="1" ht="13.8">
       <c r="A27" s="168"/>
       <c r="B27" s="222" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="C27" s="223"/>
       <c r="D27" s="223"/>
@@ -7027,13 +7081,13 @@
         <v>423</v>
       </c>
       <c r="C28" s="52" t="s">
+        <v>444</v>
+      </c>
+      <c r="D28" s="60" t="s">
         <v>445</v>
       </c>
-      <c r="D28" s="60" t="s">
+      <c r="E28" s="54" t="s">
         <v>446</v>
-      </c>
-      <c r="E28" s="54" t="s">
-        <v>447</v>
       </c>
       <c r="F28" s="52"/>
       <c r="G28" s="52"/>
@@ -7046,16 +7100,16 @@
         <v>8</v>
       </c>
       <c r="B29" s="62" t="s">
+        <v>447</v>
+      </c>
+      <c r="C29" s="62" t="s">
         <v>448</v>
       </c>
-      <c r="C29" s="62" t="s">
+      <c r="D29" s="62" t="s">
+        <v>445</v>
+      </c>
+      <c r="E29" s="62" t="s">
         <v>449</v>
-      </c>
-      <c r="D29" s="62" t="s">
-        <v>446</v>
-      </c>
-      <c r="E29" s="62" t="s">
-        <v>450</v>
       </c>
       <c r="F29" s="62"/>
       <c r="G29" s="62"/>
@@ -7068,16 +7122,16 @@
         <v>9</v>
       </c>
       <c r="B30" s="62" t="s">
+        <v>450</v>
+      </c>
+      <c r="C30" s="62" t="s">
         <v>451</v>
       </c>
-      <c r="C30" s="62" t="s">
+      <c r="D30" s="62" t="s">
+        <v>445</v>
+      </c>
+      <c r="E30" s="62" t="s">
         <v>452</v>
-      </c>
-      <c r="D30" s="62" t="s">
-        <v>446</v>
-      </c>
-      <c r="E30" s="62" t="s">
-        <v>453</v>
       </c>
       <c r="F30" s="62"/>
       <c r="G30" s="62"/>
@@ -7106,10 +7160,10 @@
         <v>422</v>
       </c>
       <c r="C32" s="52" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="D32" s="53" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="E32" s="54" t="s">
         <v>425</v>
@@ -7122,7 +7176,7 @@
     <row r="33" spans="1:9" s="48" customFormat="1" ht="13.8">
       <c r="A33" s="168"/>
       <c r="B33" s="225" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="C33" s="226"/>
       <c r="D33" s="226"/>
@@ -7138,16 +7192,16 @@
         <v>11</v>
       </c>
       <c r="B34" s="52" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="C34" s="52" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="D34" s="60" t="s">
+        <v>427</v>
+      </c>
+      <c r="E34" s="54" t="s">
         <v>428</v>
-      </c>
-      <c r="E34" s="54" t="s">
-        <v>429</v>
       </c>
       <c r="F34" s="52"/>
       <c r="G34" s="52"/>
@@ -7160,16 +7214,16 @@
         <v>12</v>
       </c>
       <c r="B35" s="52" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="C35" s="52" t="s">
+        <v>430</v>
+      </c>
+      <c r="D35" s="60" t="s">
+        <v>427</v>
+      </c>
+      <c r="E35" s="54" t="s">
         <v>431</v>
-      </c>
-      <c r="D35" s="60" t="s">
-        <v>428</v>
-      </c>
-      <c r="E35" s="54" t="s">
-        <v>432</v>
       </c>
       <c r="F35" s="52"/>
       <c r="G35" s="52"/>
@@ -7179,7 +7233,7 @@
     <row r="36" spans="1:9" s="48" customFormat="1" ht="13.8">
       <c r="A36" s="168"/>
       <c r="B36" s="225" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="C36" s="226"/>
       <c r="D36" s="226"/>
@@ -7195,16 +7249,16 @@
         <v>13</v>
       </c>
       <c r="B37" s="52" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="C37" s="52" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="D37" s="54" t="s">
+        <v>434</v>
+      </c>
+      <c r="E37" s="54" t="s">
         <v>435</v>
-      </c>
-      <c r="E37" s="54" t="s">
-        <v>436</v>
       </c>
       <c r="F37" s="52"/>
       <c r="G37" s="52"/>
@@ -7217,16 +7271,16 @@
         <v>14</v>
       </c>
       <c r="B38" s="52" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="C38" s="52" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="D38" s="60" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="E38" s="54" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="F38" s="52"/>
       <c r="G38" s="52"/>
@@ -7239,16 +7293,16 @@
         <v>15</v>
       </c>
       <c r="B39" s="52" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="C39" s="52" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="D39" s="60" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="E39" s="54" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="F39" s="52"/>
       <c r="G39" s="52"/>
@@ -7258,7 +7312,7 @@
     <row r="40" spans="1:9" s="48" customFormat="1" ht="13.8">
       <c r="A40" s="168"/>
       <c r="B40" s="222" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="C40" s="223"/>
       <c r="D40" s="223"/>
@@ -7274,16 +7328,16 @@
         <v>16</v>
       </c>
       <c r="B41" s="52" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="C41" s="52" t="s">
+        <v>444</v>
+      </c>
+      <c r="D41" s="60" t="s">
         <v>445</v>
       </c>
-      <c r="D41" s="60" t="s">
+      <c r="E41" s="54" t="s">
         <v>446</v>
-      </c>
-      <c r="E41" s="54" t="s">
-        <v>447</v>
       </c>
       <c r="F41" s="52"/>
       <c r="G41" s="52"/>
@@ -7296,16 +7350,16 @@
         <v>17</v>
       </c>
       <c r="B42" s="62" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="C42" s="62" t="s">
+        <v>448</v>
+      </c>
+      <c r="D42" s="62" t="s">
+        <v>445</v>
+      </c>
+      <c r="E42" s="62" t="s">
         <v>449</v>
-      </c>
-      <c r="D42" s="62" t="s">
-        <v>446</v>
-      </c>
-      <c r="E42" s="62" t="s">
-        <v>450</v>
       </c>
       <c r="F42" s="62"/>
       <c r="G42" s="62"/>
@@ -7318,16 +7372,16 @@
         <v>18</v>
       </c>
       <c r="B43" s="62" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="C43" s="62" t="s">
+        <v>451</v>
+      </c>
+      <c r="D43" s="62" t="s">
+        <v>445</v>
+      </c>
+      <c r="E43" s="62" t="s">
         <v>452</v>
-      </c>
-      <c r="D43" s="62" t="s">
-        <v>446</v>
-      </c>
-      <c r="E43" s="62" t="s">
-        <v>453</v>
       </c>
       <c r="F43" s="62"/>
       <c r="G43" s="62"/>
@@ -7336,16 +7390,16 @@
     </row>
     <row r="44" spans="1:9" s="48" customFormat="1" ht="13.8">
       <c r="A44" s="168"/>
-      <c r="B44" s="232" t="s">
-        <v>463</v>
-      </c>
-      <c r="C44" s="233"/>
-      <c r="D44" s="233"/>
-      <c r="E44" s="233"/>
-      <c r="F44" s="233"/>
-      <c r="G44" s="233"/>
-      <c r="H44" s="233"/>
-      <c r="I44" s="234"/>
+      <c r="B44" s="233" t="s">
+        <v>462</v>
+      </c>
+      <c r="C44" s="234"/>
+      <c r="D44" s="234"/>
+      <c r="E44" s="234"/>
+      <c r="F44" s="234"/>
+      <c r="G44" s="234"/>
+      <c r="H44" s="234"/>
+      <c r="I44" s="235"/>
     </row>
     <row r="45" spans="1:9" s="48" customFormat="1" ht="13.8">
       <c r="A45" s="58">
@@ -7353,16 +7407,16 @@
         <v>19</v>
       </c>
       <c r="B45" s="62" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="C45" s="62" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="D45" s="62" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="E45" s="62" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="F45" s="62"/>
       <c r="G45" s="62"/>
@@ -7375,16 +7429,16 @@
         <v>20</v>
       </c>
       <c r="B46" s="52" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="C46" s="62" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="D46" s="60" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="E46" s="54" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="F46" s="52"/>
       <c r="G46" s="52"/>
@@ -7397,16 +7451,16 @@
         <v>21</v>
       </c>
       <c r="B47" s="52" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="C47" s="62" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="D47" s="60" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="E47" s="54" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="F47" s="52"/>
       <c r="G47" s="52"/>
@@ -7419,16 +7473,16 @@
         <v>22</v>
       </c>
       <c r="B48" s="52" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="C48" s="62" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="D48" s="60" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="E48" s="54" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="F48" s="52"/>
       <c r="G48" s="52"/>
@@ -7437,61 +7491,64 @@
     </row>
     <row r="49" spans="1:9" s="48" customFormat="1" ht="13.8">
       <c r="A49" s="167"/>
-      <c r="B49" s="235" t="s">
+      <c r="B49" s="236" t="s">
+        <v>480</v>
+      </c>
+      <c r="C49" s="237"/>
+      <c r="D49" s="237"/>
+      <c r="E49" s="237"/>
+      <c r="F49" s="237"/>
+      <c r="G49" s="237"/>
+      <c r="H49" s="237"/>
+      <c r="I49" s="237"/>
+    </row>
+    <row r="50" spans="1:9" s="48" customFormat="1" ht="13.8">
+      <c r="A50" s="180"/>
+      <c r="B50" s="238" t="s">
         <v>481</v>
       </c>
-      <c r="C49" s="236"/>
-      <c r="D49" s="236"/>
-      <c r="E49" s="236"/>
-      <c r="F49" s="236"/>
-      <c r="G49" s="236"/>
-      <c r="H49" s="236"/>
-      <c r="I49" s="236"/>
-    </row>
-    <row r="50" spans="1:9" s="48" customFormat="1" ht="13.8">
-      <c r="A50" s="179">
-        <f t="shared" ca="1" si="1"/>
+      <c r="C50" s="239"/>
+      <c r="D50" s="239"/>
+      <c r="E50" s="239"/>
+      <c r="F50" s="239"/>
+      <c r="G50" s="239"/>
+      <c r="H50" s="239"/>
+      <c r="I50" s="239"/>
+    </row>
+    <row r="51" spans="1:9" s="48" customFormat="1" ht="13.8">
+      <c r="A51" s="58">
         <v>23</v>
       </c>
-      <c r="B50" s="182" t="s">
-        <v>494</v>
-      </c>
-      <c r="C50" s="181"/>
-      <c r="D50" s="181"/>
-      <c r="E50" s="181"/>
-      <c r="F50" s="181"/>
-      <c r="G50" s="181"/>
-      <c r="H50" s="181"/>
-      <c r="I50" s="181"/>
-    </row>
-    <row r="51" spans="1:9" s="48" customFormat="1" ht="13.8">
-      <c r="A51" s="180"/>
-      <c r="B51" s="237" t="s">
+      <c r="B51" s="52" t="s">
         <v>482</v>
       </c>
-      <c r="C51" s="238"/>
-      <c r="D51" s="238"/>
-      <c r="E51" s="238"/>
-      <c r="F51" s="238"/>
-      <c r="G51" s="238"/>
-      <c r="H51" s="238"/>
-      <c r="I51" s="238"/>
+      <c r="C51" s="52"/>
+      <c r="D51" s="60"/>
+      <c r="E51" s="54"/>
+      <c r="F51" s="52"/>
+      <c r="G51" s="52"/>
+      <c r="H51" s="52"/>
+      <c r="I51" s="61"/>
     </row>
     <row r="52" spans="1:9" s="48" customFormat="1" ht="13.8">
-      <c r="A52" s="58">
+      <c r="A52" s="179">
         <f t="shared" ca="1" si="1"/>
         <v>24</v>
       </c>
-      <c r="B52" s="52" t="s">
-        <v>483</v>
-      </c>
-      <c r="C52" s="52"/>
-      <c r="D52" s="60"/>
-      <c r="E52" s="54"/>
-      <c r="F52" s="52"/>
-      <c r="G52" s="52"/>
-      <c r="H52" s="52"/>
-      <c r="I52" s="61"/>
+      <c r="B52" s="182" t="s">
+        <v>493</v>
+      </c>
+      <c r="C52" s="182" t="s">
+        <v>513</v>
+      </c>
+      <c r="D52" s="267" t="s">
+        <v>497</v>
+      </c>
+      <c r="E52" s="181"/>
+      <c r="F52" s="181"/>
+      <c r="G52" s="181"/>
+      <c r="H52" s="181"/>
+      <c r="I52" s="181"/>
     </row>
     <row r="53" spans="1:9" s="48" customFormat="1" ht="13.8">
       <c r="A53" s="58">
@@ -7499,7 +7556,7 @@
         <v>25</v>
       </c>
       <c r="B53" s="52" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="C53" s="52"/>
       <c r="D53" s="60"/>
@@ -7515,7 +7572,7 @@
         <v>26</v>
       </c>
       <c r="B54" s="52" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="C54" s="52"/>
       <c r="D54" s="60"/>
@@ -7531,7 +7588,7 @@
         <v>27</v>
       </c>
       <c r="B55" s="52" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="C55" s="52"/>
       <c r="D55" s="60"/>
@@ -7547,7 +7604,7 @@
         <v>28</v>
       </c>
       <c r="B56" s="52" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="C56" s="52"/>
       <c r="D56" s="60"/>
@@ -7559,8 +7616,8 @@
     </row>
     <row r="57" spans="1:9" s="48" customFormat="1" ht="13.8">
       <c r="A57" s="180"/>
-      <c r="B57" s="239" t="s">
-        <v>488</v>
+      <c r="B57" s="232" t="s">
+        <v>487</v>
       </c>
       <c r="C57" s="226"/>
       <c r="D57" s="226"/>
@@ -7576,10 +7633,14 @@
         <v>29</v>
       </c>
       <c r="B58" s="52" t="s">
-        <v>489</v>
-      </c>
-      <c r="C58" s="52"/>
-      <c r="D58" s="60"/>
+        <v>488</v>
+      </c>
+      <c r="C58" s="52" t="s">
+        <v>498</v>
+      </c>
+      <c r="D58" s="60" t="s">
+        <v>503</v>
+      </c>
       <c r="E58" s="54"/>
       <c r="F58" s="52"/>
       <c r="G58" s="52"/>
@@ -7592,10 +7653,14 @@
         <v>30</v>
       </c>
       <c r="B59" s="52" t="s">
-        <v>490</v>
-      </c>
-      <c r="C59" s="52"/>
-      <c r="D59" s="60"/>
+        <v>489</v>
+      </c>
+      <c r="C59" s="52" t="s">
+        <v>499</v>
+      </c>
+      <c r="D59" s="60" t="s">
+        <v>504</v>
+      </c>
       <c r="E59" s="54"/>
       <c r="F59" s="52"/>
       <c r="G59" s="52"/>
@@ -7608,10 +7673,14 @@
         <v>31</v>
       </c>
       <c r="B60" s="52" t="s">
-        <v>491</v>
-      </c>
-      <c r="C60" s="52"/>
-      <c r="D60" s="60"/>
+        <v>490</v>
+      </c>
+      <c r="C60" s="52" t="s">
+        <v>500</v>
+      </c>
+      <c r="D60" s="60" t="s">
+        <v>505</v>
+      </c>
       <c r="E60" s="54"/>
       <c r="F60" s="52"/>
       <c r="G60" s="52"/>
@@ -7624,10 +7693,14 @@
         <v>32</v>
       </c>
       <c r="B61" s="52" t="s">
-        <v>492</v>
-      </c>
-      <c r="C61" s="52"/>
-      <c r="D61" s="60"/>
+        <v>491</v>
+      </c>
+      <c r="C61" s="52" t="s">
+        <v>501</v>
+      </c>
+      <c r="D61" s="60" t="s">
+        <v>505</v>
+      </c>
       <c r="E61" s="54"/>
       <c r="F61" s="52"/>
       <c r="G61" s="52"/>
@@ -7636,14 +7709,18 @@
     </row>
     <row r="62" spans="1:9" s="48" customFormat="1" ht="13.8">
       <c r="A62" s="58">
-        <f t="shared" ref="A62:A66" ca="1" si="2">IF(OFFSET(A62,-1,0) ="",OFFSET(A62,-2,0)+1,OFFSET(A62,-1,0)+1 )</f>
+        <f t="shared" ref="A62:A67" ca="1" si="2">IF(OFFSET(A62,-1,0) ="",OFFSET(A62,-2,0)+1,OFFSET(A62,-1,0)+1 )</f>
         <v>33</v>
       </c>
       <c r="B62" s="52" t="s">
-        <v>496</v>
-      </c>
-      <c r="C62" s="52"/>
-      <c r="D62" s="53"/>
+        <v>495</v>
+      </c>
+      <c r="C62" s="52" t="s">
+        <v>502</v>
+      </c>
+      <c r="D62" s="53" t="s">
+        <v>506</v>
+      </c>
       <c r="E62" s="54"/>
       <c r="F62" s="52"/>
       <c r="G62" s="52"/>
@@ -7656,10 +7733,14 @@
         <v>34</v>
       </c>
       <c r="B63" s="52" t="s">
-        <v>497</v>
-      </c>
-      <c r="C63" s="52"/>
-      <c r="D63" s="54"/>
+        <v>496</v>
+      </c>
+      <c r="C63" s="52" t="s">
+        <v>502</v>
+      </c>
+      <c r="D63" s="54" t="s">
+        <v>507</v>
+      </c>
       <c r="E63" s="60"/>
       <c r="F63" s="52"/>
       <c r="G63" s="52"/>
@@ -7669,7 +7750,7 @@
     <row r="64" spans="1:9" s="48" customFormat="1" ht="13.8">
       <c r="A64" s="168"/>
       <c r="B64" s="228" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="C64" s="229"/>
       <c r="D64" s="229"/>
@@ -7679,43 +7760,58 @@
       <c r="H64" s="229"/>
       <c r="I64" s="230"/>
     </row>
-    <row r="65" spans="1:9" s="48" customFormat="1" ht="13.8">
+    <row r="65" spans="1:9" s="48" customFormat="1" ht="24.6">
       <c r="A65" s="58">
         <f t="shared" ca="1" si="2"/>
         <v>35</v>
       </c>
       <c r="B65" s="170" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="C65" s="170"/>
-      <c r="D65" s="53"/>
+      <c r="D65" s="53" t="s">
+        <v>510</v>
+      </c>
       <c r="E65" s="53"/>
       <c r="F65" s="170"/>
       <c r="G65" s="170"/>
       <c r="H65" s="170"/>
       <c r="I65" s="63"/>
     </row>
-    <row r="66" spans="1:9" s="48" customFormat="1" ht="13.8">
+    <row r="66" spans="1:9" s="48" customFormat="1" ht="24.6">
       <c r="A66" s="58">
         <f t="shared" ca="1" si="2"/>
         <v>36</v>
       </c>
       <c r="B66" s="170" t="s">
-        <v>495</v>
-      </c>
-      <c r="C66" s="170"/>
-      <c r="D66" s="59"/>
+        <v>494</v>
+      </c>
+      <c r="C66" s="170" t="s">
+        <v>508</v>
+      </c>
+      <c r="D66" s="59" t="s">
+        <v>509</v>
+      </c>
       <c r="E66" s="53"/>
       <c r="F66" s="170"/>
       <c r="G66" s="170"/>
       <c r="H66" s="170"/>
       <c r="I66" s="63"/>
     </row>
-    <row r="67" spans="1:9" s="48" customFormat="1" ht="13.8">
-      <c r="A67" s="58"/>
-      <c r="B67" s="170"/>
-      <c r="C67" s="170"/>
-      <c r="D67" s="53"/>
+    <row r="67" spans="1:9" s="48" customFormat="1" ht="24.6">
+      <c r="A67" s="58">
+        <f t="shared" ca="1" si="2"/>
+        <v>37</v>
+      </c>
+      <c r="B67" s="170" t="s">
+        <v>511</v>
+      </c>
+      <c r="C67" s="170" t="s">
+        <v>512</v>
+      </c>
+      <c r="D67" s="53" t="s">
+        <v>514</v>
+      </c>
       <c r="E67" s="53"/>
       <c r="F67" s="170"/>
       <c r="G67" s="170"/>
@@ -8058,7 +8154,7 @@
     <mergeCell ref="B40:I40"/>
     <mergeCell ref="B44:I44"/>
     <mergeCell ref="B49:I49"/>
-    <mergeCell ref="B51:I51"/>
+    <mergeCell ref="B50:I50"/>
     <mergeCell ref="B20:I20"/>
     <mergeCell ref="B23:I23"/>
     <mergeCell ref="C3:D3"/>
@@ -8087,7 +8183,7 @@
       <formula1>#REF!</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" sqref="F86:H96 F37:H39 F65:H67 F72:H84 F28:H28 F19:H19 F21:H22 F24:H26 F41:H41 F32:H32 F34:H35 F46:H48 F52:H56 F58:H63">
+    <dataValidation type="list" allowBlank="1" sqref="F86:H96 F37:H39 F65:H67 F72:H84 F28:H28 F19:H19 F21:H22 F24:H26 F41:H41 F32:H32 F34:H35 F46:H48 F58:H63 F51:H51 F53:H56">
       <formula1>$A$11:$A$15</formula1>
     </dataValidation>
   </dataValidations>
@@ -13475,15 +13571,15 @@
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{06E3E4FA-795A-4742-A021-9CDC3210C50B}">
   <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
     <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
     <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="044e8ed5-b60c-40cd-b477-04c240ccf9c3"/>
     <ds:schemaRef ds:uri="cabca498-5e2a-459c-ade0-601c6a98c846"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="044e8ed5-b60c-40cd-b477-04c240ccf9c3"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
     <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
   </ds:schemaRefs>
 </ds:datastoreItem>

--- a/test design technic daongochuy.xlsx
+++ b/test design technic daongochuy.xlsx
@@ -9,15 +9,15 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="8808" tabRatio="840" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="17268" windowHeight="8808" tabRatio="840" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="Record of Change" sheetId="4" r:id="rId1"/>
     <sheet name="Instruction" sheetId="5" r:id="rId2"/>
     <sheet name="Cover" sheetId="6" r:id="rId3"/>
     <sheet name="Common checklist" sheetId="7" r:id="rId4"/>
-    <sheet name="User Story 1" sheetId="8" r:id="rId5"/>
-    <sheet name="User Story 2" sheetId="9" r:id="rId6"/>
+    <sheet name="Assignment 1 " sheetId="8" r:id="rId5"/>
+    <sheet name="Assignment 2 " sheetId="9" r:id="rId6"/>
     <sheet name="User Story 3" sheetId="15" r:id="rId7"/>
     <sheet name="Test report" sheetId="10" r:id="rId8"/>
   </sheets>
@@ -300,7 +300,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F31" authorId="1" shapeId="0">
+    <comment ref="F35" authorId="1" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -324,7 +324,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F42" authorId="1" shapeId="0">
+    <comment ref="F87" authorId="1" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -348,7 +348,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F43" authorId="1" shapeId="0">
+    <comment ref="F88" authorId="1" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -372,7 +372,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F45" authorId="1" shapeId="0">
+    <comment ref="F90" authorId="1" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -396,7 +396,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F58" authorId="1" shapeId="0">
+    <comment ref="F103" authorId="1" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -420,7 +420,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G58" authorId="1" shapeId="0">
+    <comment ref="G103" authorId="1" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -444,7 +444,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F59" authorId="1" shapeId="0">
+    <comment ref="F104" authorId="1" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -468,7 +468,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G59" authorId="1" shapeId="0">
+    <comment ref="G104" authorId="1" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -492,7 +492,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F64" authorId="1" shapeId="0">
+    <comment ref="F109" authorId="1" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -516,7 +516,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G64" authorId="1" shapeId="0">
+    <comment ref="G109" authorId="1" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -540,7 +540,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F67" authorId="1" shapeId="0">
+    <comment ref="F112" authorId="1" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -564,7 +564,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F82" authorId="1" shapeId="0">
+    <comment ref="F127" authorId="1" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -588,7 +588,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F84" authorId="1" shapeId="0">
+    <comment ref="F129" authorId="1" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -994,7 +994,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1281" uniqueCount="515">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="958" uniqueCount="592">
   <si>
     <r>
       <t xml:space="preserve">Security Classification: </t>
@@ -2720,12 +2720,6 @@
     <t>d500</t>
   </si>
   <si>
-    <t xml:space="preserve">Select a product then check displaying the price in the range of 1 to 999 in ViewProduct screen </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Select a product then check displaying the price of 999 in ViewProduct screen </t>
-  </si>
-  <si>
     <t>d999</t>
   </si>
   <si>
@@ -2741,9 +2735,6 @@
     <t>d1,000</t>
   </si>
   <si>
-    <t xml:space="preserve">Select a producr then check displaying price in the range of 1,001 to 999,999 in ViewProduct screen </t>
-  </si>
-  <si>
     <t xml:space="preserve">No comma </t>
   </si>
   <si>
@@ -2765,9 +2756,6 @@
     <t xml:space="preserve">2 comma </t>
   </si>
   <si>
-    <t xml:space="preserve">Select a a product with a price of 1,000,000 then check displaying in ViewProduct screen </t>
-  </si>
-  <si>
     <t xml:space="preserve">Verify that number with 2 comma </t>
   </si>
   <si>
@@ -2777,22 +2765,13 @@
     <t>Original Price ifrom 1,000,001 to 999,999,999</t>
   </si>
   <si>
-    <t xml:space="preserve">Select a product with price in the range of 1,000,001 to 999,999,999 then check display in ViewProduct screen </t>
-  </si>
-  <si>
     <t>d5,000,000</t>
   </si>
   <si>
     <t>Original Price is 999,999,999</t>
   </si>
   <si>
-    <t xml:space="preserve">Select a product with price of 999,999,999 then check display in ViewProduct screen </t>
-  </si>
-  <si>
     <t>d999,999,999</t>
-  </si>
-  <si>
-    <t>Select any product then check displaying of currency in ViewProduct screen</t>
   </si>
   <si>
     <t>Discounted Price from 1 to 999</t>
@@ -2836,9 +2815,6 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">Select a product then check displaying the Original Price of 999 in ViewProduct screen </t>
-  </si>
-  <si>
     <t xml:space="preserve">Verify that number stay unchanged </t>
   </si>
   <si>
@@ -2861,18 +2837,6 @@
   </si>
   <si>
     <t>d500.0</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Select a product price is a float with format x.y when y&gt;5 then check display on ViewProduct screen </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Select a product price is a float with format x.y when y=5 then check display on ViewProduct screen </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Select a product price is a float with format x.y when y&lt;5 then check display on ViewProduct screen </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Select a product price is a float with format x.y when y=0 then check display on ViewProduct screen </t>
   </si>
   <si>
     <t xml:space="preserve">3, Display photo </t>
@@ -2917,15 +2881,6 @@
     </r>
   </si>
   <si>
-    <t>"Back" button available when first photo focused</t>
-  </si>
-  <si>
-    <t xml:space="preserve">"Back" button unavailable when second photo focused onward </t>
-  </si>
-  <si>
-    <t>"Next" button available when last photo focused</t>
-  </si>
-  <si>
     <t>"Next" button available when close-to-last photo focused</t>
   </si>
   <si>
@@ -2947,21 +2902,6 @@
     <t>Verify that first photo focused on in photolist</t>
   </si>
   <si>
-    <t xml:space="preserve">Click "Back" button when focus on the first picture in ViewProduct screen </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Click "Back" button when focus on the second picture in ViewProduct screen </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Click "Next" button when focus on the last picture in ViewProduct screen </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Click "Next" button when focus on the close-to-last picture in ViewProduct screen </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Click "Next" button when focus on a picture in ViewProduct screen </t>
-  </si>
-  <si>
     <t xml:space="preserve">Verify that "Back" button disabled </t>
   </si>
   <si>
@@ -2977,18 +2917,12 @@
     <t xml:space="preserve">Verify that the photo backward focused </t>
   </si>
   <si>
-    <t xml:space="preserve">Users click on each photo on the photo list in ViewProduct screen </t>
-  </si>
-  <si>
     <t xml:space="preserve">Verify that photo focused on the big photo frame </t>
   </si>
   <si>
     <t xml:space="preserve">Verify that the text "No Picture" display on the big frame  </t>
   </si>
   <si>
-    <t xml:space="preserve">Initial status </t>
-  </si>
-  <si>
     <t xml:space="preserve">reload page to check if first photo on the big frame focused when loading page </t>
   </si>
   <si>
@@ -2996,6 +2930,303 @@
   </si>
   <si>
     <t>Verify that first photo focused on big photo frame</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Verify there is no photo available </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Only 5 pictures displayed, users have to click on "Next" button to see others </t>
+  </si>
+  <si>
+    <t>"Next" button unavailable when last photo focused</t>
+  </si>
+  <si>
+    <t xml:space="preserve">"Back" button available when second photo focused onward </t>
+  </si>
+  <si>
+    <t>"Back" button unavailable when first photo focused</t>
+  </si>
+  <si>
+    <t>Select any product then check displaying of currency in View Product  screen</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Select a product then check displaying the price in the range of 1 to 999 in View Product  screen </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Select a product then check displaying the price of 999 in View Product  screen </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Select a producr then check displaying price in the range of 1,001 to 999,999 in View Product  screen </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Select a a product with a price of 1,000,000 then check displaying in View Product  screen </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Select a product with price in the range of 1,000,001 to 999,999,999 then check display in View Product  screen </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Select a product with price of 999,999,999 then check display in View Product  screen </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Click "Back" button when focus on the first picture in View Product  screen </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Click "Back" button when focus on the second picture in View Product  screen </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Click "Next" button when focus on the last picture in View Product  screen </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Click "Next" button when focus on the close-to-last picture in View Product  screen </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Click "Next" button when focus on a picture in View Product  screen </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Users click on each photo on the photo list in View Product  screen </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Select a product then check displaying the Original Price of 1,000 in View Product  screen </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Select a product then check displaying the Original Price of 999,999 in View Product  screen </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Select a product then check displaying the price of 1,000 in View Product  screen </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Select a product then check displaying the price of 999,999 in View Product  screen </t>
+  </si>
+  <si>
+    <t>When the original price of the product is 2590 and 30 % discounted then the discounted price is 1812.9</t>
+  </si>
+  <si>
+    <t>When the original price of the product is 2590 and 30 % discounted then the discounted price is 1812.11</t>
+  </si>
+  <si>
+    <t>When the original price of the product is 2591 and 50 % discounted then the discounted price is 1295.5</t>
+  </si>
+  <si>
+    <t>When the original price of the product is 2590 and 50 % discounted then the discounted price is 1295</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Verify that 1 pictures uploaded </t>
+  </si>
+  <si>
+    <t>Verify that 3 pictures uploaded</t>
+  </si>
+  <si>
+    <t>Verify that 5 pictures uploaded</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Select a product then remove all picture of that product in Edit Product screen </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Choose a product in Edit Product screen and upload 1 pictures </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Choose a product in Edit Product screen and upload 3 pictures </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Choose a product in Edit Product screen and upload 5 pictures </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Choose a product in Edit Product screen and upload 15 pictures </t>
+  </si>
+  <si>
+    <t>Sign up with Google</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1, Fields test </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Phone Number </t>
+  </si>
+  <si>
+    <t>Unfill the blank</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SMS Verification Code </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Unfill the blank </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Password </t>
+  </si>
+  <si>
+    <t>Phone number has 1 number</t>
+  </si>
+  <si>
+    <t>Phone number has 10 numbers</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Phone number in the range of 1 to 9 number </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Phone number has more than 10 numbers </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Phone number has special characters </t>
+  </si>
+  <si>
+    <t>Verfication code has1 digit</t>
+  </si>
+  <si>
+    <t>Verfication code has 6 digits</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Verfication code in the range of 1 to 5 digits </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Verfication code has more than 6 digits </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Verfication code has special characters </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Password has 50 characters </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Password has more than 50 characters </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Password in the range of 6 to 49 characters </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Password doesn't contain numberic </t>
+  </si>
+  <si>
+    <t>Password doesn't contain alphabetic</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Birthday </t>
+  </si>
+  <si>
+    <t>User enters invalid Day</t>
+  </si>
+  <si>
+    <t>User enters invalid Month</t>
+  </si>
+  <si>
+    <t>User enters invalid Year</t>
+  </si>
+  <si>
+    <t xml:space="preserve">User enters valid format </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gender </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Users select "Male" gender </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Users sellect ""Female" gender </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Full name </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Password has 6 characters </t>
+  </si>
+  <si>
+    <t>Password has  less than 6 characters</t>
+  </si>
+  <si>
+    <t>Full Name has  less than 6 characters</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Full Name has 6 characters </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Full Name  has 50 characters </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Full Name has more than 50 characters </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Full Name in the range of 6 to 49 characters </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Full Name contains numberic </t>
+  </si>
+  <si>
+    <t>CheckBox</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Unfill the box </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Initial Sign </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Function test </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sign up Phone Number </t>
+  </si>
+  <si>
+    <t xml:space="preserve">All the box filled in correctly </t>
+  </si>
+  <si>
+    <t xml:space="preserve">"Phone Number" box missed </t>
+  </si>
+  <si>
+    <t xml:space="preserve">"Phone Number" invalid </t>
+  </si>
+  <si>
+    <t xml:space="preserve">"Phone Number" incorrect </t>
+  </si>
+  <si>
+    <t xml:space="preserve">"SMS Verification Code" box missed </t>
+  </si>
+  <si>
+    <t xml:space="preserve">"SMS Verification Code" invalid </t>
+  </si>
+  <si>
+    <t xml:space="preserve">"SMS Verifucation Code" incorrect </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Users choose to sign up with Google </t>
+  </si>
+  <si>
+    <t xml:space="preserve">"Password" box missed </t>
+  </si>
+  <si>
+    <t xml:space="preserve">"Password" invalid </t>
+  </si>
+  <si>
+    <t xml:space="preserve">"Password" incorrect </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Users choose to sign up with Facebook </t>
+  </si>
+  <si>
+    <t>Users choose to sign up with Email</t>
+  </si>
+  <si>
+    <t>Sign up with Facebook</t>
+  </si>
+  <si>
+    <t>Sign Up with Email</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Password showed or hidden </t>
+  </si>
+  <si>
+    <t xml:space="preserve">"Birthday" box missed </t>
+  </si>
+  <si>
+    <t xml:space="preserve">"Gender" box missed </t>
+  </si>
+  <si>
+    <t xml:space="preserve">"Full Name" incorrect </t>
+  </si>
+  <si>
+    <t xml:space="preserve">"Full Name" box missed </t>
+  </si>
+  <si>
+    <t xml:space="preserve">"Full Name" invalid </t>
   </si>
 </sst>
 </file>
@@ -3007,7 +3238,7 @@
     <numFmt numFmtId="165" formatCode="[$-409]d\-mmm\-yy;@"/>
     <numFmt numFmtId="166" formatCode="[$-409]mmmm\ d\,\ yyyy;@"/>
   </numFmts>
-  <fonts count="67">
+  <fonts count="68">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -3463,8 +3694,14 @@
       <family val="2"/>
       <scheme val="major"/>
     </font>
+    <font>
+      <u/>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="31">
+  <fills count="38">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -3642,6 +3879,48 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5" tint="0.39997558519241921"/>
+        <bgColor indexed="41"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="-0.249977111117893"/>
+        <bgColor indexed="41"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="-0.249977111117893"/>
+        <bgColor indexed="26"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="26"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFBFBFBF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFBFBFBF"/>
+        <bgColor indexed="26"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="41"/>
       </patternFill>
     </fill>
@@ -4033,7 +4312,7 @@
     <xf numFmtId="166" fontId="56" fillId="0" borderId="0"/>
     <xf numFmtId="166" fontId="57" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="268">
+  <cellXfs count="295">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
@@ -4533,6 +4812,9 @@
     <xf numFmtId="0" fontId="1" fillId="27" borderId="2" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="27" borderId="2" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="21" borderId="22" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -4785,8 +5067,84 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="7" xfId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="27" borderId="2" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="6" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="15" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="16" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="11" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="32" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="33" borderId="16" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="33" borderId="11" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="33" borderId="15" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="34" borderId="6" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="34" borderId="6" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="35" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="36" borderId="16" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="36" borderId="11" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="16" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="11" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="34" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="37" borderId="15" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="37" borderId="16" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="37" borderId="11" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="34" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="37" fillId="34" borderId="6" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="34" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="36" borderId="15" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="67" fillId="6" borderId="6" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="27">
@@ -5034,9 +5392,9 @@
   </tableStyles>
   <colors>
     <mruColors>
+      <color rgb="FFF2F2F2"/>
+      <color rgb="FFBFBFBF"/>
       <color rgb="FF6D829F"/>
-      <color rgb="FFBFBFBF"/>
-      <color rgb="FFF2F2F2"/>
       <color rgb="FF6D828B"/>
       <color rgb="FFCC2337"/>
     </mruColors>
@@ -5548,37 +5906,37 @@
       <c r="F3" s="18"/>
     </row>
     <row r="4" spans="1:6" ht="15" customHeight="1">
-      <c r="A4" s="186" t="s">
+      <c r="A4" s="187" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="187"/>
-      <c r="C4" s="187"/>
-      <c r="D4" s="187"/>
-      <c r="E4" s="188"/>
+      <c r="B4" s="188"/>
+      <c r="C4" s="188"/>
+      <c r="D4" s="188"/>
+      <c r="E4" s="189"/>
       <c r="F4" s="18"/>
     </row>
     <row r="5" spans="1:6">
-      <c r="A5" s="189" t="s">
+      <c r="A5" s="190" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="189"/>
-      <c r="C5" s="190" t="s">
+      <c r="B5" s="190"/>
+      <c r="C5" s="191" t="s">
         <v>4</v>
       </c>
-      <c r="D5" s="190"/>
-      <c r="E5" s="190"/>
+      <c r="D5" s="191"/>
+      <c r="E5" s="191"/>
       <c r="F5" s="18"/>
     </row>
     <row r="6" spans="1:6" ht="29.25" customHeight="1">
-      <c r="A6" s="191" t="s">
+      <c r="A6" s="192" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="192"/>
-      <c r="C6" s="185" t="s">
+      <c r="B6" s="193"/>
+      <c r="C6" s="186" t="s">
         <v>6</v>
       </c>
-      <c r="D6" s="185"/>
-      <c r="E6" s="185"/>
+      <c r="D6" s="186"/>
+      <c r="E6" s="186"/>
       <c r="F6" s="18"/>
     </row>
     <row r="7" spans="1:6" ht="29.25" customHeight="1">
@@ -5590,14 +5948,14 @@
       <c r="F7" s="18"/>
     </row>
     <row r="8" spans="1:6" s="147" customFormat="1" ht="29.25" customHeight="1">
-      <c r="A8" s="183" t="s">
+      <c r="A8" s="184" t="s">
         <v>7</v>
       </c>
-      <c r="B8" s="184"/>
-      <c r="C8" s="184"/>
-      <c r="D8" s="184"/>
-      <c r="E8" s="184"/>
-      <c r="F8" s="184"/>
+      <c r="B8" s="185"/>
+      <c r="C8" s="185"/>
+      <c r="D8" s="185"/>
+      <c r="E8" s="185"/>
+      <c r="F8" s="185"/>
     </row>
     <row r="9" spans="1:6" s="147" customFormat="1" ht="15" customHeight="1">
       <c r="A9" s="148" t="s">
@@ -5680,14 +6038,14 @@
       </c>
     </row>
     <row r="13" spans="1:6" s="147" customFormat="1" ht="30" customHeight="1">
-      <c r="A13" s="185" t="s">
+      <c r="A13" s="186" t="s">
         <v>23</v>
       </c>
-      <c r="B13" s="185"/>
-      <c r="C13" s="185"/>
-      <c r="D13" s="185"/>
-      <c r="E13" s="185"/>
-      <c r="F13" s="185"/>
+      <c r="B13" s="186"/>
+      <c r="C13" s="186"/>
+      <c r="D13" s="186"/>
+      <c r="E13" s="186"/>
+      <c r="F13" s="186"/>
     </row>
     <row r="14" spans="1:6">
       <c r="A14" s="18"/>
@@ -5810,36 +6168,36 @@
       <c r="K1" s="34"/>
     </row>
     <row r="2" spans="1:11" ht="25.5" customHeight="1">
-      <c r="B2" s="198" t="s">
+      <c r="B2" s="199" t="s">
         <v>25</v>
       </c>
-      <c r="C2" s="198"/>
-      <c r="D2" s="198"/>
-      <c r="E2" s="198"/>
-      <c r="F2" s="198"/>
-      <c r="G2" s="198"/>
-      <c r="H2" s="198"/>
-      <c r="I2" s="198"/>
-      <c r="J2" s="196" t="s">
+      <c r="C2" s="199"/>
+      <c r="D2" s="199"/>
+      <c r="E2" s="199"/>
+      <c r="F2" s="199"/>
+      <c r="G2" s="199"/>
+      <c r="H2" s="199"/>
+      <c r="I2" s="199"/>
+      <c r="J2" s="197" t="s">
         <v>26</v>
       </c>
-      <c r="K2" s="196"/>
+      <c r="K2" s="197"/>
     </row>
     <row r="3" spans="1:11" ht="28.5" customHeight="1">
-      <c r="B3" s="199" t="s">
+      <c r="B3" s="200" t="s">
         <v>27</v>
       </c>
-      <c r="C3" s="199"/>
-      <c r="D3" s="199"/>
-      <c r="E3" s="199"/>
-      <c r="F3" s="197" t="s">
+      <c r="C3" s="200"/>
+      <c r="D3" s="200"/>
+      <c r="E3" s="200"/>
+      <c r="F3" s="198" t="s">
         <v>28</v>
       </c>
-      <c r="G3" s="197"/>
-      <c r="H3" s="197"/>
-      <c r="I3" s="197"/>
-      <c r="J3" s="196"/>
-      <c r="K3" s="196"/>
+      <c r="G3" s="198"/>
+      <c r="H3" s="198"/>
+      <c r="I3" s="198"/>
+      <c r="J3" s="197"/>
+      <c r="K3" s="197"/>
     </row>
     <row r="4" spans="1:11" ht="18" customHeight="1">
       <c r="B4" s="153"/>
@@ -5859,65 +6217,65 @@
       </c>
     </row>
     <row r="7" spans="1:11">
-      <c r="A7" s="203" t="s">
+      <c r="A7" s="204" t="s">
         <v>30</v>
       </c>
-      <c r="B7" s="203"/>
-      <c r="C7" s="203"/>
-      <c r="D7" s="203"/>
-      <c r="E7" s="203"/>
-      <c r="F7" s="203"/>
-      <c r="G7" s="203"/>
-      <c r="H7" s="203"/>
-      <c r="I7" s="203"/>
+      <c r="B7" s="204"/>
+      <c r="C7" s="204"/>
+      <c r="D7" s="204"/>
+      <c r="E7" s="204"/>
+      <c r="F7" s="204"/>
+      <c r="G7" s="204"/>
+      <c r="H7" s="204"/>
+      <c r="I7" s="204"/>
     </row>
     <row r="8" spans="1:11" ht="20.25" customHeight="1">
-      <c r="A8" s="203"/>
-      <c r="B8" s="203"/>
-      <c r="C8" s="203"/>
-      <c r="D8" s="203"/>
-      <c r="E8" s="203"/>
-      <c r="F8" s="203"/>
-      <c r="G8" s="203"/>
-      <c r="H8" s="203"/>
-      <c r="I8" s="203"/>
+      <c r="A8" s="204"/>
+      <c r="B8" s="204"/>
+      <c r="C8" s="204"/>
+      <c r="D8" s="204"/>
+      <c r="E8" s="204"/>
+      <c r="F8" s="204"/>
+      <c r="G8" s="204"/>
+      <c r="H8" s="204"/>
+      <c r="I8" s="204"/>
     </row>
     <row r="9" spans="1:11">
-      <c r="A9" s="203" t="s">
+      <c r="A9" s="204" t="s">
         <v>31</v>
       </c>
-      <c r="B9" s="203"/>
-      <c r="C9" s="203"/>
-      <c r="D9" s="203"/>
-      <c r="E9" s="203"/>
-      <c r="F9" s="203"/>
-      <c r="G9" s="203"/>
-      <c r="H9" s="203"/>
-      <c r="I9" s="203"/>
+      <c r="B9" s="204"/>
+      <c r="C9" s="204"/>
+      <c r="D9" s="204"/>
+      <c r="E9" s="204"/>
+      <c r="F9" s="204"/>
+      <c r="G9" s="204"/>
+      <c r="H9" s="204"/>
+      <c r="I9" s="204"/>
     </row>
     <row r="10" spans="1:11" ht="21" customHeight="1">
-      <c r="A10" s="203"/>
-      <c r="B10" s="203"/>
-      <c r="C10" s="203"/>
-      <c r="D10" s="203"/>
-      <c r="E10" s="203"/>
-      <c r="F10" s="203"/>
-      <c r="G10" s="203"/>
-      <c r="H10" s="203"/>
-      <c r="I10" s="203"/>
+      <c r="A10" s="204"/>
+      <c r="B10" s="204"/>
+      <c r="C10" s="204"/>
+      <c r="D10" s="204"/>
+      <c r="E10" s="204"/>
+      <c r="F10" s="204"/>
+      <c r="G10" s="204"/>
+      <c r="H10" s="204"/>
+      <c r="I10" s="204"/>
     </row>
     <row r="11" spans="1:11" ht="13.8">
-      <c r="A11" s="204" t="s">
+      <c r="A11" s="205" t="s">
         <v>32</v>
       </c>
-      <c r="B11" s="204"/>
-      <c r="C11" s="204"/>
-      <c r="D11" s="204"/>
-      <c r="E11" s="204"/>
-      <c r="F11" s="204"/>
-      <c r="G11" s="204"/>
-      <c r="H11" s="204"/>
-      <c r="I11" s="204"/>
+      <c r="B11" s="205"/>
+      <c r="C11" s="205"/>
+      <c r="D11" s="205"/>
+      <c r="E11" s="205"/>
+      <c r="F11" s="205"/>
+      <c r="G11" s="205"/>
+      <c r="H11" s="205"/>
+      <c r="I11" s="205"/>
     </row>
     <row r="12" spans="1:11">
       <c r="A12" s="3"/>
@@ -5939,65 +6297,65 @@
       <c r="A14" s="134" t="s">
         <v>34</v>
       </c>
-      <c r="B14" s="200" t="s">
+      <c r="B14" s="201" t="s">
         <v>35</v>
       </c>
-      <c r="C14" s="201"/>
-      <c r="D14" s="201"/>
-      <c r="E14" s="201"/>
-      <c r="F14" s="201"/>
-      <c r="G14" s="201"/>
-      <c r="H14" s="201"/>
-      <c r="I14" s="201"/>
-      <c r="J14" s="201"/>
-      <c r="K14" s="202"/>
+      <c r="C14" s="202"/>
+      <c r="D14" s="202"/>
+      <c r="E14" s="202"/>
+      <c r="F14" s="202"/>
+      <c r="G14" s="202"/>
+      <c r="H14" s="202"/>
+      <c r="I14" s="202"/>
+      <c r="J14" s="202"/>
+      <c r="K14" s="203"/>
     </row>
     <row r="15" spans="1:11" ht="14.25" customHeight="1">
       <c r="A15" s="134" t="s">
         <v>36</v>
       </c>
-      <c r="B15" s="200" t="s">
+      <c r="B15" s="201" t="s">
         <v>37</v>
       </c>
-      <c r="C15" s="201"/>
-      <c r="D15" s="201"/>
-      <c r="E15" s="201"/>
-      <c r="F15" s="201"/>
-      <c r="G15" s="201"/>
-      <c r="H15" s="201"/>
-      <c r="I15" s="201"/>
-      <c r="J15" s="201"/>
-      <c r="K15" s="202"/>
+      <c r="C15" s="202"/>
+      <c r="D15" s="202"/>
+      <c r="E15" s="202"/>
+      <c r="F15" s="202"/>
+      <c r="G15" s="202"/>
+      <c r="H15" s="202"/>
+      <c r="I15" s="202"/>
+      <c r="J15" s="202"/>
+      <c r="K15" s="203"/>
     </row>
     <row r="16" spans="1:11" ht="14.25" customHeight="1">
       <c r="A16" s="134"/>
-      <c r="B16" s="200" t="s">
+      <c r="B16" s="201" t="s">
         <v>38</v>
       </c>
-      <c r="C16" s="201"/>
-      <c r="D16" s="201"/>
-      <c r="E16" s="201"/>
-      <c r="F16" s="201"/>
-      <c r="G16" s="201"/>
-      <c r="H16" s="201"/>
-      <c r="I16" s="201"/>
-      <c r="J16" s="201"/>
-      <c r="K16" s="202"/>
+      <c r="C16" s="202"/>
+      <c r="D16" s="202"/>
+      <c r="E16" s="202"/>
+      <c r="F16" s="202"/>
+      <c r="G16" s="202"/>
+      <c r="H16" s="202"/>
+      <c r="I16" s="202"/>
+      <c r="J16" s="202"/>
+      <c r="K16" s="203"/>
     </row>
     <row r="17" spans="1:14" ht="14.25" customHeight="1">
       <c r="A17" s="134"/>
-      <c r="B17" s="200" t="s">
+      <c r="B17" s="201" t="s">
         <v>39</v>
       </c>
-      <c r="C17" s="201"/>
-      <c r="D17" s="201"/>
-      <c r="E17" s="201"/>
-      <c r="F17" s="201"/>
-      <c r="G17" s="201"/>
-      <c r="H17" s="201"/>
-      <c r="I17" s="201"/>
-      <c r="J17" s="201"/>
-      <c r="K17" s="202"/>
+      <c r="C17" s="202"/>
+      <c r="D17" s="202"/>
+      <c r="E17" s="202"/>
+      <c r="F17" s="202"/>
+      <c r="G17" s="202"/>
+      <c r="H17" s="202"/>
+      <c r="I17" s="202"/>
+      <c r="J17" s="202"/>
+      <c r="K17" s="203"/>
     </row>
     <row r="19" spans="1:14" ht="22.5">
       <c r="A19" s="4" t="s">
@@ -6008,40 +6366,40 @@
       <c r="A20" s="134" t="s">
         <v>41</v>
       </c>
-      <c r="B20" s="200" t="s">
+      <c r="B20" s="201" t="s">
         <v>42</v>
       </c>
-      <c r="C20" s="201"/>
-      <c r="D20" s="201"/>
-      <c r="E20" s="201"/>
-      <c r="F20" s="201"/>
-      <c r="G20" s="202"/>
+      <c r="C20" s="202"/>
+      <c r="D20" s="202"/>
+      <c r="E20" s="202"/>
+      <c r="F20" s="202"/>
+      <c r="G20" s="203"/>
     </row>
     <row r="21" spans="1:14" ht="12.75" customHeight="1">
       <c r="A21" s="134" t="s">
         <v>43</v>
       </c>
-      <c r="B21" s="200" t="s">
+      <c r="B21" s="201" t="s">
         <v>44</v>
       </c>
-      <c r="C21" s="201"/>
-      <c r="D21" s="201"/>
-      <c r="E21" s="201"/>
-      <c r="F21" s="201"/>
-      <c r="G21" s="202"/>
+      <c r="C21" s="202"/>
+      <c r="D21" s="202"/>
+      <c r="E21" s="202"/>
+      <c r="F21" s="202"/>
+      <c r="G21" s="203"/>
     </row>
     <row r="22" spans="1:14" ht="12.75" customHeight="1">
       <c r="A22" s="134" t="s">
         <v>45</v>
       </c>
-      <c r="B22" s="200" t="s">
+      <c r="B22" s="201" t="s">
         <v>46</v>
       </c>
-      <c r="C22" s="201"/>
-      <c r="D22" s="201"/>
-      <c r="E22" s="201"/>
-      <c r="F22" s="201"/>
-      <c r="G22" s="202"/>
+      <c r="C22" s="202"/>
+      <c r="D22" s="202"/>
+      <c r="E22" s="202"/>
+      <c r="F22" s="202"/>
+      <c r="G22" s="203"/>
     </row>
     <row r="24" spans="1:14" ht="22.5">
       <c r="A24" s="4" t="s">
@@ -6100,11 +6458,11 @@
       <c r="N27" s="70"/>
     </row>
     <row r="29" spans="1:14" ht="21.75" customHeight="1">
-      <c r="B29" s="193" t="s">
+      <c r="B29" s="194" t="s">
         <v>51</v>
       </c>
-      <c r="C29" s="194"/>
-      <c r="D29" s="195"/>
+      <c r="C29" s="195"/>
+      <c r="D29" s="196"/>
     </row>
     <row r="30" spans="1:14" ht="90" customHeight="1">
       <c r="B30" s="5"/>
@@ -6181,14 +6539,14 @@
       <c r="J1" s="7"/>
     </row>
     <row r="2" spans="1:10" s="9" customFormat="1" ht="24.9">
-      <c r="A2" s="205" t="s">
+      <c r="A2" s="206" t="s">
         <v>56</v>
       </c>
-      <c r="B2" s="205"/>
-      <c r="C2" s="205"/>
-      <c r="D2" s="205"/>
-      <c r="E2" s="205"/>
-      <c r="F2" s="205"/>
+      <c r="B2" s="206"/>
+      <c r="C2" s="206"/>
+      <c r="D2" s="206"/>
+      <c r="E2" s="206"/>
+      <c r="F2" s="206"/>
     </row>
     <row r="3" spans="1:10">
       <c r="A3" s="10"/>
@@ -6374,12 +6732,12 @@
       <c r="K1" s="34"/>
     </row>
     <row r="2" spans="1:11" s="1" customFormat="1" ht="25.2">
-      <c r="A2" s="208" t="s">
+      <c r="A2" s="209" t="s">
         <v>70</v>
       </c>
-      <c r="B2" s="208"/>
-      <c r="C2" s="208"/>
-      <c r="D2" s="208"/>
+      <c r="B2" s="209"/>
+      <c r="C2" s="209"/>
+      <c r="D2" s="209"/>
       <c r="E2" s="156"/>
       <c r="F2" s="23"/>
       <c r="G2" s="23"/>
@@ -6540,18 +6898,18 @@
       <c r="F14" s="29"/>
     </row>
     <row r="16" spans="1:11" ht="14.1">
-      <c r="A16" s="206" t="s">
+      <c r="A16" s="207" t="s">
         <v>91</v>
       </c>
-      <c r="B16" s="206"/>
+      <c r="B16" s="207"/>
       <c r="C16" s="30"/>
       <c r="D16" s="31"/>
     </row>
     <row r="17" spans="1:4" ht="13.8">
-      <c r="A17" s="207" t="s">
+      <c r="A17" s="208" t="s">
         <v>92</v>
       </c>
-      <c r="B17" s="207"/>
+      <c r="B17" s="208"/>
     </row>
     <row r="20" spans="1:4">
       <c r="A20" s="33"/>
@@ -6580,8 +6938,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X97"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A52" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="C70" sqref="C70"/>
+    <sheetView showGridLines="0" topLeftCell="A52" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="A53" sqref="A53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.15625" defaultRowHeight="12.3"/>
@@ -6597,10 +6955,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:24" s="1" customFormat="1" ht="13.8">
-      <c r="A1" s="212"/>
-      <c r="B1" s="212"/>
-      <c r="C1" s="212"/>
-      <c r="D1" s="212"/>
+      <c r="A1" s="213"/>
+      <c r="B1" s="213"/>
+      <c r="C1" s="213"/>
+      <c r="D1" s="213"/>
       <c r="E1" s="34"/>
       <c r="F1" s="34"/>
       <c r="G1" s="34"/>
@@ -6609,13 +6967,13 @@
       <c r="J1" s="34"/>
     </row>
     <row r="2" spans="1:24" s="1" customFormat="1" ht="31.5" customHeight="1">
-      <c r="A2" s="213" t="s">
+      <c r="A2" s="214" t="s">
         <v>70</v>
       </c>
-      <c r="B2" s="213"/>
-      <c r="C2" s="213"/>
-      <c r="D2" s="213"/>
-      <c r="E2" s="221"/>
+      <c r="B2" s="214"/>
+      <c r="C2" s="214"/>
+      <c r="D2" s="214"/>
+      <c r="E2" s="222"/>
       <c r="F2" s="23"/>
       <c r="G2" s="23"/>
       <c r="H2" s="23"/>
@@ -6624,9 +6982,9 @@
     </row>
     <row r="3" spans="1:24" s="1" customFormat="1" ht="31.5" customHeight="1">
       <c r="A3" s="47"/>
-      <c r="C3" s="231"/>
-      <c r="D3" s="231"/>
-      <c r="E3" s="221"/>
+      <c r="C3" s="232"/>
+      <c r="D3" s="232"/>
+      <c r="E3" s="222"/>
       <c r="F3" s="23"/>
       <c r="G3" s="23"/>
       <c r="H3" s="23"/>
@@ -6637,11 +6995,11 @@
       <c r="A4" s="139" t="s">
         <v>66</v>
       </c>
-      <c r="B4" s="215" t="s">
+      <c r="B4" s="216" t="s">
         <v>93</v>
       </c>
-      <c r="C4" s="215"/>
-      <c r="D4" s="215"/>
+      <c r="C4" s="216"/>
+      <c r="D4" s="216"/>
       <c r="E4" s="39"/>
       <c r="F4" s="39"/>
       <c r="G4" s="39"/>
@@ -6655,11 +7013,11 @@
       <c r="A5" s="139" t="s">
         <v>62</v>
       </c>
-      <c r="B5" s="214" t="s">
+      <c r="B5" s="215" t="s">
         <v>95</v>
       </c>
-      <c r="C5" s="215"/>
-      <c r="D5" s="215"/>
+      <c r="C5" s="216"/>
+      <c r="D5" s="216"/>
       <c r="E5" s="39"/>
       <c r="F5" s="39"/>
       <c r="G5" s="39"/>
@@ -6673,11 +7031,11 @@
       <c r="A6" s="139" t="s">
         <v>97</v>
       </c>
-      <c r="B6" s="214" t="s">
+      <c r="B6" s="215" t="s">
         <v>98</v>
       </c>
-      <c r="C6" s="215"/>
-      <c r="D6" s="215"/>
+      <c r="C6" s="216"/>
+      <c r="D6" s="216"/>
       <c r="E6" s="39"/>
       <c r="F6" s="39"/>
       <c r="G6" s="39"/>
@@ -6688,11 +7046,11 @@
       <c r="A7" s="139" t="s">
         <v>99</v>
       </c>
-      <c r="B7" s="215" t="s">
+      <c r="B7" s="216" t="s">
         <v>100</v>
       </c>
-      <c r="C7" s="215"/>
-      <c r="D7" s="215"/>
+      <c r="C7" s="216"/>
+      <c r="D7" s="216"/>
       <c r="E7" s="39"/>
       <c r="F7" s="39"/>
       <c r="G7" s="39"/>
@@ -6704,11 +7062,11 @@
       <c r="A8" s="139" t="s">
         <v>101</v>
       </c>
-      <c r="B8" s="216">
+      <c r="B8" s="217">
         <v>40850</v>
       </c>
-      <c r="C8" s="216"/>
-      <c r="D8" s="216"/>
+      <c r="C8" s="217"/>
+      <c r="D8" s="217"/>
       <c r="E8" s="39"/>
     </row>
     <row r="9" spans="1:24" s="43" customFormat="1">
@@ -6851,11 +7209,11 @@
       <c r="C16" s="50"/>
       <c r="D16" s="51"/>
       <c r="E16" s="56"/>
-      <c r="F16" s="220" t="s">
+      <c r="F16" s="221" t="s">
         <v>102</v>
       </c>
-      <c r="G16" s="220"/>
-      <c r="H16" s="220"/>
+      <c r="G16" s="221"/>
+      <c r="H16" s="221"/>
       <c r="I16" s="57"/>
     </row>
     <row r="17" spans="1:9" s="44" customFormat="1" ht="36.9">
@@ -6891,16 +7249,16 @@
       <c r="A18" s="67" t="s">
         <v>419</v>
       </c>
-      <c r="B18" s="217" t="s">
+      <c r="B18" s="218" t="s">
         <v>421</v>
       </c>
-      <c r="C18" s="218"/>
-      <c r="D18" s="218"/>
-      <c r="E18" s="218"/>
-      <c r="F18" s="218"/>
-      <c r="G18" s="218"/>
-      <c r="H18" s="218"/>
-      <c r="I18" s="219"/>
+      <c r="C18" s="219"/>
+      <c r="D18" s="219"/>
+      <c r="E18" s="219"/>
+      <c r="F18" s="219"/>
+      <c r="G18" s="219"/>
+      <c r="H18" s="219"/>
+      <c r="I18" s="220"/>
     </row>
     <row r="19" spans="1:9" s="45" customFormat="1" ht="27.6" customHeight="1">
       <c r="A19" s="52">
@@ -6910,10 +7268,10 @@
         <v>422</v>
       </c>
       <c r="C19" s="52" t="s">
-        <v>453</v>
+        <v>498</v>
       </c>
       <c r="D19" s="53" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
       <c r="E19" s="54" t="s">
         <v>425</v>
@@ -6925,16 +7283,16 @@
     </row>
     <row r="20" spans="1:9" s="45" customFormat="1">
       <c r="A20" s="168"/>
-      <c r="B20" s="225" t="s">
-        <v>437</v>
-      </c>
-      <c r="C20" s="226"/>
-      <c r="D20" s="226"/>
-      <c r="E20" s="226"/>
-      <c r="F20" s="226"/>
-      <c r="G20" s="226"/>
-      <c r="H20" s="226"/>
-      <c r="I20" s="227"/>
+      <c r="B20" s="226" t="s">
+        <v>434</v>
+      </c>
+      <c r="C20" s="227"/>
+      <c r="D20" s="227"/>
+      <c r="E20" s="227"/>
+      <c r="F20" s="227"/>
+      <c r="G20" s="227"/>
+      <c r="H20" s="227"/>
+      <c r="I20" s="228"/>
     </row>
     <row r="21" spans="1:9" s="45" customFormat="1" ht="20.7" customHeight="1">
       <c r="A21" s="58">
@@ -6945,7 +7303,7 @@
         <v>426</v>
       </c>
       <c r="C21" s="52" t="s">
-        <v>429</v>
+        <v>499</v>
       </c>
       <c r="D21" s="60" t="s">
         <v>427</v>
@@ -6967,13 +7325,13 @@
         <v>424</v>
       </c>
       <c r="C22" s="52" t="s">
-        <v>430</v>
+        <v>500</v>
       </c>
       <c r="D22" s="60" t="s">
         <v>427</v>
       </c>
       <c r="E22" s="54" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
       <c r="F22" s="52"/>
       <c r="G22" s="52"/>
@@ -6982,16 +7340,16 @@
     </row>
     <row r="23" spans="1:9" s="45" customFormat="1">
       <c r="A23" s="168"/>
-      <c r="B23" s="225" t="s">
-        <v>438</v>
-      </c>
-      <c r="C23" s="226"/>
-      <c r="D23" s="226"/>
-      <c r="E23" s="226"/>
-      <c r="F23" s="226"/>
-      <c r="G23" s="226"/>
-      <c r="H23" s="226"/>
-      <c r="I23" s="227"/>
+      <c r="B23" s="226" t="s">
+        <v>435</v>
+      </c>
+      <c r="C23" s="227"/>
+      <c r="D23" s="227"/>
+      <c r="E23" s="227"/>
+      <c r="F23" s="227"/>
+      <c r="G23" s="227"/>
+      <c r="H23" s="227"/>
+      <c r="I23" s="228"/>
     </row>
     <row r="24" spans="1:9" s="48" customFormat="1" ht="13.8">
       <c r="A24" s="58">
@@ -6999,16 +7357,16 @@
         <v>4</v>
       </c>
       <c r="B24" s="52" t="s">
-        <v>441</v>
+        <v>438</v>
       </c>
       <c r="C24" s="52" t="s">
-        <v>467</v>
+        <v>511</v>
       </c>
       <c r="D24" s="54" t="s">
-        <v>434</v>
+        <v>432</v>
       </c>
       <c r="E24" s="54" t="s">
-        <v>435</v>
+        <v>433</v>
       </c>
       <c r="F24" s="52"/>
       <c r="G24" s="52"/>
@@ -7021,16 +7379,16 @@
         <v>5</v>
       </c>
       <c r="B25" s="52" t="s">
-        <v>439</v>
+        <v>436</v>
       </c>
       <c r="C25" s="52" t="s">
-        <v>467</v>
+        <v>512</v>
       </c>
       <c r="D25" s="60" t="s">
-        <v>434</v>
+        <v>432</v>
       </c>
       <c r="E25" s="54" t="s">
-        <v>440</v>
+        <v>437</v>
       </c>
       <c r="F25" s="52"/>
       <c r="G25" s="52"/>
@@ -7043,16 +7401,16 @@
         <v>6</v>
       </c>
       <c r="B26" s="52" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
       <c r="C26" s="52" t="s">
-        <v>436</v>
+        <v>501</v>
       </c>
       <c r="D26" s="60" t="s">
-        <v>434</v>
+        <v>432</v>
       </c>
       <c r="E26" s="54" t="s">
-        <v>442</v>
+        <v>439</v>
       </c>
       <c r="F26" s="52"/>
       <c r="G26" s="52"/>
@@ -7061,16 +7419,16 @@
     </row>
     <row r="27" spans="1:9" s="48" customFormat="1" ht="13.8">
       <c r="A27" s="168"/>
-      <c r="B27" s="222" t="s">
-        <v>443</v>
-      </c>
-      <c r="C27" s="223"/>
-      <c r="D27" s="223"/>
-      <c r="E27" s="223"/>
-      <c r="F27" s="223"/>
-      <c r="G27" s="223"/>
-      <c r="H27" s="223"/>
-      <c r="I27" s="224"/>
+      <c r="B27" s="223" t="s">
+        <v>440</v>
+      </c>
+      <c r="C27" s="224"/>
+      <c r="D27" s="224"/>
+      <c r="E27" s="224"/>
+      <c r="F27" s="224"/>
+      <c r="G27" s="224"/>
+      <c r="H27" s="224"/>
+      <c r="I27" s="225"/>
     </row>
     <row r="28" spans="1:9" s="48" customFormat="1" ht="13.8">
       <c r="A28" s="58">
@@ -7081,13 +7439,13 @@
         <v>423</v>
       </c>
       <c r="C28" s="52" t="s">
-        <v>444</v>
+        <v>502</v>
       </c>
       <c r="D28" s="60" t="s">
-        <v>445</v>
+        <v>441</v>
       </c>
       <c r="E28" s="54" t="s">
-        <v>446</v>
+        <v>442</v>
       </c>
       <c r="F28" s="52"/>
       <c r="G28" s="52"/>
@@ -7100,16 +7458,16 @@
         <v>8</v>
       </c>
       <c r="B29" s="62" t="s">
-        <v>447</v>
+        <v>443</v>
       </c>
       <c r="C29" s="62" t="s">
-        <v>448</v>
+        <v>503</v>
       </c>
       <c r="D29" s="62" t="s">
-        <v>445</v>
+        <v>441</v>
       </c>
       <c r="E29" s="62" t="s">
-        <v>449</v>
+        <v>444</v>
       </c>
       <c r="F29" s="62"/>
       <c r="G29" s="62"/>
@@ -7122,16 +7480,16 @@
         <v>9</v>
       </c>
       <c r="B30" s="62" t="s">
-        <v>450</v>
+        <v>445</v>
       </c>
       <c r="C30" s="62" t="s">
-        <v>451</v>
+        <v>504</v>
       </c>
       <c r="D30" s="62" t="s">
-        <v>445</v>
+        <v>441</v>
       </c>
       <c r="E30" s="62" t="s">
-        <v>452</v>
+        <v>446</v>
       </c>
       <c r="F30" s="62"/>
       <c r="G30" s="62"/>
@@ -7140,16 +7498,16 @@
     </row>
     <row r="31" spans="1:9" s="48" customFormat="1" ht="13.8">
       <c r="A31" s="169"/>
-      <c r="B31" s="218" t="s">
+      <c r="B31" s="219" t="s">
         <v>420</v>
       </c>
-      <c r="C31" s="218"/>
-      <c r="D31" s="218"/>
-      <c r="E31" s="218"/>
-      <c r="F31" s="218"/>
-      <c r="G31" s="218"/>
-      <c r="H31" s="218"/>
-      <c r="I31" s="219"/>
+      <c r="C31" s="219"/>
+      <c r="D31" s="219"/>
+      <c r="E31" s="219"/>
+      <c r="F31" s="219"/>
+      <c r="G31" s="219"/>
+      <c r="H31" s="219"/>
+      <c r="I31" s="220"/>
     </row>
     <row r="32" spans="1:9" s="48" customFormat="1" ht="13.8">
       <c r="A32" s="58">
@@ -7160,10 +7518,10 @@
         <v>422</v>
       </c>
       <c r="C32" s="52" t="s">
-        <v>453</v>
+        <v>498</v>
       </c>
       <c r="D32" s="53" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
       <c r="E32" s="54" t="s">
         <v>425</v>
@@ -7175,16 +7533,16 @@
     </row>
     <row r="33" spans="1:9" s="48" customFormat="1" ht="13.8">
       <c r="A33" s="168"/>
-      <c r="B33" s="225" t="s">
-        <v>437</v>
-      </c>
-      <c r="C33" s="226"/>
-      <c r="D33" s="226"/>
-      <c r="E33" s="226"/>
-      <c r="F33" s="226"/>
-      <c r="G33" s="226"/>
-      <c r="H33" s="226"/>
-      <c r="I33" s="227"/>
+      <c r="B33" s="226" t="s">
+        <v>434</v>
+      </c>
+      <c r="C33" s="227"/>
+      <c r="D33" s="227"/>
+      <c r="E33" s="227"/>
+      <c r="F33" s="227"/>
+      <c r="G33" s="227"/>
+      <c r="H33" s="227"/>
+      <c r="I33" s="228"/>
     </row>
     <row r="34" spans="1:9" s="48" customFormat="1" ht="17.7" customHeight="1">
       <c r="A34" s="58">
@@ -7192,10 +7550,10 @@
         <v>11</v>
       </c>
       <c r="B34" s="52" t="s">
-        <v>454</v>
+        <v>447</v>
       </c>
       <c r="C34" s="52" t="s">
-        <v>429</v>
+        <v>499</v>
       </c>
       <c r="D34" s="60" t="s">
         <v>427</v>
@@ -7214,16 +7572,16 @@
         <v>12</v>
       </c>
       <c r="B35" s="52" t="s">
-        <v>455</v>
+        <v>448</v>
       </c>
       <c r="C35" s="52" t="s">
-        <v>430</v>
+        <v>500</v>
       </c>
       <c r="D35" s="60" t="s">
         <v>427</v>
       </c>
       <c r="E35" s="54" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
       <c r="F35" s="52"/>
       <c r="G35" s="52"/>
@@ -7232,16 +7590,16 @@
     </row>
     <row r="36" spans="1:9" s="48" customFormat="1" ht="13.8">
       <c r="A36" s="168"/>
-      <c r="B36" s="225" t="s">
-        <v>438</v>
-      </c>
-      <c r="C36" s="226"/>
-      <c r="D36" s="226"/>
-      <c r="E36" s="226"/>
-      <c r="F36" s="226"/>
-      <c r="G36" s="226"/>
-      <c r="H36" s="226"/>
-      <c r="I36" s="227"/>
+      <c r="B36" s="226" t="s">
+        <v>435</v>
+      </c>
+      <c r="C36" s="227"/>
+      <c r="D36" s="227"/>
+      <c r="E36" s="227"/>
+      <c r="F36" s="227"/>
+      <c r="G36" s="227"/>
+      <c r="H36" s="227"/>
+      <c r="I36" s="228"/>
     </row>
     <row r="37" spans="1:9" s="48" customFormat="1" ht="13.8">
       <c r="A37" s="58">
@@ -7249,16 +7607,16 @@
         <v>13</v>
       </c>
       <c r="B37" s="52" t="s">
-        <v>456</v>
+        <v>449</v>
       </c>
       <c r="C37" s="52" t="s">
-        <v>430</v>
+        <v>513</v>
       </c>
       <c r="D37" s="54" t="s">
-        <v>434</v>
+        <v>432</v>
       </c>
       <c r="E37" s="54" t="s">
-        <v>435</v>
+        <v>433</v>
       </c>
       <c r="F37" s="52"/>
       <c r="G37" s="52"/>
@@ -7271,16 +7629,16 @@
         <v>14</v>
       </c>
       <c r="B38" s="52" t="s">
-        <v>457</v>
+        <v>450</v>
       </c>
       <c r="C38" s="52" t="s">
-        <v>430</v>
+        <v>514</v>
       </c>
       <c r="D38" s="60" t="s">
-        <v>434</v>
+        <v>432</v>
       </c>
       <c r="E38" s="54" t="s">
-        <v>440</v>
+        <v>437</v>
       </c>
       <c r="F38" s="52"/>
       <c r="G38" s="52"/>
@@ -7293,16 +7651,16 @@
         <v>15</v>
       </c>
       <c r="B39" s="52" t="s">
-        <v>458</v>
+        <v>451</v>
       </c>
       <c r="C39" s="52" t="s">
-        <v>436</v>
+        <v>501</v>
       </c>
       <c r="D39" s="60" t="s">
-        <v>434</v>
+        <v>432</v>
       </c>
       <c r="E39" s="54" t="s">
-        <v>442</v>
+        <v>439</v>
       </c>
       <c r="F39" s="52"/>
       <c r="G39" s="52"/>
@@ -7311,16 +7669,16 @@
     </row>
     <row r="40" spans="1:9" s="48" customFormat="1" ht="13.8">
       <c r="A40" s="168"/>
-      <c r="B40" s="222" t="s">
-        <v>443</v>
-      </c>
-      <c r="C40" s="223"/>
-      <c r="D40" s="223"/>
-      <c r="E40" s="223"/>
-      <c r="F40" s="223"/>
-      <c r="G40" s="223"/>
-      <c r="H40" s="223"/>
-      <c r="I40" s="224"/>
+      <c r="B40" s="223" t="s">
+        <v>440</v>
+      </c>
+      <c r="C40" s="224"/>
+      <c r="D40" s="224"/>
+      <c r="E40" s="224"/>
+      <c r="F40" s="224"/>
+      <c r="G40" s="224"/>
+      <c r="H40" s="224"/>
+      <c r="I40" s="225"/>
     </row>
     <row r="41" spans="1:9" s="49" customFormat="1" ht="13.8">
       <c r="A41" s="58">
@@ -7328,16 +7686,16 @@
         <v>16</v>
       </c>
       <c r="B41" s="52" t="s">
-        <v>459</v>
+        <v>452</v>
       </c>
       <c r="C41" s="52" t="s">
-        <v>444</v>
+        <v>502</v>
       </c>
       <c r="D41" s="60" t="s">
-        <v>445</v>
+        <v>441</v>
       </c>
       <c r="E41" s="54" t="s">
-        <v>446</v>
+        <v>442</v>
       </c>
       <c r="F41" s="52"/>
       <c r="G41" s="52"/>
@@ -7350,16 +7708,16 @@
         <v>17</v>
       </c>
       <c r="B42" s="62" t="s">
-        <v>460</v>
+        <v>453</v>
       </c>
       <c r="C42" s="62" t="s">
-        <v>448</v>
+        <v>503</v>
       </c>
       <c r="D42" s="62" t="s">
-        <v>445</v>
+        <v>441</v>
       </c>
       <c r="E42" s="62" t="s">
-        <v>449</v>
+        <v>444</v>
       </c>
       <c r="F42" s="62"/>
       <c r="G42" s="62"/>
@@ -7372,16 +7730,16 @@
         <v>18</v>
       </c>
       <c r="B43" s="62" t="s">
-        <v>461</v>
+        <v>454</v>
       </c>
       <c r="C43" s="62" t="s">
-        <v>451</v>
+        <v>504</v>
       </c>
       <c r="D43" s="62" t="s">
-        <v>445</v>
+        <v>441</v>
       </c>
       <c r="E43" s="62" t="s">
-        <v>452</v>
+        <v>446</v>
       </c>
       <c r="F43" s="62"/>
       <c r="G43" s="62"/>
@@ -7390,16 +7748,16 @@
     </row>
     <row r="44" spans="1:9" s="48" customFormat="1" ht="13.8">
       <c r="A44" s="168"/>
-      <c r="B44" s="233" t="s">
-        <v>462</v>
-      </c>
-      <c r="C44" s="234"/>
-      <c r="D44" s="234"/>
-      <c r="E44" s="234"/>
-      <c r="F44" s="234"/>
-      <c r="G44" s="234"/>
-      <c r="H44" s="234"/>
-      <c r="I44" s="235"/>
+      <c r="B44" s="234" t="s">
+        <v>455</v>
+      </c>
+      <c r="C44" s="235"/>
+      <c r="D44" s="235"/>
+      <c r="E44" s="235"/>
+      <c r="F44" s="235"/>
+      <c r="G44" s="235"/>
+      <c r="H44" s="235"/>
+      <c r="I44" s="236"/>
     </row>
     <row r="45" spans="1:9" s="48" customFormat="1" ht="13.8">
       <c r="A45" s="58">
@@ -7407,16 +7765,16 @@
         <v>19</v>
       </c>
       <c r="B45" s="62" t="s">
-        <v>463</v>
+        <v>456</v>
       </c>
       <c r="C45" s="62" t="s">
-        <v>476</v>
+        <v>515</v>
       </c>
       <c r="D45" s="62" t="s">
-        <v>469</v>
+        <v>461</v>
       </c>
       <c r="E45" s="62" t="s">
-        <v>472</v>
+        <v>464</v>
       </c>
       <c r="F45" s="62"/>
       <c r="G45" s="62"/>
@@ -7429,16 +7787,16 @@
         <v>20</v>
       </c>
       <c r="B46" s="52" t="s">
-        <v>464</v>
+        <v>457</v>
       </c>
       <c r="C46" s="62" t="s">
-        <v>477</v>
+        <v>517</v>
       </c>
       <c r="D46" s="60" t="s">
-        <v>471</v>
+        <v>463</v>
       </c>
       <c r="E46" s="54" t="s">
-        <v>473</v>
+        <v>465</v>
       </c>
       <c r="F46" s="52"/>
       <c r="G46" s="52"/>
@@ -7451,16 +7809,16 @@
         <v>21</v>
       </c>
       <c r="B47" s="52" t="s">
-        <v>465</v>
+        <v>458</v>
       </c>
       <c r="C47" s="62" t="s">
-        <v>478</v>
+        <v>516</v>
       </c>
       <c r="D47" s="60" t="s">
-        <v>470</v>
+        <v>462</v>
       </c>
       <c r="E47" s="54" t="s">
-        <v>474</v>
+        <v>466</v>
       </c>
       <c r="F47" s="52"/>
       <c r="G47" s="52"/>
@@ -7473,16 +7831,16 @@
         <v>22</v>
       </c>
       <c r="B48" s="52" t="s">
-        <v>466</v>
+        <v>459</v>
       </c>
       <c r="C48" s="62" t="s">
-        <v>479</v>
+        <v>518</v>
       </c>
       <c r="D48" s="60" t="s">
-        <v>468</v>
+        <v>460</v>
       </c>
       <c r="E48" s="54" t="s">
-        <v>475</v>
+        <v>467</v>
       </c>
       <c r="F48" s="52"/>
       <c r="G48" s="52"/>
@@ -7491,39 +7849,43 @@
     </row>
     <row r="49" spans="1:9" s="48" customFormat="1" ht="13.8">
       <c r="A49" s="167"/>
-      <c r="B49" s="236" t="s">
-        <v>480</v>
-      </c>
-      <c r="C49" s="237"/>
-      <c r="D49" s="237"/>
-      <c r="E49" s="237"/>
-      <c r="F49" s="237"/>
-      <c r="G49" s="237"/>
-      <c r="H49" s="237"/>
-      <c r="I49" s="237"/>
+      <c r="B49" s="237" t="s">
+        <v>468</v>
+      </c>
+      <c r="C49" s="238"/>
+      <c r="D49" s="238"/>
+      <c r="E49" s="238"/>
+      <c r="F49" s="238"/>
+      <c r="G49" s="238"/>
+      <c r="H49" s="238"/>
+      <c r="I49" s="238"/>
     </row>
     <row r="50" spans="1:9" s="48" customFormat="1" ht="13.8">
       <c r="A50" s="180"/>
-      <c r="B50" s="238" t="s">
-        <v>481</v>
-      </c>
-      <c r="C50" s="239"/>
-      <c r="D50" s="239"/>
-      <c r="E50" s="239"/>
-      <c r="F50" s="239"/>
-      <c r="G50" s="239"/>
-      <c r="H50" s="239"/>
-      <c r="I50" s="239"/>
+      <c r="B50" s="239" t="s">
+        <v>469</v>
+      </c>
+      <c r="C50" s="240"/>
+      <c r="D50" s="240"/>
+      <c r="E50" s="240"/>
+      <c r="F50" s="240"/>
+      <c r="G50" s="240"/>
+      <c r="H50" s="240"/>
+      <c r="I50" s="240"/>
     </row>
     <row r="51" spans="1:9" s="48" customFormat="1" ht="13.8">
       <c r="A51" s="58">
         <v>23</v>
       </c>
       <c r="B51" s="52" t="s">
-        <v>482</v>
-      </c>
-      <c r="C51" s="52"/>
-      <c r="D51" s="60"/>
+        <v>470</v>
+      </c>
+      <c r="C51" s="52" t="s">
+        <v>522</v>
+      </c>
+      <c r="D51" s="60" t="s">
+        <v>493</v>
+      </c>
       <c r="E51" s="54"/>
       <c r="F51" s="52"/>
       <c r="G51" s="52"/>
@@ -7532,17 +7894,17 @@
     </row>
     <row r="52" spans="1:9" s="48" customFormat="1" ht="13.8">
       <c r="A52" s="179">
-        <f t="shared" ca="1" si="1"/>
+        <f ca="1">IF(OFFSET(A52,-1,0) ="",OFFSET(A52,-2,0)+1,OFFSET(A52,-1,0)+1 )</f>
         <v>24</v>
       </c>
       <c r="B52" s="182" t="s">
-        <v>493</v>
+        <v>478</v>
       </c>
       <c r="C52" s="182" t="s">
-        <v>513</v>
-      </c>
-      <c r="D52" s="267" t="s">
-        <v>497</v>
+        <v>491</v>
+      </c>
+      <c r="D52" s="183" t="s">
+        <v>482</v>
       </c>
       <c r="E52" s="181"/>
       <c r="F52" s="181"/>
@@ -7556,10 +7918,14 @@
         <v>25</v>
       </c>
       <c r="B53" s="52" t="s">
-        <v>483</v>
-      </c>
-      <c r="C53" s="52"/>
-      <c r="D53" s="60"/>
+        <v>471</v>
+      </c>
+      <c r="C53" s="52" t="s">
+        <v>523</v>
+      </c>
+      <c r="D53" s="60" t="s">
+        <v>519</v>
+      </c>
       <c r="E53" s="54"/>
       <c r="F53" s="52"/>
       <c r="G53" s="52"/>
@@ -7572,10 +7938,14 @@
         <v>26</v>
       </c>
       <c r="B54" s="52" t="s">
-        <v>486</v>
-      </c>
-      <c r="C54" s="52"/>
-      <c r="D54" s="60"/>
+        <v>474</v>
+      </c>
+      <c r="C54" s="52" t="s">
+        <v>524</v>
+      </c>
+      <c r="D54" s="60" t="s">
+        <v>520</v>
+      </c>
       <c r="E54" s="54"/>
       <c r="F54" s="52"/>
       <c r="G54" s="52"/>
@@ -7588,26 +7958,34 @@
         <v>27</v>
       </c>
       <c r="B55" s="52" t="s">
-        <v>485</v>
-      </c>
-      <c r="C55" s="52"/>
-      <c r="D55" s="60"/>
+        <v>473</v>
+      </c>
+      <c r="C55" s="52" t="s">
+        <v>525</v>
+      </c>
+      <c r="D55" s="60" t="s">
+        <v>521</v>
+      </c>
       <c r="E55" s="54"/>
       <c r="F55" s="52"/>
       <c r="G55" s="52"/>
       <c r="H55" s="52"/>
       <c r="I55" s="61"/>
     </row>
-    <row r="56" spans="1:9" s="48" customFormat="1" ht="13.8">
+    <row r="56" spans="1:9" s="48" customFormat="1" ht="24.6">
       <c r="A56" s="58">
         <f t="shared" ca="1" si="1"/>
         <v>28</v>
       </c>
       <c r="B56" s="52" t="s">
-        <v>484</v>
-      </c>
-      <c r="C56" s="52"/>
-      <c r="D56" s="60"/>
+        <v>472</v>
+      </c>
+      <c r="C56" s="52" t="s">
+        <v>526</v>
+      </c>
+      <c r="D56" s="60" t="s">
+        <v>494</v>
+      </c>
       <c r="E56" s="54"/>
       <c r="F56" s="52"/>
       <c r="G56" s="52"/>
@@ -7616,16 +7994,16 @@
     </row>
     <row r="57" spans="1:9" s="48" customFormat="1" ht="13.8">
       <c r="A57" s="180"/>
-      <c r="B57" s="232" t="s">
-        <v>487</v>
-      </c>
-      <c r="C57" s="226"/>
-      <c r="D57" s="226"/>
-      <c r="E57" s="226"/>
-      <c r="F57" s="226"/>
-      <c r="G57" s="226"/>
-      <c r="H57" s="226"/>
-      <c r="I57" s="227"/>
+      <c r="B57" s="233" t="s">
+        <v>475</v>
+      </c>
+      <c r="C57" s="227"/>
+      <c r="D57" s="227"/>
+      <c r="E57" s="227"/>
+      <c r="F57" s="227"/>
+      <c r="G57" s="227"/>
+      <c r="H57" s="227"/>
+      <c r="I57" s="228"/>
     </row>
     <row r="58" spans="1:9" s="48" customFormat="1" ht="13.8">
       <c r="A58" s="58">
@@ -7633,13 +8011,13 @@
         <v>29</v>
       </c>
       <c r="B58" s="52" t="s">
-        <v>488</v>
+        <v>497</v>
       </c>
       <c r="C58" s="52" t="s">
-        <v>498</v>
+        <v>505</v>
       </c>
       <c r="D58" s="60" t="s">
-        <v>503</v>
+        <v>483</v>
       </c>
       <c r="E58" s="54"/>
       <c r="F58" s="52"/>
@@ -7653,13 +8031,13 @@
         <v>30</v>
       </c>
       <c r="B59" s="52" t="s">
-        <v>489</v>
+        <v>496</v>
       </c>
       <c r="C59" s="52" t="s">
-        <v>499</v>
+        <v>506</v>
       </c>
       <c r="D59" s="60" t="s">
-        <v>504</v>
+        <v>484</v>
       </c>
       <c r="E59" s="54"/>
       <c r="F59" s="52"/>
@@ -7673,13 +8051,13 @@
         <v>31</v>
       </c>
       <c r="B60" s="52" t="s">
-        <v>490</v>
+        <v>495</v>
       </c>
       <c r="C60" s="52" t="s">
-        <v>500</v>
+        <v>507</v>
       </c>
       <c r="D60" s="60" t="s">
-        <v>505</v>
+        <v>485</v>
       </c>
       <c r="E60" s="54"/>
       <c r="F60" s="52"/>
@@ -7693,13 +8071,13 @@
         <v>32</v>
       </c>
       <c r="B61" s="52" t="s">
-        <v>491</v>
+        <v>476</v>
       </c>
       <c r="C61" s="52" t="s">
-        <v>501</v>
+        <v>508</v>
       </c>
       <c r="D61" s="60" t="s">
-        <v>505</v>
+        <v>485</v>
       </c>
       <c r="E61" s="54"/>
       <c r="F61" s="52"/>
@@ -7713,13 +8091,13 @@
         <v>33</v>
       </c>
       <c r="B62" s="52" t="s">
-        <v>495</v>
+        <v>480</v>
       </c>
       <c r="C62" s="52" t="s">
-        <v>502</v>
+        <v>509</v>
       </c>
       <c r="D62" s="53" t="s">
-        <v>506</v>
+        <v>486</v>
       </c>
       <c r="E62" s="54"/>
       <c r="F62" s="52"/>
@@ -7733,13 +8111,13 @@
         <v>34</v>
       </c>
       <c r="B63" s="52" t="s">
-        <v>496</v>
+        <v>481</v>
       </c>
       <c r="C63" s="52" t="s">
-        <v>502</v>
+        <v>509</v>
       </c>
       <c r="D63" s="54" t="s">
-        <v>507</v>
+        <v>487</v>
       </c>
       <c r="E63" s="60"/>
       <c r="F63" s="52"/>
@@ -7749,16 +8127,16 @@
     </row>
     <row r="64" spans="1:9" s="48" customFormat="1" ht="13.8">
       <c r="A64" s="168"/>
-      <c r="B64" s="228" t="s">
-        <v>492</v>
-      </c>
-      <c r="C64" s="229"/>
-      <c r="D64" s="229"/>
-      <c r="E64" s="229"/>
-      <c r="F64" s="229"/>
-      <c r="G64" s="229"/>
-      <c r="H64" s="229"/>
-      <c r="I64" s="230"/>
+      <c r="B64" s="229" t="s">
+        <v>477</v>
+      </c>
+      <c r="C64" s="230"/>
+      <c r="D64" s="230"/>
+      <c r="E64" s="230"/>
+      <c r="F64" s="230"/>
+      <c r="G64" s="230"/>
+      <c r="H64" s="230"/>
+      <c r="I64" s="231"/>
     </row>
     <row r="65" spans="1:9" s="48" customFormat="1" ht="24.6">
       <c r="A65" s="58">
@@ -7766,11 +8144,13 @@
         <v>35</v>
       </c>
       <c r="B65" s="170" t="s">
-        <v>482</v>
-      </c>
-      <c r="C65" s="170"/>
+        <v>470</v>
+      </c>
+      <c r="C65" s="170" t="s">
+        <v>470</v>
+      </c>
       <c r="D65" s="53" t="s">
-        <v>510</v>
+        <v>489</v>
       </c>
       <c r="E65" s="53"/>
       <c r="F65" s="170"/>
@@ -7784,13 +8164,13 @@
         <v>36</v>
       </c>
       <c r="B66" s="170" t="s">
-        <v>494</v>
+        <v>479</v>
       </c>
       <c r="C66" s="170" t="s">
-        <v>508</v>
+        <v>510</v>
       </c>
       <c r="D66" s="59" t="s">
-        <v>509</v>
+        <v>488</v>
       </c>
       <c r="E66" s="53"/>
       <c r="F66" s="170"/>
@@ -7803,14 +8183,12 @@
         <f t="shared" ca="1" si="2"/>
         <v>37</v>
       </c>
-      <c r="B67" s="170" t="s">
-        <v>511</v>
-      </c>
+      <c r="B67" s="170"/>
       <c r="C67" s="170" t="s">
-        <v>512</v>
+        <v>490</v>
       </c>
       <c r="D67" s="53" t="s">
-        <v>514</v>
+        <v>492</v>
       </c>
       <c r="E67" s="53"/>
       <c r="F67" s="170"/>
@@ -7875,9 +8253,9 @@
     </row>
     <row r="73" spans="1:9" s="48" customFormat="1" ht="13.8">
       <c r="A73" s="171"/>
-      <c r="B73" s="209"/>
-      <c r="C73" s="210"/>
-      <c r="D73" s="211"/>
+      <c r="B73" s="210"/>
+      <c r="C73" s="211"/>
+      <c r="D73" s="212"/>
       <c r="E73" s="172"/>
       <c r="F73" s="173"/>
       <c r="G73" s="173"/>
@@ -7919,9 +8297,9 @@
     </row>
     <row r="77" spans="1:9" s="48" customFormat="1" ht="13.8">
       <c r="A77" s="171"/>
-      <c r="B77" s="209"/>
-      <c r="C77" s="210"/>
-      <c r="D77" s="211"/>
+      <c r="B77" s="210"/>
+      <c r="C77" s="211"/>
+      <c r="D77" s="212"/>
       <c r="E77" s="172"/>
       <c r="F77" s="173"/>
       <c r="G77" s="173"/>
@@ -7963,9 +8341,9 @@
     </row>
     <row r="81" spans="1:9" s="48" customFormat="1" ht="14.25" customHeight="1">
       <c r="A81" s="171"/>
-      <c r="B81" s="209"/>
-      <c r="C81" s="210"/>
-      <c r="D81" s="211"/>
+      <c r="B81" s="210"/>
+      <c r="C81" s="211"/>
+      <c r="D81" s="212"/>
       <c r="E81" s="172"/>
       <c r="F81" s="173"/>
       <c r="G81" s="173"/>
@@ -7996,9 +8374,9 @@
     </row>
     <row r="84" spans="1:9" s="48" customFormat="1" ht="14.25" customHeight="1">
       <c r="A84" s="171"/>
-      <c r="B84" s="209"/>
-      <c r="C84" s="210"/>
-      <c r="D84" s="211"/>
+      <c r="B84" s="210"/>
+      <c r="C84" s="211"/>
+      <c r="D84" s="212"/>
       <c r="E84" s="172"/>
       <c r="F84" s="173"/>
       <c r="G84" s="173"/>
@@ -8195,10 +8573,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:X84"/>
+  <dimension ref="A1:X129"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A13" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B17" sqref="B17"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A64" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="C72" sqref="C72"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.15625" defaultRowHeight="12.3"/>
@@ -8212,10 +8590,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:24" s="1" customFormat="1" ht="13.8">
-      <c r="A1" s="212"/>
-      <c r="B1" s="212"/>
-      <c r="C1" s="212"/>
-      <c r="D1" s="212"/>
+      <c r="A1" s="213"/>
+      <c r="B1" s="213"/>
+      <c r="C1" s="213"/>
+      <c r="D1" s="213"/>
       <c r="E1" s="34"/>
       <c r="F1" s="34"/>
       <c r="G1" s="34"/>
@@ -8224,13 +8602,13 @@
       <c r="J1" s="34"/>
     </row>
     <row r="2" spans="1:24" s="1" customFormat="1" ht="31.5" customHeight="1">
-      <c r="A2" s="213" t="s">
+      <c r="A2" s="214" t="s">
         <v>70</v>
       </c>
-      <c r="B2" s="213"/>
-      <c r="C2" s="213"/>
-      <c r="D2" s="213"/>
-      <c r="E2" s="221"/>
+      <c r="B2" s="214"/>
+      <c r="C2" s="214"/>
+      <c r="D2" s="214"/>
+      <c r="E2" s="222"/>
       <c r="F2" s="23"/>
       <c r="G2" s="23"/>
       <c r="H2" s="23"/>
@@ -8239,9 +8617,9 @@
     </row>
     <row r="3" spans="1:24" s="1" customFormat="1" ht="31.5" customHeight="1">
       <c r="A3" s="47"/>
-      <c r="C3" s="240"/>
-      <c r="D3" s="240"/>
-      <c r="E3" s="221"/>
+      <c r="C3" s="241"/>
+      <c r="D3" s="241"/>
+      <c r="E3" s="222"/>
       <c r="F3" s="23"/>
       <c r="G3" s="23"/>
       <c r="H3" s="23"/>
@@ -8252,11 +8630,11 @@
       <c r="A4" s="139" t="s">
         <v>67</v>
       </c>
-      <c r="B4" s="215" t="s">
+      <c r="B4" s="216" t="s">
         <v>331</v>
       </c>
-      <c r="C4" s="215"/>
-      <c r="D4" s="215"/>
+      <c r="C4" s="216"/>
+      <c r="D4" s="216"/>
       <c r="E4" s="39"/>
       <c r="F4" s="39"/>
       <c r="G4" s="39"/>
@@ -8270,11 +8648,11 @@
       <c r="A5" s="139" t="s">
         <v>62</v>
       </c>
-      <c r="B5" s="214" t="s">
+      <c r="B5" s="215" t="s">
         <v>95</v>
       </c>
-      <c r="C5" s="215"/>
-      <c r="D5" s="215"/>
+      <c r="C5" s="216"/>
+      <c r="D5" s="216"/>
       <c r="E5" s="39"/>
       <c r="F5" s="39"/>
       <c r="G5" s="39"/>
@@ -8288,11 +8666,11 @@
       <c r="A6" s="139" t="s">
         <v>97</v>
       </c>
-      <c r="B6" s="214" t="s">
+      <c r="B6" s="215" t="s">
         <v>98</v>
       </c>
-      <c r="C6" s="215"/>
-      <c r="D6" s="215"/>
+      <c r="C6" s="216"/>
+      <c r="D6" s="216"/>
       <c r="E6" s="39"/>
       <c r="F6" s="39"/>
       <c r="G6" s="39"/>
@@ -8303,11 +8681,11 @@
       <c r="A7" s="139" t="s">
         <v>99</v>
       </c>
-      <c r="B7" s="215" t="s">
+      <c r="B7" s="216" t="s">
         <v>100</v>
       </c>
-      <c r="C7" s="215"/>
-      <c r="D7" s="215"/>
+      <c r="C7" s="216"/>
+      <c r="D7" s="216"/>
       <c r="E7" s="39"/>
       <c r="F7" s="39"/>
       <c r="G7" s="39"/>
@@ -8319,11 +8697,11 @@
       <c r="A8" s="139" t="s">
         <v>101</v>
       </c>
-      <c r="B8" s="216">
+      <c r="B8" s="217">
         <v>40850</v>
       </c>
-      <c r="C8" s="216"/>
-      <c r="D8" s="216"/>
+      <c r="C8" s="217"/>
+      <c r="D8" s="217"/>
       <c r="E8" s="39"/>
     </row>
     <row r="9" spans="1:24" s="43" customFormat="1">
@@ -8349,15 +8727,15 @@
       </c>
       <c r="B10" s="74">
         <f>SUM(B11:B14)</f>
-        <v>56</v>
+        <v>0</v>
       </c>
       <c r="C10" s="74">
         <f>SUM(C11:C14)</f>
-        <v>55</v>
+        <v>0</v>
       </c>
       <c r="D10" s="74">
         <f>SUM(D11:D14)</f>
-        <v>56</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:24" s="43" customFormat="1">
@@ -8365,16 +8743,16 @@
         <v>41</v>
       </c>
       <c r="B11" s="75">
-        <f>COUNTIF($F$18:$F$49636,"*Passed")</f>
-        <v>46</v>
+        <f>COUNTIF($F$18:$F$49681,"*Passed")</f>
+        <v>0</v>
       </c>
       <c r="C11" s="75">
-        <f>COUNTIF($G$18:$G$49636,"*Passed")</f>
-        <v>52</v>
+        <f>COUNTIF($G$18:$G$49681,"*Passed")</f>
+        <v>0</v>
       </c>
       <c r="D11" s="75">
-        <f>COUNTIF($H$18:$H$49636,"*Passed")</f>
-        <v>56</v>
+        <f>COUNTIF($H$18:$H$49681,"*Passed")</f>
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:24" s="43" customFormat="1">
@@ -8382,15 +8760,15 @@
         <v>43</v>
       </c>
       <c r="B12" s="75">
-        <f>COUNTIF($F$18:$F$49356,"*Failed*")</f>
-        <v>10</v>
+        <f>COUNTIF($F$18:$F$49401,"*Failed*")</f>
+        <v>0</v>
       </c>
       <c r="C12" s="75">
-        <f>COUNTIF($G$18:$G$49356,"*Failed*")</f>
-        <v>3</v>
+        <f>COUNTIF($G$18:$G$49401,"*Failed*")</f>
+        <v>0</v>
       </c>
       <c r="D12" s="75">
-        <f>COUNTIF($H$18:$H$49356,"*Failed*")</f>
+        <f>COUNTIF($H$18:$H$49401,"*Failed*")</f>
         <v>0</v>
       </c>
     </row>
@@ -8399,15 +8777,15 @@
         <v>45</v>
       </c>
       <c r="B13" s="75">
-        <f>COUNTIF($F$18:$F$49356,"*Not Run*")</f>
+        <f>COUNTIF($F$18:$F$49401,"*Not Run*")</f>
         <v>0</v>
       </c>
       <c r="C13" s="75">
-        <f>COUNTIF($G$18:$G$49356,"*Not Run*")</f>
+        <f>COUNTIF($G$18:$G$49401,"*Not Run*")</f>
         <v>0</v>
       </c>
       <c r="D13" s="75">
-        <f>COUNTIF($H$18:$H$49356,"*Not Run*")</f>
+        <f>COUNTIF($H$18:$H$49401,"*Not Run*")</f>
         <v>0</v>
       </c>
       <c r="E13" s="1"/>
@@ -8421,15 +8799,15 @@
         <v>104</v>
       </c>
       <c r="B14" s="75">
-        <f>COUNTIF($F$18:$F$49356,"*NA*")</f>
+        <f>COUNTIF($F$18:$F$49401,"*NA*")</f>
         <v>0</v>
       </c>
       <c r="C14" s="75">
-        <f>COUNTIF($G$18:$G$49356,"*NA*")</f>
+        <f>COUNTIF($G$18:$G$49401,"*NA*")</f>
         <v>0</v>
       </c>
       <c r="D14" s="75">
-        <f>COUNTIF($H$18:$H$49356,"*NA*")</f>
+        <f>COUNTIF($H$18:$H$49401,"*NA*")</f>
         <v>0</v>
       </c>
       <c r="E14" s="64"/>
@@ -8443,15 +8821,15 @@
         <v>105</v>
       </c>
       <c r="B15" s="75">
-        <f>COUNTIF($F$18:$F$49356,"*Passed in previous build*")</f>
+        <f>COUNTIF($F$18:$F$49401,"*Passed in previous build*")</f>
         <v>0</v>
       </c>
       <c r="C15" s="75">
-        <f>COUNTIF($G$18:$G$49356,"*Passed in previous build*")</f>
-        <v>1</v>
+        <f>COUNTIF($G$18:$G$49401,"*Passed in previous build*")</f>
+        <v>0</v>
       </c>
       <c r="D15" s="75">
-        <f>COUNTIF($H$18:$H$49356,"*Passed in previous build*")</f>
+        <f>COUNTIF($H$18:$H$49401,"*Passed in previous build*")</f>
         <v>0</v>
       </c>
       <c r="E15" s="1"/>
@@ -8466,11 +8844,11 @@
       <c r="C16" s="50"/>
       <c r="D16" s="51"/>
       <c r="E16" s="65"/>
-      <c r="F16" s="241" t="s">
+      <c r="F16" s="242" t="s">
         <v>102</v>
       </c>
-      <c r="G16" s="242"/>
-      <c r="H16" s="243"/>
+      <c r="G16" s="243"/>
+      <c r="H16" s="244"/>
       <c r="I16" s="65"/>
     </row>
     <row r="17" spans="1:9" s="44" customFormat="1" ht="36.9">
@@ -8504,1737 +8882,1582 @@
     </row>
     <row r="18" spans="1:9" s="44" customFormat="1" ht="15.75" customHeight="1">
       <c r="A18" s="67"/>
-      <c r="B18" s="217" t="s">
-        <v>115</v>
-      </c>
-      <c r="C18" s="218"/>
+      <c r="B18" s="218" t="s">
+        <v>528</v>
+      </c>
+      <c r="C18" s="219"/>
       <c r="D18" s="219"/>
-      <c r="E18" s="67"/>
-      <c r="F18" s="68"/>
-      <c r="G18" s="68"/>
-      <c r="H18" s="68"/>
-      <c r="I18" s="67"/>
-    </row>
-    <row r="19" spans="1:9" s="45" customFormat="1" ht="61.5">
-      <c r="A19" s="52">
+      <c r="E18" s="219"/>
+      <c r="F18" s="219"/>
+      <c r="G18" s="219"/>
+      <c r="H18" s="219"/>
+      <c r="I18" s="220"/>
+    </row>
+    <row r="19" spans="1:9" s="44" customFormat="1" ht="15.75" customHeight="1">
+      <c r="A19" s="268"/>
+      <c r="B19" s="269" t="s">
+        <v>529</v>
+      </c>
+      <c r="C19" s="270"/>
+      <c r="D19" s="270"/>
+      <c r="E19" s="270"/>
+      <c r="F19" s="270"/>
+      <c r="G19" s="270"/>
+      <c r="H19" s="270"/>
+      <c r="I19" s="271"/>
+    </row>
+    <row r="20" spans="1:9" s="45" customFormat="1">
+      <c r="A20" s="52">
         <v>1</v>
       </c>
-      <c r="B19" s="52" t="s">
-        <v>116</v>
-      </c>
-      <c r="C19" s="52" t="s">
-        <v>117</v>
-      </c>
-      <c r="D19" s="53" t="s">
-        <v>118</v>
-      </c>
-      <c r="E19" s="54" t="s">
-        <v>119</v>
-      </c>
-      <c r="F19" s="52" t="s">
-        <v>41</v>
-      </c>
-      <c r="G19" s="52" t="s">
-        <v>41</v>
-      </c>
-      <c r="H19" s="52" t="s">
-        <v>41</v>
-      </c>
-      <c r="I19" s="55"/>
-    </row>
-    <row r="20" spans="1:9" s="45" customFormat="1" ht="36.9">
-      <c r="A20" s="58">
+      <c r="B20" s="52" t="s">
+        <v>530</v>
+      </c>
+      <c r="C20" s="52"/>
+      <c r="D20" s="53"/>
+      <c r="E20" s="54"/>
+      <c r="F20" s="52"/>
+      <c r="G20" s="52"/>
+      <c r="H20" s="52"/>
+      <c r="I20" s="55"/>
+    </row>
+    <row r="21" spans="1:9" s="45" customFormat="1">
+      <c r="A21" s="58">
+        <f t="shared" ref="A21:A87" ca="1" si="0">IF(OFFSET(A21,-1,0) ="",OFFSET(A21,-2,0)+1,OFFSET(A21,-1,0)+1 )</f>
         <v>2</v>
       </c>
-      <c r="B20" s="52" t="s">
-        <v>120</v>
-      </c>
-      <c r="C20" s="52" t="s">
-        <v>121</v>
-      </c>
-      <c r="D20" s="59" t="s">
-        <v>122</v>
-      </c>
-      <c r="E20" s="54" t="s">
-        <v>123</v>
-      </c>
-      <c r="F20" s="52" t="s">
-        <v>41</v>
-      </c>
-      <c r="G20" s="52" t="s">
-        <v>105</v>
-      </c>
-      <c r="H20" s="52" t="s">
-        <v>41</v>
-      </c>
-      <c r="I20" s="55"/>
-    </row>
-    <row r="21" spans="1:9" s="45" customFormat="1" ht="36.9">
-      <c r="A21" s="58">
+      <c r="B21" s="52" t="s">
+        <v>534</v>
+      </c>
+      <c r="C21" s="52"/>
+      <c r="D21" s="59"/>
+      <c r="E21" s="54"/>
+      <c r="F21" s="52"/>
+      <c r="G21" s="52"/>
+      <c r="H21" s="52"/>
+      <c r="I21" s="55"/>
+    </row>
+    <row r="22" spans="1:9" s="45" customFormat="1">
+      <c r="A22" s="58">
+        <f t="shared" ca="1" si="0"/>
         <v>3</v>
       </c>
-      <c r="B21" s="52" t="s">
-        <v>124</v>
-      </c>
-      <c r="C21" s="52" t="s">
-        <v>125</v>
-      </c>
-      <c r="D21" s="60" t="s">
-        <v>126</v>
-      </c>
-      <c r="E21" s="54" t="s">
-        <v>123</v>
-      </c>
-      <c r="F21" s="52" t="s">
-        <v>41</v>
-      </c>
-      <c r="G21" s="52" t="s">
-        <v>41</v>
-      </c>
-      <c r="H21" s="52" t="s">
-        <v>41</v>
-      </c>
-      <c r="I21" s="55"/>
-    </row>
-    <row r="22" spans="1:9" s="48" customFormat="1" ht="86.1">
-      <c r="A22" s="58">
+      <c r="B22" s="52" t="s">
+        <v>535</v>
+      </c>
+      <c r="C22" s="52"/>
+      <c r="D22" s="60"/>
+      <c r="E22" s="54"/>
+      <c r="F22" s="52"/>
+      <c r="G22" s="52"/>
+      <c r="H22" s="52"/>
+      <c r="I22" s="55"/>
+    </row>
+    <row r="23" spans="1:9" s="48" customFormat="1" ht="13.8">
+      <c r="A23" s="58">
+        <f t="shared" ca="1" si="0"/>
         <v>4</v>
       </c>
-      <c r="B22" s="52" t="s">
-        <v>127</v>
-      </c>
-      <c r="C22" s="52" t="s">
-        <v>128</v>
-      </c>
-      <c r="D22" s="54" t="s">
-        <v>129</v>
-      </c>
-      <c r="E22" s="54" t="s">
-        <v>130</v>
-      </c>
-      <c r="F22" s="52" t="s">
-        <v>41</v>
-      </c>
-      <c r="G22" s="52" t="s">
-        <v>41</v>
-      </c>
-      <c r="H22" s="52" t="s">
-        <v>41</v>
-      </c>
-      <c r="I22" s="61"/>
-    </row>
-    <row r="23" spans="1:9" s="48" customFormat="1" ht="98.4">
-      <c r="A23" s="58">
+      <c r="B23" s="52" t="s">
+        <v>536</v>
+      </c>
+      <c r="C23" s="52"/>
+      <c r="D23" s="54"/>
+      <c r="E23" s="54"/>
+      <c r="F23" s="52"/>
+      <c r="G23" s="52"/>
+      <c r="H23" s="52"/>
+      <c r="I23" s="61"/>
+    </row>
+    <row r="24" spans="1:9" s="48" customFormat="1" ht="13.8">
+      <c r="A24" s="58">
+        <f t="shared" ca="1" si="0"/>
         <v>5</v>
       </c>
-      <c r="B23" s="52" t="s">
-        <v>131</v>
-      </c>
-      <c r="C23" s="52" t="s">
-        <v>132</v>
-      </c>
-      <c r="D23" s="54" t="s">
-        <v>133</v>
-      </c>
-      <c r="E23" s="54" t="s">
-        <v>134</v>
-      </c>
-      <c r="F23" s="52" t="s">
-        <v>41</v>
-      </c>
-      <c r="G23" s="52" t="s">
-        <v>41</v>
-      </c>
-      <c r="H23" s="52" t="s">
-        <v>41</v>
-      </c>
-      <c r="I23" s="61"/>
-    </row>
-    <row r="24" spans="1:9" s="48" customFormat="1" ht="73.8">
-      <c r="A24" s="58">
+      <c r="B24" s="52" t="s">
+        <v>537</v>
+      </c>
+      <c r="C24" s="52"/>
+      <c r="D24" s="54"/>
+      <c r="E24" s="54"/>
+      <c r="F24" s="52"/>
+      <c r="G24" s="52"/>
+      <c r="H24" s="52"/>
+      <c r="I24" s="61"/>
+    </row>
+    <row r="25" spans="1:9" s="48" customFormat="1" ht="13.8">
+      <c r="A25" s="58">
+        <f t="shared" ca="1" si="0"/>
         <v>6</v>
       </c>
-      <c r="B24" s="52" t="s">
-        <v>135</v>
-      </c>
-      <c r="C24" s="52" t="s">
-        <v>136</v>
-      </c>
-      <c r="D24" s="60" t="s">
-        <v>137</v>
-      </c>
-      <c r="E24" s="54" t="s">
-        <v>138</v>
-      </c>
-      <c r="F24" s="52" t="s">
-        <v>41</v>
-      </c>
-      <c r="G24" s="52" t="s">
-        <v>41</v>
-      </c>
-      <c r="H24" s="52" t="s">
-        <v>41</v>
-      </c>
-      <c r="I24" s="61"/>
-    </row>
-    <row r="25" spans="1:9" s="48" customFormat="1" ht="123">
-      <c r="A25" s="58">
+      <c r="B25" s="52" t="s">
+        <v>538</v>
+      </c>
+      <c r="C25" s="52"/>
+      <c r="D25" s="54"/>
+      <c r="E25" s="54"/>
+      <c r="F25" s="52"/>
+      <c r="G25" s="52"/>
+      <c r="H25" s="52"/>
+      <c r="I25" s="61"/>
+    </row>
+    <row r="26" spans="1:9" s="48" customFormat="1" ht="13.8">
+      <c r="A26" s="272"/>
+      <c r="B26" s="275" t="s">
+        <v>531</v>
+      </c>
+      <c r="C26" s="273"/>
+      <c r="D26" s="273"/>
+      <c r="E26" s="273"/>
+      <c r="F26" s="273"/>
+      <c r="G26" s="273"/>
+      <c r="H26" s="273"/>
+      <c r="I26" s="274"/>
+    </row>
+    <row r="27" spans="1:9" s="48" customFormat="1" ht="13.8">
+      <c r="A27" s="58">
+        <f t="shared" ca="1" si="0"/>
         <v>7</v>
       </c>
-      <c r="B25" s="52" t="s">
-        <v>139</v>
-      </c>
-      <c r="C25" s="52" t="s">
-        <v>140</v>
-      </c>
-      <c r="D25" s="54" t="s">
-        <v>141</v>
-      </c>
-      <c r="E25" s="54" t="s">
-        <v>142</v>
-      </c>
-      <c r="F25" s="52" t="s">
-        <v>41</v>
-      </c>
-      <c r="G25" s="52" t="s">
-        <v>41</v>
-      </c>
-      <c r="H25" s="52" t="s">
-        <v>41</v>
-      </c>
-      <c r="I25" s="61"/>
-    </row>
-    <row r="26" spans="1:9" s="48" customFormat="1" ht="123">
-      <c r="A26" s="58">
+      <c r="B27" s="52" t="s">
+        <v>532</v>
+      </c>
+      <c r="C27" s="52"/>
+      <c r="D27" s="54"/>
+      <c r="E27" s="54"/>
+      <c r="F27" s="52"/>
+      <c r="G27" s="52"/>
+      <c r="H27" s="52"/>
+      <c r="I27" s="61"/>
+    </row>
+    <row r="28" spans="1:9" s="48" customFormat="1" ht="13.8">
+      <c r="A28" s="58">
+        <f t="shared" ca="1" si="0"/>
         <v>8</v>
       </c>
-      <c r="B26" s="52" t="s">
-        <v>143</v>
-      </c>
-      <c r="C26" s="52" t="s">
-        <v>144</v>
-      </c>
-      <c r="D26" s="54" t="s">
-        <v>145</v>
-      </c>
-      <c r="E26" s="54" t="s">
-        <v>146</v>
-      </c>
-      <c r="F26" s="52" t="s">
-        <v>41</v>
-      </c>
-      <c r="G26" s="52" t="s">
-        <v>41</v>
-      </c>
-      <c r="H26" s="52" t="s">
-        <v>41</v>
-      </c>
-      <c r="I26" s="61"/>
-    </row>
-    <row r="27" spans="1:9" s="48" customFormat="1" ht="73.8">
-      <c r="A27" s="58">
+      <c r="B28" s="52" t="s">
+        <v>539</v>
+      </c>
+      <c r="C28" s="52"/>
+      <c r="D28" s="54"/>
+      <c r="E28" s="54"/>
+      <c r="F28" s="52"/>
+      <c r="G28" s="52"/>
+      <c r="H28" s="52"/>
+      <c r="I28" s="61"/>
+    </row>
+    <row r="29" spans="1:9" s="48" customFormat="1" ht="13.8">
+      <c r="A29" s="58">
+        <f t="shared" ca="1" si="0"/>
         <v>9</v>
       </c>
-      <c r="B27" s="52" t="s">
-        <v>148</v>
-      </c>
-      <c r="C27" s="52" t="s">
-        <v>149</v>
-      </c>
-      <c r="D27" s="54" t="s">
-        <v>150</v>
-      </c>
-      <c r="E27" s="54" t="s">
-        <v>123</v>
-      </c>
-      <c r="F27" s="52" t="s">
-        <v>41</v>
-      </c>
-      <c r="G27" s="52" t="s">
-        <v>41</v>
-      </c>
-      <c r="H27" s="52" t="s">
-        <v>41</v>
-      </c>
-      <c r="I27" s="61"/>
-    </row>
-    <row r="28" spans="1:9" s="48" customFormat="1" ht="86.1">
-      <c r="A28" s="58">
+      <c r="B29" s="52" t="s">
+        <v>540</v>
+      </c>
+      <c r="C29" s="52"/>
+      <c r="D29" s="54"/>
+      <c r="E29" s="54"/>
+      <c r="F29" s="52"/>
+      <c r="G29" s="52"/>
+      <c r="H29" s="52"/>
+      <c r="I29" s="61"/>
+    </row>
+    <row r="30" spans="1:9" s="48" customFormat="1" ht="13.8">
+      <c r="A30" s="58">
+        <f t="shared" ca="1" si="0"/>
         <v>10</v>
       </c>
-      <c r="B28" s="52" t="s">
-        <v>151</v>
-      </c>
-      <c r="C28" s="52" t="s">
-        <v>152</v>
-      </c>
-      <c r="D28" s="54" t="s">
-        <v>153</v>
-      </c>
-      <c r="E28" s="54" t="s">
-        <v>154</v>
-      </c>
-      <c r="F28" s="52" t="s">
-        <v>41</v>
-      </c>
-      <c r="G28" s="52" t="s">
-        <v>41</v>
-      </c>
-      <c r="H28" s="52" t="s">
-        <v>41</v>
-      </c>
-      <c r="I28" s="61"/>
-    </row>
-    <row r="29" spans="1:9" s="48" customFormat="1" ht="13.8">
-      <c r="A29" s="77"/>
-      <c r="B29" s="217" t="s">
-        <v>155</v>
-      </c>
-      <c r="C29" s="218"/>
-      <c r="D29" s="219"/>
-      <c r="E29" s="69"/>
-      <c r="F29" s="66"/>
-      <c r="G29" s="66"/>
-      <c r="H29" s="66"/>
-      <c r="I29" s="69"/>
-    </row>
-    <row r="30" spans="1:9" s="48" customFormat="1" ht="147.6">
-      <c r="A30" s="62">
-        <f ca="1">IF(OFFSET(A30,-1,0) ="",OFFSET(A30,-2,0)+1,OFFSET(A30,-1,0)+1 )</f>
+      <c r="B30" s="52" t="s">
+        <v>541</v>
+      </c>
+      <c r="C30" s="52"/>
+      <c r="D30" s="54"/>
+      <c r="E30" s="54"/>
+      <c r="F30" s="52"/>
+      <c r="G30" s="52"/>
+      <c r="H30" s="52"/>
+      <c r="I30" s="61"/>
+    </row>
+    <row r="31" spans="1:9" s="48" customFormat="1" ht="13.8">
+      <c r="A31" s="58">
+        <f t="shared" ca="1" si="0"/>
         <v>11</v>
       </c>
-      <c r="B30" s="52" t="s">
-        <v>156</v>
-      </c>
-      <c r="C30" s="52" t="s">
-        <v>157</v>
-      </c>
-      <c r="D30" s="53" t="s">
-        <v>158</v>
-      </c>
-      <c r="E30" s="54" t="s">
-        <v>119</v>
-      </c>
-      <c r="F30" s="52" t="s">
-        <v>41</v>
-      </c>
-      <c r="G30" s="52" t="s">
-        <v>41</v>
-      </c>
-      <c r="H30" s="52" t="s">
-        <v>41</v>
-      </c>
-      <c r="I30" s="62"/>
-    </row>
-    <row r="31" spans="1:9" s="48" customFormat="1" ht="94.5" customHeight="1">
-      <c r="A31" s="62">
-        <f ca="1">IF(OFFSET(A31,-1,0) ="",OFFSET(A31,-2,0)+1,OFFSET(A31,-1,0)+1 )</f>
+      <c r="B31" s="52" t="s">
+        <v>542</v>
+      </c>
+      <c r="C31" s="52"/>
+      <c r="D31" s="54"/>
+      <c r="E31" s="54"/>
+      <c r="F31" s="52"/>
+      <c r="G31" s="52"/>
+      <c r="H31" s="52"/>
+      <c r="I31" s="61"/>
+    </row>
+    <row r="32" spans="1:9" s="48" customFormat="1" ht="13.8">
+      <c r="A32" s="58">
+        <f t="shared" ca="1" si="0"/>
         <v>12</v>
       </c>
-      <c r="B31" s="52" t="s">
-        <v>159</v>
-      </c>
-      <c r="C31" s="52" t="s">
-        <v>160</v>
-      </c>
-      <c r="D31" s="59" t="s">
-        <v>161</v>
-      </c>
-      <c r="E31" s="54" t="s">
-        <v>162</v>
-      </c>
-      <c r="F31" s="52" t="s">
-        <v>43</v>
-      </c>
-      <c r="G31" s="52" t="s">
-        <v>41</v>
-      </c>
-      <c r="H31" s="52" t="s">
-        <v>41</v>
-      </c>
-      <c r="I31" s="62"/>
-    </row>
-    <row r="32" spans="1:9" s="48" customFormat="1" ht="61.5">
-      <c r="A32" s="62">
-        <f ca="1">IF(OFFSET(A32,-1,0) ="",OFFSET(A32,-2,0)+1,OFFSET(A32,-1,0)+1 )</f>
+      <c r="B32" s="52" t="s">
+        <v>543</v>
+      </c>
+      <c r="C32" s="52"/>
+      <c r="D32" s="54"/>
+      <c r="E32" s="54"/>
+      <c r="F32" s="52"/>
+      <c r="G32" s="52"/>
+      <c r="H32" s="52"/>
+      <c r="I32" s="61"/>
+    </row>
+    <row r="33" spans="1:9" s="48" customFormat="1" ht="13.8">
+      <c r="A33" s="272"/>
+      <c r="B33" s="269" t="s">
+        <v>533</v>
+      </c>
+      <c r="C33" s="270"/>
+      <c r="D33" s="270"/>
+      <c r="E33" s="270"/>
+      <c r="F33" s="270"/>
+      <c r="G33" s="270"/>
+      <c r="H33" s="270"/>
+      <c r="I33" s="271"/>
+    </row>
+    <row r="34" spans="1:9" s="48" customFormat="1" ht="13.8">
+      <c r="A34" s="58">
+        <f ca="1">IF(OFFSET(A34,-1,0) ="",OFFSET(A34,-2,0)+1,OFFSET(A34,-1,0)+1 )</f>
         <v>13</v>
       </c>
-      <c r="B32" s="52" t="s">
-        <v>163</v>
-      </c>
-      <c r="C32" s="52" t="s">
-        <v>164</v>
-      </c>
-      <c r="D32" s="53" t="s">
-        <v>165</v>
-      </c>
-      <c r="E32" s="54" t="s">
-        <v>123</v>
-      </c>
-      <c r="F32" s="52" t="s">
-        <v>41</v>
-      </c>
-      <c r="G32" s="52" t="s">
-        <v>41</v>
-      </c>
-      <c r="H32" s="52" t="s">
-        <v>41</v>
-      </c>
-      <c r="I32" s="62"/>
-    </row>
-    <row r="33" spans="1:9" s="48" customFormat="1" ht="135.30000000000001">
-      <c r="A33" s="62">
-        <f ca="1">IF(OFFSET(A33,-1,0) ="",OFFSET(A33,-2,0)+1,OFFSET(A33,-1,0)+1 )</f>
+      <c r="B34" s="52" t="s">
+        <v>532</v>
+      </c>
+      <c r="C34" s="52"/>
+      <c r="D34" s="53"/>
+      <c r="E34" s="54"/>
+      <c r="F34" s="52"/>
+      <c r="G34" s="52"/>
+      <c r="H34" s="52"/>
+      <c r="I34" s="62"/>
+    </row>
+    <row r="35" spans="1:9" s="48" customFormat="1" ht="24" customHeight="1">
+      <c r="A35" s="58">
+        <f t="shared" ca="1" si="0"/>
         <v>14</v>
       </c>
-      <c r="B33" s="52" t="s">
-        <v>166</v>
-      </c>
-      <c r="C33" s="52" t="s">
-        <v>167</v>
-      </c>
-      <c r="D33" s="60" t="s">
-        <v>168</v>
-      </c>
-      <c r="E33" s="54" t="s">
-        <v>169</v>
-      </c>
-      <c r="F33" s="52" t="s">
-        <v>41</v>
-      </c>
-      <c r="G33" s="52" t="s">
-        <v>41</v>
-      </c>
-      <c r="H33" s="52" t="s">
-        <v>41</v>
-      </c>
-      <c r="I33" s="62"/>
-    </row>
-    <row r="34" spans="1:9" s="48" customFormat="1" ht="159.9">
-      <c r="A34" s="62">
-        <f ca="1">IF(OFFSET(A34,-1,0) ="",OFFSET(A34,-2,0)+1,OFFSET(A34,-1,0)+1 )</f>
+      <c r="B35" s="52" t="s">
+        <v>559</v>
+      </c>
+      <c r="C35" s="52"/>
+      <c r="D35" s="59"/>
+      <c r="E35" s="54"/>
+      <c r="F35" s="52"/>
+      <c r="G35" s="52"/>
+      <c r="H35" s="52"/>
+      <c r="I35" s="62"/>
+    </row>
+    <row r="36" spans="1:9" s="48" customFormat="1" ht="24" customHeight="1">
+      <c r="A36" s="58"/>
+      <c r="B36" s="52" t="s">
+        <v>558</v>
+      </c>
+      <c r="C36" s="52"/>
+      <c r="D36" s="59"/>
+      <c r="E36" s="54"/>
+      <c r="F36" s="52"/>
+      <c r="G36" s="52"/>
+      <c r="H36" s="52"/>
+      <c r="I36" s="62"/>
+    </row>
+    <row r="37" spans="1:9" s="48" customFormat="1" ht="13.8">
+      <c r="A37" s="58">
+        <f t="shared" ca="1" si="0"/>
         <v>15</v>
       </c>
-      <c r="B34" s="52" t="s">
-        <v>170</v>
-      </c>
-      <c r="C34" s="52" t="s">
-        <v>171</v>
-      </c>
-      <c r="D34" s="54" t="s">
-        <v>172</v>
-      </c>
-      <c r="E34" s="54" t="s">
-        <v>173</v>
-      </c>
-      <c r="F34" s="52" t="s">
-        <v>41</v>
-      </c>
-      <c r="G34" s="52" t="s">
-        <v>41</v>
-      </c>
-      <c r="H34" s="52" t="s">
-        <v>41</v>
-      </c>
-      <c r="I34" s="62"/>
-    </row>
-    <row r="35" spans="1:9" s="48" customFormat="1" ht="13.8">
-      <c r="A35" s="77"/>
-      <c r="B35" s="217" t="s">
-        <v>174</v>
-      </c>
-      <c r="C35" s="218"/>
-      <c r="D35" s="219"/>
-      <c r="E35" s="69"/>
-      <c r="F35" s="66"/>
-      <c r="G35" s="66"/>
-      <c r="H35" s="66"/>
-      <c r="I35" s="69"/>
-    </row>
-    <row r="36" spans="1:9" s="48" customFormat="1" ht="86.1">
-      <c r="A36" s="62">
-        <f t="shared" ref="A36:A84" ca="1" si="0">IF(OFFSET(A36,-1,0) ="",OFFSET(A36,-2,0)+1,OFFSET(A36,-1,0)+1 )</f>
+      <c r="B37" s="52" t="s">
+        <v>544</v>
+      </c>
+      <c r="C37" s="52"/>
+      <c r="D37" s="53"/>
+      <c r="E37" s="54"/>
+      <c r="F37" s="52"/>
+      <c r="G37" s="52"/>
+      <c r="H37" s="52"/>
+      <c r="I37" s="62"/>
+    </row>
+    <row r="38" spans="1:9" s="48" customFormat="1" ht="13.8">
+      <c r="A38" s="58">
+        <f t="shared" ca="1" si="0"/>
         <v>16</v>
       </c>
-      <c r="B36" s="52" t="s">
-        <v>175</v>
-      </c>
-      <c r="C36" s="52" t="s">
-        <v>176</v>
-      </c>
-      <c r="D36" s="53" t="s">
-        <v>177</v>
-      </c>
-      <c r="E36" s="54" t="s">
-        <v>119</v>
-      </c>
-      <c r="F36" s="52" t="s">
-        <v>41</v>
-      </c>
-      <c r="G36" s="52" t="s">
-        <v>41</v>
-      </c>
-      <c r="H36" s="52" t="s">
-        <v>41</v>
-      </c>
-      <c r="I36" s="62"/>
-    </row>
-    <row r="37" spans="1:9" s="48" customFormat="1" ht="13.8">
-      <c r="A37" s="77"/>
-      <c r="B37" s="217" t="s">
-        <v>178</v>
-      </c>
-      <c r="C37" s="218"/>
-      <c r="D37" s="219"/>
-      <c r="E37" s="69"/>
-      <c r="F37" s="66"/>
-      <c r="G37" s="66"/>
-      <c r="H37" s="66"/>
-      <c r="I37" s="69"/>
-    </row>
-    <row r="38" spans="1:9" s="49" customFormat="1" ht="61.5">
-      <c r="A38" s="63">
+      <c r="B38" s="52" t="s">
+        <v>545</v>
+      </c>
+      <c r="C38" s="52"/>
+      <c r="D38" s="53"/>
+      <c r="E38" s="54"/>
+      <c r="F38" s="52"/>
+      <c r="G38" s="52"/>
+      <c r="H38" s="52"/>
+      <c r="I38" s="62"/>
+    </row>
+    <row r="39" spans="1:9" s="48" customFormat="1" ht="13.8">
+      <c r="A39" s="58">
         <f t="shared" ca="1" si="0"/>
         <v>17</v>
       </c>
-      <c r="B38" s="52" t="s">
-        <v>179</v>
-      </c>
-      <c r="C38" s="52" t="s">
-        <v>180</v>
-      </c>
-      <c r="D38" s="53" t="s">
-        <v>181</v>
-      </c>
-      <c r="E38" s="54" t="s">
-        <v>119</v>
-      </c>
-      <c r="F38" s="52" t="s">
-        <v>41</v>
-      </c>
-      <c r="G38" s="52" t="s">
-        <v>41</v>
-      </c>
-      <c r="H38" s="52" t="s">
-        <v>41</v>
-      </c>
-      <c r="I38" s="63"/>
-    </row>
-    <row r="39" spans="1:9" s="48" customFormat="1" ht="86.1">
-      <c r="A39" s="62">
+      <c r="B39" s="52" t="s">
+        <v>546</v>
+      </c>
+      <c r="C39" s="52"/>
+      <c r="D39" s="53"/>
+      <c r="E39" s="54"/>
+      <c r="F39" s="52"/>
+      <c r="G39" s="52"/>
+      <c r="H39" s="52"/>
+      <c r="I39" s="62"/>
+    </row>
+    <row r="40" spans="1:9" s="48" customFormat="1" ht="13.8">
+      <c r="A40" s="58">
         <f t="shared" ca="1" si="0"/>
         <v>18</v>
       </c>
-      <c r="B39" s="52" t="s">
-        <v>182</v>
-      </c>
-      <c r="C39" s="52" t="s">
-        <v>183</v>
-      </c>
-      <c r="D39" s="54" t="s">
-        <v>184</v>
-      </c>
-      <c r="E39" s="54" t="s">
-        <v>185</v>
-      </c>
-      <c r="F39" s="52" t="s">
-        <v>41</v>
-      </c>
-      <c r="G39" s="52" t="s">
-        <v>41</v>
-      </c>
-      <c r="H39" s="52" t="s">
-        <v>41</v>
-      </c>
-      <c r="I39" s="62"/>
-    </row>
-    <row r="40" spans="1:9" s="48" customFormat="1" ht="73.8">
-      <c r="A40" s="62">
+      <c r="B40" s="52" t="s">
+        <v>547</v>
+      </c>
+      <c r="C40" s="52"/>
+      <c r="D40" s="53"/>
+      <c r="E40" s="54"/>
+      <c r="F40" s="52"/>
+      <c r="G40" s="52"/>
+      <c r="H40" s="52"/>
+      <c r="I40" s="62"/>
+    </row>
+    <row r="41" spans="1:9" s="48" customFormat="1" ht="13.8">
+      <c r="A41" s="58">
         <f t="shared" ca="1" si="0"/>
         <v>19</v>
       </c>
-      <c r="B40" s="52" t="s">
-        <v>186</v>
-      </c>
-      <c r="C40" s="52" t="s">
-        <v>187</v>
-      </c>
-      <c r="D40" s="54" t="s">
-        <v>188</v>
-      </c>
-      <c r="E40" s="54" t="s">
-        <v>189</v>
-      </c>
-      <c r="F40" s="52" t="s">
-        <v>41</v>
-      </c>
-      <c r="G40" s="52" t="s">
-        <v>41</v>
-      </c>
-      <c r="H40" s="52" t="s">
-        <v>41</v>
-      </c>
-      <c r="I40" s="62"/>
-    </row>
-    <row r="41" spans="1:9" s="48" customFormat="1" ht="73.8">
-      <c r="A41" s="62">
+      <c r="B41" s="52" t="s">
+        <v>548</v>
+      </c>
+      <c r="C41" s="52"/>
+      <c r="D41" s="53"/>
+      <c r="E41" s="54"/>
+      <c r="F41" s="52"/>
+      <c r="G41" s="52"/>
+      <c r="H41" s="52"/>
+      <c r="I41" s="62"/>
+    </row>
+    <row r="42" spans="1:9" s="49" customFormat="1" ht="13.8">
+      <c r="A42" s="280"/>
+      <c r="B42" s="293" t="s">
+        <v>549</v>
+      </c>
+      <c r="C42" s="281"/>
+      <c r="D42" s="281"/>
+      <c r="E42" s="281"/>
+      <c r="F42" s="281"/>
+      <c r="G42" s="281"/>
+      <c r="H42" s="281"/>
+      <c r="I42" s="282"/>
+    </row>
+    <row r="43" spans="1:9" s="48" customFormat="1" ht="13.8">
+      <c r="A43" s="58">
         <f t="shared" ca="1" si="0"/>
         <v>20</v>
       </c>
-      <c r="B41" s="52" t="s">
-        <v>190</v>
-      </c>
-      <c r="C41" s="52" t="s">
-        <v>191</v>
-      </c>
-      <c r="D41" s="54" t="s">
-        <v>192</v>
-      </c>
-      <c r="E41" s="60" t="s">
-        <v>193</v>
-      </c>
-      <c r="F41" s="52" t="s">
-        <v>41</v>
-      </c>
-      <c r="G41" s="52" t="s">
-        <v>41</v>
-      </c>
-      <c r="H41" s="52" t="s">
-        <v>41</v>
-      </c>
-      <c r="I41" s="62"/>
-    </row>
-    <row r="42" spans="1:9" s="48" customFormat="1" ht="159.9">
-      <c r="A42" s="62">
+      <c r="B43" s="52" t="s">
+        <v>532</v>
+      </c>
+      <c r="C43" s="52"/>
+      <c r="D43" s="53"/>
+      <c r="E43" s="54"/>
+      <c r="F43" s="52"/>
+      <c r="G43" s="52"/>
+      <c r="H43" s="52"/>
+      <c r="I43" s="62"/>
+    </row>
+    <row r="44" spans="1:9" s="48" customFormat="1" ht="13.8">
+      <c r="A44" s="58">
         <f t="shared" ca="1" si="0"/>
         <v>21</v>
       </c>
-      <c r="B42" s="52" t="s">
-        <v>194</v>
-      </c>
-      <c r="C42" s="52" t="s">
-        <v>195</v>
-      </c>
-      <c r="D42" s="54" t="s">
-        <v>196</v>
-      </c>
-      <c r="E42" s="54" t="s">
-        <v>197</v>
-      </c>
-      <c r="F42" s="52" t="s">
-        <v>43</v>
-      </c>
-      <c r="G42" s="52" t="s">
-        <v>41</v>
-      </c>
-      <c r="H42" s="52" t="s">
-        <v>41</v>
-      </c>
-      <c r="I42" s="62"/>
-    </row>
-    <row r="43" spans="1:9" s="48" customFormat="1" ht="172.2">
-      <c r="A43" s="62">
+      <c r="B44" s="52" t="s">
+        <v>553</v>
+      </c>
+      <c r="C44" s="52"/>
+      <c r="D44" s="53"/>
+      <c r="E44" s="54"/>
+      <c r="F44" s="52"/>
+      <c r="G44" s="52"/>
+      <c r="H44" s="52"/>
+      <c r="I44" s="62"/>
+    </row>
+    <row r="45" spans="1:9" s="48" customFormat="1" ht="13.8">
+      <c r="A45" s="58">
         <f t="shared" ca="1" si="0"/>
         <v>22</v>
       </c>
-      <c r="B43" s="52" t="s">
-        <v>198</v>
-      </c>
-      <c r="C43" s="52" t="s">
-        <v>199</v>
-      </c>
-      <c r="D43" s="54" t="s">
-        <v>200</v>
-      </c>
-      <c r="E43" s="54" t="s">
-        <v>201</v>
-      </c>
-      <c r="F43" s="52" t="s">
-        <v>43</v>
-      </c>
-      <c r="G43" s="52" t="s">
-        <v>41</v>
-      </c>
-      <c r="H43" s="52" t="s">
-        <v>41</v>
-      </c>
-      <c r="I43" s="62"/>
-    </row>
-    <row r="44" spans="1:9" s="48" customFormat="1" ht="172.2">
-      <c r="A44" s="62">
+      <c r="B45" s="52" t="s">
+        <v>550</v>
+      </c>
+      <c r="C45" s="52"/>
+      <c r="D45" s="53"/>
+      <c r="E45" s="54"/>
+      <c r="F45" s="52"/>
+      <c r="G45" s="52"/>
+      <c r="H45" s="52"/>
+      <c r="I45" s="62"/>
+    </row>
+    <row r="46" spans="1:9" s="48" customFormat="1" ht="13.8">
+      <c r="A46" s="58">
         <f t="shared" ca="1" si="0"/>
         <v>23</v>
       </c>
-      <c r="B44" s="52" t="s">
-        <v>202</v>
-      </c>
-      <c r="C44" s="52" t="s">
-        <v>203</v>
-      </c>
-      <c r="D44" s="54" t="s">
-        <v>204</v>
-      </c>
-      <c r="E44" s="54" t="s">
-        <v>205</v>
-      </c>
-      <c r="F44" s="52" t="s">
-        <v>41</v>
-      </c>
-      <c r="G44" s="52" t="s">
-        <v>41</v>
-      </c>
-      <c r="H44" s="52" t="s">
-        <v>41</v>
-      </c>
-      <c r="I44" s="62"/>
-    </row>
-    <row r="45" spans="1:9" s="48" customFormat="1" ht="98.4">
-      <c r="A45" s="62">
-        <f ca="1">IF(OFFSET(A45,-1,0) ="",OFFSET(A45,-2,0)+1,OFFSET(A45,-1,0)+1 )</f>
+      <c r="B46" s="52" t="s">
+        <v>551</v>
+      </c>
+      <c r="C46" s="52"/>
+      <c r="D46" s="53"/>
+      <c r="E46" s="54"/>
+      <c r="F46" s="52"/>
+      <c r="G46" s="52"/>
+      <c r="H46" s="52"/>
+      <c r="I46" s="62"/>
+    </row>
+    <row r="47" spans="1:9" s="48" customFormat="1" ht="13.8">
+      <c r="A47" s="58">
+        <f t="shared" ca="1" si="0"/>
         <v>24</v>
       </c>
-      <c r="B45" s="52" t="s">
-        <v>206</v>
-      </c>
-      <c r="C45" s="52" t="s">
-        <v>207</v>
-      </c>
-      <c r="D45" s="54" t="s">
-        <v>208</v>
-      </c>
-      <c r="E45" s="54" t="s">
-        <v>209</v>
-      </c>
-      <c r="F45" s="52" t="s">
-        <v>43</v>
-      </c>
-      <c r="G45" s="52" t="s">
-        <v>41</v>
-      </c>
-      <c r="H45" s="52" t="s">
-        <v>41</v>
-      </c>
-      <c r="I45" s="62"/>
-    </row>
-    <row r="46" spans="1:9" s="48" customFormat="1" ht="61.5">
-      <c r="A46" s="62">
+      <c r="B47" s="52" t="s">
+        <v>552</v>
+      </c>
+      <c r="C47" s="52"/>
+      <c r="D47" s="53"/>
+      <c r="E47" s="54"/>
+      <c r="F47" s="52"/>
+      <c r="G47" s="52"/>
+      <c r="H47" s="52"/>
+      <c r="I47" s="62"/>
+    </row>
+    <row r="48" spans="1:9" s="48" customFormat="1" ht="13.8">
+      <c r="A48" s="280"/>
+      <c r="B48" s="293" t="s">
+        <v>554</v>
+      </c>
+      <c r="C48" s="281"/>
+      <c r="D48" s="281"/>
+      <c r="E48" s="281"/>
+      <c r="F48" s="281"/>
+      <c r="G48" s="281"/>
+      <c r="H48" s="281"/>
+      <c r="I48" s="282"/>
+    </row>
+    <row r="49" spans="1:9" s="48" customFormat="1" ht="13.8">
+      <c r="A49" s="58">
         <f t="shared" ca="1" si="0"/>
         <v>25</v>
       </c>
-      <c r="B46" s="52" t="s">
-        <v>210</v>
-      </c>
-      <c r="C46" s="52" t="s">
-        <v>211</v>
-      </c>
-      <c r="D46" s="60" t="s">
-        <v>212</v>
-      </c>
-      <c r="E46" s="54" t="s">
-        <v>213</v>
-      </c>
-      <c r="F46" s="52" t="s">
-        <v>41</v>
-      </c>
-      <c r="G46" s="52" t="s">
-        <v>41</v>
-      </c>
-      <c r="H46" s="52" t="s">
-        <v>41</v>
-      </c>
-      <c r="I46" s="62"/>
-    </row>
-    <row r="47" spans="1:9" s="48" customFormat="1" ht="13.8">
-      <c r="A47" s="77"/>
-      <c r="B47" s="217" t="s">
-        <v>214</v>
-      </c>
-      <c r="C47" s="218"/>
-      <c r="D47" s="219"/>
-      <c r="E47" s="69"/>
-      <c r="F47" s="66"/>
-      <c r="G47" s="66"/>
-      <c r="H47" s="66"/>
-      <c r="I47" s="69"/>
-    </row>
-    <row r="48" spans="1:9" s="48" customFormat="1" ht="73.8">
-      <c r="A48" s="62">
+      <c r="B49" s="52" t="s">
+        <v>532</v>
+      </c>
+      <c r="C49" s="52"/>
+      <c r="D49" s="53"/>
+      <c r="E49" s="54"/>
+      <c r="F49" s="52"/>
+      <c r="G49" s="52"/>
+      <c r="H49" s="52"/>
+      <c r="I49" s="62"/>
+    </row>
+    <row r="50" spans="1:9" s="48" customFormat="1" ht="13.8">
+      <c r="A50" s="58">
         <f t="shared" ca="1" si="0"/>
         <v>26</v>
       </c>
-      <c r="B48" s="52" t="s">
-        <v>215</v>
-      </c>
-      <c r="C48" s="52" t="s">
-        <v>216</v>
-      </c>
-      <c r="D48" s="53" t="s">
-        <v>217</v>
-      </c>
-      <c r="E48" s="54" t="s">
-        <v>119</v>
-      </c>
-      <c r="F48" s="52" t="s">
-        <v>41</v>
-      </c>
-      <c r="G48" s="52" t="s">
-        <v>41</v>
-      </c>
-      <c r="H48" s="52" t="s">
-        <v>41</v>
-      </c>
-      <c r="I48" s="62"/>
-    </row>
-    <row r="49" spans="1:9" s="48" customFormat="1" ht="135.30000000000001">
-      <c r="A49" s="62">
+      <c r="B50" s="52" t="s">
+        <v>555</v>
+      </c>
+      <c r="C50" s="52"/>
+      <c r="D50" s="53"/>
+      <c r="E50" s="54"/>
+      <c r="F50" s="52"/>
+      <c r="G50" s="52"/>
+      <c r="H50" s="52"/>
+      <c r="I50" s="62"/>
+    </row>
+    <row r="51" spans="1:9" s="48" customFormat="1" ht="13.8">
+      <c r="A51" s="58">
         <f t="shared" ca="1" si="0"/>
         <v>27</v>
       </c>
-      <c r="B49" s="52" t="s">
-        <v>218</v>
-      </c>
-      <c r="C49" s="52" t="s">
-        <v>219</v>
-      </c>
-      <c r="D49" s="54" t="s">
-        <v>220</v>
-      </c>
-      <c r="E49" s="54" t="s">
-        <v>221</v>
-      </c>
-      <c r="F49" s="52" t="s">
-        <v>41</v>
-      </c>
-      <c r="G49" s="52" t="s">
-        <v>41</v>
-      </c>
-      <c r="H49" s="52" t="s">
-        <v>41</v>
-      </c>
-      <c r="I49" s="62"/>
-    </row>
-    <row r="50" spans="1:9" s="48" customFormat="1" ht="147.6">
-      <c r="A50" s="62">
+      <c r="B51" s="52" t="s">
+        <v>556</v>
+      </c>
+      <c r="C51" s="52"/>
+      <c r="D51" s="53"/>
+      <c r="E51" s="54"/>
+      <c r="F51" s="52"/>
+      <c r="G51" s="52"/>
+      <c r="H51" s="52"/>
+      <c r="I51" s="62"/>
+    </row>
+    <row r="52" spans="1:9" s="48" customFormat="1" ht="13.8">
+      <c r="A52" s="280"/>
+      <c r="B52" s="293" t="s">
+        <v>557</v>
+      </c>
+      <c r="C52" s="281"/>
+      <c r="D52" s="281"/>
+      <c r="E52" s="281"/>
+      <c r="F52" s="281"/>
+      <c r="G52" s="281"/>
+      <c r="H52" s="281"/>
+      <c r="I52" s="282"/>
+    </row>
+    <row r="53" spans="1:9" s="48" customFormat="1" ht="13.8">
+      <c r="A53" s="58">
         <f t="shared" ca="1" si="0"/>
         <v>28</v>
       </c>
-      <c r="B50" s="52" t="s">
-        <v>222</v>
-      </c>
-      <c r="C50" s="52" t="s">
-        <v>223</v>
-      </c>
-      <c r="D50" s="54" t="s">
-        <v>200</v>
-      </c>
-      <c r="E50" s="54" t="s">
-        <v>224</v>
-      </c>
-      <c r="F50" s="52" t="s">
-        <v>41</v>
-      </c>
-      <c r="G50" s="52" t="s">
-        <v>41</v>
-      </c>
-      <c r="H50" s="52" t="s">
-        <v>41</v>
-      </c>
-      <c r="I50" s="62"/>
-    </row>
-    <row r="51" spans="1:9" s="48" customFormat="1" ht="86.1">
-      <c r="A51" s="62">
+      <c r="B53" s="52" t="s">
+        <v>532</v>
+      </c>
+      <c r="C53" s="52"/>
+      <c r="D53" s="53"/>
+      <c r="E53" s="54"/>
+      <c r="F53" s="52"/>
+      <c r="G53" s="52"/>
+      <c r="H53" s="52"/>
+      <c r="I53" s="62"/>
+    </row>
+    <row r="54" spans="1:9" s="48" customFormat="1" ht="13.8">
+      <c r="A54" s="58">
         <f t="shared" ca="1" si="0"/>
         <v>29</v>
       </c>
-      <c r="B51" s="52" t="s">
-        <v>225</v>
-      </c>
-      <c r="C51" s="52" t="s">
-        <v>226</v>
-      </c>
-      <c r="D51" s="54" t="s">
-        <v>227</v>
-      </c>
-      <c r="E51" s="54" t="s">
-        <v>228</v>
-      </c>
-      <c r="F51" s="52" t="s">
-        <v>41</v>
-      </c>
-      <c r="G51" s="52" t="s">
-        <v>41</v>
-      </c>
-      <c r="H51" s="52" t="s">
-        <v>41</v>
-      </c>
-      <c r="I51" s="62"/>
-    </row>
-    <row r="52" spans="1:9" s="48" customFormat="1" ht="13.8">
-      <c r="A52" s="77"/>
-      <c r="B52" s="217" t="s">
-        <v>229</v>
-      </c>
-      <c r="C52" s="218"/>
-      <c r="D52" s="219"/>
-      <c r="E52" s="69"/>
-      <c r="F52" s="66"/>
-      <c r="G52" s="66"/>
-      <c r="H52" s="66"/>
-      <c r="I52" s="69"/>
-    </row>
-    <row r="53" spans="1:9" s="48" customFormat="1" ht="49.2">
-      <c r="A53" s="62">
+      <c r="B54" s="52" t="s">
+        <v>560</v>
+      </c>
+      <c r="C54" s="52"/>
+      <c r="D54" s="53"/>
+      <c r="E54" s="54"/>
+      <c r="F54" s="52"/>
+      <c r="G54" s="52"/>
+      <c r="H54" s="52"/>
+      <c r="I54" s="62"/>
+    </row>
+    <row r="55" spans="1:9" s="48" customFormat="1" ht="13.8">
+      <c r="A55" s="58">
         <f t="shared" ca="1" si="0"/>
         <v>30</v>
       </c>
-      <c r="B53" s="52" t="s">
-        <v>230</v>
-      </c>
-      <c r="C53" s="52" t="s">
-        <v>231</v>
-      </c>
-      <c r="D53" s="53" t="s">
-        <v>232</v>
-      </c>
-      <c r="E53" s="54" t="s">
-        <v>119</v>
-      </c>
-      <c r="F53" s="52" t="s">
-        <v>41</v>
-      </c>
-      <c r="G53" s="52" t="s">
-        <v>41</v>
-      </c>
-      <c r="H53" s="52" t="s">
-        <v>41</v>
-      </c>
-      <c r="I53" s="62"/>
-    </row>
-    <row r="54" spans="1:9" s="48" customFormat="1" ht="98.4">
-      <c r="A54" s="62">
+      <c r="B55" s="52" t="s">
+        <v>561</v>
+      </c>
+      <c r="C55" s="52"/>
+      <c r="D55" s="53"/>
+      <c r="E55" s="54"/>
+      <c r="F55" s="52"/>
+      <c r="G55" s="52"/>
+      <c r="H55" s="52"/>
+      <c r="I55" s="62"/>
+    </row>
+    <row r="56" spans="1:9" s="48" customFormat="1" ht="13.8">
+      <c r="A56" s="58">
         <f t="shared" ca="1" si="0"/>
         <v>31</v>
       </c>
-      <c r="B54" s="52" t="s">
-        <v>233</v>
-      </c>
-      <c r="C54" s="52" t="s">
-        <v>234</v>
-      </c>
-      <c r="D54" s="54" t="s">
-        <v>235</v>
-      </c>
-      <c r="E54" s="60" t="s">
-        <v>236</v>
-      </c>
-      <c r="F54" s="52" t="s">
-        <v>41</v>
-      </c>
-      <c r="G54" s="52" t="s">
-        <v>41</v>
-      </c>
-      <c r="H54" s="52" t="s">
-        <v>41</v>
-      </c>
-      <c r="I54" s="62"/>
-    </row>
-    <row r="55" spans="1:9" s="48" customFormat="1" ht="61.5">
-      <c r="A55" s="62">
+      <c r="B56" s="52" t="s">
+        <v>562</v>
+      </c>
+      <c r="C56" s="52"/>
+      <c r="D56" s="53"/>
+      <c r="E56" s="54"/>
+      <c r="F56" s="52"/>
+      <c r="G56" s="52"/>
+      <c r="H56" s="52"/>
+      <c r="I56" s="62"/>
+    </row>
+    <row r="57" spans="1:9" s="48" customFormat="1" ht="13.8">
+      <c r="A57" s="58">
         <f t="shared" ca="1" si="0"/>
         <v>32</v>
       </c>
-      <c r="B55" s="52" t="s">
-        <v>237</v>
-      </c>
-      <c r="C55" s="52" t="s">
-        <v>238</v>
-      </c>
-      <c r="D55" s="60" t="s">
-        <v>239</v>
-      </c>
-      <c r="E55" s="54" t="s">
-        <v>240</v>
-      </c>
-      <c r="F55" s="52" t="s">
-        <v>41</v>
-      </c>
-      <c r="G55" s="52" t="s">
-        <v>41</v>
-      </c>
-      <c r="H55" s="52" t="s">
-        <v>41</v>
-      </c>
-      <c r="I55" s="62"/>
-    </row>
-    <row r="56" spans="1:9" s="48" customFormat="1" ht="13.8">
-      <c r="A56" s="77"/>
-      <c r="B56" s="217" t="s">
-        <v>241</v>
-      </c>
-      <c r="C56" s="218"/>
-      <c r="D56" s="219"/>
-      <c r="E56" s="69"/>
-      <c r="F56" s="66"/>
-      <c r="G56" s="66"/>
-      <c r="H56" s="66"/>
-      <c r="I56" s="69"/>
-    </row>
-    <row r="57" spans="1:9" s="48" customFormat="1" ht="61.5">
-      <c r="A57" s="62">
+      <c r="B57" s="52" t="s">
+        <v>563</v>
+      </c>
+      <c r="C57" s="52"/>
+      <c r="D57" s="53"/>
+      <c r="E57" s="54"/>
+      <c r="F57" s="52"/>
+      <c r="G57" s="52"/>
+      <c r="H57" s="52"/>
+      <c r="I57" s="62"/>
+    </row>
+    <row r="58" spans="1:9" s="48" customFormat="1" ht="13.8">
+      <c r="A58" s="58">
         <f t="shared" ca="1" si="0"/>
         <v>33</v>
       </c>
-      <c r="B57" s="52" t="s">
-        <v>242</v>
-      </c>
-      <c r="C57" s="52" t="s">
-        <v>243</v>
-      </c>
-      <c r="D57" s="53" t="s">
-        <v>244</v>
-      </c>
-      <c r="E57" s="54" t="s">
-        <v>119</v>
-      </c>
-      <c r="F57" s="52" t="s">
-        <v>41</v>
-      </c>
-      <c r="G57" s="52" t="s">
-        <v>41</v>
-      </c>
-      <c r="H57" s="52" t="s">
-        <v>41</v>
-      </c>
-      <c r="I57" s="62"/>
-    </row>
-    <row r="58" spans="1:9" s="48" customFormat="1" ht="98.4">
-      <c r="A58" s="62">
+      <c r="B58" s="52" t="s">
+        <v>564</v>
+      </c>
+      <c r="C58" s="52"/>
+      <c r="D58" s="53"/>
+      <c r="E58" s="54"/>
+      <c r="F58" s="52"/>
+      <c r="G58" s="52"/>
+      <c r="H58" s="52"/>
+      <c r="I58" s="62"/>
+    </row>
+    <row r="59" spans="1:9" s="48" customFormat="1" ht="13.8">
+      <c r="A59" s="58">
         <f t="shared" ca="1" si="0"/>
         <v>34</v>
       </c>
-      <c r="B58" s="52" t="s">
-        <v>245</v>
-      </c>
-      <c r="C58" s="52" t="s">
-        <v>246</v>
-      </c>
-      <c r="D58" s="54" t="s">
-        <v>247</v>
-      </c>
-      <c r="E58" s="60" t="s">
-        <v>248</v>
-      </c>
-      <c r="F58" s="52" t="s">
-        <v>43</v>
-      </c>
-      <c r="G58" s="52" t="s">
-        <v>43</v>
-      </c>
-      <c r="H58" s="52" t="s">
-        <v>41</v>
-      </c>
-      <c r="I58" s="62"/>
-    </row>
-    <row r="59" spans="1:9" s="48" customFormat="1" ht="98.4">
-      <c r="A59" s="62">
+      <c r="B59" s="52" t="s">
+        <v>565</v>
+      </c>
+      <c r="C59" s="52"/>
+      <c r="D59" s="53"/>
+      <c r="E59" s="54"/>
+      <c r="F59" s="52"/>
+      <c r="G59" s="52"/>
+      <c r="H59" s="52"/>
+      <c r="I59" s="62"/>
+    </row>
+    <row r="60" spans="1:9" s="48" customFormat="1" ht="13.8">
+      <c r="A60" s="280"/>
+      <c r="B60" s="293" t="s">
+        <v>566</v>
+      </c>
+      <c r="C60" s="281"/>
+      <c r="D60" s="281"/>
+      <c r="E60" s="281"/>
+      <c r="F60" s="281"/>
+      <c r="G60" s="281"/>
+      <c r="H60" s="281"/>
+      <c r="I60" s="282"/>
+    </row>
+    <row r="61" spans="1:9" s="48" customFormat="1" ht="13.8">
+      <c r="A61" s="58">
         <f t="shared" ca="1" si="0"/>
         <v>35</v>
       </c>
-      <c r="B59" s="52" t="s">
-        <v>249</v>
-      </c>
-      <c r="C59" s="52" t="s">
-        <v>250</v>
-      </c>
-      <c r="D59" s="54" t="s">
-        <v>251</v>
-      </c>
-      <c r="E59" s="60" t="s">
-        <v>123</v>
-      </c>
-      <c r="F59" s="52" t="s">
-        <v>43</v>
-      </c>
-      <c r="G59" s="52" t="s">
-        <v>43</v>
-      </c>
-      <c r="H59" s="52" t="s">
-        <v>41</v>
-      </c>
-      <c r="I59" s="62"/>
-    </row>
-    <row r="60" spans="1:9" s="48" customFormat="1" ht="86.1">
-      <c r="A60" s="62">
+      <c r="B61" s="52" t="s">
+        <v>567</v>
+      </c>
+      <c r="C61" s="52"/>
+      <c r="D61" s="53"/>
+      <c r="E61" s="54"/>
+      <c r="F61" s="52"/>
+      <c r="G61" s="52"/>
+      <c r="H61" s="52"/>
+      <c r="I61" s="62"/>
+    </row>
+    <row r="62" spans="1:9" s="48" customFormat="1" ht="13.8">
+      <c r="A62" s="58">
         <f t="shared" ca="1" si="0"/>
         <v>36</v>
       </c>
-      <c r="B60" s="52" t="s">
-        <v>252</v>
-      </c>
-      <c r="C60" s="52" t="s">
-        <v>253</v>
-      </c>
-      <c r="D60" s="54" t="s">
-        <v>254</v>
-      </c>
-      <c r="E60" s="60" t="s">
-        <v>255</v>
-      </c>
-      <c r="F60" s="52" t="s">
-        <v>41</v>
-      </c>
-      <c r="G60" s="52" t="s">
-        <v>41</v>
-      </c>
-      <c r="H60" s="52" t="s">
-        <v>41</v>
-      </c>
-      <c r="I60" s="62"/>
-    </row>
-    <row r="61" spans="1:9" s="48" customFormat="1" ht="98.4">
-      <c r="A61" s="62">
-        <f t="shared" ca="1" si="0"/>
+      <c r="B62" s="52" t="s">
+        <v>568</v>
+      </c>
+      <c r="C62" s="52"/>
+      <c r="D62" s="53"/>
+      <c r="E62" s="54"/>
+      <c r="F62" s="52"/>
+      <c r="G62" s="52"/>
+      <c r="H62" s="52"/>
+      <c r="I62" s="62"/>
+    </row>
+    <row r="63" spans="1:9" s="48" customFormat="1" ht="13.8">
+      <c r="A63" s="67"/>
+      <c r="B63" s="218" t="s">
+        <v>569</v>
+      </c>
+      <c r="C63" s="219"/>
+      <c r="D63" s="219"/>
+      <c r="E63" s="219"/>
+      <c r="F63" s="219"/>
+      <c r="G63" s="219"/>
+      <c r="H63" s="219"/>
+      <c r="I63" s="220"/>
+    </row>
+    <row r="64" spans="1:9" s="48" customFormat="1" ht="13.8">
+      <c r="A64" s="280"/>
+      <c r="B64" s="293" t="s">
+        <v>570</v>
+      </c>
+      <c r="C64" s="281"/>
+      <c r="D64" s="281"/>
+      <c r="E64" s="281"/>
+      <c r="F64" s="281"/>
+      <c r="G64" s="281"/>
+      <c r="H64" s="281"/>
+      <c r="I64" s="282"/>
+    </row>
+    <row r="65" spans="1:9" s="48" customFormat="1" ht="13.8">
+      <c r="A65" s="58">
         <v>37</v>
       </c>
-      <c r="B61" s="52" t="s">
-        <v>256</v>
-      </c>
-      <c r="C61" s="52" t="s">
-        <v>257</v>
-      </c>
-      <c r="D61" s="54" t="s">
-        <v>258</v>
-      </c>
-      <c r="E61" s="54" t="s">
-        <v>259</v>
-      </c>
-      <c r="F61" s="52" t="s">
-        <v>41</v>
-      </c>
-      <c r="G61" s="52" t="s">
-        <v>41</v>
-      </c>
-      <c r="H61" s="52" t="s">
-        <v>41</v>
-      </c>
-      <c r="I61" s="62"/>
-    </row>
-    <row r="62" spans="1:9" s="48" customFormat="1" ht="86.1">
-      <c r="A62" s="62">
+      <c r="B65" s="52" t="s">
+        <v>571</v>
+      </c>
+      <c r="C65" s="52"/>
+      <c r="D65" s="53"/>
+      <c r="E65" s="54"/>
+      <c r="F65" s="52"/>
+      <c r="G65" s="52"/>
+      <c r="H65" s="52"/>
+      <c r="I65" s="62"/>
+    </row>
+    <row r="66" spans="1:9" s="48" customFormat="1" ht="13.8">
+      <c r="A66" s="58">
         <f t="shared" ca="1" si="0"/>
         <v>38</v>
       </c>
-      <c r="B62" s="52" t="s">
-        <v>260</v>
-      </c>
-      <c r="C62" s="52" t="s">
-        <v>261</v>
-      </c>
-      <c r="D62" s="54" t="s">
-        <v>262</v>
-      </c>
-      <c r="E62" s="54" t="s">
-        <v>263</v>
-      </c>
-      <c r="F62" s="52" t="s">
-        <v>41</v>
-      </c>
-      <c r="G62" s="52" t="s">
-        <v>41</v>
-      </c>
-      <c r="H62" s="52" t="s">
-        <v>41</v>
-      </c>
-      <c r="I62" s="62"/>
-    </row>
-    <row r="63" spans="1:9" s="48" customFormat="1" ht="86.1">
-      <c r="A63" s="62">
+      <c r="B66" s="52" t="s">
+        <v>572</v>
+      </c>
+      <c r="C66" s="52"/>
+      <c r="D66" s="60"/>
+      <c r="E66" s="54"/>
+      <c r="F66" s="52"/>
+      <c r="G66" s="52"/>
+      <c r="H66" s="52"/>
+      <c r="I66" s="62"/>
+    </row>
+    <row r="67" spans="1:9" s="48" customFormat="1" ht="13.8">
+      <c r="A67" s="58">
         <f t="shared" ca="1" si="0"/>
         <v>39</v>
       </c>
-      <c r="B63" s="52" t="s">
-        <v>264</v>
-      </c>
-      <c r="C63" s="52" t="s">
-        <v>265</v>
-      </c>
-      <c r="D63" s="60" t="s">
-        <v>266</v>
-      </c>
-      <c r="E63" s="54" t="s">
-        <v>267</v>
-      </c>
-      <c r="F63" s="52" t="s">
-        <v>41</v>
-      </c>
-      <c r="G63" s="52" t="s">
-        <v>41</v>
-      </c>
-      <c r="H63" s="52" t="s">
-        <v>41</v>
-      </c>
-      <c r="I63" s="62"/>
-    </row>
-    <row r="64" spans="1:9" s="48" customFormat="1" ht="61.5">
-      <c r="A64" s="62">
+      <c r="B67" s="52" t="s">
+        <v>573</v>
+      </c>
+      <c r="C67" s="52"/>
+      <c r="D67" s="54"/>
+      <c r="E67" s="54"/>
+      <c r="F67" s="52"/>
+      <c r="G67" s="52"/>
+      <c r="H67" s="52"/>
+      <c r="I67" s="62"/>
+    </row>
+    <row r="68" spans="1:9" s="48" customFormat="1" ht="13.8">
+      <c r="A68" s="58">
         <f t="shared" ca="1" si="0"/>
         <v>40</v>
       </c>
-      <c r="B64" s="52" t="s">
-        <v>268</v>
-      </c>
-      <c r="C64" s="52" t="s">
-        <v>269</v>
-      </c>
-      <c r="D64" s="60" t="s">
-        <v>270</v>
-      </c>
-      <c r="E64" s="54" t="s">
-        <v>271</v>
-      </c>
-      <c r="F64" s="52" t="s">
-        <v>43</v>
-      </c>
-      <c r="G64" s="52" t="s">
-        <v>43</v>
-      </c>
-      <c r="H64" s="52" t="s">
-        <v>41</v>
-      </c>
-      <c r="I64" s="62"/>
-    </row>
-    <row r="65" spans="1:9" s="48" customFormat="1" ht="86.1">
-      <c r="A65" s="62">
+      <c r="B68" s="52" t="s">
+        <v>574</v>
+      </c>
+      <c r="C68" s="283"/>
+      <c r="D68" s="283"/>
+      <c r="E68" s="284"/>
+      <c r="F68" s="173"/>
+      <c r="G68" s="173"/>
+      <c r="H68" s="173"/>
+      <c r="I68" s="172"/>
+    </row>
+    <row r="69" spans="1:9" s="48" customFormat="1" ht="13.8">
+      <c r="A69" s="58">
         <f t="shared" ca="1" si="0"/>
         <v>41</v>
       </c>
-      <c r="B65" s="52" t="s">
-        <v>272</v>
-      </c>
-      <c r="C65" s="52" t="s">
-        <v>273</v>
-      </c>
-      <c r="D65" s="60" t="s">
-        <v>274</v>
-      </c>
-      <c r="E65" s="54" t="s">
-        <v>275</v>
-      </c>
-      <c r="F65" s="52" t="s">
-        <v>41</v>
-      </c>
-      <c r="G65" s="52" t="s">
-        <v>41</v>
-      </c>
-      <c r="H65" s="52" t="s">
-        <v>41</v>
-      </c>
-      <c r="I65" s="62"/>
-    </row>
-    <row r="66" spans="1:9" s="48" customFormat="1" ht="110.7">
-      <c r="A66" s="62">
+      <c r="B69" s="52" t="s">
+        <v>579</v>
+      </c>
+      <c r="C69" s="283"/>
+      <c r="D69" s="283"/>
+      <c r="E69" s="284"/>
+      <c r="F69" s="173"/>
+      <c r="G69" s="173"/>
+      <c r="H69" s="173"/>
+      <c r="I69" s="172"/>
+    </row>
+    <row r="70" spans="1:9" s="48" customFormat="1" ht="13.8">
+      <c r="A70" s="58">
         <f t="shared" ca="1" si="0"/>
         <v>42</v>
       </c>
-      <c r="B66" s="52" t="s">
-        <v>276</v>
-      </c>
-      <c r="C66" s="52" t="s">
-        <v>277</v>
-      </c>
-      <c r="D66" s="54" t="s">
-        <v>278</v>
-      </c>
-      <c r="E66" s="60" t="s">
-        <v>279</v>
-      </c>
-      <c r="F66" s="52" t="s">
-        <v>41</v>
-      </c>
-      <c r="G66" s="52" t="s">
-        <v>41</v>
-      </c>
-      <c r="H66" s="52" t="s">
-        <v>41</v>
-      </c>
-      <c r="I66" s="62"/>
-    </row>
-    <row r="67" spans="1:9" s="48" customFormat="1" ht="110.7">
-      <c r="A67" s="62">
+      <c r="B70" s="52" t="s">
+        <v>580</v>
+      </c>
+      <c r="C70" s="283"/>
+      <c r="D70" s="283"/>
+      <c r="E70" s="284"/>
+      <c r="F70" s="173"/>
+      <c r="G70" s="173"/>
+      <c r="H70" s="173"/>
+      <c r="I70" s="172"/>
+    </row>
+    <row r="71" spans="1:9" s="48" customFormat="1" ht="13.8">
+      <c r="A71" s="58">
         <f t="shared" ca="1" si="0"/>
         <v>43</v>
       </c>
-      <c r="B67" s="52" t="s">
-        <v>280</v>
-      </c>
-      <c r="C67" s="52" t="s">
-        <v>281</v>
-      </c>
-      <c r="D67" s="54" t="s">
-        <v>282</v>
-      </c>
-      <c r="E67" s="60" t="s">
-        <v>279</v>
-      </c>
-      <c r="F67" s="52" t="s">
-        <v>43</v>
-      </c>
-      <c r="G67" s="52" t="s">
-        <v>41</v>
-      </c>
-      <c r="H67" s="52" t="s">
-        <v>41</v>
-      </c>
-      <c r="I67" s="62"/>
-    </row>
-    <row r="68" spans="1:9" s="48" customFormat="1" ht="13.8">
-      <c r="A68" s="77"/>
-      <c r="B68" s="217" t="s">
-        <v>283</v>
-      </c>
-      <c r="C68" s="218"/>
-      <c r="D68" s="219"/>
-      <c r="E68" s="69"/>
-      <c r="F68" s="66"/>
-      <c r="G68" s="66"/>
-      <c r="H68" s="66"/>
-      <c r="I68" s="69"/>
-    </row>
-    <row r="69" spans="1:9" s="48" customFormat="1" ht="49.2">
-      <c r="A69" s="62">
+      <c r="B71" s="52" t="s">
+        <v>581</v>
+      </c>
+      <c r="C71" s="283"/>
+      <c r="D71" s="283"/>
+      <c r="E71" s="284"/>
+      <c r="F71" s="173"/>
+      <c r="G71" s="173"/>
+      <c r="H71" s="173"/>
+      <c r="I71" s="172"/>
+    </row>
+    <row r="72" spans="1:9" s="48" customFormat="1" ht="13.8">
+      <c r="A72" s="58">
         <f t="shared" ca="1" si="0"/>
         <v>44</v>
       </c>
-      <c r="B69" s="52" t="s">
-        <v>284</v>
-      </c>
-      <c r="C69" s="52" t="s">
-        <v>285</v>
-      </c>
-      <c r="D69" s="53" t="s">
-        <v>286</v>
-      </c>
-      <c r="E69" s="54" t="s">
-        <v>119</v>
-      </c>
-      <c r="F69" s="52" t="s">
-        <v>41</v>
-      </c>
-      <c r="G69" s="52" t="s">
-        <v>41</v>
-      </c>
-      <c r="H69" s="52" t="s">
-        <v>41</v>
-      </c>
-      <c r="I69" s="62"/>
-    </row>
-    <row r="70" spans="1:9" s="48" customFormat="1" ht="73.8">
-      <c r="A70" s="62">
+      <c r="B72" s="52" t="s">
+        <v>586</v>
+      </c>
+      <c r="C72" s="283"/>
+      <c r="D72" s="283"/>
+      <c r="E72" s="284"/>
+      <c r="F72" s="173"/>
+      <c r="G72" s="173"/>
+      <c r="H72" s="173"/>
+      <c r="I72" s="172"/>
+    </row>
+    <row r="73" spans="1:9" s="48" customFormat="1" ht="13.8">
+      <c r="A73" s="58">
         <f t="shared" ca="1" si="0"/>
         <v>45</v>
       </c>
-      <c r="B70" s="52" t="s">
-        <v>287</v>
-      </c>
-      <c r="C70" s="52" t="s">
-        <v>288</v>
-      </c>
-      <c r="D70" s="60" t="s">
-        <v>289</v>
-      </c>
-      <c r="E70" s="60" t="s">
-        <v>123</v>
-      </c>
-      <c r="F70" s="52" t="s">
-        <v>41</v>
-      </c>
-      <c r="G70" s="52" t="s">
-        <v>41</v>
-      </c>
-      <c r="H70" s="52" t="s">
-        <v>41</v>
-      </c>
-      <c r="I70" s="62"/>
-    </row>
-    <row r="71" spans="1:9" s="48" customFormat="1" ht="61.5">
-      <c r="A71" s="62">
+      <c r="B73" s="52" t="s">
+        <v>587</v>
+      </c>
+      <c r="C73" s="283"/>
+      <c r="D73" s="283"/>
+      <c r="E73" s="284"/>
+      <c r="F73" s="173"/>
+      <c r="G73" s="173"/>
+      <c r="H73" s="173"/>
+      <c r="I73" s="172"/>
+    </row>
+    <row r="74" spans="1:9" s="48" customFormat="1" ht="13.8">
+      <c r="A74" s="58">
         <f t="shared" ca="1" si="0"/>
         <v>46</v>
       </c>
-      <c r="B71" s="52" t="s">
-        <v>290</v>
-      </c>
-      <c r="C71" s="52" t="s">
-        <v>291</v>
-      </c>
-      <c r="D71" s="60" t="s">
-        <v>292</v>
-      </c>
-      <c r="E71" s="60" t="s">
-        <v>123</v>
-      </c>
-      <c r="F71" s="52" t="s">
-        <v>41</v>
-      </c>
-      <c r="G71" s="52" t="s">
-        <v>41</v>
-      </c>
-      <c r="H71" s="52" t="s">
-        <v>41</v>
-      </c>
-      <c r="I71" s="62"/>
-    </row>
-    <row r="72" spans="1:9" s="48" customFormat="1" ht="13.8">
-      <c r="A72" s="77"/>
-      <c r="B72" s="217" t="s">
-        <v>293</v>
-      </c>
-      <c r="C72" s="218"/>
-      <c r="D72" s="219"/>
-      <c r="E72" s="69"/>
-      <c r="F72" s="66"/>
-      <c r="G72" s="66"/>
-      <c r="H72" s="66"/>
-      <c r="I72" s="69"/>
-    </row>
-    <row r="73" spans="1:9" s="48" customFormat="1" ht="110.7">
-      <c r="A73" s="62">
+      <c r="B74" s="52" t="s">
+        <v>588</v>
+      </c>
+      <c r="C74" s="283"/>
+      <c r="D74" s="283"/>
+      <c r="E74" s="284"/>
+      <c r="F74" s="173"/>
+      <c r="G74" s="173"/>
+      <c r="H74" s="173"/>
+      <c r="I74" s="172"/>
+    </row>
+    <row r="75" spans="1:9" s="48" customFormat="1" ht="13.8">
+      <c r="A75" s="58">
         <f t="shared" ca="1" si="0"/>
         <v>47</v>
       </c>
-      <c r="B73" s="52" t="s">
-        <v>294</v>
-      </c>
-      <c r="C73" s="52" t="s">
-        <v>295</v>
-      </c>
-      <c r="D73" s="54" t="s">
-        <v>296</v>
-      </c>
-      <c r="E73" s="54" t="s">
-        <v>297</v>
-      </c>
-      <c r="F73" s="52" t="s">
-        <v>41</v>
-      </c>
-      <c r="G73" s="52" t="s">
-        <v>41</v>
-      </c>
-      <c r="H73" s="52" t="s">
-        <v>41</v>
-      </c>
-      <c r="I73" s="62"/>
-    </row>
-    <row r="74" spans="1:9" s="48" customFormat="1" ht="135.30000000000001">
-      <c r="A74" s="62">
+      <c r="B75" s="52" t="s">
+        <v>589</v>
+      </c>
+      <c r="C75" s="283"/>
+      <c r="D75" s="283"/>
+      <c r="E75" s="284"/>
+      <c r="F75" s="173"/>
+      <c r="G75" s="173"/>
+      <c r="H75" s="173"/>
+      <c r="I75" s="172"/>
+    </row>
+    <row r="76" spans="1:9" s="48" customFormat="1" ht="13.8">
+      <c r="A76" s="58">
         <f t="shared" ca="1" si="0"/>
         <v>48</v>
       </c>
-      <c r="B74" s="52" t="s">
-        <v>298</v>
-      </c>
-      <c r="C74" s="52" t="s">
-        <v>295</v>
-      </c>
-      <c r="D74" s="54" t="s">
-        <v>299</v>
-      </c>
-      <c r="E74" s="54" t="s">
-        <v>300</v>
-      </c>
-      <c r="F74" s="52" t="s">
-        <v>41</v>
-      </c>
-      <c r="G74" s="52" t="s">
-        <v>41</v>
-      </c>
-      <c r="H74" s="52" t="s">
-        <v>41</v>
-      </c>
-      <c r="I74" s="62"/>
-    </row>
-    <row r="75" spans="1:9" s="48" customFormat="1" ht="73.8">
-      <c r="A75" s="62">
+      <c r="B76" s="52" t="s">
+        <v>590</v>
+      </c>
+      <c r="C76" s="283"/>
+      <c r="D76" s="283"/>
+      <c r="E76" s="284"/>
+      <c r="F76" s="173"/>
+      <c r="G76" s="173"/>
+      <c r="H76" s="173"/>
+      <c r="I76" s="172"/>
+    </row>
+    <row r="77" spans="1:9" s="48" customFormat="1" ht="13.8">
+      <c r="A77" s="58">
         <f t="shared" ca="1" si="0"/>
         <v>49</v>
       </c>
-      <c r="B75" s="52" t="s">
-        <v>301</v>
-      </c>
-      <c r="C75" s="52" t="s">
-        <v>295</v>
-      </c>
-      <c r="D75" s="54" t="s">
-        <v>302</v>
-      </c>
-      <c r="E75" s="54" t="s">
-        <v>303</v>
-      </c>
-      <c r="F75" s="52" t="s">
-        <v>41</v>
-      </c>
-      <c r="G75" s="52" t="s">
-        <v>41</v>
-      </c>
-      <c r="H75" s="52" t="s">
-        <v>41</v>
-      </c>
-      <c r="I75" s="62"/>
-    </row>
-    <row r="76" spans="1:9" s="48" customFormat="1" ht="14.25" customHeight="1">
-      <c r="A76" s="77"/>
-      <c r="B76" s="217" t="s">
-        <v>304</v>
-      </c>
-      <c r="C76" s="218"/>
-      <c r="D76" s="219"/>
-      <c r="E76" s="69"/>
-      <c r="F76" s="66"/>
-      <c r="G76" s="66"/>
-      <c r="H76" s="66"/>
-      <c r="I76" s="69"/>
-    </row>
-    <row r="77" spans="1:9" s="48" customFormat="1" ht="184.5">
-      <c r="A77" s="62">
+      <c r="B77" s="52" t="s">
+        <v>591</v>
+      </c>
+      <c r="C77" s="283"/>
+      <c r="D77" s="283"/>
+      <c r="E77" s="284"/>
+      <c r="F77" s="173"/>
+      <c r="G77" s="173"/>
+      <c r="H77" s="173"/>
+      <c r="I77" s="172"/>
+    </row>
+    <row r="78" spans="1:9" s="48" customFormat="1" ht="13.8">
+      <c r="A78" s="58">
         <f t="shared" ca="1" si="0"/>
         <v>50</v>
       </c>
-      <c r="B77" s="52" t="s">
-        <v>305</v>
-      </c>
-      <c r="C77" s="52" t="s">
-        <v>306</v>
-      </c>
-      <c r="D77" s="54" t="s">
-        <v>307</v>
-      </c>
-      <c r="E77" s="60" t="s">
-        <v>308</v>
-      </c>
-      <c r="F77" s="52" t="s">
-        <v>41</v>
-      </c>
-      <c r="G77" s="52" t="s">
-        <v>41</v>
-      </c>
-      <c r="H77" s="52" t="s">
-        <v>41</v>
-      </c>
-      <c r="I77" s="62"/>
-    </row>
-    <row r="78" spans="1:9" s="48" customFormat="1" ht="73.8">
-      <c r="A78" s="62">
+      <c r="B78" s="52" t="s">
+        <v>577</v>
+      </c>
+      <c r="C78" s="283"/>
+      <c r="D78" s="283"/>
+      <c r="E78" s="284"/>
+      <c r="F78" s="173"/>
+      <c r="G78" s="173"/>
+      <c r="H78" s="173"/>
+      <c r="I78" s="172"/>
+    </row>
+    <row r="79" spans="1:9" s="48" customFormat="1" ht="13.8">
+      <c r="A79" s="58">
         <f t="shared" ca="1" si="0"/>
         <v>51</v>
       </c>
-      <c r="B78" s="52" t="s">
-        <v>309</v>
-      </c>
-      <c r="C78" s="52" t="s">
-        <v>306</v>
-      </c>
-      <c r="D78" s="60" t="s">
-        <v>310</v>
-      </c>
-      <c r="E78" s="60" t="s">
-        <v>311</v>
-      </c>
-      <c r="F78" s="52" t="s">
-        <v>41</v>
-      </c>
-      <c r="G78" s="52" t="s">
-        <v>41</v>
-      </c>
-      <c r="H78" s="52" t="s">
-        <v>41</v>
-      </c>
-      <c r="I78" s="62"/>
-    </row>
-    <row r="79" spans="1:9" s="48" customFormat="1" ht="14.25" customHeight="1">
-      <c r="A79" s="77"/>
-      <c r="B79" s="217" t="s">
-        <v>312</v>
-      </c>
-      <c r="C79" s="218"/>
-      <c r="D79" s="219"/>
-      <c r="E79" s="69"/>
-      <c r="F79" s="66"/>
-      <c r="G79" s="66"/>
-      <c r="H79" s="66"/>
-      <c r="I79" s="69"/>
-    </row>
-    <row r="80" spans="1:9" s="48" customFormat="1" ht="73.8">
-      <c r="A80" s="62">
+      <c r="B79" s="52" t="s">
+        <v>575</v>
+      </c>
+      <c r="C79" s="283"/>
+      <c r="D79" s="283"/>
+      <c r="E79" s="284"/>
+      <c r="F79" s="173"/>
+      <c r="G79" s="173"/>
+      <c r="H79" s="173"/>
+      <c r="I79" s="172"/>
+    </row>
+    <row r="80" spans="1:9" s="48" customFormat="1" ht="13.8">
+      <c r="A80" s="58">
         <f t="shared" ca="1" si="0"/>
         <v>52</v>
       </c>
       <c r="B80" s="52" t="s">
-        <v>313</v>
-      </c>
-      <c r="C80" s="52" t="s">
-        <v>314</v>
-      </c>
-      <c r="D80" s="53" t="s">
-        <v>315</v>
-      </c>
-      <c r="E80" s="54" t="s">
-        <v>119</v>
-      </c>
-      <c r="F80" s="52" t="s">
-        <v>41</v>
-      </c>
-      <c r="G80" s="52" t="s">
-        <v>41</v>
-      </c>
-      <c r="H80" s="52" t="s">
-        <v>41</v>
-      </c>
-      <c r="I80" s="62"/>
-    </row>
-    <row r="81" spans="1:9" s="48" customFormat="1" ht="98.4">
-      <c r="A81" s="62">
+        <v>576</v>
+      </c>
+      <c r="C80" s="283"/>
+      <c r="D80" s="283"/>
+      <c r="E80" s="284"/>
+      <c r="F80" s="173"/>
+      <c r="G80" s="173"/>
+      <c r="H80" s="173"/>
+      <c r="I80" s="172"/>
+    </row>
+    <row r="81" spans="1:9" s="48" customFormat="1" ht="13.8">
+      <c r="A81" s="58">
         <f t="shared" ca="1" si="0"/>
         <v>53</v>
       </c>
       <c r="B81" s="52" t="s">
-        <v>316</v>
-      </c>
-      <c r="C81" s="52" t="s">
-        <v>317</v>
-      </c>
-      <c r="D81" s="60" t="s">
-        <v>318</v>
-      </c>
-      <c r="E81" s="54" t="s">
-        <v>319</v>
-      </c>
-      <c r="F81" s="52" t="s">
-        <v>41</v>
-      </c>
-      <c r="G81" s="52" t="s">
-        <v>41</v>
-      </c>
-      <c r="H81" s="52" t="s">
-        <v>41</v>
-      </c>
-      <c r="I81" s="62"/>
-    </row>
-    <row r="82" spans="1:9" s="48" customFormat="1" ht="61.5">
-      <c r="A82" s="62">
+        <v>577</v>
+      </c>
+      <c r="C81" s="283"/>
+      <c r="D81" s="283"/>
+      <c r="E81" s="284"/>
+      <c r="F81" s="173"/>
+      <c r="G81" s="173"/>
+      <c r="H81" s="173"/>
+      <c r="I81" s="172"/>
+    </row>
+    <row r="82" spans="1:9" s="48" customFormat="1" ht="13.8">
+      <c r="A82" s="67"/>
+      <c r="B82" s="218" t="s">
+        <v>527</v>
+      </c>
+      <c r="C82" s="219"/>
+      <c r="D82" s="219"/>
+      <c r="E82" s="219"/>
+      <c r="F82" s="219"/>
+      <c r="G82" s="219"/>
+      <c r="H82" s="219"/>
+      <c r="I82" s="220"/>
+    </row>
+    <row r="83" spans="1:9" s="49" customFormat="1" ht="13.8">
+      <c r="A83" s="58">
         <f t="shared" ca="1" si="0"/>
         <v>54</v>
       </c>
-      <c r="B82" s="52" t="s">
-        <v>320</v>
-      </c>
-      <c r="C82" s="52" t="s">
-        <v>321</v>
-      </c>
-      <c r="D82" s="60" t="s">
-        <v>322</v>
-      </c>
-      <c r="E82" s="54" t="s">
-        <v>323</v>
-      </c>
-      <c r="F82" s="52" t="s">
-        <v>43</v>
-      </c>
-      <c r="G82" s="52" t="s">
-        <v>41</v>
-      </c>
-      <c r="H82" s="52" t="s">
-        <v>41</v>
-      </c>
-      <c r="I82" s="62"/>
-    </row>
-    <row r="83" spans="1:9" s="48" customFormat="1" ht="73.8">
-      <c r="A83" s="62">
+      <c r="B83" s="52" t="s">
+        <v>578</v>
+      </c>
+      <c r="C83" s="52"/>
+      <c r="D83" s="53"/>
+      <c r="E83" s="54"/>
+      <c r="F83" s="52"/>
+      <c r="G83" s="52"/>
+      <c r="H83" s="52"/>
+      <c r="I83" s="63"/>
+    </row>
+    <row r="84" spans="1:9" s="48" customFormat="1" ht="13.8">
+      <c r="A84" s="67"/>
+      <c r="B84" s="218" t="s">
+        <v>584</v>
+      </c>
+      <c r="C84" s="219"/>
+      <c r="D84" s="219"/>
+      <c r="E84" s="219"/>
+      <c r="F84" s="219"/>
+      <c r="G84" s="219"/>
+      <c r="H84" s="219"/>
+      <c r="I84" s="220"/>
+    </row>
+    <row r="85" spans="1:9" s="48" customFormat="1" ht="13.8">
+      <c r="A85" s="58">
         <f t="shared" ca="1" si="0"/>
         <v>55</v>
       </c>
-      <c r="B83" s="52" t="s">
-        <v>324</v>
-      </c>
-      <c r="C83" s="52" t="s">
-        <v>325</v>
-      </c>
-      <c r="D83" s="60" t="s">
-        <v>326</v>
-      </c>
-      <c r="E83" s="54" t="s">
-        <v>327</v>
-      </c>
-      <c r="F83" s="52" t="s">
-        <v>41</v>
-      </c>
-      <c r="G83" s="52" t="s">
-        <v>41</v>
-      </c>
-      <c r="H83" s="52" t="s">
-        <v>41</v>
-      </c>
-      <c r="I83" s="62"/>
-    </row>
-    <row r="84" spans="1:9" s="48" customFormat="1" ht="73.8">
-      <c r="A84" s="62">
+      <c r="B85" s="52" t="s">
+        <v>582</v>
+      </c>
+      <c r="C85" s="52"/>
+      <c r="D85" s="54"/>
+      <c r="E85" s="54"/>
+      <c r="F85" s="52"/>
+      <c r="G85" s="52"/>
+      <c r="H85" s="52"/>
+      <c r="I85" s="62"/>
+    </row>
+    <row r="86" spans="1:9" s="48" customFormat="1" ht="13.8">
+      <c r="A86" s="67"/>
+      <c r="B86" s="218" t="s">
+        <v>585</v>
+      </c>
+      <c r="C86" s="219"/>
+      <c r="D86" s="219"/>
+      <c r="E86" s="219"/>
+      <c r="F86" s="219"/>
+      <c r="G86" s="219"/>
+      <c r="H86" s="219"/>
+      <c r="I86" s="220"/>
+    </row>
+    <row r="87" spans="1:9" s="48" customFormat="1" ht="13.8">
+      <c r="A87" s="58">
         <f t="shared" ca="1" si="0"/>
         <v>56</v>
       </c>
-      <c r="B84" s="52" t="s">
-        <v>328</v>
-      </c>
-      <c r="C84" s="52" t="s">
-        <v>329</v>
-      </c>
-      <c r="D84" s="60" t="s">
-        <v>330</v>
-      </c>
-      <c r="E84" s="54" t="s">
-        <v>327</v>
-      </c>
-      <c r="F84" s="52" t="s">
-        <v>43</v>
-      </c>
-      <c r="G84" s="52" t="s">
-        <v>41</v>
-      </c>
-      <c r="H84" s="52" t="s">
-        <v>41</v>
-      </c>
-      <c r="I84" s="62"/>
+      <c r="B87" s="294" t="s">
+        <v>583</v>
+      </c>
+      <c r="C87" s="52"/>
+      <c r="D87" s="54"/>
+      <c r="E87" s="54"/>
+      <c r="F87" s="52"/>
+      <c r="G87" s="52"/>
+      <c r="H87" s="52"/>
+      <c r="I87" s="62"/>
+    </row>
+    <row r="88" spans="1:9" s="48" customFormat="1" ht="13.8">
+      <c r="A88" s="276"/>
+      <c r="B88" s="277"/>
+      <c r="C88" s="277"/>
+      <c r="D88" s="278"/>
+      <c r="E88" s="278"/>
+      <c r="F88" s="277"/>
+      <c r="G88" s="277"/>
+      <c r="H88" s="277"/>
+      <c r="I88" s="279"/>
+    </row>
+    <row r="89" spans="1:9" s="48" customFormat="1" ht="13.8">
+      <c r="A89" s="285"/>
+      <c r="B89" s="277"/>
+      <c r="C89" s="277"/>
+      <c r="D89" s="278"/>
+      <c r="E89" s="278"/>
+      <c r="F89" s="277"/>
+      <c r="G89" s="277"/>
+      <c r="H89" s="277"/>
+      <c r="I89" s="279"/>
+    </row>
+    <row r="90" spans="1:9" s="48" customFormat="1" ht="13.8">
+      <c r="A90" s="276"/>
+      <c r="B90" s="277"/>
+      <c r="C90" s="277"/>
+      <c r="D90" s="278"/>
+      <c r="E90" s="278"/>
+      <c r="F90" s="277"/>
+      <c r="G90" s="277"/>
+      <c r="H90" s="277"/>
+      <c r="I90" s="279"/>
+    </row>
+    <row r="91" spans="1:9" s="48" customFormat="1" ht="13.8">
+      <c r="A91" s="276"/>
+      <c r="B91" s="277"/>
+      <c r="C91" s="277"/>
+      <c r="D91" s="286"/>
+      <c r="E91" s="278"/>
+      <c r="F91" s="277"/>
+      <c r="G91" s="277"/>
+      <c r="H91" s="277"/>
+      <c r="I91" s="279"/>
+    </row>
+    <row r="92" spans="1:9" s="48" customFormat="1" ht="13.8">
+      <c r="A92" s="276"/>
+      <c r="B92" s="287"/>
+      <c r="C92" s="288"/>
+      <c r="D92" s="289"/>
+      <c r="E92" s="290"/>
+      <c r="F92" s="291"/>
+      <c r="G92" s="291"/>
+      <c r="H92" s="291"/>
+      <c r="I92" s="290"/>
+    </row>
+    <row r="93" spans="1:9" s="48" customFormat="1" ht="13.8">
+      <c r="A93" s="276"/>
+      <c r="B93" s="277"/>
+      <c r="C93" s="277"/>
+      <c r="D93" s="278"/>
+      <c r="E93" s="278"/>
+      <c r="F93" s="277"/>
+      <c r="G93" s="277"/>
+      <c r="H93" s="277"/>
+      <c r="I93" s="279"/>
+    </row>
+    <row r="94" spans="1:9" s="48" customFormat="1" ht="13.8">
+      <c r="A94" s="276"/>
+      <c r="B94" s="277"/>
+      <c r="C94" s="277"/>
+      <c r="D94" s="278"/>
+      <c r="E94" s="278"/>
+      <c r="F94" s="277"/>
+      <c r="G94" s="277"/>
+      <c r="H94" s="277"/>
+      <c r="I94" s="279"/>
+    </row>
+    <row r="95" spans="1:9" s="48" customFormat="1" ht="13.8">
+      <c r="A95" s="276"/>
+      <c r="B95" s="277"/>
+      <c r="C95" s="277"/>
+      <c r="D95" s="278"/>
+      <c r="E95" s="278"/>
+      <c r="F95" s="277"/>
+      <c r="G95" s="277"/>
+      <c r="H95" s="277"/>
+      <c r="I95" s="279"/>
+    </row>
+    <row r="96" spans="1:9" s="48" customFormat="1" ht="13.8">
+      <c r="A96" s="276"/>
+      <c r="B96" s="277"/>
+      <c r="C96" s="277"/>
+      <c r="D96" s="278"/>
+      <c r="E96" s="278"/>
+      <c r="F96" s="277"/>
+      <c r="G96" s="277"/>
+      <c r="H96" s="277"/>
+      <c r="I96" s="279"/>
+    </row>
+    <row r="97" spans="1:9" s="48" customFormat="1" ht="13.8">
+      <c r="A97" s="276"/>
+      <c r="B97" s="287"/>
+      <c r="C97" s="288"/>
+      <c r="D97" s="289"/>
+      <c r="E97" s="290"/>
+      <c r="F97" s="291"/>
+      <c r="G97" s="291"/>
+      <c r="H97" s="291"/>
+      <c r="I97" s="290"/>
+    </row>
+    <row r="98" spans="1:9" s="48" customFormat="1" ht="13.8">
+      <c r="A98" s="276"/>
+      <c r="B98" s="277"/>
+      <c r="C98" s="277"/>
+      <c r="D98" s="278"/>
+      <c r="E98" s="278"/>
+      <c r="F98" s="277"/>
+      <c r="G98" s="277"/>
+      <c r="H98" s="277"/>
+      <c r="I98" s="279"/>
+    </row>
+    <row r="99" spans="1:9" s="48" customFormat="1" ht="13.8">
+      <c r="A99" s="276"/>
+      <c r="B99" s="277"/>
+      <c r="C99" s="277"/>
+      <c r="D99" s="278"/>
+      <c r="E99" s="286"/>
+      <c r="F99" s="277"/>
+      <c r="G99" s="277"/>
+      <c r="H99" s="277"/>
+      <c r="I99" s="279"/>
+    </row>
+    <row r="100" spans="1:9" s="48" customFormat="1" ht="13.8">
+      <c r="A100" s="276"/>
+      <c r="B100" s="277"/>
+      <c r="C100" s="277"/>
+      <c r="D100" s="286"/>
+      <c r="E100" s="278"/>
+      <c r="F100" s="277"/>
+      <c r="G100" s="277"/>
+      <c r="H100" s="277"/>
+      <c r="I100" s="279"/>
+    </row>
+    <row r="101" spans="1:9" s="48" customFormat="1" ht="13.8">
+      <c r="A101" s="276"/>
+      <c r="B101" s="287"/>
+      <c r="C101" s="288"/>
+      <c r="D101" s="289"/>
+      <c r="E101" s="290"/>
+      <c r="F101" s="291"/>
+      <c r="G101" s="291"/>
+      <c r="H101" s="291"/>
+      <c r="I101" s="290"/>
+    </row>
+    <row r="102" spans="1:9" s="48" customFormat="1" ht="13.8">
+      <c r="A102" s="276"/>
+      <c r="B102" s="277"/>
+      <c r="C102" s="277"/>
+      <c r="D102" s="278"/>
+      <c r="E102" s="278"/>
+      <c r="F102" s="277"/>
+      <c r="G102" s="277"/>
+      <c r="H102" s="277"/>
+      <c r="I102" s="279"/>
+    </row>
+    <row r="103" spans="1:9" s="48" customFormat="1" ht="13.8">
+      <c r="A103" s="276"/>
+      <c r="B103" s="277"/>
+      <c r="C103" s="277"/>
+      <c r="D103" s="278"/>
+      <c r="E103" s="286"/>
+      <c r="F103" s="277"/>
+      <c r="G103" s="277"/>
+      <c r="H103" s="277"/>
+      <c r="I103" s="279"/>
+    </row>
+    <row r="104" spans="1:9" s="48" customFormat="1" ht="13.8">
+      <c r="A104" s="276"/>
+      <c r="B104" s="277"/>
+      <c r="C104" s="277"/>
+      <c r="D104" s="278"/>
+      <c r="E104" s="286"/>
+      <c r="F104" s="277"/>
+      <c r="G104" s="277"/>
+      <c r="H104" s="277"/>
+      <c r="I104" s="279"/>
+    </row>
+    <row r="105" spans="1:9" s="48" customFormat="1" ht="13.8">
+      <c r="A105" s="276"/>
+      <c r="B105" s="277"/>
+      <c r="C105" s="277"/>
+      <c r="D105" s="278"/>
+      <c r="E105" s="286"/>
+      <c r="F105" s="277"/>
+      <c r="G105" s="277"/>
+      <c r="H105" s="277"/>
+      <c r="I105" s="279"/>
+    </row>
+    <row r="106" spans="1:9" s="48" customFormat="1" ht="13.8">
+      <c r="A106" s="276"/>
+      <c r="B106" s="277"/>
+      <c r="C106" s="277"/>
+      <c r="D106" s="278"/>
+      <c r="E106" s="278"/>
+      <c r="F106" s="277"/>
+      <c r="G106" s="277"/>
+      <c r="H106" s="277"/>
+      <c r="I106" s="279"/>
+    </row>
+    <row r="107" spans="1:9" s="48" customFormat="1" ht="13.8">
+      <c r="A107" s="276"/>
+      <c r="B107" s="277"/>
+      <c r="C107" s="277"/>
+      <c r="D107" s="278"/>
+      <c r="E107" s="278"/>
+      <c r="F107" s="277"/>
+      <c r="G107" s="277"/>
+      <c r="H107" s="277"/>
+      <c r="I107" s="279"/>
+    </row>
+    <row r="108" spans="1:9" s="48" customFormat="1" ht="13.8">
+      <c r="A108" s="279"/>
+      <c r="B108" s="277"/>
+      <c r="C108" s="277"/>
+      <c r="D108" s="286"/>
+      <c r="E108" s="278"/>
+      <c r="F108" s="277"/>
+      <c r="G108" s="277"/>
+      <c r="H108" s="277"/>
+      <c r="I108" s="279"/>
+    </row>
+    <row r="109" spans="1:9" s="48" customFormat="1" ht="13.8">
+      <c r="A109" s="279"/>
+      <c r="B109" s="277"/>
+      <c r="C109" s="277"/>
+      <c r="D109" s="286"/>
+      <c r="E109" s="278"/>
+      <c r="F109" s="277"/>
+      <c r="G109" s="277"/>
+      <c r="H109" s="277"/>
+      <c r="I109" s="279"/>
+    </row>
+    <row r="110" spans="1:9" s="48" customFormat="1" ht="13.8">
+      <c r="A110" s="279"/>
+      <c r="B110" s="277"/>
+      <c r="C110" s="277"/>
+      <c r="D110" s="286"/>
+      <c r="E110" s="278"/>
+      <c r="F110" s="277"/>
+      <c r="G110" s="277"/>
+      <c r="H110" s="277"/>
+      <c r="I110" s="279"/>
+    </row>
+    <row r="111" spans="1:9" s="48" customFormat="1" ht="13.8">
+      <c r="A111" s="279"/>
+      <c r="B111" s="277"/>
+      <c r="C111" s="277"/>
+      <c r="D111" s="278"/>
+      <c r="E111" s="286"/>
+      <c r="F111" s="277"/>
+      <c r="G111" s="277"/>
+      <c r="H111" s="277"/>
+      <c r="I111" s="279"/>
+    </row>
+    <row r="112" spans="1:9" s="48" customFormat="1" ht="13.8">
+      <c r="A112" s="279"/>
+      <c r="B112" s="277"/>
+      <c r="C112" s="277"/>
+      <c r="D112" s="278"/>
+      <c r="E112" s="286"/>
+      <c r="F112" s="277"/>
+      <c r="G112" s="277"/>
+      <c r="H112" s="277"/>
+      <c r="I112" s="279"/>
+    </row>
+    <row r="113" spans="1:9" s="48" customFormat="1" ht="13.8">
+      <c r="A113" s="292"/>
+      <c r="B113" s="287"/>
+      <c r="C113" s="288"/>
+      <c r="D113" s="289"/>
+      <c r="E113" s="290"/>
+      <c r="F113" s="291"/>
+      <c r="G113" s="291"/>
+      <c r="H113" s="291"/>
+      <c r="I113" s="290"/>
+    </row>
+    <row r="114" spans="1:9" s="48" customFormat="1" ht="13.8">
+      <c r="A114" s="279"/>
+      <c r="B114" s="277"/>
+      <c r="C114" s="277"/>
+      <c r="D114" s="278"/>
+      <c r="E114" s="278"/>
+      <c r="F114" s="277"/>
+      <c r="G114" s="277"/>
+      <c r="H114" s="277"/>
+      <c r="I114" s="279"/>
+    </row>
+    <row r="115" spans="1:9" s="48" customFormat="1" ht="13.8">
+      <c r="A115" s="279"/>
+      <c r="B115" s="277"/>
+      <c r="C115" s="277"/>
+      <c r="D115" s="286"/>
+      <c r="E115" s="286"/>
+      <c r="F115" s="277"/>
+      <c r="G115" s="277"/>
+      <c r="H115" s="277"/>
+      <c r="I115" s="279"/>
+    </row>
+    <row r="116" spans="1:9" s="48" customFormat="1" ht="13.8">
+      <c r="A116" s="279"/>
+      <c r="B116" s="277"/>
+      <c r="C116" s="277"/>
+      <c r="D116" s="286"/>
+      <c r="E116" s="286"/>
+      <c r="F116" s="277"/>
+      <c r="G116" s="277"/>
+      <c r="H116" s="277"/>
+      <c r="I116" s="279"/>
+    </row>
+    <row r="117" spans="1:9" s="48" customFormat="1" ht="13.8">
+      <c r="A117" s="292"/>
+      <c r="B117" s="287"/>
+      <c r="C117" s="288"/>
+      <c r="D117" s="289"/>
+      <c r="E117" s="290"/>
+      <c r="F117" s="291"/>
+      <c r="G117" s="291"/>
+      <c r="H117" s="291"/>
+      <c r="I117" s="290"/>
+    </row>
+    <row r="118" spans="1:9" s="48" customFormat="1" ht="13.8">
+      <c r="A118" s="279"/>
+      <c r="B118" s="277"/>
+      <c r="C118" s="277"/>
+      <c r="D118" s="278"/>
+      <c r="E118" s="278"/>
+      <c r="F118" s="277"/>
+      <c r="G118" s="277"/>
+      <c r="H118" s="277"/>
+      <c r="I118" s="279"/>
+    </row>
+    <row r="119" spans="1:9" s="48" customFormat="1" ht="13.8">
+      <c r="A119" s="279"/>
+      <c r="B119" s="277"/>
+      <c r="C119" s="277"/>
+      <c r="D119" s="278"/>
+      <c r="E119" s="278"/>
+      <c r="F119" s="277"/>
+      <c r="G119" s="277"/>
+      <c r="H119" s="277"/>
+      <c r="I119" s="279"/>
+    </row>
+    <row r="120" spans="1:9" s="48" customFormat="1" ht="13.8">
+      <c r="A120" s="279"/>
+      <c r="B120" s="277"/>
+      <c r="C120" s="277"/>
+      <c r="D120" s="278"/>
+      <c r="E120" s="278"/>
+      <c r="F120" s="277"/>
+      <c r="G120" s="277"/>
+      <c r="H120" s="277"/>
+      <c r="I120" s="279"/>
+    </row>
+    <row r="121" spans="1:9" s="48" customFormat="1" ht="14.25" customHeight="1">
+      <c r="A121" s="292"/>
+      <c r="B121" s="287"/>
+      <c r="C121" s="288"/>
+      <c r="D121" s="289"/>
+      <c r="E121" s="290"/>
+      <c r="F121" s="291"/>
+      <c r="G121" s="291"/>
+      <c r="H121" s="291"/>
+      <c r="I121" s="290"/>
+    </row>
+    <row r="122" spans="1:9" s="48" customFormat="1" ht="13.8">
+      <c r="A122" s="279"/>
+      <c r="B122" s="277"/>
+      <c r="C122" s="277"/>
+      <c r="D122" s="278"/>
+      <c r="E122" s="286"/>
+      <c r="F122" s="277"/>
+      <c r="G122" s="277"/>
+      <c r="H122" s="277"/>
+      <c r="I122" s="279"/>
+    </row>
+    <row r="123" spans="1:9" s="48" customFormat="1" ht="13.8">
+      <c r="A123" s="279"/>
+      <c r="B123" s="277"/>
+      <c r="C123" s="277"/>
+      <c r="D123" s="286"/>
+      <c r="E123" s="286"/>
+      <c r="F123" s="277"/>
+      <c r="G123" s="277"/>
+      <c r="H123" s="277"/>
+      <c r="I123" s="279"/>
+    </row>
+    <row r="124" spans="1:9" s="48" customFormat="1" ht="14.25" customHeight="1">
+      <c r="A124" s="292"/>
+      <c r="B124" s="287"/>
+      <c r="C124" s="288"/>
+      <c r="D124" s="289"/>
+      <c r="E124" s="290"/>
+      <c r="F124" s="291"/>
+      <c r="G124" s="291"/>
+      <c r="H124" s="291"/>
+      <c r="I124" s="290"/>
+    </row>
+    <row r="125" spans="1:9" s="48" customFormat="1" ht="13.8">
+      <c r="A125" s="279"/>
+      <c r="B125" s="277"/>
+      <c r="C125" s="277"/>
+      <c r="D125" s="278"/>
+      <c r="E125" s="278"/>
+      <c r="F125" s="277"/>
+      <c r="G125" s="277"/>
+      <c r="H125" s="277"/>
+      <c r="I125" s="279"/>
+    </row>
+    <row r="126" spans="1:9" s="48" customFormat="1" ht="13.8">
+      <c r="A126" s="279"/>
+      <c r="B126" s="277"/>
+      <c r="C126" s="277"/>
+      <c r="D126" s="286"/>
+      <c r="E126" s="278"/>
+      <c r="F126" s="277"/>
+      <c r="G126" s="277"/>
+      <c r="H126" s="277"/>
+      <c r="I126" s="279"/>
+    </row>
+    <row r="127" spans="1:9" s="48" customFormat="1" ht="13.8">
+      <c r="A127" s="279"/>
+      <c r="B127" s="277"/>
+      <c r="C127" s="277"/>
+      <c r="D127" s="286"/>
+      <c r="E127" s="278"/>
+      <c r="F127" s="277"/>
+      <c r="G127" s="277"/>
+      <c r="H127" s="277"/>
+      <c r="I127" s="279"/>
+    </row>
+    <row r="128" spans="1:9" s="48" customFormat="1" ht="13.8">
+      <c r="A128" s="279"/>
+      <c r="B128" s="277"/>
+      <c r="C128" s="277"/>
+      <c r="D128" s="286"/>
+      <c r="E128" s="278"/>
+      <c r="F128" s="277"/>
+      <c r="G128" s="277"/>
+      <c r="H128" s="277"/>
+      <c r="I128" s="279"/>
+    </row>
+    <row r="129" spans="1:9" s="48" customFormat="1" ht="13.8">
+      <c r="A129" s="279"/>
+      <c r="B129" s="277"/>
+      <c r="C129" s="277"/>
+      <c r="D129" s="286"/>
+      <c r="E129" s="278"/>
+      <c r="F129" s="277"/>
+      <c r="G129" s="277"/>
+      <c r="H129" s="277"/>
+      <c r="I129" s="279"/>
     </row>
   </sheetData>
-  <mergeCells count="21">
+  <mergeCells count="30">
+    <mergeCell ref="B82:I82"/>
+    <mergeCell ref="B84:I84"/>
+    <mergeCell ref="B86:I86"/>
+    <mergeCell ref="B63:I63"/>
+    <mergeCell ref="B19:I19"/>
+    <mergeCell ref="B26:I26"/>
+    <mergeCell ref="B33:I33"/>
+    <mergeCell ref="B42:I42"/>
+    <mergeCell ref="B48:I48"/>
     <mergeCell ref="A1:D1"/>
     <mergeCell ref="A2:D2"/>
     <mergeCell ref="C3:D3"/>
     <mergeCell ref="B4:D4"/>
     <mergeCell ref="F16:H16"/>
     <mergeCell ref="E2:E3"/>
-    <mergeCell ref="B18:D18"/>
     <mergeCell ref="B5:D5"/>
     <mergeCell ref="B6:D6"/>
     <mergeCell ref="B7:D7"/>
     <mergeCell ref="B8:D8"/>
-    <mergeCell ref="B29:D29"/>
-    <mergeCell ref="B72:D72"/>
-    <mergeCell ref="B76:D76"/>
-    <mergeCell ref="B79:D79"/>
-    <mergeCell ref="B35:D35"/>
-    <mergeCell ref="B37:D37"/>
-    <mergeCell ref="B47:D47"/>
-    <mergeCell ref="B52:D52"/>
-    <mergeCell ref="B56:D56"/>
-    <mergeCell ref="B68:D68"/>
+    <mergeCell ref="B18:I18"/>
+    <mergeCell ref="B117:D117"/>
+    <mergeCell ref="B121:D121"/>
+    <mergeCell ref="B124:D124"/>
+    <mergeCell ref="B92:D92"/>
+    <mergeCell ref="B97:D97"/>
+    <mergeCell ref="B101:D101"/>
+    <mergeCell ref="B113:D113"/>
+    <mergeCell ref="B52:I52"/>
+    <mergeCell ref="B60:I60"/>
+    <mergeCell ref="B64:I64"/>
   </mergeCells>
-  <dataValidations count="4">
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="F85:H142">
+  <dataValidations count="3">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="F130:H187">
       <formula1>#REF!</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F18:H18"/>
     <dataValidation showDropDown="1" showErrorMessage="1" sqref="F16:H17"/>
-    <dataValidation type="list" allowBlank="1" sqref="F19:H84">
+    <dataValidation type="list" allowBlank="1" sqref="F20:H25 F27:H32 F34:H41 F43:H47 F49:H51 F53:H59 F87:H129 F65:H81 F83:H83 F85:H85 F61:H62">
       <formula1>$A$11:$A$15</formula1>
     </dataValidation>
   </dataValidations>
@@ -10263,10 +10486,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:24" s="1" customFormat="1" ht="13.8">
-      <c r="A1" s="212"/>
-      <c r="B1" s="212"/>
-      <c r="C1" s="212"/>
-      <c r="D1" s="212"/>
+      <c r="A1" s="213"/>
+      <c r="B1" s="213"/>
+      <c r="C1" s="213"/>
+      <c r="D1" s="213"/>
       <c r="E1" s="34"/>
       <c r="F1" s="34"/>
       <c r="G1" s="34"/>
@@ -10275,13 +10498,13 @@
       <c r="J1" s="34"/>
     </row>
     <row r="2" spans="1:24" s="1" customFormat="1" ht="31.5" customHeight="1">
-      <c r="A2" s="213" t="s">
+      <c r="A2" s="214" t="s">
         <v>70</v>
       </c>
-      <c r="B2" s="213"/>
-      <c r="C2" s="213"/>
-      <c r="D2" s="213"/>
-      <c r="E2" s="221"/>
+      <c r="B2" s="214"/>
+      <c r="C2" s="214"/>
+      <c r="D2" s="214"/>
+      <c r="E2" s="222"/>
       <c r="F2" s="23"/>
       <c r="G2" s="23"/>
       <c r="H2" s="23"/>
@@ -10290,9 +10513,9 @@
     </row>
     <row r="3" spans="1:24" s="1" customFormat="1" ht="31.5" customHeight="1">
       <c r="A3" s="47"/>
-      <c r="C3" s="240"/>
-      <c r="D3" s="240"/>
-      <c r="E3" s="221"/>
+      <c r="C3" s="241"/>
+      <c r="D3" s="241"/>
+      <c r="E3" s="222"/>
       <c r="F3" s="23"/>
       <c r="G3" s="23"/>
       <c r="H3" s="23"/>
@@ -10303,11 +10526,11 @@
       <c r="A4" s="139" t="s">
         <v>67</v>
       </c>
-      <c r="B4" s="215" t="s">
+      <c r="B4" s="216" t="s">
         <v>331</v>
       </c>
-      <c r="C4" s="215"/>
-      <c r="D4" s="215"/>
+      <c r="C4" s="216"/>
+      <c r="D4" s="216"/>
       <c r="E4" s="39"/>
       <c r="F4" s="39"/>
       <c r="G4" s="39"/>
@@ -10321,11 +10544,11 @@
       <c r="A5" s="139" t="s">
         <v>62</v>
       </c>
-      <c r="B5" s="214" t="s">
+      <c r="B5" s="215" t="s">
         <v>95</v>
       </c>
-      <c r="C5" s="215"/>
-      <c r="D5" s="215"/>
+      <c r="C5" s="216"/>
+      <c r="D5" s="216"/>
       <c r="E5" s="39"/>
       <c r="F5" s="39"/>
       <c r="G5" s="39"/>
@@ -10339,11 +10562,11 @@
       <c r="A6" s="139" t="s">
         <v>97</v>
       </c>
-      <c r="B6" s="214" t="s">
+      <c r="B6" s="215" t="s">
         <v>98</v>
       </c>
-      <c r="C6" s="215"/>
-      <c r="D6" s="215"/>
+      <c r="C6" s="216"/>
+      <c r="D6" s="216"/>
       <c r="E6" s="39"/>
       <c r="F6" s="39"/>
       <c r="G6" s="39"/>
@@ -10354,11 +10577,11 @@
       <c r="A7" s="139" t="s">
         <v>99</v>
       </c>
-      <c r="B7" s="215" t="s">
+      <c r="B7" s="216" t="s">
         <v>100</v>
       </c>
-      <c r="C7" s="215"/>
-      <c r="D7" s="215"/>
+      <c r="C7" s="216"/>
+      <c r="D7" s="216"/>
       <c r="E7" s="39"/>
       <c r="F7" s="39"/>
       <c r="G7" s="39"/>
@@ -10370,11 +10593,11 @@
       <c r="A8" s="139" t="s">
         <v>101</v>
       </c>
-      <c r="B8" s="216">
+      <c r="B8" s="217">
         <v>40850</v>
       </c>
-      <c r="C8" s="216"/>
-      <c r="D8" s="216"/>
+      <c r="C8" s="217"/>
+      <c r="D8" s="217"/>
       <c r="E8" s="39"/>
     </row>
     <row r="9" spans="1:24" s="43" customFormat="1">
@@ -10517,11 +10740,11 @@
       <c r="C16" s="50"/>
       <c r="D16" s="51"/>
       <c r="E16" s="65"/>
-      <c r="F16" s="241" t="s">
+      <c r="F16" s="242" t="s">
         <v>102</v>
       </c>
-      <c r="G16" s="242"/>
-      <c r="H16" s="243"/>
+      <c r="G16" s="243"/>
+      <c r="H16" s="244"/>
       <c r="I16" s="65"/>
     </row>
     <row r="17" spans="1:9" s="44" customFormat="1" ht="36.9">
@@ -10555,11 +10778,11 @@
     </row>
     <row r="18" spans="1:9" s="44" customFormat="1" ht="15.75" customHeight="1">
       <c r="A18" s="67"/>
-      <c r="B18" s="217" t="s">
+      <c r="B18" s="218" t="s">
         <v>115</v>
       </c>
-      <c r="C18" s="218"/>
-      <c r="D18" s="219"/>
+      <c r="C18" s="219"/>
+      <c r="D18" s="220"/>
       <c r="E18" s="67"/>
       <c r="F18" s="68"/>
       <c r="G18" s="68"/>
@@ -10840,11 +11063,11 @@
     </row>
     <row r="29" spans="1:9" s="48" customFormat="1" ht="13.8">
       <c r="A29" s="77"/>
-      <c r="B29" s="217" t="s">
+      <c r="B29" s="218" t="s">
         <v>155</v>
       </c>
-      <c r="C29" s="218"/>
-      <c r="D29" s="219"/>
+      <c r="C29" s="219"/>
+      <c r="D29" s="220"/>
       <c r="E29" s="69"/>
       <c r="F29" s="66"/>
       <c r="G29" s="66"/>
@@ -10993,11 +11216,11 @@
     </row>
     <row r="35" spans="1:9" s="48" customFormat="1" ht="13.8">
       <c r="A35" s="77"/>
-      <c r="B35" s="217" t="s">
+      <c r="B35" s="218" t="s">
         <v>174</v>
       </c>
-      <c r="C35" s="218"/>
-      <c r="D35" s="219"/>
+      <c r="C35" s="219"/>
+      <c r="D35" s="220"/>
       <c r="E35" s="69"/>
       <c r="F35" s="66"/>
       <c r="G35" s="66"/>
@@ -11034,11 +11257,11 @@
     </row>
     <row r="37" spans="1:9" s="48" customFormat="1" ht="13.8">
       <c r="A37" s="77"/>
-      <c r="B37" s="217" t="s">
+      <c r="B37" s="218" t="s">
         <v>178</v>
       </c>
-      <c r="C37" s="218"/>
-      <c r="D37" s="219"/>
+      <c r="C37" s="219"/>
+      <c r="D37" s="220"/>
       <c r="E37" s="69"/>
       <c r="F37" s="66"/>
       <c r="G37" s="66"/>
@@ -11299,11 +11522,11 @@
     </row>
     <row r="47" spans="1:9" s="48" customFormat="1" ht="13.8">
       <c r="A47" s="77"/>
-      <c r="B47" s="217" t="s">
+      <c r="B47" s="218" t="s">
         <v>214</v>
       </c>
-      <c r="C47" s="218"/>
-      <c r="D47" s="219"/>
+      <c r="C47" s="219"/>
+      <c r="D47" s="220"/>
       <c r="E47" s="69"/>
       <c r="F47" s="66"/>
       <c r="G47" s="66"/>
@@ -11424,11 +11647,11 @@
     </row>
     <row r="52" spans="1:9" s="48" customFormat="1" ht="13.8">
       <c r="A52" s="77"/>
-      <c r="B52" s="217" t="s">
+      <c r="B52" s="218" t="s">
         <v>229</v>
       </c>
-      <c r="C52" s="218"/>
-      <c r="D52" s="219"/>
+      <c r="C52" s="219"/>
+      <c r="D52" s="220"/>
       <c r="E52" s="69"/>
       <c r="F52" s="66"/>
       <c r="G52" s="66"/>
@@ -11521,11 +11744,11 @@
     </row>
     <row r="56" spans="1:9" s="48" customFormat="1" ht="13.8">
       <c r="A56" s="77"/>
-      <c r="B56" s="217" t="s">
+      <c r="B56" s="218" t="s">
         <v>241</v>
       </c>
-      <c r="C56" s="218"/>
-      <c r="D56" s="219"/>
+      <c r="C56" s="219"/>
+      <c r="D56" s="220"/>
       <c r="E56" s="69"/>
       <c r="F56" s="66"/>
       <c r="G56" s="66"/>
@@ -11842,11 +12065,11 @@
     </row>
     <row r="68" spans="1:9" s="48" customFormat="1" ht="13.8">
       <c r="A68" s="77"/>
-      <c r="B68" s="217" t="s">
+      <c r="B68" s="218" t="s">
         <v>283</v>
       </c>
-      <c r="C68" s="218"/>
-      <c r="D68" s="219"/>
+      <c r="C68" s="219"/>
+      <c r="D68" s="220"/>
       <c r="E68" s="69"/>
       <c r="F68" s="66"/>
       <c r="G68" s="66"/>
@@ -11939,11 +12162,11 @@
     </row>
     <row r="72" spans="1:9" s="48" customFormat="1" ht="13.8">
       <c r="A72" s="77"/>
-      <c r="B72" s="217" t="s">
+      <c r="B72" s="218" t="s">
         <v>293</v>
       </c>
-      <c r="C72" s="218"/>
-      <c r="D72" s="219"/>
+      <c r="C72" s="219"/>
+      <c r="D72" s="220"/>
       <c r="E72" s="69"/>
       <c r="F72" s="66"/>
       <c r="G72" s="66"/>
@@ -12036,11 +12259,11 @@
     </row>
     <row r="76" spans="1:9" s="48" customFormat="1" ht="14.25" customHeight="1">
       <c r="A76" s="77"/>
-      <c r="B76" s="217" t="s">
+      <c r="B76" s="218" t="s">
         <v>304</v>
       </c>
-      <c r="C76" s="218"/>
-      <c r="D76" s="219"/>
+      <c r="C76" s="219"/>
+      <c r="D76" s="220"/>
       <c r="E76" s="69"/>
       <c r="F76" s="66"/>
       <c r="G76" s="66"/>
@@ -12105,11 +12328,11 @@
     </row>
     <row r="79" spans="1:9" s="48" customFormat="1" ht="14.25" customHeight="1">
       <c r="A79" s="77"/>
-      <c r="B79" s="217" t="s">
+      <c r="B79" s="218" t="s">
         <v>312</v>
       </c>
-      <c r="C79" s="218"/>
-      <c r="D79" s="219"/>
+      <c r="C79" s="219"/>
+      <c r="D79" s="220"/>
       <c r="E79" s="69"/>
       <c r="F79" s="66"/>
       <c r="G79" s="66"/>
@@ -12304,7 +12527,7 @@
   </sheetPr>
   <dimension ref="A1:L61"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView showGridLines="0" topLeftCell="A22" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="C27" sqref="C27"/>
     </sheetView>
   </sheetViews>
@@ -12335,13 +12558,13 @@
     </row>
     <row r="2" spans="1:12" s="84" customFormat="1" ht="25.2">
       <c r="A2" s="83"/>
-      <c r="C2" s="246" t="s">
+      <c r="C2" s="247" t="s">
         <v>334</v>
       </c>
-      <c r="D2" s="246"/>
-      <c r="E2" s="246"/>
-      <c r="F2" s="246"/>
-      <c r="G2" s="246"/>
+      <c r="D2" s="247"/>
+      <c r="E2" s="247"/>
+      <c r="F2" s="247"/>
+      <c r="G2" s="247"/>
       <c r="H2" s="85" t="s">
         <v>335</v>
       </c>
@@ -12352,15 +12575,15 @@
     </row>
     <row r="3" spans="1:12" s="84" customFormat="1" ht="22.5">
       <c r="A3" s="83"/>
-      <c r="C3" s="247" t="s">
+      <c r="C3" s="248" t="s">
         <v>336</v>
       </c>
-      <c r="D3" s="247"/>
+      <c r="D3" s="248"/>
       <c r="E3" s="157"/>
-      <c r="F3" s="248" t="s">
+      <c r="F3" s="249" t="s">
         <v>337</v>
       </c>
-      <c r="G3" s="248"/>
+      <c r="G3" s="249"/>
       <c r="H3" s="86"/>
       <c r="I3" s="86"/>
       <c r="J3" s="87"/>
@@ -12385,10 +12608,10 @@
       <c r="L5" s="92"/>
     </row>
     <row r="6" spans="1:12" ht="21.75" customHeight="1">
-      <c r="B6" s="249" t="s">
+      <c r="B6" s="250" t="s">
         <v>338</v>
       </c>
-      <c r="C6" s="249"/>
+      <c r="C6" s="250"/>
       <c r="D6" s="94"/>
       <c r="E6" s="94"/>
       <c r="F6" s="94"/>
@@ -12557,11 +12780,11 @@
       <c r="G13" s="98"/>
     </row>
     <row r="14" spans="1:12" ht="21.75" customHeight="1">
-      <c r="B14" s="249" t="s">
+      <c r="B14" s="250" t="s">
         <v>368</v>
       </c>
-      <c r="C14" s="249"/>
-      <c r="D14" s="249"/>
+      <c r="C14" s="250"/>
+      <c r="D14" s="250"/>
       <c r="E14" s="94"/>
       <c r="F14" s="94"/>
       <c r="G14" s="95"/>
@@ -12634,23 +12857,23 @@
         <v>66</v>
       </c>
       <c r="C18" s="104">
-        <f>'User Story 1'!D11</f>
+        <f>'Assignment 1 '!D11</f>
         <v>0</v>
       </c>
       <c r="D18" s="104">
-        <f>'User Story 1'!D12</f>
+        <f>'Assignment 1 '!D12</f>
         <v>0</v>
       </c>
       <c r="E18" s="104">
-        <f>'User Story 1'!D14</f>
+        <f>'Assignment 1 '!D14</f>
         <v>0</v>
       </c>
       <c r="F18" s="104">
-        <f>'User Story 1'!D13</f>
+        <f>'Assignment 1 '!D13</f>
         <v>0</v>
       </c>
       <c r="G18" s="104">
-        <f>'User Story 1'!D15</f>
+        <f>'Assignment 1 '!D15</f>
         <v>0</v>
       </c>
       <c r="L18" s="80"/>
@@ -12737,11 +12960,11 @@
       <c r="G22" s="98"/>
     </row>
     <row r="23" spans="1:12" ht="21.75" customHeight="1">
-      <c r="B23" s="249" t="s">
+      <c r="B23" s="250" t="s">
         <v>378</v>
       </c>
-      <c r="C23" s="249"/>
-      <c r="D23" s="249"/>
+      <c r="C23" s="250"/>
+      <c r="D23" s="250"/>
       <c r="E23" s="94"/>
       <c r="F23" s="94"/>
       <c r="G23" s="95"/>
@@ -12787,10 +13010,10 @@
       <c r="F26" s="160" t="s">
         <v>385</v>
       </c>
-      <c r="G26" s="250" t="s">
+      <c r="G26" s="251" t="s">
         <v>114</v>
       </c>
-      <c r="H26" s="251"/>
+      <c r="H26" s="252"/>
     </row>
     <row r="27" spans="1:12">
       <c r="A27" s="100">
@@ -12815,8 +13038,8 @@
         <f>COUNTIFS(#REF!, "*Critical*",#REF!,"*Closed*") + COUNTIFS(#REF!, "*Critical*",#REF!,"*Ready for client test*")</f>
         <v>#REF!</v>
       </c>
-      <c r="G27" s="244"/>
-      <c r="H27" s="245"/>
+      <c r="G27" s="245"/>
+      <c r="H27" s="246"/>
     </row>
     <row r="28" spans="1:12" ht="20.25" customHeight="1">
       <c r="A28" s="100">
@@ -12841,8 +13064,8 @@
         <f>COUNTIFS(#REF!, "*Major*",#REF!,"*Closed*") + COUNTIFS(#REF!, "*Major*",#REF!,"*Ready for client test*")</f>
         <v>#REF!</v>
       </c>
-      <c r="G28" s="244"/>
-      <c r="H28" s="245"/>
+      <c r="G28" s="245"/>
+      <c r="H28" s="246"/>
     </row>
     <row r="29" spans="1:12" ht="20.25" customHeight="1">
       <c r="A29" s="100">
@@ -12867,8 +13090,8 @@
         <f>COUNTIFS(#REF!, "*Normal*",#REF!,"*Closed*") + COUNTIFS(#REF!, "*Normal*",#REF!,"*Ready for client test*")</f>
         <v>#REF!</v>
       </c>
-      <c r="G29" s="244"/>
-      <c r="H29" s="245"/>
+      <c r="G29" s="245"/>
+      <c r="H29" s="246"/>
     </row>
     <row r="30" spans="1:12" ht="20.25" customHeight="1">
       <c r="A30" s="100">
@@ -12893,8 +13116,8 @@
         <f>COUNTIFS(#REF!, "*Minor*",#REF!,"*Closed*") + COUNTIFS(#REF!, "*Minor*",#REF!,"*Ready for client test*")</f>
         <v>#REF!</v>
       </c>
-      <c r="G30" s="244"/>
-      <c r="H30" s="245"/>
+      <c r="G30" s="245"/>
+      <c r="H30" s="246"/>
     </row>
     <row r="31" spans="1:12" ht="20.25" customHeight="1">
       <c r="A31" s="100"/>
@@ -12915,8 +13138,8 @@
         <f>SUM(F27:F30)</f>
         <v>#REF!</v>
       </c>
-      <c r="G31" s="244"/>
-      <c r="H31" s="245"/>
+      <c r="G31" s="245"/>
+      <c r="H31" s="246"/>
     </row>
     <row r="32" spans="1:12" ht="20.25" customHeight="1">
       <c r="A32" s="106"/>
@@ -12954,10 +13177,10 @@
       <c r="E34" s="160" t="s">
         <v>344</v>
       </c>
-      <c r="F34" s="252" t="s">
+      <c r="F34" s="253" t="s">
         <v>347</v>
       </c>
-      <c r="G34" s="253"/>
+      <c r="G34" s="254"/>
     </row>
     <row r="35" spans="1:12" s="125" customFormat="1" ht="14.1">
       <c r="A35" s="121"/>
@@ -12973,8 +13196,8 @@
       <c r="E35" s="126" t="s">
         <v>352</v>
       </c>
-      <c r="F35" s="255"/>
-      <c r="G35" s="256"/>
+      <c r="F35" s="256"/>
+      <c r="G35" s="257"/>
       <c r="H35" s="124"/>
       <c r="I35" s="124"/>
       <c r="J35" s="124"/>
@@ -12997,8 +13220,8 @@
       <c r="E36" s="104" t="s">
         <v>358</v>
       </c>
-      <c r="F36" s="244"/>
-      <c r="G36" s="245"/>
+      <c r="F36" s="245"/>
+      <c r="G36" s="246"/>
     </row>
     <row r="37" spans="1:12" ht="20.25" customHeight="1">
       <c r="A37" s="100">
@@ -13016,8 +13239,8 @@
       <c r="E37" s="104" t="s">
         <v>358</v>
       </c>
-      <c r="F37" s="244"/>
-      <c r="G37" s="245"/>
+      <c r="F37" s="245"/>
+      <c r="G37" s="246"/>
     </row>
     <row r="38" spans="1:12" ht="20.25" customHeight="1">
       <c r="A38" s="106"/>
@@ -13030,10 +13253,10 @@
       <c r="H38" s="108"/>
     </row>
     <row r="39" spans="1:12" ht="21.75" customHeight="1">
-      <c r="B39" s="249" t="s">
+      <c r="B39" s="250" t="s">
         <v>399</v>
       </c>
-      <c r="C39" s="249"/>
+      <c r="C39" s="250"/>
       <c r="D39" s="94"/>
       <c r="E39" s="94"/>
       <c r="F39" s="94"/>
@@ -13057,15 +13280,15 @@
       <c r="B41" s="160" t="s">
         <v>62</v>
       </c>
-      <c r="C41" s="254" t="s">
+      <c r="C41" s="255" t="s">
         <v>401</v>
       </c>
-      <c r="D41" s="254"/>
-      <c r="E41" s="254" t="s">
+      <c r="D41" s="255"/>
+      <c r="E41" s="255" t="s">
         <v>402</v>
       </c>
-      <c r="F41" s="254"/>
-      <c r="G41" s="254"/>
+      <c r="F41" s="255"/>
+      <c r="G41" s="255"/>
       <c r="H41" s="99" t="s">
         <v>403</v>
       </c>
@@ -13077,15 +13300,15 @@
       <c r="B42" s="161" t="s">
         <v>404</v>
       </c>
-      <c r="C42" s="257" t="s">
+      <c r="C42" s="258" t="s">
         <v>405</v>
       </c>
-      <c r="D42" s="257"/>
-      <c r="E42" s="257" t="s">
+      <c r="D42" s="258"/>
+      <c r="E42" s="258" t="s">
         <v>406</v>
       </c>
-      <c r="F42" s="257"/>
-      <c r="G42" s="257"/>
+      <c r="F42" s="258"/>
+      <c r="G42" s="258"/>
       <c r="H42" s="109"/>
     </row>
     <row r="43" spans="1:12" ht="34.5" customHeight="1">
@@ -13095,15 +13318,15 @@
       <c r="B43" s="161" t="s">
         <v>404</v>
       </c>
-      <c r="C43" s="257" t="s">
+      <c r="C43" s="258" t="s">
         <v>405</v>
       </c>
-      <c r="D43" s="257"/>
-      <c r="E43" s="257" t="s">
+      <c r="D43" s="258"/>
+      <c r="E43" s="258" t="s">
         <v>406</v>
       </c>
-      <c r="F43" s="257"/>
-      <c r="G43" s="257"/>
+      <c r="F43" s="258"/>
+      <c r="G43" s="258"/>
       <c r="H43" s="109"/>
     </row>
     <row r="44" spans="1:12" ht="34.5" customHeight="1">
@@ -13113,15 +13336,15 @@
       <c r="B44" s="161" t="s">
         <v>404</v>
       </c>
-      <c r="C44" s="257" t="s">
+      <c r="C44" s="258" t="s">
         <v>405</v>
       </c>
-      <c r="D44" s="257"/>
-      <c r="E44" s="257" t="s">
+      <c r="D44" s="258"/>
+      <c r="E44" s="258" t="s">
         <v>406</v>
       </c>
-      <c r="F44" s="257"/>
-      <c r="G44" s="257"/>
+      <c r="F44" s="258"/>
+      <c r="G44" s="258"/>
       <c r="H44" s="109"/>
     </row>
     <row r="45" spans="1:12">
@@ -13133,10 +13356,10 @@
       <c r="G45" s="98"/>
     </row>
     <row r="46" spans="1:12" ht="21.75" customHeight="1">
-      <c r="B46" s="249" t="s">
+      <c r="B46" s="250" t="s">
         <v>407</v>
       </c>
-      <c r="C46" s="249"/>
+      <c r="C46" s="250"/>
       <c r="D46" s="94"/>
       <c r="E46" s="94"/>
       <c r="F46" s="94"/>
@@ -13154,25 +13377,25 @@
       <c r="G47" s="98"/>
     </row>
     <row r="48" spans="1:12" s="113" customFormat="1" ht="21" customHeight="1">
-      <c r="A48" s="260" t="s">
+      <c r="A48" s="261" t="s">
         <v>58</v>
       </c>
-      <c r="B48" s="262" t="s">
+      <c r="B48" s="263" t="s">
         <v>409</v>
       </c>
-      <c r="C48" s="252" t="s">
+      <c r="C48" s="253" t="s">
         <v>410</v>
       </c>
-      <c r="D48" s="264"/>
-      <c r="E48" s="264"/>
-      <c r="F48" s="253"/>
-      <c r="G48" s="265" t="s">
+      <c r="D48" s="265"/>
+      <c r="E48" s="265"/>
+      <c r="F48" s="254"/>
+      <c r="G48" s="266" t="s">
         <v>377</v>
       </c>
-      <c r="H48" s="265" t="s">
+      <c r="H48" s="266" t="s">
         <v>409</v>
       </c>
-      <c r="I48" s="258" t="s">
+      <c r="I48" s="259" t="s">
         <v>411</v>
       </c>
       <c r="J48" s="112"/>
@@ -13180,8 +13403,8 @@
       <c r="L48" s="112"/>
     </row>
     <row r="49" spans="1:9">
-      <c r="A49" s="261"/>
-      <c r="B49" s="263"/>
+      <c r="A49" s="262"/>
+      <c r="B49" s="264"/>
       <c r="C49" s="114" t="s">
         <v>386</v>
       </c>
@@ -13194,13 +13417,13 @@
       <c r="F49" s="115" t="s">
         <v>389</v>
       </c>
-      <c r="G49" s="266"/>
-      <c r="H49" s="266"/>
-      <c r="I49" s="259"/>
+      <c r="G49" s="267"/>
+      <c r="H49" s="267"/>
+      <c r="I49" s="260"/>
     </row>
     <row r="50" spans="1:9" ht="25.2">
-      <c r="A50" s="261"/>
-      <c r="B50" s="263"/>
+      <c r="A50" s="262"/>
+      <c r="B50" s="264"/>
       <c r="C50" s="128" t="s">
         <v>412</v>
       </c>
@@ -13381,21 +13604,12 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement/>
 </p:properties>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101008DD9373D9A24F64F89F14F461305A106" ma:contentTypeVersion="4" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="edefd2bea9a69e65a3918d4b9d850884">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="cabca498-5e2a-459c-ade0-601c6a98c846" xmlns:ns3="044e8ed5-b60c-40cd-b477-04c240ccf9c3" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="1cdcf90a8e7cb27405451b504492cec2" ns2:_="" ns3:_="">
     <xsd:import namespace="cabca498-5e2a-459c-ade0-601c6a98c846"/>
@@ -13560,15 +13774,16 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4F8C6C6D-E626-49D4-9BA8-E27B2B9C9191}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{06E3E4FA-795A-4742-A021-9CDC3210C50B}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
@@ -13585,7 +13800,7 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A7729ACD-7A20-4344-BFA5-B224A8419F45}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -13602,4 +13817,12 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4F8C6C6D-E626-49D4-9BA8-E27B2B9C9191}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/test design technic daongochuy.xlsx
+++ b/test design technic daongochuy.xlsx
@@ -300,7 +300,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F35" authorId="1" shapeId="0">
+    <comment ref="F53" authorId="1" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -324,7 +324,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F87" authorId="1" shapeId="0">
+    <comment ref="F140" authorId="1" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -348,7 +348,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F88" authorId="1" shapeId="0">
+    <comment ref="F141" authorId="1" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -372,7 +372,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F90" authorId="1" shapeId="0">
+    <comment ref="F143" authorId="1" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -396,7 +396,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F103" authorId="1" shapeId="0">
+    <comment ref="F156" authorId="1" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -420,7 +420,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G103" authorId="1" shapeId="0">
+    <comment ref="G156" authorId="1" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -444,7 +444,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F104" authorId="1" shapeId="0">
+    <comment ref="F157" authorId="1" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -468,7 +468,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G104" authorId="1" shapeId="0">
+    <comment ref="G157" authorId="1" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -492,7 +492,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F109" authorId="1" shapeId="0">
+    <comment ref="F162" authorId="1" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -516,7 +516,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G109" authorId="1" shapeId="0">
+    <comment ref="G162" authorId="1" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -540,7 +540,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F112" authorId="1" shapeId="0">
+    <comment ref="F165" authorId="1" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -564,7 +564,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F127" authorId="1" shapeId="0">
+    <comment ref="F180" authorId="1" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -588,7 +588,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F129" authorId="1" shapeId="0">
+    <comment ref="F182" authorId="1" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -994,7 +994,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="958" uniqueCount="592">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1140" uniqueCount="725">
   <si>
     <r>
       <t xml:space="preserve">Security Classification: </t>
@@ -3043,42 +3043,24 @@
     <t xml:space="preserve">Phone Number </t>
   </si>
   <si>
-    <t>Unfill the blank</t>
-  </si>
-  <si>
     <t xml:space="preserve">SMS Verification Code </t>
   </si>
   <si>
-    <t xml:space="preserve">Unfill the blank </t>
-  </si>
-  <si>
     <t xml:space="preserve">Password </t>
   </si>
   <si>
-    <t>Phone number has 1 number</t>
-  </si>
-  <si>
     <t>Phone number has 10 numbers</t>
   </si>
   <si>
-    <t xml:space="preserve">Phone number in the range of 1 to 9 number </t>
-  </si>
-  <si>
     <t xml:space="preserve">Phone number has more than 10 numbers </t>
   </si>
   <si>
     <t xml:space="preserve">Phone number has special characters </t>
   </si>
   <si>
-    <t>Verfication code has1 digit</t>
-  </si>
-  <si>
     <t>Verfication code has 6 digits</t>
   </si>
   <si>
-    <t xml:space="preserve">Verfication code in the range of 1 to 5 digits </t>
-  </si>
-  <si>
     <t xml:space="preserve">Verfication code has more than 6 digits </t>
   </si>
   <si>
@@ -3091,9 +3073,6 @@
     <t xml:space="preserve">Password has more than 50 characters </t>
   </si>
   <si>
-    <t xml:space="preserve">Password in the range of 6 to 49 characters </t>
-  </si>
-  <si>
     <t xml:space="preserve">Password doesn't contain numberic </t>
   </si>
   <si>
@@ -3103,18 +3082,6 @@
     <t xml:space="preserve">Birthday </t>
   </si>
   <si>
-    <t>User enters invalid Day</t>
-  </si>
-  <si>
-    <t>User enters invalid Month</t>
-  </si>
-  <si>
-    <t>User enters invalid Year</t>
-  </si>
-  <si>
-    <t xml:space="preserve">User enters valid format </t>
-  </si>
-  <si>
     <t xml:space="preserve">Gender </t>
   </si>
   <si>
@@ -3145,9 +3112,6 @@
     <t xml:space="preserve">Full Name has more than 50 characters </t>
   </si>
   <si>
-    <t xml:space="preserve">Full Name in the range of 6 to 49 characters </t>
-  </si>
-  <si>
     <t xml:space="preserve">Full Name contains numberic </t>
   </si>
   <si>
@@ -3157,9 +3121,6 @@
     <t xml:space="preserve">Unfill the box </t>
   </si>
   <si>
-    <t xml:space="preserve">Initial Sign </t>
-  </si>
-  <si>
     <t xml:space="preserve">Function test </t>
   </si>
   <si>
@@ -3169,36 +3130,9 @@
     <t xml:space="preserve">All the box filled in correctly </t>
   </si>
   <si>
-    <t xml:space="preserve">"Phone Number" box missed </t>
-  </si>
-  <si>
-    <t xml:space="preserve">"Phone Number" invalid </t>
-  </si>
-  <si>
-    <t xml:space="preserve">"Phone Number" incorrect </t>
-  </si>
-  <si>
-    <t xml:space="preserve">"SMS Verification Code" box missed </t>
-  </si>
-  <si>
-    <t xml:space="preserve">"SMS Verification Code" invalid </t>
-  </si>
-  <si>
-    <t xml:space="preserve">"SMS Verifucation Code" incorrect </t>
-  </si>
-  <si>
     <t xml:space="preserve">Users choose to sign up with Google </t>
   </si>
   <si>
-    <t xml:space="preserve">"Password" box missed </t>
-  </si>
-  <si>
-    <t xml:space="preserve">"Password" invalid </t>
-  </si>
-  <si>
-    <t xml:space="preserve">"Password" incorrect </t>
-  </si>
-  <si>
     <t xml:space="preserve">Users choose to sign up with Facebook </t>
   </si>
   <si>
@@ -3211,22 +3145,564 @@
     <t>Sign Up with Email</t>
   </si>
   <si>
-    <t xml:space="preserve">Password showed or hidden </t>
-  </si>
-  <si>
-    <t xml:space="preserve">"Birthday" box missed </t>
-  </si>
-  <si>
-    <t xml:space="preserve">"Gender" box missed </t>
-  </si>
-  <si>
-    <t xml:space="preserve">"Full Name" incorrect </t>
-  </si>
-  <si>
-    <t xml:space="preserve">"Full Name" box missed </t>
-  </si>
-  <si>
-    <t xml:space="preserve">"Full Name" invalid </t>
+    <t xml:space="preserve">Users Click "Signup" button </t>
+  </si>
+  <si>
+    <t>Terms and conditions</t>
+  </si>
+  <si>
+    <t>Privacy Policy</t>
+  </si>
+  <si>
+    <t>Users Slide "SMS Verification Box"</t>
+  </si>
+  <si>
+    <t>Phone number has less than 10number</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Verification code is valid </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Verification code is invalid </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Verfication code is expired </t>
+  </si>
+  <si>
+    <t xml:space="preserve">"X" button </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Verification slided withouit valid phone number </t>
+  </si>
+  <si>
+    <t>Verifcation code copied from message</t>
+  </si>
+  <si>
+    <t>Default status of Verfication Code box</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Default status of Phone Number box </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Phone Number is invalid </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Phone Number is valid </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Phone Number is existed </t>
+  </si>
+  <si>
+    <t xml:space="preserve">"X" button in the box </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Phone Number is pasted to the box </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Trim function in the Phone Number box </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Password contains special character </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Password meets the policy </t>
+  </si>
+  <si>
+    <t xml:space="preserve">"Eye" button in Password box </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Password is invalid </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Password is pasted to the box </t>
+  </si>
+  <si>
+    <t xml:space="preserve">"X" button in Password box </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Trim function in Password box </t>
+  </si>
+  <si>
+    <t>Day</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Default status of the Bitrhday fields </t>
+  </si>
+  <si>
+    <t>Drop down button in "Day" fields</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Scroll bar to select day </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Enter Day from keyboard </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Select valid Day </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Select invalid Day </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Select future date </t>
+  </si>
+  <si>
+    <t>Month</t>
+  </si>
+  <si>
+    <t>Year</t>
+  </si>
+  <si>
+    <t>Drop down button in "Month" fields</t>
+  </si>
+  <si>
+    <t>Scroll bar to select Month</t>
+  </si>
+  <si>
+    <t>Select valid Month</t>
+  </si>
+  <si>
+    <t>Select invalid Month</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Enter Month from keyboard </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Select future Month </t>
+  </si>
+  <si>
+    <t>Drop down button in "Year" fields</t>
+  </si>
+  <si>
+    <t>Scroll bar to select Year</t>
+  </si>
+  <si>
+    <t>Select valid Year</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Enter Year from keyboard </t>
+  </si>
+  <si>
+    <t>"Year" not selected</t>
+  </si>
+  <si>
+    <t>"Month" not selected</t>
+  </si>
+  <si>
+    <t>"Day" not selected</t>
+  </si>
+  <si>
+    <t>Default status of Gender field</t>
+  </si>
+  <si>
+    <t>Drop down button Gender field</t>
+  </si>
+  <si>
+    <t>Scroll Bar to Select Gender</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gender not selected </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Users  types Valid Full Name </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Full Name pasted to the box </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Trim function in Full Name  box </t>
+  </si>
+  <si>
+    <t xml:space="preserve">The box is checkable </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Users click on "Terms Of Use" hyperlink </t>
+  </si>
+  <si>
+    <t>Users click on "Privacy Policy" hyperlink</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Phone Number has placeholder </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Verification Code box has placeholder  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Password box has placholder </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Day box has placholder </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Month box has placholder </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Year box has placholder </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gendet box has placholder </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Full Name box has placholder </t>
+  </si>
+  <si>
+    <t>Required Fileds Signification</t>
+  </si>
+  <si>
+    <t xml:space="preserve">* symbol in Full Name </t>
+  </si>
+  <si>
+    <t xml:space="preserve">* symbol in Phone Number </t>
+  </si>
+  <si>
+    <t xml:space="preserve">* symbol in Password </t>
+  </si>
+  <si>
+    <t>Verify that * is displayed in next to the name of required fields</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Leave the box empty </t>
+  </si>
+  <si>
+    <t>Error message 1: The length of Phone number
+should be 10 characters.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Error message 2: Please enter Phone number </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Error message: Please enter a valid Phone Number </t>
+  </si>
+  <si>
+    <t>Error message: This number is existed</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Verfication code has less than 6 digits </t>
+  </si>
+  <si>
+    <t>Error message 1: Please enter only 6 digits</t>
+  </si>
+  <si>
+    <t>Verify that all content in the box cleared</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Verify that users can check the box </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Verify that place holder "First Last " appear when Full Name haven't typed  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Default status of Full Name box </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Verify that the box is empty with place holder when loading the page </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Full Name in the range of 6 to 50 characters </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Verify that Full Name can be pasted to the box </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Verify that the text "Male " appear in the Gender box </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Verify that the text "Female " appear in the Gender box </t>
+  </si>
+  <si>
+    <t>Verify that options appears when user click on Drop down button</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Verify that all the box is empty with place holder when loading page </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Verify that the next or previous options appears when users use the scroll bar </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Verify that Phone Number can be pasted to the box </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Verify that Verification code can be pasted to the box </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Verify that this box turn back to default status </t>
+  </si>
+  <si>
+    <t xml:space="preserve">'Verify that place holder appear when Full Name haven't typed  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">'Verify that place holder  appear when Verification Code haven't typed  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Verify that the box is empty with place holder when loading the page  </t>
+  </si>
+  <si>
+    <t>Verufy that place holder appear when password haven’t typed</t>
+  </si>
+  <si>
+    <t>Verify that Phone Number displayed in the box without showing any error message</t>
+  </si>
+  <si>
+    <t>Error message 2: Please enter SMS Verification Code</t>
+  </si>
+  <si>
+    <t>Verify that Verifcation Code dispalyed without showing any error message</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Error message: Verification Code is invalid </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Error message:: Verifcation Code is expired </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Verify that Password can be pasted to the box </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Error message 2: Please enter Password value </t>
+  </si>
+  <si>
+    <t>Error message 1: The length of Password should be
+6-50 characters.</t>
+  </si>
+  <si>
+    <t>Error message: Password should contain alphabetic and numeric characters.</t>
+  </si>
+  <si>
+    <t>Verify that Password displayed when users clicked the button</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Verufy that error messages displayed when users type invalid password </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Verify that users cannot enter day from keyboard </t>
+  </si>
+  <si>
+    <t xml:space="preserve">'Verify that place holder appear when Gender haven't selected  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Verify that place holder appear when Year haven't selected  </t>
+  </si>
+  <si>
+    <t>Error Mesage : Wrong Birthday format</t>
+  </si>
+  <si>
+    <t xml:space="preserve">'Verify that users cannot enter day from keyboard </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Password is encrypted </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Verify that password is encrypted </t>
+  </si>
+  <si>
+    <t>Verify that Password displayed in the box witthout showing any error message</t>
+  </si>
+  <si>
+    <t>Verify that no problem occur when the box is unchecked</t>
+  </si>
+  <si>
+    <t>Verify that no problem occur when the box not selected</t>
+  </si>
+  <si>
+    <t>'Verify that no problem occur when the box not selected</t>
+  </si>
+  <si>
+    <t>Verify that no error message display</t>
+  </si>
+  <si>
+    <t>'Verify that no error message display</t>
+  </si>
+  <si>
+    <t>Error message 2: Please enter Full Name</t>
+  </si>
+  <si>
+    <t>Error message 1: The name length should be 6 - 50
+characters</t>
+  </si>
+  <si>
+    <t>Verify that Full Name dispalyed without showing any error message</t>
+  </si>
+  <si>
+    <t>verify that ‘SMS Verification Code' is sent when Enter valid phone number and click on ‘Slide to get SMS code’ button</t>
+  </si>
+  <si>
+    <t>verify that show no erroor message when input valid Verification Code</t>
+  </si>
+  <si>
+    <t>Verify that account can not created successfully when Enter incorrect SMS Verification Code, Other mandatory fields and Click on ‘Sign up’ button. User can not login with user is being create</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SMS Verification Code send to Phone Number </t>
+  </si>
+  <si>
+    <t xml:space="preserve">verify field ‘ Verification Code' is sent to SMS when the Phone Number is valid and users slide to get Verification Code </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Verify that users are linked to "Terms of Use " Page </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Verify that users are linked to "Privacy Policy" Page </t>
+  </si>
+  <si>
+    <t xml:space="preserve">All the mandatory box filled in correctly </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Verify that users sign up succesfully </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Verify that the box is checked when loading the page </t>
+  </si>
+  <si>
+    <t>Default Status</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SMS code expried and all box filled correctly </t>
+  </si>
+  <si>
+    <t xml:space="preserve">SMS code inccorect and all box filled correctly </t>
+  </si>
+  <si>
+    <t>1, Go to Sign Up page 
+2, Fill in all the boxes correctly 
+3, Click on Sign Up button</t>
+  </si>
+  <si>
+    <t>1, Go to Sign Up page 
+2, Fill in all mandatory boxes correctly 
+3, Click on Sign Up button</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1, Go to Sign Up page 
+2, Fill in valid Phone Number 
+3, Slide "Slide to get SMS Verification code" button </t>
+  </si>
+  <si>
+    <t xml:space="preserve">1, Go to Sign Up page 
+2, Fill in valid Phone Number 
+3, Slide "Slide to get SMS Verification code" button 
+4, Wait over 5 minutes to let the code expried 
+5, Filled in all the manatorybox correctly 
+6, Click Sign Up button </t>
+  </si>
+  <si>
+    <t xml:space="preserve">1, Go to Sign Up page 
+2, Fill in valid Phone Number 
+3, Slide "Slide to get SMS Verification code" button 
+4, Type in the inccorect code 
+5, Filled in all the manatorybox correctly 
+6, Click Sign Up button </t>
+  </si>
+  <si>
+    <t xml:space="preserve">1, Go to Sign Up page 
+2, Slide "Slide to get SMS Verification code" button </t>
+  </si>
+  <si>
+    <t xml:space="preserve">1, Go to Sign Up page 
+2, Focuss on SMS Verification box 
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1, Go to Sign Up page 
+2, Fill in valid Phone Number 
+3, Slide "Slide to get SMS Verification code" button 
+4, Enter Verifcation Code 
+5, Click on "X" button </t>
+  </si>
+  <si>
+    <t>1, Go to Sign Up page 
+2, Fill in valid Phone Number 
+3, Slide "Slide to get SMS Verification code" button 
+4, Focus on the box 
+5, Unfocus the box</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1, Go to Sign Up page 
+2, Fill in valid Phone Number 
+3, Slide "Slide to get SMS Verification code" button 
+4, Type 4 digits number to the box 
+5, Unfocus the box </t>
+  </si>
+  <si>
+    <t xml:space="preserve">1, Go to Sign Up page 
+2, Fill in valid Phone Number 
+3, Slide "Slide to get SMS Verification code" button 
+4, Type 6 digits number to the box 
+5, Unfocus the box </t>
+  </si>
+  <si>
+    <t xml:space="preserve">1, Go to Sign Up page 
+2, Fill in valid Phone Number 
+3, Slide "Slide to get SMS Verification code" button 
+4, Type more than 6 digits number to the box 
+5, Unfocus the box </t>
+  </si>
+  <si>
+    <t xml:space="preserve">1, Go to Sign Up page 
+2, Fill in valid Phone Number 
+3, Slide "Slide to get SMS Verification code" button 
+4, Type more than valid number to the box 
+5, Unfocus the box </t>
+  </si>
+  <si>
+    <t xml:space="preserve">1, Go to Sign Up page 
+2, Fill in valid Phone Number 
+3, Slide "Slide to get SMS Verification code" button 
+4, Type more than invalid number to the box 
+5, Unfocus the box </t>
+  </si>
+  <si>
+    <t xml:space="preserve">1, Go to Sign Up page 
+2, Fill in valid Phone Number 
+3, Slide "Slide to get SMS Verification code" button 
+4, Wait over 5 minutes to let the code expried </t>
+  </si>
+  <si>
+    <t xml:space="preserve">1, Go to Sign Up page 
+2, Fill in valid Phone Number 
+3, Slide "Slide to get SMS Verification code" button 
+4, Copy from the message and paste to the box </t>
+  </si>
+  <si>
+    <t xml:space="preserve">1, Go to Sign Up page 
+2, Fill in valid Phone Number 
+3, Slide "Slide to get SMS Verification code" button 
+4, Type special characters to the box 
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1, Go to Sign Up page 
+2, Focuss on Password Box  
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1, Go to Sign Up page 
+2, Focuss on Password Box  
+3, Unfocus on Password box 
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1, Go to Sign Up page 
+2, Focuss on Password Box  
+3, Types in password that contain less than 6 characters
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1, Go to Sign Up page 
+2, Focuss on Password Box  
+3, Types in password that contain 6 characters
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1, Go to Sign Up page 
+2, Focuss on Password Box  
+3, Types in password that contain more than 50 characters
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1, Go to Sign Up page 
+2, Focuss on Password Box  
+3, Types in password that contain 50 characters
+</t>
   </si>
 </sst>
 </file>
@@ -3238,7 +3714,7 @@
     <numFmt numFmtId="165" formatCode="[$-409]d\-mmm\-yy;@"/>
     <numFmt numFmtId="166" formatCode="[$-409]mmmm\ d\,\ yyyy;@"/>
   </numFmts>
-  <fonts count="68">
+  <fonts count="71">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -3700,8 +4176,26 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="38">
+  <fills count="42">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -3921,6 +4415,30 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="41"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+        <bgColor rgb="FFF2F2F2"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.59999389629810485"/>
+        <bgColor indexed="26"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFBFBFBF"/>
         <bgColor indexed="41"/>
       </patternFill>
     </fill>
@@ -4312,7 +4830,7 @@
     <xf numFmtId="166" fontId="56" fillId="0" borderId="0"/>
     <xf numFmtId="166" fontId="57" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="295">
+  <cellXfs count="316">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
@@ -4815,282 +5333,9 @@
     <xf numFmtId="0" fontId="1" fillId="27" borderId="2" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="22" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="23" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="27" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="64" fillId="8" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="4" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="5" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="3" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="65" fillId="8" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="0" borderId="0" xfId="6" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="0" xfId="6" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="64" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="15" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="16" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="11" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="64" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="5" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="1" fillId="0" borderId="6" xfId="5" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="15" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="16" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="11" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="25" borderId="15" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="25" borderId="16" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="25" borderId="11" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="24" borderId="15" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="24" borderId="16" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="24" borderId="11" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="15" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="16" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="11" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="52" fillId="24" borderId="15" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="26" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="26" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="26" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="12" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="13" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="10" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="17" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="48" fillId="0" borderId="15" xfId="7" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="48" fillId="0" borderId="11" xfId="7" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="166" fontId="43" fillId="12" borderId="0" xfId="7" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="166" fontId="44" fillId="0" borderId="0" xfId="7" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="166" fontId="44" fillId="0" borderId="0" xfId="7" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="166" fontId="30" fillId="3" borderId="0" xfId="7" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="166" fontId="3" fillId="2" borderId="8" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="166" fontId="3" fillId="2" borderId="0" xfId="7" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="166" fontId="3" fillId="2" borderId="15" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="166" fontId="3" fillId="2" borderId="11" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="166" fontId="3" fillId="2" borderId="6" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="61" fillId="0" borderId="15" xfId="7" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="61" fillId="0" borderId="11" xfId="7" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="166" fontId="46" fillId="0" borderId="6" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="12" xfId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="10" xfId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="14" xfId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="19" xfId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="166" fontId="3" fillId="2" borderId="18" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="166" fontId="3" fillId="2" borderId="20" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="166" fontId="3" fillId="2" borderId="16" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="18" xfId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="7" xfId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="6" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="15" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="16" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="11" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="33" borderId="16" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="33" borderId="11" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="33" borderId="15" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -5106,12 +5351,6 @@
     <xf numFmtId="0" fontId="1" fillId="35" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="36" borderId="16" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="36" borderId="11" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="27" borderId="16" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -5123,15 +5362,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="34" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="37" borderId="15" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="37" borderId="16" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="37" borderId="11" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="37" fillId="34" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="37" fillId="34" borderId="6" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -5140,11 +5370,362 @@
     <xf numFmtId="0" fontId="37" fillId="34" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="67" fillId="6" borderId="6" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="68" fillId="38" borderId="6" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="39" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="41" borderId="6" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="16" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="16" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="6" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="36" borderId="6" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="22" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="23" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="27" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="64" fillId="8" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="4" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="5" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="3" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="65" fillId="8" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="0" borderId="0" xfId="6" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="0" xfId="6" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="64" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="15" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="16" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="11" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="64" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="5" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="6" xfId="5" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="15" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="16" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="11" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="25" borderId="15" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="25" borderId="16" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="25" borderId="11" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="24" borderId="15" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="24" borderId="16" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="24" borderId="11" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="15" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="16" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="11" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="52" fillId="24" borderId="15" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="26" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="26" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="26" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="12" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="13" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="10" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="17" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="37" borderId="15" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="37" borderId="16" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="37" borderId="11" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="37" fillId="36" borderId="15" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="67" fillId="6" borderId="6" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="36" borderId="16" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="36" borderId="11" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="41" borderId="15" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="41" borderId="16" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="41" borderId="11" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="15" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="16" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="11" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="33" borderId="15" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="33" borderId="16" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="33" borderId="11" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="40" borderId="15" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="40" borderId="16" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="40" borderId="11" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="39" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="39" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="39" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="48" fillId="0" borderId="15" xfId="7" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="48" fillId="0" borderId="11" xfId="7" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="43" fillId="12" borderId="0" xfId="7" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="166" fontId="44" fillId="0" borderId="0" xfId="7" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="166" fontId="44" fillId="0" borderId="0" xfId="7" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="166" fontId="30" fillId="3" borderId="0" xfId="7" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="3" fillId="2" borderId="8" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="3" fillId="2" borderId="0" xfId="7" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="3" fillId="2" borderId="15" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="3" fillId="2" borderId="11" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="3" fillId="2" borderId="6" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="61" fillId="0" borderId="15" xfId="7" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="61" fillId="0" borderId="11" xfId="7" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="46" fillId="0" borderId="6" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="12" xfId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="10" xfId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="14" xfId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="19" xfId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="3" fillId="2" borderId="18" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="3" fillId="2" borderId="20" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="3" fillId="2" borderId="16" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="18" xfId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="7" xfId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="69" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="70" fillId="9" borderId="7" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="6" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="70" fillId="9" borderId="7" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="6" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="70" fillId="9" borderId="7" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="27">
@@ -5392,8 +5973,8 @@
   </tableStyles>
   <colors>
     <mruColors>
+      <color rgb="FFBFBFBF"/>
       <color rgb="FFF2F2F2"/>
-      <color rgb="FFBFBFBF"/>
       <color rgb="FF6D829F"/>
       <color rgb="FF6D828B"/>
       <color rgb="FFCC2337"/>
@@ -5906,37 +6487,37 @@
       <c r="F3" s="18"/>
     </row>
     <row r="4" spans="1:6" ht="15" customHeight="1">
-      <c r="A4" s="187" t="s">
+      <c r="A4" s="208" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="188"/>
-      <c r="C4" s="188"/>
-      <c r="D4" s="188"/>
-      <c r="E4" s="189"/>
+      <c r="B4" s="209"/>
+      <c r="C4" s="209"/>
+      <c r="D4" s="209"/>
+      <c r="E4" s="210"/>
       <c r="F4" s="18"/>
     </row>
     <row r="5" spans="1:6">
-      <c r="A5" s="190" t="s">
+      <c r="A5" s="211" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="190"/>
-      <c r="C5" s="191" t="s">
+      <c r="B5" s="211"/>
+      <c r="C5" s="212" t="s">
         <v>4</v>
       </c>
-      <c r="D5" s="191"/>
-      <c r="E5" s="191"/>
+      <c r="D5" s="212"/>
+      <c r="E5" s="212"/>
       <c r="F5" s="18"/>
     </row>
     <row r="6" spans="1:6" ht="29.25" customHeight="1">
-      <c r="A6" s="192" t="s">
+      <c r="A6" s="213" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="193"/>
-      <c r="C6" s="186" t="s">
+      <c r="B6" s="214"/>
+      <c r="C6" s="207" t="s">
         <v>6</v>
       </c>
-      <c r="D6" s="186"/>
-      <c r="E6" s="186"/>
+      <c r="D6" s="207"/>
+      <c r="E6" s="207"/>
       <c r="F6" s="18"/>
     </row>
     <row r="7" spans="1:6" ht="29.25" customHeight="1">
@@ -5948,14 +6529,14 @@
       <c r="F7" s="18"/>
     </row>
     <row r="8" spans="1:6" s="147" customFormat="1" ht="29.25" customHeight="1">
-      <c r="A8" s="184" t="s">
+      <c r="A8" s="205" t="s">
         <v>7</v>
       </c>
-      <c r="B8" s="185"/>
-      <c r="C8" s="185"/>
-      <c r="D8" s="185"/>
-      <c r="E8" s="185"/>
-      <c r="F8" s="185"/>
+      <c r="B8" s="206"/>
+      <c r="C8" s="206"/>
+      <c r="D8" s="206"/>
+      <c r="E8" s="206"/>
+      <c r="F8" s="206"/>
     </row>
     <row r="9" spans="1:6" s="147" customFormat="1" ht="15" customHeight="1">
       <c r="A9" s="148" t="s">
@@ -6038,14 +6619,14 @@
       </c>
     </row>
     <row r="13" spans="1:6" s="147" customFormat="1" ht="30" customHeight="1">
-      <c r="A13" s="186" t="s">
+      <c r="A13" s="207" t="s">
         <v>23</v>
       </c>
-      <c r="B13" s="186"/>
-      <c r="C13" s="186"/>
-      <c r="D13" s="186"/>
-      <c r="E13" s="186"/>
-      <c r="F13" s="186"/>
+      <c r="B13" s="207"/>
+      <c r="C13" s="207"/>
+      <c r="D13" s="207"/>
+      <c r="E13" s="207"/>
+      <c r="F13" s="207"/>
     </row>
     <row r="14" spans="1:6">
       <c r="A14" s="18"/>
@@ -6168,36 +6749,36 @@
       <c r="K1" s="34"/>
     </row>
     <row r="2" spans="1:11" ht="25.5" customHeight="1">
-      <c r="B2" s="199" t="s">
+      <c r="B2" s="220" t="s">
         <v>25</v>
       </c>
-      <c r="C2" s="199"/>
-      <c r="D2" s="199"/>
-      <c r="E2" s="199"/>
-      <c r="F2" s="199"/>
-      <c r="G2" s="199"/>
-      <c r="H2" s="199"/>
-      <c r="I2" s="199"/>
-      <c r="J2" s="197" t="s">
+      <c r="C2" s="220"/>
+      <c r="D2" s="220"/>
+      <c r="E2" s="220"/>
+      <c r="F2" s="220"/>
+      <c r="G2" s="220"/>
+      <c r="H2" s="220"/>
+      <c r="I2" s="220"/>
+      <c r="J2" s="218" t="s">
         <v>26</v>
       </c>
-      <c r="K2" s="197"/>
+      <c r="K2" s="218"/>
     </row>
     <row r="3" spans="1:11" ht="28.5" customHeight="1">
-      <c r="B3" s="200" t="s">
+      <c r="B3" s="221" t="s">
         <v>27</v>
       </c>
-      <c r="C3" s="200"/>
-      <c r="D3" s="200"/>
-      <c r="E3" s="200"/>
-      <c r="F3" s="198" t="s">
+      <c r="C3" s="221"/>
+      <c r="D3" s="221"/>
+      <c r="E3" s="221"/>
+      <c r="F3" s="219" t="s">
         <v>28</v>
       </c>
-      <c r="G3" s="198"/>
-      <c r="H3" s="198"/>
-      <c r="I3" s="198"/>
-      <c r="J3" s="197"/>
-      <c r="K3" s="197"/>
+      <c r="G3" s="219"/>
+      <c r="H3" s="219"/>
+      <c r="I3" s="219"/>
+      <c r="J3" s="218"/>
+      <c r="K3" s="218"/>
     </row>
     <row r="4" spans="1:11" ht="18" customHeight="1">
       <c r="B4" s="153"/>
@@ -6217,65 +6798,65 @@
       </c>
     </row>
     <row r="7" spans="1:11">
-      <c r="A7" s="204" t="s">
+      <c r="A7" s="225" t="s">
         <v>30</v>
       </c>
-      <c r="B7" s="204"/>
-      <c r="C7" s="204"/>
-      <c r="D7" s="204"/>
-      <c r="E7" s="204"/>
-      <c r="F7" s="204"/>
-      <c r="G7" s="204"/>
-      <c r="H7" s="204"/>
-      <c r="I7" s="204"/>
+      <c r="B7" s="225"/>
+      <c r="C7" s="225"/>
+      <c r="D7" s="225"/>
+      <c r="E7" s="225"/>
+      <c r="F7" s="225"/>
+      <c r="G7" s="225"/>
+      <c r="H7" s="225"/>
+      <c r="I7" s="225"/>
     </row>
     <row r="8" spans="1:11" ht="20.25" customHeight="1">
-      <c r="A8" s="204"/>
-      <c r="B8" s="204"/>
-      <c r="C8" s="204"/>
-      <c r="D8" s="204"/>
-      <c r="E8" s="204"/>
-      <c r="F8" s="204"/>
-      <c r="G8" s="204"/>
-      <c r="H8" s="204"/>
-      <c r="I8" s="204"/>
+      <c r="A8" s="225"/>
+      <c r="B8" s="225"/>
+      <c r="C8" s="225"/>
+      <c r="D8" s="225"/>
+      <c r="E8" s="225"/>
+      <c r="F8" s="225"/>
+      <c r="G8" s="225"/>
+      <c r="H8" s="225"/>
+      <c r="I8" s="225"/>
     </row>
     <row r="9" spans="1:11">
-      <c r="A9" s="204" t="s">
+      <c r="A9" s="225" t="s">
         <v>31</v>
       </c>
-      <c r="B9" s="204"/>
-      <c r="C9" s="204"/>
-      <c r="D9" s="204"/>
-      <c r="E9" s="204"/>
-      <c r="F9" s="204"/>
-      <c r="G9" s="204"/>
-      <c r="H9" s="204"/>
-      <c r="I9" s="204"/>
+      <c r="B9" s="225"/>
+      <c r="C9" s="225"/>
+      <c r="D9" s="225"/>
+      <c r="E9" s="225"/>
+      <c r="F9" s="225"/>
+      <c r="G9" s="225"/>
+      <c r="H9" s="225"/>
+      <c r="I9" s="225"/>
     </row>
     <row r="10" spans="1:11" ht="21" customHeight="1">
-      <c r="A10" s="204"/>
-      <c r="B10" s="204"/>
-      <c r="C10" s="204"/>
-      <c r="D10" s="204"/>
-      <c r="E10" s="204"/>
-      <c r="F10" s="204"/>
-      <c r="G10" s="204"/>
-      <c r="H10" s="204"/>
-      <c r="I10" s="204"/>
+      <c r="A10" s="225"/>
+      <c r="B10" s="225"/>
+      <c r="C10" s="225"/>
+      <c r="D10" s="225"/>
+      <c r="E10" s="225"/>
+      <c r="F10" s="225"/>
+      <c r="G10" s="225"/>
+      <c r="H10" s="225"/>
+      <c r="I10" s="225"/>
     </row>
     <row r="11" spans="1:11" ht="13.8">
-      <c r="A11" s="205" t="s">
+      <c r="A11" s="226" t="s">
         <v>32</v>
       </c>
-      <c r="B11" s="205"/>
-      <c r="C11" s="205"/>
-      <c r="D11" s="205"/>
-      <c r="E11" s="205"/>
-      <c r="F11" s="205"/>
-      <c r="G11" s="205"/>
-      <c r="H11" s="205"/>
-      <c r="I11" s="205"/>
+      <c r="B11" s="226"/>
+      <c r="C11" s="226"/>
+      <c r="D11" s="226"/>
+      <c r="E11" s="226"/>
+      <c r="F11" s="226"/>
+      <c r="G11" s="226"/>
+      <c r="H11" s="226"/>
+      <c r="I11" s="226"/>
     </row>
     <row r="12" spans="1:11">
       <c r="A12" s="3"/>
@@ -6297,65 +6878,65 @@
       <c r="A14" s="134" t="s">
         <v>34</v>
       </c>
-      <c r="B14" s="201" t="s">
+      <c r="B14" s="222" t="s">
         <v>35</v>
       </c>
-      <c r="C14" s="202"/>
-      <c r="D14" s="202"/>
-      <c r="E14" s="202"/>
-      <c r="F14" s="202"/>
-      <c r="G14" s="202"/>
-      <c r="H14" s="202"/>
-      <c r="I14" s="202"/>
-      <c r="J14" s="202"/>
-      <c r="K14" s="203"/>
+      <c r="C14" s="223"/>
+      <c r="D14" s="223"/>
+      <c r="E14" s="223"/>
+      <c r="F14" s="223"/>
+      <c r="G14" s="223"/>
+      <c r="H14" s="223"/>
+      <c r="I14" s="223"/>
+      <c r="J14" s="223"/>
+      <c r="K14" s="224"/>
     </row>
     <row r="15" spans="1:11" ht="14.25" customHeight="1">
       <c r="A15" s="134" t="s">
         <v>36</v>
       </c>
-      <c r="B15" s="201" t="s">
+      <c r="B15" s="222" t="s">
         <v>37</v>
       </c>
-      <c r="C15" s="202"/>
-      <c r="D15" s="202"/>
-      <c r="E15" s="202"/>
-      <c r="F15" s="202"/>
-      <c r="G15" s="202"/>
-      <c r="H15" s="202"/>
-      <c r="I15" s="202"/>
-      <c r="J15" s="202"/>
-      <c r="K15" s="203"/>
+      <c r="C15" s="223"/>
+      <c r="D15" s="223"/>
+      <c r="E15" s="223"/>
+      <c r="F15" s="223"/>
+      <c r="G15" s="223"/>
+      <c r="H15" s="223"/>
+      <c r="I15" s="223"/>
+      <c r="J15" s="223"/>
+      <c r="K15" s="224"/>
     </row>
     <row r="16" spans="1:11" ht="14.25" customHeight="1">
       <c r="A16" s="134"/>
-      <c r="B16" s="201" t="s">
+      <c r="B16" s="222" t="s">
         <v>38</v>
       </c>
-      <c r="C16" s="202"/>
-      <c r="D16" s="202"/>
-      <c r="E16" s="202"/>
-      <c r="F16" s="202"/>
-      <c r="G16" s="202"/>
-      <c r="H16" s="202"/>
-      <c r="I16" s="202"/>
-      <c r="J16" s="202"/>
-      <c r="K16" s="203"/>
+      <c r="C16" s="223"/>
+      <c r="D16" s="223"/>
+      <c r="E16" s="223"/>
+      <c r="F16" s="223"/>
+      <c r="G16" s="223"/>
+      <c r="H16" s="223"/>
+      <c r="I16" s="223"/>
+      <c r="J16" s="223"/>
+      <c r="K16" s="224"/>
     </row>
     <row r="17" spans="1:14" ht="14.25" customHeight="1">
       <c r="A17" s="134"/>
-      <c r="B17" s="201" t="s">
+      <c r="B17" s="222" t="s">
         <v>39</v>
       </c>
-      <c r="C17" s="202"/>
-      <c r="D17" s="202"/>
-      <c r="E17" s="202"/>
-      <c r="F17" s="202"/>
-      <c r="G17" s="202"/>
-      <c r="H17" s="202"/>
-      <c r="I17" s="202"/>
-      <c r="J17" s="202"/>
-      <c r="K17" s="203"/>
+      <c r="C17" s="223"/>
+      <c r="D17" s="223"/>
+      <c r="E17" s="223"/>
+      <c r="F17" s="223"/>
+      <c r="G17" s="223"/>
+      <c r="H17" s="223"/>
+      <c r="I17" s="223"/>
+      <c r="J17" s="223"/>
+      <c r="K17" s="224"/>
     </row>
     <row r="19" spans="1:14" ht="22.5">
       <c r="A19" s="4" t="s">
@@ -6366,40 +6947,40 @@
       <c r="A20" s="134" t="s">
         <v>41</v>
       </c>
-      <c r="B20" s="201" t="s">
+      <c r="B20" s="222" t="s">
         <v>42</v>
       </c>
-      <c r="C20" s="202"/>
-      <c r="D20" s="202"/>
-      <c r="E20" s="202"/>
-      <c r="F20" s="202"/>
-      <c r="G20" s="203"/>
+      <c r="C20" s="223"/>
+      <c r="D20" s="223"/>
+      <c r="E20" s="223"/>
+      <c r="F20" s="223"/>
+      <c r="G20" s="224"/>
     </row>
     <row r="21" spans="1:14" ht="12.75" customHeight="1">
       <c r="A21" s="134" t="s">
         <v>43</v>
       </c>
-      <c r="B21" s="201" t="s">
+      <c r="B21" s="222" t="s">
         <v>44</v>
       </c>
-      <c r="C21" s="202"/>
-      <c r="D21" s="202"/>
-      <c r="E21" s="202"/>
-      <c r="F21" s="202"/>
-      <c r="G21" s="203"/>
+      <c r="C21" s="223"/>
+      <c r="D21" s="223"/>
+      <c r="E21" s="223"/>
+      <c r="F21" s="223"/>
+      <c r="G21" s="224"/>
     </row>
     <row r="22" spans="1:14" ht="12.75" customHeight="1">
       <c r="A22" s="134" t="s">
         <v>45</v>
       </c>
-      <c r="B22" s="201" t="s">
+      <c r="B22" s="222" t="s">
         <v>46</v>
       </c>
-      <c r="C22" s="202"/>
-      <c r="D22" s="202"/>
-      <c r="E22" s="202"/>
-      <c r="F22" s="202"/>
-      <c r="G22" s="203"/>
+      <c r="C22" s="223"/>
+      <c r="D22" s="223"/>
+      <c r="E22" s="223"/>
+      <c r="F22" s="223"/>
+      <c r="G22" s="224"/>
     </row>
     <row r="24" spans="1:14" ht="22.5">
       <c r="A24" s="4" t="s">
@@ -6458,11 +7039,11 @@
       <c r="N27" s="70"/>
     </row>
     <row r="29" spans="1:14" ht="21.75" customHeight="1">
-      <c r="B29" s="194" t="s">
+      <c r="B29" s="215" t="s">
         <v>51</v>
       </c>
-      <c r="C29" s="195"/>
-      <c r="D29" s="196"/>
+      <c r="C29" s="216"/>
+      <c r="D29" s="217"/>
     </row>
     <row r="30" spans="1:14" ht="90" customHeight="1">
       <c r="B30" s="5"/>
@@ -6539,14 +7120,14 @@
       <c r="J1" s="7"/>
     </row>
     <row r="2" spans="1:10" s="9" customFormat="1" ht="24.9">
-      <c r="A2" s="206" t="s">
+      <c r="A2" s="227" t="s">
         <v>56</v>
       </c>
-      <c r="B2" s="206"/>
-      <c r="C2" s="206"/>
-      <c r="D2" s="206"/>
-      <c r="E2" s="206"/>
-      <c r="F2" s="206"/>
+      <c r="B2" s="227"/>
+      <c r="C2" s="227"/>
+      <c r="D2" s="227"/>
+      <c r="E2" s="227"/>
+      <c r="F2" s="227"/>
     </row>
     <row r="3" spans="1:10">
       <c r="A3" s="10"/>
@@ -6732,12 +7313,12 @@
       <c r="K1" s="34"/>
     </row>
     <row r="2" spans="1:11" s="1" customFormat="1" ht="25.2">
-      <c r="A2" s="209" t="s">
+      <c r="A2" s="230" t="s">
         <v>70</v>
       </c>
-      <c r="B2" s="209"/>
-      <c r="C2" s="209"/>
-      <c r="D2" s="209"/>
+      <c r="B2" s="230"/>
+      <c r="C2" s="230"/>
+      <c r="D2" s="230"/>
       <c r="E2" s="156"/>
       <c r="F2" s="23"/>
       <c r="G2" s="23"/>
@@ -6898,18 +7479,18 @@
       <c r="F14" s="29"/>
     </row>
     <row r="16" spans="1:11" ht="14.1">
-      <c r="A16" s="207" t="s">
+      <c r="A16" s="228" t="s">
         <v>91</v>
       </c>
-      <c r="B16" s="207"/>
+      <c r="B16" s="228"/>
       <c r="C16" s="30"/>
       <c r="D16" s="31"/>
     </row>
     <row r="17" spans="1:4" ht="13.8">
-      <c r="A17" s="208" t="s">
+      <c r="A17" s="229" t="s">
         <v>92</v>
       </c>
-      <c r="B17" s="208"/>
+      <c r="B17" s="229"/>
     </row>
     <row r="20" spans="1:4">
       <c r="A20" s="33"/>
@@ -6938,7 +7519,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X97"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A52" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+    <sheetView showGridLines="0" topLeftCell="B16" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
       <selection activeCell="A53" sqref="A53"/>
     </sheetView>
   </sheetViews>
@@ -6955,10 +7536,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:24" s="1" customFormat="1" ht="13.8">
-      <c r="A1" s="213"/>
-      <c r="B1" s="213"/>
-      <c r="C1" s="213"/>
-      <c r="D1" s="213"/>
+      <c r="A1" s="234"/>
+      <c r="B1" s="234"/>
+      <c r="C1" s="234"/>
+      <c r="D1" s="234"/>
       <c r="E1" s="34"/>
       <c r="F1" s="34"/>
       <c r="G1" s="34"/>
@@ -6967,13 +7548,13 @@
       <c r="J1" s="34"/>
     </row>
     <row r="2" spans="1:24" s="1" customFormat="1" ht="31.5" customHeight="1">
-      <c r="A2" s="214" t="s">
+      <c r="A2" s="235" t="s">
         <v>70</v>
       </c>
-      <c r="B2" s="214"/>
-      <c r="C2" s="214"/>
-      <c r="D2" s="214"/>
-      <c r="E2" s="222"/>
+      <c r="B2" s="235"/>
+      <c r="C2" s="235"/>
+      <c r="D2" s="235"/>
+      <c r="E2" s="243"/>
       <c r="F2" s="23"/>
       <c r="G2" s="23"/>
       <c r="H2" s="23"/>
@@ -6982,9 +7563,9 @@
     </row>
     <row r="3" spans="1:24" s="1" customFormat="1" ht="31.5" customHeight="1">
       <c r="A3" s="47"/>
-      <c r="C3" s="232"/>
-      <c r="D3" s="232"/>
-      <c r="E3" s="222"/>
+      <c r="C3" s="253"/>
+      <c r="D3" s="253"/>
+      <c r="E3" s="243"/>
       <c r="F3" s="23"/>
       <c r="G3" s="23"/>
       <c r="H3" s="23"/>
@@ -6995,11 +7576,11 @@
       <c r="A4" s="139" t="s">
         <v>66</v>
       </c>
-      <c r="B4" s="216" t="s">
+      <c r="B4" s="237" t="s">
         <v>93</v>
       </c>
-      <c r="C4" s="216"/>
-      <c r="D4" s="216"/>
+      <c r="C4" s="237"/>
+      <c r="D4" s="237"/>
       <c r="E4" s="39"/>
       <c r="F4" s="39"/>
       <c r="G4" s="39"/>
@@ -7013,11 +7594,11 @@
       <c r="A5" s="139" t="s">
         <v>62</v>
       </c>
-      <c r="B5" s="215" t="s">
+      <c r="B5" s="236" t="s">
         <v>95</v>
       </c>
-      <c r="C5" s="216"/>
-      <c r="D5" s="216"/>
+      <c r="C5" s="237"/>
+      <c r="D5" s="237"/>
       <c r="E5" s="39"/>
       <c r="F5" s="39"/>
       <c r="G5" s="39"/>
@@ -7031,11 +7612,11 @@
       <c r="A6" s="139" t="s">
         <v>97</v>
       </c>
-      <c r="B6" s="215" t="s">
+      <c r="B6" s="236" t="s">
         <v>98</v>
       </c>
-      <c r="C6" s="216"/>
-      <c r="D6" s="216"/>
+      <c r="C6" s="237"/>
+      <c r="D6" s="237"/>
       <c r="E6" s="39"/>
       <c r="F6" s="39"/>
       <c r="G6" s="39"/>
@@ -7046,11 +7627,11 @@
       <c r="A7" s="139" t="s">
         <v>99</v>
       </c>
-      <c r="B7" s="216" t="s">
+      <c r="B7" s="237" t="s">
         <v>100</v>
       </c>
-      <c r="C7" s="216"/>
-      <c r="D7" s="216"/>
+      <c r="C7" s="237"/>
+      <c r="D7" s="237"/>
       <c r="E7" s="39"/>
       <c r="F7" s="39"/>
       <c r="G7" s="39"/>
@@ -7062,11 +7643,11 @@
       <c r="A8" s="139" t="s">
         <v>101</v>
       </c>
-      <c r="B8" s="217">
+      <c r="B8" s="238">
         <v>40850</v>
       </c>
-      <c r="C8" s="217"/>
-      <c r="D8" s="217"/>
+      <c r="C8" s="238"/>
+      <c r="D8" s="238"/>
       <c r="E8" s="39"/>
     </row>
     <row r="9" spans="1:24" s="43" customFormat="1">
@@ -7209,11 +7790,11 @@
       <c r="C16" s="50"/>
       <c r="D16" s="51"/>
       <c r="E16" s="56"/>
-      <c r="F16" s="221" t="s">
+      <c r="F16" s="242" t="s">
         <v>102</v>
       </c>
-      <c r="G16" s="221"/>
-      <c r="H16" s="221"/>
+      <c r="G16" s="242"/>
+      <c r="H16" s="242"/>
       <c r="I16" s="57"/>
     </row>
     <row r="17" spans="1:9" s="44" customFormat="1" ht="36.9">
@@ -7249,16 +7830,16 @@
       <c r="A18" s="67" t="s">
         <v>419</v>
       </c>
-      <c r="B18" s="218" t="s">
+      <c r="B18" s="239" t="s">
         <v>421</v>
       </c>
-      <c r="C18" s="219"/>
-      <c r="D18" s="219"/>
-      <c r="E18" s="219"/>
-      <c r="F18" s="219"/>
-      <c r="G18" s="219"/>
-      <c r="H18" s="219"/>
-      <c r="I18" s="220"/>
+      <c r="C18" s="240"/>
+      <c r="D18" s="240"/>
+      <c r="E18" s="240"/>
+      <c r="F18" s="240"/>
+      <c r="G18" s="240"/>
+      <c r="H18" s="240"/>
+      <c r="I18" s="241"/>
     </row>
     <row r="19" spans="1:9" s="45" customFormat="1" ht="27.6" customHeight="1">
       <c r="A19" s="52">
@@ -7283,16 +7864,16 @@
     </row>
     <row r="20" spans="1:9" s="45" customFormat="1">
       <c r="A20" s="168"/>
-      <c r="B20" s="226" t="s">
+      <c r="B20" s="247" t="s">
         <v>434</v>
       </c>
-      <c r="C20" s="227"/>
-      <c r="D20" s="227"/>
-      <c r="E20" s="227"/>
-      <c r="F20" s="227"/>
-      <c r="G20" s="227"/>
-      <c r="H20" s="227"/>
-      <c r="I20" s="228"/>
+      <c r="C20" s="248"/>
+      <c r="D20" s="248"/>
+      <c r="E20" s="248"/>
+      <c r="F20" s="248"/>
+      <c r="G20" s="248"/>
+      <c r="H20" s="248"/>
+      <c r="I20" s="249"/>
     </row>
     <row r="21" spans="1:9" s="45" customFormat="1" ht="20.7" customHeight="1">
       <c r="A21" s="58">
@@ -7340,16 +7921,16 @@
     </row>
     <row r="23" spans="1:9" s="45" customFormat="1">
       <c r="A23" s="168"/>
-      <c r="B23" s="226" t="s">
+      <c r="B23" s="247" t="s">
         <v>435</v>
       </c>
-      <c r="C23" s="227"/>
-      <c r="D23" s="227"/>
-      <c r="E23" s="227"/>
-      <c r="F23" s="227"/>
-      <c r="G23" s="227"/>
-      <c r="H23" s="227"/>
-      <c r="I23" s="228"/>
+      <c r="C23" s="248"/>
+      <c r="D23" s="248"/>
+      <c r="E23" s="248"/>
+      <c r="F23" s="248"/>
+      <c r="G23" s="248"/>
+      <c r="H23" s="248"/>
+      <c r="I23" s="249"/>
     </row>
     <row r="24" spans="1:9" s="48" customFormat="1" ht="13.8">
       <c r="A24" s="58">
@@ -7419,16 +8000,16 @@
     </row>
     <row r="27" spans="1:9" s="48" customFormat="1" ht="13.8">
       <c r="A27" s="168"/>
-      <c r="B27" s="223" t="s">
+      <c r="B27" s="244" t="s">
         <v>440</v>
       </c>
-      <c r="C27" s="224"/>
-      <c r="D27" s="224"/>
-      <c r="E27" s="224"/>
-      <c r="F27" s="224"/>
-      <c r="G27" s="224"/>
-      <c r="H27" s="224"/>
-      <c r="I27" s="225"/>
+      <c r="C27" s="245"/>
+      <c r="D27" s="245"/>
+      <c r="E27" s="245"/>
+      <c r="F27" s="245"/>
+      <c r="G27" s="245"/>
+      <c r="H27" s="245"/>
+      <c r="I27" s="246"/>
     </row>
     <row r="28" spans="1:9" s="48" customFormat="1" ht="13.8">
       <c r="A28" s="58">
@@ -7498,16 +8079,16 @@
     </row>
     <row r="31" spans="1:9" s="48" customFormat="1" ht="13.8">
       <c r="A31" s="169"/>
-      <c r="B31" s="219" t="s">
+      <c r="B31" s="240" t="s">
         <v>420</v>
       </c>
-      <c r="C31" s="219"/>
-      <c r="D31" s="219"/>
-      <c r="E31" s="219"/>
-      <c r="F31" s="219"/>
-      <c r="G31" s="219"/>
-      <c r="H31" s="219"/>
-      <c r="I31" s="220"/>
+      <c r="C31" s="240"/>
+      <c r="D31" s="240"/>
+      <c r="E31" s="240"/>
+      <c r="F31" s="240"/>
+      <c r="G31" s="240"/>
+      <c r="H31" s="240"/>
+      <c r="I31" s="241"/>
     </row>
     <row r="32" spans="1:9" s="48" customFormat="1" ht="13.8">
       <c r="A32" s="58">
@@ -7533,16 +8114,16 @@
     </row>
     <row r="33" spans="1:9" s="48" customFormat="1" ht="13.8">
       <c r="A33" s="168"/>
-      <c r="B33" s="226" t="s">
+      <c r="B33" s="247" t="s">
         <v>434</v>
       </c>
-      <c r="C33" s="227"/>
-      <c r="D33" s="227"/>
-      <c r="E33" s="227"/>
-      <c r="F33" s="227"/>
-      <c r="G33" s="227"/>
-      <c r="H33" s="227"/>
-      <c r="I33" s="228"/>
+      <c r="C33" s="248"/>
+      <c r="D33" s="248"/>
+      <c r="E33" s="248"/>
+      <c r="F33" s="248"/>
+      <c r="G33" s="248"/>
+      <c r="H33" s="248"/>
+      <c r="I33" s="249"/>
     </row>
     <row r="34" spans="1:9" s="48" customFormat="1" ht="17.7" customHeight="1">
       <c r="A34" s="58">
@@ -7590,16 +8171,16 @@
     </row>
     <row r="36" spans="1:9" s="48" customFormat="1" ht="13.8">
       <c r="A36" s="168"/>
-      <c r="B36" s="226" t="s">
+      <c r="B36" s="247" t="s">
         <v>435</v>
       </c>
-      <c r="C36" s="227"/>
-      <c r="D36" s="227"/>
-      <c r="E36" s="227"/>
-      <c r="F36" s="227"/>
-      <c r="G36" s="227"/>
-      <c r="H36" s="227"/>
-      <c r="I36" s="228"/>
+      <c r="C36" s="248"/>
+      <c r="D36" s="248"/>
+      <c r="E36" s="248"/>
+      <c r="F36" s="248"/>
+      <c r="G36" s="248"/>
+      <c r="H36" s="248"/>
+      <c r="I36" s="249"/>
     </row>
     <row r="37" spans="1:9" s="48" customFormat="1" ht="13.8">
       <c r="A37" s="58">
@@ -7669,16 +8250,16 @@
     </row>
     <row r="40" spans="1:9" s="48" customFormat="1" ht="13.8">
       <c r="A40" s="168"/>
-      <c r="B40" s="223" t="s">
+      <c r="B40" s="244" t="s">
         <v>440</v>
       </c>
-      <c r="C40" s="224"/>
-      <c r="D40" s="224"/>
-      <c r="E40" s="224"/>
-      <c r="F40" s="224"/>
-      <c r="G40" s="224"/>
-      <c r="H40" s="224"/>
-      <c r="I40" s="225"/>
+      <c r="C40" s="245"/>
+      <c r="D40" s="245"/>
+      <c r="E40" s="245"/>
+      <c r="F40" s="245"/>
+      <c r="G40" s="245"/>
+      <c r="H40" s="245"/>
+      <c r="I40" s="246"/>
     </row>
     <row r="41" spans="1:9" s="49" customFormat="1" ht="13.8">
       <c r="A41" s="58">
@@ -7748,16 +8329,16 @@
     </row>
     <row r="44" spans="1:9" s="48" customFormat="1" ht="13.8">
       <c r="A44" s="168"/>
-      <c r="B44" s="234" t="s">
+      <c r="B44" s="255" t="s">
         <v>455</v>
       </c>
-      <c r="C44" s="235"/>
-      <c r="D44" s="235"/>
-      <c r="E44" s="235"/>
-      <c r="F44" s="235"/>
-      <c r="G44" s="235"/>
-      <c r="H44" s="235"/>
-      <c r="I44" s="236"/>
+      <c r="C44" s="256"/>
+      <c r="D44" s="256"/>
+      <c r="E44" s="256"/>
+      <c r="F44" s="256"/>
+      <c r="G44" s="256"/>
+      <c r="H44" s="256"/>
+      <c r="I44" s="257"/>
     </row>
     <row r="45" spans="1:9" s="48" customFormat="1" ht="13.8">
       <c r="A45" s="58">
@@ -7849,29 +8430,29 @@
     </row>
     <row r="49" spans="1:9" s="48" customFormat="1" ht="13.8">
       <c r="A49" s="167"/>
-      <c r="B49" s="237" t="s">
+      <c r="B49" s="258" t="s">
         <v>468</v>
       </c>
-      <c r="C49" s="238"/>
-      <c r="D49" s="238"/>
-      <c r="E49" s="238"/>
-      <c r="F49" s="238"/>
-      <c r="G49" s="238"/>
-      <c r="H49" s="238"/>
-      <c r="I49" s="238"/>
+      <c r="C49" s="259"/>
+      <c r="D49" s="259"/>
+      <c r="E49" s="259"/>
+      <c r="F49" s="259"/>
+      <c r="G49" s="259"/>
+      <c r="H49" s="259"/>
+      <c r="I49" s="259"/>
     </row>
     <row r="50" spans="1:9" s="48" customFormat="1" ht="13.8">
       <c r="A50" s="180"/>
-      <c r="B50" s="239" t="s">
+      <c r="B50" s="260" t="s">
         <v>469</v>
       </c>
-      <c r="C50" s="240"/>
-      <c r="D50" s="240"/>
-      <c r="E50" s="240"/>
-      <c r="F50" s="240"/>
-      <c r="G50" s="240"/>
-      <c r="H50" s="240"/>
-      <c r="I50" s="240"/>
+      <c r="C50" s="261"/>
+      <c r="D50" s="261"/>
+      <c r="E50" s="261"/>
+      <c r="F50" s="261"/>
+      <c r="G50" s="261"/>
+      <c r="H50" s="261"/>
+      <c r="I50" s="261"/>
     </row>
     <row r="51" spans="1:9" s="48" customFormat="1" ht="13.8">
       <c r="A51" s="58">
@@ -7994,16 +8575,16 @@
     </row>
     <row r="57" spans="1:9" s="48" customFormat="1" ht="13.8">
       <c r="A57" s="180"/>
-      <c r="B57" s="233" t="s">
+      <c r="B57" s="254" t="s">
         <v>475</v>
       </c>
-      <c r="C57" s="227"/>
-      <c r="D57" s="227"/>
-      <c r="E57" s="227"/>
-      <c r="F57" s="227"/>
-      <c r="G57" s="227"/>
-      <c r="H57" s="227"/>
-      <c r="I57" s="228"/>
+      <c r="C57" s="248"/>
+      <c r="D57" s="248"/>
+      <c r="E57" s="248"/>
+      <c r="F57" s="248"/>
+      <c r="G57" s="248"/>
+      <c r="H57" s="248"/>
+      <c r="I57" s="249"/>
     </row>
     <row r="58" spans="1:9" s="48" customFormat="1" ht="13.8">
       <c r="A58" s="58">
@@ -8127,16 +8708,16 @@
     </row>
     <row r="64" spans="1:9" s="48" customFormat="1" ht="13.8">
       <c r="A64" s="168"/>
-      <c r="B64" s="229" t="s">
+      <c r="B64" s="250" t="s">
         <v>477</v>
       </c>
-      <c r="C64" s="230"/>
-      <c r="D64" s="230"/>
-      <c r="E64" s="230"/>
-      <c r="F64" s="230"/>
-      <c r="G64" s="230"/>
-      <c r="H64" s="230"/>
-      <c r="I64" s="231"/>
+      <c r="C64" s="251"/>
+      <c r="D64" s="251"/>
+      <c r="E64" s="251"/>
+      <c r="F64" s="251"/>
+      <c r="G64" s="251"/>
+      <c r="H64" s="251"/>
+      <c r="I64" s="252"/>
     </row>
     <row r="65" spans="1:9" s="48" customFormat="1" ht="24.6">
       <c r="A65" s="58">
@@ -8253,9 +8834,9 @@
     </row>
     <row r="73" spans="1:9" s="48" customFormat="1" ht="13.8">
       <c r="A73" s="171"/>
-      <c r="B73" s="210"/>
-      <c r="C73" s="211"/>
-      <c r="D73" s="212"/>
+      <c r="B73" s="231"/>
+      <c r="C73" s="232"/>
+      <c r="D73" s="233"/>
       <c r="E73" s="172"/>
       <c r="F73" s="173"/>
       <c r="G73" s="173"/>
@@ -8297,9 +8878,9 @@
     </row>
     <row r="77" spans="1:9" s="48" customFormat="1" ht="13.8">
       <c r="A77" s="171"/>
-      <c r="B77" s="210"/>
-      <c r="C77" s="211"/>
-      <c r="D77" s="212"/>
+      <c r="B77" s="231"/>
+      <c r="C77" s="232"/>
+      <c r="D77" s="233"/>
       <c r="E77" s="172"/>
       <c r="F77" s="173"/>
       <c r="G77" s="173"/>
@@ -8341,9 +8922,9 @@
     </row>
     <row r="81" spans="1:9" s="48" customFormat="1" ht="14.25" customHeight="1">
       <c r="A81" s="171"/>
-      <c r="B81" s="210"/>
-      <c r="C81" s="211"/>
-      <c r="D81" s="212"/>
+      <c r="B81" s="231"/>
+      <c r="C81" s="232"/>
+      <c r="D81" s="233"/>
       <c r="E81" s="172"/>
       <c r="F81" s="173"/>
       <c r="G81" s="173"/>
@@ -8374,9 +8955,9 @@
     </row>
     <row r="84" spans="1:9" s="48" customFormat="1" ht="14.25" customHeight="1">
       <c r="A84" s="171"/>
-      <c r="B84" s="210"/>
-      <c r="C84" s="211"/>
-      <c r="D84" s="212"/>
+      <c r="B84" s="231"/>
+      <c r="C84" s="232"/>
+      <c r="D84" s="233"/>
       <c r="E84" s="172"/>
       <c r="F84" s="173"/>
       <c r="G84" s="173"/>
@@ -8573,10 +9154,3005 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:X129"/>
+  <dimension ref="A1:X182"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A64" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C72" sqref="C72"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A53" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="C55" sqref="C55"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.15625" defaultRowHeight="12.3"/>
+  <cols>
+    <col min="1" max="1" width="10.3125" style="78" customWidth="1"/>
+    <col min="2" max="2" width="36.26171875" style="46" customWidth="1"/>
+    <col min="3" max="3" width="35.15625" style="46" customWidth="1"/>
+    <col min="4" max="4" width="48.47265625" style="46" customWidth="1"/>
+    <col min="5" max="5" width="32.15625" style="46" customWidth="1"/>
+    <col min="6" max="8" width="9.68359375" style="46" customWidth="1"/>
+    <col min="9" max="9" width="17.68359375" style="46" customWidth="1"/>
+    <col min="10" max="16384" width="9.15625" style="46"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:24" s="1" customFormat="1" ht="13.8">
+      <c r="A1" s="234"/>
+      <c r="B1" s="234"/>
+      <c r="C1" s="234"/>
+      <c r="D1" s="234"/>
+      <c r="E1" s="34"/>
+      <c r="F1" s="34"/>
+      <c r="G1" s="34"/>
+      <c r="H1" s="34"/>
+      <c r="I1" s="34"/>
+      <c r="J1" s="34"/>
+    </row>
+    <row r="2" spans="1:24" s="1" customFormat="1" ht="31.5" customHeight="1">
+      <c r="A2" s="235" t="s">
+        <v>70</v>
+      </c>
+      <c r="B2" s="235"/>
+      <c r="C2" s="235"/>
+      <c r="D2" s="235"/>
+      <c r="E2" s="243"/>
+      <c r="F2" s="23"/>
+      <c r="G2" s="23"/>
+      <c r="H2" s="23"/>
+      <c r="I2" s="23"/>
+      <c r="J2" s="23"/>
+    </row>
+    <row r="3" spans="1:24" s="1" customFormat="1" ht="31.5" customHeight="1">
+      <c r="A3" s="47"/>
+      <c r="C3" s="268"/>
+      <c r="D3" s="268"/>
+      <c r="E3" s="243"/>
+      <c r="F3" s="23"/>
+      <c r="G3" s="23"/>
+      <c r="H3" s="23"/>
+      <c r="I3" s="23"/>
+      <c r="J3" s="23"/>
+    </row>
+    <row r="4" spans="1:24" s="38" customFormat="1" ht="24.6">
+      <c r="A4" s="139" t="s">
+        <v>67</v>
+      </c>
+      <c r="B4" s="237" t="s">
+        <v>331</v>
+      </c>
+      <c r="C4" s="237"/>
+      <c r="D4" s="237"/>
+      <c r="E4" s="39"/>
+      <c r="F4" s="39"/>
+      <c r="G4" s="39"/>
+      <c r="H4" s="40"/>
+      <c r="I4" s="40"/>
+      <c r="X4" s="38" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="5" spans="1:24" s="38" customFormat="1" ht="144.75" customHeight="1">
+      <c r="A5" s="139" t="s">
+        <v>62</v>
+      </c>
+      <c r="B5" s="236" t="s">
+        <v>95</v>
+      </c>
+      <c r="C5" s="237"/>
+      <c r="D5" s="237"/>
+      <c r="E5" s="39"/>
+      <c r="F5" s="39"/>
+      <c r="G5" s="39"/>
+      <c r="H5" s="40"/>
+      <c r="I5" s="40"/>
+      <c r="X5" s="38" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="6" spans="1:24" s="38" customFormat="1" ht="24.6">
+      <c r="A6" s="139" t="s">
+        <v>97</v>
+      </c>
+      <c r="B6" s="236" t="s">
+        <v>98</v>
+      </c>
+      <c r="C6" s="237"/>
+      <c r="D6" s="237"/>
+      <c r="E6" s="39"/>
+      <c r="F6" s="39"/>
+      <c r="G6" s="39"/>
+      <c r="H6" s="40"/>
+      <c r="I6" s="40"/>
+    </row>
+    <row r="7" spans="1:24" s="38" customFormat="1">
+      <c r="A7" s="139" t="s">
+        <v>99</v>
+      </c>
+      <c r="B7" s="237" t="s">
+        <v>100</v>
+      </c>
+      <c r="C7" s="237"/>
+      <c r="D7" s="237"/>
+      <c r="E7" s="39"/>
+      <c r="F7" s="39"/>
+      <c r="G7" s="39"/>
+      <c r="H7" s="41"/>
+      <c r="I7" s="40"/>
+      <c r="X7" s="42"/>
+    </row>
+    <row r="8" spans="1:24" s="43" customFormat="1">
+      <c r="A8" s="139" t="s">
+        <v>101</v>
+      </c>
+      <c r="B8" s="238">
+        <v>40850</v>
+      </c>
+      <c r="C8" s="238"/>
+      <c r="D8" s="238"/>
+      <c r="E8" s="39"/>
+    </row>
+    <row r="9" spans="1:24" s="43" customFormat="1">
+      <c r="A9" s="140" t="s">
+        <v>102</v>
+      </c>
+      <c r="B9" s="73" t="str">
+        <f>F17</f>
+        <v>Internal Build 03112011</v>
+      </c>
+      <c r="C9" s="73" t="str">
+        <f>G17</f>
+        <v>Internal build 14112011</v>
+      </c>
+      <c r="D9" s="73" t="str">
+        <f>H17</f>
+        <v>External build 16112011</v>
+      </c>
+    </row>
+    <row r="10" spans="1:24" s="43" customFormat="1">
+      <c r="A10" s="141" t="s">
+        <v>103</v>
+      </c>
+      <c r="B10" s="74">
+        <f>SUM(B11:B14)</f>
+        <v>0</v>
+      </c>
+      <c r="C10" s="74">
+        <f>SUM(C11:C14)</f>
+        <v>0</v>
+      </c>
+      <c r="D10" s="74">
+        <f>SUM(D11:D14)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:24" s="43" customFormat="1">
+      <c r="A11" s="141" t="s">
+        <v>41</v>
+      </c>
+      <c r="B11" s="75">
+        <f>COUNTIF($F$18:$F$49734,"*Passed")</f>
+        <v>0</v>
+      </c>
+      <c r="C11" s="75">
+        <f>COUNTIF($G$18:$G$49734,"*Passed")</f>
+        <v>0</v>
+      </c>
+      <c r="D11" s="75">
+        <f>COUNTIF($H$18:$H$49734,"*Passed")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:24" s="43" customFormat="1">
+      <c r="A12" s="141" t="s">
+        <v>43</v>
+      </c>
+      <c r="B12" s="75">
+        <f>COUNTIF($F$18:$F$49454,"*Failed*")</f>
+        <v>0</v>
+      </c>
+      <c r="C12" s="75">
+        <f>COUNTIF($G$18:$G$49454,"*Failed*")</f>
+        <v>0</v>
+      </c>
+      <c r="D12" s="75">
+        <f>COUNTIF($H$18:$H$49454,"*Failed*")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:24" s="43" customFormat="1">
+      <c r="A13" s="141" t="s">
+        <v>45</v>
+      </c>
+      <c r="B13" s="75">
+        <f>COUNTIF($F$18:$F$49454,"*Not Run*")</f>
+        <v>0</v>
+      </c>
+      <c r="C13" s="75">
+        <f>COUNTIF($G$18:$G$49454,"*Not Run*")</f>
+        <v>0</v>
+      </c>
+      <c r="D13" s="75">
+        <f>COUNTIF($H$18:$H$49454,"*Not Run*")</f>
+        <v>0</v>
+      </c>
+      <c r="E13" s="1"/>
+      <c r="F13" s="1"/>
+      <c r="G13" s="1"/>
+      <c r="H13" s="1"/>
+      <c r="I13" s="1"/>
+    </row>
+    <row r="14" spans="1:24" s="43" customFormat="1">
+      <c r="A14" s="141" t="s">
+        <v>104</v>
+      </c>
+      <c r="B14" s="75">
+        <f>COUNTIF($F$18:$F$49454,"*NA*")</f>
+        <v>0</v>
+      </c>
+      <c r="C14" s="75">
+        <f>COUNTIF($G$18:$G$49454,"*NA*")</f>
+        <v>0</v>
+      </c>
+      <c r="D14" s="75">
+        <f>COUNTIF($H$18:$H$49454,"*NA*")</f>
+        <v>0</v>
+      </c>
+      <c r="E14" s="64"/>
+      <c r="F14" s="1"/>
+      <c r="G14" s="1"/>
+      <c r="H14" s="1"/>
+      <c r="I14" s="1"/>
+    </row>
+    <row r="15" spans="1:24" s="43" customFormat="1" ht="36.9">
+      <c r="A15" s="141" t="s">
+        <v>105</v>
+      </c>
+      <c r="B15" s="75">
+        <f>COUNTIF($F$18:$F$49454,"*Passed in previous build*")</f>
+        <v>0</v>
+      </c>
+      <c r="C15" s="75">
+        <f>COUNTIF($G$18:$G$49454,"*Passed in previous build*")</f>
+        <v>0</v>
+      </c>
+      <c r="D15" s="75">
+        <f>COUNTIF($H$18:$H$49454,"*Passed in previous build*")</f>
+        <v>0</v>
+      </c>
+      <c r="E15" s="1"/>
+      <c r="F15" s="1"/>
+      <c r="G15" s="1"/>
+      <c r="H15" s="1"/>
+      <c r="I15" s="1"/>
+    </row>
+    <row r="16" spans="1:24" s="44" customFormat="1" ht="15" customHeight="1">
+      <c r="A16" s="76"/>
+      <c r="B16" s="50"/>
+      <c r="C16" s="50"/>
+      <c r="D16" s="51"/>
+      <c r="E16" s="65"/>
+      <c r="F16" s="269" t="s">
+        <v>102</v>
+      </c>
+      <c r="G16" s="270"/>
+      <c r="H16" s="271"/>
+      <c r="I16" s="65"/>
+    </row>
+    <row r="17" spans="1:9" s="44" customFormat="1" ht="36.9">
+      <c r="A17" s="142" t="s">
+        <v>106</v>
+      </c>
+      <c r="B17" s="143" t="s">
+        <v>107</v>
+      </c>
+      <c r="C17" s="143" t="s">
+        <v>108</v>
+      </c>
+      <c r="D17" s="143" t="s">
+        <v>109</v>
+      </c>
+      <c r="E17" s="144" t="s">
+        <v>110</v>
+      </c>
+      <c r="F17" s="143" t="s">
+        <v>111</v>
+      </c>
+      <c r="G17" s="143" t="s">
+        <v>112</v>
+      </c>
+      <c r="H17" s="143" t="s">
+        <v>113</v>
+      </c>
+      <c r="I17" s="143" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" s="44" customFormat="1" ht="15.75" customHeight="1">
+      <c r="A18" s="67"/>
+      <c r="B18" s="239" t="s">
+        <v>528</v>
+      </c>
+      <c r="C18" s="240"/>
+      <c r="D18" s="240"/>
+      <c r="E18" s="240"/>
+      <c r="F18" s="240"/>
+      <c r="G18" s="240"/>
+      <c r="H18" s="240"/>
+      <c r="I18" s="241"/>
+    </row>
+    <row r="19" spans="1:9" s="44" customFormat="1" ht="15.75" customHeight="1">
+      <c r="A19" s="200"/>
+      <c r="B19" s="272" t="s">
+        <v>631</v>
+      </c>
+      <c r="C19" s="273"/>
+      <c r="D19" s="273"/>
+      <c r="E19" s="273"/>
+      <c r="F19" s="273"/>
+      <c r="G19" s="273"/>
+      <c r="H19" s="273"/>
+      <c r="I19" s="274"/>
+    </row>
+    <row r="20" spans="1:9" s="44" customFormat="1" ht="15.75" customHeight="1">
+      <c r="A20" s="52">
+        <v>1</v>
+      </c>
+      <c r="B20" s="52" t="s">
+        <v>632</v>
+      </c>
+      <c r="C20" s="52"/>
+      <c r="D20" s="53" t="s">
+        <v>635</v>
+      </c>
+      <c r="E20" s="54"/>
+      <c r="F20" s="52"/>
+      <c r="G20" s="52"/>
+      <c r="H20" s="52"/>
+      <c r="I20" s="55"/>
+    </row>
+    <row r="21" spans="1:9" s="44" customFormat="1" ht="15.75" customHeight="1">
+      <c r="A21" s="52">
+        <f ca="1">IF(OFFSET(A21,-1,0) ="",OFFSET(A21,-2,0)+1,OFFSET(A21,-1,0)+1 )</f>
+        <v>2</v>
+      </c>
+      <c r="B21" s="52" t="s">
+        <v>633</v>
+      </c>
+      <c r="C21" s="201"/>
+      <c r="D21" s="53" t="s">
+        <v>635</v>
+      </c>
+      <c r="E21" s="202"/>
+      <c r="F21" s="201"/>
+      <c r="G21" s="201"/>
+      <c r="H21" s="201"/>
+      <c r="I21" s="203"/>
+    </row>
+    <row r="22" spans="1:9" s="44" customFormat="1" ht="15.75" customHeight="1">
+      <c r="A22" s="52">
+        <f t="shared" ref="A22:A26" ca="1" si="0">IF(OFFSET(A22,-1,0) ="",OFFSET(A22,-2,0)+1,OFFSET(A22,-1,0)+1 )</f>
+        <v>3</v>
+      </c>
+      <c r="B22" s="52" t="s">
+        <v>634</v>
+      </c>
+      <c r="C22" s="201"/>
+      <c r="D22" s="53" t="s">
+        <v>635</v>
+      </c>
+      <c r="E22" s="202"/>
+      <c r="F22" s="201"/>
+      <c r="G22" s="201"/>
+      <c r="H22" s="201"/>
+      <c r="I22" s="203"/>
+    </row>
+    <row r="23" spans="1:9" s="44" customFormat="1" ht="15.75" customHeight="1">
+      <c r="A23" s="204"/>
+      <c r="B23" s="275" t="s">
+        <v>529</v>
+      </c>
+      <c r="C23" s="276"/>
+      <c r="D23" s="276"/>
+      <c r="E23" s="276"/>
+      <c r="F23" s="276"/>
+      <c r="G23" s="276"/>
+      <c r="H23" s="276"/>
+      <c r="I23" s="277"/>
+    </row>
+    <row r="24" spans="1:9" s="45" customFormat="1">
+      <c r="A24" s="52">
+        <f t="shared" ca="1" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="B24" s="52" t="s">
+        <v>636</v>
+      </c>
+      <c r="C24" s="52"/>
+      <c r="D24" s="310" t="s">
+        <v>638</v>
+      </c>
+      <c r="E24" s="54"/>
+      <c r="F24" s="52"/>
+      <c r="G24" s="52"/>
+      <c r="H24" s="52"/>
+      <c r="I24" s="55"/>
+    </row>
+    <row r="25" spans="1:9" s="45" customFormat="1" ht="24.6">
+      <c r="A25" s="52">
+        <f t="shared" ca="1" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="B25" s="52" t="s">
+        <v>568</v>
+      </c>
+      <c r="C25" s="52"/>
+      <c r="D25" s="310" t="s">
+        <v>637</v>
+      </c>
+      <c r="E25" s="54"/>
+      <c r="F25" s="52"/>
+      <c r="G25" s="52"/>
+      <c r="H25" s="52"/>
+      <c r="I25" s="55"/>
+    </row>
+    <row r="26" spans="1:9" s="45" customFormat="1" ht="24.6">
+      <c r="A26" s="52">
+        <f t="shared" ca="1" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="B26" s="52" t="s">
+        <v>532</v>
+      </c>
+      <c r="C26" s="52"/>
+      <c r="D26" s="60" t="s">
+        <v>662</v>
+      </c>
+      <c r="E26" s="54"/>
+      <c r="F26" s="52"/>
+      <c r="G26" s="52"/>
+      <c r="H26" s="52"/>
+      <c r="I26" s="55"/>
+    </row>
+    <row r="27" spans="1:9" s="48" customFormat="1" ht="24.6">
+      <c r="A27" s="58">
+        <f t="shared" ref="A27:A140" ca="1" si="1">IF(OFFSET(A27,-1,0) ="",OFFSET(A27,-2,0)+1,OFFSET(A27,-1,0)+1 )</f>
+        <v>7</v>
+      </c>
+      <c r="B27" s="52" t="s">
+        <v>533</v>
+      </c>
+      <c r="C27" s="52"/>
+      <c r="D27" s="310" t="s">
+        <v>637</v>
+      </c>
+      <c r="E27" s="54"/>
+      <c r="F27" s="52"/>
+      <c r="G27" s="52"/>
+      <c r="H27" s="52"/>
+      <c r="I27" s="61"/>
+    </row>
+    <row r="28" spans="1:9" s="48" customFormat="1" ht="13.8">
+      <c r="A28" s="58">
+        <f t="shared" ca="1" si="1"/>
+        <v>8</v>
+      </c>
+      <c r="B28" s="52" t="s">
+        <v>534</v>
+      </c>
+      <c r="C28" s="52"/>
+      <c r="D28" s="54" t="s">
+        <v>639</v>
+      </c>
+      <c r="E28" s="54"/>
+      <c r="F28" s="52"/>
+      <c r="G28" s="52"/>
+      <c r="H28" s="52"/>
+      <c r="I28" s="61"/>
+    </row>
+    <row r="29" spans="1:9" s="48" customFormat="1" ht="24.6">
+      <c r="A29" s="58">
+        <f t="shared" ca="1" si="1"/>
+        <v>9</v>
+      </c>
+      <c r="B29" s="52" t="s">
+        <v>576</v>
+      </c>
+      <c r="C29" s="52"/>
+      <c r="D29" s="54" t="s">
+        <v>647</v>
+      </c>
+      <c r="E29" s="54"/>
+      <c r="F29" s="52"/>
+      <c r="G29" s="52"/>
+      <c r="H29" s="52"/>
+      <c r="I29" s="61"/>
+    </row>
+    <row r="30" spans="1:9" s="48" customFormat="1" ht="24.6">
+      <c r="A30" s="58">
+        <f t="shared" ca="1" si="1"/>
+        <v>10</v>
+      </c>
+      <c r="B30" s="52" t="s">
+        <v>578</v>
+      </c>
+      <c r="C30" s="52"/>
+      <c r="D30" s="54" t="s">
+        <v>662</v>
+      </c>
+      <c r="E30" s="54"/>
+      <c r="F30" s="52"/>
+      <c r="G30" s="52"/>
+      <c r="H30" s="52"/>
+      <c r="I30" s="61"/>
+    </row>
+    <row r="31" spans="1:9" s="48" customFormat="1" ht="13.8">
+      <c r="A31" s="58">
+        <f t="shared" ca="1" si="1"/>
+        <v>11</v>
+      </c>
+      <c r="B31" s="52" t="s">
+        <v>577</v>
+      </c>
+      <c r="C31" s="52"/>
+      <c r="D31" s="54" t="s">
+        <v>639</v>
+      </c>
+      <c r="E31" s="54"/>
+      <c r="F31" s="52"/>
+      <c r="G31" s="52"/>
+      <c r="H31" s="52"/>
+      <c r="I31" s="61"/>
+    </row>
+    <row r="32" spans="1:9" s="48" customFormat="1" ht="13.8">
+      <c r="A32" s="58">
+        <f t="shared" ca="1" si="1"/>
+        <v>12</v>
+      </c>
+      <c r="B32" s="52" t="s">
+        <v>579</v>
+      </c>
+      <c r="C32" s="52"/>
+      <c r="D32" s="54" t="s">
+        <v>640</v>
+      </c>
+      <c r="E32" s="54"/>
+      <c r="F32" s="52"/>
+      <c r="G32" s="52"/>
+      <c r="H32" s="52"/>
+      <c r="I32" s="61"/>
+    </row>
+    <row r="33" spans="1:9" s="48" customFormat="1" ht="13.8">
+      <c r="A33" s="58">
+        <f t="shared" ca="1" si="1"/>
+        <v>13</v>
+      </c>
+      <c r="B33" s="52" t="s">
+        <v>580</v>
+      </c>
+      <c r="C33" s="52"/>
+      <c r="D33" s="54" t="s">
+        <v>655</v>
+      </c>
+      <c r="E33" s="54"/>
+      <c r="F33" s="52"/>
+      <c r="G33" s="52"/>
+      <c r="H33" s="52"/>
+      <c r="I33" s="61"/>
+    </row>
+    <row r="34" spans="1:9" s="48" customFormat="1" ht="13.8">
+      <c r="A34" s="58">
+        <f t="shared" ca="1" si="1"/>
+        <v>14</v>
+      </c>
+      <c r="B34" s="52" t="s">
+        <v>581</v>
+      </c>
+      <c r="C34" s="52"/>
+      <c r="D34" s="54" t="s">
+        <v>643</v>
+      </c>
+      <c r="E34" s="54"/>
+      <c r="F34" s="52"/>
+      <c r="G34" s="52"/>
+      <c r="H34" s="52"/>
+      <c r="I34" s="61"/>
+    </row>
+    <row r="35" spans="1:9" s="48" customFormat="1" ht="13.8">
+      <c r="A35" s="58">
+        <f t="shared" ca="1" si="1"/>
+        <v>15</v>
+      </c>
+      <c r="B35" s="52" t="s">
+        <v>623</v>
+      </c>
+      <c r="C35" s="52"/>
+      <c r="D35" s="54" t="s">
+        <v>658</v>
+      </c>
+      <c r="E35" s="54"/>
+      <c r="F35" s="52"/>
+      <c r="G35" s="52"/>
+      <c r="H35" s="52"/>
+      <c r="I35" s="61"/>
+    </row>
+    <row r="36" spans="1:9" s="48" customFormat="1" ht="13.8">
+      <c r="A36" s="58">
+        <f t="shared" ca="1" si="1"/>
+        <v>16</v>
+      </c>
+      <c r="B36" s="52" t="s">
+        <v>582</v>
+      </c>
+      <c r="C36" s="52"/>
+      <c r="D36" s="54"/>
+      <c r="E36" s="54"/>
+      <c r="F36" s="52"/>
+      <c r="G36" s="52"/>
+      <c r="H36" s="52"/>
+      <c r="I36" s="61"/>
+    </row>
+    <row r="37" spans="1:9" s="48" customFormat="1" ht="13.8">
+      <c r="A37" s="184"/>
+      <c r="B37" s="278" t="s">
+        <v>530</v>
+      </c>
+      <c r="C37" s="279"/>
+      <c r="D37" s="279"/>
+      <c r="E37" s="279"/>
+      <c r="F37" s="279"/>
+      <c r="G37" s="279"/>
+      <c r="H37" s="279"/>
+      <c r="I37" s="280"/>
+    </row>
+    <row r="38" spans="1:9" s="48" customFormat="1" ht="73.8">
+      <c r="A38" s="58">
+        <f t="shared" ca="1" si="1"/>
+        <v>17</v>
+      </c>
+      <c r="B38" s="52" t="s">
+        <v>636</v>
+      </c>
+      <c r="C38" s="314" t="s">
+        <v>710</v>
+      </c>
+      <c r="D38" s="54" t="s">
+        <v>663</v>
+      </c>
+      <c r="E38" s="54"/>
+      <c r="F38" s="52"/>
+      <c r="G38" s="52"/>
+      <c r="H38" s="52"/>
+      <c r="I38" s="61"/>
+    </row>
+    <row r="39" spans="1:9" s="48" customFormat="1" ht="73.8">
+      <c r="A39" s="58">
+        <f t="shared" ca="1" si="1"/>
+        <v>18</v>
+      </c>
+      <c r="B39" s="52" t="s">
+        <v>641</v>
+      </c>
+      <c r="C39" s="314" t="s">
+        <v>711</v>
+      </c>
+      <c r="D39" s="310" t="s">
+        <v>642</v>
+      </c>
+      <c r="E39" s="54"/>
+      <c r="F39" s="52"/>
+      <c r="G39" s="52"/>
+      <c r="H39" s="52"/>
+      <c r="I39" s="61"/>
+    </row>
+    <row r="40" spans="1:9" s="48" customFormat="1" ht="73.8">
+      <c r="A40" s="58">
+        <f t="shared" ca="1" si="1"/>
+        <v>19</v>
+      </c>
+      <c r="B40" s="52" t="s">
+        <v>535</v>
+      </c>
+      <c r="C40" s="314" t="s">
+        <v>712</v>
+      </c>
+      <c r="D40" s="54" t="s">
+        <v>664</v>
+      </c>
+      <c r="E40" s="54"/>
+      <c r="F40" s="52"/>
+      <c r="G40" s="52"/>
+      <c r="H40" s="52"/>
+      <c r="I40" s="61"/>
+    </row>
+    <row r="41" spans="1:9" s="48" customFormat="1" ht="73.8">
+      <c r="A41" s="58">
+        <f t="shared" ca="1" si="1"/>
+        <v>20</v>
+      </c>
+      <c r="B41" s="52" t="s">
+        <v>536</v>
+      </c>
+      <c r="C41" s="314" t="s">
+        <v>713</v>
+      </c>
+      <c r="D41" s="310" t="s">
+        <v>642</v>
+      </c>
+      <c r="E41" s="54"/>
+      <c r="F41" s="52"/>
+      <c r="G41" s="52"/>
+      <c r="H41" s="52"/>
+      <c r="I41" s="61"/>
+    </row>
+    <row r="42" spans="1:9" s="48" customFormat="1" ht="73.8">
+      <c r="A42" s="58">
+        <f t="shared" ca="1" si="1"/>
+        <v>21</v>
+      </c>
+      <c r="B42" s="198" t="s">
+        <v>569</v>
+      </c>
+      <c r="C42" s="314" t="s">
+        <v>714</v>
+      </c>
+      <c r="D42" s="54" t="s">
+        <v>664</v>
+      </c>
+      <c r="E42" s="54"/>
+      <c r="F42" s="52"/>
+      <c r="G42" s="52"/>
+      <c r="H42" s="52"/>
+      <c r="I42" s="61"/>
+    </row>
+    <row r="43" spans="1:9" s="48" customFormat="1" ht="73.8">
+      <c r="A43" s="58">
+        <f t="shared" ca="1" si="1"/>
+        <v>22</v>
+      </c>
+      <c r="B43" s="198" t="s">
+        <v>570</v>
+      </c>
+      <c r="C43" s="314" t="s">
+        <v>715</v>
+      </c>
+      <c r="D43" s="54" t="s">
+        <v>665</v>
+      </c>
+      <c r="E43" s="54"/>
+      <c r="F43" s="52"/>
+      <c r="G43" s="52"/>
+      <c r="H43" s="52"/>
+      <c r="I43" s="61"/>
+    </row>
+    <row r="44" spans="1:9" s="48" customFormat="1" ht="61.5">
+      <c r="A44" s="58">
+        <f t="shared" ca="1" si="1"/>
+        <v>23</v>
+      </c>
+      <c r="B44" s="198" t="s">
+        <v>571</v>
+      </c>
+      <c r="C44" s="314" t="s">
+        <v>716</v>
+      </c>
+      <c r="D44" s="54" t="s">
+        <v>666</v>
+      </c>
+      <c r="E44" s="54"/>
+      <c r="F44" s="52"/>
+      <c r="G44" s="52"/>
+      <c r="H44" s="52"/>
+      <c r="I44" s="61"/>
+    </row>
+    <row r="45" spans="1:9" s="48" customFormat="1" ht="73.8">
+      <c r="A45" s="58">
+        <f t="shared" ca="1" si="1"/>
+        <v>24</v>
+      </c>
+      <c r="B45" s="52" t="s">
+        <v>572</v>
+      </c>
+      <c r="C45" s="314" t="s">
+        <v>709</v>
+      </c>
+      <c r="D45" s="54" t="s">
+        <v>643</v>
+      </c>
+      <c r="E45" s="54"/>
+      <c r="F45" s="52"/>
+      <c r="G45" s="52"/>
+      <c r="H45" s="52"/>
+      <c r="I45" s="61"/>
+    </row>
+    <row r="46" spans="1:9" s="48" customFormat="1" ht="73.8">
+      <c r="A46" s="58">
+        <f t="shared" ca="1" si="1"/>
+        <v>25</v>
+      </c>
+      <c r="B46" s="52" t="s">
+        <v>574</v>
+      </c>
+      <c r="C46" s="314" t="s">
+        <v>717</v>
+      </c>
+      <c r="D46" s="54" t="s">
+        <v>656</v>
+      </c>
+      <c r="E46" s="54"/>
+      <c r="F46" s="52"/>
+      <c r="G46" s="52"/>
+      <c r="H46" s="52"/>
+      <c r="I46" s="61"/>
+    </row>
+    <row r="47" spans="1:9" s="48" customFormat="1" ht="36.9">
+      <c r="A47" s="58">
+        <f t="shared" ca="1" si="1"/>
+        <v>26</v>
+      </c>
+      <c r="B47" s="52" t="s">
+        <v>573</v>
+      </c>
+      <c r="C47" s="314" t="s">
+        <v>707</v>
+      </c>
+      <c r="D47" s="54" t="s">
+        <v>657</v>
+      </c>
+      <c r="E47" s="54"/>
+      <c r="F47" s="52"/>
+      <c r="G47" s="52"/>
+      <c r="H47" s="52"/>
+      <c r="I47" s="61"/>
+    </row>
+    <row r="48" spans="1:9" s="48" customFormat="1" ht="36.9">
+      <c r="A48" s="58">
+        <f t="shared" ca="1" si="1"/>
+        <v>27</v>
+      </c>
+      <c r="B48" s="52" t="s">
+        <v>575</v>
+      </c>
+      <c r="C48" s="314" t="s">
+        <v>708</v>
+      </c>
+      <c r="D48" s="54" t="s">
+        <v>660</v>
+      </c>
+      <c r="E48" s="54"/>
+      <c r="F48" s="52"/>
+      <c r="G48" s="52"/>
+      <c r="H48" s="52"/>
+      <c r="I48" s="61"/>
+    </row>
+    <row r="49" spans="1:9" s="48" customFormat="1" ht="36.9">
+      <c r="A49" s="58">
+        <f t="shared" ca="1" si="1"/>
+        <v>28</v>
+      </c>
+      <c r="B49" s="52" t="s">
+        <v>624</v>
+      </c>
+      <c r="C49" s="314" t="s">
+        <v>708</v>
+      </c>
+      <c r="D49" s="54" t="s">
+        <v>659</v>
+      </c>
+      <c r="E49" s="54"/>
+      <c r="F49" s="52"/>
+      <c r="G49" s="52"/>
+      <c r="H49" s="52"/>
+      <c r="I49" s="61"/>
+    </row>
+    <row r="50" spans="1:9" s="48" customFormat="1" ht="73.8">
+      <c r="A50" s="58">
+        <f t="shared" ca="1" si="1"/>
+        <v>29</v>
+      </c>
+      <c r="B50" s="52" t="s">
+        <v>537</v>
+      </c>
+      <c r="C50" s="314" t="s">
+        <v>718</v>
+      </c>
+      <c r="D50" s="54" t="s">
+        <v>665</v>
+      </c>
+      <c r="E50" s="54"/>
+      <c r="F50" s="52"/>
+      <c r="G50" s="52"/>
+      <c r="H50" s="52"/>
+      <c r="I50" s="61"/>
+    </row>
+    <row r="51" spans="1:9" s="48" customFormat="1" ht="13.8">
+      <c r="A51" s="184"/>
+      <c r="B51" s="275" t="s">
+        <v>531</v>
+      </c>
+      <c r="C51" s="276"/>
+      <c r="D51" s="276"/>
+      <c r="E51" s="276"/>
+      <c r="F51" s="276"/>
+      <c r="G51" s="276"/>
+      <c r="H51" s="276"/>
+      <c r="I51" s="277"/>
+    </row>
+    <row r="52" spans="1:9" s="48" customFormat="1" ht="49.8" customHeight="1">
+      <c r="A52" s="58">
+        <f ca="1">IF(OFFSET(A52,-1,0) ="",OFFSET(A52,-2,0)+1,OFFSET(A52,-1,0)+1 )</f>
+        <v>30</v>
+      </c>
+      <c r="B52" s="52" t="s">
+        <v>636</v>
+      </c>
+      <c r="C52" s="52" t="s">
+        <v>720</v>
+      </c>
+      <c r="D52" s="310" t="s">
+        <v>668</v>
+      </c>
+      <c r="E52" s="54"/>
+      <c r="F52" s="52"/>
+      <c r="G52" s="52"/>
+      <c r="H52" s="52"/>
+      <c r="I52" s="62"/>
+    </row>
+    <row r="53" spans="1:9" s="48" customFormat="1" ht="53.1" customHeight="1">
+      <c r="A53" s="58">
+        <f t="shared" ca="1" si="1"/>
+        <v>31</v>
+      </c>
+      <c r="B53" s="52" t="s">
+        <v>548</v>
+      </c>
+      <c r="C53" s="314" t="s">
+        <v>721</v>
+      </c>
+      <c r="D53" s="310" t="s">
+        <v>669</v>
+      </c>
+      <c r="E53" s="54"/>
+      <c r="F53" s="52"/>
+      <c r="G53" s="52"/>
+      <c r="H53" s="52"/>
+      <c r="I53" s="62"/>
+    </row>
+    <row r="54" spans="1:9" s="48" customFormat="1" ht="49.2" customHeight="1">
+      <c r="A54" s="58">
+        <f t="shared" ca="1" si="1"/>
+        <v>32</v>
+      </c>
+      <c r="B54" s="52" t="s">
+        <v>547</v>
+      </c>
+      <c r="C54" s="314" t="s">
+        <v>722</v>
+      </c>
+      <c r="D54" s="59" t="s">
+        <v>680</v>
+      </c>
+      <c r="E54" s="54"/>
+      <c r="F54" s="52"/>
+      <c r="G54" s="52"/>
+      <c r="H54" s="52"/>
+      <c r="I54" s="62"/>
+    </row>
+    <row r="55" spans="1:9" s="48" customFormat="1" ht="61.5">
+      <c r="A55" s="58">
+        <f t="shared" ca="1" si="1"/>
+        <v>33</v>
+      </c>
+      <c r="B55" s="52" t="s">
+        <v>538</v>
+      </c>
+      <c r="C55" s="314" t="s">
+        <v>724</v>
+      </c>
+      <c r="D55" s="59" t="s">
+        <v>680</v>
+      </c>
+      <c r="E55" s="54"/>
+      <c r="F55" s="52"/>
+      <c r="G55" s="52"/>
+      <c r="H55" s="52"/>
+      <c r="I55" s="62"/>
+    </row>
+    <row r="56" spans="1:9" s="48" customFormat="1" ht="61.5">
+      <c r="A56" s="58">
+        <f t="shared" ca="1" si="1"/>
+        <v>34</v>
+      </c>
+      <c r="B56" s="52" t="s">
+        <v>539</v>
+      </c>
+      <c r="C56" s="314" t="s">
+        <v>723</v>
+      </c>
+      <c r="D56" s="310" t="s">
+        <v>669</v>
+      </c>
+      <c r="E56" s="54"/>
+      <c r="F56" s="52"/>
+      <c r="G56" s="52"/>
+      <c r="H56" s="52"/>
+      <c r="I56" s="62"/>
+    </row>
+    <row r="57" spans="1:9" s="48" customFormat="1" ht="36.9">
+      <c r="A57" s="58">
+        <f t="shared" ca="1" si="1"/>
+        <v>35</v>
+      </c>
+      <c r="B57" s="52" t="s">
+        <v>540</v>
+      </c>
+      <c r="C57" s="314" t="s">
+        <v>719</v>
+      </c>
+      <c r="D57" s="53" t="s">
+        <v>670</v>
+      </c>
+      <c r="E57" s="54"/>
+      <c r="F57" s="52"/>
+      <c r="G57" s="52"/>
+      <c r="H57" s="52"/>
+      <c r="I57" s="62"/>
+    </row>
+    <row r="58" spans="1:9" s="48" customFormat="1" ht="36.9">
+      <c r="A58" s="58">
+        <f ca="1">IF(OFFSET(A58,-1,0) ="",OFFSET(A58,-2,0)+1,OFFSET(A58,-1,0)+1 )</f>
+        <v>36</v>
+      </c>
+      <c r="B58" s="52" t="s">
+        <v>541</v>
+      </c>
+      <c r="C58" s="314" t="s">
+        <v>719</v>
+      </c>
+      <c r="D58" s="53" t="s">
+        <v>670</v>
+      </c>
+      <c r="E58" s="54"/>
+      <c r="F58" s="52"/>
+      <c r="G58" s="52"/>
+      <c r="H58" s="52"/>
+      <c r="I58" s="62"/>
+    </row>
+    <row r="59" spans="1:9" s="48" customFormat="1" ht="36.9">
+      <c r="A59" s="58">
+        <f t="shared" ref="A59:A67" ca="1" si="2">IF(OFFSET(A59,-1,0) ="",OFFSET(A59,-2,0)+1,OFFSET(A59,-1,0)+1 )</f>
+        <v>37</v>
+      </c>
+      <c r="B59" s="52" t="s">
+        <v>583</v>
+      </c>
+      <c r="C59" s="314" t="s">
+        <v>719</v>
+      </c>
+      <c r="D59" s="53" t="s">
+        <v>670</v>
+      </c>
+      <c r="E59" s="54"/>
+      <c r="F59" s="52"/>
+      <c r="G59" s="52"/>
+      <c r="H59" s="52"/>
+      <c r="I59" s="62"/>
+    </row>
+    <row r="60" spans="1:9" s="48" customFormat="1" ht="36.9">
+      <c r="A60" s="58">
+        <f t="shared" ca="1" si="2"/>
+        <v>38</v>
+      </c>
+      <c r="B60" s="52" t="s">
+        <v>678</v>
+      </c>
+      <c r="C60" s="314" t="s">
+        <v>719</v>
+      </c>
+      <c r="D60" s="53" t="s">
+        <v>679</v>
+      </c>
+      <c r="E60" s="54"/>
+      <c r="F60" s="52"/>
+      <c r="G60" s="52"/>
+      <c r="H60" s="52"/>
+      <c r="I60" s="62"/>
+    </row>
+    <row r="61" spans="1:9" s="48" customFormat="1" ht="36.9">
+      <c r="A61" s="58">
+        <f t="shared" ca="1" si="2"/>
+        <v>39</v>
+      </c>
+      <c r="B61" s="52" t="s">
+        <v>584</v>
+      </c>
+      <c r="C61" s="314" t="s">
+        <v>719</v>
+      </c>
+      <c r="D61" s="59" t="s">
+        <v>680</v>
+      </c>
+      <c r="E61" s="54"/>
+      <c r="F61" s="52"/>
+      <c r="G61" s="52"/>
+      <c r="H61" s="52"/>
+      <c r="I61" s="62"/>
+    </row>
+    <row r="62" spans="1:9" s="48" customFormat="1" ht="36.9">
+      <c r="A62" s="58">
+        <f t="shared" ca="1" si="2"/>
+        <v>40</v>
+      </c>
+      <c r="B62" s="52" t="s">
+        <v>585</v>
+      </c>
+      <c r="C62" s="314" t="s">
+        <v>719</v>
+      </c>
+      <c r="D62" s="53" t="s">
+        <v>671</v>
+      </c>
+      <c r="E62" s="54"/>
+      <c r="F62" s="52"/>
+      <c r="G62" s="52"/>
+      <c r="H62" s="52"/>
+      <c r="I62" s="62"/>
+    </row>
+    <row r="63" spans="1:9" s="48" customFormat="1" ht="36.9">
+      <c r="A63" s="58">
+        <f t="shared" ca="1" si="2"/>
+        <v>41</v>
+      </c>
+      <c r="B63" s="52" t="s">
+        <v>586</v>
+      </c>
+      <c r="C63" s="314" t="s">
+        <v>719</v>
+      </c>
+      <c r="D63" s="53" t="s">
+        <v>672</v>
+      </c>
+      <c r="E63" s="54"/>
+      <c r="F63" s="52"/>
+      <c r="G63" s="52"/>
+      <c r="H63" s="52"/>
+      <c r="I63" s="62"/>
+    </row>
+    <row r="64" spans="1:9" s="48" customFormat="1" ht="36.9">
+      <c r="A64" s="58">
+        <f t="shared" ca="1" si="2"/>
+        <v>42</v>
+      </c>
+      <c r="B64" s="52" t="s">
+        <v>587</v>
+      </c>
+      <c r="C64" s="314" t="s">
+        <v>719</v>
+      </c>
+      <c r="D64" s="53" t="s">
+        <v>667</v>
+      </c>
+      <c r="E64" s="54"/>
+      <c r="F64" s="52"/>
+      <c r="G64" s="52"/>
+      <c r="H64" s="52"/>
+      <c r="I64" s="62"/>
+    </row>
+    <row r="65" spans="1:9" s="48" customFormat="1" ht="36.9">
+      <c r="A65" s="58">
+        <f t="shared" ca="1" si="2"/>
+        <v>43</v>
+      </c>
+      <c r="B65" s="52" t="s">
+        <v>588</v>
+      </c>
+      <c r="C65" s="314" t="s">
+        <v>719</v>
+      </c>
+      <c r="D65" s="53" t="s">
+        <v>643</v>
+      </c>
+      <c r="E65" s="54"/>
+      <c r="F65" s="52"/>
+      <c r="G65" s="52"/>
+      <c r="H65" s="52"/>
+      <c r="I65" s="62"/>
+    </row>
+    <row r="66" spans="1:9" s="48" customFormat="1" ht="36.9">
+      <c r="A66" s="58">
+        <f t="shared" ca="1" si="2"/>
+        <v>44</v>
+      </c>
+      <c r="B66" s="52" t="s">
+        <v>625</v>
+      </c>
+      <c r="C66" s="314" t="s">
+        <v>719</v>
+      </c>
+      <c r="D66" s="53" t="s">
+        <v>661</v>
+      </c>
+      <c r="E66" s="54"/>
+      <c r="F66" s="52"/>
+      <c r="G66" s="52"/>
+      <c r="H66" s="52"/>
+      <c r="I66" s="62"/>
+    </row>
+    <row r="67" spans="1:9" s="48" customFormat="1" ht="36.9">
+      <c r="A67" s="58">
+        <f t="shared" ca="1" si="2"/>
+        <v>45</v>
+      </c>
+      <c r="B67" s="52" t="s">
+        <v>589</v>
+      </c>
+      <c r="C67" s="314" t="s">
+        <v>719</v>
+      </c>
+      <c r="D67" s="53"/>
+      <c r="E67" s="54"/>
+      <c r="F67" s="52"/>
+      <c r="G67" s="52"/>
+      <c r="H67" s="52"/>
+      <c r="I67" s="62"/>
+    </row>
+    <row r="68" spans="1:9" s="49" customFormat="1" ht="13.8">
+      <c r="A68" s="189"/>
+      <c r="B68" s="265" t="s">
+        <v>542</v>
+      </c>
+      <c r="C68" s="266"/>
+      <c r="D68" s="266"/>
+      <c r="E68" s="266"/>
+      <c r="F68" s="266"/>
+      <c r="G68" s="266"/>
+      <c r="H68" s="266"/>
+      <c r="I68" s="267"/>
+    </row>
+    <row r="69" spans="1:9" s="48" customFormat="1" ht="24.6">
+      <c r="A69" s="58">
+        <f t="shared" ca="1" si="1"/>
+        <v>46</v>
+      </c>
+      <c r="B69" s="52" t="s">
+        <v>591</v>
+      </c>
+      <c r="C69" s="52"/>
+      <c r="D69" s="53" t="s">
+        <v>653</v>
+      </c>
+      <c r="E69" s="54"/>
+      <c r="F69" s="52"/>
+      <c r="G69" s="52"/>
+      <c r="H69" s="52"/>
+      <c r="I69" s="62"/>
+    </row>
+    <row r="70" spans="1:9" s="48" customFormat="1" ht="13.8">
+      <c r="A70" s="199"/>
+      <c r="B70" s="281" t="s">
+        <v>590</v>
+      </c>
+      <c r="C70" s="282"/>
+      <c r="D70" s="282"/>
+      <c r="E70" s="282"/>
+      <c r="F70" s="282"/>
+      <c r="G70" s="282"/>
+      <c r="H70" s="282"/>
+      <c r="I70" s="283"/>
+    </row>
+    <row r="71" spans="1:9" s="48" customFormat="1" ht="24.6">
+      <c r="A71" s="58">
+        <f t="shared" ca="1" si="1"/>
+        <v>47</v>
+      </c>
+      <c r="B71" s="52" t="s">
+        <v>592</v>
+      </c>
+      <c r="C71" s="52"/>
+      <c r="D71" s="53" t="s">
+        <v>652</v>
+      </c>
+      <c r="E71" s="54"/>
+      <c r="F71" s="52"/>
+      <c r="G71" s="52"/>
+      <c r="H71" s="52"/>
+      <c r="I71" s="62"/>
+    </row>
+    <row r="72" spans="1:9" s="48" customFormat="1" ht="24.6">
+      <c r="A72" s="58">
+        <f t="shared" ca="1" si="1"/>
+        <v>48</v>
+      </c>
+      <c r="B72" s="52" t="s">
+        <v>593</v>
+      </c>
+      <c r="C72" s="52"/>
+      <c r="D72" s="53" t="s">
+        <v>654</v>
+      </c>
+      <c r="E72" s="54"/>
+      <c r="F72" s="52"/>
+      <c r="G72" s="52"/>
+      <c r="H72" s="52"/>
+      <c r="I72" s="62"/>
+    </row>
+    <row r="73" spans="1:9" s="48" customFormat="1" ht="13.8">
+      <c r="A73" s="58">
+        <f t="shared" ca="1" si="1"/>
+        <v>49</v>
+      </c>
+      <c r="B73" s="52" t="s">
+        <v>595</v>
+      </c>
+      <c r="C73" s="52"/>
+      <c r="D73" s="53" t="s">
+        <v>684</v>
+      </c>
+      <c r="E73" s="54"/>
+      <c r="F73" s="52"/>
+      <c r="G73" s="52"/>
+      <c r="H73" s="52"/>
+      <c r="I73" s="62"/>
+    </row>
+    <row r="74" spans="1:9" s="48" customFormat="1" ht="13.8">
+      <c r="A74" s="58">
+        <f t="shared" ca="1" si="1"/>
+        <v>50</v>
+      </c>
+      <c r="B74" s="52" t="s">
+        <v>596</v>
+      </c>
+      <c r="C74" s="52"/>
+      <c r="D74" s="53" t="s">
+        <v>676</v>
+      </c>
+      <c r="E74" s="54"/>
+      <c r="F74" s="52"/>
+      <c r="G74" s="52"/>
+      <c r="H74" s="52"/>
+      <c r="I74" s="62"/>
+    </row>
+    <row r="75" spans="1:9" s="48" customFormat="1" ht="13.8">
+      <c r="A75" s="58">
+        <f t="shared" ca="1" si="1"/>
+        <v>51</v>
+      </c>
+      <c r="B75" s="52" t="s">
+        <v>594</v>
+      </c>
+      <c r="C75" s="52"/>
+      <c r="D75" s="53" t="s">
+        <v>673</v>
+      </c>
+      <c r="E75" s="54"/>
+      <c r="F75" s="52"/>
+      <c r="G75" s="52"/>
+      <c r="H75" s="52"/>
+      <c r="I75" s="62"/>
+    </row>
+    <row r="76" spans="1:9" s="48" customFormat="1" ht="13.8">
+      <c r="A76" s="58">
+        <f t="shared" ca="1" si="1"/>
+        <v>52</v>
+      </c>
+      <c r="B76" s="52" t="s">
+        <v>612</v>
+      </c>
+      <c r="C76" s="52"/>
+      <c r="D76" s="53" t="s">
+        <v>683</v>
+      </c>
+      <c r="E76" s="54"/>
+      <c r="F76" s="52"/>
+      <c r="G76" s="52"/>
+      <c r="H76" s="52"/>
+      <c r="I76" s="62"/>
+    </row>
+    <row r="77" spans="1:9" s="48" customFormat="1" ht="13.8">
+      <c r="A77" s="58">
+        <f t="shared" ca="1" si="1"/>
+        <v>53</v>
+      </c>
+      <c r="B77" s="52" t="s">
+        <v>626</v>
+      </c>
+      <c r="C77" s="52"/>
+      <c r="D77" s="53" t="s">
+        <v>675</v>
+      </c>
+      <c r="E77" s="54"/>
+      <c r="F77" s="52"/>
+      <c r="G77" s="52"/>
+      <c r="H77" s="52"/>
+      <c r="I77" s="62"/>
+    </row>
+    <row r="78" spans="1:9" s="48" customFormat="1" ht="13.8">
+      <c r="A78" s="58">
+        <f t="shared" ca="1" si="1"/>
+        <v>54</v>
+      </c>
+      <c r="B78" s="52" t="s">
+        <v>597</v>
+      </c>
+      <c r="C78" s="52"/>
+      <c r="D78" s="53" t="s">
+        <v>676</v>
+      </c>
+      <c r="E78" s="54"/>
+      <c r="F78" s="52"/>
+      <c r="G78" s="52"/>
+      <c r="H78" s="52"/>
+      <c r="I78" s="62"/>
+    </row>
+    <row r="79" spans="1:9" s="48" customFormat="1" ht="13.8">
+      <c r="A79" s="199"/>
+      <c r="B79" s="281" t="s">
+        <v>598</v>
+      </c>
+      <c r="C79" s="282"/>
+      <c r="D79" s="282"/>
+      <c r="E79" s="282"/>
+      <c r="F79" s="282"/>
+      <c r="G79" s="282"/>
+      <c r="H79" s="282"/>
+      <c r="I79" s="283"/>
+    </row>
+    <row r="80" spans="1:9" s="48" customFormat="1" ht="24.6">
+      <c r="A80" s="58">
+        <f t="shared" ca="1" si="1"/>
+        <v>55</v>
+      </c>
+      <c r="B80" s="52" t="s">
+        <v>600</v>
+      </c>
+      <c r="C80" s="52"/>
+      <c r="D80" s="53" t="s">
+        <v>652</v>
+      </c>
+      <c r="E80" s="54"/>
+      <c r="F80" s="52"/>
+      <c r="G80" s="52"/>
+      <c r="H80" s="52"/>
+      <c r="I80" s="62"/>
+    </row>
+    <row r="81" spans="1:9" s="48" customFormat="1" ht="24.6">
+      <c r="A81" s="58">
+        <f t="shared" ca="1" si="1"/>
+        <v>56</v>
+      </c>
+      <c r="B81" s="52" t="s">
+        <v>601</v>
+      </c>
+      <c r="C81" s="52"/>
+      <c r="D81" s="53" t="s">
+        <v>654</v>
+      </c>
+      <c r="E81" s="54"/>
+      <c r="F81" s="52"/>
+      <c r="G81" s="52"/>
+      <c r="H81" s="52"/>
+      <c r="I81" s="62"/>
+    </row>
+    <row r="82" spans="1:9" s="48" customFormat="1" ht="13.8">
+      <c r="A82" s="58">
+        <f t="shared" ca="1" si="1"/>
+        <v>57</v>
+      </c>
+      <c r="B82" s="52" t="s">
+        <v>602</v>
+      </c>
+      <c r="C82" s="52"/>
+      <c r="D82" s="53" t="s">
+        <v>685</v>
+      </c>
+      <c r="E82" s="54"/>
+      <c r="F82" s="52"/>
+      <c r="G82" s="52"/>
+      <c r="H82" s="52"/>
+      <c r="I82" s="62"/>
+    </row>
+    <row r="83" spans="1:9" s="48" customFormat="1" ht="13.8">
+      <c r="A83" s="58">
+        <f t="shared" ca="1" si="1"/>
+        <v>58</v>
+      </c>
+      <c r="B83" s="52" t="s">
+        <v>603</v>
+      </c>
+      <c r="C83" s="52"/>
+      <c r="D83" s="53" t="s">
+        <v>676</v>
+      </c>
+      <c r="E83" s="54"/>
+      <c r="F83" s="52"/>
+      <c r="G83" s="52"/>
+      <c r="H83" s="52"/>
+      <c r="I83" s="62"/>
+    </row>
+    <row r="84" spans="1:9" s="48" customFormat="1" ht="13.8">
+      <c r="A84" s="58">
+        <f t="shared" ca="1" si="1"/>
+        <v>59</v>
+      </c>
+      <c r="B84" s="52" t="s">
+        <v>604</v>
+      </c>
+      <c r="C84" s="52"/>
+      <c r="D84" s="53" t="s">
+        <v>677</v>
+      </c>
+      <c r="E84" s="54"/>
+      <c r="F84" s="52"/>
+      <c r="G84" s="52"/>
+      <c r="H84" s="52"/>
+      <c r="I84" s="62"/>
+    </row>
+    <row r="85" spans="1:9" s="48" customFormat="1" ht="13.8">
+      <c r="A85" s="58">
+        <f t="shared" ca="1" si="1"/>
+        <v>60</v>
+      </c>
+      <c r="B85" s="52" t="s">
+        <v>611</v>
+      </c>
+      <c r="C85" s="52"/>
+      <c r="D85" s="53" t="s">
+        <v>683</v>
+      </c>
+      <c r="E85" s="54"/>
+      <c r="F85" s="52"/>
+      <c r="G85" s="52"/>
+      <c r="H85" s="52"/>
+      <c r="I85" s="62"/>
+    </row>
+    <row r="86" spans="1:9" s="48" customFormat="1" ht="13.8">
+      <c r="A86" s="58">
+        <f t="shared" ca="1" si="1"/>
+        <v>61</v>
+      </c>
+      <c r="B86" s="52" t="s">
+        <v>627</v>
+      </c>
+      <c r="C86" s="52"/>
+      <c r="D86" s="53" t="s">
+        <v>675</v>
+      </c>
+      <c r="E86" s="54"/>
+      <c r="F86" s="52"/>
+      <c r="G86" s="52"/>
+      <c r="H86" s="52"/>
+      <c r="I86" s="62"/>
+    </row>
+    <row r="87" spans="1:9" s="48" customFormat="1" ht="13.8">
+      <c r="A87" s="58">
+        <f t="shared" ca="1" si="1"/>
+        <v>62</v>
+      </c>
+      <c r="B87" s="52" t="s">
+        <v>605</v>
+      </c>
+      <c r="C87" s="52"/>
+      <c r="D87" s="53" t="s">
+        <v>676</v>
+      </c>
+      <c r="E87" s="54"/>
+      <c r="F87" s="52"/>
+      <c r="G87" s="52"/>
+      <c r="H87" s="52"/>
+      <c r="I87" s="62"/>
+    </row>
+    <row r="88" spans="1:9" s="48" customFormat="1" ht="14.4" customHeight="1">
+      <c r="A88" s="199"/>
+      <c r="B88" s="284" t="s">
+        <v>599</v>
+      </c>
+      <c r="C88" s="285"/>
+      <c r="D88" s="285"/>
+      <c r="E88" s="285"/>
+      <c r="F88" s="285"/>
+      <c r="G88" s="285"/>
+      <c r="H88" s="285"/>
+      <c r="I88" s="286"/>
+    </row>
+    <row r="89" spans="1:9" s="48" customFormat="1" ht="24.6">
+      <c r="A89" s="58">
+        <f t="shared" ca="1" si="1"/>
+        <v>63</v>
+      </c>
+      <c r="B89" s="52" t="s">
+        <v>606</v>
+      </c>
+      <c r="C89" s="52"/>
+      <c r="D89" s="53" t="s">
+        <v>652</v>
+      </c>
+      <c r="E89" s="54"/>
+      <c r="F89" s="52"/>
+      <c r="G89" s="52"/>
+      <c r="H89" s="52"/>
+      <c r="I89" s="62"/>
+    </row>
+    <row r="90" spans="1:9" s="48" customFormat="1" ht="24.6">
+      <c r="A90" s="58">
+        <f t="shared" ca="1" si="1"/>
+        <v>64</v>
+      </c>
+      <c r="B90" s="52" t="s">
+        <v>607</v>
+      </c>
+      <c r="C90" s="52"/>
+      <c r="D90" s="53" t="s">
+        <v>654</v>
+      </c>
+      <c r="E90" s="54"/>
+      <c r="F90" s="52"/>
+      <c r="G90" s="52"/>
+      <c r="H90" s="52"/>
+      <c r="I90" s="62"/>
+    </row>
+    <row r="91" spans="1:9" s="48" customFormat="1" ht="13.8">
+      <c r="A91" s="58">
+        <f t="shared" ca="1" si="1"/>
+        <v>65</v>
+      </c>
+      <c r="B91" s="52" t="s">
+        <v>608</v>
+      </c>
+      <c r="C91" s="52"/>
+      <c r="D91" s="53" t="s">
+        <v>685</v>
+      </c>
+      <c r="E91" s="54"/>
+      <c r="F91" s="52"/>
+      <c r="G91" s="52"/>
+      <c r="H91" s="52"/>
+      <c r="I91" s="62"/>
+    </row>
+    <row r="92" spans="1:9" s="48" customFormat="1" ht="13.8">
+      <c r="A92" s="58">
+        <f t="shared" ca="1" si="1"/>
+        <v>66</v>
+      </c>
+      <c r="B92" s="52" t="s">
+        <v>609</v>
+      </c>
+      <c r="C92" s="52"/>
+      <c r="D92" s="53" t="s">
+        <v>677</v>
+      </c>
+      <c r="E92" s="54"/>
+      <c r="F92" s="52"/>
+      <c r="G92" s="52"/>
+      <c r="H92" s="52"/>
+      <c r="I92" s="62"/>
+    </row>
+    <row r="93" spans="1:9" s="48" customFormat="1" ht="13.8">
+      <c r="A93" s="58">
+        <f t="shared" ca="1" si="1"/>
+        <v>67</v>
+      </c>
+      <c r="B93" s="52" t="s">
+        <v>610</v>
+      </c>
+      <c r="C93" s="52"/>
+      <c r="D93" s="53" t="s">
+        <v>682</v>
+      </c>
+      <c r="E93" s="54"/>
+      <c r="F93" s="52"/>
+      <c r="G93" s="52"/>
+      <c r="H93" s="52"/>
+      <c r="I93" s="62"/>
+    </row>
+    <row r="94" spans="1:9" s="48" customFormat="1" ht="13.8">
+      <c r="A94" s="58">
+        <f t="shared" ca="1" si="1"/>
+        <v>68</v>
+      </c>
+      <c r="B94" s="52" t="s">
+        <v>628</v>
+      </c>
+      <c r="C94" s="52"/>
+      <c r="D94" s="53" t="s">
+        <v>675</v>
+      </c>
+      <c r="E94" s="54"/>
+      <c r="F94" s="52"/>
+      <c r="G94" s="52"/>
+      <c r="H94" s="52"/>
+      <c r="I94" s="62"/>
+    </row>
+    <row r="95" spans="1:9" s="48" customFormat="1" ht="13.8">
+      <c r="A95" s="189"/>
+      <c r="B95" s="265" t="s">
+        <v>543</v>
+      </c>
+      <c r="C95" s="266"/>
+      <c r="D95" s="266"/>
+      <c r="E95" s="266"/>
+      <c r="F95" s="266"/>
+      <c r="G95" s="266"/>
+      <c r="H95" s="266"/>
+      <c r="I95" s="267"/>
+    </row>
+    <row r="96" spans="1:9" s="48" customFormat="1" ht="24.6">
+      <c r="A96" s="58">
+        <f t="shared" ca="1" si="1"/>
+        <v>69</v>
+      </c>
+      <c r="B96" s="52" t="s">
+        <v>613</v>
+      </c>
+      <c r="C96" s="52"/>
+      <c r="D96" s="53" t="s">
+        <v>647</v>
+      </c>
+      <c r="E96" s="54"/>
+      <c r="F96" s="52"/>
+      <c r="G96" s="52"/>
+      <c r="H96" s="52"/>
+      <c r="I96" s="62"/>
+    </row>
+    <row r="97" spans="1:9" s="48" customFormat="1" ht="24.6">
+      <c r="A97" s="58">
+        <f t="shared" ca="1" si="1"/>
+        <v>70</v>
+      </c>
+      <c r="B97" s="52" t="s">
+        <v>614</v>
+      </c>
+      <c r="C97" s="52"/>
+      <c r="D97" s="53" t="s">
+        <v>652</v>
+      </c>
+      <c r="E97" s="54"/>
+      <c r="F97" s="52"/>
+      <c r="G97" s="52"/>
+      <c r="H97" s="52"/>
+      <c r="I97" s="62"/>
+    </row>
+    <row r="98" spans="1:9" s="48" customFormat="1" ht="24.6">
+      <c r="A98" s="58">
+        <f t="shared" ca="1" si="1"/>
+        <v>71</v>
+      </c>
+      <c r="B98" s="52" t="s">
+        <v>615</v>
+      </c>
+      <c r="C98" s="52"/>
+      <c r="D98" s="53" t="s">
+        <v>654</v>
+      </c>
+      <c r="E98" s="54"/>
+      <c r="F98" s="52"/>
+      <c r="G98" s="52"/>
+      <c r="H98" s="52"/>
+      <c r="I98" s="62"/>
+    </row>
+    <row r="99" spans="1:9" s="48" customFormat="1" ht="13.8">
+      <c r="A99" s="58">
+        <f t="shared" ca="1" si="1"/>
+        <v>72</v>
+      </c>
+      <c r="B99" s="52" t="s">
+        <v>544</v>
+      </c>
+      <c r="C99" s="52"/>
+      <c r="D99" s="53" t="s">
+        <v>650</v>
+      </c>
+      <c r="E99" s="54"/>
+      <c r="F99" s="52"/>
+      <c r="G99" s="52"/>
+      <c r="H99" s="52"/>
+      <c r="I99" s="62"/>
+    </row>
+    <row r="100" spans="1:9" s="48" customFormat="1" ht="13.8">
+      <c r="A100" s="58">
+        <f t="shared" ca="1" si="1"/>
+        <v>73</v>
+      </c>
+      <c r="B100" s="52" t="s">
+        <v>545</v>
+      </c>
+      <c r="C100" s="52"/>
+      <c r="D100" s="53" t="s">
+        <v>651</v>
+      </c>
+      <c r="E100" s="54"/>
+      <c r="F100" s="52"/>
+      <c r="G100" s="52"/>
+      <c r="H100" s="52"/>
+      <c r="I100" s="62"/>
+    </row>
+    <row r="101" spans="1:9" s="48" customFormat="1" ht="13.8">
+      <c r="A101" s="58">
+        <f t="shared" ca="1" si="1"/>
+        <v>74</v>
+      </c>
+      <c r="B101" s="52" t="s">
+        <v>629</v>
+      </c>
+      <c r="C101" s="52"/>
+      <c r="D101" s="53" t="s">
+        <v>674</v>
+      </c>
+      <c r="E101" s="54"/>
+      <c r="F101" s="52"/>
+      <c r="G101" s="52"/>
+      <c r="H101" s="52"/>
+      <c r="I101" s="62"/>
+    </row>
+    <row r="102" spans="1:9" s="48" customFormat="1" ht="13.8">
+      <c r="A102" s="58">
+        <f t="shared" ca="1" si="1"/>
+        <v>75</v>
+      </c>
+      <c r="B102" s="52" t="s">
+        <v>616</v>
+      </c>
+      <c r="C102" s="52"/>
+      <c r="D102" s="53" t="s">
+        <v>683</v>
+      </c>
+      <c r="E102" s="54"/>
+      <c r="F102" s="52"/>
+      <c r="G102" s="52"/>
+      <c r="H102" s="52"/>
+      <c r="I102" s="62"/>
+    </row>
+    <row r="103" spans="1:9" s="48" customFormat="1" ht="13.8">
+      <c r="A103" s="189"/>
+      <c r="B103" s="265" t="s">
+        <v>546</v>
+      </c>
+      <c r="C103" s="266"/>
+      <c r="D103" s="266"/>
+      <c r="E103" s="266"/>
+      <c r="F103" s="266"/>
+      <c r="G103" s="266"/>
+      <c r="H103" s="266"/>
+      <c r="I103" s="267"/>
+    </row>
+    <row r="104" spans="1:9" s="48" customFormat="1" ht="13.8">
+      <c r="A104" s="58">
+        <f t="shared" ca="1" si="1"/>
+        <v>76</v>
+      </c>
+      <c r="B104" s="52" t="s">
+        <v>636</v>
+      </c>
+      <c r="C104" s="52"/>
+      <c r="D104" s="310" t="s">
+        <v>686</v>
+      </c>
+      <c r="E104" s="54"/>
+      <c r="F104" s="52"/>
+      <c r="G104" s="52"/>
+      <c r="H104" s="52"/>
+      <c r="I104" s="62"/>
+    </row>
+    <row r="105" spans="1:9" s="48" customFormat="1" ht="24.6">
+      <c r="A105" s="58">
+        <f t="shared" ca="1" si="1"/>
+        <v>77</v>
+      </c>
+      <c r="B105" s="52" t="s">
+        <v>646</v>
+      </c>
+      <c r="C105" s="52"/>
+      <c r="D105" s="53" t="s">
+        <v>647</v>
+      </c>
+      <c r="E105" s="54"/>
+      <c r="F105" s="52"/>
+      <c r="G105" s="52"/>
+      <c r="H105" s="52"/>
+      <c r="I105" s="62"/>
+    </row>
+    <row r="106" spans="1:9" s="48" customFormat="1" ht="24.6">
+      <c r="A106" s="58">
+        <f t="shared" ca="1" si="1"/>
+        <v>78</v>
+      </c>
+      <c r="B106" s="52" t="s">
+        <v>549</v>
+      </c>
+      <c r="C106" s="52"/>
+      <c r="D106" s="310" t="s">
+        <v>687</v>
+      </c>
+      <c r="E106" s="54"/>
+      <c r="F106" s="52"/>
+      <c r="G106" s="52"/>
+      <c r="H106" s="52"/>
+      <c r="I106" s="62"/>
+    </row>
+    <row r="107" spans="1:9" s="48" customFormat="1" ht="24.6">
+      <c r="A107" s="58">
+        <f t="shared" ca="1" si="1"/>
+        <v>79</v>
+      </c>
+      <c r="B107" s="52" t="s">
+        <v>550</v>
+      </c>
+      <c r="C107" s="52"/>
+      <c r="D107" s="54" t="s">
+        <v>688</v>
+      </c>
+      <c r="E107" s="54"/>
+      <c r="F107" s="52"/>
+      <c r="G107" s="52"/>
+      <c r="H107" s="52"/>
+      <c r="I107" s="62"/>
+    </row>
+    <row r="108" spans="1:9" s="48" customFormat="1" ht="24.6">
+      <c r="A108" s="58">
+        <f t="shared" ca="1" si="1"/>
+        <v>80</v>
+      </c>
+      <c r="B108" s="52" t="s">
+        <v>551</v>
+      </c>
+      <c r="C108" s="52"/>
+      <c r="D108" s="53" t="s">
+        <v>688</v>
+      </c>
+      <c r="E108" s="54"/>
+      <c r="F108" s="52"/>
+      <c r="G108" s="52"/>
+      <c r="H108" s="52"/>
+      <c r="I108" s="62"/>
+    </row>
+    <row r="109" spans="1:9" s="48" customFormat="1" ht="24.6">
+      <c r="A109" s="58">
+        <f t="shared" ca="1" si="1"/>
+        <v>81</v>
+      </c>
+      <c r="B109" s="52" t="s">
+        <v>552</v>
+      </c>
+      <c r="C109" s="52"/>
+      <c r="D109" s="310" t="s">
+        <v>687</v>
+      </c>
+      <c r="E109" s="54"/>
+      <c r="F109" s="52"/>
+      <c r="G109" s="52"/>
+      <c r="H109" s="52"/>
+      <c r="I109" s="62"/>
+    </row>
+    <row r="110" spans="1:9" s="48" customFormat="1" ht="24.6">
+      <c r="A110" s="58">
+        <f t="shared" ca="1" si="1"/>
+        <v>82</v>
+      </c>
+      <c r="B110" s="52" t="s">
+        <v>648</v>
+      </c>
+      <c r="C110" s="52"/>
+      <c r="D110" s="53" t="s">
+        <v>688</v>
+      </c>
+      <c r="E110" s="54"/>
+      <c r="F110" s="52"/>
+      <c r="G110" s="52"/>
+      <c r="H110" s="52"/>
+      <c r="I110" s="62"/>
+    </row>
+    <row r="111" spans="1:9" s="48" customFormat="1" ht="24.6">
+      <c r="A111" s="58">
+        <f t="shared" ca="1" si="1"/>
+        <v>83</v>
+      </c>
+      <c r="B111" s="52" t="s">
+        <v>553</v>
+      </c>
+      <c r="C111" s="52"/>
+      <c r="D111" s="53" t="s">
+        <v>688</v>
+      </c>
+      <c r="E111" s="54"/>
+      <c r="F111" s="52"/>
+      <c r="G111" s="52"/>
+      <c r="H111" s="52"/>
+      <c r="I111" s="62"/>
+    </row>
+    <row r="112" spans="1:9" s="48" customFormat="1" ht="24.6">
+      <c r="A112" s="58">
+        <f t="shared" ca="1" si="1"/>
+        <v>84</v>
+      </c>
+      <c r="B112" s="52" t="s">
+        <v>617</v>
+      </c>
+      <c r="C112" s="52"/>
+      <c r="D112" s="53" t="s">
+        <v>688</v>
+      </c>
+      <c r="E112" s="54"/>
+      <c r="F112" s="52"/>
+      <c r="G112" s="52"/>
+      <c r="H112" s="52"/>
+      <c r="I112" s="62"/>
+    </row>
+    <row r="113" spans="1:9" s="48" customFormat="1" ht="13.8">
+      <c r="A113" s="58">
+        <f t="shared" ca="1" si="1"/>
+        <v>85</v>
+      </c>
+      <c r="B113" s="52" t="s">
+        <v>618</v>
+      </c>
+      <c r="C113" s="52"/>
+      <c r="D113" s="53" t="s">
+        <v>649</v>
+      </c>
+      <c r="E113" s="54"/>
+      <c r="F113" s="52"/>
+      <c r="G113" s="52"/>
+      <c r="H113" s="52"/>
+      <c r="I113" s="62"/>
+    </row>
+    <row r="114" spans="1:9" s="48" customFormat="1" ht="13.8">
+      <c r="A114" s="58">
+        <f t="shared" ca="1" si="1"/>
+        <v>86</v>
+      </c>
+      <c r="B114" s="52" t="s">
+        <v>580</v>
+      </c>
+      <c r="C114" s="52"/>
+      <c r="D114" s="53" t="s">
+        <v>643</v>
+      </c>
+      <c r="E114" s="54"/>
+      <c r="F114" s="52"/>
+      <c r="G114" s="52"/>
+      <c r="H114" s="52"/>
+      <c r="I114" s="62"/>
+    </row>
+    <row r="115" spans="1:9" s="48" customFormat="1" ht="24.6">
+      <c r="A115" s="58">
+        <f t="shared" ca="1" si="1"/>
+        <v>87</v>
+      </c>
+      <c r="B115" s="52" t="s">
+        <v>630</v>
+      </c>
+      <c r="C115" s="52"/>
+      <c r="D115" s="53" t="s">
+        <v>645</v>
+      </c>
+      <c r="E115" s="54"/>
+      <c r="F115" s="52"/>
+      <c r="G115" s="52"/>
+      <c r="H115" s="52"/>
+      <c r="I115" s="62"/>
+    </row>
+    <row r="116" spans="1:9" s="48" customFormat="1" ht="13.8">
+      <c r="A116" s="58">
+        <f t="shared" ca="1" si="1"/>
+        <v>88</v>
+      </c>
+      <c r="B116" s="52" t="s">
+        <v>619</v>
+      </c>
+      <c r="C116" s="52"/>
+      <c r="D116" s="53"/>
+      <c r="E116" s="54"/>
+      <c r="F116" s="52"/>
+      <c r="G116" s="52"/>
+      <c r="H116" s="52"/>
+      <c r="I116" s="62"/>
+    </row>
+    <row r="117" spans="1:9" s="48" customFormat="1" ht="13.8">
+      <c r="A117" s="189"/>
+      <c r="B117" s="265" t="s">
+        <v>554</v>
+      </c>
+      <c r="C117" s="266"/>
+      <c r="D117" s="266"/>
+      <c r="E117" s="266"/>
+      <c r="F117" s="266"/>
+      <c r="G117" s="266"/>
+      <c r="H117" s="266"/>
+      <c r="I117" s="267"/>
+    </row>
+    <row r="118" spans="1:9" s="48" customFormat="1" ht="13.8">
+      <c r="A118" s="58">
+        <f t="shared" ca="1" si="1"/>
+        <v>89</v>
+      </c>
+      <c r="B118" s="52" t="s">
+        <v>555</v>
+      </c>
+      <c r="C118" s="52"/>
+      <c r="D118" s="53" t="s">
+        <v>681</v>
+      </c>
+      <c r="E118" s="54"/>
+      <c r="F118" s="52"/>
+      <c r="G118" s="52"/>
+      <c r="H118" s="52"/>
+      <c r="I118" s="62"/>
+    </row>
+    <row r="119" spans="1:9" s="48" customFormat="1" ht="13.8">
+      <c r="A119" s="58">
+        <f t="shared" ca="1" si="1"/>
+        <v>90</v>
+      </c>
+      <c r="B119" s="52" t="s">
+        <v>699</v>
+      </c>
+      <c r="C119" s="52"/>
+      <c r="D119" s="312" t="s">
+        <v>698</v>
+      </c>
+      <c r="E119" s="54"/>
+      <c r="F119" s="52"/>
+      <c r="G119" s="52"/>
+      <c r="H119" s="52"/>
+      <c r="I119" s="62"/>
+    </row>
+    <row r="120" spans="1:9" s="48" customFormat="1" ht="13.8">
+      <c r="A120" s="58">
+        <f t="shared" ca="1" si="1"/>
+        <v>91</v>
+      </c>
+      <c r="B120" s="52" t="s">
+        <v>620</v>
+      </c>
+      <c r="C120" s="52"/>
+      <c r="D120" s="53" t="s">
+        <v>644</v>
+      </c>
+      <c r="E120" s="54"/>
+      <c r="F120" s="52"/>
+      <c r="G120" s="52"/>
+      <c r="H120" s="52"/>
+      <c r="I120" s="62"/>
+    </row>
+    <row r="121" spans="1:9" s="48" customFormat="1" ht="13.8">
+      <c r="A121" s="189"/>
+      <c r="B121" s="265" t="s">
+        <v>565</v>
+      </c>
+      <c r="C121" s="266"/>
+      <c r="D121" s="266"/>
+      <c r="E121" s="266"/>
+      <c r="F121" s="266"/>
+      <c r="G121" s="266"/>
+      <c r="H121" s="266"/>
+      <c r="I121" s="267"/>
+    </row>
+    <row r="122" spans="1:9" s="48" customFormat="1" ht="13.8">
+      <c r="A122" s="58">
+        <f t="shared" ca="1" si="1"/>
+        <v>92</v>
+      </c>
+      <c r="B122" s="52" t="s">
+        <v>621</v>
+      </c>
+      <c r="C122" s="52"/>
+      <c r="D122" s="53" t="s">
+        <v>694</v>
+      </c>
+      <c r="E122" s="54"/>
+      <c r="F122" s="52"/>
+      <c r="G122" s="52"/>
+      <c r="H122" s="52"/>
+      <c r="I122" s="62"/>
+    </row>
+    <row r="123" spans="1:9" s="48" customFormat="1" ht="13.8">
+      <c r="A123" s="189"/>
+      <c r="B123" s="265" t="s">
+        <v>566</v>
+      </c>
+      <c r="C123" s="266"/>
+      <c r="D123" s="266"/>
+      <c r="E123" s="266"/>
+      <c r="F123" s="266"/>
+      <c r="G123" s="266"/>
+      <c r="H123" s="266"/>
+      <c r="I123" s="267"/>
+    </row>
+    <row r="124" spans="1:9" s="48" customFormat="1" ht="13.8">
+      <c r="A124" s="58">
+        <f t="shared" ca="1" si="1"/>
+        <v>93</v>
+      </c>
+      <c r="B124" s="52" t="s">
+        <v>622</v>
+      </c>
+      <c r="C124" s="52"/>
+      <c r="D124" s="53" t="s">
+        <v>695</v>
+      </c>
+      <c r="E124" s="54"/>
+      <c r="F124" s="52"/>
+      <c r="G124" s="52"/>
+      <c r="H124" s="52"/>
+      <c r="I124" s="62"/>
+    </row>
+    <row r="125" spans="1:9" s="48" customFormat="1" ht="13.8">
+      <c r="A125" s="67"/>
+      <c r="B125" s="239" t="s">
+        <v>556</v>
+      </c>
+      <c r="C125" s="240"/>
+      <c r="D125" s="240"/>
+      <c r="E125" s="240"/>
+      <c r="F125" s="240"/>
+      <c r="G125" s="240"/>
+      <c r="H125" s="240"/>
+      <c r="I125" s="241"/>
+    </row>
+    <row r="126" spans="1:9" s="48" customFormat="1" ht="13.8">
+      <c r="A126" s="189"/>
+      <c r="B126" s="265" t="s">
+        <v>557</v>
+      </c>
+      <c r="C126" s="266"/>
+      <c r="D126" s="266"/>
+      <c r="E126" s="266"/>
+      <c r="F126" s="266"/>
+      <c r="G126" s="266"/>
+      <c r="H126" s="266"/>
+      <c r="I126" s="267"/>
+    </row>
+    <row r="127" spans="1:9" s="48" customFormat="1" ht="36.9">
+      <c r="A127" s="58">
+        <v>94</v>
+      </c>
+      <c r="B127" s="52" t="s">
+        <v>696</v>
+      </c>
+      <c r="C127" s="314" t="s">
+        <v>703</v>
+      </c>
+      <c r="D127" s="312" t="s">
+        <v>697</v>
+      </c>
+      <c r="E127" s="54"/>
+      <c r="F127" s="52"/>
+      <c r="G127" s="52"/>
+      <c r="H127" s="52"/>
+      <c r="I127" s="62"/>
+    </row>
+    <row r="128" spans="1:9" s="48" customFormat="1" ht="49.2">
+      <c r="A128" s="58">
+        <f t="shared" ca="1" si="1"/>
+        <v>95</v>
+      </c>
+      <c r="B128" s="311" t="s">
+        <v>692</v>
+      </c>
+      <c r="C128" s="314" t="s">
+        <v>704</v>
+      </c>
+      <c r="D128" s="313" t="s">
+        <v>693</v>
+      </c>
+      <c r="E128" s="54"/>
+      <c r="F128" s="52"/>
+      <c r="G128" s="52"/>
+      <c r="H128" s="52"/>
+      <c r="I128" s="62"/>
+    </row>
+    <row r="129" spans="1:9" s="48" customFormat="1" ht="36.9">
+      <c r="A129" s="58">
+        <f t="shared" ca="1" si="1"/>
+        <v>96</v>
+      </c>
+      <c r="B129" s="311" t="s">
+        <v>558</v>
+      </c>
+      <c r="C129" s="314" t="s">
+        <v>702</v>
+      </c>
+      <c r="D129" s="315" t="s">
+        <v>697</v>
+      </c>
+      <c r="E129" s="54"/>
+      <c r="F129" s="52"/>
+      <c r="G129" s="52"/>
+      <c r="H129" s="52"/>
+      <c r="I129" s="62"/>
+    </row>
+    <row r="130" spans="1:9" s="48" customFormat="1" ht="86.1">
+      <c r="A130" s="58">
+        <f t="shared" ca="1" si="1"/>
+        <v>97</v>
+      </c>
+      <c r="B130" s="311" t="s">
+        <v>700</v>
+      </c>
+      <c r="C130" s="314" t="s">
+        <v>705</v>
+      </c>
+      <c r="D130" s="315" t="s">
+        <v>689</v>
+      </c>
+      <c r="E130" s="191"/>
+      <c r="F130" s="173"/>
+      <c r="G130" s="173"/>
+      <c r="H130" s="173"/>
+      <c r="I130" s="172"/>
+    </row>
+    <row r="131" spans="1:9" s="48" customFormat="1" ht="86.1">
+      <c r="A131" s="58">
+        <f t="shared" ca="1" si="1"/>
+        <v>98</v>
+      </c>
+      <c r="B131" s="315" t="s">
+        <v>701</v>
+      </c>
+      <c r="C131" s="314" t="s">
+        <v>706</v>
+      </c>
+      <c r="D131" s="315" t="s">
+        <v>690</v>
+      </c>
+      <c r="E131" s="191"/>
+      <c r="F131" s="173"/>
+      <c r="G131" s="173"/>
+      <c r="H131" s="173"/>
+      <c r="I131" s="172"/>
+    </row>
+    <row r="132" spans="1:9" s="48" customFormat="1" ht="14.4">
+      <c r="A132" s="58">
+        <f t="shared" ca="1" si="1"/>
+        <v>99</v>
+      </c>
+      <c r="B132" s="311"/>
+      <c r="C132" s="190"/>
+      <c r="D132" s="315"/>
+      <c r="E132" s="191"/>
+      <c r="F132" s="173"/>
+      <c r="G132" s="173"/>
+      <c r="H132" s="173"/>
+      <c r="I132" s="172"/>
+    </row>
+    <row r="133" spans="1:9" s="48" customFormat="1" ht="57.6">
+      <c r="A133" s="58">
+        <f t="shared" ca="1" si="1"/>
+        <v>100</v>
+      </c>
+      <c r="B133" s="52" t="s">
+        <v>567</v>
+      </c>
+      <c r="C133" s="190"/>
+      <c r="D133" s="315" t="s">
+        <v>691</v>
+      </c>
+      <c r="E133" s="191"/>
+      <c r="F133" s="173"/>
+      <c r="G133" s="173"/>
+      <c r="H133" s="173"/>
+      <c r="I133" s="172"/>
+    </row>
+    <row r="134" spans="1:9" s="48" customFormat="1" ht="13.8">
+      <c r="A134" s="58">
+        <f t="shared" ca="1" si="1"/>
+        <v>101</v>
+      </c>
+      <c r="B134" s="52" t="s">
+        <v>564</v>
+      </c>
+      <c r="C134" s="190"/>
+      <c r="D134" s="190"/>
+      <c r="E134" s="191"/>
+      <c r="F134" s="173"/>
+      <c r="G134" s="173"/>
+      <c r="H134" s="173"/>
+      <c r="I134" s="172"/>
+    </row>
+    <row r="135" spans="1:9" s="48" customFormat="1" ht="13.8">
+      <c r="A135" s="67"/>
+      <c r="B135" s="239" t="s">
+        <v>527</v>
+      </c>
+      <c r="C135" s="240"/>
+      <c r="D135" s="240"/>
+      <c r="E135" s="240"/>
+      <c r="F135" s="240"/>
+      <c r="G135" s="240"/>
+      <c r="H135" s="240"/>
+      <c r="I135" s="241"/>
+    </row>
+    <row r="136" spans="1:9" s="49" customFormat="1" ht="13.8">
+      <c r="A136" s="58">
+        <f t="shared" ca="1" si="1"/>
+        <v>102</v>
+      </c>
+      <c r="B136" s="52" t="s">
+        <v>559</v>
+      </c>
+      <c r="C136" s="52"/>
+      <c r="D136" s="53"/>
+      <c r="E136" s="54"/>
+      <c r="F136" s="52"/>
+      <c r="G136" s="52"/>
+      <c r="H136" s="52"/>
+      <c r="I136" s="63"/>
+    </row>
+    <row r="137" spans="1:9" s="48" customFormat="1" ht="13.8">
+      <c r="A137" s="67"/>
+      <c r="B137" s="239" t="s">
+        <v>562</v>
+      </c>
+      <c r="C137" s="240"/>
+      <c r="D137" s="240"/>
+      <c r="E137" s="240"/>
+      <c r="F137" s="240"/>
+      <c r="G137" s="240"/>
+      <c r="H137" s="240"/>
+      <c r="I137" s="241"/>
+    </row>
+    <row r="138" spans="1:9" s="48" customFormat="1" ht="13.8">
+      <c r="A138" s="58">
+        <f t="shared" ca="1" si="1"/>
+        <v>103</v>
+      </c>
+      <c r="B138" s="52" t="s">
+        <v>560</v>
+      </c>
+      <c r="C138" s="52"/>
+      <c r="D138" s="54"/>
+      <c r="E138" s="54"/>
+      <c r="F138" s="52"/>
+      <c r="G138" s="52"/>
+      <c r="H138" s="52"/>
+      <c r="I138" s="62"/>
+    </row>
+    <row r="139" spans="1:9" s="48" customFormat="1" ht="13.8">
+      <c r="A139" s="67"/>
+      <c r="B139" s="239" t="s">
+        <v>563</v>
+      </c>
+      <c r="C139" s="240"/>
+      <c r="D139" s="240"/>
+      <c r="E139" s="240"/>
+      <c r="F139" s="240"/>
+      <c r="G139" s="240"/>
+      <c r="H139" s="240"/>
+      <c r="I139" s="241"/>
+    </row>
+    <row r="140" spans="1:9" s="48" customFormat="1" ht="13.8">
+      <c r="A140" s="58">
+        <f t="shared" ca="1" si="1"/>
+        <v>104</v>
+      </c>
+      <c r="B140" s="197" t="s">
+        <v>561</v>
+      </c>
+      <c r="C140" s="52"/>
+      <c r="D140" s="54"/>
+      <c r="E140" s="54"/>
+      <c r="F140" s="52"/>
+      <c r="G140" s="52"/>
+      <c r="H140" s="52"/>
+      <c r="I140" s="62"/>
+    </row>
+    <row r="141" spans="1:9" s="48" customFormat="1" ht="13.8">
+      <c r="A141" s="185"/>
+      <c r="B141" s="186"/>
+      <c r="C141" s="186"/>
+      <c r="D141" s="187"/>
+      <c r="E141" s="187"/>
+      <c r="F141" s="186"/>
+      <c r="G141" s="186"/>
+      <c r="H141" s="186"/>
+      <c r="I141" s="188"/>
+    </row>
+    <row r="142" spans="1:9" s="48" customFormat="1" ht="13.8">
+      <c r="A142" s="192"/>
+      <c r="B142" s="186"/>
+      <c r="C142" s="186"/>
+      <c r="D142" s="187"/>
+      <c r="E142" s="187"/>
+      <c r="F142" s="186"/>
+      <c r="G142" s="186"/>
+      <c r="H142" s="186"/>
+      <c r="I142" s="188"/>
+    </row>
+    <row r="143" spans="1:9" s="48" customFormat="1" ht="13.8">
+      <c r="A143" s="185"/>
+      <c r="B143" s="186"/>
+      <c r="C143" s="186"/>
+      <c r="D143" s="187"/>
+      <c r="E143" s="187"/>
+      <c r="F143" s="186"/>
+      <c r="G143" s="186"/>
+      <c r="H143" s="186"/>
+      <c r="I143" s="188"/>
+    </row>
+    <row r="144" spans="1:9" s="48" customFormat="1" ht="13.8">
+      <c r="A144" s="185"/>
+      <c r="B144" s="186"/>
+      <c r="C144" s="186"/>
+      <c r="D144" s="193"/>
+      <c r="E144" s="187"/>
+      <c r="F144" s="186"/>
+      <c r="G144" s="186"/>
+      <c r="H144" s="186"/>
+      <c r="I144" s="188"/>
+    </row>
+    <row r="145" spans="1:9" s="48" customFormat="1" ht="13.8">
+      <c r="A145" s="185"/>
+      <c r="B145" s="262"/>
+      <c r="C145" s="263"/>
+      <c r="D145" s="264"/>
+      <c r="E145" s="194"/>
+      <c r="F145" s="195"/>
+      <c r="G145" s="195"/>
+      <c r="H145" s="195"/>
+      <c r="I145" s="194"/>
+    </row>
+    <row r="146" spans="1:9" s="48" customFormat="1" ht="13.8">
+      <c r="A146" s="185"/>
+      <c r="B146" s="186"/>
+      <c r="C146" s="186"/>
+      <c r="D146" s="187"/>
+      <c r="E146" s="187"/>
+      <c r="F146" s="186"/>
+      <c r="G146" s="186"/>
+      <c r="H146" s="186"/>
+      <c r="I146" s="188"/>
+    </row>
+    <row r="147" spans="1:9" s="48" customFormat="1" ht="13.8">
+      <c r="A147" s="185"/>
+      <c r="B147" s="186"/>
+      <c r="C147" s="186"/>
+      <c r="D147" s="187"/>
+      <c r="E147" s="187"/>
+      <c r="F147" s="186"/>
+      <c r="G147" s="186"/>
+      <c r="H147" s="186"/>
+      <c r="I147" s="188"/>
+    </row>
+    <row r="148" spans="1:9" s="48" customFormat="1" ht="13.8">
+      <c r="A148" s="185"/>
+      <c r="B148" s="186"/>
+      <c r="C148" s="186"/>
+      <c r="D148" s="187"/>
+      <c r="E148" s="187"/>
+      <c r="F148" s="186"/>
+      <c r="G148" s="186"/>
+      <c r="H148" s="186"/>
+      <c r="I148" s="188"/>
+    </row>
+    <row r="149" spans="1:9" s="48" customFormat="1" ht="13.8">
+      <c r="A149" s="185"/>
+      <c r="B149" s="186"/>
+      <c r="C149" s="186"/>
+      <c r="D149" s="187"/>
+      <c r="E149" s="187"/>
+      <c r="F149" s="186"/>
+      <c r="G149" s="186"/>
+      <c r="H149" s="186"/>
+      <c r="I149" s="188"/>
+    </row>
+    <row r="150" spans="1:9" s="48" customFormat="1" ht="13.8">
+      <c r="A150" s="185"/>
+      <c r="B150" s="262"/>
+      <c r="C150" s="263"/>
+      <c r="D150" s="264"/>
+      <c r="E150" s="194"/>
+      <c r="F150" s="195"/>
+      <c r="G150" s="195"/>
+      <c r="H150" s="195"/>
+      <c r="I150" s="194"/>
+    </row>
+    <row r="151" spans="1:9" s="48" customFormat="1" ht="13.8">
+      <c r="A151" s="185"/>
+      <c r="B151" s="186"/>
+      <c r="C151" s="186"/>
+      <c r="D151" s="187"/>
+      <c r="E151" s="187"/>
+      <c r="F151" s="186"/>
+      <c r="G151" s="186"/>
+      <c r="H151" s="186"/>
+      <c r="I151" s="188"/>
+    </row>
+    <row r="152" spans="1:9" s="48" customFormat="1" ht="13.8">
+      <c r="A152" s="185"/>
+      <c r="B152" s="186"/>
+      <c r="C152" s="186"/>
+      <c r="D152" s="187"/>
+      <c r="E152" s="193"/>
+      <c r="F152" s="186"/>
+      <c r="G152" s="186"/>
+      <c r="H152" s="186"/>
+      <c r="I152" s="188"/>
+    </row>
+    <row r="153" spans="1:9" s="48" customFormat="1" ht="13.8">
+      <c r="A153" s="185"/>
+      <c r="B153" s="186"/>
+      <c r="C153" s="186"/>
+      <c r="D153" s="193"/>
+      <c r="E153" s="187"/>
+      <c r="F153" s="186"/>
+      <c r="G153" s="186"/>
+      <c r="H153" s="186"/>
+      <c r="I153" s="188"/>
+    </row>
+    <row r="154" spans="1:9" s="48" customFormat="1" ht="13.8">
+      <c r="A154" s="185"/>
+      <c r="B154" s="262"/>
+      <c r="C154" s="263"/>
+      <c r="D154" s="264"/>
+      <c r="E154" s="194"/>
+      <c r="F154" s="195"/>
+      <c r="G154" s="195"/>
+      <c r="H154" s="195"/>
+      <c r="I154" s="194"/>
+    </row>
+    <row r="155" spans="1:9" s="48" customFormat="1" ht="13.8">
+      <c r="A155" s="185"/>
+      <c r="B155" s="186"/>
+      <c r="C155" s="186"/>
+      <c r="D155" s="187"/>
+      <c r="E155" s="187"/>
+      <c r="F155" s="186"/>
+      <c r="G155" s="186"/>
+      <c r="H155" s="186"/>
+      <c r="I155" s="188"/>
+    </row>
+    <row r="156" spans="1:9" s="48" customFormat="1" ht="13.8">
+      <c r="A156" s="185"/>
+      <c r="B156" s="186"/>
+      <c r="C156" s="186"/>
+      <c r="D156" s="187"/>
+      <c r="E156" s="193"/>
+      <c r="F156" s="186"/>
+      <c r="G156" s="186"/>
+      <c r="H156" s="186"/>
+      <c r="I156" s="188"/>
+    </row>
+    <row r="157" spans="1:9" s="48" customFormat="1" ht="13.8">
+      <c r="A157" s="185"/>
+      <c r="B157" s="186"/>
+      <c r="C157" s="186"/>
+      <c r="D157" s="187"/>
+      <c r="E157" s="193"/>
+      <c r="F157" s="186"/>
+      <c r="G157" s="186"/>
+      <c r="H157" s="186"/>
+      <c r="I157" s="188"/>
+    </row>
+    <row r="158" spans="1:9" s="48" customFormat="1" ht="13.8">
+      <c r="A158" s="185"/>
+      <c r="B158" s="186"/>
+      <c r="C158" s="186"/>
+      <c r="D158" s="187"/>
+      <c r="E158" s="193"/>
+      <c r="F158" s="186"/>
+      <c r="G158" s="186"/>
+      <c r="H158" s="186"/>
+      <c r="I158" s="188"/>
+    </row>
+    <row r="159" spans="1:9" s="48" customFormat="1" ht="13.8">
+      <c r="A159" s="185"/>
+      <c r="B159" s="186"/>
+      <c r="C159" s="186"/>
+      <c r="D159" s="187"/>
+      <c r="E159" s="187"/>
+      <c r="F159" s="186"/>
+      <c r="G159" s="186"/>
+      <c r="H159" s="186"/>
+      <c r="I159" s="188"/>
+    </row>
+    <row r="160" spans="1:9" s="48" customFormat="1" ht="13.8">
+      <c r="A160" s="185"/>
+      <c r="B160" s="186"/>
+      <c r="C160" s="186"/>
+      <c r="D160" s="187"/>
+      <c r="E160" s="187"/>
+      <c r="F160" s="186"/>
+      <c r="G160" s="186"/>
+      <c r="H160" s="186"/>
+      <c r="I160" s="188"/>
+    </row>
+    <row r="161" spans="1:9" s="48" customFormat="1" ht="13.8">
+      <c r="A161" s="188"/>
+      <c r="B161" s="186"/>
+      <c r="C161" s="186"/>
+      <c r="D161" s="193"/>
+      <c r="E161" s="187"/>
+      <c r="F161" s="186"/>
+      <c r="G161" s="186"/>
+      <c r="H161" s="186"/>
+      <c r="I161" s="188"/>
+    </row>
+    <row r="162" spans="1:9" s="48" customFormat="1" ht="13.8">
+      <c r="A162" s="188"/>
+      <c r="B162" s="186"/>
+      <c r="C162" s="186"/>
+      <c r="D162" s="193"/>
+      <c r="E162" s="187"/>
+      <c r="F162" s="186"/>
+      <c r="G162" s="186"/>
+      <c r="H162" s="186"/>
+      <c r="I162" s="188"/>
+    </row>
+    <row r="163" spans="1:9" s="48" customFormat="1" ht="13.8">
+      <c r="A163" s="188"/>
+      <c r="B163" s="186"/>
+      <c r="C163" s="186"/>
+      <c r="D163" s="193"/>
+      <c r="E163" s="187"/>
+      <c r="F163" s="186"/>
+      <c r="G163" s="186"/>
+      <c r="H163" s="186"/>
+      <c r="I163" s="188"/>
+    </row>
+    <row r="164" spans="1:9" s="48" customFormat="1" ht="13.8">
+      <c r="A164" s="188"/>
+      <c r="B164" s="186"/>
+      <c r="C164" s="186"/>
+      <c r="D164" s="187"/>
+      <c r="E164" s="193"/>
+      <c r="F164" s="186"/>
+      <c r="G164" s="186"/>
+      <c r="H164" s="186"/>
+      <c r="I164" s="188"/>
+    </row>
+    <row r="165" spans="1:9" s="48" customFormat="1" ht="13.8">
+      <c r="A165" s="188"/>
+      <c r="B165" s="186"/>
+      <c r="C165" s="186"/>
+      <c r="D165" s="187"/>
+      <c r="E165" s="193"/>
+      <c r="F165" s="186"/>
+      <c r="G165" s="186"/>
+      <c r="H165" s="186"/>
+      <c r="I165" s="188"/>
+    </row>
+    <row r="166" spans="1:9" s="48" customFormat="1" ht="13.8">
+      <c r="A166" s="196"/>
+      <c r="B166" s="262"/>
+      <c r="C166" s="263"/>
+      <c r="D166" s="264"/>
+      <c r="E166" s="194"/>
+      <c r="F166" s="195"/>
+      <c r="G166" s="195"/>
+      <c r="H166" s="195"/>
+      <c r="I166" s="194"/>
+    </row>
+    <row r="167" spans="1:9" s="48" customFormat="1" ht="13.8">
+      <c r="A167" s="188"/>
+      <c r="B167" s="186"/>
+      <c r="C167" s="186"/>
+      <c r="D167" s="187"/>
+      <c r="E167" s="187"/>
+      <c r="F167" s="186"/>
+      <c r="G167" s="186"/>
+      <c r="H167" s="186"/>
+      <c r="I167" s="188"/>
+    </row>
+    <row r="168" spans="1:9" s="48" customFormat="1" ht="13.8">
+      <c r="A168" s="188"/>
+      <c r="B168" s="186"/>
+      <c r="C168" s="186"/>
+      <c r="D168" s="193"/>
+      <c r="E168" s="193"/>
+      <c r="F168" s="186"/>
+      <c r="G168" s="186"/>
+      <c r="H168" s="186"/>
+      <c r="I168" s="188"/>
+    </row>
+    <row r="169" spans="1:9" s="48" customFormat="1" ht="13.8">
+      <c r="A169" s="188"/>
+      <c r="B169" s="186"/>
+      <c r="C169" s="186"/>
+      <c r="D169" s="193"/>
+      <c r="E169" s="193"/>
+      <c r="F169" s="186"/>
+      <c r="G169" s="186"/>
+      <c r="H169" s="186"/>
+      <c r="I169" s="188"/>
+    </row>
+    <row r="170" spans="1:9" s="48" customFormat="1" ht="13.8">
+      <c r="A170" s="196"/>
+      <c r="B170" s="262"/>
+      <c r="C170" s="263"/>
+      <c r="D170" s="264"/>
+      <c r="E170" s="194"/>
+      <c r="F170" s="195"/>
+      <c r="G170" s="195"/>
+      <c r="H170" s="195"/>
+      <c r="I170" s="194"/>
+    </row>
+    <row r="171" spans="1:9" s="48" customFormat="1" ht="13.8">
+      <c r="A171" s="188"/>
+      <c r="B171" s="186"/>
+      <c r="C171" s="186"/>
+      <c r="D171" s="187"/>
+      <c r="E171" s="187"/>
+      <c r="F171" s="186"/>
+      <c r="G171" s="186"/>
+      <c r="H171" s="186"/>
+      <c r="I171" s="188"/>
+    </row>
+    <row r="172" spans="1:9" s="48" customFormat="1" ht="13.8">
+      <c r="A172" s="188"/>
+      <c r="B172" s="186"/>
+      <c r="C172" s="186"/>
+      <c r="D172" s="187"/>
+      <c r="E172" s="187"/>
+      <c r="F172" s="186"/>
+      <c r="G172" s="186"/>
+      <c r="H172" s="186"/>
+      <c r="I172" s="188"/>
+    </row>
+    <row r="173" spans="1:9" s="48" customFormat="1" ht="13.8">
+      <c r="A173" s="188"/>
+      <c r="B173" s="186"/>
+      <c r="C173" s="186"/>
+      <c r="D173" s="187"/>
+      <c r="E173" s="187"/>
+      <c r="F173" s="186"/>
+      <c r="G173" s="186"/>
+      <c r="H173" s="186"/>
+      <c r="I173" s="188"/>
+    </row>
+    <row r="174" spans="1:9" s="48" customFormat="1" ht="14.25" customHeight="1">
+      <c r="A174" s="196"/>
+      <c r="B174" s="262"/>
+      <c r="C174" s="263"/>
+      <c r="D174" s="264"/>
+      <c r="E174" s="194"/>
+      <c r="F174" s="195"/>
+      <c r="G174" s="195"/>
+      <c r="H174" s="195"/>
+      <c r="I174" s="194"/>
+    </row>
+    <row r="175" spans="1:9" s="48" customFormat="1" ht="13.8">
+      <c r="A175" s="188"/>
+      <c r="B175" s="186"/>
+      <c r="C175" s="186"/>
+      <c r="D175" s="187"/>
+      <c r="E175" s="193"/>
+      <c r="F175" s="186"/>
+      <c r="G175" s="186"/>
+      <c r="H175" s="186"/>
+      <c r="I175" s="188"/>
+    </row>
+    <row r="176" spans="1:9" s="48" customFormat="1" ht="13.8">
+      <c r="A176" s="188"/>
+      <c r="B176" s="186"/>
+      <c r="C176" s="186"/>
+      <c r="D176" s="193"/>
+      <c r="E176" s="193"/>
+      <c r="F176" s="186"/>
+      <c r="G176" s="186"/>
+      <c r="H176" s="186"/>
+      <c r="I176" s="188"/>
+    </row>
+    <row r="177" spans="1:9" s="48" customFormat="1" ht="14.25" customHeight="1">
+      <c r="A177" s="196"/>
+      <c r="B177" s="262"/>
+      <c r="C177" s="263"/>
+      <c r="D177" s="264"/>
+      <c r="E177" s="194"/>
+      <c r="F177" s="195"/>
+      <c r="G177" s="195"/>
+      <c r="H177" s="195"/>
+      <c r="I177" s="194"/>
+    </row>
+    <row r="178" spans="1:9" s="48" customFormat="1" ht="13.8">
+      <c r="A178" s="188"/>
+      <c r="B178" s="186"/>
+      <c r="C178" s="186"/>
+      <c r="D178" s="187"/>
+      <c r="E178" s="187"/>
+      <c r="F178" s="186"/>
+      <c r="G178" s="186"/>
+      <c r="H178" s="186"/>
+      <c r="I178" s="188"/>
+    </row>
+    <row r="179" spans="1:9" s="48" customFormat="1" ht="13.8">
+      <c r="A179" s="188"/>
+      <c r="B179" s="186"/>
+      <c r="C179" s="186"/>
+      <c r="D179" s="193"/>
+      <c r="E179" s="187"/>
+      <c r="F179" s="186"/>
+      <c r="G179" s="186"/>
+      <c r="H179" s="186"/>
+      <c r="I179" s="188"/>
+    </row>
+    <row r="180" spans="1:9" s="48" customFormat="1" ht="13.8">
+      <c r="A180" s="188"/>
+      <c r="B180" s="186"/>
+      <c r="C180" s="186"/>
+      <c r="D180" s="193"/>
+      <c r="E180" s="187"/>
+      <c r="F180" s="186"/>
+      <c r="G180" s="186"/>
+      <c r="H180" s="186"/>
+      <c r="I180" s="188"/>
+    </row>
+    <row r="181" spans="1:9" s="48" customFormat="1" ht="13.8">
+      <c r="A181" s="188"/>
+      <c r="B181" s="186"/>
+      <c r="C181" s="186"/>
+      <c r="D181" s="193"/>
+      <c r="E181" s="187"/>
+      <c r="F181" s="186"/>
+      <c r="G181" s="186"/>
+      <c r="H181" s="186"/>
+      <c r="I181" s="188"/>
+    </row>
+    <row r="182" spans="1:9" s="48" customFormat="1" ht="13.8">
+      <c r="A182" s="188"/>
+      <c r="B182" s="186"/>
+      <c r="C182" s="186"/>
+      <c r="D182" s="193"/>
+      <c r="E182" s="187"/>
+      <c r="F182" s="186"/>
+      <c r="G182" s="186"/>
+      <c r="H182" s="186"/>
+      <c r="I182" s="188"/>
+    </row>
+  </sheetData>
+  <mergeCells count="36">
+    <mergeCell ref="B19:I19"/>
+    <mergeCell ref="B125:I125"/>
+    <mergeCell ref="B23:I23"/>
+    <mergeCell ref="B37:I37"/>
+    <mergeCell ref="B51:I51"/>
+    <mergeCell ref="B68:I68"/>
+    <mergeCell ref="B95:I95"/>
+    <mergeCell ref="B70:I70"/>
+    <mergeCell ref="B79:I79"/>
+    <mergeCell ref="B88:I88"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="A2:D2"/>
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="B4:D4"/>
+    <mergeCell ref="F16:H16"/>
+    <mergeCell ref="E2:E3"/>
+    <mergeCell ref="B5:D5"/>
+    <mergeCell ref="B6:D6"/>
+    <mergeCell ref="B7:D7"/>
+    <mergeCell ref="B8:D8"/>
+    <mergeCell ref="B18:I18"/>
+    <mergeCell ref="B170:D170"/>
+    <mergeCell ref="B174:D174"/>
+    <mergeCell ref="B177:D177"/>
+    <mergeCell ref="B145:D145"/>
+    <mergeCell ref="B150:D150"/>
+    <mergeCell ref="B154:D154"/>
+    <mergeCell ref="B166:D166"/>
+    <mergeCell ref="B103:I103"/>
+    <mergeCell ref="B117:I117"/>
+    <mergeCell ref="B126:I126"/>
+    <mergeCell ref="B121:I121"/>
+    <mergeCell ref="B123:I123"/>
+    <mergeCell ref="B135:I135"/>
+    <mergeCell ref="B137:I137"/>
+    <mergeCell ref="B139:I139"/>
+  </mergeCells>
+  <dataValidations count="3">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="F183:H240">
+      <formula1>#REF!</formula1>
+      <formula2>0</formula2>
+    </dataValidation>
+    <dataValidation showDropDown="1" showErrorMessage="1" sqref="F16:H17"/>
+    <dataValidation type="list" allowBlank="1" sqref="F124:H124 F104:H116 F140:H182 F136:H136 F138:H138 F118:H120 F122:H122 F69:H69 F71:H78 F80:H87 F96:H102 F20:H22 F24:H36 F38:H50 F52:H67 F89:H94 F127:H134">
+      <formula1>$A$11:$A$15</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:X84"/>
+  <sheetViews>
+    <sheetView showGridLines="0" topLeftCell="B31" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D23" sqref="D23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.15625" defaultRowHeight="12.3"/>
@@ -8590,10 +12166,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:24" s="1" customFormat="1" ht="13.8">
-      <c r="A1" s="213"/>
-      <c r="B1" s="213"/>
-      <c r="C1" s="213"/>
-      <c r="D1" s="213"/>
+      <c r="A1" s="234"/>
+      <c r="B1" s="234"/>
+      <c r="C1" s="234"/>
+      <c r="D1" s="234"/>
       <c r="E1" s="34"/>
       <c r="F1" s="34"/>
       <c r="G1" s="34"/>
@@ -8602,13 +12178,13 @@
       <c r="J1" s="34"/>
     </row>
     <row r="2" spans="1:24" s="1" customFormat="1" ht="31.5" customHeight="1">
-      <c r="A2" s="214" t="s">
+      <c r="A2" s="235" t="s">
         <v>70</v>
       </c>
-      <c r="B2" s="214"/>
-      <c r="C2" s="214"/>
-      <c r="D2" s="214"/>
-      <c r="E2" s="222"/>
+      <c r="B2" s="235"/>
+      <c r="C2" s="235"/>
+      <c r="D2" s="235"/>
+      <c r="E2" s="243"/>
       <c r="F2" s="23"/>
       <c r="G2" s="23"/>
       <c r="H2" s="23"/>
@@ -8617,9 +12193,9 @@
     </row>
     <row r="3" spans="1:24" s="1" customFormat="1" ht="31.5" customHeight="1">
       <c r="A3" s="47"/>
-      <c r="C3" s="241"/>
-      <c r="D3" s="241"/>
-      <c r="E3" s="222"/>
+      <c r="C3" s="268"/>
+      <c r="D3" s="268"/>
+      <c r="E3" s="243"/>
       <c r="F3" s="23"/>
       <c r="G3" s="23"/>
       <c r="H3" s="23"/>
@@ -8630,11 +12206,11 @@
       <c r="A4" s="139" t="s">
         <v>67</v>
       </c>
-      <c r="B4" s="216" t="s">
+      <c r="B4" s="237" t="s">
         <v>331</v>
       </c>
-      <c r="C4" s="216"/>
-      <c r="D4" s="216"/>
+      <c r="C4" s="237"/>
+      <c r="D4" s="237"/>
       <c r="E4" s="39"/>
       <c r="F4" s="39"/>
       <c r="G4" s="39"/>
@@ -8648,11 +12224,11 @@
       <c r="A5" s="139" t="s">
         <v>62</v>
       </c>
-      <c r="B5" s="215" t="s">
+      <c r="B5" s="236" t="s">
         <v>95</v>
       </c>
-      <c r="C5" s="216"/>
-      <c r="D5" s="216"/>
+      <c r="C5" s="237"/>
+      <c r="D5" s="237"/>
       <c r="E5" s="39"/>
       <c r="F5" s="39"/>
       <c r="G5" s="39"/>
@@ -8666,11 +12242,11 @@
       <c r="A6" s="139" t="s">
         <v>97</v>
       </c>
-      <c r="B6" s="215" t="s">
+      <c r="B6" s="236" t="s">
         <v>98</v>
       </c>
-      <c r="C6" s="216"/>
-      <c r="D6" s="216"/>
+      <c r="C6" s="237"/>
+      <c r="D6" s="237"/>
       <c r="E6" s="39"/>
       <c r="F6" s="39"/>
       <c r="G6" s="39"/>
@@ -8681,11 +12257,11 @@
       <c r="A7" s="139" t="s">
         <v>99</v>
       </c>
-      <c r="B7" s="216" t="s">
+      <c r="B7" s="237" t="s">
         <v>100</v>
       </c>
-      <c r="C7" s="216"/>
-      <c r="D7" s="216"/>
+      <c r="C7" s="237"/>
+      <c r="D7" s="237"/>
       <c r="E7" s="39"/>
       <c r="F7" s="39"/>
       <c r="G7" s="39"/>
@@ -8697,11 +12273,11 @@
       <c r="A8" s="139" t="s">
         <v>101</v>
       </c>
-      <c r="B8" s="217">
+      <c r="B8" s="238">
         <v>40850</v>
       </c>
-      <c r="C8" s="217"/>
-      <c r="D8" s="217"/>
+      <c r="C8" s="238"/>
+      <c r="D8" s="238"/>
       <c r="E8" s="39"/>
     </row>
     <row r="9" spans="1:24" s="43" customFormat="1">
@@ -8727,15 +12303,15 @@
       </c>
       <c r="B10" s="74">
         <f>SUM(B11:B14)</f>
-        <v>0</v>
+        <v>56</v>
       </c>
       <c r="C10" s="74">
         <f>SUM(C11:C14)</f>
-        <v>0</v>
+        <v>55</v>
       </c>
       <c r="D10" s="74">
         <f>SUM(D11:D14)</f>
-        <v>0</v>
+        <v>56</v>
       </c>
     </row>
     <row r="11" spans="1:24" s="43" customFormat="1">
@@ -8743,16 +12319,16 @@
         <v>41</v>
       </c>
       <c r="B11" s="75">
-        <f>COUNTIF($F$18:$F$49681,"*Passed")</f>
-        <v>0</v>
+        <f>COUNTIF($F$18:$F$49636,"*Passed")</f>
+        <v>46</v>
       </c>
       <c r="C11" s="75">
-        <f>COUNTIF($G$18:$G$49681,"*Passed")</f>
-        <v>0</v>
+        <f>COUNTIF($G$18:$G$49636,"*Passed")</f>
+        <v>52</v>
       </c>
       <c r="D11" s="75">
-        <f>COUNTIF($H$18:$H$49681,"*Passed")</f>
-        <v>0</v>
+        <f>COUNTIF($H$18:$H$49636,"*Passed")</f>
+        <v>55</v>
       </c>
     </row>
     <row r="12" spans="1:24" s="43" customFormat="1">
@@ -8760,16 +12336,16 @@
         <v>43</v>
       </c>
       <c r="B12" s="75">
-        <f>COUNTIF($F$18:$F$49401,"*Failed*")</f>
-        <v>0</v>
+        <f>COUNTIF($F$18:$F$49356,"*Failed*")</f>
+        <v>10</v>
       </c>
       <c r="C12" s="75">
-        <f>COUNTIF($G$18:$G$49401,"*Failed*")</f>
-        <v>0</v>
+        <f>COUNTIF($G$18:$G$49356,"*Failed*")</f>
+        <v>3</v>
       </c>
       <c r="D12" s="75">
-        <f>COUNTIF($H$18:$H$49401,"*Failed*")</f>
-        <v>0</v>
+        <f>COUNTIF($H$18:$H$49356,"*Failed*")</f>
+        <v>1</v>
       </c>
     </row>
     <row r="13" spans="1:24" s="43" customFormat="1">
@@ -8777,15 +12353,15 @@
         <v>45</v>
       </c>
       <c r="B13" s="75">
-        <f>COUNTIF($F$18:$F$49401,"*Not Run*")</f>
+        <f>COUNTIF($F$18:$F$49356,"*Not Run*")</f>
         <v>0</v>
       </c>
       <c r="C13" s="75">
-        <f>COUNTIF($G$18:$G$49401,"*Not Run*")</f>
+        <f>COUNTIF($G$18:$G$49356,"*Not Run*")</f>
         <v>0</v>
       </c>
       <c r="D13" s="75">
-        <f>COUNTIF($H$18:$H$49401,"*Not Run*")</f>
+        <f>COUNTIF($H$18:$H$49356,"*Not Run*")</f>
         <v>0</v>
       </c>
       <c r="E13" s="1"/>
@@ -8799,15 +12375,15 @@
         <v>104</v>
       </c>
       <c r="B14" s="75">
-        <f>COUNTIF($F$18:$F$49401,"*NA*")</f>
+        <f>COUNTIF($F$18:$F$49356,"*NA*")</f>
         <v>0</v>
       </c>
       <c r="C14" s="75">
-        <f>COUNTIF($G$18:$G$49401,"*NA*")</f>
+        <f>COUNTIF($G$18:$G$49356,"*NA*")</f>
         <v>0</v>
       </c>
       <c r="D14" s="75">
-        <f>COUNTIF($H$18:$H$49401,"*NA*")</f>
+        <f>COUNTIF($H$18:$H$49356,"*NA*")</f>
         <v>0</v>
       </c>
       <c r="E14" s="64"/>
@@ -8821,15 +12397,15 @@
         <v>105</v>
       </c>
       <c r="B15" s="75">
-        <f>COUNTIF($F$18:$F$49401,"*Passed in previous build*")</f>
+        <f>COUNTIF($F$18:$F$49356,"*Passed in previous build*")</f>
         <v>0</v>
       </c>
       <c r="C15" s="75">
-        <f>COUNTIF($G$18:$G$49401,"*Passed in previous build*")</f>
-        <v>0</v>
+        <f>COUNTIF($G$18:$G$49356,"*Passed in previous build*")</f>
+        <v>1</v>
       </c>
       <c r="D15" s="75">
-        <f>COUNTIF($H$18:$H$49401,"*Passed in previous build*")</f>
+        <f>COUNTIF($H$18:$H$49356,"*Passed in previous build*")</f>
         <v>0</v>
       </c>
       <c r="E15" s="1"/>
@@ -8844,11 +12420,11 @@
       <c r="C16" s="50"/>
       <c r="D16" s="51"/>
       <c r="E16" s="65"/>
-      <c r="F16" s="242" t="s">
+      <c r="F16" s="269" t="s">
         <v>102</v>
       </c>
-      <c r="G16" s="243"/>
-      <c r="H16" s="244"/>
+      <c r="G16" s="270"/>
+      <c r="H16" s="271"/>
       <c r="I16" s="65"/>
     </row>
     <row r="17" spans="1:9" s="44" customFormat="1" ht="36.9">
@@ -8882,1907 +12458,11 @@
     </row>
     <row r="18" spans="1:9" s="44" customFormat="1" ht="15.75" customHeight="1">
       <c r="A18" s="67"/>
-      <c r="B18" s="218" t="s">
-        <v>528</v>
-      </c>
-      <c r="C18" s="219"/>
-      <c r="D18" s="219"/>
-      <c r="E18" s="219"/>
-      <c r="F18" s="219"/>
-      <c r="G18" s="219"/>
-      <c r="H18" s="219"/>
-      <c r="I18" s="220"/>
-    </row>
-    <row r="19" spans="1:9" s="44" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A19" s="268"/>
-      <c r="B19" s="269" t="s">
-        <v>529</v>
-      </c>
-      <c r="C19" s="270"/>
-      <c r="D19" s="270"/>
-      <c r="E19" s="270"/>
-      <c r="F19" s="270"/>
-      <c r="G19" s="270"/>
-      <c r="H19" s="270"/>
-      <c r="I19" s="271"/>
-    </row>
-    <row r="20" spans="1:9" s="45" customFormat="1">
-      <c r="A20" s="52">
-        <v>1</v>
-      </c>
-      <c r="B20" s="52" t="s">
-        <v>530</v>
-      </c>
-      <c r="C20" s="52"/>
-      <c r="D20" s="53"/>
-      <c r="E20" s="54"/>
-      <c r="F20" s="52"/>
-      <c r="G20" s="52"/>
-      <c r="H20" s="52"/>
-      <c r="I20" s="55"/>
-    </row>
-    <row r="21" spans="1:9" s="45" customFormat="1">
-      <c r="A21" s="58">
-        <f t="shared" ref="A21:A87" ca="1" si="0">IF(OFFSET(A21,-1,0) ="",OFFSET(A21,-2,0)+1,OFFSET(A21,-1,0)+1 )</f>
-        <v>2</v>
-      </c>
-      <c r="B21" s="52" t="s">
-        <v>534</v>
-      </c>
-      <c r="C21" s="52"/>
-      <c r="D21" s="59"/>
-      <c r="E21" s="54"/>
-      <c r="F21" s="52"/>
-      <c r="G21" s="52"/>
-      <c r="H21" s="52"/>
-      <c r="I21" s="55"/>
-    </row>
-    <row r="22" spans="1:9" s="45" customFormat="1">
-      <c r="A22" s="58">
-        <f t="shared" ca="1" si="0"/>
-        <v>3</v>
-      </c>
-      <c r="B22" s="52" t="s">
-        <v>535</v>
-      </c>
-      <c r="C22" s="52"/>
-      <c r="D22" s="60"/>
-      <c r="E22" s="54"/>
-      <c r="F22" s="52"/>
-      <c r="G22" s="52"/>
-      <c r="H22" s="52"/>
-      <c r="I22" s="55"/>
-    </row>
-    <row r="23" spans="1:9" s="48" customFormat="1" ht="13.8">
-      <c r="A23" s="58">
-        <f t="shared" ca="1" si="0"/>
-        <v>4</v>
-      </c>
-      <c r="B23" s="52" t="s">
-        <v>536</v>
-      </c>
-      <c r="C23" s="52"/>
-      <c r="D23" s="54"/>
-      <c r="E23" s="54"/>
-      <c r="F23" s="52"/>
-      <c r="G23" s="52"/>
-      <c r="H23" s="52"/>
-      <c r="I23" s="61"/>
-    </row>
-    <row r="24" spans="1:9" s="48" customFormat="1" ht="13.8">
-      <c r="A24" s="58">
-        <f t="shared" ca="1" si="0"/>
-        <v>5</v>
-      </c>
-      <c r="B24" s="52" t="s">
-        <v>537</v>
-      </c>
-      <c r="C24" s="52"/>
-      <c r="D24" s="54"/>
-      <c r="E24" s="54"/>
-      <c r="F24" s="52"/>
-      <c r="G24" s="52"/>
-      <c r="H24" s="52"/>
-      <c r="I24" s="61"/>
-    </row>
-    <row r="25" spans="1:9" s="48" customFormat="1" ht="13.8">
-      <c r="A25" s="58">
-        <f t="shared" ca="1" si="0"/>
-        <v>6</v>
-      </c>
-      <c r="B25" s="52" t="s">
-        <v>538</v>
-      </c>
-      <c r="C25" s="52"/>
-      <c r="D25" s="54"/>
-      <c r="E25" s="54"/>
-      <c r="F25" s="52"/>
-      <c r="G25" s="52"/>
-      <c r="H25" s="52"/>
-      <c r="I25" s="61"/>
-    </row>
-    <row r="26" spans="1:9" s="48" customFormat="1" ht="13.8">
-      <c r="A26" s="272"/>
-      <c r="B26" s="275" t="s">
-        <v>531</v>
-      </c>
-      <c r="C26" s="273"/>
-      <c r="D26" s="273"/>
-      <c r="E26" s="273"/>
-      <c r="F26" s="273"/>
-      <c r="G26" s="273"/>
-      <c r="H26" s="273"/>
-      <c r="I26" s="274"/>
-    </row>
-    <row r="27" spans="1:9" s="48" customFormat="1" ht="13.8">
-      <c r="A27" s="58">
-        <f t="shared" ca="1" si="0"/>
-        <v>7</v>
-      </c>
-      <c r="B27" s="52" t="s">
-        <v>532</v>
-      </c>
-      <c r="C27" s="52"/>
-      <c r="D27" s="54"/>
-      <c r="E27" s="54"/>
-      <c r="F27" s="52"/>
-      <c r="G27" s="52"/>
-      <c r="H27" s="52"/>
-      <c r="I27" s="61"/>
-    </row>
-    <row r="28" spans="1:9" s="48" customFormat="1" ht="13.8">
-      <c r="A28" s="58">
-        <f t="shared" ca="1" si="0"/>
-        <v>8</v>
-      </c>
-      <c r="B28" s="52" t="s">
-        <v>539</v>
-      </c>
-      <c r="C28" s="52"/>
-      <c r="D28" s="54"/>
-      <c r="E28" s="54"/>
-      <c r="F28" s="52"/>
-      <c r="G28" s="52"/>
-      <c r="H28" s="52"/>
-      <c r="I28" s="61"/>
-    </row>
-    <row r="29" spans="1:9" s="48" customFormat="1" ht="13.8">
-      <c r="A29" s="58">
-        <f t="shared" ca="1" si="0"/>
-        <v>9</v>
-      </c>
-      <c r="B29" s="52" t="s">
-        <v>540</v>
-      </c>
-      <c r="C29" s="52"/>
-      <c r="D29" s="54"/>
-      <c r="E29" s="54"/>
-      <c r="F29" s="52"/>
-      <c r="G29" s="52"/>
-      <c r="H29" s="52"/>
-      <c r="I29" s="61"/>
-    </row>
-    <row r="30" spans="1:9" s="48" customFormat="1" ht="13.8">
-      <c r="A30" s="58">
-        <f t="shared" ca="1" si="0"/>
-        <v>10</v>
-      </c>
-      <c r="B30" s="52" t="s">
-        <v>541</v>
-      </c>
-      <c r="C30" s="52"/>
-      <c r="D30" s="54"/>
-      <c r="E30" s="54"/>
-      <c r="F30" s="52"/>
-      <c r="G30" s="52"/>
-      <c r="H30" s="52"/>
-      <c r="I30" s="61"/>
-    </row>
-    <row r="31" spans="1:9" s="48" customFormat="1" ht="13.8">
-      <c r="A31" s="58">
-        <f t="shared" ca="1" si="0"/>
-        <v>11</v>
-      </c>
-      <c r="B31" s="52" t="s">
-        <v>542</v>
-      </c>
-      <c r="C31" s="52"/>
-      <c r="D31" s="54"/>
-      <c r="E31" s="54"/>
-      <c r="F31" s="52"/>
-      <c r="G31" s="52"/>
-      <c r="H31" s="52"/>
-      <c r="I31" s="61"/>
-    </row>
-    <row r="32" spans="1:9" s="48" customFormat="1" ht="13.8">
-      <c r="A32" s="58">
-        <f t="shared" ca="1" si="0"/>
-        <v>12</v>
-      </c>
-      <c r="B32" s="52" t="s">
-        <v>543</v>
-      </c>
-      <c r="C32" s="52"/>
-      <c r="D32" s="54"/>
-      <c r="E32" s="54"/>
-      <c r="F32" s="52"/>
-      <c r="G32" s="52"/>
-      <c r="H32" s="52"/>
-      <c r="I32" s="61"/>
-    </row>
-    <row r="33" spans="1:9" s="48" customFormat="1" ht="13.8">
-      <c r="A33" s="272"/>
-      <c r="B33" s="269" t="s">
-        <v>533</v>
-      </c>
-      <c r="C33" s="270"/>
-      <c r="D33" s="270"/>
-      <c r="E33" s="270"/>
-      <c r="F33" s="270"/>
-      <c r="G33" s="270"/>
-      <c r="H33" s="270"/>
-      <c r="I33" s="271"/>
-    </row>
-    <row r="34" spans="1:9" s="48" customFormat="1" ht="13.8">
-      <c r="A34" s="58">
-        <f ca="1">IF(OFFSET(A34,-1,0) ="",OFFSET(A34,-2,0)+1,OFFSET(A34,-1,0)+1 )</f>
-        <v>13</v>
-      </c>
-      <c r="B34" s="52" t="s">
-        <v>532</v>
-      </c>
-      <c r="C34" s="52"/>
-      <c r="D34" s="53"/>
-      <c r="E34" s="54"/>
-      <c r="F34" s="52"/>
-      <c r="G34" s="52"/>
-      <c r="H34" s="52"/>
-      <c r="I34" s="62"/>
-    </row>
-    <row r="35" spans="1:9" s="48" customFormat="1" ht="24" customHeight="1">
-      <c r="A35" s="58">
-        <f t="shared" ca="1" si="0"/>
-        <v>14</v>
-      </c>
-      <c r="B35" s="52" t="s">
-        <v>559</v>
-      </c>
-      <c r="C35" s="52"/>
-      <c r="D35" s="59"/>
-      <c r="E35" s="54"/>
-      <c r="F35" s="52"/>
-      <c r="G35" s="52"/>
-      <c r="H35" s="52"/>
-      <c r="I35" s="62"/>
-    </row>
-    <row r="36" spans="1:9" s="48" customFormat="1" ht="24" customHeight="1">
-      <c r="A36" s="58"/>
-      <c r="B36" s="52" t="s">
-        <v>558</v>
-      </c>
-      <c r="C36" s="52"/>
-      <c r="D36" s="59"/>
-      <c r="E36" s="54"/>
-      <c r="F36" s="52"/>
-      <c r="G36" s="52"/>
-      <c r="H36" s="52"/>
-      <c r="I36" s="62"/>
-    </row>
-    <row r="37" spans="1:9" s="48" customFormat="1" ht="13.8">
-      <c r="A37" s="58">
-        <f t="shared" ca="1" si="0"/>
-        <v>15</v>
-      </c>
-      <c r="B37" s="52" t="s">
-        <v>544</v>
-      </c>
-      <c r="C37" s="52"/>
-      <c r="D37" s="53"/>
-      <c r="E37" s="54"/>
-      <c r="F37" s="52"/>
-      <c r="G37" s="52"/>
-      <c r="H37" s="52"/>
-      <c r="I37" s="62"/>
-    </row>
-    <row r="38" spans="1:9" s="48" customFormat="1" ht="13.8">
-      <c r="A38" s="58">
-        <f t="shared" ca="1" si="0"/>
-        <v>16</v>
-      </c>
-      <c r="B38" s="52" t="s">
-        <v>545</v>
-      </c>
-      <c r="C38" s="52"/>
-      <c r="D38" s="53"/>
-      <c r="E38" s="54"/>
-      <c r="F38" s="52"/>
-      <c r="G38" s="52"/>
-      <c r="H38" s="52"/>
-      <c r="I38" s="62"/>
-    </row>
-    <row r="39" spans="1:9" s="48" customFormat="1" ht="13.8">
-      <c r="A39" s="58">
-        <f t="shared" ca="1" si="0"/>
-        <v>17</v>
-      </c>
-      <c r="B39" s="52" t="s">
-        <v>546</v>
-      </c>
-      <c r="C39" s="52"/>
-      <c r="D39" s="53"/>
-      <c r="E39" s="54"/>
-      <c r="F39" s="52"/>
-      <c r="G39" s="52"/>
-      <c r="H39" s="52"/>
-      <c r="I39" s="62"/>
-    </row>
-    <row r="40" spans="1:9" s="48" customFormat="1" ht="13.8">
-      <c r="A40" s="58">
-        <f t="shared" ca="1" si="0"/>
-        <v>18</v>
-      </c>
-      <c r="B40" s="52" t="s">
-        <v>547</v>
-      </c>
-      <c r="C40" s="52"/>
-      <c r="D40" s="53"/>
-      <c r="E40" s="54"/>
-      <c r="F40" s="52"/>
-      <c r="G40" s="52"/>
-      <c r="H40" s="52"/>
-      <c r="I40" s="62"/>
-    </row>
-    <row r="41" spans="1:9" s="48" customFormat="1" ht="13.8">
-      <c r="A41" s="58">
-        <f t="shared" ca="1" si="0"/>
-        <v>19</v>
-      </c>
-      <c r="B41" s="52" t="s">
-        <v>548</v>
-      </c>
-      <c r="C41" s="52"/>
-      <c r="D41" s="53"/>
-      <c r="E41" s="54"/>
-      <c r="F41" s="52"/>
-      <c r="G41" s="52"/>
-      <c r="H41" s="52"/>
-      <c r="I41" s="62"/>
-    </row>
-    <row r="42" spans="1:9" s="49" customFormat="1" ht="13.8">
-      <c r="A42" s="280"/>
-      <c r="B42" s="293" t="s">
-        <v>549</v>
-      </c>
-      <c r="C42" s="281"/>
-      <c r="D42" s="281"/>
-      <c r="E42" s="281"/>
-      <c r="F42" s="281"/>
-      <c r="G42" s="281"/>
-      <c r="H42" s="281"/>
-      <c r="I42" s="282"/>
-    </row>
-    <row r="43" spans="1:9" s="48" customFormat="1" ht="13.8">
-      <c r="A43" s="58">
-        <f t="shared" ca="1" si="0"/>
-        <v>20</v>
-      </c>
-      <c r="B43" s="52" t="s">
-        <v>532</v>
-      </c>
-      <c r="C43" s="52"/>
-      <c r="D43" s="53"/>
-      <c r="E43" s="54"/>
-      <c r="F43" s="52"/>
-      <c r="G43" s="52"/>
-      <c r="H43" s="52"/>
-      <c r="I43" s="62"/>
-    </row>
-    <row r="44" spans="1:9" s="48" customFormat="1" ht="13.8">
-      <c r="A44" s="58">
-        <f t="shared" ca="1" si="0"/>
-        <v>21</v>
-      </c>
-      <c r="B44" s="52" t="s">
-        <v>553</v>
-      </c>
-      <c r="C44" s="52"/>
-      <c r="D44" s="53"/>
-      <c r="E44" s="54"/>
-      <c r="F44" s="52"/>
-      <c r="G44" s="52"/>
-      <c r="H44" s="52"/>
-      <c r="I44" s="62"/>
-    </row>
-    <row r="45" spans="1:9" s="48" customFormat="1" ht="13.8">
-      <c r="A45" s="58">
-        <f t="shared" ca="1" si="0"/>
-        <v>22</v>
-      </c>
-      <c r="B45" s="52" t="s">
-        <v>550</v>
-      </c>
-      <c r="C45" s="52"/>
-      <c r="D45" s="53"/>
-      <c r="E45" s="54"/>
-      <c r="F45" s="52"/>
-      <c r="G45" s="52"/>
-      <c r="H45" s="52"/>
-      <c r="I45" s="62"/>
-    </row>
-    <row r="46" spans="1:9" s="48" customFormat="1" ht="13.8">
-      <c r="A46" s="58">
-        <f t="shared" ca="1" si="0"/>
-        <v>23</v>
-      </c>
-      <c r="B46" s="52" t="s">
-        <v>551</v>
-      </c>
-      <c r="C46" s="52"/>
-      <c r="D46" s="53"/>
-      <c r="E46" s="54"/>
-      <c r="F46" s="52"/>
-      <c r="G46" s="52"/>
-      <c r="H46" s="52"/>
-      <c r="I46" s="62"/>
-    </row>
-    <row r="47" spans="1:9" s="48" customFormat="1" ht="13.8">
-      <c r="A47" s="58">
-        <f t="shared" ca="1" si="0"/>
-        <v>24</v>
-      </c>
-      <c r="B47" s="52" t="s">
-        <v>552</v>
-      </c>
-      <c r="C47" s="52"/>
-      <c r="D47" s="53"/>
-      <c r="E47" s="54"/>
-      <c r="F47" s="52"/>
-      <c r="G47" s="52"/>
-      <c r="H47" s="52"/>
-      <c r="I47" s="62"/>
-    </row>
-    <row r="48" spans="1:9" s="48" customFormat="1" ht="13.8">
-      <c r="A48" s="280"/>
-      <c r="B48" s="293" t="s">
-        <v>554</v>
-      </c>
-      <c r="C48" s="281"/>
-      <c r="D48" s="281"/>
-      <c r="E48" s="281"/>
-      <c r="F48" s="281"/>
-      <c r="G48" s="281"/>
-      <c r="H48" s="281"/>
-      <c r="I48" s="282"/>
-    </row>
-    <row r="49" spans="1:9" s="48" customFormat="1" ht="13.8">
-      <c r="A49" s="58">
-        <f t="shared" ca="1" si="0"/>
-        <v>25</v>
-      </c>
-      <c r="B49" s="52" t="s">
-        <v>532</v>
-      </c>
-      <c r="C49" s="52"/>
-      <c r="D49" s="53"/>
-      <c r="E49" s="54"/>
-      <c r="F49" s="52"/>
-      <c r="G49" s="52"/>
-      <c r="H49" s="52"/>
-      <c r="I49" s="62"/>
-    </row>
-    <row r="50" spans="1:9" s="48" customFormat="1" ht="13.8">
-      <c r="A50" s="58">
-        <f t="shared" ca="1" si="0"/>
-        <v>26</v>
-      </c>
-      <c r="B50" s="52" t="s">
-        <v>555</v>
-      </c>
-      <c r="C50" s="52"/>
-      <c r="D50" s="53"/>
-      <c r="E50" s="54"/>
-      <c r="F50" s="52"/>
-      <c r="G50" s="52"/>
-      <c r="H50" s="52"/>
-      <c r="I50" s="62"/>
-    </row>
-    <row r="51" spans="1:9" s="48" customFormat="1" ht="13.8">
-      <c r="A51" s="58">
-        <f t="shared" ca="1" si="0"/>
-        <v>27</v>
-      </c>
-      <c r="B51" s="52" t="s">
-        <v>556</v>
-      </c>
-      <c r="C51" s="52"/>
-      <c r="D51" s="53"/>
-      <c r="E51" s="54"/>
-      <c r="F51" s="52"/>
-      <c r="G51" s="52"/>
-      <c r="H51" s="52"/>
-      <c r="I51" s="62"/>
-    </row>
-    <row r="52" spans="1:9" s="48" customFormat="1" ht="13.8">
-      <c r="A52" s="280"/>
-      <c r="B52" s="293" t="s">
-        <v>557</v>
-      </c>
-      <c r="C52" s="281"/>
-      <c r="D52" s="281"/>
-      <c r="E52" s="281"/>
-      <c r="F52" s="281"/>
-      <c r="G52" s="281"/>
-      <c r="H52" s="281"/>
-      <c r="I52" s="282"/>
-    </row>
-    <row r="53" spans="1:9" s="48" customFormat="1" ht="13.8">
-      <c r="A53" s="58">
-        <f t="shared" ca="1" si="0"/>
-        <v>28</v>
-      </c>
-      <c r="B53" s="52" t="s">
-        <v>532</v>
-      </c>
-      <c r="C53" s="52"/>
-      <c r="D53" s="53"/>
-      <c r="E53" s="54"/>
-      <c r="F53" s="52"/>
-      <c r="G53" s="52"/>
-      <c r="H53" s="52"/>
-      <c r="I53" s="62"/>
-    </row>
-    <row r="54" spans="1:9" s="48" customFormat="1" ht="13.8">
-      <c r="A54" s="58">
-        <f t="shared" ca="1" si="0"/>
-        <v>29</v>
-      </c>
-      <c r="B54" s="52" t="s">
-        <v>560</v>
-      </c>
-      <c r="C54" s="52"/>
-      <c r="D54" s="53"/>
-      <c r="E54" s="54"/>
-      <c r="F54" s="52"/>
-      <c r="G54" s="52"/>
-      <c r="H54" s="52"/>
-      <c r="I54" s="62"/>
-    </row>
-    <row r="55" spans="1:9" s="48" customFormat="1" ht="13.8">
-      <c r="A55" s="58">
-        <f t="shared" ca="1" si="0"/>
-        <v>30</v>
-      </c>
-      <c r="B55" s="52" t="s">
-        <v>561</v>
-      </c>
-      <c r="C55" s="52"/>
-      <c r="D55" s="53"/>
-      <c r="E55" s="54"/>
-      <c r="F55" s="52"/>
-      <c r="G55" s="52"/>
-      <c r="H55" s="52"/>
-      <c r="I55" s="62"/>
-    </row>
-    <row r="56" spans="1:9" s="48" customFormat="1" ht="13.8">
-      <c r="A56" s="58">
-        <f t="shared" ca="1" si="0"/>
-        <v>31</v>
-      </c>
-      <c r="B56" s="52" t="s">
-        <v>562</v>
-      </c>
-      <c r="C56" s="52"/>
-      <c r="D56" s="53"/>
-      <c r="E56" s="54"/>
-      <c r="F56" s="52"/>
-      <c r="G56" s="52"/>
-      <c r="H56" s="52"/>
-      <c r="I56" s="62"/>
-    </row>
-    <row r="57" spans="1:9" s="48" customFormat="1" ht="13.8">
-      <c r="A57" s="58">
-        <f t="shared" ca="1" si="0"/>
-        <v>32</v>
-      </c>
-      <c r="B57" s="52" t="s">
-        <v>563</v>
-      </c>
-      <c r="C57" s="52"/>
-      <c r="D57" s="53"/>
-      <c r="E57" s="54"/>
-      <c r="F57" s="52"/>
-      <c r="G57" s="52"/>
-      <c r="H57" s="52"/>
-      <c r="I57" s="62"/>
-    </row>
-    <row r="58" spans="1:9" s="48" customFormat="1" ht="13.8">
-      <c r="A58" s="58">
-        <f t="shared" ca="1" si="0"/>
-        <v>33</v>
-      </c>
-      <c r="B58" s="52" t="s">
-        <v>564</v>
-      </c>
-      <c r="C58" s="52"/>
-      <c r="D58" s="53"/>
-      <c r="E58" s="54"/>
-      <c r="F58" s="52"/>
-      <c r="G58" s="52"/>
-      <c r="H58" s="52"/>
-      <c r="I58" s="62"/>
-    </row>
-    <row r="59" spans="1:9" s="48" customFormat="1" ht="13.8">
-      <c r="A59" s="58">
-        <f t="shared" ca="1" si="0"/>
-        <v>34</v>
-      </c>
-      <c r="B59" s="52" t="s">
-        <v>565</v>
-      </c>
-      <c r="C59" s="52"/>
-      <c r="D59" s="53"/>
-      <c r="E59" s="54"/>
-      <c r="F59" s="52"/>
-      <c r="G59" s="52"/>
-      <c r="H59" s="52"/>
-      <c r="I59" s="62"/>
-    </row>
-    <row r="60" spans="1:9" s="48" customFormat="1" ht="13.8">
-      <c r="A60" s="280"/>
-      <c r="B60" s="293" t="s">
-        <v>566</v>
-      </c>
-      <c r="C60" s="281"/>
-      <c r="D60" s="281"/>
-      <c r="E60" s="281"/>
-      <c r="F60" s="281"/>
-      <c r="G60" s="281"/>
-      <c r="H60" s="281"/>
-      <c r="I60" s="282"/>
-    </row>
-    <row r="61" spans="1:9" s="48" customFormat="1" ht="13.8">
-      <c r="A61" s="58">
-        <f t="shared" ca="1" si="0"/>
-        <v>35</v>
-      </c>
-      <c r="B61" s="52" t="s">
-        <v>567</v>
-      </c>
-      <c r="C61" s="52"/>
-      <c r="D61" s="53"/>
-      <c r="E61" s="54"/>
-      <c r="F61" s="52"/>
-      <c r="G61" s="52"/>
-      <c r="H61" s="52"/>
-      <c r="I61" s="62"/>
-    </row>
-    <row r="62" spans="1:9" s="48" customFormat="1" ht="13.8">
-      <c r="A62" s="58">
-        <f t="shared" ca="1" si="0"/>
-        <v>36</v>
-      </c>
-      <c r="B62" s="52" t="s">
-        <v>568</v>
-      </c>
-      <c r="C62" s="52"/>
-      <c r="D62" s="53"/>
-      <c r="E62" s="54"/>
-      <c r="F62" s="52"/>
-      <c r="G62" s="52"/>
-      <c r="H62" s="52"/>
-      <c r="I62" s="62"/>
-    </row>
-    <row r="63" spans="1:9" s="48" customFormat="1" ht="13.8">
-      <c r="A63" s="67"/>
-      <c r="B63" s="218" t="s">
-        <v>569</v>
-      </c>
-      <c r="C63" s="219"/>
-      <c r="D63" s="219"/>
-      <c r="E63" s="219"/>
-      <c r="F63" s="219"/>
-      <c r="G63" s="219"/>
-      <c r="H63" s="219"/>
-      <c r="I63" s="220"/>
-    </row>
-    <row r="64" spans="1:9" s="48" customFormat="1" ht="13.8">
-      <c r="A64" s="280"/>
-      <c r="B64" s="293" t="s">
-        <v>570</v>
-      </c>
-      <c r="C64" s="281"/>
-      <c r="D64" s="281"/>
-      <c r="E64" s="281"/>
-      <c r="F64" s="281"/>
-      <c r="G64" s="281"/>
-      <c r="H64" s="281"/>
-      <c r="I64" s="282"/>
-    </row>
-    <row r="65" spans="1:9" s="48" customFormat="1" ht="13.8">
-      <c r="A65" s="58">
-        <v>37</v>
-      </c>
-      <c r="B65" s="52" t="s">
-        <v>571</v>
-      </c>
-      <c r="C65" s="52"/>
-      <c r="D65" s="53"/>
-      <c r="E65" s="54"/>
-      <c r="F65" s="52"/>
-      <c r="G65" s="52"/>
-      <c r="H65" s="52"/>
-      <c r="I65" s="62"/>
-    </row>
-    <row r="66" spans="1:9" s="48" customFormat="1" ht="13.8">
-      <c r="A66" s="58">
-        <f t="shared" ca="1" si="0"/>
-        <v>38</v>
-      </c>
-      <c r="B66" s="52" t="s">
-        <v>572</v>
-      </c>
-      <c r="C66" s="52"/>
-      <c r="D66" s="60"/>
-      <c r="E66" s="54"/>
-      <c r="F66" s="52"/>
-      <c r="G66" s="52"/>
-      <c r="H66" s="52"/>
-      <c r="I66" s="62"/>
-    </row>
-    <row r="67" spans="1:9" s="48" customFormat="1" ht="13.8">
-      <c r="A67" s="58">
-        <f t="shared" ca="1" si="0"/>
-        <v>39</v>
-      </c>
-      <c r="B67" s="52" t="s">
-        <v>573</v>
-      </c>
-      <c r="C67" s="52"/>
-      <c r="D67" s="54"/>
-      <c r="E67" s="54"/>
-      <c r="F67" s="52"/>
-      <c r="G67" s="52"/>
-      <c r="H67" s="52"/>
-      <c r="I67" s="62"/>
-    </row>
-    <row r="68" spans="1:9" s="48" customFormat="1" ht="13.8">
-      <c r="A68" s="58">
-        <f t="shared" ca="1" si="0"/>
-        <v>40</v>
-      </c>
-      <c r="B68" s="52" t="s">
-        <v>574</v>
-      </c>
-      <c r="C68" s="283"/>
-      <c r="D68" s="283"/>
-      <c r="E68" s="284"/>
-      <c r="F68" s="173"/>
-      <c r="G68" s="173"/>
-      <c r="H68" s="173"/>
-      <c r="I68" s="172"/>
-    </row>
-    <row r="69" spans="1:9" s="48" customFormat="1" ht="13.8">
-      <c r="A69" s="58">
-        <f t="shared" ca="1" si="0"/>
-        <v>41</v>
-      </c>
-      <c r="B69" s="52" t="s">
-        <v>579</v>
-      </c>
-      <c r="C69" s="283"/>
-      <c r="D69" s="283"/>
-      <c r="E69" s="284"/>
-      <c r="F69" s="173"/>
-      <c r="G69" s="173"/>
-      <c r="H69" s="173"/>
-      <c r="I69" s="172"/>
-    </row>
-    <row r="70" spans="1:9" s="48" customFormat="1" ht="13.8">
-      <c r="A70" s="58">
-        <f t="shared" ca="1" si="0"/>
-        <v>42</v>
-      </c>
-      <c r="B70" s="52" t="s">
-        <v>580</v>
-      </c>
-      <c r="C70" s="283"/>
-      <c r="D70" s="283"/>
-      <c r="E70" s="284"/>
-      <c r="F70" s="173"/>
-      <c r="G70" s="173"/>
-      <c r="H70" s="173"/>
-      <c r="I70" s="172"/>
-    </row>
-    <row r="71" spans="1:9" s="48" customFormat="1" ht="13.8">
-      <c r="A71" s="58">
-        <f t="shared" ca="1" si="0"/>
-        <v>43</v>
-      </c>
-      <c r="B71" s="52" t="s">
-        <v>581</v>
-      </c>
-      <c r="C71" s="283"/>
-      <c r="D71" s="283"/>
-      <c r="E71" s="284"/>
-      <c r="F71" s="173"/>
-      <c r="G71" s="173"/>
-      <c r="H71" s="173"/>
-      <c r="I71" s="172"/>
-    </row>
-    <row r="72" spans="1:9" s="48" customFormat="1" ht="13.8">
-      <c r="A72" s="58">
-        <f t="shared" ca="1" si="0"/>
-        <v>44</v>
-      </c>
-      <c r="B72" s="52" t="s">
-        <v>586</v>
-      </c>
-      <c r="C72" s="283"/>
-      <c r="D72" s="283"/>
-      <c r="E72" s="284"/>
-      <c r="F72" s="173"/>
-      <c r="G72" s="173"/>
-      <c r="H72" s="173"/>
-      <c r="I72" s="172"/>
-    </row>
-    <row r="73" spans="1:9" s="48" customFormat="1" ht="13.8">
-      <c r="A73" s="58">
-        <f t="shared" ca="1" si="0"/>
-        <v>45</v>
-      </c>
-      <c r="B73" s="52" t="s">
-        <v>587</v>
-      </c>
-      <c r="C73" s="283"/>
-      <c r="D73" s="283"/>
-      <c r="E73" s="284"/>
-      <c r="F73" s="173"/>
-      <c r="G73" s="173"/>
-      <c r="H73" s="173"/>
-      <c r="I73" s="172"/>
-    </row>
-    <row r="74" spans="1:9" s="48" customFormat="1" ht="13.8">
-      <c r="A74" s="58">
-        <f t="shared" ca="1" si="0"/>
-        <v>46</v>
-      </c>
-      <c r="B74" s="52" t="s">
-        <v>588</v>
-      </c>
-      <c r="C74" s="283"/>
-      <c r="D74" s="283"/>
-      <c r="E74" s="284"/>
-      <c r="F74" s="173"/>
-      <c r="G74" s="173"/>
-      <c r="H74" s="173"/>
-      <c r="I74" s="172"/>
-    </row>
-    <row r="75" spans="1:9" s="48" customFormat="1" ht="13.8">
-      <c r="A75" s="58">
-        <f t="shared" ca="1" si="0"/>
-        <v>47</v>
-      </c>
-      <c r="B75" s="52" t="s">
-        <v>589</v>
-      </c>
-      <c r="C75" s="283"/>
-      <c r="D75" s="283"/>
-      <c r="E75" s="284"/>
-      <c r="F75" s="173"/>
-      <c r="G75" s="173"/>
-      <c r="H75" s="173"/>
-      <c r="I75" s="172"/>
-    </row>
-    <row r="76" spans="1:9" s="48" customFormat="1" ht="13.8">
-      <c r="A76" s="58">
-        <f t="shared" ca="1" si="0"/>
-        <v>48</v>
-      </c>
-      <c r="B76" s="52" t="s">
-        <v>590</v>
-      </c>
-      <c r="C76" s="283"/>
-      <c r="D76" s="283"/>
-      <c r="E76" s="284"/>
-      <c r="F76" s="173"/>
-      <c r="G76" s="173"/>
-      <c r="H76" s="173"/>
-      <c r="I76" s="172"/>
-    </row>
-    <row r="77" spans="1:9" s="48" customFormat="1" ht="13.8">
-      <c r="A77" s="58">
-        <f t="shared" ca="1" si="0"/>
-        <v>49</v>
-      </c>
-      <c r="B77" s="52" t="s">
-        <v>591</v>
-      </c>
-      <c r="C77" s="283"/>
-      <c r="D77" s="283"/>
-      <c r="E77" s="284"/>
-      <c r="F77" s="173"/>
-      <c r="G77" s="173"/>
-      <c r="H77" s="173"/>
-      <c r="I77" s="172"/>
-    </row>
-    <row r="78" spans="1:9" s="48" customFormat="1" ht="13.8">
-      <c r="A78" s="58">
-        <f t="shared" ca="1" si="0"/>
-        <v>50</v>
-      </c>
-      <c r="B78" s="52" t="s">
-        <v>577</v>
-      </c>
-      <c r="C78" s="283"/>
-      <c r="D78" s="283"/>
-      <c r="E78" s="284"/>
-      <c r="F78" s="173"/>
-      <c r="G78" s="173"/>
-      <c r="H78" s="173"/>
-      <c r="I78" s="172"/>
-    </row>
-    <row r="79" spans="1:9" s="48" customFormat="1" ht="13.8">
-      <c r="A79" s="58">
-        <f t="shared" ca="1" si="0"/>
-        <v>51</v>
-      </c>
-      <c r="B79" s="52" t="s">
-        <v>575</v>
-      </c>
-      <c r="C79" s="283"/>
-      <c r="D79" s="283"/>
-      <c r="E79" s="284"/>
-      <c r="F79" s="173"/>
-      <c r="G79" s="173"/>
-      <c r="H79" s="173"/>
-      <c r="I79" s="172"/>
-    </row>
-    <row r="80" spans="1:9" s="48" customFormat="1" ht="13.8">
-      <c r="A80" s="58">
-        <f t="shared" ca="1" si="0"/>
-        <v>52</v>
-      </c>
-      <c r="B80" s="52" t="s">
-        <v>576</v>
-      </c>
-      <c r="C80" s="283"/>
-      <c r="D80" s="283"/>
-      <c r="E80" s="284"/>
-      <c r="F80" s="173"/>
-      <c r="G80" s="173"/>
-      <c r="H80" s="173"/>
-      <c r="I80" s="172"/>
-    </row>
-    <row r="81" spans="1:9" s="48" customFormat="1" ht="13.8">
-      <c r="A81" s="58">
-        <f t="shared" ca="1" si="0"/>
-        <v>53</v>
-      </c>
-      <c r="B81" s="52" t="s">
-        <v>577</v>
-      </c>
-      <c r="C81" s="283"/>
-      <c r="D81" s="283"/>
-      <c r="E81" s="284"/>
-      <c r="F81" s="173"/>
-      <c r="G81" s="173"/>
-      <c r="H81" s="173"/>
-      <c r="I81" s="172"/>
-    </row>
-    <row r="82" spans="1:9" s="48" customFormat="1" ht="13.8">
-      <c r="A82" s="67"/>
-      <c r="B82" s="218" t="s">
-        <v>527</v>
-      </c>
-      <c r="C82" s="219"/>
-      <c r="D82" s="219"/>
-      <c r="E82" s="219"/>
-      <c r="F82" s="219"/>
-      <c r="G82" s="219"/>
-      <c r="H82" s="219"/>
-      <c r="I82" s="220"/>
-    </row>
-    <row r="83" spans="1:9" s="49" customFormat="1" ht="13.8">
-      <c r="A83" s="58">
-        <f t="shared" ca="1" si="0"/>
-        <v>54</v>
-      </c>
-      <c r="B83" s="52" t="s">
-        <v>578</v>
-      </c>
-      <c r="C83" s="52"/>
-      <c r="D83" s="53"/>
-      <c r="E83" s="54"/>
-      <c r="F83" s="52"/>
-      <c r="G83" s="52"/>
-      <c r="H83" s="52"/>
-      <c r="I83" s="63"/>
-    </row>
-    <row r="84" spans="1:9" s="48" customFormat="1" ht="13.8">
-      <c r="A84" s="67"/>
-      <c r="B84" s="218" t="s">
-        <v>584</v>
-      </c>
-      <c r="C84" s="219"/>
-      <c r="D84" s="219"/>
-      <c r="E84" s="219"/>
-      <c r="F84" s="219"/>
-      <c r="G84" s="219"/>
-      <c r="H84" s="219"/>
-      <c r="I84" s="220"/>
-    </row>
-    <row r="85" spans="1:9" s="48" customFormat="1" ht="13.8">
-      <c r="A85" s="58">
-        <f t="shared" ca="1" si="0"/>
-        <v>55</v>
-      </c>
-      <c r="B85" s="52" t="s">
-        <v>582</v>
-      </c>
-      <c r="C85" s="52"/>
-      <c r="D85" s="54"/>
-      <c r="E85" s="54"/>
-      <c r="F85" s="52"/>
-      <c r="G85" s="52"/>
-      <c r="H85" s="52"/>
-      <c r="I85" s="62"/>
-    </row>
-    <row r="86" spans="1:9" s="48" customFormat="1" ht="13.8">
-      <c r="A86" s="67"/>
-      <c r="B86" s="218" t="s">
-        <v>585</v>
-      </c>
-      <c r="C86" s="219"/>
-      <c r="D86" s="219"/>
-      <c r="E86" s="219"/>
-      <c r="F86" s="219"/>
-      <c r="G86" s="219"/>
-      <c r="H86" s="219"/>
-      <c r="I86" s="220"/>
-    </row>
-    <row r="87" spans="1:9" s="48" customFormat="1" ht="13.8">
-      <c r="A87" s="58">
-        <f t="shared" ca="1" si="0"/>
-        <v>56</v>
-      </c>
-      <c r="B87" s="294" t="s">
-        <v>583</v>
-      </c>
-      <c r="C87" s="52"/>
-      <c r="D87" s="54"/>
-      <c r="E87" s="54"/>
-      <c r="F87" s="52"/>
-      <c r="G87" s="52"/>
-      <c r="H87" s="52"/>
-      <c r="I87" s="62"/>
-    </row>
-    <row r="88" spans="1:9" s="48" customFormat="1" ht="13.8">
-      <c r="A88" s="276"/>
-      <c r="B88" s="277"/>
-      <c r="C88" s="277"/>
-      <c r="D88" s="278"/>
-      <c r="E88" s="278"/>
-      <c r="F88" s="277"/>
-      <c r="G88" s="277"/>
-      <c r="H88" s="277"/>
-      <c r="I88" s="279"/>
-    </row>
-    <row r="89" spans="1:9" s="48" customFormat="1" ht="13.8">
-      <c r="A89" s="285"/>
-      <c r="B89" s="277"/>
-      <c r="C89" s="277"/>
-      <c r="D89" s="278"/>
-      <c r="E89" s="278"/>
-      <c r="F89" s="277"/>
-      <c r="G89" s="277"/>
-      <c r="H89" s="277"/>
-      <c r="I89" s="279"/>
-    </row>
-    <row r="90" spans="1:9" s="48" customFormat="1" ht="13.8">
-      <c r="A90" s="276"/>
-      <c r="B90" s="277"/>
-      <c r="C90" s="277"/>
-      <c r="D90" s="278"/>
-      <c r="E90" s="278"/>
-      <c r="F90" s="277"/>
-      <c r="G90" s="277"/>
-      <c r="H90" s="277"/>
-      <c r="I90" s="279"/>
-    </row>
-    <row r="91" spans="1:9" s="48" customFormat="1" ht="13.8">
-      <c r="A91" s="276"/>
-      <c r="B91" s="277"/>
-      <c r="C91" s="277"/>
-      <c r="D91" s="286"/>
-      <c r="E91" s="278"/>
-      <c r="F91" s="277"/>
-      <c r="G91" s="277"/>
-      <c r="H91" s="277"/>
-      <c r="I91" s="279"/>
-    </row>
-    <row r="92" spans="1:9" s="48" customFormat="1" ht="13.8">
-      <c r="A92" s="276"/>
-      <c r="B92" s="287"/>
-      <c r="C92" s="288"/>
-      <c r="D92" s="289"/>
-      <c r="E92" s="290"/>
-      <c r="F92" s="291"/>
-      <c r="G92" s="291"/>
-      <c r="H92" s="291"/>
-      <c r="I92" s="290"/>
-    </row>
-    <row r="93" spans="1:9" s="48" customFormat="1" ht="13.8">
-      <c r="A93" s="276"/>
-      <c r="B93" s="277"/>
-      <c r="C93" s="277"/>
-      <c r="D93" s="278"/>
-      <c r="E93" s="278"/>
-      <c r="F93" s="277"/>
-      <c r="G93" s="277"/>
-      <c r="H93" s="277"/>
-      <c r="I93" s="279"/>
-    </row>
-    <row r="94" spans="1:9" s="48" customFormat="1" ht="13.8">
-      <c r="A94" s="276"/>
-      <c r="B94" s="277"/>
-      <c r="C94" s="277"/>
-      <c r="D94" s="278"/>
-      <c r="E94" s="278"/>
-      <c r="F94" s="277"/>
-      <c r="G94" s="277"/>
-      <c r="H94" s="277"/>
-      <c r="I94" s="279"/>
-    </row>
-    <row r="95" spans="1:9" s="48" customFormat="1" ht="13.8">
-      <c r="A95" s="276"/>
-      <c r="B95" s="277"/>
-      <c r="C95" s="277"/>
-      <c r="D95" s="278"/>
-      <c r="E95" s="278"/>
-      <c r="F95" s="277"/>
-      <c r="G95" s="277"/>
-      <c r="H95" s="277"/>
-      <c r="I95" s="279"/>
-    </row>
-    <row r="96" spans="1:9" s="48" customFormat="1" ht="13.8">
-      <c r="A96" s="276"/>
-      <c r="B96" s="277"/>
-      <c r="C96" s="277"/>
-      <c r="D96" s="278"/>
-      <c r="E96" s="278"/>
-      <c r="F96" s="277"/>
-      <c r="G96" s="277"/>
-      <c r="H96" s="277"/>
-      <c r="I96" s="279"/>
-    </row>
-    <row r="97" spans="1:9" s="48" customFormat="1" ht="13.8">
-      <c r="A97" s="276"/>
-      <c r="B97" s="287"/>
-      <c r="C97" s="288"/>
-      <c r="D97" s="289"/>
-      <c r="E97" s="290"/>
-      <c r="F97" s="291"/>
-      <c r="G97" s="291"/>
-      <c r="H97" s="291"/>
-      <c r="I97" s="290"/>
-    </row>
-    <row r="98" spans="1:9" s="48" customFormat="1" ht="13.8">
-      <c r="A98" s="276"/>
-      <c r="B98" s="277"/>
-      <c r="C98" s="277"/>
-      <c r="D98" s="278"/>
-      <c r="E98" s="278"/>
-      <c r="F98" s="277"/>
-      <c r="G98" s="277"/>
-      <c r="H98" s="277"/>
-      <c r="I98" s="279"/>
-    </row>
-    <row r="99" spans="1:9" s="48" customFormat="1" ht="13.8">
-      <c r="A99" s="276"/>
-      <c r="B99" s="277"/>
-      <c r="C99" s="277"/>
-      <c r="D99" s="278"/>
-      <c r="E99" s="286"/>
-      <c r="F99" s="277"/>
-      <c r="G99" s="277"/>
-      <c r="H99" s="277"/>
-      <c r="I99" s="279"/>
-    </row>
-    <row r="100" spans="1:9" s="48" customFormat="1" ht="13.8">
-      <c r="A100" s="276"/>
-      <c r="B100" s="277"/>
-      <c r="C100" s="277"/>
-      <c r="D100" s="286"/>
-      <c r="E100" s="278"/>
-      <c r="F100" s="277"/>
-      <c r="G100" s="277"/>
-      <c r="H100" s="277"/>
-      <c r="I100" s="279"/>
-    </row>
-    <row r="101" spans="1:9" s="48" customFormat="1" ht="13.8">
-      <c r="A101" s="276"/>
-      <c r="B101" s="287"/>
-      <c r="C101" s="288"/>
-      <c r="D101" s="289"/>
-      <c r="E101" s="290"/>
-      <c r="F101" s="291"/>
-      <c r="G101" s="291"/>
-      <c r="H101" s="291"/>
-      <c r="I101" s="290"/>
-    </row>
-    <row r="102" spans="1:9" s="48" customFormat="1" ht="13.8">
-      <c r="A102" s="276"/>
-      <c r="B102" s="277"/>
-      <c r="C102" s="277"/>
-      <c r="D102" s="278"/>
-      <c r="E102" s="278"/>
-      <c r="F102" s="277"/>
-      <c r="G102" s="277"/>
-      <c r="H102" s="277"/>
-      <c r="I102" s="279"/>
-    </row>
-    <row r="103" spans="1:9" s="48" customFormat="1" ht="13.8">
-      <c r="A103" s="276"/>
-      <c r="B103" s="277"/>
-      <c r="C103" s="277"/>
-      <c r="D103" s="278"/>
-      <c r="E103" s="286"/>
-      <c r="F103" s="277"/>
-      <c r="G103" s="277"/>
-      <c r="H103" s="277"/>
-      <c r="I103" s="279"/>
-    </row>
-    <row r="104" spans="1:9" s="48" customFormat="1" ht="13.8">
-      <c r="A104" s="276"/>
-      <c r="B104" s="277"/>
-      <c r="C104" s="277"/>
-      <c r="D104" s="278"/>
-      <c r="E104" s="286"/>
-      <c r="F104" s="277"/>
-      <c r="G104" s="277"/>
-      <c r="H104" s="277"/>
-      <c r="I104" s="279"/>
-    </row>
-    <row r="105" spans="1:9" s="48" customFormat="1" ht="13.8">
-      <c r="A105" s="276"/>
-      <c r="B105" s="277"/>
-      <c r="C105" s="277"/>
-      <c r="D105" s="278"/>
-      <c r="E105" s="286"/>
-      <c r="F105" s="277"/>
-      <c r="G105" s="277"/>
-      <c r="H105" s="277"/>
-      <c r="I105" s="279"/>
-    </row>
-    <row r="106" spans="1:9" s="48" customFormat="1" ht="13.8">
-      <c r="A106" s="276"/>
-      <c r="B106" s="277"/>
-      <c r="C106" s="277"/>
-      <c r="D106" s="278"/>
-      <c r="E106" s="278"/>
-      <c r="F106" s="277"/>
-      <c r="G106" s="277"/>
-      <c r="H106" s="277"/>
-      <c r="I106" s="279"/>
-    </row>
-    <row r="107" spans="1:9" s="48" customFormat="1" ht="13.8">
-      <c r="A107" s="276"/>
-      <c r="B107" s="277"/>
-      <c r="C107" s="277"/>
-      <c r="D107" s="278"/>
-      <c r="E107" s="278"/>
-      <c r="F107" s="277"/>
-      <c r="G107" s="277"/>
-      <c r="H107" s="277"/>
-      <c r="I107" s="279"/>
-    </row>
-    <row r="108" spans="1:9" s="48" customFormat="1" ht="13.8">
-      <c r="A108" s="279"/>
-      <c r="B108" s="277"/>
-      <c r="C108" s="277"/>
-      <c r="D108" s="286"/>
-      <c r="E108" s="278"/>
-      <c r="F108" s="277"/>
-      <c r="G108" s="277"/>
-      <c r="H108" s="277"/>
-      <c r="I108" s="279"/>
-    </row>
-    <row r="109" spans="1:9" s="48" customFormat="1" ht="13.8">
-      <c r="A109" s="279"/>
-      <c r="B109" s="277"/>
-      <c r="C109" s="277"/>
-      <c r="D109" s="286"/>
-      <c r="E109" s="278"/>
-      <c r="F109" s="277"/>
-      <c r="G109" s="277"/>
-      <c r="H109" s="277"/>
-      <c r="I109" s="279"/>
-    </row>
-    <row r="110" spans="1:9" s="48" customFormat="1" ht="13.8">
-      <c r="A110" s="279"/>
-      <c r="B110" s="277"/>
-      <c r="C110" s="277"/>
-      <c r="D110" s="286"/>
-      <c r="E110" s="278"/>
-      <c r="F110" s="277"/>
-      <c r="G110" s="277"/>
-      <c r="H110" s="277"/>
-      <c r="I110" s="279"/>
-    </row>
-    <row r="111" spans="1:9" s="48" customFormat="1" ht="13.8">
-      <c r="A111" s="279"/>
-      <c r="B111" s="277"/>
-      <c r="C111" s="277"/>
-      <c r="D111" s="278"/>
-      <c r="E111" s="286"/>
-      <c r="F111" s="277"/>
-      <c r="G111" s="277"/>
-      <c r="H111" s="277"/>
-      <c r="I111" s="279"/>
-    </row>
-    <row r="112" spans="1:9" s="48" customFormat="1" ht="13.8">
-      <c r="A112" s="279"/>
-      <c r="B112" s="277"/>
-      <c r="C112" s="277"/>
-      <c r="D112" s="278"/>
-      <c r="E112" s="286"/>
-      <c r="F112" s="277"/>
-      <c r="G112" s="277"/>
-      <c r="H112" s="277"/>
-      <c r="I112" s="279"/>
-    </row>
-    <row r="113" spans="1:9" s="48" customFormat="1" ht="13.8">
-      <c r="A113" s="292"/>
-      <c r="B113" s="287"/>
-      <c r="C113" s="288"/>
-      <c r="D113" s="289"/>
-      <c r="E113" s="290"/>
-      <c r="F113" s="291"/>
-      <c r="G113" s="291"/>
-      <c r="H113" s="291"/>
-      <c r="I113" s="290"/>
-    </row>
-    <row r="114" spans="1:9" s="48" customFormat="1" ht="13.8">
-      <c r="A114" s="279"/>
-      <c r="B114" s="277"/>
-      <c r="C114" s="277"/>
-      <c r="D114" s="278"/>
-      <c r="E114" s="278"/>
-      <c r="F114" s="277"/>
-      <c r="G114" s="277"/>
-      <c r="H114" s="277"/>
-      <c r="I114" s="279"/>
-    </row>
-    <row r="115" spans="1:9" s="48" customFormat="1" ht="13.8">
-      <c r="A115" s="279"/>
-      <c r="B115" s="277"/>
-      <c r="C115" s="277"/>
-      <c r="D115" s="286"/>
-      <c r="E115" s="286"/>
-      <c r="F115" s="277"/>
-      <c r="G115" s="277"/>
-      <c r="H115" s="277"/>
-      <c r="I115" s="279"/>
-    </row>
-    <row r="116" spans="1:9" s="48" customFormat="1" ht="13.8">
-      <c r="A116" s="279"/>
-      <c r="B116" s="277"/>
-      <c r="C116" s="277"/>
-      <c r="D116" s="286"/>
-      <c r="E116" s="286"/>
-      <c r="F116" s="277"/>
-      <c r="G116" s="277"/>
-      <c r="H116" s="277"/>
-      <c r="I116" s="279"/>
-    </row>
-    <row r="117" spans="1:9" s="48" customFormat="1" ht="13.8">
-      <c r="A117" s="292"/>
-      <c r="B117" s="287"/>
-      <c r="C117" s="288"/>
-      <c r="D117" s="289"/>
-      <c r="E117" s="290"/>
-      <c r="F117" s="291"/>
-      <c r="G117" s="291"/>
-      <c r="H117" s="291"/>
-      <c r="I117" s="290"/>
-    </row>
-    <row r="118" spans="1:9" s="48" customFormat="1" ht="13.8">
-      <c r="A118" s="279"/>
-      <c r="B118" s="277"/>
-      <c r="C118" s="277"/>
-      <c r="D118" s="278"/>
-      <c r="E118" s="278"/>
-      <c r="F118" s="277"/>
-      <c r="G118" s="277"/>
-      <c r="H118" s="277"/>
-      <c r="I118" s="279"/>
-    </row>
-    <row r="119" spans="1:9" s="48" customFormat="1" ht="13.8">
-      <c r="A119" s="279"/>
-      <c r="B119" s="277"/>
-      <c r="C119" s="277"/>
-      <c r="D119" s="278"/>
-      <c r="E119" s="278"/>
-      <c r="F119" s="277"/>
-      <c r="G119" s="277"/>
-      <c r="H119" s="277"/>
-      <c r="I119" s="279"/>
-    </row>
-    <row r="120" spans="1:9" s="48" customFormat="1" ht="13.8">
-      <c r="A120" s="279"/>
-      <c r="B120" s="277"/>
-      <c r="C120" s="277"/>
-      <c r="D120" s="278"/>
-      <c r="E120" s="278"/>
-      <c r="F120" s="277"/>
-      <c r="G120" s="277"/>
-      <c r="H120" s="277"/>
-      <c r="I120" s="279"/>
-    </row>
-    <row r="121" spans="1:9" s="48" customFormat="1" ht="14.25" customHeight="1">
-      <c r="A121" s="292"/>
-      <c r="B121" s="287"/>
-      <c r="C121" s="288"/>
-      <c r="D121" s="289"/>
-      <c r="E121" s="290"/>
-      <c r="F121" s="291"/>
-      <c r="G121" s="291"/>
-      <c r="H121" s="291"/>
-      <c r="I121" s="290"/>
-    </row>
-    <row r="122" spans="1:9" s="48" customFormat="1" ht="13.8">
-      <c r="A122" s="279"/>
-      <c r="B122" s="277"/>
-      <c r="C122" s="277"/>
-      <c r="D122" s="278"/>
-      <c r="E122" s="286"/>
-      <c r="F122" s="277"/>
-      <c r="G122" s="277"/>
-      <c r="H122" s="277"/>
-      <c r="I122" s="279"/>
-    </row>
-    <row r="123" spans="1:9" s="48" customFormat="1" ht="13.8">
-      <c r="A123" s="279"/>
-      <c r="B123" s="277"/>
-      <c r="C123" s="277"/>
-      <c r="D123" s="286"/>
-      <c r="E123" s="286"/>
-      <c r="F123" s="277"/>
-      <c r="G123" s="277"/>
-      <c r="H123" s="277"/>
-      <c r="I123" s="279"/>
-    </row>
-    <row r="124" spans="1:9" s="48" customFormat="1" ht="14.25" customHeight="1">
-      <c r="A124" s="292"/>
-      <c r="B124" s="287"/>
-      <c r="C124" s="288"/>
-      <c r="D124" s="289"/>
-      <c r="E124" s="290"/>
-      <c r="F124" s="291"/>
-      <c r="G124" s="291"/>
-      <c r="H124" s="291"/>
-      <c r="I124" s="290"/>
-    </row>
-    <row r="125" spans="1:9" s="48" customFormat="1" ht="13.8">
-      <c r="A125" s="279"/>
-      <c r="B125" s="277"/>
-      <c r="C125" s="277"/>
-      <c r="D125" s="278"/>
-      <c r="E125" s="278"/>
-      <c r="F125" s="277"/>
-      <c r="G125" s="277"/>
-      <c r="H125" s="277"/>
-      <c r="I125" s="279"/>
-    </row>
-    <row r="126" spans="1:9" s="48" customFormat="1" ht="13.8">
-      <c r="A126" s="279"/>
-      <c r="B126" s="277"/>
-      <c r="C126" s="277"/>
-      <c r="D126" s="286"/>
-      <c r="E126" s="278"/>
-      <c r="F126" s="277"/>
-      <c r="G126" s="277"/>
-      <c r="H126" s="277"/>
-      <c r="I126" s="279"/>
-    </row>
-    <row r="127" spans="1:9" s="48" customFormat="1" ht="13.8">
-      <c r="A127" s="279"/>
-      <c r="B127" s="277"/>
-      <c r="C127" s="277"/>
-      <c r="D127" s="286"/>
-      <c r="E127" s="278"/>
-      <c r="F127" s="277"/>
-      <c r="G127" s="277"/>
-      <c r="H127" s="277"/>
-      <c r="I127" s="279"/>
-    </row>
-    <row r="128" spans="1:9" s="48" customFormat="1" ht="13.8">
-      <c r="A128" s="279"/>
-      <c r="B128" s="277"/>
-      <c r="C128" s="277"/>
-      <c r="D128" s="286"/>
-      <c r="E128" s="278"/>
-      <c r="F128" s="277"/>
-      <c r="G128" s="277"/>
-      <c r="H128" s="277"/>
-      <c r="I128" s="279"/>
-    </row>
-    <row r="129" spans="1:9" s="48" customFormat="1" ht="13.8">
-      <c r="A129" s="279"/>
-      <c r="B129" s="277"/>
-      <c r="C129" s="277"/>
-      <c r="D129" s="286"/>
-      <c r="E129" s="278"/>
-      <c r="F129" s="277"/>
-      <c r="G129" s="277"/>
-      <c r="H129" s="277"/>
-      <c r="I129" s="279"/>
-    </row>
-  </sheetData>
-  <mergeCells count="30">
-    <mergeCell ref="B82:I82"/>
-    <mergeCell ref="B84:I84"/>
-    <mergeCell ref="B86:I86"/>
-    <mergeCell ref="B63:I63"/>
-    <mergeCell ref="B19:I19"/>
-    <mergeCell ref="B26:I26"/>
-    <mergeCell ref="B33:I33"/>
-    <mergeCell ref="B42:I42"/>
-    <mergeCell ref="B48:I48"/>
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="A2:D2"/>
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="B4:D4"/>
-    <mergeCell ref="F16:H16"/>
-    <mergeCell ref="E2:E3"/>
-    <mergeCell ref="B5:D5"/>
-    <mergeCell ref="B6:D6"/>
-    <mergeCell ref="B7:D7"/>
-    <mergeCell ref="B8:D8"/>
-    <mergeCell ref="B18:I18"/>
-    <mergeCell ref="B117:D117"/>
-    <mergeCell ref="B121:D121"/>
-    <mergeCell ref="B124:D124"/>
-    <mergeCell ref="B92:D92"/>
-    <mergeCell ref="B97:D97"/>
-    <mergeCell ref="B101:D101"/>
-    <mergeCell ref="B113:D113"/>
-    <mergeCell ref="B52:I52"/>
-    <mergeCell ref="B60:I60"/>
-    <mergeCell ref="B64:I64"/>
-  </mergeCells>
-  <dataValidations count="3">
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="F130:H187">
-      <formula1>#REF!</formula1>
-      <formula2>0</formula2>
-    </dataValidation>
-    <dataValidation showDropDown="1" showErrorMessage="1" sqref="F16:H17"/>
-    <dataValidation type="list" allowBlank="1" sqref="F20:H25 F27:H32 F34:H41 F43:H47 F49:H51 F53:H59 F87:H129 F65:H81 F83:H83 F85:H85 F61:H62">
-      <formula1>$A$11:$A$15</formula1>
-    </dataValidation>
-  </dataValidations>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
-  <legacyDrawing r:id="rId2"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:X84"/>
-  <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="B13" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C17" sqref="C17:D17"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9.15625" defaultRowHeight="12.3"/>
-  <cols>
-    <col min="1" max="1" width="12.41796875" style="78" customWidth="1"/>
-    <col min="2" max="4" width="35.15625" style="46" customWidth="1"/>
-    <col min="5" max="5" width="32.15625" style="46" customWidth="1"/>
-    <col min="6" max="8" width="9.68359375" style="46" customWidth="1"/>
-    <col min="9" max="9" width="17.68359375" style="46" customWidth="1"/>
-    <col min="10" max="16384" width="9.15625" style="46"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:24" s="1" customFormat="1" ht="13.8">
-      <c r="A1" s="213"/>
-      <c r="B1" s="213"/>
-      <c r="C1" s="213"/>
-      <c r="D1" s="213"/>
-      <c r="E1" s="34"/>
-      <c r="F1" s="34"/>
-      <c r="G1" s="34"/>
-      <c r="H1" s="34"/>
-      <c r="I1" s="34"/>
-      <c r="J1" s="34"/>
-    </row>
-    <row r="2" spans="1:24" s="1" customFormat="1" ht="31.5" customHeight="1">
-      <c r="A2" s="214" t="s">
-        <v>70</v>
-      </c>
-      <c r="B2" s="214"/>
-      <c r="C2" s="214"/>
-      <c r="D2" s="214"/>
-      <c r="E2" s="222"/>
-      <c r="F2" s="23"/>
-      <c r="G2" s="23"/>
-      <c r="H2" s="23"/>
-      <c r="I2" s="23"/>
-      <c r="J2" s="23"/>
-    </row>
-    <row r="3" spans="1:24" s="1" customFormat="1" ht="31.5" customHeight="1">
-      <c r="A3" s="47"/>
-      <c r="C3" s="241"/>
-      <c r="D3" s="241"/>
-      <c r="E3" s="222"/>
-      <c r="F3" s="23"/>
-      <c r="G3" s="23"/>
-      <c r="H3" s="23"/>
-      <c r="I3" s="23"/>
-      <c r="J3" s="23"/>
-    </row>
-    <row r="4" spans="1:24" s="38" customFormat="1">
-      <c r="A4" s="139" t="s">
-        <v>67</v>
-      </c>
-      <c r="B4" s="216" t="s">
-        <v>331</v>
-      </c>
-      <c r="C4" s="216"/>
-      <c r="D4" s="216"/>
-      <c r="E4" s="39"/>
-      <c r="F4" s="39"/>
-      <c r="G4" s="39"/>
-      <c r="H4" s="40"/>
-      <c r="I4" s="40"/>
-      <c r="X4" s="38" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="5" spans="1:24" s="38" customFormat="1" ht="144.75" customHeight="1">
-      <c r="A5" s="139" t="s">
-        <v>62</v>
-      </c>
-      <c r="B5" s="215" t="s">
-        <v>95</v>
-      </c>
-      <c r="C5" s="216"/>
-      <c r="D5" s="216"/>
-      <c r="E5" s="39"/>
-      <c r="F5" s="39"/>
-      <c r="G5" s="39"/>
-      <c r="H5" s="40"/>
-      <c r="I5" s="40"/>
-      <c r="X5" s="38" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="6" spans="1:24" s="38" customFormat="1">
-      <c r="A6" s="139" t="s">
-        <v>97</v>
-      </c>
-      <c r="B6" s="215" t="s">
-        <v>98</v>
-      </c>
-      <c r="C6" s="216"/>
-      <c r="D6" s="216"/>
-      <c r="E6" s="39"/>
-      <c r="F6" s="39"/>
-      <c r="G6" s="39"/>
-      <c r="H6" s="40"/>
-      <c r="I6" s="40"/>
-    </row>
-    <row r="7" spans="1:24" s="38" customFormat="1">
-      <c r="A7" s="139" t="s">
-        <v>99</v>
-      </c>
-      <c r="B7" s="216" t="s">
-        <v>100</v>
-      </c>
-      <c r="C7" s="216"/>
-      <c r="D7" s="216"/>
-      <c r="E7" s="39"/>
-      <c r="F7" s="39"/>
-      <c r="G7" s="39"/>
-      <c r="H7" s="41"/>
-      <c r="I7" s="40"/>
-      <c r="X7" s="42"/>
-    </row>
-    <row r="8" spans="1:24" s="43" customFormat="1">
-      <c r="A8" s="139" t="s">
-        <v>101</v>
-      </c>
-      <c r="B8" s="217">
-        <v>40850</v>
-      </c>
-      <c r="C8" s="217"/>
-      <c r="D8" s="217"/>
-      <c r="E8" s="39"/>
-    </row>
-    <row r="9" spans="1:24" s="43" customFormat="1">
-      <c r="A9" s="140" t="s">
-        <v>102</v>
-      </c>
-      <c r="B9" s="73" t="str">
-        <f>F17</f>
-        <v>Internal Build 03112011</v>
-      </c>
-      <c r="C9" s="73" t="str">
-        <f>G17</f>
-        <v>Internal build 14112011</v>
-      </c>
-      <c r="D9" s="73" t="str">
-        <f>H17</f>
-        <v>External build 16112011</v>
-      </c>
-    </row>
-    <row r="10" spans="1:24" s="43" customFormat="1">
-      <c r="A10" s="141" t="s">
-        <v>103</v>
-      </c>
-      <c r="B10" s="74">
-        <f>SUM(B11:B14)</f>
-        <v>56</v>
-      </c>
-      <c r="C10" s="74">
-        <f>SUM(C11:C14)</f>
-        <v>55</v>
-      </c>
-      <c r="D10" s="74">
-        <f>SUM(D11:D14)</f>
-        <v>56</v>
-      </c>
-    </row>
-    <row r="11" spans="1:24" s="43" customFormat="1">
-      <c r="A11" s="141" t="s">
-        <v>41</v>
-      </c>
-      <c r="B11" s="75">
-        <f>COUNTIF($F$18:$F$49636,"*Passed")</f>
-        <v>46</v>
-      </c>
-      <c r="C11" s="75">
-        <f>COUNTIF($G$18:$G$49636,"*Passed")</f>
-        <v>52</v>
-      </c>
-      <c r="D11" s="75">
-        <f>COUNTIF($H$18:$H$49636,"*Passed")</f>
-        <v>55</v>
-      </c>
-    </row>
-    <row r="12" spans="1:24" s="43" customFormat="1">
-      <c r="A12" s="141" t="s">
-        <v>43</v>
-      </c>
-      <c r="B12" s="75">
-        <f>COUNTIF($F$18:$F$49356,"*Failed*")</f>
-        <v>10</v>
-      </c>
-      <c r="C12" s="75">
-        <f>COUNTIF($G$18:$G$49356,"*Failed*")</f>
-        <v>3</v>
-      </c>
-      <c r="D12" s="75">
-        <f>COUNTIF($H$18:$H$49356,"*Failed*")</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13" spans="1:24" s="43" customFormat="1">
-      <c r="A13" s="141" t="s">
-        <v>45</v>
-      </c>
-      <c r="B13" s="75">
-        <f>COUNTIF($F$18:$F$49356,"*Not Run*")</f>
-        <v>0</v>
-      </c>
-      <c r="C13" s="75">
-        <f>COUNTIF($G$18:$G$49356,"*Not Run*")</f>
-        <v>0</v>
-      </c>
-      <c r="D13" s="75">
-        <f>COUNTIF($H$18:$H$49356,"*Not Run*")</f>
-        <v>0</v>
-      </c>
-      <c r="E13" s="1"/>
-      <c r="F13" s="1"/>
-      <c r="G13" s="1"/>
-      <c r="H13" s="1"/>
-      <c r="I13" s="1"/>
-    </row>
-    <row r="14" spans="1:24" s="43" customFormat="1">
-      <c r="A14" s="141" t="s">
-        <v>104</v>
-      </c>
-      <c r="B14" s="75">
-        <f>COUNTIF($F$18:$F$49356,"*NA*")</f>
-        <v>0</v>
-      </c>
-      <c r="C14" s="75">
-        <f>COUNTIF($G$18:$G$49356,"*NA*")</f>
-        <v>0</v>
-      </c>
-      <c r="D14" s="75">
-        <f>COUNTIF($H$18:$H$49356,"*NA*")</f>
-        <v>0</v>
-      </c>
-      <c r="E14" s="64"/>
-      <c r="F14" s="1"/>
-      <c r="G14" s="1"/>
-      <c r="H14" s="1"/>
-      <c r="I14" s="1"/>
-    </row>
-    <row r="15" spans="1:24" s="43" customFormat="1" ht="36.9">
-      <c r="A15" s="141" t="s">
-        <v>105</v>
-      </c>
-      <c r="B15" s="75">
-        <f>COUNTIF($F$18:$F$49356,"*Passed in previous build*")</f>
-        <v>0</v>
-      </c>
-      <c r="C15" s="75">
-        <f>COUNTIF($G$18:$G$49356,"*Passed in previous build*")</f>
-        <v>1</v>
-      </c>
-      <c r="D15" s="75">
-        <f>COUNTIF($H$18:$H$49356,"*Passed in previous build*")</f>
-        <v>0</v>
-      </c>
-      <c r="E15" s="1"/>
-      <c r="F15" s="1"/>
-      <c r="G15" s="1"/>
-      <c r="H15" s="1"/>
-      <c r="I15" s="1"/>
-    </row>
-    <row r="16" spans="1:24" s="44" customFormat="1" ht="15" customHeight="1">
-      <c r="A16" s="76"/>
-      <c r="B16" s="50"/>
-      <c r="C16" s="50"/>
-      <c r="D16" s="51"/>
-      <c r="E16" s="65"/>
-      <c r="F16" s="242" t="s">
-        <v>102</v>
-      </c>
-      <c r="G16" s="243"/>
-      <c r="H16" s="244"/>
-      <c r="I16" s="65"/>
-    </row>
-    <row r="17" spans="1:9" s="44" customFormat="1" ht="36.9">
-      <c r="A17" s="142" t="s">
-        <v>106</v>
-      </c>
-      <c r="B17" s="143" t="s">
-        <v>107</v>
-      </c>
-      <c r="C17" s="143" t="s">
-        <v>108</v>
-      </c>
-      <c r="D17" s="143" t="s">
-        <v>109</v>
-      </c>
-      <c r="E17" s="144" t="s">
-        <v>110</v>
-      </c>
-      <c r="F17" s="143" t="s">
-        <v>111</v>
-      </c>
-      <c r="G17" s="143" t="s">
-        <v>112</v>
-      </c>
-      <c r="H17" s="143" t="s">
-        <v>113</v>
-      </c>
-      <c r="I17" s="143" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9" s="44" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A18" s="67"/>
-      <c r="B18" s="218" t="s">
+      <c r="B18" s="239" t="s">
         <v>115</v>
       </c>
-      <c r="C18" s="219"/>
-      <c r="D18" s="220"/>
+      <c r="C18" s="240"/>
+      <c r="D18" s="241"/>
       <c r="E18" s="67"/>
       <c r="F18" s="68"/>
       <c r="G18" s="68"/>
@@ -11063,11 +12743,11 @@
     </row>
     <row r="29" spans="1:9" s="48" customFormat="1" ht="13.8">
       <c r="A29" s="77"/>
-      <c r="B29" s="218" t="s">
+      <c r="B29" s="239" t="s">
         <v>155</v>
       </c>
-      <c r="C29" s="219"/>
-      <c r="D29" s="220"/>
+      <c r="C29" s="240"/>
+      <c r="D29" s="241"/>
       <c r="E29" s="69"/>
       <c r="F29" s="66"/>
       <c r="G29" s="66"/>
@@ -11216,11 +12896,11 @@
     </row>
     <row r="35" spans="1:9" s="48" customFormat="1" ht="13.8">
       <c r="A35" s="77"/>
-      <c r="B35" s="218" t="s">
+      <c r="B35" s="239" t="s">
         <v>174</v>
       </c>
-      <c r="C35" s="219"/>
-      <c r="D35" s="220"/>
+      <c r="C35" s="240"/>
+      <c r="D35" s="241"/>
       <c r="E35" s="69"/>
       <c r="F35" s="66"/>
       <c r="G35" s="66"/>
@@ -11257,11 +12937,11 @@
     </row>
     <row r="37" spans="1:9" s="48" customFormat="1" ht="13.8">
       <c r="A37" s="77"/>
-      <c r="B37" s="218" t="s">
+      <c r="B37" s="239" t="s">
         <v>178</v>
       </c>
-      <c r="C37" s="219"/>
-      <c r="D37" s="220"/>
+      <c r="C37" s="240"/>
+      <c r="D37" s="241"/>
       <c r="E37" s="69"/>
       <c r="F37" s="66"/>
       <c r="G37" s="66"/>
@@ -11522,11 +13202,11 @@
     </row>
     <row r="47" spans="1:9" s="48" customFormat="1" ht="13.8">
       <c r="A47" s="77"/>
-      <c r="B47" s="218" t="s">
+      <c r="B47" s="239" t="s">
         <v>214</v>
       </c>
-      <c r="C47" s="219"/>
-      <c r="D47" s="220"/>
+      <c r="C47" s="240"/>
+      <c r="D47" s="241"/>
       <c r="E47" s="69"/>
       <c r="F47" s="66"/>
       <c r="G47" s="66"/>
@@ -11647,11 +13327,11 @@
     </row>
     <row r="52" spans="1:9" s="48" customFormat="1" ht="13.8">
       <c r="A52" s="77"/>
-      <c r="B52" s="218" t="s">
+      <c r="B52" s="239" t="s">
         <v>229</v>
       </c>
-      <c r="C52" s="219"/>
-      <c r="D52" s="220"/>
+      <c r="C52" s="240"/>
+      <c r="D52" s="241"/>
       <c r="E52" s="69"/>
       <c r="F52" s="66"/>
       <c r="G52" s="66"/>
@@ -11744,11 +13424,11 @@
     </row>
     <row r="56" spans="1:9" s="48" customFormat="1" ht="13.8">
       <c r="A56" s="77"/>
-      <c r="B56" s="218" t="s">
+      <c r="B56" s="239" t="s">
         <v>241</v>
       </c>
-      <c r="C56" s="219"/>
-      <c r="D56" s="220"/>
+      <c r="C56" s="240"/>
+      <c r="D56" s="241"/>
       <c r="E56" s="69"/>
       <c r="F56" s="66"/>
       <c r="G56" s="66"/>
@@ -12065,11 +13745,11 @@
     </row>
     <row r="68" spans="1:9" s="48" customFormat="1" ht="13.8">
       <c r="A68" s="77"/>
-      <c r="B68" s="218" t="s">
+      <c r="B68" s="239" t="s">
         <v>283</v>
       </c>
-      <c r="C68" s="219"/>
-      <c r="D68" s="220"/>
+      <c r="C68" s="240"/>
+      <c r="D68" s="241"/>
       <c r="E68" s="69"/>
       <c r="F68" s="66"/>
       <c r="G68" s="66"/>
@@ -12162,11 +13842,11 @@
     </row>
     <row r="72" spans="1:9" s="48" customFormat="1" ht="13.8">
       <c r="A72" s="77"/>
-      <c r="B72" s="218" t="s">
+      <c r="B72" s="239" t="s">
         <v>293</v>
       </c>
-      <c r="C72" s="219"/>
-      <c r="D72" s="220"/>
+      <c r="C72" s="240"/>
+      <c r="D72" s="241"/>
       <c r="E72" s="69"/>
       <c r="F72" s="66"/>
       <c r="G72" s="66"/>
@@ -12259,11 +13939,11 @@
     </row>
     <row r="76" spans="1:9" s="48" customFormat="1" ht="14.25" customHeight="1">
       <c r="A76" s="77"/>
-      <c r="B76" s="218" t="s">
+      <c r="B76" s="239" t="s">
         <v>304</v>
       </c>
-      <c r="C76" s="219"/>
-      <c r="D76" s="220"/>
+      <c r="C76" s="240"/>
+      <c r="D76" s="241"/>
       <c r="E76" s="69"/>
       <c r="F76" s="66"/>
       <c r="G76" s="66"/>
@@ -12328,11 +14008,11 @@
     </row>
     <row r="79" spans="1:9" s="48" customFormat="1" ht="14.25" customHeight="1">
       <c r="A79" s="77"/>
-      <c r="B79" s="218" t="s">
+      <c r="B79" s="239" t="s">
         <v>312</v>
       </c>
-      <c r="C79" s="219"/>
-      <c r="D79" s="220"/>
+      <c r="C79" s="240"/>
+      <c r="D79" s="241"/>
       <c r="E79" s="69"/>
       <c r="F79" s="66"/>
       <c r="G79" s="66"/>
@@ -12527,7 +14207,7 @@
   </sheetPr>
   <dimension ref="A1:L61"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A22" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView showGridLines="0" topLeftCell="A34" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="C27" sqref="C27"/>
     </sheetView>
   </sheetViews>
@@ -12558,13 +14238,13 @@
     </row>
     <row r="2" spans="1:12" s="84" customFormat="1" ht="25.2">
       <c r="A2" s="83"/>
-      <c r="C2" s="247" t="s">
+      <c r="C2" s="289" t="s">
         <v>334</v>
       </c>
-      <c r="D2" s="247"/>
-      <c r="E2" s="247"/>
-      <c r="F2" s="247"/>
-      <c r="G2" s="247"/>
+      <c r="D2" s="289"/>
+      <c r="E2" s="289"/>
+      <c r="F2" s="289"/>
+      <c r="G2" s="289"/>
       <c r="H2" s="85" t="s">
         <v>335</v>
       </c>
@@ -12575,15 +14255,15 @@
     </row>
     <row r="3" spans="1:12" s="84" customFormat="1" ht="22.5">
       <c r="A3" s="83"/>
-      <c r="C3" s="248" t="s">
+      <c r="C3" s="290" t="s">
         <v>336</v>
       </c>
-      <c r="D3" s="248"/>
+      <c r="D3" s="290"/>
       <c r="E3" s="157"/>
-      <c r="F3" s="249" t="s">
+      <c r="F3" s="291" t="s">
         <v>337</v>
       </c>
-      <c r="G3" s="249"/>
+      <c r="G3" s="291"/>
       <c r="H3" s="86"/>
       <c r="I3" s="86"/>
       <c r="J3" s="87"/>
@@ -12608,10 +14288,10 @@
       <c r="L5" s="92"/>
     </row>
     <row r="6" spans="1:12" ht="21.75" customHeight="1">
-      <c r="B6" s="250" t="s">
+      <c r="B6" s="292" t="s">
         <v>338</v>
       </c>
-      <c r="C6" s="250"/>
+      <c r="C6" s="292"/>
       <c r="D6" s="94"/>
       <c r="E6" s="94"/>
       <c r="F6" s="94"/>
@@ -12780,11 +14460,11 @@
       <c r="G13" s="98"/>
     </row>
     <row r="14" spans="1:12" ht="21.75" customHeight="1">
-      <c r="B14" s="250" t="s">
+      <c r="B14" s="292" t="s">
         <v>368</v>
       </c>
-      <c r="C14" s="250"/>
-      <c r="D14" s="250"/>
+      <c r="C14" s="292"/>
+      <c r="D14" s="292"/>
       <c r="E14" s="94"/>
       <c r="F14" s="94"/>
       <c r="G14" s="95"/>
@@ -12960,11 +14640,11 @@
       <c r="G22" s="98"/>
     </row>
     <row r="23" spans="1:12" ht="21.75" customHeight="1">
-      <c r="B23" s="250" t="s">
+      <c r="B23" s="292" t="s">
         <v>378</v>
       </c>
-      <c r="C23" s="250"/>
-      <c r="D23" s="250"/>
+      <c r="C23" s="292"/>
+      <c r="D23" s="292"/>
       <c r="E23" s="94"/>
       <c r="F23" s="94"/>
       <c r="G23" s="95"/>
@@ -13010,10 +14690,10 @@
       <c r="F26" s="160" t="s">
         <v>385</v>
       </c>
-      <c r="G26" s="251" t="s">
+      <c r="G26" s="293" t="s">
         <v>114</v>
       </c>
-      <c r="H26" s="252"/>
+      <c r="H26" s="294"/>
     </row>
     <row r="27" spans="1:12">
       <c r="A27" s="100">
@@ -13038,8 +14718,8 @@
         <f>COUNTIFS(#REF!, "*Critical*",#REF!,"*Closed*") + COUNTIFS(#REF!, "*Critical*",#REF!,"*Ready for client test*")</f>
         <v>#REF!</v>
       </c>
-      <c r="G27" s="245"/>
-      <c r="H27" s="246"/>
+      <c r="G27" s="287"/>
+      <c r="H27" s="288"/>
     </row>
     <row r="28" spans="1:12" ht="20.25" customHeight="1">
       <c r="A28" s="100">
@@ -13064,8 +14744,8 @@
         <f>COUNTIFS(#REF!, "*Major*",#REF!,"*Closed*") + COUNTIFS(#REF!, "*Major*",#REF!,"*Ready for client test*")</f>
         <v>#REF!</v>
       </c>
-      <c r="G28" s="245"/>
-      <c r="H28" s="246"/>
+      <c r="G28" s="287"/>
+      <c r="H28" s="288"/>
     </row>
     <row r="29" spans="1:12" ht="20.25" customHeight="1">
       <c r="A29" s="100">
@@ -13090,8 +14770,8 @@
         <f>COUNTIFS(#REF!, "*Normal*",#REF!,"*Closed*") + COUNTIFS(#REF!, "*Normal*",#REF!,"*Ready for client test*")</f>
         <v>#REF!</v>
       </c>
-      <c r="G29" s="245"/>
-      <c r="H29" s="246"/>
+      <c r="G29" s="287"/>
+      <c r="H29" s="288"/>
     </row>
     <row r="30" spans="1:12" ht="20.25" customHeight="1">
       <c r="A30" s="100">
@@ -13116,8 +14796,8 @@
         <f>COUNTIFS(#REF!, "*Minor*",#REF!,"*Closed*") + COUNTIFS(#REF!, "*Minor*",#REF!,"*Ready for client test*")</f>
         <v>#REF!</v>
       </c>
-      <c r="G30" s="245"/>
-      <c r="H30" s="246"/>
+      <c r="G30" s="287"/>
+      <c r="H30" s="288"/>
     </row>
     <row r="31" spans="1:12" ht="20.25" customHeight="1">
       <c r="A31" s="100"/>
@@ -13138,8 +14818,8 @@
         <f>SUM(F27:F30)</f>
         <v>#REF!</v>
       </c>
-      <c r="G31" s="245"/>
-      <c r="H31" s="246"/>
+      <c r="G31" s="287"/>
+      <c r="H31" s="288"/>
     </row>
     <row r="32" spans="1:12" ht="20.25" customHeight="1">
       <c r="A32" s="106"/>
@@ -13177,10 +14857,10 @@
       <c r="E34" s="160" t="s">
         <v>344</v>
       </c>
-      <c r="F34" s="253" t="s">
+      <c r="F34" s="295" t="s">
         <v>347</v>
       </c>
-      <c r="G34" s="254"/>
+      <c r="G34" s="296"/>
     </row>
     <row r="35" spans="1:12" s="125" customFormat="1" ht="14.1">
       <c r="A35" s="121"/>
@@ -13196,8 +14876,8 @@
       <c r="E35" s="126" t="s">
         <v>352</v>
       </c>
-      <c r="F35" s="256"/>
-      <c r="G35" s="257"/>
+      <c r="F35" s="298"/>
+      <c r="G35" s="299"/>
       <c r="H35" s="124"/>
       <c r="I35" s="124"/>
       <c r="J35" s="124"/>
@@ -13220,8 +14900,8 @@
       <c r="E36" s="104" t="s">
         <v>358</v>
       </c>
-      <c r="F36" s="245"/>
-      <c r="G36" s="246"/>
+      <c r="F36" s="287"/>
+      <c r="G36" s="288"/>
     </row>
     <row r="37" spans="1:12" ht="20.25" customHeight="1">
       <c r="A37" s="100">
@@ -13239,8 +14919,8 @@
       <c r="E37" s="104" t="s">
         <v>358</v>
       </c>
-      <c r="F37" s="245"/>
-      <c r="G37" s="246"/>
+      <c r="F37" s="287"/>
+      <c r="G37" s="288"/>
     </row>
     <row r="38" spans="1:12" ht="20.25" customHeight="1">
       <c r="A38" s="106"/>
@@ -13253,10 +14933,10 @@
       <c r="H38" s="108"/>
     </row>
     <row r="39" spans="1:12" ht="21.75" customHeight="1">
-      <c r="B39" s="250" t="s">
+      <c r="B39" s="292" t="s">
         <v>399</v>
       </c>
-      <c r="C39" s="250"/>
+      <c r="C39" s="292"/>
       <c r="D39" s="94"/>
       <c r="E39" s="94"/>
       <c r="F39" s="94"/>
@@ -13280,15 +14960,15 @@
       <c r="B41" s="160" t="s">
         <v>62</v>
       </c>
-      <c r="C41" s="255" t="s">
+      <c r="C41" s="297" t="s">
         <v>401</v>
       </c>
-      <c r="D41" s="255"/>
-      <c r="E41" s="255" t="s">
+      <c r="D41" s="297"/>
+      <c r="E41" s="297" t="s">
         <v>402</v>
       </c>
-      <c r="F41" s="255"/>
-      <c r="G41" s="255"/>
+      <c r="F41" s="297"/>
+      <c r="G41" s="297"/>
       <c r="H41" s="99" t="s">
         <v>403</v>
       </c>
@@ -13300,15 +14980,15 @@
       <c r="B42" s="161" t="s">
         <v>404</v>
       </c>
-      <c r="C42" s="258" t="s">
+      <c r="C42" s="300" t="s">
         <v>405</v>
       </c>
-      <c r="D42" s="258"/>
-      <c r="E42" s="258" t="s">
+      <c r="D42" s="300"/>
+      <c r="E42" s="300" t="s">
         <v>406</v>
       </c>
-      <c r="F42" s="258"/>
-      <c r="G42" s="258"/>
+      <c r="F42" s="300"/>
+      <c r="G42" s="300"/>
       <c r="H42" s="109"/>
     </row>
     <row r="43" spans="1:12" ht="34.5" customHeight="1">
@@ -13318,15 +14998,15 @@
       <c r="B43" s="161" t="s">
         <v>404</v>
       </c>
-      <c r="C43" s="258" t="s">
+      <c r="C43" s="300" t="s">
         <v>405</v>
       </c>
-      <c r="D43" s="258"/>
-      <c r="E43" s="258" t="s">
+      <c r="D43" s="300"/>
+      <c r="E43" s="300" t="s">
         <v>406</v>
       </c>
-      <c r="F43" s="258"/>
-      <c r="G43" s="258"/>
+      <c r="F43" s="300"/>
+      <c r="G43" s="300"/>
       <c r="H43" s="109"/>
     </row>
     <row r="44" spans="1:12" ht="34.5" customHeight="1">
@@ -13336,15 +15016,15 @@
       <c r="B44" s="161" t="s">
         <v>404</v>
       </c>
-      <c r="C44" s="258" t="s">
+      <c r="C44" s="300" t="s">
         <v>405</v>
       </c>
-      <c r="D44" s="258"/>
-      <c r="E44" s="258" t="s">
+      <c r="D44" s="300"/>
+      <c r="E44" s="300" t="s">
         <v>406</v>
       </c>
-      <c r="F44" s="258"/>
-      <c r="G44" s="258"/>
+      <c r="F44" s="300"/>
+      <c r="G44" s="300"/>
       <c r="H44" s="109"/>
     </row>
     <row r="45" spans="1:12">
@@ -13356,10 +15036,10 @@
       <c r="G45" s="98"/>
     </row>
     <row r="46" spans="1:12" ht="21.75" customHeight="1">
-      <c r="B46" s="250" t="s">
+      <c r="B46" s="292" t="s">
         <v>407</v>
       </c>
-      <c r="C46" s="250"/>
+      <c r="C46" s="292"/>
       <c r="D46" s="94"/>
       <c r="E46" s="94"/>
       <c r="F46" s="94"/>
@@ -13377,25 +15057,25 @@
       <c r="G47" s="98"/>
     </row>
     <row r="48" spans="1:12" s="113" customFormat="1" ht="21" customHeight="1">
-      <c r="A48" s="261" t="s">
+      <c r="A48" s="303" t="s">
         <v>58</v>
       </c>
-      <c r="B48" s="263" t="s">
+      <c r="B48" s="305" t="s">
         <v>409</v>
       </c>
-      <c r="C48" s="253" t="s">
+      <c r="C48" s="295" t="s">
         <v>410</v>
       </c>
-      <c r="D48" s="265"/>
-      <c r="E48" s="265"/>
-      <c r="F48" s="254"/>
-      <c r="G48" s="266" t="s">
+      <c r="D48" s="307"/>
+      <c r="E48" s="307"/>
+      <c r="F48" s="296"/>
+      <c r="G48" s="308" t="s">
         <v>377</v>
       </c>
-      <c r="H48" s="266" t="s">
+      <c r="H48" s="308" t="s">
         <v>409</v>
       </c>
-      <c r="I48" s="259" t="s">
+      <c r="I48" s="301" t="s">
         <v>411</v>
       </c>
       <c r="J48" s="112"/>
@@ -13403,8 +15083,8 @@
       <c r="L48" s="112"/>
     </row>
     <row r="49" spans="1:9">
-      <c r="A49" s="262"/>
-      <c r="B49" s="264"/>
+      <c r="A49" s="304"/>
+      <c r="B49" s="306"/>
       <c r="C49" s="114" t="s">
         <v>386</v>
       </c>
@@ -13417,13 +15097,13 @@
       <c r="F49" s="115" t="s">
         <v>389</v>
       </c>
-      <c r="G49" s="267"/>
-      <c r="H49" s="267"/>
-      <c r="I49" s="260"/>
+      <c r="G49" s="309"/>
+      <c r="H49" s="309"/>
+      <c r="I49" s="302"/>
     </row>
     <row r="50" spans="1:9" ht="25.2">
-      <c r="A50" s="262"/>
-      <c r="B50" s="264"/>
+      <c r="A50" s="304"/>
+      <c r="B50" s="306"/>
       <c r="C50" s="128" t="s">
         <v>412</v>
       </c>
@@ -13786,16 +15466,16 @@
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{06E3E4FA-795A-4742-A021-9CDC3210C50B}">
   <ds:schemaRefs>
+    <ds:schemaRef ds:uri="044e8ed5-b60c-40cd-b477-04c240ccf9c3"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
     <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="cabca498-5e2a-459c-ade0-601c6a98c846"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
     <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="044e8ed5-b60c-40cd-b477-04c240ccf9c3"/>
-    <ds:schemaRef ds:uri="cabca498-5e2a-459c-ade0-601c6a98c846"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>

--- a/test design technic daongochuy.xlsx
+++ b/test design technic daongochuy.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="17268" windowHeight="8808" tabRatio="840" activeTab="5"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="17268" windowHeight="8808" tabRatio="840" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="Record of Change" sheetId="4" r:id="rId1"/>
@@ -18,7 +18,7 @@
     <sheet name="Common checklist" sheetId="7" r:id="rId4"/>
     <sheet name="Assignment 1 " sheetId="8" r:id="rId5"/>
     <sheet name="Assignment 2 " sheetId="9" r:id="rId6"/>
-    <sheet name="User Story 3" sheetId="15" r:id="rId7"/>
+    <sheet name="Assignment 3 " sheetId="15" r:id="rId7"/>
     <sheet name="Test report" sheetId="10" r:id="rId8"/>
   </sheets>
   <externalReferences>
@@ -677,31 +677,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F31" authorId="1" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>Nguyen Dao Thi Binh:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-Bug ID: 13050</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="F42" authorId="1" shapeId="0">
+    <comment ref="F59" authorId="1" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -725,7 +701,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F43" authorId="1" shapeId="0">
+    <comment ref="F60" authorId="1" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -749,7 +725,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F45" authorId="1" shapeId="0">
+    <comment ref="F62" authorId="1" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -773,7 +749,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F58" authorId="1" shapeId="0">
+    <comment ref="F75" authorId="1" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -797,7 +773,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G58" authorId="1" shapeId="0">
+    <comment ref="G75" authorId="1" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -821,7 +797,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F59" authorId="1" shapeId="0">
+    <comment ref="F76" authorId="1" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -845,7 +821,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G59" authorId="1" shapeId="0">
+    <comment ref="G76" authorId="1" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -869,7 +845,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F64" authorId="1" shapeId="0">
+    <comment ref="F81" authorId="1" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -893,7 +869,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G64" authorId="1" shapeId="0">
+    <comment ref="G81" authorId="1" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -917,7 +893,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F67" authorId="1" shapeId="0">
+    <comment ref="F84" authorId="1" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -941,7 +917,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F82" authorId="1" shapeId="0">
+    <comment ref="F99" authorId="1" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -965,7 +941,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F84" authorId="1" shapeId="0">
+    <comment ref="F101" authorId="1" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -994,7 +970,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="805" uniqueCount="567">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="843" uniqueCount="606">
   <si>
     <r>
       <t xml:space="preserve">Security Classification: </t>
@@ -1420,9 +1396,6 @@
     <t>Note</t>
   </si>
   <si>
-    <t>1. Add Rate Currency option to medium outline, market level</t>
-  </si>
-  <si>
     <t>US1-1</t>
   </si>
   <si>
@@ -3061,6 +3034,126 @@
   </si>
   <si>
     <t>Verify that the input is not trimmed</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. Search Suggestion </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Default Status of the box </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Users search witthout entering any character </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Users enter a random keyword </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pasting data to Search Box </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Comparing result in Upercase and Lowercase </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Search result contain special character </t>
+  </si>
+  <si>
+    <t>Search result with a blank before keyword ( "  car" )</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Search result contain several distiction keyword </t>
+  </si>
+  <si>
+    <t>Search Suggestion when the Search box is blank</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Serach Suggetion when users enter a random keyword </t>
+  </si>
+  <si>
+    <t>Serach Suggetion when users enter remove  keywords</t>
+  </si>
+  <si>
+    <t>Serach Suggetion when users enter more  keywords</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2, Search history </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Search History when the page is in default status </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Search History when users log in for the first time  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Delete Search History </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Search history when users search several time </t>
+  </si>
+  <si>
+    <t>3, If search criteria is not match, page will display message “Search No Result”</t>
+  </si>
+  <si>
+    <t xml:space="preserve">No search result displayed when criteria not match </t>
+  </si>
+  <si>
+    <t>4,User can search product by entering Product Name/Category Name/Brand Name/Supplier Name</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Users search for a product by Product Name </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Users search for a product by Category Name </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Users search for a product by Brand Name </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Users search for a product by Supplier Name </t>
+  </si>
+  <si>
+    <t>5, Results can be displayed in pagination –10 items per page</t>
+  </si>
+  <si>
+    <t xml:space="preserve">When the result has 1 product </t>
+  </si>
+  <si>
+    <t xml:space="preserve">When the result has 0 product </t>
+  </si>
+  <si>
+    <t xml:space="preserve">When the result has 10 product </t>
+  </si>
+  <si>
+    <t xml:space="preserve">When the result has more than 10 product </t>
+  </si>
+  <si>
+    <t>6, Product sorting "High to Low " and "Low to High"</t>
+  </si>
+  <si>
+    <t>x</t>
+  </si>
+  <si>
+    <t>"&lt;" button unavailable when showing the first 10 products</t>
+  </si>
+  <si>
+    <t xml:space="preserve">"&gt;" button unavailable when showing the last product page </t>
+  </si>
+  <si>
+    <t>User click "&gt;" button</t>
+  </si>
+  <si>
+    <t>User click "&lt;" button</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Users click product page number </t>
+  </si>
+  <si>
+    <t xml:space="preserve">When value of the given results meet the willing order </t>
+  </si>
+  <si>
+    <t>Search result ascending when users choose "Price Low to High"</t>
+  </si>
+  <si>
+    <t>Search result descending when users choose "Price High to Low "</t>
   </si>
 </sst>
 </file>
@@ -4188,7 +4281,7 @@
     <xf numFmtId="166" fontId="56" fillId="0" borderId="0"/>
     <xf numFmtId="166" fontId="57" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="316">
+  <cellXfs count="319">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
@@ -4848,27 +4941,78 @@
     <xf numFmtId="0" fontId="64" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="15" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="16" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="11" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="64" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="5" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="6" xfId="5" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="15" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="16" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="11" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="25" borderId="15" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="25" borderId="16" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="25" borderId="11" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="24" borderId="15" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="24" borderId="16" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="24" borderId="11" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="15" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="16" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="11" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="52" fillId="24" borderId="15" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="24" borderId="16" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="24" borderId="11" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="24" borderId="15" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="25" borderId="15" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="25" borderId="16" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="25" borderId="11" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="26" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
@@ -4890,56 +5034,35 @@
     <xf numFmtId="0" fontId="3" fillId="28" borderId="17" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="37" borderId="15" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="37" borderId="16" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="37" borderId="11" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="36" borderId="15" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="36" borderId="16" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="36" borderId="11" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="5" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="15" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="16" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="11" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="64" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="1" fillId="0" borderId="6" xfId="5" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="15" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="16" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="11" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="15" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="16" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="11" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="41" borderId="15" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -4968,15 +5091,6 @@
     <xf numFmtId="0" fontId="1" fillId="33" borderId="11" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="37" fillId="36" borderId="15" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="36" borderId="16" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="36" borderId="11" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="40" borderId="15" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
@@ -4995,26 +5109,47 @@
     <xf numFmtId="0" fontId="1" fillId="39" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="37" borderId="15" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="37" borderId="16" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="37" borderId="11" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="48" fillId="0" borderId="15" xfId="7" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="48" fillId="0" borderId="11" xfId="7" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="43" fillId="12" borderId="0" xfId="7" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="166" fontId="44" fillId="0" borderId="0" xfId="7" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="166" fontId="44" fillId="0" borderId="0" xfId="7" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="166" fontId="30" fillId="3" borderId="0" xfId="7" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="3" fillId="2" borderId="8" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="3" fillId="2" borderId="0" xfId="7" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="3" fillId="2" borderId="15" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="3" fillId="2" borderId="11" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="3" fillId="2" borderId="6" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="61" fillId="0" borderId="15" xfId="7" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="61" fillId="0" borderId="11" xfId="7" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="46" fillId="0" borderId="6" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="12" xfId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -5022,9 +5157,6 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="10" xfId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="166" fontId="30" fillId="3" borderId="0" xfId="7" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="14" xfId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -5037,53 +5169,23 @@
     <xf numFmtId="166" fontId="3" fillId="2" borderId="20" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="166" fontId="3" fillId="2" borderId="15" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="166" fontId="3" fillId="2" borderId="16" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="166" fontId="3" fillId="2" borderId="11" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="18" xfId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="7" xfId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="166" fontId="46" fillId="0" borderId="6" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="15" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="48" fillId="0" borderId="15" xfId="7" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="48" fillId="0" borderId="11" xfId="7" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="11" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="166" fontId="3" fillId="2" borderId="6" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="61" fillId="0" borderId="15" xfId="7" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="61" fillId="0" borderId="11" xfId="7" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="166" fontId="43" fillId="12" borderId="0" xfId="7" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="166" fontId="44" fillId="0" borderId="0" xfId="7" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="166" fontId="44" fillId="0" borderId="0" xfId="7" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="166" fontId="3" fillId="2" borderId="8" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="166" fontId="3" fillId="2" borderId="0" xfId="7" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="27">
@@ -6877,7 +6979,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X97"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="B16" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+    <sheetView showGridLines="0" topLeftCell="A49" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
       <selection activeCell="A53" sqref="A53"/>
     </sheetView>
   </sheetViews>
@@ -6894,10 +6996,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:24" s="1" customFormat="1" ht="13.8">
-      <c r="A1" s="257"/>
-      <c r="B1" s="257"/>
-      <c r="C1" s="257"/>
-      <c r="D1" s="257"/>
+      <c r="A1" s="240"/>
+      <c r="B1" s="240"/>
+      <c r="C1" s="240"/>
+      <c r="D1" s="240"/>
       <c r="E1" s="34"/>
       <c r="F1" s="34"/>
       <c r="G1" s="34"/>
@@ -6906,13 +7008,13 @@
       <c r="J1" s="34"/>
     </row>
     <row r="2" spans="1:24" s="1" customFormat="1" ht="31.5" customHeight="1">
-      <c r="A2" s="258" t="s">
+      <c r="A2" s="241" t="s">
         <v>70</v>
       </c>
-      <c r="B2" s="258"/>
-      <c r="C2" s="258"/>
-      <c r="D2" s="258"/>
-      <c r="E2" s="264"/>
+      <c r="B2" s="241"/>
+      <c r="C2" s="241"/>
+      <c r="D2" s="241"/>
+      <c r="E2" s="249"/>
       <c r="F2" s="23"/>
       <c r="G2" s="23"/>
       <c r="H2" s="23"/>
@@ -6921,9 +7023,9 @@
     </row>
     <row r="3" spans="1:24" s="1" customFormat="1" ht="31.5" customHeight="1">
       <c r="A3" s="47"/>
-      <c r="C3" s="251"/>
-      <c r="D3" s="251"/>
-      <c r="E3" s="264"/>
+      <c r="C3" s="259"/>
+      <c r="D3" s="259"/>
+      <c r="E3" s="249"/>
       <c r="F3" s="23"/>
       <c r="G3" s="23"/>
       <c r="H3" s="23"/>
@@ -6934,11 +7036,11 @@
       <c r="A4" s="139" t="s">
         <v>66</v>
       </c>
-      <c r="B4" s="252" t="s">
+      <c r="B4" s="243" t="s">
         <v>93</v>
       </c>
-      <c r="C4" s="252"/>
-      <c r="D4" s="252"/>
+      <c r="C4" s="243"/>
+      <c r="D4" s="243"/>
       <c r="E4" s="39"/>
       <c r="F4" s="39"/>
       <c r="G4" s="39"/>
@@ -6952,11 +7054,11 @@
       <c r="A5" s="139" t="s">
         <v>62</v>
       </c>
-      <c r="B5" s="253" t="s">
+      <c r="B5" s="242" t="s">
         <v>95</v>
       </c>
-      <c r="C5" s="252"/>
-      <c r="D5" s="252"/>
+      <c r="C5" s="243"/>
+      <c r="D5" s="243"/>
       <c r="E5" s="39"/>
       <c r="F5" s="39"/>
       <c r="G5" s="39"/>
@@ -6970,11 +7072,11 @@
       <c r="A6" s="139" t="s">
         <v>97</v>
       </c>
-      <c r="B6" s="253" t="s">
+      <c r="B6" s="242" t="s">
         <v>98</v>
       </c>
-      <c r="C6" s="252"/>
-      <c r="D6" s="252"/>
+      <c r="C6" s="243"/>
+      <c r="D6" s="243"/>
       <c r="E6" s="39"/>
       <c r="F6" s="39"/>
       <c r="G6" s="39"/>
@@ -6985,11 +7087,11 @@
       <c r="A7" s="139" t="s">
         <v>99</v>
       </c>
-      <c r="B7" s="252" t="s">
+      <c r="B7" s="243" t="s">
         <v>100</v>
       </c>
-      <c r="C7" s="252"/>
-      <c r="D7" s="252"/>
+      <c r="C7" s="243"/>
+      <c r="D7" s="243"/>
       <c r="E7" s="39"/>
       <c r="F7" s="39"/>
       <c r="G7" s="39"/>
@@ -7001,11 +7103,11 @@
       <c r="A8" s="139" t="s">
         <v>101</v>
       </c>
-      <c r="B8" s="259">
+      <c r="B8" s="244">
         <v>40850</v>
       </c>
-      <c r="C8" s="259"/>
-      <c r="D8" s="259"/>
+      <c r="C8" s="244"/>
+      <c r="D8" s="244"/>
       <c r="E8" s="39"/>
     </row>
     <row r="9" spans="1:24" s="43" customFormat="1">
@@ -7148,11 +7250,11 @@
       <c r="C16" s="50"/>
       <c r="D16" s="51"/>
       <c r="E16" s="56"/>
-      <c r="F16" s="263" t="s">
+      <c r="F16" s="248" t="s">
         <v>102</v>
       </c>
-      <c r="G16" s="263"/>
-      <c r="H16" s="263"/>
+      <c r="G16" s="248"/>
+      <c r="H16" s="248"/>
       <c r="I16" s="57"/>
     </row>
     <row r="17" spans="1:9" s="44" customFormat="1" ht="36.9">
@@ -7186,34 +7288,34 @@
     </row>
     <row r="18" spans="1:9" s="44" customFormat="1" ht="15.75" customHeight="1">
       <c r="A18" s="67" t="s">
-        <v>205</v>
-      </c>
-      <c r="B18" s="260" t="s">
-        <v>207</v>
-      </c>
-      <c r="C18" s="261"/>
-      <c r="D18" s="261"/>
-      <c r="E18" s="261"/>
-      <c r="F18" s="261"/>
-      <c r="G18" s="261"/>
-      <c r="H18" s="261"/>
-      <c r="I18" s="262"/>
+        <v>204</v>
+      </c>
+      <c r="B18" s="245" t="s">
+        <v>206</v>
+      </c>
+      <c r="C18" s="246"/>
+      <c r="D18" s="246"/>
+      <c r="E18" s="246"/>
+      <c r="F18" s="246"/>
+      <c r="G18" s="246"/>
+      <c r="H18" s="246"/>
+      <c r="I18" s="247"/>
     </row>
     <row r="19" spans="1:9" s="45" customFormat="1" ht="27.6" customHeight="1">
       <c r="A19" s="52">
         <v>1</v>
       </c>
       <c r="B19" s="52" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="C19" s="52" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="D19" s="53" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="E19" s="54" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="F19" s="52"/>
       <c r="G19" s="52"/>
@@ -7222,16 +7324,16 @@
     </row>
     <row r="20" spans="1:9" s="45" customFormat="1">
       <c r="A20" s="168"/>
-      <c r="B20" s="240" t="s">
-        <v>220</v>
-      </c>
-      <c r="C20" s="238"/>
-      <c r="D20" s="238"/>
-      <c r="E20" s="238"/>
-      <c r="F20" s="238"/>
-      <c r="G20" s="238"/>
-      <c r="H20" s="238"/>
-      <c r="I20" s="239"/>
+      <c r="B20" s="253" t="s">
+        <v>219</v>
+      </c>
+      <c r="C20" s="254"/>
+      <c r="D20" s="254"/>
+      <c r="E20" s="254"/>
+      <c r="F20" s="254"/>
+      <c r="G20" s="254"/>
+      <c r="H20" s="254"/>
+      <c r="I20" s="255"/>
     </row>
     <row r="21" spans="1:9" s="45" customFormat="1" ht="20.7" customHeight="1">
       <c r="A21" s="58">
@@ -7239,16 +7341,16 @@
         <v>2</v>
       </c>
       <c r="B21" s="52" t="s">
+        <v>211</v>
+      </c>
+      <c r="C21" s="52" t="s">
+        <v>284</v>
+      </c>
+      <c r="D21" s="60" t="s">
         <v>212</v>
       </c>
-      <c r="C21" s="52" t="s">
-        <v>285</v>
-      </c>
-      <c r="D21" s="60" t="s">
+      <c r="E21" s="54" t="s">
         <v>213</v>
-      </c>
-      <c r="E21" s="54" t="s">
-        <v>214</v>
       </c>
       <c r="F21" s="52"/>
       <c r="G21" s="52"/>
@@ -7261,16 +7363,16 @@
         <v>3</v>
       </c>
       <c r="B22" s="52" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="C22" s="52" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="D22" s="60" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="E22" s="54" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="F22" s="52"/>
       <c r="G22" s="52"/>
@@ -7279,16 +7381,16 @@
     </row>
     <row r="23" spans="1:9" s="45" customFormat="1">
       <c r="A23" s="168"/>
-      <c r="B23" s="240" t="s">
-        <v>221</v>
-      </c>
-      <c r="C23" s="238"/>
-      <c r="D23" s="238"/>
-      <c r="E23" s="238"/>
-      <c r="F23" s="238"/>
-      <c r="G23" s="238"/>
-      <c r="H23" s="238"/>
-      <c r="I23" s="239"/>
+      <c r="B23" s="253" t="s">
+        <v>220</v>
+      </c>
+      <c r="C23" s="254"/>
+      <c r="D23" s="254"/>
+      <c r="E23" s="254"/>
+      <c r="F23" s="254"/>
+      <c r="G23" s="254"/>
+      <c r="H23" s="254"/>
+      <c r="I23" s="255"/>
     </row>
     <row r="24" spans="1:9" s="48" customFormat="1" ht="13.8">
       <c r="A24" s="58">
@@ -7296,16 +7398,16 @@
         <v>4</v>
       </c>
       <c r="B24" s="52" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="C24" s="52" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="D24" s="54" t="s">
+        <v>217</v>
+      </c>
+      <c r="E24" s="54" t="s">
         <v>218</v>
-      </c>
-      <c r="E24" s="54" t="s">
-        <v>219</v>
       </c>
       <c r="F24" s="52"/>
       <c r="G24" s="52"/>
@@ -7318,16 +7420,16 @@
         <v>5</v>
       </c>
       <c r="B25" s="52" t="s">
+        <v>221</v>
+      </c>
+      <c r="C25" s="52" t="s">
+        <v>297</v>
+      </c>
+      <c r="D25" s="60" t="s">
+        <v>217</v>
+      </c>
+      <c r="E25" s="54" t="s">
         <v>222</v>
-      </c>
-      <c r="C25" s="52" t="s">
-        <v>298</v>
-      </c>
-      <c r="D25" s="60" t="s">
-        <v>218</v>
-      </c>
-      <c r="E25" s="54" t="s">
-        <v>223</v>
       </c>
       <c r="F25" s="52"/>
       <c r="G25" s="52"/>
@@ -7340,16 +7442,16 @@
         <v>6</v>
       </c>
       <c r="B26" s="52" t="s">
+        <v>216</v>
+      </c>
+      <c r="C26" s="52" t="s">
+        <v>286</v>
+      </c>
+      <c r="D26" s="60" t="s">
         <v>217</v>
       </c>
-      <c r="C26" s="52" t="s">
-        <v>287</v>
-      </c>
-      <c r="D26" s="60" t="s">
-        <v>218</v>
-      </c>
       <c r="E26" s="54" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="F26" s="52"/>
       <c r="G26" s="52"/>
@@ -7358,16 +7460,16 @@
     </row>
     <row r="27" spans="1:9" s="48" customFormat="1" ht="13.8">
       <c r="A27" s="168"/>
-      <c r="B27" s="241" t="s">
-        <v>226</v>
-      </c>
-      <c r="C27" s="242"/>
-      <c r="D27" s="242"/>
-      <c r="E27" s="242"/>
-      <c r="F27" s="242"/>
-      <c r="G27" s="242"/>
-      <c r="H27" s="242"/>
-      <c r="I27" s="243"/>
+      <c r="B27" s="250" t="s">
+        <v>225</v>
+      </c>
+      <c r="C27" s="251"/>
+      <c r="D27" s="251"/>
+      <c r="E27" s="251"/>
+      <c r="F27" s="251"/>
+      <c r="G27" s="251"/>
+      <c r="H27" s="251"/>
+      <c r="I27" s="252"/>
     </row>
     <row r="28" spans="1:9" s="48" customFormat="1" ht="13.8">
       <c r="A28" s="58">
@@ -7375,16 +7477,16 @@
         <v>7</v>
       </c>
       <c r="B28" s="52" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="C28" s="52" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="D28" s="60" t="s">
+        <v>226</v>
+      </c>
+      <c r="E28" s="54" t="s">
         <v>227</v>
-      </c>
-      <c r="E28" s="54" t="s">
-        <v>228</v>
       </c>
       <c r="F28" s="52"/>
       <c r="G28" s="52"/>
@@ -7397,16 +7499,16 @@
         <v>8</v>
       </c>
       <c r="B29" s="62" t="s">
+        <v>228</v>
+      </c>
+      <c r="C29" s="62" t="s">
+        <v>288</v>
+      </c>
+      <c r="D29" s="62" t="s">
+        <v>226</v>
+      </c>
+      <c r="E29" s="62" t="s">
         <v>229</v>
-      </c>
-      <c r="C29" s="62" t="s">
-        <v>289</v>
-      </c>
-      <c r="D29" s="62" t="s">
-        <v>227</v>
-      </c>
-      <c r="E29" s="62" t="s">
-        <v>230</v>
       </c>
       <c r="F29" s="62"/>
       <c r="G29" s="62"/>
@@ -7419,16 +7521,16 @@
         <v>9</v>
       </c>
       <c r="B30" s="62" t="s">
+        <v>230</v>
+      </c>
+      <c r="C30" s="62" t="s">
+        <v>289</v>
+      </c>
+      <c r="D30" s="62" t="s">
+        <v>226</v>
+      </c>
+      <c r="E30" s="62" t="s">
         <v>231</v>
-      </c>
-      <c r="C30" s="62" t="s">
-        <v>290</v>
-      </c>
-      <c r="D30" s="62" t="s">
-        <v>227</v>
-      </c>
-      <c r="E30" s="62" t="s">
-        <v>232</v>
       </c>
       <c r="F30" s="62"/>
       <c r="G30" s="62"/>
@@ -7437,16 +7539,16 @@
     </row>
     <row r="31" spans="1:9" s="48" customFormat="1" ht="13.8">
       <c r="A31" s="169"/>
-      <c r="B31" s="261" t="s">
-        <v>206</v>
-      </c>
-      <c r="C31" s="261"/>
-      <c r="D31" s="261"/>
-      <c r="E31" s="261"/>
-      <c r="F31" s="261"/>
-      <c r="G31" s="261"/>
-      <c r="H31" s="261"/>
-      <c r="I31" s="262"/>
+      <c r="B31" s="246" t="s">
+        <v>205</v>
+      </c>
+      <c r="C31" s="246"/>
+      <c r="D31" s="246"/>
+      <c r="E31" s="246"/>
+      <c r="F31" s="246"/>
+      <c r="G31" s="246"/>
+      <c r="H31" s="246"/>
+      <c r="I31" s="247"/>
     </row>
     <row r="32" spans="1:9" s="48" customFormat="1" ht="13.8">
       <c r="A32" s="58">
@@ -7454,16 +7556,16 @@
         <v>10</v>
       </c>
       <c r="B32" s="52" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="C32" s="52" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="D32" s="53" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="E32" s="54" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="F32" s="52"/>
       <c r="G32" s="52"/>
@@ -7472,16 +7574,16 @@
     </row>
     <row r="33" spans="1:9" s="48" customFormat="1" ht="13.8">
       <c r="A33" s="168"/>
-      <c r="B33" s="240" t="s">
-        <v>220</v>
-      </c>
-      <c r="C33" s="238"/>
-      <c r="D33" s="238"/>
-      <c r="E33" s="238"/>
-      <c r="F33" s="238"/>
-      <c r="G33" s="238"/>
-      <c r="H33" s="238"/>
-      <c r="I33" s="239"/>
+      <c r="B33" s="253" t="s">
+        <v>219</v>
+      </c>
+      <c r="C33" s="254"/>
+      <c r="D33" s="254"/>
+      <c r="E33" s="254"/>
+      <c r="F33" s="254"/>
+      <c r="G33" s="254"/>
+      <c r="H33" s="254"/>
+      <c r="I33" s="255"/>
     </row>
     <row r="34" spans="1:9" s="48" customFormat="1" ht="17.7" customHeight="1">
       <c r="A34" s="58">
@@ -7489,16 +7591,16 @@
         <v>11</v>
       </c>
       <c r="B34" s="52" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="C34" s="52" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="D34" s="60" t="s">
+        <v>212</v>
+      </c>
+      <c r="E34" s="54" t="s">
         <v>213</v>
-      </c>
-      <c r="E34" s="54" t="s">
-        <v>214</v>
       </c>
       <c r="F34" s="52"/>
       <c r="G34" s="52"/>
@@ -7511,16 +7613,16 @@
         <v>12</v>
       </c>
       <c r="B35" s="52" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="C35" s="52" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="D35" s="60" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="E35" s="54" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="F35" s="52"/>
       <c r="G35" s="52"/>
@@ -7529,16 +7631,16 @@
     </row>
     <row r="36" spans="1:9" s="48" customFormat="1" ht="13.8">
       <c r="A36" s="168"/>
-      <c r="B36" s="240" t="s">
-        <v>221</v>
-      </c>
-      <c r="C36" s="238"/>
-      <c r="D36" s="238"/>
-      <c r="E36" s="238"/>
-      <c r="F36" s="238"/>
-      <c r="G36" s="238"/>
-      <c r="H36" s="238"/>
-      <c r="I36" s="239"/>
+      <c r="B36" s="253" t="s">
+        <v>220</v>
+      </c>
+      <c r="C36" s="254"/>
+      <c r="D36" s="254"/>
+      <c r="E36" s="254"/>
+      <c r="F36" s="254"/>
+      <c r="G36" s="254"/>
+      <c r="H36" s="254"/>
+      <c r="I36" s="255"/>
     </row>
     <row r="37" spans="1:9" s="48" customFormat="1" ht="13.8">
       <c r="A37" s="58">
@@ -7546,16 +7648,16 @@
         <v>13</v>
       </c>
       <c r="B37" s="52" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="C37" s="52" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="D37" s="54" t="s">
+        <v>217</v>
+      </c>
+      <c r="E37" s="54" t="s">
         <v>218</v>
-      </c>
-      <c r="E37" s="54" t="s">
-        <v>219</v>
       </c>
       <c r="F37" s="52"/>
       <c r="G37" s="52"/>
@@ -7568,16 +7670,16 @@
         <v>14</v>
       </c>
       <c r="B38" s="52" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="C38" s="52" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="D38" s="60" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="E38" s="54" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="F38" s="52"/>
       <c r="G38" s="52"/>
@@ -7590,16 +7692,16 @@
         <v>15</v>
       </c>
       <c r="B39" s="52" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="C39" s="52" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="D39" s="60" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="E39" s="54" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="F39" s="52"/>
       <c r="G39" s="52"/>
@@ -7608,16 +7710,16 @@
     </row>
     <row r="40" spans="1:9" s="48" customFormat="1" ht="13.8">
       <c r="A40" s="168"/>
-      <c r="B40" s="241" t="s">
-        <v>226</v>
-      </c>
-      <c r="C40" s="242"/>
-      <c r="D40" s="242"/>
-      <c r="E40" s="242"/>
-      <c r="F40" s="242"/>
-      <c r="G40" s="242"/>
-      <c r="H40" s="242"/>
-      <c r="I40" s="243"/>
+      <c r="B40" s="250" t="s">
+        <v>225</v>
+      </c>
+      <c r="C40" s="251"/>
+      <c r="D40" s="251"/>
+      <c r="E40" s="251"/>
+      <c r="F40" s="251"/>
+      <c r="G40" s="251"/>
+      <c r="H40" s="251"/>
+      <c r="I40" s="252"/>
     </row>
     <row r="41" spans="1:9" s="49" customFormat="1" ht="13.8">
       <c r="A41" s="58">
@@ -7625,16 +7727,16 @@
         <v>16</v>
       </c>
       <c r="B41" s="52" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="C41" s="52" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="D41" s="60" t="s">
+        <v>226</v>
+      </c>
+      <c r="E41" s="54" t="s">
         <v>227</v>
-      </c>
-      <c r="E41" s="54" t="s">
-        <v>228</v>
       </c>
       <c r="F41" s="52"/>
       <c r="G41" s="52"/>
@@ -7647,16 +7749,16 @@
         <v>17</v>
       </c>
       <c r="B42" s="62" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="C42" s="62" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="D42" s="62" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="E42" s="62" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="F42" s="62"/>
       <c r="G42" s="62"/>
@@ -7669,16 +7771,16 @@
         <v>18</v>
       </c>
       <c r="B43" s="62" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="C43" s="62" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="D43" s="62" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="E43" s="62" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="F43" s="62"/>
       <c r="G43" s="62"/>
@@ -7687,16 +7789,16 @@
     </row>
     <row r="44" spans="1:9" s="48" customFormat="1" ht="13.8">
       <c r="A44" s="168"/>
-      <c r="B44" s="244" t="s">
-        <v>241</v>
-      </c>
-      <c r="C44" s="245"/>
-      <c r="D44" s="245"/>
-      <c r="E44" s="245"/>
-      <c r="F44" s="245"/>
-      <c r="G44" s="245"/>
-      <c r="H44" s="245"/>
-      <c r="I44" s="246"/>
+      <c r="B44" s="261" t="s">
+        <v>240</v>
+      </c>
+      <c r="C44" s="262"/>
+      <c r="D44" s="262"/>
+      <c r="E44" s="262"/>
+      <c r="F44" s="262"/>
+      <c r="G44" s="262"/>
+      <c r="H44" s="262"/>
+      <c r="I44" s="263"/>
     </row>
     <row r="45" spans="1:9" s="48" customFormat="1" ht="13.8">
       <c r="A45" s="58">
@@ -7704,16 +7806,16 @@
         <v>19</v>
       </c>
       <c r="B45" s="62" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="C45" s="62" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="D45" s="62" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="E45" s="62" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="F45" s="62"/>
       <c r="G45" s="62"/>
@@ -7726,16 +7828,16 @@
         <v>20</v>
       </c>
       <c r="B46" s="52" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="C46" s="62" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="D46" s="60" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="E46" s="54" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="F46" s="52"/>
       <c r="G46" s="52"/>
@@ -7748,16 +7850,16 @@
         <v>21</v>
       </c>
       <c r="B47" s="52" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="C47" s="62" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="D47" s="60" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="E47" s="54" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="F47" s="52"/>
       <c r="G47" s="52"/>
@@ -7770,16 +7872,16 @@
         <v>22</v>
       </c>
       <c r="B48" s="52" t="s">
+        <v>244</v>
+      </c>
+      <c r="C48" s="62" t="s">
+        <v>303</v>
+      </c>
+      <c r="D48" s="60" t="s">
         <v>245</v>
       </c>
-      <c r="C48" s="62" t="s">
-        <v>304</v>
-      </c>
-      <c r="D48" s="60" t="s">
-        <v>246</v>
-      </c>
       <c r="E48" s="54" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="F48" s="52"/>
       <c r="G48" s="52"/>
@@ -7788,42 +7890,42 @@
     </row>
     <row r="49" spans="1:9" s="48" customFormat="1" ht="13.8">
       <c r="A49" s="167"/>
-      <c r="B49" s="247" t="s">
-        <v>254</v>
-      </c>
-      <c r="C49" s="248"/>
-      <c r="D49" s="248"/>
-      <c r="E49" s="248"/>
-      <c r="F49" s="248"/>
-      <c r="G49" s="248"/>
-      <c r="H49" s="248"/>
-      <c r="I49" s="248"/>
+      <c r="B49" s="264" t="s">
+        <v>253</v>
+      </c>
+      <c r="C49" s="265"/>
+      <c r="D49" s="265"/>
+      <c r="E49" s="265"/>
+      <c r="F49" s="265"/>
+      <c r="G49" s="265"/>
+      <c r="H49" s="265"/>
+      <c r="I49" s="265"/>
     </row>
     <row r="50" spans="1:9" s="48" customFormat="1" ht="13.8">
       <c r="A50" s="180"/>
-      <c r="B50" s="249" t="s">
-        <v>255</v>
-      </c>
-      <c r="C50" s="250"/>
-      <c r="D50" s="250"/>
-      <c r="E50" s="250"/>
-      <c r="F50" s="250"/>
-      <c r="G50" s="250"/>
-      <c r="H50" s="250"/>
-      <c r="I50" s="250"/>
+      <c r="B50" s="266" t="s">
+        <v>254</v>
+      </c>
+      <c r="C50" s="267"/>
+      <c r="D50" s="267"/>
+      <c r="E50" s="267"/>
+      <c r="F50" s="267"/>
+      <c r="G50" s="267"/>
+      <c r="H50" s="267"/>
+      <c r="I50" s="267"/>
     </row>
     <row r="51" spans="1:9" s="48" customFormat="1" ht="13.8">
       <c r="A51" s="58">
         <v>23</v>
       </c>
       <c r="B51" s="52" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="C51" s="52" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="D51" s="60" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="E51" s="54"/>
       <c r="F51" s="52"/>
@@ -7837,13 +7939,13 @@
         <v>24</v>
       </c>
       <c r="B52" s="182" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="C52" s="182" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="D52" s="183" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="E52" s="181"/>
       <c r="F52" s="181"/>
@@ -7852,18 +7954,17 @@
       <c r="I52" s="181"/>
     </row>
     <row r="53" spans="1:9" s="48" customFormat="1" ht="13.8">
-      <c r="A53" s="58">
-        <f t="shared" ca="1" si="1"/>
-        <v>25</v>
+      <c r="A53" s="58" t="s">
+        <v>597</v>
       </c>
       <c r="B53" s="52" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="C53" s="52" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="D53" s="60" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="E53" s="54"/>
       <c r="F53" s="52"/>
@@ -7872,18 +7973,18 @@
       <c r="I53" s="61"/>
     </row>
     <row r="54" spans="1:9" s="48" customFormat="1" ht="13.8">
-      <c r="A54" s="58">
+      <c r="A54" s="58" t="e">
         <f t="shared" ca="1" si="1"/>
-        <v>26</v>
+        <v>#VALUE!</v>
       </c>
       <c r="B54" s="52" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="C54" s="52" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="D54" s="60" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="E54" s="54"/>
       <c r="F54" s="52"/>
@@ -7892,18 +7993,18 @@
       <c r="I54" s="61"/>
     </row>
     <row r="55" spans="1:9" s="48" customFormat="1" ht="13.8">
-      <c r="A55" s="58">
+      <c r="A55" s="58" t="e">
         <f t="shared" ca="1" si="1"/>
-        <v>27</v>
+        <v>#VALUE!</v>
       </c>
       <c r="B55" s="52" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="C55" s="52" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="D55" s="60" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="E55" s="54"/>
       <c r="F55" s="52"/>
@@ -7912,18 +8013,18 @@
       <c r="I55" s="61"/>
     </row>
     <row r="56" spans="1:9" s="48" customFormat="1" ht="24.6">
-      <c r="A56" s="58">
+      <c r="A56" s="58" t="e">
         <f t="shared" ca="1" si="1"/>
-        <v>28</v>
+        <v>#VALUE!</v>
       </c>
       <c r="B56" s="52" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="C56" s="52" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="D56" s="60" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="E56" s="54"/>
       <c r="F56" s="52"/>
@@ -7933,30 +8034,30 @@
     </row>
     <row r="57" spans="1:9" s="48" customFormat="1" ht="13.8">
       <c r="A57" s="180"/>
-      <c r="B57" s="237" t="s">
-        <v>261</v>
-      </c>
-      <c r="C57" s="238"/>
-      <c r="D57" s="238"/>
-      <c r="E57" s="238"/>
-      <c r="F57" s="238"/>
-      <c r="G57" s="238"/>
-      <c r="H57" s="238"/>
-      <c r="I57" s="239"/>
+      <c r="B57" s="260" t="s">
+        <v>260</v>
+      </c>
+      <c r="C57" s="254"/>
+      <c r="D57" s="254"/>
+      <c r="E57" s="254"/>
+      <c r="F57" s="254"/>
+      <c r="G57" s="254"/>
+      <c r="H57" s="254"/>
+      <c r="I57" s="255"/>
     </row>
     <row r="58" spans="1:9" s="48" customFormat="1" ht="13.8">
-      <c r="A58" s="58">
+      <c r="A58" s="58" t="e">
         <f t="shared" ca="1" si="1"/>
-        <v>29</v>
+        <v>#VALUE!</v>
       </c>
       <c r="B58" s="52" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="C58" s="52" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="D58" s="60" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="E58" s="54"/>
       <c r="F58" s="52"/>
@@ -7965,18 +8066,18 @@
       <c r="I58" s="61"/>
     </row>
     <row r="59" spans="1:9" s="48" customFormat="1" ht="13.8">
-      <c r="A59" s="58">
+      <c r="A59" s="58" t="e">
         <f t="shared" ca="1" si="1"/>
-        <v>30</v>
+        <v>#VALUE!</v>
       </c>
       <c r="B59" s="52" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="C59" s="52" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="D59" s="60" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="E59" s="54"/>
       <c r="F59" s="52"/>
@@ -7985,18 +8086,18 @@
       <c r="I59" s="61"/>
     </row>
     <row r="60" spans="1:9" s="48" customFormat="1" ht="13.8">
-      <c r="A60" s="58">
+      <c r="A60" s="58" t="e">
         <f ca="1">IF(OFFSET(A60,-1,0) ="",OFFSET(A60,-2,0)+1,OFFSET(A60,-1,0)+1 )</f>
-        <v>31</v>
+        <v>#VALUE!</v>
       </c>
       <c r="B60" s="52" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="C60" s="52" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="D60" s="60" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="E60" s="54"/>
       <c r="F60" s="52"/>
@@ -8005,18 +8106,18 @@
       <c r="I60" s="61"/>
     </row>
     <row r="61" spans="1:9" s="48" customFormat="1" ht="13.8">
-      <c r="A61" s="58">
+      <c r="A61" s="58" t="e">
         <f ca="1">IF(OFFSET(A61,-1,0) ="",OFFSET(A61,-2,0)+1,OFFSET(A61,-1,0)+1 )</f>
-        <v>32</v>
+        <v>#VALUE!</v>
       </c>
       <c r="B61" s="52" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="C61" s="52" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="D61" s="60" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="E61" s="54"/>
       <c r="F61" s="52"/>
@@ -8025,18 +8126,18 @@
       <c r="I61" s="61"/>
     </row>
     <row r="62" spans="1:9" s="48" customFormat="1" ht="13.8">
-      <c r="A62" s="58">
+      <c r="A62" s="58" t="e">
         <f t="shared" ref="A62:A67" ca="1" si="2">IF(OFFSET(A62,-1,0) ="",OFFSET(A62,-2,0)+1,OFFSET(A62,-1,0)+1 )</f>
-        <v>33</v>
+        <v>#VALUE!</v>
       </c>
       <c r="B62" s="52" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="C62" s="52" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="D62" s="53" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="E62" s="54"/>
       <c r="F62" s="52"/>
@@ -8045,18 +8146,18 @@
       <c r="I62" s="62"/>
     </row>
     <row r="63" spans="1:9" s="48" customFormat="1" ht="13.8">
-      <c r="A63" s="58">
+      <c r="A63" s="58" t="e">
         <f t="shared" ca="1" si="2"/>
-        <v>34</v>
+        <v>#VALUE!</v>
       </c>
       <c r="B63" s="52" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="C63" s="52" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="D63" s="54" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="E63" s="60"/>
       <c r="F63" s="52"/>
@@ -8066,30 +8167,30 @@
     </row>
     <row r="64" spans="1:9" s="48" customFormat="1" ht="13.8">
       <c r="A64" s="168"/>
-      <c r="B64" s="265" t="s">
-        <v>263</v>
-      </c>
-      <c r="C64" s="266"/>
-      <c r="D64" s="266"/>
-      <c r="E64" s="266"/>
-      <c r="F64" s="266"/>
-      <c r="G64" s="266"/>
-      <c r="H64" s="266"/>
-      <c r="I64" s="267"/>
+      <c r="B64" s="256" t="s">
+        <v>262</v>
+      </c>
+      <c r="C64" s="257"/>
+      <c r="D64" s="257"/>
+      <c r="E64" s="257"/>
+      <c r="F64" s="257"/>
+      <c r="G64" s="257"/>
+      <c r="H64" s="257"/>
+      <c r="I64" s="258"/>
     </row>
     <row r="65" spans="1:9" s="48" customFormat="1" ht="24.6">
-      <c r="A65" s="58">
+      <c r="A65" s="58" t="e">
         <f t="shared" ca="1" si="2"/>
-        <v>35</v>
+        <v>#VALUE!</v>
       </c>
       <c r="B65" s="170" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="C65" s="170" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="D65" s="53" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="E65" s="53"/>
       <c r="F65" s="170"/>
@@ -8098,18 +8199,18 @@
       <c r="I65" s="63"/>
     </row>
     <row r="66" spans="1:9" s="48" customFormat="1" ht="24.6">
-      <c r="A66" s="58">
+      <c r="A66" s="58" t="e">
         <f t="shared" ca="1" si="2"/>
-        <v>36</v>
+        <v>#VALUE!</v>
       </c>
       <c r="B66" s="170" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="C66" s="170" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="D66" s="59" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="E66" s="53"/>
       <c r="F66" s="170"/>
@@ -8118,16 +8219,16 @@
       <c r="I66" s="63"/>
     </row>
     <row r="67" spans="1:9" s="48" customFormat="1" ht="24.6">
-      <c r="A67" s="58">
+      <c r="A67" s="58" t="e">
         <f t="shared" ca="1" si="2"/>
-        <v>37</v>
+        <v>#VALUE!</v>
       </c>
       <c r="B67" s="170"/>
       <c r="C67" s="170" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="D67" s="53" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="E67" s="53"/>
       <c r="F67" s="170"/>
@@ -8192,9 +8293,9 @@
     </row>
     <row r="73" spans="1:9" s="48" customFormat="1" ht="13.8">
       <c r="A73" s="171"/>
-      <c r="B73" s="254"/>
-      <c r="C73" s="255"/>
-      <c r="D73" s="256"/>
+      <c r="B73" s="237"/>
+      <c r="C73" s="238"/>
+      <c r="D73" s="239"/>
       <c r="E73" s="172"/>
       <c r="F73" s="173"/>
       <c r="G73" s="173"/>
@@ -8236,9 +8337,9 @@
     </row>
     <row r="77" spans="1:9" s="48" customFormat="1" ht="13.8">
       <c r="A77" s="171"/>
-      <c r="B77" s="254"/>
-      <c r="C77" s="255"/>
-      <c r="D77" s="256"/>
+      <c r="B77" s="237"/>
+      <c r="C77" s="238"/>
+      <c r="D77" s="239"/>
       <c r="E77" s="172"/>
       <c r="F77" s="173"/>
       <c r="G77" s="173"/>
@@ -8280,9 +8381,9 @@
     </row>
     <row r="81" spans="1:9" s="48" customFormat="1" ht="14.25" customHeight="1">
       <c r="A81" s="171"/>
-      <c r="B81" s="254"/>
-      <c r="C81" s="255"/>
-      <c r="D81" s="256"/>
+      <c r="B81" s="237"/>
+      <c r="C81" s="238"/>
+      <c r="D81" s="239"/>
       <c r="E81" s="172"/>
       <c r="F81" s="173"/>
       <c r="G81" s="173"/>
@@ -8313,9 +8414,9 @@
     </row>
     <row r="84" spans="1:9" s="48" customFormat="1" ht="14.25" customHeight="1">
       <c r="A84" s="171"/>
-      <c r="B84" s="254"/>
-      <c r="C84" s="255"/>
-      <c r="D84" s="256"/>
+      <c r="B84" s="237"/>
+      <c r="C84" s="238"/>
+      <c r="D84" s="239"/>
       <c r="E84" s="172"/>
       <c r="F84" s="173"/>
       <c r="G84" s="173"/>
@@ -8466,6 +8567,17 @@
     </row>
   </sheetData>
   <mergeCells count="27">
+    <mergeCell ref="B57:I57"/>
+    <mergeCell ref="B36:I36"/>
+    <mergeCell ref="B40:I40"/>
+    <mergeCell ref="B44:I44"/>
+    <mergeCell ref="B49:I49"/>
+    <mergeCell ref="B50:I50"/>
+    <mergeCell ref="B20:I20"/>
+    <mergeCell ref="B23:I23"/>
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="B4:D4"/>
+    <mergeCell ref="B5:D5"/>
     <mergeCell ref="B77:D77"/>
     <mergeCell ref="B81:D81"/>
     <mergeCell ref="B84:D84"/>
@@ -8482,17 +8594,6 @@
     <mergeCell ref="B31:I31"/>
     <mergeCell ref="B33:I33"/>
     <mergeCell ref="B64:I64"/>
-    <mergeCell ref="B20:I20"/>
-    <mergeCell ref="B23:I23"/>
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="B4:D4"/>
-    <mergeCell ref="B5:D5"/>
-    <mergeCell ref="B57:I57"/>
-    <mergeCell ref="B36:I36"/>
-    <mergeCell ref="B40:I40"/>
-    <mergeCell ref="B44:I44"/>
-    <mergeCell ref="B49:I49"/>
-    <mergeCell ref="B50:I50"/>
   </mergeCells>
   <dataValidations count="3">
     <dataValidation showDropDown="1" showErrorMessage="1" sqref="F16:H17"/>
@@ -8514,8 +8615,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X181"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A97" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="D116" sqref="D116"/>
+    <sheetView showGridLines="0" topLeftCell="A16" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="A22" sqref="A22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.15625" defaultRowHeight="12.3"/>
@@ -8531,10 +8632,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:24" s="1" customFormat="1" ht="13.8">
-      <c r="A1" s="257"/>
-      <c r="B1" s="257"/>
-      <c r="C1" s="257"/>
-      <c r="D1" s="257"/>
+      <c r="A1" s="240"/>
+      <c r="B1" s="240"/>
+      <c r="C1" s="240"/>
+      <c r="D1" s="240"/>
       <c r="E1" s="34"/>
       <c r="F1" s="34"/>
       <c r="G1" s="34"/>
@@ -8543,13 +8644,13 @@
       <c r="J1" s="34"/>
     </row>
     <row r="2" spans="1:24" s="1" customFormat="1" ht="31.5" customHeight="1">
-      <c r="A2" s="258" t="s">
+      <c r="A2" s="241" t="s">
         <v>70</v>
       </c>
-      <c r="B2" s="258"/>
-      <c r="C2" s="258"/>
-      <c r="D2" s="258"/>
-      <c r="E2" s="264"/>
+      <c r="B2" s="241"/>
+      <c r="C2" s="241"/>
+      <c r="D2" s="241"/>
+      <c r="E2" s="249"/>
       <c r="F2" s="23"/>
       <c r="G2" s="23"/>
       <c r="H2" s="23"/>
@@ -8558,9 +8659,9 @@
     </row>
     <row r="3" spans="1:24" s="1" customFormat="1" ht="31.5" customHeight="1">
       <c r="A3" s="47"/>
-      <c r="C3" s="286"/>
-      <c r="D3" s="286"/>
-      <c r="E3" s="264"/>
+      <c r="C3" s="274"/>
+      <c r="D3" s="274"/>
+      <c r="E3" s="249"/>
       <c r="F3" s="23"/>
       <c r="G3" s="23"/>
       <c r="H3" s="23"/>
@@ -8571,11 +8672,11 @@
       <c r="A4" s="139" t="s">
         <v>67</v>
       </c>
-      <c r="B4" s="252" t="s">
-        <v>117</v>
-      </c>
-      <c r="C4" s="252"/>
-      <c r="D4" s="252"/>
+      <c r="B4" s="243" t="s">
+        <v>116</v>
+      </c>
+      <c r="C4" s="243"/>
+      <c r="D4" s="243"/>
       <c r="E4" s="39"/>
       <c r="F4" s="39"/>
       <c r="G4" s="39"/>
@@ -8589,11 +8690,11 @@
       <c r="A5" s="139" t="s">
         <v>62</v>
       </c>
-      <c r="B5" s="253" t="s">
+      <c r="B5" s="242" t="s">
         <v>95</v>
       </c>
-      <c r="C5" s="252"/>
-      <c r="D5" s="252"/>
+      <c r="C5" s="243"/>
+      <c r="D5" s="243"/>
       <c r="E5" s="39"/>
       <c r="F5" s="39"/>
       <c r="G5" s="39"/>
@@ -8607,11 +8708,11 @@
       <c r="A6" s="139" t="s">
         <v>97</v>
       </c>
-      <c r="B6" s="253" t="s">
+      <c r="B6" s="242" t="s">
         <v>98</v>
       </c>
-      <c r="C6" s="252"/>
-      <c r="D6" s="252"/>
+      <c r="C6" s="243"/>
+      <c r="D6" s="243"/>
       <c r="E6" s="39"/>
       <c r="F6" s="39"/>
       <c r="G6" s="39"/>
@@ -8622,11 +8723,11 @@
       <c r="A7" s="139" t="s">
         <v>99</v>
       </c>
-      <c r="B7" s="252" t="s">
+      <c r="B7" s="243" t="s">
         <v>100</v>
       </c>
-      <c r="C7" s="252"/>
-      <c r="D7" s="252"/>
+      <c r="C7" s="243"/>
+      <c r="D7" s="243"/>
       <c r="E7" s="39"/>
       <c r="F7" s="39"/>
       <c r="G7" s="39"/>
@@ -8638,11 +8739,11 @@
       <c r="A8" s="139" t="s">
         <v>101</v>
       </c>
-      <c r="B8" s="259">
+      <c r="B8" s="244">
         <v>40850</v>
       </c>
-      <c r="C8" s="259"/>
-      <c r="D8" s="259"/>
+      <c r="C8" s="244"/>
+      <c r="D8" s="244"/>
       <c r="E8" s="39"/>
     </row>
     <row r="9" spans="1:24" s="43" customFormat="1">
@@ -8785,11 +8886,11 @@
       <c r="C16" s="50"/>
       <c r="D16" s="51"/>
       <c r="E16" s="65"/>
-      <c r="F16" s="287" t="s">
+      <c r="F16" s="275" t="s">
         <v>102</v>
       </c>
-      <c r="G16" s="288"/>
-      <c r="H16" s="289"/>
+      <c r="G16" s="276"/>
+      <c r="H16" s="277"/>
       <c r="I16" s="65"/>
     </row>
     <row r="17" spans="1:9" s="44" customFormat="1" ht="36.9">
@@ -8823,42 +8924,42 @@
     </row>
     <row r="18" spans="1:9" s="44" customFormat="1" ht="15.75" customHeight="1">
       <c r="A18" s="67"/>
-      <c r="B18" s="260" t="s">
-        <v>314</v>
-      </c>
-      <c r="C18" s="261"/>
-      <c r="D18" s="261"/>
-      <c r="E18" s="261"/>
-      <c r="F18" s="261"/>
-      <c r="G18" s="261"/>
-      <c r="H18" s="261"/>
-      <c r="I18" s="262"/>
+      <c r="B18" s="245" t="s">
+        <v>313</v>
+      </c>
+      <c r="C18" s="246"/>
+      <c r="D18" s="246"/>
+      <c r="E18" s="246"/>
+      <c r="F18" s="246"/>
+      <c r="G18" s="246"/>
+      <c r="H18" s="246"/>
+      <c r="I18" s="247"/>
     </row>
     <row r="19" spans="1:9" s="44" customFormat="1" ht="15.75" customHeight="1">
       <c r="A19" s="200"/>
-      <c r="B19" s="268" t="s">
-        <v>416</v>
-      </c>
-      <c r="C19" s="269"/>
-      <c r="D19" s="269"/>
-      <c r="E19" s="269"/>
-      <c r="F19" s="269"/>
-      <c r="G19" s="269"/>
-      <c r="H19" s="269"/>
-      <c r="I19" s="270"/>
+      <c r="B19" s="278" t="s">
+        <v>415</v>
+      </c>
+      <c r="C19" s="279"/>
+      <c r="D19" s="279"/>
+      <c r="E19" s="279"/>
+      <c r="F19" s="279"/>
+      <c r="G19" s="279"/>
+      <c r="H19" s="279"/>
+      <c r="I19" s="280"/>
     </row>
     <row r="20" spans="1:9" s="44" customFormat="1" ht="43.8" customHeight="1">
       <c r="A20" s="52">
         <v>1</v>
       </c>
       <c r="B20" s="52" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="C20" s="209" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="D20" s="53" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="E20" s="54"/>
       <c r="F20" s="52"/>
@@ -8872,13 +8973,13 @@
         <v>2</v>
       </c>
       <c r="B21" s="52" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="C21" s="209" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="D21" s="53" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="E21" s="202"/>
       <c r="F21" s="201"/>
@@ -8892,13 +8993,13 @@
         <v>3</v>
       </c>
       <c r="B22" s="52" t="s">
+        <v>418</v>
+      </c>
+      <c r="C22" s="209" t="s">
+        <v>507</v>
+      </c>
+      <c r="D22" s="53" t="s">
         <v>419</v>
-      </c>
-      <c r="C22" s="209" t="s">
-        <v>508</v>
-      </c>
-      <c r="D22" s="53" t="s">
-        <v>420</v>
       </c>
       <c r="E22" s="202"/>
       <c r="F22" s="201"/>
@@ -8908,16 +9009,16 @@
     </row>
     <row r="23" spans="1:9" s="44" customFormat="1" ht="15.75" customHeight="1">
       <c r="A23" s="204"/>
-      <c r="B23" s="271" t="s">
-        <v>315</v>
-      </c>
-      <c r="C23" s="272"/>
-      <c r="D23" s="272"/>
-      <c r="E23" s="272"/>
-      <c r="F23" s="272"/>
-      <c r="G23" s="272"/>
-      <c r="H23" s="272"/>
-      <c r="I23" s="273"/>
+      <c r="B23" s="281" t="s">
+        <v>314</v>
+      </c>
+      <c r="C23" s="282"/>
+      <c r="D23" s="282"/>
+      <c r="E23" s="282"/>
+      <c r="F23" s="282"/>
+      <c r="G23" s="282"/>
+      <c r="H23" s="282"/>
+      <c r="I23" s="283"/>
     </row>
     <row r="24" spans="1:9" s="45" customFormat="1" ht="36.9">
       <c r="A24" s="52">
@@ -8925,13 +9026,13 @@
         <v>4</v>
       </c>
       <c r="B24" s="52" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="C24" s="209" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="D24" s="205" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="E24" s="54"/>
       <c r="F24" s="52"/>
@@ -8945,13 +9046,13 @@
         <v>5</v>
       </c>
       <c r="B25" s="52" t="s">
+        <v>508</v>
+      </c>
+      <c r="C25" s="209" t="s">
         <v>509</v>
       </c>
-      <c r="C25" s="209" t="s">
-        <v>510</v>
-      </c>
       <c r="D25" s="205" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="E25" s="54"/>
       <c r="F25" s="52"/>
@@ -8965,13 +9066,13 @@
         <v>6</v>
       </c>
       <c r="B26" s="52" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="C26" s="209" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="D26" s="60" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="E26" s="54"/>
       <c r="F26" s="52"/>
@@ -8985,13 +9086,13 @@
         <v>7</v>
       </c>
       <c r="B27" s="52" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="C27" s="209" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="D27" s="205" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="E27" s="54"/>
       <c r="F27" s="52"/>
@@ -9005,13 +9106,13 @@
         <v>8</v>
       </c>
       <c r="B28" s="52" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="C28" s="209" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="D28" s="54" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="E28" s="54"/>
       <c r="F28" s="52"/>
@@ -9025,13 +9126,13 @@
         <v>9</v>
       </c>
       <c r="B29" s="52" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="C29" s="209" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="D29" s="54" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="E29" s="54"/>
       <c r="F29" s="52"/>
@@ -9045,13 +9146,13 @@
         <v>10</v>
       </c>
       <c r="B30" s="52" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="C30" s="209" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="D30" s="54" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="E30" s="54"/>
       <c r="F30" s="52"/>
@@ -9065,13 +9166,13 @@
         <v>11</v>
       </c>
       <c r="B31" s="52" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="C31" s="209" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="D31" s="54" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="E31" s="54"/>
       <c r="F31" s="52"/>
@@ -9085,13 +9186,13 @@
         <v>12</v>
       </c>
       <c r="B32" s="52" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="C32" s="209" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="D32" s="54" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="E32" s="54"/>
       <c r="F32" s="52"/>
@@ -9105,13 +9206,13 @@
         <v>13</v>
       </c>
       <c r="B33" s="52" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="C33" s="209" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="D33" s="54" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="E33" s="54"/>
       <c r="F33" s="52"/>
@@ -9125,13 +9226,13 @@
         <v>14</v>
       </c>
       <c r="B34" s="52" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="C34" s="209" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="D34" s="54" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="E34" s="54"/>
       <c r="F34" s="52"/>
@@ -9145,13 +9246,13 @@
         <v>15</v>
       </c>
       <c r="B35" s="52" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="C35" s="209" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="D35" s="54" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="E35" s="54"/>
       <c r="F35" s="52"/>
@@ -9165,13 +9266,13 @@
         <v>16</v>
       </c>
       <c r="B36" s="52" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="C36" s="209" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="D36" s="54" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="E36" s="54"/>
       <c r="F36" s="52"/>
@@ -9181,16 +9282,16 @@
     </row>
     <row r="37" spans="1:9" s="48" customFormat="1" ht="13.8">
       <c r="A37" s="184"/>
-      <c r="B37" s="274" t="s">
-        <v>316</v>
-      </c>
-      <c r="C37" s="275"/>
-      <c r="D37" s="275"/>
-      <c r="E37" s="275"/>
-      <c r="F37" s="275"/>
-      <c r="G37" s="275"/>
-      <c r="H37" s="275"/>
-      <c r="I37" s="276"/>
+      <c r="B37" s="284" t="s">
+        <v>315</v>
+      </c>
+      <c r="C37" s="285"/>
+      <c r="D37" s="285"/>
+      <c r="E37" s="285"/>
+      <c r="F37" s="285"/>
+      <c r="G37" s="285"/>
+      <c r="H37" s="285"/>
+      <c r="I37" s="286"/>
     </row>
     <row r="38" spans="1:9" s="48" customFormat="1" ht="73.8">
       <c r="A38" s="58">
@@ -9198,13 +9299,13 @@
         <v>17</v>
       </c>
       <c r="B38" s="52" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="C38" s="209" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="D38" s="54" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="E38" s="54"/>
       <c r="F38" s="52"/>
@@ -9218,13 +9319,13 @@
         <v>18</v>
       </c>
       <c r="B39" s="52" t="s">
+        <v>425</v>
+      </c>
+      <c r="C39" s="209" t="s">
+        <v>494</v>
+      </c>
+      <c r="D39" s="205" t="s">
         <v>426</v>
-      </c>
-      <c r="C39" s="209" t="s">
-        <v>495</v>
-      </c>
-      <c r="D39" s="205" t="s">
-        <v>427</v>
       </c>
       <c r="E39" s="54"/>
       <c r="F39" s="52"/>
@@ -9238,13 +9339,13 @@
         <v>19</v>
       </c>
       <c r="B40" s="52" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="C40" s="209" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="D40" s="54" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="E40" s="54"/>
       <c r="F40" s="52"/>
@@ -9258,13 +9359,13 @@
         <v>20</v>
       </c>
       <c r="B41" s="52" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="C41" s="209" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="D41" s="205" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="E41" s="54"/>
       <c r="F41" s="52"/>
@@ -9278,13 +9379,13 @@
         <v>21</v>
       </c>
       <c r="B42" s="198" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="C42" s="209" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="D42" s="54" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="E42" s="54"/>
       <c r="F42" s="52"/>
@@ -9298,13 +9399,13 @@
         <v>22</v>
       </c>
       <c r="B43" s="198" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="C43" s="209" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="D43" s="54" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="E43" s="54"/>
       <c r="F43" s="52"/>
@@ -9318,13 +9419,13 @@
         <v>23</v>
       </c>
       <c r="B44" s="198" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="C44" s="209" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="D44" s="54" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="E44" s="54"/>
       <c r="F44" s="52"/>
@@ -9338,13 +9439,13 @@
         <v>24</v>
       </c>
       <c r="B45" s="52" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="C45" s="209" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="D45" s="54" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="E45" s="54"/>
       <c r="F45" s="52"/>
@@ -9358,13 +9459,13 @@
         <v>25</v>
       </c>
       <c r="B46" s="52" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="C46" s="209" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="D46" s="54" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="E46" s="54"/>
       <c r="F46" s="52"/>
@@ -9378,13 +9479,13 @@
         <v>26</v>
       </c>
       <c r="B47" s="52" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="C47" s="209" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="D47" s="54" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="E47" s="54"/>
       <c r="F47" s="52"/>
@@ -9398,13 +9499,13 @@
         <v>27</v>
       </c>
       <c r="B48" s="52" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="C48" s="209" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="D48" s="54" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="E48" s="54"/>
       <c r="F48" s="52"/>
@@ -9418,13 +9519,13 @@
         <v>28</v>
       </c>
       <c r="B49" s="52" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="C49" s="209" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="D49" s="54" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="E49" s="54"/>
       <c r="F49" s="52"/>
@@ -9438,13 +9539,13 @@
         <v>29</v>
       </c>
       <c r="B50" s="52" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="C50" s="209" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="D50" s="54" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="E50" s="54"/>
       <c r="F50" s="52"/>
@@ -9454,16 +9555,16 @@
     </row>
     <row r="51" spans="1:9" s="48" customFormat="1" ht="13.8">
       <c r="A51" s="184"/>
-      <c r="B51" s="271" t="s">
-        <v>317</v>
-      </c>
-      <c r="C51" s="272"/>
-      <c r="D51" s="272"/>
-      <c r="E51" s="272"/>
-      <c r="F51" s="272"/>
-      <c r="G51" s="272"/>
-      <c r="H51" s="272"/>
-      <c r="I51" s="273"/>
+      <c r="B51" s="281" t="s">
+        <v>316</v>
+      </c>
+      <c r="C51" s="282"/>
+      <c r="D51" s="282"/>
+      <c r="E51" s="282"/>
+      <c r="F51" s="282"/>
+      <c r="G51" s="282"/>
+      <c r="H51" s="282"/>
+      <c r="I51" s="283"/>
     </row>
     <row r="52" spans="1:9" s="48" customFormat="1" ht="49.8" customHeight="1">
       <c r="A52" s="58">
@@ -9471,13 +9572,13 @@
         <v>30</v>
       </c>
       <c r="B52" s="52" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="C52" s="52" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="D52" s="205" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="E52" s="54"/>
       <c r="F52" s="52"/>
@@ -9491,13 +9592,13 @@
         <v>31</v>
       </c>
       <c r="B53" s="52" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="C53" s="209" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="D53" s="205" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="E53" s="54"/>
       <c r="F53" s="52"/>
@@ -9511,13 +9612,13 @@
         <v>32</v>
       </c>
       <c r="B54" s="52" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="C54" s="209" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="D54" s="59" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="E54" s="54"/>
       <c r="F54" s="52"/>
@@ -9531,13 +9632,13 @@
         <v>33</v>
       </c>
       <c r="B55" s="52" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="C55" s="209" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="D55" s="59" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="E55" s="54"/>
       <c r="F55" s="52"/>
@@ -9551,13 +9652,13 @@
         <v>34</v>
       </c>
       <c r="B56" s="52" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="C56" s="209" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="D56" s="205" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="E56" s="54"/>
       <c r="F56" s="52"/>
@@ -9571,13 +9672,13 @@
         <v>35</v>
       </c>
       <c r="B57" s="52" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="C57" s="209" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="D57" s="53" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="E57" s="54"/>
       <c r="F57" s="52"/>
@@ -9591,13 +9692,13 @@
         <v>36</v>
       </c>
       <c r="B58" s="52" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="C58" s="209" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="D58" s="53" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="E58" s="54"/>
       <c r="F58" s="52"/>
@@ -9611,13 +9712,13 @@
         <v>37</v>
       </c>
       <c r="B59" s="52" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="C59" s="209" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="D59" s="53" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="E59" s="54"/>
       <c r="F59" s="52"/>
@@ -9631,13 +9732,13 @@
         <v>38</v>
       </c>
       <c r="B60" s="52" t="s">
+        <v>462</v>
+      </c>
+      <c r="C60" s="209" t="s">
+        <v>529</v>
+      </c>
+      <c r="D60" s="53" t="s">
         <v>463</v>
-      </c>
-      <c r="C60" s="209" t="s">
-        <v>530</v>
-      </c>
-      <c r="D60" s="53" t="s">
-        <v>464</v>
       </c>
       <c r="E60" s="54"/>
       <c r="F60" s="52"/>
@@ -9651,13 +9752,13 @@
         <v>39</v>
       </c>
       <c r="B61" s="52" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="C61" s="209" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="D61" s="59" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="E61" s="54"/>
       <c r="F61" s="52"/>
@@ -9671,13 +9772,13 @@
         <v>40</v>
       </c>
       <c r="B62" s="52" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="C62" s="209" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="D62" s="53" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="E62" s="54"/>
       <c r="F62" s="52"/>
@@ -9691,13 +9792,13 @@
         <v>41</v>
       </c>
       <c r="B63" s="52" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="C63" s="209" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="D63" s="53" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="E63" s="54"/>
       <c r="F63" s="52"/>
@@ -9711,13 +9812,13 @@
         <v>42</v>
       </c>
       <c r="B64" s="52" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="C64" s="209" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="D64" s="207" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="E64" s="54"/>
       <c r="F64" s="52"/>
@@ -9731,13 +9832,13 @@
         <v>43</v>
       </c>
       <c r="B65" s="52" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="C65" s="209" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="D65" s="53" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="E65" s="54"/>
       <c r="F65" s="52"/>
@@ -9751,13 +9852,13 @@
         <v>44</v>
       </c>
       <c r="B66" s="52" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="C66" s="209" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="D66" s="53" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="E66" s="54"/>
       <c r="F66" s="52"/>
@@ -9771,13 +9872,13 @@
         <v>45</v>
       </c>
       <c r="B67" s="52" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="C67" s="209" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="D67" s="207" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="E67" s="54"/>
       <c r="F67" s="52"/>
@@ -9787,16 +9888,16 @@
     </row>
     <row r="68" spans="1:9" s="49" customFormat="1" ht="13.8">
       <c r="A68" s="189"/>
-      <c r="B68" s="277" t="s">
-        <v>328</v>
-      </c>
-      <c r="C68" s="278"/>
-      <c r="D68" s="278"/>
-      <c r="E68" s="278"/>
-      <c r="F68" s="278"/>
-      <c r="G68" s="278"/>
-      <c r="H68" s="278"/>
-      <c r="I68" s="279"/>
+      <c r="B68" s="271" t="s">
+        <v>327</v>
+      </c>
+      <c r="C68" s="272"/>
+      <c r="D68" s="272"/>
+      <c r="E68" s="272"/>
+      <c r="F68" s="272"/>
+      <c r="G68" s="272"/>
+      <c r="H68" s="272"/>
+      <c r="I68" s="273"/>
     </row>
     <row r="69" spans="1:9" s="48" customFormat="1" ht="24.6">
       <c r="A69" s="58">
@@ -9804,13 +9905,13 @@
         <v>46</v>
       </c>
       <c r="B69" s="52" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="C69" s="52" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="D69" s="53" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="E69" s="54"/>
       <c r="F69" s="52"/>
@@ -9820,16 +9921,16 @@
     </row>
     <row r="70" spans="1:9" s="48" customFormat="1" ht="13.8">
       <c r="A70" s="199"/>
-      <c r="B70" s="280" t="s">
-        <v>375</v>
-      </c>
-      <c r="C70" s="281"/>
-      <c r="D70" s="281"/>
-      <c r="E70" s="281"/>
-      <c r="F70" s="281"/>
-      <c r="G70" s="281"/>
-      <c r="H70" s="281"/>
-      <c r="I70" s="282"/>
+      <c r="B70" s="287" t="s">
+        <v>374</v>
+      </c>
+      <c r="C70" s="288"/>
+      <c r="D70" s="288"/>
+      <c r="E70" s="288"/>
+      <c r="F70" s="288"/>
+      <c r="G70" s="288"/>
+      <c r="H70" s="288"/>
+      <c r="I70" s="289"/>
     </row>
     <row r="71" spans="1:9" s="48" customFormat="1" ht="49.2">
       <c r="A71" s="58">
@@ -9837,13 +9938,13 @@
         <v>47</v>
       </c>
       <c r="B71" s="52" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="C71" s="209" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="D71" s="53" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="E71" s="54"/>
       <c r="F71" s="52"/>
@@ -9857,13 +9958,13 @@
         <v>48</v>
       </c>
       <c r="B72" s="52" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="C72" s="209" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="D72" s="53" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="E72" s="54"/>
       <c r="F72" s="52"/>
@@ -9877,13 +9978,13 @@
         <v>49</v>
       </c>
       <c r="B73" s="52" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="C73" s="209" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="D73" s="53" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="E73" s="54"/>
       <c r="F73" s="52"/>
@@ -9897,13 +9998,13 @@
         <v>50</v>
       </c>
       <c r="B74" s="52" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="C74" s="209" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="D74" s="53" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="E74" s="54"/>
       <c r="F74" s="52"/>
@@ -9917,13 +10018,13 @@
         <v>51</v>
       </c>
       <c r="B75" s="52" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="C75" s="209" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="D75" s="53" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="E75" s="54"/>
       <c r="F75" s="52"/>
@@ -9937,13 +10038,13 @@
         <v>52</v>
       </c>
       <c r="B76" s="52" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="C76" s="209" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="D76" s="53" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="E76" s="54"/>
       <c r="F76" s="52"/>
@@ -9957,13 +10058,13 @@
         <v>53</v>
       </c>
       <c r="B77" s="52" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="C77" s="209" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="D77" s="53" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="E77" s="54"/>
       <c r="F77" s="52"/>
@@ -9977,13 +10078,13 @@
         <v>54</v>
       </c>
       <c r="B78" s="52" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="C78" s="209" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="D78" s="53" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="E78" s="54"/>
       <c r="F78" s="52"/>
@@ -9993,16 +10094,16 @@
     </row>
     <row r="79" spans="1:9" s="48" customFormat="1" ht="13.8">
       <c r="A79" s="199"/>
-      <c r="B79" s="280" t="s">
-        <v>383</v>
-      </c>
-      <c r="C79" s="281"/>
-      <c r="D79" s="281"/>
-      <c r="E79" s="281"/>
-      <c r="F79" s="281"/>
-      <c r="G79" s="281"/>
-      <c r="H79" s="281"/>
-      <c r="I79" s="282"/>
+      <c r="B79" s="287" t="s">
+        <v>382</v>
+      </c>
+      <c r="C79" s="288"/>
+      <c r="D79" s="288"/>
+      <c r="E79" s="288"/>
+      <c r="F79" s="288"/>
+      <c r="G79" s="288"/>
+      <c r="H79" s="288"/>
+      <c r="I79" s="289"/>
     </row>
     <row r="80" spans="1:9" s="48" customFormat="1" ht="49.2">
       <c r="A80" s="58">
@@ -10010,13 +10111,13 @@
         <v>55</v>
       </c>
       <c r="B80" s="52" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="C80" s="209" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="D80" s="53" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="E80" s="54"/>
       <c r="F80" s="52"/>
@@ -10030,13 +10131,13 @@
         <v>56</v>
       </c>
       <c r="B81" s="52" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="C81" s="209" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="D81" s="53" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="E81" s="54"/>
       <c r="F81" s="52"/>
@@ -10050,13 +10151,13 @@
         <v>57</v>
       </c>
       <c r="B82" s="52" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="C82" s="209" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="D82" s="53" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="E82" s="54"/>
       <c r="F82" s="52"/>
@@ -10070,13 +10171,13 @@
         <v>58</v>
       </c>
       <c r="B83" s="52" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="C83" s="209" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="D83" s="53" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="E83" s="54"/>
       <c r="F83" s="52"/>
@@ -10090,13 +10191,13 @@
         <v>59</v>
       </c>
       <c r="B84" s="52" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="C84" s="209" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="D84" s="53" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="E84" s="54"/>
       <c r="F84" s="52"/>
@@ -10110,13 +10211,13 @@
         <v>60</v>
       </c>
       <c r="B85" s="52" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="C85" s="209" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="D85" s="53" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="E85" s="54"/>
       <c r="F85" s="52"/>
@@ -10130,13 +10231,13 @@
         <v>61</v>
       </c>
       <c r="B86" s="52" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="C86" s="209" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="D86" s="53" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="E86" s="54"/>
       <c r="F86" s="52"/>
@@ -10150,13 +10251,13 @@
         <v>62</v>
       </c>
       <c r="B87" s="52" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="C87" s="209" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="D87" s="53" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="E87" s="54"/>
       <c r="F87" s="52"/>
@@ -10166,16 +10267,16 @@
     </row>
     <row r="88" spans="1:9" s="48" customFormat="1" ht="14.4" customHeight="1">
       <c r="A88" s="199"/>
-      <c r="B88" s="283" t="s">
-        <v>384</v>
-      </c>
-      <c r="C88" s="284"/>
-      <c r="D88" s="284"/>
-      <c r="E88" s="284"/>
-      <c r="F88" s="284"/>
-      <c r="G88" s="284"/>
-      <c r="H88" s="284"/>
-      <c r="I88" s="285"/>
+      <c r="B88" s="290" t="s">
+        <v>383</v>
+      </c>
+      <c r="C88" s="291"/>
+      <c r="D88" s="291"/>
+      <c r="E88" s="291"/>
+      <c r="F88" s="291"/>
+      <c r="G88" s="291"/>
+      <c r="H88" s="291"/>
+      <c r="I88" s="292"/>
     </row>
     <row r="89" spans="1:9" s="48" customFormat="1" ht="49.2">
       <c r="A89" s="58">
@@ -10183,13 +10284,13 @@
         <v>63</v>
       </c>
       <c r="B89" s="52" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="C89" s="209" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="D89" s="53" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="E89" s="54"/>
       <c r="F89" s="52"/>
@@ -10203,13 +10304,13 @@
         <v>64</v>
       </c>
       <c r="B90" s="52" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="C90" s="209" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="D90" s="53" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="E90" s="54"/>
       <c r="F90" s="52"/>
@@ -10223,13 +10324,13 @@
         <v>65</v>
       </c>
       <c r="B91" s="52" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="C91" s="209" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="D91" s="53" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="E91" s="54"/>
       <c r="F91" s="52"/>
@@ -10243,13 +10344,13 @@
         <v>66</v>
       </c>
       <c r="B92" s="52" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="C92" s="209" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="D92" s="53" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="E92" s="54"/>
       <c r="F92" s="52"/>
@@ -10263,13 +10364,13 @@
         <v>67</v>
       </c>
       <c r="B93" s="52" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="C93" s="209" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="D93" s="53" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="E93" s="54"/>
       <c r="F93" s="52"/>
@@ -10283,13 +10384,13 @@
         <v>68</v>
       </c>
       <c r="B94" s="52" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="C94" s="209" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="D94" s="53" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="E94" s="54"/>
       <c r="F94" s="52"/>
@@ -10299,16 +10400,16 @@
     </row>
     <row r="95" spans="1:9" s="48" customFormat="1" ht="13.8">
       <c r="A95" s="189"/>
-      <c r="B95" s="277" t="s">
-        <v>329</v>
-      </c>
-      <c r="C95" s="278"/>
-      <c r="D95" s="278"/>
-      <c r="E95" s="278"/>
-      <c r="F95" s="278"/>
-      <c r="G95" s="278"/>
-      <c r="H95" s="278"/>
-      <c r="I95" s="279"/>
+      <c r="B95" s="271" t="s">
+        <v>328</v>
+      </c>
+      <c r="C95" s="272"/>
+      <c r="D95" s="272"/>
+      <c r="E95" s="272"/>
+      <c r="F95" s="272"/>
+      <c r="G95" s="272"/>
+      <c r="H95" s="272"/>
+      <c r="I95" s="273"/>
     </row>
     <row r="96" spans="1:9" s="48" customFormat="1" ht="36.9">
       <c r="A96" s="58">
@@ -10316,13 +10417,13 @@
         <v>69</v>
       </c>
       <c r="B96" s="52" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="C96" s="209" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="D96" s="53" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="E96" s="54"/>
       <c r="F96" s="52"/>
@@ -10336,13 +10437,13 @@
         <v>70</v>
       </c>
       <c r="B97" s="52" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="C97" s="209" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="D97" s="53" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="E97" s="54"/>
       <c r="F97" s="52"/>
@@ -10356,13 +10457,13 @@
         <v>71</v>
       </c>
       <c r="B98" s="52" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="C98" s="209" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="D98" s="53" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="E98" s="54"/>
       <c r="F98" s="52"/>
@@ -10376,13 +10477,13 @@
         <v>72</v>
       </c>
       <c r="B99" s="52" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="C99" s="209" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="D99" s="53" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="E99" s="54"/>
       <c r="F99" s="52"/>
@@ -10396,13 +10497,13 @@
         <v>73</v>
       </c>
       <c r="B100" s="52" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="C100" s="209" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="D100" s="53" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="E100" s="54"/>
       <c r="F100" s="52"/>
@@ -10416,13 +10517,13 @@
         <v>74</v>
       </c>
       <c r="B101" s="52" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="C101" s="209" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="D101" s="53" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="E101" s="54"/>
       <c r="F101" s="52"/>
@@ -10436,13 +10537,13 @@
         <v>75</v>
       </c>
       <c r="B102" s="52" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="C102" s="209" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="D102" s="53" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="E102" s="54"/>
       <c r="F102" s="52"/>
@@ -10452,16 +10553,16 @@
     </row>
     <row r="103" spans="1:9" s="48" customFormat="1" ht="13.8">
       <c r="A103" s="189"/>
-      <c r="B103" s="277" t="s">
-        <v>332</v>
-      </c>
-      <c r="C103" s="278"/>
-      <c r="D103" s="278"/>
-      <c r="E103" s="278"/>
-      <c r="F103" s="278"/>
-      <c r="G103" s="278"/>
-      <c r="H103" s="278"/>
-      <c r="I103" s="279"/>
+      <c r="B103" s="271" t="s">
+        <v>331</v>
+      </c>
+      <c r="C103" s="272"/>
+      <c r="D103" s="272"/>
+      <c r="E103" s="272"/>
+      <c r="F103" s="272"/>
+      <c r="G103" s="272"/>
+      <c r="H103" s="272"/>
+      <c r="I103" s="273"/>
     </row>
     <row r="104" spans="1:9" s="48" customFormat="1" ht="49.2">
       <c r="A104" s="58">
@@ -10469,13 +10570,13 @@
         <v>76</v>
       </c>
       <c r="B104" s="52" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="C104" s="209" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="D104" s="205" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="E104" s="54"/>
       <c r="F104" s="52"/>
@@ -10489,13 +10590,13 @@
         <v>77</v>
       </c>
       <c r="B105" s="52" t="s">
+        <v>430</v>
+      </c>
+      <c r="C105" s="209" t="s">
+        <v>556</v>
+      </c>
+      <c r="D105" s="53" t="s">
         <v>431</v>
-      </c>
-      <c r="C105" s="209" t="s">
-        <v>557</v>
-      </c>
-      <c r="D105" s="53" t="s">
-        <v>432</v>
       </c>
       <c r="E105" s="54"/>
       <c r="F105" s="52"/>
@@ -10509,13 +10610,13 @@
         <v>78</v>
       </c>
       <c r="B106" s="52" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="C106" s="209" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="D106" s="205" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="E106" s="54"/>
       <c r="F106" s="52"/>
@@ -10529,13 +10630,13 @@
         <v>79</v>
       </c>
       <c r="B107" s="52" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="C107" s="209" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="D107" s="54" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="E107" s="54"/>
       <c r="F107" s="52"/>
@@ -10549,13 +10650,13 @@
         <v>80</v>
       </c>
       <c r="B108" s="52" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="C108" s="209" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="D108" s="53" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="E108" s="54"/>
       <c r="F108" s="52"/>
@@ -10569,13 +10670,13 @@
         <v>81</v>
       </c>
       <c r="B109" s="52" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="C109" s="209" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="D109" s="205" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="E109" s="54"/>
       <c r="F109" s="52"/>
@@ -10589,13 +10690,13 @@
         <v>82</v>
       </c>
       <c r="B110" s="52" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="C110" s="209" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="D110" s="53" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="E110" s="54"/>
       <c r="F110" s="52"/>
@@ -10609,13 +10710,13 @@
         <v>83</v>
       </c>
       <c r="B111" s="52" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="C111" s="209" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="D111" s="53" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="E111" s="54"/>
       <c r="F111" s="52"/>
@@ -10629,13 +10730,13 @@
         <v>84</v>
       </c>
       <c r="B112" s="52" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="C112" s="209" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="D112" s="53" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="E112" s="54"/>
       <c r="F112" s="52"/>
@@ -10649,13 +10750,13 @@
         <v>85</v>
       </c>
       <c r="B113" s="52" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="C113" s="209" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="D113" s="53" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="E113" s="54"/>
       <c r="F113" s="52"/>
@@ -10669,13 +10770,13 @@
         <v>86</v>
       </c>
       <c r="B114" s="52" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="C114" s="209" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="D114" s="53" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="E114" s="54"/>
       <c r="F114" s="52"/>
@@ -10689,13 +10790,13 @@
         <v>87</v>
       </c>
       <c r="B115" s="52" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="C115" s="209" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="D115" s="53" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="E115" s="54"/>
       <c r="F115" s="52"/>
@@ -10709,13 +10810,13 @@
         <v>88</v>
       </c>
       <c r="B116" s="52" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="C116" s="209" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="D116" s="207" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="E116" s="54"/>
       <c r="F116" s="52"/>
@@ -10725,16 +10826,16 @@
     </row>
     <row r="117" spans="1:9" s="48" customFormat="1" ht="13.8">
       <c r="A117" s="189"/>
-      <c r="B117" s="277" t="s">
-        <v>340</v>
-      </c>
-      <c r="C117" s="278"/>
-      <c r="D117" s="278"/>
-      <c r="E117" s="278"/>
-      <c r="F117" s="278"/>
-      <c r="G117" s="278"/>
-      <c r="H117" s="278"/>
-      <c r="I117" s="279"/>
+      <c r="B117" s="271" t="s">
+        <v>339</v>
+      </c>
+      <c r="C117" s="272"/>
+      <c r="D117" s="272"/>
+      <c r="E117" s="272"/>
+      <c r="F117" s="272"/>
+      <c r="G117" s="272"/>
+      <c r="H117" s="272"/>
+      <c r="I117" s="273"/>
     </row>
     <row r="118" spans="1:9" s="48" customFormat="1" ht="49.2">
       <c r="A118" s="58">
@@ -10742,13 +10843,13 @@
         <v>89</v>
       </c>
       <c r="B118" s="52" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="C118" s="209" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="D118" s="53" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="E118" s="54"/>
       <c r="F118" s="52"/>
@@ -10762,13 +10863,13 @@
         <v>90</v>
       </c>
       <c r="B119" s="52" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="C119" s="209" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="D119" s="207" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="E119" s="54"/>
       <c r="F119" s="52"/>
@@ -10782,13 +10883,13 @@
         <v>91</v>
       </c>
       <c r="B120" s="52" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="C120" s="209" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="D120" s="53" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="E120" s="54"/>
       <c r="F120" s="52"/>
@@ -10798,16 +10899,16 @@
     </row>
     <row r="121" spans="1:9" s="48" customFormat="1" ht="13.8">
       <c r="A121" s="189"/>
-      <c r="B121" s="277" t="s">
-        <v>351</v>
-      </c>
-      <c r="C121" s="278"/>
-      <c r="D121" s="278"/>
-      <c r="E121" s="278"/>
-      <c r="F121" s="278"/>
-      <c r="G121" s="278"/>
-      <c r="H121" s="278"/>
-      <c r="I121" s="279"/>
+      <c r="B121" s="271" t="s">
+        <v>350</v>
+      </c>
+      <c r="C121" s="272"/>
+      <c r="D121" s="272"/>
+      <c r="E121" s="272"/>
+      <c r="F121" s="272"/>
+      <c r="G121" s="272"/>
+      <c r="H121" s="272"/>
+      <c r="I121" s="273"/>
     </row>
     <row r="122" spans="1:9" s="48" customFormat="1" ht="49.2">
       <c r="A122" s="58">
@@ -10815,13 +10916,13 @@
         <v>92</v>
       </c>
       <c r="B122" s="52" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="C122" s="209" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="D122" s="53" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="E122" s="54"/>
       <c r="F122" s="52"/>
@@ -10831,16 +10932,16 @@
     </row>
     <row r="123" spans="1:9" s="48" customFormat="1" ht="13.8">
       <c r="A123" s="189"/>
-      <c r="B123" s="277" t="s">
-        <v>352</v>
-      </c>
-      <c r="C123" s="278"/>
-      <c r="D123" s="278"/>
-      <c r="E123" s="278"/>
-      <c r="F123" s="278"/>
-      <c r="G123" s="278"/>
-      <c r="H123" s="278"/>
-      <c r="I123" s="279"/>
+      <c r="B123" s="271" t="s">
+        <v>351</v>
+      </c>
+      <c r="C123" s="272"/>
+      <c r="D123" s="272"/>
+      <c r="E123" s="272"/>
+      <c r="F123" s="272"/>
+      <c r="G123" s="272"/>
+      <c r="H123" s="272"/>
+      <c r="I123" s="273"/>
     </row>
     <row r="124" spans="1:9" s="48" customFormat="1" ht="49.2">
       <c r="A124" s="58">
@@ -10848,13 +10949,13 @@
         <v>93</v>
       </c>
       <c r="B124" s="52" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="C124" s="209" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="D124" s="53" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="E124" s="54"/>
       <c r="F124" s="52"/>
@@ -10864,42 +10965,42 @@
     </row>
     <row r="125" spans="1:9" s="48" customFormat="1" ht="13.8">
       <c r="A125" s="67"/>
-      <c r="B125" s="260" t="s">
-        <v>342</v>
-      </c>
-      <c r="C125" s="261"/>
-      <c r="D125" s="261"/>
-      <c r="E125" s="261"/>
-      <c r="F125" s="261"/>
-      <c r="G125" s="261"/>
-      <c r="H125" s="261"/>
-      <c r="I125" s="262"/>
+      <c r="B125" s="245" t="s">
+        <v>341</v>
+      </c>
+      <c r="C125" s="246"/>
+      <c r="D125" s="246"/>
+      <c r="E125" s="246"/>
+      <c r="F125" s="246"/>
+      <c r="G125" s="246"/>
+      <c r="H125" s="246"/>
+      <c r="I125" s="247"/>
     </row>
     <row r="126" spans="1:9" s="48" customFormat="1" ht="13.8">
       <c r="A126" s="189"/>
-      <c r="B126" s="277" t="s">
-        <v>343</v>
-      </c>
-      <c r="C126" s="278"/>
-      <c r="D126" s="278"/>
-      <c r="E126" s="278"/>
-      <c r="F126" s="278"/>
-      <c r="G126" s="278"/>
-      <c r="H126" s="278"/>
-      <c r="I126" s="279"/>
+      <c r="B126" s="271" t="s">
+        <v>342</v>
+      </c>
+      <c r="C126" s="272"/>
+      <c r="D126" s="272"/>
+      <c r="E126" s="272"/>
+      <c r="F126" s="272"/>
+      <c r="G126" s="272"/>
+      <c r="H126" s="272"/>
+      <c r="I126" s="273"/>
     </row>
     <row r="127" spans="1:9" s="48" customFormat="1" ht="36.9">
       <c r="A127" s="58">
         <v>94</v>
       </c>
       <c r="B127" s="52" t="s">
+        <v>480</v>
+      </c>
+      <c r="C127" s="209" t="s">
+        <v>487</v>
+      </c>
+      <c r="D127" s="207" t="s">
         <v>481</v>
-      </c>
-      <c r="C127" s="209" t="s">
-        <v>488</v>
-      </c>
-      <c r="D127" s="207" t="s">
-        <v>482</v>
       </c>
       <c r="E127" s="54"/>
       <c r="F127" s="52"/>
@@ -10913,13 +11014,13 @@
         <v>95</v>
       </c>
       <c r="B128" s="206" t="s">
+        <v>476</v>
+      </c>
+      <c r="C128" s="209" t="s">
+        <v>488</v>
+      </c>
+      <c r="D128" s="208" t="s">
         <v>477</v>
-      </c>
-      <c r="C128" s="209" t="s">
-        <v>489</v>
-      </c>
-      <c r="D128" s="208" t="s">
-        <v>478</v>
       </c>
       <c r="E128" s="54"/>
       <c r="F128" s="52"/>
@@ -10933,13 +11034,13 @@
         <v>96</v>
       </c>
       <c r="B129" s="206" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="C129" s="209" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="D129" s="210" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="E129" s="54"/>
       <c r="F129" s="52"/>
@@ -10953,13 +11054,13 @@
         <v>97</v>
       </c>
       <c r="B130" s="206" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="C130" s="209" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="D130" s="210" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="E130" s="191"/>
       <c r="F130" s="173"/>
@@ -10973,13 +11074,13 @@
         <v>98</v>
       </c>
       <c r="B131" s="210" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="C131" s="209" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="D131" s="210" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="E131" s="191"/>
       <c r="F131" s="173"/>
@@ -10993,11 +11094,11 @@
         <v>99</v>
       </c>
       <c r="B132" s="52" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="C132" s="190"/>
       <c r="D132" s="210" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="E132" s="191"/>
       <c r="F132" s="173"/>
@@ -11011,7 +11112,7 @@
         <v>100</v>
       </c>
       <c r="B133" s="52" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="C133" s="190"/>
       <c r="D133" s="190"/>
@@ -11023,16 +11124,16 @@
     </row>
     <row r="134" spans="1:9" s="48" customFormat="1" ht="13.8">
       <c r="A134" s="67"/>
-      <c r="B134" s="260" t="s">
-        <v>313</v>
-      </c>
-      <c r="C134" s="261"/>
-      <c r="D134" s="261"/>
-      <c r="E134" s="261"/>
-      <c r="F134" s="261"/>
-      <c r="G134" s="261"/>
-      <c r="H134" s="261"/>
-      <c r="I134" s="262"/>
+      <c r="B134" s="245" t="s">
+        <v>312</v>
+      </c>
+      <c r="C134" s="246"/>
+      <c r="D134" s="246"/>
+      <c r="E134" s="246"/>
+      <c r="F134" s="246"/>
+      <c r="G134" s="246"/>
+      <c r="H134" s="246"/>
+      <c r="I134" s="247"/>
     </row>
     <row r="135" spans="1:9" s="49" customFormat="1" ht="13.8">
       <c r="A135" s="58">
@@ -11040,7 +11141,7 @@
         <v>101</v>
       </c>
       <c r="B135" s="52" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="C135" s="52"/>
       <c r="D135" s="53"/>
@@ -11052,16 +11153,16 @@
     </row>
     <row r="136" spans="1:9" s="48" customFormat="1" ht="13.8">
       <c r="A136" s="67"/>
-      <c r="B136" s="260" t="s">
-        <v>348</v>
-      </c>
-      <c r="C136" s="261"/>
-      <c r="D136" s="261"/>
-      <c r="E136" s="261"/>
-      <c r="F136" s="261"/>
-      <c r="G136" s="261"/>
-      <c r="H136" s="261"/>
-      <c r="I136" s="262"/>
+      <c r="B136" s="245" t="s">
+        <v>347</v>
+      </c>
+      <c r="C136" s="246"/>
+      <c r="D136" s="246"/>
+      <c r="E136" s="246"/>
+      <c r="F136" s="246"/>
+      <c r="G136" s="246"/>
+      <c r="H136" s="246"/>
+      <c r="I136" s="247"/>
     </row>
     <row r="137" spans="1:9" s="48" customFormat="1" ht="13.8">
       <c r="A137" s="58">
@@ -11069,7 +11170,7 @@
         <v>102</v>
       </c>
       <c r="B137" s="52" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="C137" s="52"/>
       <c r="D137" s="54"/>
@@ -11081,16 +11182,16 @@
     </row>
     <row r="138" spans="1:9" s="48" customFormat="1" ht="13.8">
       <c r="A138" s="67"/>
-      <c r="B138" s="260" t="s">
-        <v>349</v>
-      </c>
-      <c r="C138" s="261"/>
-      <c r="D138" s="261"/>
-      <c r="E138" s="261"/>
-      <c r="F138" s="261"/>
-      <c r="G138" s="261"/>
-      <c r="H138" s="261"/>
-      <c r="I138" s="262"/>
+      <c r="B138" s="245" t="s">
+        <v>348</v>
+      </c>
+      <c r="C138" s="246"/>
+      <c r="D138" s="246"/>
+      <c r="E138" s="246"/>
+      <c r="F138" s="246"/>
+      <c r="G138" s="246"/>
+      <c r="H138" s="246"/>
+      <c r="I138" s="247"/>
     </row>
     <row r="139" spans="1:9" s="48" customFormat="1" ht="13.8">
       <c r="A139" s="58">
@@ -11098,7 +11199,7 @@
         <v>103</v>
       </c>
       <c r="B139" s="197" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="C139" s="52"/>
       <c r="D139" s="54"/>
@@ -11154,9 +11255,9 @@
     </row>
     <row r="144" spans="1:9" s="48" customFormat="1" ht="13.8">
       <c r="A144" s="185"/>
-      <c r="B144" s="290"/>
-      <c r="C144" s="291"/>
-      <c r="D144" s="292"/>
+      <c r="B144" s="268"/>
+      <c r="C144" s="269"/>
+      <c r="D144" s="270"/>
       <c r="E144" s="194"/>
       <c r="F144" s="195"/>
       <c r="G144" s="195"/>
@@ -11209,9 +11310,9 @@
     </row>
     <row r="149" spans="1:9" s="48" customFormat="1" ht="13.8">
       <c r="A149" s="185"/>
-      <c r="B149" s="290"/>
-      <c r="C149" s="291"/>
-      <c r="D149" s="292"/>
+      <c r="B149" s="268"/>
+      <c r="C149" s="269"/>
+      <c r="D149" s="270"/>
       <c r="E149" s="194"/>
       <c r="F149" s="195"/>
       <c r="G149" s="195"/>
@@ -11253,9 +11354,9 @@
     </row>
     <row r="153" spans="1:9" s="48" customFormat="1" ht="13.8">
       <c r="A153" s="185"/>
-      <c r="B153" s="290"/>
-      <c r="C153" s="291"/>
-      <c r="D153" s="292"/>
+      <c r="B153" s="268"/>
+      <c r="C153" s="269"/>
+      <c r="D153" s="270"/>
       <c r="E153" s="194"/>
       <c r="F153" s="195"/>
       <c r="G153" s="195"/>
@@ -11385,9 +11486,9 @@
     </row>
     <row r="165" spans="1:9" s="48" customFormat="1" ht="13.8">
       <c r="A165" s="196"/>
-      <c r="B165" s="290"/>
-      <c r="C165" s="291"/>
-      <c r="D165" s="292"/>
+      <c r="B165" s="268"/>
+      <c r="C165" s="269"/>
+      <c r="D165" s="270"/>
       <c r="E165" s="194"/>
       <c r="F165" s="195"/>
       <c r="G165" s="195"/>
@@ -11429,9 +11530,9 @@
     </row>
     <row r="169" spans="1:9" s="48" customFormat="1" ht="13.8">
       <c r="A169" s="196"/>
-      <c r="B169" s="290"/>
-      <c r="C169" s="291"/>
-      <c r="D169" s="292"/>
+      <c r="B169" s="268"/>
+      <c r="C169" s="269"/>
+      <c r="D169" s="270"/>
       <c r="E169" s="194"/>
       <c r="F169" s="195"/>
       <c r="G169" s="195"/>
@@ -11473,9 +11574,9 @@
     </row>
     <row r="173" spans="1:9" s="48" customFormat="1" ht="14.25" customHeight="1">
       <c r="A173" s="196"/>
-      <c r="B173" s="290"/>
-      <c r="C173" s="291"/>
-      <c r="D173" s="292"/>
+      <c r="B173" s="268"/>
+      <c r="C173" s="269"/>
+      <c r="D173" s="270"/>
       <c r="E173" s="194"/>
       <c r="F173" s="195"/>
       <c r="G173" s="195"/>
@@ -11506,9 +11607,9 @@
     </row>
     <row r="176" spans="1:9" s="48" customFormat="1" ht="14.25" customHeight="1">
       <c r="A176" s="196"/>
-      <c r="B176" s="290"/>
-      <c r="C176" s="291"/>
-      <c r="D176" s="292"/>
+      <c r="B176" s="268"/>
+      <c r="C176" s="269"/>
+      <c r="D176" s="270"/>
       <c r="E176" s="194"/>
       <c r="F176" s="195"/>
       <c r="G176" s="195"/>
@@ -11572,6 +11673,26 @@
     </row>
   </sheetData>
   <mergeCells count="36">
+    <mergeCell ref="B19:I19"/>
+    <mergeCell ref="B125:I125"/>
+    <mergeCell ref="B23:I23"/>
+    <mergeCell ref="B37:I37"/>
+    <mergeCell ref="B51:I51"/>
+    <mergeCell ref="B68:I68"/>
+    <mergeCell ref="B95:I95"/>
+    <mergeCell ref="B70:I70"/>
+    <mergeCell ref="B79:I79"/>
+    <mergeCell ref="B88:I88"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="A2:D2"/>
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="B4:D4"/>
+    <mergeCell ref="F16:H16"/>
+    <mergeCell ref="E2:E3"/>
+    <mergeCell ref="B5:D5"/>
+    <mergeCell ref="B6:D6"/>
+    <mergeCell ref="B7:D7"/>
+    <mergeCell ref="B8:D8"/>
     <mergeCell ref="B18:I18"/>
     <mergeCell ref="B169:D169"/>
     <mergeCell ref="B173:D173"/>
@@ -11588,26 +11709,6 @@
     <mergeCell ref="B134:I134"/>
     <mergeCell ref="B136:I136"/>
     <mergeCell ref="B138:I138"/>
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="A2:D2"/>
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="B4:D4"/>
-    <mergeCell ref="F16:H16"/>
-    <mergeCell ref="E2:E3"/>
-    <mergeCell ref="B5:D5"/>
-    <mergeCell ref="B6:D6"/>
-    <mergeCell ref="B7:D7"/>
-    <mergeCell ref="B8:D8"/>
-    <mergeCell ref="B19:I19"/>
-    <mergeCell ref="B125:I125"/>
-    <mergeCell ref="B23:I23"/>
-    <mergeCell ref="B37:I37"/>
-    <mergeCell ref="B51:I51"/>
-    <mergeCell ref="B68:I68"/>
-    <mergeCell ref="B95:I95"/>
-    <mergeCell ref="B70:I70"/>
-    <mergeCell ref="B79:I79"/>
-    <mergeCell ref="B88:I88"/>
   </mergeCells>
   <dataValidations count="3">
     <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="F182:H239">
@@ -11627,16 +11728,17 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:X84"/>
+  <dimension ref="A1:X101"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A20" sqref="A20"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A38" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="A55" sqref="A55:A57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.15625" defaultRowHeight="12.3"/>
   <cols>
     <col min="1" max="1" width="12.41796875" style="78" customWidth="1"/>
-    <col min="2" max="4" width="35.15625" style="46" customWidth="1"/>
+    <col min="2" max="2" width="38.3125" style="46" customWidth="1"/>
+    <col min="3" max="4" width="35.15625" style="46" customWidth="1"/>
     <col min="5" max="5" width="32.15625" style="46" customWidth="1"/>
     <col min="6" max="8" width="9.68359375" style="46" customWidth="1"/>
     <col min="9" max="9" width="17.68359375" style="46" customWidth="1"/>
@@ -11644,10 +11746,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:24" s="1" customFormat="1" ht="13.8">
-      <c r="A1" s="257"/>
-      <c r="B1" s="257"/>
-      <c r="C1" s="257"/>
-      <c r="D1" s="257"/>
+      <c r="A1" s="240"/>
+      <c r="B1" s="240"/>
+      <c r="C1" s="240"/>
+      <c r="D1" s="240"/>
       <c r="E1" s="34"/>
       <c r="F1" s="34"/>
       <c r="G1" s="34"/>
@@ -11656,13 +11758,13 @@
       <c r="J1" s="34"/>
     </row>
     <row r="2" spans="1:24" s="1" customFormat="1" ht="31.5" customHeight="1">
-      <c r="A2" s="258" t="s">
+      <c r="A2" s="241" t="s">
         <v>70</v>
       </c>
-      <c r="B2" s="258"/>
-      <c r="C2" s="258"/>
-      <c r="D2" s="258"/>
-      <c r="E2" s="264"/>
+      <c r="B2" s="241"/>
+      <c r="C2" s="241"/>
+      <c r="D2" s="241"/>
+      <c r="E2" s="249"/>
       <c r="F2" s="23"/>
       <c r="G2" s="23"/>
       <c r="H2" s="23"/>
@@ -11671,9 +11773,9 @@
     </row>
     <row r="3" spans="1:24" s="1" customFormat="1" ht="31.5" customHeight="1">
       <c r="A3" s="47"/>
-      <c r="C3" s="286"/>
-      <c r="D3" s="286"/>
-      <c r="E3" s="264"/>
+      <c r="C3" s="274"/>
+      <c r="D3" s="274"/>
+      <c r="E3" s="249"/>
       <c r="F3" s="23"/>
       <c r="G3" s="23"/>
       <c r="H3" s="23"/>
@@ -11684,11 +11786,11 @@
       <c r="A4" s="139" t="s">
         <v>67</v>
       </c>
-      <c r="B4" s="252" t="s">
-        <v>117</v>
-      </c>
-      <c r="C4" s="252"/>
-      <c r="D4" s="252"/>
+      <c r="B4" s="243" t="s">
+        <v>116</v>
+      </c>
+      <c r="C4" s="243"/>
+      <c r="D4" s="243"/>
       <c r="E4" s="39"/>
       <c r="F4" s="39"/>
       <c r="G4" s="39"/>
@@ -11702,11 +11804,11 @@
       <c r="A5" s="139" t="s">
         <v>62</v>
       </c>
-      <c r="B5" s="253" t="s">
+      <c r="B5" s="242" t="s">
         <v>95</v>
       </c>
-      <c r="C5" s="252"/>
-      <c r="D5" s="252"/>
+      <c r="C5" s="243"/>
+      <c r="D5" s="243"/>
       <c r="E5" s="39"/>
       <c r="F5" s="39"/>
       <c r="G5" s="39"/>
@@ -11720,11 +11822,11 @@
       <c r="A6" s="139" t="s">
         <v>97</v>
       </c>
-      <c r="B6" s="253" t="s">
+      <c r="B6" s="242" t="s">
         <v>98</v>
       </c>
-      <c r="C6" s="252"/>
-      <c r="D6" s="252"/>
+      <c r="C6" s="243"/>
+      <c r="D6" s="243"/>
       <c r="E6" s="39"/>
       <c r="F6" s="39"/>
       <c r="G6" s="39"/>
@@ -11735,11 +11837,11 @@
       <c r="A7" s="139" t="s">
         <v>99</v>
       </c>
-      <c r="B7" s="252" t="s">
+      <c r="B7" s="243" t="s">
         <v>100</v>
       </c>
-      <c r="C7" s="252"/>
-      <c r="D7" s="252"/>
+      <c r="C7" s="243"/>
+      <c r="D7" s="243"/>
       <c r="E7" s="39"/>
       <c r="F7" s="39"/>
       <c r="G7" s="39"/>
@@ -11751,11 +11853,11 @@
       <c r="A8" s="139" t="s">
         <v>101</v>
       </c>
-      <c r="B8" s="259">
+      <c r="B8" s="244">
         <v>40850</v>
       </c>
-      <c r="C8" s="259"/>
-      <c r="D8" s="259"/>
+      <c r="C8" s="244"/>
+      <c r="D8" s="244"/>
       <c r="E8" s="39"/>
     </row>
     <row r="9" spans="1:24" s="43" customFormat="1">
@@ -11797,15 +11899,15 @@
         <v>41</v>
       </c>
       <c r="B11" s="75">
-        <f>COUNTIF($F$18:$F$49636,"*Passed")</f>
+        <f>COUNTIF($F$27:$F$49653,"*Passed")</f>
         <v>0</v>
       </c>
       <c r="C11" s="75">
-        <f>COUNTIF($G$18:$G$49636,"*Passed")</f>
+        <f>COUNTIF($G$27:$G$49653,"*Passed")</f>
         <v>0</v>
       </c>
       <c r="D11" s="75">
-        <f>COUNTIF($H$18:$H$49636,"*Passed")</f>
+        <f>COUNTIF($H$27:$H$49653,"*Passed")</f>
         <v>0</v>
       </c>
     </row>
@@ -11814,15 +11916,15 @@
         <v>43</v>
       </c>
       <c r="B12" s="75">
-        <f>COUNTIF($F$18:$F$49356,"*Failed*")</f>
+        <f>COUNTIF($F$27:$F$49373,"*Failed*")</f>
         <v>0</v>
       </c>
       <c r="C12" s="75">
-        <f>COUNTIF($G$18:$G$49356,"*Failed*")</f>
+        <f>COUNTIF($G$27:$G$49373,"*Failed*")</f>
         <v>0</v>
       </c>
       <c r="D12" s="75">
-        <f>COUNTIF($H$18:$H$49356,"*Failed*")</f>
+        <f>COUNTIF($H$27:$H$49373,"*Failed*")</f>
         <v>0</v>
       </c>
     </row>
@@ -11831,15 +11933,15 @@
         <v>45</v>
       </c>
       <c r="B13" s="75">
-        <f>COUNTIF($F$18:$F$49356,"*Not Run*")</f>
+        <f>COUNTIF($F$27:$F$49373,"*Not Run*")</f>
         <v>0</v>
       </c>
       <c r="C13" s="75">
-        <f>COUNTIF($G$18:$G$49356,"*Not Run*")</f>
+        <f>COUNTIF($G$27:$G$49373,"*Not Run*")</f>
         <v>0</v>
       </c>
       <c r="D13" s="75">
-        <f>COUNTIF($H$18:$H$49356,"*Not Run*")</f>
+        <f>COUNTIF($H$27:$H$49373,"*Not Run*")</f>
         <v>0</v>
       </c>
       <c r="E13" s="1"/>
@@ -11853,15 +11955,15 @@
         <v>104</v>
       </c>
       <c r="B14" s="75">
-        <f>COUNTIF($F$18:$F$49356,"*NA*")</f>
+        <f>COUNTIF($F$27:$F$49373,"*NA*")</f>
         <v>0</v>
       </c>
       <c r="C14" s="75">
-        <f>COUNTIF($G$18:$G$49356,"*NA*")</f>
+        <f>COUNTIF($G$27:$G$49373,"*NA*")</f>
         <v>0</v>
       </c>
       <c r="D14" s="75">
-        <f>COUNTIF($H$18:$H$49356,"*NA*")</f>
+        <f>COUNTIF($H$27:$H$49373,"*NA*")</f>
         <v>0</v>
       </c>
       <c r="E14" s="64"/>
@@ -11875,15 +11977,15 @@
         <v>105</v>
       </c>
       <c r="B15" s="75">
-        <f>COUNTIF($F$18:$F$49356,"*Passed in previous build*")</f>
+        <f>COUNTIF($F$27:$F$49373,"*Passed in previous build*")</f>
         <v>0</v>
       </c>
       <c r="C15" s="75">
-        <f>COUNTIF($G$18:$G$49356,"*Passed in previous build*")</f>
+        <f>COUNTIF($G$27:$G$49373,"*Passed in previous build*")</f>
         <v>0</v>
       </c>
       <c r="D15" s="75">
-        <f>COUNTIF($H$18:$H$49356,"*Passed in previous build*")</f>
+        <f>COUNTIF($H$27:$H$49373,"*Passed in previous build*")</f>
         <v>0</v>
       </c>
       <c r="E15" s="1"/>
@@ -11898,11 +12000,11 @@
       <c r="C16" s="50"/>
       <c r="D16" s="51"/>
       <c r="E16" s="65"/>
-      <c r="F16" s="287" t="s">
+      <c r="F16" s="275" t="s">
         <v>102</v>
       </c>
-      <c r="G16" s="288"/>
-      <c r="H16" s="289"/>
+      <c r="G16" s="276"/>
+      <c r="H16" s="277"/>
       <c r="I16" s="65"/>
     </row>
     <row r="17" spans="1:9" s="44" customFormat="1" ht="36.9">
@@ -11934,257 +12036,353 @@
         <v>114</v>
       </c>
     </row>
-    <row r="18" spans="1:9" s="44" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A18" s="67"/>
-      <c r="B18" s="260" t="s">
-        <v>115</v>
-      </c>
-      <c r="C18" s="261"/>
-      <c r="D18" s="262"/>
-      <c r="E18" s="67"/>
-      <c r="F18" s="68"/>
-      <c r="G18" s="68"/>
-      <c r="H18" s="68"/>
-      <c r="I18" s="67"/>
+    <row r="18" spans="1:9" s="45" customFormat="1">
+      <c r="A18" s="58">
+        <v>1</v>
+      </c>
+      <c r="B18" s="209" t="s">
+        <v>567</v>
+      </c>
+      <c r="C18" s="209"/>
+      <c r="D18" s="59"/>
+      <c r="E18" s="54"/>
+      <c r="F18" s="209"/>
+      <c r="G18" s="209"/>
+      <c r="H18" s="209"/>
+      <c r="I18" s="55"/>
     </row>
     <row r="19" spans="1:9" s="45" customFormat="1">
-      <c r="A19" s="52"/>
-      <c r="B19" s="52"/>
-      <c r="C19" s="52"/>
-      <c r="D19" s="53"/>
+      <c r="A19" s="58">
+        <f t="shared" ref="A19:A36" ca="1" si="0">IF(OFFSET(A19,-1,0) ="",OFFSET(A19,-2,0)+1,OFFSET(A19,-1,0)+1 )</f>
+        <v>2</v>
+      </c>
+      <c r="B19" s="316" t="s">
+        <v>568</v>
+      </c>
+      <c r="C19" s="201"/>
+      <c r="D19" s="317"/>
       <c r="E19" s="54"/>
-      <c r="F19" s="52"/>
-      <c r="G19" s="52"/>
-      <c r="H19" s="52"/>
+      <c r="F19" s="209"/>
+      <c r="G19" s="209"/>
+      <c r="H19" s="209"/>
       <c r="I19" s="55"/>
     </row>
     <row r="20" spans="1:9" s="45" customFormat="1">
-      <c r="A20" s="58"/>
-      <c r="B20" s="52"/>
-      <c r="C20" s="52"/>
-      <c r="D20" s="59"/>
+      <c r="A20" s="58">
+        <f t="shared" ca="1" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="B20" s="316" t="s">
+        <v>569</v>
+      </c>
+      <c r="C20" s="201"/>
+      <c r="D20" s="317"/>
       <c r="E20" s="54"/>
-      <c r="F20" s="52"/>
-      <c r="G20" s="52"/>
-      <c r="H20" s="52"/>
+      <c r="F20" s="209"/>
+      <c r="G20" s="209"/>
+      <c r="H20" s="209"/>
       <c r="I20" s="55"/>
     </row>
     <row r="21" spans="1:9" s="45" customFormat="1">
-      <c r="A21" s="58"/>
-      <c r="B21" s="52"/>
-      <c r="C21" s="52"/>
-      <c r="D21" s="60"/>
+      <c r="A21" s="58">
+        <f ca="1">IF(OFFSET(A21,-1,0) ="",OFFSET(A21,-2,0)+1,OFFSET(A21,-1,0)+1 )</f>
+        <v>4</v>
+      </c>
+      <c r="B21" s="316" t="s">
+        <v>570</v>
+      </c>
+      <c r="C21" s="201"/>
+      <c r="D21" s="317"/>
       <c r="E21" s="54"/>
-      <c r="F21" s="52"/>
-      <c r="G21" s="52"/>
-      <c r="H21" s="52"/>
+      <c r="F21" s="209"/>
+      <c r="G21" s="209"/>
+      <c r="H21" s="209"/>
       <c r="I21" s="55"/>
     </row>
-    <row r="22" spans="1:9" s="48" customFormat="1" ht="13.8">
-      <c r="A22" s="58"/>
-      <c r="B22" s="52"/>
-      <c r="C22" s="52"/>
-      <c r="D22" s="54"/>
+    <row r="22" spans="1:9" s="45" customFormat="1">
+      <c r="A22" s="58">
+        <f t="shared" ca="1" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="B22" s="316" t="s">
+        <v>571</v>
+      </c>
+      <c r="C22" s="201"/>
+      <c r="D22" s="317"/>
       <c r="E22" s="54"/>
-      <c r="F22" s="52"/>
-      <c r="G22" s="52"/>
-      <c r="H22" s="52"/>
-      <c r="I22" s="61"/>
-    </row>
-    <row r="23" spans="1:9" s="48" customFormat="1" ht="13.8">
-      <c r="A23" s="58"/>
-      <c r="B23" s="52"/>
-      <c r="C23" s="52"/>
-      <c r="D23" s="54"/>
+      <c r="F22" s="209"/>
+      <c r="G22" s="209"/>
+      <c r="H22" s="209"/>
+      <c r="I22" s="55"/>
+    </row>
+    <row r="23" spans="1:9" s="45" customFormat="1">
+      <c r="A23" s="58">
+        <f t="shared" ca="1" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="B23" s="316" t="s">
+        <v>572</v>
+      </c>
+      <c r="C23" s="201"/>
+      <c r="D23" s="317"/>
       <c r="E23" s="54"/>
-      <c r="F23" s="52"/>
-      <c r="G23" s="52"/>
-      <c r="H23" s="52"/>
-      <c r="I23" s="61" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="24" spans="1:9" s="48" customFormat="1" ht="13.8">
-      <c r="A24" s="58"/>
-      <c r="B24" s="52"/>
-      <c r="C24" s="52"/>
-      <c r="D24" s="60"/>
+      <c r="F23" s="209"/>
+      <c r="G23" s="209"/>
+      <c r="H23" s="209"/>
+      <c r="I23" s="55"/>
+    </row>
+    <row r="24" spans="1:9" s="45" customFormat="1" ht="24.6">
+      <c r="A24" s="58">
+        <f t="shared" ca="1" si="0"/>
+        <v>7</v>
+      </c>
+      <c r="B24" s="316" t="s">
+        <v>573</v>
+      </c>
+      <c r="C24" s="201"/>
+      <c r="D24" s="317"/>
       <c r="E24" s="54"/>
-      <c r="F24" s="52"/>
-      <c r="G24" s="52"/>
-      <c r="H24" s="52"/>
-      <c r="I24" s="61"/>
-    </row>
-    <row r="25" spans="1:9" s="48" customFormat="1" ht="13.8">
-      <c r="A25" s="58"/>
-      <c r="B25" s="52"/>
-      <c r="C25" s="52"/>
-      <c r="D25" s="54"/>
+      <c r="F24" s="209"/>
+      <c r="G24" s="209"/>
+      <c r="H24" s="209"/>
+      <c r="I24" s="55"/>
+    </row>
+    <row r="25" spans="1:9" s="45" customFormat="1">
+      <c r="A25" s="58">
+        <f t="shared" ca="1" si="0"/>
+        <v>8</v>
+      </c>
+      <c r="B25" s="316" t="s">
+        <v>574</v>
+      </c>
+      <c r="C25" s="201"/>
+      <c r="D25" s="317"/>
       <c r="E25" s="54"/>
-      <c r="F25" s="52"/>
-      <c r="G25" s="52"/>
-      <c r="H25" s="52"/>
-      <c r="I25" s="61"/>
-    </row>
-    <row r="26" spans="1:9" s="48" customFormat="1" ht="13.8">
-      <c r="A26" s="58"/>
-      <c r="B26" s="52"/>
-      <c r="C26" s="52"/>
-      <c r="D26" s="54"/>
+      <c r="F25" s="209"/>
+      <c r="G25" s="209"/>
+      <c r="H25" s="209"/>
+      <c r="I25" s="55"/>
+    </row>
+    <row r="26" spans="1:9" s="45" customFormat="1">
+      <c r="A26" s="58">
+        <f t="shared" ca="1" si="0"/>
+        <v>9</v>
+      </c>
+      <c r="B26" s="316"/>
+      <c r="C26" s="201"/>
+      <c r="D26" s="317"/>
       <c r="E26" s="54"/>
-      <c r="F26" s="52"/>
-      <c r="G26" s="52"/>
-      <c r="H26" s="52"/>
-      <c r="I26" s="61"/>
-    </row>
-    <row r="27" spans="1:9" s="48" customFormat="1" ht="13.8">
-      <c r="A27" s="58"/>
-      <c r="B27" s="52"/>
-      <c r="C27" s="52"/>
-      <c r="D27" s="54"/>
-      <c r="E27" s="54"/>
-      <c r="F27" s="52"/>
-      <c r="G27" s="52"/>
-      <c r="H27" s="52"/>
-      <c r="I27" s="61"/>
-    </row>
-    <row r="28" spans="1:9" s="48" customFormat="1" ht="13.8">
-      <c r="A28" s="58"/>
-      <c r="B28" s="52"/>
+      <c r="F26" s="209"/>
+      <c r="G26" s="209"/>
+      <c r="H26" s="209"/>
+      <c r="I26" s="55"/>
+    </row>
+    <row r="27" spans="1:9" s="44" customFormat="1" ht="15.75" customHeight="1">
+      <c r="A27" s="77"/>
+      <c r="B27" s="245" t="s">
+        <v>566</v>
+      </c>
+      <c r="C27" s="246"/>
+      <c r="D27" s="247"/>
+      <c r="E27" s="67"/>
+      <c r="F27" s="68"/>
+      <c r="G27" s="68"/>
+      <c r="H27" s="68"/>
+      <c r="I27" s="67"/>
+    </row>
+    <row r="28" spans="1:9" s="45" customFormat="1">
+      <c r="A28" s="58">
+        <f t="shared" ca="1" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="B28" s="209" t="s">
+        <v>575</v>
+      </c>
       <c r="C28" s="52"/>
-      <c r="D28" s="54"/>
+      <c r="D28" s="53"/>
       <c r="E28" s="54"/>
       <c r="F28" s="52"/>
       <c r="G28" s="52"/>
       <c r="H28" s="52"/>
-      <c r="I28" s="61"/>
-    </row>
-    <row r="29" spans="1:9" s="48" customFormat="1" ht="13.8">
-      <c r="A29" s="77"/>
-      <c r="B29" s="260"/>
-      <c r="C29" s="261"/>
-      <c r="D29" s="262"/>
-      <c r="E29" s="69"/>
-      <c r="F29" s="66"/>
-      <c r="G29" s="66"/>
-      <c r="H29" s="66"/>
-      <c r="I29" s="69"/>
-    </row>
-    <row r="30" spans="1:9" s="48" customFormat="1" ht="13.8">
-      <c r="A30" s="62"/>
-      <c r="B30" s="52"/>
+      <c r="I28" s="55"/>
+    </row>
+    <row r="29" spans="1:9" s="45" customFormat="1" ht="24.6">
+      <c r="A29" s="58">
+        <f t="shared" ca="1" si="0"/>
+        <v>11</v>
+      </c>
+      <c r="B29" s="209" t="s">
+        <v>576</v>
+      </c>
+      <c r="C29" s="52"/>
+      <c r="D29" s="59"/>
+      <c r="E29" s="54"/>
+      <c r="F29" s="52"/>
+      <c r="G29" s="52"/>
+      <c r="H29" s="52"/>
+      <c r="I29" s="55"/>
+    </row>
+    <row r="30" spans="1:9" s="45" customFormat="1" ht="24.6">
+      <c r="A30" s="58">
+        <f t="shared" ca="1" si="0"/>
+        <v>12</v>
+      </c>
+      <c r="B30" s="209" t="s">
+        <v>578</v>
+      </c>
       <c r="C30" s="52"/>
-      <c r="D30" s="53"/>
+      <c r="D30" s="60"/>
       <c r="E30" s="54"/>
       <c r="F30" s="52"/>
       <c r="G30" s="52"/>
       <c r="H30" s="52"/>
-      <c r="I30" s="62"/>
-    </row>
-    <row r="31" spans="1:9" s="48" customFormat="1" ht="94.5" customHeight="1">
-      <c r="A31" s="62"/>
-      <c r="B31" s="52"/>
+      <c r="I30" s="55"/>
+    </row>
+    <row r="31" spans="1:9" s="48" customFormat="1" ht="24.6">
+      <c r="A31" s="58">
+        <f t="shared" ca="1" si="0"/>
+        <v>13</v>
+      </c>
+      <c r="B31" s="209" t="s">
+        <v>577</v>
+      </c>
       <c r="C31" s="52"/>
-      <c r="D31" s="59"/>
+      <c r="D31" s="54"/>
       <c r="E31" s="54"/>
       <c r="F31" s="52"/>
       <c r="G31" s="52"/>
       <c r="H31" s="52"/>
-      <c r="I31" s="62"/>
+      <c r="I31" s="61"/>
     </row>
     <row r="32" spans="1:9" s="48" customFormat="1" ht="13.8">
-      <c r="A32" s="62"/>
-      <c r="B32" s="52"/>
-      <c r="C32" s="52"/>
-      <c r="D32" s="53"/>
-      <c r="E32" s="54"/>
-      <c r="F32" s="52"/>
-      <c r="G32" s="52"/>
-      <c r="H32" s="52"/>
-      <c r="I32" s="62"/>
+      <c r="A32" s="77"/>
+      <c r="B32" s="245" t="s">
+        <v>579</v>
+      </c>
+      <c r="C32" s="246"/>
+      <c r="D32" s="247"/>
+      <c r="E32" s="69"/>
+      <c r="F32" s="66"/>
+      <c r="G32" s="66"/>
+      <c r="H32" s="66"/>
+      <c r="I32" s="69"/>
     </row>
     <row r="33" spans="1:9" s="48" customFormat="1" ht="13.8">
-      <c r="A33" s="62"/>
-      <c r="B33" s="52"/>
+      <c r="A33" s="58">
+        <f t="shared" ca="1" si="0"/>
+        <v>14</v>
+      </c>
+      <c r="B33" s="52" t="s">
+        <v>581</v>
+      </c>
       <c r="C33" s="52"/>
-      <c r="D33" s="60"/>
+      <c r="D33" s="54"/>
       <c r="E33" s="54"/>
       <c r="F33" s="52"/>
       <c r="G33" s="52"/>
       <c r="H33" s="52"/>
-      <c r="I33" s="62"/>
+      <c r="I33" s="61"/>
     </row>
     <row r="34" spans="1:9" s="48" customFormat="1" ht="13.8">
-      <c r="A34" s="62"/>
-      <c r="B34" s="52"/>
+      <c r="A34" s="58">
+        <f t="shared" ca="1" si="0"/>
+        <v>15</v>
+      </c>
+      <c r="B34" s="209" t="s">
+        <v>580</v>
+      </c>
       <c r="C34" s="52"/>
       <c r="D34" s="54"/>
       <c r="E34" s="54"/>
       <c r="F34" s="52"/>
       <c r="G34" s="52"/>
       <c r="H34" s="52"/>
-      <c r="I34" s="62"/>
+      <c r="I34" s="61"/>
     </row>
     <row r="35" spans="1:9" s="48" customFormat="1" ht="13.8">
-      <c r="A35" s="77"/>
-      <c r="B35" s="260"/>
-      <c r="C35" s="261"/>
-      <c r="D35" s="262"/>
-      <c r="E35" s="69"/>
-      <c r="F35" s="66"/>
-      <c r="G35" s="66"/>
-      <c r="H35" s="66"/>
-      <c r="I35" s="69"/>
+      <c r="A35" s="58">
+        <f t="shared" ca="1" si="0"/>
+        <v>16</v>
+      </c>
+      <c r="B35" s="209" t="s">
+        <v>582</v>
+      </c>
+      <c r="C35" s="209"/>
+      <c r="D35" s="54"/>
+      <c r="E35" s="54"/>
+      <c r="F35" s="209"/>
+      <c r="G35" s="209"/>
+      <c r="H35" s="209"/>
+      <c r="I35" s="61"/>
     </row>
     <row r="36" spans="1:9" s="48" customFormat="1" ht="13.8">
-      <c r="A36" s="62"/>
-      <c r="B36" s="52"/>
-      <c r="C36" s="52"/>
-      <c r="D36" s="53"/>
+      <c r="A36" s="58">
+        <f t="shared" ca="1" si="0"/>
+        <v>17</v>
+      </c>
+      <c r="B36" s="209" t="s">
+        <v>583</v>
+      </c>
+      <c r="C36" s="209"/>
+      <c r="D36" s="54"/>
       <c r="E36" s="54"/>
-      <c r="F36" s="52"/>
-      <c r="G36" s="52"/>
-      <c r="H36" s="52"/>
-      <c r="I36" s="62"/>
+      <c r="F36" s="209"/>
+      <c r="G36" s="209"/>
+      <c r="H36" s="209"/>
+      <c r="I36" s="61"/>
     </row>
     <row r="37" spans="1:9" s="48" customFormat="1" ht="13.8">
       <c r="A37" s="77"/>
-      <c r="B37" s="260"/>
-      <c r="C37" s="261"/>
-      <c r="D37" s="262"/>
+      <c r="B37" s="245" t="s">
+        <v>584</v>
+      </c>
+      <c r="C37" s="246"/>
+      <c r="D37" s="247"/>
       <c r="E37" s="69"/>
       <c r="F37" s="66"/>
       <c r="G37" s="66"/>
       <c r="H37" s="66"/>
       <c r="I37" s="69"/>
     </row>
-    <row r="38" spans="1:9" s="49" customFormat="1" ht="13.8">
-      <c r="A38" s="63"/>
-      <c r="B38" s="52"/>
+    <row r="38" spans="1:9" s="48" customFormat="1" ht="24.6">
+      <c r="A38" s="58">
+        <f ca="1">IF(OFFSET(A38,-1,0) ="",OFFSET(A38,-2,0)+1,OFFSET(A38,-1,0)+1 )</f>
+        <v>18</v>
+      </c>
+      <c r="B38" s="52" t="s">
+        <v>585</v>
+      </c>
       <c r="C38" s="52"/>
       <c r="D38" s="53"/>
       <c r="E38" s="54"/>
       <c r="F38" s="52"/>
       <c r="G38" s="52"/>
       <c r="H38" s="52"/>
-      <c r="I38" s="63"/>
+      <c r="I38" s="62"/>
     </row>
     <row r="39" spans="1:9" s="48" customFormat="1" ht="13.8">
-      <c r="A39" s="62"/>
-      <c r="B39" s="52"/>
-      <c r="C39" s="52"/>
-      <c r="D39" s="54"/>
-      <c r="E39" s="54"/>
-      <c r="F39" s="52"/>
-      <c r="G39" s="52"/>
-      <c r="H39" s="52"/>
-      <c r="I39" s="62"/>
+      <c r="A39" s="77"/>
+      <c r="B39" s="245" t="s">
+        <v>586</v>
+      </c>
+      <c r="C39" s="246"/>
+      <c r="D39" s="247"/>
+      <c r="E39" s="69"/>
+      <c r="F39" s="66"/>
+      <c r="G39" s="66"/>
+      <c r="H39" s="66"/>
+      <c r="I39" s="69"/>
     </row>
     <row r="40" spans="1:9" s="48" customFormat="1" ht="13.8">
-      <c r="A40" s="62"/>
-      <c r="B40" s="52"/>
+      <c r="A40" s="62">
+        <f ca="1">IF(OFFSET(A40,-1,0) ="",OFFSET(A40,-2,0)+1,OFFSET(A40,-1,0)+1 )</f>
+        <v>19</v>
+      </c>
+      <c r="B40" s="52" t="s">
+        <v>587</v>
+      </c>
       <c r="C40" s="52"/>
-      <c r="D40" s="54"/>
+      <c r="D40" s="53"/>
       <c r="E40" s="54"/>
       <c r="F40" s="52"/>
       <c r="G40" s="52"/>
@@ -12192,30 +12390,45 @@
       <c r="I40" s="62"/>
     </row>
     <row r="41" spans="1:9" s="48" customFormat="1" ht="13.8">
-      <c r="A41" s="62"/>
-      <c r="B41" s="52"/>
+      <c r="A41" s="62">
+        <f t="shared" ref="A41:A42" ca="1" si="1">IF(OFFSET(A41,-1,0) ="",OFFSET(A41,-2,0)+1,OFFSET(A41,-1,0)+1 )</f>
+        <v>20</v>
+      </c>
+      <c r="B41" s="209" t="s">
+        <v>588</v>
+      </c>
       <c r="C41" s="52"/>
-      <c r="D41" s="54"/>
-      <c r="E41" s="60"/>
+      <c r="D41" s="60"/>
+      <c r="E41" s="54"/>
       <c r="F41" s="52"/>
       <c r="G41" s="52"/>
       <c r="H41" s="52"/>
       <c r="I41" s="62"/>
     </row>
     <row r="42" spans="1:9" s="48" customFormat="1" ht="13.8">
-      <c r="A42" s="62"/>
-      <c r="B42" s="52"/>
-      <c r="C42" s="52"/>
-      <c r="D42" s="54"/>
+      <c r="A42" s="62">
+        <f t="shared" ca="1" si="1"/>
+        <v>21</v>
+      </c>
+      <c r="B42" s="209" t="s">
+        <v>589</v>
+      </c>
+      <c r="C42" s="209"/>
+      <c r="D42" s="60"/>
       <c r="E42" s="54"/>
-      <c r="F42" s="52"/>
-      <c r="G42" s="52"/>
-      <c r="H42" s="52"/>
+      <c r="F42" s="209"/>
+      <c r="G42" s="209"/>
+      <c r="H42" s="209"/>
       <c r="I42" s="62"/>
     </row>
     <row r="43" spans="1:9" s="48" customFormat="1" ht="13.8">
-      <c r="A43" s="62"/>
-      <c r="B43" s="52"/>
+      <c r="A43" s="62">
+        <f ca="1">IF(OFFSET(A43,-1,0) ="",OFFSET(A43,-2,0)+1,OFFSET(A43,-1,0)+1 )</f>
+        <v>22</v>
+      </c>
+      <c r="B43" s="209" t="s">
+        <v>590</v>
+      </c>
       <c r="C43" s="52"/>
       <c r="D43" s="54"/>
       <c r="E43" s="54"/>
@@ -12225,21 +12438,28 @@
       <c r="I43" s="62"/>
     </row>
     <row r="44" spans="1:9" s="48" customFormat="1" ht="13.8">
-      <c r="A44" s="62"/>
-      <c r="B44" s="52"/>
-      <c r="C44" s="52"/>
-      <c r="D44" s="54"/>
-      <c r="E44" s="54"/>
-      <c r="F44" s="52"/>
-      <c r="G44" s="52"/>
-      <c r="H44" s="52"/>
-      <c r="I44" s="62"/>
+      <c r="A44" s="77"/>
+      <c r="B44" s="245" t="s">
+        <v>591</v>
+      </c>
+      <c r="C44" s="246"/>
+      <c r="D44" s="247"/>
+      <c r="E44" s="69"/>
+      <c r="F44" s="66"/>
+      <c r="G44" s="66"/>
+      <c r="H44" s="66"/>
+      <c r="I44" s="69"/>
     </row>
     <row r="45" spans="1:9" s="48" customFormat="1" ht="13.8">
-      <c r="A45" s="62"/>
-      <c r="B45" s="52"/>
+      <c r="A45" s="62">
+        <f ca="1">IF(OFFSET(A45,-1,0) ="",OFFSET(A45,-2,0)+1,OFFSET(A45,-1,0)+1 )</f>
+        <v>23</v>
+      </c>
+      <c r="B45" s="52" t="s">
+        <v>593</v>
+      </c>
       <c r="C45" s="52"/>
-      <c r="D45" s="54"/>
+      <c r="D45" s="53"/>
       <c r="E45" s="54"/>
       <c r="F45" s="52"/>
       <c r="G45" s="52"/>
@@ -12247,131 +12467,188 @@
       <c r="I45" s="62"/>
     </row>
     <row r="46" spans="1:9" s="48" customFormat="1" ht="13.8">
-      <c r="A46" s="62"/>
-      <c r="B46" s="52"/>
-      <c r="C46" s="52"/>
-      <c r="D46" s="60"/>
+      <c r="A46" s="62">
+        <f t="shared" ref="A46:A57" ca="1" si="2">IF(OFFSET(A46,-1,0) ="",OFFSET(A46,-2,0)+1,OFFSET(A46,-1,0)+1 )</f>
+        <v>24</v>
+      </c>
+      <c r="B46" s="209" t="s">
+        <v>592</v>
+      </c>
+      <c r="C46" s="201"/>
+      <c r="D46" s="318"/>
       <c r="E46" s="54"/>
-      <c r="F46" s="52"/>
-      <c r="G46" s="52"/>
-      <c r="H46" s="52"/>
+      <c r="F46" s="209"/>
+      <c r="G46" s="209"/>
+      <c r="H46" s="209"/>
       <c r="I46" s="62"/>
     </row>
     <row r="47" spans="1:9" s="48" customFormat="1" ht="13.8">
-      <c r="A47" s="77"/>
-      <c r="B47" s="260"/>
-      <c r="C47" s="261"/>
-      <c r="D47" s="262"/>
-      <c r="E47" s="69"/>
-      <c r="F47" s="66"/>
-      <c r="G47" s="66"/>
-      <c r="H47" s="66"/>
-      <c r="I47" s="69"/>
+      <c r="A47" s="62">
+        <f t="shared" ca="1" si="2"/>
+        <v>25</v>
+      </c>
+      <c r="B47" s="209" t="s">
+        <v>594</v>
+      </c>
+      <c r="C47" s="201"/>
+      <c r="D47" s="318"/>
+      <c r="E47" s="54"/>
+      <c r="F47" s="209"/>
+      <c r="G47" s="209"/>
+      <c r="H47" s="209"/>
+      <c r="I47" s="62"/>
     </row>
     <row r="48" spans="1:9" s="48" customFormat="1" ht="13.8">
-      <c r="A48" s="62"/>
-      <c r="B48" s="52"/>
-      <c r="C48" s="52"/>
-      <c r="D48" s="53"/>
+      <c r="A48" s="62">
+        <f t="shared" ca="1" si="2"/>
+        <v>26</v>
+      </c>
+      <c r="B48" s="209" t="s">
+        <v>595</v>
+      </c>
+      <c r="C48" s="201"/>
+      <c r="D48" s="318"/>
       <c r="E48" s="54"/>
-      <c r="F48" s="52"/>
-      <c r="G48" s="52"/>
-      <c r="H48" s="52"/>
+      <c r="F48" s="209"/>
+      <c r="G48" s="209"/>
+      <c r="H48" s="209"/>
       <c r="I48" s="62"/>
     </row>
-    <row r="49" spans="1:9" s="48" customFormat="1" ht="13.8">
-      <c r="A49" s="62"/>
-      <c r="B49" s="52"/>
-      <c r="C49" s="52"/>
-      <c r="D49" s="54"/>
+    <row r="49" spans="1:9" s="48" customFormat="1" ht="24.6">
+      <c r="A49" s="62">
+        <f t="shared" ca="1" si="2"/>
+        <v>27</v>
+      </c>
+      <c r="B49" s="209" t="s">
+        <v>598</v>
+      </c>
+      <c r="C49" s="201"/>
+      <c r="D49" s="318"/>
       <c r="E49" s="54"/>
-      <c r="F49" s="52"/>
-      <c r="G49" s="52"/>
-      <c r="H49" s="52"/>
+      <c r="F49" s="209"/>
+      <c r="G49" s="209"/>
+      <c r="H49" s="209"/>
       <c r="I49" s="62"/>
     </row>
-    <row r="50" spans="1:9" s="48" customFormat="1" ht="13.8">
-      <c r="A50" s="62"/>
-      <c r="B50" s="52"/>
-      <c r="C50" s="52"/>
-      <c r="D50" s="54"/>
+    <row r="50" spans="1:9" s="48" customFormat="1" ht="24.6">
+      <c r="A50" s="62">
+        <f t="shared" ca="1" si="2"/>
+        <v>28</v>
+      </c>
+      <c r="B50" s="209" t="s">
+        <v>599</v>
+      </c>
+      <c r="C50" s="201"/>
+      <c r="D50" s="318"/>
       <c r="E50" s="54"/>
-      <c r="F50" s="52"/>
-      <c r="G50" s="52"/>
-      <c r="H50" s="52"/>
+      <c r="F50" s="209"/>
+      <c r="G50" s="209"/>
+      <c r="H50" s="209"/>
       <c r="I50" s="62"/>
     </row>
     <row r="51" spans="1:9" s="48" customFormat="1" ht="13.8">
-      <c r="A51" s="62"/>
-      <c r="B51" s="52"/>
-      <c r="C51" s="52"/>
-      <c r="D51" s="54"/>
+      <c r="A51" s="62">
+        <f t="shared" ca="1" si="2"/>
+        <v>29</v>
+      </c>
+      <c r="B51" s="209" t="s">
+        <v>600</v>
+      </c>
+      <c r="C51" s="201"/>
+      <c r="D51" s="318"/>
       <c r="E51" s="54"/>
-      <c r="F51" s="52"/>
-      <c r="G51" s="52"/>
-      <c r="H51" s="52"/>
+      <c r="F51" s="209"/>
+      <c r="G51" s="209"/>
+      <c r="H51" s="209"/>
       <c r="I51" s="62"/>
     </row>
     <row r="52" spans="1:9" s="48" customFormat="1" ht="13.8">
-      <c r="A52" s="77"/>
-      <c r="B52" s="260"/>
-      <c r="C52" s="261"/>
-      <c r="D52" s="262"/>
-      <c r="E52" s="69"/>
-      <c r="F52" s="66"/>
-      <c r="G52" s="66"/>
-      <c r="H52" s="66"/>
-      <c r="I52" s="69"/>
+      <c r="A52" s="62">
+        <f t="shared" ca="1" si="2"/>
+        <v>30</v>
+      </c>
+      <c r="B52" s="209" t="s">
+        <v>601</v>
+      </c>
+      <c r="C52" s="201"/>
+      <c r="D52" s="318"/>
+      <c r="E52" s="54"/>
+      <c r="F52" s="209"/>
+      <c r="G52" s="209"/>
+      <c r="H52" s="209"/>
+      <c r="I52" s="62"/>
     </row>
     <row r="53" spans="1:9" s="48" customFormat="1" ht="13.8">
-      <c r="A53" s="62"/>
-      <c r="B53" s="52"/>
-      <c r="C53" s="52"/>
-      <c r="D53" s="53"/>
+      <c r="A53" s="62">
+        <f t="shared" ca="1" si="2"/>
+        <v>31</v>
+      </c>
+      <c r="B53" s="209" t="s">
+        <v>602</v>
+      </c>
+      <c r="C53" s="201"/>
+      <c r="D53" s="318"/>
       <c r="E53" s="54"/>
-      <c r="F53" s="52"/>
-      <c r="G53" s="52"/>
-      <c r="H53" s="52"/>
+      <c r="F53" s="209"/>
+      <c r="G53" s="209"/>
+      <c r="H53" s="209"/>
       <c r="I53" s="62"/>
     </row>
     <row r="54" spans="1:9" s="48" customFormat="1" ht="13.8">
-      <c r="A54" s="62"/>
-      <c r="B54" s="52"/>
-      <c r="C54" s="52"/>
-      <c r="D54" s="54"/>
-      <c r="E54" s="60"/>
-      <c r="F54" s="52"/>
-      <c r="G54" s="52"/>
-      <c r="H54" s="52"/>
-      <c r="I54" s="62"/>
-    </row>
-    <row r="55" spans="1:9" s="48" customFormat="1" ht="13.8">
-      <c r="A55" s="62"/>
-      <c r="B55" s="52"/>
-      <c r="C55" s="52"/>
-      <c r="D55" s="60"/>
+      <c r="A54" s="77"/>
+      <c r="B54" s="245" t="s">
+        <v>596</v>
+      </c>
+      <c r="C54" s="246"/>
+      <c r="D54" s="247"/>
+      <c r="E54" s="69"/>
+      <c r="F54" s="66"/>
+      <c r="G54" s="66"/>
+      <c r="H54" s="66"/>
+      <c r="I54" s="69"/>
+    </row>
+    <row r="55" spans="1:9" s="48" customFormat="1" ht="24.6">
+      <c r="A55" s="62">
+        <f t="shared" ca="1" si="2"/>
+        <v>32</v>
+      </c>
+      <c r="B55" s="209" t="s">
+        <v>603</v>
+      </c>
+      <c r="C55" s="201"/>
+      <c r="D55" s="318"/>
       <c r="E55" s="54"/>
-      <c r="F55" s="52"/>
-      <c r="G55" s="52"/>
-      <c r="H55" s="52"/>
+      <c r="F55" s="209"/>
+      <c r="G55" s="209"/>
+      <c r="H55" s="209"/>
       <c r="I55" s="62"/>
     </row>
-    <row r="56" spans="1:9" s="48" customFormat="1" ht="13.8">
-      <c r="A56" s="77"/>
-      <c r="B56" s="260"/>
-      <c r="C56" s="261"/>
-      <c r="D56" s="262"/>
-      <c r="E56" s="69"/>
-      <c r="F56" s="66"/>
-      <c r="G56" s="66"/>
-      <c r="H56" s="66"/>
-      <c r="I56" s="69"/>
-    </row>
-    <row r="57" spans="1:9" s="48" customFormat="1" ht="13.8">
-      <c r="A57" s="62"/>
-      <c r="B57" s="52"/>
+    <row r="56" spans="1:9" s="48" customFormat="1" ht="24.6">
+      <c r="A56" s="62">
+        <f t="shared" ca="1" si="2"/>
+        <v>33</v>
+      </c>
+      <c r="B56" s="52" t="s">
+        <v>604</v>
+      </c>
+      <c r="C56" s="52"/>
+      <c r="D56" s="54"/>
+      <c r="E56" s="54"/>
+      <c r="F56" s="52"/>
+      <c r="G56" s="52"/>
+      <c r="H56" s="52"/>
+      <c r="I56" s="62"/>
+    </row>
+    <row r="57" spans="1:9" s="48" customFormat="1" ht="24.6">
+      <c r="A57" s="62">
+        <f t="shared" ca="1" si="2"/>
+        <v>34</v>
+      </c>
+      <c r="B57" s="52" t="s">
+        <v>605</v>
+      </c>
       <c r="C57" s="52"/>
-      <c r="D57" s="53"/>
+      <c r="D57" s="54"/>
       <c r="E57" s="54"/>
       <c r="F57" s="52"/>
       <c r="G57" s="52"/>
@@ -12394,7 +12671,7 @@
       <c r="B59" s="52"/>
       <c r="C59" s="52"/>
       <c r="D59" s="54"/>
-      <c r="E59" s="60"/>
+      <c r="E59" s="54"/>
       <c r="F59" s="52"/>
       <c r="G59" s="52"/>
       <c r="H59" s="52"/>
@@ -12405,7 +12682,7 @@
       <c r="B60" s="52"/>
       <c r="C60" s="52"/>
       <c r="D60" s="54"/>
-      <c r="E60" s="60"/>
+      <c r="E60" s="54"/>
       <c r="F60" s="52"/>
       <c r="G60" s="52"/>
       <c r="H60" s="52"/>
@@ -12445,21 +12722,21 @@
       <c r="I63" s="62"/>
     </row>
     <row r="64" spans="1:9" s="48" customFormat="1" ht="13.8">
-      <c r="A64" s="62"/>
-      <c r="B64" s="52"/>
-      <c r="C64" s="52"/>
-      <c r="D64" s="60"/>
-      <c r="E64" s="54"/>
-      <c r="F64" s="52"/>
-      <c r="G64" s="52"/>
-      <c r="H64" s="52"/>
-      <c r="I64" s="62"/>
+      <c r="A64" s="77"/>
+      <c r="B64" s="245"/>
+      <c r="C64" s="246"/>
+      <c r="D64" s="247"/>
+      <c r="E64" s="69"/>
+      <c r="F64" s="66"/>
+      <c r="G64" s="66"/>
+      <c r="H64" s="66"/>
+      <c r="I64" s="69"/>
     </row>
     <row r="65" spans="1:9" s="48" customFormat="1" ht="13.8">
       <c r="A65" s="62"/>
       <c r="B65" s="52"/>
       <c r="C65" s="52"/>
-      <c r="D65" s="60"/>
+      <c r="D65" s="53"/>
       <c r="E65" s="54"/>
       <c r="F65" s="52"/>
       <c r="G65" s="52"/>
@@ -12471,7 +12748,7 @@
       <c r="B66" s="52"/>
       <c r="C66" s="52"/>
       <c r="D66" s="54"/>
-      <c r="E66" s="60"/>
+      <c r="E66" s="54"/>
       <c r="F66" s="52"/>
       <c r="G66" s="52"/>
       <c r="H66" s="52"/>
@@ -12482,40 +12759,40 @@
       <c r="B67" s="52"/>
       <c r="C67" s="52"/>
       <c r="D67" s="54"/>
-      <c r="E67" s="60"/>
+      <c r="E67" s="54"/>
       <c r="F67" s="52"/>
       <c r="G67" s="52"/>
       <c r="H67" s="52"/>
       <c r="I67" s="62"/>
     </row>
     <row r="68" spans="1:9" s="48" customFormat="1" ht="13.8">
-      <c r="A68" s="77"/>
-      <c r="B68" s="260"/>
-      <c r="C68" s="261"/>
-      <c r="D68" s="262"/>
-      <c r="E68" s="69"/>
-      <c r="F68" s="66"/>
-      <c r="G68" s="66"/>
-      <c r="H68" s="66"/>
-      <c r="I68" s="69"/>
+      <c r="A68" s="62"/>
+      <c r="B68" s="52"/>
+      <c r="C68" s="52"/>
+      <c r="D68" s="54"/>
+      <c r="E68" s="54"/>
+      <c r="F68" s="52"/>
+      <c r="G68" s="52"/>
+      <c r="H68" s="52"/>
+      <c r="I68" s="62"/>
     </row>
     <row r="69" spans="1:9" s="48" customFormat="1" ht="13.8">
-      <c r="A69" s="62"/>
-      <c r="B69" s="52"/>
-      <c r="C69" s="52"/>
-      <c r="D69" s="53"/>
-      <c r="E69" s="54"/>
-      <c r="F69" s="52"/>
-      <c r="G69" s="52"/>
-      <c r="H69" s="52"/>
-      <c r="I69" s="62"/>
+      <c r="A69" s="77"/>
+      <c r="B69" s="245"/>
+      <c r="C69" s="246"/>
+      <c r="D69" s="247"/>
+      <c r="E69" s="69"/>
+      <c r="F69" s="66"/>
+      <c r="G69" s="66"/>
+      <c r="H69" s="66"/>
+      <c r="I69" s="69"/>
     </row>
     <row r="70" spans="1:9" s="48" customFormat="1" ht="13.8">
       <c r="A70" s="62"/>
       <c r="B70" s="52"/>
       <c r="C70" s="52"/>
-      <c r="D70" s="60"/>
-      <c r="E70" s="60"/>
+      <c r="D70" s="53"/>
+      <c r="E70" s="54"/>
       <c r="F70" s="52"/>
       <c r="G70" s="52"/>
       <c r="H70" s="52"/>
@@ -12525,7 +12802,7 @@
       <c r="A71" s="62"/>
       <c r="B71" s="52"/>
       <c r="C71" s="52"/>
-      <c r="D71" s="60"/>
+      <c r="D71" s="54"/>
       <c r="E71" s="60"/>
       <c r="F71" s="52"/>
       <c r="G71" s="52"/>
@@ -12533,32 +12810,32 @@
       <c r="I71" s="62"/>
     </row>
     <row r="72" spans="1:9" s="48" customFormat="1" ht="13.8">
-      <c r="A72" s="77"/>
-      <c r="B72" s="260"/>
-      <c r="C72" s="261"/>
-      <c r="D72" s="262"/>
-      <c r="E72" s="69"/>
-      <c r="F72" s="66"/>
-      <c r="G72" s="66"/>
-      <c r="H72" s="66"/>
-      <c r="I72" s="69"/>
+      <c r="A72" s="62"/>
+      <c r="B72" s="52"/>
+      <c r="C72" s="52"/>
+      <c r="D72" s="60"/>
+      <c r="E72" s="54"/>
+      <c r="F72" s="52"/>
+      <c r="G72" s="52"/>
+      <c r="H72" s="52"/>
+      <c r="I72" s="62"/>
     </row>
     <row r="73" spans="1:9" s="48" customFormat="1" ht="13.8">
-      <c r="A73" s="62"/>
-      <c r="B73" s="52"/>
-      <c r="C73" s="52"/>
-      <c r="D73" s="54"/>
-      <c r="E73" s="54"/>
-      <c r="F73" s="52"/>
-      <c r="G73" s="52"/>
-      <c r="H73" s="52"/>
-      <c r="I73" s="62"/>
+      <c r="A73" s="77"/>
+      <c r="B73" s="245"/>
+      <c r="C73" s="246"/>
+      <c r="D73" s="247"/>
+      <c r="E73" s="69"/>
+      <c r="F73" s="66"/>
+      <c r="G73" s="66"/>
+      <c r="H73" s="66"/>
+      <c r="I73" s="69"/>
     </row>
     <row r="74" spans="1:9" s="48" customFormat="1" ht="13.8">
       <c r="A74" s="62"/>
       <c r="B74" s="52"/>
       <c r="C74" s="52"/>
-      <c r="D74" s="54"/>
+      <c r="D74" s="53"/>
       <c r="E74" s="54"/>
       <c r="F74" s="52"/>
       <c r="G74" s="52"/>
@@ -12570,22 +12847,22 @@
       <c r="B75" s="52"/>
       <c r="C75" s="52"/>
       <c r="D75" s="54"/>
-      <c r="E75" s="54"/>
+      <c r="E75" s="60"/>
       <c r="F75" s="52"/>
       <c r="G75" s="52"/>
       <c r="H75" s="52"/>
       <c r="I75" s="62"/>
     </row>
-    <row r="76" spans="1:9" s="48" customFormat="1" ht="14.25" customHeight="1">
-      <c r="A76" s="77"/>
-      <c r="B76" s="260"/>
-      <c r="C76" s="261"/>
-      <c r="D76" s="262"/>
-      <c r="E76" s="69"/>
-      <c r="F76" s="66"/>
-      <c r="G76" s="66"/>
-      <c r="H76" s="66"/>
-      <c r="I76" s="69"/>
+    <row r="76" spans="1:9" s="48" customFormat="1" ht="13.8">
+      <c r="A76" s="62"/>
+      <c r="B76" s="52"/>
+      <c r="C76" s="52"/>
+      <c r="D76" s="54"/>
+      <c r="E76" s="60"/>
+      <c r="F76" s="52"/>
+      <c r="G76" s="52"/>
+      <c r="H76" s="52"/>
+      <c r="I76" s="62"/>
     </row>
     <row r="77" spans="1:9" s="48" customFormat="1" ht="13.8">
       <c r="A77" s="62"/>
@@ -12602,29 +12879,29 @@
       <c r="A78" s="62"/>
       <c r="B78" s="52"/>
       <c r="C78" s="52"/>
-      <c r="D78" s="60"/>
-      <c r="E78" s="60"/>
+      <c r="D78" s="54"/>
+      <c r="E78" s="54"/>
       <c r="F78" s="52"/>
       <c r="G78" s="52"/>
       <c r="H78" s="52"/>
       <c r="I78" s="62"/>
     </row>
-    <row r="79" spans="1:9" s="48" customFormat="1" ht="14.25" customHeight="1">
-      <c r="A79" s="77"/>
-      <c r="B79" s="260"/>
-      <c r="C79" s="261"/>
-      <c r="D79" s="262"/>
-      <c r="E79" s="69"/>
-      <c r="F79" s="66"/>
-      <c r="G79" s="66"/>
-      <c r="H79" s="66"/>
-      <c r="I79" s="69"/>
+    <row r="79" spans="1:9" s="48" customFormat="1" ht="13.8">
+      <c r="A79" s="62"/>
+      <c r="B79" s="52"/>
+      <c r="C79" s="52"/>
+      <c r="D79" s="54"/>
+      <c r="E79" s="54"/>
+      <c r="F79" s="52"/>
+      <c r="G79" s="52"/>
+      <c r="H79" s="52"/>
+      <c r="I79" s="62"/>
     </row>
     <row r="80" spans="1:9" s="48" customFormat="1" ht="13.8">
       <c r="A80" s="62"/>
       <c r="B80" s="52"/>
       <c r="C80" s="52"/>
-      <c r="D80" s="53"/>
+      <c r="D80" s="60"/>
       <c r="E80" s="54"/>
       <c r="F80" s="52"/>
       <c r="G80" s="52"/>
@@ -12657,8 +12934,8 @@
       <c r="A83" s="62"/>
       <c r="B83" s="52"/>
       <c r="C83" s="52"/>
-      <c r="D83" s="60"/>
-      <c r="E83" s="54"/>
+      <c r="D83" s="54"/>
+      <c r="E83" s="60"/>
       <c r="F83" s="52"/>
       <c r="G83" s="52"/>
       <c r="H83" s="52"/>
@@ -12668,44 +12945,233 @@
       <c r="A84" s="62"/>
       <c r="B84" s="52"/>
       <c r="C84" s="52"/>
-      <c r="D84" s="60"/>
-      <c r="E84" s="54"/>
+      <c r="D84" s="54"/>
+      <c r="E84" s="60"/>
       <c r="F84" s="52"/>
       <c r="G84" s="52"/>
       <c r="H84" s="52"/>
       <c r="I84" s="62"/>
     </row>
+    <row r="85" spans="1:9" s="48" customFormat="1" ht="13.8">
+      <c r="A85" s="77"/>
+      <c r="B85" s="245"/>
+      <c r="C85" s="246"/>
+      <c r="D85" s="247"/>
+      <c r="E85" s="69"/>
+      <c r="F85" s="66"/>
+      <c r="G85" s="66"/>
+      <c r="H85" s="66"/>
+      <c r="I85" s="69"/>
+    </row>
+    <row r="86" spans="1:9" s="48" customFormat="1" ht="13.8">
+      <c r="A86" s="62"/>
+      <c r="B86" s="52"/>
+      <c r="C86" s="52"/>
+      <c r="D86" s="53"/>
+      <c r="E86" s="54"/>
+      <c r="F86" s="52"/>
+      <c r="G86" s="52"/>
+      <c r="H86" s="52"/>
+      <c r="I86" s="62"/>
+    </row>
+    <row r="87" spans="1:9" s="48" customFormat="1" ht="13.8">
+      <c r="A87" s="62"/>
+      <c r="B87" s="52"/>
+      <c r="C87" s="52"/>
+      <c r="D87" s="60"/>
+      <c r="E87" s="60"/>
+      <c r="F87" s="52"/>
+      <c r="G87" s="52"/>
+      <c r="H87" s="52"/>
+      <c r="I87" s="62"/>
+    </row>
+    <row r="88" spans="1:9" s="48" customFormat="1" ht="13.8">
+      <c r="A88" s="62"/>
+      <c r="B88" s="52"/>
+      <c r="C88" s="52"/>
+      <c r="D88" s="60"/>
+      <c r="E88" s="60"/>
+      <c r="F88" s="52"/>
+      <c r="G88" s="52"/>
+      <c r="H88" s="52"/>
+      <c r="I88" s="62"/>
+    </row>
+    <row r="89" spans="1:9" s="48" customFormat="1" ht="13.8">
+      <c r="A89" s="77"/>
+      <c r="B89" s="245"/>
+      <c r="C89" s="246"/>
+      <c r="D89" s="247"/>
+      <c r="E89" s="69"/>
+      <c r="F89" s="66"/>
+      <c r="G89" s="66"/>
+      <c r="H89" s="66"/>
+      <c r="I89" s="69"/>
+    </row>
+    <row r="90" spans="1:9" s="48" customFormat="1" ht="13.8">
+      <c r="A90" s="62"/>
+      <c r="B90" s="52"/>
+      <c r="C90" s="52"/>
+      <c r="D90" s="54"/>
+      <c r="E90" s="54"/>
+      <c r="F90" s="52"/>
+      <c r="G90" s="52"/>
+      <c r="H90" s="52"/>
+      <c r="I90" s="62"/>
+    </row>
+    <row r="91" spans="1:9" s="48" customFormat="1" ht="13.8">
+      <c r="A91" s="62"/>
+      <c r="B91" s="52"/>
+      <c r="C91" s="52"/>
+      <c r="D91" s="54"/>
+      <c r="E91" s="54"/>
+      <c r="F91" s="52"/>
+      <c r="G91" s="52"/>
+      <c r="H91" s="52"/>
+      <c r="I91" s="62"/>
+    </row>
+    <row r="92" spans="1:9" s="48" customFormat="1" ht="13.8">
+      <c r="A92" s="62"/>
+      <c r="B92" s="52"/>
+      <c r="C92" s="52"/>
+      <c r="D92" s="54"/>
+      <c r="E92" s="54"/>
+      <c r="F92" s="52"/>
+      <c r="G92" s="52"/>
+      <c r="H92" s="52"/>
+      <c r="I92" s="62"/>
+    </row>
+    <row r="93" spans="1:9" s="48" customFormat="1" ht="14.25" customHeight="1">
+      <c r="A93" s="77"/>
+      <c r="B93" s="245"/>
+      <c r="C93" s="246"/>
+      <c r="D93" s="247"/>
+      <c r="E93" s="69"/>
+      <c r="F93" s="66"/>
+      <c r="G93" s="66"/>
+      <c r="H93" s="66"/>
+      <c r="I93" s="69"/>
+    </row>
+    <row r="94" spans="1:9" s="48" customFormat="1" ht="13.8">
+      <c r="A94" s="62"/>
+      <c r="B94" s="52"/>
+      <c r="C94" s="52"/>
+      <c r="D94" s="54"/>
+      <c r="E94" s="60"/>
+      <c r="F94" s="52"/>
+      <c r="G94" s="52"/>
+      <c r="H94" s="52"/>
+      <c r="I94" s="62"/>
+    </row>
+    <row r="95" spans="1:9" s="48" customFormat="1" ht="13.8">
+      <c r="A95" s="62"/>
+      <c r="B95" s="52"/>
+      <c r="C95" s="52"/>
+      <c r="D95" s="60"/>
+      <c r="E95" s="60"/>
+      <c r="F95" s="52"/>
+      <c r="G95" s="52"/>
+      <c r="H95" s="52"/>
+      <c r="I95" s="62"/>
+    </row>
+    <row r="96" spans="1:9" s="48" customFormat="1" ht="14.25" customHeight="1">
+      <c r="A96" s="77"/>
+      <c r="B96" s="245"/>
+      <c r="C96" s="246"/>
+      <c r="D96" s="247"/>
+      <c r="E96" s="69"/>
+      <c r="F96" s="66"/>
+      <c r="G96" s="66"/>
+      <c r="H96" s="66"/>
+      <c r="I96" s="69"/>
+    </row>
+    <row r="97" spans="1:9" s="48" customFormat="1" ht="13.8">
+      <c r="A97" s="62"/>
+      <c r="B97" s="52"/>
+      <c r="C97" s="52"/>
+      <c r="D97" s="53"/>
+      <c r="E97" s="54"/>
+      <c r="F97" s="52"/>
+      <c r="G97" s="52"/>
+      <c r="H97" s="52"/>
+      <c r="I97" s="62"/>
+    </row>
+    <row r="98" spans="1:9" s="48" customFormat="1" ht="13.8">
+      <c r="A98" s="62"/>
+      <c r="B98" s="52"/>
+      <c r="C98" s="52"/>
+      <c r="D98" s="60"/>
+      <c r="E98" s="54"/>
+      <c r="F98" s="52"/>
+      <c r="G98" s="52"/>
+      <c r="H98" s="52"/>
+      <c r="I98" s="62"/>
+    </row>
+    <row r="99" spans="1:9" s="48" customFormat="1" ht="13.8">
+      <c r="A99" s="62"/>
+      <c r="B99" s="52"/>
+      <c r="C99" s="52"/>
+      <c r="D99" s="60"/>
+      <c r="E99" s="54"/>
+      <c r="F99" s="52"/>
+      <c r="G99" s="52"/>
+      <c r="H99" s="52"/>
+      <c r="I99" s="62"/>
+    </row>
+    <row r="100" spans="1:9" s="48" customFormat="1" ht="13.8">
+      <c r="A100" s="62"/>
+      <c r="B100" s="52"/>
+      <c r="C100" s="52"/>
+      <c r="D100" s="60"/>
+      <c r="E100" s="54"/>
+      <c r="F100" s="52"/>
+      <c r="G100" s="52"/>
+      <c r="H100" s="52"/>
+      <c r="I100" s="62"/>
+    </row>
+    <row r="101" spans="1:9" s="48" customFormat="1" ht="13.8">
+      <c r="A101" s="62"/>
+      <c r="B101" s="52"/>
+      <c r="C101" s="52"/>
+      <c r="D101" s="60"/>
+      <c r="E101" s="54"/>
+      <c r="F101" s="52"/>
+      <c r="G101" s="52"/>
+      <c r="H101" s="52"/>
+      <c r="I101" s="62"/>
+    </row>
   </sheetData>
-  <mergeCells count="21">
+  <mergeCells count="23">
+    <mergeCell ref="B32:D32"/>
+    <mergeCell ref="B39:D39"/>
+    <mergeCell ref="B37:D37"/>
+    <mergeCell ref="B89:D89"/>
+    <mergeCell ref="B93:D93"/>
+    <mergeCell ref="B96:D96"/>
+    <mergeCell ref="B44:D44"/>
+    <mergeCell ref="B54:D54"/>
+    <mergeCell ref="B64:D64"/>
+    <mergeCell ref="B69:D69"/>
+    <mergeCell ref="B73:D73"/>
+    <mergeCell ref="B85:D85"/>
+    <mergeCell ref="F16:H16"/>
+    <mergeCell ref="B27:D27"/>
+    <mergeCell ref="B5:D5"/>
+    <mergeCell ref="B6:D6"/>
+    <mergeCell ref="B7:D7"/>
+    <mergeCell ref="B8:D8"/>
     <mergeCell ref="A1:D1"/>
     <mergeCell ref="A2:D2"/>
     <mergeCell ref="E2:E3"/>
     <mergeCell ref="C3:D3"/>
     <mergeCell ref="B4:D4"/>
-    <mergeCell ref="F16:H16"/>
-    <mergeCell ref="B18:D18"/>
-    <mergeCell ref="B5:D5"/>
-    <mergeCell ref="B6:D6"/>
-    <mergeCell ref="B7:D7"/>
-    <mergeCell ref="B8:D8"/>
-    <mergeCell ref="B29:D29"/>
-    <mergeCell ref="B72:D72"/>
-    <mergeCell ref="B76:D76"/>
-    <mergeCell ref="B79:D79"/>
-    <mergeCell ref="B35:D35"/>
-    <mergeCell ref="B37:D37"/>
-    <mergeCell ref="B47:D47"/>
-    <mergeCell ref="B52:D52"/>
-    <mergeCell ref="B56:D56"/>
-    <mergeCell ref="B68:D68"/>
   </mergeCells>
   <dataValidations count="4">
-    <dataValidation type="list" allowBlank="1" sqref="F19:H84">
+    <dataValidation type="list" allowBlank="1" sqref="F18:H26 F28:H101">
       <formula1>$A$11:$A$15</formula1>
     </dataValidation>
     <dataValidation showDropDown="1" showErrorMessage="1" sqref="F16:H17"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F18:H18"/>
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="F85:H142">
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F27:H27"/>
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="F102:H159">
       <formula1>#REF!</formula1>
       <formula2>0</formula2>
     </dataValidation>
@@ -12749,20 +13215,20 @@
   <sheetData>
     <row r="1" spans="1:12" ht="14.1">
       <c r="G1" s="81" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="2" spans="1:12" s="84" customFormat="1" ht="25.2">
       <c r="A2" s="83"/>
-      <c r="C2" s="311" t="s">
+      <c r="C2" s="295" t="s">
+        <v>119</v>
+      </c>
+      <c r="D2" s="295"/>
+      <c r="E2" s="295"/>
+      <c r="F2" s="295"/>
+      <c r="G2" s="295"/>
+      <c r="H2" s="85" t="s">
         <v>120</v>
-      </c>
-      <c r="D2" s="311"/>
-      <c r="E2" s="311"/>
-      <c r="F2" s="311"/>
-      <c r="G2" s="311"/>
-      <c r="H2" s="85" t="s">
-        <v>121</v>
       </c>
       <c r="I2" s="86"/>
       <c r="J2" s="86"/>
@@ -12771,15 +13237,15 @@
     </row>
     <row r="3" spans="1:12" s="84" customFormat="1" ht="22.5">
       <c r="A3" s="83"/>
-      <c r="C3" s="312" t="s">
+      <c r="C3" s="296" t="s">
+        <v>121</v>
+      </c>
+      <c r="D3" s="296"/>
+      <c r="E3" s="157"/>
+      <c r="F3" s="297" t="s">
         <v>122</v>
       </c>
-      <c r="D3" s="312"/>
-      <c r="E3" s="157"/>
-      <c r="F3" s="313" t="s">
-        <v>123</v>
-      </c>
-      <c r="G3" s="313"/>
+      <c r="G3" s="297"/>
       <c r="H3" s="86"/>
       <c r="I3" s="86"/>
       <c r="J3" s="87"/>
@@ -12804,10 +13270,10 @@
       <c r="L5" s="92"/>
     </row>
     <row r="6" spans="1:12" ht="21.75" customHeight="1">
-      <c r="B6" s="295" t="s">
-        <v>124</v>
-      </c>
-      <c r="C6" s="295"/>
+      <c r="B6" s="298" t="s">
+        <v>123</v>
+      </c>
+      <c r="C6" s="298"/>
       <c r="D6" s="94"/>
       <c r="E6" s="94"/>
       <c r="F6" s="94"/>
@@ -12816,7 +13282,7 @@
     </row>
     <row r="7" spans="1:12">
       <c r="B7" s="96" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C7" s="97"/>
       <c r="D7" s="97"/>
@@ -12829,53 +13295,53 @@
         <v>58</v>
       </c>
       <c r="B8" s="160" t="s">
+        <v>125</v>
+      </c>
+      <c r="C8" s="160" t="s">
         <v>126</v>
       </c>
-      <c r="C8" s="160" t="s">
+      <c r="D8" s="160" t="s">
         <v>127</v>
       </c>
-      <c r="D8" s="160" t="s">
+      <c r="E8" s="160" t="s">
         <v>128</v>
       </c>
-      <c r="E8" s="160" t="s">
+      <c r="F8" s="160" t="s">
         <v>129</v>
       </c>
-      <c r="F8" s="160" t="s">
+      <c r="G8" s="160" t="s">
         <v>130</v>
       </c>
-      <c r="G8" s="160" t="s">
+      <c r="H8" s="160" t="s">
         <v>131</v>
       </c>
-      <c r="H8" s="160" t="s">
+      <c r="I8" s="159" t="s">
         <v>132</v>
-      </c>
-      <c r="I8" s="159" t="s">
-        <v>133</v>
       </c>
       <c r="L8" s="80"/>
     </row>
     <row r="9" spans="1:12" s="125" customFormat="1" ht="14.1">
       <c r="A9" s="121"/>
       <c r="B9" s="122" t="s">
+        <v>133</v>
+      </c>
+      <c r="C9" s="122" t="s">
         <v>134</v>
       </c>
-      <c r="C9" s="122" t="s">
+      <c r="D9" s="122" t="s">
         <v>135</v>
       </c>
-      <c r="D9" s="122" t="s">
+      <c r="E9" s="122" t="s">
         <v>136</v>
       </c>
-      <c r="E9" s="122" t="s">
+      <c r="F9" s="122" t="s">
         <v>137</v>
       </c>
-      <c r="F9" s="122" t="s">
+      <c r="G9" s="122" t="s">
         <v>138</v>
       </c>
-      <c r="G9" s="122" t="s">
+      <c r="H9" s="122" t="s">
         <v>139</v>
-      </c>
-      <c r="H9" s="122" t="s">
-        <v>140</v>
       </c>
       <c r="I9" s="123"/>
       <c r="J9" s="124"/>
@@ -12889,22 +13355,22 @@
         <v>66</v>
       </c>
       <c r="C10" s="101" t="s">
+        <v>140</v>
+      </c>
+      <c r="D10" s="101" t="s">
         <v>141</v>
       </c>
-      <c r="D10" s="101" t="s">
+      <c r="E10" s="101" t="s">
         <v>142</v>
       </c>
-      <c r="E10" s="101" t="s">
+      <c r="F10" s="101" t="s">
         <v>143</v>
       </c>
-      <c r="F10" s="101" t="s">
+      <c r="G10" s="101" t="s">
         <v>144</v>
       </c>
-      <c r="G10" s="101" t="s">
-        <v>145</v>
-      </c>
       <c r="H10" s="101" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="I10" s="102"/>
       <c r="L10" s="80"/>
@@ -12917,25 +13383,25 @@
         <v>67</v>
       </c>
       <c r="C11" s="101" t="s">
+        <v>145</v>
+      </c>
+      <c r="D11" s="101" t="s">
         <v>146</v>
       </c>
-      <c r="D11" s="101" t="s">
+      <c r="E11" s="101" t="s">
         <v>147</v>
       </c>
-      <c r="E11" s="101" t="s">
+      <c r="F11" s="101" t="s">
+        <v>143</v>
+      </c>
+      <c r="G11" s="101" t="s">
+        <v>144</v>
+      </c>
+      <c r="H11" s="101" t="s">
         <v>148</v>
       </c>
-      <c r="F11" s="101" t="s">
-        <v>144</v>
-      </c>
-      <c r="G11" s="101" t="s">
-        <v>145</v>
-      </c>
-      <c r="H11" s="101" t="s">
+      <c r="I11" s="102" t="s">
         <v>149</v>
-      </c>
-      <c r="I11" s="102" t="s">
-        <v>150</v>
       </c>
       <c r="L11" s="80"/>
     </row>
@@ -12944,25 +13410,25 @@
         <v>3</v>
       </c>
       <c r="B12" s="101" t="s">
+        <v>150</v>
+      </c>
+      <c r="C12" s="101" t="s">
         <v>151</v>
       </c>
-      <c r="C12" s="101" t="s">
+      <c r="D12" s="101" t="s">
+        <v>146</v>
+      </c>
+      <c r="E12" s="101" t="s">
+        <v>142</v>
+      </c>
+      <c r="F12" s="101" t="s">
         <v>152</v>
       </c>
-      <c r="D12" s="101" t="s">
-        <v>147</v>
-      </c>
-      <c r="E12" s="101" t="s">
-        <v>143</v>
-      </c>
-      <c r="F12" s="101" t="s">
-        <v>153</v>
-      </c>
       <c r="G12" s="101" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="H12" s="101" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="I12" s="102"/>
       <c r="L12" s="80"/>
@@ -12976,11 +13442,11 @@
       <c r="G13" s="98"/>
     </row>
     <row r="14" spans="1:12" ht="21.75" customHeight="1">
-      <c r="B14" s="295" t="s">
-        <v>154</v>
-      </c>
-      <c r="C14" s="295"/>
-      <c r="D14" s="295"/>
+      <c r="B14" s="298" t="s">
+        <v>153</v>
+      </c>
+      <c r="C14" s="298"/>
+      <c r="D14" s="298"/>
       <c r="E14" s="94"/>
       <c r="F14" s="94"/>
       <c r="G14" s="95"/>
@@ -12988,7 +13454,7 @@
     </row>
     <row r="15" spans="1:12">
       <c r="B15" s="96" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C15" s="97"/>
       <c r="D15" s="97"/>
@@ -13001,7 +13467,7 @@
         <v>58</v>
       </c>
       <c r="B16" s="160" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C16" s="160" t="s">
         <v>41</v>
@@ -13010,35 +13476,35 @@
         <v>43</v>
       </c>
       <c r="E16" s="160" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="F16" s="160" t="s">
         <v>45</v>
       </c>
       <c r="G16" s="160" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="L16" s="80"/>
     </row>
     <row r="17" spans="1:12" s="125" customFormat="1" ht="37.799999999999997">
       <c r="A17" s="121"/>
       <c r="B17" s="122" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C17" s="126" t="s">
+        <v>157</v>
+      </c>
+      <c r="D17" s="126" t="s">
         <v>158</v>
       </c>
-      <c r="D17" s="126" t="s">
+      <c r="E17" s="126" t="s">
         <v>159</v>
       </c>
-      <c r="E17" s="126" t="s">
+      <c r="F17" s="126" t="s">
         <v>160</v>
       </c>
-      <c r="F17" s="126" t="s">
+      <c r="G17" s="126" t="s">
         <v>161</v>
-      </c>
-      <c r="G17" s="126" t="s">
-        <v>162</v>
       </c>
       <c r="H17" s="124"/>
       <c r="I17" s="124"/>
@@ -13079,26 +13545,26 @@
         <v>2</v>
       </c>
       <c r="B19" s="101" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C19" s="104">
-        <f>'User Story 3'!D11</f>
+        <f>'Assignment 3 '!D11</f>
         <v>0</v>
       </c>
       <c r="D19" s="104">
-        <f>'User Story 3'!D12</f>
+        <f>'Assignment 3 '!D12</f>
         <v>0</v>
       </c>
       <c r="E19" s="104">
-        <f>'User Story 3'!D14</f>
+        <f>'Assignment 3 '!D14</f>
         <v>0</v>
       </c>
       <c r="F19" s="104">
-        <f>'User Story 3'!D13</f>
+        <f>'Assignment 3 '!D13</f>
         <v>0</v>
       </c>
       <c r="G19" s="104">
-        <f>'User Story 3'!D15</f>
+        <f>'Assignment 3 '!D15</f>
         <v>0</v>
       </c>
       <c r="L19" s="80"/>
@@ -13136,7 +13602,7 @@
       <c r="A21" s="106"/>
       <c r="B21" s="107"/>
       <c r="C21" s="120" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="D21" s="119" t="e">
         <f>SUM(C20,D20,G20)/SUM(C20:G20)</f>
@@ -13156,11 +13622,11 @@
       <c r="G22" s="98"/>
     </row>
     <row r="23" spans="1:12" ht="21.75" customHeight="1">
-      <c r="B23" s="295" t="s">
-        <v>164</v>
-      </c>
-      <c r="C23" s="295"/>
-      <c r="D23" s="295"/>
+      <c r="B23" s="298" t="s">
+        <v>163</v>
+      </c>
+      <c r="C23" s="298"/>
+      <c r="D23" s="298"/>
       <c r="E23" s="94"/>
       <c r="F23" s="94"/>
       <c r="G23" s="95"/>
@@ -13168,7 +13634,7 @@
     </row>
     <row r="24" spans="1:12" ht="21.75" customHeight="1">
       <c r="B24" s="96" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C24" s="158"/>
       <c r="D24" s="158"/>
@@ -13179,7 +13645,7 @@
     </row>
     <row r="25" spans="1:12" ht="14.4">
       <c r="B25" s="105" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="C25" s="97"/>
       <c r="D25" s="97"/>
@@ -13192,31 +13658,31 @@
         <v>58</v>
       </c>
       <c r="B26" s="160" t="s">
+        <v>166</v>
+      </c>
+      <c r="C26" s="160" t="s">
         <v>167</v>
       </c>
-      <c r="C26" s="160" t="s">
+      <c r="D26" s="160" t="s">
         <v>168</v>
       </c>
-      <c r="D26" s="160" t="s">
+      <c r="E26" s="160" t="s">
         <v>169</v>
       </c>
-      <c r="E26" s="160" t="s">
+      <c r="F26" s="160" t="s">
         <v>170</v>
       </c>
-      <c r="F26" s="160" t="s">
-        <v>171</v>
-      </c>
-      <c r="G26" s="314" t="s">
+      <c r="G26" s="299" t="s">
         <v>114</v>
       </c>
-      <c r="H26" s="315"/>
+      <c r="H26" s="300"/>
     </row>
     <row r="27" spans="1:12">
       <c r="A27" s="100">
         <v>1</v>
       </c>
       <c r="B27" s="101" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="C27" s="104" t="e">
         <f>COUNTIFS(#REF!, "*Critical*",#REF!,"*Open*")</f>
@@ -13234,15 +13700,15 @@
         <f>COUNTIFS(#REF!, "*Critical*",#REF!,"*Closed*") + COUNTIFS(#REF!, "*Critical*",#REF!,"*Ready for client test*")</f>
         <v>#REF!</v>
       </c>
-      <c r="G27" s="306"/>
-      <c r="H27" s="307"/>
+      <c r="G27" s="293"/>
+      <c r="H27" s="294"/>
     </row>
     <row r="28" spans="1:12" ht="20.25" customHeight="1">
       <c r="A28" s="100">
         <v>2</v>
       </c>
       <c r="B28" s="101" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="C28" s="104" t="e">
         <f>COUNTIFS(#REF!, "*Major*",#REF!,"*Open*")</f>
@@ -13260,15 +13726,15 @@
         <f>COUNTIFS(#REF!, "*Major*",#REF!,"*Closed*") + COUNTIFS(#REF!, "*Major*",#REF!,"*Ready for client test*")</f>
         <v>#REF!</v>
       </c>
-      <c r="G28" s="306"/>
-      <c r="H28" s="307"/>
+      <c r="G28" s="293"/>
+      <c r="H28" s="294"/>
     </row>
     <row r="29" spans="1:12" ht="20.25" customHeight="1">
       <c r="A29" s="100">
         <v>3</v>
       </c>
       <c r="B29" s="101" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="C29" s="104" t="e">
         <f>COUNTIFS(#REF!, "*Normal*",#REF!,"*Open*")</f>
@@ -13286,15 +13752,15 @@
         <f>COUNTIFS(#REF!, "*Normal*",#REF!,"*Closed*") + COUNTIFS(#REF!, "*Normal*",#REF!,"*Ready for client test*")</f>
         <v>#REF!</v>
       </c>
-      <c r="G29" s="306"/>
-      <c r="H29" s="307"/>
+      <c r="G29" s="293"/>
+      <c r="H29" s="294"/>
     </row>
     <row r="30" spans="1:12" ht="20.25" customHeight="1">
       <c r="A30" s="100">
         <v>4</v>
       </c>
       <c r="B30" s="101" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="C30" s="104" t="e">
         <f>COUNTIFS(#REF!, "*Minor*",#REF!,"*Open*")</f>
@@ -13312,8 +13778,8 @@
         <f>COUNTIFS(#REF!, "*Minor*",#REF!,"*Closed*") + COUNTIFS(#REF!, "*Minor*",#REF!,"*Ready for client test*")</f>
         <v>#REF!</v>
       </c>
-      <c r="G30" s="306"/>
-      <c r="H30" s="307"/>
+      <c r="G30" s="293"/>
+      <c r="H30" s="294"/>
     </row>
     <row r="31" spans="1:12" ht="20.25" customHeight="1">
       <c r="A31" s="100"/>
@@ -13334,8 +13800,8 @@
         <f>SUM(F27:F30)</f>
         <v>#REF!</v>
       </c>
-      <c r="G31" s="306"/>
-      <c r="H31" s="307"/>
+      <c r="G31" s="293"/>
+      <c r="H31" s="294"/>
     </row>
     <row r="32" spans="1:12" ht="20.25" customHeight="1">
       <c r="A32" s="106"/>
@@ -13349,7 +13815,7 @@
     </row>
     <row r="33" spans="1:12" ht="14.4">
       <c r="B33" s="105" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="C33" s="97"/>
       <c r="D33" s="97"/>
@@ -13362,38 +13828,38 @@
         <v>58</v>
       </c>
       <c r="B34" s="160" t="s">
+        <v>176</v>
+      </c>
+      <c r="C34" s="160" t="s">
         <v>177</v>
       </c>
-      <c r="C34" s="160" t="s">
+      <c r="D34" s="160" t="s">
         <v>178</v>
       </c>
-      <c r="D34" s="160" t="s">
-        <v>179</v>
-      </c>
       <c r="E34" s="160" t="s">
-        <v>130</v>
-      </c>
-      <c r="F34" s="300" t="s">
-        <v>133</v>
+        <v>129</v>
+      </c>
+      <c r="F34" s="301" t="s">
+        <v>132</v>
       </c>
       <c r="G34" s="302"/>
     </row>
     <row r="35" spans="1:12" s="125" customFormat="1" ht="14.1">
       <c r="A35" s="121"/>
       <c r="B35" s="122" t="s">
+        <v>179</v>
+      </c>
+      <c r="C35" s="126" t="s">
         <v>180</v>
       </c>
-      <c r="C35" s="126" t="s">
+      <c r="D35" s="126" t="s">
         <v>181</v>
       </c>
-      <c r="D35" s="126" t="s">
-        <v>182</v>
-      </c>
       <c r="E35" s="126" t="s">
-        <v>138</v>
-      </c>
-      <c r="F35" s="309"/>
-      <c r="G35" s="310"/>
+        <v>137</v>
+      </c>
+      <c r="F35" s="304"/>
+      <c r="G35" s="305"/>
       <c r="H35" s="124"/>
       <c r="I35" s="124"/>
       <c r="J35" s="124"/>
@@ -13405,38 +13871,38 @@
         <v>1</v>
       </c>
       <c r="B36" s="101" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C36" s="104" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="D36" s="104" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="E36" s="104" t="s">
-        <v>144</v>
-      </c>
-      <c r="F36" s="306"/>
-      <c r="G36" s="307"/>
+        <v>143</v>
+      </c>
+      <c r="F36" s="293"/>
+      <c r="G36" s="294"/>
     </row>
     <row r="37" spans="1:12" ht="20.25" customHeight="1">
       <c r="A37" s="100">
         <v>2</v>
       </c>
       <c r="B37" s="101" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C37" s="104" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="D37" s="104" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="E37" s="104" t="s">
-        <v>144</v>
-      </c>
-      <c r="F37" s="306"/>
-      <c r="G37" s="307"/>
+        <v>143</v>
+      </c>
+      <c r="F37" s="293"/>
+      <c r="G37" s="294"/>
     </row>
     <row r="38" spans="1:12" ht="20.25" customHeight="1">
       <c r="A38" s="106"/>
@@ -13449,10 +13915,10 @@
       <c r="H38" s="108"/>
     </row>
     <row r="39" spans="1:12" ht="21.75" customHeight="1">
-      <c r="B39" s="295" t="s">
-        <v>185</v>
-      </c>
-      <c r="C39" s="295"/>
+      <c r="B39" s="298" t="s">
+        <v>184</v>
+      </c>
+      <c r="C39" s="298"/>
       <c r="D39" s="94"/>
       <c r="E39" s="94"/>
       <c r="F39" s="94"/>
@@ -13461,7 +13927,7 @@
     </row>
     <row r="40" spans="1:12">
       <c r="B40" s="96" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="C40" s="97"/>
       <c r="D40" s="97"/>
@@ -13476,17 +13942,17 @@
       <c r="B41" s="160" t="s">
         <v>62</v>
       </c>
-      <c r="C41" s="308" t="s">
+      <c r="C41" s="303" t="s">
+        <v>186</v>
+      </c>
+      <c r="D41" s="303"/>
+      <c r="E41" s="303" t="s">
         <v>187</v>
       </c>
-      <c r="D41" s="308"/>
-      <c r="E41" s="308" t="s">
+      <c r="F41" s="303"/>
+      <c r="G41" s="303"/>
+      <c r="H41" s="99" t="s">
         <v>188</v>
-      </c>
-      <c r="F41" s="308"/>
-      <c r="G41" s="308"/>
-      <c r="H41" s="99" t="s">
-        <v>189</v>
       </c>
     </row>
     <row r="42" spans="1:12" ht="34.5" customHeight="1">
@@ -13494,17 +13960,17 @@
         <v>1</v>
       </c>
       <c r="B42" s="161" t="s">
+        <v>189</v>
+      </c>
+      <c r="C42" s="306" t="s">
         <v>190</v>
       </c>
-      <c r="C42" s="305" t="s">
+      <c r="D42" s="306"/>
+      <c r="E42" s="306" t="s">
         <v>191</v>
       </c>
-      <c r="D42" s="305"/>
-      <c r="E42" s="305" t="s">
-        <v>192</v>
-      </c>
-      <c r="F42" s="305"/>
-      <c r="G42" s="305"/>
+      <c r="F42" s="306"/>
+      <c r="G42" s="306"/>
       <c r="H42" s="109"/>
     </row>
     <row r="43" spans="1:12" ht="34.5" customHeight="1">
@@ -13512,17 +13978,17 @@
         <v>2</v>
       </c>
       <c r="B43" s="161" t="s">
+        <v>189</v>
+      </c>
+      <c r="C43" s="306" t="s">
         <v>190</v>
       </c>
-      <c r="C43" s="305" t="s">
+      <c r="D43" s="306"/>
+      <c r="E43" s="306" t="s">
         <v>191</v>
       </c>
-      <c r="D43" s="305"/>
-      <c r="E43" s="305" t="s">
-        <v>192</v>
-      </c>
-      <c r="F43" s="305"/>
-      <c r="G43" s="305"/>
+      <c r="F43" s="306"/>
+      <c r="G43" s="306"/>
       <c r="H43" s="109"/>
     </row>
     <row r="44" spans="1:12" ht="34.5" customHeight="1">
@@ -13530,17 +13996,17 @@
         <v>3</v>
       </c>
       <c r="B44" s="161" t="s">
+        <v>189</v>
+      </c>
+      <c r="C44" s="306" t="s">
         <v>190</v>
       </c>
-      <c r="C44" s="305" t="s">
+      <c r="D44" s="306"/>
+      <c r="E44" s="306" t="s">
         <v>191</v>
       </c>
-      <c r="D44" s="305"/>
-      <c r="E44" s="305" t="s">
-        <v>192</v>
-      </c>
-      <c r="F44" s="305"/>
-      <c r="G44" s="305"/>
+      <c r="F44" s="306"/>
+      <c r="G44" s="306"/>
       <c r="H44" s="109"/>
     </row>
     <row r="45" spans="1:12">
@@ -13552,10 +14018,10 @@
       <c r="G45" s="98"/>
     </row>
     <row r="46" spans="1:12" ht="21.75" customHeight="1">
-      <c r="B46" s="295" t="s">
-        <v>193</v>
-      </c>
-      <c r="C46" s="295"/>
+      <c r="B46" s="298" t="s">
+        <v>192</v>
+      </c>
+      <c r="C46" s="298"/>
       <c r="D46" s="94"/>
       <c r="E46" s="94"/>
       <c r="F46" s="94"/>
@@ -13564,7 +14030,7 @@
     </row>
     <row r="47" spans="1:12">
       <c r="B47" s="96" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="C47" s="110"/>
       <c r="D47" s="110"/>
@@ -13573,73 +14039,73 @@
       <c r="G47" s="98"/>
     </row>
     <row r="48" spans="1:12" s="113" customFormat="1" ht="21" customHeight="1">
-      <c r="A48" s="296" t="s">
+      <c r="A48" s="309" t="s">
         <v>58</v>
       </c>
-      <c r="B48" s="298" t="s">
+      <c r="B48" s="311" t="s">
+        <v>194</v>
+      </c>
+      <c r="C48" s="301" t="s">
         <v>195</v>
       </c>
-      <c r="C48" s="300" t="s">
+      <c r="D48" s="313"/>
+      <c r="E48" s="313"/>
+      <c r="F48" s="302"/>
+      <c r="G48" s="314" t="s">
+        <v>162</v>
+      </c>
+      <c r="H48" s="314" t="s">
+        <v>194</v>
+      </c>
+      <c r="I48" s="307" t="s">
         <v>196</v>
-      </c>
-      <c r="D48" s="301"/>
-      <c r="E48" s="301"/>
-      <c r="F48" s="302"/>
-      <c r="G48" s="303" t="s">
-        <v>163</v>
-      </c>
-      <c r="H48" s="303" t="s">
-        <v>195</v>
-      </c>
-      <c r="I48" s="293" t="s">
-        <v>197</v>
       </c>
       <c r="J48" s="112"/>
       <c r="K48" s="112"/>
       <c r="L48" s="112"/>
     </row>
     <row r="49" spans="1:9">
-      <c r="A49" s="297"/>
-      <c r="B49" s="299"/>
+      <c r="A49" s="310"/>
+      <c r="B49" s="312"/>
       <c r="C49" s="114" t="s">
+        <v>171</v>
+      </c>
+      <c r="D49" s="114" t="s">
         <v>172</v>
       </c>
-      <c r="D49" s="114" t="s">
+      <c r="E49" s="115" t="s">
         <v>173</v>
       </c>
-      <c r="E49" s="115" t="s">
+      <c r="F49" s="115" t="s">
         <v>174</v>
       </c>
-      <c r="F49" s="115" t="s">
-        <v>175</v>
-      </c>
-      <c r="G49" s="304"/>
-      <c r="H49" s="304"/>
-      <c r="I49" s="294"/>
+      <c r="G49" s="315"/>
+      <c r="H49" s="315"/>
+      <c r="I49" s="308"/>
     </row>
     <row r="50" spans="1:9" ht="25.2">
-      <c r="A50" s="297"/>
-      <c r="B50" s="299"/>
+      <c r="A50" s="310"/>
+      <c r="B50" s="312"/>
       <c r="C50" s="128" t="s">
+        <v>197</v>
+      </c>
+      <c r="D50" s="128" t="s">
         <v>198</v>
       </c>
-      <c r="D50" s="128" t="s">
+      <c r="E50" s="128" t="s">
         <v>199</v>
       </c>
-      <c r="E50" s="128" t="s">
+      <c r="F50" s="128" t="s">
         <v>200</v>
       </c>
-      <c r="F50" s="128" t="s">
+      <c r="G50" s="127" t="s">
         <v>201</v>
       </c>
-      <c r="G50" s="127" t="s">
+      <c r="H50" s="127" t="s">
         <v>202</v>
       </c>
-      <c r="H50" s="127" t="s">
-        <v>203</v>
-      </c>
       <c r="I50" s="127" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="51" spans="1:9" ht="25.2">
@@ -13647,28 +14113,28 @@
         <v>1</v>
       </c>
       <c r="B51" s="121" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="C51" s="128" t="s">
+        <v>197</v>
+      </c>
+      <c r="D51" s="128" t="s">
         <v>198</v>
       </c>
-      <c r="D51" s="128" t="s">
+      <c r="E51" s="128" t="s">
         <v>199</v>
       </c>
-      <c r="E51" s="128" t="s">
+      <c r="F51" s="128" t="s">
         <v>200</v>
       </c>
-      <c r="F51" s="128" t="s">
+      <c r="G51" s="116" t="s">
         <v>201</v>
       </c>
-      <c r="G51" s="116" t="s">
+      <c r="H51" s="116" t="s">
         <v>202</v>
       </c>
-      <c r="H51" s="116" t="s">
-        <v>203</v>
-      </c>
       <c r="I51" s="116" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="52" spans="1:9">
@@ -13696,10 +14162,10 @@
         <v>#DIV/0!</v>
       </c>
       <c r="H52" s="116" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="I52" s="116" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="53" spans="1:9" ht="18.75" customHeight="1">
@@ -13731,6 +14197,26 @@
     </row>
   </sheetData>
   <mergeCells count="32">
+    <mergeCell ref="I48:I49"/>
+    <mergeCell ref="B46:C46"/>
+    <mergeCell ref="A48:A50"/>
+    <mergeCell ref="B48:B50"/>
+    <mergeCell ref="C48:F48"/>
+    <mergeCell ref="G48:G49"/>
+    <mergeCell ref="H48:H49"/>
+    <mergeCell ref="C42:D42"/>
+    <mergeCell ref="E42:G42"/>
+    <mergeCell ref="C43:D43"/>
+    <mergeCell ref="E43:G43"/>
+    <mergeCell ref="C44:D44"/>
+    <mergeCell ref="E44:G44"/>
+    <mergeCell ref="F34:G34"/>
+    <mergeCell ref="F36:G36"/>
+    <mergeCell ref="F37:G37"/>
+    <mergeCell ref="B39:C39"/>
+    <mergeCell ref="C41:D41"/>
+    <mergeCell ref="E41:G41"/>
+    <mergeCell ref="F35:G35"/>
     <mergeCell ref="G31:H31"/>
     <mergeCell ref="C2:G2"/>
     <mergeCell ref="C3:D3"/>
@@ -13743,26 +14229,6 @@
     <mergeCell ref="G28:H28"/>
     <mergeCell ref="G29:H29"/>
     <mergeCell ref="G30:H30"/>
-    <mergeCell ref="F34:G34"/>
-    <mergeCell ref="F36:G36"/>
-    <mergeCell ref="F37:G37"/>
-    <mergeCell ref="B39:C39"/>
-    <mergeCell ref="C41:D41"/>
-    <mergeCell ref="E41:G41"/>
-    <mergeCell ref="F35:G35"/>
-    <mergeCell ref="C42:D42"/>
-    <mergeCell ref="E42:G42"/>
-    <mergeCell ref="C43:D43"/>
-    <mergeCell ref="E43:G43"/>
-    <mergeCell ref="C44:D44"/>
-    <mergeCell ref="E44:G44"/>
-    <mergeCell ref="I48:I49"/>
-    <mergeCell ref="B46:C46"/>
-    <mergeCell ref="A48:A50"/>
-    <mergeCell ref="B48:B50"/>
-    <mergeCell ref="C48:F48"/>
-    <mergeCell ref="G48:G49"/>
-    <mergeCell ref="H48:H49"/>
   </mergeCells>
   <conditionalFormatting sqref="H51">
     <cfRule type="cellIs" dxfId="5" priority="5" operator="equal">
@@ -13809,6 +14275,12 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101008DD9373D9A24F64F89F14F461305A106" ma:contentTypeVersion="4" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="edefd2bea9a69e65a3918d4b9d850884">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="cabca498-5e2a-459c-ade0-601c6a98c846" xmlns:ns3="044e8ed5-b60c-40cd-b477-04c240ccf9c3" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="1cdcf90a8e7cb27405451b504492cec2" ns2:_="" ns3:_="">
     <xsd:import namespace="cabca498-5e2a-459c-ade0-601c6a98c846"/>
@@ -13973,12 +14445,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4F8C6C6D-E626-49D4-9BA8-E27B2B9C9191}">
   <ds:schemaRefs>
@@ -13988,6 +14454,23 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{06E3E4FA-795A-4742-A021-9CDC3210C50B}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="044e8ed5-b60c-40cd-b477-04c240ccf9c3"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="cabca498-5e2a-459c-ade0-601c6a98c846"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A7729ACD-7A20-4344-BFA5-B224A8419F45}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -14004,21 +14487,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{06E3E4FA-795A-4742-A021-9CDC3210C50B}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="044e8ed5-b60c-40cd-b477-04c240ccf9c3"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="cabca498-5e2a-459c-ade0-601c6a98c846"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/test design technic daongochuy.xlsx
+++ b/test design technic daongochuy.xlsx
@@ -300,7 +300,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F53" authorId="1" shapeId="0">
+    <comment ref="F52" authorId="1" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -324,7 +324,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F139" authorId="1" shapeId="0">
+    <comment ref="F122" authorId="1" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -348,7 +348,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F140" authorId="1" shapeId="0">
+    <comment ref="F123" authorId="1" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -372,7 +372,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F142" authorId="1" shapeId="0">
+    <comment ref="F125" authorId="1" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -396,7 +396,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F155" authorId="1" shapeId="0">
+    <comment ref="F138" authorId="1" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -420,7 +420,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G155" authorId="1" shapeId="0">
+    <comment ref="G138" authorId="1" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -444,7 +444,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F156" authorId="1" shapeId="0">
+    <comment ref="F139" authorId="1" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -468,7 +468,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G156" authorId="1" shapeId="0">
+    <comment ref="G139" authorId="1" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -492,7 +492,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F161" authorId="1" shapeId="0">
+    <comment ref="F144" authorId="1" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -516,7 +516,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G161" authorId="1" shapeId="0">
+    <comment ref="G144" authorId="1" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -540,7 +540,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F164" authorId="1" shapeId="0">
+    <comment ref="F147" authorId="1" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -564,7 +564,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F179" authorId="1" shapeId="0">
+    <comment ref="F162" authorId="1" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -588,7 +588,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F181" authorId="1" shapeId="0">
+    <comment ref="F164" authorId="1" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -677,31 +677,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F59" authorId="1" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>Nguyen Dao Thi Binh:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-Bug ID: 13057</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="F60" authorId="1" shapeId="0">
+    <comment ref="F61" authorId="1" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -749,7 +725,31 @@
         </r>
       </text>
     </comment>
-    <comment ref="F75" authorId="1" shapeId="0">
+    <comment ref="F64" authorId="1" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Nguyen Dao Thi Binh:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Bug ID: 13057</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="F77" authorId="1" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -773,7 +773,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G75" authorId="1" shapeId="0">
+    <comment ref="G77" authorId="1" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -797,7 +797,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F76" authorId="1" shapeId="0">
+    <comment ref="F78" authorId="1" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -821,7 +821,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G76" authorId="1" shapeId="0">
+    <comment ref="G78" authorId="1" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -845,7 +845,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F81" authorId="1" shapeId="0">
+    <comment ref="F83" authorId="1" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -869,7 +869,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G81" authorId="1" shapeId="0">
+    <comment ref="G83" authorId="1" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -893,7 +893,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F84" authorId="1" shapeId="0">
+    <comment ref="F86" authorId="1" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -917,7 +917,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F99" authorId="1" shapeId="0">
+    <comment ref="F101" authorId="1" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -941,7 +941,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F101" authorId="1" shapeId="0">
+    <comment ref="F103" authorId="1" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -970,7 +970,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="843" uniqueCount="606">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="872" uniqueCount="632">
   <si>
     <r>
       <t xml:space="preserve">Security Classification: </t>
@@ -2153,9 +2153,6 @@
     <t xml:space="preserve">"X" button </t>
   </si>
   <si>
-    <t xml:space="preserve">Verification slided withouit valid phone number </t>
-  </si>
-  <si>
     <t>Verifcation code copied from message</t>
   </si>
   <si>
@@ -2165,9 +2162,6 @@
     <t xml:space="preserve">Default status of Phone Number box </t>
   </si>
   <si>
-    <t xml:space="preserve">Phone Number is invalid </t>
-  </si>
-  <si>
     <t xml:space="preserve">Phone Number is valid </t>
   </si>
   <si>
@@ -2228,48 +2222,6 @@
     <t xml:space="preserve">Select future date </t>
   </si>
   <si>
-    <t>Month</t>
-  </si>
-  <si>
-    <t>Year</t>
-  </si>
-  <si>
-    <t>Drop down button in "Month" fields</t>
-  </si>
-  <si>
-    <t>Scroll bar to select Month</t>
-  </si>
-  <si>
-    <t>Select valid Month</t>
-  </si>
-  <si>
-    <t>Select invalid Month</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Enter Month from keyboard </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Select future Month </t>
-  </si>
-  <si>
-    <t>Drop down button in "Year" fields</t>
-  </si>
-  <si>
-    <t>Scroll bar to select Year</t>
-  </si>
-  <si>
-    <t>Select valid Year</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Enter Year from keyboard </t>
-  </si>
-  <si>
-    <t>"Year" not selected</t>
-  </si>
-  <si>
-    <t>"Month" not selected</t>
-  </si>
-  <si>
     <t>"Day" not selected</t>
   </si>
   <si>
@@ -2313,12 +2265,6 @@
   </si>
   <si>
     <t xml:space="preserve">Day box has placholder </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Month box has placholder </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Year box has placholder </t>
   </si>
   <si>
     <t xml:space="preserve">Gendet box has placholder </t>
@@ -2418,9 +2364,6 @@
     <t xml:space="preserve">Verify that the box is empty with place holder when loading the page  </t>
   </si>
   <si>
-    <t>Verufy that place holder appear when password haven’t typed</t>
-  </si>
-  <si>
     <t>Verify that Phone Number displayed in the box without showing any error message</t>
   </si>
   <si>
@@ -2431,9 +2374,6 @@
   </si>
   <si>
     <t xml:space="preserve">Error message: Verification Code is invalid </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Error message:: Verifcation Code is expired </t>
   </si>
   <si>
     <t xml:space="preserve">Verify that Password can be pasted to the box </t>
@@ -2467,9 +2407,6 @@
     <t>Error Mesage : Wrong Birthday format</t>
   </si>
   <si>
-    <t xml:space="preserve">'Verify that users cannot enter day from keyboard </t>
-  </si>
-  <si>
     <t xml:space="preserve">Password is encrypted </t>
   </si>
   <si>
@@ -2482,16 +2419,10 @@
     <t>Verify that no problem occur when the box is unchecked</t>
   </si>
   <si>
-    <t>Verify that no problem occur when the box not selected</t>
-  </si>
-  <si>
     <t>'Verify that no problem occur when the box not selected</t>
   </si>
   <si>
     <t>Verify that no error message display</t>
-  </si>
-  <si>
-    <t>'Verify that no error message display</t>
   </si>
   <si>
     <t>Error message 2: Please enter Full Name</t>
@@ -2585,27 +2516,6 @@
 5, Click on "X" button </t>
   </si>
   <si>
-    <t>1, Go to Sign Up page 
-2, Fill in valid Phone Number 
-3, Slide "Slide to get SMS Verification code" button 
-4, Focus on the box 
-5, Unfocus the box</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1, Go to Sign Up page 
-2, Fill in valid Phone Number 
-3, Slide "Slide to get SMS Verification code" button 
-4, Type 4 digits number to the box 
-5, Unfocus the box </t>
-  </si>
-  <si>
-    <t xml:space="preserve">1, Go to Sign Up page 
-2, Fill in valid Phone Number 
-3, Slide "Slide to get SMS Verification code" button 
-4, Type 6 digits number to the box 
-5, Unfocus the box </t>
-  </si>
-  <si>
     <t xml:space="preserve">1, Go to Sign Up page 
 2, Fill in valid Phone Number 
 3, Slide "Slide to get SMS Verification code" button 
@@ -2616,20 +2526,6 @@
     <t xml:space="preserve">1, Go to Sign Up page 
 2, Fill in valid Phone Number 
 3, Slide "Slide to get SMS Verification code" button 
-4, Type more than valid number to the box 
-5, Unfocus the box </t>
-  </si>
-  <si>
-    <t xml:space="preserve">1, Go to Sign Up page 
-2, Fill in valid Phone Number 
-3, Slide "Slide to get SMS Verification code" button 
-4, Type more than invalid number to the box 
-5, Unfocus the box </t>
-  </si>
-  <si>
-    <t xml:space="preserve">1, Go to Sign Up page 
-2, Fill in valid Phone Number 
-3, Slide "Slide to get SMS Verification code" button 
 4, Wait over 5 minutes to let the code expried </t>
   </si>
   <si>
@@ -2669,57 +2565,11 @@
 </t>
   </si>
   <si>
-    <t>1, Go to Sign Up page 
-2, Focus on the box 
-3, Unfocus the box</t>
-  </si>
-  <si>
     <t>Phone number has less than 10 number</t>
   </si>
   <si>
     <t xml:space="preserve">1, Go to Sign Up page 
 2, focus on Phone Number Box  
-3, Types in Phone Number that less than 10 numbers
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1, Go to Sign Up page 
-2, focus on Phone Number Box  
-3, Types in Phone Number that contain 10 numbers
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1, Go to Sign Up page 
-2, focus on Phone Number Box  
-3, Types in Phone Number that contain more than 10 numbers </t>
-  </si>
-  <si>
-    <t xml:space="preserve">1, Go to Sign Up page 
-2, focus on Phone Number Box  
-3, Types in Phone Number that contain 50 characters
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1, Go to Sign Up page 
-2, focus on Phone Number Box  
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1, Go to Sign Up page 
-2, focus on Phone Number Box  
-3, Types in valid Phone NumberPhone Number 
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1, Go to Sign Up page 
-2, focus on Phone Number Box  
-3, Types in invalid Phone Number 
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1, Go to Sign Up page 
-2, focus on Phone Number Box  
-3, Types in existed Phone Number
 </t>
   </si>
   <si>
@@ -2737,19 +2587,7 @@
   </si>
   <si>
     <t xml:space="preserve">1, Go to Sign Up page 
-2, focus on Phone Number Box  
-3, Types in Phone Number 
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1, Go to Sign Up page 
 2, focus on SMS Verification box 
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1, Go to Sign Up page 
-2, focus on Password Box  
-3, Unfocus on Password box 
 </t>
   </si>
   <si>
@@ -2864,75 +2702,6 @@
   </si>
   <si>
     <t xml:space="preserve">1, Go to Sign Up page 
-2, focus on Month Box  
-3, Click on drop down button  
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1, Go to Sign Up page 
-2, focus on Month Box  
-3, Click on drop down button  
-4, Scoll Bar up and down to select Month 
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1, Go to Sign Up page 
-2, focus on Month Box  
-3, Click on drop down button  
-4, Scoll Bar up and down to select Month 
-5, Select a Month 
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1, Go to Sign Up page 
-2, focus on Day Box  
-3, Click on drop down button  
-4, Enter a Year from keyboard 
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1, Go to Sign Up page 
-2, focus on Month Box  
-3, Click on drop down button  
-4, Scoll Bar up and down to select Month 
-5, Select a Day in the Month 
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1, Go to Sign Up page 
-2, focus on Year Box  
-3, Click on drop down button  
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1, Go to Sign Up page 
-2, focus on Year Box  
-3, Click on drop down button  
-4, Scoll Bar up and down to select Year 
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1, Go to Sign Up page 
-2, focus on Year Box  
-3, Click on drop down button  
-4, Scoll Bar up and down to select Year 
-5, Select a Year 
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1, Go to Sign Up page 
-2, focus on Year Box  
-3, Click on drop down button  
-4, Loose focus the box
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1, Go to Sign Up page 
-2, focus on Year Box   
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1, Go to Sign Up page 
 2, focus on Gender Box   
 </t>
   </si>
@@ -3045,12 +2814,6 @@
     <t xml:space="preserve">Users search witthout entering any character </t>
   </si>
   <si>
-    <t xml:space="preserve">Users enter a random keyword </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Pasting data to Search Box </t>
-  </si>
-  <si>
     <t xml:space="preserve">Comparing result in Upercase and Lowercase </t>
   </si>
   <si>
@@ -3060,12 +2823,6 @@
     <t>Search result with a blank before keyword ( "  car" )</t>
   </si>
   <si>
-    <t xml:space="preserve">Search result contain several distiction keyword </t>
-  </si>
-  <si>
-    <t>Search Suggestion when the Search box is blank</t>
-  </si>
-  <si>
     <t xml:space="preserve">Serach Suggetion when users enter a random keyword </t>
   </si>
   <si>
@@ -3081,9 +2838,6 @@
     <t xml:space="preserve">Search History when the page is in default status </t>
   </si>
   <si>
-    <t xml:space="preserve">Search History when users log in for the first time  </t>
-  </si>
-  <si>
     <t xml:space="preserve">Delete Search History </t>
   </si>
   <si>
@@ -3114,12 +2868,6 @@
     <t>5, Results can be displayed in pagination –10 items per page</t>
   </si>
   <si>
-    <t xml:space="preserve">When the result has 1 product </t>
-  </si>
-  <si>
-    <t xml:space="preserve">When the result has 0 product </t>
-  </si>
-  <si>
     <t xml:space="preserve">When the result has 10 product </t>
   </si>
   <si>
@@ -3132,12 +2880,6 @@
     <t>x</t>
   </si>
   <si>
-    <t>"&lt;" button unavailable when showing the first 10 products</t>
-  </si>
-  <si>
-    <t xml:space="preserve">"&gt;" button unavailable when showing the last product page </t>
-  </si>
-  <si>
     <t>User click "&gt;" button</t>
   </si>
   <si>
@@ -3147,13 +2889,356 @@
     <t xml:space="preserve">Users click product page number </t>
   </si>
   <si>
-    <t xml:space="preserve">When value of the given results meet the willing order </t>
-  </si>
-  <si>
     <t>Search result ascending when users choose "Price Low to High"</t>
   </si>
   <si>
     <t>Search result descending when users choose "Price High to Low "</t>
+  </si>
+  <si>
+    <t>1, Go to Sign Up page 
+2, Focus on the box 
+3, Loose focus  the box</t>
+  </si>
+  <si>
+    <t>1, Go to Sign Up page 
+2, Focus on the box 
+3, Loose focus the box</t>
+  </si>
+  <si>
+    <t>1, Go to Sign Up page 
+2, Fill in valid Phone Number 
+3, Slide "Slide to get SMS Verification code" button 
+4, Focus on the box 
+5, Loose focus the box</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1, Go to Sign Up page 
+2, Fill in valid Phone Number 
+3, Slide "Slide to get SMS Verification code" button 
+4, Type 4 digits number to the box 
+5, Loose focus the box </t>
+  </si>
+  <si>
+    <t xml:space="preserve">1, Go to Sign Up page 
+2, Fill in valid Phone Number 
+3, Slide "Slide to get SMS Verification code" button 
+4, Type 6 digits number to the box 
+5, Loose focus the box </t>
+  </si>
+  <si>
+    <t xml:space="preserve">1, Go to Sign Up page 
+2, focus on Password Box  
+3, Loose focus on Password box 
+</t>
+  </si>
+  <si>
+    <t>Verify that place holder appear when password haven’t typed</t>
+  </si>
+  <si>
+    <t xml:space="preserve">cho vào case initial </t>
+  </si>
+  <si>
+    <t>1, Go to Sign Up page 
+2, Focus on the box
+3, Loose focus the box</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1, Go to Sign Up page 
+2, Types in Phone Number that less than 10 numbers
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1, Go to Sign Up page 
+2, Types in Phone Number that contain 10 numbers
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1, Go to Sign Up page 
+2, Types in Phone Number that contain more than 10 numbers </t>
+  </si>
+  <si>
+    <t xml:space="preserve">1, Go to Sign Up page 
+2, Types in Phone Number that contain 50 characters
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1, Go to Sign Up page 
+2, Types in valid Phone NumberPhone Number 
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1, Go to Sign Up page 
+2, focus on Phone Number Box  
+3, Types in existed Phone Number
+4, Enter all valid data
+5, Sign Up account 
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1, Go to Sign Up page 
+2, focus on Phone Number Box  
+3, Types in Phone Number et
+4, Provide a space between numbers
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1, Go to Sign Up page 
+2, Fill in valid Phone Number 
+3, Slide "Slide to get SMS Verification code" button 
+4, Type invalid number to the box 
+5, Loose focus the box </t>
+  </si>
+  <si>
+    <t>"Resend" button appeared</t>
+  </si>
+  <si>
+    <t>Verification slided when phone number is empty</t>
+  </si>
+  <si>
+    <t xml:space="preserve">When the result has less than 10 product </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pasting image to Search Box </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Users search for a product by entering Product Name/Category Name/Brand Name/Supplier Name </t>
+  </si>
+  <si>
+    <t xml:space="preserve">"&lt;" button disabled in the first page </t>
+  </si>
+  <si>
+    <t xml:space="preserve">"&gt;" button enabled in the last page </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Click "…" to see the next 5 pages </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Click "…" to see the last 5 pages </t>
+  </si>
+  <si>
+    <t xml:space="preserve">1, Go to the Website 
+2,Focus on the Search box </t>
+  </si>
+  <si>
+    <t xml:space="preserve">1, Go to the Website 
+2,Users click Search button </t>
+  </si>
+  <si>
+    <t>Verify that the box is empty with place holder "Search in Lazada" when the page is loaded</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1, Go to the Website 
+2,Copy a random picture 
+3, Paste to the chat box  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">1, Go to the Website 
+2,Type in keyword "car" in both upercase and lowercase 
+3,User clicks Search button </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Verify that the results in both case are the same </t>
+  </si>
+  <si>
+    <t xml:space="preserve">1, Go to the Website 
+2,Type in a special character 
+3,User clicks Search button </t>
+  </si>
+  <si>
+    <t>Verify that the return results is error message "No Search Result"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1, Go to the Website 
+2,Type in keyword "car" with a blank before the keyword 
+3,User clicks Search button </t>
+  </si>
+  <si>
+    <t>Verify that the results as same as without blank</t>
+  </si>
+  <si>
+    <t>Search Suggestion when the Search box is empty</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1, Go to the Website 
+2,Type in keyword "e" 
+3,User clicks Search button </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Verify that there is no suggestion </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Verify that the suggestion contain that keyword  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">1, Go to the Website 
+2,Type in keyword "emc" 
+3,User clicks Search button </t>
+  </si>
+  <si>
+    <t xml:space="preserve">1, Go to the Website 
+2,Type in keyword "em" 
+3,User clicks Search button </t>
+  </si>
+  <si>
+    <t>1, Go to the Website 
+2,Focus on the Search box 
+3, Click "Delete" in the Search Suggestion</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1, Go to the Website 
+2, Search several keywords
+3, Focus on the Search box </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Verify that Search history is clear </t>
+  </si>
+  <si>
+    <t>Verify that Search history show all previous searchs</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1, Go to the Website 
+2,Type in keyword "1/24" 
+3,User clicks Search button </t>
+  </si>
+  <si>
+    <t xml:space="preserve">1, Go to the Website 
+2,Type in keyword "maisto" 
+3,User clicks Search button </t>
+  </si>
+  <si>
+    <t xml:space="preserve">1, Go to the Website 
+2,Type in keyword "Mykingdom" 
+3,User clicks Search button </t>
+  </si>
+  <si>
+    <t xml:space="preserve">1, Go to the Website 
+2,Type in keyword " car 1/24 Maisto mykingdom" 
+3,User clicks Search button </t>
+  </si>
+  <si>
+    <t>Users search for a product by entering Category Name/Supplier Name/Brand Name/Product Name but reanrange the order</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Verify that the return result is that product </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Verify that the return result contain the category name </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Verify that the return result contain the brand  name </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Verify that the return result contain the supplier name </t>
+  </si>
+  <si>
+    <t xml:space="preserve">1, Go to the Website 
+2,Type in keyword "1:24 Lamborghini Urus " 
+3,User clicks Search button </t>
+  </si>
+  <si>
+    <t xml:space="preserve">1, Go to the Website 
+2,Type in keyword "1/24 mykingdom maisto 1:24 Lamborghini Urus" 
+3,User clicks Search button </t>
+  </si>
+  <si>
+    <t>1, Go to the Website 
+2,Type in keyword "1:24 Lamborghini Urus " 
+3,User clicks Search button 
+4, Choose "Price High to Low" option in Sort box</t>
+  </si>
+  <si>
+    <t>1, Go to the Website 
+2,Type in keyword "1:24 Lamborghini Urus " 
+3,User clicks Search button 
+4, Choose "Price Low to High" option in Sort box</t>
+  </si>
+  <si>
+    <t>Verify that search results return in ascending order</t>
+  </si>
+  <si>
+    <t>Verify that search results return in descending order</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Search with option that displayed in Search History </t>
+  </si>
+  <si>
+    <t xml:space="preserve">1, Go to the Website 
+2, Focus on the Search box
+3, Select an option in Search History </t>
+  </si>
+  <si>
+    <t>Verify that Search history show all previous searches</t>
+  </si>
+  <si>
+    <t>Verify that user can select option from Search History</t>
+  </si>
+  <si>
+    <t>Verify that user can select option from Search Suggestion</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Search with options that displayed in Search Suggestion </t>
+  </si>
+  <si>
+    <t>1, Go to the Website 
+2,Type in keyword "em" 
+3,Select an option in Search Suggestion</t>
+  </si>
+  <si>
+    <t>Verify that all product displayed in 1 page</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Verify that all product displayed in several page with the format of 10 products per page </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Verify that the "&lt;" button is disabled in the first page </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Verify that the "&gt;" button is disabled in the last page </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Verify that users moved directly to the next page </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Verify that users moved directly to the previous page </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Verify that users moved directly to the next 5 pages </t>
+  </si>
+  <si>
+    <t xml:space="preserve">The display of "…" button in the first page </t>
+  </si>
+  <si>
+    <t xml:space="preserve">The display of "…" button in the last page </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Verify that the "..." button next to the first page is disabled </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Verify that the "..." button next to the last page is disabled </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Verify that users moved directly to that page </t>
+  </si>
+  <si>
+    <t xml:space="preserve">1, Go to the Website 
+2,Type in keyword that return less than 10 products  
+3,User clicks Search button </t>
+  </si>
+  <si>
+    <t xml:space="preserve">1, Go to the Website 
+2,Type in keyword that return 10 products  
+3,User clicks Search button </t>
+  </si>
+  <si>
+    <t xml:space="preserve">1, Go to the Website 
+2,Type in keyword that return more than 10 products  
+3,User clicks Search button </t>
+  </si>
+  <si>
+    <t>1, Go to the Website 
+2,Type in keyword "maisto" 
+3,User clicks Search button 
+4, Choose several criteria in Filter options</t>
   </si>
 </sst>
 </file>
@@ -4281,7 +4366,7 @@
     <xf numFmtId="166" fontId="56" fillId="0" borderId="0"/>
     <xf numFmtId="166" fontId="57" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="319">
+  <cellXfs count="316">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
@@ -4863,6 +4948,13 @@
     <xf numFmtId="0" fontId="70" fillId="9" borderId="7" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="15" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="11" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="47" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="21" borderId="22" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -4941,6 +5033,57 @@
     <xf numFmtId="0" fontId="64" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="52" fillId="24" borderId="15" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="24" borderId="16" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="24" borderId="11" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="24" borderId="15" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="25" borderId="15" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="25" borderId="16" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="25" borderId="11" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="26" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="26" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="26" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="12" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="13" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="10" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="17" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="5" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="27" borderId="15" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -4956,12 +5099,6 @@
     <xf numFmtId="0" fontId="64" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="5" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="165" fontId="1" fillId="0" borderId="6" xfId="5" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -4980,24 +5117,6 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="25" borderId="15" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="25" borderId="16" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="25" borderId="11" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="24" borderId="15" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="24" borderId="16" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="24" borderId="11" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="30" borderId="15" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -5007,32 +5126,62 @@
     <xf numFmtId="0" fontId="3" fillId="30" borderId="11" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="41" borderId="15" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="41" borderId="16" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="41" borderId="11" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="15" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="16" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="11" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="33" borderId="15" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="33" borderId="16" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="33" borderId="11" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="36" borderId="15" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="36" borderId="16" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="36" borderId="11" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="40" borderId="15" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="40" borderId="16" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="40" borderId="11" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="52" fillId="24" borderId="15" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="26" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="26" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="26" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="12" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="13" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="10" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="17" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="37" borderId="15" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -5043,71 +5192,44 @@
     <xf numFmtId="0" fontId="3" fillId="37" borderId="11" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="37" fillId="36" borderId="15" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="36" borderId="16" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="36" borderId="11" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="41" borderId="15" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="41" borderId="16" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="41" borderId="11" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="15" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="16" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="11" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="33" borderId="15" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="33" borderId="16" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="33" borderId="11" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="40" borderId="15" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="40" borderId="16" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="40" borderId="11" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="39" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="39" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="39" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="12" xfId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="10" xfId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="30" fillId="3" borderId="0" xfId="7" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="14" xfId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="19" xfId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="3" fillId="2" borderId="18" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="3" fillId="2" borderId="20" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="3" fillId="2" borderId="15" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="3" fillId="2" borderId="16" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="3" fillId="2" borderId="11" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="18" xfId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="7" xfId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="46" fillId="0" borderId="6" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="48" fillId="0" borderId="15" xfId="7" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -5115,6 +5237,15 @@
     <xf numFmtId="0" fontId="48" fillId="0" borderId="11" xfId="7" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="166" fontId="3" fillId="2" borderId="6" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="61" fillId="0" borderId="15" xfId="7" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="61" fillId="0" borderId="11" xfId="7" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="166" fontId="43" fillId="12" borderId="0" xfId="7" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
@@ -5124,68 +5255,11 @@
     <xf numFmtId="166" fontId="44" fillId="0" borderId="0" xfId="7" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
     </xf>
-    <xf numFmtId="166" fontId="30" fillId="3" borderId="0" xfId="7" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="166" fontId="3" fillId="2" borderId="8" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="166" fontId="3" fillId="2" borderId="0" xfId="7" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="166" fontId="3" fillId="2" borderId="15" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="166" fontId="3" fillId="2" borderId="11" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="166" fontId="3" fillId="2" borderId="6" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="61" fillId="0" borderId="15" xfId="7" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="61" fillId="0" borderId="11" xfId="7" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="166" fontId="46" fillId="0" borderId="6" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="12" xfId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="10" xfId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="14" xfId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="19" xfId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="166" fontId="3" fillId="2" borderId="18" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="166" fontId="3" fillId="2" borderId="20" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="166" fontId="3" fillId="2" borderId="16" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="18" xfId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="7" xfId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="15" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="11" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="27">
@@ -5947,37 +6021,37 @@
       <c r="F3" s="18"/>
     </row>
     <row r="4" spans="1:6" ht="15" customHeight="1">
-      <c r="A4" s="214" t="s">
+      <c r="A4" s="217" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="215"/>
-      <c r="C4" s="215"/>
-      <c r="D4" s="215"/>
-      <c r="E4" s="216"/>
+      <c r="B4" s="218"/>
+      <c r="C4" s="218"/>
+      <c r="D4" s="218"/>
+      <c r="E4" s="219"/>
       <c r="F4" s="18"/>
     </row>
     <row r="5" spans="1:6">
-      <c r="A5" s="217" t="s">
+      <c r="A5" s="220" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="217"/>
-      <c r="C5" s="218" t="s">
+      <c r="B5" s="220"/>
+      <c r="C5" s="221" t="s">
         <v>4</v>
       </c>
-      <c r="D5" s="218"/>
-      <c r="E5" s="218"/>
+      <c r="D5" s="221"/>
+      <c r="E5" s="221"/>
       <c r="F5" s="18"/>
     </row>
     <row r="6" spans="1:6" ht="29.25" customHeight="1">
-      <c r="A6" s="219" t="s">
+      <c r="A6" s="222" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="220"/>
-      <c r="C6" s="213" t="s">
+      <c r="B6" s="223"/>
+      <c r="C6" s="216" t="s">
         <v>6</v>
       </c>
-      <c r="D6" s="213"/>
-      <c r="E6" s="213"/>
+      <c r="D6" s="216"/>
+      <c r="E6" s="216"/>
       <c r="F6" s="18"/>
     </row>
     <row r="7" spans="1:6" ht="29.25" customHeight="1">
@@ -5989,14 +6063,14 @@
       <c r="F7" s="18"/>
     </row>
     <row r="8" spans="1:6" s="147" customFormat="1" ht="29.25" customHeight="1">
-      <c r="A8" s="211" t="s">
+      <c r="A8" s="214" t="s">
         <v>7</v>
       </c>
-      <c r="B8" s="212"/>
-      <c r="C8" s="212"/>
-      <c r="D8" s="212"/>
-      <c r="E8" s="212"/>
-      <c r="F8" s="212"/>
+      <c r="B8" s="215"/>
+      <c r="C8" s="215"/>
+      <c r="D8" s="215"/>
+      <c r="E8" s="215"/>
+      <c r="F8" s="215"/>
     </row>
     <row r="9" spans="1:6" s="147" customFormat="1" ht="15" customHeight="1">
       <c r="A9" s="148" t="s">
@@ -6079,14 +6153,14 @@
       </c>
     </row>
     <row r="13" spans="1:6" s="147" customFormat="1" ht="30" customHeight="1">
-      <c r="A13" s="213" t="s">
+      <c r="A13" s="216" t="s">
         <v>23</v>
       </c>
-      <c r="B13" s="213"/>
-      <c r="C13" s="213"/>
-      <c r="D13" s="213"/>
-      <c r="E13" s="213"/>
-      <c r="F13" s="213"/>
+      <c r="B13" s="216"/>
+      <c r="C13" s="216"/>
+      <c r="D13" s="216"/>
+      <c r="E13" s="216"/>
+      <c r="F13" s="216"/>
     </row>
     <row r="14" spans="1:6">
       <c r="A14" s="18"/>
@@ -6209,36 +6283,36 @@
       <c r="K1" s="34"/>
     </row>
     <row r="2" spans="1:11" ht="25.5" customHeight="1">
-      <c r="B2" s="226" t="s">
+      <c r="B2" s="229" t="s">
         <v>25</v>
       </c>
-      <c r="C2" s="226"/>
-      <c r="D2" s="226"/>
-      <c r="E2" s="226"/>
-      <c r="F2" s="226"/>
-      <c r="G2" s="226"/>
-      <c r="H2" s="226"/>
-      <c r="I2" s="226"/>
-      <c r="J2" s="224" t="s">
+      <c r="C2" s="229"/>
+      <c r="D2" s="229"/>
+      <c r="E2" s="229"/>
+      <c r="F2" s="229"/>
+      <c r="G2" s="229"/>
+      <c r="H2" s="229"/>
+      <c r="I2" s="229"/>
+      <c r="J2" s="227" t="s">
         <v>26</v>
       </c>
-      <c r="K2" s="224"/>
+      <c r="K2" s="227"/>
     </row>
     <row r="3" spans="1:11" ht="28.5" customHeight="1">
-      <c r="B3" s="227" t="s">
+      <c r="B3" s="230" t="s">
         <v>27</v>
       </c>
-      <c r="C3" s="227"/>
-      <c r="D3" s="227"/>
-      <c r="E3" s="227"/>
-      <c r="F3" s="225" t="s">
+      <c r="C3" s="230"/>
+      <c r="D3" s="230"/>
+      <c r="E3" s="230"/>
+      <c r="F3" s="228" t="s">
         <v>28</v>
       </c>
-      <c r="G3" s="225"/>
-      <c r="H3" s="225"/>
-      <c r="I3" s="225"/>
-      <c r="J3" s="224"/>
-      <c r="K3" s="224"/>
+      <c r="G3" s="228"/>
+      <c r="H3" s="228"/>
+      <c r="I3" s="228"/>
+      <c r="J3" s="227"/>
+      <c r="K3" s="227"/>
     </row>
     <row r="4" spans="1:11" ht="18" customHeight="1">
       <c r="B4" s="153"/>
@@ -6258,65 +6332,65 @@
       </c>
     </row>
     <row r="7" spans="1:11">
-      <c r="A7" s="231" t="s">
+      <c r="A7" s="234" t="s">
         <v>30</v>
       </c>
-      <c r="B7" s="231"/>
-      <c r="C7" s="231"/>
-      <c r="D7" s="231"/>
-      <c r="E7" s="231"/>
-      <c r="F7" s="231"/>
-      <c r="G7" s="231"/>
-      <c r="H7" s="231"/>
-      <c r="I7" s="231"/>
+      <c r="B7" s="234"/>
+      <c r="C7" s="234"/>
+      <c r="D7" s="234"/>
+      <c r="E7" s="234"/>
+      <c r="F7" s="234"/>
+      <c r="G7" s="234"/>
+      <c r="H7" s="234"/>
+      <c r="I7" s="234"/>
     </row>
     <row r="8" spans="1:11" ht="20.25" customHeight="1">
-      <c r="A8" s="231"/>
-      <c r="B8" s="231"/>
-      <c r="C8" s="231"/>
-      <c r="D8" s="231"/>
-      <c r="E8" s="231"/>
-      <c r="F8" s="231"/>
-      <c r="G8" s="231"/>
-      <c r="H8" s="231"/>
-      <c r="I8" s="231"/>
+      <c r="A8" s="234"/>
+      <c r="B8" s="234"/>
+      <c r="C8" s="234"/>
+      <c r="D8" s="234"/>
+      <c r="E8" s="234"/>
+      <c r="F8" s="234"/>
+      <c r="G8" s="234"/>
+      <c r="H8" s="234"/>
+      <c r="I8" s="234"/>
     </row>
     <row r="9" spans="1:11">
-      <c r="A9" s="231" t="s">
+      <c r="A9" s="234" t="s">
         <v>31</v>
       </c>
-      <c r="B9" s="231"/>
-      <c r="C9" s="231"/>
-      <c r="D9" s="231"/>
-      <c r="E9" s="231"/>
-      <c r="F9" s="231"/>
-      <c r="G9" s="231"/>
-      <c r="H9" s="231"/>
-      <c r="I9" s="231"/>
+      <c r="B9" s="234"/>
+      <c r="C9" s="234"/>
+      <c r="D9" s="234"/>
+      <c r="E9" s="234"/>
+      <c r="F9" s="234"/>
+      <c r="G9" s="234"/>
+      <c r="H9" s="234"/>
+      <c r="I9" s="234"/>
     </row>
     <row r="10" spans="1:11" ht="21" customHeight="1">
-      <c r="A10" s="231"/>
-      <c r="B10" s="231"/>
-      <c r="C10" s="231"/>
-      <c r="D10" s="231"/>
-      <c r="E10" s="231"/>
-      <c r="F10" s="231"/>
-      <c r="G10" s="231"/>
-      <c r="H10" s="231"/>
-      <c r="I10" s="231"/>
+      <c r="A10" s="234"/>
+      <c r="B10" s="234"/>
+      <c r="C10" s="234"/>
+      <c r="D10" s="234"/>
+      <c r="E10" s="234"/>
+      <c r="F10" s="234"/>
+      <c r="G10" s="234"/>
+      <c r="H10" s="234"/>
+      <c r="I10" s="234"/>
     </row>
     <row r="11" spans="1:11" ht="13.8">
-      <c r="A11" s="232" t="s">
+      <c r="A11" s="235" t="s">
         <v>32</v>
       </c>
-      <c r="B11" s="232"/>
-      <c r="C11" s="232"/>
-      <c r="D11" s="232"/>
-      <c r="E11" s="232"/>
-      <c r="F11" s="232"/>
-      <c r="G11" s="232"/>
-      <c r="H11" s="232"/>
-      <c r="I11" s="232"/>
+      <c r="B11" s="235"/>
+      <c r="C11" s="235"/>
+      <c r="D11" s="235"/>
+      <c r="E11" s="235"/>
+      <c r="F11" s="235"/>
+      <c r="G11" s="235"/>
+      <c r="H11" s="235"/>
+      <c r="I11" s="235"/>
     </row>
     <row r="12" spans="1:11">
       <c r="A12" s="3"/>
@@ -6338,65 +6412,65 @@
       <c r="A14" s="134" t="s">
         <v>34</v>
       </c>
-      <c r="B14" s="228" t="s">
+      <c r="B14" s="231" t="s">
         <v>35</v>
       </c>
-      <c r="C14" s="229"/>
-      <c r="D14" s="229"/>
-      <c r="E14" s="229"/>
-      <c r="F14" s="229"/>
-      <c r="G14" s="229"/>
-      <c r="H14" s="229"/>
-      <c r="I14" s="229"/>
-      <c r="J14" s="229"/>
-      <c r="K14" s="230"/>
+      <c r="C14" s="232"/>
+      <c r="D14" s="232"/>
+      <c r="E14" s="232"/>
+      <c r="F14" s="232"/>
+      <c r="G14" s="232"/>
+      <c r="H14" s="232"/>
+      <c r="I14" s="232"/>
+      <c r="J14" s="232"/>
+      <c r="K14" s="233"/>
     </row>
     <row r="15" spans="1:11" ht="14.25" customHeight="1">
       <c r="A15" s="134" t="s">
         <v>36</v>
       </c>
-      <c r="B15" s="228" t="s">
+      <c r="B15" s="231" t="s">
         <v>37</v>
       </c>
-      <c r="C15" s="229"/>
-      <c r="D15" s="229"/>
-      <c r="E15" s="229"/>
-      <c r="F15" s="229"/>
-      <c r="G15" s="229"/>
-      <c r="H15" s="229"/>
-      <c r="I15" s="229"/>
-      <c r="J15" s="229"/>
-      <c r="K15" s="230"/>
+      <c r="C15" s="232"/>
+      <c r="D15" s="232"/>
+      <c r="E15" s="232"/>
+      <c r="F15" s="232"/>
+      <c r="G15" s="232"/>
+      <c r="H15" s="232"/>
+      <c r="I15" s="232"/>
+      <c r="J15" s="232"/>
+      <c r="K15" s="233"/>
     </row>
     <row r="16" spans="1:11" ht="14.25" customHeight="1">
       <c r="A16" s="134"/>
-      <c r="B16" s="228" t="s">
+      <c r="B16" s="231" t="s">
         <v>38</v>
       </c>
-      <c r="C16" s="229"/>
-      <c r="D16" s="229"/>
-      <c r="E16" s="229"/>
-      <c r="F16" s="229"/>
-      <c r="G16" s="229"/>
-      <c r="H16" s="229"/>
-      <c r="I16" s="229"/>
-      <c r="J16" s="229"/>
-      <c r="K16" s="230"/>
+      <c r="C16" s="232"/>
+      <c r="D16" s="232"/>
+      <c r="E16" s="232"/>
+      <c r="F16" s="232"/>
+      <c r="G16" s="232"/>
+      <c r="H16" s="232"/>
+      <c r="I16" s="232"/>
+      <c r="J16" s="232"/>
+      <c r="K16" s="233"/>
     </row>
     <row r="17" spans="1:14" ht="14.25" customHeight="1">
       <c r="A17" s="134"/>
-      <c r="B17" s="228" t="s">
+      <c r="B17" s="231" t="s">
         <v>39</v>
       </c>
-      <c r="C17" s="229"/>
-      <c r="D17" s="229"/>
-      <c r="E17" s="229"/>
-      <c r="F17" s="229"/>
-      <c r="G17" s="229"/>
-      <c r="H17" s="229"/>
-      <c r="I17" s="229"/>
-      <c r="J17" s="229"/>
-      <c r="K17" s="230"/>
+      <c r="C17" s="232"/>
+      <c r="D17" s="232"/>
+      <c r="E17" s="232"/>
+      <c r="F17" s="232"/>
+      <c r="G17" s="232"/>
+      <c r="H17" s="232"/>
+      <c r="I17" s="232"/>
+      <c r="J17" s="232"/>
+      <c r="K17" s="233"/>
     </row>
     <row r="19" spans="1:14" ht="22.5">
       <c r="A19" s="4" t="s">
@@ -6407,40 +6481,40 @@
       <c r="A20" s="134" t="s">
         <v>41</v>
       </c>
-      <c r="B20" s="228" t="s">
+      <c r="B20" s="231" t="s">
         <v>42</v>
       </c>
-      <c r="C20" s="229"/>
-      <c r="D20" s="229"/>
-      <c r="E20" s="229"/>
-      <c r="F20" s="229"/>
-      <c r="G20" s="230"/>
+      <c r="C20" s="232"/>
+      <c r="D20" s="232"/>
+      <c r="E20" s="232"/>
+      <c r="F20" s="232"/>
+      <c r="G20" s="233"/>
     </row>
     <row r="21" spans="1:14" ht="12.75" customHeight="1">
       <c r="A21" s="134" t="s">
         <v>43</v>
       </c>
-      <c r="B21" s="228" t="s">
+      <c r="B21" s="231" t="s">
         <v>44</v>
       </c>
-      <c r="C21" s="229"/>
-      <c r="D21" s="229"/>
-      <c r="E21" s="229"/>
-      <c r="F21" s="229"/>
-      <c r="G21" s="230"/>
+      <c r="C21" s="232"/>
+      <c r="D21" s="232"/>
+      <c r="E21" s="232"/>
+      <c r="F21" s="232"/>
+      <c r="G21" s="233"/>
     </row>
     <row r="22" spans="1:14" ht="12.75" customHeight="1">
       <c r="A22" s="134" t="s">
         <v>45</v>
       </c>
-      <c r="B22" s="228" t="s">
+      <c r="B22" s="231" t="s">
         <v>46</v>
       </c>
-      <c r="C22" s="229"/>
-      <c r="D22" s="229"/>
-      <c r="E22" s="229"/>
-      <c r="F22" s="229"/>
-      <c r="G22" s="230"/>
+      <c r="C22" s="232"/>
+      <c r="D22" s="232"/>
+      <c r="E22" s="232"/>
+      <c r="F22" s="232"/>
+      <c r="G22" s="233"/>
     </row>
     <row r="24" spans="1:14" ht="22.5">
       <c r="A24" s="4" t="s">
@@ -6499,11 +6573,11 @@
       <c r="N27" s="70"/>
     </row>
     <row r="29" spans="1:14" ht="21.75" customHeight="1">
-      <c r="B29" s="221" t="s">
+      <c r="B29" s="224" t="s">
         <v>51</v>
       </c>
-      <c r="C29" s="222"/>
-      <c r="D29" s="223"/>
+      <c r="C29" s="225"/>
+      <c r="D29" s="226"/>
     </row>
     <row r="30" spans="1:14" ht="90" customHeight="1">
       <c r="B30" s="5"/>
@@ -6580,14 +6654,14 @@
       <c r="J1" s="7"/>
     </row>
     <row r="2" spans="1:10" s="9" customFormat="1" ht="24.9">
-      <c r="A2" s="233" t="s">
+      <c r="A2" s="236" t="s">
         <v>56</v>
       </c>
-      <c r="B2" s="233"/>
-      <c r="C2" s="233"/>
-      <c r="D2" s="233"/>
-      <c r="E2" s="233"/>
-      <c r="F2" s="233"/>
+      <c r="B2" s="236"/>
+      <c r="C2" s="236"/>
+      <c r="D2" s="236"/>
+      <c r="E2" s="236"/>
+      <c r="F2" s="236"/>
     </row>
     <row r="3" spans="1:10">
       <c r="A3" s="10"/>
@@ -6773,12 +6847,12 @@
       <c r="K1" s="34"/>
     </row>
     <row r="2" spans="1:11" s="1" customFormat="1" ht="25.2">
-      <c r="A2" s="236" t="s">
+      <c r="A2" s="239" t="s">
         <v>70</v>
       </c>
-      <c r="B2" s="236"/>
-      <c r="C2" s="236"/>
-      <c r="D2" s="236"/>
+      <c r="B2" s="239"/>
+      <c r="C2" s="239"/>
+      <c r="D2" s="239"/>
       <c r="E2" s="156"/>
       <c r="F2" s="23"/>
       <c r="G2" s="23"/>
@@ -6939,18 +7013,18 @@
       <c r="F14" s="29"/>
     </row>
     <row r="16" spans="1:11" ht="14.1">
-      <c r="A16" s="234" t="s">
+      <c r="A16" s="237" t="s">
         <v>91</v>
       </c>
-      <c r="B16" s="234"/>
+      <c r="B16" s="237"/>
       <c r="C16" s="30"/>
       <c r="D16" s="31"/>
     </row>
     <row r="17" spans="1:4" ht="13.8">
-      <c r="A17" s="235" t="s">
+      <c r="A17" s="238" t="s">
         <v>92</v>
       </c>
-      <c r="B17" s="235"/>
+      <c r="B17" s="238"/>
     </row>
     <row r="20" spans="1:4">
       <c r="A20" s="33"/>
@@ -6996,10 +7070,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:24" s="1" customFormat="1" ht="13.8">
-      <c r="A1" s="240"/>
-      <c r="B1" s="240"/>
-      <c r="C1" s="240"/>
-      <c r="D1" s="240"/>
+      <c r="A1" s="260"/>
+      <c r="B1" s="260"/>
+      <c r="C1" s="260"/>
+      <c r="D1" s="260"/>
       <c r="E1" s="34"/>
       <c r="F1" s="34"/>
       <c r="G1" s="34"/>
@@ -7008,13 +7082,13 @@
       <c r="J1" s="34"/>
     </row>
     <row r="2" spans="1:24" s="1" customFormat="1" ht="31.5" customHeight="1">
-      <c r="A2" s="241" t="s">
+      <c r="A2" s="261" t="s">
         <v>70</v>
       </c>
-      <c r="B2" s="241"/>
-      <c r="C2" s="241"/>
-      <c r="D2" s="241"/>
-      <c r="E2" s="249"/>
+      <c r="B2" s="261"/>
+      <c r="C2" s="261"/>
+      <c r="D2" s="261"/>
+      <c r="E2" s="267"/>
       <c r="F2" s="23"/>
       <c r="G2" s="23"/>
       <c r="H2" s="23"/>
@@ -7023,9 +7097,9 @@
     </row>
     <row r="3" spans="1:24" s="1" customFormat="1" ht="31.5" customHeight="1">
       <c r="A3" s="47"/>
-      <c r="C3" s="259"/>
-      <c r="D3" s="259"/>
-      <c r="E3" s="249"/>
+      <c r="C3" s="254"/>
+      <c r="D3" s="254"/>
+      <c r="E3" s="267"/>
       <c r="F3" s="23"/>
       <c r="G3" s="23"/>
       <c r="H3" s="23"/>
@@ -7036,11 +7110,11 @@
       <c r="A4" s="139" t="s">
         <v>66</v>
       </c>
-      <c r="B4" s="243" t="s">
+      <c r="B4" s="255" t="s">
         <v>93</v>
       </c>
-      <c r="C4" s="243"/>
-      <c r="D4" s="243"/>
+      <c r="C4" s="255"/>
+      <c r="D4" s="255"/>
       <c r="E4" s="39"/>
       <c r="F4" s="39"/>
       <c r="G4" s="39"/>
@@ -7054,11 +7128,11 @@
       <c r="A5" s="139" t="s">
         <v>62</v>
       </c>
-      <c r="B5" s="242" t="s">
+      <c r="B5" s="256" t="s">
         <v>95</v>
       </c>
-      <c r="C5" s="243"/>
-      <c r="D5" s="243"/>
+      <c r="C5" s="255"/>
+      <c r="D5" s="255"/>
       <c r="E5" s="39"/>
       <c r="F5" s="39"/>
       <c r="G5" s="39"/>
@@ -7072,11 +7146,11 @@
       <c r="A6" s="139" t="s">
         <v>97</v>
       </c>
-      <c r="B6" s="242" t="s">
+      <c r="B6" s="256" t="s">
         <v>98</v>
       </c>
-      <c r="C6" s="243"/>
-      <c r="D6" s="243"/>
+      <c r="C6" s="255"/>
+      <c r="D6" s="255"/>
       <c r="E6" s="39"/>
       <c r="F6" s="39"/>
       <c r="G6" s="39"/>
@@ -7087,11 +7161,11 @@
       <c r="A7" s="139" t="s">
         <v>99</v>
       </c>
-      <c r="B7" s="243" t="s">
+      <c r="B7" s="255" t="s">
         <v>100</v>
       </c>
-      <c r="C7" s="243"/>
-      <c r="D7" s="243"/>
+      <c r="C7" s="255"/>
+      <c r="D7" s="255"/>
       <c r="E7" s="39"/>
       <c r="F7" s="39"/>
       <c r="G7" s="39"/>
@@ -7103,11 +7177,11 @@
       <c r="A8" s="139" t="s">
         <v>101</v>
       </c>
-      <c r="B8" s="244">
+      <c r="B8" s="262">
         <v>40850</v>
       </c>
-      <c r="C8" s="244"/>
-      <c r="D8" s="244"/>
+      <c r="C8" s="262"/>
+      <c r="D8" s="262"/>
       <c r="E8" s="39"/>
     </row>
     <row r="9" spans="1:24" s="43" customFormat="1">
@@ -7250,11 +7324,11 @@
       <c r="C16" s="50"/>
       <c r="D16" s="51"/>
       <c r="E16" s="56"/>
-      <c r="F16" s="248" t="s">
+      <c r="F16" s="266" t="s">
         <v>102</v>
       </c>
-      <c r="G16" s="248"/>
-      <c r="H16" s="248"/>
+      <c r="G16" s="266"/>
+      <c r="H16" s="266"/>
       <c r="I16" s="57"/>
     </row>
     <row r="17" spans="1:9" s="44" customFormat="1" ht="36.9">
@@ -7290,16 +7364,16 @@
       <c r="A18" s="67" t="s">
         <v>204</v>
       </c>
-      <c r="B18" s="245" t="s">
+      <c r="B18" s="263" t="s">
         <v>206</v>
       </c>
-      <c r="C18" s="246"/>
-      <c r="D18" s="246"/>
-      <c r="E18" s="246"/>
-      <c r="F18" s="246"/>
-      <c r="G18" s="246"/>
-      <c r="H18" s="246"/>
-      <c r="I18" s="247"/>
+      <c r="C18" s="264"/>
+      <c r="D18" s="264"/>
+      <c r="E18" s="264"/>
+      <c r="F18" s="264"/>
+      <c r="G18" s="264"/>
+      <c r="H18" s="264"/>
+      <c r="I18" s="265"/>
     </row>
     <row r="19" spans="1:9" s="45" customFormat="1" ht="27.6" customHeight="1">
       <c r="A19" s="52">
@@ -7324,16 +7398,16 @@
     </row>
     <row r="20" spans="1:9" s="45" customFormat="1">
       <c r="A20" s="168"/>
-      <c r="B20" s="253" t="s">
+      <c r="B20" s="243" t="s">
         <v>219</v>
       </c>
-      <c r="C20" s="254"/>
-      <c r="D20" s="254"/>
-      <c r="E20" s="254"/>
-      <c r="F20" s="254"/>
-      <c r="G20" s="254"/>
-      <c r="H20" s="254"/>
-      <c r="I20" s="255"/>
+      <c r="C20" s="241"/>
+      <c r="D20" s="241"/>
+      <c r="E20" s="241"/>
+      <c r="F20" s="241"/>
+      <c r="G20" s="241"/>
+      <c r="H20" s="241"/>
+      <c r="I20" s="242"/>
     </row>
     <row r="21" spans="1:9" s="45" customFormat="1" ht="20.7" customHeight="1">
       <c r="A21" s="58">
@@ -7381,16 +7455,16 @@
     </row>
     <row r="23" spans="1:9" s="45" customFormat="1">
       <c r="A23" s="168"/>
-      <c r="B23" s="253" t="s">
+      <c r="B23" s="243" t="s">
         <v>220</v>
       </c>
-      <c r="C23" s="254"/>
-      <c r="D23" s="254"/>
-      <c r="E23" s="254"/>
-      <c r="F23" s="254"/>
-      <c r="G23" s="254"/>
-      <c r="H23" s="254"/>
-      <c r="I23" s="255"/>
+      <c r="C23" s="241"/>
+      <c r="D23" s="241"/>
+      <c r="E23" s="241"/>
+      <c r="F23" s="241"/>
+      <c r="G23" s="241"/>
+      <c r="H23" s="241"/>
+      <c r="I23" s="242"/>
     </row>
     <row r="24" spans="1:9" s="48" customFormat="1" ht="13.8">
       <c r="A24" s="58">
@@ -7460,16 +7534,16 @@
     </row>
     <row r="27" spans="1:9" s="48" customFormat="1" ht="13.8">
       <c r="A27" s="168"/>
-      <c r="B27" s="250" t="s">
+      <c r="B27" s="244" t="s">
         <v>225</v>
       </c>
-      <c r="C27" s="251"/>
-      <c r="D27" s="251"/>
-      <c r="E27" s="251"/>
-      <c r="F27" s="251"/>
-      <c r="G27" s="251"/>
-      <c r="H27" s="251"/>
-      <c r="I27" s="252"/>
+      <c r="C27" s="245"/>
+      <c r="D27" s="245"/>
+      <c r="E27" s="245"/>
+      <c r="F27" s="245"/>
+      <c r="G27" s="245"/>
+      <c r="H27" s="245"/>
+      <c r="I27" s="246"/>
     </row>
     <row r="28" spans="1:9" s="48" customFormat="1" ht="13.8">
       <c r="A28" s="58">
@@ -7539,16 +7613,16 @@
     </row>
     <row r="31" spans="1:9" s="48" customFormat="1" ht="13.8">
       <c r="A31" s="169"/>
-      <c r="B31" s="246" t="s">
+      <c r="B31" s="264" t="s">
         <v>205</v>
       </c>
-      <c r="C31" s="246"/>
-      <c r="D31" s="246"/>
-      <c r="E31" s="246"/>
-      <c r="F31" s="246"/>
-      <c r="G31" s="246"/>
-      <c r="H31" s="246"/>
-      <c r="I31" s="247"/>
+      <c r="C31" s="264"/>
+      <c r="D31" s="264"/>
+      <c r="E31" s="264"/>
+      <c r="F31" s="264"/>
+      <c r="G31" s="264"/>
+      <c r="H31" s="264"/>
+      <c r="I31" s="265"/>
     </row>
     <row r="32" spans="1:9" s="48" customFormat="1" ht="13.8">
       <c r="A32" s="58">
@@ -7574,16 +7648,16 @@
     </row>
     <row r="33" spans="1:9" s="48" customFormat="1" ht="13.8">
       <c r="A33" s="168"/>
-      <c r="B33" s="253" t="s">
+      <c r="B33" s="243" t="s">
         <v>219</v>
       </c>
-      <c r="C33" s="254"/>
-      <c r="D33" s="254"/>
-      <c r="E33" s="254"/>
-      <c r="F33" s="254"/>
-      <c r="G33" s="254"/>
-      <c r="H33" s="254"/>
-      <c r="I33" s="255"/>
+      <c r="C33" s="241"/>
+      <c r="D33" s="241"/>
+      <c r="E33" s="241"/>
+      <c r="F33" s="241"/>
+      <c r="G33" s="241"/>
+      <c r="H33" s="241"/>
+      <c r="I33" s="242"/>
     </row>
     <row r="34" spans="1:9" s="48" customFormat="1" ht="17.7" customHeight="1">
       <c r="A34" s="58">
@@ -7631,16 +7705,16 @@
     </row>
     <row r="36" spans="1:9" s="48" customFormat="1" ht="13.8">
       <c r="A36" s="168"/>
-      <c r="B36" s="253" t="s">
+      <c r="B36" s="243" t="s">
         <v>220</v>
       </c>
-      <c r="C36" s="254"/>
-      <c r="D36" s="254"/>
-      <c r="E36" s="254"/>
-      <c r="F36" s="254"/>
-      <c r="G36" s="254"/>
-      <c r="H36" s="254"/>
-      <c r="I36" s="255"/>
+      <c r="C36" s="241"/>
+      <c r="D36" s="241"/>
+      <c r="E36" s="241"/>
+      <c r="F36" s="241"/>
+      <c r="G36" s="241"/>
+      <c r="H36" s="241"/>
+      <c r="I36" s="242"/>
     </row>
     <row r="37" spans="1:9" s="48" customFormat="1" ht="13.8">
       <c r="A37" s="58">
@@ -7710,16 +7784,16 @@
     </row>
     <row r="40" spans="1:9" s="48" customFormat="1" ht="13.8">
       <c r="A40" s="168"/>
-      <c r="B40" s="250" t="s">
+      <c r="B40" s="244" t="s">
         <v>225</v>
       </c>
-      <c r="C40" s="251"/>
-      <c r="D40" s="251"/>
-      <c r="E40" s="251"/>
-      <c r="F40" s="251"/>
-      <c r="G40" s="251"/>
-      <c r="H40" s="251"/>
-      <c r="I40" s="252"/>
+      <c r="C40" s="245"/>
+      <c r="D40" s="245"/>
+      <c r="E40" s="245"/>
+      <c r="F40" s="245"/>
+      <c r="G40" s="245"/>
+      <c r="H40" s="245"/>
+      <c r="I40" s="246"/>
     </row>
     <row r="41" spans="1:9" s="49" customFormat="1" ht="13.8">
       <c r="A41" s="58">
@@ -7789,16 +7863,16 @@
     </row>
     <row r="44" spans="1:9" s="48" customFormat="1" ht="13.8">
       <c r="A44" s="168"/>
-      <c r="B44" s="261" t="s">
+      <c r="B44" s="247" t="s">
         <v>240</v>
       </c>
-      <c r="C44" s="262"/>
-      <c r="D44" s="262"/>
-      <c r="E44" s="262"/>
-      <c r="F44" s="262"/>
-      <c r="G44" s="262"/>
-      <c r="H44" s="262"/>
-      <c r="I44" s="263"/>
+      <c r="C44" s="248"/>
+      <c r="D44" s="248"/>
+      <c r="E44" s="248"/>
+      <c r="F44" s="248"/>
+      <c r="G44" s="248"/>
+      <c r="H44" s="248"/>
+      <c r="I44" s="249"/>
     </row>
     <row r="45" spans="1:9" s="48" customFormat="1" ht="13.8">
       <c r="A45" s="58">
@@ -7890,29 +7964,29 @@
     </row>
     <row r="49" spans="1:9" s="48" customFormat="1" ht="13.8">
       <c r="A49" s="167"/>
-      <c r="B49" s="264" t="s">
+      <c r="B49" s="250" t="s">
         <v>253</v>
       </c>
-      <c r="C49" s="265"/>
-      <c r="D49" s="265"/>
-      <c r="E49" s="265"/>
-      <c r="F49" s="265"/>
-      <c r="G49" s="265"/>
-      <c r="H49" s="265"/>
-      <c r="I49" s="265"/>
+      <c r="C49" s="251"/>
+      <c r="D49" s="251"/>
+      <c r="E49" s="251"/>
+      <c r="F49" s="251"/>
+      <c r="G49" s="251"/>
+      <c r="H49" s="251"/>
+      <c r="I49" s="251"/>
     </row>
     <row r="50" spans="1:9" s="48" customFormat="1" ht="13.8">
       <c r="A50" s="180"/>
-      <c r="B50" s="266" t="s">
+      <c r="B50" s="252" t="s">
         <v>254</v>
       </c>
-      <c r="C50" s="267"/>
-      <c r="D50" s="267"/>
-      <c r="E50" s="267"/>
-      <c r="F50" s="267"/>
-      <c r="G50" s="267"/>
-      <c r="H50" s="267"/>
-      <c r="I50" s="267"/>
+      <c r="C50" s="253"/>
+      <c r="D50" s="253"/>
+      <c r="E50" s="253"/>
+      <c r="F50" s="253"/>
+      <c r="G50" s="253"/>
+      <c r="H50" s="253"/>
+      <c r="I50" s="253"/>
     </row>
     <row r="51" spans="1:9" s="48" customFormat="1" ht="13.8">
       <c r="A51" s="58">
@@ -7955,7 +8029,7 @@
     </row>
     <row r="53" spans="1:9" s="48" customFormat="1" ht="13.8">
       <c r="A53" s="58" t="s">
-        <v>597</v>
+        <v>542</v>
       </c>
       <c r="B53" s="52" t="s">
         <v>256</v>
@@ -8034,16 +8108,16 @@
     </row>
     <row r="57" spans="1:9" s="48" customFormat="1" ht="13.8">
       <c r="A57" s="180"/>
-      <c r="B57" s="260" t="s">
+      <c r="B57" s="240" t="s">
         <v>260</v>
       </c>
-      <c r="C57" s="254"/>
-      <c r="D57" s="254"/>
-      <c r="E57" s="254"/>
-      <c r="F57" s="254"/>
-      <c r="G57" s="254"/>
-      <c r="H57" s="254"/>
-      <c r="I57" s="255"/>
+      <c r="C57" s="241"/>
+      <c r="D57" s="241"/>
+      <c r="E57" s="241"/>
+      <c r="F57" s="241"/>
+      <c r="G57" s="241"/>
+      <c r="H57" s="241"/>
+      <c r="I57" s="242"/>
     </row>
     <row r="58" spans="1:9" s="48" customFormat="1" ht="13.8">
       <c r="A58" s="58" t="e">
@@ -8167,16 +8241,16 @@
     </row>
     <row r="64" spans="1:9" s="48" customFormat="1" ht="13.8">
       <c r="A64" s="168"/>
-      <c r="B64" s="256" t="s">
+      <c r="B64" s="268" t="s">
         <v>262</v>
       </c>
-      <c r="C64" s="257"/>
-      <c r="D64" s="257"/>
-      <c r="E64" s="257"/>
-      <c r="F64" s="257"/>
-      <c r="G64" s="257"/>
-      <c r="H64" s="257"/>
-      <c r="I64" s="258"/>
+      <c r="C64" s="269"/>
+      <c r="D64" s="269"/>
+      <c r="E64" s="269"/>
+      <c r="F64" s="269"/>
+      <c r="G64" s="269"/>
+      <c r="H64" s="269"/>
+      <c r="I64" s="270"/>
     </row>
     <row r="65" spans="1:9" s="48" customFormat="1" ht="24.6">
       <c r="A65" s="58" t="e">
@@ -8293,9 +8367,9 @@
     </row>
     <row r="73" spans="1:9" s="48" customFormat="1" ht="13.8">
       <c r="A73" s="171"/>
-      <c r="B73" s="237"/>
-      <c r="C73" s="238"/>
-      <c r="D73" s="239"/>
+      <c r="B73" s="257"/>
+      <c r="C73" s="258"/>
+      <c r="D73" s="259"/>
       <c r="E73" s="172"/>
       <c r="F73" s="173"/>
       <c r="G73" s="173"/>
@@ -8337,9 +8411,9 @@
     </row>
     <row r="77" spans="1:9" s="48" customFormat="1" ht="13.8">
       <c r="A77" s="171"/>
-      <c r="B77" s="237"/>
-      <c r="C77" s="238"/>
-      <c r="D77" s="239"/>
+      <c r="B77" s="257"/>
+      <c r="C77" s="258"/>
+      <c r="D77" s="259"/>
       <c r="E77" s="172"/>
       <c r="F77" s="173"/>
       <c r="G77" s="173"/>
@@ -8381,9 +8455,9 @@
     </row>
     <row r="81" spans="1:9" s="48" customFormat="1" ht="14.25" customHeight="1">
       <c r="A81" s="171"/>
-      <c r="B81" s="237"/>
-      <c r="C81" s="238"/>
-      <c r="D81" s="239"/>
+      <c r="B81" s="257"/>
+      <c r="C81" s="258"/>
+      <c r="D81" s="259"/>
       <c r="E81" s="172"/>
       <c r="F81" s="173"/>
       <c r="G81" s="173"/>
@@ -8414,9 +8488,9 @@
     </row>
     <row r="84" spans="1:9" s="48" customFormat="1" ht="14.25" customHeight="1">
       <c r="A84" s="171"/>
-      <c r="B84" s="237"/>
-      <c r="C84" s="238"/>
-      <c r="D84" s="239"/>
+      <c r="B84" s="257"/>
+      <c r="C84" s="258"/>
+      <c r="D84" s="259"/>
       <c r="E84" s="172"/>
       <c r="F84" s="173"/>
       <c r="G84" s="173"/>
@@ -8567,17 +8641,6 @@
     </row>
   </sheetData>
   <mergeCells count="27">
-    <mergeCell ref="B57:I57"/>
-    <mergeCell ref="B36:I36"/>
-    <mergeCell ref="B40:I40"/>
-    <mergeCell ref="B44:I44"/>
-    <mergeCell ref="B49:I49"/>
-    <mergeCell ref="B50:I50"/>
-    <mergeCell ref="B20:I20"/>
-    <mergeCell ref="B23:I23"/>
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="B4:D4"/>
-    <mergeCell ref="B5:D5"/>
     <mergeCell ref="B77:D77"/>
     <mergeCell ref="B81:D81"/>
     <mergeCell ref="B84:D84"/>
@@ -8594,6 +8657,17 @@
     <mergeCell ref="B31:I31"/>
     <mergeCell ref="B33:I33"/>
     <mergeCell ref="B64:I64"/>
+    <mergeCell ref="B20:I20"/>
+    <mergeCell ref="B23:I23"/>
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="B4:D4"/>
+    <mergeCell ref="B5:D5"/>
+    <mergeCell ref="B57:I57"/>
+    <mergeCell ref="B36:I36"/>
+    <mergeCell ref="B40:I40"/>
+    <mergeCell ref="B44:I44"/>
+    <mergeCell ref="B49:I49"/>
+    <mergeCell ref="B50:I50"/>
   </mergeCells>
   <dataValidations count="3">
     <dataValidation showDropDown="1" showErrorMessage="1" sqref="F16:H17"/>
@@ -8613,10 +8687,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:X181"/>
+  <dimension ref="A1:X180"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A16" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="A22" sqref="A22"/>
+    <sheetView showGridLines="0" topLeftCell="A72" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="C81" sqref="C81"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.15625" defaultRowHeight="12.3"/>
@@ -8632,10 +8706,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:24" s="1" customFormat="1" ht="13.8">
-      <c r="A1" s="240"/>
-      <c r="B1" s="240"/>
-      <c r="C1" s="240"/>
-      <c r="D1" s="240"/>
+      <c r="A1" s="260"/>
+      <c r="B1" s="260"/>
+      <c r="C1" s="260"/>
+      <c r="D1" s="260"/>
       <c r="E1" s="34"/>
       <c r="F1" s="34"/>
       <c r="G1" s="34"/>
@@ -8644,13 +8718,13 @@
       <c r="J1" s="34"/>
     </row>
     <row r="2" spans="1:24" s="1" customFormat="1" ht="31.5" customHeight="1">
-      <c r="A2" s="241" t="s">
+      <c r="A2" s="261" t="s">
         <v>70</v>
       </c>
-      <c r="B2" s="241"/>
-      <c r="C2" s="241"/>
-      <c r="D2" s="241"/>
-      <c r="E2" s="249"/>
+      <c r="B2" s="261"/>
+      <c r="C2" s="261"/>
+      <c r="D2" s="261"/>
+      <c r="E2" s="267"/>
       <c r="F2" s="23"/>
       <c r="G2" s="23"/>
       <c r="H2" s="23"/>
@@ -8659,9 +8733,9 @@
     </row>
     <row r="3" spans="1:24" s="1" customFormat="1" ht="31.5" customHeight="1">
       <c r="A3" s="47"/>
-      <c r="C3" s="274"/>
-      <c r="D3" s="274"/>
-      <c r="E3" s="249"/>
+      <c r="C3" s="286"/>
+      <c r="D3" s="286"/>
+      <c r="E3" s="267"/>
       <c r="F3" s="23"/>
       <c r="G3" s="23"/>
       <c r="H3" s="23"/>
@@ -8672,11 +8746,11 @@
       <c r="A4" s="139" t="s">
         <v>67</v>
       </c>
-      <c r="B4" s="243" t="s">
+      <c r="B4" s="255" t="s">
         <v>116</v>
       </c>
-      <c r="C4" s="243"/>
-      <c r="D4" s="243"/>
+      <c r="C4" s="255"/>
+      <c r="D4" s="255"/>
       <c r="E4" s="39"/>
       <c r="F4" s="39"/>
       <c r="G4" s="39"/>
@@ -8690,11 +8764,11 @@
       <c r="A5" s="139" t="s">
         <v>62</v>
       </c>
-      <c r="B5" s="242" t="s">
+      <c r="B5" s="256" t="s">
         <v>95</v>
       </c>
-      <c r="C5" s="243"/>
-      <c r="D5" s="243"/>
+      <c r="C5" s="255"/>
+      <c r="D5" s="255"/>
       <c r="E5" s="39"/>
       <c r="F5" s="39"/>
       <c r="G5" s="39"/>
@@ -8708,11 +8782,11 @@
       <c r="A6" s="139" t="s">
         <v>97</v>
       </c>
-      <c r="B6" s="242" t="s">
+      <c r="B6" s="256" t="s">
         <v>98</v>
       </c>
-      <c r="C6" s="243"/>
-      <c r="D6" s="243"/>
+      <c r="C6" s="255"/>
+      <c r="D6" s="255"/>
       <c r="E6" s="39"/>
       <c r="F6" s="39"/>
       <c r="G6" s="39"/>
@@ -8723,11 +8797,11 @@
       <c r="A7" s="139" t="s">
         <v>99</v>
       </c>
-      <c r="B7" s="243" t="s">
+      <c r="B7" s="255" t="s">
         <v>100</v>
       </c>
-      <c r="C7" s="243"/>
-      <c r="D7" s="243"/>
+      <c r="C7" s="255"/>
+      <c r="D7" s="255"/>
       <c r="E7" s="39"/>
       <c r="F7" s="39"/>
       <c r="G7" s="39"/>
@@ -8739,11 +8813,11 @@
       <c r="A8" s="139" t="s">
         <v>101</v>
       </c>
-      <c r="B8" s="244">
+      <c r="B8" s="262">
         <v>40850</v>
       </c>
-      <c r="C8" s="244"/>
-      <c r="D8" s="244"/>
+      <c r="C8" s="262"/>
+      <c r="D8" s="262"/>
       <c r="E8" s="39"/>
     </row>
     <row r="9" spans="1:24" s="43" customFormat="1">
@@ -8785,15 +8859,15 @@
         <v>41</v>
       </c>
       <c r="B11" s="75">
-        <f>COUNTIF($F$18:$F$49733,"*Passed")</f>
+        <f>COUNTIF($F$18:$F$49716,"*Passed")</f>
         <v>0</v>
       </c>
       <c r="C11" s="75">
-        <f>COUNTIF($G$18:$G$49733,"*Passed")</f>
+        <f>COUNTIF($G$18:$G$49716,"*Passed")</f>
         <v>0</v>
       </c>
       <c r="D11" s="75">
-        <f>COUNTIF($H$18:$H$49733,"*Passed")</f>
+        <f>COUNTIF($H$18:$H$49716,"*Passed")</f>
         <v>0</v>
       </c>
     </row>
@@ -8802,15 +8876,15 @@
         <v>43</v>
       </c>
       <c r="B12" s="75">
-        <f>COUNTIF($F$18:$F$49453,"*Failed*")</f>
+        <f>COUNTIF($F$18:$F$49436,"*Failed*")</f>
         <v>0</v>
       </c>
       <c r="C12" s="75">
-        <f>COUNTIF($G$18:$G$49453,"*Failed*")</f>
+        <f>COUNTIF($G$18:$G$49436,"*Failed*")</f>
         <v>0</v>
       </c>
       <c r="D12" s="75">
-        <f>COUNTIF($H$18:$H$49453,"*Failed*")</f>
+        <f>COUNTIF($H$18:$H$49436,"*Failed*")</f>
         <v>0</v>
       </c>
     </row>
@@ -8819,15 +8893,15 @@
         <v>45</v>
       </c>
       <c r="B13" s="75">
-        <f>COUNTIF($F$18:$F$49453,"*Not Run*")</f>
+        <f>COUNTIF($F$18:$F$49436,"*Not Run*")</f>
         <v>0</v>
       </c>
       <c r="C13" s="75">
-        <f>COUNTIF($G$18:$G$49453,"*Not Run*")</f>
+        <f>COUNTIF($G$18:$G$49436,"*Not Run*")</f>
         <v>0</v>
       </c>
       <c r="D13" s="75">
-        <f>COUNTIF($H$18:$H$49453,"*Not Run*")</f>
+        <f>COUNTIF($H$18:$H$49436,"*Not Run*")</f>
         <v>0</v>
       </c>
       <c r="E13" s="1"/>
@@ -8841,15 +8915,15 @@
         <v>104</v>
       </c>
       <c r="B14" s="75">
-        <f>COUNTIF($F$18:$F$49453,"*NA*")</f>
+        <f>COUNTIF($F$18:$F$49436,"*NA*")</f>
         <v>0</v>
       </c>
       <c r="C14" s="75">
-        <f>COUNTIF($G$18:$G$49453,"*NA*")</f>
+        <f>COUNTIF($G$18:$G$49436,"*NA*")</f>
         <v>0</v>
       </c>
       <c r="D14" s="75">
-        <f>COUNTIF($H$18:$H$49453,"*NA*")</f>
+        <f>COUNTIF($H$18:$H$49436,"*NA*")</f>
         <v>0</v>
       </c>
       <c r="E14" s="64"/>
@@ -8863,15 +8937,15 @@
         <v>105</v>
       </c>
       <c r="B15" s="75">
-        <f>COUNTIF($F$18:$F$49453,"*Passed in previous build*")</f>
+        <f>COUNTIF($F$18:$F$49436,"*Passed in previous build*")</f>
         <v>0</v>
       </c>
       <c r="C15" s="75">
-        <f>COUNTIF($G$18:$G$49453,"*Passed in previous build*")</f>
+        <f>COUNTIF($G$18:$G$49436,"*Passed in previous build*")</f>
         <v>0</v>
       </c>
       <c r="D15" s="75">
-        <f>COUNTIF($H$18:$H$49453,"*Passed in previous build*")</f>
+        <f>COUNTIF($H$18:$H$49436,"*Passed in previous build*")</f>
         <v>0</v>
       </c>
       <c r="E15" s="1"/>
@@ -8886,11 +8960,11 @@
       <c r="C16" s="50"/>
       <c r="D16" s="51"/>
       <c r="E16" s="65"/>
-      <c r="F16" s="275" t="s">
+      <c r="F16" s="287" t="s">
         <v>102</v>
       </c>
-      <c r="G16" s="276"/>
-      <c r="H16" s="277"/>
+      <c r="G16" s="288"/>
+      <c r="H16" s="289"/>
       <c r="I16" s="65"/>
     </row>
     <row r="17" spans="1:9" s="44" customFormat="1" ht="36.9">
@@ -8924,44 +8998,46 @@
     </row>
     <row r="18" spans="1:9" s="44" customFormat="1" ht="15.75" customHeight="1">
       <c r="A18" s="67"/>
-      <c r="B18" s="245" t="s">
+      <c r="B18" s="263" t="s">
         <v>313</v>
       </c>
-      <c r="C18" s="246"/>
-      <c r="D18" s="246"/>
-      <c r="E18" s="246"/>
-      <c r="F18" s="246"/>
-      <c r="G18" s="246"/>
-      <c r="H18" s="246"/>
-      <c r="I18" s="247"/>
+      <c r="C18" s="264"/>
+      <c r="D18" s="264"/>
+      <c r="E18" s="264"/>
+      <c r="F18" s="264"/>
+      <c r="G18" s="264"/>
+      <c r="H18" s="264"/>
+      <c r="I18" s="265"/>
     </row>
     <row r="19" spans="1:9" s="44" customFormat="1" ht="15.75" customHeight="1">
       <c r="A19" s="200"/>
-      <c r="B19" s="278" t="s">
-        <v>415</v>
-      </c>
-      <c r="C19" s="279"/>
-      <c r="D19" s="279"/>
-      <c r="E19" s="279"/>
-      <c r="F19" s="279"/>
-      <c r="G19" s="279"/>
-      <c r="H19" s="279"/>
-      <c r="I19" s="280"/>
+      <c r="B19" s="271" t="s">
+        <v>397</v>
+      </c>
+      <c r="C19" s="272"/>
+      <c r="D19" s="272"/>
+      <c r="E19" s="272"/>
+      <c r="F19" s="272"/>
+      <c r="G19" s="272"/>
+      <c r="H19" s="272"/>
+      <c r="I19" s="273"/>
     </row>
     <row r="20" spans="1:9" s="44" customFormat="1" ht="43.8" customHeight="1">
       <c r="A20" s="52">
         <v>1</v>
       </c>
       <c r="B20" s="52" t="s">
-        <v>416</v>
+        <v>398</v>
       </c>
       <c r="C20" s="209" t="s">
-        <v>507</v>
+        <v>548</v>
       </c>
       <c r="D20" s="53" t="s">
-        <v>419</v>
-      </c>
-      <c r="E20" s="54"/>
+        <v>401</v>
+      </c>
+      <c r="E20" s="54" t="s">
+        <v>555</v>
+      </c>
       <c r="F20" s="52"/>
       <c r="G20" s="52"/>
       <c r="H20" s="52"/>
@@ -8973,13 +9049,13 @@
         <v>2</v>
       </c>
       <c r="B21" s="52" t="s">
-        <v>417</v>
+        <v>399</v>
       </c>
       <c r="C21" s="209" t="s">
-        <v>507</v>
+        <v>549</v>
       </c>
       <c r="D21" s="53" t="s">
-        <v>419</v>
+        <v>401</v>
       </c>
       <c r="E21" s="202"/>
       <c r="F21" s="201"/>
@@ -8993,13 +9069,13 @@
         <v>3</v>
       </c>
       <c r="B22" s="52" t="s">
-        <v>418</v>
+        <v>400</v>
       </c>
       <c r="C22" s="209" t="s">
-        <v>507</v>
+        <v>549</v>
       </c>
       <c r="D22" s="53" t="s">
-        <v>419</v>
+        <v>401</v>
       </c>
       <c r="E22" s="202"/>
       <c r="F22" s="201"/>
@@ -9009,16 +9085,16 @@
     </row>
     <row r="23" spans="1:9" s="44" customFormat="1" ht="15.75" customHeight="1">
       <c r="A23" s="204"/>
-      <c r="B23" s="281" t="s">
+      <c r="B23" s="274" t="s">
         <v>314</v>
       </c>
-      <c r="C23" s="282"/>
-      <c r="D23" s="282"/>
-      <c r="E23" s="282"/>
-      <c r="F23" s="282"/>
-      <c r="G23" s="282"/>
-      <c r="H23" s="282"/>
-      <c r="I23" s="283"/>
+      <c r="C23" s="275"/>
+      <c r="D23" s="275"/>
+      <c r="E23" s="275"/>
+      <c r="F23" s="275"/>
+      <c r="G23" s="275"/>
+      <c r="H23" s="275"/>
+      <c r="I23" s="276"/>
     </row>
     <row r="24" spans="1:9" s="45" customFormat="1" ht="36.9">
       <c r="A24" s="52">
@@ -9026,13 +9102,13 @@
         <v>4</v>
       </c>
       <c r="B24" s="52" t="s">
-        <v>420</v>
+        <v>402</v>
       </c>
       <c r="C24" s="209" t="s">
-        <v>507</v>
+        <v>556</v>
       </c>
       <c r="D24" s="205" t="s">
-        <v>422</v>
+        <v>404</v>
       </c>
       <c r="E24" s="54"/>
       <c r="F24" s="52"/>
@@ -9040,19 +9116,19 @@
       <c r="H24" s="52"/>
       <c r="I24" s="55"/>
     </row>
-    <row r="25" spans="1:9" s="45" customFormat="1" ht="61.5">
+    <row r="25" spans="1:9" s="45" customFormat="1" ht="49.2">
       <c r="A25" s="52">
         <f t="shared" ca="1" si="0"/>
         <v>5</v>
       </c>
       <c r="B25" s="52" t="s">
-        <v>508</v>
+        <v>479</v>
       </c>
       <c r="C25" s="209" t="s">
-        <v>509</v>
+        <v>557</v>
       </c>
       <c r="D25" s="205" t="s">
-        <v>421</v>
+        <v>403</v>
       </c>
       <c r="E25" s="54"/>
       <c r="F25" s="52"/>
@@ -9060,7 +9136,7 @@
       <c r="H25" s="52"/>
       <c r="I25" s="55"/>
     </row>
-    <row r="26" spans="1:9" s="45" customFormat="1" ht="61.5">
+    <row r="26" spans="1:9" s="45" customFormat="1" ht="49.2">
       <c r="A26" s="52">
         <f t="shared" ca="1" si="0"/>
         <v>6</v>
@@ -9069,10 +9145,10 @@
         <v>317</v>
       </c>
       <c r="C26" s="209" t="s">
-        <v>510</v>
+        <v>558</v>
       </c>
       <c r="D26" s="60" t="s">
-        <v>446</v>
+        <v>427</v>
       </c>
       <c r="E26" s="54"/>
       <c r="F26" s="52"/>
@@ -9080,19 +9156,19 @@
       <c r="H26" s="52"/>
       <c r="I26" s="55"/>
     </row>
-    <row r="27" spans="1:9" s="48" customFormat="1" ht="49.2">
+    <row r="27" spans="1:9" s="48" customFormat="1" ht="36.9">
       <c r="A27" s="58">
-        <f t="shared" ref="A27:A139" ca="1" si="1">IF(OFFSET(A27,-1,0) ="",OFFSET(A27,-2,0)+1,OFFSET(A27,-1,0)+1 )</f>
+        <f t="shared" ref="A27:A122" ca="1" si="1">IF(OFFSET(A27,-1,0) ="",OFFSET(A27,-2,0)+1,OFFSET(A27,-1,0)+1 )</f>
         <v>7</v>
       </c>
       <c r="B27" s="52" t="s">
         <v>318</v>
       </c>
       <c r="C27" s="209" t="s">
-        <v>511</v>
+        <v>559</v>
       </c>
       <c r="D27" s="205" t="s">
-        <v>421</v>
+        <v>403</v>
       </c>
       <c r="E27" s="54"/>
       <c r="F27" s="52"/>
@@ -9100,7 +9176,7 @@
       <c r="H27" s="52"/>
       <c r="I27" s="61"/>
     </row>
-    <row r="28" spans="1:9" s="48" customFormat="1" ht="61.5">
+    <row r="28" spans="1:9" s="48" customFormat="1" ht="49.2">
       <c r="A28" s="58">
         <f t="shared" ca="1" si="1"/>
         <v>8</v>
@@ -9109,10 +9185,10 @@
         <v>319</v>
       </c>
       <c r="C28" s="209" t="s">
-        <v>512</v>
+        <v>560</v>
       </c>
       <c r="D28" s="54" t="s">
-        <v>423</v>
+        <v>405</v>
       </c>
       <c r="E28" s="54"/>
       <c r="F28" s="52"/>
@@ -9126,13 +9202,13 @@
         <v>9</v>
       </c>
       <c r="B29" s="52" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="C29" s="209" t="s">
-        <v>513</v>
+        <v>480</v>
       </c>
       <c r="D29" s="54" t="s">
-        <v>431</v>
+        <v>413</v>
       </c>
       <c r="E29" s="54"/>
       <c r="F29" s="52"/>
@@ -9140,19 +9216,19 @@
       <c r="H29" s="52"/>
       <c r="I29" s="61"/>
     </row>
-    <row r="30" spans="1:9" s="48" customFormat="1" ht="61.5">
+    <row r="30" spans="1:9" s="48" customFormat="1" ht="49.2">
       <c r="A30" s="58">
         <f t="shared" ca="1" si="1"/>
         <v>10</v>
       </c>
       <c r="B30" s="52" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="C30" s="209" t="s">
-        <v>514</v>
+        <v>561</v>
       </c>
       <c r="D30" s="54" t="s">
-        <v>446</v>
+        <v>427</v>
       </c>
       <c r="E30" s="54"/>
       <c r="F30" s="52"/>
@@ -9160,7 +9236,7 @@
       <c r="H30" s="52"/>
       <c r="I30" s="61"/>
     </row>
-    <row r="31" spans="1:9" s="48" customFormat="1" ht="49.2">
+    <row r="31" spans="1:9" s="48" customFormat="1" ht="73.8">
       <c r="A31" s="58">
         <f t="shared" ca="1" si="1"/>
         <v>11</v>
@@ -9169,10 +9245,10 @@
         <v>361</v>
       </c>
       <c r="C31" s="209" t="s">
-        <v>515</v>
+        <v>562</v>
       </c>
       <c r="D31" s="54" t="s">
-        <v>423</v>
+        <v>406</v>
       </c>
       <c r="E31" s="54"/>
       <c r="F31" s="52"/>
@@ -9180,19 +9256,19 @@
       <c r="H31" s="52"/>
       <c r="I31" s="61"/>
     </row>
-    <row r="32" spans="1:9" s="48" customFormat="1" ht="49.2">
+    <row r="32" spans="1:9" s="48" customFormat="1" ht="61.5">
       <c r="A32" s="58">
         <f t="shared" ca="1" si="1"/>
         <v>12</v>
       </c>
       <c r="B32" s="52" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="C32" s="209" t="s">
-        <v>516</v>
+        <v>481</v>
       </c>
       <c r="D32" s="54" t="s">
-        <v>424</v>
+        <v>421</v>
       </c>
       <c r="E32" s="54"/>
       <c r="F32" s="52"/>
@@ -9200,19 +9276,19 @@
       <c r="H32" s="52"/>
       <c r="I32" s="61"/>
     </row>
-    <row r="33" spans="1:9" s="48" customFormat="1" ht="61.5">
+    <row r="33" spans="1:9" s="48" customFormat="1" ht="49.2">
       <c r="A33" s="58">
         <f t="shared" ca="1" si="1"/>
         <v>13</v>
       </c>
       <c r="B33" s="52" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="C33" s="209" t="s">
-        <v>517</v>
+        <v>482</v>
       </c>
       <c r="D33" s="54" t="s">
-        <v>439</v>
+        <v>409</v>
       </c>
       <c r="E33" s="54"/>
       <c r="F33" s="52"/>
@@ -9220,19 +9296,19 @@
       <c r="H33" s="52"/>
       <c r="I33" s="61"/>
     </row>
-    <row r="34" spans="1:9" s="48" customFormat="1" ht="49.2">
+    <row r="34" spans="1:9" s="48" customFormat="1" ht="36.9">
       <c r="A34" s="58">
         <f t="shared" ca="1" si="1"/>
         <v>14</v>
       </c>
       <c r="B34" s="52" t="s">
-        <v>365</v>
+        <v>391</v>
       </c>
       <c r="C34" s="209" t="s">
-        <v>518</v>
+        <v>549</v>
       </c>
       <c r="D34" s="54" t="s">
-        <v>427</v>
+        <v>424</v>
       </c>
       <c r="E34" s="54"/>
       <c r="F34" s="52"/>
@@ -9240,19 +9316,19 @@
       <c r="H34" s="52"/>
       <c r="I34" s="61"/>
     </row>
-    <row r="35" spans="1:9" s="48" customFormat="1" ht="36.9">
+    <row r="35" spans="1:9" s="48" customFormat="1" ht="61.5">
       <c r="A35" s="58">
         <f t="shared" ca="1" si="1"/>
         <v>15</v>
       </c>
       <c r="B35" s="52" t="s">
-        <v>407</v>
+        <v>364</v>
       </c>
       <c r="C35" s="209" t="s">
-        <v>507</v>
+        <v>563</v>
       </c>
       <c r="D35" s="54" t="s">
-        <v>442</v>
+        <v>517</v>
       </c>
       <c r="E35" s="54"/>
       <c r="F35" s="52"/>
@@ -9260,38 +9336,38 @@
       <c r="H35" s="52"/>
       <c r="I35" s="61"/>
     </row>
-    <row r="36" spans="1:9" s="48" customFormat="1" ht="49.2">
-      <c r="A36" s="58">
+    <row r="36" spans="1:9" s="48" customFormat="1" ht="13.8">
+      <c r="A36" s="184"/>
+      <c r="B36" s="277" t="s">
+        <v>315</v>
+      </c>
+      <c r="C36" s="278"/>
+      <c r="D36" s="278"/>
+      <c r="E36" s="278"/>
+      <c r="F36" s="278"/>
+      <c r="G36" s="278"/>
+      <c r="H36" s="278"/>
+      <c r="I36" s="279"/>
+    </row>
+    <row r="37" spans="1:9" s="48" customFormat="1" ht="73.8">
+      <c r="A37" s="58">
         <f t="shared" ca="1" si="1"/>
         <v>16</v>
       </c>
-      <c r="B36" s="52" t="s">
-        <v>366</v>
-      </c>
-      <c r="C36" s="209" t="s">
-        <v>519</v>
-      </c>
-      <c r="D36" s="54" t="s">
-        <v>565</v>
-      </c>
-      <c r="E36" s="54"/>
-      <c r="F36" s="52"/>
-      <c r="G36" s="52"/>
-      <c r="H36" s="52"/>
-      <c r="I36" s="61"/>
-    </row>
-    <row r="37" spans="1:9" s="48" customFormat="1" ht="13.8">
-      <c r="A37" s="184"/>
-      <c r="B37" s="284" t="s">
-        <v>315</v>
-      </c>
-      <c r="C37" s="285"/>
-      <c r="D37" s="285"/>
-      <c r="E37" s="285"/>
-      <c r="F37" s="285"/>
-      <c r="G37" s="285"/>
-      <c r="H37" s="285"/>
-      <c r="I37" s="286"/>
+      <c r="B37" s="52" t="s">
+        <v>402</v>
+      </c>
+      <c r="C37" s="209" t="s">
+        <v>550</v>
+      </c>
+      <c r="D37" s="54" t="s">
+        <v>428</v>
+      </c>
+      <c r="E37" s="54"/>
+      <c r="F37" s="52"/>
+      <c r="G37" s="52"/>
+      <c r="H37" s="52"/>
+      <c r="I37" s="61"/>
     </row>
     <row r="38" spans="1:9" s="48" customFormat="1" ht="73.8">
       <c r="A38" s="58">
@@ -9299,13 +9375,13 @@
         <v>17</v>
       </c>
       <c r="B38" s="52" t="s">
-        <v>420</v>
+        <v>407</v>
       </c>
       <c r="C38" s="209" t="s">
-        <v>493</v>
-      </c>
-      <c r="D38" s="54" t="s">
-        <v>447</v>
+        <v>551</v>
+      </c>
+      <c r="D38" s="205" t="s">
+        <v>408</v>
       </c>
       <c r="E38" s="54"/>
       <c r="F38" s="52"/>
@@ -9319,13 +9395,13 @@
         <v>18</v>
       </c>
       <c r="B39" s="52" t="s">
-        <v>425</v>
+        <v>320</v>
       </c>
       <c r="C39" s="209" t="s">
-        <v>494</v>
-      </c>
-      <c r="D39" s="205" t="s">
-        <v>426</v>
+        <v>552</v>
+      </c>
+      <c r="D39" s="54" t="s">
+        <v>429</v>
       </c>
       <c r="E39" s="54"/>
       <c r="F39" s="52"/>
@@ -9339,13 +9415,13 @@
         <v>19</v>
       </c>
       <c r="B40" s="52" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="C40" s="209" t="s">
-        <v>495</v>
-      </c>
-      <c r="D40" s="54" t="s">
-        <v>448</v>
+        <v>470</v>
+      </c>
+      <c r="D40" s="205" t="s">
+        <v>408</v>
       </c>
       <c r="E40" s="54"/>
       <c r="F40" s="52"/>
@@ -9358,14 +9434,14 @@
         <f t="shared" ca="1" si="1"/>
         <v>20</v>
       </c>
-      <c r="B41" s="52" t="s">
-        <v>321</v>
+      <c r="B41" s="198" t="s">
+        <v>353</v>
       </c>
       <c r="C41" s="209" t="s">
-        <v>496</v>
-      </c>
-      <c r="D41" s="205" t="s">
-        <v>426</v>
+        <v>564</v>
+      </c>
+      <c r="D41" s="54" t="s">
+        <v>429</v>
       </c>
       <c r="E41" s="54"/>
       <c r="F41" s="52"/>
@@ -9379,13 +9455,13 @@
         <v>21</v>
       </c>
       <c r="B42" s="198" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="C42" s="209" t="s">
-        <v>497</v>
+        <v>564</v>
       </c>
       <c r="D42" s="54" t="s">
-        <v>448</v>
+        <v>430</v>
       </c>
       <c r="E42" s="54"/>
       <c r="F42" s="52"/>
@@ -9393,19 +9469,19 @@
       <c r="H42" s="52"/>
       <c r="I42" s="61"/>
     </row>
-    <row r="43" spans="1:9" s="48" customFormat="1" ht="73.8">
+    <row r="43" spans="1:9" s="48" customFormat="1" ht="61.5">
       <c r="A43" s="58">
         <f t="shared" ca="1" si="1"/>
         <v>22</v>
       </c>
       <c r="B43" s="198" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="C43" s="209" t="s">
-        <v>498</v>
+        <v>471</v>
       </c>
       <c r="D43" s="54" t="s">
-        <v>449</v>
+        <v>565</v>
       </c>
       <c r="E43" s="54"/>
       <c r="F43" s="52"/>
@@ -9413,19 +9489,19 @@
       <c r="H43" s="52"/>
       <c r="I43" s="61"/>
     </row>
-    <row r="44" spans="1:9" s="48" customFormat="1" ht="61.5">
+    <row r="44" spans="1:9" s="48" customFormat="1" ht="73.8">
       <c r="A44" s="58">
         <f t="shared" ca="1" si="1"/>
         <v>23</v>
       </c>
-      <c r="B44" s="198" t="s">
-        <v>355</v>
+      <c r="B44" s="52" t="s">
+        <v>356</v>
       </c>
       <c r="C44" s="209" t="s">
-        <v>499</v>
+        <v>469</v>
       </c>
       <c r="D44" s="54" t="s">
-        <v>450</v>
+        <v>409</v>
       </c>
       <c r="E44" s="54"/>
       <c r="F44" s="52"/>
@@ -9439,13 +9515,13 @@
         <v>24</v>
       </c>
       <c r="B45" s="52" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="C45" s="209" t="s">
-        <v>492</v>
+        <v>472</v>
       </c>
       <c r="D45" s="54" t="s">
-        <v>427</v>
+        <v>422</v>
       </c>
       <c r="E45" s="54"/>
       <c r="F45" s="52"/>
@@ -9453,19 +9529,19 @@
       <c r="H45" s="52"/>
       <c r="I45" s="61"/>
     </row>
-    <row r="46" spans="1:9" s="48" customFormat="1" ht="73.8">
+    <row r="46" spans="1:9" s="48" customFormat="1" ht="36.9">
       <c r="A46" s="58">
         <f t="shared" ca="1" si="1"/>
         <v>25</v>
       </c>
       <c r="B46" s="52" t="s">
-        <v>358</v>
+        <v>566</v>
       </c>
       <c r="C46" s="209" t="s">
-        <v>500</v>
+        <v>468</v>
       </c>
       <c r="D46" s="54" t="s">
-        <v>440</v>
+        <v>423</v>
       </c>
       <c r="E46" s="54"/>
       <c r="F46" s="52"/>
@@ -9479,13 +9555,13 @@
         <v>26</v>
       </c>
       <c r="B47" s="52" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="C47" s="209" t="s">
-        <v>491</v>
+        <v>483</v>
       </c>
       <c r="D47" s="54" t="s">
-        <v>441</v>
+        <v>426</v>
       </c>
       <c r="E47" s="54"/>
       <c r="F47" s="52"/>
@@ -9499,13 +9575,13 @@
         <v>27</v>
       </c>
       <c r="B48" s="52" t="s">
-        <v>359</v>
+        <v>392</v>
       </c>
       <c r="C48" s="209" t="s">
-        <v>520</v>
+        <v>483</v>
       </c>
       <c r="D48" s="54" t="s">
-        <v>444</v>
+        <v>425</v>
       </c>
       <c r="E48" s="54"/>
       <c r="F48" s="52"/>
@@ -9513,19 +9589,19 @@
       <c r="H48" s="52"/>
       <c r="I48" s="61"/>
     </row>
-    <row r="49" spans="1:9" s="48" customFormat="1" ht="36.9">
+    <row r="49" spans="1:9" s="48" customFormat="1" ht="73.8">
       <c r="A49" s="58">
         <f t="shared" ca="1" si="1"/>
         <v>28</v>
       </c>
       <c r="B49" s="52" t="s">
-        <v>408</v>
+        <v>322</v>
       </c>
       <c r="C49" s="209" t="s">
-        <v>520</v>
+        <v>473</v>
       </c>
       <c r="D49" s="54" t="s">
-        <v>443</v>
+        <v>430</v>
       </c>
       <c r="E49" s="54"/>
       <c r="F49" s="52"/>
@@ -9533,52 +9609,52 @@
       <c r="H49" s="52"/>
       <c r="I49" s="61"/>
     </row>
-    <row r="50" spans="1:9" s="48" customFormat="1" ht="73.8">
-      <c r="A50" s="58">
+    <row r="50" spans="1:9" s="48" customFormat="1" ht="13.8">
+      <c r="A50" s="184"/>
+      <c r="B50" s="274" t="s">
+        <v>316</v>
+      </c>
+      <c r="C50" s="275"/>
+      <c r="D50" s="275"/>
+      <c r="E50" s="275"/>
+      <c r="F50" s="275"/>
+      <c r="G50" s="275"/>
+      <c r="H50" s="275"/>
+      <c r="I50" s="276"/>
+    </row>
+    <row r="51" spans="1:9" s="48" customFormat="1" ht="49.8" customHeight="1">
+      <c r="A51" s="58">
+        <f ca="1">IF(OFFSET(A51,-1,0) ="",OFFSET(A51,-2,0)+1,OFFSET(A51,-1,0)+1 )</f>
+        <v>29</v>
+      </c>
+      <c r="B51" s="52" t="s">
+        <v>402</v>
+      </c>
+      <c r="C51" s="52" t="s">
+        <v>553</v>
+      </c>
+      <c r="D51" s="205" t="s">
+        <v>432</v>
+      </c>
+      <c r="E51" s="54"/>
+      <c r="F51" s="52"/>
+      <c r="G51" s="52"/>
+      <c r="H51" s="52"/>
+      <c r="I51" s="62"/>
+    </row>
+    <row r="52" spans="1:9" s="48" customFormat="1" ht="53.1" customHeight="1">
+      <c r="A52" s="58">
         <f t="shared" ca="1" si="1"/>
-        <v>29</v>
-      </c>
-      <c r="B50" s="52" t="s">
-        <v>322</v>
-      </c>
-      <c r="C50" s="209" t="s">
-        <v>501</v>
-      </c>
-      <c r="D50" s="54" t="s">
-        <v>449</v>
-      </c>
-      <c r="E50" s="54"/>
-      <c r="F50" s="52"/>
-      <c r="G50" s="52"/>
-      <c r="H50" s="52"/>
-      <c r="I50" s="61"/>
-    </row>
-    <row r="51" spans="1:9" s="48" customFormat="1" ht="13.8">
-      <c r="A51" s="184"/>
-      <c r="B51" s="281" t="s">
-        <v>316</v>
-      </c>
-      <c r="C51" s="282"/>
-      <c r="D51" s="282"/>
-      <c r="E51" s="282"/>
-      <c r="F51" s="282"/>
-      <c r="G51" s="282"/>
-      <c r="H51" s="282"/>
-      <c r="I51" s="283"/>
-    </row>
-    <row r="52" spans="1:9" s="48" customFormat="1" ht="49.8" customHeight="1">
-      <c r="A52" s="58">
-        <f ca="1">IF(OFFSET(A52,-1,0) ="",OFFSET(A52,-2,0)+1,OFFSET(A52,-1,0)+1 )</f>
         <v>30</v>
       </c>
       <c r="B52" s="52" t="s">
-        <v>420</v>
-      </c>
-      <c r="C52" s="52" t="s">
-        <v>521</v>
+        <v>333</v>
+      </c>
+      <c r="C52" s="209" t="s">
+        <v>484</v>
       </c>
       <c r="D52" s="205" t="s">
-        <v>452</v>
+        <v>433</v>
       </c>
       <c r="E52" s="54"/>
       <c r="F52" s="52"/>
@@ -9586,19 +9662,19 @@
       <c r="H52" s="52"/>
       <c r="I52" s="62"/>
     </row>
-    <row r="53" spans="1:9" s="48" customFormat="1" ht="53.1" customHeight="1">
+    <row r="53" spans="1:9" s="48" customFormat="1" ht="49.2" customHeight="1">
       <c r="A53" s="58">
         <f t="shared" ca="1" si="1"/>
         <v>31</v>
       </c>
       <c r="B53" s="52" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="C53" s="209" t="s">
-        <v>522</v>
-      </c>
-      <c r="D53" s="205" t="s">
-        <v>453</v>
+        <v>485</v>
+      </c>
+      <c r="D53" s="59" t="s">
+        <v>443</v>
       </c>
       <c r="E53" s="54"/>
       <c r="F53" s="52"/>
@@ -9606,19 +9682,19 @@
       <c r="H53" s="52"/>
       <c r="I53" s="62"/>
     </row>
-    <row r="54" spans="1:9" s="48" customFormat="1" ht="49.2" customHeight="1">
+    <row r="54" spans="1:9" s="48" customFormat="1" ht="61.5">
       <c r="A54" s="58">
         <f t="shared" ca="1" si="1"/>
         <v>32</v>
       </c>
       <c r="B54" s="52" t="s">
-        <v>332</v>
+        <v>323</v>
       </c>
       <c r="C54" s="209" t="s">
-        <v>523</v>
+        <v>486</v>
       </c>
       <c r="D54" s="59" t="s">
-        <v>464</v>
+        <v>443</v>
       </c>
       <c r="E54" s="54"/>
       <c r="F54" s="52"/>
@@ -9632,13 +9708,13 @@
         <v>33</v>
       </c>
       <c r="B55" s="52" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="C55" s="209" t="s">
-        <v>524</v>
-      </c>
-      <c r="D55" s="59" t="s">
-        <v>464</v>
+        <v>487</v>
+      </c>
+      <c r="D55" s="205" t="s">
+        <v>433</v>
       </c>
       <c r="E55" s="54"/>
       <c r="F55" s="52"/>
@@ -9652,13 +9728,13 @@
         <v>34</v>
       </c>
       <c r="B56" s="52" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="C56" s="209" t="s">
-        <v>525</v>
-      </c>
-      <c r="D56" s="205" t="s">
-        <v>453</v>
+        <v>488</v>
+      </c>
+      <c r="D56" s="53" t="s">
+        <v>434</v>
       </c>
       <c r="E56" s="54"/>
       <c r="F56" s="52"/>
@@ -9668,17 +9744,17 @@
     </row>
     <row r="57" spans="1:9" s="48" customFormat="1" ht="61.5">
       <c r="A57" s="58">
-        <f t="shared" ca="1" si="1"/>
+        <f ca="1">IF(OFFSET(A57,-1,0) ="",OFFSET(A57,-2,0)+1,OFFSET(A57,-1,0)+1 )</f>
         <v>35</v>
       </c>
       <c r="B57" s="52" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="C57" s="209" t="s">
-        <v>526</v>
+        <v>489</v>
       </c>
       <c r="D57" s="53" t="s">
-        <v>454</v>
+        <v>434</v>
       </c>
       <c r="E57" s="54"/>
       <c r="F57" s="52"/>
@@ -9688,17 +9764,17 @@
     </row>
     <row r="58" spans="1:9" s="48" customFormat="1" ht="61.5">
       <c r="A58" s="58">
-        <f ca="1">IF(OFFSET(A58,-1,0) ="",OFFSET(A58,-2,0)+1,OFFSET(A58,-1,0)+1 )</f>
+        <f t="shared" ref="A58:A66" ca="1" si="2">IF(OFFSET(A58,-1,0) ="",OFFSET(A58,-2,0)+1,OFFSET(A58,-1,0)+1 )</f>
         <v>36</v>
       </c>
       <c r="B58" s="52" t="s">
-        <v>326</v>
+        <v>365</v>
       </c>
       <c r="C58" s="209" t="s">
-        <v>527</v>
+        <v>490</v>
       </c>
       <c r="D58" s="53" t="s">
-        <v>454</v>
+        <v>434</v>
       </c>
       <c r="E58" s="54"/>
       <c r="F58" s="52"/>
@@ -9706,19 +9782,19 @@
       <c r="H58" s="52"/>
       <c r="I58" s="62"/>
     </row>
-    <row r="59" spans="1:9" s="48" customFormat="1" ht="61.5">
+    <row r="59" spans="1:9" s="48" customFormat="1" ht="49.2">
       <c r="A59" s="58">
-        <f t="shared" ref="A59:A67" ca="1" si="2">IF(OFFSET(A59,-1,0) ="",OFFSET(A59,-2,0)+1,OFFSET(A59,-1,0)+1 )</f>
+        <f t="shared" ca="1" si="2"/>
         <v>37</v>
       </c>
       <c r="B59" s="52" t="s">
-        <v>367</v>
+        <v>441</v>
       </c>
       <c r="C59" s="209" t="s">
-        <v>528</v>
+        <v>491</v>
       </c>
       <c r="D59" s="53" t="s">
-        <v>454</v>
+        <v>442</v>
       </c>
       <c r="E59" s="54"/>
       <c r="F59" s="52"/>
@@ -9732,13 +9808,13 @@
         <v>38</v>
       </c>
       <c r="B60" s="52" t="s">
-        <v>462</v>
+        <v>366</v>
       </c>
       <c r="C60" s="209" t="s">
-        <v>529</v>
-      </c>
-      <c r="D60" s="53" t="s">
-        <v>463</v>
+        <v>491</v>
+      </c>
+      <c r="D60" s="59" t="s">
+        <v>443</v>
       </c>
       <c r="E60" s="54"/>
       <c r="F60" s="52"/>
@@ -9746,19 +9822,19 @@
       <c r="H60" s="52"/>
       <c r="I60" s="62"/>
     </row>
-    <row r="61" spans="1:9" s="48" customFormat="1" ht="49.2">
+    <row r="61" spans="1:9" s="48" customFormat="1" ht="73.8">
       <c r="A61" s="58">
         <f t="shared" ca="1" si="2"/>
         <v>39</v>
       </c>
       <c r="B61" s="52" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="C61" s="209" t="s">
-        <v>529</v>
-      </c>
-      <c r="D61" s="59" t="s">
-        <v>464</v>
+        <v>492</v>
+      </c>
+      <c r="D61" s="53" t="s">
+        <v>435</v>
       </c>
       <c r="E61" s="54"/>
       <c r="F61" s="52"/>
@@ -9766,19 +9842,19 @@
       <c r="H61" s="52"/>
       <c r="I61" s="62"/>
     </row>
-    <row r="62" spans="1:9" s="48" customFormat="1" ht="73.8">
+    <row r="62" spans="1:9" s="48" customFormat="1" ht="49.2">
       <c r="A62" s="58">
         <f t="shared" ca="1" si="2"/>
         <v>40</v>
       </c>
       <c r="B62" s="52" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="C62" s="209" t="s">
-        <v>530</v>
+        <v>491</v>
       </c>
       <c r="D62" s="53" t="s">
-        <v>455</v>
+        <v>436</v>
       </c>
       <c r="E62" s="54"/>
       <c r="F62" s="52"/>
@@ -9786,19 +9862,19 @@
       <c r="H62" s="52"/>
       <c r="I62" s="62"/>
     </row>
-    <row r="63" spans="1:9" s="48" customFormat="1" ht="49.2">
+    <row r="63" spans="1:9" s="48" customFormat="1" ht="36.9">
       <c r="A63" s="58">
         <f t="shared" ca="1" si="2"/>
         <v>41</v>
       </c>
       <c r="B63" s="52" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="C63" s="209" t="s">
-        <v>529</v>
-      </c>
-      <c r="D63" s="53" t="s">
-        <v>456</v>
+        <v>493</v>
+      </c>
+      <c r="D63" s="207" t="s">
+        <v>431</v>
       </c>
       <c r="E63" s="54"/>
       <c r="F63" s="52"/>
@@ -9806,19 +9882,19 @@
       <c r="H63" s="52"/>
       <c r="I63" s="62"/>
     </row>
-    <row r="64" spans="1:9" s="48" customFormat="1" ht="36.9">
+    <row r="64" spans="1:9" s="48" customFormat="1" ht="73.8">
       <c r="A64" s="58">
         <f t="shared" ca="1" si="2"/>
         <v>42</v>
       </c>
       <c r="B64" s="52" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="C64" s="209" t="s">
-        <v>531</v>
-      </c>
-      <c r="D64" s="207" t="s">
-        <v>451</v>
+        <v>494</v>
+      </c>
+      <c r="D64" s="53" t="s">
+        <v>409</v>
       </c>
       <c r="E64" s="54"/>
       <c r="F64" s="52"/>
@@ -9826,19 +9902,19 @@
       <c r="H64" s="52"/>
       <c r="I64" s="62"/>
     </row>
-    <row r="65" spans="1:9" s="48" customFormat="1" ht="73.8">
+    <row r="65" spans="1:9" s="48" customFormat="1" ht="36.9">
       <c r="A65" s="58">
         <f t="shared" ca="1" si="2"/>
         <v>43</v>
       </c>
       <c r="B65" s="52" t="s">
-        <v>372</v>
+        <v>393</v>
       </c>
       <c r="C65" s="209" t="s">
-        <v>532</v>
+        <v>493</v>
       </c>
       <c r="D65" s="53" t="s">
-        <v>427</v>
+        <v>554</v>
       </c>
       <c r="E65" s="54"/>
       <c r="F65" s="52"/>
@@ -9846,19 +9922,19 @@
       <c r="H65" s="52"/>
       <c r="I65" s="62"/>
     </row>
-    <row r="66" spans="1:9" s="48" customFormat="1" ht="36.9">
+    <row r="66" spans="1:9" s="48" customFormat="1" ht="49.2">
       <c r="A66" s="58">
         <f t="shared" ca="1" si="2"/>
         <v>44</v>
       </c>
       <c r="B66" s="52" t="s">
-        <v>409</v>
+        <v>371</v>
       </c>
       <c r="C66" s="209" t="s">
-        <v>531</v>
-      </c>
-      <c r="D66" s="53" t="s">
-        <v>445</v>
+        <v>491</v>
+      </c>
+      <c r="D66" s="207" t="s">
+        <v>517</v>
       </c>
       <c r="E66" s="54"/>
       <c r="F66" s="52"/>
@@ -9866,85 +9942,85 @@
       <c r="H66" s="52"/>
       <c r="I66" s="62"/>
     </row>
-    <row r="67" spans="1:9" s="48" customFormat="1" ht="49.2">
-      <c r="A67" s="58">
-        <f t="shared" ca="1" si="2"/>
+    <row r="67" spans="1:9" s="49" customFormat="1" ht="13.8">
+      <c r="A67" s="189"/>
+      <c r="B67" s="280" t="s">
+        <v>327</v>
+      </c>
+      <c r="C67" s="281"/>
+      <c r="D67" s="281"/>
+      <c r="E67" s="281"/>
+      <c r="F67" s="281"/>
+      <c r="G67" s="281"/>
+      <c r="H67" s="281"/>
+      <c r="I67" s="282"/>
+    </row>
+    <row r="68" spans="1:9" s="48" customFormat="1" ht="24.6">
+      <c r="A68" s="58">
+        <f t="shared" ca="1" si="1"/>
         <v>45</v>
       </c>
-      <c r="B67" s="52" t="s">
+      <c r="B68" s="52" t="s">
         <v>373</v>
       </c>
-      <c r="C67" s="209" t="s">
-        <v>529</v>
-      </c>
-      <c r="D67" s="207" t="s">
-        <v>565</v>
-      </c>
-      <c r="E67" s="54"/>
-      <c r="F67" s="52"/>
-      <c r="G67" s="52"/>
-      <c r="H67" s="52"/>
-      <c r="I67" s="62"/>
-    </row>
-    <row r="68" spans="1:9" s="49" customFormat="1" ht="13.8">
-      <c r="A68" s="189"/>
-      <c r="B68" s="271" t="s">
-        <v>327</v>
-      </c>
-      <c r="C68" s="272"/>
-      <c r="D68" s="272"/>
-      <c r="E68" s="272"/>
-      <c r="F68" s="272"/>
-      <c r="G68" s="272"/>
-      <c r="H68" s="272"/>
-      <c r="I68" s="273"/>
-    </row>
-    <row r="69" spans="1:9" s="48" customFormat="1" ht="24.6">
-      <c r="A69" s="58">
+      <c r="C68" s="52" t="s">
+        <v>474</v>
+      </c>
+      <c r="D68" s="53" t="s">
+        <v>419</v>
+      </c>
+      <c r="E68" s="54"/>
+      <c r="F68" s="52"/>
+      <c r="G68" s="52"/>
+      <c r="H68" s="52"/>
+      <c r="I68" s="62"/>
+    </row>
+    <row r="69" spans="1:9" s="48" customFormat="1" ht="13.8">
+      <c r="A69" s="199"/>
+      <c r="B69" s="283" t="s">
+        <v>372</v>
+      </c>
+      <c r="C69" s="284"/>
+      <c r="D69" s="284"/>
+      <c r="E69" s="284"/>
+      <c r="F69" s="284"/>
+      <c r="G69" s="284"/>
+      <c r="H69" s="284"/>
+      <c r="I69" s="285"/>
+    </row>
+    <row r="70" spans="1:9" s="48" customFormat="1" ht="49.2">
+      <c r="A70" s="58">
         <f t="shared" ca="1" si="1"/>
         <v>46</v>
       </c>
-      <c r="B69" s="52" t="s">
-        <v>375</v>
-      </c>
-      <c r="C69" s="52" t="s">
-        <v>502</v>
-      </c>
-      <c r="D69" s="53" t="s">
-        <v>437</v>
-      </c>
-      <c r="E69" s="54"/>
-      <c r="F69" s="52"/>
-      <c r="G69" s="52"/>
-      <c r="H69" s="52"/>
-      <c r="I69" s="62"/>
-    </row>
-    <row r="70" spans="1:9" s="48" customFormat="1" ht="13.8">
-      <c r="A70" s="199"/>
-      <c r="B70" s="287" t="s">
+      <c r="B70" s="52" t="s">
         <v>374</v>
       </c>
-      <c r="C70" s="288"/>
-      <c r="D70" s="288"/>
-      <c r="E70" s="288"/>
-      <c r="F70" s="288"/>
-      <c r="G70" s="288"/>
-      <c r="H70" s="288"/>
-      <c r="I70" s="289"/>
-    </row>
-    <row r="71" spans="1:9" s="48" customFormat="1" ht="49.2">
+      <c r="C70" s="209" t="s">
+        <v>495</v>
+      </c>
+      <c r="D70" s="53" t="s">
+        <v>418</v>
+      </c>
+      <c r="E70" s="54"/>
+      <c r="F70" s="52"/>
+      <c r="G70" s="52"/>
+      <c r="H70" s="52"/>
+      <c r="I70" s="62"/>
+    </row>
+    <row r="71" spans="1:9" s="48" customFormat="1" ht="61.5">
       <c r="A71" s="58">
         <f t="shared" ca="1" si="1"/>
         <v>47</v>
       </c>
       <c r="B71" s="52" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="C71" s="209" t="s">
-        <v>533</v>
+        <v>496</v>
       </c>
       <c r="D71" s="53" t="s">
-        <v>436</v>
+        <v>420</v>
       </c>
       <c r="E71" s="54"/>
       <c r="F71" s="52"/>
@@ -9952,7 +10028,7 @@
       <c r="H71" s="52"/>
       <c r="I71" s="62"/>
     </row>
-    <row r="72" spans="1:9" s="48" customFormat="1" ht="61.5">
+    <row r="72" spans="1:9" s="48" customFormat="1" ht="73.8">
       <c r="A72" s="58">
         <f t="shared" ca="1" si="1"/>
         <v>48</v>
@@ -9961,10 +10037,10 @@
         <v>377</v>
       </c>
       <c r="C72" s="209" t="s">
-        <v>534</v>
+        <v>497</v>
       </c>
       <c r="D72" s="53" t="s">
-        <v>438</v>
+        <v>446</v>
       </c>
       <c r="E72" s="54"/>
       <c r="F72" s="52"/>
@@ -9978,13 +10054,13 @@
         <v>49</v>
       </c>
       <c r="B73" s="52" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="C73" s="209" t="s">
-        <v>535</v>
+        <v>497</v>
       </c>
       <c r="D73" s="53" t="s">
-        <v>468</v>
+        <v>440</v>
       </c>
       <c r="E73" s="54"/>
       <c r="F73" s="52"/>
@@ -9992,19 +10068,19 @@
       <c r="H73" s="52"/>
       <c r="I73" s="62"/>
     </row>
-    <row r="74" spans="1:9" s="48" customFormat="1" ht="73.8">
+    <row r="74" spans="1:9" s="48" customFormat="1" ht="61.5">
       <c r="A74" s="58">
         <f t="shared" ca="1" si="1"/>
         <v>50</v>
       </c>
       <c r="B74" s="52" t="s">
-        <v>380</v>
+        <v>376</v>
       </c>
       <c r="C74" s="209" t="s">
-        <v>535</v>
+        <v>498</v>
       </c>
       <c r="D74" s="53" t="s">
-        <v>460</v>
+        <v>437</v>
       </c>
       <c r="E74" s="54"/>
       <c r="F74" s="52"/>
@@ -10018,13 +10094,13 @@
         <v>51</v>
       </c>
       <c r="B75" s="52" t="s">
-        <v>378</v>
+        <v>380</v>
       </c>
       <c r="C75" s="209" t="s">
-        <v>536</v>
+        <v>499</v>
       </c>
       <c r="D75" s="53" t="s">
-        <v>457</v>
+        <v>445</v>
       </c>
       <c r="E75" s="54"/>
       <c r="F75" s="52"/>
@@ -10032,19 +10108,19 @@
       <c r="H75" s="52"/>
       <c r="I75" s="62"/>
     </row>
-    <row r="76" spans="1:9" s="48" customFormat="1" ht="61.5">
+    <row r="76" spans="1:9" s="48" customFormat="1" ht="49.2">
       <c r="A76" s="58">
         <f t="shared" ca="1" si="1"/>
         <v>52</v>
       </c>
       <c r="B76" s="52" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
       <c r="C76" s="209" t="s">
-        <v>537</v>
+        <v>495</v>
       </c>
       <c r="D76" s="53" t="s">
-        <v>467</v>
+        <v>439</v>
       </c>
       <c r="E76" s="54"/>
       <c r="F76" s="52"/>
@@ -10052,19 +10128,19 @@
       <c r="H76" s="52"/>
       <c r="I76" s="62"/>
     </row>
-    <row r="77" spans="1:9" s="48" customFormat="1" ht="49.2">
+    <row r="77" spans="1:9" s="48" customFormat="1" ht="73.8">
       <c r="A77" s="58">
         <f t="shared" ca="1" si="1"/>
         <v>53</v>
       </c>
       <c r="B77" s="52" t="s">
-        <v>410</v>
+        <v>379</v>
       </c>
       <c r="C77" s="209" t="s">
-        <v>533</v>
+        <v>500</v>
       </c>
       <c r="D77" s="53" t="s">
-        <v>459</v>
+        <v>440</v>
       </c>
       <c r="E77" s="54"/>
       <c r="F77" s="52"/>
@@ -10072,38 +10148,38 @@
       <c r="H77" s="52"/>
       <c r="I77" s="62"/>
     </row>
-    <row r="78" spans="1:9" s="48" customFormat="1" ht="73.8">
-      <c r="A78" s="58">
+    <row r="78" spans="1:9" s="48" customFormat="1" ht="13.8">
+      <c r="A78" s="189"/>
+      <c r="B78" s="280" t="s">
+        <v>328</v>
+      </c>
+      <c r="C78" s="281"/>
+      <c r="D78" s="281"/>
+      <c r="E78" s="281"/>
+      <c r="F78" s="281"/>
+      <c r="G78" s="281"/>
+      <c r="H78" s="281"/>
+      <c r="I78" s="282"/>
+    </row>
+    <row r="79" spans="1:9" s="48" customFormat="1" ht="36.9">
+      <c r="A79" s="58">
         <f t="shared" ca="1" si="1"/>
         <v>54</v>
       </c>
-      <c r="B78" s="52" t="s">
+      <c r="B79" s="52" t="s">
         <v>381</v>
       </c>
-      <c r="C78" s="209" t="s">
-        <v>538</v>
-      </c>
-      <c r="D78" s="53" t="s">
-        <v>460</v>
-      </c>
-      <c r="E78" s="54"/>
-      <c r="F78" s="52"/>
-      <c r="G78" s="52"/>
-      <c r="H78" s="52"/>
-      <c r="I78" s="62"/>
-    </row>
-    <row r="79" spans="1:9" s="48" customFormat="1" ht="13.8">
-      <c r="A79" s="199"/>
-      <c r="B79" s="287" t="s">
-        <v>382</v>
-      </c>
-      <c r="C79" s="288"/>
-      <c r="D79" s="288"/>
-      <c r="E79" s="288"/>
-      <c r="F79" s="288"/>
-      <c r="G79" s="288"/>
-      <c r="H79" s="288"/>
-      <c r="I79" s="289"/>
+      <c r="C79" s="209" t="s">
+        <v>501</v>
+      </c>
+      <c r="D79" s="53" t="s">
+        <v>413</v>
+      </c>
+      <c r="E79" s="54"/>
+      <c r="F79" s="52"/>
+      <c r="G79" s="52"/>
+      <c r="H79" s="52"/>
+      <c r="I79" s="62"/>
     </row>
     <row r="80" spans="1:9" s="48" customFormat="1" ht="49.2">
       <c r="A80" s="58">
@@ -10111,13 +10187,13 @@
         <v>55</v>
       </c>
       <c r="B80" s="52" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="C80" s="209" t="s">
-        <v>539</v>
+        <v>502</v>
       </c>
       <c r="D80" s="53" t="s">
-        <v>436</v>
+        <v>418</v>
       </c>
       <c r="E80" s="54"/>
       <c r="F80" s="52"/>
@@ -10131,13 +10207,13 @@
         <v>56</v>
       </c>
       <c r="B81" s="52" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="C81" s="209" t="s">
-        <v>540</v>
+        <v>503</v>
       </c>
       <c r="D81" s="53" t="s">
-        <v>438</v>
+        <v>420</v>
       </c>
       <c r="E81" s="54"/>
       <c r="F81" s="52"/>
@@ -10151,13 +10227,13 @@
         <v>57</v>
       </c>
       <c r="B82" s="52" t="s">
-        <v>386</v>
+        <v>329</v>
       </c>
       <c r="C82" s="209" t="s">
-        <v>541</v>
+        <v>504</v>
       </c>
       <c r="D82" s="53" t="s">
-        <v>469</v>
+        <v>416</v>
       </c>
       <c r="E82" s="54"/>
       <c r="F82" s="52"/>
@@ -10171,13 +10247,13 @@
         <v>58</v>
       </c>
       <c r="B83" s="52" t="s">
-        <v>387</v>
+        <v>330</v>
       </c>
       <c r="C83" s="209" t="s">
-        <v>541</v>
+        <v>505</v>
       </c>
       <c r="D83" s="53" t="s">
-        <v>460</v>
+        <v>417</v>
       </c>
       <c r="E83" s="54"/>
       <c r="F83" s="52"/>
@@ -10185,19 +10261,19 @@
       <c r="H83" s="52"/>
       <c r="I83" s="62"/>
     </row>
-    <row r="84" spans="1:9" s="48" customFormat="1" ht="61.5">
+    <row r="84" spans="1:9" s="48" customFormat="1" ht="36.9">
       <c r="A84" s="58">
         <f t="shared" ca="1" si="1"/>
         <v>59</v>
       </c>
       <c r="B84" s="52" t="s">
-        <v>388</v>
+        <v>395</v>
       </c>
       <c r="C84" s="209" t="s">
-        <v>542</v>
+        <v>501</v>
       </c>
       <c r="D84" s="53" t="s">
-        <v>461</v>
+        <v>438</v>
       </c>
       <c r="E84" s="54"/>
       <c r="F84" s="52"/>
@@ -10211,13 +10287,13 @@
         <v>60</v>
       </c>
       <c r="B85" s="52" t="s">
-        <v>395</v>
+        <v>384</v>
       </c>
       <c r="C85" s="209" t="s">
-        <v>537</v>
+        <v>506</v>
       </c>
       <c r="D85" s="53" t="s">
-        <v>467</v>
+        <v>445</v>
       </c>
       <c r="E85" s="54"/>
       <c r="F85" s="52"/>
@@ -10225,39 +10301,32 @@
       <c r="H85" s="52"/>
       <c r="I85" s="62"/>
     </row>
-    <row r="86" spans="1:9" s="48" customFormat="1" ht="49.2">
-      <c r="A86" s="58">
+    <row r="86" spans="1:9" s="48" customFormat="1" ht="13.8">
+      <c r="A86" s="189"/>
+      <c r="B86" s="280" t="s">
+        <v>331</v>
+      </c>
+      <c r="C86" s="281"/>
+      <c r="D86" s="281"/>
+      <c r="E86" s="281"/>
+      <c r="F86" s="281"/>
+      <c r="G86" s="281"/>
+      <c r="H86" s="281"/>
+      <c r="I86" s="282"/>
+    </row>
+    <row r="87" spans="1:9" s="48" customFormat="1" ht="14.4" customHeight="1">
+      <c r="A87" s="58">
         <f t="shared" ca="1" si="1"/>
         <v>61</v>
       </c>
-      <c r="B86" s="52" t="s">
-        <v>411</v>
-      </c>
-      <c r="C86" s="209" t="s">
-        <v>539</v>
-      </c>
-      <c r="D86" s="53" t="s">
-        <v>459</v>
-      </c>
-      <c r="E86" s="54"/>
-      <c r="F86" s="52"/>
-      <c r="G86" s="52"/>
-      <c r="H86" s="52"/>
-      <c r="I86" s="62"/>
-    </row>
-    <row r="87" spans="1:9" s="48" customFormat="1" ht="73.8">
-      <c r="A87" s="58">
-        <f t="shared" ca="1" si="1"/>
-        <v>62</v>
-      </c>
       <c r="B87" s="52" t="s">
-        <v>389</v>
+        <v>402</v>
       </c>
       <c r="C87" s="209" t="s">
-        <v>543</v>
-      </c>
-      <c r="D87" s="53" t="s">
-        <v>460</v>
+        <v>507</v>
+      </c>
+      <c r="D87" s="205" t="s">
+        <v>447</v>
       </c>
       <c r="E87" s="54"/>
       <c r="F87" s="52"/>
@@ -10265,32 +10334,39 @@
       <c r="H87" s="52"/>
       <c r="I87" s="62"/>
     </row>
-    <row r="88" spans="1:9" s="48" customFormat="1" ht="14.4" customHeight="1">
-      <c r="A88" s="199"/>
-      <c r="B88" s="290" t="s">
-        <v>383</v>
-      </c>
-      <c r="C88" s="291"/>
-      <c r="D88" s="291"/>
-      <c r="E88" s="291"/>
-      <c r="F88" s="291"/>
-      <c r="G88" s="291"/>
-      <c r="H88" s="291"/>
-      <c r="I88" s="292"/>
-    </row>
-    <row r="89" spans="1:9" s="48" customFormat="1" ht="49.2">
+    <row r="88" spans="1:9" s="48" customFormat="1" ht="49.2">
+      <c r="A88" s="58">
+        <f t="shared" ca="1" si="1"/>
+        <v>62</v>
+      </c>
+      <c r="B88" s="52" t="s">
+        <v>412</v>
+      </c>
+      <c r="C88" s="209" t="s">
+        <v>508</v>
+      </c>
+      <c r="D88" s="53" t="s">
+        <v>413</v>
+      </c>
+      <c r="E88" s="54"/>
+      <c r="F88" s="52"/>
+      <c r="G88" s="52"/>
+      <c r="H88" s="52"/>
+      <c r="I88" s="62"/>
+    </row>
+    <row r="89" spans="1:9" s="48" customFormat="1" ht="61.5">
       <c r="A89" s="58">
         <f t="shared" ca="1" si="1"/>
         <v>63</v>
       </c>
       <c r="B89" s="52" t="s">
-        <v>390</v>
+        <v>334</v>
       </c>
       <c r="C89" s="209" t="s">
-        <v>544</v>
-      </c>
-      <c r="D89" s="53" t="s">
-        <v>436</v>
+        <v>509</v>
+      </c>
+      <c r="D89" s="205" t="s">
+        <v>448</v>
       </c>
       <c r="E89" s="54"/>
       <c r="F89" s="52"/>
@@ -10304,13 +10380,13 @@
         <v>64</v>
       </c>
       <c r="B90" s="52" t="s">
-        <v>391</v>
+        <v>335</v>
       </c>
       <c r="C90" s="209" t="s">
-        <v>545</v>
-      </c>
-      <c r="D90" s="53" t="s">
-        <v>438</v>
+        <v>510</v>
+      </c>
+      <c r="D90" s="54" t="s">
+        <v>449</v>
       </c>
       <c r="E90" s="54"/>
       <c r="F90" s="52"/>
@@ -10318,19 +10394,19 @@
       <c r="H90" s="52"/>
       <c r="I90" s="62"/>
     </row>
-    <row r="91" spans="1:9" s="48" customFormat="1" ht="73.8">
+    <row r="91" spans="1:9" s="48" customFormat="1" ht="61.5">
       <c r="A91" s="58">
         <f t="shared" ca="1" si="1"/>
         <v>65</v>
       </c>
       <c r="B91" s="52" t="s">
-        <v>392</v>
+        <v>336</v>
       </c>
       <c r="C91" s="209" t="s">
-        <v>546</v>
+        <v>511</v>
       </c>
       <c r="D91" s="53" t="s">
-        <v>469</v>
+        <v>449</v>
       </c>
       <c r="E91" s="54"/>
       <c r="F91" s="52"/>
@@ -10344,13 +10420,13 @@
         <v>66</v>
       </c>
       <c r="B92" s="52" t="s">
-        <v>393</v>
+        <v>337</v>
       </c>
       <c r="C92" s="209" t="s">
-        <v>542</v>
-      </c>
-      <c r="D92" s="53" t="s">
-        <v>461</v>
+        <v>512</v>
+      </c>
+      <c r="D92" s="205" t="s">
+        <v>448</v>
       </c>
       <c r="E92" s="54"/>
       <c r="F92" s="52"/>
@@ -10364,13 +10440,13 @@
         <v>67</v>
       </c>
       <c r="B93" s="52" t="s">
-        <v>394</v>
+        <v>414</v>
       </c>
       <c r="C93" s="209" t="s">
-        <v>547</v>
+        <v>509</v>
       </c>
       <c r="D93" s="53" t="s">
-        <v>466</v>
+        <v>449</v>
       </c>
       <c r="E93" s="54"/>
       <c r="F93" s="52"/>
@@ -10378,19 +10454,19 @@
       <c r="H93" s="52"/>
       <c r="I93" s="62"/>
     </row>
-    <row r="94" spans="1:9" s="48" customFormat="1" ht="36.9">
+    <row r="94" spans="1:9" s="48" customFormat="1" ht="49.2">
       <c r="A94" s="58">
         <f t="shared" ca="1" si="1"/>
         <v>68</v>
       </c>
       <c r="B94" s="52" t="s">
-        <v>412</v>
+        <v>338</v>
       </c>
       <c r="C94" s="209" t="s">
-        <v>548</v>
+        <v>513</v>
       </c>
       <c r="D94" s="53" t="s">
-        <v>459</v>
+        <v>449</v>
       </c>
       <c r="E94" s="54"/>
       <c r="F94" s="52"/>
@@ -10398,32 +10474,39 @@
       <c r="H94" s="52"/>
       <c r="I94" s="62"/>
     </row>
-    <row r="95" spans="1:9" s="48" customFormat="1" ht="13.8">
-      <c r="A95" s="189"/>
-      <c r="B95" s="271" t="s">
-        <v>328</v>
-      </c>
-      <c r="C95" s="272"/>
-      <c r="D95" s="272"/>
-      <c r="E95" s="272"/>
-      <c r="F95" s="272"/>
-      <c r="G95" s="272"/>
-      <c r="H95" s="272"/>
-      <c r="I95" s="273"/>
-    </row>
-    <row r="96" spans="1:9" s="48" customFormat="1" ht="36.9">
+    <row r="95" spans="1:9" s="48" customFormat="1" ht="49.2">
+      <c r="A95" s="58">
+        <f t="shared" ca="1" si="1"/>
+        <v>69</v>
+      </c>
+      <c r="B95" s="52" t="s">
+        <v>385</v>
+      </c>
+      <c r="C95" s="209" t="s">
+        <v>514</v>
+      </c>
+      <c r="D95" s="53" t="s">
+        <v>449</v>
+      </c>
+      <c r="E95" s="54"/>
+      <c r="F95" s="52"/>
+      <c r="G95" s="52"/>
+      <c r="H95" s="52"/>
+      <c r="I95" s="62"/>
+    </row>
+    <row r="96" spans="1:9" s="48" customFormat="1" ht="49.2">
       <c r="A96" s="58">
         <f t="shared" ca="1" si="1"/>
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B96" s="52" t="s">
-        <v>397</v>
+        <v>386</v>
       </c>
       <c r="C96" s="209" t="s">
-        <v>549</v>
+        <v>515</v>
       </c>
       <c r="D96" s="53" t="s">
-        <v>431</v>
+        <v>415</v>
       </c>
       <c r="E96" s="54"/>
       <c r="F96" s="52"/>
@@ -10431,19 +10514,19 @@
       <c r="H96" s="52"/>
       <c r="I96" s="62"/>
     </row>
-    <row r="97" spans="1:9" s="48" customFormat="1" ht="49.2">
+    <row r="97" spans="1:9" s="48" customFormat="1" ht="61.5">
       <c r="A97" s="58">
         <f t="shared" ca="1" si="1"/>
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="B97" s="52" t="s">
-        <v>398</v>
+        <v>362</v>
       </c>
       <c r="C97" s="209" t="s">
-        <v>550</v>
+        <v>516</v>
       </c>
       <c r="D97" s="53" t="s">
-        <v>436</v>
+        <v>409</v>
       </c>
       <c r="E97" s="54"/>
       <c r="F97" s="52"/>
@@ -10451,19 +10534,19 @@
       <c r="H97" s="52"/>
       <c r="I97" s="62"/>
     </row>
-    <row r="98" spans="1:9" s="48" customFormat="1" ht="61.5">
+    <row r="98" spans="1:9" s="48" customFormat="1" ht="49.2">
       <c r="A98" s="58">
         <f t="shared" ca="1" si="1"/>
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B98" s="52" t="s">
-        <v>399</v>
+        <v>396</v>
       </c>
       <c r="C98" s="209" t="s">
-        <v>551</v>
+        <v>507</v>
       </c>
       <c r="D98" s="53" t="s">
-        <v>438</v>
+        <v>411</v>
       </c>
       <c r="E98" s="54"/>
       <c r="F98" s="52"/>
@@ -10471,19 +10554,19 @@
       <c r="H98" s="52"/>
       <c r="I98" s="62"/>
     </row>
-    <row r="99" spans="1:9" s="48" customFormat="1" ht="73.8">
+    <row r="99" spans="1:9" s="48" customFormat="1" ht="49.2">
       <c r="A99" s="58">
         <f t="shared" ca="1" si="1"/>
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B99" s="52" t="s">
-        <v>329</v>
+        <v>387</v>
       </c>
       <c r="C99" s="209" t="s">
-        <v>552</v>
-      </c>
-      <c r="D99" s="53" t="s">
-        <v>434</v>
+        <v>514</v>
+      </c>
+      <c r="D99" s="207" t="s">
+        <v>517</v>
       </c>
       <c r="E99" s="54"/>
       <c r="F99" s="52"/>
@@ -10491,39 +10574,32 @@
       <c r="H99" s="52"/>
       <c r="I99" s="62"/>
     </row>
-    <row r="100" spans="1:9" s="48" customFormat="1" ht="73.8">
-      <c r="A100" s="58">
-        <f t="shared" ca="1" si="1"/>
-        <v>73</v>
-      </c>
-      <c r="B100" s="52" t="s">
-        <v>330</v>
-      </c>
-      <c r="C100" s="209" t="s">
-        <v>553</v>
-      </c>
-      <c r="D100" s="53" t="s">
-        <v>435</v>
-      </c>
-      <c r="E100" s="54"/>
-      <c r="F100" s="52"/>
-      <c r="G100" s="52"/>
-      <c r="H100" s="52"/>
-      <c r="I100" s="62"/>
-    </row>
-    <row r="101" spans="1:9" s="48" customFormat="1" ht="36.9">
+    <row r="100" spans="1:9" s="48" customFormat="1" ht="13.8">
+      <c r="A100" s="189"/>
+      <c r="B100" s="280" t="s">
+        <v>339</v>
+      </c>
+      <c r="C100" s="281"/>
+      <c r="D100" s="281"/>
+      <c r="E100" s="281"/>
+      <c r="F100" s="281"/>
+      <c r="G100" s="281"/>
+      <c r="H100" s="281"/>
+      <c r="I100" s="282"/>
+    </row>
+    <row r="101" spans="1:9" s="48" customFormat="1" ht="49.2">
       <c r="A101" s="58">
         <f t="shared" ca="1" si="1"/>
         <v>74</v>
       </c>
       <c r="B101" s="52" t="s">
-        <v>413</v>
+        <v>340</v>
       </c>
       <c r="C101" s="209" t="s">
-        <v>549</v>
+        <v>475</v>
       </c>
       <c r="D101" s="53" t="s">
-        <v>458</v>
+        <v>444</v>
       </c>
       <c r="E101" s="54"/>
       <c r="F101" s="52"/>
@@ -10531,19 +10607,19 @@
       <c r="H101" s="52"/>
       <c r="I101" s="62"/>
     </row>
-    <row r="102" spans="1:9" s="48" customFormat="1" ht="61.5">
+    <row r="102" spans="1:9" s="48" customFormat="1" ht="49.2">
       <c r="A102" s="58">
         <f t="shared" ca="1" si="1"/>
         <v>75</v>
       </c>
       <c r="B102" s="52" t="s">
-        <v>400</v>
+        <v>460</v>
       </c>
       <c r="C102" s="209" t="s">
-        <v>554</v>
-      </c>
-      <c r="D102" s="53" t="s">
-        <v>467</v>
+        <v>476</v>
+      </c>
+      <c r="D102" s="207" t="s">
+        <v>459</v>
       </c>
       <c r="E102" s="54"/>
       <c r="F102" s="52"/>
@@ -10551,38 +10627,38 @@
       <c r="H102" s="52"/>
       <c r="I102" s="62"/>
     </row>
-    <row r="103" spans="1:9" s="48" customFormat="1" ht="13.8">
-      <c r="A103" s="189"/>
-      <c r="B103" s="271" t="s">
-        <v>331</v>
-      </c>
-      <c r="C103" s="272"/>
-      <c r="D103" s="272"/>
-      <c r="E103" s="272"/>
-      <c r="F103" s="272"/>
-      <c r="G103" s="272"/>
-      <c r="H103" s="272"/>
-      <c r="I103" s="273"/>
-    </row>
-    <row r="104" spans="1:9" s="48" customFormat="1" ht="49.2">
-      <c r="A104" s="58">
+    <row r="103" spans="1:9" s="48" customFormat="1" ht="49.2">
+      <c r="A103" s="58">
         <f t="shared" ca="1" si="1"/>
         <v>76</v>
       </c>
-      <c r="B104" s="52" t="s">
-        <v>420</v>
-      </c>
-      <c r="C104" s="209" t="s">
-        <v>555</v>
-      </c>
-      <c r="D104" s="205" t="s">
-        <v>470</v>
-      </c>
-      <c r="E104" s="54"/>
-      <c r="F104" s="52"/>
-      <c r="G104" s="52"/>
-      <c r="H104" s="52"/>
-      <c r="I104" s="62"/>
+      <c r="B103" s="52" t="s">
+        <v>388</v>
+      </c>
+      <c r="C103" s="209" t="s">
+        <v>476</v>
+      </c>
+      <c r="D103" s="53" t="s">
+        <v>410</v>
+      </c>
+      <c r="E103" s="54"/>
+      <c r="F103" s="52"/>
+      <c r="G103" s="52"/>
+      <c r="H103" s="52"/>
+      <c r="I103" s="62"/>
+    </row>
+    <row r="104" spans="1:9" s="48" customFormat="1" ht="13.8">
+      <c r="A104" s="189"/>
+      <c r="B104" s="280" t="s">
+        <v>350</v>
+      </c>
+      <c r="C104" s="281"/>
+      <c r="D104" s="281"/>
+      <c r="E104" s="281"/>
+      <c r="F104" s="281"/>
+      <c r="G104" s="281"/>
+      <c r="H104" s="281"/>
+      <c r="I104" s="282"/>
     </row>
     <row r="105" spans="1:9" s="48" customFormat="1" ht="49.2">
       <c r="A105" s="58">
@@ -10590,13 +10666,13 @@
         <v>77</v>
       </c>
       <c r="B105" s="52" t="s">
-        <v>430</v>
+        <v>389</v>
       </c>
       <c r="C105" s="209" t="s">
-        <v>556</v>
+        <v>477</v>
       </c>
       <c r="D105" s="53" t="s">
-        <v>431</v>
+        <v>455</v>
       </c>
       <c r="E105" s="54"/>
       <c r="F105" s="52"/>
@@ -10604,39 +10680,32 @@
       <c r="H105" s="52"/>
       <c r="I105" s="62"/>
     </row>
-    <row r="106" spans="1:9" s="48" customFormat="1" ht="61.5">
-      <c r="A106" s="58">
+    <row r="106" spans="1:9" s="48" customFormat="1" ht="13.8">
+      <c r="A106" s="189"/>
+      <c r="B106" s="280" t="s">
+        <v>351</v>
+      </c>
+      <c r="C106" s="281"/>
+      <c r="D106" s="281"/>
+      <c r="E106" s="281"/>
+      <c r="F106" s="281"/>
+      <c r="G106" s="281"/>
+      <c r="H106" s="281"/>
+      <c r="I106" s="282"/>
+    </row>
+    <row r="107" spans="1:9" s="48" customFormat="1" ht="49.2">
+      <c r="A107" s="58">
         <f t="shared" ca="1" si="1"/>
         <v>78</v>
       </c>
-      <c r="B106" s="52" t="s">
-        <v>334</v>
-      </c>
-      <c r="C106" s="209" t="s">
-        <v>557</v>
-      </c>
-      <c r="D106" s="205" t="s">
-        <v>471</v>
-      </c>
-      <c r="E106" s="54"/>
-      <c r="F106" s="52"/>
-      <c r="G106" s="52"/>
-      <c r="H106" s="52"/>
-      <c r="I106" s="62"/>
-    </row>
-    <row r="107" spans="1:9" s="48" customFormat="1" ht="61.5">
-      <c r="A107" s="58">
-        <f t="shared" ca="1" si="1"/>
-        <v>79</v>
-      </c>
       <c r="B107" s="52" t="s">
-        <v>335</v>
+        <v>390</v>
       </c>
       <c r="C107" s="209" t="s">
-        <v>558</v>
-      </c>
-      <c r="D107" s="54" t="s">
-        <v>472</v>
+        <v>478</v>
+      </c>
+      <c r="D107" s="53" t="s">
+        <v>456</v>
       </c>
       <c r="E107" s="54"/>
       <c r="F107" s="52"/>
@@ -10644,59 +10713,44 @@
       <c r="H107" s="52"/>
       <c r="I107" s="62"/>
     </row>
-    <row r="108" spans="1:9" s="48" customFormat="1" ht="61.5">
-      <c r="A108" s="58">
-        <f t="shared" ca="1" si="1"/>
-        <v>80</v>
-      </c>
-      <c r="B108" s="52" t="s">
-        <v>336</v>
-      </c>
-      <c r="C108" s="209" t="s">
-        <v>559</v>
-      </c>
-      <c r="D108" s="53" t="s">
-        <v>472</v>
-      </c>
-      <c r="E108" s="54"/>
-      <c r="F108" s="52"/>
-      <c r="G108" s="52"/>
-      <c r="H108" s="52"/>
-      <c r="I108" s="62"/>
-    </row>
-    <row r="109" spans="1:9" s="48" customFormat="1" ht="61.5">
-      <c r="A109" s="58">
-        <f t="shared" ca="1" si="1"/>
-        <v>81</v>
-      </c>
-      <c r="B109" s="52" t="s">
-        <v>337</v>
-      </c>
-      <c r="C109" s="209" t="s">
-        <v>560</v>
-      </c>
-      <c r="D109" s="205" t="s">
-        <v>471</v>
-      </c>
-      <c r="E109" s="54"/>
-      <c r="F109" s="52"/>
-      <c r="G109" s="52"/>
-      <c r="H109" s="52"/>
-      <c r="I109" s="62"/>
-    </row>
-    <row r="110" spans="1:9" s="48" customFormat="1" ht="61.5">
+    <row r="108" spans="1:9" s="48" customFormat="1" ht="13.8">
+      <c r="A108" s="67"/>
+      <c r="B108" s="263" t="s">
+        <v>341</v>
+      </c>
+      <c r="C108" s="264"/>
+      <c r="D108" s="264"/>
+      <c r="E108" s="264"/>
+      <c r="F108" s="264"/>
+      <c r="G108" s="264"/>
+      <c r="H108" s="264"/>
+      <c r="I108" s="265"/>
+    </row>
+    <row r="109" spans="1:9" s="48" customFormat="1" ht="13.8">
+      <c r="A109" s="189"/>
+      <c r="B109" s="280" t="s">
+        <v>342</v>
+      </c>
+      <c r="C109" s="281"/>
+      <c r="D109" s="281"/>
+      <c r="E109" s="281"/>
+      <c r="F109" s="281"/>
+      <c r="G109" s="281"/>
+      <c r="H109" s="281"/>
+      <c r="I109" s="282"/>
+    </row>
+    <row r="110" spans="1:9" s="48" customFormat="1" ht="36.9">
       <c r="A110" s="58">
-        <f t="shared" ca="1" si="1"/>
-        <v>82</v>
+        <v>94</v>
       </c>
       <c r="B110" s="52" t="s">
-        <v>432</v>
+        <v>457</v>
       </c>
       <c r="C110" s="209" t="s">
-        <v>557</v>
-      </c>
-      <c r="D110" s="53" t="s">
-        <v>472</v>
+        <v>464</v>
+      </c>
+      <c r="D110" s="207" t="s">
+        <v>458</v>
       </c>
       <c r="E110" s="54"/>
       <c r="F110" s="52"/>
@@ -10707,16 +10761,16 @@
     <row r="111" spans="1:9" s="48" customFormat="1" ht="49.2">
       <c r="A111" s="58">
         <f t="shared" ca="1" si="1"/>
-        <v>83</v>
-      </c>
-      <c r="B111" s="52" t="s">
-        <v>338</v>
+        <v>95</v>
+      </c>
+      <c r="B111" s="206" t="s">
+        <v>453</v>
       </c>
       <c r="C111" s="209" t="s">
-        <v>561</v>
-      </c>
-      <c r="D111" s="53" t="s">
-        <v>472</v>
+        <v>465</v>
+      </c>
+      <c r="D111" s="208" t="s">
+        <v>454</v>
       </c>
       <c r="E111" s="54"/>
       <c r="F111" s="52"/>
@@ -10724,19 +10778,19 @@
       <c r="H111" s="52"/>
       <c r="I111" s="62"/>
     </row>
-    <row r="112" spans="1:9" s="48" customFormat="1" ht="49.2">
+    <row r="112" spans="1:9" s="48" customFormat="1" ht="36.9">
       <c r="A112" s="58">
         <f t="shared" ca="1" si="1"/>
-        <v>84</v>
-      </c>
-      <c r="B112" s="52" t="s">
-        <v>401</v>
+        <v>96</v>
+      </c>
+      <c r="B112" s="206" t="s">
+        <v>343</v>
       </c>
       <c r="C112" s="209" t="s">
-        <v>562</v>
-      </c>
-      <c r="D112" s="53" t="s">
-        <v>472</v>
+        <v>463</v>
+      </c>
+      <c r="D112" s="210" t="s">
+        <v>458</v>
       </c>
       <c r="E112" s="54"/>
       <c r="F112" s="52"/>
@@ -10744,153 +10798,132 @@
       <c r="H112" s="52"/>
       <c r="I112" s="62"/>
     </row>
-    <row r="113" spans="1:9" s="48" customFormat="1" ht="49.2">
+    <row r="113" spans="1:9" s="48" customFormat="1" ht="86.1">
       <c r="A113" s="58">
         <f t="shared" ca="1" si="1"/>
-        <v>85</v>
-      </c>
-      <c r="B113" s="52" t="s">
-        <v>402</v>
+        <v>97</v>
+      </c>
+      <c r="B113" s="206" t="s">
+        <v>461</v>
       </c>
       <c r="C113" s="209" t="s">
-        <v>563</v>
-      </c>
-      <c r="D113" s="53" t="s">
-        <v>433</v>
-      </c>
-      <c r="E113" s="54"/>
-      <c r="F113" s="52"/>
-      <c r="G113" s="52"/>
-      <c r="H113" s="52"/>
-      <c r="I113" s="62"/>
-    </row>
-    <row r="114" spans="1:9" s="48" customFormat="1" ht="61.5">
+        <v>466</v>
+      </c>
+      <c r="D113" s="210" t="s">
+        <v>450</v>
+      </c>
+      <c r="E113" s="191"/>
+      <c r="F113" s="173"/>
+      <c r="G113" s="173"/>
+      <c r="H113" s="173"/>
+      <c r="I113" s="172"/>
+    </row>
+    <row r="114" spans="1:9" s="48" customFormat="1" ht="86.1">
       <c r="A114" s="58">
         <f t="shared" ca="1" si="1"/>
-        <v>86</v>
-      </c>
-      <c r="B114" s="52" t="s">
-        <v>364</v>
+        <v>98</v>
+      </c>
+      <c r="B114" s="210" t="s">
+        <v>462</v>
       </c>
       <c r="C114" s="209" t="s">
-        <v>564</v>
-      </c>
-      <c r="D114" s="53" t="s">
-        <v>427</v>
-      </c>
-      <c r="E114" s="54"/>
-      <c r="F114" s="52"/>
-      <c r="G114" s="52"/>
-      <c r="H114" s="52"/>
-      <c r="I114" s="62"/>
-    </row>
-    <row r="115" spans="1:9" s="48" customFormat="1" ht="49.2">
+        <v>467</v>
+      </c>
+      <c r="D114" s="210" t="s">
+        <v>451</v>
+      </c>
+      <c r="E114" s="191"/>
+      <c r="F114" s="173"/>
+      <c r="G114" s="173"/>
+      <c r="H114" s="173"/>
+      <c r="I114" s="172"/>
+    </row>
+    <row r="115" spans="1:9" s="48" customFormat="1" ht="57.6">
       <c r="A115" s="58">
         <f t="shared" ca="1" si="1"/>
-        <v>87</v>
+        <v>99</v>
       </c>
       <c r="B115" s="52" t="s">
-        <v>414</v>
-      </c>
-      <c r="C115" s="209" t="s">
-        <v>555</v>
-      </c>
-      <c r="D115" s="53" t="s">
-        <v>429</v>
-      </c>
-      <c r="E115" s="54"/>
-      <c r="F115" s="52"/>
-      <c r="G115" s="52"/>
-      <c r="H115" s="52"/>
-      <c r="I115" s="62"/>
-    </row>
-    <row r="116" spans="1:9" s="48" customFormat="1" ht="49.2">
+        <v>352</v>
+      </c>
+      <c r="C115" s="190"/>
+      <c r="D115" s="210" t="s">
+        <v>452</v>
+      </c>
+      <c r="E115" s="191"/>
+      <c r="F115" s="173"/>
+      <c r="G115" s="173"/>
+      <c r="H115" s="173"/>
+      <c r="I115" s="172"/>
+    </row>
+    <row r="116" spans="1:9" s="48" customFormat="1" ht="13.8">
       <c r="A116" s="58">
         <f t="shared" ca="1" si="1"/>
-        <v>88</v>
+        <v>100</v>
       </c>
       <c r="B116" s="52" t="s">
-        <v>403</v>
-      </c>
-      <c r="C116" s="209" t="s">
-        <v>562</v>
-      </c>
-      <c r="D116" s="207" t="s">
-        <v>565</v>
-      </c>
-      <c r="E116" s="54"/>
-      <c r="F116" s="52"/>
-      <c r="G116" s="52"/>
-      <c r="H116" s="52"/>
-      <c r="I116" s="62"/>
+        <v>349</v>
+      </c>
+      <c r="C116" s="190"/>
+      <c r="D116" s="190"/>
+      <c r="E116" s="191"/>
+      <c r="F116" s="173"/>
+      <c r="G116" s="173"/>
+      <c r="H116" s="173"/>
+      <c r="I116" s="172"/>
     </row>
     <row r="117" spans="1:9" s="48" customFormat="1" ht="13.8">
-      <c r="A117" s="189"/>
-      <c r="B117" s="271" t="s">
-        <v>339</v>
-      </c>
-      <c r="C117" s="272"/>
-      <c r="D117" s="272"/>
-      <c r="E117" s="272"/>
-      <c r="F117" s="272"/>
-      <c r="G117" s="272"/>
-      <c r="H117" s="272"/>
-      <c r="I117" s="273"/>
-    </row>
-    <row r="118" spans="1:9" s="48" customFormat="1" ht="49.2">
+      <c r="A117" s="67"/>
+      <c r="B117" s="263" t="s">
+        <v>312</v>
+      </c>
+      <c r="C117" s="264"/>
+      <c r="D117" s="264"/>
+      <c r="E117" s="264"/>
+      <c r="F117" s="264"/>
+      <c r="G117" s="264"/>
+      <c r="H117" s="264"/>
+      <c r="I117" s="265"/>
+    </row>
+    <row r="118" spans="1:9" s="48" customFormat="1" ht="13.8">
       <c r="A118" s="58">
         <f t="shared" ca="1" si="1"/>
-        <v>89</v>
+        <v>101</v>
       </c>
       <c r="B118" s="52" t="s">
-        <v>340</v>
-      </c>
-      <c r="C118" s="209" t="s">
-        <v>503</v>
-      </c>
-      <c r="D118" s="53" t="s">
-        <v>465</v>
-      </c>
+        <v>344</v>
+      </c>
+      <c r="C118" s="52"/>
+      <c r="D118" s="53"/>
       <c r="E118" s="54"/>
       <c r="F118" s="52"/>
       <c r="G118" s="52"/>
       <c r="H118" s="52"/>
-      <c r="I118" s="62"/>
-    </row>
-    <row r="119" spans="1:9" s="48" customFormat="1" ht="49.2">
-      <c r="A119" s="58">
-        <f t="shared" ca="1" si="1"/>
-        <v>90</v>
-      </c>
-      <c r="B119" s="52" t="s">
-        <v>483</v>
-      </c>
-      <c r="C119" s="209" t="s">
-        <v>504</v>
-      </c>
-      <c r="D119" s="207" t="s">
-        <v>482</v>
-      </c>
-      <c r="E119" s="54"/>
-      <c r="F119" s="52"/>
-      <c r="G119" s="52"/>
-      <c r="H119" s="52"/>
-      <c r="I119" s="62"/>
-    </row>
-    <row r="120" spans="1:9" s="48" customFormat="1" ht="49.2">
+      <c r="I118" s="63"/>
+    </row>
+    <row r="119" spans="1:9" s="48" customFormat="1" ht="13.8">
+      <c r="A119" s="67"/>
+      <c r="B119" s="263" t="s">
+        <v>347</v>
+      </c>
+      <c r="C119" s="264"/>
+      <c r="D119" s="264"/>
+      <c r="E119" s="264"/>
+      <c r="F119" s="264"/>
+      <c r="G119" s="264"/>
+      <c r="H119" s="264"/>
+      <c r="I119" s="265"/>
+    </row>
+    <row r="120" spans="1:9" s="48" customFormat="1" ht="13.8">
       <c r="A120" s="58">
         <f t="shared" ca="1" si="1"/>
-        <v>91</v>
+        <v>102</v>
       </c>
       <c r="B120" s="52" t="s">
-        <v>404</v>
-      </c>
-      <c r="C120" s="209" t="s">
-        <v>504</v>
-      </c>
-      <c r="D120" s="53" t="s">
-        <v>428</v>
-      </c>
+        <v>345</v>
+      </c>
+      <c r="C120" s="52"/>
+      <c r="D120" s="54"/>
       <c r="E120" s="54"/>
       <c r="F120" s="52"/>
       <c r="G120" s="52"/>
@@ -10898,32 +10931,28 @@
       <c r="I120" s="62"/>
     </row>
     <row r="121" spans="1:9" s="48" customFormat="1" ht="13.8">
-      <c r="A121" s="189"/>
-      <c r="B121" s="271" t="s">
-        <v>350</v>
-      </c>
-      <c r="C121" s="272"/>
-      <c r="D121" s="272"/>
-      <c r="E121" s="272"/>
-      <c r="F121" s="272"/>
-      <c r="G121" s="272"/>
-      <c r="H121" s="272"/>
-      <c r="I121" s="273"/>
-    </row>
-    <row r="122" spans="1:9" s="48" customFormat="1" ht="49.2">
+      <c r="A121" s="67"/>
+      <c r="B121" s="263" t="s">
+        <v>348</v>
+      </c>
+      <c r="C121" s="264"/>
+      <c r="D121" s="264"/>
+      <c r="E121" s="264"/>
+      <c r="F121" s="264"/>
+      <c r="G121" s="264"/>
+      <c r="H121" s="264"/>
+      <c r="I121" s="265"/>
+    </row>
+    <row r="122" spans="1:9" s="48" customFormat="1" ht="13.8">
       <c r="A122" s="58">
         <f t="shared" ca="1" si="1"/>
-        <v>92</v>
-      </c>
-      <c r="B122" s="52" t="s">
-        <v>405</v>
-      </c>
-      <c r="C122" s="209" t="s">
-        <v>505</v>
-      </c>
-      <c r="D122" s="53" t="s">
-        <v>478</v>
-      </c>
+        <v>103</v>
+      </c>
+      <c r="B122" s="197" t="s">
+        <v>346</v>
+      </c>
+      <c r="C122" s="52"/>
+      <c r="D122" s="54"/>
       <c r="E122" s="54"/>
       <c r="F122" s="52"/>
       <c r="G122" s="52"/>
@@ -10931,297 +10960,205 @@
       <c r="I122" s="62"/>
     </row>
     <row r="123" spans="1:9" s="48" customFormat="1" ht="13.8">
-      <c r="A123" s="189"/>
-      <c r="B123" s="271" t="s">
-        <v>351</v>
-      </c>
-      <c r="C123" s="272"/>
-      <c r="D123" s="272"/>
-      <c r="E123" s="272"/>
-      <c r="F123" s="272"/>
-      <c r="G123" s="272"/>
-      <c r="H123" s="272"/>
-      <c r="I123" s="273"/>
-    </row>
-    <row r="124" spans="1:9" s="48" customFormat="1" ht="49.2">
-      <c r="A124" s="58">
-        <f t="shared" ca="1" si="1"/>
-        <v>93</v>
-      </c>
-      <c r="B124" s="52" t="s">
-        <v>406</v>
-      </c>
-      <c r="C124" s="209" t="s">
-        <v>506</v>
-      </c>
-      <c r="D124" s="53" t="s">
-        <v>479</v>
-      </c>
-      <c r="E124" s="54"/>
-      <c r="F124" s="52"/>
-      <c r="G124" s="52"/>
-      <c r="H124" s="52"/>
-      <c r="I124" s="62"/>
+      <c r="A123" s="185"/>
+      <c r="B123" s="186"/>
+      <c r="C123" s="186"/>
+      <c r="D123" s="187"/>
+      <c r="E123" s="187"/>
+      <c r="F123" s="186"/>
+      <c r="G123" s="186"/>
+      <c r="H123" s="186"/>
+      <c r="I123" s="188"/>
+    </row>
+    <row r="124" spans="1:9" s="48" customFormat="1" ht="13.8">
+      <c r="A124" s="192"/>
+      <c r="B124" s="186"/>
+      <c r="C124" s="186"/>
+      <c r="D124" s="187"/>
+      <c r="E124" s="187"/>
+      <c r="F124" s="186"/>
+      <c r="G124" s="186"/>
+      <c r="H124" s="186"/>
+      <c r="I124" s="188"/>
     </row>
     <row r="125" spans="1:9" s="48" customFormat="1" ht="13.8">
-      <c r="A125" s="67"/>
-      <c r="B125" s="245" t="s">
-        <v>341</v>
-      </c>
-      <c r="C125" s="246"/>
-      <c r="D125" s="246"/>
-      <c r="E125" s="246"/>
-      <c r="F125" s="246"/>
-      <c r="G125" s="246"/>
-      <c r="H125" s="246"/>
-      <c r="I125" s="247"/>
+      <c r="A125" s="185"/>
+      <c r="B125" s="186"/>
+      <c r="C125" s="186"/>
+      <c r="D125" s="187"/>
+      <c r="E125" s="187"/>
+      <c r="F125" s="186"/>
+      <c r="G125" s="186"/>
+      <c r="H125" s="186"/>
+      <c r="I125" s="188"/>
     </row>
     <row r="126" spans="1:9" s="48" customFormat="1" ht="13.8">
-      <c r="A126" s="189"/>
-      <c r="B126" s="271" t="s">
-        <v>342</v>
-      </c>
-      <c r="C126" s="272"/>
-      <c r="D126" s="272"/>
-      <c r="E126" s="272"/>
-      <c r="F126" s="272"/>
-      <c r="G126" s="272"/>
-      <c r="H126" s="272"/>
-      <c r="I126" s="273"/>
-    </row>
-    <row r="127" spans="1:9" s="48" customFormat="1" ht="36.9">
-      <c r="A127" s="58">
-        <v>94</v>
-      </c>
-      <c r="B127" s="52" t="s">
-        <v>480</v>
-      </c>
-      <c r="C127" s="209" t="s">
-        <v>487</v>
-      </c>
-      <c r="D127" s="207" t="s">
-        <v>481</v>
-      </c>
-      <c r="E127" s="54"/>
-      <c r="F127" s="52"/>
-      <c r="G127" s="52"/>
-      <c r="H127" s="52"/>
-      <c r="I127" s="62"/>
-    </row>
-    <row r="128" spans="1:9" s="48" customFormat="1" ht="49.2">
-      <c r="A128" s="58">
-        <f t="shared" ca="1" si="1"/>
-        <v>95</v>
-      </c>
-      <c r="B128" s="206" t="s">
-        <v>476</v>
-      </c>
-      <c r="C128" s="209" t="s">
-        <v>488</v>
-      </c>
-      <c r="D128" s="208" t="s">
-        <v>477</v>
-      </c>
-      <c r="E128" s="54"/>
-      <c r="F128" s="52"/>
-      <c r="G128" s="52"/>
-      <c r="H128" s="52"/>
-      <c r="I128" s="62"/>
-    </row>
-    <row r="129" spans="1:9" s="48" customFormat="1" ht="36.9">
-      <c r="A129" s="58">
-        <f t="shared" ca="1" si="1"/>
-        <v>96</v>
-      </c>
-      <c r="B129" s="206" t="s">
-        <v>343</v>
-      </c>
-      <c r="C129" s="209" t="s">
-        <v>486</v>
-      </c>
-      <c r="D129" s="210" t="s">
-        <v>481</v>
-      </c>
-      <c r="E129" s="54"/>
-      <c r="F129" s="52"/>
-      <c r="G129" s="52"/>
-      <c r="H129" s="52"/>
-      <c r="I129" s="62"/>
-    </row>
-    <row r="130" spans="1:9" s="48" customFormat="1" ht="86.1">
-      <c r="A130" s="58">
-        <f t="shared" ca="1" si="1"/>
-        <v>97</v>
-      </c>
-      <c r="B130" s="206" t="s">
-        <v>484</v>
-      </c>
-      <c r="C130" s="209" t="s">
-        <v>489</v>
-      </c>
-      <c r="D130" s="210" t="s">
-        <v>473</v>
-      </c>
-      <c r="E130" s="191"/>
-      <c r="F130" s="173"/>
-      <c r="G130" s="173"/>
-      <c r="H130" s="173"/>
-      <c r="I130" s="172"/>
-    </row>
-    <row r="131" spans="1:9" s="48" customFormat="1" ht="86.1">
-      <c r="A131" s="58">
-        <f t="shared" ca="1" si="1"/>
-        <v>98</v>
-      </c>
-      <c r="B131" s="210" t="s">
-        <v>485</v>
-      </c>
-      <c r="C131" s="209" t="s">
-        <v>490</v>
-      </c>
-      <c r="D131" s="210" t="s">
-        <v>474</v>
-      </c>
-      <c r="E131" s="191"/>
-      <c r="F131" s="173"/>
-      <c r="G131" s="173"/>
-      <c r="H131" s="173"/>
-      <c r="I131" s="172"/>
-    </row>
-    <row r="132" spans="1:9" s="48" customFormat="1" ht="57.6">
-      <c r="A132" s="58">
-        <f t="shared" ca="1" si="1"/>
-        <v>99</v>
-      </c>
-      <c r="B132" s="52" t="s">
-        <v>352</v>
-      </c>
-      <c r="C132" s="190"/>
-      <c r="D132" s="210" t="s">
-        <v>475</v>
-      </c>
-      <c r="E132" s="191"/>
-      <c r="F132" s="173"/>
-      <c r="G132" s="173"/>
-      <c r="H132" s="173"/>
-      <c r="I132" s="172"/>
+      <c r="A126" s="185"/>
+      <c r="B126" s="186"/>
+      <c r="C126" s="186"/>
+      <c r="D126" s="193"/>
+      <c r="E126" s="187"/>
+      <c r="F126" s="186"/>
+      <c r="G126" s="186"/>
+      <c r="H126" s="186"/>
+      <c r="I126" s="188"/>
+    </row>
+    <row r="127" spans="1:9" s="48" customFormat="1" ht="13.8">
+      <c r="A127" s="185"/>
+      <c r="B127" s="290"/>
+      <c r="C127" s="291"/>
+      <c r="D127" s="292"/>
+      <c r="E127" s="194"/>
+      <c r="F127" s="195"/>
+      <c r="G127" s="195"/>
+      <c r="H127" s="195"/>
+      <c r="I127" s="194"/>
+    </row>
+    <row r="128" spans="1:9" s="48" customFormat="1" ht="13.8">
+      <c r="A128" s="185"/>
+      <c r="B128" s="186"/>
+      <c r="C128" s="186"/>
+      <c r="D128" s="187"/>
+      <c r="E128" s="187"/>
+      <c r="F128" s="186"/>
+      <c r="G128" s="186"/>
+      <c r="H128" s="186"/>
+      <c r="I128" s="188"/>
+    </row>
+    <row r="129" spans="1:9" s="48" customFormat="1" ht="13.8">
+      <c r="A129" s="185"/>
+      <c r="B129" s="186"/>
+      <c r="C129" s="186"/>
+      <c r="D129" s="187"/>
+      <c r="E129" s="187"/>
+      <c r="F129" s="186"/>
+      <c r="G129" s="186"/>
+      <c r="H129" s="186"/>
+      <c r="I129" s="188"/>
+    </row>
+    <row r="130" spans="1:9" s="48" customFormat="1" ht="13.8">
+      <c r="A130" s="185"/>
+      <c r="B130" s="186"/>
+      <c r="C130" s="186"/>
+      <c r="D130" s="187"/>
+      <c r="E130" s="187"/>
+      <c r="F130" s="186"/>
+      <c r="G130" s="186"/>
+      <c r="H130" s="186"/>
+      <c r="I130" s="188"/>
+    </row>
+    <row r="131" spans="1:9" s="48" customFormat="1" ht="13.8">
+      <c r="A131" s="185"/>
+      <c r="B131" s="186"/>
+      <c r="C131" s="186"/>
+      <c r="D131" s="187"/>
+      <c r="E131" s="187"/>
+      <c r="F131" s="186"/>
+      <c r="G131" s="186"/>
+      <c r="H131" s="186"/>
+      <c r="I131" s="188"/>
+    </row>
+    <row r="132" spans="1:9" s="48" customFormat="1" ht="13.8">
+      <c r="A132" s="185"/>
+      <c r="B132" s="290"/>
+      <c r="C132" s="291"/>
+      <c r="D132" s="292"/>
+      <c r="E132" s="194"/>
+      <c r="F132" s="195"/>
+      <c r="G132" s="195"/>
+      <c r="H132" s="195"/>
+      <c r="I132" s="194"/>
     </row>
     <row r="133" spans="1:9" s="48" customFormat="1" ht="13.8">
-      <c r="A133" s="58">
-        <f t="shared" ca="1" si="1"/>
-        <v>100</v>
-      </c>
-      <c r="B133" s="52" t="s">
-        <v>349</v>
-      </c>
-      <c r="C133" s="190"/>
-      <c r="D133" s="190"/>
-      <c r="E133" s="191"/>
-      <c r="F133" s="173"/>
-      <c r="G133" s="173"/>
-      <c r="H133" s="173"/>
-      <c r="I133" s="172"/>
-    </row>
-    <row r="134" spans="1:9" s="48" customFormat="1" ht="13.8">
-      <c r="A134" s="67"/>
-      <c r="B134" s="245" t="s">
-        <v>312</v>
-      </c>
-      <c r="C134" s="246"/>
-      <c r="D134" s="246"/>
-      <c r="E134" s="246"/>
-      <c r="F134" s="246"/>
-      <c r="G134" s="246"/>
-      <c r="H134" s="246"/>
-      <c r="I134" s="247"/>
-    </row>
-    <row r="135" spans="1:9" s="49" customFormat="1" ht="13.8">
-      <c r="A135" s="58">
-        <f t="shared" ca="1" si="1"/>
-        <v>101</v>
-      </c>
-      <c r="B135" s="52" t="s">
-        <v>344</v>
-      </c>
-      <c r="C135" s="52"/>
-      <c r="D135" s="53"/>
-      <c r="E135" s="54"/>
-      <c r="F135" s="52"/>
-      <c r="G135" s="52"/>
-      <c r="H135" s="52"/>
-      <c r="I135" s="63"/>
+      <c r="A133" s="185"/>
+      <c r="B133" s="186"/>
+      <c r="C133" s="186"/>
+      <c r="D133" s="187"/>
+      <c r="E133" s="187"/>
+      <c r="F133" s="186"/>
+      <c r="G133" s="186"/>
+      <c r="H133" s="186"/>
+      <c r="I133" s="188"/>
+    </row>
+    <row r="134" spans="1:9" s="49" customFormat="1" ht="13.8">
+      <c r="A134" s="185"/>
+      <c r="B134" s="186"/>
+      <c r="C134" s="186"/>
+      <c r="D134" s="187"/>
+      <c r="E134" s="193"/>
+      <c r="F134" s="186"/>
+      <c r="G134" s="186"/>
+      <c r="H134" s="186"/>
+      <c r="I134" s="188"/>
+    </row>
+    <row r="135" spans="1:9" s="48" customFormat="1" ht="13.8">
+      <c r="A135" s="185"/>
+      <c r="B135" s="186"/>
+      <c r="C135" s="186"/>
+      <c r="D135" s="193"/>
+      <c r="E135" s="187"/>
+      <c r="F135" s="186"/>
+      <c r="G135" s="186"/>
+      <c r="H135" s="186"/>
+      <c r="I135" s="188"/>
     </row>
     <row r="136" spans="1:9" s="48" customFormat="1" ht="13.8">
-      <c r="A136" s="67"/>
-      <c r="B136" s="245" t="s">
-        <v>347</v>
-      </c>
-      <c r="C136" s="246"/>
-      <c r="D136" s="246"/>
-      <c r="E136" s="246"/>
-      <c r="F136" s="246"/>
-      <c r="G136" s="246"/>
-      <c r="H136" s="246"/>
-      <c r="I136" s="247"/>
+      <c r="A136" s="185"/>
+      <c r="B136" s="290"/>
+      <c r="C136" s="291"/>
+      <c r="D136" s="292"/>
+      <c r="E136" s="194"/>
+      <c r="F136" s="195"/>
+      <c r="G136" s="195"/>
+      <c r="H136" s="195"/>
+      <c r="I136" s="194"/>
     </row>
     <row r="137" spans="1:9" s="48" customFormat="1" ht="13.8">
-      <c r="A137" s="58">
-        <f t="shared" ca="1" si="1"/>
-        <v>102</v>
-      </c>
-      <c r="B137" s="52" t="s">
-        <v>345</v>
-      </c>
-      <c r="C137" s="52"/>
-      <c r="D137" s="54"/>
-      <c r="E137" s="54"/>
-      <c r="F137" s="52"/>
-      <c r="G137" s="52"/>
-      <c r="H137" s="52"/>
-      <c r="I137" s="62"/>
+      <c r="A137" s="185"/>
+      <c r="B137" s="186"/>
+      <c r="C137" s="186"/>
+      <c r="D137" s="187"/>
+      <c r="E137" s="187"/>
+      <c r="F137" s="186"/>
+      <c r="G137" s="186"/>
+      <c r="H137" s="186"/>
+      <c r="I137" s="188"/>
     </row>
     <row r="138" spans="1:9" s="48" customFormat="1" ht="13.8">
-      <c r="A138" s="67"/>
-      <c r="B138" s="245" t="s">
-        <v>348</v>
-      </c>
-      <c r="C138" s="246"/>
-      <c r="D138" s="246"/>
-      <c r="E138" s="246"/>
-      <c r="F138" s="246"/>
-      <c r="G138" s="246"/>
-      <c r="H138" s="246"/>
-      <c r="I138" s="247"/>
+      <c r="A138" s="185"/>
+      <c r="B138" s="186"/>
+      <c r="C138" s="186"/>
+      <c r="D138" s="187"/>
+      <c r="E138" s="193"/>
+      <c r="F138" s="186"/>
+      <c r="G138" s="186"/>
+      <c r="H138" s="186"/>
+      <c r="I138" s="188"/>
     </row>
     <row r="139" spans="1:9" s="48" customFormat="1" ht="13.8">
-      <c r="A139" s="58">
-        <f t="shared" ca="1" si="1"/>
-        <v>103</v>
-      </c>
-      <c r="B139" s="197" t="s">
-        <v>346</v>
-      </c>
-      <c r="C139" s="52"/>
-      <c r="D139" s="54"/>
-      <c r="E139" s="54"/>
-      <c r="F139" s="52"/>
-      <c r="G139" s="52"/>
-      <c r="H139" s="52"/>
-      <c r="I139" s="62"/>
+      <c r="A139" s="185"/>
+      <c r="B139" s="186"/>
+      <c r="C139" s="186"/>
+      <c r="D139" s="187"/>
+      <c r="E139" s="193"/>
+      <c r="F139" s="186"/>
+      <c r="G139" s="186"/>
+      <c r="H139" s="186"/>
+      <c r="I139" s="188"/>
     </row>
     <row r="140" spans="1:9" s="48" customFormat="1" ht="13.8">
       <c r="A140" s="185"/>
       <c r="B140" s="186"/>
       <c r="C140" s="186"/>
       <c r="D140" s="187"/>
-      <c r="E140" s="187"/>
+      <c r="E140" s="193"/>
       <c r="F140" s="186"/>
       <c r="G140" s="186"/>
       <c r="H140" s="186"/>
       <c r="I140" s="188"/>
     </row>
     <row r="141" spans="1:9" s="48" customFormat="1" ht="13.8">
-      <c r="A141" s="192"/>
+      <c r="A141" s="185"/>
       <c r="B141" s="186"/>
       <c r="C141" s="186"/>
       <c r="D141" s="187"/>
@@ -11243,7 +11180,7 @@
       <c r="I142" s="188"/>
     </row>
     <row r="143" spans="1:9" s="48" customFormat="1" ht="13.8">
-      <c r="A143" s="185"/>
+      <c r="A143" s="188"/>
       <c r="B143" s="186"/>
       <c r="C143" s="186"/>
       <c r="D143" s="193"/>
@@ -11254,21 +11191,21 @@
       <c r="I143" s="188"/>
     </row>
     <row r="144" spans="1:9" s="48" customFormat="1" ht="13.8">
-      <c r="A144" s="185"/>
-      <c r="B144" s="268"/>
-      <c r="C144" s="269"/>
-      <c r="D144" s="270"/>
-      <c r="E144" s="194"/>
-      <c r="F144" s="195"/>
-      <c r="G144" s="195"/>
-      <c r="H144" s="195"/>
-      <c r="I144" s="194"/>
+      <c r="A144" s="188"/>
+      <c r="B144" s="186"/>
+      <c r="C144" s="186"/>
+      <c r="D144" s="193"/>
+      <c r="E144" s="187"/>
+      <c r="F144" s="186"/>
+      <c r="G144" s="186"/>
+      <c r="H144" s="186"/>
+      <c r="I144" s="188"/>
     </row>
     <row r="145" spans="1:9" s="48" customFormat="1" ht="13.8">
-      <c r="A145" s="185"/>
+      <c r="A145" s="188"/>
       <c r="B145" s="186"/>
       <c r="C145" s="186"/>
-      <c r="D145" s="187"/>
+      <c r="D145" s="193"/>
       <c r="E145" s="187"/>
       <c r="F145" s="186"/>
       <c r="G145" s="186"/>
@@ -11276,65 +11213,65 @@
       <c r="I145" s="188"/>
     </row>
     <row r="146" spans="1:9" s="48" customFormat="1" ht="13.8">
-      <c r="A146" s="185"/>
+      <c r="A146" s="188"/>
       <c r="B146" s="186"/>
       <c r="C146" s="186"/>
       <c r="D146" s="187"/>
-      <c r="E146" s="187"/>
+      <c r="E146" s="193"/>
       <c r="F146" s="186"/>
       <c r="G146" s="186"/>
       <c r="H146" s="186"/>
       <c r="I146" s="188"/>
     </row>
     <row r="147" spans="1:9" s="48" customFormat="1" ht="13.8">
-      <c r="A147" s="185"/>
+      <c r="A147" s="188"/>
       <c r="B147" s="186"/>
       <c r="C147" s="186"/>
       <c r="D147" s="187"/>
-      <c r="E147" s="187"/>
+      <c r="E147" s="193"/>
       <c r="F147" s="186"/>
       <c r="G147" s="186"/>
       <c r="H147" s="186"/>
       <c r="I147" s="188"/>
     </row>
     <row r="148" spans="1:9" s="48" customFormat="1" ht="13.8">
-      <c r="A148" s="185"/>
-      <c r="B148" s="186"/>
-      <c r="C148" s="186"/>
-      <c r="D148" s="187"/>
-      <c r="E148" s="187"/>
-      <c r="F148" s="186"/>
-      <c r="G148" s="186"/>
-      <c r="H148" s="186"/>
-      <c r="I148" s="188"/>
+      <c r="A148" s="196"/>
+      <c r="B148" s="290"/>
+      <c r="C148" s="291"/>
+      <c r="D148" s="292"/>
+      <c r="E148" s="194"/>
+      <c r="F148" s="195"/>
+      <c r="G148" s="195"/>
+      <c r="H148" s="195"/>
+      <c r="I148" s="194"/>
     </row>
     <row r="149" spans="1:9" s="48" customFormat="1" ht="13.8">
-      <c r="A149" s="185"/>
-      <c r="B149" s="268"/>
-      <c r="C149" s="269"/>
-      <c r="D149" s="270"/>
-      <c r="E149" s="194"/>
-      <c r="F149" s="195"/>
-      <c r="G149" s="195"/>
-      <c r="H149" s="195"/>
-      <c r="I149" s="194"/>
+      <c r="A149" s="188"/>
+      <c r="B149" s="186"/>
+      <c r="C149" s="186"/>
+      <c r="D149" s="187"/>
+      <c r="E149" s="187"/>
+      <c r="F149" s="186"/>
+      <c r="G149" s="186"/>
+      <c r="H149" s="186"/>
+      <c r="I149" s="188"/>
     </row>
     <row r="150" spans="1:9" s="48" customFormat="1" ht="13.8">
-      <c r="A150" s="185"/>
+      <c r="A150" s="188"/>
       <c r="B150" s="186"/>
       <c r="C150" s="186"/>
-      <c r="D150" s="187"/>
-      <c r="E150" s="187"/>
+      <c r="D150" s="193"/>
+      <c r="E150" s="193"/>
       <c r="F150" s="186"/>
       <c r="G150" s="186"/>
       <c r="H150" s="186"/>
       <c r="I150" s="188"/>
     </row>
     <row r="151" spans="1:9" s="48" customFormat="1" ht="13.8">
-      <c r="A151" s="185"/>
+      <c r="A151" s="188"/>
       <c r="B151" s="186"/>
       <c r="C151" s="186"/>
-      <c r="D151" s="187"/>
+      <c r="D151" s="193"/>
       <c r="E151" s="193"/>
       <c r="F151" s="186"/>
       <c r="G151" s="186"/>
@@ -11342,29 +11279,29 @@
       <c r="I151" s="188"/>
     </row>
     <row r="152" spans="1:9" s="48" customFormat="1" ht="13.8">
-      <c r="A152" s="185"/>
-      <c r="B152" s="186"/>
-      <c r="C152" s="186"/>
-      <c r="D152" s="193"/>
-      <c r="E152" s="187"/>
-      <c r="F152" s="186"/>
-      <c r="G152" s="186"/>
-      <c r="H152" s="186"/>
-      <c r="I152" s="188"/>
+      <c r="A152" s="196"/>
+      <c r="B152" s="290"/>
+      <c r="C152" s="291"/>
+      <c r="D152" s="292"/>
+      <c r="E152" s="194"/>
+      <c r="F152" s="195"/>
+      <c r="G152" s="195"/>
+      <c r="H152" s="195"/>
+      <c r="I152" s="194"/>
     </row>
     <row r="153" spans="1:9" s="48" customFormat="1" ht="13.8">
-      <c r="A153" s="185"/>
-      <c r="B153" s="268"/>
-      <c r="C153" s="269"/>
-      <c r="D153" s="270"/>
-      <c r="E153" s="194"/>
-      <c r="F153" s="195"/>
-      <c r="G153" s="195"/>
-      <c r="H153" s="195"/>
-      <c r="I153" s="194"/>
+      <c r="A153" s="188"/>
+      <c r="B153" s="186"/>
+      <c r="C153" s="186"/>
+      <c r="D153" s="187"/>
+      <c r="E153" s="187"/>
+      <c r="F153" s="186"/>
+      <c r="G153" s="186"/>
+      <c r="H153" s="186"/>
+      <c r="I153" s="188"/>
     </row>
     <row r="154" spans="1:9" s="48" customFormat="1" ht="13.8">
-      <c r="A154" s="185"/>
+      <c r="A154" s="188"/>
       <c r="B154" s="186"/>
       <c r="C154" s="186"/>
       <c r="D154" s="187"/>
@@ -11375,29 +11312,29 @@
       <c r="I154" s="188"/>
     </row>
     <row r="155" spans="1:9" s="48" customFormat="1" ht="13.8">
-      <c r="A155" s="185"/>
+      <c r="A155" s="188"/>
       <c r="B155" s="186"/>
       <c r="C155" s="186"/>
       <c r="D155" s="187"/>
-      <c r="E155" s="193"/>
+      <c r="E155" s="187"/>
       <c r="F155" s="186"/>
       <c r="G155" s="186"/>
       <c r="H155" s="186"/>
       <c r="I155" s="188"/>
     </row>
     <row r="156" spans="1:9" s="48" customFormat="1" ht="13.8">
-      <c r="A156" s="185"/>
-      <c r="B156" s="186"/>
-      <c r="C156" s="186"/>
-      <c r="D156" s="187"/>
-      <c r="E156" s="193"/>
-      <c r="F156" s="186"/>
-      <c r="G156" s="186"/>
-      <c r="H156" s="186"/>
-      <c r="I156" s="188"/>
+      <c r="A156" s="196"/>
+      <c r="B156" s="290"/>
+      <c r="C156" s="291"/>
+      <c r="D156" s="292"/>
+      <c r="E156" s="194"/>
+      <c r="F156" s="195"/>
+      <c r="G156" s="195"/>
+      <c r="H156" s="195"/>
+      <c r="I156" s="194"/>
     </row>
     <row r="157" spans="1:9" s="48" customFormat="1" ht="13.8">
-      <c r="A157" s="185"/>
+      <c r="A157" s="188"/>
       <c r="B157" s="186"/>
       <c r="C157" s="186"/>
       <c r="D157" s="187"/>
@@ -11408,32 +11345,32 @@
       <c r="I157" s="188"/>
     </row>
     <row r="158" spans="1:9" s="48" customFormat="1" ht="13.8">
-      <c r="A158" s="185"/>
+      <c r="A158" s="188"/>
       <c r="B158" s="186"/>
       <c r="C158" s="186"/>
-      <c r="D158" s="187"/>
-      <c r="E158" s="187"/>
+      <c r="D158" s="193"/>
+      <c r="E158" s="193"/>
       <c r="F158" s="186"/>
       <c r="G158" s="186"/>
       <c r="H158" s="186"/>
       <c r="I158" s="188"/>
     </row>
     <row r="159" spans="1:9" s="48" customFormat="1" ht="13.8">
-      <c r="A159" s="185"/>
-      <c r="B159" s="186"/>
-      <c r="C159" s="186"/>
-      <c r="D159" s="187"/>
-      <c r="E159" s="187"/>
-      <c r="F159" s="186"/>
-      <c r="G159" s="186"/>
-      <c r="H159" s="186"/>
-      <c r="I159" s="188"/>
+      <c r="A159" s="196"/>
+      <c r="B159" s="290"/>
+      <c r="C159" s="291"/>
+      <c r="D159" s="292"/>
+      <c r="E159" s="194"/>
+      <c r="F159" s="195"/>
+      <c r="G159" s="195"/>
+      <c r="H159" s="195"/>
+      <c r="I159" s="194"/>
     </row>
     <row r="160" spans="1:9" s="48" customFormat="1" ht="13.8">
       <c r="A160" s="188"/>
       <c r="B160" s="186"/>
       <c r="C160" s="186"/>
-      <c r="D160" s="193"/>
+      <c r="D160" s="187"/>
       <c r="E160" s="187"/>
       <c r="F160" s="186"/>
       <c r="G160" s="186"/>
@@ -11466,8 +11403,8 @@
       <c r="A163" s="188"/>
       <c r="B163" s="186"/>
       <c r="C163" s="186"/>
-      <c r="D163" s="187"/>
-      <c r="E163" s="193"/>
+      <c r="D163" s="193"/>
+      <c r="E163" s="187"/>
       <c r="F163" s="186"/>
       <c r="G163" s="186"/>
       <c r="H163" s="186"/>
@@ -11477,212 +11414,207 @@
       <c r="A164" s="188"/>
       <c r="B164" s="186"/>
       <c r="C164" s="186"/>
-      <c r="D164" s="187"/>
-      <c r="E164" s="193"/>
+      <c r="D164" s="193"/>
+      <c r="E164" s="187"/>
       <c r="F164" s="186"/>
       <c r="G164" s="186"/>
       <c r="H164" s="186"/>
       <c r="I164" s="188"/>
     </row>
     <row r="165" spans="1:9" s="48" customFormat="1" ht="13.8">
-      <c r="A165" s="196"/>
-      <c r="B165" s="268"/>
-      <c r="C165" s="269"/>
-      <c r="D165" s="270"/>
-      <c r="E165" s="194"/>
-      <c r="F165" s="195"/>
-      <c r="G165" s="195"/>
-      <c r="H165" s="195"/>
-      <c r="I165" s="194"/>
+      <c r="A165" s="78"/>
+      <c r="B165" s="46"/>
+      <c r="C165" s="46"/>
+      <c r="D165" s="46"/>
+      <c r="E165" s="46"/>
+      <c r="F165" s="46"/>
+      <c r="G165" s="46"/>
+      <c r="H165" s="46"/>
+      <c r="I165" s="46"/>
     </row>
     <row r="166" spans="1:9" s="48" customFormat="1" ht="13.8">
-      <c r="A166" s="188"/>
-      <c r="B166" s="186"/>
-      <c r="C166" s="186"/>
-      <c r="D166" s="187"/>
-      <c r="E166" s="187"/>
-      <c r="F166" s="186"/>
-      <c r="G166" s="186"/>
-      <c r="H166" s="186"/>
-      <c r="I166" s="188"/>
+      <c r="A166" s="78"/>
+      <c r="B166" s="46"/>
+      <c r="C166" s="46"/>
+      <c r="D166" s="46"/>
+      <c r="E166" s="46"/>
+      <c r="F166" s="46"/>
+      <c r="G166" s="46"/>
+      <c r="H166" s="46"/>
+      <c r="I166" s="46"/>
     </row>
     <row r="167" spans="1:9" s="48" customFormat="1" ht="13.8">
-      <c r="A167" s="188"/>
-      <c r="B167" s="186"/>
-      <c r="C167" s="186"/>
-      <c r="D167" s="193"/>
-      <c r="E167" s="193"/>
-      <c r="F167" s="186"/>
-      <c r="G167" s="186"/>
-      <c r="H167" s="186"/>
-      <c r="I167" s="188"/>
+      <c r="A167" s="78"/>
+      <c r="B167" s="46"/>
+      <c r="C167" s="46"/>
+      <c r="D167" s="46"/>
+      <c r="E167" s="46"/>
+      <c r="F167" s="46"/>
+      <c r="G167" s="46"/>
+      <c r="H167" s="46"/>
+      <c r="I167" s="46"/>
     </row>
     <row r="168" spans="1:9" s="48" customFormat="1" ht="13.8">
-      <c r="A168" s="188"/>
-      <c r="B168" s="186"/>
-      <c r="C168" s="186"/>
-      <c r="D168" s="193"/>
-      <c r="E168" s="193"/>
-      <c r="F168" s="186"/>
-      <c r="G168" s="186"/>
-      <c r="H168" s="186"/>
-      <c r="I168" s="188"/>
+      <c r="A168" s="78"/>
+      <c r="B168" s="46"/>
+      <c r="C168" s="46"/>
+      <c r="D168" s="46"/>
+      <c r="E168" s="46"/>
+      <c r="F168" s="46"/>
+      <c r="G168" s="46"/>
+      <c r="H168" s="46"/>
+      <c r="I168" s="46"/>
     </row>
     <row r="169" spans="1:9" s="48" customFormat="1" ht="13.8">
-      <c r="A169" s="196"/>
-      <c r="B169" s="268"/>
-      <c r="C169" s="269"/>
-      <c r="D169" s="270"/>
-      <c r="E169" s="194"/>
-      <c r="F169" s="195"/>
-      <c r="G169" s="195"/>
-      <c r="H169" s="195"/>
-      <c r="I169" s="194"/>
+      <c r="A169" s="78"/>
+      <c r="B169" s="46"/>
+      <c r="C169" s="46"/>
+      <c r="D169" s="46"/>
+      <c r="E169" s="46"/>
+      <c r="F169" s="46"/>
+      <c r="G169" s="46"/>
+      <c r="H169" s="46"/>
+      <c r="I169" s="46"/>
     </row>
     <row r="170" spans="1:9" s="48" customFormat="1" ht="13.8">
-      <c r="A170" s="188"/>
-      <c r="B170" s="186"/>
-      <c r="C170" s="186"/>
-      <c r="D170" s="187"/>
-      <c r="E170" s="187"/>
-      <c r="F170" s="186"/>
-      <c r="G170" s="186"/>
-      <c r="H170" s="186"/>
-      <c r="I170" s="188"/>
+      <c r="A170" s="78"/>
+      <c r="B170" s="46"/>
+      <c r="C170" s="46"/>
+      <c r="D170" s="46"/>
+      <c r="E170" s="46"/>
+      <c r="F170" s="46"/>
+      <c r="G170" s="46"/>
+      <c r="H170" s="46"/>
+      <c r="I170" s="46"/>
     </row>
     <row r="171" spans="1:9" s="48" customFormat="1" ht="13.8">
-      <c r="A171" s="188"/>
-      <c r="B171" s="186"/>
-      <c r="C171" s="186"/>
-      <c r="D171" s="187"/>
-      <c r="E171" s="187"/>
-      <c r="F171" s="186"/>
-      <c r="G171" s="186"/>
-      <c r="H171" s="186"/>
-      <c r="I171" s="188"/>
-    </row>
-    <row r="172" spans="1:9" s="48" customFormat="1" ht="13.8">
-      <c r="A172" s="188"/>
-      <c r="B172" s="186"/>
-      <c r="C172" s="186"/>
-      <c r="D172" s="187"/>
-      <c r="E172" s="187"/>
-      <c r="F172" s="186"/>
-      <c r="G172" s="186"/>
-      <c r="H172" s="186"/>
-      <c r="I172" s="188"/>
-    </row>
-    <row r="173" spans="1:9" s="48" customFormat="1" ht="14.25" customHeight="1">
-      <c r="A173" s="196"/>
-      <c r="B173" s="268"/>
-      <c r="C173" s="269"/>
-      <c r="D173" s="270"/>
-      <c r="E173" s="194"/>
-      <c r="F173" s="195"/>
-      <c r="G173" s="195"/>
-      <c r="H173" s="195"/>
-      <c r="I173" s="194"/>
+      <c r="A171" s="78"/>
+      <c r="B171" s="46"/>
+      <c r="C171" s="46"/>
+      <c r="D171" s="46"/>
+      <c r="E171" s="46"/>
+      <c r="F171" s="46"/>
+      <c r="G171" s="46"/>
+      <c r="H171" s="46"/>
+      <c r="I171" s="46"/>
+    </row>
+    <row r="172" spans="1:9" s="48" customFormat="1" ht="14.25" customHeight="1">
+      <c r="A172" s="78"/>
+      <c r="B172" s="46"/>
+      <c r="C172" s="46"/>
+      <c r="D172" s="46"/>
+      <c r="E172" s="46"/>
+      <c r="F172" s="46"/>
+      <c r="G172" s="46"/>
+      <c r="H172" s="46"/>
+      <c r="I172" s="46"/>
+    </row>
+    <row r="173" spans="1:9" s="48" customFormat="1" ht="13.8">
+      <c r="A173" s="78"/>
+      <c r="B173" s="46"/>
+      <c r="C173" s="46"/>
+      <c r="D173" s="46"/>
+      <c r="E173" s="46"/>
+      <c r="F173" s="46"/>
+      <c r="G173" s="46"/>
+      <c r="H173" s="46"/>
+      <c r="I173" s="46"/>
     </row>
     <row r="174" spans="1:9" s="48" customFormat="1" ht="13.8">
-      <c r="A174" s="188"/>
-      <c r="B174" s="186"/>
-      <c r="C174" s="186"/>
-      <c r="D174" s="187"/>
-      <c r="E174" s="193"/>
-      <c r="F174" s="186"/>
-      <c r="G174" s="186"/>
-      <c r="H174" s="186"/>
-      <c r="I174" s="188"/>
-    </row>
-    <row r="175" spans="1:9" s="48" customFormat="1" ht="13.8">
-      <c r="A175" s="188"/>
-      <c r="B175" s="186"/>
-      <c r="C175" s="186"/>
-      <c r="D175" s="193"/>
-      <c r="E175" s="193"/>
-      <c r="F175" s="186"/>
-      <c r="G175" s="186"/>
-      <c r="H175" s="186"/>
-      <c r="I175" s="188"/>
-    </row>
-    <row r="176" spans="1:9" s="48" customFormat="1" ht="14.25" customHeight="1">
-      <c r="A176" s="196"/>
-      <c r="B176" s="268"/>
-      <c r="C176" s="269"/>
-      <c r="D176" s="270"/>
-      <c r="E176" s="194"/>
-      <c r="F176" s="195"/>
-      <c r="G176" s="195"/>
-      <c r="H176" s="195"/>
-      <c r="I176" s="194"/>
+      <c r="A174" s="78"/>
+      <c r="B174" s="46"/>
+      <c r="C174" s="46"/>
+      <c r="D174" s="46"/>
+      <c r="E174" s="46"/>
+      <c r="F174" s="46"/>
+      <c r="G174" s="46"/>
+      <c r="H174" s="46"/>
+      <c r="I174" s="46"/>
+    </row>
+    <row r="175" spans="1:9" s="48" customFormat="1" ht="14.25" customHeight="1">
+      <c r="A175" s="78"/>
+      <c r="B175" s="46"/>
+      <c r="C175" s="46"/>
+      <c r="D175" s="46"/>
+      <c r="E175" s="46"/>
+      <c r="F175" s="46"/>
+      <c r="G175" s="46"/>
+      <c r="H175" s="46"/>
+      <c r="I175" s="46"/>
+    </row>
+    <row r="176" spans="1:9" s="48" customFormat="1" ht="13.8">
+      <c r="A176" s="78"/>
+      <c r="B176" s="46"/>
+      <c r="C176" s="46"/>
+      <c r="D176" s="46"/>
+      <c r="E176" s="46"/>
+      <c r="F176" s="46"/>
+      <c r="G176" s="46"/>
+      <c r="H176" s="46"/>
+      <c r="I176" s="46"/>
     </row>
     <row r="177" spans="1:9" s="48" customFormat="1" ht="13.8">
-      <c r="A177" s="188"/>
-      <c r="B177" s="186"/>
-      <c r="C177" s="186"/>
-      <c r="D177" s="187"/>
-      <c r="E177" s="187"/>
-      <c r="F177" s="186"/>
-      <c r="G177" s="186"/>
-      <c r="H177" s="186"/>
-      <c r="I177" s="188"/>
+      <c r="A177" s="78"/>
+      <c r="B177" s="46"/>
+      <c r="C177" s="46"/>
+      <c r="D177" s="46"/>
+      <c r="E177" s="46"/>
+      <c r="F177" s="46"/>
+      <c r="G177" s="46"/>
+      <c r="H177" s="46"/>
+      <c r="I177" s="46"/>
     </row>
     <row r="178" spans="1:9" s="48" customFormat="1" ht="13.8">
-      <c r="A178" s="188"/>
-      <c r="B178" s="186"/>
-      <c r="C178" s="186"/>
-      <c r="D178" s="193"/>
-      <c r="E178" s="187"/>
-      <c r="F178" s="186"/>
-      <c r="G178" s="186"/>
-      <c r="H178" s="186"/>
-      <c r="I178" s="188"/>
+      <c r="A178" s="78"/>
+      <c r="B178" s="46"/>
+      <c r="C178" s="46"/>
+      <c r="D178" s="46"/>
+      <c r="E178" s="46"/>
+      <c r="F178" s="46"/>
+      <c r="G178" s="46"/>
+      <c r="H178" s="46"/>
+      <c r="I178" s="46"/>
     </row>
     <row r="179" spans="1:9" s="48" customFormat="1" ht="13.8">
-      <c r="A179" s="188"/>
-      <c r="B179" s="186"/>
-      <c r="C179" s="186"/>
-      <c r="D179" s="193"/>
-      <c r="E179" s="187"/>
-      <c r="F179" s="186"/>
-      <c r="G179" s="186"/>
-      <c r="H179" s="186"/>
-      <c r="I179" s="188"/>
+      <c r="A179" s="78"/>
+      <c r="B179" s="46"/>
+      <c r="C179" s="46"/>
+      <c r="D179" s="46"/>
+      <c r="E179" s="46"/>
+      <c r="F179" s="46"/>
+      <c r="G179" s="46"/>
+      <c r="H179" s="46"/>
+      <c r="I179" s="46"/>
     </row>
     <row r="180" spans="1:9" s="48" customFormat="1" ht="13.8">
-      <c r="A180" s="188"/>
-      <c r="B180" s="186"/>
-      <c r="C180" s="186"/>
-      <c r="D180" s="193"/>
-      <c r="E180" s="187"/>
-      <c r="F180" s="186"/>
-      <c r="G180" s="186"/>
-      <c r="H180" s="186"/>
-      <c r="I180" s="188"/>
-    </row>
-    <row r="181" spans="1:9" s="48" customFormat="1" ht="13.8">
-      <c r="A181" s="188"/>
-      <c r="B181" s="186"/>
-      <c r="C181" s="186"/>
-      <c r="D181" s="193"/>
-      <c r="E181" s="187"/>
-      <c r="F181" s="186"/>
-      <c r="G181" s="186"/>
-      <c r="H181" s="186"/>
-      <c r="I181" s="188"/>
+      <c r="A180" s="78"/>
+      <c r="B180" s="46"/>
+      <c r="C180" s="46"/>
+      <c r="D180" s="46"/>
+      <c r="E180" s="46"/>
+      <c r="F180" s="46"/>
+      <c r="G180" s="46"/>
+      <c r="H180" s="46"/>
+      <c r="I180" s="46"/>
     </row>
   </sheetData>
-  <mergeCells count="36">
-    <mergeCell ref="B19:I19"/>
-    <mergeCell ref="B125:I125"/>
-    <mergeCell ref="B23:I23"/>
-    <mergeCell ref="B37:I37"/>
-    <mergeCell ref="B51:I51"/>
-    <mergeCell ref="B68:I68"/>
-    <mergeCell ref="B95:I95"/>
-    <mergeCell ref="B70:I70"/>
-    <mergeCell ref="B79:I79"/>
-    <mergeCell ref="B88:I88"/>
+  <mergeCells count="34">
+    <mergeCell ref="B18:I18"/>
+    <mergeCell ref="B152:D152"/>
+    <mergeCell ref="B156:D156"/>
+    <mergeCell ref="B159:D159"/>
+    <mergeCell ref="B127:D127"/>
+    <mergeCell ref="B132:D132"/>
+    <mergeCell ref="B136:D136"/>
+    <mergeCell ref="B148:D148"/>
+    <mergeCell ref="B86:I86"/>
+    <mergeCell ref="B100:I100"/>
+    <mergeCell ref="B109:I109"/>
+    <mergeCell ref="B104:I104"/>
+    <mergeCell ref="B106:I106"/>
+    <mergeCell ref="B117:I117"/>
+    <mergeCell ref="B119:I119"/>
+    <mergeCell ref="B121:I121"/>
     <mergeCell ref="A1:D1"/>
     <mergeCell ref="A2:D2"/>
     <mergeCell ref="C3:D3"/>
@@ -11693,30 +11625,22 @@
     <mergeCell ref="B6:D6"/>
     <mergeCell ref="B7:D7"/>
     <mergeCell ref="B8:D8"/>
-    <mergeCell ref="B18:I18"/>
-    <mergeCell ref="B169:D169"/>
-    <mergeCell ref="B173:D173"/>
-    <mergeCell ref="B176:D176"/>
-    <mergeCell ref="B144:D144"/>
-    <mergeCell ref="B149:D149"/>
-    <mergeCell ref="B153:D153"/>
-    <mergeCell ref="B165:D165"/>
-    <mergeCell ref="B103:I103"/>
-    <mergeCell ref="B117:I117"/>
-    <mergeCell ref="B126:I126"/>
-    <mergeCell ref="B121:I121"/>
-    <mergeCell ref="B123:I123"/>
-    <mergeCell ref="B134:I134"/>
-    <mergeCell ref="B136:I136"/>
-    <mergeCell ref="B138:I138"/>
+    <mergeCell ref="B19:I19"/>
+    <mergeCell ref="B108:I108"/>
+    <mergeCell ref="B23:I23"/>
+    <mergeCell ref="B36:I36"/>
+    <mergeCell ref="B50:I50"/>
+    <mergeCell ref="B67:I67"/>
+    <mergeCell ref="B78:I78"/>
+    <mergeCell ref="B69:I69"/>
   </mergeCells>
   <dataValidations count="3">
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="F182:H239">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="F165:H222">
       <formula1>#REF!</formula1>
       <formula2>0</formula2>
     </dataValidation>
     <dataValidation showDropDown="1" showErrorMessage="1" sqref="F16:H17"/>
-    <dataValidation type="list" allowBlank="1" sqref="F124:H124 F104:H116 F139:H181 F135:H135 F137:H137 F118:H120 F122:H122 F69:H69 F71:H78 F80:H87 F96:H102 F20:H22 F24:H36 F38:H50 F52:H67 F89:H94 F127:H133">
+    <dataValidation type="list" allowBlank="1" sqref="F107:H107 F87:H99 F122:H164 F118:H118 F120:H120 F101:H103 F105:H105 F68:H68 F70:H77 F79:H85 F20:H22 F37:H49 F51:H66 F110:H116 F24:H35">
       <formula1>$A$11:$A$15</formula1>
     </dataValidation>
   </dataValidations>
@@ -11728,10 +11652,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:X101"/>
+  <dimension ref="A1:X103"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A38" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="A55" sqref="A55:A57"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A42" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="D36" sqref="D36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.15625" defaultRowHeight="12.3"/>
@@ -11746,10 +11670,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:24" s="1" customFormat="1" ht="13.8">
-      <c r="A1" s="240"/>
-      <c r="B1" s="240"/>
-      <c r="C1" s="240"/>
-      <c r="D1" s="240"/>
+      <c r="A1" s="260"/>
+      <c r="B1" s="260"/>
+      <c r="C1" s="260"/>
+      <c r="D1" s="260"/>
       <c r="E1" s="34"/>
       <c r="F1" s="34"/>
       <c r="G1" s="34"/>
@@ -11758,13 +11682,13 @@
       <c r="J1" s="34"/>
     </row>
     <row r="2" spans="1:24" s="1" customFormat="1" ht="31.5" customHeight="1">
-      <c r="A2" s="241" t="s">
+      <c r="A2" s="261" t="s">
         <v>70</v>
       </c>
-      <c r="B2" s="241"/>
-      <c r="C2" s="241"/>
-      <c r="D2" s="241"/>
-      <c r="E2" s="249"/>
+      <c r="B2" s="261"/>
+      <c r="C2" s="261"/>
+      <c r="D2" s="261"/>
+      <c r="E2" s="267"/>
       <c r="F2" s="23"/>
       <c r="G2" s="23"/>
       <c r="H2" s="23"/>
@@ -11773,9 +11697,9 @@
     </row>
     <row r="3" spans="1:24" s="1" customFormat="1" ht="31.5" customHeight="1">
       <c r="A3" s="47"/>
-      <c r="C3" s="274"/>
-      <c r="D3" s="274"/>
-      <c r="E3" s="249"/>
+      <c r="C3" s="286"/>
+      <c r="D3" s="286"/>
+      <c r="E3" s="267"/>
       <c r="F3" s="23"/>
       <c r="G3" s="23"/>
       <c r="H3" s="23"/>
@@ -11786,11 +11710,11 @@
       <c r="A4" s="139" t="s">
         <v>67</v>
       </c>
-      <c r="B4" s="243" t="s">
+      <c r="B4" s="255" t="s">
         <v>116</v>
       </c>
-      <c r="C4" s="243"/>
-      <c r="D4" s="243"/>
+      <c r="C4" s="255"/>
+      <c r="D4" s="255"/>
       <c r="E4" s="39"/>
       <c r="F4" s="39"/>
       <c r="G4" s="39"/>
@@ -11804,11 +11728,11 @@
       <c r="A5" s="139" t="s">
         <v>62</v>
       </c>
-      <c r="B5" s="242" t="s">
+      <c r="B5" s="256" t="s">
         <v>95</v>
       </c>
-      <c r="C5" s="243"/>
-      <c r="D5" s="243"/>
+      <c r="C5" s="255"/>
+      <c r="D5" s="255"/>
       <c r="E5" s="39"/>
       <c r="F5" s="39"/>
       <c r="G5" s="39"/>
@@ -11822,11 +11746,11 @@
       <c r="A6" s="139" t="s">
         <v>97</v>
       </c>
-      <c r="B6" s="242" t="s">
+      <c r="B6" s="256" t="s">
         <v>98</v>
       </c>
-      <c r="C6" s="243"/>
-      <c r="D6" s="243"/>
+      <c r="C6" s="255"/>
+      <c r="D6" s="255"/>
       <c r="E6" s="39"/>
       <c r="F6" s="39"/>
       <c r="G6" s="39"/>
@@ -11837,11 +11761,11 @@
       <c r="A7" s="139" t="s">
         <v>99</v>
       </c>
-      <c r="B7" s="243" t="s">
+      <c r="B7" s="255" t="s">
         <v>100</v>
       </c>
-      <c r="C7" s="243"/>
-      <c r="D7" s="243"/>
+      <c r="C7" s="255"/>
+      <c r="D7" s="255"/>
       <c r="E7" s="39"/>
       <c r="F7" s="39"/>
       <c r="G7" s="39"/>
@@ -11853,11 +11777,11 @@
       <c r="A8" s="139" t="s">
         <v>101</v>
       </c>
-      <c r="B8" s="244">
+      <c r="B8" s="262">
         <v>40850</v>
       </c>
-      <c r="C8" s="244"/>
-      <c r="D8" s="244"/>
+      <c r="C8" s="262"/>
+      <c r="D8" s="262"/>
       <c r="E8" s="39"/>
     </row>
     <row r="9" spans="1:24" s="43" customFormat="1">
@@ -11899,15 +11823,15 @@
         <v>41</v>
       </c>
       <c r="B11" s="75">
-        <f>COUNTIF($F$27:$F$49653,"*Passed")</f>
+        <f>COUNTIF($F$24:$F$49655,"*Passed")</f>
         <v>0</v>
       </c>
       <c r="C11" s="75">
-        <f>COUNTIF($G$27:$G$49653,"*Passed")</f>
+        <f>COUNTIF($G$24:$G$49655,"*Passed")</f>
         <v>0</v>
       </c>
       <c r="D11" s="75">
-        <f>COUNTIF($H$27:$H$49653,"*Passed")</f>
+        <f>COUNTIF($H$24:$H$49655,"*Passed")</f>
         <v>0</v>
       </c>
     </row>
@@ -11916,15 +11840,15 @@
         <v>43</v>
       </c>
       <c r="B12" s="75">
-        <f>COUNTIF($F$27:$F$49373,"*Failed*")</f>
+        <f>COUNTIF($F$24:$F$49375,"*Failed*")</f>
         <v>0</v>
       </c>
       <c r="C12" s="75">
-        <f>COUNTIF($G$27:$G$49373,"*Failed*")</f>
+        <f>COUNTIF($G$24:$G$49375,"*Failed*")</f>
         <v>0</v>
       </c>
       <c r="D12" s="75">
-        <f>COUNTIF($H$27:$H$49373,"*Failed*")</f>
+        <f>COUNTIF($H$24:$H$49375,"*Failed*")</f>
         <v>0</v>
       </c>
     </row>
@@ -11933,15 +11857,15 @@
         <v>45</v>
       </c>
       <c r="B13" s="75">
-        <f>COUNTIF($F$27:$F$49373,"*Not Run*")</f>
+        <f>COUNTIF($F$24:$F$49375,"*Not Run*")</f>
         <v>0</v>
       </c>
       <c r="C13" s="75">
-        <f>COUNTIF($G$27:$G$49373,"*Not Run*")</f>
+        <f>COUNTIF($G$24:$G$49375,"*Not Run*")</f>
         <v>0</v>
       </c>
       <c r="D13" s="75">
-        <f>COUNTIF($H$27:$H$49373,"*Not Run*")</f>
+        <f>COUNTIF($H$24:$H$49375,"*Not Run*")</f>
         <v>0</v>
       </c>
       <c r="E13" s="1"/>
@@ -11955,15 +11879,15 @@
         <v>104</v>
       </c>
       <c r="B14" s="75">
-        <f>COUNTIF($F$27:$F$49373,"*NA*")</f>
+        <f>COUNTIF($F$24:$F$49375,"*NA*")</f>
         <v>0</v>
       </c>
       <c r="C14" s="75">
-        <f>COUNTIF($G$27:$G$49373,"*NA*")</f>
+        <f>COUNTIF($G$24:$G$49375,"*NA*")</f>
         <v>0</v>
       </c>
       <c r="D14" s="75">
-        <f>COUNTIF($H$27:$H$49373,"*NA*")</f>
+        <f>COUNTIF($H$24:$H$49375,"*NA*")</f>
         <v>0</v>
       </c>
       <c r="E14" s="64"/>
@@ -11977,15 +11901,15 @@
         <v>105</v>
       </c>
       <c r="B15" s="75">
-        <f>COUNTIF($F$27:$F$49373,"*Passed in previous build*")</f>
+        <f>COUNTIF($F$24:$F$49375,"*Passed in previous build*")</f>
         <v>0</v>
       </c>
       <c r="C15" s="75">
-        <f>COUNTIF($G$27:$G$49373,"*Passed in previous build*")</f>
+        <f>COUNTIF($G$24:$G$49375,"*Passed in previous build*")</f>
         <v>0</v>
       </c>
       <c r="D15" s="75">
-        <f>COUNTIF($H$27:$H$49373,"*Passed in previous build*")</f>
+        <f>COUNTIF($H$24:$H$49375,"*Passed in previous build*")</f>
         <v>0</v>
       </c>
       <c r="E15" s="1"/>
@@ -12000,11 +11924,11 @@
       <c r="C16" s="50"/>
       <c r="D16" s="51"/>
       <c r="E16" s="65"/>
-      <c r="F16" s="275" t="s">
+      <c r="F16" s="287" t="s">
         <v>102</v>
       </c>
-      <c r="G16" s="276"/>
-      <c r="H16" s="277"/>
+      <c r="G16" s="288"/>
+      <c r="H16" s="289"/>
       <c r="I16" s="65"/>
     </row>
     <row r="17" spans="1:9" s="44" customFormat="1" ht="36.9">
@@ -12036,401 +11960,488 @@
         <v>114</v>
       </c>
     </row>
-    <row r="18" spans="1:9" s="45" customFormat="1">
+    <row r="18" spans="1:9" s="45" customFormat="1" ht="24.6">
       <c r="A18" s="58">
         <v>1</v>
       </c>
       <c r="B18" s="209" t="s">
-        <v>567</v>
-      </c>
-      <c r="C18" s="209"/>
-      <c r="D18" s="59"/>
+        <v>519</v>
+      </c>
+      <c r="C18" s="209" t="s">
+        <v>574</v>
+      </c>
+      <c r="D18" s="59" t="s">
+        <v>576</v>
+      </c>
       <c r="E18" s="54"/>
       <c r="F18" s="209"/>
       <c r="G18" s="209"/>
       <c r="H18" s="209"/>
       <c r="I18" s="55"/>
     </row>
-    <row r="19" spans="1:9" s="45" customFormat="1">
+    <row r="19" spans="1:9" s="45" customFormat="1" ht="24.6">
       <c r="A19" s="58">
-        <f t="shared" ref="A19:A36" ca="1" si="0">IF(OFFSET(A19,-1,0) ="",OFFSET(A19,-2,0)+1,OFFSET(A19,-1,0)+1 )</f>
+        <f t="shared" ref="A19:A33" ca="1" si="0">IF(OFFSET(A19,-1,0) ="",OFFSET(A19,-2,0)+1,OFFSET(A19,-1,0)+1 )</f>
         <v>2</v>
       </c>
-      <c r="B19" s="316" t="s">
-        <v>568</v>
-      </c>
-      <c r="C19" s="201"/>
-      <c r="D19" s="317"/>
+      <c r="B19" s="211" t="s">
+        <v>520</v>
+      </c>
+      <c r="C19" s="209" t="s">
+        <v>575</v>
+      </c>
+      <c r="D19" s="59" t="s">
+        <v>576</v>
+      </c>
       <c r="E19" s="54"/>
       <c r="F19" s="209"/>
       <c r="G19" s="209"/>
       <c r="H19" s="209"/>
       <c r="I19" s="55"/>
     </row>
-    <row r="20" spans="1:9" s="45" customFormat="1">
+    <row r="20" spans="1:9" s="45" customFormat="1" ht="36.9">
       <c r="A20" s="58">
-        <f t="shared" ca="1" si="0"/>
+        <f ca="1">IF(OFFSET(A20,-1,0) ="",OFFSET(A20,-2,0)+1,OFFSET(A20,-1,0)+1 )</f>
         <v>3</v>
       </c>
-      <c r="B20" s="316" t="s">
-        <v>569</v>
-      </c>
-      <c r="C20" s="201"/>
-      <c r="D20" s="317"/>
+      <c r="B20" s="213" t="s">
+        <v>568</v>
+      </c>
+      <c r="C20" s="209" t="s">
+        <v>577</v>
+      </c>
+      <c r="D20" s="59" t="s">
+        <v>576</v>
+      </c>
       <c r="E20" s="54"/>
       <c r="F20" s="209"/>
       <c r="G20" s="209"/>
       <c r="H20" s="209"/>
       <c r="I20" s="55"/>
     </row>
-    <row r="21" spans="1:9" s="45" customFormat="1">
+    <row r="21" spans="1:9" s="45" customFormat="1" ht="49.2">
       <c r="A21" s="58">
-        <f ca="1">IF(OFFSET(A21,-1,0) ="",OFFSET(A21,-2,0)+1,OFFSET(A21,-1,0)+1 )</f>
+        <f t="shared" ca="1" si="0"/>
         <v>4</v>
       </c>
-      <c r="B21" s="316" t="s">
-        <v>570</v>
-      </c>
-      <c r="C21" s="201"/>
-      <c r="D21" s="317"/>
+      <c r="B21" s="211" t="s">
+        <v>521</v>
+      </c>
+      <c r="C21" s="209" t="s">
+        <v>578</v>
+      </c>
+      <c r="D21" s="59" t="s">
+        <v>579</v>
+      </c>
       <c r="E21" s="54"/>
       <c r="F21" s="209"/>
       <c r="G21" s="209"/>
       <c r="H21" s="209"/>
       <c r="I21" s="55"/>
     </row>
-    <row r="22" spans="1:9" s="45" customFormat="1">
+    <row r="22" spans="1:9" s="45" customFormat="1" ht="36.9">
       <c r="A22" s="58">
         <f t="shared" ca="1" si="0"/>
         <v>5</v>
       </c>
-      <c r="B22" s="316" t="s">
-        <v>571</v>
-      </c>
-      <c r="C22" s="201"/>
-      <c r="D22" s="317"/>
+      <c r="B22" s="211" t="s">
+        <v>522</v>
+      </c>
+      <c r="C22" s="209" t="s">
+        <v>580</v>
+      </c>
+      <c r="D22" s="59" t="s">
+        <v>581</v>
+      </c>
       <c r="E22" s="54"/>
       <c r="F22" s="209"/>
       <c r="G22" s="209"/>
       <c r="H22" s="209"/>
       <c r="I22" s="55"/>
     </row>
-    <row r="23" spans="1:9" s="45" customFormat="1">
+    <row r="23" spans="1:9" s="45" customFormat="1" ht="49.2">
       <c r="A23" s="58">
         <f t="shared" ca="1" si="0"/>
         <v>6</v>
       </c>
-      <c r="B23" s="316" t="s">
-        <v>572</v>
-      </c>
-      <c r="C23" s="201"/>
-      <c r="D23" s="317"/>
+      <c r="B23" s="211" t="s">
+        <v>523</v>
+      </c>
+      <c r="C23" s="209" t="s">
+        <v>582</v>
+      </c>
+      <c r="D23" s="59" t="s">
+        <v>583</v>
+      </c>
       <c r="E23" s="54"/>
       <c r="F23" s="209"/>
       <c r="G23" s="209"/>
       <c r="H23" s="209"/>
       <c r="I23" s="55"/>
     </row>
-    <row r="24" spans="1:9" s="45" customFormat="1" ht="24.6">
-      <c r="A24" s="58">
+    <row r="24" spans="1:9" s="44" customFormat="1" ht="15.75" customHeight="1">
+      <c r="A24" s="77"/>
+      <c r="B24" s="263" t="s">
+        <v>518</v>
+      </c>
+      <c r="C24" s="264"/>
+      <c r="D24" s="265"/>
+      <c r="E24" s="67"/>
+      <c r="F24" s="68"/>
+      <c r="G24" s="68"/>
+      <c r="H24" s="68"/>
+      <c r="I24" s="67"/>
+    </row>
+    <row r="25" spans="1:9" s="45" customFormat="1" ht="24.6">
+      <c r="A25" s="58">
         <f t="shared" ca="1" si="0"/>
         <v>7</v>
       </c>
-      <c r="B24" s="316" t="s">
-        <v>573</v>
-      </c>
-      <c r="C24" s="201"/>
-      <c r="D24" s="317"/>
-      <c r="E24" s="54"/>
-      <c r="F24" s="209"/>
-      <c r="G24" s="209"/>
-      <c r="H24" s="209"/>
-      <c r="I24" s="55"/>
-    </row>
-    <row r="25" spans="1:9" s="45" customFormat="1">
-      <c r="A25" s="58">
+      <c r="B25" s="209" t="s">
+        <v>584</v>
+      </c>
+      <c r="C25" s="209" t="s">
+        <v>574</v>
+      </c>
+      <c r="D25" s="53" t="s">
+        <v>586</v>
+      </c>
+      <c r="E25" s="54"/>
+      <c r="F25" s="52"/>
+      <c r="G25" s="52"/>
+      <c r="H25" s="52"/>
+      <c r="I25" s="55"/>
+    </row>
+    <row r="26" spans="1:9" s="45" customFormat="1" ht="36.9">
+      <c r="A26" s="58">
         <f t="shared" ca="1" si="0"/>
         <v>8</v>
       </c>
-      <c r="B25" s="316" t="s">
-        <v>574</v>
-      </c>
-      <c r="C25" s="201"/>
-      <c r="D25" s="317"/>
-      <c r="E25" s="54"/>
-      <c r="F25" s="209"/>
-      <c r="G25" s="209"/>
-      <c r="H25" s="209"/>
-      <c r="I25" s="55"/>
-    </row>
-    <row r="26" spans="1:9" s="45" customFormat="1">
-      <c r="A26" s="58">
+      <c r="B26" s="209" t="s">
+        <v>524</v>
+      </c>
+      <c r="C26" s="209" t="s">
+        <v>585</v>
+      </c>
+      <c r="D26" s="207" t="s">
+        <v>587</v>
+      </c>
+      <c r="E26" s="54"/>
+      <c r="F26" s="52"/>
+      <c r="G26" s="52"/>
+      <c r="H26" s="52"/>
+      <c r="I26" s="55"/>
+    </row>
+    <row r="27" spans="1:9" s="45" customFormat="1" ht="36.9">
+      <c r="A27" s="58">
         <f t="shared" ca="1" si="0"/>
         <v>9</v>
       </c>
-      <c r="B26" s="316"/>
-      <c r="C26" s="201"/>
-      <c r="D26" s="317"/>
-      <c r="E26" s="54"/>
-      <c r="F26" s="209"/>
-      <c r="G26" s="209"/>
-      <c r="H26" s="209"/>
-      <c r="I26" s="55"/>
-    </row>
-    <row r="27" spans="1:9" s="44" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A27" s="77"/>
-      <c r="B27" s="245" t="s">
-        <v>566</v>
-      </c>
-      <c r="C27" s="246"/>
-      <c r="D27" s="247"/>
-      <c r="E27" s="67"/>
-      <c r="F27" s="68"/>
-      <c r="G27" s="68"/>
-      <c r="H27" s="68"/>
-      <c r="I27" s="67"/>
-    </row>
-    <row r="28" spans="1:9" s="45" customFormat="1">
+      <c r="B27" s="209" t="s">
+        <v>526</v>
+      </c>
+      <c r="C27" s="209" t="s">
+        <v>588</v>
+      </c>
+      <c r="D27" s="207" t="s">
+        <v>587</v>
+      </c>
+      <c r="E27" s="54"/>
+      <c r="F27" s="52"/>
+      <c r="G27" s="52"/>
+      <c r="H27" s="52"/>
+      <c r="I27" s="55"/>
+    </row>
+    <row r="28" spans="1:9" s="48" customFormat="1" ht="36.9">
       <c r="A28" s="58">
         <f t="shared" ca="1" si="0"/>
         <v>10</v>
       </c>
       <c r="B28" s="209" t="s">
-        <v>575</v>
-      </c>
-      <c r="C28" s="52"/>
-      <c r="D28" s="53"/>
+        <v>525</v>
+      </c>
+      <c r="C28" s="209" t="s">
+        <v>589</v>
+      </c>
+      <c r="D28" s="207" t="s">
+        <v>587</v>
+      </c>
       <c r="E28" s="54"/>
       <c r="F28" s="52"/>
       <c r="G28" s="52"/>
       <c r="H28" s="52"/>
-      <c r="I28" s="55"/>
-    </row>
-    <row r="29" spans="1:9" s="45" customFormat="1" ht="24.6">
+      <c r="I28" s="61"/>
+    </row>
+    <row r="29" spans="1:9" s="48" customFormat="1" ht="36.9">
       <c r="A29" s="58">
-        <f t="shared" ca="1" si="0"/>
+        <f ca="1">IF(OFFSET(A29,-1,0) ="",OFFSET(A29,-2,0)+1,OFFSET(A29,-1,0)+1 )</f>
         <v>11</v>
       </c>
       <c r="B29" s="209" t="s">
-        <v>576</v>
-      </c>
-      <c r="C29" s="52"/>
-      <c r="D29" s="59"/>
+        <v>614</v>
+      </c>
+      <c r="C29" s="209" t="s">
+        <v>615</v>
+      </c>
+      <c r="D29" s="54" t="s">
+        <v>613</v>
+      </c>
       <c r="E29" s="54"/>
-      <c r="F29" s="52"/>
-      <c r="G29" s="52"/>
-      <c r="H29" s="52"/>
-      <c r="I29" s="55"/>
-    </row>
-    <row r="30" spans="1:9" s="45" customFormat="1" ht="24.6">
-      <c r="A30" s="58">
-        <f t="shared" ca="1" si="0"/>
-        <v>12</v>
-      </c>
-      <c r="B30" s="209" t="s">
-        <v>578</v>
-      </c>
-      <c r="C30" s="52"/>
-      <c r="D30" s="60"/>
-      <c r="E30" s="54"/>
-      <c r="F30" s="52"/>
-      <c r="G30" s="52"/>
-      <c r="H30" s="52"/>
-      <c r="I30" s="55"/>
+      <c r="F29" s="209"/>
+      <c r="G29" s="209"/>
+      <c r="H29" s="209"/>
+      <c r="I29" s="61"/>
+    </row>
+    <row r="30" spans="1:9" s="48" customFormat="1" ht="13.8">
+      <c r="A30" s="77"/>
+      <c r="B30" s="263" t="s">
+        <v>527</v>
+      </c>
+      <c r="C30" s="264"/>
+      <c r="D30" s="265"/>
+      <c r="E30" s="69"/>
+      <c r="F30" s="66"/>
+      <c r="G30" s="66"/>
+      <c r="H30" s="66"/>
+      <c r="I30" s="69"/>
     </row>
     <row r="31" spans="1:9" s="48" customFormat="1" ht="24.6">
       <c r="A31" s="58">
         <f t="shared" ca="1" si="0"/>
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B31" s="209" t="s">
-        <v>577</v>
-      </c>
-      <c r="C31" s="52"/>
-      <c r="D31" s="54"/>
+        <v>528</v>
+      </c>
+      <c r="C31" s="209" t="s">
+        <v>574</v>
+      </c>
+      <c r="D31" s="54" t="s">
+        <v>593</v>
+      </c>
       <c r="E31" s="54"/>
       <c r="F31" s="52"/>
       <c r="G31" s="52"/>
       <c r="H31" s="52"/>
       <c r="I31" s="61"/>
     </row>
-    <row r="32" spans="1:9" s="48" customFormat="1" ht="13.8">
-      <c r="A32" s="77"/>
-      <c r="B32" s="245" t="s">
-        <v>579</v>
-      </c>
-      <c r="C32" s="246"/>
-      <c r="D32" s="247"/>
-      <c r="E32" s="69"/>
-      <c r="F32" s="66"/>
-      <c r="G32" s="66"/>
-      <c r="H32" s="66"/>
-      <c r="I32" s="69"/>
-    </row>
-    <row r="33" spans="1:9" s="48" customFormat="1" ht="13.8">
+    <row r="32" spans="1:9" s="48" customFormat="1" ht="36.9">
+      <c r="A32" s="58">
+        <f t="shared" ca="1" si="0"/>
+        <v>13</v>
+      </c>
+      <c r="B32" s="209" t="s">
+        <v>529</v>
+      </c>
+      <c r="C32" s="209" t="s">
+        <v>590</v>
+      </c>
+      <c r="D32" s="54" t="s">
+        <v>592</v>
+      </c>
+      <c r="E32" s="54"/>
+      <c r="F32" s="209"/>
+      <c r="G32" s="209"/>
+      <c r="H32" s="209"/>
+      <c r="I32" s="61"/>
+    </row>
+    <row r="33" spans="1:9" s="48" customFormat="1" ht="36.9">
       <c r="A33" s="58">
         <f t="shared" ca="1" si="0"/>
         <v>14</v>
       </c>
-      <c r="B33" s="52" t="s">
+      <c r="B33" s="209" t="s">
+        <v>530</v>
+      </c>
+      <c r="C33" s="209" t="s">
+        <v>591</v>
+      </c>
+      <c r="D33" s="54" t="s">
+        <v>611</v>
+      </c>
+      <c r="E33" s="54"/>
+      <c r="F33" s="209"/>
+      <c r="G33" s="209"/>
+      <c r="H33" s="209"/>
+      <c r="I33" s="61"/>
+    </row>
+    <row r="34" spans="1:9" s="48" customFormat="1" ht="36.9">
+      <c r="A34" s="58">
+        <f ca="1">IF(OFFSET(A34,-1,0) ="",OFFSET(A34,-2,0)+1,OFFSET(A34,-1,0)+1 )</f>
+        <v>15</v>
+      </c>
+      <c r="B34" s="209" t="s">
+        <v>609</v>
+      </c>
+      <c r="C34" s="209" t="s">
+        <v>610</v>
+      </c>
+      <c r="D34" s="54" t="s">
+        <v>612</v>
+      </c>
+      <c r="E34" s="54"/>
+      <c r="F34" s="209"/>
+      <c r="G34" s="209"/>
+      <c r="H34" s="209"/>
+      <c r="I34" s="61"/>
+    </row>
+    <row r="35" spans="1:9" s="48" customFormat="1" ht="13.8">
+      <c r="A35" s="77"/>
+      <c r="B35" s="263" t="s">
+        <v>531</v>
+      </c>
+      <c r="C35" s="264"/>
+      <c r="D35" s="265"/>
+      <c r="E35" s="69"/>
+      <c r="F35" s="66"/>
+      <c r="G35" s="66"/>
+      <c r="H35" s="66"/>
+      <c r="I35" s="69"/>
+    </row>
+    <row r="36" spans="1:9" s="48" customFormat="1" ht="49.2">
+      <c r="A36" s="58">
+        <f ca="1">IF(OFFSET(A36,-1,0) ="",OFFSET(A36,-2,0)+1,OFFSET(A36,-1,0)+1 )</f>
+        <v>16</v>
+      </c>
+      <c r="B36" s="52" t="s">
+        <v>532</v>
+      </c>
+      <c r="C36" s="209" t="s">
+        <v>631</v>
+      </c>
+      <c r="D36" s="59" t="s">
         <v>581</v>
       </c>
-      <c r="C33" s="52"/>
-      <c r="D33" s="54"/>
-      <c r="E33" s="54"/>
-      <c r="F33" s="52"/>
-      <c r="G33" s="52"/>
-      <c r="H33" s="52"/>
-      <c r="I33" s="61"/>
-    </row>
-    <row r="34" spans="1:9" s="48" customFormat="1" ht="13.8">
-      <c r="A34" s="58">
-        <f t="shared" ca="1" si="0"/>
-        <v>15</v>
-      </c>
-      <c r="B34" s="209" t="s">
-        <v>580</v>
-      </c>
-      <c r="C34" s="52"/>
-      <c r="D34" s="54"/>
-      <c r="E34" s="54"/>
-      <c r="F34" s="52"/>
-      <c r="G34" s="52"/>
-      <c r="H34" s="52"/>
-      <c r="I34" s="61"/>
-    </row>
-    <row r="35" spans="1:9" s="48" customFormat="1" ht="13.8">
-      <c r="A35" s="58">
-        <f t="shared" ca="1" si="0"/>
-        <v>16</v>
-      </c>
-      <c r="B35" s="209" t="s">
-        <v>582</v>
-      </c>
-      <c r="C35" s="209"/>
-      <c r="D35" s="54"/>
-      <c r="E35" s="54"/>
-      <c r="F35" s="209"/>
-      <c r="G35" s="209"/>
-      <c r="H35" s="209"/>
-      <c r="I35" s="61"/>
-    </row>
-    <row r="36" spans="1:9" s="48" customFormat="1" ht="13.8">
-      <c r="A36" s="58">
-        <f t="shared" ca="1" si="0"/>
-        <v>17</v>
-      </c>
-      <c r="B36" s="209" t="s">
-        <v>583</v>
-      </c>
-      <c r="C36" s="209"/>
-      <c r="D36" s="54"/>
       <c r="E36" s="54"/>
-      <c r="F36" s="209"/>
-      <c r="G36" s="209"/>
-      <c r="H36" s="209"/>
-      <c r="I36" s="61"/>
+      <c r="F36" s="52"/>
+      <c r="G36" s="52"/>
+      <c r="H36" s="52"/>
+      <c r="I36" s="62"/>
     </row>
     <row r="37" spans="1:9" s="48" customFormat="1" ht="13.8">
       <c r="A37" s="77"/>
-      <c r="B37" s="245" t="s">
-        <v>584</v>
-      </c>
-      <c r="C37" s="246"/>
-      <c r="D37" s="247"/>
+      <c r="B37" s="263" t="s">
+        <v>533</v>
+      </c>
+      <c r="C37" s="264"/>
+      <c r="D37" s="265"/>
       <c r="E37" s="69"/>
       <c r="F37" s="66"/>
       <c r="G37" s="66"/>
       <c r="H37" s="66"/>
       <c r="I37" s="69"/>
     </row>
-    <row r="38" spans="1:9" s="48" customFormat="1" ht="24.6">
-      <c r="A38" s="58">
+    <row r="38" spans="1:9" s="48" customFormat="1" ht="36.9">
+      <c r="A38" s="62">
         <f ca="1">IF(OFFSET(A38,-1,0) ="",OFFSET(A38,-2,0)+1,OFFSET(A38,-1,0)+1 )</f>
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B38" s="52" t="s">
-        <v>585</v>
-      </c>
-      <c r="C38" s="52"/>
-      <c r="D38" s="53"/>
+        <v>534</v>
+      </c>
+      <c r="C38" s="209" t="s">
+        <v>603</v>
+      </c>
+      <c r="D38" s="207" t="s">
+        <v>599</v>
+      </c>
       <c r="E38" s="54"/>
       <c r="F38" s="52"/>
       <c r="G38" s="52"/>
       <c r="H38" s="52"/>
       <c r="I38" s="62"/>
     </row>
-    <row r="39" spans="1:9" s="48" customFormat="1" ht="13.8">
-      <c r="A39" s="77"/>
-      <c r="B39" s="245" t="s">
-        <v>586</v>
-      </c>
-      <c r="C39" s="246"/>
-      <c r="D39" s="247"/>
-      <c r="E39" s="69"/>
-      <c r="F39" s="66"/>
-      <c r="G39" s="66"/>
-      <c r="H39" s="66"/>
-      <c r="I39" s="69"/>
-    </row>
-    <row r="40" spans="1:9" s="48" customFormat="1" ht="13.8">
+    <row r="39" spans="1:9" s="48" customFormat="1" ht="36.9">
+      <c r="A39" s="62">
+        <f t="shared" ref="A39:A40" ca="1" si="1">IF(OFFSET(A39,-1,0) ="",OFFSET(A39,-2,0)+1,OFFSET(A39,-1,0)+1 )</f>
+        <v>18</v>
+      </c>
+      <c r="B39" s="209" t="s">
+        <v>535</v>
+      </c>
+      <c r="C39" s="209" t="s">
+        <v>594</v>
+      </c>
+      <c r="D39" s="207" t="s">
+        <v>600</v>
+      </c>
+      <c r="E39" s="54"/>
+      <c r="F39" s="52"/>
+      <c r="G39" s="52"/>
+      <c r="H39" s="52"/>
+      <c r="I39" s="62"/>
+    </row>
+    <row r="40" spans="1:9" s="48" customFormat="1" ht="36.9">
       <c r="A40" s="62">
-        <f ca="1">IF(OFFSET(A40,-1,0) ="",OFFSET(A40,-2,0)+1,OFFSET(A40,-1,0)+1 )</f>
+        <f t="shared" ca="1" si="1"/>
         <v>19</v>
       </c>
-      <c r="B40" s="52" t="s">
-        <v>587</v>
-      </c>
-      <c r="C40" s="52"/>
-      <c r="D40" s="53"/>
+      <c r="B40" s="209" t="s">
+        <v>536</v>
+      </c>
+      <c r="C40" s="209" t="s">
+        <v>595</v>
+      </c>
+      <c r="D40" s="207" t="s">
+        <v>601</v>
+      </c>
       <c r="E40" s="54"/>
-      <c r="F40" s="52"/>
-      <c r="G40" s="52"/>
-      <c r="H40" s="52"/>
+      <c r="F40" s="209"/>
+      <c r="G40" s="209"/>
+      <c r="H40" s="209"/>
       <c r="I40" s="62"/>
     </row>
-    <row r="41" spans="1:9" s="48" customFormat="1" ht="13.8">
-      <c r="A41" s="62">
-        <f t="shared" ref="A41:A42" ca="1" si="1">IF(OFFSET(A41,-1,0) ="",OFFSET(A41,-2,0)+1,OFFSET(A41,-1,0)+1 )</f>
+    <row r="41" spans="1:9" s="48" customFormat="1" ht="36.9">
+      <c r="A41" s="62"/>
+      <c r="B41" s="209" t="s">
+        <v>537</v>
+      </c>
+      <c r="C41" s="209" t="s">
+        <v>596</v>
+      </c>
+      <c r="D41" s="207" t="s">
+        <v>602</v>
+      </c>
+      <c r="E41" s="54"/>
+      <c r="F41" s="209"/>
+      <c r="G41" s="209"/>
+      <c r="H41" s="209"/>
+      <c r="I41" s="62"/>
+    </row>
+    <row r="42" spans="1:9" s="48" customFormat="1" ht="49.2">
+      <c r="A42" s="62">
+        <f ca="1">IF(OFFSET(A42,-1,0) ="",OFFSET(A42,-2,0)+1,OFFSET(A42,-1,0)+1 )</f>
         <v>20</v>
       </c>
-      <c r="B41" s="209" t="s">
-        <v>588</v>
-      </c>
-      <c r="C41" s="52"/>
-      <c r="D41" s="60"/>
-      <c r="E41" s="54"/>
-      <c r="F41" s="52"/>
-      <c r="G41" s="52"/>
-      <c r="H41" s="52"/>
-      <c r="I41" s="62"/>
-    </row>
-    <row r="42" spans="1:9" s="48" customFormat="1" ht="13.8">
-      <c r="A42" s="62">
-        <f t="shared" ca="1" si="1"/>
-        <v>21</v>
-      </c>
       <c r="B42" s="209" t="s">
-        <v>589</v>
-      </c>
-      <c r="C42" s="209"/>
-      <c r="D42" s="60"/>
+        <v>569</v>
+      </c>
+      <c r="C42" s="209" t="s">
+        <v>597</v>
+      </c>
+      <c r="D42" s="207" t="s">
+        <v>599</v>
+      </c>
       <c r="E42" s="54"/>
       <c r="F42" s="209"/>
       <c r="G42" s="209"/>
       <c r="H42" s="209"/>
       <c r="I42" s="62"/>
     </row>
-    <row r="43" spans="1:9" s="48" customFormat="1" ht="13.8">
+    <row r="43" spans="1:9" s="48" customFormat="1" ht="49.2">
       <c r="A43" s="62">
         <f ca="1">IF(OFFSET(A43,-1,0) ="",OFFSET(A43,-2,0)+1,OFFSET(A43,-1,0)+1 )</f>
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B43" s="209" t="s">
-        <v>590</v>
-      </c>
-      <c r="C43" s="52"/>
-      <c r="D43" s="54"/>
+        <v>598</v>
+      </c>
+      <c r="C43" s="209" t="s">
+        <v>604</v>
+      </c>
+      <c r="D43" s="207" t="s">
+        <v>599</v>
+      </c>
       <c r="E43" s="54"/>
       <c r="F43" s="52"/>
       <c r="G43" s="52"/>
@@ -12439,238 +12450,304 @@
     </row>
     <row r="44" spans="1:9" s="48" customFormat="1" ht="13.8">
       <c r="A44" s="77"/>
-      <c r="B44" s="245" t="s">
-        <v>591</v>
-      </c>
-      <c r="C44" s="246"/>
-      <c r="D44" s="247"/>
+      <c r="B44" s="263" t="s">
+        <v>538</v>
+      </c>
+      <c r="C44" s="264"/>
+      <c r="D44" s="265"/>
       <c r="E44" s="69"/>
       <c r="F44" s="66"/>
       <c r="G44" s="66"/>
       <c r="H44" s="66"/>
       <c r="I44" s="69"/>
     </row>
-    <row r="45" spans="1:9" s="48" customFormat="1" ht="13.8">
+    <row r="45" spans="1:9" s="48" customFormat="1" ht="49.2">
       <c r="A45" s="62">
-        <f ca="1">IF(OFFSET(A45,-1,0) ="",OFFSET(A45,-2,0)+1,OFFSET(A45,-1,0)+1 )</f>
+        <f t="shared" ref="A45:A59" ca="1" si="2">IF(OFFSET(A45,-1,0) ="",OFFSET(A45,-2,0)+1,OFFSET(A45,-1,0)+1 )</f>
+        <v>22</v>
+      </c>
+      <c r="B45" s="209" t="s">
+        <v>567</v>
+      </c>
+      <c r="C45" s="209" t="s">
+        <v>628</v>
+      </c>
+      <c r="D45" s="212" t="s">
+        <v>616</v>
+      </c>
+      <c r="E45" s="54"/>
+      <c r="F45" s="209"/>
+      <c r="G45" s="209"/>
+      <c r="H45" s="209"/>
+      <c r="I45" s="62"/>
+    </row>
+    <row r="46" spans="1:9" s="48" customFormat="1" ht="36.9">
+      <c r="A46" s="62">
+        <f t="shared" ca="1" si="2"/>
         <v>23</v>
       </c>
-      <c r="B45" s="52" t="s">
-        <v>593</v>
-      </c>
-      <c r="C45" s="52"/>
-      <c r="D45" s="53"/>
-      <c r="E45" s="54"/>
-      <c r="F45" s="52"/>
-      <c r="G45" s="52"/>
-      <c r="H45" s="52"/>
-      <c r="I45" s="62"/>
-    </row>
-    <row r="46" spans="1:9" s="48" customFormat="1" ht="13.8">
-      <c r="A46" s="62">
-        <f t="shared" ref="A46:A57" ca="1" si="2">IF(OFFSET(A46,-1,0) ="",OFFSET(A46,-2,0)+1,OFFSET(A46,-1,0)+1 )</f>
-        <v>24</v>
-      </c>
       <c r="B46" s="209" t="s">
-        <v>592</v>
-      </c>
-      <c r="C46" s="201"/>
-      <c r="D46" s="318"/>
+        <v>539</v>
+      </c>
+      <c r="C46" s="209" t="s">
+        <v>629</v>
+      </c>
+      <c r="D46" s="212" t="s">
+        <v>616</v>
+      </c>
       <c r="E46" s="54"/>
       <c r="F46" s="209"/>
       <c r="G46" s="209"/>
       <c r="H46" s="209"/>
       <c r="I46" s="62"/>
     </row>
-    <row r="47" spans="1:9" s="48" customFormat="1" ht="13.8">
+    <row r="47" spans="1:9" s="48" customFormat="1" ht="49.2">
       <c r="A47" s="62">
         <f t="shared" ca="1" si="2"/>
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B47" s="209" t="s">
-        <v>594</v>
-      </c>
-      <c r="C47" s="201"/>
-      <c r="D47" s="318"/>
+        <v>540</v>
+      </c>
+      <c r="C47" s="209" t="s">
+        <v>630</v>
+      </c>
+      <c r="D47" s="212" t="s">
+        <v>617</v>
+      </c>
       <c r="E47" s="54"/>
       <c r="F47" s="209"/>
       <c r="G47" s="209"/>
       <c r="H47" s="209"/>
       <c r="I47" s="62"/>
     </row>
-    <row r="48" spans="1:9" s="48" customFormat="1" ht="13.8">
+    <row r="48" spans="1:9" s="48" customFormat="1" ht="36.9">
       <c r="A48" s="62">
         <f t="shared" ca="1" si="2"/>
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B48" s="209" t="s">
-        <v>595</v>
-      </c>
-      <c r="C48" s="201"/>
-      <c r="D48" s="318"/>
+        <v>570</v>
+      </c>
+      <c r="C48" s="209" t="s">
+        <v>603</v>
+      </c>
+      <c r="D48" s="212" t="s">
+        <v>618</v>
+      </c>
       <c r="E48" s="54"/>
       <c r="F48" s="209"/>
       <c r="G48" s="209"/>
       <c r="H48" s="209"/>
       <c r="I48" s="62"/>
     </row>
-    <row r="49" spans="1:9" s="48" customFormat="1" ht="24.6">
+    <row r="49" spans="1:9" s="48" customFormat="1" ht="36.9">
       <c r="A49" s="62">
         <f t="shared" ca="1" si="2"/>
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B49" s="209" t="s">
-        <v>598</v>
-      </c>
-      <c r="C49" s="201"/>
-      <c r="D49" s="318"/>
+        <v>571</v>
+      </c>
+      <c r="C49" s="209" t="s">
+        <v>595</v>
+      </c>
+      <c r="D49" s="212" t="s">
+        <v>619</v>
+      </c>
       <c r="E49" s="54"/>
       <c r="F49" s="209"/>
       <c r="G49" s="209"/>
       <c r="H49" s="209"/>
       <c r="I49" s="62"/>
     </row>
-    <row r="50" spans="1:9" s="48" customFormat="1" ht="24.6">
+    <row r="50" spans="1:9" s="48" customFormat="1" ht="36.9">
       <c r="A50" s="62">
         <f t="shared" ca="1" si="2"/>
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B50" s="209" t="s">
-        <v>599</v>
-      </c>
-      <c r="C50" s="201"/>
-      <c r="D50" s="318"/>
+        <v>543</v>
+      </c>
+      <c r="C50" s="209" t="s">
+        <v>595</v>
+      </c>
+      <c r="D50" s="212" t="s">
+        <v>620</v>
+      </c>
       <c r="E50" s="54"/>
       <c r="F50" s="209"/>
       <c r="G50" s="209"/>
       <c r="H50" s="209"/>
       <c r="I50" s="62"/>
     </row>
-    <row r="51" spans="1:9" s="48" customFormat="1" ht="13.8">
+    <row r="51" spans="1:9" s="48" customFormat="1" ht="36.9">
       <c r="A51" s="62">
         <f t="shared" ca="1" si="2"/>
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B51" s="209" t="s">
-        <v>600</v>
-      </c>
-      <c r="C51" s="201"/>
-      <c r="D51" s="318"/>
+        <v>544</v>
+      </c>
+      <c r="C51" s="209" t="s">
+        <v>595</v>
+      </c>
+      <c r="D51" s="212" t="s">
+        <v>621</v>
+      </c>
       <c r="E51" s="54"/>
       <c r="F51" s="209"/>
       <c r="G51" s="209"/>
       <c r="H51" s="209"/>
       <c r="I51" s="62"/>
     </row>
-    <row r="52" spans="1:9" s="48" customFormat="1" ht="13.8">
+    <row r="52" spans="1:9" s="48" customFormat="1" ht="36.9">
       <c r="A52" s="62">
         <f t="shared" ca="1" si="2"/>
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B52" s="209" t="s">
-        <v>601</v>
-      </c>
-      <c r="C52" s="201"/>
-      <c r="D52" s="318"/>
+        <v>572</v>
+      </c>
+      <c r="C52" s="209" t="s">
+        <v>595</v>
+      </c>
+      <c r="D52" s="212" t="s">
+        <v>622</v>
+      </c>
       <c r="E52" s="54"/>
       <c r="F52" s="209"/>
       <c r="G52" s="209"/>
       <c r="H52" s="209"/>
       <c r="I52" s="62"/>
     </row>
-    <row r="53" spans="1:9" s="48" customFormat="1" ht="13.8">
+    <row r="53" spans="1:9" s="48" customFormat="1" ht="36.9">
       <c r="A53" s="62">
         <f t="shared" ca="1" si="2"/>
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B53" s="209" t="s">
-        <v>602</v>
-      </c>
-      <c r="C53" s="201"/>
-      <c r="D53" s="318"/>
+        <v>573</v>
+      </c>
+      <c r="C53" s="209" t="s">
+        <v>595</v>
+      </c>
+      <c r="D53" s="212" t="s">
+        <v>620</v>
+      </c>
       <c r="E53" s="54"/>
       <c r="F53" s="209"/>
       <c r="G53" s="209"/>
       <c r="H53" s="209"/>
       <c r="I53" s="62"/>
     </row>
-    <row r="54" spans="1:9" s="48" customFormat="1" ht="13.8">
-      <c r="A54" s="77"/>
-      <c r="B54" s="245" t="s">
-        <v>596</v>
-      </c>
-      <c r="C54" s="246"/>
-      <c r="D54" s="247"/>
-      <c r="E54" s="69"/>
-      <c r="F54" s="66"/>
-      <c r="G54" s="66"/>
-      <c r="H54" s="66"/>
-      <c r="I54" s="69"/>
-    </row>
-    <row r="55" spans="1:9" s="48" customFormat="1" ht="24.6">
+    <row r="54" spans="1:9" s="48" customFormat="1" ht="27" customHeight="1">
+      <c r="A54" s="62">
+        <f t="shared" ca="1" si="2"/>
+        <v>31</v>
+      </c>
+      <c r="B54" s="209" t="s">
+        <v>623</v>
+      </c>
+      <c r="C54" s="209" t="s">
+        <v>595</v>
+      </c>
+      <c r="D54" s="212" t="s">
+        <v>625</v>
+      </c>
+      <c r="E54" s="54"/>
+      <c r="F54" s="209"/>
+      <c r="G54" s="209"/>
+      <c r="H54" s="209"/>
+      <c r="I54" s="62"/>
+    </row>
+    <row r="55" spans="1:9" s="48" customFormat="1" ht="27.9" customHeight="1">
       <c r="A55" s="62">
         <f t="shared" ca="1" si="2"/>
         <v>32</v>
       </c>
       <c r="B55" s="209" t="s">
-        <v>603</v>
-      </c>
-      <c r="C55" s="201"/>
-      <c r="D55" s="318"/>
+        <v>624</v>
+      </c>
+      <c r="C55" s="209" t="s">
+        <v>595</v>
+      </c>
+      <c r="D55" s="212" t="s">
+        <v>626</v>
+      </c>
       <c r="E55" s="54"/>
       <c r="F55" s="209"/>
       <c r="G55" s="209"/>
       <c r="H55" s="209"/>
       <c r="I55" s="62"/>
     </row>
-    <row r="56" spans="1:9" s="48" customFormat="1" ht="24.6">
+    <row r="56" spans="1:9" s="48" customFormat="1" ht="36.9">
       <c r="A56" s="62">
         <f t="shared" ca="1" si="2"/>
         <v>33</v>
       </c>
-      <c r="B56" s="52" t="s">
-        <v>604</v>
-      </c>
-      <c r="C56" s="52"/>
-      <c r="D56" s="54"/>
+      <c r="B56" s="209" t="s">
+        <v>545</v>
+      </c>
+      <c r="C56" s="209" t="s">
+        <v>595</v>
+      </c>
+      <c r="D56" s="212" t="s">
+        <v>627</v>
+      </c>
       <c r="E56" s="54"/>
-      <c r="F56" s="52"/>
-      <c r="G56" s="52"/>
-      <c r="H56" s="52"/>
+      <c r="F56" s="209"/>
+      <c r="G56" s="209"/>
+      <c r="H56" s="209"/>
       <c r="I56" s="62"/>
     </row>
-    <row r="57" spans="1:9" s="48" customFormat="1" ht="24.6">
-      <c r="A57" s="62">
+    <row r="57" spans="1:9" s="48" customFormat="1" ht="13.8">
+      <c r="A57" s="77"/>
+      <c r="B57" s="263" t="s">
+        <v>541</v>
+      </c>
+      <c r="C57" s="264"/>
+      <c r="D57" s="265"/>
+      <c r="E57" s="69"/>
+      <c r="F57" s="66"/>
+      <c r="G57" s="66"/>
+      <c r="H57" s="66"/>
+      <c r="I57" s="69"/>
+    </row>
+    <row r="58" spans="1:9" s="48" customFormat="1" ht="61.5">
+      <c r="A58" s="62">
         <f t="shared" ca="1" si="2"/>
         <v>34</v>
       </c>
-      <c r="B57" s="52" t="s">
-        <v>605</v>
-      </c>
-      <c r="C57" s="52"/>
-      <c r="D57" s="54"/>
-      <c r="E57" s="54"/>
-      <c r="F57" s="52"/>
-      <c r="G57" s="52"/>
-      <c r="H57" s="52"/>
-      <c r="I57" s="62"/>
-    </row>
-    <row r="58" spans="1:9" s="48" customFormat="1" ht="13.8">
-      <c r="A58" s="62"/>
-      <c r="B58" s="52"/>
-      <c r="C58" s="52"/>
-      <c r="D58" s="54"/>
-      <c r="E58" s="60"/>
+      <c r="B58" s="52" t="s">
+        <v>546</v>
+      </c>
+      <c r="C58" s="209" t="s">
+        <v>606</v>
+      </c>
+      <c r="D58" s="54" t="s">
+        <v>607</v>
+      </c>
+      <c r="E58" s="54"/>
       <c r="F58" s="52"/>
       <c r="G58" s="52"/>
       <c r="H58" s="52"/>
       <c r="I58" s="62"/>
     </row>
-    <row r="59" spans="1:9" s="48" customFormat="1" ht="13.8">
-      <c r="A59" s="62"/>
-      <c r="B59" s="52"/>
-      <c r="C59" s="52"/>
-      <c r="D59" s="54"/>
+    <row r="59" spans="1:9" s="48" customFormat="1" ht="61.5">
+      <c r="A59" s="62">
+        <f t="shared" ca="1" si="2"/>
+        <v>35</v>
+      </c>
+      <c r="B59" s="52" t="s">
+        <v>547</v>
+      </c>
+      <c r="C59" s="209" t="s">
+        <v>605</v>
+      </c>
+      <c r="D59" s="54" t="s">
+        <v>608</v>
+      </c>
       <c r="E59" s="54"/>
       <c r="F59" s="52"/>
       <c r="G59" s="52"/>
@@ -12682,7 +12759,7 @@
       <c r="B60" s="52"/>
       <c r="C60" s="52"/>
       <c r="D60" s="54"/>
-      <c r="E60" s="54"/>
+      <c r="E60" s="60"/>
       <c r="F60" s="52"/>
       <c r="G60" s="52"/>
       <c r="H60" s="52"/>
@@ -12714,7 +12791,7 @@
       <c r="A63" s="62"/>
       <c r="B63" s="52"/>
       <c r="C63" s="52"/>
-      <c r="D63" s="60"/>
+      <c r="D63" s="54"/>
       <c r="E63" s="54"/>
       <c r="F63" s="52"/>
       <c r="G63" s="52"/>
@@ -12722,21 +12799,21 @@
       <c r="I63" s="62"/>
     </row>
     <row r="64" spans="1:9" s="48" customFormat="1" ht="13.8">
-      <c r="A64" s="77"/>
-      <c r="B64" s="245"/>
-      <c r="C64" s="246"/>
-      <c r="D64" s="247"/>
-      <c r="E64" s="69"/>
-      <c r="F64" s="66"/>
-      <c r="G64" s="66"/>
-      <c r="H64" s="66"/>
-      <c r="I64" s="69"/>
+      <c r="A64" s="62"/>
+      <c r="B64" s="52"/>
+      <c r="C64" s="52"/>
+      <c r="D64" s="54"/>
+      <c r="E64" s="54"/>
+      <c r="F64" s="52"/>
+      <c r="G64" s="52"/>
+      <c r="H64" s="52"/>
+      <c r="I64" s="62"/>
     </row>
     <row r="65" spans="1:9" s="48" customFormat="1" ht="13.8">
       <c r="A65" s="62"/>
       <c r="B65" s="52"/>
       <c r="C65" s="52"/>
-      <c r="D65" s="53"/>
+      <c r="D65" s="60"/>
       <c r="E65" s="54"/>
       <c r="F65" s="52"/>
       <c r="G65" s="52"/>
@@ -12744,21 +12821,21 @@
       <c r="I65" s="62"/>
     </row>
     <row r="66" spans="1:9" s="48" customFormat="1" ht="13.8">
-      <c r="A66" s="62"/>
-      <c r="B66" s="52"/>
-      <c r="C66" s="52"/>
-      <c r="D66" s="54"/>
-      <c r="E66" s="54"/>
-      <c r="F66" s="52"/>
-      <c r="G66" s="52"/>
-      <c r="H66" s="52"/>
-      <c r="I66" s="62"/>
+      <c r="A66" s="77"/>
+      <c r="B66" s="263"/>
+      <c r="C66" s="264"/>
+      <c r="D66" s="265"/>
+      <c r="E66" s="69"/>
+      <c r="F66" s="66"/>
+      <c r="G66" s="66"/>
+      <c r="H66" s="66"/>
+      <c r="I66" s="69"/>
     </row>
     <row r="67" spans="1:9" s="48" customFormat="1" ht="13.8">
       <c r="A67" s="62"/>
       <c r="B67" s="52"/>
       <c r="C67" s="52"/>
-      <c r="D67" s="54"/>
+      <c r="D67" s="53"/>
       <c r="E67" s="54"/>
       <c r="F67" s="52"/>
       <c r="G67" s="52"/>
@@ -12777,21 +12854,21 @@
       <c r="I68" s="62"/>
     </row>
     <row r="69" spans="1:9" s="48" customFormat="1" ht="13.8">
-      <c r="A69" s="77"/>
-      <c r="B69" s="245"/>
-      <c r="C69" s="246"/>
-      <c r="D69" s="247"/>
-      <c r="E69" s="69"/>
-      <c r="F69" s="66"/>
-      <c r="G69" s="66"/>
-      <c r="H69" s="66"/>
-      <c r="I69" s="69"/>
+      <c r="A69" s="62"/>
+      <c r="B69" s="52"/>
+      <c r="C69" s="52"/>
+      <c r="D69" s="54"/>
+      <c r="E69" s="54"/>
+      <c r="F69" s="52"/>
+      <c r="G69" s="52"/>
+      <c r="H69" s="52"/>
+      <c r="I69" s="62"/>
     </row>
     <row r="70" spans="1:9" s="48" customFormat="1" ht="13.8">
       <c r="A70" s="62"/>
       <c r="B70" s="52"/>
       <c r="C70" s="52"/>
-      <c r="D70" s="53"/>
+      <c r="D70" s="54"/>
       <c r="E70" s="54"/>
       <c r="F70" s="52"/>
       <c r="G70" s="52"/>
@@ -12799,21 +12876,21 @@
       <c r="I70" s="62"/>
     </row>
     <row r="71" spans="1:9" s="48" customFormat="1" ht="13.8">
-      <c r="A71" s="62"/>
-      <c r="B71" s="52"/>
-      <c r="C71" s="52"/>
-      <c r="D71" s="54"/>
-      <c r="E71" s="60"/>
-      <c r="F71" s="52"/>
-      <c r="G71" s="52"/>
-      <c r="H71" s="52"/>
-      <c r="I71" s="62"/>
+      <c r="A71" s="77"/>
+      <c r="B71" s="263"/>
+      <c r="C71" s="264"/>
+      <c r="D71" s="265"/>
+      <c r="E71" s="69"/>
+      <c r="F71" s="66"/>
+      <c r="G71" s="66"/>
+      <c r="H71" s="66"/>
+      <c r="I71" s="69"/>
     </row>
     <row r="72" spans="1:9" s="48" customFormat="1" ht="13.8">
       <c r="A72" s="62"/>
       <c r="B72" s="52"/>
       <c r="C72" s="52"/>
-      <c r="D72" s="60"/>
+      <c r="D72" s="53"/>
       <c r="E72" s="54"/>
       <c r="F72" s="52"/>
       <c r="G72" s="52"/>
@@ -12821,21 +12898,21 @@
       <c r="I72" s="62"/>
     </row>
     <row r="73" spans="1:9" s="48" customFormat="1" ht="13.8">
-      <c r="A73" s="77"/>
-      <c r="B73" s="245"/>
-      <c r="C73" s="246"/>
-      <c r="D73" s="247"/>
-      <c r="E73" s="69"/>
-      <c r="F73" s="66"/>
-      <c r="G73" s="66"/>
-      <c r="H73" s="66"/>
-      <c r="I73" s="69"/>
+      <c r="A73" s="62"/>
+      <c r="B73" s="52"/>
+      <c r="C73" s="52"/>
+      <c r="D73" s="54"/>
+      <c r="E73" s="60"/>
+      <c r="F73" s="52"/>
+      <c r="G73" s="52"/>
+      <c r="H73" s="52"/>
+      <c r="I73" s="62"/>
     </row>
     <row r="74" spans="1:9" s="48" customFormat="1" ht="13.8">
       <c r="A74" s="62"/>
       <c r="B74" s="52"/>
       <c r="C74" s="52"/>
-      <c r="D74" s="53"/>
+      <c r="D74" s="60"/>
       <c r="E74" s="54"/>
       <c r="F74" s="52"/>
       <c r="G74" s="52"/>
@@ -12843,22 +12920,22 @@
       <c r="I74" s="62"/>
     </row>
     <row r="75" spans="1:9" s="48" customFormat="1" ht="13.8">
-      <c r="A75" s="62"/>
-      <c r="B75" s="52"/>
-      <c r="C75" s="52"/>
-      <c r="D75" s="54"/>
-      <c r="E75" s="60"/>
-      <c r="F75" s="52"/>
-      <c r="G75" s="52"/>
-      <c r="H75" s="52"/>
-      <c r="I75" s="62"/>
+      <c r="A75" s="77"/>
+      <c r="B75" s="263"/>
+      <c r="C75" s="264"/>
+      <c r="D75" s="265"/>
+      <c r="E75" s="69"/>
+      <c r="F75" s="66"/>
+      <c r="G75" s="66"/>
+      <c r="H75" s="66"/>
+      <c r="I75" s="69"/>
     </row>
     <row r="76" spans="1:9" s="48" customFormat="1" ht="13.8">
       <c r="A76" s="62"/>
       <c r="B76" s="52"/>
       <c r="C76" s="52"/>
-      <c r="D76" s="54"/>
-      <c r="E76" s="60"/>
+      <c r="D76" s="53"/>
+      <c r="E76" s="54"/>
       <c r="F76" s="52"/>
       <c r="G76" s="52"/>
       <c r="H76" s="52"/>
@@ -12880,7 +12957,7 @@
       <c r="B78" s="52"/>
       <c r="C78" s="52"/>
       <c r="D78" s="54"/>
-      <c r="E78" s="54"/>
+      <c r="E78" s="60"/>
       <c r="F78" s="52"/>
       <c r="G78" s="52"/>
       <c r="H78" s="52"/>
@@ -12891,7 +12968,7 @@
       <c r="B79" s="52"/>
       <c r="C79" s="52"/>
       <c r="D79" s="54"/>
-      <c r="E79" s="54"/>
+      <c r="E79" s="60"/>
       <c r="F79" s="52"/>
       <c r="G79" s="52"/>
       <c r="H79" s="52"/>
@@ -12901,7 +12978,7 @@
       <c r="A80" s="62"/>
       <c r="B80" s="52"/>
       <c r="C80" s="52"/>
-      <c r="D80" s="60"/>
+      <c r="D80" s="54"/>
       <c r="E80" s="54"/>
       <c r="F80" s="52"/>
       <c r="G80" s="52"/>
@@ -12912,7 +12989,7 @@
       <c r="A81" s="62"/>
       <c r="B81" s="52"/>
       <c r="C81" s="52"/>
-      <c r="D81" s="60"/>
+      <c r="D81" s="54"/>
       <c r="E81" s="54"/>
       <c r="F81" s="52"/>
       <c r="G81" s="52"/>
@@ -12934,8 +13011,8 @@
       <c r="A83" s="62"/>
       <c r="B83" s="52"/>
       <c r="C83" s="52"/>
-      <c r="D83" s="54"/>
-      <c r="E83" s="60"/>
+      <c r="D83" s="60"/>
+      <c r="E83" s="54"/>
       <c r="F83" s="52"/>
       <c r="G83" s="52"/>
       <c r="H83" s="52"/>
@@ -12945,89 +13022,89 @@
       <c r="A84" s="62"/>
       <c r="B84" s="52"/>
       <c r="C84" s="52"/>
-      <c r="D84" s="54"/>
-      <c r="E84" s="60"/>
+      <c r="D84" s="60"/>
+      <c r="E84" s="54"/>
       <c r="F84" s="52"/>
       <c r="G84" s="52"/>
       <c r="H84" s="52"/>
       <c r="I84" s="62"/>
     </row>
     <row r="85" spans="1:9" s="48" customFormat="1" ht="13.8">
-      <c r="A85" s="77"/>
-      <c r="B85" s="245"/>
-      <c r="C85" s="246"/>
-      <c r="D85" s="247"/>
-      <c r="E85" s="69"/>
-      <c r="F85" s="66"/>
-      <c r="G85" s="66"/>
-      <c r="H85" s="66"/>
-      <c r="I85" s="69"/>
+      <c r="A85" s="62"/>
+      <c r="B85" s="52"/>
+      <c r="C85" s="52"/>
+      <c r="D85" s="54"/>
+      <c r="E85" s="60"/>
+      <c r="F85" s="52"/>
+      <c r="G85" s="52"/>
+      <c r="H85" s="52"/>
+      <c r="I85" s="62"/>
     </row>
     <row r="86" spans="1:9" s="48" customFormat="1" ht="13.8">
       <c r="A86" s="62"/>
       <c r="B86" s="52"/>
       <c r="C86" s="52"/>
-      <c r="D86" s="53"/>
-      <c r="E86" s="54"/>
+      <c r="D86" s="54"/>
+      <c r="E86" s="60"/>
       <c r="F86" s="52"/>
       <c r="G86" s="52"/>
       <c r="H86" s="52"/>
       <c r="I86" s="62"/>
     </row>
     <row r="87" spans="1:9" s="48" customFormat="1" ht="13.8">
-      <c r="A87" s="62"/>
-      <c r="B87" s="52"/>
-      <c r="C87" s="52"/>
-      <c r="D87" s="60"/>
-      <c r="E87" s="60"/>
-      <c r="F87" s="52"/>
-      <c r="G87" s="52"/>
-      <c r="H87" s="52"/>
-      <c r="I87" s="62"/>
+      <c r="A87" s="77"/>
+      <c r="B87" s="263"/>
+      <c r="C87" s="264"/>
+      <c r="D87" s="265"/>
+      <c r="E87" s="69"/>
+      <c r="F87" s="66"/>
+      <c r="G87" s="66"/>
+      <c r="H87" s="66"/>
+      <c r="I87" s="69"/>
     </row>
     <row r="88" spans="1:9" s="48" customFormat="1" ht="13.8">
       <c r="A88" s="62"/>
       <c r="B88" s="52"/>
       <c r="C88" s="52"/>
-      <c r="D88" s="60"/>
-      <c r="E88" s="60"/>
+      <c r="D88" s="53"/>
+      <c r="E88" s="54"/>
       <c r="F88" s="52"/>
       <c r="G88" s="52"/>
       <c r="H88" s="52"/>
       <c r="I88" s="62"/>
     </row>
     <row r="89" spans="1:9" s="48" customFormat="1" ht="13.8">
-      <c r="A89" s="77"/>
-      <c r="B89" s="245"/>
-      <c r="C89" s="246"/>
-      <c r="D89" s="247"/>
-      <c r="E89" s="69"/>
-      <c r="F89" s="66"/>
-      <c r="G89" s="66"/>
-      <c r="H89" s="66"/>
-      <c r="I89" s="69"/>
+      <c r="A89" s="62"/>
+      <c r="B89" s="52"/>
+      <c r="C89" s="52"/>
+      <c r="D89" s="60"/>
+      <c r="E89" s="60"/>
+      <c r="F89" s="52"/>
+      <c r="G89" s="52"/>
+      <c r="H89" s="52"/>
+      <c r="I89" s="62"/>
     </row>
     <row r="90" spans="1:9" s="48" customFormat="1" ht="13.8">
       <c r="A90" s="62"/>
       <c r="B90" s="52"/>
       <c r="C90" s="52"/>
-      <c r="D90" s="54"/>
-      <c r="E90" s="54"/>
+      <c r="D90" s="60"/>
+      <c r="E90" s="60"/>
       <c r="F90" s="52"/>
       <c r="G90" s="52"/>
       <c r="H90" s="52"/>
       <c r="I90" s="62"/>
     </row>
     <row r="91" spans="1:9" s="48" customFormat="1" ht="13.8">
-      <c r="A91" s="62"/>
-      <c r="B91" s="52"/>
-      <c r="C91" s="52"/>
-      <c r="D91" s="54"/>
-      <c r="E91" s="54"/>
-      <c r="F91" s="52"/>
-      <c r="G91" s="52"/>
-      <c r="H91" s="52"/>
-      <c r="I91" s="62"/>
+      <c r="A91" s="77"/>
+      <c r="B91" s="263"/>
+      <c r="C91" s="264"/>
+      <c r="D91" s="265"/>
+      <c r="E91" s="69"/>
+      <c r="F91" s="66"/>
+      <c r="G91" s="66"/>
+      <c r="H91" s="66"/>
+      <c r="I91" s="69"/>
     </row>
     <row r="92" spans="1:9" s="48" customFormat="1" ht="13.8">
       <c r="A92" s="62"/>
@@ -13040,77 +13117,77 @@
       <c r="H92" s="52"/>
       <c r="I92" s="62"/>
     </row>
-    <row r="93" spans="1:9" s="48" customFormat="1" ht="14.25" customHeight="1">
-      <c r="A93" s="77"/>
-      <c r="B93" s="245"/>
-      <c r="C93" s="246"/>
-      <c r="D93" s="247"/>
-      <c r="E93" s="69"/>
-      <c r="F93" s="66"/>
-      <c r="G93" s="66"/>
-      <c r="H93" s="66"/>
-      <c r="I93" s="69"/>
+    <row r="93" spans="1:9" s="48" customFormat="1" ht="13.8">
+      <c r="A93" s="62"/>
+      <c r="B93" s="52"/>
+      <c r="C93" s="52"/>
+      <c r="D93" s="54"/>
+      <c r="E93" s="54"/>
+      <c r="F93" s="52"/>
+      <c r="G93" s="52"/>
+      <c r="H93" s="52"/>
+      <c r="I93" s="62"/>
     </row>
     <row r="94" spans="1:9" s="48" customFormat="1" ht="13.8">
       <c r="A94" s="62"/>
       <c r="B94" s="52"/>
       <c r="C94" s="52"/>
       <c r="D94" s="54"/>
-      <c r="E94" s="60"/>
+      <c r="E94" s="54"/>
       <c r="F94" s="52"/>
       <c r="G94" s="52"/>
       <c r="H94" s="52"/>
       <c r="I94" s="62"/>
     </row>
-    <row r="95" spans="1:9" s="48" customFormat="1" ht="13.8">
-      <c r="A95" s="62"/>
-      <c r="B95" s="52"/>
-      <c r="C95" s="52"/>
-      <c r="D95" s="60"/>
-      <c r="E95" s="60"/>
-      <c r="F95" s="52"/>
-      <c r="G95" s="52"/>
-      <c r="H95" s="52"/>
-      <c r="I95" s="62"/>
-    </row>
-    <row r="96" spans="1:9" s="48" customFormat="1" ht="14.25" customHeight="1">
-      <c r="A96" s="77"/>
-      <c r="B96" s="245"/>
-      <c r="C96" s="246"/>
-      <c r="D96" s="247"/>
-      <c r="E96" s="69"/>
-      <c r="F96" s="66"/>
-      <c r="G96" s="66"/>
-      <c r="H96" s="66"/>
-      <c r="I96" s="69"/>
+    <row r="95" spans="1:9" s="48" customFormat="1" ht="14.25" customHeight="1">
+      <c r="A95" s="77"/>
+      <c r="B95" s="263"/>
+      <c r="C95" s="264"/>
+      <c r="D95" s="265"/>
+      <c r="E95" s="69"/>
+      <c r="F95" s="66"/>
+      <c r="G95" s="66"/>
+      <c r="H95" s="66"/>
+      <c r="I95" s="69"/>
+    </row>
+    <row r="96" spans="1:9" s="48" customFormat="1" ht="13.8">
+      <c r="A96" s="62"/>
+      <c r="B96" s="52"/>
+      <c r="C96" s="52"/>
+      <c r="D96" s="54"/>
+      <c r="E96" s="60"/>
+      <c r="F96" s="52"/>
+      <c r="G96" s="52"/>
+      <c r="H96" s="52"/>
+      <c r="I96" s="62"/>
     </row>
     <row r="97" spans="1:9" s="48" customFormat="1" ht="13.8">
       <c r="A97" s="62"/>
       <c r="B97" s="52"/>
       <c r="C97" s="52"/>
-      <c r="D97" s="53"/>
-      <c r="E97" s="54"/>
+      <c r="D97" s="60"/>
+      <c r="E97" s="60"/>
       <c r="F97" s="52"/>
       <c r="G97" s="52"/>
       <c r="H97" s="52"/>
       <c r="I97" s="62"/>
     </row>
-    <row r="98" spans="1:9" s="48" customFormat="1" ht="13.8">
-      <c r="A98" s="62"/>
-      <c r="B98" s="52"/>
-      <c r="C98" s="52"/>
-      <c r="D98" s="60"/>
-      <c r="E98" s="54"/>
-      <c r="F98" s="52"/>
-      <c r="G98" s="52"/>
-      <c r="H98" s="52"/>
-      <c r="I98" s="62"/>
+    <row r="98" spans="1:9" s="48" customFormat="1" ht="14.25" customHeight="1">
+      <c r="A98" s="77"/>
+      <c r="B98" s="263"/>
+      <c r="C98" s="264"/>
+      <c r="D98" s="265"/>
+      <c r="E98" s="69"/>
+      <c r="F98" s="66"/>
+      <c r="G98" s="66"/>
+      <c r="H98" s="66"/>
+      <c r="I98" s="69"/>
     </row>
     <row r="99" spans="1:9" s="48" customFormat="1" ht="13.8">
       <c r="A99" s="62"/>
       <c r="B99" s="52"/>
       <c r="C99" s="52"/>
-      <c r="D99" s="60"/>
+      <c r="D99" s="53"/>
       <c r="E99" s="54"/>
       <c r="F99" s="52"/>
       <c r="G99" s="52"/>
@@ -13139,39 +13216,61 @@
       <c r="H101" s="52"/>
       <c r="I101" s="62"/>
     </row>
+    <row r="102" spans="1:9" s="48" customFormat="1" ht="13.8">
+      <c r="A102" s="62"/>
+      <c r="B102" s="52"/>
+      <c r="C102" s="52"/>
+      <c r="D102" s="60"/>
+      <c r="E102" s="54"/>
+      <c r="F102" s="52"/>
+      <c r="G102" s="52"/>
+      <c r="H102" s="52"/>
+      <c r="I102" s="62"/>
+    </row>
+    <row r="103" spans="1:9" s="48" customFormat="1" ht="13.8">
+      <c r="A103" s="62"/>
+      <c r="B103" s="52"/>
+      <c r="C103" s="52"/>
+      <c r="D103" s="60"/>
+      <c r="E103" s="54"/>
+      <c r="F103" s="52"/>
+      <c r="G103" s="52"/>
+      <c r="H103" s="52"/>
+      <c r="I103" s="62"/>
+    </row>
   </sheetData>
   <mergeCells count="23">
-    <mergeCell ref="B32:D32"/>
-    <mergeCell ref="B39:D39"/>
-    <mergeCell ref="B37:D37"/>
-    <mergeCell ref="B89:D89"/>
-    <mergeCell ref="B93:D93"/>
-    <mergeCell ref="B96:D96"/>
-    <mergeCell ref="B44:D44"/>
-    <mergeCell ref="B54:D54"/>
-    <mergeCell ref="B64:D64"/>
-    <mergeCell ref="B69:D69"/>
-    <mergeCell ref="B73:D73"/>
-    <mergeCell ref="B85:D85"/>
-    <mergeCell ref="F16:H16"/>
-    <mergeCell ref="B27:D27"/>
-    <mergeCell ref="B5:D5"/>
-    <mergeCell ref="B6:D6"/>
-    <mergeCell ref="B7:D7"/>
-    <mergeCell ref="B8:D8"/>
     <mergeCell ref="A1:D1"/>
     <mergeCell ref="A2:D2"/>
     <mergeCell ref="E2:E3"/>
     <mergeCell ref="C3:D3"/>
     <mergeCell ref="B4:D4"/>
+    <mergeCell ref="F16:H16"/>
+    <mergeCell ref="B24:D24"/>
+    <mergeCell ref="B5:D5"/>
+    <mergeCell ref="B6:D6"/>
+    <mergeCell ref="B7:D7"/>
+    <mergeCell ref="B8:D8"/>
+    <mergeCell ref="B98:D98"/>
+    <mergeCell ref="B44:D44"/>
+    <mergeCell ref="B57:D57"/>
+    <mergeCell ref="B66:D66"/>
+    <mergeCell ref="B71:D71"/>
+    <mergeCell ref="B75:D75"/>
+    <mergeCell ref="B87:D87"/>
+    <mergeCell ref="B30:D30"/>
+    <mergeCell ref="B37:D37"/>
+    <mergeCell ref="B35:D35"/>
+    <mergeCell ref="B91:D91"/>
+    <mergeCell ref="B95:D95"/>
   </mergeCells>
   <dataValidations count="4">
-    <dataValidation type="list" allowBlank="1" sqref="F18:H26 F28:H101">
+    <dataValidation type="list" allowBlank="1" sqref="F18:H23 F25:H103">
       <formula1>$A$11:$A$15</formula1>
     </dataValidation>
     <dataValidation showDropDown="1" showErrorMessage="1" sqref="F16:H17"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F27:H27"/>
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="F102:H159">
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F24:H24"/>
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="F104:H161">
       <formula1>#REF!</formula1>
       <formula2>0</formula2>
     </dataValidation>
@@ -13220,13 +13319,13 @@
     </row>
     <row r="2" spans="1:12" s="84" customFormat="1" ht="25.2">
       <c r="A2" s="83"/>
-      <c r="C2" s="295" t="s">
+      <c r="C2" s="311" t="s">
         <v>119</v>
       </c>
-      <c r="D2" s="295"/>
-      <c r="E2" s="295"/>
-      <c r="F2" s="295"/>
-      <c r="G2" s="295"/>
+      <c r="D2" s="311"/>
+      <c r="E2" s="311"/>
+      <c r="F2" s="311"/>
+      <c r="G2" s="311"/>
       <c r="H2" s="85" t="s">
         <v>120</v>
       </c>
@@ -13237,15 +13336,15 @@
     </row>
     <row r="3" spans="1:12" s="84" customFormat="1" ht="22.5">
       <c r="A3" s="83"/>
-      <c r="C3" s="296" t="s">
+      <c r="C3" s="312" t="s">
         <v>121</v>
       </c>
-      <c r="D3" s="296"/>
+      <c r="D3" s="312"/>
       <c r="E3" s="157"/>
-      <c r="F3" s="297" t="s">
+      <c r="F3" s="313" t="s">
         <v>122</v>
       </c>
-      <c r="G3" s="297"/>
+      <c r="G3" s="313"/>
       <c r="H3" s="86"/>
       <c r="I3" s="86"/>
       <c r="J3" s="87"/>
@@ -13270,10 +13369,10 @@
       <c r="L5" s="92"/>
     </row>
     <row r="6" spans="1:12" ht="21.75" customHeight="1">
-      <c r="B6" s="298" t="s">
+      <c r="B6" s="295" t="s">
         <v>123</v>
       </c>
-      <c r="C6" s="298"/>
+      <c r="C6" s="295"/>
       <c r="D6" s="94"/>
       <c r="E6" s="94"/>
       <c r="F6" s="94"/>
@@ -13442,11 +13541,11 @@
       <c r="G13" s="98"/>
     </row>
     <row r="14" spans="1:12" ht="21.75" customHeight="1">
-      <c r="B14" s="298" t="s">
+      <c r="B14" s="295" t="s">
         <v>153</v>
       </c>
-      <c r="C14" s="298"/>
-      <c r="D14" s="298"/>
+      <c r="C14" s="295"/>
+      <c r="D14" s="295"/>
       <c r="E14" s="94"/>
       <c r="F14" s="94"/>
       <c r="G14" s="95"/>
@@ -13622,11 +13721,11 @@
       <c r="G22" s="98"/>
     </row>
     <row r="23" spans="1:12" ht="21.75" customHeight="1">
-      <c r="B23" s="298" t="s">
+      <c r="B23" s="295" t="s">
         <v>163</v>
       </c>
-      <c r="C23" s="298"/>
-      <c r="D23" s="298"/>
+      <c r="C23" s="295"/>
+      <c r="D23" s="295"/>
       <c r="E23" s="94"/>
       <c r="F23" s="94"/>
       <c r="G23" s="95"/>
@@ -13672,10 +13771,10 @@
       <c r="F26" s="160" t="s">
         <v>170</v>
       </c>
-      <c r="G26" s="299" t="s">
+      <c r="G26" s="314" t="s">
         <v>114</v>
       </c>
-      <c r="H26" s="300"/>
+      <c r="H26" s="315"/>
     </row>
     <row r="27" spans="1:12">
       <c r="A27" s="100">
@@ -13700,8 +13799,8 @@
         <f>COUNTIFS(#REF!, "*Critical*",#REF!,"*Closed*") + COUNTIFS(#REF!, "*Critical*",#REF!,"*Ready for client test*")</f>
         <v>#REF!</v>
       </c>
-      <c r="G27" s="293"/>
-      <c r="H27" s="294"/>
+      <c r="G27" s="306"/>
+      <c r="H27" s="307"/>
     </row>
     <row r="28" spans="1:12" ht="20.25" customHeight="1">
       <c r="A28" s="100">
@@ -13726,8 +13825,8 @@
         <f>COUNTIFS(#REF!, "*Major*",#REF!,"*Closed*") + COUNTIFS(#REF!, "*Major*",#REF!,"*Ready for client test*")</f>
         <v>#REF!</v>
       </c>
-      <c r="G28" s="293"/>
-      <c r="H28" s="294"/>
+      <c r="G28" s="306"/>
+      <c r="H28" s="307"/>
     </row>
     <row r="29" spans="1:12" ht="20.25" customHeight="1">
       <c r="A29" s="100">
@@ -13752,8 +13851,8 @@
         <f>COUNTIFS(#REF!, "*Normal*",#REF!,"*Closed*") + COUNTIFS(#REF!, "*Normal*",#REF!,"*Ready for client test*")</f>
         <v>#REF!</v>
       </c>
-      <c r="G29" s="293"/>
-      <c r="H29" s="294"/>
+      <c r="G29" s="306"/>
+      <c r="H29" s="307"/>
     </row>
     <row r="30" spans="1:12" ht="20.25" customHeight="1">
       <c r="A30" s="100">
@@ -13778,8 +13877,8 @@
         <f>COUNTIFS(#REF!, "*Minor*",#REF!,"*Closed*") + COUNTIFS(#REF!, "*Minor*",#REF!,"*Ready for client test*")</f>
         <v>#REF!</v>
       </c>
-      <c r="G30" s="293"/>
-      <c r="H30" s="294"/>
+      <c r="G30" s="306"/>
+      <c r="H30" s="307"/>
     </row>
     <row r="31" spans="1:12" ht="20.25" customHeight="1">
       <c r="A31" s="100"/>
@@ -13800,8 +13899,8 @@
         <f>SUM(F27:F30)</f>
         <v>#REF!</v>
       </c>
-      <c r="G31" s="293"/>
-      <c r="H31" s="294"/>
+      <c r="G31" s="306"/>
+      <c r="H31" s="307"/>
     </row>
     <row r="32" spans="1:12" ht="20.25" customHeight="1">
       <c r="A32" s="106"/>
@@ -13839,7 +13938,7 @@
       <c r="E34" s="160" t="s">
         <v>129</v>
       </c>
-      <c r="F34" s="301" t="s">
+      <c r="F34" s="300" t="s">
         <v>132</v>
       </c>
       <c r="G34" s="302"/>
@@ -13858,8 +13957,8 @@
       <c r="E35" s="126" t="s">
         <v>137</v>
       </c>
-      <c r="F35" s="304"/>
-      <c r="G35" s="305"/>
+      <c r="F35" s="309"/>
+      <c r="G35" s="310"/>
       <c r="H35" s="124"/>
       <c r="I35" s="124"/>
       <c r="J35" s="124"/>
@@ -13882,8 +13981,8 @@
       <c r="E36" s="104" t="s">
         <v>143</v>
       </c>
-      <c r="F36" s="293"/>
-      <c r="G36" s="294"/>
+      <c r="F36" s="306"/>
+      <c r="G36" s="307"/>
     </row>
     <row r="37" spans="1:12" ht="20.25" customHeight="1">
       <c r="A37" s="100">
@@ -13901,8 +14000,8 @@
       <c r="E37" s="104" t="s">
         <v>143</v>
       </c>
-      <c r="F37" s="293"/>
-      <c r="G37" s="294"/>
+      <c r="F37" s="306"/>
+      <c r="G37" s="307"/>
     </row>
     <row r="38" spans="1:12" ht="20.25" customHeight="1">
       <c r="A38" s="106"/>
@@ -13915,10 +14014,10 @@
       <c r="H38" s="108"/>
     </row>
     <row r="39" spans="1:12" ht="21.75" customHeight="1">
-      <c r="B39" s="298" t="s">
+      <c r="B39" s="295" t="s">
         <v>184</v>
       </c>
-      <c r="C39" s="298"/>
+      <c r="C39" s="295"/>
       <c r="D39" s="94"/>
       <c r="E39" s="94"/>
       <c r="F39" s="94"/>
@@ -13942,15 +14041,15 @@
       <c r="B41" s="160" t="s">
         <v>62</v>
       </c>
-      <c r="C41" s="303" t="s">
+      <c r="C41" s="308" t="s">
         <v>186</v>
       </c>
-      <c r="D41" s="303"/>
-      <c r="E41" s="303" t="s">
+      <c r="D41" s="308"/>
+      <c r="E41" s="308" t="s">
         <v>187</v>
       </c>
-      <c r="F41" s="303"/>
-      <c r="G41" s="303"/>
+      <c r="F41" s="308"/>
+      <c r="G41" s="308"/>
       <c r="H41" s="99" t="s">
         <v>188</v>
       </c>
@@ -13962,15 +14061,15 @@
       <c r="B42" s="161" t="s">
         <v>189</v>
       </c>
-      <c r="C42" s="306" t="s">
+      <c r="C42" s="305" t="s">
         <v>190</v>
       </c>
-      <c r="D42" s="306"/>
-      <c r="E42" s="306" t="s">
+      <c r="D42" s="305"/>
+      <c r="E42" s="305" t="s">
         <v>191</v>
       </c>
-      <c r="F42" s="306"/>
-      <c r="G42" s="306"/>
+      <c r="F42" s="305"/>
+      <c r="G42" s="305"/>
       <c r="H42" s="109"/>
     </row>
     <row r="43" spans="1:12" ht="34.5" customHeight="1">
@@ -13980,15 +14079,15 @@
       <c r="B43" s="161" t="s">
         <v>189</v>
       </c>
-      <c r="C43" s="306" t="s">
+      <c r="C43" s="305" t="s">
         <v>190</v>
       </c>
-      <c r="D43" s="306"/>
-      <c r="E43" s="306" t="s">
+      <c r="D43" s="305"/>
+      <c r="E43" s="305" t="s">
         <v>191</v>
       </c>
-      <c r="F43" s="306"/>
-      <c r="G43" s="306"/>
+      <c r="F43" s="305"/>
+      <c r="G43" s="305"/>
       <c r="H43" s="109"/>
     </row>
     <row r="44" spans="1:12" ht="34.5" customHeight="1">
@@ -13998,15 +14097,15 @@
       <c r="B44" s="161" t="s">
         <v>189</v>
       </c>
-      <c r="C44" s="306" t="s">
+      <c r="C44" s="305" t="s">
         <v>190</v>
       </c>
-      <c r="D44" s="306"/>
-      <c r="E44" s="306" t="s">
+      <c r="D44" s="305"/>
+      <c r="E44" s="305" t="s">
         <v>191</v>
       </c>
-      <c r="F44" s="306"/>
-      <c r="G44" s="306"/>
+      <c r="F44" s="305"/>
+      <c r="G44" s="305"/>
       <c r="H44" s="109"/>
     </row>
     <row r="45" spans="1:12">
@@ -14018,10 +14117,10 @@
       <c r="G45" s="98"/>
     </row>
     <row r="46" spans="1:12" ht="21.75" customHeight="1">
-      <c r="B46" s="298" t="s">
+      <c r="B46" s="295" t="s">
         <v>192</v>
       </c>
-      <c r="C46" s="298"/>
+      <c r="C46" s="295"/>
       <c r="D46" s="94"/>
       <c r="E46" s="94"/>
       <c r="F46" s="94"/>
@@ -14039,25 +14138,25 @@
       <c r="G47" s="98"/>
     </row>
     <row r="48" spans="1:12" s="113" customFormat="1" ht="21" customHeight="1">
-      <c r="A48" s="309" t="s">
+      <c r="A48" s="296" t="s">
         <v>58</v>
       </c>
-      <c r="B48" s="311" t="s">
+      <c r="B48" s="298" t="s">
         <v>194</v>
       </c>
-      <c r="C48" s="301" t="s">
+      <c r="C48" s="300" t="s">
         <v>195</v>
       </c>
-      <c r="D48" s="313"/>
-      <c r="E48" s="313"/>
+      <c r="D48" s="301"/>
+      <c r="E48" s="301"/>
       <c r="F48" s="302"/>
-      <c r="G48" s="314" t="s">
+      <c r="G48" s="303" t="s">
         <v>162</v>
       </c>
-      <c r="H48" s="314" t="s">
+      <c r="H48" s="303" t="s">
         <v>194</v>
       </c>
-      <c r="I48" s="307" t="s">
+      <c r="I48" s="293" t="s">
         <v>196</v>
       </c>
       <c r="J48" s="112"/>
@@ -14065,8 +14164,8 @@
       <c r="L48" s="112"/>
     </row>
     <row r="49" spans="1:9">
-      <c r="A49" s="310"/>
-      <c r="B49" s="312"/>
+      <c r="A49" s="297"/>
+      <c r="B49" s="299"/>
       <c r="C49" s="114" t="s">
         <v>171</v>
       </c>
@@ -14079,13 +14178,13 @@
       <c r="F49" s="115" t="s">
         <v>174</v>
       </c>
-      <c r="G49" s="315"/>
-      <c r="H49" s="315"/>
-      <c r="I49" s="308"/>
+      <c r="G49" s="304"/>
+      <c r="H49" s="304"/>
+      <c r="I49" s="294"/>
     </row>
     <row r="50" spans="1:9" ht="25.2">
-      <c r="A50" s="310"/>
-      <c r="B50" s="312"/>
+      <c r="A50" s="297"/>
+      <c r="B50" s="299"/>
       <c r="C50" s="128" t="s">
         <v>197</v>
       </c>
@@ -14197,26 +14296,6 @@
     </row>
   </sheetData>
   <mergeCells count="32">
-    <mergeCell ref="I48:I49"/>
-    <mergeCell ref="B46:C46"/>
-    <mergeCell ref="A48:A50"/>
-    <mergeCell ref="B48:B50"/>
-    <mergeCell ref="C48:F48"/>
-    <mergeCell ref="G48:G49"/>
-    <mergeCell ref="H48:H49"/>
-    <mergeCell ref="C42:D42"/>
-    <mergeCell ref="E42:G42"/>
-    <mergeCell ref="C43:D43"/>
-    <mergeCell ref="E43:G43"/>
-    <mergeCell ref="C44:D44"/>
-    <mergeCell ref="E44:G44"/>
-    <mergeCell ref="F34:G34"/>
-    <mergeCell ref="F36:G36"/>
-    <mergeCell ref="F37:G37"/>
-    <mergeCell ref="B39:C39"/>
-    <mergeCell ref="C41:D41"/>
-    <mergeCell ref="E41:G41"/>
-    <mergeCell ref="F35:G35"/>
     <mergeCell ref="G31:H31"/>
     <mergeCell ref="C2:G2"/>
     <mergeCell ref="C3:D3"/>
@@ -14229,6 +14308,26 @@
     <mergeCell ref="G28:H28"/>
     <mergeCell ref="G29:H29"/>
     <mergeCell ref="G30:H30"/>
+    <mergeCell ref="F34:G34"/>
+    <mergeCell ref="F36:G36"/>
+    <mergeCell ref="F37:G37"/>
+    <mergeCell ref="B39:C39"/>
+    <mergeCell ref="C41:D41"/>
+    <mergeCell ref="E41:G41"/>
+    <mergeCell ref="F35:G35"/>
+    <mergeCell ref="C42:D42"/>
+    <mergeCell ref="E42:G42"/>
+    <mergeCell ref="C43:D43"/>
+    <mergeCell ref="E43:G43"/>
+    <mergeCell ref="C44:D44"/>
+    <mergeCell ref="E44:G44"/>
+    <mergeCell ref="I48:I49"/>
+    <mergeCell ref="B46:C46"/>
+    <mergeCell ref="A48:A50"/>
+    <mergeCell ref="B48:B50"/>
+    <mergeCell ref="C48:F48"/>
+    <mergeCell ref="G48:G49"/>
+    <mergeCell ref="H48:H49"/>
   </mergeCells>
   <conditionalFormatting sqref="H51">
     <cfRule type="cellIs" dxfId="5" priority="5" operator="equal">
@@ -14266,21 +14365,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101008DD9373D9A24F64F89F14F461305A106" ma:contentTypeVersion="4" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="edefd2bea9a69e65a3918d4b9d850884">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="cabca498-5e2a-459c-ade0-601c6a98c846" xmlns:ns3="044e8ed5-b60c-40cd-b477-04c240ccf9c3" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="1cdcf90a8e7cb27405451b504492cec2" ns2:_="" ns3:_="">
     <xsd:import namespace="cabca498-5e2a-459c-ade0-601c6a98c846"/>
@@ -14445,32 +14529,22 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4F8C6C6D-E626-49D4-9BA8-E27B2B9C9191}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{06E3E4FA-795A-4742-A021-9CDC3210C50B}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="044e8ed5-b60c-40cd-b477-04c240ccf9c3"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="cabca498-5e2a-459c-ade0-601c6a98c846"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A7729ACD-7A20-4344-BFA5-B224A8419F45}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -14487,4 +14561,29 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{06E3E4FA-795A-4742-A021-9CDC3210C50B}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="044e8ed5-b60c-40cd-b477-04c240ccf9c3"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="cabca498-5e2a-459c-ade0-601c6a98c846"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4F8C6C6D-E626-49D4-9BA8-E27B2B9C9191}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/test design technic daongochuy.xlsx
+++ b/test design technic daongochuy.xlsx
@@ -2,7 +2,7 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr/>
+  <workbookPr showInkAnnotation="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Precision 5510\Documents\GitHub\NashTechHW\"/>
@@ -970,7 +970,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="872" uniqueCount="632">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="872" uniqueCount="635">
   <si>
     <r>
       <t xml:space="preserve">Security Classification: </t>
@@ -3080,20 +3080,12 @@
 3,User clicks Search button </t>
   </si>
   <si>
-    <t>1, Go to the Website 
-2,Focus on the Search box 
-3, Click "Delete" in the Search Suggestion</t>
-  </si>
-  <si>
     <t xml:space="preserve">1, Go to the Website 
 2, Search several keywords
 3, Focus on the Search box </t>
   </si>
   <si>
     <t xml:space="preserve">Verify that Search history is clear </t>
-  </si>
-  <si>
-    <t>Verify that Search history show all previous searchs</t>
   </si>
   <si>
     <t xml:space="preserve">1, Go to the Website 
@@ -3184,12 +3176,6 @@
 3,Select an option in Search Suggestion</t>
   </si>
   <si>
-    <t>Verify that all product displayed in 1 page</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Verify that all product displayed in several page with the format of 10 products per page </t>
-  </si>
-  <si>
     <t xml:space="preserve">Verify that the "&lt;" button is disabled in the first page </t>
   </si>
   <si>
@@ -3239,6 +3225,41 @@
 2,Type in keyword "maisto" 
 3,User clicks Search button 
 4, Choose several criteria in Filter options</t>
+  </si>
+  <si>
+    <t>1, Go to the Website 
+2,Type in keyword "maisto" 
+3,User clicks Search button
+4, User click "&lt;" button</t>
+  </si>
+  <si>
+    <t>1, Go to the Website 
+2,Type in keyword "maisto" 
+3,User clicks Search button
+4, User click "&gt;" button</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1, Go to the Website 
+2,Type in keyword "maisto" 
+3,User clicks Search button
+4, User click "…" button see the next 5 pages </t>
+  </si>
+  <si>
+    <t>1, Go to the Website 
+2,Type in keyword "maisto" 
+3,User clicks Search button
+4, User click page number button</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Verify that there is no pagination </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Verify that pagination is available </t>
+  </si>
+  <si>
+    <t>1, Go to the Website 
+2, Search several keywords  
+3, Click "Delete" in the Search Suggestion</t>
   </si>
 </sst>
 </file>
@@ -5033,27 +5054,78 @@
     <xf numFmtId="0" fontId="64" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="15" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="16" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="11" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="64" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="5" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="6" xfId="5" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="15" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="16" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="11" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="25" borderId="15" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="25" borderId="16" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="25" borderId="11" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="24" borderId="15" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="24" borderId="16" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="24" borderId="11" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="15" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="16" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="11" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="52" fillId="24" borderId="15" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="24" borderId="16" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="24" borderId="11" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="24" borderId="15" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="25" borderId="15" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="25" borderId="16" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="25" borderId="11" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="26" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
@@ -5075,56 +5147,35 @@
     <xf numFmtId="0" fontId="3" fillId="28" borderId="17" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="37" borderId="15" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="37" borderId="16" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="37" borderId="11" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="36" borderId="15" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="36" borderId="16" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="36" borderId="11" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="5" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="15" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="16" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="11" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="64" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="1" fillId="0" borderId="6" xfId="5" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="15" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="16" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="11" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="15" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="16" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="11" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="41" borderId="15" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -5153,15 +5204,6 @@
     <xf numFmtId="0" fontId="1" fillId="33" borderId="11" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="37" fillId="36" borderId="15" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="36" borderId="16" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="36" borderId="11" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="40" borderId="15" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
@@ -5171,26 +5213,47 @@
     <xf numFmtId="0" fontId="1" fillId="40" borderId="11" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="37" borderId="15" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="37" borderId="16" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="37" borderId="11" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="48" fillId="0" borderId="15" xfId="7" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="48" fillId="0" borderId="11" xfId="7" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="43" fillId="12" borderId="0" xfId="7" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="166" fontId="44" fillId="0" borderId="0" xfId="7" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="166" fontId="44" fillId="0" borderId="0" xfId="7" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="166" fontId="30" fillId="3" borderId="0" xfId="7" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="3" fillId="2" borderId="8" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="3" fillId="2" borderId="0" xfId="7" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="3" fillId="2" borderId="15" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="3" fillId="2" borderId="11" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="3" fillId="2" borderId="6" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="61" fillId="0" borderId="15" xfId="7" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="61" fillId="0" borderId="11" xfId="7" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="46" fillId="0" borderId="6" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="12" xfId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -5198,9 +5261,6 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="10" xfId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="166" fontId="30" fillId="3" borderId="0" xfId="7" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="14" xfId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -5213,52 +5273,13 @@
     <xf numFmtId="166" fontId="3" fillId="2" borderId="20" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="166" fontId="3" fillId="2" borderId="15" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="166" fontId="3" fillId="2" borderId="16" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="166" fontId="3" fillId="2" borderId="11" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="18" xfId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="7" xfId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="166" fontId="46" fillId="0" borderId="6" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="48" fillId="0" borderId="15" xfId="7" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="48" fillId="0" borderId="11" xfId="7" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="166" fontId="3" fillId="2" borderId="6" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="61" fillId="0" borderId="15" xfId="7" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="61" fillId="0" borderId="11" xfId="7" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="166" fontId="43" fillId="12" borderId="0" xfId="7" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="166" fontId="44" fillId="0" borderId="0" xfId="7" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="166" fontId="44" fillId="0" borderId="0" xfId="7" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="166" fontId="3" fillId="2" borderId="8" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="166" fontId="3" fillId="2" borderId="0" xfId="7" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -7070,10 +7091,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:24" s="1" customFormat="1" ht="13.8">
-      <c r="A1" s="260"/>
-      <c r="B1" s="260"/>
-      <c r="C1" s="260"/>
-      <c r="D1" s="260"/>
+      <c r="A1" s="243"/>
+      <c r="B1" s="243"/>
+      <c r="C1" s="243"/>
+      <c r="D1" s="243"/>
       <c r="E1" s="34"/>
       <c r="F1" s="34"/>
       <c r="G1" s="34"/>
@@ -7082,13 +7103,13 @@
       <c r="J1" s="34"/>
     </row>
     <row r="2" spans="1:24" s="1" customFormat="1" ht="31.5" customHeight="1">
-      <c r="A2" s="261" t="s">
+      <c r="A2" s="244" t="s">
         <v>70</v>
       </c>
-      <c r="B2" s="261"/>
-      <c r="C2" s="261"/>
-      <c r="D2" s="261"/>
-      <c r="E2" s="267"/>
+      <c r="B2" s="244"/>
+      <c r="C2" s="244"/>
+      <c r="D2" s="244"/>
+      <c r="E2" s="252"/>
       <c r="F2" s="23"/>
       <c r="G2" s="23"/>
       <c r="H2" s="23"/>
@@ -7097,9 +7118,9 @@
     </row>
     <row r="3" spans="1:24" s="1" customFormat="1" ht="31.5" customHeight="1">
       <c r="A3" s="47"/>
-      <c r="C3" s="254"/>
-      <c r="D3" s="254"/>
-      <c r="E3" s="267"/>
+      <c r="C3" s="262"/>
+      <c r="D3" s="262"/>
+      <c r="E3" s="252"/>
       <c r="F3" s="23"/>
       <c r="G3" s="23"/>
       <c r="H3" s="23"/>
@@ -7110,11 +7131,11 @@
       <c r="A4" s="139" t="s">
         <v>66</v>
       </c>
-      <c r="B4" s="255" t="s">
+      <c r="B4" s="246" t="s">
         <v>93</v>
       </c>
-      <c r="C4" s="255"/>
-      <c r="D4" s="255"/>
+      <c r="C4" s="246"/>
+      <c r="D4" s="246"/>
       <c r="E4" s="39"/>
       <c r="F4" s="39"/>
       <c r="G4" s="39"/>
@@ -7128,11 +7149,11 @@
       <c r="A5" s="139" t="s">
         <v>62</v>
       </c>
-      <c r="B5" s="256" t="s">
+      <c r="B5" s="245" t="s">
         <v>95</v>
       </c>
-      <c r="C5" s="255"/>
-      <c r="D5" s="255"/>
+      <c r="C5" s="246"/>
+      <c r="D5" s="246"/>
       <c r="E5" s="39"/>
       <c r="F5" s="39"/>
       <c r="G5" s="39"/>
@@ -7146,11 +7167,11 @@
       <c r="A6" s="139" t="s">
         <v>97</v>
       </c>
-      <c r="B6" s="256" t="s">
+      <c r="B6" s="245" t="s">
         <v>98</v>
       </c>
-      <c r="C6" s="255"/>
-      <c r="D6" s="255"/>
+      <c r="C6" s="246"/>
+      <c r="D6" s="246"/>
       <c r="E6" s="39"/>
       <c r="F6" s="39"/>
       <c r="G6" s="39"/>
@@ -7161,11 +7182,11 @@
       <c r="A7" s="139" t="s">
         <v>99</v>
       </c>
-      <c r="B7" s="255" t="s">
+      <c r="B7" s="246" t="s">
         <v>100</v>
       </c>
-      <c r="C7" s="255"/>
-      <c r="D7" s="255"/>
+      <c r="C7" s="246"/>
+      <c r="D7" s="246"/>
       <c r="E7" s="39"/>
       <c r="F7" s="39"/>
       <c r="G7" s="39"/>
@@ -7177,11 +7198,11 @@
       <c r="A8" s="139" t="s">
         <v>101</v>
       </c>
-      <c r="B8" s="262">
+      <c r="B8" s="247">
         <v>40850</v>
       </c>
-      <c r="C8" s="262"/>
-      <c r="D8" s="262"/>
+      <c r="C8" s="247"/>
+      <c r="D8" s="247"/>
       <c r="E8" s="39"/>
     </row>
     <row r="9" spans="1:24" s="43" customFormat="1">
@@ -7324,11 +7345,11 @@
       <c r="C16" s="50"/>
       <c r="D16" s="51"/>
       <c r="E16" s="56"/>
-      <c r="F16" s="266" t="s">
+      <c r="F16" s="251" t="s">
         <v>102</v>
       </c>
-      <c r="G16" s="266"/>
-      <c r="H16" s="266"/>
+      <c r="G16" s="251"/>
+      <c r="H16" s="251"/>
       <c r="I16" s="57"/>
     </row>
     <row r="17" spans="1:9" s="44" customFormat="1" ht="36.9">
@@ -7364,16 +7385,16 @@
       <c r="A18" s="67" t="s">
         <v>204</v>
       </c>
-      <c r="B18" s="263" t="s">
+      <c r="B18" s="248" t="s">
         <v>206</v>
       </c>
-      <c r="C18" s="264"/>
-      <c r="D18" s="264"/>
-      <c r="E18" s="264"/>
-      <c r="F18" s="264"/>
-      <c r="G18" s="264"/>
-      <c r="H18" s="264"/>
-      <c r="I18" s="265"/>
+      <c r="C18" s="249"/>
+      <c r="D18" s="249"/>
+      <c r="E18" s="249"/>
+      <c r="F18" s="249"/>
+      <c r="G18" s="249"/>
+      <c r="H18" s="249"/>
+      <c r="I18" s="250"/>
     </row>
     <row r="19" spans="1:9" s="45" customFormat="1" ht="27.6" customHeight="1">
       <c r="A19" s="52">
@@ -7398,16 +7419,16 @@
     </row>
     <row r="20" spans="1:9" s="45" customFormat="1">
       <c r="A20" s="168"/>
-      <c r="B20" s="243" t="s">
+      <c r="B20" s="256" t="s">
         <v>219</v>
       </c>
-      <c r="C20" s="241"/>
-      <c r="D20" s="241"/>
-      <c r="E20" s="241"/>
-      <c r="F20" s="241"/>
-      <c r="G20" s="241"/>
-      <c r="H20" s="241"/>
-      <c r="I20" s="242"/>
+      <c r="C20" s="257"/>
+      <c r="D20" s="257"/>
+      <c r="E20" s="257"/>
+      <c r="F20" s="257"/>
+      <c r="G20" s="257"/>
+      <c r="H20" s="257"/>
+      <c r="I20" s="258"/>
     </row>
     <row r="21" spans="1:9" s="45" customFormat="1" ht="20.7" customHeight="1">
       <c r="A21" s="58">
@@ -7455,16 +7476,16 @@
     </row>
     <row r="23" spans="1:9" s="45" customFormat="1">
       <c r="A23" s="168"/>
-      <c r="B23" s="243" t="s">
+      <c r="B23" s="256" t="s">
         <v>220</v>
       </c>
-      <c r="C23" s="241"/>
-      <c r="D23" s="241"/>
-      <c r="E23" s="241"/>
-      <c r="F23" s="241"/>
-      <c r="G23" s="241"/>
-      <c r="H23" s="241"/>
-      <c r="I23" s="242"/>
+      <c r="C23" s="257"/>
+      <c r="D23" s="257"/>
+      <c r="E23" s="257"/>
+      <c r="F23" s="257"/>
+      <c r="G23" s="257"/>
+      <c r="H23" s="257"/>
+      <c r="I23" s="258"/>
     </row>
     <row r="24" spans="1:9" s="48" customFormat="1" ht="13.8">
       <c r="A24" s="58">
@@ -7534,16 +7555,16 @@
     </row>
     <row r="27" spans="1:9" s="48" customFormat="1" ht="13.8">
       <c r="A27" s="168"/>
-      <c r="B27" s="244" t="s">
+      <c r="B27" s="253" t="s">
         <v>225</v>
       </c>
-      <c r="C27" s="245"/>
-      <c r="D27" s="245"/>
-      <c r="E27" s="245"/>
-      <c r="F27" s="245"/>
-      <c r="G27" s="245"/>
-      <c r="H27" s="245"/>
-      <c r="I27" s="246"/>
+      <c r="C27" s="254"/>
+      <c r="D27" s="254"/>
+      <c r="E27" s="254"/>
+      <c r="F27" s="254"/>
+      <c r="G27" s="254"/>
+      <c r="H27" s="254"/>
+      <c r="I27" s="255"/>
     </row>
     <row r="28" spans="1:9" s="48" customFormat="1" ht="13.8">
       <c r="A28" s="58">
@@ -7613,16 +7634,16 @@
     </row>
     <row r="31" spans="1:9" s="48" customFormat="1" ht="13.8">
       <c r="A31" s="169"/>
-      <c r="B31" s="264" t="s">
+      <c r="B31" s="249" t="s">
         <v>205</v>
       </c>
-      <c r="C31" s="264"/>
-      <c r="D31" s="264"/>
-      <c r="E31" s="264"/>
-      <c r="F31" s="264"/>
-      <c r="G31" s="264"/>
-      <c r="H31" s="264"/>
-      <c r="I31" s="265"/>
+      <c r="C31" s="249"/>
+      <c r="D31" s="249"/>
+      <c r="E31" s="249"/>
+      <c r="F31" s="249"/>
+      <c r="G31" s="249"/>
+      <c r="H31" s="249"/>
+      <c r="I31" s="250"/>
     </row>
     <row r="32" spans="1:9" s="48" customFormat="1" ht="13.8">
       <c r="A32" s="58">
@@ -7648,16 +7669,16 @@
     </row>
     <row r="33" spans="1:9" s="48" customFormat="1" ht="13.8">
       <c r="A33" s="168"/>
-      <c r="B33" s="243" t="s">
+      <c r="B33" s="256" t="s">
         <v>219</v>
       </c>
-      <c r="C33" s="241"/>
-      <c r="D33" s="241"/>
-      <c r="E33" s="241"/>
-      <c r="F33" s="241"/>
-      <c r="G33" s="241"/>
-      <c r="H33" s="241"/>
-      <c r="I33" s="242"/>
+      <c r="C33" s="257"/>
+      <c r="D33" s="257"/>
+      <c r="E33" s="257"/>
+      <c r="F33" s="257"/>
+      <c r="G33" s="257"/>
+      <c r="H33" s="257"/>
+      <c r="I33" s="258"/>
     </row>
     <row r="34" spans="1:9" s="48" customFormat="1" ht="17.7" customHeight="1">
       <c r="A34" s="58">
@@ -7705,16 +7726,16 @@
     </row>
     <row r="36" spans="1:9" s="48" customFormat="1" ht="13.8">
       <c r="A36" s="168"/>
-      <c r="B36" s="243" t="s">
+      <c r="B36" s="256" t="s">
         <v>220</v>
       </c>
-      <c r="C36" s="241"/>
-      <c r="D36" s="241"/>
-      <c r="E36" s="241"/>
-      <c r="F36" s="241"/>
-      <c r="G36" s="241"/>
-      <c r="H36" s="241"/>
-      <c r="I36" s="242"/>
+      <c r="C36" s="257"/>
+      <c r="D36" s="257"/>
+      <c r="E36" s="257"/>
+      <c r="F36" s="257"/>
+      <c r="G36" s="257"/>
+      <c r="H36" s="257"/>
+      <c r="I36" s="258"/>
     </row>
     <row r="37" spans="1:9" s="48" customFormat="1" ht="13.8">
       <c r="A37" s="58">
@@ -7784,16 +7805,16 @@
     </row>
     <row r="40" spans="1:9" s="48" customFormat="1" ht="13.8">
       <c r="A40" s="168"/>
-      <c r="B40" s="244" t="s">
+      <c r="B40" s="253" t="s">
         <v>225</v>
       </c>
-      <c r="C40" s="245"/>
-      <c r="D40" s="245"/>
-      <c r="E40" s="245"/>
-      <c r="F40" s="245"/>
-      <c r="G40" s="245"/>
-      <c r="H40" s="245"/>
-      <c r="I40" s="246"/>
+      <c r="C40" s="254"/>
+      <c r="D40" s="254"/>
+      <c r="E40" s="254"/>
+      <c r="F40" s="254"/>
+      <c r="G40" s="254"/>
+      <c r="H40" s="254"/>
+      <c r="I40" s="255"/>
     </row>
     <row r="41" spans="1:9" s="49" customFormat="1" ht="13.8">
       <c r="A41" s="58">
@@ -7863,16 +7884,16 @@
     </row>
     <row r="44" spans="1:9" s="48" customFormat="1" ht="13.8">
       <c r="A44" s="168"/>
-      <c r="B44" s="247" t="s">
+      <c r="B44" s="264" t="s">
         <v>240</v>
       </c>
-      <c r="C44" s="248"/>
-      <c r="D44" s="248"/>
-      <c r="E44" s="248"/>
-      <c r="F44" s="248"/>
-      <c r="G44" s="248"/>
-      <c r="H44" s="248"/>
-      <c r="I44" s="249"/>
+      <c r="C44" s="265"/>
+      <c r="D44" s="265"/>
+      <c r="E44" s="265"/>
+      <c r="F44" s="265"/>
+      <c r="G44" s="265"/>
+      <c r="H44" s="265"/>
+      <c r="I44" s="266"/>
     </row>
     <row r="45" spans="1:9" s="48" customFormat="1" ht="13.8">
       <c r="A45" s="58">
@@ -7964,29 +7985,29 @@
     </row>
     <row r="49" spans="1:9" s="48" customFormat="1" ht="13.8">
       <c r="A49" s="167"/>
-      <c r="B49" s="250" t="s">
+      <c r="B49" s="267" t="s">
         <v>253</v>
       </c>
-      <c r="C49" s="251"/>
-      <c r="D49" s="251"/>
-      <c r="E49" s="251"/>
-      <c r="F49" s="251"/>
-      <c r="G49" s="251"/>
-      <c r="H49" s="251"/>
-      <c r="I49" s="251"/>
+      <c r="C49" s="268"/>
+      <c r="D49" s="268"/>
+      <c r="E49" s="268"/>
+      <c r="F49" s="268"/>
+      <c r="G49" s="268"/>
+      <c r="H49" s="268"/>
+      <c r="I49" s="268"/>
     </row>
     <row r="50" spans="1:9" s="48" customFormat="1" ht="13.8">
       <c r="A50" s="180"/>
-      <c r="B50" s="252" t="s">
+      <c r="B50" s="269" t="s">
         <v>254</v>
       </c>
-      <c r="C50" s="253"/>
-      <c r="D50" s="253"/>
-      <c r="E50" s="253"/>
-      <c r="F50" s="253"/>
-      <c r="G50" s="253"/>
-      <c r="H50" s="253"/>
-      <c r="I50" s="253"/>
+      <c r="C50" s="270"/>
+      <c r="D50" s="270"/>
+      <c r="E50" s="270"/>
+      <c r="F50" s="270"/>
+      <c r="G50" s="270"/>
+      <c r="H50" s="270"/>
+      <c r="I50" s="270"/>
     </row>
     <row r="51" spans="1:9" s="48" customFormat="1" ht="13.8">
       <c r="A51" s="58">
@@ -8108,16 +8129,16 @@
     </row>
     <row r="57" spans="1:9" s="48" customFormat="1" ht="13.8">
       <c r="A57" s="180"/>
-      <c r="B57" s="240" t="s">
+      <c r="B57" s="263" t="s">
         <v>260</v>
       </c>
-      <c r="C57" s="241"/>
-      <c r="D57" s="241"/>
-      <c r="E57" s="241"/>
-      <c r="F57" s="241"/>
-      <c r="G57" s="241"/>
-      <c r="H57" s="241"/>
-      <c r="I57" s="242"/>
+      <c r="C57" s="257"/>
+      <c r="D57" s="257"/>
+      <c r="E57" s="257"/>
+      <c r="F57" s="257"/>
+      <c r="G57" s="257"/>
+      <c r="H57" s="257"/>
+      <c r="I57" s="258"/>
     </row>
     <row r="58" spans="1:9" s="48" customFormat="1" ht="13.8">
       <c r="A58" s="58" t="e">
@@ -8241,16 +8262,16 @@
     </row>
     <row r="64" spans="1:9" s="48" customFormat="1" ht="13.8">
       <c r="A64" s="168"/>
-      <c r="B64" s="268" t="s">
+      <c r="B64" s="259" t="s">
         <v>262</v>
       </c>
-      <c r="C64" s="269"/>
-      <c r="D64" s="269"/>
-      <c r="E64" s="269"/>
-      <c r="F64" s="269"/>
-      <c r="G64" s="269"/>
-      <c r="H64" s="269"/>
-      <c r="I64" s="270"/>
+      <c r="C64" s="260"/>
+      <c r="D64" s="260"/>
+      <c r="E64" s="260"/>
+      <c r="F64" s="260"/>
+      <c r="G64" s="260"/>
+      <c r="H64" s="260"/>
+      <c r="I64" s="261"/>
     </row>
     <row r="65" spans="1:9" s="48" customFormat="1" ht="24.6">
       <c r="A65" s="58" t="e">
@@ -8367,9 +8388,9 @@
     </row>
     <row r="73" spans="1:9" s="48" customFormat="1" ht="13.8">
       <c r="A73" s="171"/>
-      <c r="B73" s="257"/>
-      <c r="C73" s="258"/>
-      <c r="D73" s="259"/>
+      <c r="B73" s="240"/>
+      <c r="C73" s="241"/>
+      <c r="D73" s="242"/>
       <c r="E73" s="172"/>
       <c r="F73" s="173"/>
       <c r="G73" s="173"/>
@@ -8411,9 +8432,9 @@
     </row>
     <row r="77" spans="1:9" s="48" customFormat="1" ht="13.8">
       <c r="A77" s="171"/>
-      <c r="B77" s="257"/>
-      <c r="C77" s="258"/>
-      <c r="D77" s="259"/>
+      <c r="B77" s="240"/>
+      <c r="C77" s="241"/>
+      <c r="D77" s="242"/>
       <c r="E77" s="172"/>
       <c r="F77" s="173"/>
       <c r="G77" s="173"/>
@@ -8455,9 +8476,9 @@
     </row>
     <row r="81" spans="1:9" s="48" customFormat="1" ht="14.25" customHeight="1">
       <c r="A81" s="171"/>
-      <c r="B81" s="257"/>
-      <c r="C81" s="258"/>
-      <c r="D81" s="259"/>
+      <c r="B81" s="240"/>
+      <c r="C81" s="241"/>
+      <c r="D81" s="242"/>
       <c r="E81" s="172"/>
       <c r="F81" s="173"/>
       <c r="G81" s="173"/>
@@ -8488,9 +8509,9 @@
     </row>
     <row r="84" spans="1:9" s="48" customFormat="1" ht="14.25" customHeight="1">
       <c r="A84" s="171"/>
-      <c r="B84" s="257"/>
-      <c r="C84" s="258"/>
-      <c r="D84" s="259"/>
+      <c r="B84" s="240"/>
+      <c r="C84" s="241"/>
+      <c r="D84" s="242"/>
       <c r="E84" s="172"/>
       <c r="F84" s="173"/>
       <c r="G84" s="173"/>
@@ -8641,6 +8662,17 @@
     </row>
   </sheetData>
   <mergeCells count="27">
+    <mergeCell ref="B57:I57"/>
+    <mergeCell ref="B36:I36"/>
+    <mergeCell ref="B40:I40"/>
+    <mergeCell ref="B44:I44"/>
+    <mergeCell ref="B49:I49"/>
+    <mergeCell ref="B50:I50"/>
+    <mergeCell ref="B20:I20"/>
+    <mergeCell ref="B23:I23"/>
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="B4:D4"/>
+    <mergeCell ref="B5:D5"/>
     <mergeCell ref="B77:D77"/>
     <mergeCell ref="B81:D81"/>
     <mergeCell ref="B84:D84"/>
@@ -8657,17 +8689,6 @@
     <mergeCell ref="B31:I31"/>
     <mergeCell ref="B33:I33"/>
     <mergeCell ref="B64:I64"/>
-    <mergeCell ref="B20:I20"/>
-    <mergeCell ref="B23:I23"/>
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="B4:D4"/>
-    <mergeCell ref="B5:D5"/>
-    <mergeCell ref="B57:I57"/>
-    <mergeCell ref="B36:I36"/>
-    <mergeCell ref="B40:I40"/>
-    <mergeCell ref="B44:I44"/>
-    <mergeCell ref="B49:I49"/>
-    <mergeCell ref="B50:I50"/>
   </mergeCells>
   <dataValidations count="3">
     <dataValidation showDropDown="1" showErrorMessage="1" sqref="F16:H17"/>
@@ -8706,10 +8727,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:24" s="1" customFormat="1" ht="13.8">
-      <c r="A1" s="260"/>
-      <c r="B1" s="260"/>
-      <c r="C1" s="260"/>
-      <c r="D1" s="260"/>
+      <c r="A1" s="243"/>
+      <c r="B1" s="243"/>
+      <c r="C1" s="243"/>
+      <c r="D1" s="243"/>
       <c r="E1" s="34"/>
       <c r="F1" s="34"/>
       <c r="G1" s="34"/>
@@ -8718,13 +8739,13 @@
       <c r="J1" s="34"/>
     </row>
     <row r="2" spans="1:24" s="1" customFormat="1" ht="31.5" customHeight="1">
-      <c r="A2" s="261" t="s">
+      <c r="A2" s="244" t="s">
         <v>70</v>
       </c>
-      <c r="B2" s="261"/>
-      <c r="C2" s="261"/>
-      <c r="D2" s="261"/>
-      <c r="E2" s="267"/>
+      <c r="B2" s="244"/>
+      <c r="C2" s="244"/>
+      <c r="D2" s="244"/>
+      <c r="E2" s="252"/>
       <c r="F2" s="23"/>
       <c r="G2" s="23"/>
       <c r="H2" s="23"/>
@@ -8733,9 +8754,9 @@
     </row>
     <row r="3" spans="1:24" s="1" customFormat="1" ht="31.5" customHeight="1">
       <c r="A3" s="47"/>
-      <c r="C3" s="286"/>
-      <c r="D3" s="286"/>
-      <c r="E3" s="267"/>
+      <c r="C3" s="277"/>
+      <c r="D3" s="277"/>
+      <c r="E3" s="252"/>
       <c r="F3" s="23"/>
       <c r="G3" s="23"/>
       <c r="H3" s="23"/>
@@ -8746,11 +8767,11 @@
       <c r="A4" s="139" t="s">
         <v>67</v>
       </c>
-      <c r="B4" s="255" t="s">
+      <c r="B4" s="246" t="s">
         <v>116</v>
       </c>
-      <c r="C4" s="255"/>
-      <c r="D4" s="255"/>
+      <c r="C4" s="246"/>
+      <c r="D4" s="246"/>
       <c r="E4" s="39"/>
       <c r="F4" s="39"/>
       <c r="G4" s="39"/>
@@ -8764,11 +8785,11 @@
       <c r="A5" s="139" t="s">
         <v>62</v>
       </c>
-      <c r="B5" s="256" t="s">
+      <c r="B5" s="245" t="s">
         <v>95</v>
       </c>
-      <c r="C5" s="255"/>
-      <c r="D5" s="255"/>
+      <c r="C5" s="246"/>
+      <c r="D5" s="246"/>
       <c r="E5" s="39"/>
       <c r="F5" s="39"/>
       <c r="G5" s="39"/>
@@ -8782,11 +8803,11 @@
       <c r="A6" s="139" t="s">
         <v>97</v>
       </c>
-      <c r="B6" s="256" t="s">
+      <c r="B6" s="245" t="s">
         <v>98</v>
       </c>
-      <c r="C6" s="255"/>
-      <c r="D6" s="255"/>
+      <c r="C6" s="246"/>
+      <c r="D6" s="246"/>
       <c r="E6" s="39"/>
       <c r="F6" s="39"/>
       <c r="G6" s="39"/>
@@ -8797,11 +8818,11 @@
       <c r="A7" s="139" t="s">
         <v>99</v>
       </c>
-      <c r="B7" s="255" t="s">
+      <c r="B7" s="246" t="s">
         <v>100</v>
       </c>
-      <c r="C7" s="255"/>
-      <c r="D7" s="255"/>
+      <c r="C7" s="246"/>
+      <c r="D7" s="246"/>
       <c r="E7" s="39"/>
       <c r="F7" s="39"/>
       <c r="G7" s="39"/>
@@ -8813,11 +8834,11 @@
       <c r="A8" s="139" t="s">
         <v>101</v>
       </c>
-      <c r="B8" s="262">
+      <c r="B8" s="247">
         <v>40850</v>
       </c>
-      <c r="C8" s="262"/>
-      <c r="D8" s="262"/>
+      <c r="C8" s="247"/>
+      <c r="D8" s="247"/>
       <c r="E8" s="39"/>
     </row>
     <row r="9" spans="1:24" s="43" customFormat="1">
@@ -8960,11 +8981,11 @@
       <c r="C16" s="50"/>
       <c r="D16" s="51"/>
       <c r="E16" s="65"/>
-      <c r="F16" s="287" t="s">
+      <c r="F16" s="278" t="s">
         <v>102</v>
       </c>
-      <c r="G16" s="288"/>
-      <c r="H16" s="289"/>
+      <c r="G16" s="279"/>
+      <c r="H16" s="280"/>
       <c r="I16" s="65"/>
     </row>
     <row r="17" spans="1:9" s="44" customFormat="1" ht="36.9">
@@ -8998,29 +9019,29 @@
     </row>
     <row r="18" spans="1:9" s="44" customFormat="1" ht="15.75" customHeight="1">
       <c r="A18" s="67"/>
-      <c r="B18" s="263" t="s">
+      <c r="B18" s="248" t="s">
         <v>313</v>
       </c>
-      <c r="C18" s="264"/>
-      <c r="D18" s="264"/>
-      <c r="E18" s="264"/>
-      <c r="F18" s="264"/>
-      <c r="G18" s="264"/>
-      <c r="H18" s="264"/>
-      <c r="I18" s="265"/>
+      <c r="C18" s="249"/>
+      <c r="D18" s="249"/>
+      <c r="E18" s="249"/>
+      <c r="F18" s="249"/>
+      <c r="G18" s="249"/>
+      <c r="H18" s="249"/>
+      <c r="I18" s="250"/>
     </row>
     <row r="19" spans="1:9" s="44" customFormat="1" ht="15.75" customHeight="1">
       <c r="A19" s="200"/>
-      <c r="B19" s="271" t="s">
+      <c r="B19" s="281" t="s">
         <v>397</v>
       </c>
-      <c r="C19" s="272"/>
-      <c r="D19" s="272"/>
-      <c r="E19" s="272"/>
-      <c r="F19" s="272"/>
-      <c r="G19" s="272"/>
-      <c r="H19" s="272"/>
-      <c r="I19" s="273"/>
+      <c r="C19" s="282"/>
+      <c r="D19" s="282"/>
+      <c r="E19" s="282"/>
+      <c r="F19" s="282"/>
+      <c r="G19" s="282"/>
+      <c r="H19" s="282"/>
+      <c r="I19" s="283"/>
     </row>
     <row r="20" spans="1:9" s="44" customFormat="1" ht="43.8" customHeight="1">
       <c r="A20" s="52">
@@ -9085,16 +9106,16 @@
     </row>
     <row r="23" spans="1:9" s="44" customFormat="1" ht="15.75" customHeight="1">
       <c r="A23" s="204"/>
-      <c r="B23" s="274" t="s">
+      <c r="B23" s="284" t="s">
         <v>314</v>
       </c>
-      <c r="C23" s="275"/>
-      <c r="D23" s="275"/>
-      <c r="E23" s="275"/>
-      <c r="F23" s="275"/>
-      <c r="G23" s="275"/>
-      <c r="H23" s="275"/>
-      <c r="I23" s="276"/>
+      <c r="C23" s="285"/>
+      <c r="D23" s="285"/>
+      <c r="E23" s="285"/>
+      <c r="F23" s="285"/>
+      <c r="G23" s="285"/>
+      <c r="H23" s="285"/>
+      <c r="I23" s="286"/>
     </row>
     <row r="24" spans="1:9" s="45" customFormat="1" ht="36.9">
       <c r="A24" s="52">
@@ -9338,16 +9359,16 @@
     </row>
     <row r="36" spans="1:9" s="48" customFormat="1" ht="13.8">
       <c r="A36" s="184"/>
-      <c r="B36" s="277" t="s">
+      <c r="B36" s="287" t="s">
         <v>315</v>
       </c>
-      <c r="C36" s="278"/>
-      <c r="D36" s="278"/>
-      <c r="E36" s="278"/>
-      <c r="F36" s="278"/>
-      <c r="G36" s="278"/>
-      <c r="H36" s="278"/>
-      <c r="I36" s="279"/>
+      <c r="C36" s="288"/>
+      <c r="D36" s="288"/>
+      <c r="E36" s="288"/>
+      <c r="F36" s="288"/>
+      <c r="G36" s="288"/>
+      <c r="H36" s="288"/>
+      <c r="I36" s="289"/>
     </row>
     <row r="37" spans="1:9" s="48" customFormat="1" ht="73.8">
       <c r="A37" s="58">
@@ -9611,16 +9632,16 @@
     </row>
     <row r="50" spans="1:9" s="48" customFormat="1" ht="13.8">
       <c r="A50" s="184"/>
-      <c r="B50" s="274" t="s">
+      <c r="B50" s="284" t="s">
         <v>316</v>
       </c>
-      <c r="C50" s="275"/>
-      <c r="D50" s="275"/>
-      <c r="E50" s="275"/>
-      <c r="F50" s="275"/>
-      <c r="G50" s="275"/>
-      <c r="H50" s="275"/>
-      <c r="I50" s="276"/>
+      <c r="C50" s="285"/>
+      <c r="D50" s="285"/>
+      <c r="E50" s="285"/>
+      <c r="F50" s="285"/>
+      <c r="G50" s="285"/>
+      <c r="H50" s="285"/>
+      <c r="I50" s="286"/>
     </row>
     <row r="51" spans="1:9" s="48" customFormat="1" ht="49.8" customHeight="1">
       <c r="A51" s="58">
@@ -9944,16 +9965,16 @@
     </row>
     <row r="67" spans="1:9" s="49" customFormat="1" ht="13.8">
       <c r="A67" s="189"/>
-      <c r="B67" s="280" t="s">
+      <c r="B67" s="274" t="s">
         <v>327</v>
       </c>
-      <c r="C67" s="281"/>
-      <c r="D67" s="281"/>
-      <c r="E67" s="281"/>
-      <c r="F67" s="281"/>
-      <c r="G67" s="281"/>
-      <c r="H67" s="281"/>
-      <c r="I67" s="282"/>
+      <c r="C67" s="275"/>
+      <c r="D67" s="275"/>
+      <c r="E67" s="275"/>
+      <c r="F67" s="275"/>
+      <c r="G67" s="275"/>
+      <c r="H67" s="275"/>
+      <c r="I67" s="276"/>
     </row>
     <row r="68" spans="1:9" s="48" customFormat="1" ht="24.6">
       <c r="A68" s="58">
@@ -9977,16 +9998,16 @@
     </row>
     <row r="69" spans="1:9" s="48" customFormat="1" ht="13.8">
       <c r="A69" s="199"/>
-      <c r="B69" s="283" t="s">
+      <c r="B69" s="290" t="s">
         <v>372</v>
       </c>
-      <c r="C69" s="284"/>
-      <c r="D69" s="284"/>
-      <c r="E69" s="284"/>
-      <c r="F69" s="284"/>
-      <c r="G69" s="284"/>
-      <c r="H69" s="284"/>
-      <c r="I69" s="285"/>
+      <c r="C69" s="291"/>
+      <c r="D69" s="291"/>
+      <c r="E69" s="291"/>
+      <c r="F69" s="291"/>
+      <c r="G69" s="291"/>
+      <c r="H69" s="291"/>
+      <c r="I69" s="292"/>
     </row>
     <row r="70" spans="1:9" s="48" customFormat="1" ht="49.2">
       <c r="A70" s="58">
@@ -10150,16 +10171,16 @@
     </row>
     <row r="78" spans="1:9" s="48" customFormat="1" ht="13.8">
       <c r="A78" s="189"/>
-      <c r="B78" s="280" t="s">
+      <c r="B78" s="274" t="s">
         <v>328</v>
       </c>
-      <c r="C78" s="281"/>
-      <c r="D78" s="281"/>
-      <c r="E78" s="281"/>
-      <c r="F78" s="281"/>
-      <c r="G78" s="281"/>
-      <c r="H78" s="281"/>
-      <c r="I78" s="282"/>
+      <c r="C78" s="275"/>
+      <c r="D78" s="275"/>
+      <c r="E78" s="275"/>
+      <c r="F78" s="275"/>
+      <c r="G78" s="275"/>
+      <c r="H78" s="275"/>
+      <c r="I78" s="276"/>
     </row>
     <row r="79" spans="1:9" s="48" customFormat="1" ht="36.9">
       <c r="A79" s="58">
@@ -10303,16 +10324,16 @@
     </row>
     <row r="86" spans="1:9" s="48" customFormat="1" ht="13.8">
       <c r="A86" s="189"/>
-      <c r="B86" s="280" t="s">
+      <c r="B86" s="274" t="s">
         <v>331</v>
       </c>
-      <c r="C86" s="281"/>
-      <c r="D86" s="281"/>
-      <c r="E86" s="281"/>
-      <c r="F86" s="281"/>
-      <c r="G86" s="281"/>
-      <c r="H86" s="281"/>
-      <c r="I86" s="282"/>
+      <c r="C86" s="275"/>
+      <c r="D86" s="275"/>
+      <c r="E86" s="275"/>
+      <c r="F86" s="275"/>
+      <c r="G86" s="275"/>
+      <c r="H86" s="275"/>
+      <c r="I86" s="276"/>
     </row>
     <row r="87" spans="1:9" s="48" customFormat="1" ht="14.4" customHeight="1">
       <c r="A87" s="58">
@@ -10576,16 +10597,16 @@
     </row>
     <row r="100" spans="1:9" s="48" customFormat="1" ht="13.8">
       <c r="A100" s="189"/>
-      <c r="B100" s="280" t="s">
+      <c r="B100" s="274" t="s">
         <v>339</v>
       </c>
-      <c r="C100" s="281"/>
-      <c r="D100" s="281"/>
-      <c r="E100" s="281"/>
-      <c r="F100" s="281"/>
-      <c r="G100" s="281"/>
-      <c r="H100" s="281"/>
-      <c r="I100" s="282"/>
+      <c r="C100" s="275"/>
+      <c r="D100" s="275"/>
+      <c r="E100" s="275"/>
+      <c r="F100" s="275"/>
+      <c r="G100" s="275"/>
+      <c r="H100" s="275"/>
+      <c r="I100" s="276"/>
     </row>
     <row r="101" spans="1:9" s="48" customFormat="1" ht="49.2">
       <c r="A101" s="58">
@@ -10649,16 +10670,16 @@
     </row>
     <row r="104" spans="1:9" s="48" customFormat="1" ht="13.8">
       <c r="A104" s="189"/>
-      <c r="B104" s="280" t="s">
+      <c r="B104" s="274" t="s">
         <v>350</v>
       </c>
-      <c r="C104" s="281"/>
-      <c r="D104" s="281"/>
-      <c r="E104" s="281"/>
-      <c r="F104" s="281"/>
-      <c r="G104" s="281"/>
-      <c r="H104" s="281"/>
-      <c r="I104" s="282"/>
+      <c r="C104" s="275"/>
+      <c r="D104" s="275"/>
+      <c r="E104" s="275"/>
+      <c r="F104" s="275"/>
+      <c r="G104" s="275"/>
+      <c r="H104" s="275"/>
+      <c r="I104" s="276"/>
     </row>
     <row r="105" spans="1:9" s="48" customFormat="1" ht="49.2">
       <c r="A105" s="58">
@@ -10682,16 +10703,16 @@
     </row>
     <row r="106" spans="1:9" s="48" customFormat="1" ht="13.8">
       <c r="A106" s="189"/>
-      <c r="B106" s="280" t="s">
+      <c r="B106" s="274" t="s">
         <v>351</v>
       </c>
-      <c r="C106" s="281"/>
-      <c r="D106" s="281"/>
-      <c r="E106" s="281"/>
-      <c r="F106" s="281"/>
-      <c r="G106" s="281"/>
-      <c r="H106" s="281"/>
-      <c r="I106" s="282"/>
+      <c r="C106" s="275"/>
+      <c r="D106" s="275"/>
+      <c r="E106" s="275"/>
+      <c r="F106" s="275"/>
+      <c r="G106" s="275"/>
+      <c r="H106" s="275"/>
+      <c r="I106" s="276"/>
     </row>
     <row r="107" spans="1:9" s="48" customFormat="1" ht="49.2">
       <c r="A107" s="58">
@@ -10715,29 +10736,29 @@
     </row>
     <row r="108" spans="1:9" s="48" customFormat="1" ht="13.8">
       <c r="A108" s="67"/>
-      <c r="B108" s="263" t="s">
+      <c r="B108" s="248" t="s">
         <v>341</v>
       </c>
-      <c r="C108" s="264"/>
-      <c r="D108" s="264"/>
-      <c r="E108" s="264"/>
-      <c r="F108" s="264"/>
-      <c r="G108" s="264"/>
-      <c r="H108" s="264"/>
-      <c r="I108" s="265"/>
+      <c r="C108" s="249"/>
+      <c r="D108" s="249"/>
+      <c r="E108" s="249"/>
+      <c r="F108" s="249"/>
+      <c r="G108" s="249"/>
+      <c r="H108" s="249"/>
+      <c r="I108" s="250"/>
     </row>
     <row r="109" spans="1:9" s="48" customFormat="1" ht="13.8">
       <c r="A109" s="189"/>
-      <c r="B109" s="280" t="s">
+      <c r="B109" s="274" t="s">
         <v>342</v>
       </c>
-      <c r="C109" s="281"/>
-      <c r="D109" s="281"/>
-      <c r="E109" s="281"/>
-      <c r="F109" s="281"/>
-      <c r="G109" s="281"/>
-      <c r="H109" s="281"/>
-      <c r="I109" s="282"/>
+      <c r="C109" s="275"/>
+      <c r="D109" s="275"/>
+      <c r="E109" s="275"/>
+      <c r="F109" s="275"/>
+      <c r="G109" s="275"/>
+      <c r="H109" s="275"/>
+      <c r="I109" s="276"/>
     </row>
     <row r="110" spans="1:9" s="48" customFormat="1" ht="36.9">
       <c r="A110" s="58">
@@ -10874,16 +10895,16 @@
     </row>
     <row r="117" spans="1:9" s="48" customFormat="1" ht="13.8">
       <c r="A117" s="67"/>
-      <c r="B117" s="263" t="s">
+      <c r="B117" s="248" t="s">
         <v>312</v>
       </c>
-      <c r="C117" s="264"/>
-      <c r="D117" s="264"/>
-      <c r="E117" s="264"/>
-      <c r="F117" s="264"/>
-      <c r="G117" s="264"/>
-      <c r="H117" s="264"/>
-      <c r="I117" s="265"/>
+      <c r="C117" s="249"/>
+      <c r="D117" s="249"/>
+      <c r="E117" s="249"/>
+      <c r="F117" s="249"/>
+      <c r="G117" s="249"/>
+      <c r="H117" s="249"/>
+      <c r="I117" s="250"/>
     </row>
     <row r="118" spans="1:9" s="48" customFormat="1" ht="13.8">
       <c r="A118" s="58">
@@ -10903,16 +10924,16 @@
     </row>
     <row r="119" spans="1:9" s="48" customFormat="1" ht="13.8">
       <c r="A119" s="67"/>
-      <c r="B119" s="263" t="s">
+      <c r="B119" s="248" t="s">
         <v>347</v>
       </c>
-      <c r="C119" s="264"/>
-      <c r="D119" s="264"/>
-      <c r="E119" s="264"/>
-      <c r="F119" s="264"/>
-      <c r="G119" s="264"/>
-      <c r="H119" s="264"/>
-      <c r="I119" s="265"/>
+      <c r="C119" s="249"/>
+      <c r="D119" s="249"/>
+      <c r="E119" s="249"/>
+      <c r="F119" s="249"/>
+      <c r="G119" s="249"/>
+      <c r="H119" s="249"/>
+      <c r="I119" s="250"/>
     </row>
     <row r="120" spans="1:9" s="48" customFormat="1" ht="13.8">
       <c r="A120" s="58">
@@ -10932,16 +10953,16 @@
     </row>
     <row r="121" spans="1:9" s="48" customFormat="1" ht="13.8">
       <c r="A121" s="67"/>
-      <c r="B121" s="263" t="s">
+      <c r="B121" s="248" t="s">
         <v>348</v>
       </c>
-      <c r="C121" s="264"/>
-      <c r="D121" s="264"/>
-      <c r="E121" s="264"/>
-      <c r="F121" s="264"/>
-      <c r="G121" s="264"/>
-      <c r="H121" s="264"/>
-      <c r="I121" s="265"/>
+      <c r="C121" s="249"/>
+      <c r="D121" s="249"/>
+      <c r="E121" s="249"/>
+      <c r="F121" s="249"/>
+      <c r="G121" s="249"/>
+      <c r="H121" s="249"/>
+      <c r="I121" s="250"/>
     </row>
     <row r="122" spans="1:9" s="48" customFormat="1" ht="13.8">
       <c r="A122" s="58">
@@ -11005,9 +11026,9 @@
     </row>
     <row r="127" spans="1:9" s="48" customFormat="1" ht="13.8">
       <c r="A127" s="185"/>
-      <c r="B127" s="290"/>
-      <c r="C127" s="291"/>
-      <c r="D127" s="292"/>
+      <c r="B127" s="271"/>
+      <c r="C127" s="272"/>
+      <c r="D127" s="273"/>
       <c r="E127" s="194"/>
       <c r="F127" s="195"/>
       <c r="G127" s="195"/>
@@ -11060,9 +11081,9 @@
     </row>
     <row r="132" spans="1:9" s="48" customFormat="1" ht="13.8">
       <c r="A132" s="185"/>
-      <c r="B132" s="290"/>
-      <c r="C132" s="291"/>
-      <c r="D132" s="292"/>
+      <c r="B132" s="271"/>
+      <c r="C132" s="272"/>
+      <c r="D132" s="273"/>
       <c r="E132" s="194"/>
       <c r="F132" s="195"/>
       <c r="G132" s="195"/>
@@ -11104,9 +11125,9 @@
     </row>
     <row r="136" spans="1:9" s="48" customFormat="1" ht="13.8">
       <c r="A136" s="185"/>
-      <c r="B136" s="290"/>
-      <c r="C136" s="291"/>
-      <c r="D136" s="292"/>
+      <c r="B136" s="271"/>
+      <c r="C136" s="272"/>
+      <c r="D136" s="273"/>
       <c r="E136" s="194"/>
       <c r="F136" s="195"/>
       <c r="G136" s="195"/>
@@ -11236,9 +11257,9 @@
     </row>
     <row r="148" spans="1:9" s="48" customFormat="1" ht="13.8">
       <c r="A148" s="196"/>
-      <c r="B148" s="290"/>
-      <c r="C148" s="291"/>
-      <c r="D148" s="292"/>
+      <c r="B148" s="271"/>
+      <c r="C148" s="272"/>
+      <c r="D148" s="273"/>
       <c r="E148" s="194"/>
       <c r="F148" s="195"/>
       <c r="G148" s="195"/>
@@ -11280,9 +11301,9 @@
     </row>
     <row r="152" spans="1:9" s="48" customFormat="1" ht="13.8">
       <c r="A152" s="196"/>
-      <c r="B152" s="290"/>
-      <c r="C152" s="291"/>
-      <c r="D152" s="292"/>
+      <c r="B152" s="271"/>
+      <c r="C152" s="272"/>
+      <c r="D152" s="273"/>
       <c r="E152" s="194"/>
       <c r="F152" s="195"/>
       <c r="G152" s="195"/>
@@ -11324,9 +11345,9 @@
     </row>
     <row r="156" spans="1:9" s="48" customFormat="1" ht="13.8">
       <c r="A156" s="196"/>
-      <c r="B156" s="290"/>
-      <c r="C156" s="291"/>
-      <c r="D156" s="292"/>
+      <c r="B156" s="271"/>
+      <c r="C156" s="272"/>
+      <c r="D156" s="273"/>
       <c r="E156" s="194"/>
       <c r="F156" s="195"/>
       <c r="G156" s="195"/>
@@ -11357,9 +11378,9 @@
     </row>
     <row r="159" spans="1:9" s="48" customFormat="1" ht="13.8">
       <c r="A159" s="196"/>
-      <c r="B159" s="290"/>
-      <c r="C159" s="291"/>
-      <c r="D159" s="292"/>
+      <c r="B159" s="271"/>
+      <c r="C159" s="272"/>
+      <c r="D159" s="273"/>
       <c r="E159" s="194"/>
       <c r="F159" s="195"/>
       <c r="G159" s="195"/>
@@ -11599,6 +11620,24 @@
     </row>
   </sheetData>
   <mergeCells count="34">
+    <mergeCell ref="B19:I19"/>
+    <mergeCell ref="B108:I108"/>
+    <mergeCell ref="B23:I23"/>
+    <mergeCell ref="B36:I36"/>
+    <mergeCell ref="B50:I50"/>
+    <mergeCell ref="B67:I67"/>
+    <mergeCell ref="B78:I78"/>
+    <mergeCell ref="B69:I69"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="A2:D2"/>
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="B4:D4"/>
+    <mergeCell ref="F16:H16"/>
+    <mergeCell ref="E2:E3"/>
+    <mergeCell ref="B5:D5"/>
+    <mergeCell ref="B6:D6"/>
+    <mergeCell ref="B7:D7"/>
+    <mergeCell ref="B8:D8"/>
     <mergeCell ref="B18:I18"/>
     <mergeCell ref="B152:D152"/>
     <mergeCell ref="B156:D156"/>
@@ -11615,24 +11654,6 @@
     <mergeCell ref="B117:I117"/>
     <mergeCell ref="B119:I119"/>
     <mergeCell ref="B121:I121"/>
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="A2:D2"/>
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="B4:D4"/>
-    <mergeCell ref="F16:H16"/>
-    <mergeCell ref="E2:E3"/>
-    <mergeCell ref="B5:D5"/>
-    <mergeCell ref="B6:D6"/>
-    <mergeCell ref="B7:D7"/>
-    <mergeCell ref="B8:D8"/>
-    <mergeCell ref="B19:I19"/>
-    <mergeCell ref="B108:I108"/>
-    <mergeCell ref="B23:I23"/>
-    <mergeCell ref="B36:I36"/>
-    <mergeCell ref="B50:I50"/>
-    <mergeCell ref="B67:I67"/>
-    <mergeCell ref="B78:I78"/>
-    <mergeCell ref="B69:I69"/>
   </mergeCells>
   <dataValidations count="3">
     <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="F165:H222">
@@ -11654,8 +11675,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X103"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A42" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="D36" sqref="D36"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A13" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="D31" sqref="D31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.15625" defaultRowHeight="12.3"/>
@@ -11670,10 +11691,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:24" s="1" customFormat="1" ht="13.8">
-      <c r="A1" s="260"/>
-      <c r="B1" s="260"/>
-      <c r="C1" s="260"/>
-      <c r="D1" s="260"/>
+      <c r="A1" s="243"/>
+      <c r="B1" s="243"/>
+      <c r="C1" s="243"/>
+      <c r="D1" s="243"/>
       <c r="E1" s="34"/>
       <c r="F1" s="34"/>
       <c r="G1" s="34"/>
@@ -11682,13 +11703,13 @@
       <c r="J1" s="34"/>
     </row>
     <row r="2" spans="1:24" s="1" customFormat="1" ht="31.5" customHeight="1">
-      <c r="A2" s="261" t="s">
+      <c r="A2" s="244" t="s">
         <v>70</v>
       </c>
-      <c r="B2" s="261"/>
-      <c r="C2" s="261"/>
-      <c r="D2" s="261"/>
-      <c r="E2" s="267"/>
+      <c r="B2" s="244"/>
+      <c r="C2" s="244"/>
+      <c r="D2" s="244"/>
+      <c r="E2" s="252"/>
       <c r="F2" s="23"/>
       <c r="G2" s="23"/>
       <c r="H2" s="23"/>
@@ -11697,9 +11718,9 @@
     </row>
     <row r="3" spans="1:24" s="1" customFormat="1" ht="31.5" customHeight="1">
       <c r="A3" s="47"/>
-      <c r="C3" s="286"/>
-      <c r="D3" s="286"/>
-      <c r="E3" s="267"/>
+      <c r="C3" s="277"/>
+      <c r="D3" s="277"/>
+      <c r="E3" s="252"/>
       <c r="F3" s="23"/>
       <c r="G3" s="23"/>
       <c r="H3" s="23"/>
@@ -11710,11 +11731,11 @@
       <c r="A4" s="139" t="s">
         <v>67</v>
       </c>
-      <c r="B4" s="255" t="s">
+      <c r="B4" s="246" t="s">
         <v>116</v>
       </c>
-      <c r="C4" s="255"/>
-      <c r="D4" s="255"/>
+      <c r="C4" s="246"/>
+      <c r="D4" s="246"/>
       <c r="E4" s="39"/>
       <c r="F4" s="39"/>
       <c r="G4" s="39"/>
@@ -11728,11 +11749,11 @@
       <c r="A5" s="139" t="s">
         <v>62</v>
       </c>
-      <c r="B5" s="256" t="s">
+      <c r="B5" s="245" t="s">
         <v>95</v>
       </c>
-      <c r="C5" s="255"/>
-      <c r="D5" s="255"/>
+      <c r="C5" s="246"/>
+      <c r="D5" s="246"/>
       <c r="E5" s="39"/>
       <c r="F5" s="39"/>
       <c r="G5" s="39"/>
@@ -11746,11 +11767,11 @@
       <c r="A6" s="139" t="s">
         <v>97</v>
       </c>
-      <c r="B6" s="256" t="s">
+      <c r="B6" s="245" t="s">
         <v>98</v>
       </c>
-      <c r="C6" s="255"/>
-      <c r="D6" s="255"/>
+      <c r="C6" s="246"/>
+      <c r="D6" s="246"/>
       <c r="E6" s="39"/>
       <c r="F6" s="39"/>
       <c r="G6" s="39"/>
@@ -11761,11 +11782,11 @@
       <c r="A7" s="139" t="s">
         <v>99</v>
       </c>
-      <c r="B7" s="255" t="s">
+      <c r="B7" s="246" t="s">
         <v>100</v>
       </c>
-      <c r="C7" s="255"/>
-      <c r="D7" s="255"/>
+      <c r="C7" s="246"/>
+      <c r="D7" s="246"/>
       <c r="E7" s="39"/>
       <c r="F7" s="39"/>
       <c r="G7" s="39"/>
@@ -11777,11 +11798,11 @@
       <c r="A8" s="139" t="s">
         <v>101</v>
       </c>
-      <c r="B8" s="262">
+      <c r="B8" s="247">
         <v>40850</v>
       </c>
-      <c r="C8" s="262"/>
-      <c r="D8" s="262"/>
+      <c r="C8" s="247"/>
+      <c r="D8" s="247"/>
       <c r="E8" s="39"/>
     </row>
     <row r="9" spans="1:24" s="43" customFormat="1">
@@ -11924,11 +11945,11 @@
       <c r="C16" s="50"/>
       <c r="D16" s="51"/>
       <c r="E16" s="65"/>
-      <c r="F16" s="287" t="s">
+      <c r="F16" s="278" t="s">
         <v>102</v>
       </c>
-      <c r="G16" s="288"/>
-      <c r="H16" s="289"/>
+      <c r="G16" s="279"/>
+      <c r="H16" s="280"/>
       <c r="I16" s="65"/>
     </row>
     <row r="17" spans="1:9" s="44" customFormat="1" ht="36.9">
@@ -12081,11 +12102,11 @@
     </row>
     <row r="24" spans="1:9" s="44" customFormat="1" ht="15.75" customHeight="1">
       <c r="A24" s="77"/>
-      <c r="B24" s="263" t="s">
+      <c r="B24" s="248" t="s">
         <v>518</v>
       </c>
-      <c r="C24" s="264"/>
-      <c r="D24" s="265"/>
+      <c r="C24" s="249"/>
+      <c r="D24" s="250"/>
       <c r="E24" s="67"/>
       <c r="F24" s="68"/>
       <c r="G24" s="68"/>
@@ -12178,13 +12199,13 @@
         <v>11</v>
       </c>
       <c r="B29" s="209" t="s">
-        <v>614</v>
+        <v>612</v>
       </c>
       <c r="C29" s="209" t="s">
-        <v>615</v>
+        <v>613</v>
       </c>
       <c r="D29" s="54" t="s">
-        <v>613</v>
+        <v>611</v>
       </c>
       <c r="E29" s="54"/>
       <c r="F29" s="209"/>
@@ -12194,11 +12215,11 @@
     </row>
     <row r="30" spans="1:9" s="48" customFormat="1" ht="13.8">
       <c r="A30" s="77"/>
-      <c r="B30" s="263" t="s">
+      <c r="B30" s="248" t="s">
         <v>527</v>
       </c>
-      <c r="C30" s="264"/>
-      <c r="D30" s="265"/>
+      <c r="C30" s="249"/>
+      <c r="D30" s="250"/>
       <c r="E30" s="69"/>
       <c r="F30" s="66"/>
       <c r="G30" s="66"/>
@@ -12217,7 +12238,7 @@
         <v>574</v>
       </c>
       <c r="D31" s="54" t="s">
-        <v>593</v>
+        <v>609</v>
       </c>
       <c r="E31" s="54"/>
       <c r="F31" s="52"/>
@@ -12234,10 +12255,10 @@
         <v>529</v>
       </c>
       <c r="C32" s="209" t="s">
-        <v>590</v>
+        <v>634</v>
       </c>
       <c r="D32" s="54" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="E32" s="54"/>
       <c r="F32" s="209"/>
@@ -12254,10 +12275,10 @@
         <v>530</v>
       </c>
       <c r="C33" s="209" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="D33" s="54" t="s">
-        <v>611</v>
+        <v>609</v>
       </c>
       <c r="E33" s="54"/>
       <c r="F33" s="209"/>
@@ -12271,13 +12292,13 @@
         <v>15</v>
       </c>
       <c r="B34" s="209" t="s">
-        <v>609</v>
+        <v>607</v>
       </c>
       <c r="C34" s="209" t="s">
+        <v>608</v>
+      </c>
+      <c r="D34" s="54" t="s">
         <v>610</v>
-      </c>
-      <c r="D34" s="54" t="s">
-        <v>612</v>
       </c>
       <c r="E34" s="54"/>
       <c r="F34" s="209"/>
@@ -12287,11 +12308,11 @@
     </row>
     <row r="35" spans="1:9" s="48" customFormat="1" ht="13.8">
       <c r="A35" s="77"/>
-      <c r="B35" s="263" t="s">
+      <c r="B35" s="248" t="s">
         <v>531</v>
       </c>
-      <c r="C35" s="264"/>
-      <c r="D35" s="265"/>
+      <c r="C35" s="249"/>
+      <c r="D35" s="250"/>
       <c r="E35" s="69"/>
       <c r="F35" s="66"/>
       <c r="G35" s="66"/>
@@ -12307,7 +12328,7 @@
         <v>532</v>
       </c>
       <c r="C36" s="209" t="s">
-        <v>631</v>
+        <v>627</v>
       </c>
       <c r="D36" s="59" t="s">
         <v>581</v>
@@ -12320,11 +12341,11 @@
     </row>
     <row r="37" spans="1:9" s="48" customFormat="1" ht="13.8">
       <c r="A37" s="77"/>
-      <c r="B37" s="263" t="s">
+      <c r="B37" s="248" t="s">
         <v>533</v>
       </c>
-      <c r="C37" s="264"/>
-      <c r="D37" s="265"/>
+      <c r="C37" s="249"/>
+      <c r="D37" s="250"/>
       <c r="E37" s="69"/>
       <c r="F37" s="66"/>
       <c r="G37" s="66"/>
@@ -12340,10 +12361,10 @@
         <v>534</v>
       </c>
       <c r="C38" s="209" t="s">
-        <v>603</v>
+        <v>601</v>
       </c>
       <c r="D38" s="207" t="s">
-        <v>599</v>
+        <v>597</v>
       </c>
       <c r="E38" s="54"/>
       <c r="F38" s="52"/>
@@ -12360,10 +12381,10 @@
         <v>535</v>
       </c>
       <c r="C39" s="209" t="s">
-        <v>594</v>
+        <v>592</v>
       </c>
       <c r="D39" s="207" t="s">
-        <v>600</v>
+        <v>598</v>
       </c>
       <c r="E39" s="54"/>
       <c r="F39" s="52"/>
@@ -12380,10 +12401,10 @@
         <v>536</v>
       </c>
       <c r="C40" s="209" t="s">
-        <v>595</v>
+        <v>593</v>
       </c>
       <c r="D40" s="207" t="s">
-        <v>601</v>
+        <v>599</v>
       </c>
       <c r="E40" s="54"/>
       <c r="F40" s="209"/>
@@ -12397,10 +12418,10 @@
         <v>537</v>
       </c>
       <c r="C41" s="209" t="s">
-        <v>596</v>
+        <v>594</v>
       </c>
       <c r="D41" s="207" t="s">
-        <v>602</v>
+        <v>600</v>
       </c>
       <c r="E41" s="54"/>
       <c r="F41" s="209"/>
@@ -12417,10 +12438,10 @@
         <v>569</v>
       </c>
       <c r="C42" s="209" t="s">
+        <v>595</v>
+      </c>
+      <c r="D42" s="207" t="s">
         <v>597</v>
-      </c>
-      <c r="D42" s="207" t="s">
-        <v>599</v>
       </c>
       <c r="E42" s="54"/>
       <c r="F42" s="209"/>
@@ -12434,13 +12455,13 @@
         <v>21</v>
       </c>
       <c r="B43" s="209" t="s">
-        <v>598</v>
+        <v>596</v>
       </c>
       <c r="C43" s="209" t="s">
-        <v>604</v>
+        <v>602</v>
       </c>
       <c r="D43" s="207" t="s">
-        <v>599</v>
+        <v>597</v>
       </c>
       <c r="E43" s="54"/>
       <c r="F43" s="52"/>
@@ -12450,11 +12471,11 @@
     </row>
     <row r="44" spans="1:9" s="48" customFormat="1" ht="13.8">
       <c r="A44" s="77"/>
-      <c r="B44" s="263" t="s">
+      <c r="B44" s="248" t="s">
         <v>538</v>
       </c>
-      <c r="C44" s="264"/>
-      <c r="D44" s="265"/>
+      <c r="C44" s="249"/>
+      <c r="D44" s="250"/>
       <c r="E44" s="69"/>
       <c r="F44" s="66"/>
       <c r="G44" s="66"/>
@@ -12469,11 +12490,11 @@
       <c r="B45" s="209" t="s">
         <v>567</v>
       </c>
-      <c r="C45" s="209" t="s">
-        <v>628</v>
+      <c r="C45" s="198" t="s">
+        <v>624</v>
       </c>
       <c r="D45" s="212" t="s">
-        <v>616</v>
+        <v>632</v>
       </c>
       <c r="E45" s="54"/>
       <c r="F45" s="209"/>
@@ -12489,11 +12510,11 @@
       <c r="B46" s="209" t="s">
         <v>539</v>
       </c>
-      <c r="C46" s="209" t="s">
-        <v>629</v>
+      <c r="C46" s="198" t="s">
+        <v>625</v>
       </c>
       <c r="D46" s="212" t="s">
-        <v>616</v>
+        <v>632</v>
       </c>
       <c r="E46" s="54"/>
       <c r="F46" s="209"/>
@@ -12509,11 +12530,11 @@
       <c r="B47" s="209" t="s">
         <v>540</v>
       </c>
-      <c r="C47" s="209" t="s">
-        <v>630</v>
+      <c r="C47" s="198" t="s">
+        <v>626</v>
       </c>
       <c r="D47" s="212" t="s">
-        <v>617</v>
+        <v>633</v>
       </c>
       <c r="E47" s="54"/>
       <c r="F47" s="209"/>
@@ -12521,7 +12542,7 @@
       <c r="H47" s="209"/>
       <c r="I47" s="62"/>
     </row>
-    <row r="48" spans="1:9" s="48" customFormat="1" ht="36.9">
+    <row r="48" spans="1:9" s="48" customFormat="1" ht="49.2">
       <c r="A48" s="62">
         <f t="shared" ca="1" si="2"/>
         <v>25</v>
@@ -12529,11 +12550,11 @@
       <c r="B48" s="209" t="s">
         <v>570</v>
       </c>
-      <c r="C48" s="209" t="s">
-        <v>603</v>
+      <c r="C48" s="198" t="s">
+        <v>628</v>
       </c>
       <c r="D48" s="212" t="s">
-        <v>618</v>
+        <v>614</v>
       </c>
       <c r="E48" s="54"/>
       <c r="F48" s="209"/>
@@ -12541,7 +12562,7 @@
       <c r="H48" s="209"/>
       <c r="I48" s="62"/>
     </row>
-    <row r="49" spans="1:9" s="48" customFormat="1" ht="36.9">
+    <row r="49" spans="1:9" s="48" customFormat="1" ht="49.2">
       <c r="A49" s="62">
         <f t="shared" ca="1" si="2"/>
         <v>26</v>
@@ -12549,11 +12570,11 @@
       <c r="B49" s="209" t="s">
         <v>571</v>
       </c>
-      <c r="C49" s="209" t="s">
-        <v>595</v>
+      <c r="C49" s="198" t="s">
+        <v>629</v>
       </c>
       <c r="D49" s="212" t="s">
-        <v>619</v>
+        <v>615</v>
       </c>
       <c r="E49" s="54"/>
       <c r="F49" s="209"/>
@@ -12561,7 +12582,7 @@
       <c r="H49" s="209"/>
       <c r="I49" s="62"/>
     </row>
-    <row r="50" spans="1:9" s="48" customFormat="1" ht="36.9">
+    <row r="50" spans="1:9" s="48" customFormat="1" ht="49.2">
       <c r="A50" s="62">
         <f t="shared" ca="1" si="2"/>
         <v>27</v>
@@ -12569,11 +12590,11 @@
       <c r="B50" s="209" t="s">
         <v>543</v>
       </c>
-      <c r="C50" s="209" t="s">
-        <v>595</v>
+      <c r="C50" s="198" t="s">
+        <v>629</v>
       </c>
       <c r="D50" s="212" t="s">
-        <v>620</v>
+        <v>616</v>
       </c>
       <c r="E50" s="54"/>
       <c r="F50" s="209"/>
@@ -12581,7 +12602,7 @@
       <c r="H50" s="209"/>
       <c r="I50" s="62"/>
     </row>
-    <row r="51" spans="1:9" s="48" customFormat="1" ht="36.9">
+    <row r="51" spans="1:9" s="48" customFormat="1" ht="49.2">
       <c r="A51" s="62">
         <f t="shared" ca="1" si="2"/>
         <v>28</v>
@@ -12589,11 +12610,11 @@
       <c r="B51" s="209" t="s">
         <v>544</v>
       </c>
-      <c r="C51" s="209" t="s">
-        <v>595</v>
+      <c r="C51" s="198" t="s">
+        <v>628</v>
       </c>
       <c r="D51" s="212" t="s">
-        <v>621</v>
+        <v>617</v>
       </c>
       <c r="E51" s="54"/>
       <c r="F51" s="209"/>
@@ -12601,7 +12622,7 @@
       <c r="H51" s="209"/>
       <c r="I51" s="62"/>
     </row>
-    <row r="52" spans="1:9" s="48" customFormat="1" ht="36.9">
+    <row r="52" spans="1:9" s="48" customFormat="1" ht="49.2">
       <c r="A52" s="62">
         <f t="shared" ca="1" si="2"/>
         <v>29</v>
@@ -12609,11 +12630,11 @@
       <c r="B52" s="209" t="s">
         <v>572</v>
       </c>
-      <c r="C52" s="209" t="s">
-        <v>595</v>
+      <c r="C52" s="198" t="s">
+        <v>630</v>
       </c>
       <c r="D52" s="212" t="s">
-        <v>622</v>
+        <v>618</v>
       </c>
       <c r="E52" s="54"/>
       <c r="F52" s="209"/>
@@ -12621,7 +12642,7 @@
       <c r="H52" s="209"/>
       <c r="I52" s="62"/>
     </row>
-    <row r="53" spans="1:9" s="48" customFormat="1" ht="36.9">
+    <row r="53" spans="1:9" s="48" customFormat="1" ht="49.2">
       <c r="A53" s="62">
         <f t="shared" ca="1" si="2"/>
         <v>30</v>
@@ -12629,11 +12650,11 @@
       <c r="B53" s="209" t="s">
         <v>573</v>
       </c>
-      <c r="C53" s="209" t="s">
-        <v>595</v>
+      <c r="C53" s="198" t="s">
+        <v>630</v>
       </c>
       <c r="D53" s="212" t="s">
-        <v>620</v>
+        <v>616</v>
       </c>
       <c r="E53" s="54"/>
       <c r="F53" s="209"/>
@@ -12647,13 +12668,13 @@
         <v>31</v>
       </c>
       <c r="B54" s="209" t="s">
-        <v>623</v>
-      </c>
-      <c r="C54" s="209" t="s">
-        <v>595</v>
+        <v>619</v>
+      </c>
+      <c r="C54" s="198" t="s">
+        <v>629</v>
       </c>
       <c r="D54" s="212" t="s">
-        <v>625</v>
+        <v>621</v>
       </c>
       <c r="E54" s="54"/>
       <c r="F54" s="209"/>
@@ -12667,13 +12688,13 @@
         <v>32</v>
       </c>
       <c r="B55" s="209" t="s">
-        <v>624</v>
-      </c>
-      <c r="C55" s="209" t="s">
-        <v>595</v>
+        <v>620</v>
+      </c>
+      <c r="C55" s="198" t="s">
+        <v>629</v>
       </c>
       <c r="D55" s="212" t="s">
-        <v>626</v>
+        <v>622</v>
       </c>
       <c r="E55" s="54"/>
       <c r="F55" s="209"/>
@@ -12681,7 +12702,7 @@
       <c r="H55" s="209"/>
       <c r="I55" s="62"/>
     </row>
-    <row r="56" spans="1:9" s="48" customFormat="1" ht="36.9">
+    <row r="56" spans="1:9" s="48" customFormat="1" ht="49.2">
       <c r="A56" s="62">
         <f t="shared" ca="1" si="2"/>
         <v>33</v>
@@ -12689,11 +12710,11 @@
       <c r="B56" s="209" t="s">
         <v>545</v>
       </c>
-      <c r="C56" s="209" t="s">
-        <v>595</v>
+      <c r="C56" s="198" t="s">
+        <v>631</v>
       </c>
       <c r="D56" s="212" t="s">
-        <v>627</v>
+        <v>623</v>
       </c>
       <c r="E56" s="54"/>
       <c r="F56" s="209"/>
@@ -12703,11 +12724,11 @@
     </row>
     <row r="57" spans="1:9" s="48" customFormat="1" ht="13.8">
       <c r="A57" s="77"/>
-      <c r="B57" s="263" t="s">
+      <c r="B57" s="248" t="s">
         <v>541</v>
       </c>
-      <c r="C57" s="264"/>
-      <c r="D57" s="265"/>
+      <c r="C57" s="249"/>
+      <c r="D57" s="250"/>
       <c r="E57" s="69"/>
       <c r="F57" s="66"/>
       <c r="G57" s="66"/>
@@ -12723,10 +12744,10 @@
         <v>546</v>
       </c>
       <c r="C58" s="209" t="s">
-        <v>606</v>
+        <v>604</v>
       </c>
       <c r="D58" s="54" t="s">
-        <v>607</v>
+        <v>605</v>
       </c>
       <c r="E58" s="54"/>
       <c r="F58" s="52"/>
@@ -12743,10 +12764,10 @@
         <v>547</v>
       </c>
       <c r="C59" s="209" t="s">
-        <v>605</v>
+        <v>603</v>
       </c>
       <c r="D59" s="54" t="s">
-        <v>608</v>
+        <v>606</v>
       </c>
       <c r="E59" s="54"/>
       <c r="F59" s="52"/>
@@ -12822,9 +12843,9 @@
     </row>
     <row r="66" spans="1:9" s="48" customFormat="1" ht="13.8">
       <c r="A66" s="77"/>
-      <c r="B66" s="263"/>
-      <c r="C66" s="264"/>
-      <c r="D66" s="265"/>
+      <c r="B66" s="248"/>
+      <c r="C66" s="249"/>
+      <c r="D66" s="250"/>
       <c r="E66" s="69"/>
       <c r="F66" s="66"/>
       <c r="G66" s="66"/>
@@ -12877,9 +12898,9 @@
     </row>
     <row r="71" spans="1:9" s="48" customFormat="1" ht="13.8">
       <c r="A71" s="77"/>
-      <c r="B71" s="263"/>
-      <c r="C71" s="264"/>
-      <c r="D71" s="265"/>
+      <c r="B71" s="248"/>
+      <c r="C71" s="249"/>
+      <c r="D71" s="250"/>
       <c r="E71" s="69"/>
       <c r="F71" s="66"/>
       <c r="G71" s="66"/>
@@ -12921,9 +12942,9 @@
     </row>
     <row r="75" spans="1:9" s="48" customFormat="1" ht="13.8">
       <c r="A75" s="77"/>
-      <c r="B75" s="263"/>
-      <c r="C75" s="264"/>
-      <c r="D75" s="265"/>
+      <c r="B75" s="248"/>
+      <c r="C75" s="249"/>
+      <c r="D75" s="250"/>
       <c r="E75" s="69"/>
       <c r="F75" s="66"/>
       <c r="G75" s="66"/>
@@ -13053,9 +13074,9 @@
     </row>
     <row r="87" spans="1:9" s="48" customFormat="1" ht="13.8">
       <c r="A87" s="77"/>
-      <c r="B87" s="263"/>
-      <c r="C87" s="264"/>
-      <c r="D87" s="265"/>
+      <c r="B87" s="248"/>
+      <c r="C87" s="249"/>
+      <c r="D87" s="250"/>
       <c r="E87" s="69"/>
       <c r="F87" s="66"/>
       <c r="G87" s="66"/>
@@ -13097,9 +13118,9 @@
     </row>
     <row r="91" spans="1:9" s="48" customFormat="1" ht="13.8">
       <c r="A91" s="77"/>
-      <c r="B91" s="263"/>
-      <c r="C91" s="264"/>
-      <c r="D91" s="265"/>
+      <c r="B91" s="248"/>
+      <c r="C91" s="249"/>
+      <c r="D91" s="250"/>
       <c r="E91" s="69"/>
       <c r="F91" s="66"/>
       <c r="G91" s="66"/>
@@ -13141,9 +13162,9 @@
     </row>
     <row r="95" spans="1:9" s="48" customFormat="1" ht="14.25" customHeight="1">
       <c r="A95" s="77"/>
-      <c r="B95" s="263"/>
-      <c r="C95" s="264"/>
-      <c r="D95" s="265"/>
+      <c r="B95" s="248"/>
+      <c r="C95" s="249"/>
+      <c r="D95" s="250"/>
       <c r="E95" s="69"/>
       <c r="F95" s="66"/>
       <c r="G95" s="66"/>
@@ -13174,9 +13195,9 @@
     </row>
     <row r="98" spans="1:9" s="48" customFormat="1" ht="14.25" customHeight="1">
       <c r="A98" s="77"/>
-      <c r="B98" s="263"/>
-      <c r="C98" s="264"/>
-      <c r="D98" s="265"/>
+      <c r="B98" s="248"/>
+      <c r="C98" s="249"/>
+      <c r="D98" s="250"/>
       <c r="E98" s="69"/>
       <c r="F98" s="66"/>
       <c r="G98" s="66"/>
@@ -13240,17 +13261,11 @@
     </row>
   </sheetData>
   <mergeCells count="23">
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="A2:D2"/>
-    <mergeCell ref="E2:E3"/>
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="B4:D4"/>
-    <mergeCell ref="F16:H16"/>
-    <mergeCell ref="B24:D24"/>
-    <mergeCell ref="B5:D5"/>
-    <mergeCell ref="B6:D6"/>
-    <mergeCell ref="B7:D7"/>
-    <mergeCell ref="B8:D8"/>
+    <mergeCell ref="B30:D30"/>
+    <mergeCell ref="B37:D37"/>
+    <mergeCell ref="B35:D35"/>
+    <mergeCell ref="B91:D91"/>
+    <mergeCell ref="B95:D95"/>
     <mergeCell ref="B98:D98"/>
     <mergeCell ref="B44:D44"/>
     <mergeCell ref="B57:D57"/>
@@ -13258,11 +13273,17 @@
     <mergeCell ref="B71:D71"/>
     <mergeCell ref="B75:D75"/>
     <mergeCell ref="B87:D87"/>
-    <mergeCell ref="B30:D30"/>
-    <mergeCell ref="B37:D37"/>
-    <mergeCell ref="B35:D35"/>
-    <mergeCell ref="B91:D91"/>
-    <mergeCell ref="B95:D95"/>
+    <mergeCell ref="F16:H16"/>
+    <mergeCell ref="B24:D24"/>
+    <mergeCell ref="B5:D5"/>
+    <mergeCell ref="B6:D6"/>
+    <mergeCell ref="B7:D7"/>
+    <mergeCell ref="B8:D8"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="A2:D2"/>
+    <mergeCell ref="E2:E3"/>
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="B4:D4"/>
   </mergeCells>
   <dataValidations count="4">
     <dataValidation type="list" allowBlank="1" sqref="F18:H23 F25:H103">
@@ -13319,13 +13340,13 @@
     </row>
     <row r="2" spans="1:12" s="84" customFormat="1" ht="25.2">
       <c r="A2" s="83"/>
-      <c r="C2" s="311" t="s">
+      <c r="C2" s="295" t="s">
         <v>119</v>
       </c>
-      <c r="D2" s="311"/>
-      <c r="E2" s="311"/>
-      <c r="F2" s="311"/>
-      <c r="G2" s="311"/>
+      <c r="D2" s="295"/>
+      <c r="E2" s="295"/>
+      <c r="F2" s="295"/>
+      <c r="G2" s="295"/>
       <c r="H2" s="85" t="s">
         <v>120</v>
       </c>
@@ -13336,15 +13357,15 @@
     </row>
     <row r="3" spans="1:12" s="84" customFormat="1" ht="22.5">
       <c r="A3" s="83"/>
-      <c r="C3" s="312" t="s">
+      <c r="C3" s="296" t="s">
         <v>121</v>
       </c>
-      <c r="D3" s="312"/>
+      <c r="D3" s="296"/>
       <c r="E3" s="157"/>
-      <c r="F3" s="313" t="s">
+      <c r="F3" s="297" t="s">
         <v>122</v>
       </c>
-      <c r="G3" s="313"/>
+      <c r="G3" s="297"/>
       <c r="H3" s="86"/>
       <c r="I3" s="86"/>
       <c r="J3" s="87"/>
@@ -13369,10 +13390,10 @@
       <c r="L5" s="92"/>
     </row>
     <row r="6" spans="1:12" ht="21.75" customHeight="1">
-      <c r="B6" s="295" t="s">
+      <c r="B6" s="298" t="s">
         <v>123</v>
       </c>
-      <c r="C6" s="295"/>
+      <c r="C6" s="298"/>
       <c r="D6" s="94"/>
       <c r="E6" s="94"/>
       <c r="F6" s="94"/>
@@ -13541,11 +13562,11 @@
       <c r="G13" s="98"/>
     </row>
     <row r="14" spans="1:12" ht="21.75" customHeight="1">
-      <c r="B14" s="295" t="s">
+      <c r="B14" s="298" t="s">
         <v>153</v>
       </c>
-      <c r="C14" s="295"/>
-      <c r="D14" s="295"/>
+      <c r="C14" s="298"/>
+      <c r="D14" s="298"/>
       <c r="E14" s="94"/>
       <c r="F14" s="94"/>
       <c r="G14" s="95"/>
@@ -13721,11 +13742,11 @@
       <c r="G22" s="98"/>
     </row>
     <row r="23" spans="1:12" ht="21.75" customHeight="1">
-      <c r="B23" s="295" t="s">
+      <c r="B23" s="298" t="s">
         <v>163</v>
       </c>
-      <c r="C23" s="295"/>
-      <c r="D23" s="295"/>
+      <c r="C23" s="298"/>
+      <c r="D23" s="298"/>
       <c r="E23" s="94"/>
       <c r="F23" s="94"/>
       <c r="G23" s="95"/>
@@ -13771,10 +13792,10 @@
       <c r="F26" s="160" t="s">
         <v>170</v>
       </c>
-      <c r="G26" s="314" t="s">
+      <c r="G26" s="299" t="s">
         <v>114</v>
       </c>
-      <c r="H26" s="315"/>
+      <c r="H26" s="300"/>
     </row>
     <row r="27" spans="1:12">
       <c r="A27" s="100">
@@ -13799,8 +13820,8 @@
         <f>COUNTIFS(#REF!, "*Critical*",#REF!,"*Closed*") + COUNTIFS(#REF!, "*Critical*",#REF!,"*Ready for client test*")</f>
         <v>#REF!</v>
       </c>
-      <c r="G27" s="306"/>
-      <c r="H27" s="307"/>
+      <c r="G27" s="293"/>
+      <c r="H27" s="294"/>
     </row>
     <row r="28" spans="1:12" ht="20.25" customHeight="1">
       <c r="A28" s="100">
@@ -13825,8 +13846,8 @@
         <f>COUNTIFS(#REF!, "*Major*",#REF!,"*Closed*") + COUNTIFS(#REF!, "*Major*",#REF!,"*Ready for client test*")</f>
         <v>#REF!</v>
       </c>
-      <c r="G28" s="306"/>
-      <c r="H28" s="307"/>
+      <c r="G28" s="293"/>
+      <c r="H28" s="294"/>
     </row>
     <row r="29" spans="1:12" ht="20.25" customHeight="1">
       <c r="A29" s="100">
@@ -13851,8 +13872,8 @@
         <f>COUNTIFS(#REF!, "*Normal*",#REF!,"*Closed*") + COUNTIFS(#REF!, "*Normal*",#REF!,"*Ready for client test*")</f>
         <v>#REF!</v>
       </c>
-      <c r="G29" s="306"/>
-      <c r="H29" s="307"/>
+      <c r="G29" s="293"/>
+      <c r="H29" s="294"/>
     </row>
     <row r="30" spans="1:12" ht="20.25" customHeight="1">
       <c r="A30" s="100">
@@ -13877,8 +13898,8 @@
         <f>COUNTIFS(#REF!, "*Minor*",#REF!,"*Closed*") + COUNTIFS(#REF!, "*Minor*",#REF!,"*Ready for client test*")</f>
         <v>#REF!</v>
       </c>
-      <c r="G30" s="306"/>
-      <c r="H30" s="307"/>
+      <c r="G30" s="293"/>
+      <c r="H30" s="294"/>
     </row>
     <row r="31" spans="1:12" ht="20.25" customHeight="1">
       <c r="A31" s="100"/>
@@ -13899,8 +13920,8 @@
         <f>SUM(F27:F30)</f>
         <v>#REF!</v>
       </c>
-      <c r="G31" s="306"/>
-      <c r="H31" s="307"/>
+      <c r="G31" s="293"/>
+      <c r="H31" s="294"/>
     </row>
     <row r="32" spans="1:12" ht="20.25" customHeight="1">
       <c r="A32" s="106"/>
@@ -13938,7 +13959,7 @@
       <c r="E34" s="160" t="s">
         <v>129</v>
       </c>
-      <c r="F34" s="300" t="s">
+      <c r="F34" s="301" t="s">
         <v>132</v>
       </c>
       <c r="G34" s="302"/>
@@ -13957,8 +13978,8 @@
       <c r="E35" s="126" t="s">
         <v>137</v>
       </c>
-      <c r="F35" s="309"/>
-      <c r="G35" s="310"/>
+      <c r="F35" s="304"/>
+      <c r="G35" s="305"/>
       <c r="H35" s="124"/>
       <c r="I35" s="124"/>
       <c r="J35" s="124"/>
@@ -13981,8 +14002,8 @@
       <c r="E36" s="104" t="s">
         <v>143</v>
       </c>
-      <c r="F36" s="306"/>
-      <c r="G36" s="307"/>
+      <c r="F36" s="293"/>
+      <c r="G36" s="294"/>
     </row>
     <row r="37" spans="1:12" ht="20.25" customHeight="1">
       <c r="A37" s="100">
@@ -14000,8 +14021,8 @@
       <c r="E37" s="104" t="s">
         <v>143</v>
       </c>
-      <c r="F37" s="306"/>
-      <c r="G37" s="307"/>
+      <c r="F37" s="293"/>
+      <c r="G37" s="294"/>
     </row>
     <row r="38" spans="1:12" ht="20.25" customHeight="1">
       <c r="A38" s="106"/>
@@ -14014,10 +14035,10 @@
       <c r="H38" s="108"/>
     </row>
     <row r="39" spans="1:12" ht="21.75" customHeight="1">
-      <c r="B39" s="295" t="s">
+      <c r="B39" s="298" t="s">
         <v>184</v>
       </c>
-      <c r="C39" s="295"/>
+      <c r="C39" s="298"/>
       <c r="D39" s="94"/>
       <c r="E39" s="94"/>
       <c r="F39" s="94"/>
@@ -14041,15 +14062,15 @@
       <c r="B41" s="160" t="s">
         <v>62</v>
       </c>
-      <c r="C41" s="308" t="s">
+      <c r="C41" s="303" t="s">
         <v>186</v>
       </c>
-      <c r="D41" s="308"/>
-      <c r="E41" s="308" t="s">
+      <c r="D41" s="303"/>
+      <c r="E41" s="303" t="s">
         <v>187</v>
       </c>
-      <c r="F41" s="308"/>
-      <c r="G41" s="308"/>
+      <c r="F41" s="303"/>
+      <c r="G41" s="303"/>
       <c r="H41" s="99" t="s">
         <v>188</v>
       </c>
@@ -14061,15 +14082,15 @@
       <c r="B42" s="161" t="s">
         <v>189</v>
       </c>
-      <c r="C42" s="305" t="s">
+      <c r="C42" s="306" t="s">
         <v>190</v>
       </c>
-      <c r="D42" s="305"/>
-      <c r="E42" s="305" t="s">
+      <c r="D42" s="306"/>
+      <c r="E42" s="306" t="s">
         <v>191</v>
       </c>
-      <c r="F42" s="305"/>
-      <c r="G42" s="305"/>
+      <c r="F42" s="306"/>
+      <c r="G42" s="306"/>
       <c r="H42" s="109"/>
     </row>
     <row r="43" spans="1:12" ht="34.5" customHeight="1">
@@ -14079,15 +14100,15 @@
       <c r="B43" s="161" t="s">
         <v>189</v>
       </c>
-      <c r="C43" s="305" t="s">
+      <c r="C43" s="306" t="s">
         <v>190</v>
       </c>
-      <c r="D43" s="305"/>
-      <c r="E43" s="305" t="s">
+      <c r="D43" s="306"/>
+      <c r="E43" s="306" t="s">
         <v>191</v>
       </c>
-      <c r="F43" s="305"/>
-      <c r="G43" s="305"/>
+      <c r="F43" s="306"/>
+      <c r="G43" s="306"/>
       <c r="H43" s="109"/>
     </row>
     <row r="44" spans="1:12" ht="34.5" customHeight="1">
@@ -14097,15 +14118,15 @@
       <c r="B44" s="161" t="s">
         <v>189</v>
       </c>
-      <c r="C44" s="305" t="s">
+      <c r="C44" s="306" t="s">
         <v>190</v>
       </c>
-      <c r="D44" s="305"/>
-      <c r="E44" s="305" t="s">
+      <c r="D44" s="306"/>
+      <c r="E44" s="306" t="s">
         <v>191</v>
       </c>
-      <c r="F44" s="305"/>
-      <c r="G44" s="305"/>
+      <c r="F44" s="306"/>
+      <c r="G44" s="306"/>
       <c r="H44" s="109"/>
     </row>
     <row r="45" spans="1:12">
@@ -14117,10 +14138,10 @@
       <c r="G45" s="98"/>
     </row>
     <row r="46" spans="1:12" ht="21.75" customHeight="1">
-      <c r="B46" s="295" t="s">
+      <c r="B46" s="298" t="s">
         <v>192</v>
       </c>
-      <c r="C46" s="295"/>
+      <c r="C46" s="298"/>
       <c r="D46" s="94"/>
       <c r="E46" s="94"/>
       <c r="F46" s="94"/>
@@ -14138,25 +14159,25 @@
       <c r="G47" s="98"/>
     </row>
     <row r="48" spans="1:12" s="113" customFormat="1" ht="21" customHeight="1">
-      <c r="A48" s="296" t="s">
+      <c r="A48" s="309" t="s">
         <v>58</v>
       </c>
-      <c r="B48" s="298" t="s">
+      <c r="B48" s="311" t="s">
         <v>194</v>
       </c>
-      <c r="C48" s="300" t="s">
+      <c r="C48" s="301" t="s">
         <v>195</v>
       </c>
-      <c r="D48" s="301"/>
-      <c r="E48" s="301"/>
+      <c r="D48" s="313"/>
+      <c r="E48" s="313"/>
       <c r="F48" s="302"/>
-      <c r="G48" s="303" t="s">
+      <c r="G48" s="314" t="s">
         <v>162</v>
       </c>
-      <c r="H48" s="303" t="s">
+      <c r="H48" s="314" t="s">
         <v>194</v>
       </c>
-      <c r="I48" s="293" t="s">
+      <c r="I48" s="307" t="s">
         <v>196</v>
       </c>
       <c r="J48" s="112"/>
@@ -14164,8 +14185,8 @@
       <c r="L48" s="112"/>
     </row>
     <row r="49" spans="1:9">
-      <c r="A49" s="297"/>
-      <c r="B49" s="299"/>
+      <c r="A49" s="310"/>
+      <c r="B49" s="312"/>
       <c r="C49" s="114" t="s">
         <v>171</v>
       </c>
@@ -14178,13 +14199,13 @@
       <c r="F49" s="115" t="s">
         <v>174</v>
       </c>
-      <c r="G49" s="304"/>
-      <c r="H49" s="304"/>
-      <c r="I49" s="294"/>
+      <c r="G49" s="315"/>
+      <c r="H49" s="315"/>
+      <c r="I49" s="308"/>
     </row>
     <row r="50" spans="1:9" ht="25.2">
-      <c r="A50" s="297"/>
-      <c r="B50" s="299"/>
+      <c r="A50" s="310"/>
+      <c r="B50" s="312"/>
       <c r="C50" s="128" t="s">
         <v>197</v>
       </c>
@@ -14296,6 +14317,26 @@
     </row>
   </sheetData>
   <mergeCells count="32">
+    <mergeCell ref="I48:I49"/>
+    <mergeCell ref="B46:C46"/>
+    <mergeCell ref="A48:A50"/>
+    <mergeCell ref="B48:B50"/>
+    <mergeCell ref="C48:F48"/>
+    <mergeCell ref="G48:G49"/>
+    <mergeCell ref="H48:H49"/>
+    <mergeCell ref="C42:D42"/>
+    <mergeCell ref="E42:G42"/>
+    <mergeCell ref="C43:D43"/>
+    <mergeCell ref="E43:G43"/>
+    <mergeCell ref="C44:D44"/>
+    <mergeCell ref="E44:G44"/>
+    <mergeCell ref="F34:G34"/>
+    <mergeCell ref="F36:G36"/>
+    <mergeCell ref="F37:G37"/>
+    <mergeCell ref="B39:C39"/>
+    <mergeCell ref="C41:D41"/>
+    <mergeCell ref="E41:G41"/>
+    <mergeCell ref="F35:G35"/>
     <mergeCell ref="G31:H31"/>
     <mergeCell ref="C2:G2"/>
     <mergeCell ref="C3:D3"/>
@@ -14308,26 +14349,6 @@
     <mergeCell ref="G28:H28"/>
     <mergeCell ref="G29:H29"/>
     <mergeCell ref="G30:H30"/>
-    <mergeCell ref="F34:G34"/>
-    <mergeCell ref="F36:G36"/>
-    <mergeCell ref="F37:G37"/>
-    <mergeCell ref="B39:C39"/>
-    <mergeCell ref="C41:D41"/>
-    <mergeCell ref="E41:G41"/>
-    <mergeCell ref="F35:G35"/>
-    <mergeCell ref="C42:D42"/>
-    <mergeCell ref="E42:G42"/>
-    <mergeCell ref="C43:D43"/>
-    <mergeCell ref="E43:G43"/>
-    <mergeCell ref="C44:D44"/>
-    <mergeCell ref="E44:G44"/>
-    <mergeCell ref="I48:I49"/>
-    <mergeCell ref="B46:C46"/>
-    <mergeCell ref="A48:A50"/>
-    <mergeCell ref="B48:B50"/>
-    <mergeCell ref="C48:F48"/>
-    <mergeCell ref="G48:G49"/>
-    <mergeCell ref="H48:H49"/>
   </mergeCells>
   <conditionalFormatting sqref="H51">
     <cfRule type="cellIs" dxfId="5" priority="5" operator="equal">
@@ -14365,6 +14386,21 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101008DD9373D9A24F64F89F14F461305A106" ma:contentTypeVersion="4" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="edefd2bea9a69e65a3918d4b9d850884">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="cabca498-5e2a-459c-ade0-601c6a98c846" xmlns:ns3="044e8ed5-b60c-40cd-b477-04c240ccf9c3" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="1cdcf90a8e7cb27405451b504492cec2" ns2:_="" ns3:_="">
     <xsd:import namespace="cabca498-5e2a-459c-ade0-601c6a98c846"/>
@@ -14529,36 +14565,10 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A7729ACD-7A20-4344-BFA5-B224A8419F45}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4F8C6C6D-E626-49D4-9BA8-E27B2B9C9191}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="cabca498-5e2a-459c-ade0-601c6a98c846"/>
-    <ds:schemaRef ds:uri="044e8ed5-b60c-40cd-b477-04c240ccf9c3"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -14581,9 +14591,20 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4F8C6C6D-E626-49D4-9BA8-E27B2B9C9191}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A7729ACD-7A20-4344-BFA5-B224A8419F45}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="cabca498-5e2a-459c-ade0-601c6a98c846"/>
+    <ds:schemaRef ds:uri="044e8ed5-b60c-40cd-b477-04c240ccf9c3"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/test design technic daongochuy.xlsx
+++ b/test design technic daongochuy.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="17268" windowHeight="8808" tabRatio="840" activeTab="6"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="17268" windowHeight="8808" tabRatio="758" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="Record of Change" sheetId="4" r:id="rId1"/>
@@ -19,10 +19,11 @@
     <sheet name="Assignment 1 " sheetId="8" r:id="rId5"/>
     <sheet name="Assignment 2 " sheetId="9" r:id="rId6"/>
     <sheet name="Assignment 3 " sheetId="15" r:id="rId7"/>
-    <sheet name="Test report" sheetId="10" r:id="rId8"/>
+    <sheet name="Sheet1" sheetId="16" r:id="rId8"/>
+    <sheet name="Test report" sheetId="10" r:id="rId9"/>
   </sheets>
   <externalReferences>
-    <externalReference r:id="rId9"/>
+    <externalReference r:id="rId10"/>
   </externalReferences>
   <definedNames>
     <definedName name="abc" localSheetId="6">#REF!</definedName>
@@ -969,8 +970,72 @@
 </comments>
 </file>
 
+<file path=xl/comments5.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author/>
+  </authors>
+  <commentList>
+    <comment ref="F14" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="8"/>
+            <color indexed="8"/>
+            <rFont val="Times New Roman"/>
+            <family val="1"/>
+          </rPr>
+          <t xml:space="preserve">Pass
+Fail
+Untested
+N/A
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="G14" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="8"/>
+            <color indexed="8"/>
+            <rFont val="Times New Roman"/>
+            <family val="1"/>
+          </rPr>
+          <t xml:space="preserve">Pass
+Fail
+Untested
+N/A
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="H14" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="8"/>
+            <color indexed="8"/>
+            <rFont val="Times New Roman"/>
+            <family val="1"/>
+          </rPr>
+          <t xml:space="preserve">Pass
+Fail
+Untested
+N/A
+</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="872" uniqueCount="635">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1032" uniqueCount="716">
   <si>
     <r>
       <t xml:space="preserve">Security Classification: </t>
@@ -3260,6 +3325,251 @@
     <t>1, Go to the Website 
 2, Search several keywords  
 3, Click "Delete" in the Search Suggestion</t>
+  </si>
+  <si>
+    <t>1, Fields test</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Full Name </t>
+  </si>
+  <si>
+    <t>Full Name has  less than 2 characters</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Full Name has 2 characters </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Full Name in the range of 2 to 50 characters </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Address  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Default status of Address box </t>
+  </si>
+  <si>
+    <t>Address has  less than 6 characters</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Address has 6 characters </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Address  has 50 characters </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Address has more than 50 characters </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Address in the range of 6 to 50 characters </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Address contains numberic </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Users  types Valid Address </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Address pasted to the box </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Address box has placholder </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Trim function in Address box </t>
+  </si>
+  <si>
+    <t>Error message 2: Please enter your Address</t>
+  </si>
+  <si>
+    <t>Verify that Address dispalyed without showing any error message</t>
+  </si>
+  <si>
+    <t>Verify thatAddress dispalyed without showing any error message</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Verify that Address can be pasted to the box </t>
+  </si>
+  <si>
+    <t>Error message 1: The Address length should be 5-350
+characters</t>
+  </si>
+  <si>
+    <t>Error message 1: The name length should be 2 - 50
+characters</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Province </t>
+  </si>
+  <si>
+    <t>Default status of Province field</t>
+  </si>
+  <si>
+    <t>Drop down button Province field</t>
+  </si>
+  <si>
+    <t>Scroll Bar to Select Province</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Users select a province  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Province box has placholder </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Province not selected </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Verify that the option displayed on the box </t>
+  </si>
+  <si>
+    <t>District</t>
+  </si>
+  <si>
+    <t>Default status of District field</t>
+  </si>
+  <si>
+    <t>Drop down button District field</t>
+  </si>
+  <si>
+    <t>Scroll Bar to Select District</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Users select a District  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">District box has placholder </t>
+  </si>
+  <si>
+    <t xml:space="preserve">District not selected </t>
+  </si>
+  <si>
+    <t>Error Message : Please choose your Province</t>
+  </si>
+  <si>
+    <t>Error Message : Please choose your Ward</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Error Message : Please choose your District </t>
+  </si>
+  <si>
+    <t>Default status of Ward field</t>
+  </si>
+  <si>
+    <t>Drop down button Ward field</t>
+  </si>
+  <si>
+    <t>Scroll Bar to Select Ward</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Users select a Ward  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ward box has placholder </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ward not selected </t>
+  </si>
+  <si>
+    <t xml:space="preserve">District Box when Province not selected </t>
+  </si>
+  <si>
+    <t>Ward Box when District not selected</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Full Name contains Special Character </t>
+  </si>
+  <si>
+    <t>Error Message : Name should not contain special characters</t>
+  </si>
+  <si>
+    <t>Error message 1: The name length should be 2 - 50 characters</t>
+  </si>
+  <si>
+    <t>Error message 1: The Address length should be 5-350 characters</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2, Function Test </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Verify that user can see all options by scroll up and down </t>
+  </si>
+  <si>
+    <t xml:space="preserve">District can't be selected when Province haven't selected </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ward can't be selected when District haven't selected </t>
+  </si>
+  <si>
+    <t xml:space="preserve">When a fields are filled correctly </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Verify that new address added successfully </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Verify that new address displayed on top of the Address Book  </t>
+  </si>
+  <si>
+    <t>When Address successfully added</t>
+  </si>
+  <si>
+    <t>When many Address successfully added</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Edit exist address </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Verify that the box is empty </t>
+  </si>
+  <si>
+    <t>Verify that number can be pasted to the box</t>
+  </si>
+  <si>
+    <t>Verify that the input is trimmed</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Verify that place holder "Please enter your Phone Number " appear when the box is empty </t>
+  </si>
+  <si>
+    <t>Verify that place holder "Please enter your Address " appear when the box is empty</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Verify that place holder "Please select your Province " appear when the box is empty  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Verify that place holder "Please select your District " appear when the box is empty  </t>
+  </si>
+  <si>
+    <t>Ward</t>
+  </si>
+  <si>
+    <t>Verify that place holder "Please select your Ward " appear when the box is empty</t>
+  </si>
+  <si>
+    <t>Verify that existed address can be edited</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Address edited successfully </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Verify that new address displayed on the Address Book  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Verify that the box is empty with place holder "Please select your Ward " when loading the page </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Verify that the box is empty with place holder  "Please select your District " when loading the page </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Verify that the box is empty with place holder  "Please select your Province "when loading the page </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Verify that the box is empty with place holder "Please enter your Address " when loading the page </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Verify that the box is empty with place holder "First Last" when loading the page </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Verify that the box is empty with place holder "Please enter your Phone Number " when loading the page </t>
   </si>
 </sst>
 </file>
@@ -4387,7 +4697,7 @@
     <xf numFmtId="166" fontId="56" fillId="0" borderId="0"/>
     <xf numFmtId="166" fontId="57" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="316">
+  <cellXfs count="321">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
@@ -5054,6 +5364,57 @@
     <xf numFmtId="0" fontId="64" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="52" fillId="24" borderId="15" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="24" borderId="16" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="24" borderId="11" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="24" borderId="15" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="25" borderId="15" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="25" borderId="16" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="25" borderId="11" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="26" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="26" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="26" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="12" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="13" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="10" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="17" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="5" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="27" borderId="15" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -5069,12 +5430,6 @@
     <xf numFmtId="0" fontId="64" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="5" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="165" fontId="1" fillId="0" borderId="6" xfId="5" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -5093,24 +5448,6 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="25" borderId="15" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="25" borderId="16" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="25" borderId="11" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="24" borderId="15" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="24" borderId="16" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="24" borderId="11" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="30" borderId="15" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -5120,32 +5457,62 @@
     <xf numFmtId="0" fontId="3" fillId="30" borderId="11" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="41" borderId="15" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="41" borderId="16" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="41" borderId="11" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="15" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="16" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="11" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="33" borderId="15" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="33" borderId="16" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="33" borderId="11" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="36" borderId="15" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="36" borderId="16" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="36" borderId="11" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="40" borderId="15" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="40" borderId="16" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="40" borderId="11" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="52" fillId="24" borderId="15" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="26" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="26" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="26" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="12" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="13" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="10" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="17" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="37" borderId="15" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -5156,62 +5523,44 @@
     <xf numFmtId="0" fontId="3" fillId="37" borderId="11" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="37" fillId="36" borderId="15" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="36" borderId="16" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="36" borderId="11" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="41" borderId="15" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="41" borderId="16" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="41" borderId="11" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="15" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="16" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="11" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="33" borderId="15" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="33" borderId="16" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="33" borderId="11" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="40" borderId="15" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="40" borderId="16" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="40" borderId="11" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="12" xfId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="10" xfId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="30" fillId="3" borderId="0" xfId="7" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="14" xfId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="19" xfId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="3" fillId="2" borderId="18" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="3" fillId="2" borderId="20" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="3" fillId="2" borderId="15" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="3" fillId="2" borderId="16" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="3" fillId="2" borderId="11" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="18" xfId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="7" xfId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="46" fillId="0" borderId="6" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="48" fillId="0" borderId="15" xfId="7" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -5219,6 +5568,15 @@
     <xf numFmtId="0" fontId="48" fillId="0" borderId="11" xfId="7" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="166" fontId="3" fillId="2" borderId="6" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="61" fillId="0" borderId="15" xfId="7" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="61" fillId="0" borderId="11" xfId="7" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="166" fontId="43" fillId="12" borderId="0" xfId="7" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
@@ -5228,59 +5586,26 @@
     <xf numFmtId="166" fontId="44" fillId="0" borderId="0" xfId="7" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
     </xf>
-    <xf numFmtId="166" fontId="30" fillId="3" borderId="0" xfId="7" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="166" fontId="3" fillId="2" borderId="8" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="166" fontId="3" fillId="2" borderId="0" xfId="7" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="166" fontId="3" fillId="2" borderId="15" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="166" fontId="3" fillId="2" borderId="11" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="166" fontId="3" fillId="2" borderId="6" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="61" fillId="0" borderId="15" xfId="7" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="16" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="61" fillId="0" borderId="11" xfId="7" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="166" fontId="46" fillId="0" borderId="6" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="12" xfId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="10" xfId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="14" xfId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="19" xfId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="166" fontId="3" fillId="2" borderId="18" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="166" fontId="3" fillId="2" borderId="20" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="166" fontId="3" fillId="2" borderId="16" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="18" xfId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="7" xfId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="10" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="10" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="10" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="27">
@@ -7074,7 +7399,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X97"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A49" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+    <sheetView showGridLines="0" topLeftCell="A46" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
       <selection activeCell="A53" sqref="A53"/>
     </sheetView>
   </sheetViews>
@@ -7091,10 +7416,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:24" s="1" customFormat="1" ht="13.8">
-      <c r="A1" s="243"/>
-      <c r="B1" s="243"/>
-      <c r="C1" s="243"/>
-      <c r="D1" s="243"/>
+      <c r="A1" s="260"/>
+      <c r="B1" s="260"/>
+      <c r="C1" s="260"/>
+      <c r="D1" s="260"/>
       <c r="E1" s="34"/>
       <c r="F1" s="34"/>
       <c r="G1" s="34"/>
@@ -7103,13 +7428,13 @@
       <c r="J1" s="34"/>
     </row>
     <row r="2" spans="1:24" s="1" customFormat="1" ht="31.5" customHeight="1">
-      <c r="A2" s="244" t="s">
+      <c r="A2" s="261" t="s">
         <v>70</v>
       </c>
-      <c r="B2" s="244"/>
-      <c r="C2" s="244"/>
-      <c r="D2" s="244"/>
-      <c r="E2" s="252"/>
+      <c r="B2" s="261"/>
+      <c r="C2" s="261"/>
+      <c r="D2" s="261"/>
+      <c r="E2" s="267"/>
       <c r="F2" s="23"/>
       <c r="G2" s="23"/>
       <c r="H2" s="23"/>
@@ -7118,9 +7443,9 @@
     </row>
     <row r="3" spans="1:24" s="1" customFormat="1" ht="31.5" customHeight="1">
       <c r="A3" s="47"/>
-      <c r="C3" s="262"/>
-      <c r="D3" s="262"/>
-      <c r="E3" s="252"/>
+      <c r="C3" s="254"/>
+      <c r="D3" s="254"/>
+      <c r="E3" s="267"/>
       <c r="F3" s="23"/>
       <c r="G3" s="23"/>
       <c r="H3" s="23"/>
@@ -7131,11 +7456,11 @@
       <c r="A4" s="139" t="s">
         <v>66</v>
       </c>
-      <c r="B4" s="246" t="s">
+      <c r="B4" s="255" t="s">
         <v>93</v>
       </c>
-      <c r="C4" s="246"/>
-      <c r="D4" s="246"/>
+      <c r="C4" s="255"/>
+      <c r="D4" s="255"/>
       <c r="E4" s="39"/>
       <c r="F4" s="39"/>
       <c r="G4" s="39"/>
@@ -7149,11 +7474,11 @@
       <c r="A5" s="139" t="s">
         <v>62</v>
       </c>
-      <c r="B5" s="245" t="s">
+      <c r="B5" s="256" t="s">
         <v>95</v>
       </c>
-      <c r="C5" s="246"/>
-      <c r="D5" s="246"/>
+      <c r="C5" s="255"/>
+      <c r="D5" s="255"/>
       <c r="E5" s="39"/>
       <c r="F5" s="39"/>
       <c r="G5" s="39"/>
@@ -7167,11 +7492,11 @@
       <c r="A6" s="139" t="s">
         <v>97</v>
       </c>
-      <c r="B6" s="245" t="s">
+      <c r="B6" s="256" t="s">
         <v>98</v>
       </c>
-      <c r="C6" s="246"/>
-      <c r="D6" s="246"/>
+      <c r="C6" s="255"/>
+      <c r="D6" s="255"/>
       <c r="E6" s="39"/>
       <c r="F6" s="39"/>
       <c r="G6" s="39"/>
@@ -7182,11 +7507,11 @@
       <c r="A7" s="139" t="s">
         <v>99</v>
       </c>
-      <c r="B7" s="246" t="s">
+      <c r="B7" s="255" t="s">
         <v>100</v>
       </c>
-      <c r="C7" s="246"/>
-      <c r="D7" s="246"/>
+      <c r="C7" s="255"/>
+      <c r="D7" s="255"/>
       <c r="E7" s="39"/>
       <c r="F7" s="39"/>
       <c r="G7" s="39"/>
@@ -7198,11 +7523,11 @@
       <c r="A8" s="139" t="s">
         <v>101</v>
       </c>
-      <c r="B8" s="247">
+      <c r="B8" s="262">
         <v>40850</v>
       </c>
-      <c r="C8" s="247"/>
-      <c r="D8" s="247"/>
+      <c r="C8" s="262"/>
+      <c r="D8" s="262"/>
       <c r="E8" s="39"/>
     </row>
     <row r="9" spans="1:24" s="43" customFormat="1">
@@ -7345,11 +7670,11 @@
       <c r="C16" s="50"/>
       <c r="D16" s="51"/>
       <c r="E16" s="56"/>
-      <c r="F16" s="251" t="s">
+      <c r="F16" s="266" t="s">
         <v>102</v>
       </c>
-      <c r="G16" s="251"/>
-      <c r="H16" s="251"/>
+      <c r="G16" s="266"/>
+      <c r="H16" s="266"/>
       <c r="I16" s="57"/>
     </row>
     <row r="17" spans="1:9" s="44" customFormat="1" ht="36.9">
@@ -7385,16 +7710,16 @@
       <c r="A18" s="67" t="s">
         <v>204</v>
       </c>
-      <c r="B18" s="248" t="s">
+      <c r="B18" s="263" t="s">
         <v>206</v>
       </c>
-      <c r="C18" s="249"/>
-      <c r="D18" s="249"/>
-      <c r="E18" s="249"/>
-      <c r="F18" s="249"/>
-      <c r="G18" s="249"/>
-      <c r="H18" s="249"/>
-      <c r="I18" s="250"/>
+      <c r="C18" s="264"/>
+      <c r="D18" s="264"/>
+      <c r="E18" s="264"/>
+      <c r="F18" s="264"/>
+      <c r="G18" s="264"/>
+      <c r="H18" s="264"/>
+      <c r="I18" s="265"/>
     </row>
     <row r="19" spans="1:9" s="45" customFormat="1" ht="27.6" customHeight="1">
       <c r="A19" s="52">
@@ -7419,16 +7744,16 @@
     </row>
     <row r="20" spans="1:9" s="45" customFormat="1">
       <c r="A20" s="168"/>
-      <c r="B20" s="256" t="s">
+      <c r="B20" s="243" t="s">
         <v>219</v>
       </c>
-      <c r="C20" s="257"/>
-      <c r="D20" s="257"/>
-      <c r="E20" s="257"/>
-      <c r="F20" s="257"/>
-      <c r="G20" s="257"/>
-      <c r="H20" s="257"/>
-      <c r="I20" s="258"/>
+      <c r="C20" s="241"/>
+      <c r="D20" s="241"/>
+      <c r="E20" s="241"/>
+      <c r="F20" s="241"/>
+      <c r="G20" s="241"/>
+      <c r="H20" s="241"/>
+      <c r="I20" s="242"/>
     </row>
     <row r="21" spans="1:9" s="45" customFormat="1" ht="20.7" customHeight="1">
       <c r="A21" s="58">
@@ -7476,16 +7801,16 @@
     </row>
     <row r="23" spans="1:9" s="45" customFormat="1">
       <c r="A23" s="168"/>
-      <c r="B23" s="256" t="s">
+      <c r="B23" s="243" t="s">
         <v>220</v>
       </c>
-      <c r="C23" s="257"/>
-      <c r="D23" s="257"/>
-      <c r="E23" s="257"/>
-      <c r="F23" s="257"/>
-      <c r="G23" s="257"/>
-      <c r="H23" s="257"/>
-      <c r="I23" s="258"/>
+      <c r="C23" s="241"/>
+      <c r="D23" s="241"/>
+      <c r="E23" s="241"/>
+      <c r="F23" s="241"/>
+      <c r="G23" s="241"/>
+      <c r="H23" s="241"/>
+      <c r="I23" s="242"/>
     </row>
     <row r="24" spans="1:9" s="48" customFormat="1" ht="13.8">
       <c r="A24" s="58">
@@ -7555,16 +7880,16 @@
     </row>
     <row r="27" spans="1:9" s="48" customFormat="1" ht="13.8">
       <c r="A27" s="168"/>
-      <c r="B27" s="253" t="s">
+      <c r="B27" s="244" t="s">
         <v>225</v>
       </c>
-      <c r="C27" s="254"/>
-      <c r="D27" s="254"/>
-      <c r="E27" s="254"/>
-      <c r="F27" s="254"/>
-      <c r="G27" s="254"/>
-      <c r="H27" s="254"/>
-      <c r="I27" s="255"/>
+      <c r="C27" s="245"/>
+      <c r="D27" s="245"/>
+      <c r="E27" s="245"/>
+      <c r="F27" s="245"/>
+      <c r="G27" s="245"/>
+      <c r="H27" s="245"/>
+      <c r="I27" s="246"/>
     </row>
     <row r="28" spans="1:9" s="48" customFormat="1" ht="13.8">
       <c r="A28" s="58">
@@ -7634,16 +7959,16 @@
     </row>
     <row r="31" spans="1:9" s="48" customFormat="1" ht="13.8">
       <c r="A31" s="169"/>
-      <c r="B31" s="249" t="s">
+      <c r="B31" s="264" t="s">
         <v>205</v>
       </c>
-      <c r="C31" s="249"/>
-      <c r="D31" s="249"/>
-      <c r="E31" s="249"/>
-      <c r="F31" s="249"/>
-      <c r="G31" s="249"/>
-      <c r="H31" s="249"/>
-      <c r="I31" s="250"/>
+      <c r="C31" s="264"/>
+      <c r="D31" s="264"/>
+      <c r="E31" s="264"/>
+      <c r="F31" s="264"/>
+      <c r="G31" s="264"/>
+      <c r="H31" s="264"/>
+      <c r="I31" s="265"/>
     </row>
     <row r="32" spans="1:9" s="48" customFormat="1" ht="13.8">
       <c r="A32" s="58">
@@ -7669,16 +7994,16 @@
     </row>
     <row r="33" spans="1:9" s="48" customFormat="1" ht="13.8">
       <c r="A33" s="168"/>
-      <c r="B33" s="256" t="s">
+      <c r="B33" s="243" t="s">
         <v>219</v>
       </c>
-      <c r="C33" s="257"/>
-      <c r="D33" s="257"/>
-      <c r="E33" s="257"/>
-      <c r="F33" s="257"/>
-      <c r="G33" s="257"/>
-      <c r="H33" s="257"/>
-      <c r="I33" s="258"/>
+      <c r="C33" s="241"/>
+      <c r="D33" s="241"/>
+      <c r="E33" s="241"/>
+      <c r="F33" s="241"/>
+      <c r="G33" s="241"/>
+      <c r="H33" s="241"/>
+      <c r="I33" s="242"/>
     </row>
     <row r="34" spans="1:9" s="48" customFormat="1" ht="17.7" customHeight="1">
       <c r="A34" s="58">
@@ -7726,16 +8051,16 @@
     </row>
     <row r="36" spans="1:9" s="48" customFormat="1" ht="13.8">
       <c r="A36" s="168"/>
-      <c r="B36" s="256" t="s">
+      <c r="B36" s="243" t="s">
         <v>220</v>
       </c>
-      <c r="C36" s="257"/>
-      <c r="D36" s="257"/>
-      <c r="E36" s="257"/>
-      <c r="F36" s="257"/>
-      <c r="G36" s="257"/>
-      <c r="H36" s="257"/>
-      <c r="I36" s="258"/>
+      <c r="C36" s="241"/>
+      <c r="D36" s="241"/>
+      <c r="E36" s="241"/>
+      <c r="F36" s="241"/>
+      <c r="G36" s="241"/>
+      <c r="H36" s="241"/>
+      <c r="I36" s="242"/>
     </row>
     <row r="37" spans="1:9" s="48" customFormat="1" ht="13.8">
       <c r="A37" s="58">
@@ -7805,16 +8130,16 @@
     </row>
     <row r="40" spans="1:9" s="48" customFormat="1" ht="13.8">
       <c r="A40" s="168"/>
-      <c r="B40" s="253" t="s">
+      <c r="B40" s="244" t="s">
         <v>225</v>
       </c>
-      <c r="C40" s="254"/>
-      <c r="D40" s="254"/>
-      <c r="E40" s="254"/>
-      <c r="F40" s="254"/>
-      <c r="G40" s="254"/>
-      <c r="H40" s="254"/>
-      <c r="I40" s="255"/>
+      <c r="C40" s="245"/>
+      <c r="D40" s="245"/>
+      <c r="E40" s="245"/>
+      <c r="F40" s="245"/>
+      <c r="G40" s="245"/>
+      <c r="H40" s="245"/>
+      <c r="I40" s="246"/>
     </row>
     <row r="41" spans="1:9" s="49" customFormat="1" ht="13.8">
       <c r="A41" s="58">
@@ -7884,16 +8209,16 @@
     </row>
     <row r="44" spans="1:9" s="48" customFormat="1" ht="13.8">
       <c r="A44" s="168"/>
-      <c r="B44" s="264" t="s">
+      <c r="B44" s="247" t="s">
         <v>240</v>
       </c>
-      <c r="C44" s="265"/>
-      <c r="D44" s="265"/>
-      <c r="E44" s="265"/>
-      <c r="F44" s="265"/>
-      <c r="G44" s="265"/>
-      <c r="H44" s="265"/>
-      <c r="I44" s="266"/>
+      <c r="C44" s="248"/>
+      <c r="D44" s="248"/>
+      <c r="E44" s="248"/>
+      <c r="F44" s="248"/>
+      <c r="G44" s="248"/>
+      <c r="H44" s="248"/>
+      <c r="I44" s="249"/>
     </row>
     <row r="45" spans="1:9" s="48" customFormat="1" ht="13.8">
       <c r="A45" s="58">
@@ -7985,29 +8310,29 @@
     </row>
     <row r="49" spans="1:9" s="48" customFormat="1" ht="13.8">
       <c r="A49" s="167"/>
-      <c r="B49" s="267" t="s">
+      <c r="B49" s="250" t="s">
         <v>253</v>
       </c>
-      <c r="C49" s="268"/>
-      <c r="D49" s="268"/>
-      <c r="E49" s="268"/>
-      <c r="F49" s="268"/>
-      <c r="G49" s="268"/>
-      <c r="H49" s="268"/>
-      <c r="I49" s="268"/>
+      <c r="C49" s="251"/>
+      <c r="D49" s="251"/>
+      <c r="E49" s="251"/>
+      <c r="F49" s="251"/>
+      <c r="G49" s="251"/>
+      <c r="H49" s="251"/>
+      <c r="I49" s="251"/>
     </row>
     <row r="50" spans="1:9" s="48" customFormat="1" ht="13.8">
       <c r="A50" s="180"/>
-      <c r="B50" s="269" t="s">
+      <c r="B50" s="252" t="s">
         <v>254</v>
       </c>
-      <c r="C50" s="270"/>
-      <c r="D50" s="270"/>
-      <c r="E50" s="270"/>
-      <c r="F50" s="270"/>
-      <c r="G50" s="270"/>
-      <c r="H50" s="270"/>
-      <c r="I50" s="270"/>
+      <c r="C50" s="253"/>
+      <c r="D50" s="253"/>
+      <c r="E50" s="253"/>
+      <c r="F50" s="253"/>
+      <c r="G50" s="253"/>
+      <c r="H50" s="253"/>
+      <c r="I50" s="253"/>
     </row>
     <row r="51" spans="1:9" s="48" customFormat="1" ht="13.8">
       <c r="A51" s="58">
@@ -8129,16 +8454,16 @@
     </row>
     <row r="57" spans="1:9" s="48" customFormat="1" ht="13.8">
       <c r="A57" s="180"/>
-      <c r="B57" s="263" t="s">
+      <c r="B57" s="240" t="s">
         <v>260</v>
       </c>
-      <c r="C57" s="257"/>
-      <c r="D57" s="257"/>
-      <c r="E57" s="257"/>
-      <c r="F57" s="257"/>
-      <c r="G57" s="257"/>
-      <c r="H57" s="257"/>
-      <c r="I57" s="258"/>
+      <c r="C57" s="241"/>
+      <c r="D57" s="241"/>
+      <c r="E57" s="241"/>
+      <c r="F57" s="241"/>
+      <c r="G57" s="241"/>
+      <c r="H57" s="241"/>
+      <c r="I57" s="242"/>
     </row>
     <row r="58" spans="1:9" s="48" customFormat="1" ht="13.8">
       <c r="A58" s="58" t="e">
@@ -8262,16 +8587,16 @@
     </row>
     <row r="64" spans="1:9" s="48" customFormat="1" ht="13.8">
       <c r="A64" s="168"/>
-      <c r="B64" s="259" t="s">
+      <c r="B64" s="268" t="s">
         <v>262</v>
       </c>
-      <c r="C64" s="260"/>
-      <c r="D64" s="260"/>
-      <c r="E64" s="260"/>
-      <c r="F64" s="260"/>
-      <c r="G64" s="260"/>
-      <c r="H64" s="260"/>
-      <c r="I64" s="261"/>
+      <c r="C64" s="269"/>
+      <c r="D64" s="269"/>
+      <c r="E64" s="269"/>
+      <c r="F64" s="269"/>
+      <c r="G64" s="269"/>
+      <c r="H64" s="269"/>
+      <c r="I64" s="270"/>
     </row>
     <row r="65" spans="1:9" s="48" customFormat="1" ht="24.6">
       <c r="A65" s="58" t="e">
@@ -8388,9 +8713,9 @@
     </row>
     <row r="73" spans="1:9" s="48" customFormat="1" ht="13.8">
       <c r="A73" s="171"/>
-      <c r="B73" s="240"/>
-      <c r="C73" s="241"/>
-      <c r="D73" s="242"/>
+      <c r="B73" s="257"/>
+      <c r="C73" s="258"/>
+      <c r="D73" s="259"/>
       <c r="E73" s="172"/>
       <c r="F73" s="173"/>
       <c r="G73" s="173"/>
@@ -8432,9 +8757,9 @@
     </row>
     <row r="77" spans="1:9" s="48" customFormat="1" ht="13.8">
       <c r="A77" s="171"/>
-      <c r="B77" s="240"/>
-      <c r="C77" s="241"/>
-      <c r="D77" s="242"/>
+      <c r="B77" s="257"/>
+      <c r="C77" s="258"/>
+      <c r="D77" s="259"/>
       <c r="E77" s="172"/>
       <c r="F77" s="173"/>
       <c r="G77" s="173"/>
@@ -8476,9 +8801,9 @@
     </row>
     <row r="81" spans="1:9" s="48" customFormat="1" ht="14.25" customHeight="1">
       <c r="A81" s="171"/>
-      <c r="B81" s="240"/>
-      <c r="C81" s="241"/>
-      <c r="D81" s="242"/>
+      <c r="B81" s="257"/>
+      <c r="C81" s="258"/>
+      <c r="D81" s="259"/>
       <c r="E81" s="172"/>
       <c r="F81" s="173"/>
       <c r="G81" s="173"/>
@@ -8509,9 +8834,9 @@
     </row>
     <row r="84" spans="1:9" s="48" customFormat="1" ht="14.25" customHeight="1">
       <c r="A84" s="171"/>
-      <c r="B84" s="240"/>
-      <c r="C84" s="241"/>
-      <c r="D84" s="242"/>
+      <c r="B84" s="257"/>
+      <c r="C84" s="258"/>
+      <c r="D84" s="259"/>
       <c r="E84" s="172"/>
       <c r="F84" s="173"/>
       <c r="G84" s="173"/>
@@ -8662,17 +8987,6 @@
     </row>
   </sheetData>
   <mergeCells count="27">
-    <mergeCell ref="B57:I57"/>
-    <mergeCell ref="B36:I36"/>
-    <mergeCell ref="B40:I40"/>
-    <mergeCell ref="B44:I44"/>
-    <mergeCell ref="B49:I49"/>
-    <mergeCell ref="B50:I50"/>
-    <mergeCell ref="B20:I20"/>
-    <mergeCell ref="B23:I23"/>
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="B4:D4"/>
-    <mergeCell ref="B5:D5"/>
     <mergeCell ref="B77:D77"/>
     <mergeCell ref="B81:D81"/>
     <mergeCell ref="B84:D84"/>
@@ -8689,6 +9003,17 @@
     <mergeCell ref="B31:I31"/>
     <mergeCell ref="B33:I33"/>
     <mergeCell ref="B64:I64"/>
+    <mergeCell ref="B20:I20"/>
+    <mergeCell ref="B23:I23"/>
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="B4:D4"/>
+    <mergeCell ref="B5:D5"/>
+    <mergeCell ref="B57:I57"/>
+    <mergeCell ref="B36:I36"/>
+    <mergeCell ref="B40:I40"/>
+    <mergeCell ref="B44:I44"/>
+    <mergeCell ref="B49:I49"/>
+    <mergeCell ref="B50:I50"/>
   </mergeCells>
   <dataValidations count="3">
     <dataValidation showDropDown="1" showErrorMessage="1" sqref="F16:H17"/>
@@ -8710,8 +9035,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X180"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A72" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C81" sqref="C81"/>
+    <sheetView showGridLines="0" topLeftCell="A74" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B81" sqref="A81:XFD81"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.15625" defaultRowHeight="12.3"/>
@@ -8727,10 +9052,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:24" s="1" customFormat="1" ht="13.8">
-      <c r="A1" s="243"/>
-      <c r="B1" s="243"/>
-      <c r="C1" s="243"/>
-      <c r="D1" s="243"/>
+      <c r="A1" s="260"/>
+      <c r="B1" s="260"/>
+      <c r="C1" s="260"/>
+      <c r="D1" s="260"/>
       <c r="E1" s="34"/>
       <c r="F1" s="34"/>
       <c r="G1" s="34"/>
@@ -8739,13 +9064,13 @@
       <c r="J1" s="34"/>
     </row>
     <row r="2" spans="1:24" s="1" customFormat="1" ht="31.5" customHeight="1">
-      <c r="A2" s="244" t="s">
+      <c r="A2" s="261" t="s">
         <v>70</v>
       </c>
-      <c r="B2" s="244"/>
-      <c r="C2" s="244"/>
-      <c r="D2" s="244"/>
-      <c r="E2" s="252"/>
+      <c r="B2" s="261"/>
+      <c r="C2" s="261"/>
+      <c r="D2" s="261"/>
+      <c r="E2" s="267"/>
       <c r="F2" s="23"/>
       <c r="G2" s="23"/>
       <c r="H2" s="23"/>
@@ -8754,9 +9079,9 @@
     </row>
     <row r="3" spans="1:24" s="1" customFormat="1" ht="31.5" customHeight="1">
       <c r="A3" s="47"/>
-      <c r="C3" s="277"/>
-      <c r="D3" s="277"/>
-      <c r="E3" s="252"/>
+      <c r="C3" s="286"/>
+      <c r="D3" s="286"/>
+      <c r="E3" s="267"/>
       <c r="F3" s="23"/>
       <c r="G3" s="23"/>
       <c r="H3" s="23"/>
@@ -8767,11 +9092,11 @@
       <c r="A4" s="139" t="s">
         <v>67</v>
       </c>
-      <c r="B4" s="246" t="s">
+      <c r="B4" s="255" t="s">
         <v>116</v>
       </c>
-      <c r="C4" s="246"/>
-      <c r="D4" s="246"/>
+      <c r="C4" s="255"/>
+      <c r="D4" s="255"/>
       <c r="E4" s="39"/>
       <c r="F4" s="39"/>
       <c r="G4" s="39"/>
@@ -8785,11 +9110,11 @@
       <c r="A5" s="139" t="s">
         <v>62</v>
       </c>
-      <c r="B5" s="245" t="s">
+      <c r="B5" s="256" t="s">
         <v>95</v>
       </c>
-      <c r="C5" s="246"/>
-      <c r="D5" s="246"/>
+      <c r="C5" s="255"/>
+      <c r="D5" s="255"/>
       <c r="E5" s="39"/>
       <c r="F5" s="39"/>
       <c r="G5" s="39"/>
@@ -8803,11 +9128,11 @@
       <c r="A6" s="139" t="s">
         <v>97</v>
       </c>
-      <c r="B6" s="245" t="s">
+      <c r="B6" s="256" t="s">
         <v>98</v>
       </c>
-      <c r="C6" s="246"/>
-      <c r="D6" s="246"/>
+      <c r="C6" s="255"/>
+      <c r="D6" s="255"/>
       <c r="E6" s="39"/>
       <c r="F6" s="39"/>
       <c r="G6" s="39"/>
@@ -8818,11 +9143,11 @@
       <c r="A7" s="139" t="s">
         <v>99</v>
       </c>
-      <c r="B7" s="246" t="s">
+      <c r="B7" s="255" t="s">
         <v>100</v>
       </c>
-      <c r="C7" s="246"/>
-      <c r="D7" s="246"/>
+      <c r="C7" s="255"/>
+      <c r="D7" s="255"/>
       <c r="E7" s="39"/>
       <c r="F7" s="39"/>
       <c r="G7" s="39"/>
@@ -8834,11 +9159,11 @@
       <c r="A8" s="139" t="s">
         <v>101</v>
       </c>
-      <c r="B8" s="247">
+      <c r="B8" s="262">
         <v>40850</v>
       </c>
-      <c r="C8" s="247"/>
-      <c r="D8" s="247"/>
+      <c r="C8" s="262"/>
+      <c r="D8" s="262"/>
       <c r="E8" s="39"/>
     </row>
     <row r="9" spans="1:24" s="43" customFormat="1">
@@ -8981,11 +9306,11 @@
       <c r="C16" s="50"/>
       <c r="D16" s="51"/>
       <c r="E16" s="65"/>
-      <c r="F16" s="278" t="s">
+      <c r="F16" s="287" t="s">
         <v>102</v>
       </c>
-      <c r="G16" s="279"/>
-      <c r="H16" s="280"/>
+      <c r="G16" s="288"/>
+      <c r="H16" s="289"/>
       <c r="I16" s="65"/>
     </row>
     <row r="17" spans="1:9" s="44" customFormat="1" ht="36.9">
@@ -9019,29 +9344,29 @@
     </row>
     <row r="18" spans="1:9" s="44" customFormat="1" ht="15.75" customHeight="1">
       <c r="A18" s="67"/>
-      <c r="B18" s="248" t="s">
+      <c r="B18" s="263" t="s">
         <v>313</v>
       </c>
-      <c r="C18" s="249"/>
-      <c r="D18" s="249"/>
-      <c r="E18" s="249"/>
-      <c r="F18" s="249"/>
-      <c r="G18" s="249"/>
-      <c r="H18" s="249"/>
-      <c r="I18" s="250"/>
+      <c r="C18" s="264"/>
+      <c r="D18" s="264"/>
+      <c r="E18" s="264"/>
+      <c r="F18" s="264"/>
+      <c r="G18" s="264"/>
+      <c r="H18" s="264"/>
+      <c r="I18" s="265"/>
     </row>
     <row r="19" spans="1:9" s="44" customFormat="1" ht="15.75" customHeight="1">
       <c r="A19" s="200"/>
-      <c r="B19" s="281" t="s">
+      <c r="B19" s="271" t="s">
         <v>397</v>
       </c>
-      <c r="C19" s="282"/>
-      <c r="D19" s="282"/>
-      <c r="E19" s="282"/>
-      <c r="F19" s="282"/>
-      <c r="G19" s="282"/>
-      <c r="H19" s="282"/>
-      <c r="I19" s="283"/>
+      <c r="C19" s="272"/>
+      <c r="D19" s="272"/>
+      <c r="E19" s="272"/>
+      <c r="F19" s="272"/>
+      <c r="G19" s="272"/>
+      <c r="H19" s="272"/>
+      <c r="I19" s="273"/>
     </row>
     <row r="20" spans="1:9" s="44" customFormat="1" ht="43.8" customHeight="1">
       <c r="A20" s="52">
@@ -9106,16 +9431,16 @@
     </row>
     <row r="23" spans="1:9" s="44" customFormat="1" ht="15.75" customHeight="1">
       <c r="A23" s="204"/>
-      <c r="B23" s="284" t="s">
+      <c r="B23" s="274" t="s">
         <v>314</v>
       </c>
-      <c r="C23" s="285"/>
-      <c r="D23" s="285"/>
-      <c r="E23" s="285"/>
-      <c r="F23" s="285"/>
-      <c r="G23" s="285"/>
-      <c r="H23" s="285"/>
-      <c r="I23" s="286"/>
+      <c r="C23" s="275"/>
+      <c r="D23" s="275"/>
+      <c r="E23" s="275"/>
+      <c r="F23" s="275"/>
+      <c r="G23" s="275"/>
+      <c r="H23" s="275"/>
+      <c r="I23" s="276"/>
     </row>
     <row r="24" spans="1:9" s="45" customFormat="1" ht="36.9">
       <c r="A24" s="52">
@@ -9359,16 +9684,16 @@
     </row>
     <row r="36" spans="1:9" s="48" customFormat="1" ht="13.8">
       <c r="A36" s="184"/>
-      <c r="B36" s="287" t="s">
+      <c r="B36" s="277" t="s">
         <v>315</v>
       </c>
-      <c r="C36" s="288"/>
-      <c r="D36" s="288"/>
-      <c r="E36" s="288"/>
-      <c r="F36" s="288"/>
-      <c r="G36" s="288"/>
-      <c r="H36" s="288"/>
-      <c r="I36" s="289"/>
+      <c r="C36" s="278"/>
+      <c r="D36" s="278"/>
+      <c r="E36" s="278"/>
+      <c r="F36" s="278"/>
+      <c r="G36" s="278"/>
+      <c r="H36" s="278"/>
+      <c r="I36" s="279"/>
     </row>
     <row r="37" spans="1:9" s="48" customFormat="1" ht="73.8">
       <c r="A37" s="58">
@@ -9632,16 +9957,16 @@
     </row>
     <row r="50" spans="1:9" s="48" customFormat="1" ht="13.8">
       <c r="A50" s="184"/>
-      <c r="B50" s="284" t="s">
+      <c r="B50" s="274" t="s">
         <v>316</v>
       </c>
-      <c r="C50" s="285"/>
-      <c r="D50" s="285"/>
-      <c r="E50" s="285"/>
-      <c r="F50" s="285"/>
-      <c r="G50" s="285"/>
-      <c r="H50" s="285"/>
-      <c r="I50" s="286"/>
+      <c r="C50" s="275"/>
+      <c r="D50" s="275"/>
+      <c r="E50" s="275"/>
+      <c r="F50" s="275"/>
+      <c r="G50" s="275"/>
+      <c r="H50" s="275"/>
+      <c r="I50" s="276"/>
     </row>
     <row r="51" spans="1:9" s="48" customFormat="1" ht="49.8" customHeight="1">
       <c r="A51" s="58">
@@ -9965,16 +10290,16 @@
     </row>
     <row r="67" spans="1:9" s="49" customFormat="1" ht="13.8">
       <c r="A67" s="189"/>
-      <c r="B67" s="274" t="s">
+      <c r="B67" s="280" t="s">
         <v>327</v>
       </c>
-      <c r="C67" s="275"/>
-      <c r="D67" s="275"/>
-      <c r="E67" s="275"/>
-      <c r="F67" s="275"/>
-      <c r="G67" s="275"/>
-      <c r="H67" s="275"/>
-      <c r="I67" s="276"/>
+      <c r="C67" s="281"/>
+      <c r="D67" s="281"/>
+      <c r="E67" s="281"/>
+      <c r="F67" s="281"/>
+      <c r="G67" s="281"/>
+      <c r="H67" s="281"/>
+      <c r="I67" s="282"/>
     </row>
     <row r="68" spans="1:9" s="48" customFormat="1" ht="24.6">
       <c r="A68" s="58">
@@ -9998,16 +10323,16 @@
     </row>
     <row r="69" spans="1:9" s="48" customFormat="1" ht="13.8">
       <c r="A69" s="199"/>
-      <c r="B69" s="290" t="s">
+      <c r="B69" s="283" t="s">
         <v>372</v>
       </c>
-      <c r="C69" s="291"/>
-      <c r="D69" s="291"/>
-      <c r="E69" s="291"/>
-      <c r="F69" s="291"/>
-      <c r="G69" s="291"/>
-      <c r="H69" s="291"/>
-      <c r="I69" s="292"/>
+      <c r="C69" s="284"/>
+      <c r="D69" s="284"/>
+      <c r="E69" s="284"/>
+      <c r="F69" s="284"/>
+      <c r="G69" s="284"/>
+      <c r="H69" s="284"/>
+      <c r="I69" s="285"/>
     </row>
     <row r="70" spans="1:9" s="48" customFormat="1" ht="49.2">
       <c r="A70" s="58">
@@ -10171,16 +10496,16 @@
     </row>
     <row r="78" spans="1:9" s="48" customFormat="1" ht="13.8">
       <c r="A78" s="189"/>
-      <c r="B78" s="274" t="s">
+      <c r="B78" s="280" t="s">
         <v>328</v>
       </c>
-      <c r="C78" s="275"/>
-      <c r="D78" s="275"/>
-      <c r="E78" s="275"/>
-      <c r="F78" s="275"/>
-      <c r="G78" s="275"/>
-      <c r="H78" s="275"/>
-      <c r="I78" s="276"/>
+      <c r="C78" s="281"/>
+      <c r="D78" s="281"/>
+      <c r="E78" s="281"/>
+      <c r="F78" s="281"/>
+      <c r="G78" s="281"/>
+      <c r="H78" s="281"/>
+      <c r="I78" s="282"/>
     </row>
     <row r="79" spans="1:9" s="48" customFormat="1" ht="36.9">
       <c r="A79" s="58">
@@ -10224,7 +10549,7 @@
     </row>
     <row r="81" spans="1:9" s="48" customFormat="1" ht="61.5">
       <c r="A81" s="58">
-        <f t="shared" ca="1" si="1"/>
+        <f ca="1">IF(OFFSET(A81,-1,0) ="",OFFSET(A81,-2,0)+1,OFFSET(A81,-1,0)+1 )</f>
         <v>56</v>
       </c>
       <c r="B81" s="52" t="s">
@@ -10324,16 +10649,16 @@
     </row>
     <row r="86" spans="1:9" s="48" customFormat="1" ht="13.8">
       <c r="A86" s="189"/>
-      <c r="B86" s="274" t="s">
+      <c r="B86" s="280" t="s">
         <v>331</v>
       </c>
-      <c r="C86" s="275"/>
-      <c r="D86" s="275"/>
-      <c r="E86" s="275"/>
-      <c r="F86" s="275"/>
-      <c r="G86" s="275"/>
-      <c r="H86" s="275"/>
-      <c r="I86" s="276"/>
+      <c r="C86" s="281"/>
+      <c r="D86" s="281"/>
+      <c r="E86" s="281"/>
+      <c r="F86" s="281"/>
+      <c r="G86" s="281"/>
+      <c r="H86" s="281"/>
+      <c r="I86" s="282"/>
     </row>
     <row r="87" spans="1:9" s="48" customFormat="1" ht="14.4" customHeight="1">
       <c r="A87" s="58">
@@ -10597,16 +10922,16 @@
     </row>
     <row r="100" spans="1:9" s="48" customFormat="1" ht="13.8">
       <c r="A100" s="189"/>
-      <c r="B100" s="274" t="s">
+      <c r="B100" s="280" t="s">
         <v>339</v>
       </c>
-      <c r="C100" s="275"/>
-      <c r="D100" s="275"/>
-      <c r="E100" s="275"/>
-      <c r="F100" s="275"/>
-      <c r="G100" s="275"/>
-      <c r="H100" s="275"/>
-      <c r="I100" s="276"/>
+      <c r="C100" s="281"/>
+      <c r="D100" s="281"/>
+      <c r="E100" s="281"/>
+      <c r="F100" s="281"/>
+      <c r="G100" s="281"/>
+      <c r="H100" s="281"/>
+      <c r="I100" s="282"/>
     </row>
     <row r="101" spans="1:9" s="48" customFormat="1" ht="49.2">
       <c r="A101" s="58">
@@ -10670,16 +10995,16 @@
     </row>
     <row r="104" spans="1:9" s="48" customFormat="1" ht="13.8">
       <c r="A104" s="189"/>
-      <c r="B104" s="274" t="s">
+      <c r="B104" s="280" t="s">
         <v>350</v>
       </c>
-      <c r="C104" s="275"/>
-      <c r="D104" s="275"/>
-      <c r="E104" s="275"/>
-      <c r="F104" s="275"/>
-      <c r="G104" s="275"/>
-      <c r="H104" s="275"/>
-      <c r="I104" s="276"/>
+      <c r="C104" s="281"/>
+      <c r="D104" s="281"/>
+      <c r="E104" s="281"/>
+      <c r="F104" s="281"/>
+      <c r="G104" s="281"/>
+      <c r="H104" s="281"/>
+      <c r="I104" s="282"/>
     </row>
     <row r="105" spans="1:9" s="48" customFormat="1" ht="49.2">
       <c r="A105" s="58">
@@ -10703,16 +11028,16 @@
     </row>
     <row r="106" spans="1:9" s="48" customFormat="1" ht="13.8">
       <c r="A106" s="189"/>
-      <c r="B106" s="274" t="s">
+      <c r="B106" s="280" t="s">
         <v>351</v>
       </c>
-      <c r="C106" s="275"/>
-      <c r="D106" s="275"/>
-      <c r="E106" s="275"/>
-      <c r="F106" s="275"/>
-      <c r="G106" s="275"/>
-      <c r="H106" s="275"/>
-      <c r="I106" s="276"/>
+      <c r="C106" s="281"/>
+      <c r="D106" s="281"/>
+      <c r="E106" s="281"/>
+      <c r="F106" s="281"/>
+      <c r="G106" s="281"/>
+      <c r="H106" s="281"/>
+      <c r="I106" s="282"/>
     </row>
     <row r="107" spans="1:9" s="48" customFormat="1" ht="49.2">
       <c r="A107" s="58">
@@ -10736,29 +11061,29 @@
     </row>
     <row r="108" spans="1:9" s="48" customFormat="1" ht="13.8">
       <c r="A108" s="67"/>
-      <c r="B108" s="248" t="s">
+      <c r="B108" s="263" t="s">
         <v>341</v>
       </c>
-      <c r="C108" s="249"/>
-      <c r="D108" s="249"/>
-      <c r="E108" s="249"/>
-      <c r="F108" s="249"/>
-      <c r="G108" s="249"/>
-      <c r="H108" s="249"/>
-      <c r="I108" s="250"/>
+      <c r="C108" s="264"/>
+      <c r="D108" s="264"/>
+      <c r="E108" s="264"/>
+      <c r="F108" s="264"/>
+      <c r="G108" s="264"/>
+      <c r="H108" s="264"/>
+      <c r="I108" s="265"/>
     </row>
     <row r="109" spans="1:9" s="48" customFormat="1" ht="13.8">
       <c r="A109" s="189"/>
-      <c r="B109" s="274" t="s">
+      <c r="B109" s="280" t="s">
         <v>342</v>
       </c>
-      <c r="C109" s="275"/>
-      <c r="D109" s="275"/>
-      <c r="E109" s="275"/>
-      <c r="F109" s="275"/>
-      <c r="G109" s="275"/>
-      <c r="H109" s="275"/>
-      <c r="I109" s="276"/>
+      <c r="C109" s="281"/>
+      <c r="D109" s="281"/>
+      <c r="E109" s="281"/>
+      <c r="F109" s="281"/>
+      <c r="G109" s="281"/>
+      <c r="H109" s="281"/>
+      <c r="I109" s="282"/>
     </row>
     <row r="110" spans="1:9" s="48" customFormat="1" ht="36.9">
       <c r="A110" s="58">
@@ -10895,16 +11220,16 @@
     </row>
     <row r="117" spans="1:9" s="48" customFormat="1" ht="13.8">
       <c r="A117" s="67"/>
-      <c r="B117" s="248" t="s">
+      <c r="B117" s="263" t="s">
         <v>312</v>
       </c>
-      <c r="C117" s="249"/>
-      <c r="D117" s="249"/>
-      <c r="E117" s="249"/>
-      <c r="F117" s="249"/>
-      <c r="G117" s="249"/>
-      <c r="H117" s="249"/>
-      <c r="I117" s="250"/>
+      <c r="C117" s="264"/>
+      <c r="D117" s="264"/>
+      <c r="E117" s="264"/>
+      <c r="F117" s="264"/>
+      <c r="G117" s="264"/>
+      <c r="H117" s="264"/>
+      <c r="I117" s="265"/>
     </row>
     <row r="118" spans="1:9" s="48" customFormat="1" ht="13.8">
       <c r="A118" s="58">
@@ -10924,16 +11249,16 @@
     </row>
     <row r="119" spans="1:9" s="48" customFormat="1" ht="13.8">
       <c r="A119" s="67"/>
-      <c r="B119" s="248" t="s">
+      <c r="B119" s="263" t="s">
         <v>347</v>
       </c>
-      <c r="C119" s="249"/>
-      <c r="D119" s="249"/>
-      <c r="E119" s="249"/>
-      <c r="F119" s="249"/>
-      <c r="G119" s="249"/>
-      <c r="H119" s="249"/>
-      <c r="I119" s="250"/>
+      <c r="C119" s="264"/>
+      <c r="D119" s="264"/>
+      <c r="E119" s="264"/>
+      <c r="F119" s="264"/>
+      <c r="G119" s="264"/>
+      <c r="H119" s="264"/>
+      <c r="I119" s="265"/>
     </row>
     <row r="120" spans="1:9" s="48" customFormat="1" ht="13.8">
       <c r="A120" s="58">
@@ -10953,16 +11278,16 @@
     </row>
     <row r="121" spans="1:9" s="48" customFormat="1" ht="13.8">
       <c r="A121" s="67"/>
-      <c r="B121" s="248" t="s">
+      <c r="B121" s="263" t="s">
         <v>348</v>
       </c>
-      <c r="C121" s="249"/>
-      <c r="D121" s="249"/>
-      <c r="E121" s="249"/>
-      <c r="F121" s="249"/>
-      <c r="G121" s="249"/>
-      <c r="H121" s="249"/>
-      <c r="I121" s="250"/>
+      <c r="C121" s="264"/>
+      <c r="D121" s="264"/>
+      <c r="E121" s="264"/>
+      <c r="F121" s="264"/>
+      <c r="G121" s="264"/>
+      <c r="H121" s="264"/>
+      <c r="I121" s="265"/>
     </row>
     <row r="122" spans="1:9" s="48" customFormat="1" ht="13.8">
       <c r="A122" s="58">
@@ -11026,9 +11351,9 @@
     </row>
     <row r="127" spans="1:9" s="48" customFormat="1" ht="13.8">
       <c r="A127" s="185"/>
-      <c r="B127" s="271"/>
-      <c r="C127" s="272"/>
-      <c r="D127" s="273"/>
+      <c r="B127" s="290"/>
+      <c r="C127" s="291"/>
+      <c r="D127" s="292"/>
       <c r="E127" s="194"/>
       <c r="F127" s="195"/>
       <c r="G127" s="195"/>
@@ -11081,9 +11406,9 @@
     </row>
     <row r="132" spans="1:9" s="48" customFormat="1" ht="13.8">
       <c r="A132" s="185"/>
-      <c r="B132" s="271"/>
-      <c r="C132" s="272"/>
-      <c r="D132" s="273"/>
+      <c r="B132" s="290"/>
+      <c r="C132" s="291"/>
+      <c r="D132" s="292"/>
       <c r="E132" s="194"/>
       <c r="F132" s="195"/>
       <c r="G132" s="195"/>
@@ -11125,9 +11450,9 @@
     </row>
     <row r="136" spans="1:9" s="48" customFormat="1" ht="13.8">
       <c r="A136" s="185"/>
-      <c r="B136" s="271"/>
-      <c r="C136" s="272"/>
-      <c r="D136" s="273"/>
+      <c r="B136" s="290"/>
+      <c r="C136" s="291"/>
+      <c r="D136" s="292"/>
       <c r="E136" s="194"/>
       <c r="F136" s="195"/>
       <c r="G136" s="195"/>
@@ -11257,9 +11582,9 @@
     </row>
     <row r="148" spans="1:9" s="48" customFormat="1" ht="13.8">
       <c r="A148" s="196"/>
-      <c r="B148" s="271"/>
-      <c r="C148" s="272"/>
-      <c r="D148" s="273"/>
+      <c r="B148" s="290"/>
+      <c r="C148" s="291"/>
+      <c r="D148" s="292"/>
       <c r="E148" s="194"/>
       <c r="F148" s="195"/>
       <c r="G148" s="195"/>
@@ -11301,9 +11626,9 @@
     </row>
     <row r="152" spans="1:9" s="48" customFormat="1" ht="13.8">
       <c r="A152" s="196"/>
-      <c r="B152" s="271"/>
-      <c r="C152" s="272"/>
-      <c r="D152" s="273"/>
+      <c r="B152" s="290"/>
+      <c r="C152" s="291"/>
+      <c r="D152" s="292"/>
       <c r="E152" s="194"/>
       <c r="F152" s="195"/>
       <c r="G152" s="195"/>
@@ -11345,9 +11670,9 @@
     </row>
     <row r="156" spans="1:9" s="48" customFormat="1" ht="13.8">
       <c r="A156" s="196"/>
-      <c r="B156" s="271"/>
-      <c r="C156" s="272"/>
-      <c r="D156" s="273"/>
+      <c r="B156" s="290"/>
+      <c r="C156" s="291"/>
+      <c r="D156" s="292"/>
       <c r="E156" s="194"/>
       <c r="F156" s="195"/>
       <c r="G156" s="195"/>
@@ -11378,9 +11703,9 @@
     </row>
     <row r="159" spans="1:9" s="48" customFormat="1" ht="13.8">
       <c r="A159" s="196"/>
-      <c r="B159" s="271"/>
-      <c r="C159" s="272"/>
-      <c r="D159" s="273"/>
+      <c r="B159" s="290"/>
+      <c r="C159" s="291"/>
+      <c r="D159" s="292"/>
       <c r="E159" s="194"/>
       <c r="F159" s="195"/>
       <c r="G159" s="195"/>
@@ -11620,24 +11945,6 @@
     </row>
   </sheetData>
   <mergeCells count="34">
-    <mergeCell ref="B19:I19"/>
-    <mergeCell ref="B108:I108"/>
-    <mergeCell ref="B23:I23"/>
-    <mergeCell ref="B36:I36"/>
-    <mergeCell ref="B50:I50"/>
-    <mergeCell ref="B67:I67"/>
-    <mergeCell ref="B78:I78"/>
-    <mergeCell ref="B69:I69"/>
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="A2:D2"/>
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="B4:D4"/>
-    <mergeCell ref="F16:H16"/>
-    <mergeCell ref="E2:E3"/>
-    <mergeCell ref="B5:D5"/>
-    <mergeCell ref="B6:D6"/>
-    <mergeCell ref="B7:D7"/>
-    <mergeCell ref="B8:D8"/>
     <mergeCell ref="B18:I18"/>
     <mergeCell ref="B152:D152"/>
     <mergeCell ref="B156:D156"/>
@@ -11654,6 +11961,24 @@
     <mergeCell ref="B117:I117"/>
     <mergeCell ref="B119:I119"/>
     <mergeCell ref="B121:I121"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="A2:D2"/>
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="B4:D4"/>
+    <mergeCell ref="F16:H16"/>
+    <mergeCell ref="E2:E3"/>
+    <mergeCell ref="B5:D5"/>
+    <mergeCell ref="B6:D6"/>
+    <mergeCell ref="B7:D7"/>
+    <mergeCell ref="B8:D8"/>
+    <mergeCell ref="B19:I19"/>
+    <mergeCell ref="B108:I108"/>
+    <mergeCell ref="B23:I23"/>
+    <mergeCell ref="B36:I36"/>
+    <mergeCell ref="B50:I50"/>
+    <mergeCell ref="B67:I67"/>
+    <mergeCell ref="B78:I78"/>
+    <mergeCell ref="B69:I69"/>
   </mergeCells>
   <dataValidations count="3">
     <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="F165:H222">
@@ -11675,8 +12000,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X103"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A13" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D31" sqref="D31"/>
+    <sheetView showGridLines="0" topLeftCell="A7" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="D31" sqref="A4:I59"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.15625" defaultRowHeight="12.3"/>
@@ -11691,10 +12016,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:24" s="1" customFormat="1" ht="13.8">
-      <c r="A1" s="243"/>
-      <c r="B1" s="243"/>
-      <c r="C1" s="243"/>
-      <c r="D1" s="243"/>
+      <c r="A1" s="260"/>
+      <c r="B1" s="260"/>
+      <c r="C1" s="260"/>
+      <c r="D1" s="260"/>
       <c r="E1" s="34"/>
       <c r="F1" s="34"/>
       <c r="G1" s="34"/>
@@ -11703,13 +12028,13 @@
       <c r="J1" s="34"/>
     </row>
     <row r="2" spans="1:24" s="1" customFormat="1" ht="31.5" customHeight="1">
-      <c r="A2" s="244" t="s">
+      <c r="A2" s="261" t="s">
         <v>70</v>
       </c>
-      <c r="B2" s="244"/>
-      <c r="C2" s="244"/>
-      <c r="D2" s="244"/>
-      <c r="E2" s="252"/>
+      <c r="B2" s="261"/>
+      <c r="C2" s="261"/>
+      <c r="D2" s="261"/>
+      <c r="E2" s="267"/>
       <c r="F2" s="23"/>
       <c r="G2" s="23"/>
       <c r="H2" s="23"/>
@@ -11718,9 +12043,9 @@
     </row>
     <row r="3" spans="1:24" s="1" customFormat="1" ht="31.5" customHeight="1">
       <c r="A3" s="47"/>
-      <c r="C3" s="277"/>
-      <c r="D3" s="277"/>
-      <c r="E3" s="252"/>
+      <c r="C3" s="286"/>
+      <c r="D3" s="286"/>
+      <c r="E3" s="267"/>
       <c r="F3" s="23"/>
       <c r="G3" s="23"/>
       <c r="H3" s="23"/>
@@ -11731,11 +12056,11 @@
       <c r="A4" s="139" t="s">
         <v>67</v>
       </c>
-      <c r="B4" s="246" t="s">
+      <c r="B4" s="255" t="s">
         <v>116</v>
       </c>
-      <c r="C4" s="246"/>
-      <c r="D4" s="246"/>
+      <c r="C4" s="255"/>
+      <c r="D4" s="255"/>
       <c r="E4" s="39"/>
       <c r="F4" s="39"/>
       <c r="G4" s="39"/>
@@ -11749,11 +12074,11 @@
       <c r="A5" s="139" t="s">
         <v>62</v>
       </c>
-      <c r="B5" s="245" t="s">
+      <c r="B5" s="256" t="s">
         <v>95</v>
       </c>
-      <c r="C5" s="246"/>
-      <c r="D5" s="246"/>
+      <c r="C5" s="255"/>
+      <c r="D5" s="255"/>
       <c r="E5" s="39"/>
       <c r="F5" s="39"/>
       <c r="G5" s="39"/>
@@ -11767,11 +12092,11 @@
       <c r="A6" s="139" t="s">
         <v>97</v>
       </c>
-      <c r="B6" s="245" t="s">
+      <c r="B6" s="256" t="s">
         <v>98</v>
       </c>
-      <c r="C6" s="246"/>
-      <c r="D6" s="246"/>
+      <c r="C6" s="255"/>
+      <c r="D6" s="255"/>
       <c r="E6" s="39"/>
       <c r="F6" s="39"/>
       <c r="G6" s="39"/>
@@ -11782,11 +12107,11 @@
       <c r="A7" s="139" t="s">
         <v>99</v>
       </c>
-      <c r="B7" s="246" t="s">
+      <c r="B7" s="255" t="s">
         <v>100</v>
       </c>
-      <c r="C7" s="246"/>
-      <c r="D7" s="246"/>
+      <c r="C7" s="255"/>
+      <c r="D7" s="255"/>
       <c r="E7" s="39"/>
       <c r="F7" s="39"/>
       <c r="G7" s="39"/>
@@ -11798,11 +12123,11 @@
       <c r="A8" s="139" t="s">
         <v>101</v>
       </c>
-      <c r="B8" s="247">
+      <c r="B8" s="262">
         <v>40850</v>
       </c>
-      <c r="C8" s="247"/>
-      <c r="D8" s="247"/>
+      <c r="C8" s="262"/>
+      <c r="D8" s="262"/>
       <c r="E8" s="39"/>
     </row>
     <row r="9" spans="1:24" s="43" customFormat="1">
@@ -11945,11 +12270,11 @@
       <c r="C16" s="50"/>
       <c r="D16" s="51"/>
       <c r="E16" s="65"/>
-      <c r="F16" s="278" t="s">
+      <c r="F16" s="287" t="s">
         <v>102</v>
       </c>
-      <c r="G16" s="279"/>
-      <c r="H16" s="280"/>
+      <c r="G16" s="288"/>
+      <c r="H16" s="289"/>
       <c r="I16" s="65"/>
     </row>
     <row r="17" spans="1:9" s="44" customFormat="1" ht="36.9">
@@ -12102,11 +12427,11 @@
     </row>
     <row r="24" spans="1:9" s="44" customFormat="1" ht="15.75" customHeight="1">
       <c r="A24" s="77"/>
-      <c r="B24" s="248" t="s">
+      <c r="B24" s="263" t="s">
         <v>518</v>
       </c>
-      <c r="C24" s="249"/>
-      <c r="D24" s="250"/>
+      <c r="C24" s="264"/>
+      <c r="D24" s="265"/>
       <c r="E24" s="67"/>
       <c r="F24" s="68"/>
       <c r="G24" s="68"/>
@@ -12215,11 +12540,11 @@
     </row>
     <row r="30" spans="1:9" s="48" customFormat="1" ht="13.8">
       <c r="A30" s="77"/>
-      <c r="B30" s="248" t="s">
+      <c r="B30" s="263" t="s">
         <v>527</v>
       </c>
-      <c r="C30" s="249"/>
-      <c r="D30" s="250"/>
+      <c r="C30" s="264"/>
+      <c r="D30" s="265"/>
       <c r="E30" s="69"/>
       <c r="F30" s="66"/>
       <c r="G30" s="66"/>
@@ -12308,11 +12633,11 @@
     </row>
     <row r="35" spans="1:9" s="48" customFormat="1" ht="13.8">
       <c r="A35" s="77"/>
-      <c r="B35" s="248" t="s">
+      <c r="B35" s="263" t="s">
         <v>531</v>
       </c>
-      <c r="C35" s="249"/>
-      <c r="D35" s="250"/>
+      <c r="C35" s="264"/>
+      <c r="D35" s="265"/>
       <c r="E35" s="69"/>
       <c r="F35" s="66"/>
       <c r="G35" s="66"/>
@@ -12341,11 +12666,11 @@
     </row>
     <row r="37" spans="1:9" s="48" customFormat="1" ht="13.8">
       <c r="A37" s="77"/>
-      <c r="B37" s="248" t="s">
+      <c r="B37" s="263" t="s">
         <v>533</v>
       </c>
-      <c r="C37" s="249"/>
-      <c r="D37" s="250"/>
+      <c r="C37" s="264"/>
+      <c r="D37" s="265"/>
       <c r="E37" s="69"/>
       <c r="F37" s="66"/>
       <c r="G37" s="66"/>
@@ -12471,11 +12796,11 @@
     </row>
     <row r="44" spans="1:9" s="48" customFormat="1" ht="13.8">
       <c r="A44" s="77"/>
-      <c r="B44" s="248" t="s">
+      <c r="B44" s="263" t="s">
         <v>538</v>
       </c>
-      <c r="C44" s="249"/>
-      <c r="D44" s="250"/>
+      <c r="C44" s="264"/>
+      <c r="D44" s="265"/>
       <c r="E44" s="69"/>
       <c r="F44" s="66"/>
       <c r="G44" s="66"/>
@@ -12724,11 +13049,11 @@
     </row>
     <row r="57" spans="1:9" s="48" customFormat="1" ht="13.8">
       <c r="A57" s="77"/>
-      <c r="B57" s="248" t="s">
+      <c r="B57" s="263" t="s">
         <v>541</v>
       </c>
-      <c r="C57" s="249"/>
-      <c r="D57" s="250"/>
+      <c r="C57" s="264"/>
+      <c r="D57" s="265"/>
       <c r="E57" s="69"/>
       <c r="F57" s="66"/>
       <c r="G57" s="66"/>
@@ -12843,9 +13168,9 @@
     </row>
     <row r="66" spans="1:9" s="48" customFormat="1" ht="13.8">
       <c r="A66" s="77"/>
-      <c r="B66" s="248"/>
-      <c r="C66" s="249"/>
-      <c r="D66" s="250"/>
+      <c r="B66" s="263"/>
+      <c r="C66" s="264"/>
+      <c r="D66" s="265"/>
       <c r="E66" s="69"/>
       <c r="F66" s="66"/>
       <c r="G66" s="66"/>
@@ -12898,9 +13223,9 @@
     </row>
     <row r="71" spans="1:9" s="48" customFormat="1" ht="13.8">
       <c r="A71" s="77"/>
-      <c r="B71" s="248"/>
-      <c r="C71" s="249"/>
-      <c r="D71" s="250"/>
+      <c r="B71" s="263"/>
+      <c r="C71" s="264"/>
+      <c r="D71" s="265"/>
       <c r="E71" s="69"/>
       <c r="F71" s="66"/>
       <c r="G71" s="66"/>
@@ -12942,9 +13267,9 @@
     </row>
     <row r="75" spans="1:9" s="48" customFormat="1" ht="13.8">
       <c r="A75" s="77"/>
-      <c r="B75" s="248"/>
-      <c r="C75" s="249"/>
-      <c r="D75" s="250"/>
+      <c r="B75" s="263"/>
+      <c r="C75" s="264"/>
+      <c r="D75" s="265"/>
       <c r="E75" s="69"/>
       <c r="F75" s="66"/>
       <c r="G75" s="66"/>
@@ -13074,9 +13399,9 @@
     </row>
     <row r="87" spans="1:9" s="48" customFormat="1" ht="13.8">
       <c r="A87" s="77"/>
-      <c r="B87" s="248"/>
-      <c r="C87" s="249"/>
-      <c r="D87" s="250"/>
+      <c r="B87" s="263"/>
+      <c r="C87" s="264"/>
+      <c r="D87" s="265"/>
       <c r="E87" s="69"/>
       <c r="F87" s="66"/>
       <c r="G87" s="66"/>
@@ -13118,9 +13443,9 @@
     </row>
     <row r="91" spans="1:9" s="48" customFormat="1" ht="13.8">
       <c r="A91" s="77"/>
-      <c r="B91" s="248"/>
-      <c r="C91" s="249"/>
-      <c r="D91" s="250"/>
+      <c r="B91" s="263"/>
+      <c r="C91" s="264"/>
+      <c r="D91" s="265"/>
       <c r="E91" s="69"/>
       <c r="F91" s="66"/>
       <c r="G91" s="66"/>
@@ -13162,9 +13487,9 @@
     </row>
     <row r="95" spans="1:9" s="48" customFormat="1" ht="14.25" customHeight="1">
       <c r="A95" s="77"/>
-      <c r="B95" s="248"/>
-      <c r="C95" s="249"/>
-      <c r="D95" s="250"/>
+      <c r="B95" s="263"/>
+      <c r="C95" s="264"/>
+      <c r="D95" s="265"/>
       <c r="E95" s="69"/>
       <c r="F95" s="66"/>
       <c r="G95" s="66"/>
@@ -13195,9 +13520,9 @@
     </row>
     <row r="98" spans="1:9" s="48" customFormat="1" ht="14.25" customHeight="1">
       <c r="A98" s="77"/>
-      <c r="B98" s="248"/>
-      <c r="C98" s="249"/>
-      <c r="D98" s="250"/>
+      <c r="B98" s="263"/>
+      <c r="C98" s="264"/>
+      <c r="D98" s="265"/>
       <c r="E98" s="69"/>
       <c r="F98" s="66"/>
       <c r="G98" s="66"/>
@@ -13261,11 +13586,17 @@
     </row>
   </sheetData>
   <mergeCells count="23">
-    <mergeCell ref="B30:D30"/>
-    <mergeCell ref="B37:D37"/>
-    <mergeCell ref="B35:D35"/>
-    <mergeCell ref="B91:D91"/>
-    <mergeCell ref="B95:D95"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="A2:D2"/>
+    <mergeCell ref="E2:E3"/>
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="B4:D4"/>
+    <mergeCell ref="F16:H16"/>
+    <mergeCell ref="B24:D24"/>
+    <mergeCell ref="B5:D5"/>
+    <mergeCell ref="B6:D6"/>
+    <mergeCell ref="B7:D7"/>
+    <mergeCell ref="B8:D8"/>
     <mergeCell ref="B98:D98"/>
     <mergeCell ref="B44:D44"/>
     <mergeCell ref="B57:D57"/>
@@ -13273,17 +13604,11 @@
     <mergeCell ref="B71:D71"/>
     <mergeCell ref="B75:D75"/>
     <mergeCell ref="B87:D87"/>
-    <mergeCell ref="F16:H16"/>
-    <mergeCell ref="B24:D24"/>
-    <mergeCell ref="B5:D5"/>
-    <mergeCell ref="B6:D6"/>
-    <mergeCell ref="B7:D7"/>
-    <mergeCell ref="B8:D8"/>
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="A2:D2"/>
-    <mergeCell ref="E2:E3"/>
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="B4:D4"/>
+    <mergeCell ref="B30:D30"/>
+    <mergeCell ref="B37:D37"/>
+    <mergeCell ref="B35:D35"/>
+    <mergeCell ref="B91:D91"/>
+    <mergeCell ref="B95:D95"/>
   </mergeCells>
   <dataValidations count="4">
     <dataValidation type="list" allowBlank="1" sqref="F18:H23 F25:H103">
@@ -13303,6 +13628,1769 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:I104"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A14" workbookViewId="0">
+      <selection activeCell="D22" sqref="D22"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4"/>
+  <cols>
+    <col min="1" max="1" width="14.62890625" customWidth="1"/>
+    <col min="2" max="2" width="23" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="26" customWidth="1"/>
+    <col min="4" max="4" width="37.41796875" customWidth="1"/>
+    <col min="5" max="5" width="20.3125" customWidth="1"/>
+    <col min="6" max="8" width="8.26171875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="21.68359375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" ht="24.6">
+      <c r="A1" s="139" t="s">
+        <v>67</v>
+      </c>
+      <c r="B1" s="255" t="s">
+        <v>116</v>
+      </c>
+      <c r="C1" s="255"/>
+      <c r="D1" s="255"/>
+      <c r="E1" s="39"/>
+      <c r="F1" s="39"/>
+      <c r="G1" s="39"/>
+      <c r="H1" s="40"/>
+      <c r="I1" s="40"/>
+    </row>
+    <row r="2" spans="1:9" ht="24.6">
+      <c r="A2" s="139" t="s">
+        <v>62</v>
+      </c>
+      <c r="B2" s="256" t="s">
+        <v>95</v>
+      </c>
+      <c r="C2" s="255"/>
+      <c r="D2" s="255"/>
+      <c r="E2" s="39"/>
+      <c r="F2" s="39"/>
+      <c r="G2" s="39"/>
+      <c r="H2" s="40"/>
+      <c r="I2" s="40"/>
+    </row>
+    <row r="3" spans="1:9" ht="24.6">
+      <c r="A3" s="139" t="s">
+        <v>97</v>
+      </c>
+      <c r="B3" s="256" t="s">
+        <v>98</v>
+      </c>
+      <c r="C3" s="255"/>
+      <c r="D3" s="255"/>
+      <c r="E3" s="39"/>
+      <c r="F3" s="39"/>
+      <c r="G3" s="39"/>
+      <c r="H3" s="40"/>
+      <c r="I3" s="40"/>
+    </row>
+    <row r="4" spans="1:9">
+      <c r="A4" s="139" t="s">
+        <v>99</v>
+      </c>
+      <c r="B4" s="255" t="s">
+        <v>100</v>
+      </c>
+      <c r="C4" s="255"/>
+      <c r="D4" s="255"/>
+      <c r="E4" s="39"/>
+      <c r="F4" s="39"/>
+      <c r="G4" s="39"/>
+      <c r="H4" s="41"/>
+      <c r="I4" s="40"/>
+    </row>
+    <row r="5" spans="1:9">
+      <c r="A5" s="139" t="s">
+        <v>101</v>
+      </c>
+      <c r="B5" s="262">
+        <v>40850</v>
+      </c>
+      <c r="C5" s="262"/>
+      <c r="D5" s="262"/>
+      <c r="E5" s="39"/>
+      <c r="F5" s="43"/>
+      <c r="G5" s="43"/>
+      <c r="H5" s="43"/>
+      <c r="I5" s="43"/>
+    </row>
+    <row r="6" spans="1:9" ht="36.9">
+      <c r="A6" s="140" t="s">
+        <v>102</v>
+      </c>
+      <c r="B6" s="73" t="str">
+        <f>F14</f>
+        <v>Internal Build 03112011</v>
+      </c>
+      <c r="C6" s="73" t="str">
+        <f>G14</f>
+        <v>Internal build 14112011</v>
+      </c>
+      <c r="D6" s="73" t="str">
+        <f>H14</f>
+        <v>External build 16112011</v>
+      </c>
+      <c r="E6" s="43"/>
+      <c r="F6" s="43"/>
+      <c r="G6" s="43"/>
+      <c r="H6" s="43"/>
+      <c r="I6" s="43"/>
+    </row>
+    <row r="7" spans="1:9">
+      <c r="A7" s="141" t="s">
+        <v>103</v>
+      </c>
+      <c r="B7" s="74">
+        <f>SUM(B8:B11)</f>
+        <v>0</v>
+      </c>
+      <c r="C7" s="74">
+        <f>SUM(C8:C11)</f>
+        <v>0</v>
+      </c>
+      <c r="D7" s="74">
+        <f>SUM(D8:D11)</f>
+        <v>0</v>
+      </c>
+      <c r="E7" s="43"/>
+      <c r="F7" s="43"/>
+      <c r="G7" s="43"/>
+      <c r="H7" s="43"/>
+      <c r="I7" s="43"/>
+    </row>
+    <row r="8" spans="1:9">
+      <c r="A8" s="141" t="s">
+        <v>41</v>
+      </c>
+      <c r="B8" s="75">
+        <f>COUNTIF($F$23:$F$49703,"*Passed")</f>
+        <v>0</v>
+      </c>
+      <c r="C8" s="75">
+        <f>COUNTIF($G$23:$G$49703,"*Passed")</f>
+        <v>0</v>
+      </c>
+      <c r="D8" s="75">
+        <f>COUNTIF($H$23:$H$49703,"*Passed")</f>
+        <v>0</v>
+      </c>
+      <c r="E8" s="43"/>
+      <c r="F8" s="43"/>
+      <c r="G8" s="43"/>
+      <c r="H8" s="43"/>
+      <c r="I8" s="43"/>
+    </row>
+    <row r="9" spans="1:9">
+      <c r="A9" s="141" t="s">
+        <v>43</v>
+      </c>
+      <c r="B9" s="75">
+        <f>COUNTIF($F$23:$F$49423,"*Failed*")</f>
+        <v>0</v>
+      </c>
+      <c r="C9" s="75">
+        <f>COUNTIF($G$23:$G$49423,"*Failed*")</f>
+        <v>0</v>
+      </c>
+      <c r="D9" s="75">
+        <f>COUNTIF($H$23:$H$49423,"*Failed*")</f>
+        <v>0</v>
+      </c>
+      <c r="E9" s="43"/>
+      <c r="F9" s="43"/>
+      <c r="G9" s="43"/>
+      <c r="H9" s="43"/>
+      <c r="I9" s="43"/>
+    </row>
+    <row r="10" spans="1:9">
+      <c r="A10" s="141" t="s">
+        <v>45</v>
+      </c>
+      <c r="B10" s="75">
+        <f>COUNTIF($F$23:$F$49423,"*Not Run*")</f>
+        <v>0</v>
+      </c>
+      <c r="C10" s="75">
+        <f>COUNTIF($G$23:$G$49423,"*Not Run*")</f>
+        <v>0</v>
+      </c>
+      <c r="D10" s="75">
+        <f>COUNTIF($H$23:$H$49423,"*Not Run*")</f>
+        <v>0</v>
+      </c>
+      <c r="E10" s="1"/>
+      <c r="F10" s="1"/>
+      <c r="G10" s="1"/>
+      <c r="H10" s="1"/>
+      <c r="I10" s="1"/>
+    </row>
+    <row r="11" spans="1:9">
+      <c r="A11" s="141" t="s">
+        <v>104</v>
+      </c>
+      <c r="B11" s="75">
+        <f>COUNTIF($F$23:$F$49423,"*NA*")</f>
+        <v>0</v>
+      </c>
+      <c r="C11" s="75">
+        <f>COUNTIF($G$23:$G$49423,"*NA*")</f>
+        <v>0</v>
+      </c>
+      <c r="D11" s="75">
+        <f>COUNTIF($H$23:$H$49423,"*NA*")</f>
+        <v>0</v>
+      </c>
+      <c r="E11" s="64"/>
+      <c r="F11" s="1"/>
+      <c r="G11" s="1"/>
+      <c r="H11" s="1"/>
+      <c r="I11" s="1"/>
+    </row>
+    <row r="12" spans="1:9" ht="36.9">
+      <c r="A12" s="141" t="s">
+        <v>105</v>
+      </c>
+      <c r="B12" s="75">
+        <f>COUNTIF($F$23:$F$49423,"*Passed in previous build*")</f>
+        <v>0</v>
+      </c>
+      <c r="C12" s="75">
+        <f>COUNTIF($G$23:$G$49423,"*Passed in previous build*")</f>
+        <v>0</v>
+      </c>
+      <c r="D12" s="75">
+        <f>COUNTIF($H$23:$H$49423,"*Passed in previous build*")</f>
+        <v>0</v>
+      </c>
+      <c r="E12" s="1"/>
+      <c r="F12" s="1"/>
+      <c r="G12" s="1"/>
+      <c r="H12" s="1"/>
+      <c r="I12" s="1"/>
+    </row>
+    <row r="13" spans="1:9">
+      <c r="A13" s="76"/>
+      <c r="B13" s="50"/>
+      <c r="C13" s="50"/>
+      <c r="D13" s="51"/>
+      <c r="E13" s="65"/>
+      <c r="F13" s="287" t="s">
+        <v>102</v>
+      </c>
+      <c r="G13" s="288"/>
+      <c r="H13" s="289"/>
+      <c r="I13" s="65"/>
+    </row>
+    <row r="14" spans="1:9" ht="36.9">
+      <c r="A14" s="142" t="s">
+        <v>106</v>
+      </c>
+      <c r="B14" s="143" t="s">
+        <v>107</v>
+      </c>
+      <c r="C14" s="143" t="s">
+        <v>108</v>
+      </c>
+      <c r="D14" s="143" t="s">
+        <v>109</v>
+      </c>
+      <c r="E14" s="144" t="s">
+        <v>110</v>
+      </c>
+      <c r="F14" s="143" t="s">
+        <v>111</v>
+      </c>
+      <c r="G14" s="143" t="s">
+        <v>112</v>
+      </c>
+      <c r="H14" s="143" t="s">
+        <v>113</v>
+      </c>
+      <c r="I14" s="143" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" ht="25.2" customHeight="1">
+      <c r="A15" s="77"/>
+      <c r="B15" s="318" t="s">
+        <v>635</v>
+      </c>
+      <c r="C15" s="319"/>
+      <c r="D15" s="319"/>
+      <c r="E15" s="319"/>
+      <c r="F15" s="319"/>
+      <c r="G15" s="319"/>
+      <c r="H15" s="319"/>
+      <c r="I15" s="320"/>
+    </row>
+    <row r="16" spans="1:9" ht="24.3" customHeight="1">
+      <c r="A16" s="204"/>
+      <c r="B16" s="274" t="s">
+        <v>314</v>
+      </c>
+      <c r="C16" s="275"/>
+      <c r="D16" s="275"/>
+      <c r="E16" s="275"/>
+      <c r="F16" s="275"/>
+      <c r="G16" s="275"/>
+      <c r="H16" s="275"/>
+      <c r="I16" s="276"/>
+    </row>
+    <row r="17" spans="1:9" ht="47.4" customHeight="1">
+      <c r="A17" s="209">
+        <f t="shared" ref="A17:A27" ca="1" si="0">IF(OFFSET(A17,-1,0) ="",OFFSET(A17,-2,0)+1,OFFSET(A17,-1,0)+1 )</f>
+        <v>1</v>
+      </c>
+      <c r="B17" s="209" t="s">
+        <v>402</v>
+      </c>
+      <c r="C17" s="209"/>
+      <c r="D17" s="205" t="s">
+        <v>404</v>
+      </c>
+      <c r="E17" s="54"/>
+      <c r="F17" s="209"/>
+      <c r="G17" s="209"/>
+      <c r="H17" s="209"/>
+      <c r="I17" s="55"/>
+    </row>
+    <row r="18" spans="1:9" ht="43.5" customHeight="1">
+      <c r="A18" s="209">
+        <f t="shared" ca="1" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="B18" s="209" t="s">
+        <v>479</v>
+      </c>
+      <c r="C18" s="209"/>
+      <c r="D18" s="205" t="s">
+        <v>403</v>
+      </c>
+      <c r="E18" s="54"/>
+      <c r="F18" s="209"/>
+      <c r="G18" s="209"/>
+      <c r="H18" s="209"/>
+      <c r="I18" s="55"/>
+    </row>
+    <row r="19" spans="1:9" ht="40.799999999999997" customHeight="1">
+      <c r="A19" s="209">
+        <f t="shared" ca="1" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="B19" s="209" t="s">
+        <v>317</v>
+      </c>
+      <c r="C19" s="209"/>
+      <c r="D19" s="60" t="s">
+        <v>427</v>
+      </c>
+      <c r="E19" s="54"/>
+      <c r="F19" s="209"/>
+      <c r="G19" s="209"/>
+      <c r="H19" s="209"/>
+      <c r="I19" s="55"/>
+    </row>
+    <row r="20" spans="1:9" ht="28.5" customHeight="1">
+      <c r="A20" s="58">
+        <f t="shared" ca="1" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="B20" s="209" t="s">
+        <v>318</v>
+      </c>
+      <c r="C20" s="209"/>
+      <c r="D20" s="205" t="s">
+        <v>403</v>
+      </c>
+      <c r="E20" s="54"/>
+      <c r="F20" s="209"/>
+      <c r="G20" s="209"/>
+      <c r="H20" s="209"/>
+      <c r="I20" s="61"/>
+    </row>
+    <row r="21" spans="1:9" ht="28.5" customHeight="1">
+      <c r="A21" s="58">
+        <f t="shared" ca="1" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="B21" s="209" t="s">
+        <v>319</v>
+      </c>
+      <c r="C21" s="209"/>
+      <c r="D21" s="54" t="s">
+        <v>405</v>
+      </c>
+      <c r="E21" s="54"/>
+      <c r="F21" s="209"/>
+      <c r="G21" s="209"/>
+      <c r="H21" s="209"/>
+      <c r="I21" s="61"/>
+    </row>
+    <row r="22" spans="1:9" ht="38.1" customHeight="1">
+      <c r="A22" s="58">
+        <f t="shared" ca="1" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="B22" s="209" t="s">
+        <v>359</v>
+      </c>
+      <c r="C22" s="209"/>
+      <c r="D22" s="54" t="s">
+        <v>715</v>
+      </c>
+      <c r="E22" s="54"/>
+      <c r="F22" s="209"/>
+      <c r="G22" s="209"/>
+      <c r="H22" s="209"/>
+      <c r="I22" s="61"/>
+    </row>
+    <row r="23" spans="1:9" ht="25.5" customHeight="1">
+      <c r="A23" s="58">
+        <f t="shared" ca="1" si="0"/>
+        <v>7</v>
+      </c>
+      <c r="B23" s="209" t="s">
+        <v>360</v>
+      </c>
+      <c r="C23" s="209"/>
+      <c r="D23" s="54" t="s">
+        <v>427</v>
+      </c>
+      <c r="E23" s="54"/>
+      <c r="F23" s="209"/>
+      <c r="G23" s="209"/>
+      <c r="H23" s="209"/>
+      <c r="I23" s="61"/>
+    </row>
+    <row r="24" spans="1:9" ht="24.9" customHeight="1">
+      <c r="A24" s="58"/>
+      <c r="B24" s="209" t="s">
+        <v>362</v>
+      </c>
+      <c r="C24" s="209"/>
+      <c r="D24" s="54" t="s">
+        <v>698</v>
+      </c>
+      <c r="E24" s="54"/>
+      <c r="F24" s="209"/>
+      <c r="G24" s="209"/>
+      <c r="H24" s="209"/>
+      <c r="I24" s="61"/>
+    </row>
+    <row r="25" spans="1:9" ht="24.6">
+      <c r="A25" s="58">
+        <f t="shared" ca="1" si="0"/>
+        <v>8</v>
+      </c>
+      <c r="B25" s="209" t="s">
+        <v>363</v>
+      </c>
+      <c r="C25" s="209"/>
+      <c r="D25" s="54" t="s">
+        <v>699</v>
+      </c>
+      <c r="E25" s="54"/>
+      <c r="F25" s="209"/>
+      <c r="G25" s="209"/>
+      <c r="H25" s="209"/>
+      <c r="I25" s="61"/>
+    </row>
+    <row r="26" spans="1:9" ht="31.8" customHeight="1">
+      <c r="A26" s="58">
+        <f t="shared" ca="1" si="0"/>
+        <v>9</v>
+      </c>
+      <c r="B26" s="209" t="s">
+        <v>391</v>
+      </c>
+      <c r="C26" s="209"/>
+      <c r="D26" s="54" t="s">
+        <v>701</v>
+      </c>
+      <c r="E26" s="54"/>
+      <c r="F26" s="209"/>
+      <c r="G26" s="209"/>
+      <c r="H26" s="209"/>
+      <c r="I26" s="61"/>
+    </row>
+    <row r="27" spans="1:9" ht="37.5" customHeight="1">
+      <c r="A27" s="58">
+        <f t="shared" ca="1" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="B27" s="209" t="s">
+        <v>364</v>
+      </c>
+      <c r="C27" s="209"/>
+      <c r="D27" s="54" t="s">
+        <v>700</v>
+      </c>
+      <c r="E27" s="54"/>
+      <c r="F27" s="209"/>
+      <c r="G27" s="209"/>
+      <c r="H27" s="209"/>
+      <c r="I27" s="61"/>
+    </row>
+    <row r="28" spans="1:9">
+      <c r="A28" s="204"/>
+      <c r="B28" s="274" t="s">
+        <v>636</v>
+      </c>
+      <c r="C28" s="275"/>
+      <c r="D28" s="275"/>
+      <c r="E28" s="275"/>
+      <c r="F28" s="275"/>
+      <c r="G28" s="275"/>
+      <c r="H28" s="275"/>
+      <c r="I28" s="276"/>
+    </row>
+    <row r="29" spans="1:9">
+      <c r="A29" s="58">
+        <f t="shared" ref="A29:A42" ca="1" si="1">IF(OFFSET(A29,-1,0) ="",OFFSET(A29,-2,0)+1,OFFSET(A29,-1,0)+1 )</f>
+        <v>11</v>
+      </c>
+      <c r="B29" s="209" t="s">
+        <v>402</v>
+      </c>
+      <c r="C29" s="209"/>
+      <c r="D29" s="205" t="s">
+        <v>447</v>
+      </c>
+      <c r="E29" s="54"/>
+      <c r="F29" s="209"/>
+      <c r="G29" s="209"/>
+      <c r="H29" s="209"/>
+      <c r="I29" s="55"/>
+    </row>
+    <row r="30" spans="1:9" ht="24.6">
+      <c r="A30" s="58">
+        <f t="shared" ca="1" si="1"/>
+        <v>12</v>
+      </c>
+      <c r="B30" s="209" t="s">
+        <v>412</v>
+      </c>
+      <c r="C30" s="209"/>
+      <c r="D30" s="207" t="s">
+        <v>714</v>
+      </c>
+      <c r="E30" s="54"/>
+      <c r="F30" s="209"/>
+      <c r="G30" s="209"/>
+      <c r="H30" s="209"/>
+      <c r="I30" s="55"/>
+    </row>
+    <row r="31" spans="1:9" ht="36.9">
+      <c r="A31" s="58">
+        <f t="shared" ca="1" si="1"/>
+        <v>13</v>
+      </c>
+      <c r="B31" s="209" t="s">
+        <v>637</v>
+      </c>
+      <c r="C31" s="209"/>
+      <c r="D31" s="205" t="s">
+        <v>657</v>
+      </c>
+      <c r="E31" s="54"/>
+      <c r="F31" s="209"/>
+      <c r="G31" s="209"/>
+      <c r="H31" s="209"/>
+      <c r="I31" s="55"/>
+    </row>
+    <row r="32" spans="1:9" ht="24.6">
+      <c r="A32" s="58">
+        <f t="shared" ca="1" si="1"/>
+        <v>14</v>
+      </c>
+      <c r="B32" s="209" t="s">
+        <v>638</v>
+      </c>
+      <c r="C32" s="209"/>
+      <c r="D32" s="54" t="s">
+        <v>449</v>
+      </c>
+      <c r="E32" s="54"/>
+      <c r="F32" s="209"/>
+      <c r="G32" s="209"/>
+      <c r="H32" s="209"/>
+      <c r="I32" s="61"/>
+    </row>
+    <row r="33" spans="1:9" ht="24.6">
+      <c r="A33" s="58">
+        <f t="shared" ca="1" si="1"/>
+        <v>15</v>
+      </c>
+      <c r="B33" s="209" t="s">
+        <v>336</v>
+      </c>
+      <c r="C33" s="209"/>
+      <c r="D33" s="207" t="s">
+        <v>449</v>
+      </c>
+      <c r="E33" s="54"/>
+      <c r="F33" s="209"/>
+      <c r="G33" s="209"/>
+      <c r="H33" s="209"/>
+      <c r="I33" s="61"/>
+    </row>
+    <row r="34" spans="1:9" ht="24.6">
+      <c r="A34" s="58">
+        <f t="shared" ca="1" si="1"/>
+        <v>16</v>
+      </c>
+      <c r="B34" s="209" t="s">
+        <v>337</v>
+      </c>
+      <c r="C34" s="209"/>
+      <c r="D34" s="205" t="s">
+        <v>686</v>
+      </c>
+      <c r="E34" s="54"/>
+      <c r="F34" s="209"/>
+      <c r="G34" s="209"/>
+      <c r="H34" s="209"/>
+      <c r="I34" s="61"/>
+    </row>
+    <row r="35" spans="1:9" ht="24.6">
+      <c r="A35" s="58">
+        <f t="shared" ca="1" si="1"/>
+        <v>17</v>
+      </c>
+      <c r="B35" s="209" t="s">
+        <v>639</v>
+      </c>
+      <c r="C35" s="209"/>
+      <c r="D35" s="207" t="s">
+        <v>449</v>
+      </c>
+      <c r="E35" s="54"/>
+      <c r="F35" s="209"/>
+      <c r="G35" s="209"/>
+      <c r="H35" s="209"/>
+      <c r="I35" s="61"/>
+    </row>
+    <row r="36" spans="1:9" ht="24.6">
+      <c r="A36" s="58">
+        <f t="shared" ca="1" si="1"/>
+        <v>18</v>
+      </c>
+      <c r="B36" s="209" t="s">
+        <v>338</v>
+      </c>
+      <c r="C36" s="209"/>
+      <c r="D36" s="207" t="s">
+        <v>449</v>
+      </c>
+      <c r="E36" s="54"/>
+      <c r="F36" s="209"/>
+      <c r="G36" s="209"/>
+      <c r="H36" s="209"/>
+      <c r="I36" s="61"/>
+    </row>
+    <row r="37" spans="1:9" ht="24.6">
+      <c r="A37" s="58">
+        <f t="shared" ca="1" si="1"/>
+        <v>19</v>
+      </c>
+      <c r="B37" s="209" t="s">
+        <v>684</v>
+      </c>
+      <c r="C37" s="209"/>
+      <c r="D37" s="207" t="s">
+        <v>685</v>
+      </c>
+      <c r="E37" s="54"/>
+      <c r="F37" s="209"/>
+      <c r="G37" s="209"/>
+      <c r="H37" s="209"/>
+      <c r="I37" s="61"/>
+    </row>
+    <row r="38" spans="1:9" ht="24.6">
+      <c r="A38" s="58">
+        <f t="shared" ca="1" si="1"/>
+        <v>20</v>
+      </c>
+      <c r="B38" s="209" t="s">
+        <v>385</v>
+      </c>
+      <c r="C38" s="209"/>
+      <c r="D38" s="207" t="s">
+        <v>449</v>
+      </c>
+      <c r="E38" s="54"/>
+      <c r="F38" s="209"/>
+      <c r="G38" s="209"/>
+      <c r="H38" s="209"/>
+      <c r="I38" s="61"/>
+    </row>
+    <row r="39" spans="1:9">
+      <c r="A39" s="58">
+        <f t="shared" ca="1" si="1"/>
+        <v>21</v>
+      </c>
+      <c r="B39" s="209" t="s">
+        <v>386</v>
+      </c>
+      <c r="C39" s="209"/>
+      <c r="D39" s="207" t="s">
+        <v>415</v>
+      </c>
+      <c r="E39" s="54"/>
+      <c r="F39" s="209"/>
+      <c r="G39" s="209"/>
+      <c r="H39" s="209"/>
+      <c r="I39" s="61"/>
+    </row>
+    <row r="40" spans="1:9">
+      <c r="A40" s="58">
+        <f t="shared" ca="1" si="1"/>
+        <v>22</v>
+      </c>
+      <c r="B40" s="209" t="s">
+        <v>362</v>
+      </c>
+      <c r="C40" s="209"/>
+      <c r="D40" s="207" t="s">
+        <v>409</v>
+      </c>
+      <c r="E40" s="54"/>
+      <c r="F40" s="209"/>
+      <c r="G40" s="209"/>
+      <c r="H40" s="209"/>
+      <c r="I40" s="61"/>
+    </row>
+    <row r="41" spans="1:9" ht="24.6">
+      <c r="A41" s="58">
+        <f t="shared" ca="1" si="1"/>
+        <v>23</v>
+      </c>
+      <c r="B41" s="209" t="s">
+        <v>396</v>
+      </c>
+      <c r="C41" s="209"/>
+      <c r="D41" s="207" t="s">
+        <v>411</v>
+      </c>
+      <c r="E41" s="54"/>
+      <c r="F41" s="209"/>
+      <c r="G41" s="209"/>
+      <c r="H41" s="209"/>
+      <c r="I41" s="61"/>
+    </row>
+    <row r="42" spans="1:9" ht="24.6">
+      <c r="A42" s="58">
+        <f t="shared" ca="1" si="1"/>
+        <v>24</v>
+      </c>
+      <c r="B42" s="209" t="s">
+        <v>387</v>
+      </c>
+      <c r="C42" s="209"/>
+      <c r="D42" s="207" t="s">
+        <v>517</v>
+      </c>
+      <c r="E42" s="54"/>
+      <c r="F42" s="209"/>
+      <c r="G42" s="209"/>
+      <c r="H42" s="209"/>
+      <c r="I42" s="61"/>
+    </row>
+    <row r="43" spans="1:9">
+      <c r="A43" s="189"/>
+      <c r="B43" s="280" t="s">
+        <v>640</v>
+      </c>
+      <c r="C43" s="281"/>
+      <c r="D43" s="281"/>
+      <c r="E43" s="281"/>
+      <c r="F43" s="281"/>
+      <c r="G43" s="281"/>
+      <c r="H43" s="281"/>
+      <c r="I43" s="282"/>
+    </row>
+    <row r="44" spans="1:9">
+      <c r="A44" s="58">
+        <f t="shared" ref="A44:A56" ca="1" si="2">IF(OFFSET(A44,-1,0) ="",OFFSET(A44,-2,0)+1,OFFSET(A44,-1,0)+1 )</f>
+        <v>25</v>
+      </c>
+      <c r="B44" s="209" t="s">
+        <v>402</v>
+      </c>
+      <c r="C44" s="209"/>
+      <c r="D44" s="205" t="s">
+        <v>652</v>
+      </c>
+      <c r="E44" s="54"/>
+      <c r="F44" s="209"/>
+      <c r="G44" s="209"/>
+      <c r="H44" s="209"/>
+      <c r="I44" s="62"/>
+    </row>
+    <row r="45" spans="1:9" ht="36.9">
+      <c r="A45" s="58">
+        <f t="shared" ca="1" si="2"/>
+        <v>26</v>
+      </c>
+      <c r="B45" s="209" t="s">
+        <v>641</v>
+      </c>
+      <c r="C45" s="209"/>
+      <c r="D45" s="207" t="s">
+        <v>713</v>
+      </c>
+      <c r="E45" s="54"/>
+      <c r="F45" s="209"/>
+      <c r="G45" s="209"/>
+      <c r="H45" s="209"/>
+      <c r="I45" s="62"/>
+    </row>
+    <row r="46" spans="1:9" ht="24.6">
+      <c r="A46" s="58">
+        <f t="shared" ca="1" si="2"/>
+        <v>27</v>
+      </c>
+      <c r="B46" s="209" t="s">
+        <v>642</v>
+      </c>
+      <c r="C46" s="209"/>
+      <c r="D46" s="205" t="s">
+        <v>687</v>
+      </c>
+      <c r="E46" s="54"/>
+      <c r="F46" s="209"/>
+      <c r="G46" s="209"/>
+      <c r="H46" s="209"/>
+      <c r="I46" s="62"/>
+    </row>
+    <row r="47" spans="1:9" ht="24.6">
+      <c r="A47" s="58">
+        <f t="shared" ca="1" si="2"/>
+        <v>28</v>
+      </c>
+      <c r="B47" s="209" t="s">
+        <v>643</v>
+      </c>
+      <c r="C47" s="209"/>
+      <c r="D47" s="54" t="s">
+        <v>449</v>
+      </c>
+      <c r="E47" s="54"/>
+      <c r="F47" s="209"/>
+      <c r="G47" s="209"/>
+      <c r="H47" s="209"/>
+      <c r="I47" s="62"/>
+    </row>
+    <row r="48" spans="1:9" ht="24.6">
+      <c r="A48" s="58">
+        <f t="shared" ca="1" si="2"/>
+        <v>29</v>
+      </c>
+      <c r="B48" s="209" t="s">
+        <v>644</v>
+      </c>
+      <c r="C48" s="209"/>
+      <c r="D48" s="207" t="s">
+        <v>449</v>
+      </c>
+      <c r="E48" s="54"/>
+      <c r="F48" s="209"/>
+      <c r="G48" s="209"/>
+      <c r="H48" s="209"/>
+      <c r="I48" s="62"/>
+    </row>
+    <row r="49" spans="1:9" ht="36.9">
+      <c r="A49" s="58">
+        <f t="shared" ca="1" si="2"/>
+        <v>30</v>
+      </c>
+      <c r="B49" s="209" t="s">
+        <v>645</v>
+      </c>
+      <c r="C49" s="209"/>
+      <c r="D49" s="205" t="s">
+        <v>656</v>
+      </c>
+      <c r="E49" s="54"/>
+      <c r="F49" s="209"/>
+      <c r="G49" s="209"/>
+      <c r="H49" s="209"/>
+      <c r="I49" s="62"/>
+    </row>
+    <row r="50" spans="1:9" ht="24.6">
+      <c r="A50" s="58">
+        <f t="shared" ca="1" si="2"/>
+        <v>31</v>
+      </c>
+      <c r="B50" s="209" t="s">
+        <v>646</v>
+      </c>
+      <c r="C50" s="209"/>
+      <c r="D50" s="207" t="s">
+        <v>653</v>
+      </c>
+      <c r="E50" s="54"/>
+      <c r="F50" s="209"/>
+      <c r="G50" s="209"/>
+      <c r="H50" s="209"/>
+      <c r="I50" s="62"/>
+    </row>
+    <row r="51" spans="1:9" ht="24.6">
+      <c r="A51" s="58">
+        <f t="shared" ca="1" si="2"/>
+        <v>32</v>
+      </c>
+      <c r="B51" s="209" t="s">
+        <v>647</v>
+      </c>
+      <c r="C51" s="209"/>
+      <c r="D51" s="207" t="s">
+        <v>653</v>
+      </c>
+      <c r="E51" s="54"/>
+      <c r="F51" s="209"/>
+      <c r="G51" s="209"/>
+      <c r="H51" s="209"/>
+      <c r="I51" s="62"/>
+    </row>
+    <row r="52" spans="1:9" ht="24.6">
+      <c r="A52" s="58">
+        <f t="shared" ca="1" si="2"/>
+        <v>33</v>
+      </c>
+      <c r="B52" s="209" t="s">
+        <v>648</v>
+      </c>
+      <c r="C52" s="209"/>
+      <c r="D52" s="207" t="s">
+        <v>654</v>
+      </c>
+      <c r="E52" s="54"/>
+      <c r="F52" s="209"/>
+      <c r="G52" s="209"/>
+      <c r="H52" s="209"/>
+      <c r="I52" s="62"/>
+    </row>
+    <row r="53" spans="1:9">
+      <c r="A53" s="58">
+        <f t="shared" ca="1" si="2"/>
+        <v>34</v>
+      </c>
+      <c r="B53" s="209" t="s">
+        <v>649</v>
+      </c>
+      <c r="C53" s="209"/>
+      <c r="D53" s="207" t="s">
+        <v>655</v>
+      </c>
+      <c r="E53" s="54"/>
+      <c r="F53" s="209"/>
+      <c r="G53" s="209"/>
+      <c r="H53" s="209"/>
+      <c r="I53" s="62"/>
+    </row>
+    <row r="54" spans="1:9">
+      <c r="A54" s="58">
+        <f t="shared" ca="1" si="2"/>
+        <v>35</v>
+      </c>
+      <c r="B54" s="209" t="s">
+        <v>362</v>
+      </c>
+      <c r="C54" s="209"/>
+      <c r="D54" s="207" t="s">
+        <v>409</v>
+      </c>
+      <c r="E54" s="54"/>
+      <c r="F54" s="209"/>
+      <c r="G54" s="209"/>
+      <c r="H54" s="209"/>
+      <c r="I54" s="62"/>
+    </row>
+    <row r="55" spans="1:9" ht="24.6">
+      <c r="A55" s="58">
+        <f t="shared" ca="1" si="2"/>
+        <v>36</v>
+      </c>
+      <c r="B55" s="209" t="s">
+        <v>650</v>
+      </c>
+      <c r="C55" s="209"/>
+      <c r="D55" s="207" t="s">
+        <v>702</v>
+      </c>
+      <c r="E55" s="54"/>
+      <c r="F55" s="209"/>
+      <c r="G55" s="209"/>
+      <c r="H55" s="209"/>
+      <c r="I55" s="62"/>
+    </row>
+    <row r="56" spans="1:9">
+      <c r="A56" s="58">
+        <f t="shared" ca="1" si="2"/>
+        <v>37</v>
+      </c>
+      <c r="B56" s="209" t="s">
+        <v>651</v>
+      </c>
+      <c r="C56" s="209"/>
+      <c r="D56" s="207" t="s">
+        <v>517</v>
+      </c>
+      <c r="E56" s="54"/>
+      <c r="F56" s="209"/>
+      <c r="G56" s="209"/>
+      <c r="H56" s="209"/>
+      <c r="I56" s="62"/>
+    </row>
+    <row r="57" spans="1:9">
+      <c r="A57" s="189"/>
+      <c r="B57" s="280" t="s">
+        <v>658</v>
+      </c>
+      <c r="C57" s="281"/>
+      <c r="D57" s="281"/>
+      <c r="E57" s="281"/>
+      <c r="F57" s="281"/>
+      <c r="G57" s="281"/>
+      <c r="H57" s="281"/>
+      <c r="I57" s="282"/>
+    </row>
+    <row r="58" spans="1:9" ht="36.9">
+      <c r="A58" s="58">
+        <f t="shared" ref="A58:A79" ca="1" si="3">IF(OFFSET(A58,-1,0) ="",OFFSET(A58,-2,0)+1,OFFSET(A58,-1,0)+1 )</f>
+        <v>38</v>
+      </c>
+      <c r="B58" s="209" t="s">
+        <v>659</v>
+      </c>
+      <c r="C58" s="209"/>
+      <c r="D58" s="207" t="s">
+        <v>712</v>
+      </c>
+      <c r="E58" s="54"/>
+      <c r="F58" s="209"/>
+      <c r="G58" s="209"/>
+      <c r="H58" s="209"/>
+      <c r="I58" s="62"/>
+    </row>
+    <row r="59" spans="1:9" ht="24.6">
+      <c r="A59" s="58">
+        <f t="shared" ca="1" si="3"/>
+        <v>39</v>
+      </c>
+      <c r="B59" s="209" t="s">
+        <v>660</v>
+      </c>
+      <c r="C59" s="209"/>
+      <c r="D59" s="207" t="s">
+        <v>418</v>
+      </c>
+      <c r="E59" s="54"/>
+      <c r="F59" s="209"/>
+      <c r="G59" s="209"/>
+      <c r="H59" s="209"/>
+      <c r="I59" s="62"/>
+    </row>
+    <row r="60" spans="1:9" ht="24.6">
+      <c r="A60" s="58">
+        <f t="shared" ca="1" si="3"/>
+        <v>40</v>
+      </c>
+      <c r="B60" s="209" t="s">
+        <v>661</v>
+      </c>
+      <c r="C60" s="209"/>
+      <c r="D60" s="207" t="s">
+        <v>689</v>
+      </c>
+      <c r="E60" s="54"/>
+      <c r="F60" s="209"/>
+      <c r="G60" s="209"/>
+      <c r="H60" s="209"/>
+      <c r="I60" s="62"/>
+    </row>
+    <row r="61" spans="1:9">
+      <c r="A61" s="58">
+        <f t="shared" ca="1" si="3"/>
+        <v>41</v>
+      </c>
+      <c r="B61" s="209" t="s">
+        <v>662</v>
+      </c>
+      <c r="C61" s="209"/>
+      <c r="D61" s="207" t="s">
+        <v>665</v>
+      </c>
+      <c r="E61" s="54"/>
+      <c r="F61" s="209"/>
+      <c r="G61" s="209"/>
+      <c r="H61" s="209"/>
+      <c r="I61" s="62"/>
+    </row>
+    <row r="62" spans="1:9" ht="24.6">
+      <c r="A62" s="58">
+        <f t="shared" ca="1" si="3"/>
+        <v>42</v>
+      </c>
+      <c r="B62" s="209" t="s">
+        <v>663</v>
+      </c>
+      <c r="C62" s="209"/>
+      <c r="D62" s="207" t="s">
+        <v>703</v>
+      </c>
+      <c r="E62" s="54"/>
+      <c r="F62" s="209"/>
+      <c r="G62" s="209"/>
+      <c r="H62" s="209"/>
+      <c r="I62" s="62"/>
+    </row>
+    <row r="63" spans="1:9">
+      <c r="A63" s="58">
+        <f t="shared" ca="1" si="3"/>
+        <v>43</v>
+      </c>
+      <c r="B63" s="209" t="s">
+        <v>664</v>
+      </c>
+      <c r="C63" s="209"/>
+      <c r="D63" s="207" t="s">
+        <v>673</v>
+      </c>
+      <c r="E63" s="54"/>
+      <c r="F63" s="209"/>
+      <c r="G63" s="209"/>
+      <c r="H63" s="209"/>
+      <c r="I63" s="62"/>
+    </row>
+    <row r="64" spans="1:9" ht="24.6">
+      <c r="A64" s="58">
+        <f t="shared" ca="1" si="3"/>
+        <v>44</v>
+      </c>
+      <c r="B64" s="211" t="s">
+        <v>682</v>
+      </c>
+      <c r="C64" s="201"/>
+      <c r="D64" s="316" t="s">
+        <v>690</v>
+      </c>
+      <c r="E64" s="202"/>
+      <c r="F64" s="201"/>
+      <c r="G64" s="201"/>
+      <c r="H64" s="201"/>
+      <c r="I64" s="317"/>
+    </row>
+    <row r="65" spans="1:9">
+      <c r="A65" s="189"/>
+      <c r="B65" s="280" t="s">
+        <v>666</v>
+      </c>
+      <c r="C65" s="281"/>
+      <c r="D65" s="281"/>
+      <c r="E65" s="281"/>
+      <c r="F65" s="281"/>
+      <c r="G65" s="281"/>
+      <c r="H65" s="281"/>
+      <c r="I65" s="282"/>
+    </row>
+    <row r="66" spans="1:9" ht="36.9">
+      <c r="A66" s="58">
+        <f t="shared" ca="1" si="3"/>
+        <v>45</v>
+      </c>
+      <c r="B66" s="209" t="s">
+        <v>667</v>
+      </c>
+      <c r="C66" s="209"/>
+      <c r="D66" s="207" t="s">
+        <v>711</v>
+      </c>
+      <c r="E66" s="54"/>
+      <c r="F66" s="209"/>
+      <c r="G66" s="209"/>
+      <c r="H66" s="209"/>
+      <c r="I66" s="62"/>
+    </row>
+    <row r="67" spans="1:9" ht="24.6">
+      <c r="A67" s="58">
+        <f t="shared" ca="1" si="3"/>
+        <v>46</v>
+      </c>
+      <c r="B67" s="209" t="s">
+        <v>668</v>
+      </c>
+      <c r="C67" s="209"/>
+      <c r="D67" s="207" t="s">
+        <v>418</v>
+      </c>
+      <c r="E67" s="54"/>
+      <c r="F67" s="209"/>
+      <c r="G67" s="209"/>
+      <c r="H67" s="209"/>
+      <c r="I67" s="62"/>
+    </row>
+    <row r="68" spans="1:9" ht="24.6">
+      <c r="A68" s="58">
+        <f t="shared" ca="1" si="3"/>
+        <v>47</v>
+      </c>
+      <c r="B68" s="209" t="s">
+        <v>669</v>
+      </c>
+      <c r="C68" s="209"/>
+      <c r="D68" s="207" t="s">
+        <v>689</v>
+      </c>
+      <c r="E68" s="54"/>
+      <c r="F68" s="209"/>
+      <c r="G68" s="209"/>
+      <c r="H68" s="209"/>
+      <c r="I68" s="62"/>
+    </row>
+    <row r="69" spans="1:9">
+      <c r="A69" s="58">
+        <f t="shared" ca="1" si="3"/>
+        <v>48</v>
+      </c>
+      <c r="B69" s="209" t="s">
+        <v>670</v>
+      </c>
+      <c r="C69" s="209"/>
+      <c r="D69" s="207" t="s">
+        <v>665</v>
+      </c>
+      <c r="E69" s="54"/>
+      <c r="F69" s="209"/>
+      <c r="G69" s="209"/>
+      <c r="H69" s="209"/>
+      <c r="I69" s="62"/>
+    </row>
+    <row r="70" spans="1:9" ht="24.6">
+      <c r="A70" s="58">
+        <f t="shared" ca="1" si="3"/>
+        <v>49</v>
+      </c>
+      <c r="B70" s="209" t="s">
+        <v>671</v>
+      </c>
+      <c r="C70" s="209"/>
+      <c r="D70" s="207" t="s">
+        <v>704</v>
+      </c>
+      <c r="E70" s="54"/>
+      <c r="F70" s="209"/>
+      <c r="G70" s="209"/>
+      <c r="H70" s="209"/>
+      <c r="I70" s="62"/>
+    </row>
+    <row r="71" spans="1:9">
+      <c r="A71" s="58">
+        <f t="shared" ca="1" si="3"/>
+        <v>50</v>
+      </c>
+      <c r="B71" s="209" t="s">
+        <v>672</v>
+      </c>
+      <c r="C71" s="209"/>
+      <c r="D71" s="207" t="s">
+        <v>675</v>
+      </c>
+      <c r="E71" s="54"/>
+      <c r="F71" s="209"/>
+      <c r="G71" s="209"/>
+      <c r="H71" s="209"/>
+      <c r="I71" s="62"/>
+    </row>
+    <row r="72" spans="1:9" ht="24.6">
+      <c r="A72" s="58">
+        <f t="shared" ca="1" si="3"/>
+        <v>51</v>
+      </c>
+      <c r="B72" s="211" t="s">
+        <v>683</v>
+      </c>
+      <c r="C72" s="201"/>
+      <c r="D72" s="316" t="s">
+        <v>691</v>
+      </c>
+      <c r="E72" s="202"/>
+      <c r="F72" s="201"/>
+      <c r="G72" s="201"/>
+      <c r="H72" s="201"/>
+      <c r="I72" s="317"/>
+    </row>
+    <row r="73" spans="1:9">
+      <c r="A73" s="189"/>
+      <c r="B73" s="280" t="s">
+        <v>705</v>
+      </c>
+      <c r="C73" s="281"/>
+      <c r="D73" s="281"/>
+      <c r="E73" s="281"/>
+      <c r="F73" s="281"/>
+      <c r="G73" s="281"/>
+      <c r="H73" s="281"/>
+      <c r="I73" s="282"/>
+    </row>
+    <row r="74" spans="1:9" ht="36.9">
+      <c r="A74" s="58">
+        <f t="shared" ca="1" si="3"/>
+        <v>52</v>
+      </c>
+      <c r="B74" s="209" t="s">
+        <v>676</v>
+      </c>
+      <c r="C74" s="209"/>
+      <c r="D74" s="207" t="s">
+        <v>710</v>
+      </c>
+      <c r="E74" s="54"/>
+      <c r="F74" s="209"/>
+      <c r="G74" s="209"/>
+      <c r="H74" s="209"/>
+      <c r="I74" s="62"/>
+    </row>
+    <row r="75" spans="1:9" ht="24.6">
+      <c r="A75" s="58">
+        <f t="shared" ca="1" si="3"/>
+        <v>53</v>
+      </c>
+      <c r="B75" s="209" t="s">
+        <v>677</v>
+      </c>
+      <c r="C75" s="209"/>
+      <c r="D75" s="207" t="s">
+        <v>418</v>
+      </c>
+      <c r="E75" s="54"/>
+      <c r="F75" s="209"/>
+      <c r="G75" s="209"/>
+      <c r="H75" s="209"/>
+      <c r="I75" s="62"/>
+    </row>
+    <row r="76" spans="1:9" ht="24.6">
+      <c r="A76" s="58">
+        <f t="shared" ca="1" si="3"/>
+        <v>54</v>
+      </c>
+      <c r="B76" s="209" t="s">
+        <v>678</v>
+      </c>
+      <c r="C76" s="209"/>
+      <c r="D76" s="207" t="s">
+        <v>689</v>
+      </c>
+      <c r="E76" s="54"/>
+      <c r="F76" s="209"/>
+      <c r="G76" s="209"/>
+      <c r="H76" s="209"/>
+      <c r="I76" s="62"/>
+    </row>
+    <row r="77" spans="1:9">
+      <c r="A77" s="58">
+        <f t="shared" ca="1" si="3"/>
+        <v>55</v>
+      </c>
+      <c r="B77" s="209" t="s">
+        <v>679</v>
+      </c>
+      <c r="C77" s="209"/>
+      <c r="D77" s="207" t="s">
+        <v>665</v>
+      </c>
+      <c r="E77" s="54"/>
+      <c r="F77" s="209"/>
+      <c r="G77" s="209"/>
+      <c r="H77" s="209"/>
+      <c r="I77" s="62"/>
+    </row>
+    <row r="78" spans="1:9" ht="24.6">
+      <c r="A78" s="58">
+        <f t="shared" ca="1" si="3"/>
+        <v>56</v>
+      </c>
+      <c r="B78" s="209" t="s">
+        <v>680</v>
+      </c>
+      <c r="C78" s="209"/>
+      <c r="D78" s="207" t="s">
+        <v>706</v>
+      </c>
+      <c r="E78" s="54"/>
+      <c r="F78" s="209"/>
+      <c r="G78" s="209"/>
+      <c r="H78" s="209"/>
+      <c r="I78" s="62"/>
+    </row>
+    <row r="79" spans="1:9">
+      <c r="A79" s="58">
+        <f t="shared" ca="1" si="3"/>
+        <v>57</v>
+      </c>
+      <c r="B79" s="209" t="s">
+        <v>681</v>
+      </c>
+      <c r="C79" s="209"/>
+      <c r="D79" s="207" t="s">
+        <v>674</v>
+      </c>
+      <c r="E79" s="54"/>
+      <c r="F79" s="209"/>
+      <c r="G79" s="209"/>
+      <c r="H79" s="209"/>
+      <c r="I79" s="62"/>
+    </row>
+    <row r="80" spans="1:9">
+      <c r="A80" s="77"/>
+      <c r="B80" s="263" t="s">
+        <v>688</v>
+      </c>
+      <c r="C80" s="264"/>
+      <c r="D80" s="265"/>
+      <c r="E80" s="69"/>
+      <c r="F80" s="66"/>
+      <c r="G80" s="66"/>
+      <c r="H80" s="66"/>
+      <c r="I80" s="69"/>
+    </row>
+    <row r="81" spans="1:9" ht="24.6">
+      <c r="A81" s="58">
+        <f ca="1">IF(OFFSET(A81,-1,0) ="",OFFSET(A81,-2,0)+1,OFFSET(A81,-1,0)+1 )</f>
+        <v>58</v>
+      </c>
+      <c r="B81" s="209" t="s">
+        <v>692</v>
+      </c>
+      <c r="C81" s="209"/>
+      <c r="D81" s="59" t="s">
+        <v>693</v>
+      </c>
+      <c r="E81" s="54"/>
+      <c r="F81" s="209"/>
+      <c r="G81" s="209"/>
+      <c r="H81" s="209"/>
+      <c r="I81" s="62"/>
+    </row>
+    <row r="82" spans="1:9" ht="24.6">
+      <c r="A82" s="58">
+        <f ca="1">IF(OFFSET(A82,-1,0) ="",OFFSET(A82,-2,0)+1,OFFSET(A82,-1,0)+1 )</f>
+        <v>59</v>
+      </c>
+      <c r="B82" s="209" t="s">
+        <v>695</v>
+      </c>
+      <c r="C82" s="209"/>
+      <c r="D82" s="59" t="s">
+        <v>694</v>
+      </c>
+      <c r="E82" s="54"/>
+      <c r="F82" s="209"/>
+      <c r="G82" s="209"/>
+      <c r="H82" s="209"/>
+      <c r="I82" s="62"/>
+    </row>
+    <row r="83" spans="1:9" ht="24.6">
+      <c r="A83" s="58">
+        <f ca="1">IF(OFFSET(A83,-1,0) ="",OFFSET(A83,-2,0)+1,OFFSET(A83,-1,0)+1 )</f>
+        <v>60</v>
+      </c>
+      <c r="B83" s="209" t="s">
+        <v>696</v>
+      </c>
+      <c r="C83" s="209"/>
+      <c r="D83" s="59" t="s">
+        <v>694</v>
+      </c>
+      <c r="E83" s="54"/>
+      <c r="F83" s="209"/>
+      <c r="G83" s="209"/>
+      <c r="H83" s="209"/>
+      <c r="I83" s="62"/>
+    </row>
+    <row r="84" spans="1:9">
+      <c r="A84" s="58">
+        <f t="shared" ref="A84:A85" ca="1" si="4">IF(OFFSET(A84,-1,0) ="",OFFSET(A84,-2,0)+1,OFFSET(A84,-1,0)+1 )</f>
+        <v>61</v>
+      </c>
+      <c r="B84" s="209" t="s">
+        <v>697</v>
+      </c>
+      <c r="C84" s="209"/>
+      <c r="D84" s="207" t="s">
+        <v>707</v>
+      </c>
+      <c r="E84" s="54"/>
+      <c r="F84" s="209"/>
+      <c r="G84" s="209"/>
+      <c r="H84" s="209"/>
+      <c r="I84" s="62"/>
+    </row>
+    <row r="85" spans="1:9" ht="24.6">
+      <c r="A85" s="58">
+        <f t="shared" ca="1" si="4"/>
+        <v>62</v>
+      </c>
+      <c r="B85" s="209" t="s">
+        <v>708</v>
+      </c>
+      <c r="C85" s="209"/>
+      <c r="D85" s="59" t="s">
+        <v>709</v>
+      </c>
+      <c r="E85" s="54"/>
+      <c r="F85" s="209"/>
+      <c r="G85" s="209"/>
+      <c r="H85" s="209"/>
+      <c r="I85" s="62"/>
+    </row>
+    <row r="86" spans="1:9">
+      <c r="A86" s="62"/>
+      <c r="B86" s="209"/>
+      <c r="C86" s="209"/>
+      <c r="D86" s="207"/>
+      <c r="E86" s="54"/>
+      <c r="F86" s="209"/>
+      <c r="G86" s="209"/>
+      <c r="H86" s="209"/>
+      <c r="I86" s="62"/>
+    </row>
+    <row r="87" spans="1:9">
+      <c r="A87" s="62"/>
+      <c r="B87" s="209"/>
+      <c r="C87" s="209"/>
+      <c r="D87" s="207"/>
+      <c r="E87" s="54"/>
+      <c r="F87" s="209"/>
+      <c r="G87" s="209"/>
+      <c r="H87" s="209"/>
+      <c r="I87" s="62"/>
+    </row>
+    <row r="88" spans="1:9">
+      <c r="A88" s="62"/>
+      <c r="B88" s="209"/>
+      <c r="C88" s="209"/>
+      <c r="D88" s="207"/>
+      <c r="E88" s="54"/>
+      <c r="F88" s="209"/>
+      <c r="G88" s="209"/>
+      <c r="H88" s="209"/>
+      <c r="I88" s="62"/>
+    </row>
+    <row r="89" spans="1:9">
+      <c r="A89" s="58"/>
+      <c r="B89" s="209"/>
+      <c r="C89" s="209"/>
+      <c r="D89" s="59"/>
+      <c r="E89" s="54"/>
+      <c r="F89" s="209"/>
+      <c r="G89" s="209"/>
+      <c r="H89" s="209"/>
+      <c r="I89" s="62"/>
+    </row>
+    <row r="90" spans="1:9">
+      <c r="A90" s="62"/>
+      <c r="B90" s="209"/>
+      <c r="C90" s="198"/>
+      <c r="D90" s="212"/>
+      <c r="E90" s="54"/>
+      <c r="F90" s="209"/>
+      <c r="G90" s="209"/>
+      <c r="H90" s="209"/>
+      <c r="I90" s="62"/>
+    </row>
+    <row r="91" spans="1:9">
+      <c r="A91" s="62"/>
+      <c r="B91" s="209"/>
+      <c r="C91" s="198"/>
+      <c r="D91" s="212"/>
+      <c r="E91" s="54"/>
+      <c r="F91" s="209"/>
+      <c r="G91" s="209"/>
+      <c r="H91" s="209"/>
+      <c r="I91" s="62"/>
+    </row>
+    <row r="92" spans="1:9">
+      <c r="A92" s="62"/>
+      <c r="B92" s="209"/>
+      <c r="C92" s="198"/>
+      <c r="D92" s="212"/>
+      <c r="E92" s="54"/>
+      <c r="F92" s="209"/>
+      <c r="G92" s="209"/>
+      <c r="H92" s="209"/>
+      <c r="I92" s="62"/>
+    </row>
+    <row r="93" spans="1:9">
+      <c r="A93" s="62"/>
+      <c r="B93" s="209"/>
+      <c r="C93" s="198"/>
+      <c r="D93" s="212"/>
+      <c r="E93" s="54"/>
+      <c r="F93" s="209"/>
+      <c r="G93" s="209"/>
+      <c r="H93" s="209"/>
+      <c r="I93" s="62"/>
+    </row>
+    <row r="94" spans="1:9">
+      <c r="A94" s="62"/>
+      <c r="B94" s="209"/>
+      <c r="C94" s="198"/>
+      <c r="D94" s="212"/>
+      <c r="E94" s="54"/>
+      <c r="F94" s="209"/>
+      <c r="G94" s="209"/>
+      <c r="H94" s="209"/>
+      <c r="I94" s="62"/>
+    </row>
+    <row r="95" spans="1:9">
+      <c r="A95" s="62"/>
+      <c r="B95" s="209"/>
+      <c r="C95" s="198"/>
+      <c r="D95" s="212"/>
+      <c r="E95" s="54"/>
+      <c r="F95" s="209"/>
+      <c r="G95" s="209"/>
+      <c r="H95" s="209"/>
+      <c r="I95" s="62"/>
+    </row>
+    <row r="96" spans="1:9">
+      <c r="A96" s="62"/>
+      <c r="B96" s="209"/>
+      <c r="C96" s="198"/>
+      <c r="D96" s="212"/>
+      <c r="E96" s="54"/>
+      <c r="F96" s="209"/>
+      <c r="G96" s="209"/>
+      <c r="H96" s="209"/>
+      <c r="I96" s="62"/>
+    </row>
+    <row r="97" spans="1:9">
+      <c r="A97" s="62"/>
+      <c r="B97" s="209"/>
+      <c r="C97" s="198"/>
+      <c r="D97" s="212"/>
+      <c r="E97" s="54"/>
+      <c r="F97" s="209"/>
+      <c r="G97" s="209"/>
+      <c r="H97" s="209"/>
+      <c r="I97" s="62"/>
+    </row>
+    <row r="98" spans="1:9">
+      <c r="A98" s="62"/>
+      <c r="B98" s="209"/>
+      <c r="C98" s="198"/>
+      <c r="D98" s="212"/>
+      <c r="E98" s="54"/>
+      <c r="F98" s="209"/>
+      <c r="G98" s="209"/>
+      <c r="H98" s="209"/>
+      <c r="I98" s="62"/>
+    </row>
+    <row r="99" spans="1:9">
+      <c r="A99" s="62"/>
+      <c r="B99" s="209"/>
+      <c r="C99" s="198"/>
+      <c r="D99" s="212"/>
+      <c r="E99" s="54"/>
+      <c r="F99" s="209"/>
+      <c r="G99" s="209"/>
+      <c r="H99" s="209"/>
+      <c r="I99" s="62"/>
+    </row>
+    <row r="100" spans="1:9">
+      <c r="A100" s="62"/>
+      <c r="B100" s="209"/>
+      <c r="C100" s="198"/>
+      <c r="D100" s="212"/>
+      <c r="E100" s="54"/>
+      <c r="F100" s="209"/>
+      <c r="G100" s="209"/>
+      <c r="H100" s="209"/>
+      <c r="I100" s="62"/>
+    </row>
+    <row r="101" spans="1:9">
+      <c r="A101" s="62"/>
+      <c r="B101" s="209"/>
+      <c r="C101" s="198"/>
+      <c r="D101" s="212"/>
+      <c r="E101" s="54"/>
+      <c r="F101" s="209"/>
+      <c r="G101" s="209"/>
+      <c r="H101" s="209"/>
+      <c r="I101" s="62"/>
+    </row>
+    <row r="102" spans="1:9">
+      <c r="A102" s="77"/>
+      <c r="B102" s="263"/>
+      <c r="C102" s="264"/>
+      <c r="D102" s="265"/>
+      <c r="E102" s="69"/>
+      <c r="F102" s="66"/>
+      <c r="G102" s="66"/>
+      <c r="H102" s="66"/>
+      <c r="I102" s="69"/>
+    </row>
+    <row r="103" spans="1:9">
+      <c r="A103" s="62"/>
+      <c r="B103" s="209"/>
+      <c r="C103" s="209"/>
+      <c r="D103" s="54"/>
+      <c r="E103" s="54"/>
+      <c r="F103" s="209"/>
+      <c r="G103" s="209"/>
+      <c r="H103" s="209"/>
+      <c r="I103" s="62"/>
+    </row>
+    <row r="104" spans="1:9">
+      <c r="A104" s="62"/>
+      <c r="B104" s="209"/>
+      <c r="C104" s="209"/>
+      <c r="D104" s="54"/>
+      <c r="E104" s="54"/>
+      <c r="F104" s="209"/>
+      <c r="G104" s="209"/>
+      <c r="H104" s="209"/>
+      <c r="I104" s="62"/>
+    </row>
+  </sheetData>
+  <mergeCells count="15">
+    <mergeCell ref="B15:I15"/>
+    <mergeCell ref="B16:I16"/>
+    <mergeCell ref="B28:I28"/>
+    <mergeCell ref="B43:I43"/>
+    <mergeCell ref="B57:I57"/>
+    <mergeCell ref="B65:I65"/>
+    <mergeCell ref="B80:D80"/>
+    <mergeCell ref="B102:D102"/>
+    <mergeCell ref="B73:I73"/>
+    <mergeCell ref="B1:D1"/>
+    <mergeCell ref="B2:D2"/>
+    <mergeCell ref="B3:D3"/>
+    <mergeCell ref="B4:D4"/>
+    <mergeCell ref="B5:D5"/>
+    <mergeCell ref="F13:H13"/>
+  </mergeCells>
+  <dataValidations count="2">
+    <dataValidation showDropDown="1" showErrorMessage="1" sqref="F13:H14"/>
+    <dataValidation type="list" allowBlank="1" sqref="F17:H27 F29:H42 F44:H56 F58:H64 F66:H72 F74:H104">
+      <formula1>$A$11:$A$15</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <legacyDrawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor rgb="FF00B050"/>
@@ -13340,13 +15428,13 @@
     </row>
     <row r="2" spans="1:12" s="84" customFormat="1" ht="25.2">
       <c r="A2" s="83"/>
-      <c r="C2" s="295" t="s">
+      <c r="C2" s="311" t="s">
         <v>119</v>
       </c>
-      <c r="D2" s="295"/>
-      <c r="E2" s="295"/>
-      <c r="F2" s="295"/>
-      <c r="G2" s="295"/>
+      <c r="D2" s="311"/>
+      <c r="E2" s="311"/>
+      <c r="F2" s="311"/>
+      <c r="G2" s="311"/>
       <c r="H2" s="85" t="s">
         <v>120</v>
       </c>
@@ -13357,15 +15445,15 @@
     </row>
     <row r="3" spans="1:12" s="84" customFormat="1" ht="22.5">
       <c r="A3" s="83"/>
-      <c r="C3" s="296" t="s">
+      <c r="C3" s="312" t="s">
         <v>121</v>
       </c>
-      <c r="D3" s="296"/>
+      <c r="D3" s="312"/>
       <c r="E3" s="157"/>
-      <c r="F3" s="297" t="s">
+      <c r="F3" s="313" t="s">
         <v>122</v>
       </c>
-      <c r="G3" s="297"/>
+      <c r="G3" s="313"/>
       <c r="H3" s="86"/>
       <c r="I3" s="86"/>
       <c r="J3" s="87"/>
@@ -13390,10 +15478,10 @@
       <c r="L5" s="92"/>
     </row>
     <row r="6" spans="1:12" ht="21.75" customHeight="1">
-      <c r="B6" s="298" t="s">
+      <c r="B6" s="295" t="s">
         <v>123</v>
       </c>
-      <c r="C6" s="298"/>
+      <c r="C6" s="295"/>
       <c r="D6" s="94"/>
       <c r="E6" s="94"/>
       <c r="F6" s="94"/>
@@ -13562,11 +15650,11 @@
       <c r="G13" s="98"/>
     </row>
     <row r="14" spans="1:12" ht="21.75" customHeight="1">
-      <c r="B14" s="298" t="s">
+      <c r="B14" s="295" t="s">
         <v>153</v>
       </c>
-      <c r="C14" s="298"/>
-      <c r="D14" s="298"/>
+      <c r="C14" s="295"/>
+      <c r="D14" s="295"/>
       <c r="E14" s="94"/>
       <c r="F14" s="94"/>
       <c r="G14" s="95"/>
@@ -13742,11 +15830,11 @@
       <c r="G22" s="98"/>
     </row>
     <row r="23" spans="1:12" ht="21.75" customHeight="1">
-      <c r="B23" s="298" t="s">
+      <c r="B23" s="295" t="s">
         <v>163</v>
       </c>
-      <c r="C23" s="298"/>
-      <c r="D23" s="298"/>
+      <c r="C23" s="295"/>
+      <c r="D23" s="295"/>
       <c r="E23" s="94"/>
       <c r="F23" s="94"/>
       <c r="G23" s="95"/>
@@ -13792,10 +15880,10 @@
       <c r="F26" s="160" t="s">
         <v>170</v>
       </c>
-      <c r="G26" s="299" t="s">
+      <c r="G26" s="314" t="s">
         <v>114</v>
       </c>
-      <c r="H26" s="300"/>
+      <c r="H26" s="315"/>
     </row>
     <row r="27" spans="1:12">
       <c r="A27" s="100">
@@ -13820,8 +15908,8 @@
         <f>COUNTIFS(#REF!, "*Critical*",#REF!,"*Closed*") + COUNTIFS(#REF!, "*Critical*",#REF!,"*Ready for client test*")</f>
         <v>#REF!</v>
       </c>
-      <c r="G27" s="293"/>
-      <c r="H27" s="294"/>
+      <c r="G27" s="306"/>
+      <c r="H27" s="307"/>
     </row>
     <row r="28" spans="1:12" ht="20.25" customHeight="1">
       <c r="A28" s="100">
@@ -13846,8 +15934,8 @@
         <f>COUNTIFS(#REF!, "*Major*",#REF!,"*Closed*") + COUNTIFS(#REF!, "*Major*",#REF!,"*Ready for client test*")</f>
         <v>#REF!</v>
       </c>
-      <c r="G28" s="293"/>
-      <c r="H28" s="294"/>
+      <c r="G28" s="306"/>
+      <c r="H28" s="307"/>
     </row>
     <row r="29" spans="1:12" ht="20.25" customHeight="1">
       <c r="A29" s="100">
@@ -13872,8 +15960,8 @@
         <f>COUNTIFS(#REF!, "*Normal*",#REF!,"*Closed*") + COUNTIFS(#REF!, "*Normal*",#REF!,"*Ready for client test*")</f>
         <v>#REF!</v>
       </c>
-      <c r="G29" s="293"/>
-      <c r="H29" s="294"/>
+      <c r="G29" s="306"/>
+      <c r="H29" s="307"/>
     </row>
     <row r="30" spans="1:12" ht="20.25" customHeight="1">
       <c r="A30" s="100">
@@ -13898,8 +15986,8 @@
         <f>COUNTIFS(#REF!, "*Minor*",#REF!,"*Closed*") + COUNTIFS(#REF!, "*Minor*",#REF!,"*Ready for client test*")</f>
         <v>#REF!</v>
       </c>
-      <c r="G30" s="293"/>
-      <c r="H30" s="294"/>
+      <c r="G30" s="306"/>
+      <c r="H30" s="307"/>
     </row>
     <row r="31" spans="1:12" ht="20.25" customHeight="1">
       <c r="A31" s="100"/>
@@ -13920,8 +16008,8 @@
         <f>SUM(F27:F30)</f>
         <v>#REF!</v>
       </c>
-      <c r="G31" s="293"/>
-      <c r="H31" s="294"/>
+      <c r="G31" s="306"/>
+      <c r="H31" s="307"/>
     </row>
     <row r="32" spans="1:12" ht="20.25" customHeight="1">
       <c r="A32" s="106"/>
@@ -13959,7 +16047,7 @@
       <c r="E34" s="160" t="s">
         <v>129</v>
       </c>
-      <c r="F34" s="301" t="s">
+      <c r="F34" s="300" t="s">
         <v>132</v>
       </c>
       <c r="G34" s="302"/>
@@ -13978,8 +16066,8 @@
       <c r="E35" s="126" t="s">
         <v>137</v>
       </c>
-      <c r="F35" s="304"/>
-      <c r="G35" s="305"/>
+      <c r="F35" s="309"/>
+      <c r="G35" s="310"/>
       <c r="H35" s="124"/>
       <c r="I35" s="124"/>
       <c r="J35" s="124"/>
@@ -14002,8 +16090,8 @@
       <c r="E36" s="104" t="s">
         <v>143</v>
       </c>
-      <c r="F36" s="293"/>
-      <c r="G36" s="294"/>
+      <c r="F36" s="306"/>
+      <c r="G36" s="307"/>
     </row>
     <row r="37" spans="1:12" ht="20.25" customHeight="1">
       <c r="A37" s="100">
@@ -14021,8 +16109,8 @@
       <c r="E37" s="104" t="s">
         <v>143</v>
       </c>
-      <c r="F37" s="293"/>
-      <c r="G37" s="294"/>
+      <c r="F37" s="306"/>
+      <c r="G37" s="307"/>
     </row>
     <row r="38" spans="1:12" ht="20.25" customHeight="1">
       <c r="A38" s="106"/>
@@ -14035,10 +16123,10 @@
       <c r="H38" s="108"/>
     </row>
     <row r="39" spans="1:12" ht="21.75" customHeight="1">
-      <c r="B39" s="298" t="s">
+      <c r="B39" s="295" t="s">
         <v>184</v>
       </c>
-      <c r="C39" s="298"/>
+      <c r="C39" s="295"/>
       <c r="D39" s="94"/>
       <c r="E39" s="94"/>
       <c r="F39" s="94"/>
@@ -14062,15 +16150,15 @@
       <c r="B41" s="160" t="s">
         <v>62</v>
       </c>
-      <c r="C41" s="303" t="s">
+      <c r="C41" s="308" t="s">
         <v>186</v>
       </c>
-      <c r="D41" s="303"/>
-      <c r="E41" s="303" t="s">
+      <c r="D41" s="308"/>
+      <c r="E41" s="308" t="s">
         <v>187</v>
       </c>
-      <c r="F41" s="303"/>
-      <c r="G41" s="303"/>
+      <c r="F41" s="308"/>
+      <c r="G41" s="308"/>
       <c r="H41" s="99" t="s">
         <v>188</v>
       </c>
@@ -14082,15 +16170,15 @@
       <c r="B42" s="161" t="s">
         <v>189</v>
       </c>
-      <c r="C42" s="306" t="s">
+      <c r="C42" s="305" t="s">
         <v>190</v>
       </c>
-      <c r="D42" s="306"/>
-      <c r="E42" s="306" t="s">
+      <c r="D42" s="305"/>
+      <c r="E42" s="305" t="s">
         <v>191</v>
       </c>
-      <c r="F42" s="306"/>
-      <c r="G42" s="306"/>
+      <c r="F42" s="305"/>
+      <c r="G42" s="305"/>
       <c r="H42" s="109"/>
     </row>
     <row r="43" spans="1:12" ht="34.5" customHeight="1">
@@ -14100,15 +16188,15 @@
       <c r="B43" s="161" t="s">
         <v>189</v>
       </c>
-      <c r="C43" s="306" t="s">
+      <c r="C43" s="305" t="s">
         <v>190</v>
       </c>
-      <c r="D43" s="306"/>
-      <c r="E43" s="306" t="s">
+      <c r="D43" s="305"/>
+      <c r="E43" s="305" t="s">
         <v>191</v>
       </c>
-      <c r="F43" s="306"/>
-      <c r="G43" s="306"/>
+      <c r="F43" s="305"/>
+      <c r="G43" s="305"/>
       <c r="H43" s="109"/>
     </row>
     <row r="44" spans="1:12" ht="34.5" customHeight="1">
@@ -14118,15 +16206,15 @@
       <c r="B44" s="161" t="s">
         <v>189</v>
       </c>
-      <c r="C44" s="306" t="s">
+      <c r="C44" s="305" t="s">
         <v>190</v>
       </c>
-      <c r="D44" s="306"/>
-      <c r="E44" s="306" t="s">
+      <c r="D44" s="305"/>
+      <c r="E44" s="305" t="s">
         <v>191</v>
       </c>
-      <c r="F44" s="306"/>
-      <c r="G44" s="306"/>
+      <c r="F44" s="305"/>
+      <c r="G44" s="305"/>
       <c r="H44" s="109"/>
     </row>
     <row r="45" spans="1:12">
@@ -14138,10 +16226,10 @@
       <c r="G45" s="98"/>
     </row>
     <row r="46" spans="1:12" ht="21.75" customHeight="1">
-      <c r="B46" s="298" t="s">
+      <c r="B46" s="295" t="s">
         <v>192</v>
       </c>
-      <c r="C46" s="298"/>
+      <c r="C46" s="295"/>
       <c r="D46" s="94"/>
       <c r="E46" s="94"/>
       <c r="F46" s="94"/>
@@ -14159,25 +16247,25 @@
       <c r="G47" s="98"/>
     </row>
     <row r="48" spans="1:12" s="113" customFormat="1" ht="21" customHeight="1">
-      <c r="A48" s="309" t="s">
+      <c r="A48" s="296" t="s">
         <v>58</v>
       </c>
-      <c r="B48" s="311" t="s">
+      <c r="B48" s="298" t="s">
         <v>194</v>
       </c>
-      <c r="C48" s="301" t="s">
+      <c r="C48" s="300" t="s">
         <v>195</v>
       </c>
-      <c r="D48" s="313"/>
-      <c r="E48" s="313"/>
+      <c r="D48" s="301"/>
+      <c r="E48" s="301"/>
       <c r="F48" s="302"/>
-      <c r="G48" s="314" t="s">
+      <c r="G48" s="303" t="s">
         <v>162</v>
       </c>
-      <c r="H48" s="314" t="s">
+      <c r="H48" s="303" t="s">
         <v>194</v>
       </c>
-      <c r="I48" s="307" t="s">
+      <c r="I48" s="293" t="s">
         <v>196</v>
       </c>
       <c r="J48" s="112"/>
@@ -14185,8 +16273,8 @@
       <c r="L48" s="112"/>
     </row>
     <row r="49" spans="1:9">
-      <c r="A49" s="310"/>
-      <c r="B49" s="312"/>
+      <c r="A49" s="297"/>
+      <c r="B49" s="299"/>
       <c r="C49" s="114" t="s">
         <v>171</v>
       </c>
@@ -14199,13 +16287,13 @@
       <c r="F49" s="115" t="s">
         <v>174</v>
       </c>
-      <c r="G49" s="315"/>
-      <c r="H49" s="315"/>
-      <c r="I49" s="308"/>
+      <c r="G49" s="304"/>
+      <c r="H49" s="304"/>
+      <c r="I49" s="294"/>
     </row>
     <row r="50" spans="1:9" ht="25.2">
-      <c r="A50" s="310"/>
-      <c r="B50" s="312"/>
+      <c r="A50" s="297"/>
+      <c r="B50" s="299"/>
       <c r="C50" s="128" t="s">
         <v>197</v>
       </c>
@@ -14317,26 +16405,6 @@
     </row>
   </sheetData>
   <mergeCells count="32">
-    <mergeCell ref="I48:I49"/>
-    <mergeCell ref="B46:C46"/>
-    <mergeCell ref="A48:A50"/>
-    <mergeCell ref="B48:B50"/>
-    <mergeCell ref="C48:F48"/>
-    <mergeCell ref="G48:G49"/>
-    <mergeCell ref="H48:H49"/>
-    <mergeCell ref="C42:D42"/>
-    <mergeCell ref="E42:G42"/>
-    <mergeCell ref="C43:D43"/>
-    <mergeCell ref="E43:G43"/>
-    <mergeCell ref="C44:D44"/>
-    <mergeCell ref="E44:G44"/>
-    <mergeCell ref="F34:G34"/>
-    <mergeCell ref="F36:G36"/>
-    <mergeCell ref="F37:G37"/>
-    <mergeCell ref="B39:C39"/>
-    <mergeCell ref="C41:D41"/>
-    <mergeCell ref="E41:G41"/>
-    <mergeCell ref="F35:G35"/>
     <mergeCell ref="G31:H31"/>
     <mergeCell ref="C2:G2"/>
     <mergeCell ref="C3:D3"/>
@@ -14349,6 +16417,26 @@
     <mergeCell ref="G28:H28"/>
     <mergeCell ref="G29:H29"/>
     <mergeCell ref="G30:H30"/>
+    <mergeCell ref="F34:G34"/>
+    <mergeCell ref="F36:G36"/>
+    <mergeCell ref="F37:G37"/>
+    <mergeCell ref="B39:C39"/>
+    <mergeCell ref="C41:D41"/>
+    <mergeCell ref="E41:G41"/>
+    <mergeCell ref="F35:G35"/>
+    <mergeCell ref="C42:D42"/>
+    <mergeCell ref="E42:G42"/>
+    <mergeCell ref="C43:D43"/>
+    <mergeCell ref="E43:G43"/>
+    <mergeCell ref="C44:D44"/>
+    <mergeCell ref="E44:G44"/>
+    <mergeCell ref="I48:I49"/>
+    <mergeCell ref="B46:C46"/>
+    <mergeCell ref="A48:A50"/>
+    <mergeCell ref="B48:B50"/>
+    <mergeCell ref="C48:F48"/>
+    <mergeCell ref="G48:G49"/>
+    <mergeCell ref="H48:H49"/>
   </mergeCells>
   <conditionalFormatting sqref="H51">
     <cfRule type="cellIs" dxfId="5" priority="5" operator="equal">
@@ -14386,21 +16474,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101008DD9373D9A24F64F89F14F461305A106" ma:contentTypeVersion="4" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="edefd2bea9a69e65a3918d4b9d850884">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="cabca498-5e2a-459c-ade0-601c6a98c846" xmlns:ns3="044e8ed5-b60c-40cd-b477-04c240ccf9c3" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="1cdcf90a8e7cb27405451b504492cec2" ns2:_="" ns3:_="">
     <xsd:import namespace="cabca498-5e2a-459c-ade0-601c6a98c846"/>
@@ -14565,10 +16638,36 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4F8C6C6D-E626-49D4-9BA8-E27B2B9C9191}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A7729ACD-7A20-4344-BFA5-B224A8419F45}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="cabca498-5e2a-459c-ade0-601c6a98c846"/>
+    <ds:schemaRef ds:uri="044e8ed5-b60c-40cd-b477-04c240ccf9c3"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -14591,20 +16690,9 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A7729ACD-7A20-4344-BFA5-B224A8419F45}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4F8C6C6D-E626-49D4-9BA8-E27B2B9C9191}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="cabca498-5e2a-459c-ade0-601c6a98c846"/>
-    <ds:schemaRef ds:uri="044e8ed5-b60c-40cd-b477-04c240ccf9c3"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/test design technic daongochuy.xlsx
+++ b/test design technic daongochuy.xlsx
@@ -1035,7 +1035,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1032" uniqueCount="716">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1113" uniqueCount="781">
   <si>
     <r>
       <t xml:space="preserve">Security Classification: </t>
@@ -2942,9 +2942,6 @@
     <t>6, Product sorting "High to Low " and "Low to High"</t>
   </si>
   <si>
-    <t>x</t>
-  </si>
-  <si>
     <t>User click "&gt;" button</t>
   </si>
   <si>
@@ -3348,21 +3345,6 @@
     <t xml:space="preserve">Default status of Address box </t>
   </si>
   <si>
-    <t>Address has  less than 6 characters</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Address has 6 characters </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Address  has 50 characters </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Address has more than 50 characters </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Address in the range of 6 to 50 characters </t>
-  </si>
-  <si>
     <t xml:space="preserve">Address contains numberic </t>
   </si>
   <si>
@@ -3500,9 +3482,6 @@
     <t xml:space="preserve">Ward can't be selected when District haven't selected </t>
   </si>
   <si>
-    <t xml:space="preserve">When a fields are filled correctly </t>
-  </si>
-  <si>
     <t xml:space="preserve">Verify that new address added successfully </t>
   </si>
   <si>
@@ -3548,12 +3527,6 @@
     <t>Verify that existed address can be edited</t>
   </si>
   <si>
-    <t xml:space="preserve">Address edited successfully </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Verify that new address displayed on the Address Book  </t>
-  </si>
-  <si>
     <t xml:space="preserve">Verify that the box is empty with place holder "Please select your Ward " when loading the page </t>
   </si>
   <si>
@@ -3570,6 +3543,327 @@
   </si>
   <si>
     <t xml:space="preserve">Verify that the box is empty with place holder "Please enter your Phone Number " when loading the page </t>
+  </si>
+  <si>
+    <t xml:space="preserve">When all fields are filled correctly </t>
+  </si>
+  <si>
+    <t>Label</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Defalut value of Label field </t>
+  </si>
+  <si>
+    <t>User choose a "Home" label</t>
+  </si>
+  <si>
+    <t>User choose a "Office" label</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Label not selected </t>
+  </si>
+  <si>
+    <t>Cancel button</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1,Go  to "Add mew address page "
+2,Loose focus the box 
+3, Click Save </t>
+  </si>
+  <si>
+    <t xml:space="preserve">1,Go  to "Add mew address page "
+2,Type in a Phone Number that contain less than 10 numbers 
+3, Click Save </t>
+  </si>
+  <si>
+    <t xml:space="preserve">1,Go  to "Add mew address page "
+2,Type in a Phone Number that contain  10 numbers 
+3, Click Save </t>
+  </si>
+  <si>
+    <t xml:space="preserve">1,Go  to "Add mew address page "
+2,Type in a Phone Number that contain more than 10 numbers 
+3, Click Save </t>
+  </si>
+  <si>
+    <t xml:space="preserve">1,Go  to "Add mew address page "
+2,Type in a Phone Number that contain special characters  
+3, Click Save </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Default value of Phone Number box </t>
+  </si>
+  <si>
+    <t xml:space="preserve">1,Go  to "Add mew address page "
+2,Focus the box </t>
+  </si>
+  <si>
+    <t xml:space="preserve">1,Go  to "Add mew address page "
+2,Type in a valid Phone Number  
+3, Click Save </t>
+  </si>
+  <si>
+    <t xml:space="preserve">1,Go  to "Add mew address page "
+2,Type in Phone Number  
+3, Click "X" button </t>
+  </si>
+  <si>
+    <t xml:space="preserve">1,Go  to "Add mew address page "
+2,Paste Phone Number to the box 
+3, Click Save </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Phone Number is copied from  the box </t>
+  </si>
+  <si>
+    <t xml:space="preserve">1,Go  to "Add mew address page "
+2,Copy Phone Number to the box 
+ </t>
+  </si>
+  <si>
+    <t>Verify that number can be copied from the box</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1,Go  to "Add mew address page "
+2,Type in "  0984437459  " 
+3, Click Save </t>
+  </si>
+  <si>
+    <t xml:space="preserve">1,Go  to "Add mew address page "
+2,Type in a Full Name that contain less than 10 numbers 
+3, Click Save </t>
+  </si>
+  <si>
+    <t xml:space="preserve">1,Go  to "Add mew address page "
+2,Type in a Full Name that contain less than 2 characters  
+3, Click Save </t>
+  </si>
+  <si>
+    <t xml:space="preserve">1,Go  to "Add mew address page "
+2,Type in a Full Name that contain 2 characters 
+3, Click Save </t>
+  </si>
+  <si>
+    <t xml:space="preserve">1,Go  to "Add mew address page "
+2,Type in a Full Name that contain 50 characters 
+3, Click Save </t>
+  </si>
+  <si>
+    <t xml:space="preserve">1,Go  to "Add mew address page "
+2,Type in a Full Name that contain more than 150 characters 
+3, Click Save </t>
+  </si>
+  <si>
+    <t xml:space="preserve">1,Go  to "Add mew address page "
+2,Type in a Full Name in the range of 2 - 50 characters 
+3, Click Save </t>
+  </si>
+  <si>
+    <t xml:space="preserve">1,Go  to "Add mew address page "
+2,Type in a Full Name that contain numberic 
+3, Click Save </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Full Name copied from the box </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Verify that Full Name can be copied the box </t>
+  </si>
+  <si>
+    <t xml:space="preserve">1,Go  to "Add mew address page "
+2,Type in a Full Name 
+3, Copy Full Name </t>
+  </si>
+  <si>
+    <t xml:space="preserve">1,Go  to "Add mew address page "
+2,Paste Full Name to the box 
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1,Go  to "Add mew address page "
+2,Type in a Full Name
+3, Click Save </t>
+  </si>
+  <si>
+    <t xml:space="preserve">1,Go  to "Add mew address page "
+2,Type in a Full Name
+3, Click "X" button </t>
+  </si>
+  <si>
+    <t xml:space="preserve">1,Go  to "Add mew address page "
+2,Focus on the box </t>
+  </si>
+  <si>
+    <t>Address has  less than 5 characters</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Address has 5 characters </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Address  has 350 characters </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Address has more than 350 characters </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Address in the range of 5 to 350 characters </t>
+  </si>
+  <si>
+    <t xml:space="preserve">1,Go  to "Add mew address page "
+2,Type in an Address that contain less than 5 characters </t>
+  </si>
+  <si>
+    <t xml:space="preserve">1,Go  to "Add mew address page "
+2,Type in an Address that contain 5 characters </t>
+  </si>
+  <si>
+    <t xml:space="preserve">1,Go  to "Add mew address page "
+2,Type in an Address that contain 350 characters </t>
+  </si>
+  <si>
+    <t xml:space="preserve">1,Go  to "Add mew address page "
+2,Type in an Address that contain more than 350 characters </t>
+  </si>
+  <si>
+    <t xml:space="preserve">1,Go  to "Add mew address page "
+2,Type in an Address that in the range of 5 to 350 characters </t>
+  </si>
+  <si>
+    <t xml:space="preserve">1,Go  to "Add mew address page "
+2,Type in an Address that contain numberic 350 characters </t>
+  </si>
+  <si>
+    <t xml:space="preserve">1,Go  to "Add mew address page "
+2,Type in an valid Address </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Address copied from the box </t>
+  </si>
+  <si>
+    <t xml:space="preserve">1,Go  to "Add mew address page "
+2,Type in an valid Address 
+3, Copy Adress from the box </t>
+  </si>
+  <si>
+    <t xml:space="preserve">1,Go  to "Add mew address page "
+2,Paste Address to the box </t>
+  </si>
+  <si>
+    <t xml:space="preserve">1,Go  to "Add mew address page "
+2,Type in an valid Address 
+3, Click "X" button  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">1,Go  to "Add mew address page "
+2,Type "    huy "
+3, Click Save </t>
+  </si>
+  <si>
+    <t xml:space="preserve">1,Go  to "Add mew address page "
+2,Type "    gia ngu "
+3, Click Save </t>
+  </si>
+  <si>
+    <t xml:space="preserve">1,Go  to "Add mew address page "
+2,Click on drop down button </t>
+  </si>
+  <si>
+    <t>Verify that options appears when user click on Drop down button with  Ho Chi Minh city on the top and the others is following the alphabetic order</t>
+  </si>
+  <si>
+    <t>1,Go  to "Add mew address page "
+2,Click on drop down button 
+3, Scroll Up and Down to choose a Province</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1,Go  to "Add mew address page "
+2,Click on drop down button 
+3, Scroll Up and Down to choose a Province
+4, Click on option to choose a Province </t>
+  </si>
+  <si>
+    <t xml:space="preserve">1,Go  to "Add mew address page "
+2,Loose focus the Province box 
+3, Click on drop down button on District box </t>
+  </si>
+  <si>
+    <t>1,Go  to "Add mew address page "
+2,Click on drop down button 
+3, Scroll Up and Down to choose a District</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1,Go  to "Add mew address page "
+2,Click on drop down button 
+3, Scroll Up and Down to choose a District
+4, Click on option to choose a District </t>
+  </si>
+  <si>
+    <t>1,Go  to "Add mew address page "
+2,Click on drop down button 
+3, Scroll Up and Down to choose a Ward</t>
+  </si>
+  <si>
+    <t>1,Go  to "Add mew address page "
+2,Click on drop down button 
+3, Scroll Up and Down to choose a Ward
+4, Click on option to choose a Ward</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1,Go  to "Add mew address page "
+2,Loose focus the District box 
+3, Click on drop down button on Ward box </t>
+  </si>
+  <si>
+    <t xml:space="preserve">1,Go  to "Add mew address page "
+2,Focus on the labels </t>
+  </si>
+  <si>
+    <t xml:space="preserve">1,Go  to "Add mew address page "
+2,User clicks Office label </t>
+  </si>
+  <si>
+    <t xml:space="preserve">1,Go  to "Add mew address page "
+2,User clicks Home label </t>
+  </si>
+  <si>
+    <t xml:space="preserve">1,Go  to "Add mew address page "
+2,Loose focus on the labels
+3, Click Save </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Users click Cancel button </t>
+  </si>
+  <si>
+    <t xml:space="preserve">1,Go  to "Add mew address page "
+3, Click Cancel </t>
+  </si>
+  <si>
+    <t>Verify that the website back to the Address Book page</t>
+  </si>
+  <si>
+    <t>1,Go  to "Add mew address page "
+2, Fill all the fields correctly 
+3, Click Save</t>
+  </si>
+  <si>
+    <t>1,Go  to "Add mew address page "
+2, Fill all the fields correctly 
+3, Click Save
+4, Go to Address Book page</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1,Go  to "Add mew address page "
+2, Fill all the fields correctly 
+3, Click Save
+4, Go to Address Book page
+5, Click "Add New Address" to add more address </t>
+  </si>
+  <si>
+    <t xml:space="preserve">1,Go  to "Add mew address page "
+2, Fill all the fields correctly 
+3, Click Save
+4, Go to Address Book page
+5, Click Edit button that next to that address </t>
   </si>
 </sst>
 </file>
@@ -4697,7 +4991,7 @@
     <xf numFmtId="166" fontId="56" fillId="0" borderId="0"/>
     <xf numFmtId="166" fontId="57" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="321">
+  <cellXfs count="323">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
@@ -5286,6 +5580,12 @@
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="47" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="16" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="21" borderId="22" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -5523,6 +5823,15 @@
     <xf numFmtId="0" fontId="3" fillId="37" borderId="11" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="37" fillId="10" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="10" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="10" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="12" xfId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -5592,20 +5901,11 @@
     <xf numFmtId="166" fontId="3" fillId="2" borderId="0" xfId="7" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="16" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="10" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="10" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="10" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="37" fillId="36" borderId="16" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="36" borderId="11" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="27">
@@ -5951,6 +6251,163 @@
 </file>
 
 <file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>666750</xdr:colOff>
+      <xdr:row>83</xdr:row>
+      <xdr:rowOff>7621</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>2529840</xdr:colOff>
+      <xdr:row>83</xdr:row>
+      <xdr:rowOff>721087</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5273040" y="23359111"/>
+          <a:ext cx="1863090" cy="713466"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>609600</xdr:colOff>
+      <xdr:row>86</xdr:row>
+      <xdr:rowOff>62088</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>2270760</xdr:colOff>
+      <xdr:row>86</xdr:row>
+      <xdr:rowOff>698225</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Picture 2"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5215890" y="26027238"/>
+          <a:ext cx="1661160" cy="636137"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>647700</xdr:colOff>
+      <xdr:row>85</xdr:row>
+      <xdr:rowOff>30480</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>2266950</xdr:colOff>
+      <xdr:row>85</xdr:row>
+      <xdr:rowOff>706943</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="Picture 3"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5253990" y="25214580"/>
+          <a:ext cx="1619250" cy="676463"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>749045</xdr:colOff>
+      <xdr:row>84</xdr:row>
+      <xdr:rowOff>205740</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>2144228</xdr:colOff>
+      <xdr:row>84</xdr:row>
+      <xdr:rowOff>781049</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="Picture 4"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5355335" y="24296370"/>
+          <a:ext cx="1395183" cy="575309"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
@@ -6367,37 +6824,37 @@
       <c r="F3" s="18"/>
     </row>
     <row r="4" spans="1:6" ht="15" customHeight="1">
-      <c r="A4" s="217" t="s">
+      <c r="A4" s="219" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="218"/>
-      <c r="C4" s="218"/>
-      <c r="D4" s="218"/>
-      <c r="E4" s="219"/>
+      <c r="B4" s="220"/>
+      <c r="C4" s="220"/>
+      <c r="D4" s="220"/>
+      <c r="E4" s="221"/>
       <c r="F4" s="18"/>
     </row>
     <row r="5" spans="1:6">
-      <c r="A5" s="220" t="s">
+      <c r="A5" s="222" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="220"/>
-      <c r="C5" s="221" t="s">
+      <c r="B5" s="222"/>
+      <c r="C5" s="223" t="s">
         <v>4</v>
       </c>
-      <c r="D5" s="221"/>
-      <c r="E5" s="221"/>
+      <c r="D5" s="223"/>
+      <c r="E5" s="223"/>
       <c r="F5" s="18"/>
     </row>
     <row r="6" spans="1:6" ht="29.25" customHeight="1">
-      <c r="A6" s="222" t="s">
+      <c r="A6" s="224" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="223"/>
-      <c r="C6" s="216" t="s">
+      <c r="B6" s="225"/>
+      <c r="C6" s="218" t="s">
         <v>6</v>
       </c>
-      <c r="D6" s="216"/>
-      <c r="E6" s="216"/>
+      <c r="D6" s="218"/>
+      <c r="E6" s="218"/>
       <c r="F6" s="18"/>
     </row>
     <row r="7" spans="1:6" ht="29.25" customHeight="1">
@@ -6409,14 +6866,14 @@
       <c r="F7" s="18"/>
     </row>
     <row r="8" spans="1:6" s="147" customFormat="1" ht="29.25" customHeight="1">
-      <c r="A8" s="214" t="s">
+      <c r="A8" s="216" t="s">
         <v>7</v>
       </c>
-      <c r="B8" s="215"/>
-      <c r="C8" s="215"/>
-      <c r="D8" s="215"/>
-      <c r="E8" s="215"/>
-      <c r="F8" s="215"/>
+      <c r="B8" s="217"/>
+      <c r="C8" s="217"/>
+      <c r="D8" s="217"/>
+      <c r="E8" s="217"/>
+      <c r="F8" s="217"/>
     </row>
     <row r="9" spans="1:6" s="147" customFormat="1" ht="15" customHeight="1">
       <c r="A9" s="148" t="s">
@@ -6499,14 +6956,14 @@
       </c>
     </row>
     <row r="13" spans="1:6" s="147" customFormat="1" ht="30" customHeight="1">
-      <c r="A13" s="216" t="s">
+      <c r="A13" s="218" t="s">
         <v>23</v>
       </c>
-      <c r="B13" s="216"/>
-      <c r="C13" s="216"/>
-      <c r="D13" s="216"/>
-      <c r="E13" s="216"/>
-      <c r="F13" s="216"/>
+      <c r="B13" s="218"/>
+      <c r="C13" s="218"/>
+      <c r="D13" s="218"/>
+      <c r="E13" s="218"/>
+      <c r="F13" s="218"/>
     </row>
     <row r="14" spans="1:6">
       <c r="A14" s="18"/>
@@ -6629,36 +7086,36 @@
       <c r="K1" s="34"/>
     </row>
     <row r="2" spans="1:11" ht="25.5" customHeight="1">
-      <c r="B2" s="229" t="s">
+      <c r="B2" s="231" t="s">
         <v>25</v>
       </c>
-      <c r="C2" s="229"/>
-      <c r="D2" s="229"/>
-      <c r="E2" s="229"/>
-      <c r="F2" s="229"/>
-      <c r="G2" s="229"/>
-      <c r="H2" s="229"/>
-      <c r="I2" s="229"/>
-      <c r="J2" s="227" t="s">
+      <c r="C2" s="231"/>
+      <c r="D2" s="231"/>
+      <c r="E2" s="231"/>
+      <c r="F2" s="231"/>
+      <c r="G2" s="231"/>
+      <c r="H2" s="231"/>
+      <c r="I2" s="231"/>
+      <c r="J2" s="229" t="s">
         <v>26</v>
       </c>
-      <c r="K2" s="227"/>
+      <c r="K2" s="229"/>
     </row>
     <row r="3" spans="1:11" ht="28.5" customHeight="1">
-      <c r="B3" s="230" t="s">
+      <c r="B3" s="232" t="s">
         <v>27</v>
       </c>
-      <c r="C3" s="230"/>
-      <c r="D3" s="230"/>
-      <c r="E3" s="230"/>
-      <c r="F3" s="228" t="s">
+      <c r="C3" s="232"/>
+      <c r="D3" s="232"/>
+      <c r="E3" s="232"/>
+      <c r="F3" s="230" t="s">
         <v>28</v>
       </c>
-      <c r="G3" s="228"/>
-      <c r="H3" s="228"/>
-      <c r="I3" s="228"/>
-      <c r="J3" s="227"/>
-      <c r="K3" s="227"/>
+      <c r="G3" s="230"/>
+      <c r="H3" s="230"/>
+      <c r="I3" s="230"/>
+      <c r="J3" s="229"/>
+      <c r="K3" s="229"/>
     </row>
     <row r="4" spans="1:11" ht="18" customHeight="1">
       <c r="B4" s="153"/>
@@ -6678,65 +7135,65 @@
       </c>
     </row>
     <row r="7" spans="1:11">
-      <c r="A7" s="234" t="s">
+      <c r="A7" s="236" t="s">
         <v>30</v>
       </c>
-      <c r="B7" s="234"/>
-      <c r="C7" s="234"/>
-      <c r="D7" s="234"/>
-      <c r="E7" s="234"/>
-      <c r="F7" s="234"/>
-      <c r="G7" s="234"/>
-      <c r="H7" s="234"/>
-      <c r="I7" s="234"/>
+      <c r="B7" s="236"/>
+      <c r="C7" s="236"/>
+      <c r="D7" s="236"/>
+      <c r="E7" s="236"/>
+      <c r="F7" s="236"/>
+      <c r="G7" s="236"/>
+      <c r="H7" s="236"/>
+      <c r="I7" s="236"/>
     </row>
     <row r="8" spans="1:11" ht="20.25" customHeight="1">
-      <c r="A8" s="234"/>
-      <c r="B8" s="234"/>
-      <c r="C8" s="234"/>
-      <c r="D8" s="234"/>
-      <c r="E8" s="234"/>
-      <c r="F8" s="234"/>
-      <c r="G8" s="234"/>
-      <c r="H8" s="234"/>
-      <c r="I8" s="234"/>
+      <c r="A8" s="236"/>
+      <c r="B8" s="236"/>
+      <c r="C8" s="236"/>
+      <c r="D8" s="236"/>
+      <c r="E8" s="236"/>
+      <c r="F8" s="236"/>
+      <c r="G8" s="236"/>
+      <c r="H8" s="236"/>
+      <c r="I8" s="236"/>
     </row>
     <row r="9" spans="1:11">
-      <c r="A9" s="234" t="s">
+      <c r="A9" s="236" t="s">
         <v>31</v>
       </c>
-      <c r="B9" s="234"/>
-      <c r="C9" s="234"/>
-      <c r="D9" s="234"/>
-      <c r="E9" s="234"/>
-      <c r="F9" s="234"/>
-      <c r="G9" s="234"/>
-      <c r="H9" s="234"/>
-      <c r="I9" s="234"/>
+      <c r="B9" s="236"/>
+      <c r="C9" s="236"/>
+      <c r="D9" s="236"/>
+      <c r="E9" s="236"/>
+      <c r="F9" s="236"/>
+      <c r="G9" s="236"/>
+      <c r="H9" s="236"/>
+      <c r="I9" s="236"/>
     </row>
     <row r="10" spans="1:11" ht="21" customHeight="1">
-      <c r="A10" s="234"/>
-      <c r="B10" s="234"/>
-      <c r="C10" s="234"/>
-      <c r="D10" s="234"/>
-      <c r="E10" s="234"/>
-      <c r="F10" s="234"/>
-      <c r="G10" s="234"/>
-      <c r="H10" s="234"/>
-      <c r="I10" s="234"/>
+      <c r="A10" s="236"/>
+      <c r="B10" s="236"/>
+      <c r="C10" s="236"/>
+      <c r="D10" s="236"/>
+      <c r="E10" s="236"/>
+      <c r="F10" s="236"/>
+      <c r="G10" s="236"/>
+      <c r="H10" s="236"/>
+      <c r="I10" s="236"/>
     </row>
     <row r="11" spans="1:11" ht="13.8">
-      <c r="A11" s="235" t="s">
+      <c r="A11" s="237" t="s">
         <v>32</v>
       </c>
-      <c r="B11" s="235"/>
-      <c r="C11" s="235"/>
-      <c r="D11" s="235"/>
-      <c r="E11" s="235"/>
-      <c r="F11" s="235"/>
-      <c r="G11" s="235"/>
-      <c r="H11" s="235"/>
-      <c r="I11" s="235"/>
+      <c r="B11" s="237"/>
+      <c r="C11" s="237"/>
+      <c r="D11" s="237"/>
+      <c r="E11" s="237"/>
+      <c r="F11" s="237"/>
+      <c r="G11" s="237"/>
+      <c r="H11" s="237"/>
+      <c r="I11" s="237"/>
     </row>
     <row r="12" spans="1:11">
       <c r="A12" s="3"/>
@@ -6758,65 +7215,65 @@
       <c r="A14" s="134" t="s">
         <v>34</v>
       </c>
-      <c r="B14" s="231" t="s">
+      <c r="B14" s="233" t="s">
         <v>35</v>
       </c>
-      <c r="C14" s="232"/>
-      <c r="D14" s="232"/>
-      <c r="E14" s="232"/>
-      <c r="F14" s="232"/>
-      <c r="G14" s="232"/>
-      <c r="H14" s="232"/>
-      <c r="I14" s="232"/>
-      <c r="J14" s="232"/>
-      <c r="K14" s="233"/>
+      <c r="C14" s="234"/>
+      <c r="D14" s="234"/>
+      <c r="E14" s="234"/>
+      <c r="F14" s="234"/>
+      <c r="G14" s="234"/>
+      <c r="H14" s="234"/>
+      <c r="I14" s="234"/>
+      <c r="J14" s="234"/>
+      <c r="K14" s="235"/>
     </row>
     <row r="15" spans="1:11" ht="14.25" customHeight="1">
       <c r="A15" s="134" t="s">
         <v>36</v>
       </c>
-      <c r="B15" s="231" t="s">
+      <c r="B15" s="233" t="s">
         <v>37</v>
       </c>
-      <c r="C15" s="232"/>
-      <c r="D15" s="232"/>
-      <c r="E15" s="232"/>
-      <c r="F15" s="232"/>
-      <c r="G15" s="232"/>
-      <c r="H15" s="232"/>
-      <c r="I15" s="232"/>
-      <c r="J15" s="232"/>
-      <c r="K15" s="233"/>
+      <c r="C15" s="234"/>
+      <c r="D15" s="234"/>
+      <c r="E15" s="234"/>
+      <c r="F15" s="234"/>
+      <c r="G15" s="234"/>
+      <c r="H15" s="234"/>
+      <c r="I15" s="234"/>
+      <c r="J15" s="234"/>
+      <c r="K15" s="235"/>
     </row>
     <row r="16" spans="1:11" ht="14.25" customHeight="1">
       <c r="A16" s="134"/>
-      <c r="B16" s="231" t="s">
+      <c r="B16" s="233" t="s">
         <v>38</v>
       </c>
-      <c r="C16" s="232"/>
-      <c r="D16" s="232"/>
-      <c r="E16" s="232"/>
-      <c r="F16" s="232"/>
-      <c r="G16" s="232"/>
-      <c r="H16" s="232"/>
-      <c r="I16" s="232"/>
-      <c r="J16" s="232"/>
-      <c r="K16" s="233"/>
+      <c r="C16" s="234"/>
+      <c r="D16" s="234"/>
+      <c r="E16" s="234"/>
+      <c r="F16" s="234"/>
+      <c r="G16" s="234"/>
+      <c r="H16" s="234"/>
+      <c r="I16" s="234"/>
+      <c r="J16" s="234"/>
+      <c r="K16" s="235"/>
     </row>
     <row r="17" spans="1:14" ht="14.25" customHeight="1">
       <c r="A17" s="134"/>
-      <c r="B17" s="231" t="s">
+      <c r="B17" s="233" t="s">
         <v>39</v>
       </c>
-      <c r="C17" s="232"/>
-      <c r="D17" s="232"/>
-      <c r="E17" s="232"/>
-      <c r="F17" s="232"/>
-      <c r="G17" s="232"/>
-      <c r="H17" s="232"/>
-      <c r="I17" s="232"/>
-      <c r="J17" s="232"/>
-      <c r="K17" s="233"/>
+      <c r="C17" s="234"/>
+      <c r="D17" s="234"/>
+      <c r="E17" s="234"/>
+      <c r="F17" s="234"/>
+      <c r="G17" s="234"/>
+      <c r="H17" s="234"/>
+      <c r="I17" s="234"/>
+      <c r="J17" s="234"/>
+      <c r="K17" s="235"/>
     </row>
     <row r="19" spans="1:14" ht="22.5">
       <c r="A19" s="4" t="s">
@@ -6827,40 +7284,40 @@
       <c r="A20" s="134" t="s">
         <v>41</v>
       </c>
-      <c r="B20" s="231" t="s">
+      <c r="B20" s="233" t="s">
         <v>42</v>
       </c>
-      <c r="C20" s="232"/>
-      <c r="D20" s="232"/>
-      <c r="E20" s="232"/>
-      <c r="F20" s="232"/>
-      <c r="G20" s="233"/>
+      <c r="C20" s="234"/>
+      <c r="D20" s="234"/>
+      <c r="E20" s="234"/>
+      <c r="F20" s="234"/>
+      <c r="G20" s="235"/>
     </row>
     <row r="21" spans="1:14" ht="12.75" customHeight="1">
       <c r="A21" s="134" t="s">
         <v>43</v>
       </c>
-      <c r="B21" s="231" t="s">
+      <c r="B21" s="233" t="s">
         <v>44</v>
       </c>
-      <c r="C21" s="232"/>
-      <c r="D21" s="232"/>
-      <c r="E21" s="232"/>
-      <c r="F21" s="232"/>
-      <c r="G21" s="233"/>
+      <c r="C21" s="234"/>
+      <c r="D21" s="234"/>
+      <c r="E21" s="234"/>
+      <c r="F21" s="234"/>
+      <c r="G21" s="235"/>
     </row>
     <row r="22" spans="1:14" ht="12.75" customHeight="1">
       <c r="A22" s="134" t="s">
         <v>45</v>
       </c>
-      <c r="B22" s="231" t="s">
+      <c r="B22" s="233" t="s">
         <v>46</v>
       </c>
-      <c r="C22" s="232"/>
-      <c r="D22" s="232"/>
-      <c r="E22" s="232"/>
-      <c r="F22" s="232"/>
-      <c r="G22" s="233"/>
+      <c r="C22" s="234"/>
+      <c r="D22" s="234"/>
+      <c r="E22" s="234"/>
+      <c r="F22" s="234"/>
+      <c r="G22" s="235"/>
     </row>
     <row r="24" spans="1:14" ht="22.5">
       <c r="A24" s="4" t="s">
@@ -6919,11 +7376,11 @@
       <c r="N27" s="70"/>
     </row>
     <row r="29" spans="1:14" ht="21.75" customHeight="1">
-      <c r="B29" s="224" t="s">
+      <c r="B29" s="226" t="s">
         <v>51</v>
       </c>
-      <c r="C29" s="225"/>
-      <c r="D29" s="226"/>
+      <c r="C29" s="227"/>
+      <c r="D29" s="228"/>
     </row>
     <row r="30" spans="1:14" ht="90" customHeight="1">
       <c r="B30" s="5"/>
@@ -7000,14 +7457,14 @@
       <c r="J1" s="7"/>
     </row>
     <row r="2" spans="1:10" s="9" customFormat="1" ht="24.9">
-      <c r="A2" s="236" t="s">
+      <c r="A2" s="238" t="s">
         <v>56</v>
       </c>
-      <c r="B2" s="236"/>
-      <c r="C2" s="236"/>
-      <c r="D2" s="236"/>
-      <c r="E2" s="236"/>
-      <c r="F2" s="236"/>
+      <c r="B2" s="238"/>
+      <c r="C2" s="238"/>
+      <c r="D2" s="238"/>
+      <c r="E2" s="238"/>
+      <c r="F2" s="238"/>
     </row>
     <row r="3" spans="1:10">
       <c r="A3" s="10"/>
@@ -7193,12 +7650,12 @@
       <c r="K1" s="34"/>
     </row>
     <row r="2" spans="1:11" s="1" customFormat="1" ht="25.2">
-      <c r="A2" s="239" t="s">
+      <c r="A2" s="241" t="s">
         <v>70</v>
       </c>
-      <c r="B2" s="239"/>
-      <c r="C2" s="239"/>
-      <c r="D2" s="239"/>
+      <c r="B2" s="241"/>
+      <c r="C2" s="241"/>
+      <c r="D2" s="241"/>
       <c r="E2" s="156"/>
       <c r="F2" s="23"/>
       <c r="G2" s="23"/>
@@ -7359,18 +7816,18 @@
       <c r="F14" s="29"/>
     </row>
     <row r="16" spans="1:11" ht="14.1">
-      <c r="A16" s="237" t="s">
+      <c r="A16" s="239" t="s">
         <v>91</v>
       </c>
-      <c r="B16" s="237"/>
+      <c r="B16" s="239"/>
       <c r="C16" s="30"/>
       <c r="D16" s="31"/>
     </row>
     <row r="17" spans="1:4" ht="13.8">
-      <c r="A17" s="238" t="s">
+      <c r="A17" s="240" t="s">
         <v>92</v>
       </c>
-      <c r="B17" s="238"/>
+      <c r="B17" s="240"/>
     </row>
     <row r="20" spans="1:4">
       <c r="A20" s="33"/>
@@ -7399,8 +7856,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X97"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A46" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="A53" sqref="A53"/>
+    <sheetView showGridLines="0" topLeftCell="A58" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="A52" sqref="A52:A53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.15625" defaultRowHeight="12.3"/>
@@ -7416,10 +7873,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:24" s="1" customFormat="1" ht="13.8">
-      <c r="A1" s="260"/>
-      <c r="B1" s="260"/>
-      <c r="C1" s="260"/>
-      <c r="D1" s="260"/>
+      <c r="A1" s="262"/>
+      <c r="B1" s="262"/>
+      <c r="C1" s="262"/>
+      <c r="D1" s="262"/>
       <c r="E1" s="34"/>
       <c r="F1" s="34"/>
       <c r="G1" s="34"/>
@@ -7428,13 +7885,13 @@
       <c r="J1" s="34"/>
     </row>
     <row r="2" spans="1:24" s="1" customFormat="1" ht="31.5" customHeight="1">
-      <c r="A2" s="261" t="s">
+      <c r="A2" s="263" t="s">
         <v>70</v>
       </c>
-      <c r="B2" s="261"/>
-      <c r="C2" s="261"/>
-      <c r="D2" s="261"/>
-      <c r="E2" s="267"/>
+      <c r="B2" s="263"/>
+      <c r="C2" s="263"/>
+      <c r="D2" s="263"/>
+      <c r="E2" s="269"/>
       <c r="F2" s="23"/>
       <c r="G2" s="23"/>
       <c r="H2" s="23"/>
@@ -7443,9 +7900,9 @@
     </row>
     <row r="3" spans="1:24" s="1" customFormat="1" ht="31.5" customHeight="1">
       <c r="A3" s="47"/>
-      <c r="C3" s="254"/>
-      <c r="D3" s="254"/>
-      <c r="E3" s="267"/>
+      <c r="C3" s="256"/>
+      <c r="D3" s="256"/>
+      <c r="E3" s="269"/>
       <c r="F3" s="23"/>
       <c r="G3" s="23"/>
       <c r="H3" s="23"/>
@@ -7456,11 +7913,11 @@
       <c r="A4" s="139" t="s">
         <v>66</v>
       </c>
-      <c r="B4" s="255" t="s">
+      <c r="B4" s="257" t="s">
         <v>93</v>
       </c>
-      <c r="C4" s="255"/>
-      <c r="D4" s="255"/>
+      <c r="C4" s="257"/>
+      <c r="D4" s="257"/>
       <c r="E4" s="39"/>
       <c r="F4" s="39"/>
       <c r="G4" s="39"/>
@@ -7474,11 +7931,11 @@
       <c r="A5" s="139" t="s">
         <v>62</v>
       </c>
-      <c r="B5" s="256" t="s">
+      <c r="B5" s="258" t="s">
         <v>95</v>
       </c>
-      <c r="C5" s="255"/>
-      <c r="D5" s="255"/>
+      <c r="C5" s="257"/>
+      <c r="D5" s="257"/>
       <c r="E5" s="39"/>
       <c r="F5" s="39"/>
       <c r="G5" s="39"/>
@@ -7492,11 +7949,11 @@
       <c r="A6" s="139" t="s">
         <v>97</v>
       </c>
-      <c r="B6" s="256" t="s">
+      <c r="B6" s="258" t="s">
         <v>98</v>
       </c>
-      <c r="C6" s="255"/>
-      <c r="D6" s="255"/>
+      <c r="C6" s="257"/>
+      <c r="D6" s="257"/>
       <c r="E6" s="39"/>
       <c r="F6" s="39"/>
       <c r="G6" s="39"/>
@@ -7507,11 +7964,11 @@
       <c r="A7" s="139" t="s">
         <v>99</v>
       </c>
-      <c r="B7" s="255" t="s">
+      <c r="B7" s="257" t="s">
         <v>100</v>
       </c>
-      <c r="C7" s="255"/>
-      <c r="D7" s="255"/>
+      <c r="C7" s="257"/>
+      <c r="D7" s="257"/>
       <c r="E7" s="39"/>
       <c r="F7" s="39"/>
       <c r="G7" s="39"/>
@@ -7523,11 +7980,11 @@
       <c r="A8" s="139" t="s">
         <v>101</v>
       </c>
-      <c r="B8" s="262">
+      <c r="B8" s="264">
         <v>40850</v>
       </c>
-      <c r="C8" s="262"/>
-      <c r="D8" s="262"/>
+      <c r="C8" s="264"/>
+      <c r="D8" s="264"/>
       <c r="E8" s="39"/>
     </row>
     <row r="9" spans="1:24" s="43" customFormat="1">
@@ -7670,11 +8127,11 @@
       <c r="C16" s="50"/>
       <c r="D16" s="51"/>
       <c r="E16" s="56"/>
-      <c r="F16" s="266" t="s">
+      <c r="F16" s="268" t="s">
         <v>102</v>
       </c>
-      <c r="G16" s="266"/>
-      <c r="H16" s="266"/>
+      <c r="G16" s="268"/>
+      <c r="H16" s="268"/>
       <c r="I16" s="57"/>
     </row>
     <row r="17" spans="1:9" s="44" customFormat="1" ht="36.9">
@@ -7710,16 +8167,16 @@
       <c r="A18" s="67" t="s">
         <v>204</v>
       </c>
-      <c r="B18" s="263" t="s">
+      <c r="B18" s="265" t="s">
         <v>206</v>
       </c>
-      <c r="C18" s="264"/>
-      <c r="D18" s="264"/>
-      <c r="E18" s="264"/>
-      <c r="F18" s="264"/>
-      <c r="G18" s="264"/>
-      <c r="H18" s="264"/>
-      <c r="I18" s="265"/>
+      <c r="C18" s="266"/>
+      <c r="D18" s="266"/>
+      <c r="E18" s="266"/>
+      <c r="F18" s="266"/>
+      <c r="G18" s="266"/>
+      <c r="H18" s="266"/>
+      <c r="I18" s="267"/>
     </row>
     <row r="19" spans="1:9" s="45" customFormat="1" ht="27.6" customHeight="1">
       <c r="A19" s="52">
@@ -7744,16 +8201,16 @@
     </row>
     <row r="20" spans="1:9" s="45" customFormat="1">
       <c r="A20" s="168"/>
-      <c r="B20" s="243" t="s">
+      <c r="B20" s="245" t="s">
         <v>219</v>
       </c>
-      <c r="C20" s="241"/>
-      <c r="D20" s="241"/>
-      <c r="E20" s="241"/>
-      <c r="F20" s="241"/>
-      <c r="G20" s="241"/>
-      <c r="H20" s="241"/>
-      <c r="I20" s="242"/>
+      <c r="C20" s="243"/>
+      <c r="D20" s="243"/>
+      <c r="E20" s="243"/>
+      <c r="F20" s="243"/>
+      <c r="G20" s="243"/>
+      <c r="H20" s="243"/>
+      <c r="I20" s="244"/>
     </row>
     <row r="21" spans="1:9" s="45" customFormat="1" ht="20.7" customHeight="1">
       <c r="A21" s="58">
@@ -7801,16 +8258,16 @@
     </row>
     <row r="23" spans="1:9" s="45" customFormat="1">
       <c r="A23" s="168"/>
-      <c r="B23" s="243" t="s">
+      <c r="B23" s="245" t="s">
         <v>220</v>
       </c>
-      <c r="C23" s="241"/>
-      <c r="D23" s="241"/>
-      <c r="E23" s="241"/>
-      <c r="F23" s="241"/>
-      <c r="G23" s="241"/>
-      <c r="H23" s="241"/>
-      <c r="I23" s="242"/>
+      <c r="C23" s="243"/>
+      <c r="D23" s="243"/>
+      <c r="E23" s="243"/>
+      <c r="F23" s="243"/>
+      <c r="G23" s="243"/>
+      <c r="H23" s="243"/>
+      <c r="I23" s="244"/>
     </row>
     <row r="24" spans="1:9" s="48" customFormat="1" ht="13.8">
       <c r="A24" s="58">
@@ -7880,16 +8337,16 @@
     </row>
     <row r="27" spans="1:9" s="48" customFormat="1" ht="13.8">
       <c r="A27" s="168"/>
-      <c r="B27" s="244" t="s">
+      <c r="B27" s="246" t="s">
         <v>225</v>
       </c>
-      <c r="C27" s="245"/>
-      <c r="D27" s="245"/>
-      <c r="E27" s="245"/>
-      <c r="F27" s="245"/>
-      <c r="G27" s="245"/>
-      <c r="H27" s="245"/>
-      <c r="I27" s="246"/>
+      <c r="C27" s="247"/>
+      <c r="D27" s="247"/>
+      <c r="E27" s="247"/>
+      <c r="F27" s="247"/>
+      <c r="G27" s="247"/>
+      <c r="H27" s="247"/>
+      <c r="I27" s="248"/>
     </row>
     <row r="28" spans="1:9" s="48" customFormat="1" ht="13.8">
       <c r="A28" s="58">
@@ -7959,16 +8416,16 @@
     </row>
     <row r="31" spans="1:9" s="48" customFormat="1" ht="13.8">
       <c r="A31" s="169"/>
-      <c r="B31" s="264" t="s">
+      <c r="B31" s="266" t="s">
         <v>205</v>
       </c>
-      <c r="C31" s="264"/>
-      <c r="D31" s="264"/>
-      <c r="E31" s="264"/>
-      <c r="F31" s="264"/>
-      <c r="G31" s="264"/>
-      <c r="H31" s="264"/>
-      <c r="I31" s="265"/>
+      <c r="C31" s="266"/>
+      <c r="D31" s="266"/>
+      <c r="E31" s="266"/>
+      <c r="F31" s="266"/>
+      <c r="G31" s="266"/>
+      <c r="H31" s="266"/>
+      <c r="I31" s="267"/>
     </row>
     <row r="32" spans="1:9" s="48" customFormat="1" ht="13.8">
       <c r="A32" s="58">
@@ -7994,16 +8451,16 @@
     </row>
     <row r="33" spans="1:9" s="48" customFormat="1" ht="13.8">
       <c r="A33" s="168"/>
-      <c r="B33" s="243" t="s">
+      <c r="B33" s="245" t="s">
         <v>219</v>
       </c>
-      <c r="C33" s="241"/>
-      <c r="D33" s="241"/>
-      <c r="E33" s="241"/>
-      <c r="F33" s="241"/>
-      <c r="G33" s="241"/>
-      <c r="H33" s="241"/>
-      <c r="I33" s="242"/>
+      <c r="C33" s="243"/>
+      <c r="D33" s="243"/>
+      <c r="E33" s="243"/>
+      <c r="F33" s="243"/>
+      <c r="G33" s="243"/>
+      <c r="H33" s="243"/>
+      <c r="I33" s="244"/>
     </row>
     <row r="34" spans="1:9" s="48" customFormat="1" ht="17.7" customHeight="1">
       <c r="A34" s="58">
@@ -8051,16 +8508,16 @@
     </row>
     <row r="36" spans="1:9" s="48" customFormat="1" ht="13.8">
       <c r="A36" s="168"/>
-      <c r="B36" s="243" t="s">
+      <c r="B36" s="245" t="s">
         <v>220</v>
       </c>
-      <c r="C36" s="241"/>
-      <c r="D36" s="241"/>
-      <c r="E36" s="241"/>
-      <c r="F36" s="241"/>
-      <c r="G36" s="241"/>
-      <c r="H36" s="241"/>
-      <c r="I36" s="242"/>
+      <c r="C36" s="243"/>
+      <c r="D36" s="243"/>
+      <c r="E36" s="243"/>
+      <c r="F36" s="243"/>
+      <c r="G36" s="243"/>
+      <c r="H36" s="243"/>
+      <c r="I36" s="244"/>
     </row>
     <row r="37" spans="1:9" s="48" customFormat="1" ht="13.8">
       <c r="A37" s="58">
@@ -8130,16 +8587,16 @@
     </row>
     <row r="40" spans="1:9" s="48" customFormat="1" ht="13.8">
       <c r="A40" s="168"/>
-      <c r="B40" s="244" t="s">
+      <c r="B40" s="246" t="s">
         <v>225</v>
       </c>
-      <c r="C40" s="245"/>
-      <c r="D40" s="245"/>
-      <c r="E40" s="245"/>
-      <c r="F40" s="245"/>
-      <c r="G40" s="245"/>
-      <c r="H40" s="245"/>
-      <c r="I40" s="246"/>
+      <c r="C40" s="247"/>
+      <c r="D40" s="247"/>
+      <c r="E40" s="247"/>
+      <c r="F40" s="247"/>
+      <c r="G40" s="247"/>
+      <c r="H40" s="247"/>
+      <c r="I40" s="248"/>
     </row>
     <row r="41" spans="1:9" s="49" customFormat="1" ht="13.8">
       <c r="A41" s="58">
@@ -8209,16 +8666,16 @@
     </row>
     <row r="44" spans="1:9" s="48" customFormat="1" ht="13.8">
       <c r="A44" s="168"/>
-      <c r="B44" s="247" t="s">
+      <c r="B44" s="249" t="s">
         <v>240</v>
       </c>
-      <c r="C44" s="248"/>
-      <c r="D44" s="248"/>
-      <c r="E44" s="248"/>
-      <c r="F44" s="248"/>
-      <c r="G44" s="248"/>
-      <c r="H44" s="248"/>
-      <c r="I44" s="249"/>
+      <c r="C44" s="250"/>
+      <c r="D44" s="250"/>
+      <c r="E44" s="250"/>
+      <c r="F44" s="250"/>
+      <c r="G44" s="250"/>
+      <c r="H44" s="250"/>
+      <c r="I44" s="251"/>
     </row>
     <row r="45" spans="1:9" s="48" customFormat="1" ht="13.8">
       <c r="A45" s="58">
@@ -8310,29 +8767,29 @@
     </row>
     <row r="49" spans="1:9" s="48" customFormat="1" ht="13.8">
       <c r="A49" s="167"/>
-      <c r="B49" s="250" t="s">
+      <c r="B49" s="252" t="s">
         <v>253</v>
       </c>
-      <c r="C49" s="251"/>
-      <c r="D49" s="251"/>
-      <c r="E49" s="251"/>
-      <c r="F49" s="251"/>
-      <c r="G49" s="251"/>
-      <c r="H49" s="251"/>
-      <c r="I49" s="251"/>
+      <c r="C49" s="253"/>
+      <c r="D49" s="253"/>
+      <c r="E49" s="253"/>
+      <c r="F49" s="253"/>
+      <c r="G49" s="253"/>
+      <c r="H49" s="253"/>
+      <c r="I49" s="253"/>
     </row>
     <row r="50" spans="1:9" s="48" customFormat="1" ht="13.8">
       <c r="A50" s="180"/>
-      <c r="B50" s="252" t="s">
+      <c r="B50" s="254" t="s">
         <v>254</v>
       </c>
-      <c r="C50" s="253"/>
-      <c r="D50" s="253"/>
-      <c r="E50" s="253"/>
-      <c r="F50" s="253"/>
-      <c r="G50" s="253"/>
-      <c r="H50" s="253"/>
-      <c r="I50" s="253"/>
+      <c r="C50" s="255"/>
+      <c r="D50" s="255"/>
+      <c r="E50" s="255"/>
+      <c r="F50" s="255"/>
+      <c r="G50" s="255"/>
+      <c r="H50" s="255"/>
+      <c r="I50" s="255"/>
     </row>
     <row r="51" spans="1:9" s="48" customFormat="1" ht="13.8">
       <c r="A51" s="58">
@@ -8374,8 +8831,9 @@
       <c r="I52" s="181"/>
     </row>
     <row r="53" spans="1:9" s="48" customFormat="1" ht="13.8">
-      <c r="A53" s="58" t="s">
-        <v>542</v>
+      <c r="A53" s="179">
+        <f ca="1">IF(OFFSET(A53,-1,0) ="",OFFSET(A53,-2,0)+1,OFFSET(A53,-1,0)+1 )</f>
+        <v>25</v>
       </c>
       <c r="B53" s="52" t="s">
         <v>256</v>
@@ -8393,9 +8851,9 @@
       <c r="I53" s="61"/>
     </row>
     <row r="54" spans="1:9" s="48" customFormat="1" ht="13.8">
-      <c r="A54" s="58" t="e">
+      <c r="A54" s="58">
         <f t="shared" ca="1" si="1"/>
-        <v>#VALUE!</v>
+        <v>26</v>
       </c>
       <c r="B54" s="52" t="s">
         <v>259</v>
@@ -8413,9 +8871,9 @@
       <c r="I54" s="61"/>
     </row>
     <row r="55" spans="1:9" s="48" customFormat="1" ht="13.8">
-      <c r="A55" s="58" t="e">
+      <c r="A55" s="58">
         <f t="shared" ca="1" si="1"/>
-        <v>#VALUE!</v>
+        <v>27</v>
       </c>
       <c r="B55" s="52" t="s">
         <v>258</v>
@@ -8433,9 +8891,9 @@
       <c r="I55" s="61"/>
     </row>
     <row r="56" spans="1:9" s="48" customFormat="1" ht="24.6">
-      <c r="A56" s="58" t="e">
+      <c r="A56" s="58">
         <f t="shared" ca="1" si="1"/>
-        <v>#VALUE!</v>
+        <v>28</v>
       </c>
       <c r="B56" s="52" t="s">
         <v>257</v>
@@ -8454,21 +8912,21 @@
     </row>
     <row r="57" spans="1:9" s="48" customFormat="1" ht="13.8">
       <c r="A57" s="180"/>
-      <c r="B57" s="240" t="s">
+      <c r="B57" s="242" t="s">
         <v>260</v>
       </c>
-      <c r="C57" s="241"/>
-      <c r="D57" s="241"/>
-      <c r="E57" s="241"/>
-      <c r="F57" s="241"/>
-      <c r="G57" s="241"/>
-      <c r="H57" s="241"/>
-      <c r="I57" s="242"/>
+      <c r="C57" s="243"/>
+      <c r="D57" s="243"/>
+      <c r="E57" s="243"/>
+      <c r="F57" s="243"/>
+      <c r="G57" s="243"/>
+      <c r="H57" s="243"/>
+      <c r="I57" s="244"/>
     </row>
     <row r="58" spans="1:9" s="48" customFormat="1" ht="13.8">
-      <c r="A58" s="58" t="e">
+      <c r="A58" s="58">
         <f t="shared" ca="1" si="1"/>
-        <v>#VALUE!</v>
+        <v>29</v>
       </c>
       <c r="B58" s="52" t="s">
         <v>282</v>
@@ -8486,9 +8944,9 @@
       <c r="I58" s="61"/>
     </row>
     <row r="59" spans="1:9" s="48" customFormat="1" ht="13.8">
-      <c r="A59" s="58" t="e">
+      <c r="A59" s="58">
         <f t="shared" ca="1" si="1"/>
-        <v>#VALUE!</v>
+        <v>30</v>
       </c>
       <c r="B59" s="52" t="s">
         <v>281</v>
@@ -8506,9 +8964,9 @@
       <c r="I59" s="61"/>
     </row>
     <row r="60" spans="1:9" s="48" customFormat="1" ht="13.8">
-      <c r="A60" s="58" t="e">
+      <c r="A60" s="58">
         <f ca="1">IF(OFFSET(A60,-1,0) ="",OFFSET(A60,-2,0)+1,OFFSET(A60,-1,0)+1 )</f>
-        <v>#VALUE!</v>
+        <v>31</v>
       </c>
       <c r="B60" s="52" t="s">
         <v>280</v>
@@ -8526,9 +8984,9 @@
       <c r="I60" s="61"/>
     </row>
     <row r="61" spans="1:9" s="48" customFormat="1" ht="13.8">
-      <c r="A61" s="58" t="e">
+      <c r="A61" s="58">
         <f ca="1">IF(OFFSET(A61,-1,0) ="",OFFSET(A61,-2,0)+1,OFFSET(A61,-1,0)+1 )</f>
-        <v>#VALUE!</v>
+        <v>32</v>
       </c>
       <c r="B61" s="52" t="s">
         <v>261</v>
@@ -8546,9 +9004,9 @@
       <c r="I61" s="61"/>
     </row>
     <row r="62" spans="1:9" s="48" customFormat="1" ht="13.8">
-      <c r="A62" s="58" t="e">
+      <c r="A62" s="58">
         <f t="shared" ref="A62:A67" ca="1" si="2">IF(OFFSET(A62,-1,0) ="",OFFSET(A62,-2,0)+1,OFFSET(A62,-1,0)+1 )</f>
-        <v>#VALUE!</v>
+        <v>33</v>
       </c>
       <c r="B62" s="52" t="s">
         <v>265</v>
@@ -8566,9 +9024,9 @@
       <c r="I62" s="62"/>
     </row>
     <row r="63" spans="1:9" s="48" customFormat="1" ht="13.8">
-      <c r="A63" s="58" t="e">
+      <c r="A63" s="58">
         <f t="shared" ca="1" si="2"/>
-        <v>#VALUE!</v>
+        <v>34</v>
       </c>
       <c r="B63" s="52" t="s">
         <v>266</v>
@@ -8587,21 +9045,21 @@
     </row>
     <row r="64" spans="1:9" s="48" customFormat="1" ht="13.8">
       <c r="A64" s="168"/>
-      <c r="B64" s="268" t="s">
+      <c r="B64" s="270" t="s">
         <v>262</v>
       </c>
-      <c r="C64" s="269"/>
-      <c r="D64" s="269"/>
-      <c r="E64" s="269"/>
-      <c r="F64" s="269"/>
-      <c r="G64" s="269"/>
-      <c r="H64" s="269"/>
-      <c r="I64" s="270"/>
+      <c r="C64" s="271"/>
+      <c r="D64" s="271"/>
+      <c r="E64" s="271"/>
+      <c r="F64" s="271"/>
+      <c r="G64" s="271"/>
+      <c r="H64" s="271"/>
+      <c r="I64" s="272"/>
     </row>
     <row r="65" spans="1:9" s="48" customFormat="1" ht="24.6">
-      <c r="A65" s="58" t="e">
+      <c r="A65" s="58">
         <f t="shared" ca="1" si="2"/>
-        <v>#VALUE!</v>
+        <v>35</v>
       </c>
       <c r="B65" s="170" t="s">
         <v>255</v>
@@ -8619,9 +9077,9 @@
       <c r="I65" s="63"/>
     </row>
     <row r="66" spans="1:9" s="48" customFormat="1" ht="24.6">
-      <c r="A66" s="58" t="e">
+      <c r="A66" s="58">
         <f t="shared" ca="1" si="2"/>
-        <v>#VALUE!</v>
+        <v>36</v>
       </c>
       <c r="B66" s="170" t="s">
         <v>264</v>
@@ -8639,9 +9097,9 @@
       <c r="I66" s="63"/>
     </row>
     <row r="67" spans="1:9" s="48" customFormat="1" ht="24.6">
-      <c r="A67" s="58" t="e">
+      <c r="A67" s="58">
         <f t="shared" ca="1" si="2"/>
-        <v>#VALUE!</v>
+        <v>37</v>
       </c>
       <c r="B67" s="170"/>
       <c r="C67" s="170" t="s">
@@ -8713,9 +9171,9 @@
     </row>
     <row r="73" spans="1:9" s="48" customFormat="1" ht="13.8">
       <c r="A73" s="171"/>
-      <c r="B73" s="257"/>
-      <c r="C73" s="258"/>
-      <c r="D73" s="259"/>
+      <c r="B73" s="259"/>
+      <c r="C73" s="260"/>
+      <c r="D73" s="261"/>
       <c r="E73" s="172"/>
       <c r="F73" s="173"/>
       <c r="G73" s="173"/>
@@ -8757,9 +9215,9 @@
     </row>
     <row r="77" spans="1:9" s="48" customFormat="1" ht="13.8">
       <c r="A77" s="171"/>
-      <c r="B77" s="257"/>
-      <c r="C77" s="258"/>
-      <c r="D77" s="259"/>
+      <c r="B77" s="259"/>
+      <c r="C77" s="260"/>
+      <c r="D77" s="261"/>
       <c r="E77" s="172"/>
       <c r="F77" s="173"/>
       <c r="G77" s="173"/>
@@ -8801,9 +9259,9 @@
     </row>
     <row r="81" spans="1:9" s="48" customFormat="1" ht="14.25" customHeight="1">
       <c r="A81" s="171"/>
-      <c r="B81" s="257"/>
-      <c r="C81" s="258"/>
-      <c r="D81" s="259"/>
+      <c r="B81" s="259"/>
+      <c r="C81" s="260"/>
+      <c r="D81" s="261"/>
       <c r="E81" s="172"/>
       <c r="F81" s="173"/>
       <c r="G81" s="173"/>
@@ -8834,9 +9292,9 @@
     </row>
     <row r="84" spans="1:9" s="48" customFormat="1" ht="14.25" customHeight="1">
       <c r="A84" s="171"/>
-      <c r="B84" s="257"/>
-      <c r="C84" s="258"/>
-      <c r="D84" s="259"/>
+      <c r="B84" s="259"/>
+      <c r="C84" s="260"/>
+      <c r="D84" s="261"/>
       <c r="E84" s="172"/>
       <c r="F84" s="173"/>
       <c r="G84" s="173"/>
@@ -9035,8 +9493,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X180"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A74" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B81" sqref="A81:XFD81"/>
+    <sheetView showGridLines="0" topLeftCell="A83" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="A90" sqref="A90"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.15625" defaultRowHeight="12.3"/>
@@ -9052,10 +9510,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:24" s="1" customFormat="1" ht="13.8">
-      <c r="A1" s="260"/>
-      <c r="B1" s="260"/>
-      <c r="C1" s="260"/>
-      <c r="D1" s="260"/>
+      <c r="A1" s="262"/>
+      <c r="B1" s="262"/>
+      <c r="C1" s="262"/>
+      <c r="D1" s="262"/>
       <c r="E1" s="34"/>
       <c r="F1" s="34"/>
       <c r="G1" s="34"/>
@@ -9064,13 +9522,13 @@
       <c r="J1" s="34"/>
     </row>
     <row r="2" spans="1:24" s="1" customFormat="1" ht="31.5" customHeight="1">
-      <c r="A2" s="261" t="s">
+      <c r="A2" s="263" t="s">
         <v>70</v>
       </c>
-      <c r="B2" s="261"/>
-      <c r="C2" s="261"/>
-      <c r="D2" s="261"/>
-      <c r="E2" s="267"/>
+      <c r="B2" s="263"/>
+      <c r="C2" s="263"/>
+      <c r="D2" s="263"/>
+      <c r="E2" s="269"/>
       <c r="F2" s="23"/>
       <c r="G2" s="23"/>
       <c r="H2" s="23"/>
@@ -9079,9 +9537,9 @@
     </row>
     <row r="3" spans="1:24" s="1" customFormat="1" ht="31.5" customHeight="1">
       <c r="A3" s="47"/>
-      <c r="C3" s="286"/>
-      <c r="D3" s="286"/>
-      <c r="E3" s="267"/>
+      <c r="C3" s="288"/>
+      <c r="D3" s="288"/>
+      <c r="E3" s="269"/>
       <c r="F3" s="23"/>
       <c r="G3" s="23"/>
       <c r="H3" s="23"/>
@@ -9092,11 +9550,11 @@
       <c r="A4" s="139" t="s">
         <v>67</v>
       </c>
-      <c r="B4" s="255" t="s">
+      <c r="B4" s="257" t="s">
         <v>116</v>
       </c>
-      <c r="C4" s="255"/>
-      <c r="D4" s="255"/>
+      <c r="C4" s="257"/>
+      <c r="D4" s="257"/>
       <c r="E4" s="39"/>
       <c r="F4" s="39"/>
       <c r="G4" s="39"/>
@@ -9110,11 +9568,11 @@
       <c r="A5" s="139" t="s">
         <v>62</v>
       </c>
-      <c r="B5" s="256" t="s">
+      <c r="B5" s="258" t="s">
         <v>95</v>
       </c>
-      <c r="C5" s="255"/>
-      <c r="D5" s="255"/>
+      <c r="C5" s="257"/>
+      <c r="D5" s="257"/>
       <c r="E5" s="39"/>
       <c r="F5" s="39"/>
       <c r="G5" s="39"/>
@@ -9128,11 +9586,11 @@
       <c r="A6" s="139" t="s">
         <v>97</v>
       </c>
-      <c r="B6" s="256" t="s">
+      <c r="B6" s="258" t="s">
         <v>98</v>
       </c>
-      <c r="C6" s="255"/>
-      <c r="D6" s="255"/>
+      <c r="C6" s="257"/>
+      <c r="D6" s="257"/>
       <c r="E6" s="39"/>
       <c r="F6" s="39"/>
       <c r="G6" s="39"/>
@@ -9143,11 +9601,11 @@
       <c r="A7" s="139" t="s">
         <v>99</v>
       </c>
-      <c r="B7" s="255" t="s">
+      <c r="B7" s="257" t="s">
         <v>100</v>
       </c>
-      <c r="C7" s="255"/>
-      <c r="D7" s="255"/>
+      <c r="C7" s="257"/>
+      <c r="D7" s="257"/>
       <c r="E7" s="39"/>
       <c r="F7" s="39"/>
       <c r="G7" s="39"/>
@@ -9159,11 +9617,11 @@
       <c r="A8" s="139" t="s">
         <v>101</v>
       </c>
-      <c r="B8" s="262">
+      <c r="B8" s="264">
         <v>40850</v>
       </c>
-      <c r="C8" s="262"/>
-      <c r="D8" s="262"/>
+      <c r="C8" s="264"/>
+      <c r="D8" s="264"/>
       <c r="E8" s="39"/>
     </row>
     <row r="9" spans="1:24" s="43" customFormat="1">
@@ -9306,11 +9764,11 @@
       <c r="C16" s="50"/>
       <c r="D16" s="51"/>
       <c r="E16" s="65"/>
-      <c r="F16" s="287" t="s">
+      <c r="F16" s="289" t="s">
         <v>102</v>
       </c>
-      <c r="G16" s="288"/>
-      <c r="H16" s="289"/>
+      <c r="G16" s="290"/>
+      <c r="H16" s="291"/>
       <c r="I16" s="65"/>
     </row>
     <row r="17" spans="1:9" s="44" customFormat="1" ht="36.9">
@@ -9344,29 +9802,29 @@
     </row>
     <row r="18" spans="1:9" s="44" customFormat="1" ht="15.75" customHeight="1">
       <c r="A18" s="67"/>
-      <c r="B18" s="263" t="s">
+      <c r="B18" s="265" t="s">
         <v>313</v>
       </c>
-      <c r="C18" s="264"/>
-      <c r="D18" s="264"/>
-      <c r="E18" s="264"/>
-      <c r="F18" s="264"/>
-      <c r="G18" s="264"/>
-      <c r="H18" s="264"/>
-      <c r="I18" s="265"/>
+      <c r="C18" s="266"/>
+      <c r="D18" s="266"/>
+      <c r="E18" s="266"/>
+      <c r="F18" s="266"/>
+      <c r="G18" s="266"/>
+      <c r="H18" s="266"/>
+      <c r="I18" s="267"/>
     </row>
     <row r="19" spans="1:9" s="44" customFormat="1" ht="15.75" customHeight="1">
       <c r="A19" s="200"/>
-      <c r="B19" s="271" t="s">
+      <c r="B19" s="273" t="s">
         <v>397</v>
       </c>
-      <c r="C19" s="272"/>
-      <c r="D19" s="272"/>
-      <c r="E19" s="272"/>
-      <c r="F19" s="272"/>
-      <c r="G19" s="272"/>
-      <c r="H19" s="272"/>
-      <c r="I19" s="273"/>
+      <c r="C19" s="274"/>
+      <c r="D19" s="274"/>
+      <c r="E19" s="274"/>
+      <c r="F19" s="274"/>
+      <c r="G19" s="274"/>
+      <c r="H19" s="274"/>
+      <c r="I19" s="275"/>
     </row>
     <row r="20" spans="1:9" s="44" customFormat="1" ht="43.8" customHeight="1">
       <c r="A20" s="52">
@@ -9376,13 +9834,13 @@
         <v>398</v>
       </c>
       <c r="C20" s="209" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="D20" s="53" t="s">
         <v>401</v>
       </c>
       <c r="E20" s="54" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="F20" s="52"/>
       <c r="G20" s="52"/>
@@ -9398,7 +9856,7 @@
         <v>399</v>
       </c>
       <c r="C21" s="209" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="D21" s="53" t="s">
         <v>401</v>
@@ -9418,7 +9876,7 @@
         <v>400</v>
       </c>
       <c r="C22" s="209" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="D22" s="53" t="s">
         <v>401</v>
@@ -9431,16 +9889,16 @@
     </row>
     <row r="23" spans="1:9" s="44" customFormat="1" ht="15.75" customHeight="1">
       <c r="A23" s="204"/>
-      <c r="B23" s="274" t="s">
+      <c r="B23" s="276" t="s">
         <v>314</v>
       </c>
-      <c r="C23" s="275"/>
-      <c r="D23" s="275"/>
-      <c r="E23" s="275"/>
-      <c r="F23" s="275"/>
-      <c r="G23" s="275"/>
-      <c r="H23" s="275"/>
-      <c r="I23" s="276"/>
+      <c r="C23" s="277"/>
+      <c r="D23" s="277"/>
+      <c r="E23" s="277"/>
+      <c r="F23" s="277"/>
+      <c r="G23" s="277"/>
+      <c r="H23" s="277"/>
+      <c r="I23" s="278"/>
     </row>
     <row r="24" spans="1:9" s="45" customFormat="1" ht="36.9">
       <c r="A24" s="52">
@@ -9451,7 +9909,7 @@
         <v>402</v>
       </c>
       <c r="C24" s="209" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="D24" s="205" t="s">
         <v>404</v>
@@ -9471,7 +9929,7 @@
         <v>479</v>
       </c>
       <c r="C25" s="209" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="D25" s="205" t="s">
         <v>403</v>
@@ -9491,7 +9949,7 @@
         <v>317</v>
       </c>
       <c r="C26" s="209" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="D26" s="60" t="s">
         <v>427</v>
@@ -9511,7 +9969,7 @@
         <v>318</v>
       </c>
       <c r="C27" s="209" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="D27" s="205" t="s">
         <v>403</v>
@@ -9531,7 +9989,7 @@
         <v>319</v>
       </c>
       <c r="C28" s="209" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="D28" s="54" t="s">
         <v>405</v>
@@ -9571,7 +10029,7 @@
         <v>360</v>
       </c>
       <c r="C30" s="209" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="D30" s="54" t="s">
         <v>427</v>
@@ -9591,7 +10049,7 @@
         <v>361</v>
       </c>
       <c r="C31" s="209" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="D31" s="54" t="s">
         <v>406</v>
@@ -9651,7 +10109,7 @@
         <v>391</v>
       </c>
       <c r="C34" s="209" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="D34" s="54" t="s">
         <v>424</v>
@@ -9671,7 +10129,7 @@
         <v>364</v>
       </c>
       <c r="C35" s="209" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="D35" s="54" t="s">
         <v>517</v>
@@ -9684,16 +10142,16 @@
     </row>
     <row r="36" spans="1:9" s="48" customFormat="1" ht="13.8">
       <c r="A36" s="184"/>
-      <c r="B36" s="277" t="s">
+      <c r="B36" s="279" t="s">
         <v>315</v>
       </c>
-      <c r="C36" s="278"/>
-      <c r="D36" s="278"/>
-      <c r="E36" s="278"/>
-      <c r="F36" s="278"/>
-      <c r="G36" s="278"/>
-      <c r="H36" s="278"/>
-      <c r="I36" s="279"/>
+      <c r="C36" s="280"/>
+      <c r="D36" s="280"/>
+      <c r="E36" s="280"/>
+      <c r="F36" s="280"/>
+      <c r="G36" s="280"/>
+      <c r="H36" s="280"/>
+      <c r="I36" s="281"/>
     </row>
     <row r="37" spans="1:9" s="48" customFormat="1" ht="73.8">
       <c r="A37" s="58">
@@ -9704,7 +10162,7 @@
         <v>402</v>
       </c>
       <c r="C37" s="209" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="D37" s="54" t="s">
         <v>428</v>
@@ -9724,7 +10182,7 @@
         <v>407</v>
       </c>
       <c r="C38" s="209" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="D38" s="205" t="s">
         <v>408</v>
@@ -9744,7 +10202,7 @@
         <v>320</v>
       </c>
       <c r="C39" s="209" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="D39" s="54" t="s">
         <v>429</v>
@@ -9784,7 +10242,7 @@
         <v>353</v>
       </c>
       <c r="C41" s="209" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="D41" s="54" t="s">
         <v>429</v>
@@ -9804,7 +10262,7 @@
         <v>354</v>
       </c>
       <c r="C42" s="209" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="D42" s="54" t="s">
         <v>430</v>
@@ -9827,7 +10285,7 @@
         <v>471</v>
       </c>
       <c r="D43" s="54" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="E43" s="54"/>
       <c r="F43" s="52"/>
@@ -9881,7 +10339,7 @@
         <v>25</v>
       </c>
       <c r="B46" s="52" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="C46" s="209" t="s">
         <v>468</v>
@@ -9957,16 +10415,16 @@
     </row>
     <row r="50" spans="1:9" s="48" customFormat="1" ht="13.8">
       <c r="A50" s="184"/>
-      <c r="B50" s="274" t="s">
+      <c r="B50" s="276" t="s">
         <v>316</v>
       </c>
-      <c r="C50" s="275"/>
-      <c r="D50" s="275"/>
-      <c r="E50" s="275"/>
-      <c r="F50" s="275"/>
-      <c r="G50" s="275"/>
-      <c r="H50" s="275"/>
-      <c r="I50" s="276"/>
+      <c r="C50" s="277"/>
+      <c r="D50" s="277"/>
+      <c r="E50" s="277"/>
+      <c r="F50" s="277"/>
+      <c r="G50" s="277"/>
+      <c r="H50" s="277"/>
+      <c r="I50" s="278"/>
     </row>
     <row r="51" spans="1:9" s="48" customFormat="1" ht="49.8" customHeight="1">
       <c r="A51" s="58">
@@ -9977,7 +10435,7 @@
         <v>402</v>
       </c>
       <c r="C51" s="52" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="D51" s="205" t="s">
         <v>432</v>
@@ -10260,7 +10718,7 @@
         <v>493</v>
       </c>
       <c r="D65" s="53" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="E65" s="54"/>
       <c r="F65" s="52"/>
@@ -10290,16 +10748,16 @@
     </row>
     <row r="67" spans="1:9" s="49" customFormat="1" ht="13.8">
       <c r="A67" s="189"/>
-      <c r="B67" s="280" t="s">
+      <c r="B67" s="282" t="s">
         <v>327</v>
       </c>
-      <c r="C67" s="281"/>
-      <c r="D67" s="281"/>
-      <c r="E67" s="281"/>
-      <c r="F67" s="281"/>
-      <c r="G67" s="281"/>
-      <c r="H67" s="281"/>
-      <c r="I67" s="282"/>
+      <c r="C67" s="283"/>
+      <c r="D67" s="283"/>
+      <c r="E67" s="283"/>
+      <c r="F67" s="283"/>
+      <c r="G67" s="283"/>
+      <c r="H67" s="283"/>
+      <c r="I67" s="284"/>
     </row>
     <row r="68" spans="1:9" s="48" customFormat="1" ht="24.6">
       <c r="A68" s="58">
@@ -10323,16 +10781,16 @@
     </row>
     <row r="69" spans="1:9" s="48" customFormat="1" ht="13.8">
       <c r="A69" s="199"/>
-      <c r="B69" s="283" t="s">
+      <c r="B69" s="285" t="s">
         <v>372</v>
       </c>
-      <c r="C69" s="284"/>
-      <c r="D69" s="284"/>
-      <c r="E69" s="284"/>
-      <c r="F69" s="284"/>
-      <c r="G69" s="284"/>
-      <c r="H69" s="284"/>
-      <c r="I69" s="285"/>
+      <c r="C69" s="286"/>
+      <c r="D69" s="286"/>
+      <c r="E69" s="286"/>
+      <c r="F69" s="286"/>
+      <c r="G69" s="286"/>
+      <c r="H69" s="286"/>
+      <c r="I69" s="287"/>
     </row>
     <row r="70" spans="1:9" s="48" customFormat="1" ht="49.2">
       <c r="A70" s="58">
@@ -10496,16 +10954,16 @@
     </row>
     <row r="78" spans="1:9" s="48" customFormat="1" ht="13.8">
       <c r="A78" s="189"/>
-      <c r="B78" s="280" t="s">
+      <c r="B78" s="282" t="s">
         <v>328</v>
       </c>
-      <c r="C78" s="281"/>
-      <c r="D78" s="281"/>
-      <c r="E78" s="281"/>
-      <c r="F78" s="281"/>
-      <c r="G78" s="281"/>
-      <c r="H78" s="281"/>
-      <c r="I78" s="282"/>
+      <c r="C78" s="283"/>
+      <c r="D78" s="283"/>
+      <c r="E78" s="283"/>
+      <c r="F78" s="283"/>
+      <c r="G78" s="283"/>
+      <c r="H78" s="283"/>
+      <c r="I78" s="284"/>
     </row>
     <row r="79" spans="1:9" s="48" customFormat="1" ht="36.9">
       <c r="A79" s="58">
@@ -10589,7 +11047,7 @@
     </row>
     <row r="83" spans="1:9" s="48" customFormat="1" ht="73.8">
       <c r="A83" s="58">
-        <f t="shared" ca="1" si="1"/>
+        <f ca="1">IF(OFFSET(A83,-1,0) ="",OFFSET(A83,-2,0)+1,OFFSET(A83,-1,0)+1 )</f>
         <v>58</v>
       </c>
       <c r="B83" s="52" t="s">
@@ -10649,16 +11107,16 @@
     </row>
     <row r="86" spans="1:9" s="48" customFormat="1" ht="13.8">
       <c r="A86" s="189"/>
-      <c r="B86" s="280" t="s">
+      <c r="B86" s="282" t="s">
         <v>331</v>
       </c>
-      <c r="C86" s="281"/>
-      <c r="D86" s="281"/>
-      <c r="E86" s="281"/>
-      <c r="F86" s="281"/>
-      <c r="G86" s="281"/>
-      <c r="H86" s="281"/>
-      <c r="I86" s="282"/>
+      <c r="C86" s="283"/>
+      <c r="D86" s="283"/>
+      <c r="E86" s="283"/>
+      <c r="F86" s="283"/>
+      <c r="G86" s="283"/>
+      <c r="H86" s="283"/>
+      <c r="I86" s="284"/>
     </row>
     <row r="87" spans="1:9" s="48" customFormat="1" ht="14.4" customHeight="1">
       <c r="A87" s="58">
@@ -10702,7 +11160,7 @@
     </row>
     <row r="89" spans="1:9" s="48" customFormat="1" ht="61.5">
       <c r="A89" s="58">
-        <f t="shared" ca="1" si="1"/>
+        <f ca="1">IF(OFFSET(A89,-1,0) ="",OFFSET(A89,-2,0)+1,OFFSET(A89,-1,0)+1 )</f>
         <v>63</v>
       </c>
       <c r="B89" s="52" t="s">
@@ -10922,16 +11380,16 @@
     </row>
     <row r="100" spans="1:9" s="48" customFormat="1" ht="13.8">
       <c r="A100" s="189"/>
-      <c r="B100" s="280" t="s">
+      <c r="B100" s="282" t="s">
         <v>339</v>
       </c>
-      <c r="C100" s="281"/>
-      <c r="D100" s="281"/>
-      <c r="E100" s="281"/>
-      <c r="F100" s="281"/>
-      <c r="G100" s="281"/>
-      <c r="H100" s="281"/>
-      <c r="I100" s="282"/>
+      <c r="C100" s="283"/>
+      <c r="D100" s="283"/>
+      <c r="E100" s="283"/>
+      <c r="F100" s="283"/>
+      <c r="G100" s="283"/>
+      <c r="H100" s="283"/>
+      <c r="I100" s="284"/>
     </row>
     <row r="101" spans="1:9" s="48" customFormat="1" ht="49.2">
       <c r="A101" s="58">
@@ -10995,16 +11453,16 @@
     </row>
     <row r="104" spans="1:9" s="48" customFormat="1" ht="13.8">
       <c r="A104" s="189"/>
-      <c r="B104" s="280" t="s">
+      <c r="B104" s="282" t="s">
         <v>350</v>
       </c>
-      <c r="C104" s="281"/>
-      <c r="D104" s="281"/>
-      <c r="E104" s="281"/>
-      <c r="F104" s="281"/>
-      <c r="G104" s="281"/>
-      <c r="H104" s="281"/>
-      <c r="I104" s="282"/>
+      <c r="C104" s="283"/>
+      <c r="D104" s="283"/>
+      <c r="E104" s="283"/>
+      <c r="F104" s="283"/>
+      <c r="G104" s="283"/>
+      <c r="H104" s="283"/>
+      <c r="I104" s="284"/>
     </row>
     <row r="105" spans="1:9" s="48" customFormat="1" ht="49.2">
       <c r="A105" s="58">
@@ -11028,16 +11486,16 @@
     </row>
     <row r="106" spans="1:9" s="48" customFormat="1" ht="13.8">
       <c r="A106" s="189"/>
-      <c r="B106" s="280" t="s">
+      <c r="B106" s="282" t="s">
         <v>351</v>
       </c>
-      <c r="C106" s="281"/>
-      <c r="D106" s="281"/>
-      <c r="E106" s="281"/>
-      <c r="F106" s="281"/>
-      <c r="G106" s="281"/>
-      <c r="H106" s="281"/>
-      <c r="I106" s="282"/>
+      <c r="C106" s="283"/>
+      <c r="D106" s="283"/>
+      <c r="E106" s="283"/>
+      <c r="F106" s="283"/>
+      <c r="G106" s="283"/>
+      <c r="H106" s="283"/>
+      <c r="I106" s="284"/>
     </row>
     <row r="107" spans="1:9" s="48" customFormat="1" ht="49.2">
       <c r="A107" s="58">
@@ -11061,29 +11519,29 @@
     </row>
     <row r="108" spans="1:9" s="48" customFormat="1" ht="13.8">
       <c r="A108" s="67"/>
-      <c r="B108" s="263" t="s">
+      <c r="B108" s="265" t="s">
         <v>341</v>
       </c>
-      <c r="C108" s="264"/>
-      <c r="D108" s="264"/>
-      <c r="E108" s="264"/>
-      <c r="F108" s="264"/>
-      <c r="G108" s="264"/>
-      <c r="H108" s="264"/>
-      <c r="I108" s="265"/>
+      <c r="C108" s="266"/>
+      <c r="D108" s="266"/>
+      <c r="E108" s="266"/>
+      <c r="F108" s="266"/>
+      <c r="G108" s="266"/>
+      <c r="H108" s="266"/>
+      <c r="I108" s="267"/>
     </row>
     <row r="109" spans="1:9" s="48" customFormat="1" ht="13.8">
       <c r="A109" s="189"/>
-      <c r="B109" s="280" t="s">
+      <c r="B109" s="282" t="s">
         <v>342</v>
       </c>
-      <c r="C109" s="281"/>
-      <c r="D109" s="281"/>
-      <c r="E109" s="281"/>
-      <c r="F109" s="281"/>
-      <c r="G109" s="281"/>
-      <c r="H109" s="281"/>
-      <c r="I109" s="282"/>
+      <c r="C109" s="283"/>
+      <c r="D109" s="283"/>
+      <c r="E109" s="283"/>
+      <c r="F109" s="283"/>
+      <c r="G109" s="283"/>
+      <c r="H109" s="283"/>
+      <c r="I109" s="284"/>
     </row>
     <row r="110" spans="1:9" s="48" customFormat="1" ht="36.9">
       <c r="A110" s="58">
@@ -11220,16 +11678,16 @@
     </row>
     <row r="117" spans="1:9" s="48" customFormat="1" ht="13.8">
       <c r="A117" s="67"/>
-      <c r="B117" s="263" t="s">
+      <c r="B117" s="265" t="s">
         <v>312</v>
       </c>
-      <c r="C117" s="264"/>
-      <c r="D117" s="264"/>
-      <c r="E117" s="264"/>
-      <c r="F117" s="264"/>
-      <c r="G117" s="264"/>
-      <c r="H117" s="264"/>
-      <c r="I117" s="265"/>
+      <c r="C117" s="266"/>
+      <c r="D117" s="266"/>
+      <c r="E117" s="266"/>
+      <c r="F117" s="266"/>
+      <c r="G117" s="266"/>
+      <c r="H117" s="266"/>
+      <c r="I117" s="267"/>
     </row>
     <row r="118" spans="1:9" s="48" customFormat="1" ht="13.8">
       <c r="A118" s="58">
@@ -11249,16 +11707,16 @@
     </row>
     <row r="119" spans="1:9" s="48" customFormat="1" ht="13.8">
       <c r="A119" s="67"/>
-      <c r="B119" s="263" t="s">
+      <c r="B119" s="265" t="s">
         <v>347</v>
       </c>
-      <c r="C119" s="264"/>
-      <c r="D119" s="264"/>
-      <c r="E119" s="264"/>
-      <c r="F119" s="264"/>
-      <c r="G119" s="264"/>
-      <c r="H119" s="264"/>
-      <c r="I119" s="265"/>
+      <c r="C119" s="266"/>
+      <c r="D119" s="266"/>
+      <c r="E119" s="266"/>
+      <c r="F119" s="266"/>
+      <c r="G119" s="266"/>
+      <c r="H119" s="266"/>
+      <c r="I119" s="267"/>
     </row>
     <row r="120" spans="1:9" s="48" customFormat="1" ht="13.8">
       <c r="A120" s="58">
@@ -11278,16 +11736,16 @@
     </row>
     <row r="121" spans="1:9" s="48" customFormat="1" ht="13.8">
       <c r="A121" s="67"/>
-      <c r="B121" s="263" t="s">
+      <c r="B121" s="265" t="s">
         <v>348</v>
       </c>
-      <c r="C121" s="264"/>
-      <c r="D121" s="264"/>
-      <c r="E121" s="264"/>
-      <c r="F121" s="264"/>
-      <c r="G121" s="264"/>
-      <c r="H121" s="264"/>
-      <c r="I121" s="265"/>
+      <c r="C121" s="266"/>
+      <c r="D121" s="266"/>
+      <c r="E121" s="266"/>
+      <c r="F121" s="266"/>
+      <c r="G121" s="266"/>
+      <c r="H121" s="266"/>
+      <c r="I121" s="267"/>
     </row>
     <row r="122" spans="1:9" s="48" customFormat="1" ht="13.8">
       <c r="A122" s="58">
@@ -11351,9 +11809,9 @@
     </row>
     <row r="127" spans="1:9" s="48" customFormat="1" ht="13.8">
       <c r="A127" s="185"/>
-      <c r="B127" s="290"/>
-      <c r="C127" s="291"/>
-      <c r="D127" s="292"/>
+      <c r="B127" s="292"/>
+      <c r="C127" s="293"/>
+      <c r="D127" s="294"/>
       <c r="E127" s="194"/>
       <c r="F127" s="195"/>
       <c r="G127" s="195"/>
@@ -11406,9 +11864,9 @@
     </row>
     <row r="132" spans="1:9" s="48" customFormat="1" ht="13.8">
       <c r="A132" s="185"/>
-      <c r="B132" s="290"/>
-      <c r="C132" s="291"/>
-      <c r="D132" s="292"/>
+      <c r="B132" s="292"/>
+      <c r="C132" s="293"/>
+      <c r="D132" s="294"/>
       <c r="E132" s="194"/>
       <c r="F132" s="195"/>
       <c r="G132" s="195"/>
@@ -11450,9 +11908,9 @@
     </row>
     <row r="136" spans="1:9" s="48" customFormat="1" ht="13.8">
       <c r="A136" s="185"/>
-      <c r="B136" s="290"/>
-      <c r="C136" s="291"/>
-      <c r="D136" s="292"/>
+      <c r="B136" s="292"/>
+      <c r="C136" s="293"/>
+      <c r="D136" s="294"/>
       <c r="E136" s="194"/>
       <c r="F136" s="195"/>
       <c r="G136" s="195"/>
@@ -11582,9 +12040,9 @@
     </row>
     <row r="148" spans="1:9" s="48" customFormat="1" ht="13.8">
       <c r="A148" s="196"/>
-      <c r="B148" s="290"/>
-      <c r="C148" s="291"/>
-      <c r="D148" s="292"/>
+      <c r="B148" s="292"/>
+      <c r="C148" s="293"/>
+      <c r="D148" s="294"/>
       <c r="E148" s="194"/>
       <c r="F148" s="195"/>
       <c r="G148" s="195"/>
@@ -11626,9 +12084,9 @@
     </row>
     <row r="152" spans="1:9" s="48" customFormat="1" ht="13.8">
       <c r="A152" s="196"/>
-      <c r="B152" s="290"/>
-      <c r="C152" s="291"/>
-      <c r="D152" s="292"/>
+      <c r="B152" s="292"/>
+      <c r="C152" s="293"/>
+      <c r="D152" s="294"/>
       <c r="E152" s="194"/>
       <c r="F152" s="195"/>
       <c r="G152" s="195"/>
@@ -11670,9 +12128,9 @@
     </row>
     <row r="156" spans="1:9" s="48" customFormat="1" ht="13.8">
       <c r="A156" s="196"/>
-      <c r="B156" s="290"/>
-      <c r="C156" s="291"/>
-      <c r="D156" s="292"/>
+      <c r="B156" s="292"/>
+      <c r="C156" s="293"/>
+      <c r="D156" s="294"/>
       <c r="E156" s="194"/>
       <c r="F156" s="195"/>
       <c r="G156" s="195"/>
@@ -11703,9 +12161,9 @@
     </row>
     <row r="159" spans="1:9" s="48" customFormat="1" ht="13.8">
       <c r="A159" s="196"/>
-      <c r="B159" s="290"/>
-      <c r="C159" s="291"/>
-      <c r="D159" s="292"/>
+      <c r="B159" s="292"/>
+      <c r="C159" s="293"/>
+      <c r="D159" s="294"/>
       <c r="E159" s="194"/>
       <c r="F159" s="195"/>
       <c r="G159" s="195"/>
@@ -12000,8 +12458,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X103"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A7" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D31" sqref="A4:I59"/>
+    <sheetView showGridLines="0" topLeftCell="A25" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="C22" sqref="C22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.15625" defaultRowHeight="12.3"/>
@@ -12016,10 +12474,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:24" s="1" customFormat="1" ht="13.8">
-      <c r="A1" s="260"/>
-      <c r="B1" s="260"/>
-      <c r="C1" s="260"/>
-      <c r="D1" s="260"/>
+      <c r="A1" s="262"/>
+      <c r="B1" s="262"/>
+      <c r="C1" s="262"/>
+      <c r="D1" s="262"/>
       <c r="E1" s="34"/>
       <c r="F1" s="34"/>
       <c r="G1" s="34"/>
@@ -12028,13 +12486,13 @@
       <c r="J1" s="34"/>
     </row>
     <row r="2" spans="1:24" s="1" customFormat="1" ht="31.5" customHeight="1">
-      <c r="A2" s="261" t="s">
+      <c r="A2" s="263" t="s">
         <v>70</v>
       </c>
-      <c r="B2" s="261"/>
-      <c r="C2" s="261"/>
-      <c r="D2" s="261"/>
-      <c r="E2" s="267"/>
+      <c r="B2" s="263"/>
+      <c r="C2" s="263"/>
+      <c r="D2" s="263"/>
+      <c r="E2" s="269"/>
       <c r="F2" s="23"/>
       <c r="G2" s="23"/>
       <c r="H2" s="23"/>
@@ -12043,9 +12501,9 @@
     </row>
     <row r="3" spans="1:24" s="1" customFormat="1" ht="31.5" customHeight="1">
       <c r="A3" s="47"/>
-      <c r="C3" s="286"/>
-      <c r="D3" s="286"/>
-      <c r="E3" s="267"/>
+      <c r="C3" s="288"/>
+      <c r="D3" s="288"/>
+      <c r="E3" s="269"/>
       <c r="F3" s="23"/>
       <c r="G3" s="23"/>
       <c r="H3" s="23"/>
@@ -12056,11 +12514,11 @@
       <c r="A4" s="139" t="s">
         <v>67</v>
       </c>
-      <c r="B4" s="255" t="s">
+      <c r="B4" s="257" t="s">
         <v>116</v>
       </c>
-      <c r="C4" s="255"/>
-      <c r="D4" s="255"/>
+      <c r="C4" s="257"/>
+      <c r="D4" s="257"/>
       <c r="E4" s="39"/>
       <c r="F4" s="39"/>
       <c r="G4" s="39"/>
@@ -12074,11 +12532,11 @@
       <c r="A5" s="139" t="s">
         <v>62</v>
       </c>
-      <c r="B5" s="256" t="s">
+      <c r="B5" s="258" t="s">
         <v>95</v>
       </c>
-      <c r="C5" s="255"/>
-      <c r="D5" s="255"/>
+      <c r="C5" s="257"/>
+      <c r="D5" s="257"/>
       <c r="E5" s="39"/>
       <c r="F5" s="39"/>
       <c r="G5" s="39"/>
@@ -12092,11 +12550,11 @@
       <c r="A6" s="139" t="s">
         <v>97</v>
       </c>
-      <c r="B6" s="256" t="s">
+      <c r="B6" s="258" t="s">
         <v>98</v>
       </c>
-      <c r="C6" s="255"/>
-      <c r="D6" s="255"/>
+      <c r="C6" s="257"/>
+      <c r="D6" s="257"/>
       <c r="E6" s="39"/>
       <c r="F6" s="39"/>
       <c r="G6" s="39"/>
@@ -12107,11 +12565,11 @@
       <c r="A7" s="139" t="s">
         <v>99</v>
       </c>
-      <c r="B7" s="255" t="s">
+      <c r="B7" s="257" t="s">
         <v>100</v>
       </c>
-      <c r="C7" s="255"/>
-      <c r="D7" s="255"/>
+      <c r="C7" s="257"/>
+      <c r="D7" s="257"/>
       <c r="E7" s="39"/>
       <c r="F7" s="39"/>
       <c r="G7" s="39"/>
@@ -12123,11 +12581,11 @@
       <c r="A8" s="139" t="s">
         <v>101</v>
       </c>
-      <c r="B8" s="262">
+      <c r="B8" s="264">
         <v>40850</v>
       </c>
-      <c r="C8" s="262"/>
-      <c r="D8" s="262"/>
+      <c r="C8" s="264"/>
+      <c r="D8" s="264"/>
       <c r="E8" s="39"/>
     </row>
     <row r="9" spans="1:24" s="43" customFormat="1">
@@ -12270,11 +12728,11 @@
       <c r="C16" s="50"/>
       <c r="D16" s="51"/>
       <c r="E16" s="65"/>
-      <c r="F16" s="287" t="s">
+      <c r="F16" s="289" t="s">
         <v>102</v>
       </c>
-      <c r="G16" s="288"/>
-      <c r="H16" s="289"/>
+      <c r="G16" s="290"/>
+      <c r="H16" s="291"/>
       <c r="I16" s="65"/>
     </row>
     <row r="17" spans="1:9" s="44" customFormat="1" ht="36.9">
@@ -12314,10 +12772,10 @@
         <v>519</v>
       </c>
       <c r="C18" s="209" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="D18" s="59" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="E18" s="54"/>
       <c r="F18" s="209"/>
@@ -12334,10 +12792,10 @@
         <v>520</v>
       </c>
       <c r="C19" s="209" t="s">
+        <v>574</v>
+      </c>
+      <c r="D19" s="59" t="s">
         <v>575</v>
-      </c>
-      <c r="D19" s="59" t="s">
-        <v>576</v>
       </c>
       <c r="E19" s="54"/>
       <c r="F19" s="209"/>
@@ -12351,13 +12809,13 @@
         <v>3</v>
       </c>
       <c r="B20" s="213" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="C20" s="209" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="D20" s="59" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="E20" s="54"/>
       <c r="F20" s="209"/>
@@ -12374,10 +12832,10 @@
         <v>521</v>
       </c>
       <c r="C21" s="209" t="s">
+        <v>577</v>
+      </c>
+      <c r="D21" s="59" t="s">
         <v>578</v>
-      </c>
-      <c r="D21" s="59" t="s">
-        <v>579</v>
       </c>
       <c r="E21" s="54"/>
       <c r="F21" s="209"/>
@@ -12394,10 +12852,10 @@
         <v>522</v>
       </c>
       <c r="C22" s="209" t="s">
+        <v>579</v>
+      </c>
+      <c r="D22" s="59" t="s">
         <v>580</v>
-      </c>
-      <c r="D22" s="59" t="s">
-        <v>581</v>
       </c>
       <c r="E22" s="54"/>
       <c r="F22" s="209"/>
@@ -12414,10 +12872,10 @@
         <v>523</v>
       </c>
       <c r="C23" s="209" t="s">
+        <v>581</v>
+      </c>
+      <c r="D23" s="59" t="s">
         <v>582</v>
-      </c>
-      <c r="D23" s="59" t="s">
-        <v>583</v>
       </c>
       <c r="E23" s="54"/>
       <c r="F23" s="209"/>
@@ -12427,11 +12885,11 @@
     </row>
     <row r="24" spans="1:9" s="44" customFormat="1" ht="15.75" customHeight="1">
       <c r="A24" s="77"/>
-      <c r="B24" s="263" t="s">
+      <c r="B24" s="265" t="s">
         <v>518</v>
       </c>
-      <c r="C24" s="264"/>
-      <c r="D24" s="265"/>
+      <c r="C24" s="266"/>
+      <c r="D24" s="267"/>
       <c r="E24" s="67"/>
       <c r="F24" s="68"/>
       <c r="G24" s="68"/>
@@ -12444,13 +12902,13 @@
         <v>7</v>
       </c>
       <c r="B25" s="209" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
       <c r="C25" s="209" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="D25" s="53" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="E25" s="54"/>
       <c r="F25" s="52"/>
@@ -12467,10 +12925,10 @@
         <v>524</v>
       </c>
       <c r="C26" s="209" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="D26" s="207" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="E26" s="54"/>
       <c r="F26" s="52"/>
@@ -12487,10 +12945,10 @@
         <v>526</v>
       </c>
       <c r="C27" s="209" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="D27" s="207" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="E27" s="54"/>
       <c r="F27" s="52"/>
@@ -12507,10 +12965,10 @@
         <v>525</v>
       </c>
       <c r="C28" s="209" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="D28" s="207" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="E28" s="54"/>
       <c r="F28" s="52"/>
@@ -12524,13 +12982,13 @@
         <v>11</v>
       </c>
       <c r="B29" s="209" t="s">
+        <v>611</v>
+      </c>
+      <c r="C29" s="209" t="s">
         <v>612</v>
       </c>
-      <c r="C29" s="209" t="s">
-        <v>613</v>
-      </c>
       <c r="D29" s="54" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="E29" s="54"/>
       <c r="F29" s="209"/>
@@ -12540,11 +12998,11 @@
     </row>
     <row r="30" spans="1:9" s="48" customFormat="1" ht="13.8">
       <c r="A30" s="77"/>
-      <c r="B30" s="263" t="s">
+      <c r="B30" s="265" t="s">
         <v>527</v>
       </c>
-      <c r="C30" s="264"/>
-      <c r="D30" s="265"/>
+      <c r="C30" s="266"/>
+      <c r="D30" s="267"/>
       <c r="E30" s="69"/>
       <c r="F30" s="66"/>
       <c r="G30" s="66"/>
@@ -12560,10 +13018,10 @@
         <v>528</v>
       </c>
       <c r="C31" s="209" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="D31" s="54" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="E31" s="54"/>
       <c r="F31" s="52"/>
@@ -12580,10 +13038,10 @@
         <v>529</v>
       </c>
       <c r="C32" s="209" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
       <c r="D32" s="54" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="E32" s="54"/>
       <c r="F32" s="209"/>
@@ -12600,10 +13058,10 @@
         <v>530</v>
       </c>
       <c r="C33" s="209" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="D33" s="54" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="E33" s="54"/>
       <c r="F33" s="209"/>
@@ -12617,13 +13075,13 @@
         <v>15</v>
       </c>
       <c r="B34" s="209" t="s">
+        <v>606</v>
+      </c>
+      <c r="C34" s="209" t="s">
         <v>607</v>
       </c>
-      <c r="C34" s="209" t="s">
-        <v>608</v>
-      </c>
       <c r="D34" s="54" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="E34" s="54"/>
       <c r="F34" s="209"/>
@@ -12633,11 +13091,11 @@
     </row>
     <row r="35" spans="1:9" s="48" customFormat="1" ht="13.8">
       <c r="A35" s="77"/>
-      <c r="B35" s="263" t="s">
+      <c r="B35" s="265" t="s">
         <v>531</v>
       </c>
-      <c r="C35" s="264"/>
-      <c r="D35" s="265"/>
+      <c r="C35" s="266"/>
+      <c r="D35" s="267"/>
       <c r="E35" s="69"/>
       <c r="F35" s="66"/>
       <c r="G35" s="66"/>
@@ -12653,10 +13111,10 @@
         <v>532</v>
       </c>
       <c r="C36" s="209" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
       <c r="D36" s="59" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="E36" s="54"/>
       <c r="F36" s="52"/>
@@ -12666,11 +13124,11 @@
     </row>
     <row r="37" spans="1:9" s="48" customFormat="1" ht="13.8">
       <c r="A37" s="77"/>
-      <c r="B37" s="263" t="s">
+      <c r="B37" s="265" t="s">
         <v>533</v>
       </c>
-      <c r="C37" s="264"/>
-      <c r="D37" s="265"/>
+      <c r="C37" s="266"/>
+      <c r="D37" s="267"/>
       <c r="E37" s="69"/>
       <c r="F37" s="66"/>
       <c r="G37" s="66"/>
@@ -12686,10 +13144,10 @@
         <v>534</v>
       </c>
       <c r="C38" s="209" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="D38" s="207" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="E38" s="54"/>
       <c r="F38" s="52"/>
@@ -12706,10 +13164,10 @@
         <v>535</v>
       </c>
       <c r="C39" s="209" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="D39" s="207" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="E39" s="54"/>
       <c r="F39" s="52"/>
@@ -12726,10 +13184,10 @@
         <v>536</v>
       </c>
       <c r="C40" s="209" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="D40" s="207" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="E40" s="54"/>
       <c r="F40" s="209"/>
@@ -12743,10 +13201,10 @@
         <v>537</v>
       </c>
       <c r="C41" s="209" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="D41" s="207" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="E41" s="54"/>
       <c r="F41" s="209"/>
@@ -12760,13 +13218,13 @@
         <v>20</v>
       </c>
       <c r="B42" s="209" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="C42" s="209" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="D42" s="207" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="E42" s="54"/>
       <c r="F42" s="209"/>
@@ -12780,13 +13238,13 @@
         <v>21</v>
       </c>
       <c r="B43" s="209" t="s">
+        <v>595</v>
+      </c>
+      <c r="C43" s="209" t="s">
+        <v>601</v>
+      </c>
+      <c r="D43" s="207" t="s">
         <v>596</v>
-      </c>
-      <c r="C43" s="209" t="s">
-        <v>602</v>
-      </c>
-      <c r="D43" s="207" t="s">
-        <v>597</v>
       </c>
       <c r="E43" s="54"/>
       <c r="F43" s="52"/>
@@ -12796,11 +13254,11 @@
     </row>
     <row r="44" spans="1:9" s="48" customFormat="1" ht="13.8">
       <c r="A44" s="77"/>
-      <c r="B44" s="263" t="s">
+      <c r="B44" s="265" t="s">
         <v>538</v>
       </c>
-      <c r="C44" s="264"/>
-      <c r="D44" s="265"/>
+      <c r="C44" s="266"/>
+      <c r="D44" s="267"/>
       <c r="E44" s="69"/>
       <c r="F44" s="66"/>
       <c r="G44" s="66"/>
@@ -12813,13 +13271,13 @@
         <v>22</v>
       </c>
       <c r="B45" s="209" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="C45" s="198" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="D45" s="212" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="E45" s="54"/>
       <c r="F45" s="209"/>
@@ -12836,10 +13294,10 @@
         <v>539</v>
       </c>
       <c r="C46" s="198" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="D46" s="212" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="E46" s="54"/>
       <c r="F46" s="209"/>
@@ -12856,10 +13314,10 @@
         <v>540</v>
       </c>
       <c r="C47" s="198" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="D47" s="212" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
       <c r="E47" s="54"/>
       <c r="F47" s="209"/>
@@ -12873,13 +13331,13 @@
         <v>25</v>
       </c>
       <c r="B48" s="209" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="C48" s="198" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="D48" s="212" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="E48" s="54"/>
       <c r="F48" s="209"/>
@@ -12893,13 +13351,13 @@
         <v>26</v>
       </c>
       <c r="B49" s="209" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="C49" s="198" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="D49" s="212" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="E49" s="54"/>
       <c r="F49" s="209"/>
@@ -12913,13 +13371,13 @@
         <v>27</v>
       </c>
       <c r="B50" s="209" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="C50" s="198" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="D50" s="212" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
       <c r="E50" s="54"/>
       <c r="F50" s="209"/>
@@ -12933,13 +13391,13 @@
         <v>28</v>
       </c>
       <c r="B51" s="209" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="C51" s="198" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="D51" s="212" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="E51" s="54"/>
       <c r="F51" s="209"/>
@@ -12953,13 +13411,13 @@
         <v>29</v>
       </c>
       <c r="B52" s="209" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="C52" s="198" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="D52" s="212" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="E52" s="54"/>
       <c r="F52" s="209"/>
@@ -12973,13 +13431,13 @@
         <v>30</v>
       </c>
       <c r="B53" s="209" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="C53" s="198" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="D53" s="212" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
       <c r="E53" s="54"/>
       <c r="F53" s="209"/>
@@ -12993,13 +13451,13 @@
         <v>31</v>
       </c>
       <c r="B54" s="209" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="C54" s="198" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="D54" s="212" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="E54" s="54"/>
       <c r="F54" s="209"/>
@@ -13013,13 +13471,13 @@
         <v>32</v>
       </c>
       <c r="B55" s="209" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="C55" s="198" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="D55" s="212" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
       <c r="E55" s="54"/>
       <c r="F55" s="209"/>
@@ -13033,13 +13491,13 @@
         <v>33</v>
       </c>
       <c r="B56" s="209" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="C56" s="198" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="D56" s="212" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="E56" s="54"/>
       <c r="F56" s="209"/>
@@ -13049,11 +13507,11 @@
     </row>
     <row r="57" spans="1:9" s="48" customFormat="1" ht="13.8">
       <c r="A57" s="77"/>
-      <c r="B57" s="263" t="s">
+      <c r="B57" s="265" t="s">
         <v>541</v>
       </c>
-      <c r="C57" s="264"/>
-      <c r="D57" s="265"/>
+      <c r="C57" s="266"/>
+      <c r="D57" s="267"/>
       <c r="E57" s="69"/>
       <c r="F57" s="66"/>
       <c r="G57" s="66"/>
@@ -13066,13 +13524,13 @@
         <v>34</v>
       </c>
       <c r="B58" s="52" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="C58" s="209" t="s">
+        <v>603</v>
+      </c>
+      <c r="D58" s="54" t="s">
         <v>604</v>
-      </c>
-      <c r="D58" s="54" t="s">
-        <v>605</v>
       </c>
       <c r="E58" s="54"/>
       <c r="F58" s="52"/>
@@ -13086,13 +13544,13 @@
         <v>35</v>
       </c>
       <c r="B59" s="52" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="C59" s="209" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="D59" s="54" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="E59" s="54"/>
       <c r="F59" s="52"/>
@@ -13168,9 +13626,9 @@
     </row>
     <row r="66" spans="1:9" s="48" customFormat="1" ht="13.8">
       <c r="A66" s="77"/>
-      <c r="B66" s="263"/>
-      <c r="C66" s="264"/>
-      <c r="D66" s="265"/>
+      <c r="B66" s="265"/>
+      <c r="C66" s="266"/>
+      <c r="D66" s="267"/>
       <c r="E66" s="69"/>
       <c r="F66" s="66"/>
       <c r="G66" s="66"/>
@@ -13223,9 +13681,9 @@
     </row>
     <row r="71" spans="1:9" s="48" customFormat="1" ht="13.8">
       <c r="A71" s="77"/>
-      <c r="B71" s="263"/>
-      <c r="C71" s="264"/>
-      <c r="D71" s="265"/>
+      <c r="B71" s="265"/>
+      <c r="C71" s="266"/>
+      <c r="D71" s="267"/>
       <c r="E71" s="69"/>
       <c r="F71" s="66"/>
       <c r="G71" s="66"/>
@@ -13267,9 +13725,9 @@
     </row>
     <row r="75" spans="1:9" s="48" customFormat="1" ht="13.8">
       <c r="A75" s="77"/>
-      <c r="B75" s="263"/>
-      <c r="C75" s="264"/>
-      <c r="D75" s="265"/>
+      <c r="B75" s="265"/>
+      <c r="C75" s="266"/>
+      <c r="D75" s="267"/>
       <c r="E75" s="69"/>
       <c r="F75" s="66"/>
       <c r="G75" s="66"/>
@@ -13399,9 +13857,9 @@
     </row>
     <row r="87" spans="1:9" s="48" customFormat="1" ht="13.8">
       <c r="A87" s="77"/>
-      <c r="B87" s="263"/>
-      <c r="C87" s="264"/>
-      <c r="D87" s="265"/>
+      <c r="B87" s="265"/>
+      <c r="C87" s="266"/>
+      <c r="D87" s="267"/>
       <c r="E87" s="69"/>
       <c r="F87" s="66"/>
       <c r="G87" s="66"/>
@@ -13443,9 +13901,9 @@
     </row>
     <row r="91" spans="1:9" s="48" customFormat="1" ht="13.8">
       <c r="A91" s="77"/>
-      <c r="B91" s="263"/>
-      <c r="C91" s="264"/>
-      <c r="D91" s="265"/>
+      <c r="B91" s="265"/>
+      <c r="C91" s="266"/>
+      <c r="D91" s="267"/>
       <c r="E91" s="69"/>
       <c r="F91" s="66"/>
       <c r="G91" s="66"/>
@@ -13487,9 +13945,9 @@
     </row>
     <row r="95" spans="1:9" s="48" customFormat="1" ht="14.25" customHeight="1">
       <c r="A95" s="77"/>
-      <c r="B95" s="263"/>
-      <c r="C95" s="264"/>
-      <c r="D95" s="265"/>
+      <c r="B95" s="265"/>
+      <c r="C95" s="266"/>
+      <c r="D95" s="267"/>
       <c r="E95" s="69"/>
       <c r="F95" s="66"/>
       <c r="G95" s="66"/>
@@ -13520,9 +13978,9 @@
     </row>
     <row r="98" spans="1:9" s="48" customFormat="1" ht="14.25" customHeight="1">
       <c r="A98" s="77"/>
-      <c r="B98" s="263"/>
-      <c r="C98" s="264"/>
-      <c r="D98" s="265"/>
+      <c r="B98" s="265"/>
+      <c r="C98" s="266"/>
+      <c r="D98" s="267"/>
       <c r="E98" s="69"/>
       <c r="F98" s="66"/>
       <c r="G98" s="66"/>
@@ -13629,62 +14087,62 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I104"/>
+  <dimension ref="A1:I114"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A14" workbookViewId="0">
-      <selection activeCell="D22" sqref="D22"/>
+    <sheetView tabSelected="1" topLeftCell="A49" workbookViewId="0">
+      <selection activeCell="C94" sqref="C94"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
     <col min="1" max="1" width="14.62890625" customWidth="1"/>
     <col min="2" max="2" width="23" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="26" customWidth="1"/>
+    <col min="3" max="3" width="29.734375" customWidth="1"/>
     <col min="4" max="4" width="37.41796875" customWidth="1"/>
     <col min="5" max="5" width="20.3125" customWidth="1"/>
     <col min="6" max="8" width="8.26171875" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="21.68359375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="24.6">
+    <row r="1" spans="1:9">
       <c r="A1" s="139" t="s">
         <v>67</v>
       </c>
-      <c r="B1" s="255" t="s">
+      <c r="B1" s="257" t="s">
         <v>116</v>
       </c>
-      <c r="C1" s="255"/>
-      <c r="D1" s="255"/>
+      <c r="C1" s="257"/>
+      <c r="D1" s="257"/>
       <c r="E1" s="39"/>
       <c r="F1" s="39"/>
       <c r="G1" s="39"/>
       <c r="H1" s="40"/>
       <c r="I1" s="40"/>
     </row>
-    <row r="2" spans="1:9" ht="24.6">
+    <row r="2" spans="1:9">
       <c r="A2" s="139" t="s">
         <v>62</v>
       </c>
-      <c r="B2" s="256" t="s">
+      <c r="B2" s="258" t="s">
         <v>95</v>
       </c>
-      <c r="C2" s="255"/>
-      <c r="D2" s="255"/>
+      <c r="C2" s="257"/>
+      <c r="D2" s="257"/>
       <c r="E2" s="39"/>
       <c r="F2" s="39"/>
       <c r="G2" s="39"/>
       <c r="H2" s="40"/>
       <c r="I2" s="40"/>
     </row>
-    <row r="3" spans="1:9" ht="24.6">
+    <row r="3" spans="1:9">
       <c r="A3" s="139" t="s">
         <v>97</v>
       </c>
-      <c r="B3" s="256" t="s">
+      <c r="B3" s="258" t="s">
         <v>98</v>
       </c>
-      <c r="C3" s="255"/>
-      <c r="D3" s="255"/>
+      <c r="C3" s="257"/>
+      <c r="D3" s="257"/>
       <c r="E3" s="39"/>
       <c r="F3" s="39"/>
       <c r="G3" s="39"/>
@@ -13695,11 +14153,11 @@
       <c r="A4" s="139" t="s">
         <v>99</v>
       </c>
-      <c r="B4" s="255" t="s">
+      <c r="B4" s="257" t="s">
         <v>100</v>
       </c>
-      <c r="C4" s="255"/>
-      <c r="D4" s="255"/>
+      <c r="C4" s="257"/>
+      <c r="D4" s="257"/>
       <c r="E4" s="39"/>
       <c r="F4" s="39"/>
       <c r="G4" s="39"/>
@@ -13710,18 +14168,18 @@
       <c r="A5" s="139" t="s">
         <v>101</v>
       </c>
-      <c r="B5" s="262">
+      <c r="B5" s="264">
         <v>40850</v>
       </c>
-      <c r="C5" s="262"/>
-      <c r="D5" s="262"/>
+      <c r="C5" s="264"/>
+      <c r="D5" s="264"/>
       <c r="E5" s="39"/>
       <c r="F5" s="43"/>
       <c r="G5" s="43"/>
       <c r="H5" s="43"/>
       <c r="I5" s="43"/>
     </row>
-    <row r="6" spans="1:9" ht="36.9">
+    <row r="6" spans="1:9">
       <c r="A6" s="140" t="s">
         <v>102</v>
       </c>
@@ -13770,15 +14228,15 @@
         <v>41</v>
       </c>
       <c r="B8" s="75">
-        <f>COUNTIF($F$23:$F$49703,"*Passed")</f>
+        <f>COUNTIF($F$23:$F$49713,"*Passed")</f>
         <v>0</v>
       </c>
       <c r="C8" s="75">
-        <f>COUNTIF($G$23:$G$49703,"*Passed")</f>
+        <f>COUNTIF($G$23:$G$49713,"*Passed")</f>
         <v>0</v>
       </c>
       <c r="D8" s="75">
-        <f>COUNTIF($H$23:$H$49703,"*Passed")</f>
+        <f>COUNTIF($H$23:$H$49713,"*Passed")</f>
         <v>0</v>
       </c>
       <c r="E8" s="43"/>
@@ -13792,15 +14250,15 @@
         <v>43</v>
       </c>
       <c r="B9" s="75">
-        <f>COUNTIF($F$23:$F$49423,"*Failed*")</f>
+        <f>COUNTIF($F$23:$F$49433,"*Failed*")</f>
         <v>0</v>
       </c>
       <c r="C9" s="75">
-        <f>COUNTIF($G$23:$G$49423,"*Failed*")</f>
+        <f>COUNTIF($G$23:$G$49433,"*Failed*")</f>
         <v>0</v>
       </c>
       <c r="D9" s="75">
-        <f>COUNTIF($H$23:$H$49423,"*Failed*")</f>
+        <f>COUNTIF($H$23:$H$49433,"*Failed*")</f>
         <v>0</v>
       </c>
       <c r="E9" s="43"/>
@@ -13814,15 +14272,15 @@
         <v>45</v>
       </c>
       <c r="B10" s="75">
-        <f>COUNTIF($F$23:$F$49423,"*Not Run*")</f>
+        <f>COUNTIF($F$23:$F$49433,"*Not Run*")</f>
         <v>0</v>
       </c>
       <c r="C10" s="75">
-        <f>COUNTIF($G$23:$G$49423,"*Not Run*")</f>
+        <f>COUNTIF($G$23:$G$49433,"*Not Run*")</f>
         <v>0</v>
       </c>
       <c r="D10" s="75">
-        <f>COUNTIF($H$23:$H$49423,"*Not Run*")</f>
+        <f>COUNTIF($H$23:$H$49433,"*Not Run*")</f>
         <v>0</v>
       </c>
       <c r="E10" s="1"/>
@@ -13836,15 +14294,15 @@
         <v>104</v>
       </c>
       <c r="B11" s="75">
-        <f>COUNTIF($F$23:$F$49423,"*NA*")</f>
+        <f>COUNTIF($F$23:$F$49433,"*NA*")</f>
         <v>0</v>
       </c>
       <c r="C11" s="75">
-        <f>COUNTIF($G$23:$G$49423,"*NA*")</f>
+        <f>COUNTIF($G$23:$G$49433,"*NA*")</f>
         <v>0</v>
       </c>
       <c r="D11" s="75">
-        <f>COUNTIF($H$23:$H$49423,"*NA*")</f>
+        <f>COUNTIF($H$23:$H$49433,"*NA*")</f>
         <v>0</v>
       </c>
       <c r="E11" s="64"/>
@@ -13853,20 +14311,20 @@
       <c r="H11" s="1"/>
       <c r="I11" s="1"/>
     </row>
-    <row r="12" spans="1:9" ht="36.9">
+    <row r="12" spans="1:9" ht="24.6">
       <c r="A12" s="141" t="s">
         <v>105</v>
       </c>
       <c r="B12" s="75">
-        <f>COUNTIF($F$23:$F$49423,"*Passed in previous build*")</f>
+        <f>COUNTIF($F$23:$F$49433,"*Passed in previous build*")</f>
         <v>0</v>
       </c>
       <c r="C12" s="75">
-        <f>COUNTIF($G$23:$G$49423,"*Passed in previous build*")</f>
+        <f>COUNTIF($G$23:$G$49433,"*Passed in previous build*")</f>
         <v>0</v>
       </c>
       <c r="D12" s="75">
-        <f>COUNTIF($H$23:$H$49423,"*Passed in previous build*")</f>
+        <f>COUNTIF($H$23:$H$49433,"*Passed in previous build*")</f>
         <v>0</v>
       </c>
       <c r="E12" s="1"/>
@@ -13881,11 +14339,11 @@
       <c r="C13" s="50"/>
       <c r="D13" s="51"/>
       <c r="E13" s="65"/>
-      <c r="F13" s="287" t="s">
+      <c r="F13" s="289" t="s">
         <v>102</v>
       </c>
-      <c r="G13" s="288"/>
-      <c r="H13" s="289"/>
+      <c r="G13" s="290"/>
+      <c r="H13" s="291"/>
       <c r="I13" s="65"/>
     </row>
     <row r="14" spans="1:9" ht="36.9">
@@ -13919,39 +14377,41 @@
     </row>
     <row r="15" spans="1:9" ht="25.2" customHeight="1">
       <c r="A15" s="77"/>
-      <c r="B15" s="318" t="s">
-        <v>635</v>
-      </c>
-      <c r="C15" s="319"/>
-      <c r="D15" s="319"/>
-      <c r="E15" s="319"/>
-      <c r="F15" s="319"/>
-      <c r="G15" s="319"/>
-      <c r="H15" s="319"/>
-      <c r="I15" s="320"/>
+      <c r="B15" s="295" t="s">
+        <v>634</v>
+      </c>
+      <c r="C15" s="296"/>
+      <c r="D15" s="296"/>
+      <c r="E15" s="296"/>
+      <c r="F15" s="296"/>
+      <c r="G15" s="296"/>
+      <c r="H15" s="296"/>
+      <c r="I15" s="297"/>
     </row>
     <row r="16" spans="1:9" ht="24.3" customHeight="1">
       <c r="A16" s="204"/>
-      <c r="B16" s="274" t="s">
+      <c r="B16" s="276" t="s">
         <v>314</v>
       </c>
-      <c r="C16" s="275"/>
-      <c r="D16" s="275"/>
-      <c r="E16" s="275"/>
-      <c r="F16" s="275"/>
-      <c r="G16" s="275"/>
-      <c r="H16" s="275"/>
-      <c r="I16" s="276"/>
+      <c r="C16" s="277"/>
+      <c r="D16" s="277"/>
+      <c r="E16" s="277"/>
+      <c r="F16" s="277"/>
+      <c r="G16" s="277"/>
+      <c r="H16" s="277"/>
+      <c r="I16" s="278"/>
     </row>
     <row r="17" spans="1:9" ht="47.4" customHeight="1">
       <c r="A17" s="209">
-        <f t="shared" ref="A17:A27" ca="1" si="0">IF(OFFSET(A17,-1,0) ="",OFFSET(A17,-2,0)+1,OFFSET(A17,-1,0)+1 )</f>
+        <f t="shared" ref="A17:A28" ca="1" si="0">IF(OFFSET(A17,-1,0) ="",OFFSET(A17,-2,0)+1,OFFSET(A17,-1,0)+1 )</f>
         <v>1</v>
       </c>
       <c r="B17" s="209" t="s">
         <v>402</v>
       </c>
-      <c r="C17" s="209"/>
+      <c r="C17" s="209" t="s">
+        <v>714</v>
+      </c>
       <c r="D17" s="205" t="s">
         <v>404</v>
       </c>
@@ -13961,7 +14421,7 @@
       <c r="H17" s="209"/>
       <c r="I17" s="55"/>
     </row>
-    <row r="18" spans="1:9" ht="43.5" customHeight="1">
+    <row r="18" spans="1:9" ht="51" customHeight="1">
       <c r="A18" s="209">
         <f t="shared" ca="1" si="0"/>
         <v>2</v>
@@ -13969,7 +14429,9 @@
       <c r="B18" s="209" t="s">
         <v>479</v>
       </c>
-      <c r="C18" s="209"/>
+      <c r="C18" s="209" t="s">
+        <v>715</v>
+      </c>
       <c r="D18" s="205" t="s">
         <v>403</v>
       </c>
@@ -13979,7 +14441,7 @@
       <c r="H18" s="209"/>
       <c r="I18" s="55"/>
     </row>
-    <row r="19" spans="1:9" ht="40.799999999999997" customHeight="1">
+    <row r="19" spans="1:9" ht="55.8" customHeight="1">
       <c r="A19" s="209">
         <f t="shared" ca="1" si="0"/>
         <v>3</v>
@@ -13987,7 +14449,9 @@
       <c r="B19" s="209" t="s">
         <v>317</v>
       </c>
-      <c r="C19" s="209"/>
+      <c r="C19" s="209" t="s">
+        <v>716</v>
+      </c>
       <c r="D19" s="60" t="s">
         <v>427</v>
       </c>
@@ -13997,7 +14461,7 @@
       <c r="H19" s="209"/>
       <c r="I19" s="55"/>
     </row>
-    <row r="20" spans="1:9" ht="28.5" customHeight="1">
+    <row r="20" spans="1:9" ht="55.8" customHeight="1">
       <c r="A20" s="58">
         <f t="shared" ca="1" si="0"/>
         <v>4</v>
@@ -14005,7 +14469,9 @@
       <c r="B20" s="209" t="s">
         <v>318</v>
       </c>
-      <c r="C20" s="209"/>
+      <c r="C20" s="209" t="s">
+        <v>717</v>
+      </c>
       <c r="D20" s="205" t="s">
         <v>403</v>
       </c>
@@ -14015,7 +14481,7 @@
       <c r="H20" s="209"/>
       <c r="I20" s="61"/>
     </row>
-    <row r="21" spans="1:9" ht="28.5" customHeight="1">
+    <row r="21" spans="1:9" ht="55.8" customHeight="1">
       <c r="A21" s="58">
         <f t="shared" ca="1" si="0"/>
         <v>5</v>
@@ -14023,7 +14489,9 @@
       <c r="B21" s="209" t="s">
         <v>319</v>
       </c>
-      <c r="C21" s="209"/>
+      <c r="C21" s="209" t="s">
+        <v>718</v>
+      </c>
       <c r="D21" s="54" t="s">
         <v>405</v>
       </c>
@@ -14039,11 +14507,13 @@
         <v>6</v>
       </c>
       <c r="B22" s="209" t="s">
-        <v>359</v>
-      </c>
-      <c r="C22" s="209"/>
+        <v>719</v>
+      </c>
+      <c r="C22" s="209" t="s">
+        <v>720</v>
+      </c>
       <c r="D22" s="54" t="s">
-        <v>715</v>
+        <v>706</v>
       </c>
       <c r="E22" s="54"/>
       <c r="F22" s="209"/>
@@ -14051,7 +14521,7 @@
       <c r="H22" s="209"/>
       <c r="I22" s="61"/>
     </row>
-    <row r="23" spans="1:9" ht="25.5" customHeight="1">
+    <row r="23" spans="1:9" ht="39.9" customHeight="1">
       <c r="A23" s="58">
         <f t="shared" ca="1" si="0"/>
         <v>7</v>
@@ -14059,7 +14529,9 @@
       <c r="B23" s="209" t="s">
         <v>360</v>
       </c>
-      <c r="C23" s="209"/>
+      <c r="C23" s="209" t="s">
+        <v>721</v>
+      </c>
       <c r="D23" s="54" t="s">
         <v>427</v>
       </c>
@@ -14069,14 +14541,19 @@
       <c r="H23" s="209"/>
       <c r="I23" s="61"/>
     </row>
-    <row r="24" spans="1:9" ht="24.9" customHeight="1">
-      <c r="A24" s="58"/>
+    <row r="24" spans="1:9" ht="53.1" customHeight="1">
+      <c r="A24" s="58">
+        <f t="shared" ca="1" si="0"/>
+        <v>8</v>
+      </c>
       <c r="B24" s="209" t="s">
         <v>362</v>
       </c>
-      <c r="C24" s="209"/>
+      <c r="C24" s="209" t="s">
+        <v>722</v>
+      </c>
       <c r="D24" s="54" t="s">
-        <v>698</v>
+        <v>691</v>
       </c>
       <c r="E24" s="54"/>
       <c r="F24" s="209"/>
@@ -14084,17 +14561,19 @@
       <c r="H24" s="209"/>
       <c r="I24" s="61"/>
     </row>
-    <row r="25" spans="1:9" ht="24.6">
+    <row r="25" spans="1:9" ht="27.9" customHeight="1">
       <c r="A25" s="58">
         <f t="shared" ca="1" si="0"/>
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B25" s="209" t="s">
-        <v>363</v>
-      </c>
-      <c r="C25" s="209"/>
+        <v>724</v>
+      </c>
+      <c r="C25" s="209" t="s">
+        <v>725</v>
+      </c>
       <c r="D25" s="54" t="s">
-        <v>699</v>
+        <v>726</v>
       </c>
       <c r="E25" s="54"/>
       <c r="F25" s="209"/>
@@ -14102,17 +14581,19 @@
       <c r="H25" s="209"/>
       <c r="I25" s="61"/>
     </row>
-    <row r="26" spans="1:9" ht="31.8" customHeight="1">
+    <row r="26" spans="1:9" ht="36.9">
       <c r="A26" s="58">
         <f t="shared" ca="1" si="0"/>
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B26" s="209" t="s">
-        <v>391</v>
-      </c>
-      <c r="C26" s="209"/>
+        <v>363</v>
+      </c>
+      <c r="C26" s="209" t="s">
+        <v>723</v>
+      </c>
       <c r="D26" s="54" t="s">
-        <v>701</v>
+        <v>692</v>
       </c>
       <c r="E26" s="54"/>
       <c r="F26" s="209"/>
@@ -14120,17 +14601,19 @@
       <c r="H26" s="209"/>
       <c r="I26" s="61"/>
     </row>
-    <row r="27" spans="1:9" ht="37.5" customHeight="1">
+    <row r="27" spans="1:9" ht="45.6" customHeight="1">
       <c r="A27" s="58">
         <f t="shared" ca="1" si="0"/>
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B27" s="209" t="s">
-        <v>364</v>
-      </c>
-      <c r="C27" s="209"/>
+        <v>391</v>
+      </c>
+      <c r="C27" s="209" t="s">
+        <v>714</v>
+      </c>
       <c r="D27" s="54" t="s">
-        <v>700</v>
+        <v>694</v>
       </c>
       <c r="E27" s="54"/>
       <c r="F27" s="209"/>
@@ -14138,48 +14621,52 @@
       <c r="H27" s="209"/>
       <c r="I27" s="61"/>
     </row>
-    <row r="28" spans="1:9">
-      <c r="A28" s="204"/>
-      <c r="B28" s="274" t="s">
-        <v>636</v>
-      </c>
-      <c r="C28" s="275"/>
-      <c r="D28" s="275"/>
-      <c r="E28" s="275"/>
-      <c r="F28" s="275"/>
-      <c r="G28" s="275"/>
-      <c r="H28" s="275"/>
-      <c r="I28" s="276"/>
+    <row r="28" spans="1:9" ht="37.5" customHeight="1">
+      <c r="A28" s="58">
+        <f t="shared" ca="1" si="0"/>
+        <v>12</v>
+      </c>
+      <c r="B28" s="209" t="s">
+        <v>364</v>
+      </c>
+      <c r="C28" s="209" t="s">
+        <v>727</v>
+      </c>
+      <c r="D28" s="54" t="s">
+        <v>693</v>
+      </c>
+      <c r="E28" s="54"/>
+      <c r="F28" s="209"/>
+      <c r="G28" s="209"/>
+      <c r="H28" s="209"/>
+      <c r="I28" s="61"/>
     </row>
     <row r="29" spans="1:9">
-      <c r="A29" s="58">
-        <f t="shared" ref="A29:A42" ca="1" si="1">IF(OFFSET(A29,-1,0) ="",OFFSET(A29,-2,0)+1,OFFSET(A29,-1,0)+1 )</f>
-        <v>11</v>
-      </c>
-      <c r="B29" s="209" t="s">
+      <c r="A29" s="204"/>
+      <c r="B29" s="276" t="s">
+        <v>635</v>
+      </c>
+      <c r="C29" s="277"/>
+      <c r="D29" s="277"/>
+      <c r="E29" s="277"/>
+      <c r="F29" s="277"/>
+      <c r="G29" s="277"/>
+      <c r="H29" s="277"/>
+      <c r="I29" s="278"/>
+    </row>
+    <row r="30" spans="1:9" ht="36.9">
+      <c r="A30" s="58">
+        <f t="shared" ref="A30:A44" ca="1" si="1">IF(OFFSET(A30,-1,0) ="",OFFSET(A30,-2,0)+1,OFFSET(A30,-1,0)+1 )</f>
+        <v>13</v>
+      </c>
+      <c r="B30" s="209" t="s">
         <v>402</v>
       </c>
-      <c r="C29" s="209"/>
-      <c r="D29" s="205" t="s">
+      <c r="C30" s="209" t="s">
+        <v>714</v>
+      </c>
+      <c r="D30" s="205" t="s">
         <v>447</v>
-      </c>
-      <c r="E29" s="54"/>
-      <c r="F29" s="209"/>
-      <c r="G29" s="209"/>
-      <c r="H29" s="209"/>
-      <c r="I29" s="55"/>
-    </row>
-    <row r="30" spans="1:9" ht="24.6">
-      <c r="A30" s="58">
-        <f t="shared" ca="1" si="1"/>
-        <v>12</v>
-      </c>
-      <c r="B30" s="209" t="s">
-        <v>412</v>
-      </c>
-      <c r="C30" s="209"/>
-      <c r="D30" s="207" t="s">
-        <v>714</v>
       </c>
       <c r="E30" s="54"/>
       <c r="F30" s="209"/>
@@ -14187,17 +14674,19 @@
       <c r="H30" s="209"/>
       <c r="I30" s="55"/>
     </row>
-    <row r="31" spans="1:9" ht="36.9">
+    <row r="31" spans="1:9" ht="24.6">
       <c r="A31" s="58">
         <f t="shared" ca="1" si="1"/>
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B31" s="209" t="s">
-        <v>637</v>
-      </c>
-      <c r="C31" s="209"/>
-      <c r="D31" s="205" t="s">
-        <v>657</v>
+        <v>412</v>
+      </c>
+      <c r="C31" s="209" t="s">
+        <v>720</v>
+      </c>
+      <c r="D31" s="207" t="s">
+        <v>705</v>
       </c>
       <c r="E31" s="54"/>
       <c r="F31" s="209"/>
@@ -14205,34 +14694,38 @@
       <c r="H31" s="209"/>
       <c r="I31" s="55"/>
     </row>
-    <row r="32" spans="1:9" ht="24.6">
+    <row r="32" spans="1:9" ht="49.2">
       <c r="A32" s="58">
         <f t="shared" ca="1" si="1"/>
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B32" s="209" t="s">
-        <v>638</v>
-      </c>
-      <c r="C32" s="209"/>
-      <c r="D32" s="54" t="s">
-        <v>449</v>
+        <v>636</v>
+      </c>
+      <c r="C32" s="209" t="s">
+        <v>729</v>
+      </c>
+      <c r="D32" s="205" t="s">
+        <v>651</v>
       </c>
       <c r="E32" s="54"/>
       <c r="F32" s="209"/>
       <c r="G32" s="209"/>
       <c r="H32" s="209"/>
-      <c r="I32" s="61"/>
-    </row>
-    <row r="33" spans="1:9" ht="24.6">
+      <c r="I32" s="55"/>
+    </row>
+    <row r="33" spans="1:9" ht="49.2">
       <c r="A33" s="58">
         <f t="shared" ca="1" si="1"/>
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B33" s="209" t="s">
-        <v>336</v>
-      </c>
-      <c r="C33" s="209"/>
-      <c r="D33" s="207" t="s">
+        <v>637</v>
+      </c>
+      <c r="C33" s="209" t="s">
+        <v>730</v>
+      </c>
+      <c r="D33" s="54" t="s">
         <v>449</v>
       </c>
       <c r="E33" s="54"/>
@@ -14241,17 +14734,19 @@
       <c r="H33" s="209"/>
       <c r="I33" s="61"/>
     </row>
-    <row r="34" spans="1:9" ht="24.6">
+    <row r="34" spans="1:9" ht="49.2">
       <c r="A34" s="58">
         <f t="shared" ca="1" si="1"/>
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B34" s="209" t="s">
-        <v>337</v>
-      </c>
-      <c r="C34" s="209"/>
-      <c r="D34" s="205" t="s">
-        <v>686</v>
+        <v>336</v>
+      </c>
+      <c r="C34" s="209" t="s">
+        <v>731</v>
+      </c>
+      <c r="D34" s="207" t="s">
+        <v>449</v>
       </c>
       <c r="E34" s="54"/>
       <c r="F34" s="209"/>
@@ -14259,17 +14754,19 @@
       <c r="H34" s="209"/>
       <c r="I34" s="61"/>
     </row>
-    <row r="35" spans="1:9" ht="24.6">
+    <row r="35" spans="1:9" ht="49.2">
       <c r="A35" s="58">
         <f t="shared" ca="1" si="1"/>
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B35" s="209" t="s">
-        <v>639</v>
-      </c>
-      <c r="C35" s="209"/>
-      <c r="D35" s="207" t="s">
-        <v>449</v>
+        <v>337</v>
+      </c>
+      <c r="C35" s="209" t="s">
+        <v>732</v>
+      </c>
+      <c r="D35" s="205" t="s">
+        <v>680</v>
       </c>
       <c r="E35" s="54"/>
       <c r="F35" s="209"/>
@@ -14277,15 +14774,17 @@
       <c r="H35" s="209"/>
       <c r="I35" s="61"/>
     </row>
-    <row r="36" spans="1:9" ht="24.6">
+    <row r="36" spans="1:9" ht="49.2">
       <c r="A36" s="58">
         <f t="shared" ca="1" si="1"/>
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B36" s="209" t="s">
-        <v>338</v>
-      </c>
-      <c r="C36" s="209"/>
+        <v>638</v>
+      </c>
+      <c r="C36" s="209" t="s">
+        <v>733</v>
+      </c>
       <c r="D36" s="207" t="s">
         <v>449</v>
       </c>
@@ -14295,17 +14794,19 @@
       <c r="H36" s="209"/>
       <c r="I36" s="61"/>
     </row>
-    <row r="37" spans="1:9" ht="24.6">
+    <row r="37" spans="1:9" ht="49.2">
       <c r="A37" s="58">
         <f t="shared" ca="1" si="1"/>
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B37" s="209" t="s">
-        <v>684</v>
-      </c>
-      <c r="C37" s="209"/>
+        <v>338</v>
+      </c>
+      <c r="C37" s="209" t="s">
+        <v>734</v>
+      </c>
       <c r="D37" s="207" t="s">
-        <v>685</v>
+        <v>449</v>
       </c>
       <c r="E37" s="54"/>
       <c r="F37" s="209"/>
@@ -14313,17 +14814,19 @@
       <c r="H37" s="209"/>
       <c r="I37" s="61"/>
     </row>
-    <row r="38" spans="1:9" ht="24.6">
+    <row r="38" spans="1:9" ht="49.2">
       <c r="A38" s="58">
         <f t="shared" ca="1" si="1"/>
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B38" s="209" t="s">
-        <v>385</v>
-      </c>
-      <c r="C38" s="209"/>
+        <v>678</v>
+      </c>
+      <c r="C38" s="209" t="s">
+        <v>728</v>
+      </c>
       <c r="D38" s="207" t="s">
-        <v>449</v>
+        <v>679</v>
       </c>
       <c r="E38" s="54"/>
       <c r="F38" s="209"/>
@@ -14331,17 +14834,19 @@
       <c r="H38" s="209"/>
       <c r="I38" s="61"/>
     </row>
-    <row r="39" spans="1:9">
+    <row r="39" spans="1:9" ht="36.9">
       <c r="A39" s="58">
         <f t="shared" ca="1" si="1"/>
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B39" s="209" t="s">
-        <v>386</v>
-      </c>
-      <c r="C39" s="209"/>
+        <v>385</v>
+      </c>
+      <c r="C39" s="209" t="s">
+        <v>739</v>
+      </c>
       <c r="D39" s="207" t="s">
-        <v>415</v>
+        <v>449</v>
       </c>
       <c r="E39" s="54"/>
       <c r="F39" s="209"/>
@@ -14349,17 +14854,19 @@
       <c r="H39" s="209"/>
       <c r="I39" s="61"/>
     </row>
-    <row r="40" spans="1:9">
+    <row r="40" spans="1:9" ht="36.9">
       <c r="A40" s="58">
         <f t="shared" ca="1" si="1"/>
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B40" s="209" t="s">
-        <v>362</v>
-      </c>
-      <c r="C40" s="209"/>
+        <v>735</v>
+      </c>
+      <c r="C40" s="209" t="s">
+        <v>737</v>
+      </c>
       <c r="D40" s="207" t="s">
-        <v>409</v>
+        <v>736</v>
       </c>
       <c r="E40" s="54"/>
       <c r="F40" s="209"/>
@@ -14367,17 +14874,19 @@
       <c r="H40" s="209"/>
       <c r="I40" s="61"/>
     </row>
-    <row r="41" spans="1:9" ht="24.6">
+    <row r="41" spans="1:9" ht="36.9">
       <c r="A41" s="58">
         <f t="shared" ca="1" si="1"/>
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B41" s="209" t="s">
-        <v>396</v>
-      </c>
-      <c r="C41" s="209"/>
+        <v>386</v>
+      </c>
+      <c r="C41" s="209" t="s">
+        <v>738</v>
+      </c>
       <c r="D41" s="207" t="s">
-        <v>411</v>
+        <v>415</v>
       </c>
       <c r="E41" s="54"/>
       <c r="F41" s="209"/>
@@ -14385,17 +14894,19 @@
       <c r="H41" s="209"/>
       <c r="I41" s="61"/>
     </row>
-    <row r="42" spans="1:9" ht="24.6">
+    <row r="42" spans="1:9" ht="36.9">
       <c r="A42" s="58">
         <f t="shared" ca="1" si="1"/>
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B42" s="209" t="s">
-        <v>387</v>
-      </c>
-      <c r="C42" s="209"/>
+        <v>362</v>
+      </c>
+      <c r="C42" s="209" t="s">
+        <v>740</v>
+      </c>
       <c r="D42" s="207" t="s">
-        <v>517</v>
+        <v>409</v>
       </c>
       <c r="E42" s="54"/>
       <c r="F42" s="209"/>
@@ -14403,66 +14914,72 @@
       <c r="H42" s="209"/>
       <c r="I42" s="61"/>
     </row>
-    <row r="43" spans="1:9">
-      <c r="A43" s="189"/>
-      <c r="B43" s="280" t="s">
-        <v>640</v>
-      </c>
-      <c r="C43" s="281"/>
-      <c r="D43" s="281"/>
-      <c r="E43" s="281"/>
-      <c r="F43" s="281"/>
-      <c r="G43" s="281"/>
-      <c r="H43" s="281"/>
-      <c r="I43" s="282"/>
-    </row>
-    <row r="44" spans="1:9">
+    <row r="43" spans="1:9" ht="24.6">
+      <c r="A43" s="58">
+        <f t="shared" ca="1" si="1"/>
+        <v>26</v>
+      </c>
+      <c r="B43" s="209" t="s">
+        <v>396</v>
+      </c>
+      <c r="C43" s="209" t="s">
+        <v>741</v>
+      </c>
+      <c r="D43" s="207" t="s">
+        <v>411</v>
+      </c>
+      <c r="E43" s="54"/>
+      <c r="F43" s="209"/>
+      <c r="G43" s="209"/>
+      <c r="H43" s="209"/>
+      <c r="I43" s="61"/>
+    </row>
+    <row r="44" spans="1:9" ht="36.9">
       <c r="A44" s="58">
-        <f t="shared" ref="A44:A56" ca="1" si="2">IF(OFFSET(A44,-1,0) ="",OFFSET(A44,-2,0)+1,OFFSET(A44,-1,0)+1 )</f>
-        <v>25</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>27</v>
       </c>
       <c r="B44" s="209" t="s">
-        <v>402</v>
-      </c>
-      <c r="C44" s="209"/>
-      <c r="D44" s="205" t="s">
-        <v>652</v>
+        <v>387</v>
+      </c>
+      <c r="C44" s="209" t="s">
+        <v>758</v>
+      </c>
+      <c r="D44" s="207" t="s">
+        <v>693</v>
       </c>
       <c r="E44" s="54"/>
       <c r="F44" s="209"/>
       <c r="G44" s="209"/>
       <c r="H44" s="209"/>
-      <c r="I44" s="62"/>
-    </row>
-    <row r="45" spans="1:9" ht="36.9">
-      <c r="A45" s="58">
-        <f t="shared" ca="1" si="2"/>
-        <v>26</v>
-      </c>
-      <c r="B45" s="209" t="s">
-        <v>641</v>
-      </c>
-      <c r="C45" s="209"/>
-      <c r="D45" s="207" t="s">
-        <v>713</v>
-      </c>
-      <c r="E45" s="54"/>
-      <c r="F45" s="209"/>
-      <c r="G45" s="209"/>
-      <c r="H45" s="209"/>
-      <c r="I45" s="62"/>
-    </row>
-    <row r="46" spans="1:9" ht="24.6">
+      <c r="I44" s="61"/>
+    </row>
+    <row r="45" spans="1:9">
+      <c r="A45" s="189"/>
+      <c r="B45" s="282" t="s">
+        <v>639</v>
+      </c>
+      <c r="C45" s="283"/>
+      <c r="D45" s="283"/>
+      <c r="E45" s="283"/>
+      <c r="F45" s="283"/>
+      <c r="G45" s="283"/>
+      <c r="H45" s="283"/>
+      <c r="I45" s="284"/>
+    </row>
+    <row r="46" spans="1:9" ht="36.9">
       <c r="A46" s="58">
-        <f t="shared" ca="1" si="2"/>
-        <v>27</v>
+        <f t="shared" ref="A46:A59" ca="1" si="2">IF(OFFSET(A46,-1,0) ="",OFFSET(A46,-2,0)+1,OFFSET(A46,-1,0)+1 )</f>
+        <v>28</v>
       </c>
       <c r="B46" s="209" t="s">
-        <v>642</v>
-      </c>
-      <c r="C46" s="209"/>
+        <v>402</v>
+      </c>
+      <c r="C46" s="209" t="s">
+        <v>714</v>
+      </c>
       <c r="D46" s="205" t="s">
-        <v>687</v>
+        <v>646</v>
       </c>
       <c r="E46" s="54"/>
       <c r="F46" s="209"/>
@@ -14470,17 +14987,19 @@
       <c r="H46" s="209"/>
       <c r="I46" s="62"/>
     </row>
-    <row r="47" spans="1:9" ht="24.6">
+    <row r="47" spans="1:9" ht="36.9">
       <c r="A47" s="58">
         <f t="shared" ca="1" si="2"/>
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B47" s="209" t="s">
-        <v>643</v>
-      </c>
-      <c r="C47" s="209"/>
-      <c r="D47" s="54" t="s">
-        <v>449</v>
+        <v>640</v>
+      </c>
+      <c r="C47" s="209" t="s">
+        <v>720</v>
+      </c>
+      <c r="D47" s="207" t="s">
+        <v>704</v>
       </c>
       <c r="E47" s="54"/>
       <c r="F47" s="209"/>
@@ -14488,17 +15007,19 @@
       <c r="H47" s="209"/>
       <c r="I47" s="62"/>
     </row>
-    <row r="48" spans="1:9" ht="24.6">
+    <row r="48" spans="1:9" ht="36.9">
       <c r="A48" s="58">
         <f t="shared" ca="1" si="2"/>
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B48" s="209" t="s">
-        <v>644</v>
-      </c>
-      <c r="C48" s="209"/>
-      <c r="D48" s="207" t="s">
-        <v>449</v>
+        <v>742</v>
+      </c>
+      <c r="C48" s="209" t="s">
+        <v>747</v>
+      </c>
+      <c r="D48" s="205" t="s">
+        <v>681</v>
       </c>
       <c r="E48" s="54"/>
       <c r="F48" s="209"/>
@@ -14509,14 +15030,16 @@
     <row r="49" spans="1:9" ht="36.9">
       <c r="A49" s="58">
         <f t="shared" ca="1" si="2"/>
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B49" s="209" t="s">
-        <v>645</v>
-      </c>
-      <c r="C49" s="209"/>
-      <c r="D49" s="205" t="s">
-        <v>656</v>
+        <v>743</v>
+      </c>
+      <c r="C49" s="209" t="s">
+        <v>748</v>
+      </c>
+      <c r="D49" s="54" t="s">
+        <v>449</v>
       </c>
       <c r="E49" s="54"/>
       <c r="F49" s="209"/>
@@ -14524,17 +15047,19 @@
       <c r="H49" s="209"/>
       <c r="I49" s="62"/>
     </row>
-    <row r="50" spans="1:9" ht="24.6">
+    <row r="50" spans="1:9" ht="36.9">
       <c r="A50" s="58">
         <f t="shared" ca="1" si="2"/>
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B50" s="209" t="s">
-        <v>646</v>
-      </c>
-      <c r="C50" s="209"/>
+        <v>744</v>
+      </c>
+      <c r="C50" s="209" t="s">
+        <v>749</v>
+      </c>
       <c r="D50" s="207" t="s">
-        <v>653</v>
+        <v>449</v>
       </c>
       <c r="E50" s="54"/>
       <c r="F50" s="209"/>
@@ -14542,17 +15067,19 @@
       <c r="H50" s="209"/>
       <c r="I50" s="62"/>
     </row>
-    <row r="51" spans="1:9" ht="24.6">
+    <row r="51" spans="1:9" ht="36.9">
       <c r="A51" s="58">
         <f t="shared" ca="1" si="2"/>
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B51" s="209" t="s">
-        <v>647</v>
-      </c>
-      <c r="C51" s="209"/>
-      <c r="D51" s="207" t="s">
-        <v>653</v>
+        <v>745</v>
+      </c>
+      <c r="C51" s="209" t="s">
+        <v>750</v>
+      </c>
+      <c r="D51" s="205" t="s">
+        <v>650</v>
       </c>
       <c r="E51" s="54"/>
       <c r="F51" s="209"/>
@@ -14560,17 +15087,19 @@
       <c r="H51" s="209"/>
       <c r="I51" s="62"/>
     </row>
-    <row r="52" spans="1:9" ht="24.6">
+    <row r="52" spans="1:9" ht="36.9">
       <c r="A52" s="58">
         <f t="shared" ca="1" si="2"/>
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B52" s="209" t="s">
-        <v>648</v>
-      </c>
-      <c r="C52" s="209"/>
+        <v>746</v>
+      </c>
+      <c r="C52" s="209" t="s">
+        <v>751</v>
+      </c>
       <c r="D52" s="207" t="s">
-        <v>654</v>
+        <v>647</v>
       </c>
       <c r="E52" s="54"/>
       <c r="F52" s="209"/>
@@ -14578,17 +15107,19 @@
       <c r="H52" s="209"/>
       <c r="I52" s="62"/>
     </row>
-    <row r="53" spans="1:9">
+    <row r="53" spans="1:9" ht="36.9">
       <c r="A53" s="58">
         <f t="shared" ca="1" si="2"/>
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B53" s="209" t="s">
-        <v>649</v>
-      </c>
-      <c r="C53" s="209"/>
+        <v>641</v>
+      </c>
+      <c r="C53" s="209" t="s">
+        <v>752</v>
+      </c>
       <c r="D53" s="207" t="s">
-        <v>655</v>
+        <v>647</v>
       </c>
       <c r="E53" s="54"/>
       <c r="F53" s="209"/>
@@ -14596,17 +15127,19 @@
       <c r="H53" s="209"/>
       <c r="I53" s="62"/>
     </row>
-    <row r="54" spans="1:9">
+    <row r="54" spans="1:9" ht="24.6">
       <c r="A54" s="58">
         <f t="shared" ca="1" si="2"/>
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B54" s="209" t="s">
-        <v>362</v>
-      </c>
-      <c r="C54" s="209"/>
+        <v>642</v>
+      </c>
+      <c r="C54" s="209" t="s">
+        <v>753</v>
+      </c>
       <c r="D54" s="207" t="s">
-        <v>409</v>
+        <v>648</v>
       </c>
       <c r="E54" s="54"/>
       <c r="F54" s="209"/>
@@ -14614,17 +15147,19 @@
       <c r="H54" s="209"/>
       <c r="I54" s="62"/>
     </row>
-    <row r="55" spans="1:9" ht="24.6">
+    <row r="55" spans="1:9" ht="36.9">
       <c r="A55" s="58">
         <f t="shared" ca="1" si="2"/>
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B55" s="209" t="s">
-        <v>650</v>
-      </c>
-      <c r="C55" s="209"/>
+        <v>754</v>
+      </c>
+      <c r="C55" s="209" t="s">
+        <v>755</v>
+      </c>
       <c r="D55" s="207" t="s">
-        <v>702</v>
+        <v>649</v>
       </c>
       <c r="E55" s="54"/>
       <c r="F55" s="209"/>
@@ -14632,17 +15167,19 @@
       <c r="H55" s="209"/>
       <c r="I55" s="62"/>
     </row>
-    <row r="56" spans="1:9">
+    <row r="56" spans="1:9" ht="24.6">
       <c r="A56" s="58">
         <f t="shared" ca="1" si="2"/>
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B56" s="209" t="s">
-        <v>651</v>
-      </c>
-      <c r="C56" s="209"/>
+        <v>643</v>
+      </c>
+      <c r="C56" s="209" t="s">
+        <v>756</v>
+      </c>
       <c r="D56" s="207" t="s">
-        <v>517</v>
+        <v>649</v>
       </c>
       <c r="E56" s="54"/>
       <c r="F56" s="209"/>
@@ -14650,30 +15187,39 @@
       <c r="H56" s="209"/>
       <c r="I56" s="62"/>
     </row>
-    <row r="57" spans="1:9">
-      <c r="A57" s="189"/>
-      <c r="B57" s="280" t="s">
-        <v>658</v>
-      </c>
-      <c r="C57" s="281"/>
-      <c r="D57" s="281"/>
-      <c r="E57" s="281"/>
-      <c r="F57" s="281"/>
-      <c r="G57" s="281"/>
-      <c r="H57" s="281"/>
-      <c r="I57" s="282"/>
-    </row>
-    <row r="58" spans="1:9" ht="36.9">
+    <row r="57" spans="1:9" ht="36.9">
+      <c r="A57" s="58">
+        <f t="shared" ca="1" si="2"/>
+        <v>39</v>
+      </c>
+      <c r="B57" s="209" t="s">
+        <v>362</v>
+      </c>
+      <c r="C57" s="209" t="s">
+        <v>757</v>
+      </c>
+      <c r="D57" s="207" t="s">
+        <v>409</v>
+      </c>
+      <c r="E57" s="54"/>
+      <c r="F57" s="209"/>
+      <c r="G57" s="209"/>
+      <c r="H57" s="209"/>
+      <c r="I57" s="62"/>
+    </row>
+    <row r="58" spans="1:9" ht="24.6">
       <c r="A58" s="58">
-        <f t="shared" ref="A58:A79" ca="1" si="3">IF(OFFSET(A58,-1,0) ="",OFFSET(A58,-2,0)+1,OFFSET(A58,-1,0)+1 )</f>
-        <v>38</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>40</v>
       </c>
       <c r="B58" s="209" t="s">
-        <v>659</v>
-      </c>
-      <c r="C58" s="209"/>
+        <v>644</v>
+      </c>
+      <c r="C58" s="209" t="s">
+        <v>741</v>
+      </c>
       <c r="D58" s="207" t="s">
-        <v>712</v>
+        <v>695</v>
       </c>
       <c r="E58" s="54"/>
       <c r="F58" s="209"/>
@@ -14681,17 +15227,19 @@
       <c r="H58" s="209"/>
       <c r="I58" s="62"/>
     </row>
-    <row r="59" spans="1:9" ht="24.6">
+    <row r="59" spans="1:9" ht="36.9">
       <c r="A59" s="58">
-        <f t="shared" ca="1" si="3"/>
-        <v>39</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>41</v>
       </c>
       <c r="B59" s="209" t="s">
-        <v>660</v>
-      </c>
-      <c r="C59" s="209"/>
+        <v>645</v>
+      </c>
+      <c r="C59" s="209" t="s">
+        <v>759</v>
+      </c>
       <c r="D59" s="207" t="s">
-        <v>418</v>
+        <v>693</v>
       </c>
       <c r="E59" s="54"/>
       <c r="F59" s="209"/>
@@ -14699,35 +15247,32 @@
       <c r="H59" s="209"/>
       <c r="I59" s="62"/>
     </row>
-    <row r="60" spans="1:9" ht="24.6">
-      <c r="A60" s="58">
-        <f t="shared" ca="1" si="3"/>
-        <v>40</v>
-      </c>
-      <c r="B60" s="209" t="s">
-        <v>661</v>
-      </c>
-      <c r="C60" s="209"/>
-      <c r="D60" s="207" t="s">
-        <v>689</v>
-      </c>
-      <c r="E60" s="54"/>
-      <c r="F60" s="209"/>
-      <c r="G60" s="209"/>
-      <c r="H60" s="209"/>
-      <c r="I60" s="62"/>
-    </row>
-    <row r="61" spans="1:9">
+    <row r="60" spans="1:9">
+      <c r="A60" s="189"/>
+      <c r="B60" s="282" t="s">
+        <v>652</v>
+      </c>
+      <c r="C60" s="283"/>
+      <c r="D60" s="283"/>
+      <c r="E60" s="283"/>
+      <c r="F60" s="283"/>
+      <c r="G60" s="283"/>
+      <c r="H60" s="283"/>
+      <c r="I60" s="284"/>
+    </row>
+    <row r="61" spans="1:9" ht="36.9">
       <c r="A61" s="58">
-        <f t="shared" ca="1" si="3"/>
-        <v>41</v>
+        <f t="shared" ref="A61:A82" ca="1" si="3">IF(OFFSET(A61,-1,0) ="",OFFSET(A61,-2,0)+1,OFFSET(A61,-1,0)+1 )</f>
+        <v>42</v>
       </c>
       <c r="B61" s="209" t="s">
-        <v>662</v>
-      </c>
-      <c r="C61" s="209"/>
+        <v>653</v>
+      </c>
+      <c r="C61" s="209" t="s">
+        <v>714</v>
+      </c>
       <c r="D61" s="207" t="s">
-        <v>665</v>
+        <v>703</v>
       </c>
       <c r="E61" s="54"/>
       <c r="F61" s="209"/>
@@ -14735,17 +15280,19 @@
       <c r="H61" s="209"/>
       <c r="I61" s="62"/>
     </row>
-    <row r="62" spans="1:9" ht="24.6">
+    <row r="62" spans="1:9" ht="49.2">
       <c r="A62" s="58">
         <f t="shared" ca="1" si="3"/>
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B62" s="209" t="s">
-        <v>663</v>
-      </c>
-      <c r="C62" s="209"/>
+        <v>654</v>
+      </c>
+      <c r="C62" s="209" t="s">
+        <v>760</v>
+      </c>
       <c r="D62" s="207" t="s">
-        <v>703</v>
+        <v>761</v>
       </c>
       <c r="E62" s="54"/>
       <c r="F62" s="209"/>
@@ -14753,17 +15300,19 @@
       <c r="H62" s="209"/>
       <c r="I62" s="62"/>
     </row>
-    <row r="63" spans="1:9">
+    <row r="63" spans="1:9" ht="49.2">
       <c r="A63" s="58">
         <f t="shared" ca="1" si="3"/>
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B63" s="209" t="s">
-        <v>664</v>
-      </c>
-      <c r="C63" s="209"/>
+        <v>655</v>
+      </c>
+      <c r="C63" s="209" t="s">
+        <v>762</v>
+      </c>
       <c r="D63" s="207" t="s">
-        <v>673</v>
+        <v>683</v>
       </c>
       <c r="E63" s="54"/>
       <c r="F63" s="209"/>
@@ -14771,48 +15320,59 @@
       <c r="H63" s="209"/>
       <c r="I63" s="62"/>
     </row>
-    <row r="64" spans="1:9" ht="24.6">
+    <row r="64" spans="1:9" ht="73.8">
       <c r="A64" s="58">
         <f t="shared" ca="1" si="3"/>
-        <v>44</v>
-      </c>
-      <c r="B64" s="211" t="s">
-        <v>682</v>
-      </c>
-      <c r="C64" s="201"/>
-      <c r="D64" s="316" t="s">
-        <v>690</v>
-      </c>
-      <c r="E64" s="202"/>
-      <c r="F64" s="201"/>
-      <c r="G64" s="201"/>
-      <c r="H64" s="201"/>
-      <c r="I64" s="317"/>
-    </row>
-    <row r="65" spans="1:9">
-      <c r="A65" s="189"/>
-      <c r="B65" s="280" t="s">
-        <v>666</v>
-      </c>
-      <c r="C65" s="281"/>
-      <c r="D65" s="281"/>
-      <c r="E65" s="281"/>
-      <c r="F65" s="281"/>
-      <c r="G65" s="281"/>
-      <c r="H65" s="281"/>
-      <c r="I65" s="282"/>
+        <v>45</v>
+      </c>
+      <c r="B64" s="209" t="s">
+        <v>656</v>
+      </c>
+      <c r="C64" s="209" t="s">
+        <v>763</v>
+      </c>
+      <c r="D64" s="207" t="s">
+        <v>659</v>
+      </c>
+      <c r="E64" s="54"/>
+      <c r="F64" s="209"/>
+      <c r="G64" s="209"/>
+      <c r="H64" s="209"/>
+      <c r="I64" s="62"/>
+    </row>
+    <row r="65" spans="1:9" ht="24.6">
+      <c r="A65" s="58">
+        <f t="shared" ca="1" si="3"/>
+        <v>46</v>
+      </c>
+      <c r="B65" s="209" t="s">
+        <v>657</v>
+      </c>
+      <c r="C65" s="209" t="s">
+        <v>741</v>
+      </c>
+      <c r="D65" s="207" t="s">
+        <v>696</v>
+      </c>
+      <c r="E65" s="54"/>
+      <c r="F65" s="209"/>
+      <c r="G65" s="209"/>
+      <c r="H65" s="209"/>
+      <c r="I65" s="62"/>
     </row>
     <row r="66" spans="1:9" ht="36.9">
       <c r="A66" s="58">
         <f t="shared" ca="1" si="3"/>
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B66" s="209" t="s">
+        <v>658</v>
+      </c>
+      <c r="C66" s="209" t="s">
+        <v>714</v>
+      </c>
+      <c r="D66" s="207" t="s">
         <v>667</v>
-      </c>
-      <c r="C66" s="209"/>
-      <c r="D66" s="207" t="s">
-        <v>711</v>
       </c>
       <c r="E66" s="54"/>
       <c r="F66" s="209"/>
@@ -14820,35 +15380,32 @@
       <c r="H66" s="209"/>
       <c r="I66" s="62"/>
     </row>
-    <row r="67" spans="1:9" ht="24.6">
-      <c r="A67" s="58">
-        <f t="shared" ca="1" si="3"/>
-        <v>46</v>
-      </c>
-      <c r="B67" s="209" t="s">
-        <v>668</v>
-      </c>
-      <c r="C67" s="209"/>
-      <c r="D67" s="207" t="s">
-        <v>418</v>
-      </c>
-      <c r="E67" s="54"/>
-      <c r="F67" s="209"/>
-      <c r="G67" s="209"/>
-      <c r="H67" s="209"/>
-      <c r="I67" s="62"/>
-    </row>
-    <row r="68" spans="1:9" ht="24.6">
+    <row r="67" spans="1:9">
+      <c r="A67" s="189"/>
+      <c r="B67" s="282" t="s">
+        <v>660</v>
+      </c>
+      <c r="C67" s="283"/>
+      <c r="D67" s="283"/>
+      <c r="E67" s="283"/>
+      <c r="F67" s="283"/>
+      <c r="G67" s="283"/>
+      <c r="H67" s="283"/>
+      <c r="I67" s="284"/>
+    </row>
+    <row r="68" spans="1:9" ht="36.9">
       <c r="A68" s="58">
         <f t="shared" ca="1" si="3"/>
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B68" s="209" t="s">
-        <v>669</v>
-      </c>
-      <c r="C68" s="209"/>
+        <v>661</v>
+      </c>
+      <c r="C68" s="209" t="s">
+        <v>714</v>
+      </c>
       <c r="D68" s="207" t="s">
-        <v>689</v>
+        <v>702</v>
       </c>
       <c r="E68" s="54"/>
       <c r="F68" s="209"/>
@@ -14856,17 +15413,19 @@
       <c r="H68" s="209"/>
       <c r="I68" s="62"/>
     </row>
-    <row r="69" spans="1:9">
+    <row r="69" spans="1:9" ht="24.6">
       <c r="A69" s="58">
         <f t="shared" ca="1" si="3"/>
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B69" s="209" t="s">
-        <v>670</v>
-      </c>
-      <c r="C69" s="209"/>
+        <v>662</v>
+      </c>
+      <c r="C69" s="209" t="s">
+        <v>760</v>
+      </c>
       <c r="D69" s="207" t="s">
-        <v>665</v>
+        <v>418</v>
       </c>
       <c r="E69" s="54"/>
       <c r="F69" s="209"/>
@@ -14874,17 +15433,19 @@
       <c r="H69" s="209"/>
       <c r="I69" s="62"/>
     </row>
-    <row r="70" spans="1:9" ht="24.6">
+    <row r="70" spans="1:9" ht="49.2">
       <c r="A70" s="58">
         <f t="shared" ca="1" si="3"/>
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B70" s="209" t="s">
-        <v>671</v>
-      </c>
-      <c r="C70" s="209"/>
+        <v>663</v>
+      </c>
+      <c r="C70" s="209" t="s">
+        <v>765</v>
+      </c>
       <c r="D70" s="207" t="s">
-        <v>704</v>
+        <v>683</v>
       </c>
       <c r="E70" s="54"/>
       <c r="F70" s="209"/>
@@ -14892,17 +15453,19 @@
       <c r="H70" s="209"/>
       <c r="I70" s="62"/>
     </row>
-    <row r="71" spans="1:9">
+    <row r="71" spans="1:9" ht="61.5">
       <c r="A71" s="58">
         <f t="shared" ca="1" si="3"/>
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B71" s="209" t="s">
-        <v>672</v>
-      </c>
-      <c r="C71" s="209"/>
+        <v>664</v>
+      </c>
+      <c r="C71" s="209" t="s">
+        <v>766</v>
+      </c>
       <c r="D71" s="207" t="s">
-        <v>675</v>
+        <v>659</v>
       </c>
       <c r="E71" s="54"/>
       <c r="F71" s="209"/>
@@ -14913,81 +15476,89 @@
     <row r="72" spans="1:9" ht="24.6">
       <c r="A72" s="58">
         <f t="shared" ca="1" si="3"/>
-        <v>51</v>
-      </c>
-      <c r="B72" s="211" t="s">
-        <v>683</v>
-      </c>
-      <c r="C72" s="201"/>
-      <c r="D72" s="316" t="s">
-        <v>691</v>
-      </c>
-      <c r="E72" s="202"/>
-      <c r="F72" s="201"/>
-      <c r="G72" s="201"/>
-      <c r="H72" s="201"/>
-      <c r="I72" s="317"/>
-    </row>
-    <row r="73" spans="1:9">
-      <c r="A73" s="189"/>
-      <c r="B73" s="280" t="s">
-        <v>705</v>
-      </c>
-      <c r="C73" s="281"/>
-      <c r="D73" s="281"/>
-      <c r="E73" s="281"/>
-      <c r="F73" s="281"/>
-      <c r="G73" s="281"/>
-      <c r="H73" s="281"/>
-      <c r="I73" s="282"/>
-    </row>
-    <row r="74" spans="1:9" ht="36.9">
+        <v>52</v>
+      </c>
+      <c r="B72" s="209" t="s">
+        <v>665</v>
+      </c>
+      <c r="C72" s="209" t="s">
+        <v>741</v>
+      </c>
+      <c r="D72" s="207" t="s">
+        <v>697</v>
+      </c>
+      <c r="E72" s="54"/>
+      <c r="F72" s="209"/>
+      <c r="G72" s="209"/>
+      <c r="H72" s="209"/>
+      <c r="I72" s="62"/>
+    </row>
+    <row r="73" spans="1:9" ht="36.9">
+      <c r="A73" s="58">
+        <f t="shared" ca="1" si="3"/>
+        <v>53</v>
+      </c>
+      <c r="B73" s="209" t="s">
+        <v>666</v>
+      </c>
+      <c r="C73" s="209" t="s">
+        <v>714</v>
+      </c>
+      <c r="D73" s="207" t="s">
+        <v>669</v>
+      </c>
+      <c r="E73" s="54"/>
+      <c r="F73" s="209"/>
+      <c r="G73" s="209"/>
+      <c r="H73" s="209"/>
+      <c r="I73" s="62"/>
+    </row>
+    <row r="74" spans="1:9" ht="49.2">
       <c r="A74" s="58">
         <f t="shared" ca="1" si="3"/>
-        <v>52</v>
-      </c>
-      <c r="B74" s="209" t="s">
+        <v>54</v>
+      </c>
+      <c r="B74" s="211" t="s">
         <v>676</v>
       </c>
-      <c r="C74" s="209"/>
-      <c r="D74" s="207" t="s">
-        <v>710</v>
-      </c>
-      <c r="E74" s="54"/>
-      <c r="F74" s="209"/>
-      <c r="G74" s="209"/>
-      <c r="H74" s="209"/>
-      <c r="I74" s="62"/>
-    </row>
-    <row r="75" spans="1:9" ht="24.6">
-      <c r="A75" s="58">
-        <f t="shared" ca="1" si="3"/>
-        <v>53</v>
-      </c>
-      <c r="B75" s="209" t="s">
-        <v>677</v>
-      </c>
-      <c r="C75" s="209"/>
-      <c r="D75" s="207" t="s">
-        <v>418</v>
-      </c>
-      <c r="E75" s="54"/>
-      <c r="F75" s="209"/>
-      <c r="G75" s="209"/>
-      <c r="H75" s="209"/>
-      <c r="I75" s="62"/>
-    </row>
-    <row r="76" spans="1:9" ht="24.6">
+      <c r="C74" s="209" t="s">
+        <v>764</v>
+      </c>
+      <c r="D74" s="214" t="s">
+        <v>684</v>
+      </c>
+      <c r="E74" s="202"/>
+      <c r="F74" s="201"/>
+      <c r="G74" s="201"/>
+      <c r="H74" s="201"/>
+      <c r="I74" s="215"/>
+    </row>
+    <row r="75" spans="1:9">
+      <c r="A75" s="189"/>
+      <c r="B75" s="282" t="s">
+        <v>698</v>
+      </c>
+      <c r="C75" s="283"/>
+      <c r="D75" s="283"/>
+      <c r="E75" s="283"/>
+      <c r="F75" s="283"/>
+      <c r="G75" s="283"/>
+      <c r="H75" s="283"/>
+      <c r="I75" s="284"/>
+    </row>
+    <row r="76" spans="1:9" ht="36.9">
       <c r="A76" s="58">
         <f t="shared" ca="1" si="3"/>
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B76" s="209" t="s">
-        <v>678</v>
-      </c>
-      <c r="C76" s="209"/>
+        <v>670</v>
+      </c>
+      <c r="C76" s="209" t="s">
+        <v>714</v>
+      </c>
       <c r="D76" s="207" t="s">
-        <v>689</v>
+        <v>701</v>
       </c>
       <c r="E76" s="54"/>
       <c r="F76" s="209"/>
@@ -14995,17 +15566,19 @@
       <c r="H76" s="209"/>
       <c r="I76" s="62"/>
     </row>
-    <row r="77" spans="1:9">
+    <row r="77" spans="1:9" ht="24.6">
       <c r="A77" s="58">
         <f t="shared" ca="1" si="3"/>
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B77" s="209" t="s">
-        <v>679</v>
-      </c>
-      <c r="C77" s="209"/>
+        <v>671</v>
+      </c>
+      <c r="C77" s="209" t="s">
+        <v>760</v>
+      </c>
       <c r="D77" s="207" t="s">
-        <v>665</v>
+        <v>418</v>
       </c>
       <c r="E77" s="54"/>
       <c r="F77" s="209"/>
@@ -15013,17 +15586,19 @@
       <c r="H77" s="209"/>
       <c r="I77" s="62"/>
     </row>
-    <row r="78" spans="1:9" ht="24.6">
+    <row r="78" spans="1:9" ht="49.2">
       <c r="A78" s="58">
         <f t="shared" ca="1" si="3"/>
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B78" s="209" t="s">
-        <v>680</v>
-      </c>
-      <c r="C78" s="209"/>
+        <v>672</v>
+      </c>
+      <c r="C78" s="209" t="s">
+        <v>767</v>
+      </c>
       <c r="D78" s="207" t="s">
-        <v>706</v>
+        <v>683</v>
       </c>
       <c r="E78" s="54"/>
       <c r="F78" s="209"/>
@@ -15031,17 +15606,19 @@
       <c r="H78" s="209"/>
       <c r="I78" s="62"/>
     </row>
-    <row r="79" spans="1:9">
+    <row r="79" spans="1:9" ht="61.5">
       <c r="A79" s="58">
         <f t="shared" ca="1" si="3"/>
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B79" s="209" t="s">
-        <v>681</v>
-      </c>
-      <c r="C79" s="209"/>
+        <v>673</v>
+      </c>
+      <c r="C79" s="209" t="s">
+        <v>768</v>
+      </c>
       <c r="D79" s="207" t="s">
-        <v>674</v>
+        <v>659</v>
       </c>
       <c r="E79" s="54"/>
       <c r="F79" s="209"/>
@@ -15049,30 +15626,39 @@
       <c r="H79" s="209"/>
       <c r="I79" s="62"/>
     </row>
-    <row r="80" spans="1:9">
-      <c r="A80" s="77"/>
-      <c r="B80" s="263" t="s">
-        <v>688</v>
-      </c>
-      <c r="C80" s="264"/>
-      <c r="D80" s="265"/>
-      <c r="E80" s="69"/>
-      <c r="F80" s="66"/>
-      <c r="G80" s="66"/>
-      <c r="H80" s="66"/>
-      <c r="I80" s="69"/>
-    </row>
-    <row r="81" spans="1:9" ht="24.6">
+    <row r="80" spans="1:9" ht="24.6">
+      <c r="A80" s="58">
+        <f t="shared" ca="1" si="3"/>
+        <v>59</v>
+      </c>
+      <c r="B80" s="209" t="s">
+        <v>674</v>
+      </c>
+      <c r="C80" s="209" t="s">
+        <v>741</v>
+      </c>
+      <c r="D80" s="207" t="s">
+        <v>699</v>
+      </c>
+      <c r="E80" s="54"/>
+      <c r="F80" s="209"/>
+      <c r="G80" s="209"/>
+      <c r="H80" s="209"/>
+      <c r="I80" s="62"/>
+    </row>
+    <row r="81" spans="1:9" ht="36.9">
       <c r="A81" s="58">
-        <f ca="1">IF(OFFSET(A81,-1,0) ="",OFFSET(A81,-2,0)+1,OFFSET(A81,-1,0)+1 )</f>
-        <v>58</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>60</v>
       </c>
       <c r="B81" s="209" t="s">
-        <v>692</v>
-      </c>
-      <c r="C81" s="209"/>
-      <c r="D81" s="59" t="s">
-        <v>693</v>
+        <v>675</v>
+      </c>
+      <c r="C81" s="209" t="s">
+        <v>714</v>
+      </c>
+      <c r="D81" s="207" t="s">
+        <v>668</v>
       </c>
       <c r="E81" s="54"/>
       <c r="F81" s="209"/>
@@ -15080,94 +15666,105 @@
       <c r="H81" s="209"/>
       <c r="I81" s="62"/>
     </row>
-    <row r="82" spans="1:9" ht="24.6">
+    <row r="82" spans="1:9" ht="49.2">
       <c r="A82" s="58">
-        <f ca="1">IF(OFFSET(A82,-1,0) ="",OFFSET(A82,-2,0)+1,OFFSET(A82,-1,0)+1 )</f>
-        <v>59</v>
-      </c>
-      <c r="B82" s="209" t="s">
-        <v>695</v>
-      </c>
-      <c r="C82" s="209"/>
-      <c r="D82" s="59" t="s">
-        <v>694</v>
-      </c>
-      <c r="E82" s="54"/>
-      <c r="F82" s="209"/>
-      <c r="G82" s="209"/>
-      <c r="H82" s="209"/>
-      <c r="I82" s="62"/>
-    </row>
-    <row r="83" spans="1:9" ht="24.6">
-      <c r="A83" s="58">
-        <f ca="1">IF(OFFSET(A83,-1,0) ="",OFFSET(A83,-2,0)+1,OFFSET(A83,-1,0)+1 )</f>
-        <v>60</v>
-      </c>
-      <c r="B83" s="209" t="s">
-        <v>696</v>
-      </c>
-      <c r="C83" s="209"/>
-      <c r="D83" s="59" t="s">
-        <v>694</v>
-      </c>
-      <c r="E83" s="54"/>
-      <c r="F83" s="209"/>
-      <c r="G83" s="209"/>
-      <c r="H83" s="209"/>
-      <c r="I83" s="62"/>
-    </row>
-    <row r="84" spans="1:9">
+        <f t="shared" ca="1" si="3"/>
+        <v>61</v>
+      </c>
+      <c r="B82" s="211" t="s">
+        <v>677</v>
+      </c>
+      <c r="C82" s="209" t="s">
+        <v>769</v>
+      </c>
+      <c r="D82" s="214" t="s">
+        <v>685</v>
+      </c>
+      <c r="E82" s="202"/>
+      <c r="F82" s="201"/>
+      <c r="G82" s="201"/>
+      <c r="H82" s="201"/>
+      <c r="I82" s="215"/>
+    </row>
+    <row r="83" spans="1:9">
+      <c r="A83" s="189"/>
+      <c r="B83" s="282" t="s">
+        <v>708</v>
+      </c>
+      <c r="C83" s="283"/>
+      <c r="D83" s="283"/>
+      <c r="E83" s="283"/>
+      <c r="F83" s="283"/>
+      <c r="G83" s="283"/>
+      <c r="H83" s="283"/>
+      <c r="I83" s="284"/>
+    </row>
+    <row r="84" spans="1:9" ht="58.2" customHeight="1">
       <c r="A84" s="58">
-        <f t="shared" ref="A84:A85" ca="1" si="4">IF(OFFSET(A84,-1,0) ="",OFFSET(A84,-2,0)+1,OFFSET(A84,-1,0)+1 )</f>
-        <v>61</v>
-      </c>
-      <c r="B84" s="209" t="s">
-        <v>697</v>
-      </c>
-      <c r="C84" s="209"/>
-      <c r="D84" s="207" t="s">
-        <v>707</v>
-      </c>
+        <f ca="1">IF(OFFSET(A84,-1,0) ="",OFFSET(A84,-2,0)+1,OFFSET(A84,-1,0)+1 )</f>
+        <v>62</v>
+      </c>
+      <c r="B84" s="211" t="s">
+        <v>709</v>
+      </c>
+      <c r="C84" s="209" t="s">
+        <v>770</v>
+      </c>
+      <c r="D84" s="212"/>
       <c r="E84" s="54"/>
       <c r="F84" s="209"/>
       <c r="G84" s="209"/>
       <c r="H84" s="209"/>
       <c r="I84" s="62"/>
     </row>
-    <row r="85" spans="1:9" ht="24.6">
+    <row r="85" spans="1:9" ht="86.1" customHeight="1">
       <c r="A85" s="58">
-        <f t="shared" ca="1" si="4"/>
-        <v>62</v>
-      </c>
-      <c r="B85" s="209" t="s">
-        <v>708</v>
-      </c>
-      <c r="C85" s="209"/>
-      <c r="D85" s="59" t="s">
-        <v>709</v>
-      </c>
+        <f t="shared" ref="A85:A87" ca="1" si="4">IF(OFFSET(A85,-1,0) ="",OFFSET(A85,-2,0)+1,OFFSET(A85,-1,0)+1 )</f>
+        <v>63</v>
+      </c>
+      <c r="B85" s="211" t="s">
+        <v>710</v>
+      </c>
+      <c r="C85" s="209" t="s">
+        <v>772</v>
+      </c>
+      <c r="D85" s="212"/>
       <c r="E85" s="54"/>
       <c r="F85" s="209"/>
       <c r="G85" s="209"/>
       <c r="H85" s="209"/>
       <c r="I85" s="62"/>
     </row>
-    <row r="86" spans="1:9">
-      <c r="A86" s="62"/>
-      <c r="B86" s="209"/>
-      <c r="C86" s="209"/>
-      <c r="D86" s="207"/>
+    <row r="86" spans="1:9" ht="61.5" customHeight="1">
+      <c r="A86" s="58">
+        <f t="shared" ca="1" si="4"/>
+        <v>64</v>
+      </c>
+      <c r="B86" s="211" t="s">
+        <v>711</v>
+      </c>
+      <c r="C86" s="209" t="s">
+        <v>771</v>
+      </c>
+      <c r="D86" s="212"/>
       <c r="E86" s="54"/>
       <c r="F86" s="209"/>
       <c r="G86" s="209"/>
       <c r="H86" s="209"/>
       <c r="I86" s="62"/>
     </row>
-    <row r="87" spans="1:9">
-      <c r="A87" s="62"/>
-      <c r="B87" s="209"/>
-      <c r="C87" s="209"/>
-      <c r="D87" s="207"/>
+    <row r="87" spans="1:9" ht="59.7" customHeight="1">
+      <c r="A87" s="58">
+        <f t="shared" ca="1" si="4"/>
+        <v>65</v>
+      </c>
+      <c r="B87" s="211" t="s">
+        <v>712</v>
+      </c>
+      <c r="C87" s="209" t="s">
+        <v>773</v>
+      </c>
+      <c r="D87" s="212"/>
       <c r="E87" s="54"/>
       <c r="F87" s="209"/>
       <c r="G87" s="209"/>
@@ -15175,21 +15772,32 @@
       <c r="I87" s="62"/>
     </row>
     <row r="88" spans="1:9">
-      <c r="A88" s="62"/>
-      <c r="B88" s="209"/>
-      <c r="C88" s="209"/>
-      <c r="D88" s="207"/>
-      <c r="E88" s="54"/>
-      <c r="F88" s="209"/>
-      <c r="G88" s="209"/>
-      <c r="H88" s="209"/>
-      <c r="I88" s="62"/>
-    </row>
-    <row r="89" spans="1:9">
-      <c r="A89" s="58"/>
-      <c r="B89" s="209"/>
-      <c r="C89" s="209"/>
-      <c r="D89" s="59"/>
+      <c r="A88" s="189"/>
+      <c r="B88" s="282" t="s">
+        <v>713</v>
+      </c>
+      <c r="C88" s="321"/>
+      <c r="D88" s="321"/>
+      <c r="E88" s="321"/>
+      <c r="F88" s="321"/>
+      <c r="G88" s="321"/>
+      <c r="H88" s="321"/>
+      <c r="I88" s="322"/>
+    </row>
+    <row r="89" spans="1:9" ht="24.6">
+      <c r="A89" s="58">
+        <f ca="1">IF(OFFSET(A89,-1,0) ="",OFFSET(A89,-2,0)+1,OFFSET(A89,-1,0)+1 )</f>
+        <v>66</v>
+      </c>
+      <c r="B89" s="211" t="s">
+        <v>774</v>
+      </c>
+      <c r="C89" s="209" t="s">
+        <v>775</v>
+      </c>
+      <c r="D89" s="212" t="s">
+        <v>776</v>
+      </c>
       <c r="E89" s="54"/>
       <c r="F89" s="209"/>
       <c r="G89" s="209"/>
@@ -15197,54 +15805,92 @@
       <c r="I89" s="62"/>
     </row>
     <row r="90" spans="1:9">
-      <c r="A90" s="62"/>
-      <c r="B90" s="209"/>
-      <c r="C90" s="198"/>
-      <c r="D90" s="212"/>
-      <c r="E90" s="54"/>
-      <c r="F90" s="209"/>
-      <c r="G90" s="209"/>
-      <c r="H90" s="209"/>
-      <c r="I90" s="62"/>
-    </row>
-    <row r="91" spans="1:9">
-      <c r="A91" s="62"/>
-      <c r="B91" s="209"/>
-      <c r="C91" s="198"/>
-      <c r="D91" s="212"/>
+      <c r="A90" s="77"/>
+      <c r="B90" s="265" t="s">
+        <v>682</v>
+      </c>
+      <c r="C90" s="266"/>
+      <c r="D90" s="267"/>
+      <c r="E90" s="69"/>
+      <c r="F90" s="66"/>
+      <c r="G90" s="66"/>
+      <c r="H90" s="66"/>
+      <c r="I90" s="69"/>
+    </row>
+    <row r="91" spans="1:9" ht="36.9">
+      <c r="A91" s="58">
+        <f ca="1">IF(OFFSET(A91,-1,0) ="",OFFSET(A91,-2,0)+1,OFFSET(A91,-1,0)+1 )</f>
+        <v>67</v>
+      </c>
+      <c r="B91" s="209" t="s">
+        <v>707</v>
+      </c>
+      <c r="C91" s="209" t="s">
+        <v>777</v>
+      </c>
+      <c r="D91" s="59" t="s">
+        <v>686</v>
+      </c>
       <c r="E91" s="54"/>
       <c r="F91" s="209"/>
       <c r="G91" s="209"/>
       <c r="H91" s="209"/>
       <c r="I91" s="62"/>
     </row>
-    <row r="92" spans="1:9">
-      <c r="A92" s="62"/>
-      <c r="B92" s="209"/>
-      <c r="C92" s="198"/>
-      <c r="D92" s="212"/>
+    <row r="92" spans="1:9" ht="49.2">
+      <c r="A92" s="58">
+        <f ca="1">IF(OFFSET(A92,-1,0) ="",OFFSET(A92,-2,0)+1,OFFSET(A92,-1,0)+1 )</f>
+        <v>68</v>
+      </c>
+      <c r="B92" s="209" t="s">
+        <v>688</v>
+      </c>
+      <c r="C92" s="209" t="s">
+        <v>778</v>
+      </c>
+      <c r="D92" s="59" t="s">
+        <v>687</v>
+      </c>
       <c r="E92" s="54"/>
       <c r="F92" s="209"/>
       <c r="G92" s="209"/>
       <c r="H92" s="209"/>
       <c r="I92" s="62"/>
     </row>
-    <row r="93" spans="1:9">
-      <c r="A93" s="62"/>
-      <c r="B93" s="209"/>
-      <c r="C93" s="198"/>
-      <c r="D93" s="212"/>
+    <row r="93" spans="1:9" ht="73.8">
+      <c r="A93" s="58">
+        <f ca="1">IF(OFFSET(A93,-1,0) ="",OFFSET(A93,-2,0)+1,OFFSET(A93,-1,0)+1 )</f>
+        <v>69</v>
+      </c>
+      <c r="B93" s="209" t="s">
+        <v>689</v>
+      </c>
+      <c r="C93" s="209" t="s">
+        <v>779</v>
+      </c>
+      <c r="D93" s="59" t="s">
+        <v>687</v>
+      </c>
       <c r="E93" s="54"/>
       <c r="F93" s="209"/>
       <c r="G93" s="209"/>
       <c r="H93" s="209"/>
       <c r="I93" s="62"/>
     </row>
-    <row r="94" spans="1:9">
-      <c r="A94" s="62"/>
-      <c r="B94" s="209"/>
-      <c r="C94" s="198"/>
-      <c r="D94" s="212"/>
+    <row r="94" spans="1:9" ht="73.8">
+      <c r="A94" s="58">
+        <f t="shared" ref="A94:A95" ca="1" si="5">IF(OFFSET(A94,-1,0) ="",OFFSET(A94,-2,0)+1,OFFSET(A94,-1,0)+1 )</f>
+        <v>70</v>
+      </c>
+      <c r="B94" s="209" t="s">
+        <v>690</v>
+      </c>
+      <c r="C94" s="209" t="s">
+        <v>780</v>
+      </c>
+      <c r="D94" s="207" t="s">
+        <v>700</v>
+      </c>
       <c r="E94" s="54"/>
       <c r="F94" s="209"/>
       <c r="G94" s="209"/>
@@ -15252,10 +15898,10 @@
       <c r="I94" s="62"/>
     </row>
     <row r="95" spans="1:9">
-      <c r="A95" s="62"/>
+      <c r="A95" s="58"/>
       <c r="B95" s="209"/>
-      <c r="C95" s="198"/>
-      <c r="D95" s="212"/>
+      <c r="C95" s="209"/>
+      <c r="D95" s="59"/>
       <c r="E95" s="54"/>
       <c r="F95" s="209"/>
       <c r="G95" s="209"/>
@@ -15265,8 +15911,8 @@
     <row r="96" spans="1:9">
       <c r="A96" s="62"/>
       <c r="B96" s="209"/>
-      <c r="C96" s="198"/>
-      <c r="D96" s="212"/>
+      <c r="C96" s="209"/>
+      <c r="D96" s="207"/>
       <c r="E96" s="54"/>
       <c r="F96" s="209"/>
       <c r="G96" s="209"/>
@@ -15276,8 +15922,8 @@
     <row r="97" spans="1:9">
       <c r="A97" s="62"/>
       <c r="B97" s="209"/>
-      <c r="C97" s="198"/>
-      <c r="D97" s="212"/>
+      <c r="C97" s="209"/>
+      <c r="D97" s="207"/>
       <c r="E97" s="54"/>
       <c r="F97" s="209"/>
       <c r="G97" s="209"/>
@@ -15287,8 +15933,8 @@
     <row r="98" spans="1:9">
       <c r="A98" s="62"/>
       <c r="B98" s="209"/>
-      <c r="C98" s="198"/>
-      <c r="D98" s="212"/>
+      <c r="C98" s="209"/>
+      <c r="D98" s="207"/>
       <c r="E98" s="54"/>
       <c r="F98" s="209"/>
       <c r="G98" s="209"/>
@@ -15296,10 +15942,10 @@
       <c r="I98" s="62"/>
     </row>
     <row r="99" spans="1:9">
-      <c r="A99" s="62"/>
+      <c r="A99" s="58"/>
       <c r="B99" s="209"/>
-      <c r="C99" s="198"/>
-      <c r="D99" s="212"/>
+      <c r="C99" s="209"/>
+      <c r="D99" s="59"/>
       <c r="E99" s="54"/>
       <c r="F99" s="209"/>
       <c r="G99" s="209"/>
@@ -15329,21 +15975,21 @@
       <c r="I101" s="62"/>
     </row>
     <row r="102" spans="1:9">
-      <c r="A102" s="77"/>
-      <c r="B102" s="263"/>
-      <c r="C102" s="264"/>
-      <c r="D102" s="265"/>
-      <c r="E102" s="69"/>
-      <c r="F102" s="66"/>
-      <c r="G102" s="66"/>
-      <c r="H102" s="66"/>
-      <c r="I102" s="69"/>
+      <c r="A102" s="62"/>
+      <c r="B102" s="209"/>
+      <c r="C102" s="198"/>
+      <c r="D102" s="212"/>
+      <c r="E102" s="54"/>
+      <c r="F102" s="209"/>
+      <c r="G102" s="209"/>
+      <c r="H102" s="209"/>
+      <c r="I102" s="62"/>
     </row>
     <row r="103" spans="1:9">
       <c r="A103" s="62"/>
       <c r="B103" s="209"/>
-      <c r="C103" s="209"/>
-      <c r="D103" s="54"/>
+      <c r="C103" s="198"/>
+      <c r="D103" s="212"/>
       <c r="E103" s="54"/>
       <c r="F103" s="209"/>
       <c r="G103" s="209"/>
@@ -15353,40 +15999,154 @@
     <row r="104" spans="1:9">
       <c r="A104" s="62"/>
       <c r="B104" s="209"/>
-      <c r="C104" s="209"/>
-      <c r="D104" s="54"/>
+      <c r="C104" s="198"/>
+      <c r="D104" s="212"/>
       <c r="E104" s="54"/>
       <c r="F104" s="209"/>
       <c r="G104" s="209"/>
       <c r="H104" s="209"/>
       <c r="I104" s="62"/>
     </row>
+    <row r="105" spans="1:9">
+      <c r="A105" s="62"/>
+      <c r="B105" s="209"/>
+      <c r="C105" s="198"/>
+      <c r="D105" s="212"/>
+      <c r="E105" s="54"/>
+      <c r="F105" s="209"/>
+      <c r="G105" s="209"/>
+      <c r="H105" s="209"/>
+      <c r="I105" s="62"/>
+    </row>
+    <row r="106" spans="1:9">
+      <c r="A106" s="62"/>
+      <c r="B106" s="209"/>
+      <c r="C106" s="198"/>
+      <c r="D106" s="212"/>
+      <c r="E106" s="54"/>
+      <c r="F106" s="209"/>
+      <c r="G106" s="209"/>
+      <c r="H106" s="209"/>
+      <c r="I106" s="62"/>
+    </row>
+    <row r="107" spans="1:9">
+      <c r="A107" s="62"/>
+      <c r="B107" s="209"/>
+      <c r="C107" s="198"/>
+      <c r="D107" s="212"/>
+      <c r="E107" s="54"/>
+      <c r="F107" s="209"/>
+      <c r="G107" s="209"/>
+      <c r="H107" s="209"/>
+      <c r="I107" s="62"/>
+    </row>
+    <row r="108" spans="1:9">
+      <c r="A108" s="62"/>
+      <c r="B108" s="209"/>
+      <c r="C108" s="198"/>
+      <c r="D108" s="212"/>
+      <c r="E108" s="54"/>
+      <c r="F108" s="209"/>
+      <c r="G108" s="209"/>
+      <c r="H108" s="209"/>
+      <c r="I108" s="62"/>
+    </row>
+    <row r="109" spans="1:9">
+      <c r="A109" s="62"/>
+      <c r="B109" s="209"/>
+      <c r="C109" s="198"/>
+      <c r="D109" s="212"/>
+      <c r="E109" s="54"/>
+      <c r="F109" s="209"/>
+      <c r="G109" s="209"/>
+      <c r="H109" s="209"/>
+      <c r="I109" s="62"/>
+    </row>
+    <row r="110" spans="1:9">
+      <c r="A110" s="62"/>
+      <c r="B110" s="209"/>
+      <c r="C110" s="198"/>
+      <c r="D110" s="212"/>
+      <c r="E110" s="54"/>
+      <c r="F110" s="209"/>
+      <c r="G110" s="209"/>
+      <c r="H110" s="209"/>
+      <c r="I110" s="62"/>
+    </row>
+    <row r="111" spans="1:9">
+      <c r="A111" s="62"/>
+      <c r="B111" s="209"/>
+      <c r="C111" s="198"/>
+      <c r="D111" s="212"/>
+      <c r="E111" s="54"/>
+      <c r="F111" s="209"/>
+      <c r="G111" s="209"/>
+      <c r="H111" s="209"/>
+      <c r="I111" s="62"/>
+    </row>
+    <row r="112" spans="1:9">
+      <c r="A112" s="77"/>
+      <c r="B112" s="265"/>
+      <c r="C112" s="266"/>
+      <c r="D112" s="267"/>
+      <c r="E112" s="69"/>
+      <c r="F112" s="66"/>
+      <c r="G112" s="66"/>
+      <c r="H112" s="66"/>
+      <c r="I112" s="69"/>
+    </row>
+    <row r="113" spans="1:9">
+      <c r="A113" s="62"/>
+      <c r="B113" s="209"/>
+      <c r="C113" s="209"/>
+      <c r="D113" s="54"/>
+      <c r="E113" s="54"/>
+      <c r="F113" s="209"/>
+      <c r="G113" s="209"/>
+      <c r="H113" s="209"/>
+      <c r="I113" s="62"/>
+    </row>
+    <row r="114" spans="1:9">
+      <c r="A114" s="62"/>
+      <c r="B114" s="209"/>
+      <c r="C114" s="209"/>
+      <c r="D114" s="54"/>
+      <c r="E114" s="54"/>
+      <c r="F114" s="209"/>
+      <c r="G114" s="209"/>
+      <c r="H114" s="209"/>
+      <c r="I114" s="62"/>
+    </row>
   </sheetData>
-  <mergeCells count="15">
-    <mergeCell ref="B15:I15"/>
-    <mergeCell ref="B16:I16"/>
-    <mergeCell ref="B28:I28"/>
-    <mergeCell ref="B43:I43"/>
-    <mergeCell ref="B57:I57"/>
-    <mergeCell ref="B65:I65"/>
-    <mergeCell ref="B80:D80"/>
-    <mergeCell ref="B102:D102"/>
-    <mergeCell ref="B73:I73"/>
+  <mergeCells count="17">
+    <mergeCell ref="B88:I88"/>
+    <mergeCell ref="B67:I67"/>
+    <mergeCell ref="B90:D90"/>
+    <mergeCell ref="B112:D112"/>
+    <mergeCell ref="B75:I75"/>
     <mergeCell ref="B1:D1"/>
     <mergeCell ref="B2:D2"/>
     <mergeCell ref="B3:D3"/>
     <mergeCell ref="B4:D4"/>
     <mergeCell ref="B5:D5"/>
     <mergeCell ref="F13:H13"/>
+    <mergeCell ref="B15:I15"/>
+    <mergeCell ref="B16:I16"/>
+    <mergeCell ref="B29:I29"/>
+    <mergeCell ref="B45:I45"/>
+    <mergeCell ref="B60:I60"/>
+    <mergeCell ref="B83:I83"/>
   </mergeCells>
   <dataValidations count="2">
     <dataValidation showDropDown="1" showErrorMessage="1" sqref="F13:H14"/>
-    <dataValidation type="list" allowBlank="1" sqref="F17:H27 F29:H42 F44:H56 F58:H64 F66:H72 F74:H104">
+    <dataValidation type="list" allowBlank="1" sqref="F17:H28 F30:H44 F46:H59 F61:H66 F76:H82 F84:H87 F68:H74 F89:H114">
       <formula1>$A$11:$A$15</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <legacyDrawing r:id="rId1"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+  <legacyDrawing r:id="rId3"/>
 </worksheet>
 </file>
 
@@ -15428,13 +16188,13 @@
     </row>
     <row r="2" spans="1:12" s="84" customFormat="1" ht="25.2">
       <c r="A2" s="83"/>
-      <c r="C2" s="311" t="s">
+      <c r="C2" s="316" t="s">
         <v>119</v>
       </c>
-      <c r="D2" s="311"/>
-      <c r="E2" s="311"/>
-      <c r="F2" s="311"/>
-      <c r="G2" s="311"/>
+      <c r="D2" s="316"/>
+      <c r="E2" s="316"/>
+      <c r="F2" s="316"/>
+      <c r="G2" s="316"/>
       <c r="H2" s="85" t="s">
         <v>120</v>
       </c>
@@ -15445,15 +16205,15 @@
     </row>
     <row r="3" spans="1:12" s="84" customFormat="1" ht="22.5">
       <c r="A3" s="83"/>
-      <c r="C3" s="312" t="s">
+      <c r="C3" s="317" t="s">
         <v>121</v>
       </c>
-      <c r="D3" s="312"/>
+      <c r="D3" s="317"/>
       <c r="E3" s="157"/>
-      <c r="F3" s="313" t="s">
+      <c r="F3" s="318" t="s">
         <v>122</v>
       </c>
-      <c r="G3" s="313"/>
+      <c r="G3" s="318"/>
       <c r="H3" s="86"/>
       <c r="I3" s="86"/>
       <c r="J3" s="87"/>
@@ -15478,10 +16238,10 @@
       <c r="L5" s="92"/>
     </row>
     <row r="6" spans="1:12" ht="21.75" customHeight="1">
-      <c r="B6" s="295" t="s">
+      <c r="B6" s="300" t="s">
         <v>123</v>
       </c>
-      <c r="C6" s="295"/>
+      <c r="C6" s="300"/>
       <c r="D6" s="94"/>
       <c r="E6" s="94"/>
       <c r="F6" s="94"/>
@@ -15650,11 +16410,11 @@
       <c r="G13" s="98"/>
     </row>
     <row r="14" spans="1:12" ht="21.75" customHeight="1">
-      <c r="B14" s="295" t="s">
+      <c r="B14" s="300" t="s">
         <v>153</v>
       </c>
-      <c r="C14" s="295"/>
-      <c r="D14" s="295"/>
+      <c r="C14" s="300"/>
+      <c r="D14" s="300"/>
       <c r="E14" s="94"/>
       <c r="F14" s="94"/>
       <c r="G14" s="95"/>
@@ -15830,11 +16590,11 @@
       <c r="G22" s="98"/>
     </row>
     <row r="23" spans="1:12" ht="21.75" customHeight="1">
-      <c r="B23" s="295" t="s">
+      <c r="B23" s="300" t="s">
         <v>163</v>
       </c>
-      <c r="C23" s="295"/>
-      <c r="D23" s="295"/>
+      <c r="C23" s="300"/>
+      <c r="D23" s="300"/>
       <c r="E23" s="94"/>
       <c r="F23" s="94"/>
       <c r="G23" s="95"/>
@@ -15880,10 +16640,10 @@
       <c r="F26" s="160" t="s">
         <v>170</v>
       </c>
-      <c r="G26" s="314" t="s">
+      <c r="G26" s="319" t="s">
         <v>114</v>
       </c>
-      <c r="H26" s="315"/>
+      <c r="H26" s="320"/>
     </row>
     <row r="27" spans="1:12">
       <c r="A27" s="100">
@@ -15908,8 +16668,8 @@
         <f>COUNTIFS(#REF!, "*Critical*",#REF!,"*Closed*") + COUNTIFS(#REF!, "*Critical*",#REF!,"*Ready for client test*")</f>
         <v>#REF!</v>
       </c>
-      <c r="G27" s="306"/>
-      <c r="H27" s="307"/>
+      <c r="G27" s="311"/>
+      <c r="H27" s="312"/>
     </row>
     <row r="28" spans="1:12" ht="20.25" customHeight="1">
       <c r="A28" s="100">
@@ -15934,8 +16694,8 @@
         <f>COUNTIFS(#REF!, "*Major*",#REF!,"*Closed*") + COUNTIFS(#REF!, "*Major*",#REF!,"*Ready for client test*")</f>
         <v>#REF!</v>
       </c>
-      <c r="G28" s="306"/>
-      <c r="H28" s="307"/>
+      <c r="G28" s="311"/>
+      <c r="H28" s="312"/>
     </row>
     <row r="29" spans="1:12" ht="20.25" customHeight="1">
       <c r="A29" s="100">
@@ -15960,8 +16720,8 @@
         <f>COUNTIFS(#REF!, "*Normal*",#REF!,"*Closed*") + COUNTIFS(#REF!, "*Normal*",#REF!,"*Ready for client test*")</f>
         <v>#REF!</v>
       </c>
-      <c r="G29" s="306"/>
-      <c r="H29" s="307"/>
+      <c r="G29" s="311"/>
+      <c r="H29" s="312"/>
     </row>
     <row r="30" spans="1:12" ht="20.25" customHeight="1">
       <c r="A30" s="100">
@@ -15986,8 +16746,8 @@
         <f>COUNTIFS(#REF!, "*Minor*",#REF!,"*Closed*") + COUNTIFS(#REF!, "*Minor*",#REF!,"*Ready for client test*")</f>
         <v>#REF!</v>
       </c>
-      <c r="G30" s="306"/>
-      <c r="H30" s="307"/>
+      <c r="G30" s="311"/>
+      <c r="H30" s="312"/>
     </row>
     <row r="31" spans="1:12" ht="20.25" customHeight="1">
       <c r="A31" s="100"/>
@@ -16008,8 +16768,8 @@
         <f>SUM(F27:F30)</f>
         <v>#REF!</v>
       </c>
-      <c r="G31" s="306"/>
-      <c r="H31" s="307"/>
+      <c r="G31" s="311"/>
+      <c r="H31" s="312"/>
     </row>
     <row r="32" spans="1:12" ht="20.25" customHeight="1">
       <c r="A32" s="106"/>
@@ -16047,10 +16807,10 @@
       <c r="E34" s="160" t="s">
         <v>129</v>
       </c>
-      <c r="F34" s="300" t="s">
+      <c r="F34" s="305" t="s">
         <v>132</v>
       </c>
-      <c r="G34" s="302"/>
+      <c r="G34" s="307"/>
     </row>
     <row r="35" spans="1:12" s="125" customFormat="1" ht="14.1">
       <c r="A35" s="121"/>
@@ -16066,8 +16826,8 @@
       <c r="E35" s="126" t="s">
         <v>137</v>
       </c>
-      <c r="F35" s="309"/>
-      <c r="G35" s="310"/>
+      <c r="F35" s="314"/>
+      <c r="G35" s="315"/>
       <c r="H35" s="124"/>
       <c r="I35" s="124"/>
       <c r="J35" s="124"/>
@@ -16090,8 +16850,8 @@
       <c r="E36" s="104" t="s">
         <v>143</v>
       </c>
-      <c r="F36" s="306"/>
-      <c r="G36" s="307"/>
+      <c r="F36" s="311"/>
+      <c r="G36" s="312"/>
     </row>
     <row r="37" spans="1:12" ht="20.25" customHeight="1">
       <c r="A37" s="100">
@@ -16109,8 +16869,8 @@
       <c r="E37" s="104" t="s">
         <v>143</v>
       </c>
-      <c r="F37" s="306"/>
-      <c r="G37" s="307"/>
+      <c r="F37" s="311"/>
+      <c r="G37" s="312"/>
     </row>
     <row r="38" spans="1:12" ht="20.25" customHeight="1">
       <c r="A38" s="106"/>
@@ -16123,10 +16883,10 @@
       <c r="H38" s="108"/>
     </row>
     <row r="39" spans="1:12" ht="21.75" customHeight="1">
-      <c r="B39" s="295" t="s">
+      <c r="B39" s="300" t="s">
         <v>184</v>
       </c>
-      <c r="C39" s="295"/>
+      <c r="C39" s="300"/>
       <c r="D39" s="94"/>
       <c r="E39" s="94"/>
       <c r="F39" s="94"/>
@@ -16150,15 +16910,15 @@
       <c r="B41" s="160" t="s">
         <v>62</v>
       </c>
-      <c r="C41" s="308" t="s">
+      <c r="C41" s="313" t="s">
         <v>186</v>
       </c>
-      <c r="D41" s="308"/>
-      <c r="E41" s="308" t="s">
+      <c r="D41" s="313"/>
+      <c r="E41" s="313" t="s">
         <v>187</v>
       </c>
-      <c r="F41" s="308"/>
-      <c r="G41" s="308"/>
+      <c r="F41" s="313"/>
+      <c r="G41" s="313"/>
       <c r="H41" s="99" t="s">
         <v>188</v>
       </c>
@@ -16170,15 +16930,15 @@
       <c r="B42" s="161" t="s">
         <v>189</v>
       </c>
-      <c r="C42" s="305" t="s">
+      <c r="C42" s="310" t="s">
         <v>190</v>
       </c>
-      <c r="D42" s="305"/>
-      <c r="E42" s="305" t="s">
+      <c r="D42" s="310"/>
+      <c r="E42" s="310" t="s">
         <v>191</v>
       </c>
-      <c r="F42" s="305"/>
-      <c r="G42" s="305"/>
+      <c r="F42" s="310"/>
+      <c r="G42" s="310"/>
       <c r="H42" s="109"/>
     </row>
     <row r="43" spans="1:12" ht="34.5" customHeight="1">
@@ -16188,15 +16948,15 @@
       <c r="B43" s="161" t="s">
         <v>189</v>
       </c>
-      <c r="C43" s="305" t="s">
+      <c r="C43" s="310" t="s">
         <v>190</v>
       </c>
-      <c r="D43" s="305"/>
-      <c r="E43" s="305" t="s">
+      <c r="D43" s="310"/>
+      <c r="E43" s="310" t="s">
         <v>191</v>
       </c>
-      <c r="F43" s="305"/>
-      <c r="G43" s="305"/>
+      <c r="F43" s="310"/>
+      <c r="G43" s="310"/>
       <c r="H43" s="109"/>
     </row>
     <row r="44" spans="1:12" ht="34.5" customHeight="1">
@@ -16206,15 +16966,15 @@
       <c r="B44" s="161" t="s">
         <v>189</v>
       </c>
-      <c r="C44" s="305" t="s">
+      <c r="C44" s="310" t="s">
         <v>190</v>
       </c>
-      <c r="D44" s="305"/>
-      <c r="E44" s="305" t="s">
+      <c r="D44" s="310"/>
+      <c r="E44" s="310" t="s">
         <v>191</v>
       </c>
-      <c r="F44" s="305"/>
-      <c r="G44" s="305"/>
+      <c r="F44" s="310"/>
+      <c r="G44" s="310"/>
       <c r="H44" s="109"/>
     </row>
     <row r="45" spans="1:12">
@@ -16226,10 +16986,10 @@
       <c r="G45" s="98"/>
     </row>
     <row r="46" spans="1:12" ht="21.75" customHeight="1">
-      <c r="B46" s="295" t="s">
+      <c r="B46" s="300" t="s">
         <v>192</v>
       </c>
-      <c r="C46" s="295"/>
+      <c r="C46" s="300"/>
       <c r="D46" s="94"/>
       <c r="E46" s="94"/>
       <c r="F46" s="94"/>
@@ -16247,25 +17007,25 @@
       <c r="G47" s="98"/>
     </row>
     <row r="48" spans="1:12" s="113" customFormat="1" ht="21" customHeight="1">
-      <c r="A48" s="296" t="s">
+      <c r="A48" s="301" t="s">
         <v>58</v>
       </c>
-      <c r="B48" s="298" t="s">
+      <c r="B48" s="303" t="s">
         <v>194</v>
       </c>
-      <c r="C48" s="300" t="s">
+      <c r="C48" s="305" t="s">
         <v>195</v>
       </c>
-      <c r="D48" s="301"/>
-      <c r="E48" s="301"/>
-      <c r="F48" s="302"/>
-      <c r="G48" s="303" t="s">
+      <c r="D48" s="306"/>
+      <c r="E48" s="306"/>
+      <c r="F48" s="307"/>
+      <c r="G48" s="308" t="s">
         <v>162</v>
       </c>
-      <c r="H48" s="303" t="s">
+      <c r="H48" s="308" t="s">
         <v>194</v>
       </c>
-      <c r="I48" s="293" t="s">
+      <c r="I48" s="298" t="s">
         <v>196</v>
       </c>
       <c r="J48" s="112"/>
@@ -16273,8 +17033,8 @@
       <c r="L48" s="112"/>
     </row>
     <row r="49" spans="1:9">
-      <c r="A49" s="297"/>
-      <c r="B49" s="299"/>
+      <c r="A49" s="302"/>
+      <c r="B49" s="304"/>
       <c r="C49" s="114" t="s">
         <v>171</v>
       </c>
@@ -16287,13 +17047,13 @@
       <c r="F49" s="115" t="s">
         <v>174</v>
       </c>
-      <c r="G49" s="304"/>
-      <c r="H49" s="304"/>
-      <c r="I49" s="294"/>
+      <c r="G49" s="309"/>
+      <c r="H49" s="309"/>
+      <c r="I49" s="299"/>
     </row>
     <row r="50" spans="1:9" ht="25.2">
-      <c r="A50" s="297"/>
-      <c r="B50" s="299"/>
+      <c r="A50" s="302"/>
+      <c r="B50" s="304"/>
       <c r="C50" s="128" t="s">
         <v>197</v>
       </c>

--- a/test design technic daongochuy.xlsx
+++ b/test design technic daongochuy.xlsx
@@ -1035,7 +1035,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1113" uniqueCount="781">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1119" uniqueCount="789">
   <si>
     <r>
       <t xml:space="preserve">Security Classification: </t>
@@ -3864,6 +3864,36 @@
 3, Click Save
 4, Go to Address Book page
 5, Click Edit button that next to that address </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Multiple Address </t>
+  </si>
+  <si>
+    <t xml:space="preserve">1,Go  to "Add mew address page "
+2, Insert 2 addresses with the same information 
+3, Click Save
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Verify that address can be multiple </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Verify that the selected option displayed on the box </t>
+  </si>
+  <si>
+    <t>When Address unsuccessfully added</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1,Go  to "Add mew address page "
+2, Insert invalid inout to fields  
+3, Click Save
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Verify that new address cannot add to Address Book  </t>
+  </si>
+  <si>
+    <t>Verify that options appears following alphabeltic order when user clicks on Drop down button</t>
   </si>
 </sst>
 </file>
@@ -5664,27 +5694,78 @@
     <xf numFmtId="0" fontId="64" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="15" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="16" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="11" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="64" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="5" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="6" xfId="5" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="15" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="16" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="11" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="25" borderId="15" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="25" borderId="16" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="25" borderId="11" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="24" borderId="15" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="24" borderId="16" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="24" borderId="11" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="15" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="16" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="11" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="52" fillId="24" borderId="15" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="24" borderId="16" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="24" borderId="11" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="24" borderId="15" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="25" borderId="15" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="25" borderId="16" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="25" borderId="11" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="26" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
@@ -5706,56 +5787,35 @@
     <xf numFmtId="0" fontId="3" fillId="28" borderId="17" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="37" borderId="15" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="37" borderId="16" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="37" borderId="11" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="36" borderId="15" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="36" borderId="16" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="36" borderId="11" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="5" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="15" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="16" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="11" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="64" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="1" fillId="0" borderId="6" xfId="5" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="15" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="16" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="11" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="15" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="16" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="11" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="41" borderId="15" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -5784,15 +5844,6 @@
     <xf numFmtId="0" fontId="1" fillId="33" borderId="11" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="37" fillId="36" borderId="15" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="36" borderId="16" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="36" borderId="11" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="40" borderId="15" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
@@ -5802,26 +5853,11 @@
     <xf numFmtId="0" fontId="1" fillId="40" borderId="11" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="37" borderId="15" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="37" borderId="16" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="37" borderId="11" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="37" fillId="36" borderId="16" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="36" borderId="11" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="37" fillId="10" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -5832,15 +5868,54 @@
     <xf numFmtId="0" fontId="37" fillId="10" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="48" fillId="0" borderId="15" xfId="7" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="48" fillId="0" borderId="11" xfId="7" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="43" fillId="12" borderId="0" xfId="7" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="166" fontId="44" fillId="0" borderId="0" xfId="7" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="166" fontId="44" fillId="0" borderId="0" xfId="7" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="166" fontId="30" fillId="3" borderId="0" xfId="7" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="3" fillId="2" borderId="8" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="3" fillId="2" borderId="0" xfId="7" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="3" fillId="2" borderId="15" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="3" fillId="2" borderId="11" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="3" fillId="2" borderId="6" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="61" fillId="0" borderId="15" xfId="7" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="61" fillId="0" borderId="11" xfId="7" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="46" fillId="0" borderId="6" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="12" xfId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="10" xfId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="166" fontId="30" fillId="3" borderId="0" xfId="7" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="14" xfId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -5853,59 +5928,14 @@
     <xf numFmtId="166" fontId="3" fillId="2" borderId="20" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="166" fontId="3" fillId="2" borderId="15" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="166" fontId="3" fillId="2" borderId="16" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="166" fontId="3" fillId="2" borderId="11" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="18" xfId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="7" xfId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="166" fontId="46" fillId="0" borderId="6" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="48" fillId="0" borderId="15" xfId="7" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="48" fillId="0" borderId="11" xfId="7" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="166" fontId="3" fillId="2" borderId="6" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="61" fillId="0" borderId="15" xfId="7" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="61" fillId="0" borderId="11" xfId="7" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="166" fontId="43" fillId="12" borderId="0" xfId="7" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="166" fontId="44" fillId="0" borderId="0" xfId="7" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="166" fontId="44" fillId="0" borderId="0" xfId="7" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="166" fontId="3" fillId="2" borderId="8" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="166" fontId="3" fillId="2" borderId="0" xfId="7" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="36" borderId="16" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="36" borderId="11" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="27">
@@ -7873,10 +7903,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:24" s="1" customFormat="1" ht="13.8">
-      <c r="A1" s="262"/>
-      <c r="B1" s="262"/>
-      <c r="C1" s="262"/>
-      <c r="D1" s="262"/>
+      <c r="A1" s="245"/>
+      <c r="B1" s="245"/>
+      <c r="C1" s="245"/>
+      <c r="D1" s="245"/>
       <c r="E1" s="34"/>
       <c r="F1" s="34"/>
       <c r="G1" s="34"/>
@@ -7885,13 +7915,13 @@
       <c r="J1" s="34"/>
     </row>
     <row r="2" spans="1:24" s="1" customFormat="1" ht="31.5" customHeight="1">
-      <c r="A2" s="263" t="s">
+      <c r="A2" s="246" t="s">
         <v>70</v>
       </c>
-      <c r="B2" s="263"/>
-      <c r="C2" s="263"/>
-      <c r="D2" s="263"/>
-      <c r="E2" s="269"/>
+      <c r="B2" s="246"/>
+      <c r="C2" s="246"/>
+      <c r="D2" s="246"/>
+      <c r="E2" s="254"/>
       <c r="F2" s="23"/>
       <c r="G2" s="23"/>
       <c r="H2" s="23"/>
@@ -7900,9 +7930,9 @@
     </row>
     <row r="3" spans="1:24" s="1" customFormat="1" ht="31.5" customHeight="1">
       <c r="A3" s="47"/>
-      <c r="C3" s="256"/>
-      <c r="D3" s="256"/>
-      <c r="E3" s="269"/>
+      <c r="C3" s="264"/>
+      <c r="D3" s="264"/>
+      <c r="E3" s="254"/>
       <c r="F3" s="23"/>
       <c r="G3" s="23"/>
       <c r="H3" s="23"/>
@@ -7913,11 +7943,11 @@
       <c r="A4" s="139" t="s">
         <v>66</v>
       </c>
-      <c r="B4" s="257" t="s">
+      <c r="B4" s="248" t="s">
         <v>93</v>
       </c>
-      <c r="C4" s="257"/>
-      <c r="D4" s="257"/>
+      <c r="C4" s="248"/>
+      <c r="D4" s="248"/>
       <c r="E4" s="39"/>
       <c r="F4" s="39"/>
       <c r="G4" s="39"/>
@@ -7931,11 +7961,11 @@
       <c r="A5" s="139" t="s">
         <v>62</v>
       </c>
-      <c r="B5" s="258" t="s">
+      <c r="B5" s="247" t="s">
         <v>95</v>
       </c>
-      <c r="C5" s="257"/>
-      <c r="D5" s="257"/>
+      <c r="C5" s="248"/>
+      <c r="D5" s="248"/>
       <c r="E5" s="39"/>
       <c r="F5" s="39"/>
       <c r="G5" s="39"/>
@@ -7949,11 +7979,11 @@
       <c r="A6" s="139" t="s">
         <v>97</v>
       </c>
-      <c r="B6" s="258" t="s">
+      <c r="B6" s="247" t="s">
         <v>98</v>
       </c>
-      <c r="C6" s="257"/>
-      <c r="D6" s="257"/>
+      <c r="C6" s="248"/>
+      <c r="D6" s="248"/>
       <c r="E6" s="39"/>
       <c r="F6" s="39"/>
       <c r="G6" s="39"/>
@@ -7964,11 +7994,11 @@
       <c r="A7" s="139" t="s">
         <v>99</v>
       </c>
-      <c r="B7" s="257" t="s">
+      <c r="B7" s="248" t="s">
         <v>100</v>
       </c>
-      <c r="C7" s="257"/>
-      <c r="D7" s="257"/>
+      <c r="C7" s="248"/>
+      <c r="D7" s="248"/>
       <c r="E7" s="39"/>
       <c r="F7" s="39"/>
       <c r="G7" s="39"/>
@@ -7980,11 +8010,11 @@
       <c r="A8" s="139" t="s">
         <v>101</v>
       </c>
-      <c r="B8" s="264">
+      <c r="B8" s="249">
         <v>40850</v>
       </c>
-      <c r="C8" s="264"/>
-      <c r="D8" s="264"/>
+      <c r="C8" s="249"/>
+      <c r="D8" s="249"/>
       <c r="E8" s="39"/>
     </row>
     <row r="9" spans="1:24" s="43" customFormat="1">
@@ -8127,11 +8157,11 @@
       <c r="C16" s="50"/>
       <c r="D16" s="51"/>
       <c r="E16" s="56"/>
-      <c r="F16" s="268" t="s">
+      <c r="F16" s="253" t="s">
         <v>102</v>
       </c>
-      <c r="G16" s="268"/>
-      <c r="H16" s="268"/>
+      <c r="G16" s="253"/>
+      <c r="H16" s="253"/>
       <c r="I16" s="57"/>
     </row>
     <row r="17" spans="1:9" s="44" customFormat="1" ht="36.9">
@@ -8167,16 +8197,16 @@
       <c r="A18" s="67" t="s">
         <v>204</v>
       </c>
-      <c r="B18" s="265" t="s">
+      <c r="B18" s="250" t="s">
         <v>206</v>
       </c>
-      <c r="C18" s="266"/>
-      <c r="D18" s="266"/>
-      <c r="E18" s="266"/>
-      <c r="F18" s="266"/>
-      <c r="G18" s="266"/>
-      <c r="H18" s="266"/>
-      <c r="I18" s="267"/>
+      <c r="C18" s="251"/>
+      <c r="D18" s="251"/>
+      <c r="E18" s="251"/>
+      <c r="F18" s="251"/>
+      <c r="G18" s="251"/>
+      <c r="H18" s="251"/>
+      <c r="I18" s="252"/>
     </row>
     <row r="19" spans="1:9" s="45" customFormat="1" ht="27.6" customHeight="1">
       <c r="A19" s="52">
@@ -8201,16 +8231,16 @@
     </row>
     <row r="20" spans="1:9" s="45" customFormat="1">
       <c r="A20" s="168"/>
-      <c r="B20" s="245" t="s">
+      <c r="B20" s="258" t="s">
         <v>219</v>
       </c>
-      <c r="C20" s="243"/>
-      <c r="D20" s="243"/>
-      <c r="E20" s="243"/>
-      <c r="F20" s="243"/>
-      <c r="G20" s="243"/>
-      <c r="H20" s="243"/>
-      <c r="I20" s="244"/>
+      <c r="C20" s="259"/>
+      <c r="D20" s="259"/>
+      <c r="E20" s="259"/>
+      <c r="F20" s="259"/>
+      <c r="G20" s="259"/>
+      <c r="H20" s="259"/>
+      <c r="I20" s="260"/>
     </row>
     <row r="21" spans="1:9" s="45" customFormat="1" ht="20.7" customHeight="1">
       <c r="A21" s="58">
@@ -8258,16 +8288,16 @@
     </row>
     <row r="23" spans="1:9" s="45" customFormat="1">
       <c r="A23" s="168"/>
-      <c r="B23" s="245" t="s">
+      <c r="B23" s="258" t="s">
         <v>220</v>
       </c>
-      <c r="C23" s="243"/>
-      <c r="D23" s="243"/>
-      <c r="E23" s="243"/>
-      <c r="F23" s="243"/>
-      <c r="G23" s="243"/>
-      <c r="H23" s="243"/>
-      <c r="I23" s="244"/>
+      <c r="C23" s="259"/>
+      <c r="D23" s="259"/>
+      <c r="E23" s="259"/>
+      <c r="F23" s="259"/>
+      <c r="G23" s="259"/>
+      <c r="H23" s="259"/>
+      <c r="I23" s="260"/>
     </row>
     <row r="24" spans="1:9" s="48" customFormat="1" ht="13.8">
       <c r="A24" s="58">
@@ -8337,16 +8367,16 @@
     </row>
     <row r="27" spans="1:9" s="48" customFormat="1" ht="13.8">
       <c r="A27" s="168"/>
-      <c r="B27" s="246" t="s">
+      <c r="B27" s="255" t="s">
         <v>225</v>
       </c>
-      <c r="C27" s="247"/>
-      <c r="D27" s="247"/>
-      <c r="E27" s="247"/>
-      <c r="F27" s="247"/>
-      <c r="G27" s="247"/>
-      <c r="H27" s="247"/>
-      <c r="I27" s="248"/>
+      <c r="C27" s="256"/>
+      <c r="D27" s="256"/>
+      <c r="E27" s="256"/>
+      <c r="F27" s="256"/>
+      <c r="G27" s="256"/>
+      <c r="H27" s="256"/>
+      <c r="I27" s="257"/>
     </row>
     <row r="28" spans="1:9" s="48" customFormat="1" ht="13.8">
       <c r="A28" s="58">
@@ -8416,16 +8446,16 @@
     </row>
     <row r="31" spans="1:9" s="48" customFormat="1" ht="13.8">
       <c r="A31" s="169"/>
-      <c r="B31" s="266" t="s">
+      <c r="B31" s="251" t="s">
         <v>205</v>
       </c>
-      <c r="C31" s="266"/>
-      <c r="D31" s="266"/>
-      <c r="E31" s="266"/>
-      <c r="F31" s="266"/>
-      <c r="G31" s="266"/>
-      <c r="H31" s="266"/>
-      <c r="I31" s="267"/>
+      <c r="C31" s="251"/>
+      <c r="D31" s="251"/>
+      <c r="E31" s="251"/>
+      <c r="F31" s="251"/>
+      <c r="G31" s="251"/>
+      <c r="H31" s="251"/>
+      <c r="I31" s="252"/>
     </row>
     <row r="32" spans="1:9" s="48" customFormat="1" ht="13.8">
       <c r="A32" s="58">
@@ -8451,16 +8481,16 @@
     </row>
     <row r="33" spans="1:9" s="48" customFormat="1" ht="13.8">
       <c r="A33" s="168"/>
-      <c r="B33" s="245" t="s">
+      <c r="B33" s="258" t="s">
         <v>219</v>
       </c>
-      <c r="C33" s="243"/>
-      <c r="D33" s="243"/>
-      <c r="E33" s="243"/>
-      <c r="F33" s="243"/>
-      <c r="G33" s="243"/>
-      <c r="H33" s="243"/>
-      <c r="I33" s="244"/>
+      <c r="C33" s="259"/>
+      <c r="D33" s="259"/>
+      <c r="E33" s="259"/>
+      <c r="F33" s="259"/>
+      <c r="G33" s="259"/>
+      <c r="H33" s="259"/>
+      <c r="I33" s="260"/>
     </row>
     <row r="34" spans="1:9" s="48" customFormat="1" ht="17.7" customHeight="1">
       <c r="A34" s="58">
@@ -8508,16 +8538,16 @@
     </row>
     <row r="36" spans="1:9" s="48" customFormat="1" ht="13.8">
       <c r="A36" s="168"/>
-      <c r="B36" s="245" t="s">
+      <c r="B36" s="258" t="s">
         <v>220</v>
       </c>
-      <c r="C36" s="243"/>
-      <c r="D36" s="243"/>
-      <c r="E36" s="243"/>
-      <c r="F36" s="243"/>
-      <c r="G36" s="243"/>
-      <c r="H36" s="243"/>
-      <c r="I36" s="244"/>
+      <c r="C36" s="259"/>
+      <c r="D36" s="259"/>
+      <c r="E36" s="259"/>
+      <c r="F36" s="259"/>
+      <c r="G36" s="259"/>
+      <c r="H36" s="259"/>
+      <c r="I36" s="260"/>
     </row>
     <row r="37" spans="1:9" s="48" customFormat="1" ht="13.8">
       <c r="A37" s="58">
@@ -8587,16 +8617,16 @@
     </row>
     <row r="40" spans="1:9" s="48" customFormat="1" ht="13.8">
       <c r="A40" s="168"/>
-      <c r="B40" s="246" t="s">
+      <c r="B40" s="255" t="s">
         <v>225</v>
       </c>
-      <c r="C40" s="247"/>
-      <c r="D40" s="247"/>
-      <c r="E40" s="247"/>
-      <c r="F40" s="247"/>
-      <c r="G40" s="247"/>
-      <c r="H40" s="247"/>
-      <c r="I40" s="248"/>
+      <c r="C40" s="256"/>
+      <c r="D40" s="256"/>
+      <c r="E40" s="256"/>
+      <c r="F40" s="256"/>
+      <c r="G40" s="256"/>
+      <c r="H40" s="256"/>
+      <c r="I40" s="257"/>
     </row>
     <row r="41" spans="1:9" s="49" customFormat="1" ht="13.8">
       <c r="A41" s="58">
@@ -8666,16 +8696,16 @@
     </row>
     <row r="44" spans="1:9" s="48" customFormat="1" ht="13.8">
       <c r="A44" s="168"/>
-      <c r="B44" s="249" t="s">
+      <c r="B44" s="266" t="s">
         <v>240</v>
       </c>
-      <c r="C44" s="250"/>
-      <c r="D44" s="250"/>
-      <c r="E44" s="250"/>
-      <c r="F44" s="250"/>
-      <c r="G44" s="250"/>
-      <c r="H44" s="250"/>
-      <c r="I44" s="251"/>
+      <c r="C44" s="267"/>
+      <c r="D44" s="267"/>
+      <c r="E44" s="267"/>
+      <c r="F44" s="267"/>
+      <c r="G44" s="267"/>
+      <c r="H44" s="267"/>
+      <c r="I44" s="268"/>
     </row>
     <row r="45" spans="1:9" s="48" customFormat="1" ht="13.8">
       <c r="A45" s="58">
@@ -8767,29 +8797,29 @@
     </row>
     <row r="49" spans="1:9" s="48" customFormat="1" ht="13.8">
       <c r="A49" s="167"/>
-      <c r="B49" s="252" t="s">
+      <c r="B49" s="269" t="s">
         <v>253</v>
       </c>
-      <c r="C49" s="253"/>
-      <c r="D49" s="253"/>
-      <c r="E49" s="253"/>
-      <c r="F49" s="253"/>
-      <c r="G49" s="253"/>
-      <c r="H49" s="253"/>
-      <c r="I49" s="253"/>
+      <c r="C49" s="270"/>
+      <c r="D49" s="270"/>
+      <c r="E49" s="270"/>
+      <c r="F49" s="270"/>
+      <c r="G49" s="270"/>
+      <c r="H49" s="270"/>
+      <c r="I49" s="270"/>
     </row>
     <row r="50" spans="1:9" s="48" customFormat="1" ht="13.8">
       <c r="A50" s="180"/>
-      <c r="B50" s="254" t="s">
+      <c r="B50" s="271" t="s">
         <v>254</v>
       </c>
-      <c r="C50" s="255"/>
-      <c r="D50" s="255"/>
-      <c r="E50" s="255"/>
-      <c r="F50" s="255"/>
-      <c r="G50" s="255"/>
-      <c r="H50" s="255"/>
-      <c r="I50" s="255"/>
+      <c r="C50" s="272"/>
+      <c r="D50" s="272"/>
+      <c r="E50" s="272"/>
+      <c r="F50" s="272"/>
+      <c r="G50" s="272"/>
+      <c r="H50" s="272"/>
+      <c r="I50" s="272"/>
     </row>
     <row r="51" spans="1:9" s="48" customFormat="1" ht="13.8">
       <c r="A51" s="58">
@@ -8912,16 +8942,16 @@
     </row>
     <row r="57" spans="1:9" s="48" customFormat="1" ht="13.8">
       <c r="A57" s="180"/>
-      <c r="B57" s="242" t="s">
+      <c r="B57" s="265" t="s">
         <v>260</v>
       </c>
-      <c r="C57" s="243"/>
-      <c r="D57" s="243"/>
-      <c r="E57" s="243"/>
-      <c r="F57" s="243"/>
-      <c r="G57" s="243"/>
-      <c r="H57" s="243"/>
-      <c r="I57" s="244"/>
+      <c r="C57" s="259"/>
+      <c r="D57" s="259"/>
+      <c r="E57" s="259"/>
+      <c r="F57" s="259"/>
+      <c r="G57" s="259"/>
+      <c r="H57" s="259"/>
+      <c r="I57" s="260"/>
     </row>
     <row r="58" spans="1:9" s="48" customFormat="1" ht="13.8">
       <c r="A58" s="58">
@@ -9045,16 +9075,16 @@
     </row>
     <row r="64" spans="1:9" s="48" customFormat="1" ht="13.8">
       <c r="A64" s="168"/>
-      <c r="B64" s="270" t="s">
+      <c r="B64" s="261" t="s">
         <v>262</v>
       </c>
-      <c r="C64" s="271"/>
-      <c r="D64" s="271"/>
-      <c r="E64" s="271"/>
-      <c r="F64" s="271"/>
-      <c r="G64" s="271"/>
-      <c r="H64" s="271"/>
-      <c r="I64" s="272"/>
+      <c r="C64" s="262"/>
+      <c r="D64" s="262"/>
+      <c r="E64" s="262"/>
+      <c r="F64" s="262"/>
+      <c r="G64" s="262"/>
+      <c r="H64" s="262"/>
+      <c r="I64" s="263"/>
     </row>
     <row r="65" spans="1:9" s="48" customFormat="1" ht="24.6">
       <c r="A65" s="58">
@@ -9171,9 +9201,9 @@
     </row>
     <row r="73" spans="1:9" s="48" customFormat="1" ht="13.8">
       <c r="A73" s="171"/>
-      <c r="B73" s="259"/>
-      <c r="C73" s="260"/>
-      <c r="D73" s="261"/>
+      <c r="B73" s="242"/>
+      <c r="C73" s="243"/>
+      <c r="D73" s="244"/>
       <c r="E73" s="172"/>
       <c r="F73" s="173"/>
       <c r="G73" s="173"/>
@@ -9215,9 +9245,9 @@
     </row>
     <row r="77" spans="1:9" s="48" customFormat="1" ht="13.8">
       <c r="A77" s="171"/>
-      <c r="B77" s="259"/>
-      <c r="C77" s="260"/>
-      <c r="D77" s="261"/>
+      <c r="B77" s="242"/>
+      <c r="C77" s="243"/>
+      <c r="D77" s="244"/>
       <c r="E77" s="172"/>
       <c r="F77" s="173"/>
       <c r="G77" s="173"/>
@@ -9259,9 +9289,9 @@
     </row>
     <row r="81" spans="1:9" s="48" customFormat="1" ht="14.25" customHeight="1">
       <c r="A81" s="171"/>
-      <c r="B81" s="259"/>
-      <c r="C81" s="260"/>
-      <c r="D81" s="261"/>
+      <c r="B81" s="242"/>
+      <c r="C81" s="243"/>
+      <c r="D81" s="244"/>
       <c r="E81" s="172"/>
       <c r="F81" s="173"/>
       <c r="G81" s="173"/>
@@ -9292,9 +9322,9 @@
     </row>
     <row r="84" spans="1:9" s="48" customFormat="1" ht="14.25" customHeight="1">
       <c r="A84" s="171"/>
-      <c r="B84" s="259"/>
-      <c r="C84" s="260"/>
-      <c r="D84" s="261"/>
+      <c r="B84" s="242"/>
+      <c r="C84" s="243"/>
+      <c r="D84" s="244"/>
       <c r="E84" s="172"/>
       <c r="F84" s="173"/>
       <c r="G84" s="173"/>
@@ -9445,6 +9475,17 @@
     </row>
   </sheetData>
   <mergeCells count="27">
+    <mergeCell ref="B57:I57"/>
+    <mergeCell ref="B36:I36"/>
+    <mergeCell ref="B40:I40"/>
+    <mergeCell ref="B44:I44"/>
+    <mergeCell ref="B49:I49"/>
+    <mergeCell ref="B50:I50"/>
+    <mergeCell ref="B20:I20"/>
+    <mergeCell ref="B23:I23"/>
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="B4:D4"/>
+    <mergeCell ref="B5:D5"/>
     <mergeCell ref="B77:D77"/>
     <mergeCell ref="B81:D81"/>
     <mergeCell ref="B84:D84"/>
@@ -9461,17 +9502,6 @@
     <mergeCell ref="B31:I31"/>
     <mergeCell ref="B33:I33"/>
     <mergeCell ref="B64:I64"/>
-    <mergeCell ref="B20:I20"/>
-    <mergeCell ref="B23:I23"/>
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="B4:D4"/>
-    <mergeCell ref="B5:D5"/>
-    <mergeCell ref="B57:I57"/>
-    <mergeCell ref="B36:I36"/>
-    <mergeCell ref="B40:I40"/>
-    <mergeCell ref="B44:I44"/>
-    <mergeCell ref="B49:I49"/>
-    <mergeCell ref="B50:I50"/>
   </mergeCells>
   <dataValidations count="3">
     <dataValidation showDropDown="1" showErrorMessage="1" sqref="F16:H17"/>
@@ -9510,10 +9540,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:24" s="1" customFormat="1" ht="13.8">
-      <c r="A1" s="262"/>
-      <c r="B1" s="262"/>
-      <c r="C1" s="262"/>
-      <c r="D1" s="262"/>
+      <c r="A1" s="245"/>
+      <c r="B1" s="245"/>
+      <c r="C1" s="245"/>
+      <c r="D1" s="245"/>
       <c r="E1" s="34"/>
       <c r="F1" s="34"/>
       <c r="G1" s="34"/>
@@ -9522,13 +9552,13 @@
       <c r="J1" s="34"/>
     </row>
     <row r="2" spans="1:24" s="1" customFormat="1" ht="31.5" customHeight="1">
-      <c r="A2" s="263" t="s">
+      <c r="A2" s="246" t="s">
         <v>70</v>
       </c>
-      <c r="B2" s="263"/>
-      <c r="C2" s="263"/>
-      <c r="D2" s="263"/>
-      <c r="E2" s="269"/>
+      <c r="B2" s="246"/>
+      <c r="C2" s="246"/>
+      <c r="D2" s="246"/>
+      <c r="E2" s="254"/>
       <c r="F2" s="23"/>
       <c r="G2" s="23"/>
       <c r="H2" s="23"/>
@@ -9537,9 +9567,9 @@
     </row>
     <row r="3" spans="1:24" s="1" customFormat="1" ht="31.5" customHeight="1">
       <c r="A3" s="47"/>
-      <c r="C3" s="288"/>
-      <c r="D3" s="288"/>
-      <c r="E3" s="269"/>
+      <c r="C3" s="279"/>
+      <c r="D3" s="279"/>
+      <c r="E3" s="254"/>
       <c r="F3" s="23"/>
       <c r="G3" s="23"/>
       <c r="H3" s="23"/>
@@ -9550,11 +9580,11 @@
       <c r="A4" s="139" t="s">
         <v>67</v>
       </c>
-      <c r="B4" s="257" t="s">
+      <c r="B4" s="248" t="s">
         <v>116</v>
       </c>
-      <c r="C4" s="257"/>
-      <c r="D4" s="257"/>
+      <c r="C4" s="248"/>
+      <c r="D4" s="248"/>
       <c r="E4" s="39"/>
       <c r="F4" s="39"/>
       <c r="G4" s="39"/>
@@ -9568,11 +9598,11 @@
       <c r="A5" s="139" t="s">
         <v>62</v>
       </c>
-      <c r="B5" s="258" t="s">
+      <c r="B5" s="247" t="s">
         <v>95</v>
       </c>
-      <c r="C5" s="257"/>
-      <c r="D5" s="257"/>
+      <c r="C5" s="248"/>
+      <c r="D5" s="248"/>
       <c r="E5" s="39"/>
       <c r="F5" s="39"/>
       <c r="G5" s="39"/>
@@ -9586,11 +9616,11 @@
       <c r="A6" s="139" t="s">
         <v>97</v>
       </c>
-      <c r="B6" s="258" t="s">
+      <c r="B6" s="247" t="s">
         <v>98</v>
       </c>
-      <c r="C6" s="257"/>
-      <c r="D6" s="257"/>
+      <c r="C6" s="248"/>
+      <c r="D6" s="248"/>
       <c r="E6" s="39"/>
       <c r="F6" s="39"/>
       <c r="G6" s="39"/>
@@ -9601,11 +9631,11 @@
       <c r="A7" s="139" t="s">
         <v>99</v>
       </c>
-      <c r="B7" s="257" t="s">
+      <c r="B7" s="248" t="s">
         <v>100</v>
       </c>
-      <c r="C7" s="257"/>
-      <c r="D7" s="257"/>
+      <c r="C7" s="248"/>
+      <c r="D7" s="248"/>
       <c r="E7" s="39"/>
       <c r="F7" s="39"/>
       <c r="G7" s="39"/>
@@ -9617,11 +9647,11 @@
       <c r="A8" s="139" t="s">
         <v>101</v>
       </c>
-      <c r="B8" s="264">
+      <c r="B8" s="249">
         <v>40850</v>
       </c>
-      <c r="C8" s="264"/>
-      <c r="D8" s="264"/>
+      <c r="C8" s="249"/>
+      <c r="D8" s="249"/>
       <c r="E8" s="39"/>
     </row>
     <row r="9" spans="1:24" s="43" customFormat="1">
@@ -9764,11 +9794,11 @@
       <c r="C16" s="50"/>
       <c r="D16" s="51"/>
       <c r="E16" s="65"/>
-      <c r="F16" s="289" t="s">
+      <c r="F16" s="280" t="s">
         <v>102</v>
       </c>
-      <c r="G16" s="290"/>
-      <c r="H16" s="291"/>
+      <c r="G16" s="281"/>
+      <c r="H16" s="282"/>
       <c r="I16" s="65"/>
     </row>
     <row r="17" spans="1:9" s="44" customFormat="1" ht="36.9">
@@ -9802,29 +9832,29 @@
     </row>
     <row r="18" spans="1:9" s="44" customFormat="1" ht="15.75" customHeight="1">
       <c r="A18" s="67"/>
-      <c r="B18" s="265" t="s">
+      <c r="B18" s="250" t="s">
         <v>313</v>
       </c>
-      <c r="C18" s="266"/>
-      <c r="D18" s="266"/>
-      <c r="E18" s="266"/>
-      <c r="F18" s="266"/>
-      <c r="G18" s="266"/>
-      <c r="H18" s="266"/>
-      <c r="I18" s="267"/>
+      <c r="C18" s="251"/>
+      <c r="D18" s="251"/>
+      <c r="E18" s="251"/>
+      <c r="F18" s="251"/>
+      <c r="G18" s="251"/>
+      <c r="H18" s="251"/>
+      <c r="I18" s="252"/>
     </row>
     <row r="19" spans="1:9" s="44" customFormat="1" ht="15.75" customHeight="1">
       <c r="A19" s="200"/>
-      <c r="B19" s="273" t="s">
+      <c r="B19" s="283" t="s">
         <v>397</v>
       </c>
-      <c r="C19" s="274"/>
-      <c r="D19" s="274"/>
-      <c r="E19" s="274"/>
-      <c r="F19" s="274"/>
-      <c r="G19" s="274"/>
-      <c r="H19" s="274"/>
-      <c r="I19" s="275"/>
+      <c r="C19" s="284"/>
+      <c r="D19" s="284"/>
+      <c r="E19" s="284"/>
+      <c r="F19" s="284"/>
+      <c r="G19" s="284"/>
+      <c r="H19" s="284"/>
+      <c r="I19" s="285"/>
     </row>
     <row r="20" spans="1:9" s="44" customFormat="1" ht="43.8" customHeight="1">
       <c r="A20" s="52">
@@ -9889,16 +9919,16 @@
     </row>
     <row r="23" spans="1:9" s="44" customFormat="1" ht="15.75" customHeight="1">
       <c r="A23" s="204"/>
-      <c r="B23" s="276" t="s">
+      <c r="B23" s="286" t="s">
         <v>314</v>
       </c>
-      <c r="C23" s="277"/>
-      <c r="D23" s="277"/>
-      <c r="E23" s="277"/>
-      <c r="F23" s="277"/>
-      <c r="G23" s="277"/>
-      <c r="H23" s="277"/>
-      <c r="I23" s="278"/>
+      <c r="C23" s="287"/>
+      <c r="D23" s="287"/>
+      <c r="E23" s="287"/>
+      <c r="F23" s="287"/>
+      <c r="G23" s="287"/>
+      <c r="H23" s="287"/>
+      <c r="I23" s="288"/>
     </row>
     <row r="24" spans="1:9" s="45" customFormat="1" ht="36.9">
       <c r="A24" s="52">
@@ -10142,16 +10172,16 @@
     </row>
     <row r="36" spans="1:9" s="48" customFormat="1" ht="13.8">
       <c r="A36" s="184"/>
-      <c r="B36" s="279" t="s">
+      <c r="B36" s="289" t="s">
         <v>315</v>
       </c>
-      <c r="C36" s="280"/>
-      <c r="D36" s="280"/>
-      <c r="E36" s="280"/>
-      <c r="F36" s="280"/>
-      <c r="G36" s="280"/>
-      <c r="H36" s="280"/>
-      <c r="I36" s="281"/>
+      <c r="C36" s="290"/>
+      <c r="D36" s="290"/>
+      <c r="E36" s="290"/>
+      <c r="F36" s="290"/>
+      <c r="G36" s="290"/>
+      <c r="H36" s="290"/>
+      <c r="I36" s="291"/>
     </row>
     <row r="37" spans="1:9" s="48" customFormat="1" ht="73.8">
       <c r="A37" s="58">
@@ -10415,16 +10445,16 @@
     </row>
     <row r="50" spans="1:9" s="48" customFormat="1" ht="13.8">
       <c r="A50" s="184"/>
-      <c r="B50" s="276" t="s">
+      <c r="B50" s="286" t="s">
         <v>316</v>
       </c>
-      <c r="C50" s="277"/>
-      <c r="D50" s="277"/>
-      <c r="E50" s="277"/>
-      <c r="F50" s="277"/>
-      <c r="G50" s="277"/>
-      <c r="H50" s="277"/>
-      <c r="I50" s="278"/>
+      <c r="C50" s="287"/>
+      <c r="D50" s="287"/>
+      <c r="E50" s="287"/>
+      <c r="F50" s="287"/>
+      <c r="G50" s="287"/>
+      <c r="H50" s="287"/>
+      <c r="I50" s="288"/>
     </row>
     <row r="51" spans="1:9" s="48" customFormat="1" ht="49.8" customHeight="1">
       <c r="A51" s="58">
@@ -10748,16 +10778,16 @@
     </row>
     <row r="67" spans="1:9" s="49" customFormat="1" ht="13.8">
       <c r="A67" s="189"/>
-      <c r="B67" s="282" t="s">
+      <c r="B67" s="276" t="s">
         <v>327</v>
       </c>
-      <c r="C67" s="283"/>
-      <c r="D67" s="283"/>
-      <c r="E67" s="283"/>
-      <c r="F67" s="283"/>
-      <c r="G67" s="283"/>
-      <c r="H67" s="283"/>
-      <c r="I67" s="284"/>
+      <c r="C67" s="277"/>
+      <c r="D67" s="277"/>
+      <c r="E67" s="277"/>
+      <c r="F67" s="277"/>
+      <c r="G67" s="277"/>
+      <c r="H67" s="277"/>
+      <c r="I67" s="278"/>
     </row>
     <row r="68" spans="1:9" s="48" customFormat="1" ht="24.6">
       <c r="A68" s="58">
@@ -10781,16 +10811,16 @@
     </row>
     <row r="69" spans="1:9" s="48" customFormat="1" ht="13.8">
       <c r="A69" s="199"/>
-      <c r="B69" s="285" t="s">
+      <c r="B69" s="292" t="s">
         <v>372</v>
       </c>
-      <c r="C69" s="286"/>
-      <c r="D69" s="286"/>
-      <c r="E69" s="286"/>
-      <c r="F69" s="286"/>
-      <c r="G69" s="286"/>
-      <c r="H69" s="286"/>
-      <c r="I69" s="287"/>
+      <c r="C69" s="293"/>
+      <c r="D69" s="293"/>
+      <c r="E69" s="293"/>
+      <c r="F69" s="293"/>
+      <c r="G69" s="293"/>
+      <c r="H69" s="293"/>
+      <c r="I69" s="294"/>
     </row>
     <row r="70" spans="1:9" s="48" customFormat="1" ht="49.2">
       <c r="A70" s="58">
@@ -10954,16 +10984,16 @@
     </row>
     <row r="78" spans="1:9" s="48" customFormat="1" ht="13.8">
       <c r="A78" s="189"/>
-      <c r="B78" s="282" t="s">
+      <c r="B78" s="276" t="s">
         <v>328</v>
       </c>
-      <c r="C78" s="283"/>
-      <c r="D78" s="283"/>
-      <c r="E78" s="283"/>
-      <c r="F78" s="283"/>
-      <c r="G78" s="283"/>
-      <c r="H78" s="283"/>
-      <c r="I78" s="284"/>
+      <c r="C78" s="277"/>
+      <c r="D78" s="277"/>
+      <c r="E78" s="277"/>
+      <c r="F78" s="277"/>
+      <c r="G78" s="277"/>
+      <c r="H78" s="277"/>
+      <c r="I78" s="278"/>
     </row>
     <row r="79" spans="1:9" s="48" customFormat="1" ht="36.9">
       <c r="A79" s="58">
@@ -11107,16 +11137,16 @@
     </row>
     <row r="86" spans="1:9" s="48" customFormat="1" ht="13.8">
       <c r="A86" s="189"/>
-      <c r="B86" s="282" t="s">
+      <c r="B86" s="276" t="s">
         <v>331</v>
       </c>
-      <c r="C86" s="283"/>
-      <c r="D86" s="283"/>
-      <c r="E86" s="283"/>
-      <c r="F86" s="283"/>
-      <c r="G86" s="283"/>
-      <c r="H86" s="283"/>
-      <c r="I86" s="284"/>
+      <c r="C86" s="277"/>
+      <c r="D86" s="277"/>
+      <c r="E86" s="277"/>
+      <c r="F86" s="277"/>
+      <c r="G86" s="277"/>
+      <c r="H86" s="277"/>
+      <c r="I86" s="278"/>
     </row>
     <row r="87" spans="1:9" s="48" customFormat="1" ht="14.4" customHeight="1">
       <c r="A87" s="58">
@@ -11380,16 +11410,16 @@
     </row>
     <row r="100" spans="1:9" s="48" customFormat="1" ht="13.8">
       <c r="A100" s="189"/>
-      <c r="B100" s="282" t="s">
+      <c r="B100" s="276" t="s">
         <v>339</v>
       </c>
-      <c r="C100" s="283"/>
-      <c r="D100" s="283"/>
-      <c r="E100" s="283"/>
-      <c r="F100" s="283"/>
-      <c r="G100" s="283"/>
-      <c r="H100" s="283"/>
-      <c r="I100" s="284"/>
+      <c r="C100" s="277"/>
+      <c r="D100" s="277"/>
+      <c r="E100" s="277"/>
+      <c r="F100" s="277"/>
+      <c r="G100" s="277"/>
+      <c r="H100" s="277"/>
+      <c r="I100" s="278"/>
     </row>
     <row r="101" spans="1:9" s="48" customFormat="1" ht="49.2">
       <c r="A101" s="58">
@@ -11453,16 +11483,16 @@
     </row>
     <row r="104" spans="1:9" s="48" customFormat="1" ht="13.8">
       <c r="A104" s="189"/>
-      <c r="B104" s="282" t="s">
+      <c r="B104" s="276" t="s">
         <v>350</v>
       </c>
-      <c r="C104" s="283"/>
-      <c r="D104" s="283"/>
-      <c r="E104" s="283"/>
-      <c r="F104" s="283"/>
-      <c r="G104" s="283"/>
-      <c r="H104" s="283"/>
-      <c r="I104" s="284"/>
+      <c r="C104" s="277"/>
+      <c r="D104" s="277"/>
+      <c r="E104" s="277"/>
+      <c r="F104" s="277"/>
+      <c r="G104" s="277"/>
+      <c r="H104" s="277"/>
+      <c r="I104" s="278"/>
     </row>
     <row r="105" spans="1:9" s="48" customFormat="1" ht="49.2">
       <c r="A105" s="58">
@@ -11486,16 +11516,16 @@
     </row>
     <row r="106" spans="1:9" s="48" customFormat="1" ht="13.8">
       <c r="A106" s="189"/>
-      <c r="B106" s="282" t="s">
+      <c r="B106" s="276" t="s">
         <v>351</v>
       </c>
-      <c r="C106" s="283"/>
-      <c r="D106" s="283"/>
-      <c r="E106" s="283"/>
-      <c r="F106" s="283"/>
-      <c r="G106" s="283"/>
-      <c r="H106" s="283"/>
-      <c r="I106" s="284"/>
+      <c r="C106" s="277"/>
+      <c r="D106" s="277"/>
+      <c r="E106" s="277"/>
+      <c r="F106" s="277"/>
+      <c r="G106" s="277"/>
+      <c r="H106" s="277"/>
+      <c r="I106" s="278"/>
     </row>
     <row r="107" spans="1:9" s="48" customFormat="1" ht="49.2">
       <c r="A107" s="58">
@@ -11519,29 +11549,29 @@
     </row>
     <row r="108" spans="1:9" s="48" customFormat="1" ht="13.8">
       <c r="A108" s="67"/>
-      <c r="B108" s="265" t="s">
+      <c r="B108" s="250" t="s">
         <v>341</v>
       </c>
-      <c r="C108" s="266"/>
-      <c r="D108" s="266"/>
-      <c r="E108" s="266"/>
-      <c r="F108" s="266"/>
-      <c r="G108" s="266"/>
-      <c r="H108" s="266"/>
-      <c r="I108" s="267"/>
+      <c r="C108" s="251"/>
+      <c r="D108" s="251"/>
+      <c r="E108" s="251"/>
+      <c r="F108" s="251"/>
+      <c r="G108" s="251"/>
+      <c r="H108" s="251"/>
+      <c r="I108" s="252"/>
     </row>
     <row r="109" spans="1:9" s="48" customFormat="1" ht="13.8">
       <c r="A109" s="189"/>
-      <c r="B109" s="282" t="s">
+      <c r="B109" s="276" t="s">
         <v>342</v>
       </c>
-      <c r="C109" s="283"/>
-      <c r="D109" s="283"/>
-      <c r="E109" s="283"/>
-      <c r="F109" s="283"/>
-      <c r="G109" s="283"/>
-      <c r="H109" s="283"/>
-      <c r="I109" s="284"/>
+      <c r="C109" s="277"/>
+      <c r="D109" s="277"/>
+      <c r="E109" s="277"/>
+      <c r="F109" s="277"/>
+      <c r="G109" s="277"/>
+      <c r="H109" s="277"/>
+      <c r="I109" s="278"/>
     </row>
     <row r="110" spans="1:9" s="48" customFormat="1" ht="36.9">
       <c r="A110" s="58">
@@ -11678,16 +11708,16 @@
     </row>
     <row r="117" spans="1:9" s="48" customFormat="1" ht="13.8">
       <c r="A117" s="67"/>
-      <c r="B117" s="265" t="s">
+      <c r="B117" s="250" t="s">
         <v>312</v>
       </c>
-      <c r="C117" s="266"/>
-      <c r="D117" s="266"/>
-      <c r="E117" s="266"/>
-      <c r="F117" s="266"/>
-      <c r="G117" s="266"/>
-      <c r="H117" s="266"/>
-      <c r="I117" s="267"/>
+      <c r="C117" s="251"/>
+      <c r="D117" s="251"/>
+      <c r="E117" s="251"/>
+      <c r="F117" s="251"/>
+      <c r="G117" s="251"/>
+      <c r="H117" s="251"/>
+      <c r="I117" s="252"/>
     </row>
     <row r="118" spans="1:9" s="48" customFormat="1" ht="13.8">
       <c r="A118" s="58">
@@ -11707,16 +11737,16 @@
     </row>
     <row r="119" spans="1:9" s="48" customFormat="1" ht="13.8">
       <c r="A119" s="67"/>
-      <c r="B119" s="265" t="s">
+      <c r="B119" s="250" t="s">
         <v>347</v>
       </c>
-      <c r="C119" s="266"/>
-      <c r="D119" s="266"/>
-      <c r="E119" s="266"/>
-      <c r="F119" s="266"/>
-      <c r="G119" s="266"/>
-      <c r="H119" s="266"/>
-      <c r="I119" s="267"/>
+      <c r="C119" s="251"/>
+      <c r="D119" s="251"/>
+      <c r="E119" s="251"/>
+      <c r="F119" s="251"/>
+      <c r="G119" s="251"/>
+      <c r="H119" s="251"/>
+      <c r="I119" s="252"/>
     </row>
     <row r="120" spans="1:9" s="48" customFormat="1" ht="13.8">
       <c r="A120" s="58">
@@ -11736,16 +11766,16 @@
     </row>
     <row r="121" spans="1:9" s="48" customFormat="1" ht="13.8">
       <c r="A121" s="67"/>
-      <c r="B121" s="265" t="s">
+      <c r="B121" s="250" t="s">
         <v>348</v>
       </c>
-      <c r="C121" s="266"/>
-      <c r="D121" s="266"/>
-      <c r="E121" s="266"/>
-      <c r="F121" s="266"/>
-      <c r="G121" s="266"/>
-      <c r="H121" s="266"/>
-      <c r="I121" s="267"/>
+      <c r="C121" s="251"/>
+      <c r="D121" s="251"/>
+      <c r="E121" s="251"/>
+      <c r="F121" s="251"/>
+      <c r="G121" s="251"/>
+      <c r="H121" s="251"/>
+      <c r="I121" s="252"/>
     </row>
     <row r="122" spans="1:9" s="48" customFormat="1" ht="13.8">
       <c r="A122" s="58">
@@ -11809,9 +11839,9 @@
     </row>
     <row r="127" spans="1:9" s="48" customFormat="1" ht="13.8">
       <c r="A127" s="185"/>
-      <c r="B127" s="292"/>
-      <c r="C127" s="293"/>
-      <c r="D127" s="294"/>
+      <c r="B127" s="273"/>
+      <c r="C127" s="274"/>
+      <c r="D127" s="275"/>
       <c r="E127" s="194"/>
       <c r="F127" s="195"/>
       <c r="G127" s="195"/>
@@ -11864,9 +11894,9 @@
     </row>
     <row r="132" spans="1:9" s="48" customFormat="1" ht="13.8">
       <c r="A132" s="185"/>
-      <c r="B132" s="292"/>
-      <c r="C132" s="293"/>
-      <c r="D132" s="294"/>
+      <c r="B132" s="273"/>
+      <c r="C132" s="274"/>
+      <c r="D132" s="275"/>
       <c r="E132" s="194"/>
       <c r="F132" s="195"/>
       <c r="G132" s="195"/>
@@ -11908,9 +11938,9 @@
     </row>
     <row r="136" spans="1:9" s="48" customFormat="1" ht="13.8">
       <c r="A136" s="185"/>
-      <c r="B136" s="292"/>
-      <c r="C136" s="293"/>
-      <c r="D136" s="294"/>
+      <c r="B136" s="273"/>
+      <c r="C136" s="274"/>
+      <c r="D136" s="275"/>
       <c r="E136" s="194"/>
       <c r="F136" s="195"/>
       <c r="G136" s="195"/>
@@ -12040,9 +12070,9 @@
     </row>
     <row r="148" spans="1:9" s="48" customFormat="1" ht="13.8">
       <c r="A148" s="196"/>
-      <c r="B148" s="292"/>
-      <c r="C148" s="293"/>
-      <c r="D148" s="294"/>
+      <c r="B148" s="273"/>
+      <c r="C148" s="274"/>
+      <c r="D148" s="275"/>
       <c r="E148" s="194"/>
       <c r="F148" s="195"/>
       <c r="G148" s="195"/>
@@ -12084,9 +12114,9 @@
     </row>
     <row r="152" spans="1:9" s="48" customFormat="1" ht="13.8">
       <c r="A152" s="196"/>
-      <c r="B152" s="292"/>
-      <c r="C152" s="293"/>
-      <c r="D152" s="294"/>
+      <c r="B152" s="273"/>
+      <c r="C152" s="274"/>
+      <c r="D152" s="275"/>
       <c r="E152" s="194"/>
       <c r="F152" s="195"/>
       <c r="G152" s="195"/>
@@ -12128,9 +12158,9 @@
     </row>
     <row r="156" spans="1:9" s="48" customFormat="1" ht="13.8">
       <c r="A156" s="196"/>
-      <c r="B156" s="292"/>
-      <c r="C156" s="293"/>
-      <c r="D156" s="294"/>
+      <c r="B156" s="273"/>
+      <c r="C156" s="274"/>
+      <c r="D156" s="275"/>
       <c r="E156" s="194"/>
       <c r="F156" s="195"/>
       <c r="G156" s="195"/>
@@ -12161,9 +12191,9 @@
     </row>
     <row r="159" spans="1:9" s="48" customFormat="1" ht="13.8">
       <c r="A159" s="196"/>
-      <c r="B159" s="292"/>
-      <c r="C159" s="293"/>
-      <c r="D159" s="294"/>
+      <c r="B159" s="273"/>
+      <c r="C159" s="274"/>
+      <c r="D159" s="275"/>
       <c r="E159" s="194"/>
       <c r="F159" s="195"/>
       <c r="G159" s="195"/>
@@ -12403,6 +12433,24 @@
     </row>
   </sheetData>
   <mergeCells count="34">
+    <mergeCell ref="B19:I19"/>
+    <mergeCell ref="B108:I108"/>
+    <mergeCell ref="B23:I23"/>
+    <mergeCell ref="B36:I36"/>
+    <mergeCell ref="B50:I50"/>
+    <mergeCell ref="B67:I67"/>
+    <mergeCell ref="B78:I78"/>
+    <mergeCell ref="B69:I69"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="A2:D2"/>
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="B4:D4"/>
+    <mergeCell ref="F16:H16"/>
+    <mergeCell ref="E2:E3"/>
+    <mergeCell ref="B5:D5"/>
+    <mergeCell ref="B6:D6"/>
+    <mergeCell ref="B7:D7"/>
+    <mergeCell ref="B8:D8"/>
     <mergeCell ref="B18:I18"/>
     <mergeCell ref="B152:D152"/>
     <mergeCell ref="B156:D156"/>
@@ -12419,24 +12467,6 @@
     <mergeCell ref="B117:I117"/>
     <mergeCell ref="B119:I119"/>
     <mergeCell ref="B121:I121"/>
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="A2:D2"/>
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="B4:D4"/>
-    <mergeCell ref="F16:H16"/>
-    <mergeCell ref="E2:E3"/>
-    <mergeCell ref="B5:D5"/>
-    <mergeCell ref="B6:D6"/>
-    <mergeCell ref="B7:D7"/>
-    <mergeCell ref="B8:D8"/>
-    <mergeCell ref="B19:I19"/>
-    <mergeCell ref="B108:I108"/>
-    <mergeCell ref="B23:I23"/>
-    <mergeCell ref="B36:I36"/>
-    <mergeCell ref="B50:I50"/>
-    <mergeCell ref="B67:I67"/>
-    <mergeCell ref="B78:I78"/>
-    <mergeCell ref="B69:I69"/>
   </mergeCells>
   <dataValidations count="3">
     <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="F165:H222">
@@ -12474,10 +12504,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:24" s="1" customFormat="1" ht="13.8">
-      <c r="A1" s="262"/>
-      <c r="B1" s="262"/>
-      <c r="C1" s="262"/>
-      <c r="D1" s="262"/>
+      <c r="A1" s="245"/>
+      <c r="B1" s="245"/>
+      <c r="C1" s="245"/>
+      <c r="D1" s="245"/>
       <c r="E1" s="34"/>
       <c r="F1" s="34"/>
       <c r="G1" s="34"/>
@@ -12486,13 +12516,13 @@
       <c r="J1" s="34"/>
     </row>
     <row r="2" spans="1:24" s="1" customFormat="1" ht="31.5" customHeight="1">
-      <c r="A2" s="263" t="s">
+      <c r="A2" s="246" t="s">
         <v>70</v>
       </c>
-      <c r="B2" s="263"/>
-      <c r="C2" s="263"/>
-      <c r="D2" s="263"/>
-      <c r="E2" s="269"/>
+      <c r="B2" s="246"/>
+      <c r="C2" s="246"/>
+      <c r="D2" s="246"/>
+      <c r="E2" s="254"/>
       <c r="F2" s="23"/>
       <c r="G2" s="23"/>
       <c r="H2" s="23"/>
@@ -12501,9 +12531,9 @@
     </row>
     <row r="3" spans="1:24" s="1" customFormat="1" ht="31.5" customHeight="1">
       <c r="A3" s="47"/>
-      <c r="C3" s="288"/>
-      <c r="D3" s="288"/>
-      <c r="E3" s="269"/>
+      <c r="C3" s="279"/>
+      <c r="D3" s="279"/>
+      <c r="E3" s="254"/>
       <c r="F3" s="23"/>
       <c r="G3" s="23"/>
       <c r="H3" s="23"/>
@@ -12514,11 +12544,11 @@
       <c r="A4" s="139" t="s">
         <v>67</v>
       </c>
-      <c r="B4" s="257" t="s">
+      <c r="B4" s="248" t="s">
         <v>116</v>
       </c>
-      <c r="C4" s="257"/>
-      <c r="D4" s="257"/>
+      <c r="C4" s="248"/>
+      <c r="D4" s="248"/>
       <c r="E4" s="39"/>
       <c r="F4" s="39"/>
       <c r="G4" s="39"/>
@@ -12532,11 +12562,11 @@
       <c r="A5" s="139" t="s">
         <v>62</v>
       </c>
-      <c r="B5" s="258" t="s">
+      <c r="B5" s="247" t="s">
         <v>95</v>
       </c>
-      <c r="C5" s="257"/>
-      <c r="D5" s="257"/>
+      <c r="C5" s="248"/>
+      <c r="D5" s="248"/>
       <c r="E5" s="39"/>
       <c r="F5" s="39"/>
       <c r="G5" s="39"/>
@@ -12550,11 +12580,11 @@
       <c r="A6" s="139" t="s">
         <v>97</v>
       </c>
-      <c r="B6" s="258" t="s">
+      <c r="B6" s="247" t="s">
         <v>98</v>
       </c>
-      <c r="C6" s="257"/>
-      <c r="D6" s="257"/>
+      <c r="C6" s="248"/>
+      <c r="D6" s="248"/>
       <c r="E6" s="39"/>
       <c r="F6" s="39"/>
       <c r="G6" s="39"/>
@@ -12565,11 +12595,11 @@
       <c r="A7" s="139" t="s">
         <v>99</v>
       </c>
-      <c r="B7" s="257" t="s">
+      <c r="B7" s="248" t="s">
         <v>100</v>
       </c>
-      <c r="C7" s="257"/>
-      <c r="D7" s="257"/>
+      <c r="C7" s="248"/>
+      <c r="D7" s="248"/>
       <c r="E7" s="39"/>
       <c r="F7" s="39"/>
       <c r="G7" s="39"/>
@@ -12581,11 +12611,11 @@
       <c r="A8" s="139" t="s">
         <v>101</v>
       </c>
-      <c r="B8" s="264">
+      <c r="B8" s="249">
         <v>40850</v>
       </c>
-      <c r="C8" s="264"/>
-      <c r="D8" s="264"/>
+      <c r="C8" s="249"/>
+      <c r="D8" s="249"/>
       <c r="E8" s="39"/>
     </row>
     <row r="9" spans="1:24" s="43" customFormat="1">
@@ -12728,11 +12758,11 @@
       <c r="C16" s="50"/>
       <c r="D16" s="51"/>
       <c r="E16" s="65"/>
-      <c r="F16" s="289" t="s">
+      <c r="F16" s="280" t="s">
         <v>102</v>
       </c>
-      <c r="G16" s="290"/>
-      <c r="H16" s="291"/>
+      <c r="G16" s="281"/>
+      <c r="H16" s="282"/>
       <c r="I16" s="65"/>
     </row>
     <row r="17" spans="1:9" s="44" customFormat="1" ht="36.9">
@@ -12885,11 +12915,11 @@
     </row>
     <row r="24" spans="1:9" s="44" customFormat="1" ht="15.75" customHeight="1">
       <c r="A24" s="77"/>
-      <c r="B24" s="265" t="s">
+      <c r="B24" s="250" t="s">
         <v>518</v>
       </c>
-      <c r="C24" s="266"/>
-      <c r="D24" s="267"/>
+      <c r="C24" s="251"/>
+      <c r="D24" s="252"/>
       <c r="E24" s="67"/>
       <c r="F24" s="68"/>
       <c r="G24" s="68"/>
@@ -12998,11 +13028,11 @@
     </row>
     <row r="30" spans="1:9" s="48" customFormat="1" ht="13.8">
       <c r="A30" s="77"/>
-      <c r="B30" s="265" t="s">
+      <c r="B30" s="250" t="s">
         <v>527</v>
       </c>
-      <c r="C30" s="266"/>
-      <c r="D30" s="267"/>
+      <c r="C30" s="251"/>
+      <c r="D30" s="252"/>
       <c r="E30" s="69"/>
       <c r="F30" s="66"/>
       <c r="G30" s="66"/>
@@ -13091,11 +13121,11 @@
     </row>
     <row r="35" spans="1:9" s="48" customFormat="1" ht="13.8">
       <c r="A35" s="77"/>
-      <c r="B35" s="265" t="s">
+      <c r="B35" s="250" t="s">
         <v>531</v>
       </c>
-      <c r="C35" s="266"/>
-      <c r="D35" s="267"/>
+      <c r="C35" s="251"/>
+      <c r="D35" s="252"/>
       <c r="E35" s="69"/>
       <c r="F35" s="66"/>
       <c r="G35" s="66"/>
@@ -13124,11 +13154,11 @@
     </row>
     <row r="37" spans="1:9" s="48" customFormat="1" ht="13.8">
       <c r="A37" s="77"/>
-      <c r="B37" s="265" t="s">
+      <c r="B37" s="250" t="s">
         <v>533</v>
       </c>
-      <c r="C37" s="266"/>
-      <c r="D37" s="267"/>
+      <c r="C37" s="251"/>
+      <c r="D37" s="252"/>
       <c r="E37" s="69"/>
       <c r="F37" s="66"/>
       <c r="G37" s="66"/>
@@ -13254,11 +13284,11 @@
     </row>
     <row r="44" spans="1:9" s="48" customFormat="1" ht="13.8">
       <c r="A44" s="77"/>
-      <c r="B44" s="265" t="s">
+      <c r="B44" s="250" t="s">
         <v>538</v>
       </c>
-      <c r="C44" s="266"/>
-      <c r="D44" s="267"/>
+      <c r="C44" s="251"/>
+      <c r="D44" s="252"/>
       <c r="E44" s="69"/>
       <c r="F44" s="66"/>
       <c r="G44" s="66"/>
@@ -13507,11 +13537,11 @@
     </row>
     <row r="57" spans="1:9" s="48" customFormat="1" ht="13.8">
       <c r="A57" s="77"/>
-      <c r="B57" s="265" t="s">
+      <c r="B57" s="250" t="s">
         <v>541</v>
       </c>
-      <c r="C57" s="266"/>
-      <c r="D57" s="267"/>
+      <c r="C57" s="251"/>
+      <c r="D57" s="252"/>
       <c r="E57" s="69"/>
       <c r="F57" s="66"/>
       <c r="G57" s="66"/>
@@ -13626,9 +13656,9 @@
     </row>
     <row r="66" spans="1:9" s="48" customFormat="1" ht="13.8">
       <c r="A66" s="77"/>
-      <c r="B66" s="265"/>
-      <c r="C66" s="266"/>
-      <c r="D66" s="267"/>
+      <c r="B66" s="250"/>
+      <c r="C66" s="251"/>
+      <c r="D66" s="252"/>
       <c r="E66" s="69"/>
       <c r="F66" s="66"/>
       <c r="G66" s="66"/>
@@ -13681,9 +13711,9 @@
     </row>
     <row r="71" spans="1:9" s="48" customFormat="1" ht="13.8">
       <c r="A71" s="77"/>
-      <c r="B71" s="265"/>
-      <c r="C71" s="266"/>
-      <c r="D71" s="267"/>
+      <c r="B71" s="250"/>
+      <c r="C71" s="251"/>
+      <c r="D71" s="252"/>
       <c r="E71" s="69"/>
       <c r="F71" s="66"/>
       <c r="G71" s="66"/>
@@ -13725,9 +13755,9 @@
     </row>
     <row r="75" spans="1:9" s="48" customFormat="1" ht="13.8">
       <c r="A75" s="77"/>
-      <c r="B75" s="265"/>
-      <c r="C75" s="266"/>
-      <c r="D75" s="267"/>
+      <c r="B75" s="250"/>
+      <c r="C75" s="251"/>
+      <c r="D75" s="252"/>
       <c r="E75" s="69"/>
       <c r="F75" s="66"/>
       <c r="G75" s="66"/>
@@ -13857,9 +13887,9 @@
     </row>
     <row r="87" spans="1:9" s="48" customFormat="1" ht="13.8">
       <c r="A87" s="77"/>
-      <c r="B87" s="265"/>
-      <c r="C87" s="266"/>
-      <c r="D87" s="267"/>
+      <c r="B87" s="250"/>
+      <c r="C87" s="251"/>
+      <c r="D87" s="252"/>
       <c r="E87" s="69"/>
       <c r="F87" s="66"/>
       <c r="G87" s="66"/>
@@ -13901,9 +13931,9 @@
     </row>
     <row r="91" spans="1:9" s="48" customFormat="1" ht="13.8">
       <c r="A91" s="77"/>
-      <c r="B91" s="265"/>
-      <c r="C91" s="266"/>
-      <c r="D91" s="267"/>
+      <c r="B91" s="250"/>
+      <c r="C91" s="251"/>
+      <c r="D91" s="252"/>
       <c r="E91" s="69"/>
       <c r="F91" s="66"/>
       <c r="G91" s="66"/>
@@ -13945,9 +13975,9 @@
     </row>
     <row r="95" spans="1:9" s="48" customFormat="1" ht="14.25" customHeight="1">
       <c r="A95" s="77"/>
-      <c r="B95" s="265"/>
-      <c r="C95" s="266"/>
-      <c r="D95" s="267"/>
+      <c r="B95" s="250"/>
+      <c r="C95" s="251"/>
+      <c r="D95" s="252"/>
       <c r="E95" s="69"/>
       <c r="F95" s="66"/>
       <c r="G95" s="66"/>
@@ -13978,9 +14008,9 @@
     </row>
     <row r="98" spans="1:9" s="48" customFormat="1" ht="14.25" customHeight="1">
       <c r="A98" s="77"/>
-      <c r="B98" s="265"/>
-      <c r="C98" s="266"/>
-      <c r="D98" s="267"/>
+      <c r="B98" s="250"/>
+      <c r="C98" s="251"/>
+      <c r="D98" s="252"/>
       <c r="E98" s="69"/>
       <c r="F98" s="66"/>
       <c r="G98" s="66"/>
@@ -14044,17 +14074,11 @@
     </row>
   </sheetData>
   <mergeCells count="23">
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="A2:D2"/>
-    <mergeCell ref="E2:E3"/>
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="B4:D4"/>
-    <mergeCell ref="F16:H16"/>
-    <mergeCell ref="B24:D24"/>
-    <mergeCell ref="B5:D5"/>
-    <mergeCell ref="B6:D6"/>
-    <mergeCell ref="B7:D7"/>
-    <mergeCell ref="B8:D8"/>
+    <mergeCell ref="B30:D30"/>
+    <mergeCell ref="B37:D37"/>
+    <mergeCell ref="B35:D35"/>
+    <mergeCell ref="B91:D91"/>
+    <mergeCell ref="B95:D95"/>
     <mergeCell ref="B98:D98"/>
     <mergeCell ref="B44:D44"/>
     <mergeCell ref="B57:D57"/>
@@ -14062,11 +14086,17 @@
     <mergeCell ref="B71:D71"/>
     <mergeCell ref="B75:D75"/>
     <mergeCell ref="B87:D87"/>
-    <mergeCell ref="B30:D30"/>
-    <mergeCell ref="B37:D37"/>
-    <mergeCell ref="B35:D35"/>
-    <mergeCell ref="B91:D91"/>
-    <mergeCell ref="B95:D95"/>
+    <mergeCell ref="F16:H16"/>
+    <mergeCell ref="B24:D24"/>
+    <mergeCell ref="B5:D5"/>
+    <mergeCell ref="B6:D6"/>
+    <mergeCell ref="B7:D7"/>
+    <mergeCell ref="B8:D8"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="A2:D2"/>
+    <mergeCell ref="E2:E3"/>
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="B4:D4"/>
   </mergeCells>
   <dataValidations count="4">
     <dataValidation type="list" allowBlank="1" sqref="F18:H23 F25:H103">
@@ -14087,10 +14117,10 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I114"/>
+  <dimension ref="A1:I115"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A49" workbookViewId="0">
-      <selection activeCell="C94" sqref="C94"/>
+    <sheetView tabSelected="1" topLeftCell="A65" workbookViewId="0">
+      <selection activeCell="E70" sqref="E70"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -14108,11 +14138,11 @@
       <c r="A1" s="139" t="s">
         <v>67</v>
       </c>
-      <c r="B1" s="257" t="s">
+      <c r="B1" s="248" t="s">
         <v>116</v>
       </c>
-      <c r="C1" s="257"/>
-      <c r="D1" s="257"/>
+      <c r="C1" s="248"/>
+      <c r="D1" s="248"/>
       <c r="E1" s="39"/>
       <c r="F1" s="39"/>
       <c r="G1" s="39"/>
@@ -14123,11 +14153,11 @@
       <c r="A2" s="139" t="s">
         <v>62</v>
       </c>
-      <c r="B2" s="258" t="s">
+      <c r="B2" s="247" t="s">
         <v>95</v>
       </c>
-      <c r="C2" s="257"/>
-      <c r="D2" s="257"/>
+      <c r="C2" s="248"/>
+      <c r="D2" s="248"/>
       <c r="E2" s="39"/>
       <c r="F2" s="39"/>
       <c r="G2" s="39"/>
@@ -14138,11 +14168,11 @@
       <c r="A3" s="139" t="s">
         <v>97</v>
       </c>
-      <c r="B3" s="258" t="s">
+      <c r="B3" s="247" t="s">
         <v>98</v>
       </c>
-      <c r="C3" s="257"/>
-      <c r="D3" s="257"/>
+      <c r="C3" s="248"/>
+      <c r="D3" s="248"/>
       <c r="E3" s="39"/>
       <c r="F3" s="39"/>
       <c r="G3" s="39"/>
@@ -14153,11 +14183,11 @@
       <c r="A4" s="139" t="s">
         <v>99</v>
       </c>
-      <c r="B4" s="257" t="s">
+      <c r="B4" s="248" t="s">
         <v>100</v>
       </c>
-      <c r="C4" s="257"/>
-      <c r="D4" s="257"/>
+      <c r="C4" s="248"/>
+      <c r="D4" s="248"/>
       <c r="E4" s="39"/>
       <c r="F4" s="39"/>
       <c r="G4" s="39"/>
@@ -14168,11 +14198,11 @@
       <c r="A5" s="139" t="s">
         <v>101</v>
       </c>
-      <c r="B5" s="264">
+      <c r="B5" s="249">
         <v>40850</v>
       </c>
-      <c r="C5" s="264"/>
-      <c r="D5" s="264"/>
+      <c r="C5" s="249"/>
+      <c r="D5" s="249"/>
       <c r="E5" s="39"/>
       <c r="F5" s="43"/>
       <c r="G5" s="43"/>
@@ -14228,15 +14258,15 @@
         <v>41</v>
       </c>
       <c r="B8" s="75">
-        <f>COUNTIF($F$23:$F$49713,"*Passed")</f>
+        <f>COUNTIF($F$23:$F$49714,"*Passed")</f>
         <v>0</v>
       </c>
       <c r="C8" s="75">
-        <f>COUNTIF($G$23:$G$49713,"*Passed")</f>
+        <f>COUNTIF($G$23:$G$49714,"*Passed")</f>
         <v>0</v>
       </c>
       <c r="D8" s="75">
-        <f>COUNTIF($H$23:$H$49713,"*Passed")</f>
+        <f>COUNTIF($H$23:$H$49714,"*Passed")</f>
         <v>0</v>
       </c>
       <c r="E8" s="43"/>
@@ -14250,15 +14280,15 @@
         <v>43</v>
       </c>
       <c r="B9" s="75">
-        <f>COUNTIF($F$23:$F$49433,"*Failed*")</f>
+        <f>COUNTIF($F$23:$F$49434,"*Failed*")</f>
         <v>0</v>
       </c>
       <c r="C9" s="75">
-        <f>COUNTIF($G$23:$G$49433,"*Failed*")</f>
+        <f>COUNTIF($G$23:$G$49434,"*Failed*")</f>
         <v>0</v>
       </c>
       <c r="D9" s="75">
-        <f>COUNTIF($H$23:$H$49433,"*Failed*")</f>
+        <f>COUNTIF($H$23:$H$49434,"*Failed*")</f>
         <v>0</v>
       </c>
       <c r="E9" s="43"/>
@@ -14272,15 +14302,15 @@
         <v>45</v>
       </c>
       <c r="B10" s="75">
-        <f>COUNTIF($F$23:$F$49433,"*Not Run*")</f>
+        <f>COUNTIF($F$23:$F$49434,"*Not Run*")</f>
         <v>0</v>
       </c>
       <c r="C10" s="75">
-        <f>COUNTIF($G$23:$G$49433,"*Not Run*")</f>
+        <f>COUNTIF($G$23:$G$49434,"*Not Run*")</f>
         <v>0</v>
       </c>
       <c r="D10" s="75">
-        <f>COUNTIF($H$23:$H$49433,"*Not Run*")</f>
+        <f>COUNTIF($H$23:$H$49434,"*Not Run*")</f>
         <v>0</v>
       </c>
       <c r="E10" s="1"/>
@@ -14294,15 +14324,15 @@
         <v>104</v>
       </c>
       <c r="B11" s="75">
-        <f>COUNTIF($F$23:$F$49433,"*NA*")</f>
+        <f>COUNTIF($F$23:$F$49434,"*NA*")</f>
         <v>0</v>
       </c>
       <c r="C11" s="75">
-        <f>COUNTIF($G$23:$G$49433,"*NA*")</f>
+        <f>COUNTIF($G$23:$G$49434,"*NA*")</f>
         <v>0</v>
       </c>
       <c r="D11" s="75">
-        <f>COUNTIF($H$23:$H$49433,"*NA*")</f>
+        <f>COUNTIF($H$23:$H$49434,"*NA*")</f>
         <v>0</v>
       </c>
       <c r="E11" s="64"/>
@@ -14316,15 +14346,15 @@
         <v>105</v>
       </c>
       <c r="B12" s="75">
-        <f>COUNTIF($F$23:$F$49433,"*Passed in previous build*")</f>
+        <f>COUNTIF($F$23:$F$49434,"*Passed in previous build*")</f>
         <v>0</v>
       </c>
       <c r="C12" s="75">
-        <f>COUNTIF($G$23:$G$49433,"*Passed in previous build*")</f>
+        <f>COUNTIF($G$23:$G$49434,"*Passed in previous build*")</f>
         <v>0</v>
       </c>
       <c r="D12" s="75">
-        <f>COUNTIF($H$23:$H$49433,"*Passed in previous build*")</f>
+        <f>COUNTIF($H$23:$H$49434,"*Passed in previous build*")</f>
         <v>0</v>
       </c>
       <c r="E12" s="1"/>
@@ -14339,11 +14369,11 @@
       <c r="C13" s="50"/>
       <c r="D13" s="51"/>
       <c r="E13" s="65"/>
-      <c r="F13" s="289" t="s">
+      <c r="F13" s="280" t="s">
         <v>102</v>
       </c>
-      <c r="G13" s="290"/>
-      <c r="H13" s="291"/>
+      <c r="G13" s="281"/>
+      <c r="H13" s="282"/>
       <c r="I13" s="65"/>
     </row>
     <row r="14" spans="1:9" ht="36.9">
@@ -14377,29 +14407,29 @@
     </row>
     <row r="15" spans="1:9" ht="25.2" customHeight="1">
       <c r="A15" s="77"/>
-      <c r="B15" s="295" t="s">
+      <c r="B15" s="297" t="s">
         <v>634</v>
       </c>
-      <c r="C15" s="296"/>
-      <c r="D15" s="296"/>
-      <c r="E15" s="296"/>
-      <c r="F15" s="296"/>
-      <c r="G15" s="296"/>
-      <c r="H15" s="296"/>
-      <c r="I15" s="297"/>
+      <c r="C15" s="298"/>
+      <c r="D15" s="298"/>
+      <c r="E15" s="298"/>
+      <c r="F15" s="298"/>
+      <c r="G15" s="298"/>
+      <c r="H15" s="298"/>
+      <c r="I15" s="299"/>
     </row>
     <row r="16" spans="1:9" ht="24.3" customHeight="1">
       <c r="A16" s="204"/>
-      <c r="B16" s="276" t="s">
+      <c r="B16" s="286" t="s">
         <v>314</v>
       </c>
-      <c r="C16" s="277"/>
-      <c r="D16" s="277"/>
-      <c r="E16" s="277"/>
-      <c r="F16" s="277"/>
-      <c r="G16" s="277"/>
-      <c r="H16" s="277"/>
-      <c r="I16" s="278"/>
+      <c r="C16" s="287"/>
+      <c r="D16" s="287"/>
+      <c r="E16" s="287"/>
+      <c r="F16" s="287"/>
+      <c r="G16" s="287"/>
+      <c r="H16" s="287"/>
+      <c r="I16" s="288"/>
     </row>
     <row r="17" spans="1:9" ht="47.4" customHeight="1">
       <c r="A17" s="209">
@@ -14643,16 +14673,16 @@
     </row>
     <row r="29" spans="1:9">
       <c r="A29" s="204"/>
-      <c r="B29" s="276" t="s">
+      <c r="B29" s="286" t="s">
         <v>635</v>
       </c>
-      <c r="C29" s="277"/>
-      <c r="D29" s="277"/>
-      <c r="E29" s="277"/>
-      <c r="F29" s="277"/>
-      <c r="G29" s="277"/>
-      <c r="H29" s="277"/>
-      <c r="I29" s="278"/>
+      <c r="C29" s="287"/>
+      <c r="D29" s="287"/>
+      <c r="E29" s="287"/>
+      <c r="F29" s="287"/>
+      <c r="G29" s="287"/>
+      <c r="H29" s="287"/>
+      <c r="I29" s="288"/>
     </row>
     <row r="30" spans="1:9" ht="36.9">
       <c r="A30" s="58">
@@ -14956,16 +14986,16 @@
     </row>
     <row r="45" spans="1:9">
       <c r="A45" s="189"/>
-      <c r="B45" s="282" t="s">
+      <c r="B45" s="276" t="s">
         <v>639</v>
       </c>
-      <c r="C45" s="283"/>
-      <c r="D45" s="283"/>
-      <c r="E45" s="283"/>
-      <c r="F45" s="283"/>
-      <c r="G45" s="283"/>
-      <c r="H45" s="283"/>
-      <c r="I45" s="284"/>
+      <c r="C45" s="277"/>
+      <c r="D45" s="277"/>
+      <c r="E45" s="277"/>
+      <c r="F45" s="277"/>
+      <c r="G45" s="277"/>
+      <c r="H45" s="277"/>
+      <c r="I45" s="278"/>
     </row>
     <row r="46" spans="1:9" ht="36.9">
       <c r="A46" s="58">
@@ -15249,16 +15279,16 @@
     </row>
     <row r="60" spans="1:9">
       <c r="A60" s="189"/>
-      <c r="B60" s="282" t="s">
+      <c r="B60" s="276" t="s">
         <v>652</v>
       </c>
-      <c r="C60" s="283"/>
-      <c r="D60" s="283"/>
-      <c r="E60" s="283"/>
-      <c r="F60" s="283"/>
-      <c r="G60" s="283"/>
-      <c r="H60" s="283"/>
-      <c r="I60" s="284"/>
+      <c r="C60" s="277"/>
+      <c r="D60" s="277"/>
+      <c r="E60" s="277"/>
+      <c r="F60" s="277"/>
+      <c r="G60" s="277"/>
+      <c r="H60" s="277"/>
+      <c r="I60" s="278"/>
     </row>
     <row r="61" spans="1:9" ht="36.9">
       <c r="A61" s="58">
@@ -15332,7 +15362,7 @@
         <v>763</v>
       </c>
       <c r="D64" s="207" t="s">
-        <v>659</v>
+        <v>784</v>
       </c>
       <c r="E64" s="54"/>
       <c r="F64" s="209"/>
@@ -15382,16 +15412,16 @@
     </row>
     <row r="67" spans="1:9">
       <c r="A67" s="189"/>
-      <c r="B67" s="282" t="s">
+      <c r="B67" s="276" t="s">
         <v>660</v>
       </c>
-      <c r="C67" s="283"/>
-      <c r="D67" s="283"/>
-      <c r="E67" s="283"/>
-      <c r="F67" s="283"/>
-      <c r="G67" s="283"/>
-      <c r="H67" s="283"/>
-      <c r="I67" s="284"/>
+      <c r="C67" s="277"/>
+      <c r="D67" s="277"/>
+      <c r="E67" s="277"/>
+      <c r="F67" s="277"/>
+      <c r="G67" s="277"/>
+      <c r="H67" s="277"/>
+      <c r="I67" s="278"/>
     </row>
     <row r="68" spans="1:9" ht="36.9">
       <c r="A68" s="58">
@@ -15425,7 +15455,7 @@
         <v>760</v>
       </c>
       <c r="D69" s="207" t="s">
-        <v>418</v>
+        <v>788</v>
       </c>
       <c r="E69" s="54"/>
       <c r="F69" s="209"/>
@@ -15535,16 +15565,16 @@
     </row>
     <row r="75" spans="1:9">
       <c r="A75" s="189"/>
-      <c r="B75" s="282" t="s">
+      <c r="B75" s="276" t="s">
         <v>698</v>
       </c>
-      <c r="C75" s="283"/>
-      <c r="D75" s="283"/>
-      <c r="E75" s="283"/>
-      <c r="F75" s="283"/>
-      <c r="G75" s="283"/>
-      <c r="H75" s="283"/>
-      <c r="I75" s="284"/>
+      <c r="C75" s="277"/>
+      <c r="D75" s="277"/>
+      <c r="E75" s="277"/>
+      <c r="F75" s="277"/>
+      <c r="G75" s="277"/>
+      <c r="H75" s="277"/>
+      <c r="I75" s="278"/>
     </row>
     <row r="76" spans="1:9" ht="36.9">
       <c r="A76" s="58">
@@ -15578,7 +15608,7 @@
         <v>760</v>
       </c>
       <c r="D77" s="207" t="s">
-        <v>418</v>
+        <v>788</v>
       </c>
       <c r="E77" s="54"/>
       <c r="F77" s="209"/>
@@ -15688,16 +15718,16 @@
     </row>
     <row r="83" spans="1:9">
       <c r="A83" s="189"/>
-      <c r="B83" s="282" t="s">
+      <c r="B83" s="276" t="s">
         <v>708</v>
       </c>
-      <c r="C83" s="283"/>
-      <c r="D83" s="283"/>
-      <c r="E83" s="283"/>
-      <c r="F83" s="283"/>
-      <c r="G83" s="283"/>
-      <c r="H83" s="283"/>
-      <c r="I83" s="284"/>
+      <c r="C83" s="277"/>
+      <c r="D83" s="277"/>
+      <c r="E83" s="277"/>
+      <c r="F83" s="277"/>
+      <c r="G83" s="277"/>
+      <c r="H83" s="277"/>
+      <c r="I83" s="278"/>
     </row>
     <row r="84" spans="1:9" ht="58.2" customHeight="1">
       <c r="A84" s="58">
@@ -15773,16 +15803,16 @@
     </row>
     <row r="88" spans="1:9">
       <c r="A88" s="189"/>
-      <c r="B88" s="282" t="s">
+      <c r="B88" s="276" t="s">
         <v>713</v>
       </c>
-      <c r="C88" s="321"/>
-      <c r="D88" s="321"/>
-      <c r="E88" s="321"/>
-      <c r="F88" s="321"/>
-      <c r="G88" s="321"/>
-      <c r="H88" s="321"/>
-      <c r="I88" s="322"/>
+      <c r="C88" s="295"/>
+      <c r="D88" s="295"/>
+      <c r="E88" s="295"/>
+      <c r="F88" s="295"/>
+      <c r="G88" s="295"/>
+      <c r="H88" s="295"/>
+      <c r="I88" s="296"/>
     </row>
     <row r="89" spans="1:9" ht="24.6">
       <c r="A89" s="58">
@@ -15806,11 +15836,11 @@
     </row>
     <row r="90" spans="1:9">
       <c r="A90" s="77"/>
-      <c r="B90" s="265" t="s">
+      <c r="B90" s="250" t="s">
         <v>682</v>
       </c>
-      <c r="C90" s="266"/>
-      <c r="D90" s="267"/>
+      <c r="C90" s="251"/>
+      <c r="D90" s="252"/>
       <c r="E90" s="69"/>
       <c r="F90" s="66"/>
       <c r="G90" s="66"/>
@@ -15837,19 +15867,19 @@
       <c r="H91" s="209"/>
       <c r="I91" s="62"/>
     </row>
-    <row r="92" spans="1:9" ht="49.2">
+    <row r="92" spans="1:9" ht="40.200000000000003" customHeight="1">
       <c r="A92" s="58">
         <f ca="1">IF(OFFSET(A92,-1,0) ="",OFFSET(A92,-2,0)+1,OFFSET(A92,-1,0)+1 )</f>
         <v>68</v>
       </c>
       <c r="B92" s="209" t="s">
-        <v>688</v>
+        <v>785</v>
       </c>
       <c r="C92" s="209" t="s">
-        <v>778</v>
+        <v>786</v>
       </c>
       <c r="D92" s="59" t="s">
-        <v>687</v>
+        <v>787</v>
       </c>
       <c r="E92" s="54"/>
       <c r="F92" s="209"/>
@@ -15857,16 +15887,16 @@
       <c r="H92" s="209"/>
       <c r="I92" s="62"/>
     </row>
-    <row r="93" spans="1:9" ht="73.8">
+    <row r="93" spans="1:9" ht="49.2">
       <c r="A93" s="58">
         <f ca="1">IF(OFFSET(A93,-1,0) ="",OFFSET(A93,-2,0)+1,OFFSET(A93,-1,0)+1 )</f>
         <v>69</v>
       </c>
       <c r="B93" s="209" t="s">
-        <v>689</v>
+        <v>688</v>
       </c>
       <c r="C93" s="209" t="s">
-        <v>779</v>
+        <v>778</v>
       </c>
       <c r="D93" s="59" t="s">
         <v>687</v>
@@ -15879,17 +15909,17 @@
     </row>
     <row r="94" spans="1:9" ht="73.8">
       <c r="A94" s="58">
-        <f t="shared" ref="A94:A95" ca="1" si="5">IF(OFFSET(A94,-1,0) ="",OFFSET(A94,-2,0)+1,OFFSET(A94,-1,0)+1 )</f>
+        <f ca="1">IF(OFFSET(A94,-1,0) ="",OFFSET(A94,-2,0)+1,OFFSET(A94,-1,0)+1 )</f>
         <v>70</v>
       </c>
       <c r="B94" s="209" t="s">
-        <v>690</v>
+        <v>689</v>
       </c>
       <c r="C94" s="209" t="s">
-        <v>780</v>
-      </c>
-      <c r="D94" s="207" t="s">
-        <v>700</v>
+        <v>779</v>
+      </c>
+      <c r="D94" s="59" t="s">
+        <v>687</v>
       </c>
       <c r="E94" s="54"/>
       <c r="F94" s="209"/>
@@ -15897,22 +15927,40 @@
       <c r="H94" s="209"/>
       <c r="I94" s="62"/>
     </row>
-    <row r="95" spans="1:9">
-      <c r="A95" s="58"/>
-      <c r="B95" s="209"/>
-      <c r="C95" s="209"/>
-      <c r="D95" s="59"/>
+    <row r="95" spans="1:9" ht="73.8">
+      <c r="A95" s="58">
+        <f t="shared" ref="A95:A96" ca="1" si="5">IF(OFFSET(A95,-1,0) ="",OFFSET(A95,-2,0)+1,OFFSET(A95,-1,0)+1 )</f>
+        <v>71</v>
+      </c>
+      <c r="B95" s="209" t="s">
+        <v>690</v>
+      </c>
+      <c r="C95" s="209" t="s">
+        <v>780</v>
+      </c>
+      <c r="D95" s="207" t="s">
+        <v>700</v>
+      </c>
       <c r="E95" s="54"/>
       <c r="F95" s="209"/>
       <c r="G95" s="209"/>
       <c r="H95" s="209"/>
       <c r="I95" s="62"/>
     </row>
-    <row r="96" spans="1:9">
-      <c r="A96" s="62"/>
-      <c r="B96" s="209"/>
-      <c r="C96" s="209"/>
-      <c r="D96" s="207"/>
+    <row r="96" spans="1:9" ht="61.5">
+      <c r="A96" s="58">
+        <f t="shared" ca="1" si="5"/>
+        <v>72</v>
+      </c>
+      <c r="B96" s="209" t="s">
+        <v>781</v>
+      </c>
+      <c r="C96" s="209" t="s">
+        <v>782</v>
+      </c>
+      <c r="D96" s="207" t="s">
+        <v>783</v>
+      </c>
       <c r="E96" s="54"/>
       <c r="F96" s="209"/>
       <c r="G96" s="209"/>
@@ -15942,10 +15990,10 @@
       <c r="I98" s="62"/>
     </row>
     <row r="99" spans="1:9">
-      <c r="A99" s="58"/>
+      <c r="A99" s="62"/>
       <c r="B99" s="209"/>
       <c r="C99" s="209"/>
-      <c r="D99" s="59"/>
+      <c r="D99" s="207"/>
       <c r="E99" s="54"/>
       <c r="F99" s="209"/>
       <c r="G99" s="209"/>
@@ -15953,10 +16001,10 @@
       <c r="I99" s="62"/>
     </row>
     <row r="100" spans="1:9">
-      <c r="A100" s="62"/>
+      <c r="A100" s="58"/>
       <c r="B100" s="209"/>
-      <c r="C100" s="198"/>
-      <c r="D100" s="212"/>
+      <c r="C100" s="209"/>
+      <c r="D100" s="59"/>
       <c r="E100" s="54"/>
       <c r="F100" s="209"/>
       <c r="G100" s="209"/>
@@ -16085,26 +16133,26 @@
       <c r="I111" s="62"/>
     </row>
     <row r="112" spans="1:9">
-      <c r="A112" s="77"/>
-      <c r="B112" s="265"/>
-      <c r="C112" s="266"/>
-      <c r="D112" s="267"/>
-      <c r="E112" s="69"/>
-      <c r="F112" s="66"/>
-      <c r="G112" s="66"/>
-      <c r="H112" s="66"/>
-      <c r="I112" s="69"/>
+      <c r="A112" s="62"/>
+      <c r="B112" s="209"/>
+      <c r="C112" s="198"/>
+      <c r="D112" s="212"/>
+      <c r="E112" s="54"/>
+      <c r="F112" s="209"/>
+      <c r="G112" s="209"/>
+      <c r="H112" s="209"/>
+      <c r="I112" s="62"/>
     </row>
     <row r="113" spans="1:9">
-      <c r="A113" s="62"/>
-      <c r="B113" s="209"/>
-      <c r="C113" s="209"/>
-      <c r="D113" s="54"/>
-      <c r="E113" s="54"/>
-      <c r="F113" s="209"/>
-      <c r="G113" s="209"/>
-      <c r="H113" s="209"/>
-      <c r="I113" s="62"/>
+      <c r="A113" s="77"/>
+      <c r="B113" s="250"/>
+      <c r="C113" s="251"/>
+      <c r="D113" s="252"/>
+      <c r="E113" s="69"/>
+      <c r="F113" s="66"/>
+      <c r="G113" s="66"/>
+      <c r="H113" s="66"/>
+      <c r="I113" s="69"/>
     </row>
     <row r="114" spans="1:9">
       <c r="A114" s="62"/>
@@ -16117,29 +16165,40 @@
       <c r="H114" s="209"/>
       <c r="I114" s="62"/>
     </row>
+    <row r="115" spans="1:9">
+      <c r="A115" s="62"/>
+      <c r="B115" s="209"/>
+      <c r="C115" s="209"/>
+      <c r="D115" s="54"/>
+      <c r="E115" s="54"/>
+      <c r="F115" s="209"/>
+      <c r="G115" s="209"/>
+      <c r="H115" s="209"/>
+      <c r="I115" s="62"/>
+    </row>
   </sheetData>
   <mergeCells count="17">
-    <mergeCell ref="B88:I88"/>
-    <mergeCell ref="B67:I67"/>
-    <mergeCell ref="B90:D90"/>
-    <mergeCell ref="B112:D112"/>
-    <mergeCell ref="B75:I75"/>
+    <mergeCell ref="B60:I60"/>
+    <mergeCell ref="B83:I83"/>
+    <mergeCell ref="F13:H13"/>
+    <mergeCell ref="B15:I15"/>
+    <mergeCell ref="B16:I16"/>
+    <mergeCell ref="B29:I29"/>
+    <mergeCell ref="B45:I45"/>
     <mergeCell ref="B1:D1"/>
     <mergeCell ref="B2:D2"/>
     <mergeCell ref="B3:D3"/>
     <mergeCell ref="B4:D4"/>
     <mergeCell ref="B5:D5"/>
-    <mergeCell ref="F13:H13"/>
-    <mergeCell ref="B15:I15"/>
-    <mergeCell ref="B16:I16"/>
-    <mergeCell ref="B29:I29"/>
-    <mergeCell ref="B45:I45"/>
-    <mergeCell ref="B60:I60"/>
-    <mergeCell ref="B83:I83"/>
+    <mergeCell ref="B88:I88"/>
+    <mergeCell ref="B67:I67"/>
+    <mergeCell ref="B90:D90"/>
+    <mergeCell ref="B113:D113"/>
+    <mergeCell ref="B75:I75"/>
   </mergeCells>
   <dataValidations count="2">
     <dataValidation showDropDown="1" showErrorMessage="1" sqref="F13:H14"/>
-    <dataValidation type="list" allowBlank="1" sqref="F17:H28 F30:H44 F46:H59 F61:H66 F76:H82 F84:H87 F68:H74 F89:H114">
+    <dataValidation type="list" allowBlank="1" sqref="F17:H28 F30:H44 F46:H59 F61:H66 F76:H82 F84:H87 F68:H74 F89:H115">
       <formula1>$A$11:$A$15</formula1>
     </dataValidation>
   </dataValidations>
@@ -16188,13 +16247,13 @@
     </row>
     <row r="2" spans="1:12" s="84" customFormat="1" ht="25.2">
       <c r="A2" s="83"/>
-      <c r="C2" s="316" t="s">
+      <c r="C2" s="302" t="s">
         <v>119</v>
       </c>
-      <c r="D2" s="316"/>
-      <c r="E2" s="316"/>
-      <c r="F2" s="316"/>
-      <c r="G2" s="316"/>
+      <c r="D2" s="302"/>
+      <c r="E2" s="302"/>
+      <c r="F2" s="302"/>
+      <c r="G2" s="302"/>
       <c r="H2" s="85" t="s">
         <v>120</v>
       </c>
@@ -16205,15 +16264,15 @@
     </row>
     <row r="3" spans="1:12" s="84" customFormat="1" ht="22.5">
       <c r="A3" s="83"/>
-      <c r="C3" s="317" t="s">
+      <c r="C3" s="303" t="s">
         <v>121</v>
       </c>
-      <c r="D3" s="317"/>
+      <c r="D3" s="303"/>
       <c r="E3" s="157"/>
-      <c r="F3" s="318" t="s">
+      <c r="F3" s="304" t="s">
         <v>122</v>
       </c>
-      <c r="G3" s="318"/>
+      <c r="G3" s="304"/>
       <c r="H3" s="86"/>
       <c r="I3" s="86"/>
       <c r="J3" s="87"/>
@@ -16238,10 +16297,10 @@
       <c r="L5" s="92"/>
     </row>
     <row r="6" spans="1:12" ht="21.75" customHeight="1">
-      <c r="B6" s="300" t="s">
+      <c r="B6" s="305" t="s">
         <v>123</v>
       </c>
-      <c r="C6" s="300"/>
+      <c r="C6" s="305"/>
       <c r="D6" s="94"/>
       <c r="E6" s="94"/>
       <c r="F6" s="94"/>
@@ -16410,11 +16469,11 @@
       <c r="G13" s="98"/>
     </row>
     <row r="14" spans="1:12" ht="21.75" customHeight="1">
-      <c r="B14" s="300" t="s">
+      <c r="B14" s="305" t="s">
         <v>153</v>
       </c>
-      <c r="C14" s="300"/>
-      <c r="D14" s="300"/>
+      <c r="C14" s="305"/>
+      <c r="D14" s="305"/>
       <c r="E14" s="94"/>
       <c r="F14" s="94"/>
       <c r="G14" s="95"/>
@@ -16590,11 +16649,11 @@
       <c r="G22" s="98"/>
     </row>
     <row r="23" spans="1:12" ht="21.75" customHeight="1">
-      <c r="B23" s="300" t="s">
+      <c r="B23" s="305" t="s">
         <v>163</v>
       </c>
-      <c r="C23" s="300"/>
-      <c r="D23" s="300"/>
+      <c r="C23" s="305"/>
+      <c r="D23" s="305"/>
       <c r="E23" s="94"/>
       <c r="F23" s="94"/>
       <c r="G23" s="95"/>
@@ -16640,10 +16699,10 @@
       <c r="F26" s="160" t="s">
         <v>170</v>
       </c>
-      <c r="G26" s="319" t="s">
+      <c r="G26" s="306" t="s">
         <v>114</v>
       </c>
-      <c r="H26" s="320"/>
+      <c r="H26" s="307"/>
     </row>
     <row r="27" spans="1:12">
       <c r="A27" s="100">
@@ -16668,8 +16727,8 @@
         <f>COUNTIFS(#REF!, "*Critical*",#REF!,"*Closed*") + COUNTIFS(#REF!, "*Critical*",#REF!,"*Ready for client test*")</f>
         <v>#REF!</v>
       </c>
-      <c r="G27" s="311"/>
-      <c r="H27" s="312"/>
+      <c r="G27" s="300"/>
+      <c r="H27" s="301"/>
     </row>
     <row r="28" spans="1:12" ht="20.25" customHeight="1">
       <c r="A28" s="100">
@@ -16694,8 +16753,8 @@
         <f>COUNTIFS(#REF!, "*Major*",#REF!,"*Closed*") + COUNTIFS(#REF!, "*Major*",#REF!,"*Ready for client test*")</f>
         <v>#REF!</v>
       </c>
-      <c r="G28" s="311"/>
-      <c r="H28" s="312"/>
+      <c r="G28" s="300"/>
+      <c r="H28" s="301"/>
     </row>
     <row r="29" spans="1:12" ht="20.25" customHeight="1">
       <c r="A29" s="100">
@@ -16720,8 +16779,8 @@
         <f>COUNTIFS(#REF!, "*Normal*",#REF!,"*Closed*") + COUNTIFS(#REF!, "*Normal*",#REF!,"*Ready for client test*")</f>
         <v>#REF!</v>
       </c>
-      <c r="G29" s="311"/>
-      <c r="H29" s="312"/>
+      <c r="G29" s="300"/>
+      <c r="H29" s="301"/>
     </row>
     <row r="30" spans="1:12" ht="20.25" customHeight="1">
       <c r="A30" s="100">
@@ -16746,8 +16805,8 @@
         <f>COUNTIFS(#REF!, "*Minor*",#REF!,"*Closed*") + COUNTIFS(#REF!, "*Minor*",#REF!,"*Ready for client test*")</f>
         <v>#REF!</v>
       </c>
-      <c r="G30" s="311"/>
-      <c r="H30" s="312"/>
+      <c r="G30" s="300"/>
+      <c r="H30" s="301"/>
     </row>
     <row r="31" spans="1:12" ht="20.25" customHeight="1">
       <c r="A31" s="100"/>
@@ -16768,8 +16827,8 @@
         <f>SUM(F27:F30)</f>
         <v>#REF!</v>
       </c>
-      <c r="G31" s="311"/>
-      <c r="H31" s="312"/>
+      <c r="G31" s="300"/>
+      <c r="H31" s="301"/>
     </row>
     <row r="32" spans="1:12" ht="20.25" customHeight="1">
       <c r="A32" s="106"/>
@@ -16807,10 +16866,10 @@
       <c r="E34" s="160" t="s">
         <v>129</v>
       </c>
-      <c r="F34" s="305" t="s">
+      <c r="F34" s="308" t="s">
         <v>132</v>
       </c>
-      <c r="G34" s="307"/>
+      <c r="G34" s="309"/>
     </row>
     <row r="35" spans="1:12" s="125" customFormat="1" ht="14.1">
       <c r="A35" s="121"/>
@@ -16826,8 +16885,8 @@
       <c r="E35" s="126" t="s">
         <v>137</v>
       </c>
-      <c r="F35" s="314"/>
-      <c r="G35" s="315"/>
+      <c r="F35" s="311"/>
+      <c r="G35" s="312"/>
       <c r="H35" s="124"/>
       <c r="I35" s="124"/>
       <c r="J35" s="124"/>
@@ -16850,8 +16909,8 @@
       <c r="E36" s="104" t="s">
         <v>143</v>
       </c>
-      <c r="F36" s="311"/>
-      <c r="G36" s="312"/>
+      <c r="F36" s="300"/>
+      <c r="G36" s="301"/>
     </row>
     <row r="37" spans="1:12" ht="20.25" customHeight="1">
       <c r="A37" s="100">
@@ -16869,8 +16928,8 @@
       <c r="E37" s="104" t="s">
         <v>143</v>
       </c>
-      <c r="F37" s="311"/>
-      <c r="G37" s="312"/>
+      <c r="F37" s="300"/>
+      <c r="G37" s="301"/>
     </row>
     <row r="38" spans="1:12" ht="20.25" customHeight="1">
       <c r="A38" s="106"/>
@@ -16883,10 +16942,10 @@
       <c r="H38" s="108"/>
     </row>
     <row r="39" spans="1:12" ht="21.75" customHeight="1">
-      <c r="B39" s="300" t="s">
+      <c r="B39" s="305" t="s">
         <v>184</v>
       </c>
-      <c r="C39" s="300"/>
+      <c r="C39" s="305"/>
       <c r="D39" s="94"/>
       <c r="E39" s="94"/>
       <c r="F39" s="94"/>
@@ -16910,15 +16969,15 @@
       <c r="B41" s="160" t="s">
         <v>62</v>
       </c>
-      <c r="C41" s="313" t="s">
+      <c r="C41" s="310" t="s">
         <v>186</v>
       </c>
-      <c r="D41" s="313"/>
-      <c r="E41" s="313" t="s">
+      <c r="D41" s="310"/>
+      <c r="E41" s="310" t="s">
         <v>187</v>
       </c>
-      <c r="F41" s="313"/>
-      <c r="G41" s="313"/>
+      <c r="F41" s="310"/>
+      <c r="G41" s="310"/>
       <c r="H41" s="99" t="s">
         <v>188</v>
       </c>
@@ -16930,15 +16989,15 @@
       <c r="B42" s="161" t="s">
         <v>189</v>
       </c>
-      <c r="C42" s="310" t="s">
+      <c r="C42" s="313" t="s">
         <v>190</v>
       </c>
-      <c r="D42" s="310"/>
-      <c r="E42" s="310" t="s">
+      <c r="D42" s="313"/>
+      <c r="E42" s="313" t="s">
         <v>191</v>
       </c>
-      <c r="F42" s="310"/>
-      <c r="G42" s="310"/>
+      <c r="F42" s="313"/>
+      <c r="G42" s="313"/>
       <c r="H42" s="109"/>
     </row>
     <row r="43" spans="1:12" ht="34.5" customHeight="1">
@@ -16948,15 +17007,15 @@
       <c r="B43" s="161" t="s">
         <v>189</v>
       </c>
-      <c r="C43" s="310" t="s">
+      <c r="C43" s="313" t="s">
         <v>190</v>
       </c>
-      <c r="D43" s="310"/>
-      <c r="E43" s="310" t="s">
+      <c r="D43" s="313"/>
+      <c r="E43" s="313" t="s">
         <v>191</v>
       </c>
-      <c r="F43" s="310"/>
-      <c r="G43" s="310"/>
+      <c r="F43" s="313"/>
+      <c r="G43" s="313"/>
       <c r="H43" s="109"/>
     </row>
     <row r="44" spans="1:12" ht="34.5" customHeight="1">
@@ -16966,15 +17025,15 @@
       <c r="B44" s="161" t="s">
         <v>189</v>
       </c>
-      <c r="C44" s="310" t="s">
+      <c r="C44" s="313" t="s">
         <v>190</v>
       </c>
-      <c r="D44" s="310"/>
-      <c r="E44" s="310" t="s">
+      <c r="D44" s="313"/>
+      <c r="E44" s="313" t="s">
         <v>191</v>
       </c>
-      <c r="F44" s="310"/>
-      <c r="G44" s="310"/>
+      <c r="F44" s="313"/>
+      <c r="G44" s="313"/>
       <c r="H44" s="109"/>
     </row>
     <row r="45" spans="1:12">
@@ -16986,10 +17045,10 @@
       <c r="G45" s="98"/>
     </row>
     <row r="46" spans="1:12" ht="21.75" customHeight="1">
-      <c r="B46" s="300" t="s">
+      <c r="B46" s="305" t="s">
         <v>192</v>
       </c>
-      <c r="C46" s="300"/>
+      <c r="C46" s="305"/>
       <c r="D46" s="94"/>
       <c r="E46" s="94"/>
       <c r="F46" s="94"/>
@@ -17007,25 +17066,25 @@
       <c r="G47" s="98"/>
     </row>
     <row r="48" spans="1:12" s="113" customFormat="1" ht="21" customHeight="1">
-      <c r="A48" s="301" t="s">
+      <c r="A48" s="316" t="s">
         <v>58</v>
       </c>
-      <c r="B48" s="303" t="s">
+      <c r="B48" s="318" t="s">
         <v>194</v>
       </c>
-      <c r="C48" s="305" t="s">
+      <c r="C48" s="308" t="s">
         <v>195</v>
       </c>
-      <c r="D48" s="306"/>
-      <c r="E48" s="306"/>
-      <c r="F48" s="307"/>
-      <c r="G48" s="308" t="s">
+      <c r="D48" s="320"/>
+      <c r="E48" s="320"/>
+      <c r="F48" s="309"/>
+      <c r="G48" s="321" t="s">
         <v>162</v>
       </c>
-      <c r="H48" s="308" t="s">
+      <c r="H48" s="321" t="s">
         <v>194</v>
       </c>
-      <c r="I48" s="298" t="s">
+      <c r="I48" s="314" t="s">
         <v>196</v>
       </c>
       <c r="J48" s="112"/>
@@ -17033,8 +17092,8 @@
       <c r="L48" s="112"/>
     </row>
     <row r="49" spans="1:9">
-      <c r="A49" s="302"/>
-      <c r="B49" s="304"/>
+      <c r="A49" s="317"/>
+      <c r="B49" s="319"/>
       <c r="C49" s="114" t="s">
         <v>171</v>
       </c>
@@ -17047,13 +17106,13 @@
       <c r="F49" s="115" t="s">
         <v>174</v>
       </c>
-      <c r="G49" s="309"/>
-      <c r="H49" s="309"/>
-      <c r="I49" s="299"/>
+      <c r="G49" s="322"/>
+      <c r="H49" s="322"/>
+      <c r="I49" s="315"/>
     </row>
     <row r="50" spans="1:9" ht="25.2">
-      <c r="A50" s="302"/>
-      <c r="B50" s="304"/>
+      <c r="A50" s="317"/>
+      <c r="B50" s="319"/>
       <c r="C50" s="128" t="s">
         <v>197</v>
       </c>
@@ -17165,6 +17224,26 @@
     </row>
   </sheetData>
   <mergeCells count="32">
+    <mergeCell ref="I48:I49"/>
+    <mergeCell ref="B46:C46"/>
+    <mergeCell ref="A48:A50"/>
+    <mergeCell ref="B48:B50"/>
+    <mergeCell ref="C48:F48"/>
+    <mergeCell ref="G48:G49"/>
+    <mergeCell ref="H48:H49"/>
+    <mergeCell ref="C42:D42"/>
+    <mergeCell ref="E42:G42"/>
+    <mergeCell ref="C43:D43"/>
+    <mergeCell ref="E43:G43"/>
+    <mergeCell ref="C44:D44"/>
+    <mergeCell ref="E44:G44"/>
+    <mergeCell ref="F34:G34"/>
+    <mergeCell ref="F36:G36"/>
+    <mergeCell ref="F37:G37"/>
+    <mergeCell ref="B39:C39"/>
+    <mergeCell ref="C41:D41"/>
+    <mergeCell ref="E41:G41"/>
+    <mergeCell ref="F35:G35"/>
     <mergeCell ref="G31:H31"/>
     <mergeCell ref="C2:G2"/>
     <mergeCell ref="C3:D3"/>
@@ -17177,26 +17256,6 @@
     <mergeCell ref="G28:H28"/>
     <mergeCell ref="G29:H29"/>
     <mergeCell ref="G30:H30"/>
-    <mergeCell ref="F34:G34"/>
-    <mergeCell ref="F36:G36"/>
-    <mergeCell ref="F37:G37"/>
-    <mergeCell ref="B39:C39"/>
-    <mergeCell ref="C41:D41"/>
-    <mergeCell ref="E41:G41"/>
-    <mergeCell ref="F35:G35"/>
-    <mergeCell ref="C42:D42"/>
-    <mergeCell ref="E42:G42"/>
-    <mergeCell ref="C43:D43"/>
-    <mergeCell ref="E43:G43"/>
-    <mergeCell ref="C44:D44"/>
-    <mergeCell ref="E44:G44"/>
-    <mergeCell ref="I48:I49"/>
-    <mergeCell ref="B46:C46"/>
-    <mergeCell ref="A48:A50"/>
-    <mergeCell ref="B48:B50"/>
-    <mergeCell ref="C48:F48"/>
-    <mergeCell ref="G48:G49"/>
-    <mergeCell ref="H48:H49"/>
   </mergeCells>
   <conditionalFormatting sqref="H51">
     <cfRule type="cellIs" dxfId="5" priority="5" operator="equal">
@@ -17399,18 +17458,18 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
   <Edit>DocumentLibraryForm</Edit>
   <New>DocumentLibraryForm</New>
 </FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -17433,6 +17492,14 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4F8C6C6D-E626-49D4-9BA8-E27B2B9C9191}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{06E3E4FA-795A-4742-A021-9CDC3210C50B}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
@@ -17447,12 +17514,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4F8C6C6D-E626-49D4-9BA8-E27B2B9C9191}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/test design technic daongochuy.xlsx
+++ b/test design technic daongochuy.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="17268" windowHeight="8808" tabRatio="758" activeTab="7"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="17268" windowHeight="8808" tabRatio="758" activeTab="8"/>
   </bookViews>
   <sheets>
     <sheet name="Record of Change" sheetId="4" r:id="rId1"/>
@@ -19,11 +19,12 @@
     <sheet name="Assignment 1 " sheetId="8" r:id="rId5"/>
     <sheet name="Assignment 2 " sheetId="9" r:id="rId6"/>
     <sheet name="Assignment 3 " sheetId="15" r:id="rId7"/>
-    <sheet name="Sheet1" sheetId="16" r:id="rId8"/>
-    <sheet name="Test report" sheetId="10" r:id="rId9"/>
+    <sheet name="Assignment 4 " sheetId="16" r:id="rId8"/>
+    <sheet name="Assignment 5 " sheetId="17" r:id="rId9"/>
+    <sheet name="Test report" sheetId="10" r:id="rId10"/>
   </sheets>
   <externalReferences>
-    <externalReference r:id="rId10"/>
+    <externalReference r:id="rId11"/>
   </externalReferences>
   <definedNames>
     <definedName name="abc" localSheetId="6">#REF!</definedName>
@@ -1034,8 +1035,72 @@
 </comments>
 </file>
 
+<file path=xl/comments6.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author/>
+  </authors>
+  <commentList>
+    <comment ref="F14" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="8"/>
+            <color indexed="8"/>
+            <rFont val="Times New Roman"/>
+            <family val="1"/>
+          </rPr>
+          <t xml:space="preserve">Pass
+Fail
+Untested
+N/A
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="G14" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="8"/>
+            <color indexed="8"/>
+            <rFont val="Times New Roman"/>
+            <family val="1"/>
+          </rPr>
+          <t xml:space="preserve">Pass
+Fail
+Untested
+N/A
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="H14" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="8"/>
+            <color indexed="8"/>
+            <rFont val="Times New Roman"/>
+            <family val="1"/>
+          </rPr>
+          <t xml:space="preserve">Pass
+Fail
+Untested
+N/A
+</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1119" uniqueCount="789">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1167" uniqueCount="810">
   <si>
     <r>
       <t xml:space="preserve">Security Classification: </t>
@@ -3895,6 +3960,112 @@
   <si>
     <t>Verify that options appears following alphabeltic order when user clicks on Drop down button</t>
   </si>
+  <si>
+    <t xml:space="preserve">Default Address </t>
+  </si>
+  <si>
+    <t xml:space="preserve">1,Go  to "Add mew address page "
+2, Click "Make default shipping address" 
+3, Choose address 
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Verify that address is set as default address </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Delete an address </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Delete a default address </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Confirmation pop up displayed </t>
+  </si>
+  <si>
+    <t xml:space="preserve">"X" button in Confirmation pop-up </t>
+  </si>
+  <si>
+    <t xml:space="preserve">User want to cancel delete address </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Address deleted successfully </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Verify that address successfully deleted </t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Error message : You cannot delete your default address</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">Verify that delete account process cancelled when users click "X" button </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Verify that delete account process cancelled when users click "Cancel" button </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Verify that all the address infromation displayed   on confirmation pop-up </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Verify that the address is remove from the Address Book when deleting process finished </t>
+  </si>
+  <si>
+    <t xml:space="preserve">1, Go to "Address Book" page 
+2,Click on "Edit" button that next to the account 
+3, Click "Delete" button 
+4, Click "Delete" button in the confirmation pop-up </t>
+  </si>
+  <si>
+    <t>precondtion : the Address Book already contain a Default Shipping Addres 
+1, Go to "Address Book" page 
+2,Click on "Edit" button that next to the account 
+3, Click "Delete" button 
+4, Click "Delete" button in the confirmation pop-up</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1, Go to "Address Book" page 
+2,Click on "Edit" button that next to the account 
+3, Click "Delete" button 
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1, Go to "Address Book" page 
+2,Click on "Edit" button that next to the account 
+3, Click "Delete" button 
+4, Click "X" button in the delete confirmation pop-up
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1, Go to "Address Book" page 
+2,Click on "Edit" button that next to the account 
+3, Click "Delete" button 
+4, Click "Cancel" button in the delete confirmation pop-up
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1, Go to "Address Book" page 
+2,Click on "Edit" button that next to the account 
+3, Click "Delete" button 
+4, Click "Delete" button in the confirmation pop-up 
+5, Go to "Address Book" page </t>
+  </si>
 </sst>
 </file>
 
@@ -3905,7 +4076,7 @@
     <numFmt numFmtId="165" formatCode="[$-409]d\-mmm\-yy;@"/>
     <numFmt numFmtId="166" formatCode="[$-409]mmmm\ d\,\ yyyy;@"/>
   </numFmts>
-  <fonts count="71">
+  <fonts count="72">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -4381,6 +4552,13 @@
     </font>
     <font>
       <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -5021,7 +5199,7 @@
     <xf numFmtId="166" fontId="56" fillId="0" borderId="0"/>
     <xf numFmtId="166" fontId="57" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="323">
+  <cellXfs count="335">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
@@ -5937,6 +6115,40 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="7" xfId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="69" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="9" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="9" borderId="15" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="16" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="11" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="15" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="16" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="9" borderId="16" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="9" borderId="11" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="71" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="27">
     <cellStyle name="background" xfId="10"/>
@@ -7086,6 +7298,1089 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <tabColor rgb="FF00B050"/>
+  </sheetPr>
+  <dimension ref="A1:L61"/>
+  <sheetViews>
+    <sheetView showGridLines="0" topLeftCell="A34" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C27" sqref="C27"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.15625" defaultRowHeight="13.8"/>
+  <cols>
+    <col min="1" max="1" width="4" style="79" customWidth="1"/>
+    <col min="2" max="2" width="16.15625" style="80" customWidth="1"/>
+    <col min="3" max="3" width="19" style="80" customWidth="1"/>
+    <col min="4" max="4" width="20.41796875" style="80" customWidth="1"/>
+    <col min="5" max="5" width="16.26171875" style="80" customWidth="1"/>
+    <col min="6" max="6" width="19" style="80" customWidth="1"/>
+    <col min="7" max="7" width="15" style="82" customWidth="1"/>
+    <col min="8" max="8" width="23.578125" style="82" customWidth="1"/>
+    <col min="9" max="9" width="25.41796875" style="82" customWidth="1"/>
+    <col min="10" max="10" width="21" style="82" customWidth="1"/>
+    <col min="11" max="11" width="11.41796875" style="82" customWidth="1"/>
+    <col min="12" max="12" width="17.26171875" style="82" customWidth="1"/>
+    <col min="13" max="13" width="17.26171875" style="80" customWidth="1"/>
+    <col min="14" max="14" width="14.15625" style="80" customWidth="1"/>
+    <col min="15" max="15" width="18.41796875" style="80" customWidth="1"/>
+    <col min="16" max="16384" width="9.15625" style="80"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:12" ht="14.1">
+      <c r="G1" s="81" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" s="84" customFormat="1" ht="25.2">
+      <c r="A2" s="83"/>
+      <c r="C2" s="302" t="s">
+        <v>119</v>
+      </c>
+      <c r="D2" s="302"/>
+      <c r="E2" s="302"/>
+      <c r="F2" s="302"/>
+      <c r="G2" s="302"/>
+      <c r="H2" s="85" t="s">
+        <v>120</v>
+      </c>
+      <c r="I2" s="86"/>
+      <c r="J2" s="86"/>
+      <c r="K2" s="86"/>
+      <c r="L2" s="86"/>
+    </row>
+    <row r="3" spans="1:12" s="84" customFormat="1" ht="22.5">
+      <c r="A3" s="83"/>
+      <c r="C3" s="303" t="s">
+        <v>121</v>
+      </c>
+      <c r="D3" s="303"/>
+      <c r="E3" s="157"/>
+      <c r="F3" s="304" t="s">
+        <v>122</v>
+      </c>
+      <c r="G3" s="304"/>
+      <c r="H3" s="86"/>
+      <c r="I3" s="86"/>
+      <c r="J3" s="87"/>
+      <c r="K3" s="86"/>
+      <c r="L3" s="86"/>
+    </row>
+    <row r="4" spans="1:12">
+      <c r="A4" s="83"/>
+      <c r="D4" s="88"/>
+      <c r="E4" s="88"/>
+      <c r="H4" s="89"/>
+    </row>
+    <row r="5" spans="1:12" s="90" customFormat="1" ht="14.4">
+      <c r="A5" s="83"/>
+      <c r="D5" s="91"/>
+      <c r="E5" s="91"/>
+      <c r="G5" s="92"/>
+      <c r="H5" s="93"/>
+      <c r="I5" s="92"/>
+      <c r="J5" s="92"/>
+      <c r="K5" s="92"/>
+      <c r="L5" s="92"/>
+    </row>
+    <row r="6" spans="1:12" ht="21.75" customHeight="1">
+      <c r="B6" s="305" t="s">
+        <v>123</v>
+      </c>
+      <c r="C6" s="305"/>
+      <c r="D6" s="94"/>
+      <c r="E6" s="94"/>
+      <c r="F6" s="94"/>
+      <c r="G6" s="95"/>
+      <c r="H6" s="95"/>
+    </row>
+    <row r="7" spans="1:12">
+      <c r="B7" s="96" t="s">
+        <v>124</v>
+      </c>
+      <c r="C7" s="97"/>
+      <c r="D7" s="97"/>
+      <c r="E7" s="97"/>
+      <c r="F7" s="97"/>
+      <c r="G7" s="98"/>
+    </row>
+    <row r="8" spans="1:12">
+      <c r="A8" s="99" t="s">
+        <v>58</v>
+      </c>
+      <c r="B8" s="160" t="s">
+        <v>125</v>
+      </c>
+      <c r="C8" s="160" t="s">
+        <v>126</v>
+      </c>
+      <c r="D8" s="160" t="s">
+        <v>127</v>
+      </c>
+      <c r="E8" s="160" t="s">
+        <v>128</v>
+      </c>
+      <c r="F8" s="160" t="s">
+        <v>129</v>
+      </c>
+      <c r="G8" s="160" t="s">
+        <v>130</v>
+      </c>
+      <c r="H8" s="160" t="s">
+        <v>131</v>
+      </c>
+      <c r="I8" s="159" t="s">
+        <v>132</v>
+      </c>
+      <c r="L8" s="80"/>
+    </row>
+    <row r="9" spans="1:12" s="125" customFormat="1" ht="14.1">
+      <c r="A9" s="121"/>
+      <c r="B9" s="122" t="s">
+        <v>133</v>
+      </c>
+      <c r="C9" s="122" t="s">
+        <v>134</v>
+      </c>
+      <c r="D9" s="122" t="s">
+        <v>135</v>
+      </c>
+      <c r="E9" s="122" t="s">
+        <v>136</v>
+      </c>
+      <c r="F9" s="122" t="s">
+        <v>137</v>
+      </c>
+      <c r="G9" s="122" t="s">
+        <v>138</v>
+      </c>
+      <c r="H9" s="122" t="s">
+        <v>139</v>
+      </c>
+      <c r="I9" s="123"/>
+      <c r="J9" s="124"/>
+      <c r="K9" s="124"/>
+    </row>
+    <row r="10" spans="1:12">
+      <c r="A10" s="100">
+        <v>1</v>
+      </c>
+      <c r="B10" s="101" t="s">
+        <v>66</v>
+      </c>
+      <c r="C10" s="101" t="s">
+        <v>140</v>
+      </c>
+      <c r="D10" s="101" t="s">
+        <v>141</v>
+      </c>
+      <c r="E10" s="101" t="s">
+        <v>142</v>
+      </c>
+      <c r="F10" s="101" t="s">
+        <v>143</v>
+      </c>
+      <c r="G10" s="101" t="s">
+        <v>144</v>
+      </c>
+      <c r="H10" s="101" t="s">
+        <v>144</v>
+      </c>
+      <c r="I10" s="102"/>
+      <c r="L10" s="80"/>
+    </row>
+    <row r="11" spans="1:12" ht="20.25" customHeight="1">
+      <c r="A11" s="100">
+        <v>2</v>
+      </c>
+      <c r="B11" s="101" t="s">
+        <v>67</v>
+      </c>
+      <c r="C11" s="101" t="s">
+        <v>145</v>
+      </c>
+      <c r="D11" s="101" t="s">
+        <v>146</v>
+      </c>
+      <c r="E11" s="101" t="s">
+        <v>147</v>
+      </c>
+      <c r="F11" s="101" t="s">
+        <v>143</v>
+      </c>
+      <c r="G11" s="101" t="s">
+        <v>144</v>
+      </c>
+      <c r="H11" s="101" t="s">
+        <v>148</v>
+      </c>
+      <c r="I11" s="102" t="s">
+        <v>149</v>
+      </c>
+      <c r="L11" s="80"/>
+    </row>
+    <row r="12" spans="1:12" ht="20.25" customHeight="1">
+      <c r="A12" s="100">
+        <v>3</v>
+      </c>
+      <c r="B12" s="101" t="s">
+        <v>150</v>
+      </c>
+      <c r="C12" s="101" t="s">
+        <v>151</v>
+      </c>
+      <c r="D12" s="101" t="s">
+        <v>146</v>
+      </c>
+      <c r="E12" s="101" t="s">
+        <v>142</v>
+      </c>
+      <c r="F12" s="101" t="s">
+        <v>152</v>
+      </c>
+      <c r="G12" s="101" t="s">
+        <v>144</v>
+      </c>
+      <c r="H12" s="101" t="s">
+        <v>144</v>
+      </c>
+      <c r="I12" s="102"/>
+      <c r="L12" s="80"/>
+    </row>
+    <row r="13" spans="1:12" ht="15" customHeight="1">
+      <c r="B13" s="103"/>
+      <c r="C13" s="97"/>
+      <c r="D13" s="97"/>
+      <c r="E13" s="97"/>
+      <c r="F13" s="97"/>
+      <c r="G13" s="98"/>
+    </row>
+    <row r="14" spans="1:12" ht="21.75" customHeight="1">
+      <c r="B14" s="305" t="s">
+        <v>153</v>
+      </c>
+      <c r="C14" s="305"/>
+      <c r="D14" s="305"/>
+      <c r="E14" s="94"/>
+      <c r="F14" s="94"/>
+      <c r="G14" s="95"/>
+      <c r="H14" s="95"/>
+    </row>
+    <row r="15" spans="1:12">
+      <c r="B15" s="96" t="s">
+        <v>154</v>
+      </c>
+      <c r="C15" s="97"/>
+      <c r="D15" s="97"/>
+      <c r="E15" s="97"/>
+      <c r="F15" s="97"/>
+      <c r="G15" s="98"/>
+    </row>
+    <row r="16" spans="1:12" ht="31.5" customHeight="1">
+      <c r="A16" s="99" t="s">
+        <v>58</v>
+      </c>
+      <c r="B16" s="160" t="s">
+        <v>155</v>
+      </c>
+      <c r="C16" s="160" t="s">
+        <v>41</v>
+      </c>
+      <c r="D16" s="160" t="s">
+        <v>43</v>
+      </c>
+      <c r="E16" s="160" t="s">
+        <v>148</v>
+      </c>
+      <c r="F16" s="160" t="s">
+        <v>45</v>
+      </c>
+      <c r="G16" s="160" t="s">
+        <v>156</v>
+      </c>
+      <c r="L16" s="80"/>
+    </row>
+    <row r="17" spans="1:12" s="125" customFormat="1" ht="37.799999999999997">
+      <c r="A17" s="121"/>
+      <c r="B17" s="122" t="s">
+        <v>133</v>
+      </c>
+      <c r="C17" s="126" t="s">
+        <v>157</v>
+      </c>
+      <c r="D17" s="126" t="s">
+        <v>158</v>
+      </c>
+      <c r="E17" s="126" t="s">
+        <v>159</v>
+      </c>
+      <c r="F17" s="126" t="s">
+        <v>160</v>
+      </c>
+      <c r="G17" s="126" t="s">
+        <v>161</v>
+      </c>
+      <c r="H17" s="124"/>
+      <c r="I17" s="124"/>
+      <c r="J17" s="124"/>
+      <c r="K17" s="124"/>
+    </row>
+    <row r="18" spans="1:12">
+      <c r="A18" s="100">
+        <v>1</v>
+      </c>
+      <c r="B18" s="101" t="s">
+        <v>66</v>
+      </c>
+      <c r="C18" s="104">
+        <f>'Assignment 1 '!D11</f>
+        <v>0</v>
+      </c>
+      <c r="D18" s="104">
+        <f>'Assignment 1 '!D12</f>
+        <v>0</v>
+      </c>
+      <c r="E18" s="104">
+        <f>'Assignment 1 '!D14</f>
+        <v>0</v>
+      </c>
+      <c r="F18" s="104">
+        <f>'Assignment 1 '!D13</f>
+        <v>0</v>
+      </c>
+      <c r="G18" s="104">
+        <f>'Assignment 1 '!D15</f>
+        <v>0</v>
+      </c>
+      <c r="L18" s="80"/>
+    </row>
+    <row r="19" spans="1:12" ht="20.25" customHeight="1">
+      <c r="A19" s="100">
+        <v>2</v>
+      </c>
+      <c r="B19" s="101" t="s">
+        <v>150</v>
+      </c>
+      <c r="C19" s="104">
+        <f>'Assignment 3 '!D11</f>
+        <v>0</v>
+      </c>
+      <c r="D19" s="104">
+        <f>'Assignment 3 '!D12</f>
+        <v>0</v>
+      </c>
+      <c r="E19" s="104">
+        <f>'Assignment 3 '!D14</f>
+        <v>0</v>
+      </c>
+      <c r="F19" s="104">
+        <f>'Assignment 3 '!D13</f>
+        <v>0</v>
+      </c>
+      <c r="G19" s="104">
+        <f>'Assignment 3 '!D15</f>
+        <v>0</v>
+      </c>
+      <c r="L19" s="80"/>
+    </row>
+    <row r="20" spans="1:12" ht="20.25" customHeight="1">
+      <c r="A20" s="100">
+        <v>3</v>
+      </c>
+      <c r="B20" s="101" t="s">
+        <v>103</v>
+      </c>
+      <c r="C20" s="104">
+        <f>SUM(C18:C19)</f>
+        <v>0</v>
+      </c>
+      <c r="D20" s="104">
+        <f>SUM(D18:D19)</f>
+        <v>0</v>
+      </c>
+      <c r="E20" s="104">
+        <f>SUM(E18:E19)</f>
+        <v>0</v>
+      </c>
+      <c r="F20" s="104">
+        <f>SUM(F18:F19)</f>
+        <v>0</v>
+      </c>
+      <c r="G20" s="104">
+        <f>SUM(G18:G19)</f>
+        <v>0</v>
+      </c>
+      <c r="L20" s="80"/>
+    </row>
+    <row r="21" spans="1:12" ht="20.25" customHeight="1">
+      <c r="A21" s="106"/>
+      <c r="B21" s="107"/>
+      <c r="C21" s="120" t="s">
+        <v>162</v>
+      </c>
+      <c r="D21" s="119" t="e">
+        <f>SUM(C20,D20,G20)/SUM(C20:G20)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="E21" s="108"/>
+      <c r="F21" s="108"/>
+      <c r="G21" s="108"/>
+      <c r="L21" s="80"/>
+    </row>
+    <row r="22" spans="1:12">
+      <c r="B22" s="103"/>
+      <c r="C22" s="97"/>
+      <c r="D22" s="97"/>
+      <c r="E22" s="97"/>
+      <c r="F22" s="97"/>
+      <c r="G22" s="98"/>
+    </row>
+    <row r="23" spans="1:12" ht="21.75" customHeight="1">
+      <c r="B23" s="305" t="s">
+        <v>163</v>
+      </c>
+      <c r="C23" s="305"/>
+      <c r="D23" s="305"/>
+      <c r="E23" s="94"/>
+      <c r="F23" s="94"/>
+      <c r="G23" s="95"/>
+      <c r="H23" s="95"/>
+    </row>
+    <row r="24" spans="1:12" ht="21.75" customHeight="1">
+      <c r="B24" s="96" t="s">
+        <v>164</v>
+      </c>
+      <c r="C24" s="158"/>
+      <c r="D24" s="158"/>
+      <c r="E24" s="94"/>
+      <c r="F24" s="94"/>
+      <c r="G24" s="95"/>
+      <c r="H24" s="95"/>
+    </row>
+    <row r="25" spans="1:12" ht="14.4">
+      <c r="B25" s="105" t="s">
+        <v>165</v>
+      </c>
+      <c r="C25" s="97"/>
+      <c r="D25" s="97"/>
+      <c r="E25" s="97"/>
+      <c r="F25" s="97"/>
+      <c r="G25" s="98"/>
+    </row>
+    <row r="26" spans="1:12" ht="18.75" customHeight="1">
+      <c r="A26" s="99" t="s">
+        <v>58</v>
+      </c>
+      <c r="B26" s="160" t="s">
+        <v>166</v>
+      </c>
+      <c r="C26" s="160" t="s">
+        <v>167</v>
+      </c>
+      <c r="D26" s="160" t="s">
+        <v>168</v>
+      </c>
+      <c r="E26" s="160" t="s">
+        <v>169</v>
+      </c>
+      <c r="F26" s="160" t="s">
+        <v>170</v>
+      </c>
+      <c r="G26" s="306" t="s">
+        <v>114</v>
+      </c>
+      <c r="H26" s="307"/>
+    </row>
+    <row r="27" spans="1:12">
+      <c r="A27" s="100">
+        <v>1</v>
+      </c>
+      <c r="B27" s="101" t="s">
+        <v>171</v>
+      </c>
+      <c r="C27" s="104" t="e">
+        <f>COUNTIFS(#REF!, "*Critical*",#REF!,"*Open*")</f>
+        <v>#REF!</v>
+      </c>
+      <c r="D27" s="104" t="e">
+        <f>COUNTIFS(#REF!, "*Critical*",#REF!,"*Resolved*")</f>
+        <v>#REF!</v>
+      </c>
+      <c r="E27" s="104" t="e">
+        <f>COUNTIFS(#REF!, "*Critical*",#REF!,"*Reopened*")</f>
+        <v>#REF!</v>
+      </c>
+      <c r="F27" s="104" t="e">
+        <f>COUNTIFS(#REF!, "*Critical*",#REF!,"*Closed*") + COUNTIFS(#REF!, "*Critical*",#REF!,"*Ready for client test*")</f>
+        <v>#REF!</v>
+      </c>
+      <c r="G27" s="300"/>
+      <c r="H27" s="301"/>
+    </row>
+    <row r="28" spans="1:12" ht="20.25" customHeight="1">
+      <c r="A28" s="100">
+        <v>2</v>
+      </c>
+      <c r="B28" s="101" t="s">
+        <v>172</v>
+      </c>
+      <c r="C28" s="104" t="e">
+        <f>COUNTIFS(#REF!, "*Major*",#REF!,"*Open*")</f>
+        <v>#REF!</v>
+      </c>
+      <c r="D28" s="104" t="e">
+        <f>COUNTIFS(#REF!, "*Major*",#REF!,"*Resolved*")</f>
+        <v>#REF!</v>
+      </c>
+      <c r="E28" s="104" t="e">
+        <f>COUNTIFS(#REF!, "*Major*",#REF!,"*Reopened*")</f>
+        <v>#REF!</v>
+      </c>
+      <c r="F28" s="104" t="e">
+        <f>COUNTIFS(#REF!, "*Major*",#REF!,"*Closed*") + COUNTIFS(#REF!, "*Major*",#REF!,"*Ready for client test*")</f>
+        <v>#REF!</v>
+      </c>
+      <c r="G28" s="300"/>
+      <c r="H28" s="301"/>
+    </row>
+    <row r="29" spans="1:12" ht="20.25" customHeight="1">
+      <c r="A29" s="100">
+        <v>3</v>
+      </c>
+      <c r="B29" s="101" t="s">
+        <v>173</v>
+      </c>
+      <c r="C29" s="104" t="e">
+        <f>COUNTIFS(#REF!, "*Normal*",#REF!,"*Open*")</f>
+        <v>#REF!</v>
+      </c>
+      <c r="D29" s="104" t="e">
+        <f>COUNTIFS(#REF!, "*Normal*",#REF!,"*Resolved*")</f>
+        <v>#REF!</v>
+      </c>
+      <c r="E29" s="104" t="e">
+        <f>COUNTIFS(#REF!, "*Normal*",#REF!,"*Reopened*")</f>
+        <v>#REF!</v>
+      </c>
+      <c r="F29" s="104" t="e">
+        <f>COUNTIFS(#REF!, "*Normal*",#REF!,"*Closed*") + COUNTIFS(#REF!, "*Normal*",#REF!,"*Ready for client test*")</f>
+        <v>#REF!</v>
+      </c>
+      <c r="G29" s="300"/>
+      <c r="H29" s="301"/>
+    </row>
+    <row r="30" spans="1:12" ht="20.25" customHeight="1">
+      <c r="A30" s="100">
+        <v>4</v>
+      </c>
+      <c r="B30" s="101" t="s">
+        <v>174</v>
+      </c>
+      <c r="C30" s="104" t="e">
+        <f>COUNTIFS(#REF!, "*Minor*",#REF!,"*Open*")</f>
+        <v>#REF!</v>
+      </c>
+      <c r="D30" s="104" t="e">
+        <f>COUNTIFS(#REF!, "*Minor*",#REF!,"*Resolved*")</f>
+        <v>#REF!</v>
+      </c>
+      <c r="E30" s="104" t="e">
+        <f>COUNTIFS(#REF!, "*Minor*",#REF!,"*Reopened*")</f>
+        <v>#REF!</v>
+      </c>
+      <c r="F30" s="104" t="e">
+        <f>COUNTIFS(#REF!, "*Minor*",#REF!,"*Closed*") + COUNTIFS(#REF!, "*Minor*",#REF!,"*Ready for client test*")</f>
+        <v>#REF!</v>
+      </c>
+      <c r="G30" s="300"/>
+      <c r="H30" s="301"/>
+    </row>
+    <row r="31" spans="1:12" ht="20.25" customHeight="1">
+      <c r="A31" s="100"/>
+      <c r="B31" s="99" t="s">
+        <v>103</v>
+      </c>
+      <c r="C31" s="99" t="e">
+        <f>SUM(C27:C30)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="D31" s="99">
+        <v>0</v>
+      </c>
+      <c r="E31" s="99">
+        <v>0</v>
+      </c>
+      <c r="F31" s="99" t="e">
+        <f>SUM(F27:F30)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="G31" s="300"/>
+      <c r="H31" s="301"/>
+    </row>
+    <row r="32" spans="1:12" ht="20.25" customHeight="1">
+      <c r="A32" s="106"/>
+      <c r="B32" s="107"/>
+      <c r="C32" s="108"/>
+      <c r="D32" s="108"/>
+      <c r="E32" s="108"/>
+      <c r="F32" s="108"/>
+      <c r="G32" s="108"/>
+      <c r="H32" s="108"/>
+    </row>
+    <row r="33" spans="1:12" ht="14.4">
+      <c r="B33" s="105" t="s">
+        <v>175</v>
+      </c>
+      <c r="C33" s="97"/>
+      <c r="D33" s="97"/>
+      <c r="E33" s="97"/>
+      <c r="F33" s="97"/>
+      <c r="G33" s="98"/>
+    </row>
+    <row r="34" spans="1:12" ht="18.75" customHeight="1">
+      <c r="A34" s="99" t="s">
+        <v>58</v>
+      </c>
+      <c r="B34" s="160" t="s">
+        <v>176</v>
+      </c>
+      <c r="C34" s="160" t="s">
+        <v>177</v>
+      </c>
+      <c r="D34" s="160" t="s">
+        <v>178</v>
+      </c>
+      <c r="E34" s="160" t="s">
+        <v>129</v>
+      </c>
+      <c r="F34" s="308" t="s">
+        <v>132</v>
+      </c>
+      <c r="G34" s="309"/>
+    </row>
+    <row r="35" spans="1:12" s="125" customFormat="1" ht="14.1">
+      <c r="A35" s="121"/>
+      <c r="B35" s="122" t="s">
+        <v>179</v>
+      </c>
+      <c r="C35" s="126" t="s">
+        <v>180</v>
+      </c>
+      <c r="D35" s="126" t="s">
+        <v>181</v>
+      </c>
+      <c r="E35" s="126" t="s">
+        <v>137</v>
+      </c>
+      <c r="F35" s="311"/>
+      <c r="G35" s="312"/>
+      <c r="H35" s="124"/>
+      <c r="I35" s="124"/>
+      <c r="J35" s="124"/>
+      <c r="K35" s="124"/>
+      <c r="L35" s="124"/>
+    </row>
+    <row r="36" spans="1:12">
+      <c r="A36" s="100">
+        <v>1</v>
+      </c>
+      <c r="B36" s="101" t="s">
+        <v>117</v>
+      </c>
+      <c r="C36" s="104" t="s">
+        <v>182</v>
+      </c>
+      <c r="D36" s="104" t="s">
+        <v>174</v>
+      </c>
+      <c r="E36" s="104" t="s">
+        <v>143</v>
+      </c>
+      <c r="F36" s="300"/>
+      <c r="G36" s="301"/>
+    </row>
+    <row r="37" spans="1:12" ht="20.25" customHeight="1">
+      <c r="A37" s="100">
+        <v>2</v>
+      </c>
+      <c r="B37" s="101" t="s">
+        <v>115</v>
+      </c>
+      <c r="C37" s="104" t="s">
+        <v>183</v>
+      </c>
+      <c r="D37" s="104" t="s">
+        <v>174</v>
+      </c>
+      <c r="E37" s="104" t="s">
+        <v>143</v>
+      </c>
+      <c r="F37" s="300"/>
+      <c r="G37" s="301"/>
+    </row>
+    <row r="38" spans="1:12" ht="20.25" customHeight="1">
+      <c r="A38" s="106"/>
+      <c r="B38" s="107"/>
+      <c r="C38" s="108"/>
+      <c r="D38" s="108"/>
+      <c r="E38" s="108"/>
+      <c r="F38" s="108"/>
+      <c r="G38" s="108"/>
+      <c r="H38" s="108"/>
+    </row>
+    <row r="39" spans="1:12" ht="21.75" customHeight="1">
+      <c r="B39" s="305" t="s">
+        <v>184</v>
+      </c>
+      <c r="C39" s="305"/>
+      <c r="D39" s="94"/>
+      <c r="E39" s="94"/>
+      <c r="F39" s="94"/>
+      <c r="G39" s="95"/>
+      <c r="H39" s="95"/>
+    </row>
+    <row r="40" spans="1:12">
+      <c r="B40" s="96" t="s">
+        <v>185</v>
+      </c>
+      <c r="C40" s="97"/>
+      <c r="D40" s="97"/>
+      <c r="E40" s="97"/>
+      <c r="F40" s="97"/>
+      <c r="G40" s="98"/>
+    </row>
+    <row r="41" spans="1:12" ht="18.75" customHeight="1">
+      <c r="A41" s="99" t="s">
+        <v>58</v>
+      </c>
+      <c r="B41" s="160" t="s">
+        <v>62</v>
+      </c>
+      <c r="C41" s="310" t="s">
+        <v>186</v>
+      </c>
+      <c r="D41" s="310"/>
+      <c r="E41" s="310" t="s">
+        <v>187</v>
+      </c>
+      <c r="F41" s="310"/>
+      <c r="G41" s="310"/>
+      <c r="H41" s="99" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="42" spans="1:12" ht="34.5" customHeight="1">
+      <c r="A42" s="100">
+        <v>1</v>
+      </c>
+      <c r="B42" s="161" t="s">
+        <v>189</v>
+      </c>
+      <c r="C42" s="313" t="s">
+        <v>190</v>
+      </c>
+      <c r="D42" s="313"/>
+      <c r="E42" s="313" t="s">
+        <v>191</v>
+      </c>
+      <c r="F42" s="313"/>
+      <c r="G42" s="313"/>
+      <c r="H42" s="109"/>
+    </row>
+    <row r="43" spans="1:12" ht="34.5" customHeight="1">
+      <c r="A43" s="100">
+        <v>2</v>
+      </c>
+      <c r="B43" s="161" t="s">
+        <v>189</v>
+      </c>
+      <c r="C43" s="313" t="s">
+        <v>190</v>
+      </c>
+      <c r="D43" s="313"/>
+      <c r="E43" s="313" t="s">
+        <v>191</v>
+      </c>
+      <c r="F43" s="313"/>
+      <c r="G43" s="313"/>
+      <c r="H43" s="109"/>
+    </row>
+    <row r="44" spans="1:12" ht="34.5" customHeight="1">
+      <c r="A44" s="100">
+        <v>3</v>
+      </c>
+      <c r="B44" s="161" t="s">
+        <v>189</v>
+      </c>
+      <c r="C44" s="313" t="s">
+        <v>190</v>
+      </c>
+      <c r="D44" s="313"/>
+      <c r="E44" s="313" t="s">
+        <v>191</v>
+      </c>
+      <c r="F44" s="313"/>
+      <c r="G44" s="313"/>
+      <c r="H44" s="109"/>
+    </row>
+    <row r="45" spans="1:12">
+      <c r="B45" s="110"/>
+      <c r="C45" s="110"/>
+      <c r="D45" s="110"/>
+      <c r="E45" s="111"/>
+      <c r="F45" s="97"/>
+      <c r="G45" s="98"/>
+    </row>
+    <row r="46" spans="1:12" ht="21.75" customHeight="1">
+      <c r="B46" s="305" t="s">
+        <v>192</v>
+      </c>
+      <c r="C46" s="305"/>
+      <c r="D46" s="94"/>
+      <c r="E46" s="94"/>
+      <c r="F46" s="94"/>
+      <c r="G46" s="95"/>
+      <c r="H46" s="95"/>
+    </row>
+    <row r="47" spans="1:12">
+      <c r="B47" s="96" t="s">
+        <v>193</v>
+      </c>
+      <c r="C47" s="110"/>
+      <c r="D47" s="110"/>
+      <c r="E47" s="111"/>
+      <c r="F47" s="97"/>
+      <c r="G47" s="98"/>
+    </row>
+    <row r="48" spans="1:12" s="113" customFormat="1" ht="21" customHeight="1">
+      <c r="A48" s="316" t="s">
+        <v>58</v>
+      </c>
+      <c r="B48" s="318" t="s">
+        <v>194</v>
+      </c>
+      <c r="C48" s="308" t="s">
+        <v>195</v>
+      </c>
+      <c r="D48" s="320"/>
+      <c r="E48" s="320"/>
+      <c r="F48" s="309"/>
+      <c r="G48" s="321" t="s">
+        <v>162</v>
+      </c>
+      <c r="H48" s="321" t="s">
+        <v>194</v>
+      </c>
+      <c r="I48" s="314" t="s">
+        <v>196</v>
+      </c>
+      <c r="J48" s="112"/>
+      <c r="K48" s="112"/>
+      <c r="L48" s="112"/>
+    </row>
+    <row r="49" spans="1:9">
+      <c r="A49" s="317"/>
+      <c r="B49" s="319"/>
+      <c r="C49" s="114" t="s">
+        <v>171</v>
+      </c>
+      <c r="D49" s="114" t="s">
+        <v>172</v>
+      </c>
+      <c r="E49" s="115" t="s">
+        <v>173</v>
+      </c>
+      <c r="F49" s="115" t="s">
+        <v>174</v>
+      </c>
+      <c r="G49" s="322"/>
+      <c r="H49" s="322"/>
+      <c r="I49" s="315"/>
+    </row>
+    <row r="50" spans="1:9" ht="25.2">
+      <c r="A50" s="317"/>
+      <c r="B50" s="319"/>
+      <c r="C50" s="128" t="s">
+        <v>197</v>
+      </c>
+      <c r="D50" s="128" t="s">
+        <v>198</v>
+      </c>
+      <c r="E50" s="128" t="s">
+        <v>199</v>
+      </c>
+      <c r="F50" s="128" t="s">
+        <v>200</v>
+      </c>
+      <c r="G50" s="127" t="s">
+        <v>201</v>
+      </c>
+      <c r="H50" s="127" t="s">
+        <v>202</v>
+      </c>
+      <c r="I50" s="127" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9" ht="25.2">
+      <c r="A51" s="100">
+        <v>1</v>
+      </c>
+      <c r="B51" s="121" t="s">
+        <v>203</v>
+      </c>
+      <c r="C51" s="128" t="s">
+        <v>197</v>
+      </c>
+      <c r="D51" s="128" t="s">
+        <v>198</v>
+      </c>
+      <c r="E51" s="128" t="s">
+        <v>199</v>
+      </c>
+      <c r="F51" s="128" t="s">
+        <v>200</v>
+      </c>
+      <c r="G51" s="116" t="s">
+        <v>201</v>
+      </c>
+      <c r="H51" s="116" t="s">
+        <v>202</v>
+      </c>
+      <c r="I51" s="116" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9">
+      <c r="A52" s="100">
+        <v>2</v>
+      </c>
+      <c r="B52" s="100" t="s">
+        <v>65</v>
+      </c>
+      <c r="C52" s="116">
+        <v>0</v>
+      </c>
+      <c r="D52" s="116">
+        <v>0</v>
+      </c>
+      <c r="E52" s="116">
+        <v>0</v>
+      </c>
+      <c r="F52" s="116" t="e">
+        <f>SUM(C31:E31)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="G52" s="129" t="e">
+        <f>D21</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H52" s="116" t="s">
+        <v>202</v>
+      </c>
+      <c r="I52" s="116" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9" ht="18.75" customHeight="1">
+      <c r="B53" s="117"/>
+    </row>
+    <row r="54" spans="1:9">
+      <c r="B54" s="118"/>
+    </row>
+    <row r="55" spans="1:9">
+      <c r="B55" s="118"/>
+    </row>
+    <row r="56" spans="1:9">
+      <c r="B56" s="118"/>
+    </row>
+    <row r="57" spans="1:9">
+      <c r="B57" s="118"/>
+    </row>
+    <row r="58" spans="1:9">
+      <c r="B58" s="118"/>
+    </row>
+    <row r="59" spans="1:9">
+      <c r="B59" s="118"/>
+    </row>
+    <row r="60" spans="1:9">
+      <c r="B60" s="118"/>
+    </row>
+    <row r="61" spans="1:9">
+      <c r="B61" s="118"/>
+    </row>
+  </sheetData>
+  <mergeCells count="32">
+    <mergeCell ref="I48:I49"/>
+    <mergeCell ref="B46:C46"/>
+    <mergeCell ref="A48:A50"/>
+    <mergeCell ref="B48:B50"/>
+    <mergeCell ref="C48:F48"/>
+    <mergeCell ref="G48:G49"/>
+    <mergeCell ref="H48:H49"/>
+    <mergeCell ref="C42:D42"/>
+    <mergeCell ref="E42:G42"/>
+    <mergeCell ref="C43:D43"/>
+    <mergeCell ref="E43:G43"/>
+    <mergeCell ref="C44:D44"/>
+    <mergeCell ref="E44:G44"/>
+    <mergeCell ref="F34:G34"/>
+    <mergeCell ref="F36:G36"/>
+    <mergeCell ref="F37:G37"/>
+    <mergeCell ref="B39:C39"/>
+    <mergeCell ref="C41:D41"/>
+    <mergeCell ref="E41:G41"/>
+    <mergeCell ref="F35:G35"/>
+    <mergeCell ref="G31:H31"/>
+    <mergeCell ref="C2:G2"/>
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="F3:G3"/>
+    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="B14:D14"/>
+    <mergeCell ref="B23:D23"/>
+    <mergeCell ref="G26:H26"/>
+    <mergeCell ref="G27:H27"/>
+    <mergeCell ref="G28:H28"/>
+    <mergeCell ref="G29:H29"/>
+    <mergeCell ref="G30:H30"/>
+  </mergeCells>
+  <conditionalFormatting sqref="H51">
+    <cfRule type="cellIs" dxfId="5" priority="5" operator="equal">
+      <formula>"FAIL"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="4" priority="6" operator="equal">
+      <formula>"PASS"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I51:I52">
+    <cfRule type="cellIs" dxfId="3" priority="3" operator="equal">
+      <formula>"FAIL"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="2" priority="4" operator="equal">
+      <formula>"PASS"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H52">
+    <cfRule type="cellIs" dxfId="1" priority="1" operator="equal">
+      <formula>"FAIL"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="0" priority="2" operator="equal">
+      <formula>"PASS"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <dataValidations count="1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H51:I52">
+      <formula1>"PASS,FAIL"</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N33"/>
@@ -7654,7 +8949,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K20"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0"/>
+    <sheetView showGridLines="0" topLeftCell="A16" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.15625" defaultRowHeight="12.3"/>
   <cols>
@@ -14119,8 +15414,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I115"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A65" workbookViewId="0">
-      <selection activeCell="E70" sqref="E70"/>
+    <sheetView topLeftCell="A93" workbookViewId="0">
+      <selection activeCell="D97" sqref="D97"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -15929,7 +17224,7 @@
     </row>
     <row r="95" spans="1:9" ht="73.8">
       <c r="A95" s="58">
-        <f t="shared" ref="A95:A96" ca="1" si="5">IF(OFFSET(A95,-1,0) ="",OFFSET(A95,-2,0)+1,OFFSET(A95,-1,0)+1 )</f>
+        <f t="shared" ref="A95:A97" ca="1" si="5">IF(OFFSET(A95,-1,0) ="",OFFSET(A95,-2,0)+1,OFFSET(A95,-1,0)+1 )</f>
         <v>71</v>
       </c>
       <c r="B95" s="209" t="s">
@@ -15967,11 +17262,20 @@
       <c r="H96" s="209"/>
       <c r="I96" s="62"/>
     </row>
-    <row r="97" spans="1:9">
-      <c r="A97" s="62"/>
-      <c r="B97" s="209"/>
-      <c r="C97" s="209"/>
-      <c r="D97" s="207"/>
+    <row r="97" spans="1:9" ht="61.5">
+      <c r="A97" s="58">
+        <f t="shared" ca="1" si="5"/>
+        <v>73</v>
+      </c>
+      <c r="B97" s="209" t="s">
+        <v>789</v>
+      </c>
+      <c r="C97" s="209" t="s">
+        <v>790</v>
+      </c>
+      <c r="D97" s="207" t="s">
+        <v>791</v>
+      </c>
       <c r="E97" s="54"/>
       <c r="F97" s="209"/>
       <c r="G97" s="209"/>
@@ -16210,1089 +17514,1497 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr>
-    <tabColor rgb="FF00B050"/>
-  </sheetPr>
-  <dimension ref="A1:L61"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:I114"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A34" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C27" sqref="C27"/>
+    <sheetView tabSelected="1" topLeftCell="A21" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="A22" sqref="A22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.15625" defaultRowHeight="13.8"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="4" style="79" customWidth="1"/>
-    <col min="2" max="2" width="16.15625" style="80" customWidth="1"/>
-    <col min="3" max="3" width="19" style="80" customWidth="1"/>
-    <col min="4" max="4" width="20.41796875" style="80" customWidth="1"/>
-    <col min="5" max="5" width="16.26171875" style="80" customWidth="1"/>
-    <col min="6" max="6" width="19" style="80" customWidth="1"/>
-    <col min="7" max="7" width="15" style="82" customWidth="1"/>
-    <col min="8" max="8" width="23.578125" style="82" customWidth="1"/>
-    <col min="9" max="9" width="25.41796875" style="82" customWidth="1"/>
-    <col min="10" max="10" width="21" style="82" customWidth="1"/>
-    <col min="11" max="11" width="11.41796875" style="82" customWidth="1"/>
-    <col min="12" max="12" width="17.26171875" style="82" customWidth="1"/>
-    <col min="13" max="13" width="17.26171875" style="80" customWidth="1"/>
-    <col min="14" max="14" width="14.15625" style="80" customWidth="1"/>
-    <col min="15" max="15" width="18.41796875" style="80" customWidth="1"/>
-    <col min="16" max="16384" width="9.15625" style="80"/>
+    <col min="1" max="1" width="14.62890625" customWidth="1"/>
+    <col min="2" max="2" width="23" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="29.734375" customWidth="1"/>
+    <col min="4" max="4" width="47.83984375" customWidth="1"/>
+    <col min="5" max="5" width="20.3125" customWidth="1"/>
+    <col min="6" max="8" width="8.26171875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="21.68359375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="14.1">
-      <c r="G1" s="81" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="2" spans="1:12" s="84" customFormat="1" ht="25.2">
-      <c r="A2" s="83"/>
-      <c r="C2" s="302" t="s">
-        <v>119</v>
-      </c>
-      <c r="D2" s="302"/>
-      <c r="E2" s="302"/>
-      <c r="F2" s="302"/>
-      <c r="G2" s="302"/>
-      <c r="H2" s="85" t="s">
-        <v>120</v>
-      </c>
-      <c r="I2" s="86"/>
-      <c r="J2" s="86"/>
-      <c r="K2" s="86"/>
-      <c r="L2" s="86"/>
-    </row>
-    <row r="3" spans="1:12" s="84" customFormat="1" ht="22.5">
-      <c r="A3" s="83"/>
-      <c r="C3" s="303" t="s">
-        <v>121</v>
-      </c>
-      <c r="D3" s="303"/>
-      <c r="E3" s="157"/>
-      <c r="F3" s="304" t="s">
-        <v>122</v>
-      </c>
-      <c r="G3" s="304"/>
-      <c r="H3" s="86"/>
-      <c r="I3" s="86"/>
-      <c r="J3" s="87"/>
-      <c r="K3" s="86"/>
-      <c r="L3" s="86"/>
-    </row>
-    <row r="4" spans="1:12">
-      <c r="A4" s="83"/>
-      <c r="D4" s="88"/>
-      <c r="E4" s="88"/>
-      <c r="H4" s="89"/>
-    </row>
-    <row r="5" spans="1:12" s="90" customFormat="1" ht="14.4">
-      <c r="A5" s="83"/>
-      <c r="D5" s="91"/>
-      <c r="E5" s="91"/>
-      <c r="G5" s="92"/>
-      <c r="H5" s="93"/>
-      <c r="I5" s="92"/>
-      <c r="J5" s="92"/>
-      <c r="K5" s="92"/>
-      <c r="L5" s="92"/>
-    </row>
-    <row r="6" spans="1:12" ht="21.75" customHeight="1">
-      <c r="B6" s="305" t="s">
-        <v>123</v>
-      </c>
-      <c r="C6" s="305"/>
-      <c r="D6" s="94"/>
-      <c r="E6" s="94"/>
-      <c r="F6" s="94"/>
-      <c r="G6" s="95"/>
-      <c r="H6" s="95"/>
-    </row>
-    <row r="7" spans="1:12">
-      <c r="B7" s="96" t="s">
-        <v>124</v>
-      </c>
-      <c r="C7" s="97"/>
-      <c r="D7" s="97"/>
-      <c r="E7" s="97"/>
-      <c r="F7" s="97"/>
-      <c r="G7" s="98"/>
-    </row>
-    <row r="8" spans="1:12">
-      <c r="A8" s="99" t="s">
-        <v>58</v>
-      </c>
-      <c r="B8" s="160" t="s">
-        <v>125</v>
-      </c>
-      <c r="C8" s="160" t="s">
-        <v>126</v>
-      </c>
-      <c r="D8" s="160" t="s">
-        <v>127</v>
-      </c>
-      <c r="E8" s="160" t="s">
-        <v>128</v>
-      </c>
-      <c r="F8" s="160" t="s">
-        <v>129</v>
-      </c>
-      <c r="G8" s="160" t="s">
-        <v>130</v>
-      </c>
-      <c r="H8" s="160" t="s">
-        <v>131</v>
-      </c>
-      <c r="I8" s="159" t="s">
-        <v>132</v>
-      </c>
-      <c r="L8" s="80"/>
-    </row>
-    <row r="9" spans="1:12" s="125" customFormat="1" ht="14.1">
-      <c r="A9" s="121"/>
-      <c r="B9" s="122" t="s">
-        <v>133</v>
-      </c>
-      <c r="C9" s="122" t="s">
-        <v>134</v>
-      </c>
-      <c r="D9" s="122" t="s">
-        <v>135</v>
-      </c>
-      <c r="E9" s="122" t="s">
-        <v>136</v>
-      </c>
-      <c r="F9" s="122" t="s">
-        <v>137</v>
-      </c>
-      <c r="G9" s="122" t="s">
-        <v>138</v>
-      </c>
-      <c r="H9" s="122" t="s">
-        <v>139</v>
-      </c>
-      <c r="I9" s="123"/>
-      <c r="J9" s="124"/>
-      <c r="K9" s="124"/>
-    </row>
-    <row r="10" spans="1:12">
-      <c r="A10" s="100">
+    <row r="1" spans="1:9">
+      <c r="A1" s="139" t="s">
+        <v>67</v>
+      </c>
+      <c r="B1" s="248" t="s">
+        <v>116</v>
+      </c>
+      <c r="C1" s="248"/>
+      <c r="D1" s="248"/>
+      <c r="E1" s="39"/>
+      <c r="F1" s="39"/>
+      <c r="G1" s="39"/>
+      <c r="H1" s="40"/>
+      <c r="I1" s="40"/>
+    </row>
+    <row r="2" spans="1:9">
+      <c r="A2" s="139" t="s">
+        <v>62</v>
+      </c>
+      <c r="B2" s="247" t="s">
+        <v>95</v>
+      </c>
+      <c r="C2" s="248"/>
+      <c r="D2" s="248"/>
+      <c r="E2" s="39"/>
+      <c r="F2" s="39"/>
+      <c r="G2" s="39"/>
+      <c r="H2" s="40"/>
+      <c r="I2" s="40"/>
+    </row>
+    <row r="3" spans="1:9">
+      <c r="A3" s="139" t="s">
+        <v>97</v>
+      </c>
+      <c r="B3" s="247" t="s">
+        <v>98</v>
+      </c>
+      <c r="C3" s="248"/>
+      <c r="D3" s="248"/>
+      <c r="E3" s="39"/>
+      <c r="F3" s="39"/>
+      <c r="G3" s="39"/>
+      <c r="H3" s="40"/>
+      <c r="I3" s="40"/>
+    </row>
+    <row r="4" spans="1:9">
+      <c r="A4" s="139" t="s">
+        <v>99</v>
+      </c>
+      <c r="B4" s="248" t="s">
+        <v>100</v>
+      </c>
+      <c r="C4" s="248"/>
+      <c r="D4" s="248"/>
+      <c r="E4" s="39"/>
+      <c r="F4" s="39"/>
+      <c r="G4" s="39"/>
+      <c r="H4" s="41"/>
+      <c r="I4" s="40"/>
+    </row>
+    <row r="5" spans="1:9">
+      <c r="A5" s="139" t="s">
+        <v>101</v>
+      </c>
+      <c r="B5" s="249">
+        <v>40850</v>
+      </c>
+      <c r="C5" s="249"/>
+      <c r="D5" s="249"/>
+      <c r="E5" s="39"/>
+      <c r="F5" s="43"/>
+      <c r="G5" s="43"/>
+      <c r="H5" s="43"/>
+      <c r="I5" s="43"/>
+    </row>
+    <row r="6" spans="1:9">
+      <c r="A6" s="140" t="s">
+        <v>102</v>
+      </c>
+      <c r="B6" s="73" t="str">
+        <f>F14</f>
+        <v>Internal Build 03112011</v>
+      </c>
+      <c r="C6" s="73" t="str">
+        <f>G14</f>
+        <v>Internal build 14112011</v>
+      </c>
+      <c r="D6" s="73" t="str">
+        <f>H14</f>
+        <v>External build 16112011</v>
+      </c>
+      <c r="E6" s="43"/>
+      <c r="F6" s="43"/>
+      <c r="G6" s="43"/>
+      <c r="H6" s="43"/>
+      <c r="I6" s="43"/>
+    </row>
+    <row r="7" spans="1:9">
+      <c r="A7" s="141" t="s">
+        <v>103</v>
+      </c>
+      <c r="B7" s="74">
+        <f>SUM(B8:B11)</f>
+        <v>0</v>
+      </c>
+      <c r="C7" s="74">
+        <f>SUM(C8:C11)</f>
+        <v>0</v>
+      </c>
+      <c r="D7" s="74">
+        <f>SUM(D8:D11)</f>
+        <v>0</v>
+      </c>
+      <c r="E7" s="43"/>
+      <c r="F7" s="43"/>
+      <c r="G7" s="43"/>
+      <c r="H7" s="43"/>
+      <c r="I7" s="43"/>
+    </row>
+    <row r="8" spans="1:9">
+      <c r="A8" s="141" t="s">
+        <v>41</v>
+      </c>
+      <c r="B8" s="75">
+        <f>COUNTIF($F$22:$F$49713,"*Passed")</f>
+        <v>0</v>
+      </c>
+      <c r="C8" s="75">
+        <f>COUNTIF($G$22:$G$49713,"*Passed")</f>
+        <v>0</v>
+      </c>
+      <c r="D8" s="75">
+        <f>COUNTIF($H$22:$H$49713,"*Passed")</f>
+        <v>0</v>
+      </c>
+      <c r="E8" s="43"/>
+      <c r="F8" s="43"/>
+      <c r="G8" s="43"/>
+      <c r="H8" s="43"/>
+      <c r="I8" s="43"/>
+    </row>
+    <row r="9" spans="1:9">
+      <c r="A9" s="141" t="s">
+        <v>43</v>
+      </c>
+      <c r="B9" s="75">
+        <f>COUNTIF($F$22:$F$49433,"*Failed*")</f>
+        <v>0</v>
+      </c>
+      <c r="C9" s="75">
+        <f>COUNTIF($G$22:$G$49433,"*Failed*")</f>
+        <v>0</v>
+      </c>
+      <c r="D9" s="75">
+        <f>COUNTIF($H$22:$H$49433,"*Failed*")</f>
+        <v>0</v>
+      </c>
+      <c r="E9" s="43"/>
+      <c r="F9" s="43"/>
+      <c r="G9" s="43"/>
+      <c r="H9" s="43"/>
+      <c r="I9" s="43"/>
+    </row>
+    <row r="10" spans="1:9">
+      <c r="A10" s="141" t="s">
+        <v>45</v>
+      </c>
+      <c r="B10" s="75">
+        <f>COUNTIF($F$22:$F$49433,"*Not Run*")</f>
+        <v>0</v>
+      </c>
+      <c r="C10" s="75">
+        <f>COUNTIF($G$22:$G$49433,"*Not Run*")</f>
+        <v>0</v>
+      </c>
+      <c r="D10" s="75">
+        <f>COUNTIF($H$22:$H$49433,"*Not Run*")</f>
+        <v>0</v>
+      </c>
+      <c r="E10" s="1"/>
+      <c r="F10" s="1"/>
+      <c r="G10" s="1"/>
+      <c r="H10" s="1"/>
+      <c r="I10" s="1"/>
+    </row>
+    <row r="11" spans="1:9">
+      <c r="A11" s="141" t="s">
+        <v>104</v>
+      </c>
+      <c r="B11" s="75">
+        <f>COUNTIF($F$22:$F$49433,"*NA*")</f>
+        <v>0</v>
+      </c>
+      <c r="C11" s="75">
+        <f>COUNTIF($G$22:$G$49433,"*NA*")</f>
+        <v>0</v>
+      </c>
+      <c r="D11" s="75">
+        <f>COUNTIF($H$22:$H$49433,"*NA*")</f>
+        <v>0</v>
+      </c>
+      <c r="E11" s="64"/>
+      <c r="F11" s="1"/>
+      <c r="G11" s="1"/>
+      <c r="H11" s="1"/>
+      <c r="I11" s="1"/>
+    </row>
+    <row r="12" spans="1:9" ht="24.6">
+      <c r="A12" s="141" t="s">
+        <v>105</v>
+      </c>
+      <c r="B12" s="75">
+        <f>COUNTIF($F$22:$F$49433,"*Passed in previous build*")</f>
+        <v>0</v>
+      </c>
+      <c r="C12" s="75">
+        <f>COUNTIF($G$22:$G$49433,"*Passed in previous build*")</f>
+        <v>0</v>
+      </c>
+      <c r="D12" s="75">
+        <f>COUNTIF($H$22:$H$49433,"*Passed in previous build*")</f>
+        <v>0</v>
+      </c>
+      <c r="E12" s="1"/>
+      <c r="F12" s="1"/>
+      <c r="G12" s="1"/>
+      <c r="H12" s="1"/>
+      <c r="I12" s="1"/>
+    </row>
+    <row r="13" spans="1:9">
+      <c r="A13" s="76"/>
+      <c r="B13" s="50"/>
+      <c r="C13" s="50"/>
+      <c r="D13" s="51"/>
+      <c r="E13" s="65"/>
+      <c r="F13" s="280" t="s">
+        <v>102</v>
+      </c>
+      <c r="G13" s="281"/>
+      <c r="H13" s="282"/>
+      <c r="I13" s="65"/>
+    </row>
+    <row r="14" spans="1:9" ht="36.9">
+      <c r="A14" s="142" t="s">
+        <v>106</v>
+      </c>
+      <c r="B14" s="143" t="s">
+        <v>107</v>
+      </c>
+      <c r="C14" s="143" t="s">
+        <v>108</v>
+      </c>
+      <c r="D14" s="143" t="s">
+        <v>109</v>
+      </c>
+      <c r="E14" s="144" t="s">
+        <v>110</v>
+      </c>
+      <c r="F14" s="143" t="s">
+        <v>111</v>
+      </c>
+      <c r="G14" s="143" t="s">
+        <v>112</v>
+      </c>
+      <c r="H14" s="143" t="s">
+        <v>113</v>
+      </c>
+      <c r="I14" s="143" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" ht="25.2" customHeight="1">
+      <c r="A15" s="77"/>
+      <c r="B15" s="297" t="s">
+        <v>634</v>
+      </c>
+      <c r="C15" s="298"/>
+      <c r="D15" s="298"/>
+      <c r="E15" s="298"/>
+      <c r="F15" s="298"/>
+      <c r="G15" s="298"/>
+      <c r="H15" s="298"/>
+      <c r="I15" s="299"/>
+    </row>
+    <row r="16" spans="1:9" ht="81.3" customHeight="1">
+      <c r="A16" s="209">
         <v>1</v>
       </c>
-      <c r="B10" s="101" t="s">
-        <v>66</v>
-      </c>
-      <c r="C10" s="101" t="s">
-        <v>140</v>
-      </c>
-      <c r="D10" s="101" t="s">
-        <v>141</v>
-      </c>
-      <c r="E10" s="101" t="s">
-        <v>142</v>
-      </c>
-      <c r="F10" s="101" t="s">
-        <v>143</v>
-      </c>
-      <c r="G10" s="101" t="s">
-        <v>144</v>
-      </c>
-      <c r="H10" s="101" t="s">
-        <v>144</v>
-      </c>
-      <c r="I10" s="102"/>
-      <c r="L10" s="80"/>
-    </row>
-    <row r="11" spans="1:12" ht="20.25" customHeight="1">
-      <c r="A11" s="100">
+      <c r="B16" s="209" t="s">
+        <v>792</v>
+      </c>
+      <c r="C16" s="209" t="s">
+        <v>804</v>
+      </c>
+      <c r="D16" s="205" t="s">
+        <v>798</v>
+      </c>
+      <c r="E16" s="54"/>
+      <c r="F16" s="209"/>
+      <c r="G16" s="209"/>
+      <c r="H16" s="209"/>
+      <c r="I16" s="55"/>
+    </row>
+    <row r="17" spans="1:9" ht="116.4" customHeight="1">
+      <c r="A17" s="209">
+        <f t="shared" ref="A16:A22" ca="1" si="0">IF(OFFSET(A17,-1,0) ="",OFFSET(A17,-2,0)+1,OFFSET(A17,-1,0)+1 )</f>
         <v>2</v>
       </c>
-      <c r="B11" s="101" t="s">
-        <v>67</v>
-      </c>
-      <c r="C11" s="101" t="s">
-        <v>145</v>
-      </c>
-      <c r="D11" s="101" t="s">
-        <v>146</v>
-      </c>
-      <c r="E11" s="101" t="s">
-        <v>147</v>
-      </c>
-      <c r="F11" s="101" t="s">
-        <v>143</v>
-      </c>
-      <c r="G11" s="101" t="s">
-        <v>144</v>
-      </c>
-      <c r="H11" s="101" t="s">
-        <v>148</v>
-      </c>
-      <c r="I11" s="102" t="s">
-        <v>149</v>
-      </c>
-      <c r="L11" s="80"/>
-    </row>
-    <row r="12" spans="1:12" ht="20.25" customHeight="1">
-      <c r="A12" s="100">
+      <c r="B17" s="209" t="s">
+        <v>793</v>
+      </c>
+      <c r="C17" s="209" t="s">
+        <v>805</v>
+      </c>
+      <c r="D17" s="334" t="s">
+        <v>799</v>
+      </c>
+      <c r="E17" s="54"/>
+      <c r="F17" s="209"/>
+      <c r="G17" s="209"/>
+      <c r="H17" s="209"/>
+      <c r="I17" s="55"/>
+    </row>
+    <row r="18" spans="1:9" ht="80.7" customHeight="1">
+      <c r="A18" s="209">
+        <f t="shared" ca="1" si="0"/>
         <v>3</v>
       </c>
-      <c r="B12" s="101" t="s">
-        <v>150</v>
-      </c>
-      <c r="C12" s="101" t="s">
-        <v>151</v>
-      </c>
-      <c r="D12" s="101" t="s">
-        <v>146</v>
-      </c>
-      <c r="E12" s="101" t="s">
-        <v>142</v>
-      </c>
-      <c r="F12" s="101" t="s">
-        <v>152</v>
-      </c>
-      <c r="G12" s="101" t="s">
-        <v>144</v>
-      </c>
-      <c r="H12" s="101" t="s">
-        <v>144</v>
-      </c>
-      <c r="I12" s="102"/>
-      <c r="L12" s="80"/>
-    </row>
-    <row r="13" spans="1:12" ht="15" customHeight="1">
-      <c r="B13" s="103"/>
-      <c r="C13" s="97"/>
-      <c r="D13" s="97"/>
-      <c r="E13" s="97"/>
-      <c r="F13" s="97"/>
-      <c r="G13" s="98"/>
-    </row>
-    <row r="14" spans="1:12" ht="21.75" customHeight="1">
-      <c r="B14" s="305" t="s">
-        <v>153</v>
-      </c>
-      <c r="C14" s="305"/>
-      <c r="D14" s="305"/>
-      <c r="E14" s="94"/>
-      <c r="F14" s="94"/>
-      <c r="G14" s="95"/>
-      <c r="H14" s="95"/>
-    </row>
-    <row r="15" spans="1:12">
-      <c r="B15" s="96" t="s">
-        <v>154</v>
-      </c>
-      <c r="C15" s="97"/>
-      <c r="D15" s="97"/>
-      <c r="E15" s="97"/>
-      <c r="F15" s="97"/>
-      <c r="G15" s="98"/>
-    </row>
-    <row r="16" spans="1:12" ht="31.5" customHeight="1">
-      <c r="A16" s="99" t="s">
-        <v>58</v>
-      </c>
-      <c r="B16" s="160" t="s">
-        <v>155</v>
-      </c>
-      <c r="C16" s="160" t="s">
-        <v>41</v>
-      </c>
-      <c r="D16" s="160" t="s">
-        <v>43</v>
-      </c>
-      <c r="E16" s="160" t="s">
-        <v>148</v>
-      </c>
-      <c r="F16" s="160" t="s">
-        <v>45</v>
-      </c>
-      <c r="G16" s="160" t="s">
-        <v>156</v>
-      </c>
-      <c r="L16" s="80"/>
-    </row>
-    <row r="17" spans="1:12" s="125" customFormat="1" ht="37.799999999999997">
-      <c r="A17" s="121"/>
-      <c r="B17" s="122" t="s">
-        <v>133</v>
-      </c>
-      <c r="C17" s="126" t="s">
-        <v>157</v>
-      </c>
-      <c r="D17" s="126" t="s">
-        <v>158</v>
-      </c>
-      <c r="E17" s="126" t="s">
-        <v>159</v>
-      </c>
-      <c r="F17" s="126" t="s">
-        <v>160</v>
-      </c>
-      <c r="G17" s="126" t="s">
-        <v>161</v>
-      </c>
-      <c r="H17" s="124"/>
-      <c r="I17" s="124"/>
-      <c r="J17" s="124"/>
-      <c r="K17" s="124"/>
-    </row>
-    <row r="18" spans="1:12">
-      <c r="A18" s="100">
-        <v>1</v>
-      </c>
-      <c r="B18" s="101" t="s">
-        <v>66</v>
-      </c>
-      <c r="C18" s="104">
-        <f>'Assignment 1 '!D11</f>
-        <v>0</v>
-      </c>
-      <c r="D18" s="104">
-        <f>'Assignment 1 '!D12</f>
-        <v>0</v>
-      </c>
-      <c r="E18" s="104">
-        <f>'Assignment 1 '!D14</f>
-        <v>0</v>
-      </c>
-      <c r="F18" s="104">
-        <f>'Assignment 1 '!D13</f>
-        <v>0</v>
-      </c>
-      <c r="G18" s="104">
-        <f>'Assignment 1 '!D15</f>
-        <v>0</v>
-      </c>
-      <c r="L18" s="80"/>
-    </row>
-    <row r="19" spans="1:12" ht="20.25" customHeight="1">
-      <c r="A19" s="100">
-        <v>2</v>
-      </c>
-      <c r="B19" s="101" t="s">
-        <v>150</v>
-      </c>
-      <c r="C19" s="104">
-        <f>'Assignment 3 '!D11</f>
-        <v>0</v>
-      </c>
-      <c r="D19" s="104">
-        <f>'Assignment 3 '!D12</f>
-        <v>0</v>
-      </c>
-      <c r="E19" s="104">
-        <f>'Assignment 3 '!D14</f>
-        <v>0</v>
-      </c>
-      <c r="F19" s="104">
-        <f>'Assignment 3 '!D13</f>
-        <v>0</v>
-      </c>
-      <c r="G19" s="104">
-        <f>'Assignment 3 '!D15</f>
-        <v>0</v>
-      </c>
-      <c r="L19" s="80"/>
-    </row>
-    <row r="20" spans="1:12" ht="20.25" customHeight="1">
-      <c r="A20" s="100">
-        <v>3</v>
-      </c>
-      <c r="B20" s="101" t="s">
-        <v>103</v>
-      </c>
-      <c r="C20" s="104">
-        <f>SUM(C18:C19)</f>
-        <v>0</v>
-      </c>
-      <c r="D20" s="104">
-        <f>SUM(D18:D19)</f>
-        <v>0</v>
-      </c>
-      <c r="E20" s="104">
-        <f>SUM(E18:E19)</f>
-        <v>0</v>
-      </c>
-      <c r="F20" s="104">
-        <f>SUM(F18:F19)</f>
-        <v>0</v>
-      </c>
-      <c r="G20" s="104">
-        <f>SUM(G18:G19)</f>
-        <v>0</v>
-      </c>
-      <c r="L20" s="80"/>
-    </row>
-    <row r="21" spans="1:12" ht="20.25" customHeight="1">
-      <c r="A21" s="106"/>
-      <c r="B21" s="107"/>
-      <c r="C21" s="120" t="s">
-        <v>162</v>
-      </c>
-      <c r="D21" s="119" t="e">
-        <f>SUM(C20,D20,G20)/SUM(C20:G20)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="E21" s="108"/>
-      <c r="F21" s="108"/>
-      <c r="G21" s="108"/>
-      <c r="L21" s="80"/>
-    </row>
-    <row r="22" spans="1:12">
-      <c r="B22" s="103"/>
-      <c r="C22" s="97"/>
-      <c r="D22" s="97"/>
-      <c r="E22" s="97"/>
-      <c r="F22" s="97"/>
-      <c r="G22" s="98"/>
-    </row>
-    <row r="23" spans="1:12" ht="21.75" customHeight="1">
-      <c r="B23" s="305" t="s">
-        <v>163</v>
-      </c>
-      <c r="C23" s="305"/>
-      <c r="D23" s="305"/>
-      <c r="E23" s="94"/>
-      <c r="F23" s="94"/>
-      <c r="G23" s="95"/>
-      <c r="H23" s="95"/>
-    </row>
-    <row r="24" spans="1:12" ht="21.75" customHeight="1">
-      <c r="B24" s="96" t="s">
-        <v>164</v>
-      </c>
-      <c r="C24" s="158"/>
-      <c r="D24" s="158"/>
-      <c r="E24" s="94"/>
-      <c r="F24" s="94"/>
-      <c r="G24" s="95"/>
-      <c r="H24" s="95"/>
-    </row>
-    <row r="25" spans="1:12" ht="14.4">
-      <c r="B25" s="105" t="s">
-        <v>165</v>
-      </c>
-      <c r="C25" s="97"/>
-      <c r="D25" s="97"/>
-      <c r="E25" s="97"/>
-      <c r="F25" s="97"/>
-      <c r="G25" s="98"/>
-    </row>
-    <row r="26" spans="1:12" ht="18.75" customHeight="1">
-      <c r="A26" s="99" t="s">
-        <v>58</v>
-      </c>
-      <c r="B26" s="160" t="s">
-        <v>166</v>
-      </c>
-      <c r="C26" s="160" t="s">
-        <v>167</v>
-      </c>
-      <c r="D26" s="160" t="s">
-        <v>168</v>
-      </c>
-      <c r="E26" s="160" t="s">
-        <v>169</v>
-      </c>
-      <c r="F26" s="160" t="s">
-        <v>170</v>
-      </c>
-      <c r="G26" s="306" t="s">
-        <v>114</v>
-      </c>
-      <c r="H26" s="307"/>
-    </row>
-    <row r="27" spans="1:12">
-      <c r="A27" s="100">
-        <v>1</v>
-      </c>
-      <c r="B27" s="101" t="s">
-        <v>171</v>
-      </c>
-      <c r="C27" s="104" t="e">
-        <f>COUNTIFS(#REF!, "*Critical*",#REF!,"*Open*")</f>
-        <v>#REF!</v>
-      </c>
-      <c r="D27" s="104" t="e">
-        <f>COUNTIFS(#REF!, "*Critical*",#REF!,"*Resolved*")</f>
-        <v>#REF!</v>
-      </c>
-      <c r="E27" s="104" t="e">
-        <f>COUNTIFS(#REF!, "*Critical*",#REF!,"*Reopened*")</f>
-        <v>#REF!</v>
-      </c>
-      <c r="F27" s="104" t="e">
-        <f>COUNTIFS(#REF!, "*Critical*",#REF!,"*Closed*") + COUNTIFS(#REF!, "*Critical*",#REF!,"*Ready for client test*")</f>
-        <v>#REF!</v>
-      </c>
-      <c r="G27" s="300"/>
-      <c r="H27" s="301"/>
-    </row>
-    <row r="28" spans="1:12" ht="20.25" customHeight="1">
-      <c r="A28" s="100">
-        <v>2</v>
-      </c>
-      <c r="B28" s="101" t="s">
-        <v>172</v>
-      </c>
-      <c r="C28" s="104" t="e">
-        <f>COUNTIFS(#REF!, "*Major*",#REF!,"*Open*")</f>
-        <v>#REF!</v>
-      </c>
-      <c r="D28" s="104" t="e">
-        <f>COUNTIFS(#REF!, "*Major*",#REF!,"*Resolved*")</f>
-        <v>#REF!</v>
-      </c>
-      <c r="E28" s="104" t="e">
-        <f>COUNTIFS(#REF!, "*Major*",#REF!,"*Reopened*")</f>
-        <v>#REF!</v>
-      </c>
-      <c r="F28" s="104" t="e">
-        <f>COUNTIFS(#REF!, "*Major*",#REF!,"*Closed*") + COUNTIFS(#REF!, "*Major*",#REF!,"*Ready for client test*")</f>
-        <v>#REF!</v>
-      </c>
-      <c r="G28" s="300"/>
-      <c r="H28" s="301"/>
-    </row>
-    <row r="29" spans="1:12" ht="20.25" customHeight="1">
-      <c r="A29" s="100">
-        <v>3</v>
-      </c>
-      <c r="B29" s="101" t="s">
-        <v>173</v>
-      </c>
-      <c r="C29" s="104" t="e">
-        <f>COUNTIFS(#REF!, "*Normal*",#REF!,"*Open*")</f>
-        <v>#REF!</v>
-      </c>
-      <c r="D29" s="104" t="e">
-        <f>COUNTIFS(#REF!, "*Normal*",#REF!,"*Resolved*")</f>
-        <v>#REF!</v>
-      </c>
-      <c r="E29" s="104" t="e">
-        <f>COUNTIFS(#REF!, "*Normal*",#REF!,"*Reopened*")</f>
-        <v>#REF!</v>
-      </c>
-      <c r="F29" s="104" t="e">
-        <f>COUNTIFS(#REF!, "*Normal*",#REF!,"*Closed*") + COUNTIFS(#REF!, "*Normal*",#REF!,"*Ready for client test*")</f>
-        <v>#REF!</v>
-      </c>
-      <c r="G29" s="300"/>
-      <c r="H29" s="301"/>
-    </row>
-    <row r="30" spans="1:12" ht="20.25" customHeight="1">
-      <c r="A30" s="100">
+      <c r="B18" s="209" t="s">
+        <v>794</v>
+      </c>
+      <c r="C18" s="209" t="s">
+        <v>806</v>
+      </c>
+      <c r="D18" s="60" t="s">
+        <v>802</v>
+      </c>
+      <c r="E18" s="54"/>
+      <c r="F18" s="209"/>
+      <c r="G18" s="209"/>
+      <c r="H18" s="209"/>
+      <c r="I18" s="55"/>
+    </row>
+    <row r="19" spans="1:9" ht="80.400000000000006" customHeight="1">
+      <c r="A19" s="58">
+        <f t="shared" ca="1" si="0"/>
         <v>4</v>
       </c>
-      <c r="B30" s="101" t="s">
-        <v>174</v>
-      </c>
-      <c r="C30" s="104" t="e">
-        <f>COUNTIFS(#REF!, "*Minor*",#REF!,"*Open*")</f>
-        <v>#REF!</v>
-      </c>
-      <c r="D30" s="104" t="e">
-        <f>COUNTIFS(#REF!, "*Minor*",#REF!,"*Resolved*")</f>
-        <v>#REF!</v>
-      </c>
-      <c r="E30" s="104" t="e">
-        <f>COUNTIFS(#REF!, "*Minor*",#REF!,"*Reopened*")</f>
-        <v>#REF!</v>
-      </c>
-      <c r="F30" s="104" t="e">
-        <f>COUNTIFS(#REF!, "*Minor*",#REF!,"*Closed*") + COUNTIFS(#REF!, "*Minor*",#REF!,"*Ready for client test*")</f>
-        <v>#REF!</v>
-      </c>
-      <c r="G30" s="300"/>
-      <c r="H30" s="301"/>
-    </row>
-    <row r="31" spans="1:12" ht="20.25" customHeight="1">
-      <c r="A31" s="100"/>
-      <c r="B31" s="99" t="s">
-        <v>103</v>
-      </c>
-      <c r="C31" s="99" t="e">
-        <f>SUM(C27:C30)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="D31" s="99">
-        <v>0</v>
-      </c>
-      <c r="E31" s="99">
-        <v>0</v>
-      </c>
-      <c r="F31" s="99" t="e">
-        <f>SUM(F27:F30)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="G31" s="300"/>
-      <c r="H31" s="301"/>
-    </row>
-    <row r="32" spans="1:12" ht="20.25" customHeight="1">
-      <c r="A32" s="106"/>
-      <c r="B32" s="107"/>
-      <c r="C32" s="108"/>
-      <c r="D32" s="108"/>
-      <c r="E32" s="108"/>
-      <c r="F32" s="108"/>
-      <c r="G32" s="108"/>
-      <c r="H32" s="108"/>
-    </row>
-    <row r="33" spans="1:12" ht="14.4">
-      <c r="B33" s="105" t="s">
-        <v>175</v>
-      </c>
-      <c r="C33" s="97"/>
-      <c r="D33" s="97"/>
-      <c r="E33" s="97"/>
-      <c r="F33" s="97"/>
-      <c r="G33" s="98"/>
-    </row>
-    <row r="34" spans="1:12" ht="18.75" customHeight="1">
-      <c r="A34" s="99" t="s">
-        <v>58</v>
-      </c>
-      <c r="B34" s="160" t="s">
-        <v>176</v>
-      </c>
-      <c r="C34" s="160" t="s">
-        <v>177</v>
-      </c>
-      <c r="D34" s="160" t="s">
-        <v>178</v>
-      </c>
-      <c r="E34" s="160" t="s">
-        <v>129</v>
-      </c>
-      <c r="F34" s="308" t="s">
-        <v>132</v>
-      </c>
-      <c r="G34" s="309"/>
-    </row>
-    <row r="35" spans="1:12" s="125" customFormat="1" ht="14.1">
-      <c r="A35" s="121"/>
-      <c r="B35" s="122" t="s">
-        <v>179</v>
-      </c>
-      <c r="C35" s="126" t="s">
-        <v>180</v>
-      </c>
-      <c r="D35" s="126" t="s">
-        <v>181</v>
-      </c>
-      <c r="E35" s="126" t="s">
-        <v>137</v>
-      </c>
-      <c r="F35" s="311"/>
-      <c r="G35" s="312"/>
-      <c r="H35" s="124"/>
-      <c r="I35" s="124"/>
-      <c r="J35" s="124"/>
-      <c r="K35" s="124"/>
-      <c r="L35" s="124"/>
-    </row>
-    <row r="36" spans="1:12">
-      <c r="A36" s="100">
-        <v>1</v>
-      </c>
-      <c r="B36" s="101" t="s">
-        <v>117</v>
-      </c>
-      <c r="C36" s="104" t="s">
-        <v>182</v>
-      </c>
-      <c r="D36" s="104" t="s">
-        <v>174</v>
-      </c>
-      <c r="E36" s="104" t="s">
-        <v>143</v>
-      </c>
-      <c r="F36" s="300"/>
-      <c r="G36" s="301"/>
-    </row>
-    <row r="37" spans="1:12" ht="20.25" customHeight="1">
-      <c r="A37" s="100">
-        <v>2</v>
-      </c>
-      <c r="B37" s="101" t="s">
-        <v>115</v>
-      </c>
-      <c r="C37" s="104" t="s">
-        <v>183</v>
-      </c>
-      <c r="D37" s="104" t="s">
-        <v>174</v>
-      </c>
-      <c r="E37" s="104" t="s">
-        <v>143</v>
-      </c>
-      <c r="F37" s="300"/>
-      <c r="G37" s="301"/>
-    </row>
-    <row r="38" spans="1:12" ht="20.25" customHeight="1">
-      <c r="A38" s="106"/>
-      <c r="B38" s="107"/>
-      <c r="C38" s="108"/>
-      <c r="D38" s="108"/>
-      <c r="E38" s="108"/>
-      <c r="F38" s="108"/>
-      <c r="G38" s="108"/>
-      <c r="H38" s="108"/>
-    </row>
-    <row r="39" spans="1:12" ht="21.75" customHeight="1">
-      <c r="B39" s="305" t="s">
-        <v>184</v>
-      </c>
-      <c r="C39" s="305"/>
-      <c r="D39" s="94"/>
-      <c r="E39" s="94"/>
-      <c r="F39" s="94"/>
-      <c r="G39" s="95"/>
-      <c r="H39" s="95"/>
-    </row>
-    <row r="40" spans="1:12">
-      <c r="B40" s="96" t="s">
-        <v>185</v>
-      </c>
-      <c r="C40" s="97"/>
-      <c r="D40" s="97"/>
-      <c r="E40" s="97"/>
-      <c r="F40" s="97"/>
-      <c r="G40" s="98"/>
-    </row>
-    <row r="41" spans="1:12" ht="18.75" customHeight="1">
-      <c r="A41" s="99" t="s">
-        <v>58</v>
-      </c>
-      <c r="B41" s="160" t="s">
-        <v>62</v>
-      </c>
-      <c r="C41" s="310" t="s">
-        <v>186</v>
-      </c>
-      <c r="D41" s="310"/>
-      <c r="E41" s="310" t="s">
-        <v>187</v>
-      </c>
-      <c r="F41" s="310"/>
-      <c r="G41" s="310"/>
-      <c r="H41" s="99" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="42" spans="1:12" ht="34.5" customHeight="1">
-      <c r="A42" s="100">
-        <v>1</v>
-      </c>
-      <c r="B42" s="161" t="s">
-        <v>189</v>
-      </c>
-      <c r="C42" s="313" t="s">
-        <v>190</v>
-      </c>
-      <c r="D42" s="313"/>
-      <c r="E42" s="313" t="s">
-        <v>191</v>
-      </c>
-      <c r="F42" s="313"/>
-      <c r="G42" s="313"/>
-      <c r="H42" s="109"/>
-    </row>
-    <row r="43" spans="1:12" ht="34.5" customHeight="1">
-      <c r="A43" s="100">
-        <v>2</v>
-      </c>
-      <c r="B43" s="161" t="s">
-        <v>189</v>
-      </c>
-      <c r="C43" s="313" t="s">
-        <v>190</v>
-      </c>
-      <c r="D43" s="313"/>
-      <c r="E43" s="313" t="s">
-        <v>191</v>
-      </c>
-      <c r="F43" s="313"/>
-      <c r="G43" s="313"/>
-      <c r="H43" s="109"/>
-    </row>
-    <row r="44" spans="1:12" ht="34.5" customHeight="1">
-      <c r="A44" s="100">
-        <v>3</v>
-      </c>
-      <c r="B44" s="161" t="s">
-        <v>189</v>
-      </c>
-      <c r="C44" s="313" t="s">
-        <v>190</v>
-      </c>
-      <c r="D44" s="313"/>
-      <c r="E44" s="313" t="s">
-        <v>191</v>
-      </c>
-      <c r="F44" s="313"/>
-      <c r="G44" s="313"/>
-      <c r="H44" s="109"/>
-    </row>
-    <row r="45" spans="1:12">
-      <c r="B45" s="110"/>
-      <c r="C45" s="110"/>
-      <c r="D45" s="110"/>
-      <c r="E45" s="111"/>
-      <c r="F45" s="97"/>
-      <c r="G45" s="98"/>
-    </row>
-    <row r="46" spans="1:12" ht="21.75" customHeight="1">
-      <c r="B46" s="305" t="s">
-        <v>192</v>
-      </c>
-      <c r="C46" s="305"/>
-      <c r="D46" s="94"/>
-      <c r="E46" s="94"/>
-      <c r="F46" s="94"/>
-      <c r="G46" s="95"/>
-      <c r="H46" s="95"/>
-    </row>
-    <row r="47" spans="1:12">
-      <c r="B47" s="96" t="s">
-        <v>193</v>
-      </c>
-      <c r="C47" s="110"/>
-      <c r="D47" s="110"/>
-      <c r="E47" s="111"/>
-      <c r="F47" s="97"/>
-      <c r="G47" s="98"/>
-    </row>
-    <row r="48" spans="1:12" s="113" customFormat="1" ht="21" customHeight="1">
-      <c r="A48" s="316" t="s">
-        <v>58</v>
-      </c>
-      <c r="B48" s="318" t="s">
-        <v>194</v>
-      </c>
-      <c r="C48" s="308" t="s">
-        <v>195</v>
-      </c>
-      <c r="D48" s="320"/>
-      <c r="E48" s="320"/>
-      <c r="F48" s="309"/>
-      <c r="G48" s="321" t="s">
-        <v>162</v>
-      </c>
-      <c r="H48" s="321" t="s">
-        <v>194</v>
-      </c>
-      <c r="I48" s="314" t="s">
-        <v>196</v>
-      </c>
-      <c r="J48" s="112"/>
-      <c r="K48" s="112"/>
-      <c r="L48" s="112"/>
+      <c r="B19" s="209" t="s">
+        <v>795</v>
+      </c>
+      <c r="C19" s="209" t="s">
+        <v>807</v>
+      </c>
+      <c r="D19" s="205" t="s">
+        <v>800</v>
+      </c>
+      <c r="E19" s="54"/>
+      <c r="F19" s="209"/>
+      <c r="G19" s="209"/>
+      <c r="H19" s="209"/>
+      <c r="I19" s="61"/>
+    </row>
+    <row r="20" spans="1:9" ht="78.900000000000006" customHeight="1">
+      <c r="A20" s="58">
+        <f t="shared" ca="1" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="B20" s="209" t="s">
+        <v>796</v>
+      </c>
+      <c r="C20" s="209" t="s">
+        <v>808</v>
+      </c>
+      <c r="D20" s="205" t="s">
+        <v>801</v>
+      </c>
+      <c r="E20" s="54"/>
+      <c r="F20" s="209"/>
+      <c r="G20" s="209"/>
+      <c r="H20" s="209"/>
+      <c r="I20" s="61"/>
+    </row>
+    <row r="21" spans="1:9" ht="93.6" customHeight="1">
+      <c r="A21" s="58">
+        <f t="shared" ca="1" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="B21" s="209" t="s">
+        <v>797</v>
+      </c>
+      <c r="C21" s="209" t="s">
+        <v>809</v>
+      </c>
+      <c r="D21" s="54" t="s">
+        <v>803</v>
+      </c>
+      <c r="E21" s="54"/>
+      <c r="F21" s="209"/>
+      <c r="G21" s="209"/>
+      <c r="H21" s="209"/>
+      <c r="I21" s="61"/>
+    </row>
+    <row r="22" spans="1:9" ht="39.9" customHeight="1">
+      <c r="A22" s="58"/>
+      <c r="B22" s="209"/>
+      <c r="C22" s="209"/>
+      <c r="D22" s="54"/>
+      <c r="E22" s="54"/>
+      <c r="F22" s="209"/>
+      <c r="G22" s="209"/>
+      <c r="H22" s="209"/>
+      <c r="I22" s="61"/>
+    </row>
+    <row r="23" spans="1:9" ht="53.1" customHeight="1">
+      <c r="A23" s="58"/>
+      <c r="B23" s="209"/>
+      <c r="C23" s="209"/>
+      <c r="D23" s="54"/>
+      <c r="E23" s="54"/>
+      <c r="F23" s="209"/>
+      <c r="G23" s="209"/>
+      <c r="H23" s="209"/>
+      <c r="I23" s="61"/>
+    </row>
+    <row r="24" spans="1:9" ht="27.9" customHeight="1">
+      <c r="A24" s="58"/>
+      <c r="B24" s="209"/>
+      <c r="C24" s="209"/>
+      <c r="D24" s="54"/>
+      <c r="E24" s="54"/>
+      <c r="F24" s="209"/>
+      <c r="G24" s="209"/>
+      <c r="H24" s="209"/>
+      <c r="I24" s="61"/>
+    </row>
+    <row r="25" spans="1:9">
+      <c r="A25" s="58"/>
+      <c r="B25" s="209"/>
+      <c r="C25" s="209"/>
+      <c r="D25" s="54"/>
+      <c r="E25" s="54"/>
+      <c r="F25" s="209"/>
+      <c r="G25" s="209"/>
+      <c r="H25" s="209"/>
+      <c r="I25" s="61"/>
+    </row>
+    <row r="26" spans="1:9" ht="45.6" customHeight="1">
+      <c r="A26" s="58"/>
+      <c r="B26" s="209"/>
+      <c r="C26" s="209"/>
+      <c r="D26" s="54"/>
+      <c r="E26" s="54"/>
+      <c r="F26" s="209"/>
+      <c r="G26" s="209"/>
+      <c r="H26" s="209"/>
+      <c r="I26" s="61"/>
+    </row>
+    <row r="27" spans="1:9" ht="37.5" customHeight="1">
+      <c r="A27" s="323"/>
+      <c r="B27" s="170"/>
+      <c r="C27" s="170"/>
+      <c r="D27" s="207"/>
+      <c r="E27" s="207"/>
+      <c r="F27" s="170"/>
+      <c r="G27" s="170"/>
+      <c r="H27" s="170"/>
+      <c r="I27" s="177"/>
+    </row>
+    <row r="28" spans="1:9">
+      <c r="A28" s="170"/>
+      <c r="B28" s="242"/>
+      <c r="C28" s="243"/>
+      <c r="D28" s="243"/>
+      <c r="E28" s="243"/>
+      <c r="F28" s="243"/>
+      <c r="G28" s="243"/>
+      <c r="H28" s="243"/>
+      <c r="I28" s="244"/>
+    </row>
+    <row r="29" spans="1:9">
+      <c r="A29" s="323"/>
+      <c r="B29" s="170"/>
+      <c r="C29" s="170"/>
+      <c r="D29" s="324"/>
+      <c r="E29" s="207"/>
+      <c r="F29" s="170"/>
+      <c r="G29" s="170"/>
+      <c r="H29" s="170"/>
+      <c r="I29" s="325"/>
+    </row>
+    <row r="30" spans="1:9">
+      <c r="A30" s="323"/>
+      <c r="B30" s="170"/>
+      <c r="C30" s="170"/>
+      <c r="D30" s="207"/>
+      <c r="E30" s="207"/>
+      <c r="F30" s="170"/>
+      <c r="G30" s="170"/>
+      <c r="H30" s="170"/>
+      <c r="I30" s="325"/>
+    </row>
+    <row r="31" spans="1:9">
+      <c r="A31" s="323"/>
+      <c r="B31" s="170"/>
+      <c r="C31" s="170"/>
+      <c r="D31" s="324"/>
+      <c r="E31" s="207"/>
+      <c r="F31" s="170"/>
+      <c r="G31" s="170"/>
+      <c r="H31" s="170"/>
+      <c r="I31" s="325"/>
+    </row>
+    <row r="32" spans="1:9">
+      <c r="A32" s="323"/>
+      <c r="B32" s="170"/>
+      <c r="C32" s="170"/>
+      <c r="D32" s="207"/>
+      <c r="E32" s="207"/>
+      <c r="F32" s="170"/>
+      <c r="G32" s="170"/>
+      <c r="H32" s="170"/>
+      <c r="I32" s="177"/>
+    </row>
+    <row r="33" spans="1:9">
+      <c r="A33" s="323"/>
+      <c r="B33" s="170"/>
+      <c r="C33" s="170"/>
+      <c r="D33" s="207"/>
+      <c r="E33" s="207"/>
+      <c r="F33" s="170"/>
+      <c r="G33" s="170"/>
+      <c r="H33" s="170"/>
+      <c r="I33" s="177"/>
+    </row>
+    <row r="34" spans="1:9">
+      <c r="A34" s="323"/>
+      <c r="B34" s="170"/>
+      <c r="C34" s="170"/>
+      <c r="D34" s="324"/>
+      <c r="E34" s="207"/>
+      <c r="F34" s="170"/>
+      <c r="G34" s="170"/>
+      <c r="H34" s="170"/>
+      <c r="I34" s="177"/>
+    </row>
+    <row r="35" spans="1:9">
+      <c r="A35" s="323"/>
+      <c r="B35" s="170"/>
+      <c r="C35" s="170"/>
+      <c r="D35" s="207"/>
+      <c r="E35" s="207"/>
+      <c r="F35" s="170"/>
+      <c r="G35" s="170"/>
+      <c r="H35" s="170"/>
+      <c r="I35" s="177"/>
+    </row>
+    <row r="36" spans="1:9">
+      <c r="A36" s="323"/>
+      <c r="B36" s="170"/>
+      <c r="C36" s="170"/>
+      <c r="D36" s="207"/>
+      <c r="E36" s="207"/>
+      <c r="F36" s="170"/>
+      <c r="G36" s="170"/>
+      <c r="H36" s="170"/>
+      <c r="I36" s="177"/>
+    </row>
+    <row r="37" spans="1:9">
+      <c r="A37" s="323"/>
+      <c r="B37" s="170"/>
+      <c r="C37" s="170"/>
+      <c r="D37" s="207"/>
+      <c r="E37" s="207"/>
+      <c r="F37" s="170"/>
+      <c r="G37" s="170"/>
+      <c r="H37" s="170"/>
+      <c r="I37" s="177"/>
+    </row>
+    <row r="38" spans="1:9">
+      <c r="A38" s="323"/>
+      <c r="B38" s="170"/>
+      <c r="C38" s="170"/>
+      <c r="D38" s="207"/>
+      <c r="E38" s="207"/>
+      <c r="F38" s="170"/>
+      <c r="G38" s="170"/>
+      <c r="H38" s="170"/>
+      <c r="I38" s="177"/>
+    </row>
+    <row r="39" spans="1:9">
+      <c r="A39" s="323"/>
+      <c r="B39" s="170"/>
+      <c r="C39" s="170"/>
+      <c r="D39" s="207"/>
+      <c r="E39" s="207"/>
+      <c r="F39" s="170"/>
+      <c r="G39" s="170"/>
+      <c r="H39" s="170"/>
+      <c r="I39" s="177"/>
+    </row>
+    <row r="40" spans="1:9">
+      <c r="A40" s="323"/>
+      <c r="B40" s="170"/>
+      <c r="C40" s="170"/>
+      <c r="D40" s="207"/>
+      <c r="E40" s="207"/>
+      <c r="F40" s="170"/>
+      <c r="G40" s="170"/>
+      <c r="H40" s="170"/>
+      <c r="I40" s="177"/>
+    </row>
+    <row r="41" spans="1:9">
+      <c r="A41" s="323"/>
+      <c r="B41" s="170"/>
+      <c r="C41" s="170"/>
+      <c r="D41" s="207"/>
+      <c r="E41" s="207"/>
+      <c r="F41" s="170"/>
+      <c r="G41" s="170"/>
+      <c r="H41" s="170"/>
+      <c r="I41" s="177"/>
+    </row>
+    <row r="42" spans="1:9">
+      <c r="A42" s="323"/>
+      <c r="B42" s="170"/>
+      <c r="C42" s="170"/>
+      <c r="D42" s="207"/>
+      <c r="E42" s="207"/>
+      <c r="F42" s="170"/>
+      <c r="G42" s="170"/>
+      <c r="H42" s="170"/>
+      <c r="I42" s="177"/>
+    </row>
+    <row r="43" spans="1:9">
+      <c r="A43" s="323"/>
+      <c r="B43" s="170"/>
+      <c r="C43" s="170"/>
+      <c r="D43" s="207"/>
+      <c r="E43" s="207"/>
+      <c r="F43" s="170"/>
+      <c r="G43" s="170"/>
+      <c r="H43" s="170"/>
+      <c r="I43" s="177"/>
+    </row>
+    <row r="44" spans="1:9">
+      <c r="A44" s="323"/>
+      <c r="B44" s="326"/>
+      <c r="C44" s="327"/>
+      <c r="D44" s="327"/>
+      <c r="E44" s="327"/>
+      <c r="F44" s="327"/>
+      <c r="G44" s="327"/>
+      <c r="H44" s="327"/>
+      <c r="I44" s="328"/>
+    </row>
+    <row r="45" spans="1:9">
+      <c r="A45" s="323"/>
+      <c r="B45" s="170"/>
+      <c r="C45" s="170"/>
+      <c r="D45" s="324"/>
+      <c r="E45" s="207"/>
+      <c r="F45" s="170"/>
+      <c r="G45" s="170"/>
+      <c r="H45" s="170"/>
+      <c r="I45" s="63"/>
+    </row>
+    <row r="46" spans="1:9">
+      <c r="A46" s="323"/>
+      <c r="B46" s="170"/>
+      <c r="C46" s="170"/>
+      <c r="D46" s="207"/>
+      <c r="E46" s="207"/>
+      <c r="F46" s="170"/>
+      <c r="G46" s="170"/>
+      <c r="H46" s="170"/>
+      <c r="I46" s="63"/>
+    </row>
+    <row r="47" spans="1:9">
+      <c r="A47" s="323"/>
+      <c r="B47" s="170"/>
+      <c r="C47" s="170"/>
+      <c r="D47" s="324"/>
+      <c r="E47" s="207"/>
+      <c r="F47" s="170"/>
+      <c r="G47" s="170"/>
+      <c r="H47" s="170"/>
+      <c r="I47" s="63"/>
+    </row>
+    <row r="48" spans="1:9">
+      <c r="A48" s="323"/>
+      <c r="B48" s="170"/>
+      <c r="C48" s="170"/>
+      <c r="D48" s="207"/>
+      <c r="E48" s="207"/>
+      <c r="F48" s="170"/>
+      <c r="G48" s="170"/>
+      <c r="H48" s="170"/>
+      <c r="I48" s="63"/>
     </row>
     <row r="49" spans="1:9">
-      <c r="A49" s="317"/>
-      <c r="B49" s="319"/>
-      <c r="C49" s="114" t="s">
-        <v>171</v>
-      </c>
-      <c r="D49" s="114" t="s">
-        <v>172</v>
-      </c>
-      <c r="E49" s="115" t="s">
-        <v>173</v>
-      </c>
-      <c r="F49" s="115" t="s">
-        <v>174</v>
-      </c>
-      <c r="G49" s="322"/>
-      <c r="H49" s="322"/>
-      <c r="I49" s="315"/>
-    </row>
-    <row r="50" spans="1:9" ht="25.2">
-      <c r="A50" s="317"/>
-      <c r="B50" s="319"/>
-      <c r="C50" s="128" t="s">
-        <v>197</v>
-      </c>
-      <c r="D50" s="128" t="s">
-        <v>198</v>
-      </c>
-      <c r="E50" s="128" t="s">
-        <v>199</v>
-      </c>
-      <c r="F50" s="128" t="s">
-        <v>200</v>
-      </c>
-      <c r="G50" s="127" t="s">
-        <v>201</v>
-      </c>
-      <c r="H50" s="127" t="s">
-        <v>202</v>
-      </c>
-      <c r="I50" s="127" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="51" spans="1:9" ht="25.2">
-      <c r="A51" s="100">
-        <v>1</v>
-      </c>
-      <c r="B51" s="121" t="s">
-        <v>203</v>
-      </c>
-      <c r="C51" s="128" t="s">
-        <v>197</v>
-      </c>
-      <c r="D51" s="128" t="s">
-        <v>198</v>
-      </c>
-      <c r="E51" s="128" t="s">
-        <v>199</v>
-      </c>
-      <c r="F51" s="128" t="s">
-        <v>200</v>
-      </c>
-      <c r="G51" s="116" t="s">
-        <v>201</v>
-      </c>
-      <c r="H51" s="116" t="s">
-        <v>202</v>
-      </c>
-      <c r="I51" s="116" t="s">
-        <v>202</v>
-      </c>
+      <c r="A49" s="323"/>
+      <c r="B49" s="170"/>
+      <c r="C49" s="170"/>
+      <c r="D49" s="207"/>
+      <c r="E49" s="207"/>
+      <c r="F49" s="170"/>
+      <c r="G49" s="170"/>
+      <c r="H49" s="170"/>
+      <c r="I49" s="63"/>
+    </row>
+    <row r="50" spans="1:9">
+      <c r="A50" s="323"/>
+      <c r="B50" s="170"/>
+      <c r="C50" s="170"/>
+      <c r="D50" s="324"/>
+      <c r="E50" s="207"/>
+      <c r="F50" s="170"/>
+      <c r="G50" s="170"/>
+      <c r="H50" s="170"/>
+      <c r="I50" s="63"/>
+    </row>
+    <row r="51" spans="1:9">
+      <c r="A51" s="323"/>
+      <c r="B51" s="170"/>
+      <c r="C51" s="170"/>
+      <c r="D51" s="207"/>
+      <c r="E51" s="207"/>
+      <c r="F51" s="170"/>
+      <c r="G51" s="170"/>
+      <c r="H51" s="170"/>
+      <c r="I51" s="63"/>
     </row>
     <row r="52" spans="1:9">
-      <c r="A52" s="100">
-        <v>2</v>
-      </c>
-      <c r="B52" s="100" t="s">
-        <v>65</v>
-      </c>
-      <c r="C52" s="116">
-        <v>0</v>
-      </c>
-      <c r="D52" s="116">
-        <v>0</v>
-      </c>
-      <c r="E52" s="116">
-        <v>0</v>
-      </c>
-      <c r="F52" s="116" t="e">
-        <f>SUM(C31:E31)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="G52" s="129" t="e">
-        <f>D21</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="H52" s="116" t="s">
-        <v>202</v>
-      </c>
-      <c r="I52" s="116" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="53" spans="1:9" ht="18.75" customHeight="1">
-      <c r="B53" s="117"/>
+      <c r="A52" s="323"/>
+      <c r="B52" s="170"/>
+      <c r="C52" s="170"/>
+      <c r="D52" s="207"/>
+      <c r="E52" s="207"/>
+      <c r="F52" s="170"/>
+      <c r="G52" s="170"/>
+      <c r="H52" s="170"/>
+      <c r="I52" s="63"/>
+    </row>
+    <row r="53" spans="1:9">
+      <c r="A53" s="323"/>
+      <c r="B53" s="170"/>
+      <c r="C53" s="170"/>
+      <c r="D53" s="207"/>
+      <c r="E53" s="207"/>
+      <c r="F53" s="170"/>
+      <c r="G53" s="170"/>
+      <c r="H53" s="170"/>
+      <c r="I53" s="63"/>
     </row>
     <row r="54" spans="1:9">
-      <c r="B54" s="118"/>
+      <c r="A54" s="323"/>
+      <c r="B54" s="170"/>
+      <c r="C54" s="170"/>
+      <c r="D54" s="207"/>
+      <c r="E54" s="207"/>
+      <c r="F54" s="170"/>
+      <c r="G54" s="170"/>
+      <c r="H54" s="170"/>
+      <c r="I54" s="63"/>
     </row>
     <row r="55" spans="1:9">
-      <c r="B55" s="118"/>
+      <c r="A55" s="323"/>
+      <c r="B55" s="170"/>
+      <c r="C55" s="170"/>
+      <c r="D55" s="207"/>
+      <c r="E55" s="207"/>
+      <c r="F55" s="170"/>
+      <c r="G55" s="170"/>
+      <c r="H55" s="170"/>
+      <c r="I55" s="63"/>
     </row>
     <row r="56" spans="1:9">
-      <c r="B56" s="118"/>
+      <c r="A56" s="323"/>
+      <c r="B56" s="170"/>
+      <c r="C56" s="170"/>
+      <c r="D56" s="207"/>
+      <c r="E56" s="207"/>
+      <c r="F56" s="170"/>
+      <c r="G56" s="170"/>
+      <c r="H56" s="170"/>
+      <c r="I56" s="63"/>
     </row>
     <row r="57" spans="1:9">
-      <c r="B57" s="118"/>
+      <c r="A57" s="323"/>
+      <c r="B57" s="170"/>
+      <c r="C57" s="170"/>
+      <c r="D57" s="207"/>
+      <c r="E57" s="207"/>
+      <c r="F57" s="170"/>
+      <c r="G57" s="170"/>
+      <c r="H57" s="170"/>
+      <c r="I57" s="63"/>
     </row>
     <row r="58" spans="1:9">
-      <c r="B58" s="118"/>
+      <c r="A58" s="323"/>
+      <c r="B58" s="170"/>
+      <c r="C58" s="170"/>
+      <c r="D58" s="207"/>
+      <c r="E58" s="207"/>
+      <c r="F58" s="170"/>
+      <c r="G58" s="170"/>
+      <c r="H58" s="170"/>
+      <c r="I58" s="63"/>
     </row>
     <row r="59" spans="1:9">
-      <c r="B59" s="118"/>
+      <c r="A59" s="323"/>
+      <c r="B59" s="326"/>
+      <c r="C59" s="327"/>
+      <c r="D59" s="327"/>
+      <c r="E59" s="327"/>
+      <c r="F59" s="327"/>
+      <c r="G59" s="327"/>
+      <c r="H59" s="327"/>
+      <c r="I59" s="328"/>
     </row>
     <row r="60" spans="1:9">
-      <c r="B60" s="118"/>
+      <c r="A60" s="323"/>
+      <c r="B60" s="170"/>
+      <c r="C60" s="170"/>
+      <c r="D60" s="207"/>
+      <c r="E60" s="207"/>
+      <c r="F60" s="170"/>
+      <c r="G60" s="170"/>
+      <c r="H60" s="170"/>
+      <c r="I60" s="63"/>
     </row>
     <row r="61" spans="1:9">
-      <c r="B61" s="118"/>
+      <c r="A61" s="323"/>
+      <c r="B61" s="170"/>
+      <c r="C61" s="170"/>
+      <c r="D61" s="207"/>
+      <c r="E61" s="207"/>
+      <c r="F61" s="170"/>
+      <c r="G61" s="170"/>
+      <c r="H61" s="170"/>
+      <c r="I61" s="63"/>
+    </row>
+    <row r="62" spans="1:9">
+      <c r="A62" s="323"/>
+      <c r="B62" s="170"/>
+      <c r="C62" s="170"/>
+      <c r="D62" s="207"/>
+      <c r="E62" s="207"/>
+      <c r="F62" s="170"/>
+      <c r="G62" s="170"/>
+      <c r="H62" s="170"/>
+      <c r="I62" s="63"/>
+    </row>
+    <row r="63" spans="1:9">
+      <c r="A63" s="323"/>
+      <c r="B63" s="170"/>
+      <c r="C63" s="170"/>
+      <c r="D63" s="207"/>
+      <c r="E63" s="207"/>
+      <c r="F63" s="170"/>
+      <c r="G63" s="170"/>
+      <c r="H63" s="170"/>
+      <c r="I63" s="63"/>
+    </row>
+    <row r="64" spans="1:9">
+      <c r="A64" s="323"/>
+      <c r="B64" s="170"/>
+      <c r="C64" s="170"/>
+      <c r="D64" s="207"/>
+      <c r="E64" s="207"/>
+      <c r="F64" s="170"/>
+      <c r="G64" s="170"/>
+      <c r="H64" s="170"/>
+      <c r="I64" s="63"/>
+    </row>
+    <row r="65" spans="1:9">
+      <c r="A65" s="323"/>
+      <c r="B65" s="170"/>
+      <c r="C65" s="170"/>
+      <c r="D65" s="207"/>
+      <c r="E65" s="207"/>
+      <c r="F65" s="170"/>
+      <c r="G65" s="170"/>
+      <c r="H65" s="170"/>
+      <c r="I65" s="63"/>
+    </row>
+    <row r="66" spans="1:9">
+      <c r="A66" s="323"/>
+      <c r="B66" s="326"/>
+      <c r="C66" s="327"/>
+      <c r="D66" s="327"/>
+      <c r="E66" s="327"/>
+      <c r="F66" s="327"/>
+      <c r="G66" s="327"/>
+      <c r="H66" s="327"/>
+      <c r="I66" s="328"/>
+    </row>
+    <row r="67" spans="1:9">
+      <c r="A67" s="323"/>
+      <c r="B67" s="170"/>
+      <c r="C67" s="170"/>
+      <c r="D67" s="207"/>
+      <c r="E67" s="207"/>
+      <c r="F67" s="170"/>
+      <c r="G67" s="170"/>
+      <c r="H67" s="170"/>
+      <c r="I67" s="63"/>
+    </row>
+    <row r="68" spans="1:9">
+      <c r="A68" s="323"/>
+      <c r="B68" s="170"/>
+      <c r="C68" s="170"/>
+      <c r="D68" s="207"/>
+      <c r="E68" s="207"/>
+      <c r="F68" s="170"/>
+      <c r="G68" s="170"/>
+      <c r="H68" s="170"/>
+      <c r="I68" s="63"/>
+    </row>
+    <row r="69" spans="1:9">
+      <c r="A69" s="323"/>
+      <c r="B69" s="170"/>
+      <c r="C69" s="170"/>
+      <c r="D69" s="207"/>
+      <c r="E69" s="207"/>
+      <c r="F69" s="170"/>
+      <c r="G69" s="170"/>
+      <c r="H69" s="170"/>
+      <c r="I69" s="63"/>
+    </row>
+    <row r="70" spans="1:9">
+      <c r="A70" s="323"/>
+      <c r="B70" s="170"/>
+      <c r="C70" s="170"/>
+      <c r="D70" s="207"/>
+      <c r="E70" s="207"/>
+      <c r="F70" s="170"/>
+      <c r="G70" s="170"/>
+      <c r="H70" s="170"/>
+      <c r="I70" s="63"/>
+    </row>
+    <row r="71" spans="1:9">
+      <c r="A71" s="323"/>
+      <c r="B71" s="170"/>
+      <c r="C71" s="170"/>
+      <c r="D71" s="207"/>
+      <c r="E71" s="207"/>
+      <c r="F71" s="170"/>
+      <c r="G71" s="170"/>
+      <c r="H71" s="170"/>
+      <c r="I71" s="63"/>
+    </row>
+    <row r="72" spans="1:9">
+      <c r="A72" s="323"/>
+      <c r="B72" s="170"/>
+      <c r="C72" s="170"/>
+      <c r="D72" s="207"/>
+      <c r="E72" s="207"/>
+      <c r="F72" s="170"/>
+      <c r="G72" s="170"/>
+      <c r="H72" s="170"/>
+      <c r="I72" s="63"/>
+    </row>
+    <row r="73" spans="1:9">
+      <c r="A73" s="323"/>
+      <c r="B73" s="329"/>
+      <c r="C73" s="170"/>
+      <c r="D73" s="214"/>
+      <c r="E73" s="214"/>
+      <c r="F73" s="330"/>
+      <c r="G73" s="330"/>
+      <c r="H73" s="330"/>
+      <c r="I73" s="331"/>
+    </row>
+    <row r="74" spans="1:9">
+      <c r="A74" s="323"/>
+      <c r="B74" s="326"/>
+      <c r="C74" s="327"/>
+      <c r="D74" s="327"/>
+      <c r="E74" s="327"/>
+      <c r="F74" s="327"/>
+      <c r="G74" s="327"/>
+      <c r="H74" s="327"/>
+      <c r="I74" s="328"/>
+    </row>
+    <row r="75" spans="1:9">
+      <c r="A75" s="323"/>
+      <c r="B75" s="170"/>
+      <c r="C75" s="170"/>
+      <c r="D75" s="207"/>
+      <c r="E75" s="207"/>
+      <c r="F75" s="170"/>
+      <c r="G75" s="170"/>
+      <c r="H75" s="170"/>
+      <c r="I75" s="63"/>
+    </row>
+    <row r="76" spans="1:9">
+      <c r="A76" s="323"/>
+      <c r="B76" s="170"/>
+      <c r="C76" s="170"/>
+      <c r="D76" s="207"/>
+      <c r="E76" s="207"/>
+      <c r="F76" s="170"/>
+      <c r="G76" s="170"/>
+      <c r="H76" s="170"/>
+      <c r="I76" s="63"/>
+    </row>
+    <row r="77" spans="1:9">
+      <c r="A77" s="323"/>
+      <c r="B77" s="170"/>
+      <c r="C77" s="170"/>
+      <c r="D77" s="207"/>
+      <c r="E77" s="207"/>
+      <c r="F77" s="170"/>
+      <c r="G77" s="170"/>
+      <c r="H77" s="170"/>
+      <c r="I77" s="63"/>
+    </row>
+    <row r="78" spans="1:9">
+      <c r="A78" s="323"/>
+      <c r="B78" s="170"/>
+      <c r="C78" s="170"/>
+      <c r="D78" s="207"/>
+      <c r="E78" s="207"/>
+      <c r="F78" s="170"/>
+      <c r="G78" s="170"/>
+      <c r="H78" s="170"/>
+      <c r="I78" s="63"/>
+    </row>
+    <row r="79" spans="1:9">
+      <c r="A79" s="323"/>
+      <c r="B79" s="170"/>
+      <c r="C79" s="170"/>
+      <c r="D79" s="207"/>
+      <c r="E79" s="207"/>
+      <c r="F79" s="170"/>
+      <c r="G79" s="170"/>
+      <c r="H79" s="170"/>
+      <c r="I79" s="63"/>
+    </row>
+    <row r="80" spans="1:9">
+      <c r="A80" s="323"/>
+      <c r="B80" s="170"/>
+      <c r="C80" s="170"/>
+      <c r="D80" s="207"/>
+      <c r="E80" s="207"/>
+      <c r="F80" s="170"/>
+      <c r="G80" s="170"/>
+      <c r="H80" s="170"/>
+      <c r="I80" s="63"/>
+    </row>
+    <row r="81" spans="1:9">
+      <c r="A81" s="323"/>
+      <c r="B81" s="329"/>
+      <c r="C81" s="170"/>
+      <c r="D81" s="214"/>
+      <c r="E81" s="214"/>
+      <c r="F81" s="330"/>
+      <c r="G81" s="330"/>
+      <c r="H81" s="330"/>
+      <c r="I81" s="331"/>
+    </row>
+    <row r="82" spans="1:9">
+      <c r="A82" s="323"/>
+      <c r="B82" s="326"/>
+      <c r="C82" s="327"/>
+      <c r="D82" s="327"/>
+      <c r="E82" s="327"/>
+      <c r="F82" s="327"/>
+      <c r="G82" s="327"/>
+      <c r="H82" s="327"/>
+      <c r="I82" s="328"/>
+    </row>
+    <row r="83" spans="1:9" ht="58.2" customHeight="1">
+      <c r="A83" s="323"/>
+      <c r="B83" s="329"/>
+      <c r="C83" s="170"/>
+      <c r="D83" s="212"/>
+      <c r="E83" s="207"/>
+      <c r="F83" s="170"/>
+      <c r="G83" s="170"/>
+      <c r="H83" s="170"/>
+      <c r="I83" s="63"/>
+    </row>
+    <row r="84" spans="1:9" ht="86.1" customHeight="1">
+      <c r="A84" s="323"/>
+      <c r="B84" s="329"/>
+      <c r="C84" s="170"/>
+      <c r="D84" s="212"/>
+      <c r="E84" s="207"/>
+      <c r="F84" s="170"/>
+      <c r="G84" s="170"/>
+      <c r="H84" s="170"/>
+      <c r="I84" s="63"/>
+    </row>
+    <row r="85" spans="1:9" ht="61.5" customHeight="1">
+      <c r="A85" s="323"/>
+      <c r="B85" s="329"/>
+      <c r="C85" s="170"/>
+      <c r="D85" s="212"/>
+      <c r="E85" s="207"/>
+      <c r="F85" s="170"/>
+      <c r="G85" s="170"/>
+      <c r="H85" s="170"/>
+      <c r="I85" s="63"/>
+    </row>
+    <row r="86" spans="1:9" ht="59.7" customHeight="1">
+      <c r="A86" s="323"/>
+      <c r="B86" s="329"/>
+      <c r="C86" s="170"/>
+      <c r="D86" s="212"/>
+      <c r="E86" s="207"/>
+      <c r="F86" s="170"/>
+      <c r="G86" s="170"/>
+      <c r="H86" s="170"/>
+      <c r="I86" s="63"/>
+    </row>
+    <row r="87" spans="1:9">
+      <c r="A87" s="323"/>
+      <c r="B87" s="326"/>
+      <c r="C87" s="332"/>
+      <c r="D87" s="332"/>
+      <c r="E87" s="332"/>
+      <c r="F87" s="332"/>
+      <c r="G87" s="332"/>
+      <c r="H87" s="332"/>
+      <c r="I87" s="333"/>
+    </row>
+    <row r="88" spans="1:9">
+      <c r="A88" s="323"/>
+      <c r="B88" s="329"/>
+      <c r="C88" s="170"/>
+      <c r="D88" s="212"/>
+      <c r="E88" s="207"/>
+      <c r="F88" s="170"/>
+      <c r="G88" s="170"/>
+      <c r="H88" s="170"/>
+      <c r="I88" s="63"/>
+    </row>
+    <row r="89" spans="1:9">
+      <c r="A89" s="171"/>
+      <c r="B89" s="242"/>
+      <c r="C89" s="243"/>
+      <c r="D89" s="244"/>
+      <c r="E89" s="172"/>
+      <c r="F89" s="173"/>
+      <c r="G89" s="173"/>
+      <c r="H89" s="173"/>
+      <c r="I89" s="172"/>
+    </row>
+    <row r="90" spans="1:9">
+      <c r="A90" s="323"/>
+      <c r="B90" s="170"/>
+      <c r="C90" s="170"/>
+      <c r="D90" s="59"/>
+      <c r="E90" s="207"/>
+      <c r="F90" s="170"/>
+      <c r="G90" s="170"/>
+      <c r="H90" s="170"/>
+      <c r="I90" s="63"/>
+    </row>
+    <row r="91" spans="1:9" ht="40.200000000000003" customHeight="1">
+      <c r="A91" s="323"/>
+      <c r="B91" s="170"/>
+      <c r="C91" s="170"/>
+      <c r="D91" s="59"/>
+      <c r="E91" s="207"/>
+      <c r="F91" s="170"/>
+      <c r="G91" s="170"/>
+      <c r="H91" s="170"/>
+      <c r="I91" s="63"/>
+    </row>
+    <row r="92" spans="1:9">
+      <c r="A92" s="323"/>
+      <c r="B92" s="170"/>
+      <c r="C92" s="170"/>
+      <c r="D92" s="59"/>
+      <c r="E92" s="207"/>
+      <c r="F92" s="170"/>
+      <c r="G92" s="170"/>
+      <c r="H92" s="170"/>
+      <c r="I92" s="63"/>
+    </row>
+    <row r="93" spans="1:9">
+      <c r="A93" s="323"/>
+      <c r="B93" s="170"/>
+      <c r="C93" s="170"/>
+      <c r="D93" s="59"/>
+      <c r="E93" s="207"/>
+      <c r="F93" s="170"/>
+      <c r="G93" s="170"/>
+      <c r="H93" s="170"/>
+      <c r="I93" s="63"/>
+    </row>
+    <row r="94" spans="1:9">
+      <c r="A94" s="323"/>
+      <c r="B94" s="170"/>
+      <c r="C94" s="170"/>
+      <c r="D94" s="207"/>
+      <c r="E94" s="207"/>
+      <c r="F94" s="170"/>
+      <c r="G94" s="170"/>
+      <c r="H94" s="170"/>
+      <c r="I94" s="63"/>
+    </row>
+    <row r="95" spans="1:9">
+      <c r="A95" s="323"/>
+      <c r="B95" s="170"/>
+      <c r="C95" s="170"/>
+      <c r="D95" s="207"/>
+      <c r="E95" s="207"/>
+      <c r="F95" s="170"/>
+      <c r="G95" s="170"/>
+      <c r="H95" s="170"/>
+      <c r="I95" s="63"/>
+    </row>
+    <row r="96" spans="1:9">
+      <c r="A96" s="62"/>
+      <c r="B96" s="209"/>
+      <c r="C96" s="209"/>
+      <c r="D96" s="207"/>
+      <c r="E96" s="54"/>
+      <c r="F96" s="209"/>
+      <c r="G96" s="209"/>
+      <c r="H96" s="209"/>
+      <c r="I96" s="62"/>
+    </row>
+    <row r="97" spans="1:9">
+      <c r="A97" s="62"/>
+      <c r="B97" s="209"/>
+      <c r="C97" s="209"/>
+      <c r="D97" s="207"/>
+      <c r="E97" s="54"/>
+      <c r="F97" s="209"/>
+      <c r="G97" s="209"/>
+      <c r="H97" s="209"/>
+      <c r="I97" s="62"/>
+    </row>
+    <row r="98" spans="1:9">
+      <c r="A98" s="62"/>
+      <c r="B98" s="209"/>
+      <c r="C98" s="209"/>
+      <c r="D98" s="207"/>
+      <c r="E98" s="54"/>
+      <c r="F98" s="209"/>
+      <c r="G98" s="209"/>
+      <c r="H98" s="209"/>
+      <c r="I98" s="62"/>
+    </row>
+    <row r="99" spans="1:9">
+      <c r="A99" s="58"/>
+      <c r="B99" s="209"/>
+      <c r="C99" s="209"/>
+      <c r="D99" s="59"/>
+      <c r="E99" s="54"/>
+      <c r="F99" s="209"/>
+      <c r="G99" s="209"/>
+      <c r="H99" s="209"/>
+      <c r="I99" s="62"/>
+    </row>
+    <row r="100" spans="1:9">
+      <c r="A100" s="62"/>
+      <c r="B100" s="209"/>
+      <c r="C100" s="198"/>
+      <c r="D100" s="212"/>
+      <c r="E100" s="54"/>
+      <c r="F100" s="209"/>
+      <c r="G100" s="209"/>
+      <c r="H100" s="209"/>
+      <c r="I100" s="62"/>
+    </row>
+    <row r="101" spans="1:9">
+      <c r="A101" s="62"/>
+      <c r="B101" s="209"/>
+      <c r="C101" s="198"/>
+      <c r="D101" s="212"/>
+      <c r="E101" s="54"/>
+      <c r="F101" s="209"/>
+      <c r="G101" s="209"/>
+      <c r="H101" s="209"/>
+      <c r="I101" s="62"/>
+    </row>
+    <row r="102" spans="1:9">
+      <c r="A102" s="62"/>
+      <c r="B102" s="209"/>
+      <c r="C102" s="198"/>
+      <c r="D102" s="212"/>
+      <c r="E102" s="54"/>
+      <c r="F102" s="209"/>
+      <c r="G102" s="209"/>
+      <c r="H102" s="209"/>
+      <c r="I102" s="62"/>
+    </row>
+    <row r="103" spans="1:9">
+      <c r="A103" s="62"/>
+      <c r="B103" s="209"/>
+      <c r="C103" s="198"/>
+      <c r="D103" s="212"/>
+      <c r="E103" s="54"/>
+      <c r="F103" s="209"/>
+      <c r="G103" s="209"/>
+      <c r="H103" s="209"/>
+      <c r="I103" s="62"/>
+    </row>
+    <row r="104" spans="1:9">
+      <c r="A104" s="62"/>
+      <c r="B104" s="209"/>
+      <c r="C104" s="198"/>
+      <c r="D104" s="212"/>
+      <c r="E104" s="54"/>
+      <c r="F104" s="209"/>
+      <c r="G104" s="209"/>
+      <c r="H104" s="209"/>
+      <c r="I104" s="62"/>
+    </row>
+    <row r="105" spans="1:9">
+      <c r="A105" s="62"/>
+      <c r="B105" s="209"/>
+      <c r="C105" s="198"/>
+      <c r="D105" s="212"/>
+      <c r="E105" s="54"/>
+      <c r="F105" s="209"/>
+      <c r="G105" s="209"/>
+      <c r="H105" s="209"/>
+      <c r="I105" s="62"/>
+    </row>
+    <row r="106" spans="1:9">
+      <c r="A106" s="62"/>
+      <c r="B106" s="209"/>
+      <c r="C106" s="198"/>
+      <c r="D106" s="212"/>
+      <c r="E106" s="54"/>
+      <c r="F106" s="209"/>
+      <c r="G106" s="209"/>
+      <c r="H106" s="209"/>
+      <c r="I106" s="62"/>
+    </row>
+    <row r="107" spans="1:9">
+      <c r="A107" s="62"/>
+      <c r="B107" s="209"/>
+      <c r="C107" s="198"/>
+      <c r="D107" s="212"/>
+      <c r="E107" s="54"/>
+      <c r="F107" s="209"/>
+      <c r="G107" s="209"/>
+      <c r="H107" s="209"/>
+      <c r="I107" s="62"/>
+    </row>
+    <row r="108" spans="1:9">
+      <c r="A108" s="62"/>
+      <c r="B108" s="209"/>
+      <c r="C108" s="198"/>
+      <c r="D108" s="212"/>
+      <c r="E108" s="54"/>
+      <c r="F108" s="209"/>
+      <c r="G108" s="209"/>
+      <c r="H108" s="209"/>
+      <c r="I108" s="62"/>
+    </row>
+    <row r="109" spans="1:9">
+      <c r="A109" s="62"/>
+      <c r="B109" s="209"/>
+      <c r="C109" s="198"/>
+      <c r="D109" s="212"/>
+      <c r="E109" s="54"/>
+      <c r="F109" s="209"/>
+      <c r="G109" s="209"/>
+      <c r="H109" s="209"/>
+      <c r="I109" s="62"/>
+    </row>
+    <row r="110" spans="1:9">
+      <c r="A110" s="62"/>
+      <c r="B110" s="209"/>
+      <c r="C110" s="198"/>
+      <c r="D110" s="212"/>
+      <c r="E110" s="54"/>
+      <c r="F110" s="209"/>
+      <c r="G110" s="209"/>
+      <c r="H110" s="209"/>
+      <c r="I110" s="62"/>
+    </row>
+    <row r="111" spans="1:9">
+      <c r="A111" s="62"/>
+      <c r="B111" s="209"/>
+      <c r="C111" s="198"/>
+      <c r="D111" s="212"/>
+      <c r="E111" s="54"/>
+      <c r="F111" s="209"/>
+      <c r="G111" s="209"/>
+      <c r="H111" s="209"/>
+      <c r="I111" s="62"/>
+    </row>
+    <row r="112" spans="1:9">
+      <c r="A112" s="77"/>
+      <c r="B112" s="250"/>
+      <c r="C112" s="251"/>
+      <c r="D112" s="252"/>
+      <c r="E112" s="69"/>
+      <c r="F112" s="66"/>
+      <c r="G112" s="66"/>
+      <c r="H112" s="66"/>
+      <c r="I112" s="69"/>
+    </row>
+    <row r="113" spans="1:9">
+      <c r="A113" s="62"/>
+      <c r="B113" s="209"/>
+      <c r="C113" s="209"/>
+      <c r="D113" s="54"/>
+      <c r="E113" s="54"/>
+      <c r="F113" s="209"/>
+      <c r="G113" s="209"/>
+      <c r="H113" s="209"/>
+      <c r="I113" s="62"/>
+    </row>
+    <row r="114" spans="1:9">
+      <c r="A114" s="62"/>
+      <c r="B114" s="209"/>
+      <c r="C114" s="209"/>
+      <c r="D114" s="54"/>
+      <c r="E114" s="54"/>
+      <c r="F114" s="209"/>
+      <c r="G114" s="209"/>
+      <c r="H114" s="209"/>
+      <c r="I114" s="62"/>
     </row>
   </sheetData>
-  <mergeCells count="32">
-    <mergeCell ref="I48:I49"/>
-    <mergeCell ref="B46:C46"/>
-    <mergeCell ref="A48:A50"/>
-    <mergeCell ref="B48:B50"/>
-    <mergeCell ref="C48:F48"/>
-    <mergeCell ref="G48:G49"/>
-    <mergeCell ref="H48:H49"/>
-    <mergeCell ref="C42:D42"/>
-    <mergeCell ref="E42:G42"/>
-    <mergeCell ref="C43:D43"/>
-    <mergeCell ref="E43:G43"/>
-    <mergeCell ref="C44:D44"/>
-    <mergeCell ref="E44:G44"/>
-    <mergeCell ref="F34:G34"/>
-    <mergeCell ref="F36:G36"/>
-    <mergeCell ref="F37:G37"/>
-    <mergeCell ref="B39:C39"/>
-    <mergeCell ref="C41:D41"/>
-    <mergeCell ref="E41:G41"/>
-    <mergeCell ref="F35:G35"/>
-    <mergeCell ref="G31:H31"/>
-    <mergeCell ref="C2:G2"/>
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="F3:G3"/>
-    <mergeCell ref="B6:C6"/>
-    <mergeCell ref="B14:D14"/>
-    <mergeCell ref="B23:D23"/>
-    <mergeCell ref="G26:H26"/>
-    <mergeCell ref="G27:H27"/>
-    <mergeCell ref="G28:H28"/>
-    <mergeCell ref="G29:H29"/>
-    <mergeCell ref="G30:H30"/>
+  <mergeCells count="16">
+    <mergeCell ref="B66:I66"/>
+    <mergeCell ref="B1:D1"/>
+    <mergeCell ref="B2:D2"/>
+    <mergeCell ref="B3:D3"/>
+    <mergeCell ref="B4:D4"/>
+    <mergeCell ref="B5:D5"/>
+    <mergeCell ref="F13:H13"/>
+    <mergeCell ref="B15:I15"/>
+    <mergeCell ref="B28:I28"/>
+    <mergeCell ref="B44:I44"/>
+    <mergeCell ref="B59:I59"/>
+    <mergeCell ref="B74:I74"/>
+    <mergeCell ref="B82:I82"/>
+    <mergeCell ref="B87:I87"/>
+    <mergeCell ref="B89:D89"/>
+    <mergeCell ref="B112:D112"/>
   </mergeCells>
-  <conditionalFormatting sqref="H51">
-    <cfRule type="cellIs" dxfId="5" priority="5" operator="equal">
-      <formula>"FAIL"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="4" priority="6" operator="equal">
-      <formula>"PASS"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I51:I52">
-    <cfRule type="cellIs" dxfId="3" priority="3" operator="equal">
-      <formula>"FAIL"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="4" operator="equal">
-      <formula>"PASS"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H52">
-    <cfRule type="cellIs" dxfId="1" priority="1" operator="equal">
-      <formula>"FAIL"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="0" priority="2" operator="equal">
-      <formula>"PASS"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H51:I52">
-      <formula1>"PASS,FAIL"</formula1>
+  <dataValidations count="2">
+    <dataValidation type="list" allowBlank="1" sqref="F16:H27 F29:H43 F45:H58 F60:H65 F75:H81 F83:H86 F67:H73 F88:H114">
+      <formula1>$A$11:$A$15</formula1>
     </dataValidation>
+    <dataValidation showDropDown="1" showErrorMessage="1" sqref="F13:H14"/>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
-  <drawing r:id="rId2"/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101008DD9373D9A24F64F89F14F461305A106" ma:contentTypeVersion="4" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="edefd2bea9a69e65a3918d4b9d850884">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="cabca498-5e2a-459c-ade0-601c6a98c846" xmlns:ns3="044e8ed5-b60c-40cd-b477-04c240ccf9c3" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="1cdcf90a8e7cb27405451b504492cec2" ns2:_="" ns3:_="">
     <xsd:import namespace="cabca498-5e2a-459c-ade0-601c6a98c846"/>
@@ -17457,22 +19169,32 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4F8C6C6D-E626-49D4-9BA8-E27B2B9C9191}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{06E3E4FA-795A-4742-A021-9CDC3210C50B}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="044e8ed5-b60c-40cd-b477-04c240ccf9c3"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="cabca498-5e2a-459c-ade0-601c6a98c846"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A7729ACD-7A20-4344-BFA5-B224A8419F45}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -17489,29 +19211,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4F8C6C6D-E626-49D4-9BA8-E27B2B9C9191}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{06E3E4FA-795A-4742-A021-9CDC3210C50B}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="044e8ed5-b60c-40cd-b477-04c240ccf9c3"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="cabca498-5e2a-459c-ade0-601c6a98c846"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/test design technic daongochuy.xlsx
+++ b/test design technic daongochuy.xlsx
@@ -5794,6 +5794,25 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="69" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="9" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="15" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="16" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="71" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="21" borderId="22" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -5872,6 +5891,57 @@
     <xf numFmtId="0" fontId="64" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="52" fillId="24" borderId="15" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="24" borderId="16" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="24" borderId="11" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="24" borderId="15" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="25" borderId="15" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="25" borderId="16" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="25" borderId="11" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="26" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="26" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="26" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="12" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="13" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="10" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="17" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="5" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="27" borderId="15" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -5887,12 +5957,6 @@
     <xf numFmtId="0" fontId="64" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="5" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="165" fontId="1" fillId="0" borderId="6" xfId="5" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -5911,24 +5975,6 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="25" borderId="15" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="25" borderId="16" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="25" borderId="11" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="24" borderId="15" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="24" borderId="16" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="24" borderId="11" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="30" borderId="15" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -5938,32 +5984,62 @@
     <xf numFmtId="0" fontId="3" fillId="30" borderId="11" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="41" borderId="15" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="41" borderId="16" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="41" borderId="11" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="15" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="16" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="11" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="33" borderId="15" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="33" borderId="16" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="33" borderId="11" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="36" borderId="15" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="36" borderId="16" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="36" borderId="11" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="40" borderId="15" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="40" borderId="16" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="40" borderId="11" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="52" fillId="24" borderId="15" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="26" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="26" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="26" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="12" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="13" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="10" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="17" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="37" borderId="15" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -5974,62 +6050,14 @@
     <xf numFmtId="0" fontId="3" fillId="37" borderId="11" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="37" fillId="36" borderId="15" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="36" borderId="16" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="36" borderId="11" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="41" borderId="15" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="41" borderId="16" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="41" borderId="11" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="15" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="16" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="11" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="33" borderId="15" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="33" borderId="16" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="33" borderId="11" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="40" borderId="15" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="40" borderId="16" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="40" borderId="11" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="37" fillId="10" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="10" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="10" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="37" fillId="36" borderId="16" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
@@ -6037,14 +6065,59 @@
     <xf numFmtId="0" fontId="37" fillId="36" borderId="11" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="37" fillId="10" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="10" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="10" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="37" fillId="9" borderId="15" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="16" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="11" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="9" borderId="16" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="9" borderId="11" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="12" xfId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="10" xfId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="30" fillId="3" borderId="0" xfId="7" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="14" xfId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="19" xfId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="3" fillId="2" borderId="18" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="3" fillId="2" borderId="20" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="3" fillId="2" borderId="15" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="3" fillId="2" borderId="16" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="3" fillId="2" borderId="11" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="18" xfId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="7" xfId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="46" fillId="0" borderId="6" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="48" fillId="0" borderId="15" xfId="7" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -6052,6 +6125,15 @@
     <xf numFmtId="0" fontId="48" fillId="0" borderId="11" xfId="7" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="166" fontId="3" fillId="2" borderId="6" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="61" fillId="0" borderId="15" xfId="7" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="61" fillId="0" borderId="11" xfId="7" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="166" fontId="43" fillId="12" borderId="0" xfId="7" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
@@ -6061,94 +6143,12 @@
     <xf numFmtId="166" fontId="44" fillId="0" borderId="0" xfId="7" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
     </xf>
-    <xf numFmtId="166" fontId="30" fillId="3" borderId="0" xfId="7" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="166" fontId="3" fillId="2" borderId="8" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="166" fontId="3" fillId="2" borderId="0" xfId="7" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="166" fontId="3" fillId="2" borderId="15" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="166" fontId="3" fillId="2" borderId="11" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="166" fontId="3" fillId="2" borderId="6" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="61" fillId="0" borderId="15" xfId="7" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="61" fillId="0" borderId="11" xfId="7" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="166" fontId="46" fillId="0" borderId="6" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="12" xfId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="10" xfId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="14" xfId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="19" xfId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="166" fontId="3" fillId="2" borderId="18" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="166" fontId="3" fillId="2" borderId="20" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="166" fontId="3" fillId="2" borderId="16" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="18" xfId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="7" xfId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="69" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="9" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="9" borderId="15" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="16" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="11" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="15" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="16" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="9" borderId="16" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="9" borderId="11" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="71" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="27">
     <cellStyle name="background" xfId="10"/>
@@ -7066,37 +7066,37 @@
       <c r="F3" s="18"/>
     </row>
     <row r="4" spans="1:6" ht="15" customHeight="1">
-      <c r="A4" s="219" t="s">
+      <c r="A4" s="226" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="220"/>
-      <c r="C4" s="220"/>
-      <c r="D4" s="220"/>
-      <c r="E4" s="221"/>
+      <c r="B4" s="227"/>
+      <c r="C4" s="227"/>
+      <c r="D4" s="227"/>
+      <c r="E4" s="228"/>
       <c r="F4" s="18"/>
     </row>
     <row r="5" spans="1:6">
-      <c r="A5" s="222" t="s">
+      <c r="A5" s="229" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="222"/>
-      <c r="C5" s="223" t="s">
+      <c r="B5" s="229"/>
+      <c r="C5" s="230" t="s">
         <v>4</v>
       </c>
-      <c r="D5" s="223"/>
-      <c r="E5" s="223"/>
+      <c r="D5" s="230"/>
+      <c r="E5" s="230"/>
       <c r="F5" s="18"/>
     </row>
     <row r="6" spans="1:6" ht="29.25" customHeight="1">
-      <c r="A6" s="224" t="s">
+      <c r="A6" s="231" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="225"/>
-      <c r="C6" s="218" t="s">
+      <c r="B6" s="232"/>
+      <c r="C6" s="225" t="s">
         <v>6</v>
       </c>
-      <c r="D6" s="218"/>
-      <c r="E6" s="218"/>
+      <c r="D6" s="225"/>
+      <c r="E6" s="225"/>
       <c r="F6" s="18"/>
     </row>
     <row r="7" spans="1:6" ht="29.25" customHeight="1">
@@ -7108,14 +7108,14 @@
       <c r="F7" s="18"/>
     </row>
     <row r="8" spans="1:6" s="147" customFormat="1" ht="29.25" customHeight="1">
-      <c r="A8" s="216" t="s">
+      <c r="A8" s="223" t="s">
         <v>7</v>
       </c>
-      <c r="B8" s="217"/>
-      <c r="C8" s="217"/>
-      <c r="D8" s="217"/>
-      <c r="E8" s="217"/>
-      <c r="F8" s="217"/>
+      <c r="B8" s="224"/>
+      <c r="C8" s="224"/>
+      <c r="D8" s="224"/>
+      <c r="E8" s="224"/>
+      <c r="F8" s="224"/>
     </row>
     <row r="9" spans="1:6" s="147" customFormat="1" ht="15" customHeight="1">
       <c r="A9" s="148" t="s">
@@ -7198,14 +7198,14 @@
       </c>
     </row>
     <row r="13" spans="1:6" s="147" customFormat="1" ht="30" customHeight="1">
-      <c r="A13" s="218" t="s">
+      <c r="A13" s="225" t="s">
         <v>23</v>
       </c>
-      <c r="B13" s="218"/>
-      <c r="C13" s="218"/>
-      <c r="D13" s="218"/>
-      <c r="E13" s="218"/>
-      <c r="F13" s="218"/>
+      <c r="B13" s="225"/>
+      <c r="C13" s="225"/>
+      <c r="D13" s="225"/>
+      <c r="E13" s="225"/>
+      <c r="F13" s="225"/>
     </row>
     <row r="14" spans="1:6">
       <c r="A14" s="18"/>
@@ -7336,13 +7336,13 @@
     </row>
     <row r="2" spans="1:12" s="84" customFormat="1" ht="25.2">
       <c r="A2" s="83"/>
-      <c r="C2" s="302" t="s">
+      <c r="C2" s="330" t="s">
         <v>119</v>
       </c>
-      <c r="D2" s="302"/>
-      <c r="E2" s="302"/>
-      <c r="F2" s="302"/>
-      <c r="G2" s="302"/>
+      <c r="D2" s="330"/>
+      <c r="E2" s="330"/>
+      <c r="F2" s="330"/>
+      <c r="G2" s="330"/>
       <c r="H2" s="85" t="s">
         <v>120</v>
       </c>
@@ -7353,15 +7353,15 @@
     </row>
     <row r="3" spans="1:12" s="84" customFormat="1" ht="22.5">
       <c r="A3" s="83"/>
-      <c r="C3" s="303" t="s">
+      <c r="C3" s="331" t="s">
         <v>121</v>
       </c>
-      <c r="D3" s="303"/>
+      <c r="D3" s="331"/>
       <c r="E3" s="157"/>
-      <c r="F3" s="304" t="s">
+      <c r="F3" s="332" t="s">
         <v>122</v>
       </c>
-      <c r="G3" s="304"/>
+      <c r="G3" s="332"/>
       <c r="H3" s="86"/>
       <c r="I3" s="86"/>
       <c r="J3" s="87"/>
@@ -7386,10 +7386,10 @@
       <c r="L5" s="92"/>
     </row>
     <row r="6" spans="1:12" ht="21.75" customHeight="1">
-      <c r="B6" s="305" t="s">
+      <c r="B6" s="314" t="s">
         <v>123</v>
       </c>
-      <c r="C6" s="305"/>
+      <c r="C6" s="314"/>
       <c r="D6" s="94"/>
       <c r="E6" s="94"/>
       <c r="F6" s="94"/>
@@ -7558,11 +7558,11 @@
       <c r="G13" s="98"/>
     </row>
     <row r="14" spans="1:12" ht="21.75" customHeight="1">
-      <c r="B14" s="305" t="s">
+      <c r="B14" s="314" t="s">
         <v>153</v>
       </c>
-      <c r="C14" s="305"/>
-      <c r="D14" s="305"/>
+      <c r="C14" s="314"/>
+      <c r="D14" s="314"/>
       <c r="E14" s="94"/>
       <c r="F14" s="94"/>
       <c r="G14" s="95"/>
@@ -7738,11 +7738,11 @@
       <c r="G22" s="98"/>
     </row>
     <row r="23" spans="1:12" ht="21.75" customHeight="1">
-      <c r="B23" s="305" t="s">
+      <c r="B23" s="314" t="s">
         <v>163</v>
       </c>
-      <c r="C23" s="305"/>
-      <c r="D23" s="305"/>
+      <c r="C23" s="314"/>
+      <c r="D23" s="314"/>
       <c r="E23" s="94"/>
       <c r="F23" s="94"/>
       <c r="G23" s="95"/>
@@ -7788,10 +7788,10 @@
       <c r="F26" s="160" t="s">
         <v>170</v>
       </c>
-      <c r="G26" s="306" t="s">
+      <c r="G26" s="333" t="s">
         <v>114</v>
       </c>
-      <c r="H26" s="307"/>
+      <c r="H26" s="334"/>
     </row>
     <row r="27" spans="1:12">
       <c r="A27" s="100">
@@ -7816,8 +7816,8 @@
         <f>COUNTIFS(#REF!, "*Critical*",#REF!,"*Closed*") + COUNTIFS(#REF!, "*Critical*",#REF!,"*Ready for client test*")</f>
         <v>#REF!</v>
       </c>
-      <c r="G27" s="300"/>
-      <c r="H27" s="301"/>
+      <c r="G27" s="325"/>
+      <c r="H27" s="326"/>
     </row>
     <row r="28" spans="1:12" ht="20.25" customHeight="1">
       <c r="A28" s="100">
@@ -7842,8 +7842,8 @@
         <f>COUNTIFS(#REF!, "*Major*",#REF!,"*Closed*") + COUNTIFS(#REF!, "*Major*",#REF!,"*Ready for client test*")</f>
         <v>#REF!</v>
       </c>
-      <c r="G28" s="300"/>
-      <c r="H28" s="301"/>
+      <c r="G28" s="325"/>
+      <c r="H28" s="326"/>
     </row>
     <row r="29" spans="1:12" ht="20.25" customHeight="1">
       <c r="A29" s="100">
@@ -7868,8 +7868,8 @@
         <f>COUNTIFS(#REF!, "*Normal*",#REF!,"*Closed*") + COUNTIFS(#REF!, "*Normal*",#REF!,"*Ready for client test*")</f>
         <v>#REF!</v>
       </c>
-      <c r="G29" s="300"/>
-      <c r="H29" s="301"/>
+      <c r="G29" s="325"/>
+      <c r="H29" s="326"/>
     </row>
     <row r="30" spans="1:12" ht="20.25" customHeight="1">
       <c r="A30" s="100">
@@ -7894,8 +7894,8 @@
         <f>COUNTIFS(#REF!, "*Minor*",#REF!,"*Closed*") + COUNTIFS(#REF!, "*Minor*",#REF!,"*Ready for client test*")</f>
         <v>#REF!</v>
       </c>
-      <c r="G30" s="300"/>
-      <c r="H30" s="301"/>
+      <c r="G30" s="325"/>
+      <c r="H30" s="326"/>
     </row>
     <row r="31" spans="1:12" ht="20.25" customHeight="1">
       <c r="A31" s="100"/>
@@ -7916,8 +7916,8 @@
         <f>SUM(F27:F30)</f>
         <v>#REF!</v>
       </c>
-      <c r="G31" s="300"/>
-      <c r="H31" s="301"/>
+      <c r="G31" s="325"/>
+      <c r="H31" s="326"/>
     </row>
     <row r="32" spans="1:12" ht="20.25" customHeight="1">
       <c r="A32" s="106"/>
@@ -7955,10 +7955,10 @@
       <c r="E34" s="160" t="s">
         <v>129</v>
       </c>
-      <c r="F34" s="308" t="s">
+      <c r="F34" s="319" t="s">
         <v>132</v>
       </c>
-      <c r="G34" s="309"/>
+      <c r="G34" s="321"/>
     </row>
     <row r="35" spans="1:12" s="125" customFormat="1" ht="14.1">
       <c r="A35" s="121"/>
@@ -7974,8 +7974,8 @@
       <c r="E35" s="126" t="s">
         <v>137</v>
       </c>
-      <c r="F35" s="311"/>
-      <c r="G35" s="312"/>
+      <c r="F35" s="328"/>
+      <c r="G35" s="329"/>
       <c r="H35" s="124"/>
       <c r="I35" s="124"/>
       <c r="J35" s="124"/>
@@ -7998,8 +7998,8 @@
       <c r="E36" s="104" t="s">
         <v>143</v>
       </c>
-      <c r="F36" s="300"/>
-      <c r="G36" s="301"/>
+      <c r="F36" s="325"/>
+      <c r="G36" s="326"/>
     </row>
     <row r="37" spans="1:12" ht="20.25" customHeight="1">
       <c r="A37" s="100">
@@ -8017,8 +8017,8 @@
       <c r="E37" s="104" t="s">
         <v>143</v>
       </c>
-      <c r="F37" s="300"/>
-      <c r="G37" s="301"/>
+      <c r="F37" s="325"/>
+      <c r="G37" s="326"/>
     </row>
     <row r="38" spans="1:12" ht="20.25" customHeight="1">
       <c r="A38" s="106"/>
@@ -8031,10 +8031,10 @@
       <c r="H38" s="108"/>
     </row>
     <row r="39" spans="1:12" ht="21.75" customHeight="1">
-      <c r="B39" s="305" t="s">
+      <c r="B39" s="314" t="s">
         <v>184</v>
       </c>
-      <c r="C39" s="305"/>
+      <c r="C39" s="314"/>
       <c r="D39" s="94"/>
       <c r="E39" s="94"/>
       <c r="F39" s="94"/>
@@ -8058,15 +8058,15 @@
       <c r="B41" s="160" t="s">
         <v>62</v>
       </c>
-      <c r="C41" s="310" t="s">
+      <c r="C41" s="327" t="s">
         <v>186</v>
       </c>
-      <c r="D41" s="310"/>
-      <c r="E41" s="310" t="s">
+      <c r="D41" s="327"/>
+      <c r="E41" s="327" t="s">
         <v>187</v>
       </c>
-      <c r="F41" s="310"/>
-      <c r="G41" s="310"/>
+      <c r="F41" s="327"/>
+      <c r="G41" s="327"/>
       <c r="H41" s="99" t="s">
         <v>188</v>
       </c>
@@ -8078,15 +8078,15 @@
       <c r="B42" s="161" t="s">
         <v>189</v>
       </c>
-      <c r="C42" s="313" t="s">
+      <c r="C42" s="324" t="s">
         <v>190</v>
       </c>
-      <c r="D42" s="313"/>
-      <c r="E42" s="313" t="s">
+      <c r="D42" s="324"/>
+      <c r="E42" s="324" t="s">
         <v>191</v>
       </c>
-      <c r="F42" s="313"/>
-      <c r="G42" s="313"/>
+      <c r="F42" s="324"/>
+      <c r="G42" s="324"/>
       <c r="H42" s="109"/>
     </row>
     <row r="43" spans="1:12" ht="34.5" customHeight="1">
@@ -8096,15 +8096,15 @@
       <c r="B43" s="161" t="s">
         <v>189</v>
       </c>
-      <c r="C43" s="313" t="s">
+      <c r="C43" s="324" t="s">
         <v>190</v>
       </c>
-      <c r="D43" s="313"/>
-      <c r="E43" s="313" t="s">
+      <c r="D43" s="324"/>
+      <c r="E43" s="324" t="s">
         <v>191</v>
       </c>
-      <c r="F43" s="313"/>
-      <c r="G43" s="313"/>
+      <c r="F43" s="324"/>
+      <c r="G43" s="324"/>
       <c r="H43" s="109"/>
     </row>
     <row r="44" spans="1:12" ht="34.5" customHeight="1">
@@ -8114,15 +8114,15 @@
       <c r="B44" s="161" t="s">
         <v>189</v>
       </c>
-      <c r="C44" s="313" t="s">
+      <c r="C44" s="324" t="s">
         <v>190</v>
       </c>
-      <c r="D44" s="313"/>
-      <c r="E44" s="313" t="s">
+      <c r="D44" s="324"/>
+      <c r="E44" s="324" t="s">
         <v>191</v>
       </c>
-      <c r="F44" s="313"/>
-      <c r="G44" s="313"/>
+      <c r="F44" s="324"/>
+      <c r="G44" s="324"/>
       <c r="H44" s="109"/>
     </row>
     <row r="45" spans="1:12">
@@ -8134,10 +8134,10 @@
       <c r="G45" s="98"/>
     </row>
     <row r="46" spans="1:12" ht="21.75" customHeight="1">
-      <c r="B46" s="305" t="s">
+      <c r="B46" s="314" t="s">
         <v>192</v>
       </c>
-      <c r="C46" s="305"/>
+      <c r="C46" s="314"/>
       <c r="D46" s="94"/>
       <c r="E46" s="94"/>
       <c r="F46" s="94"/>
@@ -8155,25 +8155,25 @@
       <c r="G47" s="98"/>
     </row>
     <row r="48" spans="1:12" s="113" customFormat="1" ht="21" customHeight="1">
-      <c r="A48" s="316" t="s">
+      <c r="A48" s="315" t="s">
         <v>58</v>
       </c>
-      <c r="B48" s="318" t="s">
+      <c r="B48" s="317" t="s">
         <v>194</v>
       </c>
-      <c r="C48" s="308" t="s">
+      <c r="C48" s="319" t="s">
         <v>195</v>
       </c>
       <c r="D48" s="320"/>
       <c r="E48" s="320"/>
-      <c r="F48" s="309"/>
-      <c r="G48" s="321" t="s">
+      <c r="F48" s="321"/>
+      <c r="G48" s="322" t="s">
         <v>162</v>
       </c>
-      <c r="H48" s="321" t="s">
+      <c r="H48" s="322" t="s">
         <v>194</v>
       </c>
-      <c r="I48" s="314" t="s">
+      <c r="I48" s="312" t="s">
         <v>196</v>
       </c>
       <c r="J48" s="112"/>
@@ -8181,8 +8181,8 @@
       <c r="L48" s="112"/>
     </row>
     <row r="49" spans="1:9">
-      <c r="A49" s="317"/>
-      <c r="B49" s="319"/>
+      <c r="A49" s="316"/>
+      <c r="B49" s="318"/>
       <c r="C49" s="114" t="s">
         <v>171</v>
       </c>
@@ -8195,13 +8195,13 @@
       <c r="F49" s="115" t="s">
         <v>174</v>
       </c>
-      <c r="G49" s="322"/>
-      <c r="H49" s="322"/>
-      <c r="I49" s="315"/>
+      <c r="G49" s="323"/>
+      <c r="H49" s="323"/>
+      <c r="I49" s="313"/>
     </row>
     <row r="50" spans="1:9" ht="25.2">
-      <c r="A50" s="317"/>
-      <c r="B50" s="319"/>
+      <c r="A50" s="316"/>
+      <c r="B50" s="318"/>
       <c r="C50" s="128" t="s">
         <v>197</v>
       </c>
@@ -8313,26 +8313,6 @@
     </row>
   </sheetData>
   <mergeCells count="32">
-    <mergeCell ref="I48:I49"/>
-    <mergeCell ref="B46:C46"/>
-    <mergeCell ref="A48:A50"/>
-    <mergeCell ref="B48:B50"/>
-    <mergeCell ref="C48:F48"/>
-    <mergeCell ref="G48:G49"/>
-    <mergeCell ref="H48:H49"/>
-    <mergeCell ref="C42:D42"/>
-    <mergeCell ref="E42:G42"/>
-    <mergeCell ref="C43:D43"/>
-    <mergeCell ref="E43:G43"/>
-    <mergeCell ref="C44:D44"/>
-    <mergeCell ref="E44:G44"/>
-    <mergeCell ref="F34:G34"/>
-    <mergeCell ref="F36:G36"/>
-    <mergeCell ref="F37:G37"/>
-    <mergeCell ref="B39:C39"/>
-    <mergeCell ref="C41:D41"/>
-    <mergeCell ref="E41:G41"/>
-    <mergeCell ref="F35:G35"/>
     <mergeCell ref="G31:H31"/>
     <mergeCell ref="C2:G2"/>
     <mergeCell ref="C3:D3"/>
@@ -8345,6 +8325,26 @@
     <mergeCell ref="G28:H28"/>
     <mergeCell ref="G29:H29"/>
     <mergeCell ref="G30:H30"/>
+    <mergeCell ref="F34:G34"/>
+    <mergeCell ref="F36:G36"/>
+    <mergeCell ref="F37:G37"/>
+    <mergeCell ref="B39:C39"/>
+    <mergeCell ref="C41:D41"/>
+    <mergeCell ref="E41:G41"/>
+    <mergeCell ref="F35:G35"/>
+    <mergeCell ref="C42:D42"/>
+    <mergeCell ref="E42:G42"/>
+    <mergeCell ref="C43:D43"/>
+    <mergeCell ref="E43:G43"/>
+    <mergeCell ref="C44:D44"/>
+    <mergeCell ref="E44:G44"/>
+    <mergeCell ref="I48:I49"/>
+    <mergeCell ref="B46:C46"/>
+    <mergeCell ref="A48:A50"/>
+    <mergeCell ref="B48:B50"/>
+    <mergeCell ref="C48:F48"/>
+    <mergeCell ref="G48:G49"/>
+    <mergeCell ref="H48:H49"/>
   </mergeCells>
   <conditionalFormatting sqref="H51">
     <cfRule type="cellIs" dxfId="5" priority="5" operator="equal">
@@ -8411,36 +8411,36 @@
       <c r="K1" s="34"/>
     </row>
     <row r="2" spans="1:11" ht="25.5" customHeight="1">
-      <c r="B2" s="231" t="s">
+      <c r="B2" s="238" t="s">
         <v>25</v>
       </c>
-      <c r="C2" s="231"/>
-      <c r="D2" s="231"/>
-      <c r="E2" s="231"/>
-      <c r="F2" s="231"/>
-      <c r="G2" s="231"/>
-      <c r="H2" s="231"/>
-      <c r="I2" s="231"/>
-      <c r="J2" s="229" t="s">
+      <c r="C2" s="238"/>
+      <c r="D2" s="238"/>
+      <c r="E2" s="238"/>
+      <c r="F2" s="238"/>
+      <c r="G2" s="238"/>
+      <c r="H2" s="238"/>
+      <c r="I2" s="238"/>
+      <c r="J2" s="236" t="s">
         <v>26</v>
       </c>
-      <c r="K2" s="229"/>
+      <c r="K2" s="236"/>
     </row>
     <row r="3" spans="1:11" ht="28.5" customHeight="1">
-      <c r="B3" s="232" t="s">
+      <c r="B3" s="239" t="s">
         <v>27</v>
       </c>
-      <c r="C3" s="232"/>
-      <c r="D3" s="232"/>
-      <c r="E3" s="232"/>
-      <c r="F3" s="230" t="s">
+      <c r="C3" s="239"/>
+      <c r="D3" s="239"/>
+      <c r="E3" s="239"/>
+      <c r="F3" s="237" t="s">
         <v>28</v>
       </c>
-      <c r="G3" s="230"/>
-      <c r="H3" s="230"/>
-      <c r="I3" s="230"/>
-      <c r="J3" s="229"/>
-      <c r="K3" s="229"/>
+      <c r="G3" s="237"/>
+      <c r="H3" s="237"/>
+      <c r="I3" s="237"/>
+      <c r="J3" s="236"/>
+      <c r="K3" s="236"/>
     </row>
     <row r="4" spans="1:11" ht="18" customHeight="1">
       <c r="B4" s="153"/>
@@ -8460,65 +8460,65 @@
       </c>
     </row>
     <row r="7" spans="1:11">
-      <c r="A7" s="236" t="s">
+      <c r="A7" s="243" t="s">
         <v>30</v>
       </c>
-      <c r="B7" s="236"/>
-      <c r="C7" s="236"/>
-      <c r="D7" s="236"/>
-      <c r="E7" s="236"/>
-      <c r="F7" s="236"/>
-      <c r="G7" s="236"/>
-      <c r="H7" s="236"/>
-      <c r="I7" s="236"/>
+      <c r="B7" s="243"/>
+      <c r="C7" s="243"/>
+      <c r="D7" s="243"/>
+      <c r="E7" s="243"/>
+      <c r="F7" s="243"/>
+      <c r="G7" s="243"/>
+      <c r="H7" s="243"/>
+      <c r="I7" s="243"/>
     </row>
     <row r="8" spans="1:11" ht="20.25" customHeight="1">
-      <c r="A8" s="236"/>
-      <c r="B8" s="236"/>
-      <c r="C8" s="236"/>
-      <c r="D8" s="236"/>
-      <c r="E8" s="236"/>
-      <c r="F8" s="236"/>
-      <c r="G8" s="236"/>
-      <c r="H8" s="236"/>
-      <c r="I8" s="236"/>
+      <c r="A8" s="243"/>
+      <c r="B8" s="243"/>
+      <c r="C8" s="243"/>
+      <c r="D8" s="243"/>
+      <c r="E8" s="243"/>
+      <c r="F8" s="243"/>
+      <c r="G8" s="243"/>
+      <c r="H8" s="243"/>
+      <c r="I8" s="243"/>
     </row>
     <row r="9" spans="1:11">
-      <c r="A9" s="236" t="s">
+      <c r="A9" s="243" t="s">
         <v>31</v>
       </c>
-      <c r="B9" s="236"/>
-      <c r="C9" s="236"/>
-      <c r="D9" s="236"/>
-      <c r="E9" s="236"/>
-      <c r="F9" s="236"/>
-      <c r="G9" s="236"/>
-      <c r="H9" s="236"/>
-      <c r="I9" s="236"/>
+      <c r="B9" s="243"/>
+      <c r="C9" s="243"/>
+      <c r="D9" s="243"/>
+      <c r="E9" s="243"/>
+      <c r="F9" s="243"/>
+      <c r="G9" s="243"/>
+      <c r="H9" s="243"/>
+      <c r="I9" s="243"/>
     </row>
     <row r="10" spans="1:11" ht="21" customHeight="1">
-      <c r="A10" s="236"/>
-      <c r="B10" s="236"/>
-      <c r="C10" s="236"/>
-      <c r="D10" s="236"/>
-      <c r="E10" s="236"/>
-      <c r="F10" s="236"/>
-      <c r="G10" s="236"/>
-      <c r="H10" s="236"/>
-      <c r="I10" s="236"/>
+      <c r="A10" s="243"/>
+      <c r="B10" s="243"/>
+      <c r="C10" s="243"/>
+      <c r="D10" s="243"/>
+      <c r="E10" s="243"/>
+      <c r="F10" s="243"/>
+      <c r="G10" s="243"/>
+      <c r="H10" s="243"/>
+      <c r="I10" s="243"/>
     </row>
     <row r="11" spans="1:11" ht="13.8">
-      <c r="A11" s="237" t="s">
+      <c r="A11" s="244" t="s">
         <v>32</v>
       </c>
-      <c r="B11" s="237"/>
-      <c r="C11" s="237"/>
-      <c r="D11" s="237"/>
-      <c r="E11" s="237"/>
-      <c r="F11" s="237"/>
-      <c r="G11" s="237"/>
-      <c r="H11" s="237"/>
-      <c r="I11" s="237"/>
+      <c r="B11" s="244"/>
+      <c r="C11" s="244"/>
+      <c r="D11" s="244"/>
+      <c r="E11" s="244"/>
+      <c r="F11" s="244"/>
+      <c r="G11" s="244"/>
+      <c r="H11" s="244"/>
+      <c r="I11" s="244"/>
     </row>
     <row r="12" spans="1:11">
       <c r="A12" s="3"/>
@@ -8540,65 +8540,65 @@
       <c r="A14" s="134" t="s">
         <v>34</v>
       </c>
-      <c r="B14" s="233" t="s">
+      <c r="B14" s="240" t="s">
         <v>35</v>
       </c>
-      <c r="C14" s="234"/>
-      <c r="D14" s="234"/>
-      <c r="E14" s="234"/>
-      <c r="F14" s="234"/>
-      <c r="G14" s="234"/>
-      <c r="H14" s="234"/>
-      <c r="I14" s="234"/>
-      <c r="J14" s="234"/>
-      <c r="K14" s="235"/>
+      <c r="C14" s="241"/>
+      <c r="D14" s="241"/>
+      <c r="E14" s="241"/>
+      <c r="F14" s="241"/>
+      <c r="G14" s="241"/>
+      <c r="H14" s="241"/>
+      <c r="I14" s="241"/>
+      <c r="J14" s="241"/>
+      <c r="K14" s="242"/>
     </row>
     <row r="15" spans="1:11" ht="14.25" customHeight="1">
       <c r="A15" s="134" t="s">
         <v>36</v>
       </c>
-      <c r="B15" s="233" t="s">
+      <c r="B15" s="240" t="s">
         <v>37</v>
       </c>
-      <c r="C15" s="234"/>
-      <c r="D15" s="234"/>
-      <c r="E15" s="234"/>
-      <c r="F15" s="234"/>
-      <c r="G15" s="234"/>
-      <c r="H15" s="234"/>
-      <c r="I15" s="234"/>
-      <c r="J15" s="234"/>
-      <c r="K15" s="235"/>
+      <c r="C15" s="241"/>
+      <c r="D15" s="241"/>
+      <c r="E15" s="241"/>
+      <c r="F15" s="241"/>
+      <c r="G15" s="241"/>
+      <c r="H15" s="241"/>
+      <c r="I15" s="241"/>
+      <c r="J15" s="241"/>
+      <c r="K15" s="242"/>
     </row>
     <row r="16" spans="1:11" ht="14.25" customHeight="1">
       <c r="A16" s="134"/>
-      <c r="B16" s="233" t="s">
+      <c r="B16" s="240" t="s">
         <v>38</v>
       </c>
-      <c r="C16" s="234"/>
-      <c r="D16" s="234"/>
-      <c r="E16" s="234"/>
-      <c r="F16" s="234"/>
-      <c r="G16" s="234"/>
-      <c r="H16" s="234"/>
-      <c r="I16" s="234"/>
-      <c r="J16" s="234"/>
-      <c r="K16" s="235"/>
+      <c r="C16" s="241"/>
+      <c r="D16" s="241"/>
+      <c r="E16" s="241"/>
+      <c r="F16" s="241"/>
+      <c r="G16" s="241"/>
+      <c r="H16" s="241"/>
+      <c r="I16" s="241"/>
+      <c r="J16" s="241"/>
+      <c r="K16" s="242"/>
     </row>
     <row r="17" spans="1:14" ht="14.25" customHeight="1">
       <c r="A17" s="134"/>
-      <c r="B17" s="233" t="s">
+      <c r="B17" s="240" t="s">
         <v>39</v>
       </c>
-      <c r="C17" s="234"/>
-      <c r="D17" s="234"/>
-      <c r="E17" s="234"/>
-      <c r="F17" s="234"/>
-      <c r="G17" s="234"/>
-      <c r="H17" s="234"/>
-      <c r="I17" s="234"/>
-      <c r="J17" s="234"/>
-      <c r="K17" s="235"/>
+      <c r="C17" s="241"/>
+      <c r="D17" s="241"/>
+      <c r="E17" s="241"/>
+      <c r="F17" s="241"/>
+      <c r="G17" s="241"/>
+      <c r="H17" s="241"/>
+      <c r="I17" s="241"/>
+      <c r="J17" s="241"/>
+      <c r="K17" s="242"/>
     </row>
     <row r="19" spans="1:14" ht="22.5">
       <c r="A19" s="4" t="s">
@@ -8609,40 +8609,40 @@
       <c r="A20" s="134" t="s">
         <v>41</v>
       </c>
-      <c r="B20" s="233" t="s">
+      <c r="B20" s="240" t="s">
         <v>42</v>
       </c>
-      <c r="C20" s="234"/>
-      <c r="D20" s="234"/>
-      <c r="E20" s="234"/>
-      <c r="F20" s="234"/>
-      <c r="G20" s="235"/>
+      <c r="C20" s="241"/>
+      <c r="D20" s="241"/>
+      <c r="E20" s="241"/>
+      <c r="F20" s="241"/>
+      <c r="G20" s="242"/>
     </row>
     <row r="21" spans="1:14" ht="12.75" customHeight="1">
       <c r="A21" s="134" t="s">
         <v>43</v>
       </c>
-      <c r="B21" s="233" t="s">
+      <c r="B21" s="240" t="s">
         <v>44</v>
       </c>
-      <c r="C21" s="234"/>
-      <c r="D21" s="234"/>
-      <c r="E21" s="234"/>
-      <c r="F21" s="234"/>
-      <c r="G21" s="235"/>
+      <c r="C21" s="241"/>
+      <c r="D21" s="241"/>
+      <c r="E21" s="241"/>
+      <c r="F21" s="241"/>
+      <c r="G21" s="242"/>
     </row>
     <row r="22" spans="1:14" ht="12.75" customHeight="1">
       <c r="A22" s="134" t="s">
         <v>45</v>
       </c>
-      <c r="B22" s="233" t="s">
+      <c r="B22" s="240" t="s">
         <v>46</v>
       </c>
-      <c r="C22" s="234"/>
-      <c r="D22" s="234"/>
-      <c r="E22" s="234"/>
-      <c r="F22" s="234"/>
-      <c r="G22" s="235"/>
+      <c r="C22" s="241"/>
+      <c r="D22" s="241"/>
+      <c r="E22" s="241"/>
+      <c r="F22" s="241"/>
+      <c r="G22" s="242"/>
     </row>
     <row r="24" spans="1:14" ht="22.5">
       <c r="A24" s="4" t="s">
@@ -8701,11 +8701,11 @@
       <c r="N27" s="70"/>
     </row>
     <row r="29" spans="1:14" ht="21.75" customHeight="1">
-      <c r="B29" s="226" t="s">
+      <c r="B29" s="233" t="s">
         <v>51</v>
       </c>
-      <c r="C29" s="227"/>
-      <c r="D29" s="228"/>
+      <c r="C29" s="234"/>
+      <c r="D29" s="235"/>
     </row>
     <row r="30" spans="1:14" ht="90" customHeight="1">
       <c r="B30" s="5"/>
@@ -8782,14 +8782,14 @@
       <c r="J1" s="7"/>
     </row>
     <row r="2" spans="1:10" s="9" customFormat="1" ht="24.9">
-      <c r="A2" s="238" t="s">
+      <c r="A2" s="245" t="s">
         <v>56</v>
       </c>
-      <c r="B2" s="238"/>
-      <c r="C2" s="238"/>
-      <c r="D2" s="238"/>
-      <c r="E2" s="238"/>
-      <c r="F2" s="238"/>
+      <c r="B2" s="245"/>
+      <c r="C2" s="245"/>
+      <c r="D2" s="245"/>
+      <c r="E2" s="245"/>
+      <c r="F2" s="245"/>
     </row>
     <row r="3" spans="1:10">
       <c r="A3" s="10"/>
@@ -8975,12 +8975,12 @@
       <c r="K1" s="34"/>
     </row>
     <row r="2" spans="1:11" s="1" customFormat="1" ht="25.2">
-      <c r="A2" s="241" t="s">
+      <c r="A2" s="248" t="s">
         <v>70</v>
       </c>
-      <c r="B2" s="241"/>
-      <c r="C2" s="241"/>
-      <c r="D2" s="241"/>
+      <c r="B2" s="248"/>
+      <c r="C2" s="248"/>
+      <c r="D2" s="248"/>
       <c r="E2" s="156"/>
       <c r="F2" s="23"/>
       <c r="G2" s="23"/>
@@ -9141,18 +9141,18 @@
       <c r="F14" s="29"/>
     </row>
     <row r="16" spans="1:11" ht="14.1">
-      <c r="A16" s="239" t="s">
+      <c r="A16" s="246" t="s">
         <v>91</v>
       </c>
-      <c r="B16" s="239"/>
+      <c r="B16" s="246"/>
       <c r="C16" s="30"/>
       <c r="D16" s="31"/>
     </row>
     <row r="17" spans="1:4" ht="13.8">
-      <c r="A17" s="240" t="s">
+      <c r="A17" s="247" t="s">
         <v>92</v>
       </c>
-      <c r="B17" s="240"/>
+      <c r="B17" s="247"/>
     </row>
     <row r="20" spans="1:4">
       <c r="A20" s="33"/>
@@ -9198,10 +9198,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:24" s="1" customFormat="1" ht="13.8">
-      <c r="A1" s="245"/>
-      <c r="B1" s="245"/>
-      <c r="C1" s="245"/>
-      <c r="D1" s="245"/>
+      <c r="A1" s="269"/>
+      <c r="B1" s="269"/>
+      <c r="C1" s="269"/>
+      <c r="D1" s="269"/>
       <c r="E1" s="34"/>
       <c r="F1" s="34"/>
       <c r="G1" s="34"/>
@@ -9210,13 +9210,13 @@
       <c r="J1" s="34"/>
     </row>
     <row r="2" spans="1:24" s="1" customFormat="1" ht="31.5" customHeight="1">
-      <c r="A2" s="246" t="s">
+      <c r="A2" s="270" t="s">
         <v>70</v>
       </c>
-      <c r="B2" s="246"/>
-      <c r="C2" s="246"/>
-      <c r="D2" s="246"/>
-      <c r="E2" s="254"/>
+      <c r="B2" s="270"/>
+      <c r="C2" s="270"/>
+      <c r="D2" s="270"/>
+      <c r="E2" s="276"/>
       <c r="F2" s="23"/>
       <c r="G2" s="23"/>
       <c r="H2" s="23"/>
@@ -9225,9 +9225,9 @@
     </row>
     <row r="3" spans="1:24" s="1" customFormat="1" ht="31.5" customHeight="1">
       <c r="A3" s="47"/>
-      <c r="C3" s="264"/>
-      <c r="D3" s="264"/>
-      <c r="E3" s="254"/>
+      <c r="C3" s="263"/>
+      <c r="D3" s="263"/>
+      <c r="E3" s="276"/>
       <c r="F3" s="23"/>
       <c r="G3" s="23"/>
       <c r="H3" s="23"/>
@@ -9238,11 +9238,11 @@
       <c r="A4" s="139" t="s">
         <v>66</v>
       </c>
-      <c r="B4" s="248" t="s">
+      <c r="B4" s="264" t="s">
         <v>93</v>
       </c>
-      <c r="C4" s="248"/>
-      <c r="D4" s="248"/>
+      <c r="C4" s="264"/>
+      <c r="D4" s="264"/>
       <c r="E4" s="39"/>
       <c r="F4" s="39"/>
       <c r="G4" s="39"/>
@@ -9256,11 +9256,11 @@
       <c r="A5" s="139" t="s">
         <v>62</v>
       </c>
-      <c r="B5" s="247" t="s">
+      <c r="B5" s="265" t="s">
         <v>95</v>
       </c>
-      <c r="C5" s="248"/>
-      <c r="D5" s="248"/>
+      <c r="C5" s="264"/>
+      <c r="D5" s="264"/>
       <c r="E5" s="39"/>
       <c r="F5" s="39"/>
       <c r="G5" s="39"/>
@@ -9274,11 +9274,11 @@
       <c r="A6" s="139" t="s">
         <v>97</v>
       </c>
-      <c r="B6" s="247" t="s">
+      <c r="B6" s="265" t="s">
         <v>98</v>
       </c>
-      <c r="C6" s="248"/>
-      <c r="D6" s="248"/>
+      <c r="C6" s="264"/>
+      <c r="D6" s="264"/>
       <c r="E6" s="39"/>
       <c r="F6" s="39"/>
       <c r="G6" s="39"/>
@@ -9289,11 +9289,11 @@
       <c r="A7" s="139" t="s">
         <v>99</v>
       </c>
-      <c r="B7" s="248" t="s">
+      <c r="B7" s="264" t="s">
         <v>100</v>
       </c>
-      <c r="C7" s="248"/>
-      <c r="D7" s="248"/>
+      <c r="C7" s="264"/>
+      <c r="D7" s="264"/>
       <c r="E7" s="39"/>
       <c r="F7" s="39"/>
       <c r="G7" s="39"/>
@@ -9305,11 +9305,11 @@
       <c r="A8" s="139" t="s">
         <v>101</v>
       </c>
-      <c r="B8" s="249">
+      <c r="B8" s="271">
         <v>40850</v>
       </c>
-      <c r="C8" s="249"/>
-      <c r="D8" s="249"/>
+      <c r="C8" s="271"/>
+      <c r="D8" s="271"/>
       <c r="E8" s="39"/>
     </row>
     <row r="9" spans="1:24" s="43" customFormat="1">
@@ -9452,11 +9452,11 @@
       <c r="C16" s="50"/>
       <c r="D16" s="51"/>
       <c r="E16" s="56"/>
-      <c r="F16" s="253" t="s">
+      <c r="F16" s="275" t="s">
         <v>102</v>
       </c>
-      <c r="G16" s="253"/>
-      <c r="H16" s="253"/>
+      <c r="G16" s="275"/>
+      <c r="H16" s="275"/>
       <c r="I16" s="57"/>
     </row>
     <row r="17" spans="1:9" s="44" customFormat="1" ht="36.9">
@@ -9492,16 +9492,16 @@
       <c r="A18" s="67" t="s">
         <v>204</v>
       </c>
-      <c r="B18" s="250" t="s">
+      <c r="B18" s="272" t="s">
         <v>206</v>
       </c>
-      <c r="C18" s="251"/>
-      <c r="D18" s="251"/>
-      <c r="E18" s="251"/>
-      <c r="F18" s="251"/>
-      <c r="G18" s="251"/>
-      <c r="H18" s="251"/>
-      <c r="I18" s="252"/>
+      <c r="C18" s="273"/>
+      <c r="D18" s="273"/>
+      <c r="E18" s="273"/>
+      <c r="F18" s="273"/>
+      <c r="G18" s="273"/>
+      <c r="H18" s="273"/>
+      <c r="I18" s="274"/>
     </row>
     <row r="19" spans="1:9" s="45" customFormat="1" ht="27.6" customHeight="1">
       <c r="A19" s="52">
@@ -9526,16 +9526,16 @@
     </row>
     <row r="20" spans="1:9" s="45" customFormat="1">
       <c r="A20" s="168"/>
-      <c r="B20" s="258" t="s">
+      <c r="B20" s="252" t="s">
         <v>219</v>
       </c>
-      <c r="C20" s="259"/>
-      <c r="D20" s="259"/>
-      <c r="E20" s="259"/>
-      <c r="F20" s="259"/>
-      <c r="G20" s="259"/>
-      <c r="H20" s="259"/>
-      <c r="I20" s="260"/>
+      <c r="C20" s="250"/>
+      <c r="D20" s="250"/>
+      <c r="E20" s="250"/>
+      <c r="F20" s="250"/>
+      <c r="G20" s="250"/>
+      <c r="H20" s="250"/>
+      <c r="I20" s="251"/>
     </row>
     <row r="21" spans="1:9" s="45" customFormat="1" ht="20.7" customHeight="1">
       <c r="A21" s="58">
@@ -9583,16 +9583,16 @@
     </row>
     <row r="23" spans="1:9" s="45" customFormat="1">
       <c r="A23" s="168"/>
-      <c r="B23" s="258" t="s">
+      <c r="B23" s="252" t="s">
         <v>220</v>
       </c>
-      <c r="C23" s="259"/>
-      <c r="D23" s="259"/>
-      <c r="E23" s="259"/>
-      <c r="F23" s="259"/>
-      <c r="G23" s="259"/>
-      <c r="H23" s="259"/>
-      <c r="I23" s="260"/>
+      <c r="C23" s="250"/>
+      <c r="D23" s="250"/>
+      <c r="E23" s="250"/>
+      <c r="F23" s="250"/>
+      <c r="G23" s="250"/>
+      <c r="H23" s="250"/>
+      <c r="I23" s="251"/>
     </row>
     <row r="24" spans="1:9" s="48" customFormat="1" ht="13.8">
       <c r="A24" s="58">
@@ -9662,16 +9662,16 @@
     </row>
     <row r="27" spans="1:9" s="48" customFormat="1" ht="13.8">
       <c r="A27" s="168"/>
-      <c r="B27" s="255" t="s">
+      <c r="B27" s="253" t="s">
         <v>225</v>
       </c>
-      <c r="C27" s="256"/>
-      <c r="D27" s="256"/>
-      <c r="E27" s="256"/>
-      <c r="F27" s="256"/>
-      <c r="G27" s="256"/>
-      <c r="H27" s="256"/>
-      <c r="I27" s="257"/>
+      <c r="C27" s="254"/>
+      <c r="D27" s="254"/>
+      <c r="E27" s="254"/>
+      <c r="F27" s="254"/>
+      <c r="G27" s="254"/>
+      <c r="H27" s="254"/>
+      <c r="I27" s="255"/>
     </row>
     <row r="28" spans="1:9" s="48" customFormat="1" ht="13.8">
       <c r="A28" s="58">
@@ -9741,16 +9741,16 @@
     </row>
     <row r="31" spans="1:9" s="48" customFormat="1" ht="13.8">
       <c r="A31" s="169"/>
-      <c r="B31" s="251" t="s">
+      <c r="B31" s="273" t="s">
         <v>205</v>
       </c>
-      <c r="C31" s="251"/>
-      <c r="D31" s="251"/>
-      <c r="E31" s="251"/>
-      <c r="F31" s="251"/>
-      <c r="G31" s="251"/>
-      <c r="H31" s="251"/>
-      <c r="I31" s="252"/>
+      <c r="C31" s="273"/>
+      <c r="D31" s="273"/>
+      <c r="E31" s="273"/>
+      <c r="F31" s="273"/>
+      <c r="G31" s="273"/>
+      <c r="H31" s="273"/>
+      <c r="I31" s="274"/>
     </row>
     <row r="32" spans="1:9" s="48" customFormat="1" ht="13.8">
       <c r="A32" s="58">
@@ -9776,16 +9776,16 @@
     </row>
     <row r="33" spans="1:9" s="48" customFormat="1" ht="13.8">
       <c r="A33" s="168"/>
-      <c r="B33" s="258" t="s">
+      <c r="B33" s="252" t="s">
         <v>219</v>
       </c>
-      <c r="C33" s="259"/>
-      <c r="D33" s="259"/>
-      <c r="E33" s="259"/>
-      <c r="F33" s="259"/>
-      <c r="G33" s="259"/>
-      <c r="H33" s="259"/>
-      <c r="I33" s="260"/>
+      <c r="C33" s="250"/>
+      <c r="D33" s="250"/>
+      <c r="E33" s="250"/>
+      <c r="F33" s="250"/>
+      <c r="G33" s="250"/>
+      <c r="H33" s="250"/>
+      <c r="I33" s="251"/>
     </row>
     <row r="34" spans="1:9" s="48" customFormat="1" ht="17.7" customHeight="1">
       <c r="A34" s="58">
@@ -9833,16 +9833,16 @@
     </row>
     <row r="36" spans="1:9" s="48" customFormat="1" ht="13.8">
       <c r="A36" s="168"/>
-      <c r="B36" s="258" t="s">
+      <c r="B36" s="252" t="s">
         <v>220</v>
       </c>
-      <c r="C36" s="259"/>
-      <c r="D36" s="259"/>
-      <c r="E36" s="259"/>
-      <c r="F36" s="259"/>
-      <c r="G36" s="259"/>
-      <c r="H36" s="259"/>
-      <c r="I36" s="260"/>
+      <c r="C36" s="250"/>
+      <c r="D36" s="250"/>
+      <c r="E36" s="250"/>
+      <c r="F36" s="250"/>
+      <c r="G36" s="250"/>
+      <c r="H36" s="250"/>
+      <c r="I36" s="251"/>
     </row>
     <row r="37" spans="1:9" s="48" customFormat="1" ht="13.8">
       <c r="A37" s="58">
@@ -9912,16 +9912,16 @@
     </row>
     <row r="40" spans="1:9" s="48" customFormat="1" ht="13.8">
       <c r="A40" s="168"/>
-      <c r="B40" s="255" t="s">
+      <c r="B40" s="253" t="s">
         <v>225</v>
       </c>
-      <c r="C40" s="256"/>
-      <c r="D40" s="256"/>
-      <c r="E40" s="256"/>
-      <c r="F40" s="256"/>
-      <c r="G40" s="256"/>
-      <c r="H40" s="256"/>
-      <c r="I40" s="257"/>
+      <c r="C40" s="254"/>
+      <c r="D40" s="254"/>
+      <c r="E40" s="254"/>
+      <c r="F40" s="254"/>
+      <c r="G40" s="254"/>
+      <c r="H40" s="254"/>
+      <c r="I40" s="255"/>
     </row>
     <row r="41" spans="1:9" s="49" customFormat="1" ht="13.8">
       <c r="A41" s="58">
@@ -9991,16 +9991,16 @@
     </row>
     <row r="44" spans="1:9" s="48" customFormat="1" ht="13.8">
       <c r="A44" s="168"/>
-      <c r="B44" s="266" t="s">
+      <c r="B44" s="256" t="s">
         <v>240</v>
       </c>
-      <c r="C44" s="267"/>
-      <c r="D44" s="267"/>
-      <c r="E44" s="267"/>
-      <c r="F44" s="267"/>
-      <c r="G44" s="267"/>
-      <c r="H44" s="267"/>
-      <c r="I44" s="268"/>
+      <c r="C44" s="257"/>
+      <c r="D44" s="257"/>
+      <c r="E44" s="257"/>
+      <c r="F44" s="257"/>
+      <c r="G44" s="257"/>
+      <c r="H44" s="257"/>
+      <c r="I44" s="258"/>
     </row>
     <row r="45" spans="1:9" s="48" customFormat="1" ht="13.8">
       <c r="A45" s="58">
@@ -10092,29 +10092,29 @@
     </row>
     <row r="49" spans="1:9" s="48" customFormat="1" ht="13.8">
       <c r="A49" s="167"/>
-      <c r="B49" s="269" t="s">
+      <c r="B49" s="259" t="s">
         <v>253</v>
       </c>
-      <c r="C49" s="270"/>
-      <c r="D49" s="270"/>
-      <c r="E49" s="270"/>
-      <c r="F49" s="270"/>
-      <c r="G49" s="270"/>
-      <c r="H49" s="270"/>
-      <c r="I49" s="270"/>
+      <c r="C49" s="260"/>
+      <c r="D49" s="260"/>
+      <c r="E49" s="260"/>
+      <c r="F49" s="260"/>
+      <c r="G49" s="260"/>
+      <c r="H49" s="260"/>
+      <c r="I49" s="260"/>
     </row>
     <row r="50" spans="1:9" s="48" customFormat="1" ht="13.8">
       <c r="A50" s="180"/>
-      <c r="B50" s="271" t="s">
+      <c r="B50" s="261" t="s">
         <v>254</v>
       </c>
-      <c r="C50" s="272"/>
-      <c r="D50" s="272"/>
-      <c r="E50" s="272"/>
-      <c r="F50" s="272"/>
-      <c r="G50" s="272"/>
-      <c r="H50" s="272"/>
-      <c r="I50" s="272"/>
+      <c r="C50" s="262"/>
+      <c r="D50" s="262"/>
+      <c r="E50" s="262"/>
+      <c r="F50" s="262"/>
+      <c r="G50" s="262"/>
+      <c r="H50" s="262"/>
+      <c r="I50" s="262"/>
     </row>
     <row r="51" spans="1:9" s="48" customFormat="1" ht="13.8">
       <c r="A51" s="58">
@@ -10237,16 +10237,16 @@
     </row>
     <row r="57" spans="1:9" s="48" customFormat="1" ht="13.8">
       <c r="A57" s="180"/>
-      <c r="B57" s="265" t="s">
+      <c r="B57" s="249" t="s">
         <v>260</v>
       </c>
-      <c r="C57" s="259"/>
-      <c r="D57" s="259"/>
-      <c r="E57" s="259"/>
-      <c r="F57" s="259"/>
-      <c r="G57" s="259"/>
-      <c r="H57" s="259"/>
-      <c r="I57" s="260"/>
+      <c r="C57" s="250"/>
+      <c r="D57" s="250"/>
+      <c r="E57" s="250"/>
+      <c r="F57" s="250"/>
+      <c r="G57" s="250"/>
+      <c r="H57" s="250"/>
+      <c r="I57" s="251"/>
     </row>
     <row r="58" spans="1:9" s="48" customFormat="1" ht="13.8">
       <c r="A58" s="58">
@@ -10370,16 +10370,16 @@
     </row>
     <row r="64" spans="1:9" s="48" customFormat="1" ht="13.8">
       <c r="A64" s="168"/>
-      <c r="B64" s="261" t="s">
+      <c r="B64" s="277" t="s">
         <v>262</v>
       </c>
-      <c r="C64" s="262"/>
-      <c r="D64" s="262"/>
-      <c r="E64" s="262"/>
-      <c r="F64" s="262"/>
-      <c r="G64" s="262"/>
-      <c r="H64" s="262"/>
-      <c r="I64" s="263"/>
+      <c r="C64" s="278"/>
+      <c r="D64" s="278"/>
+      <c r="E64" s="278"/>
+      <c r="F64" s="278"/>
+      <c r="G64" s="278"/>
+      <c r="H64" s="278"/>
+      <c r="I64" s="279"/>
     </row>
     <row r="65" spans="1:9" s="48" customFormat="1" ht="24.6">
       <c r="A65" s="58">
@@ -10496,9 +10496,9 @@
     </row>
     <row r="73" spans="1:9" s="48" customFormat="1" ht="13.8">
       <c r="A73" s="171"/>
-      <c r="B73" s="242"/>
-      <c r="C73" s="243"/>
-      <c r="D73" s="244"/>
+      <c r="B73" s="266"/>
+      <c r="C73" s="267"/>
+      <c r="D73" s="268"/>
       <c r="E73" s="172"/>
       <c r="F73" s="173"/>
       <c r="G73" s="173"/>
@@ -10540,9 +10540,9 @@
     </row>
     <row r="77" spans="1:9" s="48" customFormat="1" ht="13.8">
       <c r="A77" s="171"/>
-      <c r="B77" s="242"/>
-      <c r="C77" s="243"/>
-      <c r="D77" s="244"/>
+      <c r="B77" s="266"/>
+      <c r="C77" s="267"/>
+      <c r="D77" s="268"/>
       <c r="E77" s="172"/>
       <c r="F77" s="173"/>
       <c r="G77" s="173"/>
@@ -10584,9 +10584,9 @@
     </row>
     <row r="81" spans="1:9" s="48" customFormat="1" ht="14.25" customHeight="1">
       <c r="A81" s="171"/>
-      <c r="B81" s="242"/>
-      <c r="C81" s="243"/>
-      <c r="D81" s="244"/>
+      <c r="B81" s="266"/>
+      <c r="C81" s="267"/>
+      <c r="D81" s="268"/>
       <c r="E81" s="172"/>
       <c r="F81" s="173"/>
       <c r="G81" s="173"/>
@@ -10617,9 +10617,9 @@
     </row>
     <row r="84" spans="1:9" s="48" customFormat="1" ht="14.25" customHeight="1">
       <c r="A84" s="171"/>
-      <c r="B84" s="242"/>
-      <c r="C84" s="243"/>
-      <c r="D84" s="244"/>
+      <c r="B84" s="266"/>
+      <c r="C84" s="267"/>
+      <c r="D84" s="268"/>
       <c r="E84" s="172"/>
       <c r="F84" s="173"/>
       <c r="G84" s="173"/>
@@ -10770,17 +10770,6 @@
     </row>
   </sheetData>
   <mergeCells count="27">
-    <mergeCell ref="B57:I57"/>
-    <mergeCell ref="B36:I36"/>
-    <mergeCell ref="B40:I40"/>
-    <mergeCell ref="B44:I44"/>
-    <mergeCell ref="B49:I49"/>
-    <mergeCell ref="B50:I50"/>
-    <mergeCell ref="B20:I20"/>
-    <mergeCell ref="B23:I23"/>
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="B4:D4"/>
-    <mergeCell ref="B5:D5"/>
     <mergeCell ref="B77:D77"/>
     <mergeCell ref="B81:D81"/>
     <mergeCell ref="B84:D84"/>
@@ -10797,6 +10786,17 @@
     <mergeCell ref="B31:I31"/>
     <mergeCell ref="B33:I33"/>
     <mergeCell ref="B64:I64"/>
+    <mergeCell ref="B20:I20"/>
+    <mergeCell ref="B23:I23"/>
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="B4:D4"/>
+    <mergeCell ref="B5:D5"/>
+    <mergeCell ref="B57:I57"/>
+    <mergeCell ref="B36:I36"/>
+    <mergeCell ref="B40:I40"/>
+    <mergeCell ref="B44:I44"/>
+    <mergeCell ref="B49:I49"/>
+    <mergeCell ref="B50:I50"/>
   </mergeCells>
   <dataValidations count="3">
     <dataValidation showDropDown="1" showErrorMessage="1" sqref="F16:H17"/>
@@ -10835,10 +10835,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:24" s="1" customFormat="1" ht="13.8">
-      <c r="A1" s="245"/>
-      <c r="B1" s="245"/>
-      <c r="C1" s="245"/>
-      <c r="D1" s="245"/>
+      <c r="A1" s="269"/>
+      <c r="B1" s="269"/>
+      <c r="C1" s="269"/>
+      <c r="D1" s="269"/>
       <c r="E1" s="34"/>
       <c r="F1" s="34"/>
       <c r="G1" s="34"/>
@@ -10847,13 +10847,13 @@
       <c r="J1" s="34"/>
     </row>
     <row r="2" spans="1:24" s="1" customFormat="1" ht="31.5" customHeight="1">
-      <c r="A2" s="246" t="s">
+      <c r="A2" s="270" t="s">
         <v>70</v>
       </c>
-      <c r="B2" s="246"/>
-      <c r="C2" s="246"/>
-      <c r="D2" s="246"/>
-      <c r="E2" s="254"/>
+      <c r="B2" s="270"/>
+      <c r="C2" s="270"/>
+      <c r="D2" s="270"/>
+      <c r="E2" s="276"/>
       <c r="F2" s="23"/>
       <c r="G2" s="23"/>
       <c r="H2" s="23"/>
@@ -10862,9 +10862,9 @@
     </row>
     <row r="3" spans="1:24" s="1" customFormat="1" ht="31.5" customHeight="1">
       <c r="A3" s="47"/>
-      <c r="C3" s="279"/>
-      <c r="D3" s="279"/>
-      <c r="E3" s="254"/>
+      <c r="C3" s="295"/>
+      <c r="D3" s="295"/>
+      <c r="E3" s="276"/>
       <c r="F3" s="23"/>
       <c r="G3" s="23"/>
       <c r="H3" s="23"/>
@@ -10875,11 +10875,11 @@
       <c r="A4" s="139" t="s">
         <v>67</v>
       </c>
-      <c r="B4" s="248" t="s">
+      <c r="B4" s="264" t="s">
         <v>116</v>
       </c>
-      <c r="C4" s="248"/>
-      <c r="D4" s="248"/>
+      <c r="C4" s="264"/>
+      <c r="D4" s="264"/>
       <c r="E4" s="39"/>
       <c r="F4" s="39"/>
       <c r="G4" s="39"/>
@@ -10893,11 +10893,11 @@
       <c r="A5" s="139" t="s">
         <v>62</v>
       </c>
-      <c r="B5" s="247" t="s">
+      <c r="B5" s="265" t="s">
         <v>95</v>
       </c>
-      <c r="C5" s="248"/>
-      <c r="D5" s="248"/>
+      <c r="C5" s="264"/>
+      <c r="D5" s="264"/>
       <c r="E5" s="39"/>
       <c r="F5" s="39"/>
       <c r="G5" s="39"/>
@@ -10911,11 +10911,11 @@
       <c r="A6" s="139" t="s">
         <v>97</v>
       </c>
-      <c r="B6" s="247" t="s">
+      <c r="B6" s="265" t="s">
         <v>98</v>
       </c>
-      <c r="C6" s="248"/>
-      <c r="D6" s="248"/>
+      <c r="C6" s="264"/>
+      <c r="D6" s="264"/>
       <c r="E6" s="39"/>
       <c r="F6" s="39"/>
       <c r="G6" s="39"/>
@@ -10926,11 +10926,11 @@
       <c r="A7" s="139" t="s">
         <v>99</v>
       </c>
-      <c r="B7" s="248" t="s">
+      <c r="B7" s="264" t="s">
         <v>100</v>
       </c>
-      <c r="C7" s="248"/>
-      <c r="D7" s="248"/>
+      <c r="C7" s="264"/>
+      <c r="D7" s="264"/>
       <c r="E7" s="39"/>
       <c r="F7" s="39"/>
       <c r="G7" s="39"/>
@@ -10942,11 +10942,11 @@
       <c r="A8" s="139" t="s">
         <v>101</v>
       </c>
-      <c r="B8" s="249">
+      <c r="B8" s="271">
         <v>40850</v>
       </c>
-      <c r="C8" s="249"/>
-      <c r="D8" s="249"/>
+      <c r="C8" s="271"/>
+      <c r="D8" s="271"/>
       <c r="E8" s="39"/>
     </row>
     <row r="9" spans="1:24" s="43" customFormat="1">
@@ -11089,11 +11089,11 @@
       <c r="C16" s="50"/>
       <c r="D16" s="51"/>
       <c r="E16" s="65"/>
-      <c r="F16" s="280" t="s">
+      <c r="F16" s="296" t="s">
         <v>102</v>
       </c>
-      <c r="G16" s="281"/>
-      <c r="H16" s="282"/>
+      <c r="G16" s="297"/>
+      <c r="H16" s="298"/>
       <c r="I16" s="65"/>
     </row>
     <row r="17" spans="1:9" s="44" customFormat="1" ht="36.9">
@@ -11127,29 +11127,29 @@
     </row>
     <row r="18" spans="1:9" s="44" customFormat="1" ht="15.75" customHeight="1">
       <c r="A18" s="67"/>
-      <c r="B18" s="250" t="s">
+      <c r="B18" s="272" t="s">
         <v>313</v>
       </c>
-      <c r="C18" s="251"/>
-      <c r="D18" s="251"/>
-      <c r="E18" s="251"/>
-      <c r="F18" s="251"/>
-      <c r="G18" s="251"/>
-      <c r="H18" s="251"/>
-      <c r="I18" s="252"/>
+      <c r="C18" s="273"/>
+      <c r="D18" s="273"/>
+      <c r="E18" s="273"/>
+      <c r="F18" s="273"/>
+      <c r="G18" s="273"/>
+      <c r="H18" s="273"/>
+      <c r="I18" s="274"/>
     </row>
     <row r="19" spans="1:9" s="44" customFormat="1" ht="15.75" customHeight="1">
       <c r="A19" s="200"/>
-      <c r="B19" s="283" t="s">
+      <c r="B19" s="280" t="s">
         <v>397</v>
       </c>
-      <c r="C19" s="284"/>
-      <c r="D19" s="284"/>
-      <c r="E19" s="284"/>
-      <c r="F19" s="284"/>
-      <c r="G19" s="284"/>
-      <c r="H19" s="284"/>
-      <c r="I19" s="285"/>
+      <c r="C19" s="281"/>
+      <c r="D19" s="281"/>
+      <c r="E19" s="281"/>
+      <c r="F19" s="281"/>
+      <c r="G19" s="281"/>
+      <c r="H19" s="281"/>
+      <c r="I19" s="282"/>
     </row>
     <row r="20" spans="1:9" s="44" customFormat="1" ht="43.8" customHeight="1">
       <c r="A20" s="52">
@@ -11214,16 +11214,16 @@
     </row>
     <row r="23" spans="1:9" s="44" customFormat="1" ht="15.75" customHeight="1">
       <c r="A23" s="204"/>
-      <c r="B23" s="286" t="s">
+      <c r="B23" s="283" t="s">
         <v>314</v>
       </c>
-      <c r="C23" s="287"/>
-      <c r="D23" s="287"/>
-      <c r="E23" s="287"/>
-      <c r="F23" s="287"/>
-      <c r="G23" s="287"/>
-      <c r="H23" s="287"/>
-      <c r="I23" s="288"/>
+      <c r="C23" s="284"/>
+      <c r="D23" s="284"/>
+      <c r="E23" s="284"/>
+      <c r="F23" s="284"/>
+      <c r="G23" s="284"/>
+      <c r="H23" s="284"/>
+      <c r="I23" s="285"/>
     </row>
     <row r="24" spans="1:9" s="45" customFormat="1" ht="36.9">
       <c r="A24" s="52">
@@ -11467,16 +11467,16 @@
     </row>
     <row r="36" spans="1:9" s="48" customFormat="1" ht="13.8">
       <c r="A36" s="184"/>
-      <c r="B36" s="289" t="s">
+      <c r="B36" s="286" t="s">
         <v>315</v>
       </c>
-      <c r="C36" s="290"/>
-      <c r="D36" s="290"/>
-      <c r="E36" s="290"/>
-      <c r="F36" s="290"/>
-      <c r="G36" s="290"/>
-      <c r="H36" s="290"/>
-      <c r="I36" s="291"/>
+      <c r="C36" s="287"/>
+      <c r="D36" s="287"/>
+      <c r="E36" s="287"/>
+      <c r="F36" s="287"/>
+      <c r="G36" s="287"/>
+      <c r="H36" s="287"/>
+      <c r="I36" s="288"/>
     </row>
     <row r="37" spans="1:9" s="48" customFormat="1" ht="73.8">
       <c r="A37" s="58">
@@ -11740,16 +11740,16 @@
     </row>
     <row r="50" spans="1:9" s="48" customFormat="1" ht="13.8">
       <c r="A50" s="184"/>
-      <c r="B50" s="286" t="s">
+      <c r="B50" s="283" t="s">
         <v>316</v>
       </c>
-      <c r="C50" s="287"/>
-      <c r="D50" s="287"/>
-      <c r="E50" s="287"/>
-      <c r="F50" s="287"/>
-      <c r="G50" s="287"/>
-      <c r="H50" s="287"/>
-      <c r="I50" s="288"/>
+      <c r="C50" s="284"/>
+      <c r="D50" s="284"/>
+      <c r="E50" s="284"/>
+      <c r="F50" s="284"/>
+      <c r="G50" s="284"/>
+      <c r="H50" s="284"/>
+      <c r="I50" s="285"/>
     </row>
     <row r="51" spans="1:9" s="48" customFormat="1" ht="49.8" customHeight="1">
       <c r="A51" s="58">
@@ -12073,16 +12073,16 @@
     </row>
     <row r="67" spans="1:9" s="49" customFormat="1" ht="13.8">
       <c r="A67" s="189"/>
-      <c r="B67" s="276" t="s">
+      <c r="B67" s="289" t="s">
         <v>327</v>
       </c>
-      <c r="C67" s="277"/>
-      <c r="D67" s="277"/>
-      <c r="E67" s="277"/>
-      <c r="F67" s="277"/>
-      <c r="G67" s="277"/>
-      <c r="H67" s="277"/>
-      <c r="I67" s="278"/>
+      <c r="C67" s="290"/>
+      <c r="D67" s="290"/>
+      <c r="E67" s="290"/>
+      <c r="F67" s="290"/>
+      <c r="G67" s="290"/>
+      <c r="H67" s="290"/>
+      <c r="I67" s="291"/>
     </row>
     <row r="68" spans="1:9" s="48" customFormat="1" ht="24.6">
       <c r="A68" s="58">
@@ -12279,16 +12279,16 @@
     </row>
     <row r="78" spans="1:9" s="48" customFormat="1" ht="13.8">
       <c r="A78" s="189"/>
-      <c r="B78" s="276" t="s">
+      <c r="B78" s="289" t="s">
         <v>328</v>
       </c>
-      <c r="C78" s="277"/>
-      <c r="D78" s="277"/>
-      <c r="E78" s="277"/>
-      <c r="F78" s="277"/>
-      <c r="G78" s="277"/>
-      <c r="H78" s="277"/>
-      <c r="I78" s="278"/>
+      <c r="C78" s="290"/>
+      <c r="D78" s="290"/>
+      <c r="E78" s="290"/>
+      <c r="F78" s="290"/>
+      <c r="G78" s="290"/>
+      <c r="H78" s="290"/>
+      <c r="I78" s="291"/>
     </row>
     <row r="79" spans="1:9" s="48" customFormat="1" ht="36.9">
       <c r="A79" s="58">
@@ -12432,16 +12432,16 @@
     </row>
     <row r="86" spans="1:9" s="48" customFormat="1" ht="13.8">
       <c r="A86" s="189"/>
-      <c r="B86" s="276" t="s">
+      <c r="B86" s="289" t="s">
         <v>331</v>
       </c>
-      <c r="C86" s="277"/>
-      <c r="D86" s="277"/>
-      <c r="E86" s="277"/>
-      <c r="F86" s="277"/>
-      <c r="G86" s="277"/>
-      <c r="H86" s="277"/>
-      <c r="I86" s="278"/>
+      <c r="C86" s="290"/>
+      <c r="D86" s="290"/>
+      <c r="E86" s="290"/>
+      <c r="F86" s="290"/>
+      <c r="G86" s="290"/>
+      <c r="H86" s="290"/>
+      <c r="I86" s="291"/>
     </row>
     <row r="87" spans="1:9" s="48" customFormat="1" ht="14.4" customHeight="1">
       <c r="A87" s="58">
@@ -12705,16 +12705,16 @@
     </row>
     <row r="100" spans="1:9" s="48" customFormat="1" ht="13.8">
       <c r="A100" s="189"/>
-      <c r="B100" s="276" t="s">
+      <c r="B100" s="289" t="s">
         <v>339</v>
       </c>
-      <c r="C100" s="277"/>
-      <c r="D100" s="277"/>
-      <c r="E100" s="277"/>
-      <c r="F100" s="277"/>
-      <c r="G100" s="277"/>
-      <c r="H100" s="277"/>
-      <c r="I100" s="278"/>
+      <c r="C100" s="290"/>
+      <c r="D100" s="290"/>
+      <c r="E100" s="290"/>
+      <c r="F100" s="290"/>
+      <c r="G100" s="290"/>
+      <c r="H100" s="290"/>
+      <c r="I100" s="291"/>
     </row>
     <row r="101" spans="1:9" s="48" customFormat="1" ht="49.2">
       <c r="A101" s="58">
@@ -12778,16 +12778,16 @@
     </row>
     <row r="104" spans="1:9" s="48" customFormat="1" ht="13.8">
       <c r="A104" s="189"/>
-      <c r="B104" s="276" t="s">
+      <c r="B104" s="289" t="s">
         <v>350</v>
       </c>
-      <c r="C104" s="277"/>
-      <c r="D104" s="277"/>
-      <c r="E104" s="277"/>
-      <c r="F104" s="277"/>
-      <c r="G104" s="277"/>
-      <c r="H104" s="277"/>
-      <c r="I104" s="278"/>
+      <c r="C104" s="290"/>
+      <c r="D104" s="290"/>
+      <c r="E104" s="290"/>
+      <c r="F104" s="290"/>
+      <c r="G104" s="290"/>
+      <c r="H104" s="290"/>
+      <c r="I104" s="291"/>
     </row>
     <row r="105" spans="1:9" s="48" customFormat="1" ht="49.2">
       <c r="A105" s="58">
@@ -12811,16 +12811,16 @@
     </row>
     <row r="106" spans="1:9" s="48" customFormat="1" ht="13.8">
       <c r="A106" s="189"/>
-      <c r="B106" s="276" t="s">
+      <c r="B106" s="289" t="s">
         <v>351</v>
       </c>
-      <c r="C106" s="277"/>
-      <c r="D106" s="277"/>
-      <c r="E106" s="277"/>
-      <c r="F106" s="277"/>
-      <c r="G106" s="277"/>
-      <c r="H106" s="277"/>
-      <c r="I106" s="278"/>
+      <c r="C106" s="290"/>
+      <c r="D106" s="290"/>
+      <c r="E106" s="290"/>
+      <c r="F106" s="290"/>
+      <c r="G106" s="290"/>
+      <c r="H106" s="290"/>
+      <c r="I106" s="291"/>
     </row>
     <row r="107" spans="1:9" s="48" customFormat="1" ht="49.2">
       <c r="A107" s="58">
@@ -12844,29 +12844,29 @@
     </row>
     <row r="108" spans="1:9" s="48" customFormat="1" ht="13.8">
       <c r="A108" s="67"/>
-      <c r="B108" s="250" t="s">
+      <c r="B108" s="272" t="s">
         <v>341</v>
       </c>
-      <c r="C108" s="251"/>
-      <c r="D108" s="251"/>
-      <c r="E108" s="251"/>
-      <c r="F108" s="251"/>
-      <c r="G108" s="251"/>
-      <c r="H108" s="251"/>
-      <c r="I108" s="252"/>
+      <c r="C108" s="273"/>
+      <c r="D108" s="273"/>
+      <c r="E108" s="273"/>
+      <c r="F108" s="273"/>
+      <c r="G108" s="273"/>
+      <c r="H108" s="273"/>
+      <c r="I108" s="274"/>
     </row>
     <row r="109" spans="1:9" s="48" customFormat="1" ht="13.8">
       <c r="A109" s="189"/>
-      <c r="B109" s="276" t="s">
+      <c r="B109" s="289" t="s">
         <v>342</v>
       </c>
-      <c r="C109" s="277"/>
-      <c r="D109" s="277"/>
-      <c r="E109" s="277"/>
-      <c r="F109" s="277"/>
-      <c r="G109" s="277"/>
-      <c r="H109" s="277"/>
-      <c r="I109" s="278"/>
+      <c r="C109" s="290"/>
+      <c r="D109" s="290"/>
+      <c r="E109" s="290"/>
+      <c r="F109" s="290"/>
+      <c r="G109" s="290"/>
+      <c r="H109" s="290"/>
+      <c r="I109" s="291"/>
     </row>
     <row r="110" spans="1:9" s="48" customFormat="1" ht="36.9">
       <c r="A110" s="58">
@@ -13003,16 +13003,16 @@
     </row>
     <row r="117" spans="1:9" s="48" customFormat="1" ht="13.8">
       <c r="A117" s="67"/>
-      <c r="B117" s="250" t="s">
+      <c r="B117" s="272" t="s">
         <v>312</v>
       </c>
-      <c r="C117" s="251"/>
-      <c r="D117" s="251"/>
-      <c r="E117" s="251"/>
-      <c r="F117" s="251"/>
-      <c r="G117" s="251"/>
-      <c r="H117" s="251"/>
-      <c r="I117" s="252"/>
+      <c r="C117" s="273"/>
+      <c r="D117" s="273"/>
+      <c r="E117" s="273"/>
+      <c r="F117" s="273"/>
+      <c r="G117" s="273"/>
+      <c r="H117" s="273"/>
+      <c r="I117" s="274"/>
     </row>
     <row r="118" spans="1:9" s="48" customFormat="1" ht="13.8">
       <c r="A118" s="58">
@@ -13032,16 +13032,16 @@
     </row>
     <row r="119" spans="1:9" s="48" customFormat="1" ht="13.8">
       <c r="A119" s="67"/>
-      <c r="B119" s="250" t="s">
+      <c r="B119" s="272" t="s">
         <v>347</v>
       </c>
-      <c r="C119" s="251"/>
-      <c r="D119" s="251"/>
-      <c r="E119" s="251"/>
-      <c r="F119" s="251"/>
-      <c r="G119" s="251"/>
-      <c r="H119" s="251"/>
-      <c r="I119" s="252"/>
+      <c r="C119" s="273"/>
+      <c r="D119" s="273"/>
+      <c r="E119" s="273"/>
+      <c r="F119" s="273"/>
+      <c r="G119" s="273"/>
+      <c r="H119" s="273"/>
+      <c r="I119" s="274"/>
     </row>
     <row r="120" spans="1:9" s="48" customFormat="1" ht="13.8">
       <c r="A120" s="58">
@@ -13061,16 +13061,16 @@
     </row>
     <row r="121" spans="1:9" s="48" customFormat="1" ht="13.8">
       <c r="A121" s="67"/>
-      <c r="B121" s="250" t="s">
+      <c r="B121" s="272" t="s">
         <v>348</v>
       </c>
-      <c r="C121" s="251"/>
-      <c r="D121" s="251"/>
-      <c r="E121" s="251"/>
-      <c r="F121" s="251"/>
-      <c r="G121" s="251"/>
-      <c r="H121" s="251"/>
-      <c r="I121" s="252"/>
+      <c r="C121" s="273"/>
+      <c r="D121" s="273"/>
+      <c r="E121" s="273"/>
+      <c r="F121" s="273"/>
+      <c r="G121" s="273"/>
+      <c r="H121" s="273"/>
+      <c r="I121" s="274"/>
     </row>
     <row r="122" spans="1:9" s="48" customFormat="1" ht="13.8">
       <c r="A122" s="58">
@@ -13134,9 +13134,9 @@
     </row>
     <row r="127" spans="1:9" s="48" customFormat="1" ht="13.8">
       <c r="A127" s="185"/>
-      <c r="B127" s="273"/>
-      <c r="C127" s="274"/>
-      <c r="D127" s="275"/>
+      <c r="B127" s="299"/>
+      <c r="C127" s="300"/>
+      <c r="D127" s="301"/>
       <c r="E127" s="194"/>
       <c r="F127" s="195"/>
       <c r="G127" s="195"/>
@@ -13189,9 +13189,9 @@
     </row>
     <row r="132" spans="1:9" s="48" customFormat="1" ht="13.8">
       <c r="A132" s="185"/>
-      <c r="B132" s="273"/>
-      <c r="C132" s="274"/>
-      <c r="D132" s="275"/>
+      <c r="B132" s="299"/>
+      <c r="C132" s="300"/>
+      <c r="D132" s="301"/>
       <c r="E132" s="194"/>
       <c r="F132" s="195"/>
       <c r="G132" s="195"/>
@@ -13233,9 +13233,9 @@
     </row>
     <row r="136" spans="1:9" s="48" customFormat="1" ht="13.8">
       <c r="A136" s="185"/>
-      <c r="B136" s="273"/>
-      <c r="C136" s="274"/>
-      <c r="D136" s="275"/>
+      <c r="B136" s="299"/>
+      <c r="C136" s="300"/>
+      <c r="D136" s="301"/>
       <c r="E136" s="194"/>
       <c r="F136" s="195"/>
       <c r="G136" s="195"/>
@@ -13365,9 +13365,9 @@
     </row>
     <row r="148" spans="1:9" s="48" customFormat="1" ht="13.8">
       <c r="A148" s="196"/>
-      <c r="B148" s="273"/>
-      <c r="C148" s="274"/>
-      <c r="D148" s="275"/>
+      <c r="B148" s="299"/>
+      <c r="C148" s="300"/>
+      <c r="D148" s="301"/>
       <c r="E148" s="194"/>
       <c r="F148" s="195"/>
       <c r="G148" s="195"/>
@@ -13409,9 +13409,9 @@
     </row>
     <row r="152" spans="1:9" s="48" customFormat="1" ht="13.8">
       <c r="A152" s="196"/>
-      <c r="B152" s="273"/>
-      <c r="C152" s="274"/>
-      <c r="D152" s="275"/>
+      <c r="B152" s="299"/>
+      <c r="C152" s="300"/>
+      <c r="D152" s="301"/>
       <c r="E152" s="194"/>
       <c r="F152" s="195"/>
       <c r="G152" s="195"/>
@@ -13453,9 +13453,9 @@
     </row>
     <row r="156" spans="1:9" s="48" customFormat="1" ht="13.8">
       <c r="A156" s="196"/>
-      <c r="B156" s="273"/>
-      <c r="C156" s="274"/>
-      <c r="D156" s="275"/>
+      <c r="B156" s="299"/>
+      <c r="C156" s="300"/>
+      <c r="D156" s="301"/>
       <c r="E156" s="194"/>
       <c r="F156" s="195"/>
       <c r="G156" s="195"/>
@@ -13486,9 +13486,9 @@
     </row>
     <row r="159" spans="1:9" s="48" customFormat="1" ht="13.8">
       <c r="A159" s="196"/>
-      <c r="B159" s="273"/>
-      <c r="C159" s="274"/>
-      <c r="D159" s="275"/>
+      <c r="B159" s="299"/>
+      <c r="C159" s="300"/>
+      <c r="D159" s="301"/>
       <c r="E159" s="194"/>
       <c r="F159" s="195"/>
       <c r="G159" s="195"/>
@@ -13728,24 +13728,6 @@
     </row>
   </sheetData>
   <mergeCells count="34">
-    <mergeCell ref="B19:I19"/>
-    <mergeCell ref="B108:I108"/>
-    <mergeCell ref="B23:I23"/>
-    <mergeCell ref="B36:I36"/>
-    <mergeCell ref="B50:I50"/>
-    <mergeCell ref="B67:I67"/>
-    <mergeCell ref="B78:I78"/>
-    <mergeCell ref="B69:I69"/>
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="A2:D2"/>
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="B4:D4"/>
-    <mergeCell ref="F16:H16"/>
-    <mergeCell ref="E2:E3"/>
-    <mergeCell ref="B5:D5"/>
-    <mergeCell ref="B6:D6"/>
-    <mergeCell ref="B7:D7"/>
-    <mergeCell ref="B8:D8"/>
     <mergeCell ref="B18:I18"/>
     <mergeCell ref="B152:D152"/>
     <mergeCell ref="B156:D156"/>
@@ -13762,6 +13744,24 @@
     <mergeCell ref="B117:I117"/>
     <mergeCell ref="B119:I119"/>
     <mergeCell ref="B121:I121"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="A2:D2"/>
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="B4:D4"/>
+    <mergeCell ref="F16:H16"/>
+    <mergeCell ref="E2:E3"/>
+    <mergeCell ref="B5:D5"/>
+    <mergeCell ref="B6:D6"/>
+    <mergeCell ref="B7:D7"/>
+    <mergeCell ref="B8:D8"/>
+    <mergeCell ref="B19:I19"/>
+    <mergeCell ref="B108:I108"/>
+    <mergeCell ref="B23:I23"/>
+    <mergeCell ref="B36:I36"/>
+    <mergeCell ref="B50:I50"/>
+    <mergeCell ref="B67:I67"/>
+    <mergeCell ref="B78:I78"/>
+    <mergeCell ref="B69:I69"/>
   </mergeCells>
   <dataValidations count="3">
     <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="F165:H222">
@@ -13799,10 +13799,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:24" s="1" customFormat="1" ht="13.8">
-      <c r="A1" s="245"/>
-      <c r="B1" s="245"/>
-      <c r="C1" s="245"/>
-      <c r="D1" s="245"/>
+      <c r="A1" s="269"/>
+      <c r="B1" s="269"/>
+      <c r="C1" s="269"/>
+      <c r="D1" s="269"/>
       <c r="E1" s="34"/>
       <c r="F1" s="34"/>
       <c r="G1" s="34"/>
@@ -13811,13 +13811,13 @@
       <c r="J1" s="34"/>
     </row>
     <row r="2" spans="1:24" s="1" customFormat="1" ht="31.5" customHeight="1">
-      <c r="A2" s="246" t="s">
+      <c r="A2" s="270" t="s">
         <v>70</v>
       </c>
-      <c r="B2" s="246"/>
-      <c r="C2" s="246"/>
-      <c r="D2" s="246"/>
-      <c r="E2" s="254"/>
+      <c r="B2" s="270"/>
+      <c r="C2" s="270"/>
+      <c r="D2" s="270"/>
+      <c r="E2" s="276"/>
       <c r="F2" s="23"/>
       <c r="G2" s="23"/>
       <c r="H2" s="23"/>
@@ -13826,9 +13826,9 @@
     </row>
     <row r="3" spans="1:24" s="1" customFormat="1" ht="31.5" customHeight="1">
       <c r="A3" s="47"/>
-      <c r="C3" s="279"/>
-      <c r="D3" s="279"/>
-      <c r="E3" s="254"/>
+      <c r="C3" s="295"/>
+      <c r="D3" s="295"/>
+      <c r="E3" s="276"/>
       <c r="F3" s="23"/>
       <c r="G3" s="23"/>
       <c r="H3" s="23"/>
@@ -13839,11 +13839,11 @@
       <c r="A4" s="139" t="s">
         <v>67</v>
       </c>
-      <c r="B4" s="248" t="s">
+      <c r="B4" s="264" t="s">
         <v>116</v>
       </c>
-      <c r="C4" s="248"/>
-      <c r="D4" s="248"/>
+      <c r="C4" s="264"/>
+      <c r="D4" s="264"/>
       <c r="E4" s="39"/>
       <c r="F4" s="39"/>
       <c r="G4" s="39"/>
@@ -13857,11 +13857,11 @@
       <c r="A5" s="139" t="s">
         <v>62</v>
       </c>
-      <c r="B5" s="247" t="s">
+      <c r="B5" s="265" t="s">
         <v>95</v>
       </c>
-      <c r="C5" s="248"/>
-      <c r="D5" s="248"/>
+      <c r="C5" s="264"/>
+      <c r="D5" s="264"/>
       <c r="E5" s="39"/>
       <c r="F5" s="39"/>
       <c r="G5" s="39"/>
@@ -13875,11 +13875,11 @@
       <c r="A6" s="139" t="s">
         <v>97</v>
       </c>
-      <c r="B6" s="247" t="s">
+      <c r="B6" s="265" t="s">
         <v>98</v>
       </c>
-      <c r="C6" s="248"/>
-      <c r="D6" s="248"/>
+      <c r="C6" s="264"/>
+      <c r="D6" s="264"/>
       <c r="E6" s="39"/>
       <c r="F6" s="39"/>
       <c r="G6" s="39"/>
@@ -13890,11 +13890,11 @@
       <c r="A7" s="139" t="s">
         <v>99</v>
       </c>
-      <c r="B7" s="248" t="s">
+      <c r="B7" s="264" t="s">
         <v>100</v>
       </c>
-      <c r="C7" s="248"/>
-      <c r="D7" s="248"/>
+      <c r="C7" s="264"/>
+      <c r="D7" s="264"/>
       <c r="E7" s="39"/>
       <c r="F7" s="39"/>
       <c r="G7" s="39"/>
@@ -13906,11 +13906,11 @@
       <c r="A8" s="139" t="s">
         <v>101</v>
       </c>
-      <c r="B8" s="249">
+      <c r="B8" s="271">
         <v>40850</v>
       </c>
-      <c r="C8" s="249"/>
-      <c r="D8" s="249"/>
+      <c r="C8" s="271"/>
+      <c r="D8" s="271"/>
       <c r="E8" s="39"/>
     </row>
     <row r="9" spans="1:24" s="43" customFormat="1">
@@ -14053,11 +14053,11 @@
       <c r="C16" s="50"/>
       <c r="D16" s="51"/>
       <c r="E16" s="65"/>
-      <c r="F16" s="280" t="s">
+      <c r="F16" s="296" t="s">
         <v>102</v>
       </c>
-      <c r="G16" s="281"/>
-      <c r="H16" s="282"/>
+      <c r="G16" s="297"/>
+      <c r="H16" s="298"/>
       <c r="I16" s="65"/>
     </row>
     <row r="17" spans="1:9" s="44" customFormat="1" ht="36.9">
@@ -14210,11 +14210,11 @@
     </row>
     <row r="24" spans="1:9" s="44" customFormat="1" ht="15.75" customHeight="1">
       <c r="A24" s="77"/>
-      <c r="B24" s="250" t="s">
+      <c r="B24" s="272" t="s">
         <v>518</v>
       </c>
-      <c r="C24" s="251"/>
-      <c r="D24" s="252"/>
+      <c r="C24" s="273"/>
+      <c r="D24" s="274"/>
       <c r="E24" s="67"/>
       <c r="F24" s="68"/>
       <c r="G24" s="68"/>
@@ -14323,11 +14323,11 @@
     </row>
     <row r="30" spans="1:9" s="48" customFormat="1" ht="13.8">
       <c r="A30" s="77"/>
-      <c r="B30" s="250" t="s">
+      <c r="B30" s="272" t="s">
         <v>527</v>
       </c>
-      <c r="C30" s="251"/>
-      <c r="D30" s="252"/>
+      <c r="C30" s="273"/>
+      <c r="D30" s="274"/>
       <c r="E30" s="69"/>
       <c r="F30" s="66"/>
       <c r="G30" s="66"/>
@@ -14416,11 +14416,11 @@
     </row>
     <row r="35" spans="1:9" s="48" customFormat="1" ht="13.8">
       <c r="A35" s="77"/>
-      <c r="B35" s="250" t="s">
+      <c r="B35" s="272" t="s">
         <v>531</v>
       </c>
-      <c r="C35" s="251"/>
-      <c r="D35" s="252"/>
+      <c r="C35" s="273"/>
+      <c r="D35" s="274"/>
       <c r="E35" s="69"/>
       <c r="F35" s="66"/>
       <c r="G35" s="66"/>
@@ -14449,11 +14449,11 @@
     </row>
     <row r="37" spans="1:9" s="48" customFormat="1" ht="13.8">
       <c r="A37" s="77"/>
-      <c r="B37" s="250" t="s">
+      <c r="B37" s="272" t="s">
         <v>533</v>
       </c>
-      <c r="C37" s="251"/>
-      <c r="D37" s="252"/>
+      <c r="C37" s="273"/>
+      <c r="D37" s="274"/>
       <c r="E37" s="69"/>
       <c r="F37" s="66"/>
       <c r="G37" s="66"/>
@@ -14579,11 +14579,11 @@
     </row>
     <row r="44" spans="1:9" s="48" customFormat="1" ht="13.8">
       <c r="A44" s="77"/>
-      <c r="B44" s="250" t="s">
+      <c r="B44" s="272" t="s">
         <v>538</v>
       </c>
-      <c r="C44" s="251"/>
-      <c r="D44" s="252"/>
+      <c r="C44" s="273"/>
+      <c r="D44" s="274"/>
       <c r="E44" s="69"/>
       <c r="F44" s="66"/>
       <c r="G44" s="66"/>
@@ -14832,11 +14832,11 @@
     </row>
     <row r="57" spans="1:9" s="48" customFormat="1" ht="13.8">
       <c r="A57" s="77"/>
-      <c r="B57" s="250" t="s">
+      <c r="B57" s="272" t="s">
         <v>541</v>
       </c>
-      <c r="C57" s="251"/>
-      <c r="D57" s="252"/>
+      <c r="C57" s="273"/>
+      <c r="D57" s="274"/>
       <c r="E57" s="69"/>
       <c r="F57" s="66"/>
       <c r="G57" s="66"/>
@@ -14951,9 +14951,9 @@
     </row>
     <row r="66" spans="1:9" s="48" customFormat="1" ht="13.8">
       <c r="A66" s="77"/>
-      <c r="B66" s="250"/>
-      <c r="C66" s="251"/>
-      <c r="D66" s="252"/>
+      <c r="B66" s="272"/>
+      <c r="C66" s="273"/>
+      <c r="D66" s="274"/>
       <c r="E66" s="69"/>
       <c r="F66" s="66"/>
       <c r="G66" s="66"/>
@@ -15006,9 +15006,9 @@
     </row>
     <row r="71" spans="1:9" s="48" customFormat="1" ht="13.8">
       <c r="A71" s="77"/>
-      <c r="B71" s="250"/>
-      <c r="C71" s="251"/>
-      <c r="D71" s="252"/>
+      <c r="B71" s="272"/>
+      <c r="C71" s="273"/>
+      <c r="D71" s="274"/>
       <c r="E71" s="69"/>
       <c r="F71" s="66"/>
       <c r="G71" s="66"/>
@@ -15050,9 +15050,9 @@
     </row>
     <row r="75" spans="1:9" s="48" customFormat="1" ht="13.8">
       <c r="A75" s="77"/>
-      <c r="B75" s="250"/>
-      <c r="C75" s="251"/>
-      <c r="D75" s="252"/>
+      <c r="B75" s="272"/>
+      <c r="C75" s="273"/>
+      <c r="D75" s="274"/>
       <c r="E75" s="69"/>
       <c r="F75" s="66"/>
       <c r="G75" s="66"/>
@@ -15182,9 +15182,9 @@
     </row>
     <row r="87" spans="1:9" s="48" customFormat="1" ht="13.8">
       <c r="A87" s="77"/>
-      <c r="B87" s="250"/>
-      <c r="C87" s="251"/>
-      <c r="D87" s="252"/>
+      <c r="B87" s="272"/>
+      <c r="C87" s="273"/>
+      <c r="D87" s="274"/>
       <c r="E87" s="69"/>
       <c r="F87" s="66"/>
       <c r="G87" s="66"/>
@@ -15226,9 +15226,9 @@
     </row>
     <row r="91" spans="1:9" s="48" customFormat="1" ht="13.8">
       <c r="A91" s="77"/>
-      <c r="B91" s="250"/>
-      <c r="C91" s="251"/>
-      <c r="D91" s="252"/>
+      <c r="B91" s="272"/>
+      <c r="C91" s="273"/>
+      <c r="D91" s="274"/>
       <c r="E91" s="69"/>
       <c r="F91" s="66"/>
       <c r="G91" s="66"/>
@@ -15270,9 +15270,9 @@
     </row>
     <row r="95" spans="1:9" s="48" customFormat="1" ht="14.25" customHeight="1">
       <c r="A95" s="77"/>
-      <c r="B95" s="250"/>
-      <c r="C95" s="251"/>
-      <c r="D95" s="252"/>
+      <c r="B95" s="272"/>
+      <c r="C95" s="273"/>
+      <c r="D95" s="274"/>
       <c r="E95" s="69"/>
       <c r="F95" s="66"/>
       <c r="G95" s="66"/>
@@ -15303,9 +15303,9 @@
     </row>
     <row r="98" spans="1:9" s="48" customFormat="1" ht="14.25" customHeight="1">
       <c r="A98" s="77"/>
-      <c r="B98" s="250"/>
-      <c r="C98" s="251"/>
-      <c r="D98" s="252"/>
+      <c r="B98" s="272"/>
+      <c r="C98" s="273"/>
+      <c r="D98" s="274"/>
       <c r="E98" s="69"/>
       <c r="F98" s="66"/>
       <c r="G98" s="66"/>
@@ -15369,11 +15369,17 @@
     </row>
   </sheetData>
   <mergeCells count="23">
-    <mergeCell ref="B30:D30"/>
-    <mergeCell ref="B37:D37"/>
-    <mergeCell ref="B35:D35"/>
-    <mergeCell ref="B91:D91"/>
-    <mergeCell ref="B95:D95"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="A2:D2"/>
+    <mergeCell ref="E2:E3"/>
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="B4:D4"/>
+    <mergeCell ref="F16:H16"/>
+    <mergeCell ref="B24:D24"/>
+    <mergeCell ref="B5:D5"/>
+    <mergeCell ref="B6:D6"/>
+    <mergeCell ref="B7:D7"/>
+    <mergeCell ref="B8:D8"/>
     <mergeCell ref="B98:D98"/>
     <mergeCell ref="B44:D44"/>
     <mergeCell ref="B57:D57"/>
@@ -15381,17 +15387,11 @@
     <mergeCell ref="B71:D71"/>
     <mergeCell ref="B75:D75"/>
     <mergeCell ref="B87:D87"/>
-    <mergeCell ref="F16:H16"/>
-    <mergeCell ref="B24:D24"/>
-    <mergeCell ref="B5:D5"/>
-    <mergeCell ref="B6:D6"/>
-    <mergeCell ref="B7:D7"/>
-    <mergeCell ref="B8:D8"/>
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="A2:D2"/>
-    <mergeCell ref="E2:E3"/>
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="B4:D4"/>
+    <mergeCell ref="B30:D30"/>
+    <mergeCell ref="B37:D37"/>
+    <mergeCell ref="B35:D35"/>
+    <mergeCell ref="B91:D91"/>
+    <mergeCell ref="B95:D95"/>
   </mergeCells>
   <dataValidations count="4">
     <dataValidation type="list" allowBlank="1" sqref="F18:H23 F25:H103">
@@ -15433,11 +15433,11 @@
       <c r="A1" s="139" t="s">
         <v>67</v>
       </c>
-      <c r="B1" s="248" t="s">
+      <c r="B1" s="264" t="s">
         <v>116</v>
       </c>
-      <c r="C1" s="248"/>
-      <c r="D1" s="248"/>
+      <c r="C1" s="264"/>
+      <c r="D1" s="264"/>
       <c r="E1" s="39"/>
       <c r="F1" s="39"/>
       <c r="G1" s="39"/>
@@ -15448,11 +15448,11 @@
       <c r="A2" s="139" t="s">
         <v>62</v>
       </c>
-      <c r="B2" s="247" t="s">
+      <c r="B2" s="265" t="s">
         <v>95</v>
       </c>
-      <c r="C2" s="248"/>
-      <c r="D2" s="248"/>
+      <c r="C2" s="264"/>
+      <c r="D2" s="264"/>
       <c r="E2" s="39"/>
       <c r="F2" s="39"/>
       <c r="G2" s="39"/>
@@ -15463,11 +15463,11 @@
       <c r="A3" s="139" t="s">
         <v>97</v>
       </c>
-      <c r="B3" s="247" t="s">
+      <c r="B3" s="265" t="s">
         <v>98</v>
       </c>
-      <c r="C3" s="248"/>
-      <c r="D3" s="248"/>
+      <c r="C3" s="264"/>
+      <c r="D3" s="264"/>
       <c r="E3" s="39"/>
       <c r="F3" s="39"/>
       <c r="G3" s="39"/>
@@ -15478,11 +15478,11 @@
       <c r="A4" s="139" t="s">
         <v>99</v>
       </c>
-      <c r="B4" s="248" t="s">
+      <c r="B4" s="264" t="s">
         <v>100</v>
       </c>
-      <c r="C4" s="248"/>
-      <c r="D4" s="248"/>
+      <c r="C4" s="264"/>
+      <c r="D4" s="264"/>
       <c r="E4" s="39"/>
       <c r="F4" s="39"/>
       <c r="G4" s="39"/>
@@ -15493,11 +15493,11 @@
       <c r="A5" s="139" t="s">
         <v>101</v>
       </c>
-      <c r="B5" s="249">
+      <c r="B5" s="271">
         <v>40850</v>
       </c>
-      <c r="C5" s="249"/>
-      <c r="D5" s="249"/>
+      <c r="C5" s="271"/>
+      <c r="D5" s="271"/>
       <c r="E5" s="39"/>
       <c r="F5" s="43"/>
       <c r="G5" s="43"/>
@@ -15664,11 +15664,11 @@
       <c r="C13" s="50"/>
       <c r="D13" s="51"/>
       <c r="E13" s="65"/>
-      <c r="F13" s="280" t="s">
+      <c r="F13" s="296" t="s">
         <v>102</v>
       </c>
-      <c r="G13" s="281"/>
-      <c r="H13" s="282"/>
+      <c r="G13" s="297"/>
+      <c r="H13" s="298"/>
       <c r="I13" s="65"/>
     </row>
     <row r="14" spans="1:9" ht="36.9">
@@ -15702,29 +15702,29 @@
     </row>
     <row r="15" spans="1:9" ht="25.2" customHeight="1">
       <c r="A15" s="77"/>
-      <c r="B15" s="297" t="s">
+      <c r="B15" s="302" t="s">
         <v>634</v>
       </c>
-      <c r="C15" s="298"/>
-      <c r="D15" s="298"/>
-      <c r="E15" s="298"/>
-      <c r="F15" s="298"/>
-      <c r="G15" s="298"/>
-      <c r="H15" s="298"/>
-      <c r="I15" s="299"/>
+      <c r="C15" s="303"/>
+      <c r="D15" s="303"/>
+      <c r="E15" s="303"/>
+      <c r="F15" s="303"/>
+      <c r="G15" s="303"/>
+      <c r="H15" s="303"/>
+      <c r="I15" s="304"/>
     </row>
     <row r="16" spans="1:9" ht="24.3" customHeight="1">
       <c r="A16" s="204"/>
-      <c r="B16" s="286" t="s">
+      <c r="B16" s="283" t="s">
         <v>314</v>
       </c>
-      <c r="C16" s="287"/>
-      <c r="D16" s="287"/>
-      <c r="E16" s="287"/>
-      <c r="F16" s="287"/>
-      <c r="G16" s="287"/>
-      <c r="H16" s="287"/>
-      <c r="I16" s="288"/>
+      <c r="C16" s="284"/>
+      <c r="D16" s="284"/>
+      <c r="E16" s="284"/>
+      <c r="F16" s="284"/>
+      <c r="G16" s="284"/>
+      <c r="H16" s="284"/>
+      <c r="I16" s="285"/>
     </row>
     <row r="17" spans="1:9" ht="47.4" customHeight="1">
       <c r="A17" s="209">
@@ -15968,16 +15968,16 @@
     </row>
     <row r="29" spans="1:9">
       <c r="A29" s="204"/>
-      <c r="B29" s="286" t="s">
+      <c r="B29" s="283" t="s">
         <v>635</v>
       </c>
-      <c r="C29" s="287"/>
-      <c r="D29" s="287"/>
-      <c r="E29" s="287"/>
-      <c r="F29" s="287"/>
-      <c r="G29" s="287"/>
-      <c r="H29" s="287"/>
-      <c r="I29" s="288"/>
+      <c r="C29" s="284"/>
+      <c r="D29" s="284"/>
+      <c r="E29" s="284"/>
+      <c r="F29" s="284"/>
+      <c r="G29" s="284"/>
+      <c r="H29" s="284"/>
+      <c r="I29" s="285"/>
     </row>
     <row r="30" spans="1:9" ht="36.9">
       <c r="A30" s="58">
@@ -16281,16 +16281,16 @@
     </row>
     <row r="45" spans="1:9">
       <c r="A45" s="189"/>
-      <c r="B45" s="276" t="s">
+      <c r="B45" s="289" t="s">
         <v>639</v>
       </c>
-      <c r="C45" s="277"/>
-      <c r="D45" s="277"/>
-      <c r="E45" s="277"/>
-      <c r="F45" s="277"/>
-      <c r="G45" s="277"/>
-      <c r="H45" s="277"/>
-      <c r="I45" s="278"/>
+      <c r="C45" s="290"/>
+      <c r="D45" s="290"/>
+      <c r="E45" s="290"/>
+      <c r="F45" s="290"/>
+      <c r="G45" s="290"/>
+      <c r="H45" s="290"/>
+      <c r="I45" s="291"/>
     </row>
     <row r="46" spans="1:9" ht="36.9">
       <c r="A46" s="58">
@@ -16574,16 +16574,16 @@
     </row>
     <row r="60" spans="1:9">
       <c r="A60" s="189"/>
-      <c r="B60" s="276" t="s">
+      <c r="B60" s="289" t="s">
         <v>652</v>
       </c>
-      <c r="C60" s="277"/>
-      <c r="D60" s="277"/>
-      <c r="E60" s="277"/>
-      <c r="F60" s="277"/>
-      <c r="G60" s="277"/>
-      <c r="H60" s="277"/>
-      <c r="I60" s="278"/>
+      <c r="C60" s="290"/>
+      <c r="D60" s="290"/>
+      <c r="E60" s="290"/>
+      <c r="F60" s="290"/>
+      <c r="G60" s="290"/>
+      <c r="H60" s="290"/>
+      <c r="I60" s="291"/>
     </row>
     <row r="61" spans="1:9" ht="36.9">
       <c r="A61" s="58">
@@ -16707,16 +16707,16 @@
     </row>
     <row r="67" spans="1:9">
       <c r="A67" s="189"/>
-      <c r="B67" s="276" t="s">
+      <c r="B67" s="289" t="s">
         <v>660</v>
       </c>
-      <c r="C67" s="277"/>
-      <c r="D67" s="277"/>
-      <c r="E67" s="277"/>
-      <c r="F67" s="277"/>
-      <c r="G67" s="277"/>
-      <c r="H67" s="277"/>
-      <c r="I67" s="278"/>
+      <c r="C67" s="290"/>
+      <c r="D67" s="290"/>
+      <c r="E67" s="290"/>
+      <c r="F67" s="290"/>
+      <c r="G67" s="290"/>
+      <c r="H67" s="290"/>
+      <c r="I67" s="291"/>
     </row>
     <row r="68" spans="1:9" ht="36.9">
       <c r="A68" s="58">
@@ -16860,16 +16860,16 @@
     </row>
     <row r="75" spans="1:9">
       <c r="A75" s="189"/>
-      <c r="B75" s="276" t="s">
+      <c r="B75" s="289" t="s">
         <v>698</v>
       </c>
-      <c r="C75" s="277"/>
-      <c r="D75" s="277"/>
-      <c r="E75" s="277"/>
-      <c r="F75" s="277"/>
-      <c r="G75" s="277"/>
-      <c r="H75" s="277"/>
-      <c r="I75" s="278"/>
+      <c r="C75" s="290"/>
+      <c r="D75" s="290"/>
+      <c r="E75" s="290"/>
+      <c r="F75" s="290"/>
+      <c r="G75" s="290"/>
+      <c r="H75" s="290"/>
+      <c r="I75" s="291"/>
     </row>
     <row r="76" spans="1:9" ht="36.9">
       <c r="A76" s="58">
@@ -17013,16 +17013,16 @@
     </row>
     <row r="83" spans="1:9">
       <c r="A83" s="189"/>
-      <c r="B83" s="276" t="s">
+      <c r="B83" s="289" t="s">
         <v>708</v>
       </c>
-      <c r="C83" s="277"/>
-      <c r="D83" s="277"/>
-      <c r="E83" s="277"/>
-      <c r="F83" s="277"/>
-      <c r="G83" s="277"/>
-      <c r="H83" s="277"/>
-      <c r="I83" s="278"/>
+      <c r="C83" s="290"/>
+      <c r="D83" s="290"/>
+      <c r="E83" s="290"/>
+      <c r="F83" s="290"/>
+      <c r="G83" s="290"/>
+      <c r="H83" s="290"/>
+      <c r="I83" s="291"/>
     </row>
     <row r="84" spans="1:9" ht="58.2" customHeight="1">
       <c r="A84" s="58">
@@ -17098,16 +17098,16 @@
     </row>
     <row r="88" spans="1:9">
       <c r="A88" s="189"/>
-      <c r="B88" s="276" t="s">
+      <c r="B88" s="289" t="s">
         <v>713</v>
       </c>
-      <c r="C88" s="295"/>
-      <c r="D88" s="295"/>
-      <c r="E88" s="295"/>
-      <c r="F88" s="295"/>
-      <c r="G88" s="295"/>
-      <c r="H88" s="295"/>
-      <c r="I88" s="296"/>
+      <c r="C88" s="305"/>
+      <c r="D88" s="305"/>
+      <c r="E88" s="305"/>
+      <c r="F88" s="305"/>
+      <c r="G88" s="305"/>
+      <c r="H88" s="305"/>
+      <c r="I88" s="306"/>
     </row>
     <row r="89" spans="1:9" ht="24.6">
       <c r="A89" s="58">
@@ -17131,11 +17131,11 @@
     </row>
     <row r="90" spans="1:9">
       <c r="A90" s="77"/>
-      <c r="B90" s="250" t="s">
+      <c r="B90" s="272" t="s">
         <v>682</v>
       </c>
-      <c r="C90" s="251"/>
-      <c r="D90" s="252"/>
+      <c r="C90" s="273"/>
+      <c r="D90" s="274"/>
       <c r="E90" s="69"/>
       <c r="F90" s="66"/>
       <c r="G90" s="66"/>
@@ -17449,9 +17449,9 @@
     </row>
     <row r="113" spans="1:9">
       <c r="A113" s="77"/>
-      <c r="B113" s="250"/>
-      <c r="C113" s="251"/>
-      <c r="D113" s="252"/>
+      <c r="B113" s="272"/>
+      <c r="C113" s="273"/>
+      <c r="D113" s="274"/>
       <c r="E113" s="69"/>
       <c r="F113" s="66"/>
       <c r="G113" s="66"/>
@@ -17482,6 +17482,16 @@
     </row>
   </sheetData>
   <mergeCells count="17">
+    <mergeCell ref="B88:I88"/>
+    <mergeCell ref="B67:I67"/>
+    <mergeCell ref="B90:D90"/>
+    <mergeCell ref="B113:D113"/>
+    <mergeCell ref="B75:I75"/>
+    <mergeCell ref="B1:D1"/>
+    <mergeCell ref="B2:D2"/>
+    <mergeCell ref="B3:D3"/>
+    <mergeCell ref="B4:D4"/>
+    <mergeCell ref="B5:D5"/>
     <mergeCell ref="B60:I60"/>
     <mergeCell ref="B83:I83"/>
     <mergeCell ref="F13:H13"/>
@@ -17489,16 +17499,6 @@
     <mergeCell ref="B16:I16"/>
     <mergeCell ref="B29:I29"/>
     <mergeCell ref="B45:I45"/>
-    <mergeCell ref="B1:D1"/>
-    <mergeCell ref="B2:D2"/>
-    <mergeCell ref="B3:D3"/>
-    <mergeCell ref="B4:D4"/>
-    <mergeCell ref="B5:D5"/>
-    <mergeCell ref="B88:I88"/>
-    <mergeCell ref="B67:I67"/>
-    <mergeCell ref="B90:D90"/>
-    <mergeCell ref="B113:D113"/>
-    <mergeCell ref="B75:I75"/>
   </mergeCells>
   <dataValidations count="2">
     <dataValidation showDropDown="1" showErrorMessage="1" sqref="F13:H14"/>
@@ -17517,8 +17517,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I114"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A21" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="A22" sqref="A22"/>
+    <sheetView tabSelected="1" topLeftCell="A16" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -17536,11 +17536,11 @@
       <c r="A1" s="139" t="s">
         <v>67</v>
       </c>
-      <c r="B1" s="248" t="s">
+      <c r="B1" s="264" t="s">
         <v>116</v>
       </c>
-      <c r="C1" s="248"/>
-      <c r="D1" s="248"/>
+      <c r="C1" s="264"/>
+      <c r="D1" s="264"/>
       <c r="E1" s="39"/>
       <c r="F1" s="39"/>
       <c r="G1" s="39"/>
@@ -17551,11 +17551,11 @@
       <c r="A2" s="139" t="s">
         <v>62</v>
       </c>
-      <c r="B2" s="247" t="s">
+      <c r="B2" s="265" t="s">
         <v>95</v>
       </c>
-      <c r="C2" s="248"/>
-      <c r="D2" s="248"/>
+      <c r="C2" s="264"/>
+      <c r="D2" s="264"/>
       <c r="E2" s="39"/>
       <c r="F2" s="39"/>
       <c r="G2" s="39"/>
@@ -17566,11 +17566,11 @@
       <c r="A3" s="139" t="s">
         <v>97</v>
       </c>
-      <c r="B3" s="247" t="s">
+      <c r="B3" s="265" t="s">
         <v>98</v>
       </c>
-      <c r="C3" s="248"/>
-      <c r="D3" s="248"/>
+      <c r="C3" s="264"/>
+      <c r="D3" s="264"/>
       <c r="E3" s="39"/>
       <c r="F3" s="39"/>
       <c r="G3" s="39"/>
@@ -17581,11 +17581,11 @@
       <c r="A4" s="139" t="s">
         <v>99</v>
       </c>
-      <c r="B4" s="248" t="s">
+      <c r="B4" s="264" t="s">
         <v>100</v>
       </c>
-      <c r="C4" s="248"/>
-      <c r="D4" s="248"/>
+      <c r="C4" s="264"/>
+      <c r="D4" s="264"/>
       <c r="E4" s="39"/>
       <c r="F4" s="39"/>
       <c r="G4" s="39"/>
@@ -17596,11 +17596,11 @@
       <c r="A5" s="139" t="s">
         <v>101</v>
       </c>
-      <c r="B5" s="249">
+      <c r="B5" s="271">
         <v>40850</v>
       </c>
-      <c r="C5" s="249"/>
-      <c r="D5" s="249"/>
+      <c r="C5" s="271"/>
+      <c r="D5" s="271"/>
       <c r="E5" s="39"/>
       <c r="F5" s="43"/>
       <c r="G5" s="43"/>
@@ -17767,11 +17767,11 @@
       <c r="C13" s="50"/>
       <c r="D13" s="51"/>
       <c r="E13" s="65"/>
-      <c r="F13" s="280" t="s">
+      <c r="F13" s="296" t="s">
         <v>102</v>
       </c>
-      <c r="G13" s="281"/>
-      <c r="H13" s="282"/>
+      <c r="G13" s="297"/>
+      <c r="H13" s="298"/>
       <c r="I13" s="65"/>
     </row>
     <row r="14" spans="1:9" ht="36.9">
@@ -17805,16 +17805,16 @@
     </row>
     <row r="15" spans="1:9" ht="25.2" customHeight="1">
       <c r="A15" s="77"/>
-      <c r="B15" s="297" t="s">
+      <c r="B15" s="302" t="s">
         <v>634</v>
       </c>
-      <c r="C15" s="298"/>
-      <c r="D15" s="298"/>
-      <c r="E15" s="298"/>
-      <c r="F15" s="298"/>
-      <c r="G15" s="298"/>
-      <c r="H15" s="298"/>
-      <c r="I15" s="299"/>
+      <c r="C15" s="303"/>
+      <c r="D15" s="303"/>
+      <c r="E15" s="303"/>
+      <c r="F15" s="303"/>
+      <c r="G15" s="303"/>
+      <c r="H15" s="303"/>
+      <c r="I15" s="304"/>
     </row>
     <row r="16" spans="1:9" ht="81.3" customHeight="1">
       <c r="A16" s="209">
@@ -17837,7 +17837,7 @@
     </row>
     <row r="17" spans="1:9" ht="116.4" customHeight="1">
       <c r="A17" s="209">
-        <f t="shared" ref="A16:A22" ca="1" si="0">IF(OFFSET(A17,-1,0) ="",OFFSET(A17,-2,0)+1,OFFSET(A17,-1,0)+1 )</f>
+        <f t="shared" ref="A17:A21" ca="1" si="0">IF(OFFSET(A17,-1,0) ="",OFFSET(A17,-2,0)+1,OFFSET(A17,-1,0)+1 )</f>
         <v>2</v>
       </c>
       <c r="B17" s="209" t="s">
@@ -17846,7 +17846,7 @@
       <c r="C17" s="209" t="s">
         <v>805</v>
       </c>
-      <c r="D17" s="334" t="s">
+      <c r="D17" s="222" t="s">
         <v>799</v>
       </c>
       <c r="E17" s="54"/>
@@ -17991,7 +17991,7 @@
       <c r="I26" s="61"/>
     </row>
     <row r="27" spans="1:9" ht="37.5" customHeight="1">
-      <c r="A27" s="323"/>
+      <c r="A27" s="216"/>
       <c r="B27" s="170"/>
       <c r="C27" s="170"/>
       <c r="D27" s="207"/>
@@ -18003,28 +18003,28 @@
     </row>
     <row r="28" spans="1:9">
       <c r="A28" s="170"/>
-      <c r="B28" s="242"/>
-      <c r="C28" s="243"/>
-      <c r="D28" s="243"/>
-      <c r="E28" s="243"/>
-      <c r="F28" s="243"/>
-      <c r="G28" s="243"/>
-      <c r="H28" s="243"/>
-      <c r="I28" s="244"/>
+      <c r="B28" s="266"/>
+      <c r="C28" s="267"/>
+      <c r="D28" s="267"/>
+      <c r="E28" s="267"/>
+      <c r="F28" s="267"/>
+      <c r="G28" s="267"/>
+      <c r="H28" s="267"/>
+      <c r="I28" s="268"/>
     </row>
     <row r="29" spans="1:9">
-      <c r="A29" s="323"/>
+      <c r="A29" s="216"/>
       <c r="B29" s="170"/>
       <c r="C29" s="170"/>
-      <c r="D29" s="324"/>
+      <c r="D29" s="217"/>
       <c r="E29" s="207"/>
       <c r="F29" s="170"/>
       <c r="G29" s="170"/>
       <c r="H29" s="170"/>
-      <c r="I29" s="325"/>
+      <c r="I29" s="218"/>
     </row>
     <row r="30" spans="1:9">
-      <c r="A30" s="323"/>
+      <c r="A30" s="216"/>
       <c r="B30" s="170"/>
       <c r="C30" s="170"/>
       <c r="D30" s="207"/>
@@ -18032,21 +18032,21 @@
       <c r="F30" s="170"/>
       <c r="G30" s="170"/>
       <c r="H30" s="170"/>
-      <c r="I30" s="325"/>
+      <c r="I30" s="218"/>
     </row>
     <row r="31" spans="1:9">
-      <c r="A31" s="323"/>
+      <c r="A31" s="216"/>
       <c r="B31" s="170"/>
       <c r="C31" s="170"/>
-      <c r="D31" s="324"/>
+      <c r="D31" s="217"/>
       <c r="E31" s="207"/>
       <c r="F31" s="170"/>
       <c r="G31" s="170"/>
       <c r="H31" s="170"/>
-      <c r="I31" s="325"/>
+      <c r="I31" s="218"/>
     </row>
     <row r="32" spans="1:9">
-      <c r="A32" s="323"/>
+      <c r="A32" s="216"/>
       <c r="B32" s="170"/>
       <c r="C32" s="170"/>
       <c r="D32" s="207"/>
@@ -18057,7 +18057,7 @@
       <c r="I32" s="177"/>
     </row>
     <row r="33" spans="1:9">
-      <c r="A33" s="323"/>
+      <c r="A33" s="216"/>
       <c r="B33" s="170"/>
       <c r="C33" s="170"/>
       <c r="D33" s="207"/>
@@ -18068,10 +18068,10 @@
       <c r="I33" s="177"/>
     </row>
     <row r="34" spans="1:9">
-      <c r="A34" s="323"/>
+      <c r="A34" s="216"/>
       <c r="B34" s="170"/>
       <c r="C34" s="170"/>
-      <c r="D34" s="324"/>
+      <c r="D34" s="217"/>
       <c r="E34" s="207"/>
       <c r="F34" s="170"/>
       <c r="G34" s="170"/>
@@ -18079,7 +18079,7 @@
       <c r="I34" s="177"/>
     </row>
     <row r="35" spans="1:9">
-      <c r="A35" s="323"/>
+      <c r="A35" s="216"/>
       <c r="B35" s="170"/>
       <c r="C35" s="170"/>
       <c r="D35" s="207"/>
@@ -18090,7 +18090,7 @@
       <c r="I35" s="177"/>
     </row>
     <row r="36" spans="1:9">
-      <c r="A36" s="323"/>
+      <c r="A36" s="216"/>
       <c r="B36" s="170"/>
       <c r="C36" s="170"/>
       <c r="D36" s="207"/>
@@ -18101,7 +18101,7 @@
       <c r="I36" s="177"/>
     </row>
     <row r="37" spans="1:9">
-      <c r="A37" s="323"/>
+      <c r="A37" s="216"/>
       <c r="B37" s="170"/>
       <c r="C37" s="170"/>
       <c r="D37" s="207"/>
@@ -18112,7 +18112,7 @@
       <c r="I37" s="177"/>
     </row>
     <row r="38" spans="1:9">
-      <c r="A38" s="323"/>
+      <c r="A38" s="216"/>
       <c r="B38" s="170"/>
       <c r="C38" s="170"/>
       <c r="D38" s="207"/>
@@ -18123,7 +18123,7 @@
       <c r="I38" s="177"/>
     </row>
     <row r="39" spans="1:9">
-      <c r="A39" s="323"/>
+      <c r="A39" s="216"/>
       <c r="B39" s="170"/>
       <c r="C39" s="170"/>
       <c r="D39" s="207"/>
@@ -18134,7 +18134,7 @@
       <c r="I39" s="177"/>
     </row>
     <row r="40" spans="1:9">
-      <c r="A40" s="323"/>
+      <c r="A40" s="216"/>
       <c r="B40" s="170"/>
       <c r="C40" s="170"/>
       <c r="D40" s="207"/>
@@ -18145,7 +18145,7 @@
       <c r="I40" s="177"/>
     </row>
     <row r="41" spans="1:9">
-      <c r="A41" s="323"/>
+      <c r="A41" s="216"/>
       <c r="B41" s="170"/>
       <c r="C41" s="170"/>
       <c r="D41" s="207"/>
@@ -18156,7 +18156,7 @@
       <c r="I41" s="177"/>
     </row>
     <row r="42" spans="1:9">
-      <c r="A42" s="323"/>
+      <c r="A42" s="216"/>
       <c r="B42" s="170"/>
       <c r="C42" s="170"/>
       <c r="D42" s="207"/>
@@ -18167,7 +18167,7 @@
       <c r="I42" s="177"/>
     </row>
     <row r="43" spans="1:9">
-      <c r="A43" s="323"/>
+      <c r="A43" s="216"/>
       <c r="B43" s="170"/>
       <c r="C43" s="170"/>
       <c r="D43" s="207"/>
@@ -18178,21 +18178,21 @@
       <c r="I43" s="177"/>
     </row>
     <row r="44" spans="1:9">
-      <c r="A44" s="323"/>
-      <c r="B44" s="326"/>
-      <c r="C44" s="327"/>
-      <c r="D44" s="327"/>
-      <c r="E44" s="327"/>
-      <c r="F44" s="327"/>
-      <c r="G44" s="327"/>
-      <c r="H44" s="327"/>
-      <c r="I44" s="328"/>
+      <c r="A44" s="216"/>
+      <c r="B44" s="307"/>
+      <c r="C44" s="308"/>
+      <c r="D44" s="308"/>
+      <c r="E44" s="308"/>
+      <c r="F44" s="308"/>
+      <c r="G44" s="308"/>
+      <c r="H44" s="308"/>
+      <c r="I44" s="309"/>
     </row>
     <row r="45" spans="1:9">
-      <c r="A45" s="323"/>
+      <c r="A45" s="216"/>
       <c r="B45" s="170"/>
       <c r="C45" s="170"/>
-      <c r="D45" s="324"/>
+      <c r="D45" s="217"/>
       <c r="E45" s="207"/>
       <c r="F45" s="170"/>
       <c r="G45" s="170"/>
@@ -18200,7 +18200,7 @@
       <c r="I45" s="63"/>
     </row>
     <row r="46" spans="1:9">
-      <c r="A46" s="323"/>
+      <c r="A46" s="216"/>
       <c r="B46" s="170"/>
       <c r="C46" s="170"/>
       <c r="D46" s="207"/>
@@ -18211,10 +18211,10 @@
       <c r="I46" s="63"/>
     </row>
     <row r="47" spans="1:9">
-      <c r="A47" s="323"/>
+      <c r="A47" s="216"/>
       <c r="B47" s="170"/>
       <c r="C47" s="170"/>
-      <c r="D47" s="324"/>
+      <c r="D47" s="217"/>
       <c r="E47" s="207"/>
       <c r="F47" s="170"/>
       <c r="G47" s="170"/>
@@ -18222,7 +18222,7 @@
       <c r="I47" s="63"/>
     </row>
     <row r="48" spans="1:9">
-      <c r="A48" s="323"/>
+      <c r="A48" s="216"/>
       <c r="B48" s="170"/>
       <c r="C48" s="170"/>
       <c r="D48" s="207"/>
@@ -18233,7 +18233,7 @@
       <c r="I48" s="63"/>
     </row>
     <row r="49" spans="1:9">
-      <c r="A49" s="323"/>
+      <c r="A49" s="216"/>
       <c r="B49" s="170"/>
       <c r="C49" s="170"/>
       <c r="D49" s="207"/>
@@ -18244,10 +18244,10 @@
       <c r="I49" s="63"/>
     </row>
     <row r="50" spans="1:9">
-      <c r="A50" s="323"/>
+      <c r="A50" s="216"/>
       <c r="B50" s="170"/>
       <c r="C50" s="170"/>
-      <c r="D50" s="324"/>
+      <c r="D50" s="217"/>
       <c r="E50" s="207"/>
       <c r="F50" s="170"/>
       <c r="G50" s="170"/>
@@ -18255,7 +18255,7 @@
       <c r="I50" s="63"/>
     </row>
     <row r="51" spans="1:9">
-      <c r="A51" s="323"/>
+      <c r="A51" s="216"/>
       <c r="B51" s="170"/>
       <c r="C51" s="170"/>
       <c r="D51" s="207"/>
@@ -18266,7 +18266,7 @@
       <c r="I51" s="63"/>
     </row>
     <row r="52" spans="1:9">
-      <c r="A52" s="323"/>
+      <c r="A52" s="216"/>
       <c r="B52" s="170"/>
       <c r="C52" s="170"/>
       <c r="D52" s="207"/>
@@ -18277,7 +18277,7 @@
       <c r="I52" s="63"/>
     </row>
     <row r="53" spans="1:9">
-      <c r="A53" s="323"/>
+      <c r="A53" s="216"/>
       <c r="B53" s="170"/>
       <c r="C53" s="170"/>
       <c r="D53" s="207"/>
@@ -18288,7 +18288,7 @@
       <c r="I53" s="63"/>
     </row>
     <row r="54" spans="1:9">
-      <c r="A54" s="323"/>
+      <c r="A54" s="216"/>
       <c r="B54" s="170"/>
       <c r="C54" s="170"/>
       <c r="D54" s="207"/>
@@ -18299,7 +18299,7 @@
       <c r="I54" s="63"/>
     </row>
     <row r="55" spans="1:9">
-      <c r="A55" s="323"/>
+      <c r="A55" s="216"/>
       <c r="B55" s="170"/>
       <c r="C55" s="170"/>
       <c r="D55" s="207"/>
@@ -18310,7 +18310,7 @@
       <c r="I55" s="63"/>
     </row>
     <row r="56" spans="1:9">
-      <c r="A56" s="323"/>
+      <c r="A56" s="216"/>
       <c r="B56" s="170"/>
       <c r="C56" s="170"/>
       <c r="D56" s="207"/>
@@ -18321,7 +18321,7 @@
       <c r="I56" s="63"/>
     </row>
     <row r="57" spans="1:9">
-      <c r="A57" s="323"/>
+      <c r="A57" s="216"/>
       <c r="B57" s="170"/>
       <c r="C57" s="170"/>
       <c r="D57" s="207"/>
@@ -18332,7 +18332,7 @@
       <c r="I57" s="63"/>
     </row>
     <row r="58" spans="1:9">
-      <c r="A58" s="323"/>
+      <c r="A58" s="216"/>
       <c r="B58" s="170"/>
       <c r="C58" s="170"/>
       <c r="D58" s="207"/>
@@ -18343,18 +18343,18 @@
       <c r="I58" s="63"/>
     </row>
     <row r="59" spans="1:9">
-      <c r="A59" s="323"/>
-      <c r="B59" s="326"/>
-      <c r="C59" s="327"/>
-      <c r="D59" s="327"/>
-      <c r="E59" s="327"/>
-      <c r="F59" s="327"/>
-      <c r="G59" s="327"/>
-      <c r="H59" s="327"/>
-      <c r="I59" s="328"/>
+      <c r="A59" s="216"/>
+      <c r="B59" s="307"/>
+      <c r="C59" s="308"/>
+      <c r="D59" s="308"/>
+      <c r="E59" s="308"/>
+      <c r="F59" s="308"/>
+      <c r="G59" s="308"/>
+      <c r="H59" s="308"/>
+      <c r="I59" s="309"/>
     </row>
     <row r="60" spans="1:9">
-      <c r="A60" s="323"/>
+      <c r="A60" s="216"/>
       <c r="B60" s="170"/>
       <c r="C60" s="170"/>
       <c r="D60" s="207"/>
@@ -18365,7 +18365,7 @@
       <c r="I60" s="63"/>
     </row>
     <row r="61" spans="1:9">
-      <c r="A61" s="323"/>
+      <c r="A61" s="216"/>
       <c r="B61" s="170"/>
       <c r="C61" s="170"/>
       <c r="D61" s="207"/>
@@ -18376,7 +18376,7 @@
       <c r="I61" s="63"/>
     </row>
     <row r="62" spans="1:9">
-      <c r="A62" s="323"/>
+      <c r="A62" s="216"/>
       <c r="B62" s="170"/>
       <c r="C62" s="170"/>
       <c r="D62" s="207"/>
@@ -18387,7 +18387,7 @@
       <c r="I62" s="63"/>
     </row>
     <row r="63" spans="1:9">
-      <c r="A63" s="323"/>
+      <c r="A63" s="216"/>
       <c r="B63" s="170"/>
       <c r="C63" s="170"/>
       <c r="D63" s="207"/>
@@ -18398,7 +18398,7 @@
       <c r="I63" s="63"/>
     </row>
     <row r="64" spans="1:9">
-      <c r="A64" s="323"/>
+      <c r="A64" s="216"/>
       <c r="B64" s="170"/>
       <c r="C64" s="170"/>
       <c r="D64" s="207"/>
@@ -18409,7 +18409,7 @@
       <c r="I64" s="63"/>
     </row>
     <row r="65" spans="1:9">
-      <c r="A65" s="323"/>
+      <c r="A65" s="216"/>
       <c r="B65" s="170"/>
       <c r="C65" s="170"/>
       <c r="D65" s="207"/>
@@ -18420,18 +18420,18 @@
       <c r="I65" s="63"/>
     </row>
     <row r="66" spans="1:9">
-      <c r="A66" s="323"/>
-      <c r="B66" s="326"/>
-      <c r="C66" s="327"/>
-      <c r="D66" s="327"/>
-      <c r="E66" s="327"/>
-      <c r="F66" s="327"/>
-      <c r="G66" s="327"/>
-      <c r="H66" s="327"/>
-      <c r="I66" s="328"/>
+      <c r="A66" s="216"/>
+      <c r="B66" s="307"/>
+      <c r="C66" s="308"/>
+      <c r="D66" s="308"/>
+      <c r="E66" s="308"/>
+      <c r="F66" s="308"/>
+      <c r="G66" s="308"/>
+      <c r="H66" s="308"/>
+      <c r="I66" s="309"/>
     </row>
     <row r="67" spans="1:9">
-      <c r="A67" s="323"/>
+      <c r="A67" s="216"/>
       <c r="B67" s="170"/>
       <c r="C67" s="170"/>
       <c r="D67" s="207"/>
@@ -18442,7 +18442,7 @@
       <c r="I67" s="63"/>
     </row>
     <row r="68" spans="1:9">
-      <c r="A68" s="323"/>
+      <c r="A68" s="216"/>
       <c r="B68" s="170"/>
       <c r="C68" s="170"/>
       <c r="D68" s="207"/>
@@ -18453,7 +18453,7 @@
       <c r="I68" s="63"/>
     </row>
     <row r="69" spans="1:9">
-      <c r="A69" s="323"/>
+      <c r="A69" s="216"/>
       <c r="B69" s="170"/>
       <c r="C69" s="170"/>
       <c r="D69" s="207"/>
@@ -18464,7 +18464,7 @@
       <c r="I69" s="63"/>
     </row>
     <row r="70" spans="1:9">
-      <c r="A70" s="323"/>
+      <c r="A70" s="216"/>
       <c r="B70" s="170"/>
       <c r="C70" s="170"/>
       <c r="D70" s="207"/>
@@ -18475,7 +18475,7 @@
       <c r="I70" s="63"/>
     </row>
     <row r="71" spans="1:9">
-      <c r="A71" s="323"/>
+      <c r="A71" s="216"/>
       <c r="B71" s="170"/>
       <c r="C71" s="170"/>
       <c r="D71" s="207"/>
@@ -18486,7 +18486,7 @@
       <c r="I71" s="63"/>
     </row>
     <row r="72" spans="1:9">
-      <c r="A72" s="323"/>
+      <c r="A72" s="216"/>
       <c r="B72" s="170"/>
       <c r="C72" s="170"/>
       <c r="D72" s="207"/>
@@ -18497,29 +18497,29 @@
       <c r="I72" s="63"/>
     </row>
     <row r="73" spans="1:9">
-      <c r="A73" s="323"/>
-      <c r="B73" s="329"/>
+      <c r="A73" s="216"/>
+      <c r="B73" s="219"/>
       <c r="C73" s="170"/>
       <c r="D73" s="214"/>
       <c r="E73" s="214"/>
-      <c r="F73" s="330"/>
-      <c r="G73" s="330"/>
-      <c r="H73" s="330"/>
-      <c r="I73" s="331"/>
+      <c r="F73" s="220"/>
+      <c r="G73" s="220"/>
+      <c r="H73" s="220"/>
+      <c r="I73" s="221"/>
     </row>
     <row r="74" spans="1:9">
-      <c r="A74" s="323"/>
-      <c r="B74" s="326"/>
-      <c r="C74" s="327"/>
-      <c r="D74" s="327"/>
-      <c r="E74" s="327"/>
-      <c r="F74" s="327"/>
-      <c r="G74" s="327"/>
-      <c r="H74" s="327"/>
-      <c r="I74" s="328"/>
+      <c r="A74" s="216"/>
+      <c r="B74" s="307"/>
+      <c r="C74" s="308"/>
+      <c r="D74" s="308"/>
+      <c r="E74" s="308"/>
+      <c r="F74" s="308"/>
+      <c r="G74" s="308"/>
+      <c r="H74" s="308"/>
+      <c r="I74" s="309"/>
     </row>
     <row r="75" spans="1:9">
-      <c r="A75" s="323"/>
+      <c r="A75" s="216"/>
       <c r="B75" s="170"/>
       <c r="C75" s="170"/>
       <c r="D75" s="207"/>
@@ -18530,7 +18530,7 @@
       <c r="I75" s="63"/>
     </row>
     <row r="76" spans="1:9">
-      <c r="A76" s="323"/>
+      <c r="A76" s="216"/>
       <c r="B76" s="170"/>
       <c r="C76" s="170"/>
       <c r="D76" s="207"/>
@@ -18541,7 +18541,7 @@
       <c r="I76" s="63"/>
     </row>
     <row r="77" spans="1:9">
-      <c r="A77" s="323"/>
+      <c r="A77" s="216"/>
       <c r="B77" s="170"/>
       <c r="C77" s="170"/>
       <c r="D77" s="207"/>
@@ -18552,7 +18552,7 @@
       <c r="I77" s="63"/>
     </row>
     <row r="78" spans="1:9">
-      <c r="A78" s="323"/>
+      <c r="A78" s="216"/>
       <c r="B78" s="170"/>
       <c r="C78" s="170"/>
       <c r="D78" s="207"/>
@@ -18563,7 +18563,7 @@
       <c r="I78" s="63"/>
     </row>
     <row r="79" spans="1:9">
-      <c r="A79" s="323"/>
+      <c r="A79" s="216"/>
       <c r="B79" s="170"/>
       <c r="C79" s="170"/>
       <c r="D79" s="207"/>
@@ -18574,7 +18574,7 @@
       <c r="I79" s="63"/>
     </row>
     <row r="80" spans="1:9">
-      <c r="A80" s="323"/>
+      <c r="A80" s="216"/>
       <c r="B80" s="170"/>
       <c r="C80" s="170"/>
       <c r="D80" s="207"/>
@@ -18585,30 +18585,30 @@
       <c r="I80" s="63"/>
     </row>
     <row r="81" spans="1:9">
-      <c r="A81" s="323"/>
-      <c r="B81" s="329"/>
+      <c r="A81" s="216"/>
+      <c r="B81" s="219"/>
       <c r="C81" s="170"/>
       <c r="D81" s="214"/>
       <c r="E81" s="214"/>
-      <c r="F81" s="330"/>
-      <c r="G81" s="330"/>
-      <c r="H81" s="330"/>
-      <c r="I81" s="331"/>
+      <c r="F81" s="220"/>
+      <c r="G81" s="220"/>
+      <c r="H81" s="220"/>
+      <c r="I81" s="221"/>
     </row>
     <row r="82" spans="1:9">
-      <c r="A82" s="323"/>
-      <c r="B82" s="326"/>
-      <c r="C82" s="327"/>
-      <c r="D82" s="327"/>
-      <c r="E82" s="327"/>
-      <c r="F82" s="327"/>
-      <c r="G82" s="327"/>
-      <c r="H82" s="327"/>
-      <c r="I82" s="328"/>
+      <c r="A82" s="216"/>
+      <c r="B82" s="307"/>
+      <c r="C82" s="308"/>
+      <c r="D82" s="308"/>
+      <c r="E82" s="308"/>
+      <c r="F82" s="308"/>
+      <c r="G82" s="308"/>
+      <c r="H82" s="308"/>
+      <c r="I82" s="309"/>
     </row>
     <row r="83" spans="1:9" ht="58.2" customHeight="1">
-      <c r="A83" s="323"/>
-      <c r="B83" s="329"/>
+      <c r="A83" s="216"/>
+      <c r="B83" s="219"/>
       <c r="C83" s="170"/>
       <c r="D83" s="212"/>
       <c r="E83" s="207"/>
@@ -18618,8 +18618,8 @@
       <c r="I83" s="63"/>
     </row>
     <row r="84" spans="1:9" ht="86.1" customHeight="1">
-      <c r="A84" s="323"/>
-      <c r="B84" s="329"/>
+      <c r="A84" s="216"/>
+      <c r="B84" s="219"/>
       <c r="C84" s="170"/>
       <c r="D84" s="212"/>
       <c r="E84" s="207"/>
@@ -18629,8 +18629,8 @@
       <c r="I84" s="63"/>
     </row>
     <row r="85" spans="1:9" ht="61.5" customHeight="1">
-      <c r="A85" s="323"/>
-      <c r="B85" s="329"/>
+      <c r="A85" s="216"/>
+      <c r="B85" s="219"/>
       <c r="C85" s="170"/>
       <c r="D85" s="212"/>
       <c r="E85" s="207"/>
@@ -18640,8 +18640,8 @@
       <c r="I85" s="63"/>
     </row>
     <row r="86" spans="1:9" ht="59.7" customHeight="1">
-      <c r="A86" s="323"/>
-      <c r="B86" s="329"/>
+      <c r="A86" s="216"/>
+      <c r="B86" s="219"/>
       <c r="C86" s="170"/>
       <c r="D86" s="212"/>
       <c r="E86" s="207"/>
@@ -18651,19 +18651,19 @@
       <c r="I86" s="63"/>
     </row>
     <row r="87" spans="1:9">
-      <c r="A87" s="323"/>
-      <c r="B87" s="326"/>
-      <c r="C87" s="332"/>
-      <c r="D87" s="332"/>
-      <c r="E87" s="332"/>
-      <c r="F87" s="332"/>
-      <c r="G87" s="332"/>
-      <c r="H87" s="332"/>
-      <c r="I87" s="333"/>
+      <c r="A87" s="216"/>
+      <c r="B87" s="307"/>
+      <c r="C87" s="310"/>
+      <c r="D87" s="310"/>
+      <c r="E87" s="310"/>
+      <c r="F87" s="310"/>
+      <c r="G87" s="310"/>
+      <c r="H87" s="310"/>
+      <c r="I87" s="311"/>
     </row>
     <row r="88" spans="1:9">
-      <c r="A88" s="323"/>
-      <c r="B88" s="329"/>
+      <c r="A88" s="216"/>
+      <c r="B88" s="219"/>
       <c r="C88" s="170"/>
       <c r="D88" s="212"/>
       <c r="E88" s="207"/>
@@ -18674,9 +18674,9 @@
     </row>
     <row r="89" spans="1:9">
       <c r="A89" s="171"/>
-      <c r="B89" s="242"/>
-      <c r="C89" s="243"/>
-      <c r="D89" s="244"/>
+      <c r="B89" s="266"/>
+      <c r="C89" s="267"/>
+      <c r="D89" s="268"/>
       <c r="E89" s="172"/>
       <c r="F89" s="173"/>
       <c r="G89" s="173"/>
@@ -18684,7 +18684,7 @@
       <c r="I89" s="172"/>
     </row>
     <row r="90" spans="1:9">
-      <c r="A90" s="323"/>
+      <c r="A90" s="216"/>
       <c r="B90" s="170"/>
       <c r="C90" s="170"/>
       <c r="D90" s="59"/>
@@ -18695,7 +18695,7 @@
       <c r="I90" s="63"/>
     </row>
     <row r="91" spans="1:9" ht="40.200000000000003" customHeight="1">
-      <c r="A91" s="323"/>
+      <c r="A91" s="216"/>
       <c r="B91" s="170"/>
       <c r="C91" s="170"/>
       <c r="D91" s="59"/>
@@ -18706,7 +18706,7 @@
       <c r="I91" s="63"/>
     </row>
     <row r="92" spans="1:9">
-      <c r="A92" s="323"/>
+      <c r="A92" s="216"/>
       <c r="B92" s="170"/>
       <c r="C92" s="170"/>
       <c r="D92" s="59"/>
@@ -18717,7 +18717,7 @@
       <c r="I92" s="63"/>
     </row>
     <row r="93" spans="1:9">
-      <c r="A93" s="323"/>
+      <c r="A93" s="216"/>
       <c r="B93" s="170"/>
       <c r="C93" s="170"/>
       <c r="D93" s="59"/>
@@ -18728,7 +18728,7 @@
       <c r="I93" s="63"/>
     </row>
     <row r="94" spans="1:9">
-      <c r="A94" s="323"/>
+      <c r="A94" s="216"/>
       <c r="B94" s="170"/>
       <c r="C94" s="170"/>
       <c r="D94" s="207"/>
@@ -18739,7 +18739,7 @@
       <c r="I94" s="63"/>
     </row>
     <row r="95" spans="1:9">
-      <c r="A95" s="323"/>
+      <c r="A95" s="216"/>
       <c r="B95" s="170"/>
       <c r="C95" s="170"/>
       <c r="D95" s="207"/>
@@ -18927,9 +18927,9 @@
     </row>
     <row r="112" spans="1:9">
       <c r="A112" s="77"/>
-      <c r="B112" s="250"/>
-      <c r="C112" s="251"/>
-      <c r="D112" s="252"/>
+      <c r="B112" s="272"/>
+      <c r="C112" s="273"/>
+      <c r="D112" s="274"/>
       <c r="E112" s="69"/>
       <c r="F112" s="66"/>
       <c r="G112" s="66"/>
@@ -18960,6 +18960,11 @@
     </row>
   </sheetData>
   <mergeCells count="16">
+    <mergeCell ref="B74:I74"/>
+    <mergeCell ref="B82:I82"/>
+    <mergeCell ref="B87:I87"/>
+    <mergeCell ref="B89:D89"/>
+    <mergeCell ref="B112:D112"/>
     <mergeCell ref="B66:I66"/>
     <mergeCell ref="B1:D1"/>
     <mergeCell ref="B2:D2"/>
@@ -18971,11 +18976,6 @@
     <mergeCell ref="B28:I28"/>
     <mergeCell ref="B44:I44"/>
     <mergeCell ref="B59:I59"/>
-    <mergeCell ref="B74:I74"/>
-    <mergeCell ref="B82:I82"/>
-    <mergeCell ref="B87:I87"/>
-    <mergeCell ref="B89:D89"/>
-    <mergeCell ref="B112:D112"/>
   </mergeCells>
   <dataValidations count="2">
     <dataValidation type="list" allowBlank="1" sqref="F16:H27 F29:H43 F45:H58 F60:H65 F75:H81 F83:H86 F67:H73 F88:H114">
@@ -18990,21 +18990,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101008DD9373D9A24F64F89F14F461305A106" ma:contentTypeVersion="4" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="edefd2bea9a69e65a3918d4b9d850884">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="cabca498-5e2a-459c-ade0-601c6a98c846" xmlns:ns3="044e8ed5-b60c-40cd-b477-04c240ccf9c3" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="1cdcf90a8e7cb27405451b504492cec2" ns2:_="" ns3:_="">
     <xsd:import namespace="cabca498-5e2a-459c-ade0-601c6a98c846"/>
@@ -19169,10 +19154,36 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4F8C6C6D-E626-49D4-9BA8-E27B2B9C9191}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A7729ACD-7A20-4344-BFA5-B224A8419F45}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="cabca498-5e2a-459c-ade0-601c6a98c846"/>
+    <ds:schemaRef ds:uri="044e8ed5-b60c-40cd-b477-04c240ccf9c3"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -19195,20 +19206,9 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A7729ACD-7A20-4344-BFA5-B224A8419F45}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4F8C6C6D-E626-49D4-9BA8-E27B2B9C9191}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="cabca498-5e2a-459c-ade0-601c6a98c846"/>
-    <ds:schemaRef ds:uri="044e8ed5-b60c-40cd-b477-04c240ccf9c3"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>